--- a/My Test Tracker Original GATE 2023.xlsx
+++ b/My Test Tracker Original GATE 2023.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GATE 2022 &amp; 2023\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GATE 2022 &amp; 2023\My Progress trackers &amp; Journey - In Git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E528373-EBC8-42DF-A267-5C3BA6626991}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9711C3B4-3A52-48AB-8F42-875C56A0CF3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{158952DD-A7DC-477E-91D8-188954568D39}"/>
   </bookViews>
@@ -907,20 +907,41 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -941,13 +962,14 @@
     <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -959,16 +981,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -980,7 +999,9 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -990,37 +1011,16 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2050,8 +2050,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E053581-A6B0-45B0-A9DB-B07F5A1622B0}">
   <dimension ref="A1:W336"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A174" workbookViewId="0">
-      <selection activeCell="B186" sqref="B186"/>
+    <sheetView tabSelected="1" topLeftCell="A222" workbookViewId="0">
+      <selection activeCell="G232" sqref="G232"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2077,52 +2077,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="34.200000000000003" thickBot="1" x14ac:dyDescent="0.7">
-      <c r="A1" s="55">
+      <c r="A1" s="92">
         <v>2021</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55"/>
-      <c r="K1" s="55"/>
-      <c r="L1" s="55"/>
-      <c r="M1" s="55"/>
-      <c r="N1" s="55"/>
-      <c r="O1" s="55"/>
-      <c r="P1" s="55"/>
-      <c r="Q1" s="55"/>
-      <c r="R1" s="55"/>
-      <c r="S1" s="55"/>
-      <c r="T1" s="55"/>
-      <c r="U1" s="55"/>
-      <c r="V1" s="55"/>
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="92"/>
+      <c r="I1" s="92"/>
+      <c r="J1" s="92"/>
+      <c r="K1" s="92"/>
+      <c r="L1" s="92"/>
+      <c r="M1" s="92"/>
+      <c r="N1" s="92"/>
+      <c r="O1" s="92"/>
+      <c r="P1" s="92"/>
+      <c r="Q1" s="92"/>
+      <c r="R1" s="92"/>
+      <c r="S1" s="92"/>
+      <c r="T1" s="92"/>
+      <c r="U1" s="92"/>
+      <c r="V1" s="92"/>
     </row>
     <row r="2" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="79" t="s">
+      <c r="A2" s="86" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="80"/>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="80"/>
-      <c r="F2" s="80"/>
-      <c r="G2" s="80"/>
-      <c r="H2" s="80"/>
-      <c r="I2" s="80"/>
-      <c r="J2" s="80"/>
-      <c r="K2" s="80"/>
-      <c r="L2" s="80"/>
-      <c r="M2" s="80"/>
-      <c r="N2" s="80"/>
-      <c r="O2" s="80"/>
-      <c r="P2" s="80"/>
-      <c r="Q2" s="80"/>
-      <c r="R2" s="81"/>
+      <c r="B2" s="87"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="87"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="87"/>
+      <c r="J2" s="87"/>
+      <c r="K2" s="87"/>
+      <c r="L2" s="87"/>
+      <c r="M2" s="87"/>
+      <c r="N2" s="87"/>
+      <c r="O2" s="87"/>
+      <c r="P2" s="87"/>
+      <c r="Q2" s="87"/>
+      <c r="R2" s="88"/>
       <c r="S2" s="3"/>
       <c r="T2" s="3"/>
       <c r="U2" s="3"/>
@@ -2221,17 +2221,17 @@
       <c r="B6" s="41">
         <v>44617</v>
       </c>
-      <c r="C6" s="65" t="s">
+      <c r="C6" s="64" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="66"/>
-      <c r="E6" s="66"/>
-      <c r="F6" s="66"/>
-      <c r="G6" s="66"/>
-      <c r="H6" s="66"/>
-      <c r="I6" s="66"/>
-      <c r="J6" s="66"/>
-      <c r="K6" s="66"/>
+      <c r="D6" s="65"/>
+      <c r="E6" s="65"/>
+      <c r="F6" s="65"/>
+      <c r="G6" s="65"/>
+      <c r="H6" s="65"/>
+      <c r="I6" s="65"/>
+      <c r="J6" s="65"/>
+      <c r="K6" s="65"/>
       <c r="L6" s="6">
         <v>17</v>
       </c>
@@ -2259,17 +2259,17 @@
       <c r="B7" s="41">
         <v>44621</v>
       </c>
-      <c r="C7" s="65" t="s">
+      <c r="C7" s="64" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="66"/>
-      <c r="E7" s="66"/>
-      <c r="F7" s="66"/>
-      <c r="G7" s="66"/>
-      <c r="H7" s="66"/>
-      <c r="I7" s="66"/>
-      <c r="J7" s="66"/>
-      <c r="K7" s="66"/>
+      <c r="D7" s="65"/>
+      <c r="E7" s="65"/>
+      <c r="F7" s="65"/>
+      <c r="G7" s="65"/>
+      <c r="H7" s="65"/>
+      <c r="I7" s="65"/>
+      <c r="J7" s="65"/>
+      <c r="K7" s="65"/>
       <c r="L7" s="6">
         <v>17</v>
       </c>
@@ -2297,17 +2297,17 @@
       <c r="B8" s="41">
         <v>44625</v>
       </c>
-      <c r="C8" s="66" t="s">
+      <c r="C8" s="65" t="s">
         <v>35</v>
       </c>
-      <c r="D8" s="66"/>
-      <c r="E8" s="66"/>
-      <c r="F8" s="66"/>
-      <c r="G8" s="66"/>
-      <c r="H8" s="66"/>
-      <c r="I8" s="66"/>
-      <c r="J8" s="66"/>
-      <c r="K8" s="66"/>
+      <c r="D8" s="65"/>
+      <c r="E8" s="65"/>
+      <c r="F8" s="65"/>
+      <c r="G8" s="65"/>
+      <c r="H8" s="65"/>
+      <c r="I8" s="65"/>
+      <c r="J8" s="65"/>
+      <c r="K8" s="65"/>
       <c r="L8" s="6">
         <v>17</v>
       </c>
@@ -2335,17 +2335,17 @@
       <c r="B9" s="41">
         <v>44629</v>
       </c>
-      <c r="C9" s="65" t="s">
+      <c r="C9" s="64" t="s">
         <v>36</v>
       </c>
-      <c r="D9" s="66"/>
-      <c r="E9" s="66"/>
-      <c r="F9" s="66"/>
-      <c r="G9" s="66"/>
-      <c r="H9" s="66"/>
-      <c r="I9" s="66"/>
-      <c r="J9" s="66"/>
-      <c r="K9" s="66"/>
+      <c r="D9" s="65"/>
+      <c r="E9" s="65"/>
+      <c r="F9" s="65"/>
+      <c r="G9" s="65"/>
+      <c r="H9" s="65"/>
+      <c r="I9" s="65"/>
+      <c r="J9" s="65"/>
+      <c r="K9" s="65"/>
       <c r="L9" s="6">
         <v>17</v>
       </c>
@@ -2373,17 +2373,17 @@
       <c r="B10" s="41">
         <v>44633</v>
       </c>
-      <c r="C10" s="65" t="s">
+      <c r="C10" s="64" t="s">
         <v>37</v>
       </c>
-      <c r="D10" s="66"/>
-      <c r="E10" s="66"/>
-      <c r="F10" s="66"/>
-      <c r="G10" s="66"/>
-      <c r="H10" s="66"/>
-      <c r="I10" s="66"/>
-      <c r="J10" s="66"/>
-      <c r="K10" s="66"/>
+      <c r="D10" s="65"/>
+      <c r="E10" s="65"/>
+      <c r="F10" s="65"/>
+      <c r="G10" s="65"/>
+      <c r="H10" s="65"/>
+      <c r="I10" s="65"/>
+      <c r="J10" s="65"/>
+      <c r="K10" s="65"/>
       <c r="L10" s="6">
         <v>17</v>
       </c>
@@ -2411,17 +2411,17 @@
       <c r="B11" s="41">
         <v>44637</v>
       </c>
-      <c r="C11" s="66" t="s">
+      <c r="C11" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="66"/>
-      <c r="E11" s="66"/>
-      <c r="F11" s="66"/>
-      <c r="G11" s="66"/>
-      <c r="H11" s="66"/>
-      <c r="I11" s="66"/>
-      <c r="J11" s="66"/>
-      <c r="K11" s="66"/>
+      <c r="D11" s="65"/>
+      <c r="E11" s="65"/>
+      <c r="F11" s="65"/>
+      <c r="G11" s="65"/>
+      <c r="H11" s="65"/>
+      <c r="I11" s="65"/>
+      <c r="J11" s="65"/>
+      <c r="K11" s="65"/>
       <c r="L11" s="6">
         <v>17</v>
       </c>
@@ -2449,17 +2449,17 @@
       <c r="B12" s="41">
         <v>44641</v>
       </c>
-      <c r="C12" s="65" t="s">
+      <c r="C12" s="64" t="s">
         <v>38</v>
       </c>
-      <c r="D12" s="66"/>
-      <c r="E12" s="66"/>
-      <c r="F12" s="66"/>
-      <c r="G12" s="66"/>
-      <c r="H12" s="66"/>
-      <c r="I12" s="66"/>
-      <c r="J12" s="66"/>
-      <c r="K12" s="66"/>
+      <c r="D12" s="65"/>
+      <c r="E12" s="65"/>
+      <c r="F12" s="65"/>
+      <c r="G12" s="65"/>
+      <c r="H12" s="65"/>
+      <c r="I12" s="65"/>
+      <c r="J12" s="65"/>
+      <c r="K12" s="65"/>
       <c r="L12" s="6">
         <v>17</v>
       </c>
@@ -2485,17 +2485,17 @@
         <v>9</v>
       </c>
       <c r="B13" s="1"/>
-      <c r="C13" s="65" t="s">
+      <c r="C13" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="D13" s="66"/>
-      <c r="E13" s="66"/>
-      <c r="F13" s="66"/>
-      <c r="G13" s="66"/>
-      <c r="H13" s="66"/>
-      <c r="I13" s="66"/>
-      <c r="J13" s="66"/>
-      <c r="K13" s="66"/>
+      <c r="D13" s="65"/>
+      <c r="E13" s="65"/>
+      <c r="F13" s="65"/>
+      <c r="G13" s="65"/>
+      <c r="H13" s="65"/>
+      <c r="I13" s="65"/>
+      <c r="J13" s="65"/>
+      <c r="K13" s="65"/>
       <c r="L13" s="6">
         <v>17</v>
       </c>
@@ -2521,17 +2521,17 @@
         <v>10</v>
       </c>
       <c r="B14" s="1"/>
-      <c r="C14" s="65" t="s">
+      <c r="C14" s="64" t="s">
         <v>40</v>
       </c>
-      <c r="D14" s="66"/>
-      <c r="E14" s="66"/>
-      <c r="F14" s="66"/>
-      <c r="G14" s="66"/>
-      <c r="H14" s="66"/>
-      <c r="I14" s="66"/>
-      <c r="J14" s="66"/>
-      <c r="K14" s="66"/>
+      <c r="D14" s="65"/>
+      <c r="E14" s="65"/>
+      <c r="F14" s="65"/>
+      <c r="G14" s="65"/>
+      <c r="H14" s="65"/>
+      <c r="I14" s="65"/>
+      <c r="J14" s="65"/>
+      <c r="K14" s="65"/>
       <c r="L14" s="6">
         <v>17</v>
       </c>
@@ -2557,17 +2557,17 @@
         <v>11</v>
       </c>
       <c r="B15" s="1"/>
-      <c r="C15" s="65" t="s">
+      <c r="C15" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="D15" s="66"/>
-      <c r="E15" s="66"/>
-      <c r="F15" s="66"/>
-      <c r="G15" s="66"/>
-      <c r="H15" s="66"/>
-      <c r="I15" s="66"/>
-      <c r="J15" s="66"/>
-      <c r="K15" s="66"/>
+      <c r="D15" s="65"/>
+      <c r="E15" s="65"/>
+      <c r="F15" s="65"/>
+      <c r="G15" s="65"/>
+      <c r="H15" s="65"/>
+      <c r="I15" s="65"/>
+      <c r="J15" s="65"/>
+      <c r="K15" s="65"/>
       <c r="L15" s="6">
         <v>17</v>
       </c>
@@ -2593,17 +2593,17 @@
         <v>12</v>
       </c>
       <c r="B16" s="1"/>
-      <c r="C16" s="65" t="s">
+      <c r="C16" s="64" t="s">
         <v>42</v>
       </c>
-      <c r="D16" s="66"/>
-      <c r="E16" s="66"/>
-      <c r="F16" s="66"/>
-      <c r="G16" s="66"/>
-      <c r="H16" s="66"/>
-      <c r="I16" s="66"/>
-      <c r="J16" s="66"/>
-      <c r="K16" s="66"/>
+      <c r="D16" s="65"/>
+      <c r="E16" s="65"/>
+      <c r="F16" s="65"/>
+      <c r="G16" s="65"/>
+      <c r="H16" s="65"/>
+      <c r="I16" s="65"/>
+      <c r="J16" s="65"/>
+      <c r="K16" s="65"/>
       <c r="L16" s="6">
         <v>17</v>
       </c>
@@ -2631,17 +2631,17 @@
       <c r="B17" s="41">
         <v>44645</v>
       </c>
-      <c r="C17" s="66" t="s">
+      <c r="C17" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="D17" s="66"/>
-      <c r="E17" s="66"/>
-      <c r="F17" s="66"/>
-      <c r="G17" s="66"/>
-      <c r="H17" s="66"/>
-      <c r="I17" s="66"/>
-      <c r="J17" s="66"/>
-      <c r="K17" s="66"/>
+      <c r="D17" s="65"/>
+      <c r="E17" s="65"/>
+      <c r="F17" s="65"/>
+      <c r="G17" s="65"/>
+      <c r="H17" s="65"/>
+      <c r="I17" s="65"/>
+      <c r="J17" s="65"/>
+      <c r="K17" s="65"/>
       <c r="L17" s="6">
         <v>17</v>
       </c>
@@ -2669,17 +2669,17 @@
       <c r="B18" s="41">
         <v>44649</v>
       </c>
-      <c r="C18" s="65" t="s">
+      <c r="C18" s="64" t="s">
         <v>43</v>
       </c>
-      <c r="D18" s="66"/>
-      <c r="E18" s="66"/>
-      <c r="F18" s="66"/>
-      <c r="G18" s="66"/>
-      <c r="H18" s="66"/>
-      <c r="I18" s="66"/>
-      <c r="J18" s="66"/>
-      <c r="K18" s="66"/>
+      <c r="D18" s="65"/>
+      <c r="E18" s="65"/>
+      <c r="F18" s="65"/>
+      <c r="G18" s="65"/>
+      <c r="H18" s="65"/>
+      <c r="I18" s="65"/>
+      <c r="J18" s="65"/>
+      <c r="K18" s="65"/>
       <c r="L18" s="6">
         <v>17</v>
       </c>
@@ -2707,17 +2707,17 @@
       <c r="B19" s="41">
         <v>44653</v>
       </c>
-      <c r="C19" s="66" t="s">
+      <c r="C19" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="D19" s="66"/>
-      <c r="E19" s="66"/>
-      <c r="F19" s="66"/>
-      <c r="G19" s="66"/>
-      <c r="H19" s="66"/>
-      <c r="I19" s="66"/>
-      <c r="J19" s="66"/>
-      <c r="K19" s="66"/>
+      <c r="D19" s="65"/>
+      <c r="E19" s="65"/>
+      <c r="F19" s="65"/>
+      <c r="G19" s="65"/>
+      <c r="H19" s="65"/>
+      <c r="I19" s="65"/>
+      <c r="J19" s="65"/>
+      <c r="K19" s="65"/>
       <c r="L19" s="6">
         <v>17</v>
       </c>
@@ -2755,17 +2755,17 @@
       <c r="B20" s="41">
         <v>44657</v>
       </c>
-      <c r="C20" s="66" t="s">
+      <c r="C20" s="65" t="s">
         <v>44</v>
       </c>
-      <c r="D20" s="66"/>
-      <c r="E20" s="66"/>
-      <c r="F20" s="66"/>
-      <c r="G20" s="66"/>
-      <c r="H20" s="66"/>
-      <c r="I20" s="66"/>
-      <c r="J20" s="66"/>
-      <c r="K20" s="66"/>
+      <c r="D20" s="65"/>
+      <c r="E20" s="65"/>
+      <c r="F20" s="65"/>
+      <c r="G20" s="65"/>
+      <c r="H20" s="65"/>
+      <c r="I20" s="65"/>
+      <c r="J20" s="65"/>
+      <c r="K20" s="65"/>
       <c r="L20" s="6">
         <v>17</v>
       </c>
@@ -2793,17 +2793,17 @@
       <c r="B21" s="41">
         <v>44661</v>
       </c>
-      <c r="C21" s="65" t="s">
+      <c r="C21" s="64" t="s">
         <v>45</v>
       </c>
-      <c r="D21" s="66"/>
-      <c r="E21" s="66"/>
-      <c r="F21" s="66"/>
-      <c r="G21" s="66"/>
-      <c r="H21" s="66"/>
-      <c r="I21" s="66"/>
-      <c r="J21" s="66"/>
-      <c r="K21" s="66"/>
+      <c r="D21" s="65"/>
+      <c r="E21" s="65"/>
+      <c r="F21" s="65"/>
+      <c r="G21" s="65"/>
+      <c r="H21" s="65"/>
+      <c r="I21" s="65"/>
+      <c r="J21" s="65"/>
+      <c r="K21" s="65"/>
       <c r="L21" s="6">
         <v>17</v>
       </c>
@@ -2831,17 +2831,17 @@
       <c r="B22" s="41">
         <v>44665</v>
       </c>
-      <c r="C22" s="65" t="s">
+      <c r="C22" s="64" t="s">
         <v>46</v>
       </c>
-      <c r="D22" s="66"/>
-      <c r="E22" s="66"/>
-      <c r="F22" s="66"/>
-      <c r="G22" s="66"/>
-      <c r="H22" s="66"/>
-      <c r="I22" s="66"/>
-      <c r="J22" s="66"/>
-      <c r="K22" s="66"/>
+      <c r="D22" s="65"/>
+      <c r="E22" s="65"/>
+      <c r="F22" s="65"/>
+      <c r="G22" s="65"/>
+      <c r="H22" s="65"/>
+      <c r="I22" s="65"/>
+      <c r="J22" s="65"/>
+      <c r="K22" s="65"/>
       <c r="L22" s="6">
         <v>17</v>
       </c>
@@ -2869,17 +2869,17 @@
       <c r="B23" s="41">
         <v>44669</v>
       </c>
-      <c r="C23" s="66" t="s">
+      <c r="C23" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="D23" s="66"/>
-      <c r="E23" s="66"/>
-      <c r="F23" s="66"/>
-      <c r="G23" s="66"/>
-      <c r="H23" s="66"/>
-      <c r="I23" s="66"/>
-      <c r="J23" s="66"/>
-      <c r="K23" s="66"/>
+      <c r="D23" s="65"/>
+      <c r="E23" s="65"/>
+      <c r="F23" s="65"/>
+      <c r="G23" s="65"/>
+      <c r="H23" s="65"/>
+      <c r="I23" s="65"/>
+      <c r="J23" s="65"/>
+      <c r="K23" s="65"/>
       <c r="L23" s="6">
         <v>17</v>
       </c>
@@ -2907,17 +2907,17 @@
       <c r="B24" s="41">
         <v>44673</v>
       </c>
-      <c r="C24" s="66" t="s">
+      <c r="C24" s="65" t="s">
         <v>47</v>
       </c>
-      <c r="D24" s="66"/>
-      <c r="E24" s="66"/>
-      <c r="F24" s="66"/>
-      <c r="G24" s="66"/>
-      <c r="H24" s="66"/>
-      <c r="I24" s="66"/>
-      <c r="J24" s="66"/>
-      <c r="K24" s="66"/>
+      <c r="D24" s="65"/>
+      <c r="E24" s="65"/>
+      <c r="F24" s="65"/>
+      <c r="G24" s="65"/>
+      <c r="H24" s="65"/>
+      <c r="I24" s="65"/>
+      <c r="J24" s="65"/>
+      <c r="K24" s="65"/>
       <c r="L24" s="6">
         <v>17</v>
       </c>
@@ -2945,17 +2945,17 @@
       <c r="B25" s="42">
         <v>44646</v>
       </c>
-      <c r="C25" s="66" t="s">
+      <c r="C25" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="D25" s="66"/>
-      <c r="E25" s="66"/>
-      <c r="F25" s="66"/>
-      <c r="G25" s="66"/>
-      <c r="H25" s="66"/>
-      <c r="I25" s="66"/>
-      <c r="J25" s="66"/>
-      <c r="K25" s="66"/>
+      <c r="D25" s="65"/>
+      <c r="E25" s="65"/>
+      <c r="F25" s="65"/>
+      <c r="G25" s="65"/>
+      <c r="H25" s="65"/>
+      <c r="I25" s="65"/>
+      <c r="J25" s="65"/>
+      <c r="K25" s="65"/>
       <c r="L25" s="6">
         <v>17</v>
       </c>
@@ -2983,17 +2983,17 @@
       <c r="B26" s="43">
         <v>44646</v>
       </c>
-      <c r="C26" s="65" t="s">
+      <c r="C26" s="64" t="s">
         <v>48</v>
       </c>
-      <c r="D26" s="66"/>
-      <c r="E26" s="66"/>
-      <c r="F26" s="66"/>
-      <c r="G26" s="66"/>
-      <c r="H26" s="66"/>
-      <c r="I26" s="66"/>
-      <c r="J26" s="66"/>
-      <c r="K26" s="66"/>
+      <c r="D26" s="65"/>
+      <c r="E26" s="65"/>
+      <c r="F26" s="65"/>
+      <c r="G26" s="65"/>
+      <c r="H26" s="65"/>
+      <c r="I26" s="65"/>
+      <c r="J26" s="65"/>
+      <c r="K26" s="65"/>
       <c r="L26" s="6">
         <v>17</v>
       </c>
@@ -3021,17 +3021,17 @@
       <c r="B27" s="41">
         <v>44677</v>
       </c>
-      <c r="C27" s="66" t="s">
+      <c r="C27" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="D27" s="66"/>
-      <c r="E27" s="66"/>
-      <c r="F27" s="66"/>
-      <c r="G27" s="66"/>
-      <c r="H27" s="66"/>
-      <c r="I27" s="66"/>
-      <c r="J27" s="66"/>
-      <c r="K27" s="66"/>
+      <c r="D27" s="65"/>
+      <c r="E27" s="65"/>
+      <c r="F27" s="65"/>
+      <c r="G27" s="65"/>
+      <c r="H27" s="65"/>
+      <c r="I27" s="65"/>
+      <c r="J27" s="65"/>
+      <c r="K27" s="65"/>
       <c r="L27" s="6">
         <v>17</v>
       </c>
@@ -3059,17 +3059,17 @@
       <c r="B28" s="41">
         <v>44681</v>
       </c>
-      <c r="C28" s="65" t="s">
+      <c r="C28" s="64" t="s">
         <v>49</v>
       </c>
-      <c r="D28" s="66"/>
-      <c r="E28" s="66"/>
-      <c r="F28" s="66"/>
-      <c r="G28" s="66"/>
-      <c r="H28" s="66"/>
-      <c r="I28" s="66"/>
-      <c r="J28" s="66"/>
-      <c r="K28" s="66"/>
+      <c r="D28" s="65"/>
+      <c r="E28" s="65"/>
+      <c r="F28" s="65"/>
+      <c r="G28" s="65"/>
+      <c r="H28" s="65"/>
+      <c r="I28" s="65"/>
+      <c r="J28" s="65"/>
+      <c r="K28" s="65"/>
       <c r="L28" s="6">
         <v>17</v>
       </c>
@@ -3095,20 +3095,20 @@
         <v>25</v>
       </c>
       <c r="B29" s="8"/>
-      <c r="C29" s="59" t="s">
+      <c r="C29" s="66" t="s">
         <v>58</v>
       </c>
-      <c r="D29" s="60"/>
-      <c r="E29" s="60"/>
-      <c r="F29" s="60"/>
-      <c r="G29" s="60"/>
-      <c r="H29" s="60"/>
-      <c r="I29" s="60"/>
-      <c r="J29" s="60"/>
-      <c r="K29" s="60"/>
-      <c r="L29" s="60"/>
-      <c r="M29" s="60"/>
-      <c r="N29" s="61"/>
+      <c r="D29" s="67"/>
+      <c r="E29" s="67"/>
+      <c r="F29" s="67"/>
+      <c r="G29" s="67"/>
+      <c r="H29" s="67"/>
+      <c r="I29" s="67"/>
+      <c r="J29" s="67"/>
+      <c r="K29" s="67"/>
+      <c r="L29" s="67"/>
+      <c r="M29" s="67"/>
+      <c r="N29" s="68"/>
       <c r="O29" s="11"/>
       <c r="P29" s="12">
         <f>AVERAGE(P5:P28)</f>
@@ -3128,26 +3128,26 @@
     </row>
     <row r="31" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="32" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="75" t="s">
+      <c r="A32" s="82" t="s">
         <v>13</v>
       </c>
-      <c r="B32" s="76"/>
-      <c r="C32" s="76"/>
-      <c r="D32" s="76"/>
-      <c r="E32" s="76"/>
-      <c r="F32" s="76"/>
-      <c r="G32" s="76"/>
-      <c r="H32" s="76"/>
-      <c r="I32" s="76"/>
-      <c r="J32" s="76"/>
-      <c r="K32" s="76"/>
-      <c r="L32" s="76"/>
-      <c r="M32" s="76"/>
-      <c r="N32" s="76"/>
-      <c r="O32" s="76"/>
-      <c r="P32" s="76"/>
-      <c r="Q32" s="76"/>
-      <c r="R32" s="77"/>
+      <c r="B32" s="83"/>
+      <c r="C32" s="83"/>
+      <c r="D32" s="83"/>
+      <c r="E32" s="83"/>
+      <c r="F32" s="83"/>
+      <c r="G32" s="83"/>
+      <c r="H32" s="83"/>
+      <c r="I32" s="83"/>
+      <c r="J32" s="83"/>
+      <c r="K32" s="83"/>
+      <c r="L32" s="83"/>
+      <c r="M32" s="83"/>
+      <c r="N32" s="83"/>
+      <c r="O32" s="83"/>
+      <c r="P32" s="83"/>
+      <c r="Q32" s="83"/>
+      <c r="R32" s="84"/>
       <c r="S32" s="15"/>
       <c r="T32" s="15"/>
       <c r="U32" s="15"/>
@@ -3237,17 +3237,17 @@
         <v>2</v>
       </c>
       <c r="B36" s="1"/>
-      <c r="C36" s="65" t="s">
+      <c r="C36" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="D36" s="66"/>
-      <c r="E36" s="66"/>
-      <c r="F36" s="66"/>
-      <c r="G36" s="66"/>
-      <c r="H36" s="66"/>
-      <c r="I36" s="66"/>
-      <c r="J36" s="66"/>
-      <c r="K36" s="66"/>
+      <c r="D36" s="65"/>
+      <c r="E36" s="65"/>
+      <c r="F36" s="65"/>
+      <c r="G36" s="65"/>
+      <c r="H36" s="65"/>
+      <c r="I36" s="65"/>
+      <c r="J36" s="65"/>
+      <c r="K36" s="65"/>
       <c r="L36" s="6">
         <v>33</v>
       </c>
@@ -3270,17 +3270,17 @@
         <v>3</v>
       </c>
       <c r="B37" s="1"/>
-      <c r="C37" s="65" t="s">
+      <c r="C37" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="D37" s="66"/>
-      <c r="E37" s="66"/>
-      <c r="F37" s="66"/>
-      <c r="G37" s="66"/>
-      <c r="H37" s="66"/>
-      <c r="I37" s="66"/>
-      <c r="J37" s="66"/>
-      <c r="K37" s="66"/>
+      <c r="D37" s="65"/>
+      <c r="E37" s="65"/>
+      <c r="F37" s="65"/>
+      <c r="G37" s="65"/>
+      <c r="H37" s="65"/>
+      <c r="I37" s="65"/>
+      <c r="J37" s="65"/>
+      <c r="K37" s="65"/>
       <c r="L37" s="6">
         <v>33</v>
       </c>
@@ -3303,17 +3303,17 @@
         <v>4</v>
       </c>
       <c r="B38" s="1"/>
-      <c r="C38" s="66" t="s">
+      <c r="C38" s="65" t="s">
         <v>18</v>
       </c>
-      <c r="D38" s="66"/>
-      <c r="E38" s="66"/>
-      <c r="F38" s="66"/>
-      <c r="G38" s="66"/>
-      <c r="H38" s="66"/>
-      <c r="I38" s="66"/>
-      <c r="J38" s="66"/>
-      <c r="K38" s="66"/>
+      <c r="D38" s="65"/>
+      <c r="E38" s="65"/>
+      <c r="F38" s="65"/>
+      <c r="G38" s="65"/>
+      <c r="H38" s="65"/>
+      <c r="I38" s="65"/>
+      <c r="J38" s="65"/>
+      <c r="K38" s="65"/>
       <c r="L38" s="6">
         <v>33</v>
       </c>
@@ -3336,17 +3336,17 @@
         <v>5</v>
       </c>
       <c r="B39" s="1"/>
-      <c r="C39" s="65" t="s">
+      <c r="C39" s="64" t="s">
         <v>61</v>
       </c>
-      <c r="D39" s="66"/>
-      <c r="E39" s="66"/>
-      <c r="F39" s="66"/>
-      <c r="G39" s="66"/>
-      <c r="H39" s="66"/>
-      <c r="I39" s="66"/>
-      <c r="J39" s="66"/>
-      <c r="K39" s="66"/>
+      <c r="D39" s="65"/>
+      <c r="E39" s="65"/>
+      <c r="F39" s="65"/>
+      <c r="G39" s="65"/>
+      <c r="H39" s="65"/>
+      <c r="I39" s="65"/>
+      <c r="J39" s="65"/>
+      <c r="K39" s="65"/>
       <c r="L39" s="6">
         <v>33</v>
       </c>
@@ -3369,17 +3369,17 @@
         <v>6</v>
       </c>
       <c r="B40" s="1"/>
-      <c r="C40" s="65" t="s">
+      <c r="C40" s="64" t="s">
         <v>61</v>
       </c>
-      <c r="D40" s="66"/>
-      <c r="E40" s="66"/>
-      <c r="F40" s="66"/>
-      <c r="G40" s="66"/>
-      <c r="H40" s="66"/>
-      <c r="I40" s="66"/>
-      <c r="J40" s="66"/>
-      <c r="K40" s="66"/>
+      <c r="D40" s="65"/>
+      <c r="E40" s="65"/>
+      <c r="F40" s="65"/>
+      <c r="G40" s="65"/>
+      <c r="H40" s="65"/>
+      <c r="I40" s="65"/>
+      <c r="J40" s="65"/>
+      <c r="K40" s="65"/>
       <c r="L40" s="6">
         <v>33</v>
       </c>
@@ -3402,17 +3402,17 @@
         <v>7</v>
       </c>
       <c r="B41" s="1"/>
-      <c r="C41" s="66" t="s">
+      <c r="C41" s="65" t="s">
         <v>20</v>
       </c>
-      <c r="D41" s="66"/>
-      <c r="E41" s="66"/>
-      <c r="F41" s="66"/>
-      <c r="G41" s="66"/>
-      <c r="H41" s="66"/>
-      <c r="I41" s="66"/>
-      <c r="J41" s="66"/>
-      <c r="K41" s="66"/>
+      <c r="D41" s="65"/>
+      <c r="E41" s="65"/>
+      <c r="F41" s="65"/>
+      <c r="G41" s="65"/>
+      <c r="H41" s="65"/>
+      <c r="I41" s="65"/>
+      <c r="J41" s="65"/>
+      <c r="K41" s="65"/>
       <c r="L41" s="6">
         <v>33</v>
       </c>
@@ -3435,17 +3435,17 @@
         <v>8</v>
       </c>
       <c r="B42" s="1"/>
-      <c r="C42" s="65" t="s">
+      <c r="C42" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="D42" s="66"/>
-      <c r="E42" s="66"/>
-      <c r="F42" s="66"/>
-      <c r="G42" s="66"/>
-      <c r="H42" s="66"/>
-      <c r="I42" s="66"/>
-      <c r="J42" s="66"/>
-      <c r="K42" s="66"/>
+      <c r="D42" s="65"/>
+      <c r="E42" s="65"/>
+      <c r="F42" s="65"/>
+      <c r="G42" s="65"/>
+      <c r="H42" s="65"/>
+      <c r="I42" s="65"/>
+      <c r="J42" s="65"/>
+      <c r="K42" s="65"/>
       <c r="L42" s="6">
         <v>33</v>
       </c>
@@ -3468,17 +3468,17 @@
         <v>9</v>
       </c>
       <c r="B43" s="1"/>
-      <c r="C43" s="65" t="s">
+      <c r="C43" s="64" t="s">
         <v>62</v>
       </c>
-      <c r="D43" s="66"/>
-      <c r="E43" s="66"/>
-      <c r="F43" s="66"/>
-      <c r="G43" s="66"/>
-      <c r="H43" s="66"/>
-      <c r="I43" s="66"/>
-      <c r="J43" s="66"/>
-      <c r="K43" s="66"/>
+      <c r="D43" s="65"/>
+      <c r="E43" s="65"/>
+      <c r="F43" s="65"/>
+      <c r="G43" s="65"/>
+      <c r="H43" s="65"/>
+      <c r="I43" s="65"/>
+      <c r="J43" s="65"/>
+      <c r="K43" s="65"/>
       <c r="L43" s="6">
         <v>33</v>
       </c>
@@ -3501,17 +3501,17 @@
         <v>10</v>
       </c>
       <c r="B44" s="1"/>
-      <c r="C44" s="65" t="s">
+      <c r="C44" s="64" t="s">
         <v>22</v>
       </c>
-      <c r="D44" s="66"/>
-      <c r="E44" s="66"/>
-      <c r="F44" s="66"/>
-      <c r="G44" s="66"/>
-      <c r="H44" s="66"/>
-      <c r="I44" s="66"/>
-      <c r="J44" s="66"/>
-      <c r="K44" s="66"/>
+      <c r="D44" s="65"/>
+      <c r="E44" s="65"/>
+      <c r="F44" s="65"/>
+      <c r="G44" s="65"/>
+      <c r="H44" s="65"/>
+      <c r="I44" s="65"/>
+      <c r="J44" s="65"/>
+      <c r="K44" s="65"/>
       <c r="L44" s="6">
         <v>33</v>
       </c>
@@ -3534,17 +3534,17 @@
         <v>11</v>
       </c>
       <c r="B45" s="1"/>
-      <c r="C45" s="65" t="s">
+      <c r="C45" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="D45" s="66"/>
-      <c r="E45" s="66"/>
-      <c r="F45" s="66"/>
-      <c r="G45" s="66"/>
-      <c r="H45" s="66"/>
-      <c r="I45" s="66"/>
-      <c r="J45" s="66"/>
-      <c r="K45" s="66"/>
+      <c r="D45" s="65"/>
+      <c r="E45" s="65"/>
+      <c r="F45" s="65"/>
+      <c r="G45" s="65"/>
+      <c r="H45" s="65"/>
+      <c r="I45" s="65"/>
+      <c r="J45" s="65"/>
+      <c r="K45" s="65"/>
       <c r="L45" s="6">
         <v>33</v>
       </c>
@@ -3569,17 +3569,17 @@
       <c r="B46" s="42">
         <v>44647</v>
       </c>
-      <c r="C46" s="65" t="s">
+      <c r="C46" s="64" t="s">
         <v>63</v>
       </c>
-      <c r="D46" s="66"/>
-      <c r="E46" s="66"/>
-      <c r="F46" s="66"/>
-      <c r="G46" s="66"/>
-      <c r="H46" s="66"/>
-      <c r="I46" s="66"/>
-      <c r="J46" s="66"/>
-      <c r="K46" s="66"/>
+      <c r="D46" s="65"/>
+      <c r="E46" s="65"/>
+      <c r="F46" s="65"/>
+      <c r="G46" s="65"/>
+      <c r="H46" s="65"/>
+      <c r="I46" s="65"/>
+      <c r="J46" s="65"/>
+      <c r="K46" s="65"/>
       <c r="L46" s="6">
         <v>33</v>
       </c>
@@ -3602,20 +3602,20 @@
         <v>13</v>
       </c>
       <c r="B47" s="1"/>
-      <c r="C47" s="59" t="s">
+      <c r="C47" s="66" t="s">
         <v>58</v>
       </c>
-      <c r="D47" s="60"/>
-      <c r="E47" s="60"/>
-      <c r="F47" s="60"/>
-      <c r="G47" s="60"/>
-      <c r="H47" s="60"/>
-      <c r="I47" s="60"/>
-      <c r="J47" s="60"/>
-      <c r="K47" s="60"/>
-      <c r="L47" s="60"/>
-      <c r="M47" s="60"/>
-      <c r="N47" s="61"/>
+      <c r="D47" s="67"/>
+      <c r="E47" s="67"/>
+      <c r="F47" s="67"/>
+      <c r="G47" s="67"/>
+      <c r="H47" s="67"/>
+      <c r="I47" s="67"/>
+      <c r="J47" s="67"/>
+      <c r="K47" s="67"/>
+      <c r="L47" s="67"/>
+      <c r="M47" s="67"/>
+      <c r="N47" s="68"/>
       <c r="O47" s="11"/>
       <c r="P47" s="12"/>
       <c r="Q47" s="13"/>
@@ -3629,26 +3629,26 @@
       <c r="B48" s="1"/>
     </row>
     <row r="49" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="62" t="s">
+      <c r="A49" s="69" t="s">
         <v>24</v>
       </c>
-      <c r="B49" s="63"/>
-      <c r="C49" s="63"/>
-      <c r="D49" s="63"/>
-      <c r="E49" s="63"/>
-      <c r="F49" s="63"/>
-      <c r="G49" s="63"/>
-      <c r="H49" s="63"/>
-      <c r="I49" s="63"/>
-      <c r="J49" s="63"/>
-      <c r="K49" s="63"/>
-      <c r="L49" s="63"/>
-      <c r="M49" s="63"/>
-      <c r="N49" s="63"/>
-      <c r="O49" s="63"/>
-      <c r="P49" s="63"/>
-      <c r="Q49" s="63"/>
-      <c r="R49" s="64"/>
+      <c r="B49" s="70"/>
+      <c r="C49" s="70"/>
+      <c r="D49" s="70"/>
+      <c r="E49" s="70"/>
+      <c r="F49" s="70"/>
+      <c r="G49" s="70"/>
+      <c r="H49" s="70"/>
+      <c r="I49" s="70"/>
+      <c r="J49" s="70"/>
+      <c r="K49" s="70"/>
+      <c r="L49" s="70"/>
+      <c r="M49" s="70"/>
+      <c r="N49" s="70"/>
+      <c r="O49" s="70"/>
+      <c r="P49" s="70"/>
+      <c r="Q49" s="70"/>
+      <c r="R49" s="71"/>
       <c r="S49" s="3"/>
       <c r="T49" s="3"/>
       <c r="U49" s="3"/>
@@ -3738,17 +3738,17 @@
         <v>2</v>
       </c>
       <c r="B53" s="1"/>
-      <c r="C53" s="65" t="s">
+      <c r="C53" s="64" t="s">
         <v>66</v>
       </c>
-      <c r="D53" s="66"/>
-      <c r="E53" s="66"/>
-      <c r="F53" s="66"/>
-      <c r="G53" s="66"/>
-      <c r="H53" s="66"/>
-      <c r="I53" s="66"/>
-      <c r="J53" s="66"/>
-      <c r="K53" s="66"/>
+      <c r="D53" s="65"/>
+      <c r="E53" s="65"/>
+      <c r="F53" s="65"/>
+      <c r="G53" s="65"/>
+      <c r="H53" s="65"/>
+      <c r="I53" s="65"/>
+      <c r="J53" s="65"/>
+      <c r="K53" s="65"/>
       <c r="L53" s="6">
         <v>33</v>
       </c>
@@ -3771,17 +3771,17 @@
         <v>3</v>
       </c>
       <c r="B54" s="1"/>
-      <c r="C54" s="65" t="s">
+      <c r="C54" s="64" t="s">
         <v>25</v>
       </c>
-      <c r="D54" s="66"/>
-      <c r="E54" s="66"/>
-      <c r="F54" s="66"/>
-      <c r="G54" s="66"/>
-      <c r="H54" s="66"/>
-      <c r="I54" s="66"/>
-      <c r="J54" s="66"/>
-      <c r="K54" s="66"/>
+      <c r="D54" s="65"/>
+      <c r="E54" s="65"/>
+      <c r="F54" s="65"/>
+      <c r="G54" s="65"/>
+      <c r="H54" s="65"/>
+      <c r="I54" s="65"/>
+      <c r="J54" s="65"/>
+      <c r="K54" s="65"/>
       <c r="L54" s="6">
         <v>33</v>
       </c>
@@ -3804,17 +3804,17 @@
         <v>4</v>
       </c>
       <c r="B55" s="1"/>
-      <c r="C55" s="66" t="s">
+      <c r="C55" s="65" t="s">
         <v>26</v>
       </c>
-      <c r="D55" s="66"/>
-      <c r="E55" s="66"/>
-      <c r="F55" s="66"/>
-      <c r="G55" s="66"/>
-      <c r="H55" s="66"/>
-      <c r="I55" s="66"/>
-      <c r="J55" s="66"/>
-      <c r="K55" s="66"/>
+      <c r="D55" s="65"/>
+      <c r="E55" s="65"/>
+      <c r="F55" s="65"/>
+      <c r="G55" s="65"/>
+      <c r="H55" s="65"/>
+      <c r="I55" s="65"/>
+      <c r="J55" s="65"/>
+      <c r="K55" s="65"/>
       <c r="L55" s="6">
         <v>33</v>
       </c>
@@ -3837,17 +3837,17 @@
         <v>5</v>
       </c>
       <c r="B56" s="1"/>
-      <c r="C56" s="65" t="s">
+      <c r="C56" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="D56" s="66"/>
-      <c r="E56" s="66"/>
-      <c r="F56" s="66"/>
-      <c r="G56" s="66"/>
-      <c r="H56" s="66"/>
-      <c r="I56" s="66"/>
-      <c r="J56" s="66"/>
-      <c r="K56" s="66"/>
+      <c r="D56" s="65"/>
+      <c r="E56" s="65"/>
+      <c r="F56" s="65"/>
+      <c r="G56" s="65"/>
+      <c r="H56" s="65"/>
+      <c r="I56" s="65"/>
+      <c r="J56" s="65"/>
+      <c r="K56" s="65"/>
       <c r="L56" s="6">
         <v>33</v>
       </c>
@@ -3870,17 +3870,17 @@
         <v>6</v>
       </c>
       <c r="B57" s="1"/>
-      <c r="C57" s="65" t="s">
+      <c r="C57" s="64" t="s">
         <v>67</v>
       </c>
-      <c r="D57" s="66"/>
-      <c r="E57" s="66"/>
-      <c r="F57" s="66"/>
-      <c r="G57" s="66"/>
-      <c r="H57" s="66"/>
-      <c r="I57" s="66"/>
-      <c r="J57" s="66"/>
-      <c r="K57" s="66"/>
+      <c r="D57" s="65"/>
+      <c r="E57" s="65"/>
+      <c r="F57" s="65"/>
+      <c r="G57" s="65"/>
+      <c r="H57" s="65"/>
+      <c r="I57" s="65"/>
+      <c r="J57" s="65"/>
+      <c r="K57" s="65"/>
       <c r="L57" s="6">
         <v>33</v>
       </c>
@@ -3901,20 +3901,20 @@
     <row r="58" spans="1:21" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
-      <c r="C58" s="59" t="s">
+      <c r="C58" s="66" t="s">
         <v>58</v>
       </c>
-      <c r="D58" s="60"/>
-      <c r="E58" s="60"/>
-      <c r="F58" s="60"/>
-      <c r="G58" s="60"/>
-      <c r="H58" s="60"/>
-      <c r="I58" s="60"/>
-      <c r="J58" s="60"/>
-      <c r="K58" s="60"/>
-      <c r="L58" s="60"/>
-      <c r="M58" s="60"/>
-      <c r="N58" s="61"/>
+      <c r="D58" s="67"/>
+      <c r="E58" s="67"/>
+      <c r="F58" s="67"/>
+      <c r="G58" s="67"/>
+      <c r="H58" s="67"/>
+      <c r="I58" s="67"/>
+      <c r="J58" s="67"/>
+      <c r="K58" s="67"/>
+      <c r="L58" s="67"/>
+      <c r="M58" s="67"/>
+      <c r="N58" s="68"/>
       <c r="O58" s="11"/>
       <c r="P58" s="12" t="e">
         <f>AVERAGE(P52:P57)</f>
@@ -3934,25 +3934,25 @@
       <c r="B59" s="1"/>
     </row>
     <row r="60" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A60" s="71" t="s">
+      <c r="A60" s="81" t="s">
         <v>28</v>
       </c>
-      <c r="B60" s="71"/>
-      <c r="C60" s="71"/>
-      <c r="D60" s="71"/>
-      <c r="E60" s="71"/>
-      <c r="F60" s="71"/>
-      <c r="G60" s="71"/>
-      <c r="H60" s="71"/>
-      <c r="I60" s="71"/>
-      <c r="J60" s="71"/>
-      <c r="K60" s="71"/>
-      <c r="L60" s="71"/>
-      <c r="M60" s="71"/>
-      <c r="N60" s="71"/>
-      <c r="O60" s="71"/>
-      <c r="P60" s="71"/>
-      <c r="Q60" s="71"/>
+      <c r="B60" s="81"/>
+      <c r="C60" s="81"/>
+      <c r="D60" s="81"/>
+      <c r="E60" s="81"/>
+      <c r="F60" s="81"/>
+      <c r="G60" s="81"/>
+      <c r="H60" s="81"/>
+      <c r="I60" s="81"/>
+      <c r="J60" s="81"/>
+      <c r="K60" s="81"/>
+      <c r="L60" s="81"/>
+      <c r="M60" s="81"/>
+      <c r="N60" s="81"/>
+      <c r="O60" s="81"/>
+      <c r="P60" s="81"/>
+      <c r="Q60" s="81"/>
       <c r="R60"/>
     </row>
     <row r="61" spans="1:21" x14ac:dyDescent="0.3">
@@ -3960,10 +3960,10 @@
         <v>1</v>
       </c>
       <c r="B61" s="16"/>
-      <c r="C61" s="67" t="s">
+      <c r="C61" s="80" t="s">
         <v>68</v>
       </c>
-      <c r="D61" s="67"/>
+      <c r="D61" s="80"/>
       <c r="E61" s="17" t="s">
         <v>69</v>
       </c>
@@ -4010,10 +4010,10 @@
         <v>1</v>
       </c>
       <c r="B62" s="14"/>
-      <c r="C62" s="56" t="s">
+      <c r="C62" s="63" t="s">
         <v>82</v>
       </c>
-      <c r="D62" s="56"/>
+      <c r="D62" s="63"/>
       <c r="E62" s="25">
         <v>41</v>
       </c>
@@ -4060,10 +4060,10 @@
         <v>2</v>
       </c>
       <c r="B63" s="14"/>
-      <c r="C63" s="56" t="s">
+      <c r="C63" s="63" t="s">
         <v>83</v>
       </c>
-      <c r="D63" s="56"/>
+      <c r="D63" s="63"/>
       <c r="E63" s="25">
         <v>40</v>
       </c>
@@ -4110,10 +4110,10 @@
         <v>3</v>
       </c>
       <c r="B64" s="14"/>
-      <c r="C64" s="56" t="s">
+      <c r="C64" s="63" t="s">
         <v>88</v>
       </c>
-      <c r="D64" s="56"/>
+      <c r="D64" s="63"/>
       <c r="E64" s="25">
         <v>55</v>
       </c>
@@ -4160,10 +4160,10 @@
         <v>4</v>
       </c>
       <c r="B65" s="14"/>
-      <c r="C65" s="56" t="s">
+      <c r="C65" s="63" t="s">
         <v>89</v>
       </c>
-      <c r="D65" s="56"/>
+      <c r="D65" s="63"/>
       <c r="E65" s="25">
         <v>58</v>
       </c>
@@ -4210,10 +4210,10 @@
         <v>5</v>
       </c>
       <c r="B66" s="14"/>
-      <c r="C66" s="56" t="s">
+      <c r="C66" s="63" t="s">
         <v>29</v>
       </c>
-      <c r="D66" s="56"/>
+      <c r="D66" s="63"/>
       <c r="E66" s="25"/>
       <c r="F66" s="26"/>
       <c r="G66" s="27"/>
@@ -4234,10 +4234,10 @@
         <v>6</v>
       </c>
       <c r="B67" s="40"/>
-      <c r="C67" s="53" t="s">
+      <c r="C67" s="90" t="s">
         <v>30</v>
       </c>
-      <c r="D67" s="54"/>
+      <c r="D67" s="91"/>
       <c r="E67" s="25"/>
       <c r="F67" s="26"/>
       <c r="G67" s="27"/>
@@ -4258,10 +4258,10 @@
         <v>7</v>
       </c>
       <c r="B68" s="14"/>
-      <c r="C68" s="56" t="s">
+      <c r="C68" s="63" t="s">
         <v>31</v>
       </c>
-      <c r="D68" s="56"/>
+      <c r="D68" s="63"/>
       <c r="E68" s="25"/>
       <c r="F68" s="26"/>
       <c r="G68" s="27"/>
@@ -4282,10 +4282,10 @@
         <v>8</v>
       </c>
       <c r="B69" s="40"/>
-      <c r="C69" s="53" t="s">
+      <c r="C69" s="90" t="s">
         <v>32</v>
       </c>
-      <c r="D69" s="54"/>
+      <c r="D69" s="91"/>
       <c r="E69" s="25"/>
       <c r="F69" s="26"/>
       <c r="G69" s="27"/>
@@ -4304,10 +4304,10 @@
     <row r="70" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A70" s="14"/>
       <c r="B70" s="14"/>
-      <c r="C70" s="57" t="s">
+      <c r="C70" s="74" t="s">
         <v>98</v>
       </c>
-      <c r="D70" s="57"/>
+      <c r="D70" s="74"/>
       <c r="E70" s="25">
         <f t="shared" ref="E70:O70" si="1">AVERAGE(E62:E69)</f>
         <v>48.5</v>
@@ -4363,25 +4363,25 @@
       <c r="R72"/>
     </row>
     <row r="73" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A73" s="74" t="s">
+      <c r="A73" s="79" t="s">
         <v>99</v>
       </c>
-      <c r="B73" s="74"/>
-      <c r="C73" s="74"/>
-      <c r="D73" s="74"/>
-      <c r="E73" s="74"/>
-      <c r="F73" s="74"/>
-      <c r="G73" s="74"/>
-      <c r="H73" s="74"/>
-      <c r="I73" s="74"/>
-      <c r="J73" s="74"/>
-      <c r="K73" s="74"/>
-      <c r="L73" s="74"/>
-      <c r="M73" s="74"/>
-      <c r="N73" s="74"/>
-      <c r="O73" s="74"/>
-      <c r="P73" s="74"/>
-      <c r="Q73" s="74"/>
+      <c r="B73" s="79"/>
+      <c r="C73" s="79"/>
+      <c r="D73" s="79"/>
+      <c r="E73" s="79"/>
+      <c r="F73" s="79"/>
+      <c r="G73" s="79"/>
+      <c r="H73" s="79"/>
+      <c r="I73" s="79"/>
+      <c r="J73" s="79"/>
+      <c r="K73" s="79"/>
+      <c r="L73" s="79"/>
+      <c r="M73" s="79"/>
+      <c r="N73" s="79"/>
+      <c r="O73" s="79"/>
+      <c r="P73" s="79"/>
+      <c r="Q73" s="79"/>
       <c r="R73"/>
     </row>
     <row r="74" spans="1:18" x14ac:dyDescent="0.3">
@@ -4389,10 +4389,10 @@
         <v>1</v>
       </c>
       <c r="B74" s="16"/>
-      <c r="C74" s="67" t="s">
+      <c r="C74" s="80" t="s">
         <v>68</v>
       </c>
-      <c r="D74" s="67"/>
+      <c r="D74" s="80"/>
       <c r="E74" s="17" t="s">
         <v>69</v>
       </c>
@@ -4439,10 +4439,10 @@
         <v>1</v>
       </c>
       <c r="B75" s="14"/>
-      <c r="C75" s="56" t="s">
+      <c r="C75" s="63" t="s">
         <v>101</v>
       </c>
-      <c r="D75" s="56"/>
+      <c r="D75" s="63"/>
       <c r="E75" s="25"/>
       <c r="F75" s="26"/>
       <c r="G75" s="27"/>
@@ -4463,10 +4463,10 @@
         <v>2</v>
       </c>
       <c r="B76" s="14"/>
-      <c r="C76" s="56" t="s">
+      <c r="C76" s="63" t="s">
         <v>102</v>
       </c>
-      <c r="D76" s="56"/>
+      <c r="D76" s="63"/>
       <c r="E76" s="25"/>
       <c r="F76" s="26"/>
       <c r="G76" s="27"/>
@@ -4487,10 +4487,10 @@
         <v>3</v>
       </c>
       <c r="B77" s="14"/>
-      <c r="C77" s="56" t="s">
+      <c r="C77" s="63" t="s">
         <v>103</v>
       </c>
-      <c r="D77" s="56"/>
+      <c r="D77" s="63"/>
       <c r="E77" s="25"/>
       <c r="F77" s="26"/>
       <c r="G77" s="27"/>
@@ -4510,10 +4510,10 @@
         <v>4</v>
       </c>
       <c r="B78" s="14"/>
-      <c r="C78" s="56" t="s">
+      <c r="C78" s="63" t="s">
         <v>104</v>
       </c>
-      <c r="D78" s="56"/>
+      <c r="D78" s="63"/>
       <c r="E78" s="25"/>
       <c r="F78" s="26"/>
       <c r="G78" s="27"/>
@@ -4533,8 +4533,8 @@
         <v>5</v>
       </c>
       <c r="B79" s="14"/>
-      <c r="C79" s="78"/>
-      <c r="D79" s="78"/>
+      <c r="C79" s="89"/>
+      <c r="D79" s="89"/>
       <c r="E79" s="25"/>
       <c r="F79" s="26"/>
       <c r="G79" s="27"/>
@@ -4554,8 +4554,8 @@
         <v>6</v>
       </c>
       <c r="B80" s="14"/>
-      <c r="C80" s="78"/>
-      <c r="D80" s="78"/>
+      <c r="C80" s="89"/>
+      <c r="D80" s="89"/>
       <c r="E80" s="25"/>
       <c r="F80" s="26"/>
       <c r="G80" s="27"/>
@@ -4573,10 +4573,10 @@
     <row r="81" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A81" s="14"/>
       <c r="B81" s="14"/>
-      <c r="C81" s="57" t="s">
+      <c r="C81" s="74" t="s">
         <v>98</v>
       </c>
-      <c r="D81" s="57"/>
+      <c r="D81" s="74"/>
       <c r="E81" s="25" t="e">
         <f t="shared" ref="E81:K81" si="2">AVERAGE(E75:E80)</f>
         <v>#DIV/0!</v>
@@ -4625,103 +4625,103 @@
       <c r="Q81" s="29"/>
     </row>
     <row r="84" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A84" s="58">
+      <c r="A84" s="75">
         <v>2022</v>
       </c>
-      <c r="B84" s="58"/>
-      <c r="C84" s="58"/>
-      <c r="D84" s="58"/>
-      <c r="E84" s="58"/>
-      <c r="F84" s="58"/>
-      <c r="G84" s="58"/>
-      <c r="H84" s="58"/>
-      <c r="I84" s="58"/>
-      <c r="J84" s="58"/>
-      <c r="K84" s="58"/>
-      <c r="L84" s="58"/>
-      <c r="M84" s="58"/>
-      <c r="N84" s="58"/>
-      <c r="O84" s="58"/>
-      <c r="P84" s="58"/>
-      <c r="Q84" s="58"/>
-      <c r="R84" s="58"/>
-      <c r="S84" s="58"/>
-      <c r="T84" s="58"/>
-      <c r="U84" s="58"/>
-      <c r="V84" s="58"/>
-      <c r="W84" s="58"/>
+      <c r="B84" s="75"/>
+      <c r="C84" s="75"/>
+      <c r="D84" s="75"/>
+      <c r="E84" s="75"/>
+      <c r="F84" s="75"/>
+      <c r="G84" s="75"/>
+      <c r="H84" s="75"/>
+      <c r="I84" s="75"/>
+      <c r="J84" s="75"/>
+      <c r="K84" s="75"/>
+      <c r="L84" s="75"/>
+      <c r="M84" s="75"/>
+      <c r="N84" s="75"/>
+      <c r="O84" s="75"/>
+      <c r="P84" s="75"/>
+      <c r="Q84" s="75"/>
+      <c r="R84" s="75"/>
+      <c r="S84" s="75"/>
+      <c r="T84" s="75"/>
+      <c r="U84" s="75"/>
+      <c r="V84" s="75"/>
+      <c r="W84" s="75"/>
     </row>
     <row r="85" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A85" s="58"/>
-      <c r="B85" s="58"/>
-      <c r="C85" s="58"/>
-      <c r="D85" s="58"/>
-      <c r="E85" s="58"/>
-      <c r="F85" s="58"/>
-      <c r="G85" s="58"/>
-      <c r="H85" s="58"/>
-      <c r="I85" s="58"/>
-      <c r="J85" s="58"/>
-      <c r="K85" s="58"/>
-      <c r="L85" s="58"/>
-      <c r="M85" s="58"/>
-      <c r="N85" s="58"/>
-      <c r="O85" s="58"/>
-      <c r="P85" s="58"/>
-      <c r="Q85" s="58"/>
-      <c r="R85" s="58"/>
-      <c r="S85" s="58"/>
-      <c r="T85" s="58"/>
-      <c r="U85" s="58"/>
-      <c r="V85" s="58"/>
-      <c r="W85" s="58"/>
+      <c r="A85" s="75"/>
+      <c r="B85" s="75"/>
+      <c r="C85" s="75"/>
+      <c r="D85" s="75"/>
+      <c r="E85" s="75"/>
+      <c r="F85" s="75"/>
+      <c r="G85" s="75"/>
+      <c r="H85" s="75"/>
+      <c r="I85" s="75"/>
+      <c r="J85" s="75"/>
+      <c r="K85" s="75"/>
+      <c r="L85" s="75"/>
+      <c r="M85" s="75"/>
+      <c r="N85" s="75"/>
+      <c r="O85" s="75"/>
+      <c r="P85" s="75"/>
+      <c r="Q85" s="75"/>
+      <c r="R85" s="75"/>
+      <c r="S85" s="75"/>
+      <c r="T85" s="75"/>
+      <c r="U85" s="75"/>
+      <c r="V85" s="75"/>
+      <c r="W85" s="75"/>
     </row>
     <row r="86" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A86" s="58"/>
-      <c r="B86" s="58"/>
-      <c r="C86" s="58"/>
-      <c r="D86" s="58"/>
-      <c r="E86" s="58"/>
-      <c r="F86" s="58"/>
-      <c r="G86" s="58"/>
-      <c r="H86" s="58"/>
-      <c r="I86" s="58"/>
-      <c r="J86" s="58"/>
-      <c r="K86" s="58"/>
-      <c r="L86" s="58"/>
-      <c r="M86" s="58"/>
-      <c r="N86" s="58"/>
-      <c r="O86" s="58"/>
-      <c r="P86" s="58"/>
-      <c r="Q86" s="58"/>
-      <c r="R86" s="58"/>
-      <c r="S86" s="58"/>
-      <c r="T86" s="58"/>
-      <c r="U86" s="58"/>
-      <c r="V86" s="58"/>
-      <c r="W86" s="58"/>
+      <c r="A86" s="75"/>
+      <c r="B86" s="75"/>
+      <c r="C86" s="75"/>
+      <c r="D86" s="75"/>
+      <c r="E86" s="75"/>
+      <c r="F86" s="75"/>
+      <c r="G86" s="75"/>
+      <c r="H86" s="75"/>
+      <c r="I86" s="75"/>
+      <c r="J86" s="75"/>
+      <c r="K86" s="75"/>
+      <c r="L86" s="75"/>
+      <c r="M86" s="75"/>
+      <c r="N86" s="75"/>
+      <c r="O86" s="75"/>
+      <c r="P86" s="75"/>
+      <c r="Q86" s="75"/>
+      <c r="R86" s="75"/>
+      <c r="S86" s="75"/>
+      <c r="T86" s="75"/>
+      <c r="U86" s="75"/>
+      <c r="V86" s="75"/>
+      <c r="W86" s="75"/>
     </row>
     <row r="87" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A87" s="68" t="s">
+      <c r="A87" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="B87" s="69"/>
-      <c r="C87" s="69"/>
-      <c r="D87" s="69"/>
-      <c r="E87" s="69"/>
-      <c r="F87" s="69"/>
-      <c r="G87" s="69"/>
-      <c r="H87" s="69"/>
-      <c r="I87" s="69"/>
-      <c r="J87" s="69"/>
-      <c r="K87" s="69"/>
-      <c r="L87" s="69"/>
-      <c r="M87" s="69"/>
-      <c r="N87" s="69"/>
-      <c r="O87" s="69"/>
-      <c r="P87" s="69"/>
-      <c r="Q87" s="69"/>
-      <c r="R87" s="70"/>
+      <c r="B87" s="77"/>
+      <c r="C87" s="77"/>
+      <c r="D87" s="77"/>
+      <c r="E87" s="77"/>
+      <c r="F87" s="77"/>
+      <c r="G87" s="77"/>
+      <c r="H87" s="77"/>
+      <c r="I87" s="77"/>
+      <c r="J87" s="77"/>
+      <c r="K87" s="77"/>
+      <c r="L87" s="77"/>
+      <c r="M87" s="77"/>
+      <c r="N87" s="77"/>
+      <c r="O87" s="77"/>
+      <c r="P87" s="77"/>
+      <c r="Q87" s="77"/>
+      <c r="R87" s="78"/>
       <c r="S87" s="38"/>
       <c r="T87" s="38"/>
       <c r="U87" s="38"/>
@@ -4826,17 +4826,17 @@
         <v>2</v>
       </c>
       <c r="B91" s="1"/>
-      <c r="C91" s="65" t="s">
+      <c r="C91" s="64" t="s">
         <v>33</v>
       </c>
-      <c r="D91" s="66"/>
-      <c r="E91" s="66"/>
-      <c r="F91" s="66"/>
-      <c r="G91" s="66"/>
-      <c r="H91" s="66"/>
-      <c r="I91" s="66"/>
-      <c r="J91" s="66"/>
-      <c r="K91" s="66"/>
+      <c r="D91" s="65"/>
+      <c r="E91" s="65"/>
+      <c r="F91" s="65"/>
+      <c r="G91" s="65"/>
+      <c r="H91" s="65"/>
+      <c r="I91" s="65"/>
+      <c r="J91" s="65"/>
+      <c r="K91" s="65"/>
       <c r="L91" s="6">
         <v>17</v>
       </c>
@@ -4872,17 +4872,17 @@
         <v>3</v>
       </c>
       <c r="B92" s="1"/>
-      <c r="C92" s="65" t="s">
+      <c r="C92" s="64" t="s">
         <v>34</v>
       </c>
-      <c r="D92" s="66"/>
-      <c r="E92" s="66"/>
-      <c r="F92" s="66"/>
-      <c r="G92" s="66"/>
-      <c r="H92" s="66"/>
-      <c r="I92" s="66"/>
-      <c r="J92" s="66"/>
-      <c r="K92" s="66"/>
+      <c r="D92" s="65"/>
+      <c r="E92" s="65"/>
+      <c r="F92" s="65"/>
+      <c r="G92" s="65"/>
+      <c r="H92" s="65"/>
+      <c r="I92" s="65"/>
+      <c r="J92" s="65"/>
+      <c r="K92" s="65"/>
       <c r="L92" s="6">
         <v>17</v>
       </c>
@@ -4918,17 +4918,17 @@
         <v>4</v>
       </c>
       <c r="B93" s="1"/>
-      <c r="C93" s="66" t="s">
+      <c r="C93" s="65" t="s">
         <v>35</v>
       </c>
-      <c r="D93" s="66"/>
-      <c r="E93" s="66"/>
-      <c r="F93" s="66"/>
-      <c r="G93" s="66"/>
-      <c r="H93" s="66"/>
-      <c r="I93" s="66"/>
-      <c r="J93" s="66"/>
-      <c r="K93" s="66"/>
+      <c r="D93" s="65"/>
+      <c r="E93" s="65"/>
+      <c r="F93" s="65"/>
+      <c r="G93" s="65"/>
+      <c r="H93" s="65"/>
+      <c r="I93" s="65"/>
+      <c r="J93" s="65"/>
+      <c r="K93" s="65"/>
       <c r="L93" s="6">
         <v>17</v>
       </c>
@@ -4964,17 +4964,17 @@
         <v>5</v>
       </c>
       <c r="B94" s="1"/>
-      <c r="C94" s="65" t="s">
+      <c r="C94" s="64" t="s">
         <v>36</v>
       </c>
-      <c r="D94" s="66"/>
-      <c r="E94" s="66"/>
-      <c r="F94" s="66"/>
-      <c r="G94" s="66"/>
-      <c r="H94" s="66"/>
-      <c r="I94" s="66"/>
-      <c r="J94" s="66"/>
-      <c r="K94" s="66"/>
+      <c r="D94" s="65"/>
+      <c r="E94" s="65"/>
+      <c r="F94" s="65"/>
+      <c r="G94" s="65"/>
+      <c r="H94" s="65"/>
+      <c r="I94" s="65"/>
+      <c r="J94" s="65"/>
+      <c r="K94" s="65"/>
       <c r="L94" s="6">
         <v>17</v>
       </c>
@@ -5010,17 +5010,17 @@
         <v>6</v>
       </c>
       <c r="B95" s="1"/>
-      <c r="C95" s="65" t="s">
+      <c r="C95" s="64" t="s">
         <v>37</v>
       </c>
-      <c r="D95" s="66"/>
-      <c r="E95" s="66"/>
-      <c r="F95" s="66"/>
-      <c r="G95" s="66"/>
-      <c r="H95" s="66"/>
-      <c r="I95" s="66"/>
-      <c r="J95" s="66"/>
-      <c r="K95" s="66"/>
+      <c r="D95" s="65"/>
+      <c r="E95" s="65"/>
+      <c r="F95" s="65"/>
+      <c r="G95" s="65"/>
+      <c r="H95" s="65"/>
+      <c r="I95" s="65"/>
+      <c r="J95" s="65"/>
+      <c r="K95" s="65"/>
       <c r="L95" s="6">
         <v>17</v>
       </c>
@@ -5056,17 +5056,17 @@
         <v>7</v>
       </c>
       <c r="B96" s="1"/>
-      <c r="C96" s="66" t="s">
+      <c r="C96" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="D96" s="66"/>
-      <c r="E96" s="66"/>
-      <c r="F96" s="66"/>
-      <c r="G96" s="66"/>
-      <c r="H96" s="66"/>
-      <c r="I96" s="66"/>
-      <c r="J96" s="66"/>
-      <c r="K96" s="66"/>
+      <c r="D96" s="65"/>
+      <c r="E96" s="65"/>
+      <c r="F96" s="65"/>
+      <c r="G96" s="65"/>
+      <c r="H96" s="65"/>
+      <c r="I96" s="65"/>
+      <c r="J96" s="65"/>
+      <c r="K96" s="65"/>
       <c r="L96" s="6">
         <v>17</v>
       </c>
@@ -5102,17 +5102,17 @@
         <v>8</v>
       </c>
       <c r="B97" s="1"/>
-      <c r="C97" s="65" t="s">
+      <c r="C97" s="64" t="s">
         <v>38</v>
       </c>
-      <c r="D97" s="66"/>
-      <c r="E97" s="66"/>
-      <c r="F97" s="66"/>
-      <c r="G97" s="66"/>
-      <c r="H97" s="66"/>
-      <c r="I97" s="66"/>
-      <c r="J97" s="66"/>
-      <c r="K97" s="66"/>
+      <c r="D97" s="65"/>
+      <c r="E97" s="65"/>
+      <c r="F97" s="65"/>
+      <c r="G97" s="65"/>
+      <c r="H97" s="65"/>
+      <c r="I97" s="65"/>
+      <c r="J97" s="65"/>
+      <c r="K97" s="65"/>
       <c r="L97" s="6">
         <v>17</v>
       </c>
@@ -5135,17 +5135,17 @@
         <v>9</v>
       </c>
       <c r="B98" s="1"/>
-      <c r="C98" s="65" t="s">
+      <c r="C98" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="D98" s="66"/>
-      <c r="E98" s="66"/>
-      <c r="F98" s="66"/>
-      <c r="G98" s="66"/>
-      <c r="H98" s="66"/>
-      <c r="I98" s="66"/>
-      <c r="J98" s="66"/>
-      <c r="K98" s="66"/>
+      <c r="D98" s="65"/>
+      <c r="E98" s="65"/>
+      <c r="F98" s="65"/>
+      <c r="G98" s="65"/>
+      <c r="H98" s="65"/>
+      <c r="I98" s="65"/>
+      <c r="J98" s="65"/>
+      <c r="K98" s="65"/>
       <c r="L98" s="6">
         <v>17</v>
       </c>
@@ -5168,17 +5168,17 @@
         <v>10</v>
       </c>
       <c r="B99" s="1"/>
-      <c r="C99" s="65" t="s">
+      <c r="C99" s="64" t="s">
         <v>40</v>
       </c>
-      <c r="D99" s="66"/>
-      <c r="E99" s="66"/>
-      <c r="F99" s="66"/>
-      <c r="G99" s="66"/>
-      <c r="H99" s="66"/>
-      <c r="I99" s="66"/>
-      <c r="J99" s="66"/>
-      <c r="K99" s="66"/>
+      <c r="D99" s="65"/>
+      <c r="E99" s="65"/>
+      <c r="F99" s="65"/>
+      <c r="G99" s="65"/>
+      <c r="H99" s="65"/>
+      <c r="I99" s="65"/>
+      <c r="J99" s="65"/>
+      <c r="K99" s="65"/>
       <c r="L99" s="6">
         <v>17</v>
       </c>
@@ -5214,17 +5214,17 @@
         <v>11</v>
       </c>
       <c r="B100" s="1"/>
-      <c r="C100" s="65" t="s">
+      <c r="C100" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="D100" s="66"/>
-      <c r="E100" s="66"/>
-      <c r="F100" s="66"/>
-      <c r="G100" s="66"/>
-      <c r="H100" s="66"/>
-      <c r="I100" s="66"/>
-      <c r="J100" s="66"/>
-      <c r="K100" s="66"/>
+      <c r="D100" s="65"/>
+      <c r="E100" s="65"/>
+      <c r="F100" s="65"/>
+      <c r="G100" s="65"/>
+      <c r="H100" s="65"/>
+      <c r="I100" s="65"/>
+      <c r="J100" s="65"/>
+      <c r="K100" s="65"/>
       <c r="L100" s="6">
         <v>17</v>
       </c>
@@ -5247,17 +5247,17 @@
         <v>12</v>
       </c>
       <c r="B101" s="1"/>
-      <c r="C101" s="65" t="s">
+      <c r="C101" s="64" t="s">
         <v>42</v>
       </c>
-      <c r="D101" s="66"/>
-      <c r="E101" s="66"/>
-      <c r="F101" s="66"/>
-      <c r="G101" s="66"/>
-      <c r="H101" s="66"/>
-      <c r="I101" s="66"/>
-      <c r="J101" s="66"/>
-      <c r="K101" s="66"/>
+      <c r="D101" s="65"/>
+      <c r="E101" s="65"/>
+      <c r="F101" s="65"/>
+      <c r="G101" s="65"/>
+      <c r="H101" s="65"/>
+      <c r="I101" s="65"/>
+      <c r="J101" s="65"/>
+      <c r="K101" s="65"/>
       <c r="L101" s="6">
         <v>17</v>
       </c>
@@ -5280,17 +5280,17 @@
         <v>13</v>
       </c>
       <c r="B102" s="1"/>
-      <c r="C102" s="66" t="s">
+      <c r="C102" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="D102" s="66"/>
-      <c r="E102" s="66"/>
-      <c r="F102" s="66"/>
-      <c r="G102" s="66"/>
-      <c r="H102" s="66"/>
-      <c r="I102" s="66"/>
-      <c r="J102" s="66"/>
-      <c r="K102" s="66"/>
+      <c r="D102" s="65"/>
+      <c r="E102" s="65"/>
+      <c r="F102" s="65"/>
+      <c r="G102" s="65"/>
+      <c r="H102" s="65"/>
+      <c r="I102" s="65"/>
+      <c r="J102" s="65"/>
+      <c r="K102" s="65"/>
       <c r="L102" s="6">
         <v>17</v>
       </c>
@@ -5326,17 +5326,17 @@
         <v>14</v>
       </c>
       <c r="B103" s="1"/>
-      <c r="C103" s="65" t="s">
+      <c r="C103" s="64" t="s">
         <v>43</v>
       </c>
-      <c r="D103" s="66"/>
-      <c r="E103" s="66"/>
-      <c r="F103" s="66"/>
-      <c r="G103" s="66"/>
-      <c r="H103" s="66"/>
-      <c r="I103" s="66"/>
-      <c r="J103" s="66"/>
-      <c r="K103" s="66"/>
+      <c r="D103" s="65"/>
+      <c r="E103" s="65"/>
+      <c r="F103" s="65"/>
+      <c r="G103" s="65"/>
+      <c r="H103" s="65"/>
+      <c r="I103" s="65"/>
+      <c r="J103" s="65"/>
+      <c r="K103" s="65"/>
       <c r="L103" s="6">
         <v>17</v>
       </c>
@@ -5372,17 +5372,17 @@
         <v>15</v>
       </c>
       <c r="B104" s="1"/>
-      <c r="C104" s="66" t="s">
+      <c r="C104" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="D104" s="66"/>
-      <c r="E104" s="66"/>
-      <c r="F104" s="66"/>
-      <c r="G104" s="66"/>
-      <c r="H104" s="66"/>
-      <c r="I104" s="66"/>
-      <c r="J104" s="66"/>
-      <c r="K104" s="66"/>
+      <c r="D104" s="65"/>
+      <c r="E104" s="65"/>
+      <c r="F104" s="65"/>
+      <c r="G104" s="65"/>
+      <c r="H104" s="65"/>
+      <c r="I104" s="65"/>
+      <c r="J104" s="65"/>
+      <c r="K104" s="65"/>
       <c r="L104" s="6">
         <v>17</v>
       </c>
@@ -5418,17 +5418,17 @@
         <v>16</v>
       </c>
       <c r="B105" s="1"/>
-      <c r="C105" s="66" t="s">
+      <c r="C105" s="65" t="s">
         <v>44</v>
       </c>
-      <c r="D105" s="66"/>
-      <c r="E105" s="66"/>
-      <c r="F105" s="66"/>
-      <c r="G105" s="66"/>
-      <c r="H105" s="66"/>
-      <c r="I105" s="66"/>
-      <c r="J105" s="66"/>
-      <c r="K105" s="66"/>
+      <c r="D105" s="65"/>
+      <c r="E105" s="65"/>
+      <c r="F105" s="65"/>
+      <c r="G105" s="65"/>
+      <c r="H105" s="65"/>
+      <c r="I105" s="65"/>
+      <c r="J105" s="65"/>
+      <c r="K105" s="65"/>
       <c r="L105" s="6">
         <v>17</v>
       </c>
@@ -5451,17 +5451,17 @@
         <v>17</v>
       </c>
       <c r="B106" s="1"/>
-      <c r="C106" s="65" t="s">
+      <c r="C106" s="64" t="s">
         <v>45</v>
       </c>
-      <c r="D106" s="66"/>
-      <c r="E106" s="66"/>
-      <c r="F106" s="66"/>
-      <c r="G106" s="66"/>
-      <c r="H106" s="66"/>
-      <c r="I106" s="66"/>
-      <c r="J106" s="66"/>
-      <c r="K106" s="66"/>
+      <c r="D106" s="65"/>
+      <c r="E106" s="65"/>
+      <c r="F106" s="65"/>
+      <c r="G106" s="65"/>
+      <c r="H106" s="65"/>
+      <c r="I106" s="65"/>
+      <c r="J106" s="65"/>
+      <c r="K106" s="65"/>
       <c r="L106" s="6">
         <v>17</v>
       </c>
@@ -5497,17 +5497,17 @@
         <v>18</v>
       </c>
       <c r="B107" s="1"/>
-      <c r="C107" s="65" t="s">
+      <c r="C107" s="64" t="s">
         <v>46</v>
       </c>
-      <c r="D107" s="66"/>
-      <c r="E107" s="66"/>
-      <c r="F107" s="66"/>
-      <c r="G107" s="66"/>
-      <c r="H107" s="66"/>
-      <c r="I107" s="66"/>
-      <c r="J107" s="66"/>
-      <c r="K107" s="66"/>
+      <c r="D107" s="65"/>
+      <c r="E107" s="65"/>
+      <c r="F107" s="65"/>
+      <c r="G107" s="65"/>
+      <c r="H107" s="65"/>
+      <c r="I107" s="65"/>
+      <c r="J107" s="65"/>
+      <c r="K107" s="65"/>
       <c r="L107" s="6">
         <v>17</v>
       </c>
@@ -5530,17 +5530,17 @@
         <v>19</v>
       </c>
       <c r="B108" s="1"/>
-      <c r="C108" s="66" t="s">
+      <c r="C108" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="D108" s="66"/>
-      <c r="E108" s="66"/>
-      <c r="F108" s="66"/>
-      <c r="G108" s="66"/>
-      <c r="H108" s="66"/>
-      <c r="I108" s="66"/>
-      <c r="J108" s="66"/>
-      <c r="K108" s="66"/>
+      <c r="D108" s="65"/>
+      <c r="E108" s="65"/>
+      <c r="F108" s="65"/>
+      <c r="G108" s="65"/>
+      <c r="H108" s="65"/>
+      <c r="I108" s="65"/>
+      <c r="J108" s="65"/>
+      <c r="K108" s="65"/>
       <c r="L108" s="6">
         <v>17</v>
       </c>
@@ -5576,17 +5576,17 @@
         <v>20</v>
       </c>
       <c r="B109" s="1"/>
-      <c r="C109" s="66" t="s">
+      <c r="C109" s="65" t="s">
         <v>47</v>
       </c>
-      <c r="D109" s="66"/>
-      <c r="E109" s="66"/>
-      <c r="F109" s="66"/>
-      <c r="G109" s="66"/>
-      <c r="H109" s="66"/>
-      <c r="I109" s="66"/>
-      <c r="J109" s="66"/>
-      <c r="K109" s="66"/>
+      <c r="D109" s="65"/>
+      <c r="E109" s="65"/>
+      <c r="F109" s="65"/>
+      <c r="G109" s="65"/>
+      <c r="H109" s="65"/>
+      <c r="I109" s="65"/>
+      <c r="J109" s="65"/>
+      <c r="K109" s="65"/>
       <c r="L109" s="6">
         <v>17</v>
       </c>
@@ -5622,17 +5622,17 @@
         <v>21</v>
       </c>
       <c r="B110" s="1"/>
-      <c r="C110" s="66" t="s">
+      <c r="C110" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="D110" s="66"/>
-      <c r="E110" s="66"/>
-      <c r="F110" s="66"/>
-      <c r="G110" s="66"/>
-      <c r="H110" s="66"/>
-      <c r="I110" s="66"/>
-      <c r="J110" s="66"/>
-      <c r="K110" s="66"/>
+      <c r="D110" s="65"/>
+      <c r="E110" s="65"/>
+      <c r="F110" s="65"/>
+      <c r="G110" s="65"/>
+      <c r="H110" s="65"/>
+      <c r="I110" s="65"/>
+      <c r="J110" s="65"/>
+      <c r="K110" s="65"/>
       <c r="L110" s="6">
         <v>17</v>
       </c>
@@ -5668,17 +5668,17 @@
         <v>22</v>
       </c>
       <c r="B111" s="1"/>
-      <c r="C111" s="65" t="s">
+      <c r="C111" s="64" t="s">
         <v>48</v>
       </c>
-      <c r="D111" s="66"/>
-      <c r="E111" s="66"/>
-      <c r="F111" s="66"/>
-      <c r="G111" s="66"/>
-      <c r="H111" s="66"/>
-      <c r="I111" s="66"/>
-      <c r="J111" s="66"/>
-      <c r="K111" s="66"/>
+      <c r="D111" s="65"/>
+      <c r="E111" s="65"/>
+      <c r="F111" s="65"/>
+      <c r="G111" s="65"/>
+      <c r="H111" s="65"/>
+      <c r="I111" s="65"/>
+      <c r="J111" s="65"/>
+      <c r="K111" s="65"/>
       <c r="L111" s="6">
         <v>17</v>
       </c>
@@ -5714,17 +5714,17 @@
         <v>23</v>
       </c>
       <c r="B112" s="1"/>
-      <c r="C112" s="66" t="s">
+      <c r="C112" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="D112" s="66"/>
-      <c r="E112" s="66"/>
-      <c r="F112" s="66"/>
-      <c r="G112" s="66"/>
-      <c r="H112" s="66"/>
-      <c r="I112" s="66"/>
-      <c r="J112" s="66"/>
-      <c r="K112" s="66"/>
+      <c r="D112" s="65"/>
+      <c r="E112" s="65"/>
+      <c r="F112" s="65"/>
+      <c r="G112" s="65"/>
+      <c r="H112" s="65"/>
+      <c r="I112" s="65"/>
+      <c r="J112" s="65"/>
+      <c r="K112" s="65"/>
       <c r="L112" s="6">
         <v>17</v>
       </c>
@@ -5747,17 +5747,17 @@
         <v>24</v>
       </c>
       <c r="B113" s="1"/>
-      <c r="C113" s="65" t="s">
+      <c r="C113" s="64" t="s">
         <v>49</v>
       </c>
-      <c r="D113" s="66"/>
-      <c r="E113" s="66"/>
-      <c r="F113" s="66"/>
-      <c r="G113" s="66"/>
-      <c r="H113" s="66"/>
-      <c r="I113" s="66"/>
-      <c r="J113" s="66"/>
-      <c r="K113" s="66"/>
+      <c r="D113" s="65"/>
+      <c r="E113" s="65"/>
+      <c r="F113" s="65"/>
+      <c r="G113" s="65"/>
+      <c r="H113" s="65"/>
+      <c r="I113" s="65"/>
+      <c r="J113" s="65"/>
+      <c r="K113" s="65"/>
       <c r="L113" s="6">
         <v>17</v>
       </c>
@@ -5780,20 +5780,20 @@
         <v>25</v>
       </c>
       <c r="B114" s="8"/>
-      <c r="C114" s="59" t="s">
+      <c r="C114" s="66" t="s">
         <v>58</v>
       </c>
-      <c r="D114" s="60"/>
-      <c r="E114" s="60"/>
-      <c r="F114" s="60"/>
-      <c r="G114" s="60"/>
-      <c r="H114" s="60"/>
-      <c r="I114" s="60"/>
-      <c r="J114" s="60"/>
-      <c r="K114" s="60"/>
-      <c r="L114" s="60"/>
-      <c r="M114" s="60"/>
-      <c r="N114" s="61"/>
+      <c r="D114" s="67"/>
+      <c r="E114" s="67"/>
+      <c r="F114" s="67"/>
+      <c r="G114" s="67"/>
+      <c r="H114" s="67"/>
+      <c r="I114" s="67"/>
+      <c r="J114" s="67"/>
+      <c r="K114" s="67"/>
+      <c r="L114" s="67"/>
+      <c r="M114" s="67"/>
+      <c r="N114" s="68"/>
       <c r="O114" s="11"/>
       <c r="P114" s="12">
         <f>AVERAGE(P90:P113)</f>
@@ -5814,26 +5814,26 @@
     </row>
     <row r="116" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="117" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A117" s="75" t="s">
+      <c r="A117" s="82" t="s">
         <v>13</v>
       </c>
-      <c r="B117" s="76"/>
-      <c r="C117" s="76"/>
-      <c r="D117" s="76"/>
-      <c r="E117" s="76"/>
-      <c r="F117" s="76"/>
-      <c r="G117" s="76"/>
-      <c r="H117" s="76"/>
-      <c r="I117" s="76"/>
-      <c r="J117" s="76"/>
-      <c r="K117" s="76"/>
-      <c r="L117" s="76"/>
-      <c r="M117" s="76"/>
-      <c r="N117" s="76"/>
-      <c r="O117" s="76"/>
-      <c r="P117" s="76"/>
-      <c r="Q117" s="76"/>
-      <c r="R117" s="77"/>
+      <c r="B117" s="83"/>
+      <c r="C117" s="83"/>
+      <c r="D117" s="83"/>
+      <c r="E117" s="83"/>
+      <c r="F117" s="83"/>
+      <c r="G117" s="83"/>
+      <c r="H117" s="83"/>
+      <c r="I117" s="83"/>
+      <c r="J117" s="83"/>
+      <c r="K117" s="83"/>
+      <c r="L117" s="83"/>
+      <c r="M117" s="83"/>
+      <c r="N117" s="83"/>
+      <c r="O117" s="83"/>
+      <c r="P117" s="83"/>
+      <c r="Q117" s="83"/>
+      <c r="R117" s="84"/>
       <c r="S117" s="15"/>
       <c r="T117" s="15"/>
       <c r="U117" s="15"/>
@@ -5923,17 +5923,17 @@
         <v>2</v>
       </c>
       <c r="B121" s="1"/>
-      <c r="C121" s="65" t="s">
+      <c r="C121" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="D121" s="66"/>
-      <c r="E121" s="66"/>
-      <c r="F121" s="66"/>
-      <c r="G121" s="66"/>
-      <c r="H121" s="66"/>
-      <c r="I121" s="66"/>
-      <c r="J121" s="66"/>
-      <c r="K121" s="66"/>
+      <c r="D121" s="65"/>
+      <c r="E121" s="65"/>
+      <c r="F121" s="65"/>
+      <c r="G121" s="65"/>
+      <c r="H121" s="65"/>
+      <c r="I121" s="65"/>
+      <c r="J121" s="65"/>
+      <c r="K121" s="65"/>
       <c r="L121" s="6">
         <v>33</v>
       </c>
@@ -5956,17 +5956,17 @@
         <v>3</v>
       </c>
       <c r="B122" s="1"/>
-      <c r="C122" s="65" t="s">
+      <c r="C122" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="D122" s="66"/>
-      <c r="E122" s="66"/>
-      <c r="F122" s="66"/>
-      <c r="G122" s="66"/>
-      <c r="H122" s="66"/>
-      <c r="I122" s="66"/>
-      <c r="J122" s="66"/>
-      <c r="K122" s="66"/>
+      <c r="D122" s="65"/>
+      <c r="E122" s="65"/>
+      <c r="F122" s="65"/>
+      <c r="G122" s="65"/>
+      <c r="H122" s="65"/>
+      <c r="I122" s="65"/>
+      <c r="J122" s="65"/>
+      <c r="K122" s="65"/>
       <c r="L122" s="6">
         <v>33</v>
       </c>
@@ -6002,17 +6002,17 @@
         <v>4</v>
       </c>
       <c r="B123" s="1"/>
-      <c r="C123" s="66" t="s">
+      <c r="C123" s="65" t="s">
         <v>18</v>
       </c>
-      <c r="D123" s="66"/>
-      <c r="E123" s="66"/>
-      <c r="F123" s="66"/>
-      <c r="G123" s="66"/>
-      <c r="H123" s="66"/>
-      <c r="I123" s="66"/>
-      <c r="J123" s="66"/>
-      <c r="K123" s="66"/>
+      <c r="D123" s="65"/>
+      <c r="E123" s="65"/>
+      <c r="F123" s="65"/>
+      <c r="G123" s="65"/>
+      <c r="H123" s="65"/>
+      <c r="I123" s="65"/>
+      <c r="J123" s="65"/>
+      <c r="K123" s="65"/>
       <c r="L123" s="6">
         <v>33</v>
       </c>
@@ -6035,17 +6035,17 @@
         <v>5</v>
       </c>
       <c r="B124" s="1"/>
-      <c r="C124" s="65" t="s">
+      <c r="C124" s="64" t="s">
         <v>61</v>
       </c>
-      <c r="D124" s="66"/>
-      <c r="E124" s="66"/>
-      <c r="F124" s="66"/>
-      <c r="G124" s="66"/>
-      <c r="H124" s="66"/>
-      <c r="I124" s="66"/>
-      <c r="J124" s="66"/>
-      <c r="K124" s="66"/>
+      <c r="D124" s="65"/>
+      <c r="E124" s="65"/>
+      <c r="F124" s="65"/>
+      <c r="G124" s="65"/>
+      <c r="H124" s="65"/>
+      <c r="I124" s="65"/>
+      <c r="J124" s="65"/>
+      <c r="K124" s="65"/>
       <c r="L124" s="6">
         <v>33</v>
       </c>
@@ -6068,17 +6068,17 @@
         <v>6</v>
       </c>
       <c r="B125" s="1"/>
-      <c r="C125" s="65" t="s">
+      <c r="C125" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="D125" s="66"/>
-      <c r="E125" s="66"/>
-      <c r="F125" s="66"/>
-      <c r="G125" s="66"/>
-      <c r="H125" s="66"/>
-      <c r="I125" s="66"/>
-      <c r="J125" s="66"/>
-      <c r="K125" s="66"/>
+      <c r="D125" s="65"/>
+      <c r="E125" s="65"/>
+      <c r="F125" s="65"/>
+      <c r="G125" s="65"/>
+      <c r="H125" s="65"/>
+      <c r="I125" s="65"/>
+      <c r="J125" s="65"/>
+      <c r="K125" s="65"/>
       <c r="L125" s="6">
         <v>33</v>
       </c>
@@ -6101,17 +6101,17 @@
         <v>7</v>
       </c>
       <c r="B126" s="1"/>
-      <c r="C126" s="66" t="s">
+      <c r="C126" s="65" t="s">
         <v>20</v>
       </c>
-      <c r="D126" s="66"/>
-      <c r="E126" s="66"/>
-      <c r="F126" s="66"/>
-      <c r="G126" s="66"/>
-      <c r="H126" s="66"/>
-      <c r="I126" s="66"/>
-      <c r="J126" s="66"/>
-      <c r="K126" s="66"/>
+      <c r="D126" s="65"/>
+      <c r="E126" s="65"/>
+      <c r="F126" s="65"/>
+      <c r="G126" s="65"/>
+      <c r="H126" s="65"/>
+      <c r="I126" s="65"/>
+      <c r="J126" s="65"/>
+      <c r="K126" s="65"/>
       <c r="L126" s="6">
         <v>33</v>
       </c>
@@ -6134,17 +6134,17 @@
         <v>8</v>
       </c>
       <c r="B127" s="1"/>
-      <c r="C127" s="65" t="s">
+      <c r="C127" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="D127" s="66"/>
-      <c r="E127" s="66"/>
-      <c r="F127" s="66"/>
-      <c r="G127" s="66"/>
-      <c r="H127" s="66"/>
-      <c r="I127" s="66"/>
-      <c r="J127" s="66"/>
-      <c r="K127" s="66"/>
+      <c r="D127" s="65"/>
+      <c r="E127" s="65"/>
+      <c r="F127" s="65"/>
+      <c r="G127" s="65"/>
+      <c r="H127" s="65"/>
+      <c r="I127" s="65"/>
+      <c r="J127" s="65"/>
+      <c r="K127" s="65"/>
       <c r="L127" s="6">
         <v>33</v>
       </c>
@@ -6167,17 +6167,17 @@
         <v>9</v>
       </c>
       <c r="B128" s="1"/>
-      <c r="C128" s="65" t="s">
+      <c r="C128" s="64" t="s">
         <v>62</v>
       </c>
-      <c r="D128" s="66"/>
-      <c r="E128" s="66"/>
-      <c r="F128" s="66"/>
-      <c r="G128" s="66"/>
-      <c r="H128" s="66"/>
-      <c r="I128" s="66"/>
-      <c r="J128" s="66"/>
-      <c r="K128" s="66"/>
+      <c r="D128" s="65"/>
+      <c r="E128" s="65"/>
+      <c r="F128" s="65"/>
+      <c r="G128" s="65"/>
+      <c r="H128" s="65"/>
+      <c r="I128" s="65"/>
+      <c r="J128" s="65"/>
+      <c r="K128" s="65"/>
       <c r="L128" s="6">
         <v>33</v>
       </c>
@@ -6200,17 +6200,17 @@
         <v>10</v>
       </c>
       <c r="B129" s="1"/>
-      <c r="C129" s="65" t="s">
+      <c r="C129" s="64" t="s">
         <v>22</v>
       </c>
-      <c r="D129" s="66"/>
-      <c r="E129" s="66"/>
-      <c r="F129" s="66"/>
-      <c r="G129" s="66"/>
-      <c r="H129" s="66"/>
-      <c r="I129" s="66"/>
-      <c r="J129" s="66"/>
-      <c r="K129" s="66"/>
+      <c r="D129" s="65"/>
+      <c r="E129" s="65"/>
+      <c r="F129" s="65"/>
+      <c r="G129" s="65"/>
+      <c r="H129" s="65"/>
+      <c r="I129" s="65"/>
+      <c r="J129" s="65"/>
+      <c r="K129" s="65"/>
       <c r="L129" s="6">
         <v>33</v>
       </c>
@@ -6233,17 +6233,17 @@
         <v>11</v>
       </c>
       <c r="B130" s="1"/>
-      <c r="C130" s="65" t="s">
+      <c r="C130" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="D130" s="66"/>
-      <c r="E130" s="66"/>
-      <c r="F130" s="66"/>
-      <c r="G130" s="66"/>
-      <c r="H130" s="66"/>
-      <c r="I130" s="66"/>
-      <c r="J130" s="66"/>
-      <c r="K130" s="66"/>
+      <c r="D130" s="65"/>
+      <c r="E130" s="65"/>
+      <c r="F130" s="65"/>
+      <c r="G130" s="65"/>
+      <c r="H130" s="65"/>
+      <c r="I130" s="65"/>
+      <c r="J130" s="65"/>
+      <c r="K130" s="65"/>
       <c r="L130" s="6">
         <v>33</v>
       </c>
@@ -6266,17 +6266,17 @@
         <v>12</v>
       </c>
       <c r="B131" s="1"/>
-      <c r="C131" s="65" t="s">
+      <c r="C131" s="64" t="s">
         <v>63</v>
       </c>
-      <c r="D131" s="66"/>
-      <c r="E131" s="66"/>
-      <c r="F131" s="66"/>
-      <c r="G131" s="66"/>
-      <c r="H131" s="66"/>
-      <c r="I131" s="66"/>
-      <c r="J131" s="66"/>
-      <c r="K131" s="66"/>
+      <c r="D131" s="65"/>
+      <c r="E131" s="65"/>
+      <c r="F131" s="65"/>
+      <c r="G131" s="65"/>
+      <c r="H131" s="65"/>
+      <c r="I131" s="65"/>
+      <c r="J131" s="65"/>
+      <c r="K131" s="65"/>
       <c r="L131" s="6">
         <v>33</v>
       </c>
@@ -6312,20 +6312,20 @@
         <v>13</v>
       </c>
       <c r="B132" s="1"/>
-      <c r="C132" s="59" t="s">
+      <c r="C132" s="66" t="s">
         <v>58</v>
       </c>
-      <c r="D132" s="60"/>
-      <c r="E132" s="60"/>
-      <c r="F132" s="60"/>
-      <c r="G132" s="60"/>
-      <c r="H132" s="60"/>
-      <c r="I132" s="60"/>
-      <c r="J132" s="60"/>
-      <c r="K132" s="60"/>
-      <c r="L132" s="60"/>
-      <c r="M132" s="60"/>
-      <c r="N132" s="61"/>
+      <c r="D132" s="67"/>
+      <c r="E132" s="67"/>
+      <c r="F132" s="67"/>
+      <c r="G132" s="67"/>
+      <c r="H132" s="67"/>
+      <c r="I132" s="67"/>
+      <c r="J132" s="67"/>
+      <c r="K132" s="67"/>
+      <c r="L132" s="67"/>
+      <c r="M132" s="67"/>
+      <c r="N132" s="68"/>
       <c r="O132" s="11"/>
       <c r="P132" s="12">
         <f>AVERAGE(P120:P131)</f>
@@ -6348,26 +6348,26 @@
       <c r="B133" s="1"/>
     </row>
     <row r="134" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A134" s="62" t="s">
+      <c r="A134" s="69" t="s">
         <v>24</v>
       </c>
-      <c r="B134" s="63"/>
-      <c r="C134" s="63"/>
-      <c r="D134" s="63"/>
-      <c r="E134" s="63"/>
-      <c r="F134" s="63"/>
-      <c r="G134" s="63"/>
-      <c r="H134" s="63"/>
-      <c r="I134" s="63"/>
-      <c r="J134" s="63"/>
-      <c r="K134" s="63"/>
-      <c r="L134" s="63"/>
-      <c r="M134" s="63"/>
-      <c r="N134" s="63"/>
-      <c r="O134" s="63"/>
-      <c r="P134" s="63"/>
-      <c r="Q134" s="63"/>
-      <c r="R134" s="64"/>
+      <c r="B134" s="70"/>
+      <c r="C134" s="70"/>
+      <c r="D134" s="70"/>
+      <c r="E134" s="70"/>
+      <c r="F134" s="70"/>
+      <c r="G134" s="70"/>
+      <c r="H134" s="70"/>
+      <c r="I134" s="70"/>
+      <c r="J134" s="70"/>
+      <c r="K134" s="70"/>
+      <c r="L134" s="70"/>
+      <c r="M134" s="70"/>
+      <c r="N134" s="70"/>
+      <c r="O134" s="70"/>
+      <c r="P134" s="70"/>
+      <c r="Q134" s="70"/>
+      <c r="R134" s="71"/>
       <c r="S134" s="3"/>
       <c r="T134" s="3"/>
       <c r="U134" s="3"/>
@@ -6457,17 +6457,17 @@
         <v>2</v>
       </c>
       <c r="B138" s="1"/>
-      <c r="C138" s="65" t="s">
+      <c r="C138" s="64" t="s">
         <v>66</v>
       </c>
-      <c r="D138" s="66"/>
-      <c r="E138" s="66"/>
-      <c r="F138" s="66"/>
-      <c r="G138" s="66"/>
-      <c r="H138" s="66"/>
-      <c r="I138" s="66"/>
-      <c r="J138" s="66"/>
-      <c r="K138" s="66"/>
+      <c r="D138" s="65"/>
+      <c r="E138" s="65"/>
+      <c r="F138" s="65"/>
+      <c r="G138" s="65"/>
+      <c r="H138" s="65"/>
+      <c r="I138" s="65"/>
+      <c r="J138" s="65"/>
+      <c r="K138" s="65"/>
       <c r="L138" s="6">
         <v>33</v>
       </c>
@@ -6490,17 +6490,17 @@
         <v>3</v>
       </c>
       <c r="B139" s="1"/>
-      <c r="C139" s="65" t="s">
+      <c r="C139" s="64" t="s">
         <v>25</v>
       </c>
-      <c r="D139" s="66"/>
-      <c r="E139" s="66"/>
-      <c r="F139" s="66"/>
-      <c r="G139" s="66"/>
-      <c r="H139" s="66"/>
-      <c r="I139" s="66"/>
-      <c r="J139" s="66"/>
-      <c r="K139" s="66"/>
+      <c r="D139" s="65"/>
+      <c r="E139" s="65"/>
+      <c r="F139" s="65"/>
+      <c r="G139" s="65"/>
+      <c r="H139" s="65"/>
+      <c r="I139" s="65"/>
+      <c r="J139" s="65"/>
+      <c r="K139" s="65"/>
       <c r="L139" s="6">
         <v>33</v>
       </c>
@@ -6523,17 +6523,17 @@
         <v>4</v>
       </c>
       <c r="B140" s="1"/>
-      <c r="C140" s="66" t="s">
+      <c r="C140" s="65" t="s">
         <v>26</v>
       </c>
-      <c r="D140" s="66"/>
-      <c r="E140" s="66"/>
-      <c r="F140" s="66"/>
-      <c r="G140" s="66"/>
-      <c r="H140" s="66"/>
-      <c r="I140" s="66"/>
-      <c r="J140" s="66"/>
-      <c r="K140" s="66"/>
+      <c r="D140" s="65"/>
+      <c r="E140" s="65"/>
+      <c r="F140" s="65"/>
+      <c r="G140" s="65"/>
+      <c r="H140" s="65"/>
+      <c r="I140" s="65"/>
+      <c r="J140" s="65"/>
+      <c r="K140" s="65"/>
       <c r="L140" s="6">
         <v>33</v>
       </c>
@@ -6556,17 +6556,17 @@
         <v>5</v>
       </c>
       <c r="B141" s="1"/>
-      <c r="C141" s="65" t="s">
+      <c r="C141" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="D141" s="66"/>
-      <c r="E141" s="66"/>
-      <c r="F141" s="66"/>
-      <c r="G141" s="66"/>
-      <c r="H141" s="66"/>
-      <c r="I141" s="66"/>
-      <c r="J141" s="66"/>
-      <c r="K141" s="66"/>
+      <c r="D141" s="65"/>
+      <c r="E141" s="65"/>
+      <c r="F141" s="65"/>
+      <c r="G141" s="65"/>
+      <c r="H141" s="65"/>
+      <c r="I141" s="65"/>
+      <c r="J141" s="65"/>
+      <c r="K141" s="65"/>
       <c r="L141" s="6">
         <v>33</v>
       </c>
@@ -6589,17 +6589,17 @@
         <v>6</v>
       </c>
       <c r="B142" s="1"/>
-      <c r="C142" s="65" t="s">
+      <c r="C142" s="64" t="s">
         <v>67</v>
       </c>
-      <c r="D142" s="66"/>
-      <c r="E142" s="66"/>
-      <c r="F142" s="66"/>
-      <c r="G142" s="66"/>
-      <c r="H142" s="66"/>
-      <c r="I142" s="66"/>
-      <c r="J142" s="66"/>
-      <c r="K142" s="66"/>
+      <c r="D142" s="65"/>
+      <c r="E142" s="65"/>
+      <c r="F142" s="65"/>
+      <c r="G142" s="65"/>
+      <c r="H142" s="65"/>
+      <c r="I142" s="65"/>
+      <c r="J142" s="65"/>
+      <c r="K142" s="65"/>
       <c r="L142" s="6">
         <v>33</v>
       </c>
@@ -6622,20 +6622,20 @@
         <v>7</v>
       </c>
       <c r="B143" s="1"/>
-      <c r="C143" s="59" t="s">
+      <c r="C143" s="66" t="s">
         <v>58</v>
       </c>
-      <c r="D143" s="60"/>
-      <c r="E143" s="60"/>
-      <c r="F143" s="60"/>
-      <c r="G143" s="60"/>
-      <c r="H143" s="60"/>
-      <c r="I143" s="60"/>
-      <c r="J143" s="60"/>
-      <c r="K143" s="60"/>
-      <c r="L143" s="60"/>
-      <c r="M143" s="60"/>
-      <c r="N143" s="61"/>
+      <c r="D143" s="67"/>
+      <c r="E143" s="67"/>
+      <c r="F143" s="67"/>
+      <c r="G143" s="67"/>
+      <c r="H143" s="67"/>
+      <c r="I143" s="67"/>
+      <c r="J143" s="67"/>
+      <c r="K143" s="67"/>
+      <c r="L143" s="67"/>
+      <c r="M143" s="67"/>
+      <c r="N143" s="68"/>
       <c r="O143" s="11"/>
       <c r="P143" s="12" t="e">
         <f>AVERAGE(P137:P142)</f>
@@ -6655,25 +6655,25 @@
       <c r="B144" s="1"/>
     </row>
     <row r="145" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A145" s="71" t="s">
+      <c r="A145" s="81" t="s">
         <v>28</v>
       </c>
-      <c r="B145" s="71"/>
-      <c r="C145" s="71"/>
-      <c r="D145" s="71"/>
-      <c r="E145" s="71"/>
-      <c r="F145" s="71"/>
-      <c r="G145" s="71"/>
-      <c r="H145" s="71"/>
-      <c r="I145" s="71"/>
-      <c r="J145" s="71"/>
-      <c r="K145" s="71"/>
-      <c r="L145" s="71"/>
-      <c r="M145" s="71"/>
-      <c r="N145" s="71"/>
-      <c r="O145" s="71"/>
-      <c r="P145" s="71"/>
-      <c r="Q145" s="71"/>
+      <c r="B145" s="81"/>
+      <c r="C145" s="81"/>
+      <c r="D145" s="81"/>
+      <c r="E145" s="81"/>
+      <c r="F145" s="81"/>
+      <c r="G145" s="81"/>
+      <c r="H145" s="81"/>
+      <c r="I145" s="81"/>
+      <c r="J145" s="81"/>
+      <c r="K145" s="81"/>
+      <c r="L145" s="81"/>
+      <c r="M145" s="81"/>
+      <c r="N145" s="81"/>
+      <c r="O145" s="81"/>
+      <c r="P145" s="81"/>
+      <c r="Q145" s="81"/>
       <c r="R145"/>
     </row>
     <row r="146" spans="1:18" x14ac:dyDescent="0.3">
@@ -6681,10 +6681,10 @@
         <v>1</v>
       </c>
       <c r="B146" s="16"/>
-      <c r="C146" s="67" t="s">
+      <c r="C146" s="80" t="s">
         <v>68</v>
       </c>
-      <c r="D146" s="67"/>
+      <c r="D146" s="80"/>
       <c r="E146" s="17" t="s">
         <v>69</v>
       </c>
@@ -6731,10 +6731,10 @@
         <v>1</v>
       </c>
       <c r="B147" s="14"/>
-      <c r="C147" s="56" t="s">
+      <c r="C147" s="63" t="s">
         <v>84</v>
       </c>
-      <c r="D147" s="56"/>
+      <c r="D147" s="63"/>
       <c r="E147" s="25">
         <v>51</v>
       </c>
@@ -6781,10 +6781,10 @@
         <v>2</v>
       </c>
       <c r="B148" s="14"/>
-      <c r="C148" s="56" t="s">
+      <c r="C148" s="63" t="s">
         <v>85</v>
       </c>
-      <c r="D148" s="56"/>
+      <c r="D148" s="63"/>
       <c r="E148" s="25">
         <v>47</v>
       </c>
@@ -6831,10 +6831,10 @@
         <v>3</v>
       </c>
       <c r="B149" s="14"/>
-      <c r="C149" s="56" t="s">
+      <c r="C149" s="63" t="s">
         <v>86</v>
       </c>
-      <c r="D149" s="56"/>
+      <c r="D149" s="63"/>
       <c r="E149" s="25">
         <v>51</v>
       </c>
@@ -6881,10 +6881,10 @@
         <v>4</v>
       </c>
       <c r="B150" s="14"/>
-      <c r="C150" s="56" t="s">
+      <c r="C150" s="63" t="s">
         <v>87</v>
       </c>
-      <c r="D150" s="56"/>
+      <c r="D150" s="63"/>
       <c r="E150" s="25">
         <v>52</v>
       </c>
@@ -6931,10 +6931,10 @@
         <v>5</v>
       </c>
       <c r="B151" s="14"/>
-      <c r="C151" s="56" t="s">
+      <c r="C151" s="63" t="s">
         <v>90</v>
       </c>
-      <c r="D151" s="56"/>
+      <c r="D151" s="63"/>
       <c r="E151" s="25">
         <v>60</v>
       </c>
@@ -6981,10 +6981,10 @@
         <v>6</v>
       </c>
       <c r="B152" s="14"/>
-      <c r="C152" s="56" t="s">
+      <c r="C152" s="63" t="s">
         <v>91</v>
       </c>
-      <c r="D152" s="56"/>
+      <c r="D152" s="63"/>
       <c r="E152" s="25">
         <v>56</v>
       </c>
@@ -7031,10 +7031,10 @@
         <v>7</v>
       </c>
       <c r="B153" s="14"/>
-      <c r="C153" s="56" t="s">
+      <c r="C153" s="63" t="s">
         <v>92</v>
       </c>
-      <c r="D153" s="56"/>
+      <c r="D153" s="63"/>
       <c r="E153" s="25">
         <v>56</v>
       </c>
@@ -7081,10 +7081,10 @@
         <v>8</v>
       </c>
       <c r="B154" s="14"/>
-      <c r="C154" s="56" t="s">
+      <c r="C154" s="63" t="s">
         <v>93</v>
       </c>
-      <c r="D154" s="56"/>
+      <c r="D154" s="63"/>
       <c r="E154" s="25">
         <v>56</v>
       </c>
@@ -7129,10 +7129,10 @@
     <row r="155" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A155" s="14"/>
       <c r="B155" s="14"/>
-      <c r="C155" s="57" t="s">
+      <c r="C155" s="74" t="s">
         <v>98</v>
       </c>
-      <c r="D155" s="57"/>
+      <c r="D155" s="74"/>
       <c r="E155" s="25">
         <f t="shared" ref="E155:O155" si="11">AVERAGE(E147:E154)</f>
         <v>53.625</v>
@@ -7194,25 +7194,25 @@
       <c r="R157"/>
     </row>
     <row r="158" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A158" s="74" t="s">
+      <c r="A158" s="79" t="s">
         <v>99</v>
       </c>
-      <c r="B158" s="74"/>
-      <c r="C158" s="74"/>
-      <c r="D158" s="74"/>
-      <c r="E158" s="74"/>
-      <c r="F158" s="74"/>
-      <c r="G158" s="74"/>
-      <c r="H158" s="74"/>
-      <c r="I158" s="74"/>
-      <c r="J158" s="74"/>
-      <c r="K158" s="74"/>
-      <c r="L158" s="74"/>
-      <c r="M158" s="74"/>
-      <c r="N158" s="74"/>
-      <c r="O158" s="74"/>
-      <c r="P158" s="74"/>
-      <c r="Q158" s="74"/>
+      <c r="B158" s="79"/>
+      <c r="C158" s="79"/>
+      <c r="D158" s="79"/>
+      <c r="E158" s="79"/>
+      <c r="F158" s="79"/>
+      <c r="G158" s="79"/>
+      <c r="H158" s="79"/>
+      <c r="I158" s="79"/>
+      <c r="J158" s="79"/>
+      <c r="K158" s="79"/>
+      <c r="L158" s="79"/>
+      <c r="M158" s="79"/>
+      <c r="N158" s="79"/>
+      <c r="O158" s="79"/>
+      <c r="P158" s="79"/>
+      <c r="Q158" s="79"/>
       <c r="R158"/>
     </row>
     <row r="159" spans="1:18" x14ac:dyDescent="0.3">
@@ -7220,10 +7220,10 @@
         <v>1</v>
       </c>
       <c r="B159" s="16"/>
-      <c r="C159" s="67" t="s">
+      <c r="C159" s="80" t="s">
         <v>68</v>
       </c>
-      <c r="D159" s="67"/>
+      <c r="D159" s="80"/>
       <c r="E159" s="17" t="s">
         <v>69</v>
       </c>
@@ -7270,10 +7270,10 @@
         <v>1</v>
       </c>
       <c r="B160" s="14"/>
-      <c r="C160" s="56" t="s">
+      <c r="C160" s="63" t="s">
         <v>94</v>
       </c>
-      <c r="D160" s="56"/>
+      <c r="D160" s="63"/>
       <c r="E160" s="25">
         <v>58</v>
       </c>
@@ -7320,10 +7320,10 @@
         <v>2</v>
       </c>
       <c r="B161" s="14"/>
-      <c r="C161" s="56" t="s">
+      <c r="C161" s="63" t="s">
         <v>95</v>
       </c>
-      <c r="D161" s="56"/>
+      <c r="D161" s="63"/>
       <c r="E161" s="25">
         <v>60</v>
       </c>
@@ -7370,10 +7370,10 @@
         <v>3</v>
       </c>
       <c r="B162" s="14"/>
-      <c r="C162" s="56" t="s">
+      <c r="C162" s="63" t="s">
         <v>96</v>
       </c>
-      <c r="D162" s="56"/>
+      <c r="D162" s="63"/>
       <c r="E162" s="25">
         <v>59</v>
       </c>
@@ -7419,10 +7419,10 @@
         <v>4</v>
       </c>
       <c r="B163" s="14"/>
-      <c r="C163" s="56" t="s">
+      <c r="C163" s="63" t="s">
         <v>97</v>
       </c>
-      <c r="D163" s="56"/>
+      <c r="D163" s="63"/>
       <c r="E163" s="25">
         <v>56</v>
       </c>
@@ -7464,10 +7464,10 @@
       </c>
     </row>
     <row r="164" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="C164" s="57" t="s">
+      <c r="C164" s="74" t="s">
         <v>98</v>
       </c>
-      <c r="D164" s="57"/>
+      <c r="D164" s="74"/>
       <c r="E164" s="25">
         <f t="shared" ref="E164:O164" si="12">AVERAGE(E160:E163)</f>
         <v>58.25</v>
@@ -7522,103 +7522,103 @@
       </c>
     </row>
     <row r="170" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A170" s="58" t="s">
+      <c r="A170" s="75" t="s">
         <v>106</v>
       </c>
-      <c r="B170" s="58"/>
-      <c r="C170" s="58"/>
-      <c r="D170" s="58"/>
-      <c r="E170" s="58"/>
-      <c r="F170" s="58"/>
-      <c r="G170" s="58"/>
-      <c r="H170" s="58"/>
-      <c r="I170" s="58"/>
-      <c r="J170" s="58"/>
-      <c r="K170" s="58"/>
-      <c r="L170" s="58"/>
-      <c r="M170" s="58"/>
-      <c r="N170" s="58"/>
-      <c r="O170" s="58"/>
-      <c r="P170" s="58"/>
-      <c r="Q170" s="58"/>
-      <c r="R170" s="58"/>
-      <c r="S170" s="58"/>
-      <c r="T170" s="58"/>
-      <c r="U170" s="58"/>
-      <c r="V170" s="58"/>
-      <c r="W170" s="58"/>
+      <c r="B170" s="75"/>
+      <c r="C170" s="75"/>
+      <c r="D170" s="75"/>
+      <c r="E170" s="75"/>
+      <c r="F170" s="75"/>
+      <c r="G170" s="75"/>
+      <c r="H170" s="75"/>
+      <c r="I170" s="75"/>
+      <c r="J170" s="75"/>
+      <c r="K170" s="75"/>
+      <c r="L170" s="75"/>
+      <c r="M170" s="75"/>
+      <c r="N170" s="75"/>
+      <c r="O170" s="75"/>
+      <c r="P170" s="75"/>
+      <c r="Q170" s="75"/>
+      <c r="R170" s="75"/>
+      <c r="S170" s="75"/>
+      <c r="T170" s="75"/>
+      <c r="U170" s="75"/>
+      <c r="V170" s="75"/>
+      <c r="W170" s="75"/>
     </row>
     <row r="171" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A171" s="58"/>
-      <c r="B171" s="58"/>
-      <c r="C171" s="58"/>
-      <c r="D171" s="58"/>
-      <c r="E171" s="58"/>
-      <c r="F171" s="58"/>
-      <c r="G171" s="58"/>
-      <c r="H171" s="58"/>
-      <c r="I171" s="58"/>
-      <c r="J171" s="58"/>
-      <c r="K171" s="58"/>
-      <c r="L171" s="58"/>
-      <c r="M171" s="58"/>
-      <c r="N171" s="58"/>
-      <c r="O171" s="58"/>
-      <c r="P171" s="58"/>
-      <c r="Q171" s="58"/>
-      <c r="R171" s="58"/>
-      <c r="S171" s="58"/>
-      <c r="T171" s="58"/>
-      <c r="U171" s="58"/>
-      <c r="V171" s="58"/>
-      <c r="W171" s="58"/>
+      <c r="A171" s="75"/>
+      <c r="B171" s="75"/>
+      <c r="C171" s="75"/>
+      <c r="D171" s="75"/>
+      <c r="E171" s="75"/>
+      <c r="F171" s="75"/>
+      <c r="G171" s="75"/>
+      <c r="H171" s="75"/>
+      <c r="I171" s="75"/>
+      <c r="J171" s="75"/>
+      <c r="K171" s="75"/>
+      <c r="L171" s="75"/>
+      <c r="M171" s="75"/>
+      <c r="N171" s="75"/>
+      <c r="O171" s="75"/>
+      <c r="P171" s="75"/>
+      <c r="Q171" s="75"/>
+      <c r="R171" s="75"/>
+      <c r="S171" s="75"/>
+      <c r="T171" s="75"/>
+      <c r="U171" s="75"/>
+      <c r="V171" s="75"/>
+      <c r="W171" s="75"/>
     </row>
     <row r="172" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A172" s="58"/>
-      <c r="B172" s="58"/>
-      <c r="C172" s="58"/>
-      <c r="D172" s="58"/>
-      <c r="E172" s="58"/>
-      <c r="F172" s="58"/>
-      <c r="G172" s="58"/>
-      <c r="H172" s="58"/>
-      <c r="I172" s="58"/>
-      <c r="J172" s="58"/>
-      <c r="K172" s="58"/>
-      <c r="L172" s="58"/>
-      <c r="M172" s="58"/>
-      <c r="N172" s="58"/>
-      <c r="O172" s="58"/>
-      <c r="P172" s="58"/>
-      <c r="Q172" s="58"/>
-      <c r="R172" s="58"/>
-      <c r="S172" s="58"/>
-      <c r="T172" s="58"/>
-      <c r="U172" s="58"/>
-      <c r="V172" s="58"/>
-      <c r="W172" s="58"/>
+      <c r="A172" s="75"/>
+      <c r="B172" s="75"/>
+      <c r="C172" s="75"/>
+      <c r="D172" s="75"/>
+      <c r="E172" s="75"/>
+      <c r="F172" s="75"/>
+      <c r="G172" s="75"/>
+      <c r="H172" s="75"/>
+      <c r="I172" s="75"/>
+      <c r="J172" s="75"/>
+      <c r="K172" s="75"/>
+      <c r="L172" s="75"/>
+      <c r="M172" s="75"/>
+      <c r="N172" s="75"/>
+      <c r="O172" s="75"/>
+      <c r="P172" s="75"/>
+      <c r="Q172" s="75"/>
+      <c r="R172" s="75"/>
+      <c r="S172" s="75"/>
+      <c r="T172" s="75"/>
+      <c r="U172" s="75"/>
+      <c r="V172" s="75"/>
+      <c r="W172" s="75"/>
     </row>
     <row r="173" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A173" s="68" t="s">
+      <c r="A173" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="B173" s="69"/>
-      <c r="C173" s="69"/>
-      <c r="D173" s="69"/>
-      <c r="E173" s="69"/>
-      <c r="F173" s="69"/>
-      <c r="G173" s="69"/>
-      <c r="H173" s="69"/>
-      <c r="I173" s="69"/>
-      <c r="J173" s="69"/>
-      <c r="K173" s="69"/>
-      <c r="L173" s="69"/>
-      <c r="M173" s="69"/>
-      <c r="N173" s="69"/>
-      <c r="O173" s="69"/>
-      <c r="P173" s="69"/>
-      <c r="Q173" s="69"/>
-      <c r="R173" s="70"/>
+      <c r="B173" s="77"/>
+      <c r="C173" s="77"/>
+      <c r="D173" s="77"/>
+      <c r="E173" s="77"/>
+      <c r="F173" s="77"/>
+      <c r="G173" s="77"/>
+      <c r="H173" s="77"/>
+      <c r="I173" s="77"/>
+      <c r="J173" s="77"/>
+      <c r="K173" s="77"/>
+      <c r="L173" s="77"/>
+      <c r="M173" s="77"/>
+      <c r="N173" s="77"/>
+      <c r="O173" s="77"/>
+      <c r="P173" s="77"/>
+      <c r="Q173" s="77"/>
+      <c r="R173" s="78"/>
       <c r="S173" s="38"/>
       <c r="T173" s="38"/>
       <c r="U173" s="38"/>
@@ -7634,17 +7634,17 @@
       <c r="B175" s="46" t="s">
         <v>105</v>
       </c>
-      <c r="C175" s="89" t="s">
+      <c r="C175" s="60" t="s">
         <v>108</v>
       </c>
-      <c r="D175" s="90"/>
-      <c r="E175" s="90"/>
-      <c r="F175" s="90"/>
-      <c r="G175" s="90"/>
-      <c r="H175" s="90"/>
-      <c r="I175" s="90"/>
-      <c r="J175" s="90"/>
-      <c r="K175" s="91"/>
+      <c r="D175" s="61"/>
+      <c r="E175" s="61"/>
+      <c r="F175" s="61"/>
+      <c r="G175" s="61"/>
+      <c r="H175" s="61"/>
+      <c r="I175" s="61"/>
+      <c r="J175" s="61"/>
+      <c r="K175" s="62"/>
       <c r="L175" s="5" t="s">
         <v>2</v>
       </c>
@@ -7684,17 +7684,17 @@
       <c r="B176" s="48">
         <v>44741</v>
       </c>
-      <c r="C176" s="82" t="s">
+      <c r="C176" s="54" t="s">
         <v>43</v>
       </c>
-      <c r="D176" s="83"/>
-      <c r="E176" s="83"/>
-      <c r="F176" s="83"/>
-      <c r="G176" s="83"/>
-      <c r="H176" s="83"/>
-      <c r="I176" s="83"/>
-      <c r="J176" s="83"/>
-      <c r="K176" s="84"/>
+      <c r="D176" s="55"/>
+      <c r="E176" s="55"/>
+      <c r="F176" s="55"/>
+      <c r="G176" s="55"/>
+      <c r="H176" s="55"/>
+      <c r="I176" s="55"/>
+      <c r="J176" s="55"/>
+      <c r="K176" s="56"/>
       <c r="L176" s="6">
         <v>17</v>
       </c>
@@ -7734,17 +7734,17 @@
       <c r="B177" s="48">
         <v>44740</v>
       </c>
-      <c r="C177" s="86" t="s">
+      <c r="C177" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="D177" s="87"/>
-      <c r="E177" s="87"/>
-      <c r="F177" s="87"/>
-      <c r="G177" s="87"/>
-      <c r="H177" s="87"/>
-      <c r="I177" s="87"/>
-      <c r="J177" s="87"/>
-      <c r="K177" s="88"/>
+      <c r="D177" s="58"/>
+      <c r="E177" s="58"/>
+      <c r="F177" s="58"/>
+      <c r="G177" s="58"/>
+      <c r="H177" s="58"/>
+      <c r="I177" s="58"/>
+      <c r="J177" s="58"/>
+      <c r="K177" s="59"/>
       <c r="L177" s="6">
         <v>17</v>
       </c>
@@ -7784,17 +7784,17 @@
       <c r="B178" s="48">
         <v>44765</v>
       </c>
-      <c r="C178" s="86" t="s">
+      <c r="C178" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="D178" s="87"/>
-      <c r="E178" s="87"/>
-      <c r="F178" s="87"/>
-      <c r="G178" s="87"/>
-      <c r="H178" s="87"/>
-      <c r="I178" s="87"/>
-      <c r="J178" s="87"/>
-      <c r="K178" s="88"/>
+      <c r="D178" s="58"/>
+      <c r="E178" s="58"/>
+      <c r="F178" s="58"/>
+      <c r="G178" s="58"/>
+      <c r="H178" s="58"/>
+      <c r="I178" s="58"/>
+      <c r="J178" s="58"/>
+      <c r="K178" s="59"/>
       <c r="L178" s="6">
         <v>17</v>
       </c>
@@ -7834,17 +7834,17 @@
       <c r="B179" s="48">
         <v>44766</v>
       </c>
-      <c r="C179" s="82" t="s">
+      <c r="C179" s="54" t="s">
         <v>48</v>
       </c>
-      <c r="D179" s="83"/>
-      <c r="E179" s="83"/>
-      <c r="F179" s="83"/>
-      <c r="G179" s="83"/>
-      <c r="H179" s="83"/>
-      <c r="I179" s="83"/>
-      <c r="J179" s="83"/>
-      <c r="K179" s="84"/>
+      <c r="D179" s="55"/>
+      <c r="E179" s="55"/>
+      <c r="F179" s="55"/>
+      <c r="G179" s="55"/>
+      <c r="H179" s="55"/>
+      <c r="I179" s="55"/>
+      <c r="J179" s="55"/>
+      <c r="K179" s="56"/>
       <c r="L179" s="6">
         <v>17</v>
       </c>
@@ -7884,17 +7884,17 @@
       <c r="B180" s="48">
         <v>44797</v>
       </c>
-      <c r="C180" s="82" t="s">
+      <c r="C180" s="54" t="s">
         <v>45</v>
       </c>
-      <c r="D180" s="83"/>
-      <c r="E180" s="83"/>
-      <c r="F180" s="83"/>
-      <c r="G180" s="83"/>
-      <c r="H180" s="83"/>
-      <c r="I180" s="83"/>
-      <c r="J180" s="83"/>
-      <c r="K180" s="84"/>
+      <c r="D180" s="55"/>
+      <c r="E180" s="55"/>
+      <c r="F180" s="55"/>
+      <c r="G180" s="55"/>
+      <c r="H180" s="55"/>
+      <c r="I180" s="55"/>
+      <c r="J180" s="55"/>
+      <c r="K180" s="56"/>
       <c r="L180" s="6">
         <v>17</v>
       </c>
@@ -7934,17 +7934,17 @@
       <c r="B181" s="48">
         <v>44797</v>
       </c>
-      <c r="C181" s="82" t="s">
+      <c r="C181" s="54" t="s">
         <v>46</v>
       </c>
-      <c r="D181" s="83"/>
-      <c r="E181" s="83"/>
-      <c r="F181" s="83"/>
-      <c r="G181" s="83"/>
-      <c r="H181" s="83"/>
-      <c r="I181" s="83"/>
-      <c r="J181" s="83"/>
-      <c r="K181" s="84"/>
+      <c r="D181" s="55"/>
+      <c r="E181" s="55"/>
+      <c r="F181" s="55"/>
+      <c r="G181" s="55"/>
+      <c r="H181" s="55"/>
+      <c r="I181" s="55"/>
+      <c r="J181" s="55"/>
+      <c r="K181" s="56"/>
       <c r="L181" s="6">
         <v>17</v>
       </c>
@@ -7982,17 +7982,17 @@
         <v>15</v>
       </c>
       <c r="B182" s="48"/>
-      <c r="C182" s="82" t="s">
+      <c r="C182" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="D182" s="83"/>
-      <c r="E182" s="83"/>
-      <c r="F182" s="83"/>
-      <c r="G182" s="83"/>
-      <c r="H182" s="83"/>
-      <c r="I182" s="83"/>
-      <c r="J182" s="83"/>
-      <c r="K182" s="84"/>
+      <c r="D182" s="55"/>
+      <c r="E182" s="55"/>
+      <c r="F182" s="55"/>
+      <c r="G182" s="55"/>
+      <c r="H182" s="55"/>
+      <c r="I182" s="55"/>
+      <c r="J182" s="55"/>
+      <c r="K182" s="56"/>
       <c r="L182" s="6">
         <v>17</v>
       </c>
@@ -8032,17 +8032,17 @@
       <c r="B183" s="48">
         <v>44813</v>
       </c>
-      <c r="C183" s="82" t="s">
+      <c r="C183" s="54" t="s">
         <v>37</v>
       </c>
-      <c r="D183" s="83"/>
-      <c r="E183" s="83"/>
-      <c r="F183" s="83"/>
-      <c r="G183" s="83"/>
-      <c r="H183" s="83"/>
-      <c r="I183" s="83"/>
-      <c r="J183" s="83"/>
-      <c r="K183" s="84"/>
+      <c r="D183" s="55"/>
+      <c r="E183" s="55"/>
+      <c r="F183" s="55"/>
+      <c r="G183" s="55"/>
+      <c r="H183" s="55"/>
+      <c r="I183" s="55"/>
+      <c r="J183" s="55"/>
+      <c r="K183" s="56"/>
       <c r="L183" s="6">
         <v>17</v>
       </c>
@@ -8082,17 +8082,17 @@
       <c r="B184" s="48">
         <v>44822</v>
       </c>
-      <c r="C184" s="82" t="s">
+      <c r="C184" s="54" t="s">
         <v>39</v>
       </c>
-      <c r="D184" s="83"/>
-      <c r="E184" s="83"/>
-      <c r="F184" s="83"/>
-      <c r="G184" s="83"/>
-      <c r="H184" s="83"/>
-      <c r="I184" s="83"/>
-      <c r="J184" s="83"/>
-      <c r="K184" s="84"/>
+      <c r="D184" s="55"/>
+      <c r="E184" s="55"/>
+      <c r="F184" s="55"/>
+      <c r="G184" s="55"/>
+      <c r="H184" s="55"/>
+      <c r="I184" s="55"/>
+      <c r="J184" s="55"/>
+      <c r="K184" s="56"/>
       <c r="L184" s="6">
         <v>17</v>
       </c>
@@ -8132,17 +8132,17 @@
       <c r="B185" s="48">
         <v>44822</v>
       </c>
-      <c r="C185" s="82" t="s">
+      <c r="C185" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="D185" s="83"/>
-      <c r="E185" s="83"/>
-      <c r="F185" s="83"/>
-      <c r="G185" s="83"/>
-      <c r="H185" s="83"/>
-      <c r="I185" s="83"/>
-      <c r="J185" s="83"/>
-      <c r="K185" s="84"/>
+      <c r="D185" s="55"/>
+      <c r="E185" s="55"/>
+      <c r="F185" s="55"/>
+      <c r="G185" s="55"/>
+      <c r="H185" s="55"/>
+      <c r="I185" s="55"/>
+      <c r="J185" s="55"/>
+      <c r="K185" s="56"/>
       <c r="L185" s="6">
         <v>17</v>
       </c>
@@ -8182,17 +8182,17 @@
       <c r="B186" s="48">
         <v>44830</v>
       </c>
-      <c r="C186" s="86" t="s">
+      <c r="C186" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="D186" s="87"/>
-      <c r="E186" s="87"/>
-      <c r="F186" s="87"/>
-      <c r="G186" s="87"/>
-      <c r="H186" s="87"/>
-      <c r="I186" s="87"/>
-      <c r="J186" s="87"/>
-      <c r="K186" s="88"/>
+      <c r="D186" s="58"/>
+      <c r="E186" s="58"/>
+      <c r="F186" s="58"/>
+      <c r="G186" s="58"/>
+      <c r="H186" s="58"/>
+      <c r="I186" s="58"/>
+      <c r="J186" s="58"/>
+      <c r="K186" s="59"/>
       <c r="L186" s="6">
         <v>17</v>
       </c>
@@ -8220,17 +8220,17 @@
       <c r="B187" s="48">
         <v>44831</v>
       </c>
-      <c r="C187" s="82" t="s">
+      <c r="C187" s="54" t="s">
         <v>38</v>
       </c>
-      <c r="D187" s="83"/>
-      <c r="E187" s="83"/>
-      <c r="F187" s="83"/>
-      <c r="G187" s="83"/>
-      <c r="H187" s="83"/>
-      <c r="I187" s="83"/>
-      <c r="J187" s="83"/>
-      <c r="K187" s="84"/>
+      <c r="D187" s="55"/>
+      <c r="E187" s="55"/>
+      <c r="F187" s="55"/>
+      <c r="G187" s="55"/>
+      <c r="H187" s="55"/>
+      <c r="I187" s="55"/>
+      <c r="J187" s="55"/>
+      <c r="K187" s="56"/>
       <c r="L187" s="6">
         <v>17</v>
       </c>
@@ -8258,17 +8258,17 @@
       <c r="B188" s="48">
         <v>44841</v>
       </c>
-      <c r="C188" s="86" t="s">
+      <c r="C188" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="D188" s="87"/>
-      <c r="E188" s="87"/>
-      <c r="F188" s="87"/>
-      <c r="G188" s="87"/>
-      <c r="H188" s="87"/>
-      <c r="I188" s="87"/>
-      <c r="J188" s="87"/>
-      <c r="K188" s="88"/>
+      <c r="D188" s="58"/>
+      <c r="E188" s="58"/>
+      <c r="F188" s="58"/>
+      <c r="G188" s="58"/>
+      <c r="H188" s="58"/>
+      <c r="I188" s="58"/>
+      <c r="J188" s="58"/>
+      <c r="K188" s="59"/>
       <c r="L188" s="6">
         <v>17</v>
       </c>
@@ -8296,17 +8296,17 @@
       <c r="B189" s="48">
         <v>44841</v>
       </c>
-      <c r="C189" s="82" t="s">
+      <c r="C189" s="54" t="s">
         <v>33</v>
       </c>
-      <c r="D189" s="83"/>
-      <c r="E189" s="83"/>
-      <c r="F189" s="83"/>
-      <c r="G189" s="83"/>
-      <c r="H189" s="83"/>
-      <c r="I189" s="83"/>
-      <c r="J189" s="83"/>
-      <c r="K189" s="84"/>
+      <c r="D189" s="55"/>
+      <c r="E189" s="55"/>
+      <c r="F189" s="55"/>
+      <c r="G189" s="55"/>
+      <c r="H189" s="55"/>
+      <c r="I189" s="55"/>
+      <c r="J189" s="55"/>
+      <c r="K189" s="56"/>
       <c r="L189" s="6">
         <v>17</v>
       </c>
@@ -8334,17 +8334,17 @@
       <c r="B190" s="48">
         <v>44846</v>
       </c>
-      <c r="C190" s="86" t="s">
+      <c r="C190" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="D190" s="87"/>
-      <c r="E190" s="87"/>
-      <c r="F190" s="87"/>
-      <c r="G190" s="87"/>
-      <c r="H190" s="87"/>
-      <c r="I190" s="87"/>
-      <c r="J190" s="87"/>
-      <c r="K190" s="88"/>
+      <c r="D190" s="58"/>
+      <c r="E190" s="58"/>
+      <c r="F190" s="58"/>
+      <c r="G190" s="58"/>
+      <c r="H190" s="58"/>
+      <c r="I190" s="58"/>
+      <c r="J190" s="58"/>
+      <c r="K190" s="59"/>
       <c r="L190" s="6">
         <v>17</v>
       </c>
@@ -8372,17 +8372,17 @@
       <c r="B191" s="48">
         <v>44846</v>
       </c>
-      <c r="C191" s="86" t="s">
+      <c r="C191" s="57" t="s">
         <v>44</v>
       </c>
-      <c r="D191" s="87"/>
-      <c r="E191" s="87"/>
-      <c r="F191" s="87"/>
-      <c r="G191" s="87"/>
-      <c r="H191" s="87"/>
-      <c r="I191" s="87"/>
-      <c r="J191" s="87"/>
-      <c r="K191" s="88"/>
+      <c r="D191" s="58"/>
+      <c r="E191" s="58"/>
+      <c r="F191" s="58"/>
+      <c r="G191" s="58"/>
+      <c r="H191" s="58"/>
+      <c r="I191" s="58"/>
+      <c r="J191" s="58"/>
+      <c r="K191" s="59"/>
       <c r="L191" s="6">
         <v>17</v>
       </c>
@@ -8410,17 +8410,17 @@
       <c r="B192" s="48">
         <v>44856</v>
       </c>
-      <c r="C192" s="82" t="s">
+      <c r="C192" s="54" t="s">
         <v>34</v>
       </c>
-      <c r="D192" s="83"/>
-      <c r="E192" s="83"/>
-      <c r="F192" s="83"/>
-      <c r="G192" s="83"/>
-      <c r="H192" s="83"/>
-      <c r="I192" s="83"/>
-      <c r="J192" s="83"/>
-      <c r="K192" s="84"/>
+      <c r="D192" s="55"/>
+      <c r="E192" s="55"/>
+      <c r="F192" s="55"/>
+      <c r="G192" s="55"/>
+      <c r="H192" s="55"/>
+      <c r="I192" s="55"/>
+      <c r="J192" s="55"/>
+      <c r="K192" s="56"/>
       <c r="L192" s="6">
         <v>17</v>
       </c>
@@ -8448,17 +8448,17 @@
       <c r="B193" s="48">
         <v>44856</v>
       </c>
-      <c r="C193" s="86" t="s">
+      <c r="C193" s="57" t="s">
         <v>35</v>
       </c>
-      <c r="D193" s="87"/>
-      <c r="E193" s="87"/>
-      <c r="F193" s="87"/>
-      <c r="G193" s="87"/>
-      <c r="H193" s="87"/>
-      <c r="I193" s="87"/>
-      <c r="J193" s="87"/>
-      <c r="K193" s="88"/>
+      <c r="D193" s="58"/>
+      <c r="E193" s="58"/>
+      <c r="F193" s="58"/>
+      <c r="G193" s="58"/>
+      <c r="H193" s="58"/>
+      <c r="I193" s="58"/>
+      <c r="J193" s="58"/>
+      <c r="K193" s="59"/>
       <c r="L193" s="6">
         <v>17</v>
       </c>
@@ -8486,17 +8486,17 @@
       <c r="B194" s="48">
         <v>44863</v>
       </c>
-      <c r="C194" s="86" t="s">
+      <c r="C194" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="D194" s="87"/>
-      <c r="E194" s="87"/>
-      <c r="F194" s="87"/>
-      <c r="G194" s="87"/>
-      <c r="H194" s="87"/>
-      <c r="I194" s="87"/>
-      <c r="J194" s="87"/>
-      <c r="K194" s="88"/>
+      <c r="D194" s="58"/>
+      <c r="E194" s="58"/>
+      <c r="F194" s="58"/>
+      <c r="G194" s="58"/>
+      <c r="H194" s="58"/>
+      <c r="I194" s="58"/>
+      <c r="J194" s="58"/>
+      <c r="K194" s="59"/>
       <c r="L194" s="6">
         <v>17</v>
       </c>
@@ -8524,17 +8524,17 @@
       <c r="B195" s="48">
         <v>44864</v>
       </c>
-      <c r="C195" s="82" t="s">
+      <c r="C195" s="54" t="s">
         <v>49</v>
       </c>
-      <c r="D195" s="87"/>
-      <c r="E195" s="87"/>
-      <c r="F195" s="87"/>
-      <c r="G195" s="87"/>
-      <c r="H195" s="87"/>
-      <c r="I195" s="87"/>
-      <c r="J195" s="87"/>
-      <c r="K195" s="88"/>
+      <c r="D195" s="58"/>
+      <c r="E195" s="58"/>
+      <c r="F195" s="58"/>
+      <c r="G195" s="58"/>
+      <c r="H195" s="58"/>
+      <c r="I195" s="58"/>
+      <c r="J195" s="58"/>
+      <c r="K195" s="59"/>
       <c r="L195" s="6">
         <v>17</v>
       </c>
@@ -8562,17 +8562,17 @@
       <c r="B196" s="48">
         <v>44875</v>
       </c>
-      <c r="C196" s="86" t="s">
+      <c r="C196" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="D196" s="87"/>
-      <c r="E196" s="87"/>
-      <c r="F196" s="87"/>
-      <c r="G196" s="87"/>
-      <c r="H196" s="87"/>
-      <c r="I196" s="87"/>
-      <c r="J196" s="87"/>
-      <c r="K196" s="88"/>
+      <c r="D196" s="58"/>
+      <c r="E196" s="58"/>
+      <c r="F196" s="58"/>
+      <c r="G196" s="58"/>
+      <c r="H196" s="58"/>
+      <c r="I196" s="58"/>
+      <c r="J196" s="58"/>
+      <c r="K196" s="59"/>
       <c r="L196" s="6">
         <v>17</v>
       </c>
@@ -8600,17 +8600,17 @@
       <c r="B197" s="48">
         <v>44875</v>
       </c>
-      <c r="C197" s="86" t="s">
+      <c r="C197" s="57" t="s">
         <v>47</v>
       </c>
-      <c r="D197" s="87"/>
-      <c r="E197" s="87"/>
-      <c r="F197" s="87"/>
-      <c r="G197" s="87"/>
-      <c r="H197" s="87"/>
-      <c r="I197" s="87"/>
-      <c r="J197" s="87"/>
-      <c r="K197" s="88"/>
+      <c r="D197" s="58"/>
+      <c r="E197" s="58"/>
+      <c r="F197" s="58"/>
+      <c r="G197" s="58"/>
+      <c r="H197" s="58"/>
+      <c r="I197" s="58"/>
+      <c r="J197" s="58"/>
+      <c r="K197" s="59"/>
       <c r="L197" s="6">
         <v>17</v>
       </c>
@@ -8636,17 +8636,17 @@
         <v>23</v>
       </c>
       <c r="B198" s="48"/>
-      <c r="C198" s="82" t="s">
+      <c r="C198" s="54" t="s">
         <v>41</v>
       </c>
-      <c r="D198" s="83"/>
-      <c r="E198" s="83"/>
-      <c r="F198" s="83"/>
-      <c r="G198" s="83"/>
-      <c r="H198" s="83"/>
-      <c r="I198" s="83"/>
-      <c r="J198" s="83"/>
-      <c r="K198" s="84"/>
+      <c r="D198" s="55"/>
+      <c r="E198" s="55"/>
+      <c r="F198" s="55"/>
+      <c r="G198" s="55"/>
+      <c r="H198" s="55"/>
+      <c r="I198" s="55"/>
+      <c r="J198" s="55"/>
+      <c r="K198" s="56"/>
       <c r="L198" s="6">
         <v>17</v>
       </c>
@@ -8672,17 +8672,17 @@
         <v>24</v>
       </c>
       <c r="B199" s="48"/>
-      <c r="C199" s="82" t="s">
+      <c r="C199" s="54" t="s">
         <v>42</v>
       </c>
-      <c r="D199" s="83"/>
-      <c r="E199" s="83"/>
-      <c r="F199" s="83"/>
-      <c r="G199" s="83"/>
-      <c r="H199" s="83"/>
-      <c r="I199" s="83"/>
-      <c r="J199" s="83"/>
-      <c r="K199" s="84"/>
+      <c r="D199" s="55"/>
+      <c r="E199" s="55"/>
+      <c r="F199" s="55"/>
+      <c r="G199" s="55"/>
+      <c r="H199" s="55"/>
+      <c r="I199" s="55"/>
+      <c r="J199" s="55"/>
+      <c r="K199" s="56"/>
       <c r="L199" s="6">
         <v>17</v>
       </c>
@@ -8708,20 +8708,20 @@
         <v>25</v>
       </c>
       <c r="B200" s="47"/>
-      <c r="C200" s="59" t="s">
+      <c r="C200" s="66" t="s">
         <v>58</v>
       </c>
-      <c r="D200" s="60"/>
-      <c r="E200" s="60"/>
-      <c r="F200" s="60"/>
-      <c r="G200" s="60"/>
-      <c r="H200" s="60"/>
-      <c r="I200" s="60"/>
-      <c r="J200" s="60"/>
-      <c r="K200" s="60"/>
-      <c r="L200" s="60"/>
-      <c r="M200" s="60"/>
-      <c r="N200" s="61"/>
+      <c r="D200" s="67"/>
+      <c r="E200" s="67"/>
+      <c r="F200" s="67"/>
+      <c r="G200" s="67"/>
+      <c r="H200" s="67"/>
+      <c r="I200" s="67"/>
+      <c r="J200" s="67"/>
+      <c r="K200" s="67"/>
+      <c r="L200" s="67"/>
+      <c r="M200" s="67"/>
+      <c r="N200" s="68"/>
       <c r="O200" s="11"/>
       <c r="P200" s="12">
         <f>AVERAGE(P176:P199)</f>
@@ -8758,26 +8758,26 @@
       <c r="R202"/>
     </row>
     <row r="203" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A203" s="75" t="s">
+      <c r="A203" s="82" t="s">
         <v>13</v>
       </c>
-      <c r="B203" s="76"/>
-      <c r="C203" s="76"/>
-      <c r="D203" s="76"/>
-      <c r="E203" s="76"/>
-      <c r="F203" s="76"/>
-      <c r="G203" s="76"/>
-      <c r="H203" s="76"/>
-      <c r="I203" s="76"/>
-      <c r="J203" s="76"/>
-      <c r="K203" s="76"/>
-      <c r="L203" s="76"/>
-      <c r="M203" s="76"/>
-      <c r="N203" s="76"/>
-      <c r="O203" s="76"/>
-      <c r="P203" s="76"/>
-      <c r="Q203" s="76"/>
-      <c r="R203" s="77"/>
+      <c r="B203" s="83"/>
+      <c r="C203" s="83"/>
+      <c r="D203" s="83"/>
+      <c r="E203" s="83"/>
+      <c r="F203" s="83"/>
+      <c r="G203" s="83"/>
+      <c r="H203" s="83"/>
+      <c r="I203" s="83"/>
+      <c r="J203" s="83"/>
+      <c r="K203" s="83"/>
+      <c r="L203" s="83"/>
+      <c r="M203" s="83"/>
+      <c r="N203" s="83"/>
+      <c r="O203" s="83"/>
+      <c r="P203" s="83"/>
+      <c r="Q203" s="83"/>
+      <c r="R203" s="84"/>
       <c r="S203" s="15"/>
       <c r="T203" s="15"/>
       <c r="U203" s="15"/>
@@ -8870,17 +8870,17 @@
         <v>2</v>
       </c>
       <c r="B207" s="1"/>
-      <c r="C207" s="65" t="s">
+      <c r="C207" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="D207" s="66"/>
-      <c r="E207" s="66"/>
-      <c r="F207" s="66"/>
-      <c r="G207" s="66"/>
-      <c r="H207" s="66"/>
-      <c r="I207" s="66"/>
-      <c r="J207" s="66"/>
-      <c r="K207" s="66"/>
+      <c r="D207" s="65"/>
+      <c r="E207" s="65"/>
+      <c r="F207" s="65"/>
+      <c r="G207" s="65"/>
+      <c r="H207" s="65"/>
+      <c r="I207" s="65"/>
+      <c r="J207" s="65"/>
+      <c r="K207" s="65"/>
       <c r="L207" s="6">
         <v>33</v>
       </c>
@@ -8906,17 +8906,17 @@
         <v>3</v>
       </c>
       <c r="B208" s="1"/>
-      <c r="C208" s="65" t="s">
+      <c r="C208" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="D208" s="66"/>
-      <c r="E208" s="66"/>
-      <c r="F208" s="66"/>
-      <c r="G208" s="66"/>
-      <c r="H208" s="66"/>
-      <c r="I208" s="66"/>
-      <c r="J208" s="66"/>
-      <c r="K208" s="66"/>
+      <c r="D208" s="65"/>
+      <c r="E208" s="65"/>
+      <c r="F208" s="65"/>
+      <c r="G208" s="65"/>
+      <c r="H208" s="65"/>
+      <c r="I208" s="65"/>
+      <c r="J208" s="65"/>
+      <c r="K208" s="65"/>
       <c r="L208" s="6">
         <v>33</v>
       </c>
@@ -8954,17 +8954,17 @@
         <v>4</v>
       </c>
       <c r="B209" s="1"/>
-      <c r="C209" s="66" t="s">
+      <c r="C209" s="65" t="s">
         <v>18</v>
       </c>
-      <c r="D209" s="66"/>
-      <c r="E209" s="66"/>
-      <c r="F209" s="66"/>
-      <c r="G209" s="66"/>
-      <c r="H209" s="66"/>
-      <c r="I209" s="66"/>
-      <c r="J209" s="66"/>
-      <c r="K209" s="66"/>
+      <c r="D209" s="65"/>
+      <c r="E209" s="65"/>
+      <c r="F209" s="65"/>
+      <c r="G209" s="65"/>
+      <c r="H209" s="65"/>
+      <c r="I209" s="65"/>
+      <c r="J209" s="65"/>
+      <c r="K209" s="65"/>
       <c r="L209" s="6">
         <v>33</v>
       </c>
@@ -9002,17 +9002,17 @@
         <v>5</v>
       </c>
       <c r="B210" s="1"/>
-      <c r="C210" s="65" t="s">
+      <c r="C210" s="64" t="s">
         <v>61</v>
       </c>
-      <c r="D210" s="66"/>
-      <c r="E210" s="66"/>
-      <c r="F210" s="66"/>
-      <c r="G210" s="66"/>
-      <c r="H210" s="66"/>
-      <c r="I210" s="66"/>
-      <c r="J210" s="66"/>
-      <c r="K210" s="66"/>
+      <c r="D210" s="65"/>
+      <c r="E210" s="65"/>
+      <c r="F210" s="65"/>
+      <c r="G210" s="65"/>
+      <c r="H210" s="65"/>
+      <c r="I210" s="65"/>
+      <c r="J210" s="65"/>
+      <c r="K210" s="65"/>
       <c r="L210" s="6">
         <v>33</v>
       </c>
@@ -9050,17 +9050,17 @@
         <v>6</v>
       </c>
       <c r="B211" s="1"/>
-      <c r="C211" s="65" t="s">
+      <c r="C211" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="D211" s="66"/>
-      <c r="E211" s="66"/>
-      <c r="F211" s="66"/>
-      <c r="G211" s="66"/>
-      <c r="H211" s="66"/>
-      <c r="I211" s="66"/>
-      <c r="J211" s="66"/>
-      <c r="K211" s="66"/>
+      <c r="D211" s="65"/>
+      <c r="E211" s="65"/>
+      <c r="F211" s="65"/>
+      <c r="G211" s="65"/>
+      <c r="H211" s="65"/>
+      <c r="I211" s="65"/>
+      <c r="J211" s="65"/>
+      <c r="K211" s="65"/>
       <c r="L211" s="6">
         <v>33</v>
       </c>
@@ -9086,17 +9086,17 @@
         <v>7</v>
       </c>
       <c r="B212" s="1"/>
-      <c r="C212" s="66" t="s">
+      <c r="C212" s="65" t="s">
         <v>20</v>
       </c>
-      <c r="D212" s="66"/>
-      <c r="E212" s="66"/>
-      <c r="F212" s="66"/>
-      <c r="G212" s="66"/>
-      <c r="H212" s="66"/>
-      <c r="I212" s="66"/>
-      <c r="J212" s="66"/>
-      <c r="K212" s="66"/>
+      <c r="D212" s="65"/>
+      <c r="E212" s="65"/>
+      <c r="F212" s="65"/>
+      <c r="G212" s="65"/>
+      <c r="H212" s="65"/>
+      <c r="I212" s="65"/>
+      <c r="J212" s="65"/>
+      <c r="K212" s="65"/>
       <c r="L212" s="6">
         <v>33</v>
       </c>
@@ -9122,17 +9122,17 @@
         <v>8</v>
       </c>
       <c r="B213" s="1"/>
-      <c r="C213" s="65" t="s">
+      <c r="C213" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="D213" s="66"/>
-      <c r="E213" s="66"/>
-      <c r="F213" s="66"/>
-      <c r="G213" s="66"/>
-      <c r="H213" s="66"/>
-      <c r="I213" s="66"/>
-      <c r="J213" s="66"/>
-      <c r="K213" s="66"/>
+      <c r="D213" s="65"/>
+      <c r="E213" s="65"/>
+      <c r="F213" s="65"/>
+      <c r="G213" s="65"/>
+      <c r="H213" s="65"/>
+      <c r="I213" s="65"/>
+      <c r="J213" s="65"/>
+      <c r="K213" s="65"/>
       <c r="L213" s="6">
         <v>33</v>
       </c>
@@ -9158,17 +9158,17 @@
         <v>9</v>
       </c>
       <c r="B214" s="1"/>
-      <c r="C214" s="65" t="s">
+      <c r="C214" s="64" t="s">
         <v>62</v>
       </c>
-      <c r="D214" s="66"/>
-      <c r="E214" s="66"/>
-      <c r="F214" s="66"/>
-      <c r="G214" s="66"/>
-      <c r="H214" s="66"/>
-      <c r="I214" s="66"/>
-      <c r="J214" s="66"/>
-      <c r="K214" s="66"/>
+      <c r="D214" s="65"/>
+      <c r="E214" s="65"/>
+      <c r="F214" s="65"/>
+      <c r="G214" s="65"/>
+      <c r="H214" s="65"/>
+      <c r="I214" s="65"/>
+      <c r="J214" s="65"/>
+      <c r="K214" s="65"/>
       <c r="L214" s="6">
         <v>33</v>
       </c>
@@ -9206,17 +9206,17 @@
         <v>10</v>
       </c>
       <c r="B215" s="1"/>
-      <c r="C215" s="65" t="s">
+      <c r="C215" s="64" t="s">
         <v>22</v>
       </c>
-      <c r="D215" s="66"/>
-      <c r="E215" s="66"/>
-      <c r="F215" s="66"/>
-      <c r="G215" s="66"/>
-      <c r="H215" s="66"/>
-      <c r="I215" s="66"/>
-      <c r="J215" s="66"/>
-      <c r="K215" s="66"/>
+      <c r="D215" s="65"/>
+      <c r="E215" s="65"/>
+      <c r="F215" s="65"/>
+      <c r="G215" s="65"/>
+      <c r="H215" s="65"/>
+      <c r="I215" s="65"/>
+      <c r="J215" s="65"/>
+      <c r="K215" s="65"/>
       <c r="L215" s="6">
         <v>33</v>
       </c>
@@ -9242,17 +9242,17 @@
         <v>11</v>
       </c>
       <c r="B216" s="1"/>
-      <c r="C216" s="65" t="s">
+      <c r="C216" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="D216" s="66"/>
-      <c r="E216" s="66"/>
-      <c r="F216" s="66"/>
-      <c r="G216" s="66"/>
-      <c r="H216" s="66"/>
-      <c r="I216" s="66"/>
-      <c r="J216" s="66"/>
-      <c r="K216" s="66"/>
+      <c r="D216" s="65"/>
+      <c r="E216" s="65"/>
+      <c r="F216" s="65"/>
+      <c r="G216" s="65"/>
+      <c r="H216" s="65"/>
+      <c r="I216" s="65"/>
+      <c r="J216" s="65"/>
+      <c r="K216" s="65"/>
       <c r="L216" s="6">
         <v>33</v>
       </c>
@@ -9278,17 +9278,17 @@
         <v>12</v>
       </c>
       <c r="B217" s="1"/>
-      <c r="C217" s="65" t="s">
+      <c r="C217" s="64" t="s">
         <v>63</v>
       </c>
-      <c r="D217" s="66"/>
-      <c r="E217" s="66"/>
-      <c r="F217" s="66"/>
-      <c r="G217" s="66"/>
-      <c r="H217" s="66"/>
-      <c r="I217" s="66"/>
-      <c r="J217" s="66"/>
-      <c r="K217" s="66"/>
+      <c r="D217" s="65"/>
+      <c r="E217" s="65"/>
+      <c r="F217" s="65"/>
+      <c r="G217" s="65"/>
+      <c r="H217" s="65"/>
+      <c r="I217" s="65"/>
+      <c r="J217" s="65"/>
+      <c r="K217" s="65"/>
       <c r="L217" s="6">
         <v>33</v>
       </c>
@@ -9326,20 +9326,20 @@
         <v>13</v>
       </c>
       <c r="B218" s="1"/>
-      <c r="C218" s="59" t="s">
+      <c r="C218" s="66" t="s">
         <v>58</v>
       </c>
-      <c r="D218" s="60"/>
-      <c r="E218" s="60"/>
-      <c r="F218" s="60"/>
-      <c r="G218" s="60"/>
-      <c r="H218" s="60"/>
-      <c r="I218" s="60"/>
-      <c r="J218" s="60"/>
-      <c r="K218" s="60"/>
-      <c r="L218" s="60"/>
-      <c r="M218" s="60"/>
-      <c r="N218" s="61"/>
+      <c r="D218" s="67"/>
+      <c r="E218" s="67"/>
+      <c r="F218" s="67"/>
+      <c r="G218" s="67"/>
+      <c r="H218" s="67"/>
+      <c r="I218" s="67"/>
+      <c r="J218" s="67"/>
+      <c r="K218" s="67"/>
+      <c r="L218" s="67"/>
+      <c r="M218" s="67"/>
+      <c r="N218" s="68"/>
       <c r="O218" s="11"/>
       <c r="P218" s="12">
         <f>AVERAGE(P206:P217)</f>
@@ -9369,26 +9369,26 @@
       <c r="Q219" s="52"/>
     </row>
     <row r="220" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A220" s="62" t="s">
+      <c r="A220" s="69" t="s">
         <v>24</v>
       </c>
-      <c r="B220" s="63"/>
-      <c r="C220" s="63"/>
-      <c r="D220" s="63"/>
-      <c r="E220" s="63"/>
-      <c r="F220" s="63"/>
-      <c r="G220" s="63"/>
-      <c r="H220" s="63"/>
-      <c r="I220" s="63"/>
-      <c r="J220" s="63"/>
-      <c r="K220" s="63"/>
-      <c r="L220" s="63"/>
-      <c r="M220" s="63"/>
-      <c r="N220" s="63"/>
-      <c r="O220" s="63"/>
-      <c r="P220" s="63"/>
-      <c r="Q220" s="63"/>
-      <c r="R220" s="64"/>
+      <c r="B220" s="70"/>
+      <c r="C220" s="70"/>
+      <c r="D220" s="70"/>
+      <c r="E220" s="70"/>
+      <c r="F220" s="70"/>
+      <c r="G220" s="70"/>
+      <c r="H220" s="70"/>
+      <c r="I220" s="70"/>
+      <c r="J220" s="70"/>
+      <c r="K220" s="70"/>
+      <c r="L220" s="70"/>
+      <c r="M220" s="70"/>
+      <c r="N220" s="70"/>
+      <c r="O220" s="70"/>
+      <c r="P220" s="70"/>
+      <c r="Q220" s="70"/>
+      <c r="R220" s="71"/>
       <c r="S220" s="3"/>
       <c r="T220" s="3"/>
       <c r="U220" s="3"/>
@@ -9478,17 +9478,17 @@
         <v>2</v>
       </c>
       <c r="B224" s="1"/>
-      <c r="C224" s="65" t="s">
+      <c r="C224" s="64" t="s">
         <v>66</v>
       </c>
-      <c r="D224" s="66"/>
-      <c r="E224" s="66"/>
-      <c r="F224" s="66"/>
-      <c r="G224" s="66"/>
-      <c r="H224" s="66"/>
-      <c r="I224" s="66"/>
-      <c r="J224" s="66"/>
-      <c r="K224" s="66"/>
+      <c r="D224" s="65"/>
+      <c r="E224" s="65"/>
+      <c r="F224" s="65"/>
+      <c r="G224" s="65"/>
+      <c r="H224" s="65"/>
+      <c r="I224" s="65"/>
+      <c r="J224" s="65"/>
+      <c r="K224" s="65"/>
       <c r="L224" s="6">
         <v>33</v>
       </c>
@@ -9511,17 +9511,17 @@
         <v>3</v>
       </c>
       <c r="B225" s="1"/>
-      <c r="C225" s="65" t="s">
+      <c r="C225" s="64" t="s">
         <v>25</v>
       </c>
-      <c r="D225" s="66"/>
-      <c r="E225" s="66"/>
-      <c r="F225" s="66"/>
-      <c r="G225" s="66"/>
-      <c r="H225" s="66"/>
-      <c r="I225" s="66"/>
-      <c r="J225" s="66"/>
-      <c r="K225" s="66"/>
+      <c r="D225" s="65"/>
+      <c r="E225" s="65"/>
+      <c r="F225" s="65"/>
+      <c r="G225" s="65"/>
+      <c r="H225" s="65"/>
+      <c r="I225" s="65"/>
+      <c r="J225" s="65"/>
+      <c r="K225" s="65"/>
       <c r="L225" s="6">
         <v>33</v>
       </c>
@@ -9544,17 +9544,17 @@
         <v>4</v>
       </c>
       <c r="B226" s="1"/>
-      <c r="C226" s="66" t="s">
+      <c r="C226" s="65" t="s">
         <v>26</v>
       </c>
-      <c r="D226" s="66"/>
-      <c r="E226" s="66"/>
-      <c r="F226" s="66"/>
-      <c r="G226" s="66"/>
-      <c r="H226" s="66"/>
-      <c r="I226" s="66"/>
-      <c r="J226" s="66"/>
-      <c r="K226" s="66"/>
+      <c r="D226" s="65"/>
+      <c r="E226" s="65"/>
+      <c r="F226" s="65"/>
+      <c r="G226" s="65"/>
+      <c r="H226" s="65"/>
+      <c r="I226" s="65"/>
+      <c r="J226" s="65"/>
+      <c r="K226" s="65"/>
       <c r="L226" s="6">
         <v>33</v>
       </c>
@@ -9577,17 +9577,17 @@
         <v>5</v>
       </c>
       <c r="B227" s="1"/>
-      <c r="C227" s="65" t="s">
+      <c r="C227" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="D227" s="66"/>
-      <c r="E227" s="66"/>
-      <c r="F227" s="66"/>
-      <c r="G227" s="66"/>
-      <c r="H227" s="66"/>
-      <c r="I227" s="66"/>
-      <c r="J227" s="66"/>
-      <c r="K227" s="66"/>
+      <c r="D227" s="65"/>
+      <c r="E227" s="65"/>
+      <c r="F227" s="65"/>
+      <c r="G227" s="65"/>
+      <c r="H227" s="65"/>
+      <c r="I227" s="65"/>
+      <c r="J227" s="65"/>
+      <c r="K227" s="65"/>
       <c r="L227" s="6">
         <v>33</v>
       </c>
@@ -9610,17 +9610,17 @@
         <v>6</v>
       </c>
       <c r="B228" s="1"/>
-      <c r="C228" s="65" t="s">
+      <c r="C228" s="64" t="s">
         <v>67</v>
       </c>
-      <c r="D228" s="66"/>
-      <c r="E228" s="66"/>
-      <c r="F228" s="66"/>
-      <c r="G228" s="66"/>
-      <c r="H228" s="66"/>
-      <c r="I228" s="66"/>
-      <c r="J228" s="66"/>
-      <c r="K228" s="66"/>
+      <c r="D228" s="65"/>
+      <c r="E228" s="65"/>
+      <c r="F228" s="65"/>
+      <c r="G228" s="65"/>
+      <c r="H228" s="65"/>
+      <c r="I228" s="65"/>
+      <c r="J228" s="65"/>
+      <c r="K228" s="65"/>
       <c r="L228" s="6">
         <v>33</v>
       </c>
@@ -9643,20 +9643,20 @@
         <v>7</v>
       </c>
       <c r="B229" s="1"/>
-      <c r="C229" s="59" t="s">
+      <c r="C229" s="66" t="s">
         <v>58</v>
       </c>
-      <c r="D229" s="60"/>
-      <c r="E229" s="60"/>
-      <c r="F229" s="60"/>
-      <c r="G229" s="60"/>
-      <c r="H229" s="60"/>
-      <c r="I229" s="60"/>
-      <c r="J229" s="60"/>
-      <c r="K229" s="60"/>
-      <c r="L229" s="60"/>
-      <c r="M229" s="60"/>
-      <c r="N229" s="61"/>
+      <c r="D229" s="67"/>
+      <c r="E229" s="67"/>
+      <c r="F229" s="67"/>
+      <c r="G229" s="67"/>
+      <c r="H229" s="67"/>
+      <c r="I229" s="67"/>
+      <c r="J229" s="67"/>
+      <c r="K229" s="67"/>
+      <c r="L229" s="67"/>
+      <c r="M229" s="67"/>
+      <c r="N229" s="68"/>
       <c r="O229" s="11"/>
       <c r="P229" s="12" t="e">
         <f>AVERAGE(P223:P228)</f>
@@ -9676,25 +9676,25 @@
       <c r="B230" s="1"/>
     </row>
     <row r="231" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A231" s="71" t="s">
+      <c r="A231" s="81" t="s">
         <v>28</v>
       </c>
-      <c r="B231" s="71"/>
-      <c r="C231" s="71"/>
-      <c r="D231" s="71"/>
-      <c r="E231" s="71"/>
-      <c r="F231" s="71"/>
-      <c r="G231" s="71"/>
-      <c r="H231" s="71"/>
-      <c r="I231" s="71"/>
-      <c r="J231" s="71"/>
-      <c r="K231" s="71"/>
-      <c r="L231" s="71"/>
-      <c r="M231" s="71"/>
-      <c r="N231" s="71"/>
-      <c r="O231" s="71"/>
-      <c r="P231" s="71"/>
-      <c r="Q231" s="71"/>
+      <c r="B231" s="81"/>
+      <c r="C231" s="81"/>
+      <c r="D231" s="81"/>
+      <c r="E231" s="81"/>
+      <c r="F231" s="81"/>
+      <c r="G231" s="81"/>
+      <c r="H231" s="81"/>
+      <c r="I231" s="81"/>
+      <c r="J231" s="81"/>
+      <c r="K231" s="81"/>
+      <c r="L231" s="81"/>
+      <c r="M231" s="81"/>
+      <c r="N231" s="81"/>
+      <c r="O231" s="81"/>
+      <c r="P231" s="81"/>
+      <c r="Q231" s="81"/>
       <c r="R231"/>
     </row>
     <row r="232" spans="1:21" ht="40.799999999999997" x14ac:dyDescent="0.3">
@@ -9704,10 +9704,10 @@
       <c r="B232" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="C232" s="67" t="s">
+      <c r="C232" s="80" t="s">
         <v>68</v>
       </c>
-      <c r="D232" s="67"/>
+      <c r="D232" s="80"/>
       <c r="E232" s="17" t="s">
         <v>69</v>
       </c>
@@ -9758,13 +9758,13 @@
       <c r="A233" s="14">
         <v>0</v>
       </c>
-      <c r="B233" s="92">
+      <c r="B233" s="53">
         <v>44808</v>
       </c>
-      <c r="C233" s="53" t="s">
+      <c r="C233" s="90" t="s">
         <v>125</v>
       </c>
-      <c r="D233" s="54"/>
+      <c r="D233" s="91"/>
       <c r="E233" s="25">
         <v>57</v>
       </c>
@@ -9816,13 +9816,13 @@
       <c r="A234" s="14">
         <v>1</v>
       </c>
-      <c r="B234" s="92">
+      <c r="B234" s="53">
         <v>44816</v>
       </c>
-      <c r="C234" s="56" t="s">
+      <c r="C234" s="63" t="s">
         <v>113</v>
       </c>
-      <c r="D234" s="56"/>
+      <c r="D234" s="63"/>
       <c r="E234" s="25">
         <v>58</v>
       </c>
@@ -9874,13 +9874,13 @@
       <c r="A235" s="14">
         <v>2</v>
       </c>
-      <c r="B235" s="92">
+      <c r="B235" s="53">
         <v>44822</v>
       </c>
-      <c r="C235" s="56" t="s">
+      <c r="C235" s="63" t="s">
         <v>114</v>
       </c>
-      <c r="D235" s="56"/>
+      <c r="D235" s="63"/>
       <c r="E235" s="25">
         <v>64</v>
       </c>
@@ -9933,10 +9933,10 @@
         <v>3</v>
       </c>
       <c r="B236" s="14"/>
-      <c r="C236" s="56" t="s">
+      <c r="C236" s="63" t="s">
         <v>115</v>
       </c>
-      <c r="D236" s="56"/>
+      <c r="D236" s="63"/>
       <c r="E236" s="25"/>
       <c r="F236" s="26"/>
       <c r="G236" s="27"/>
@@ -9961,10 +9961,10 @@
         <v>4</v>
       </c>
       <c r="B237" s="14"/>
-      <c r="C237" s="56" t="s">
+      <c r="C237" s="63" t="s">
         <v>116</v>
       </c>
-      <c r="D237" s="56"/>
+      <c r="D237" s="63"/>
       <c r="E237" s="25"/>
       <c r="F237" s="26"/>
       <c r="G237" s="27"/>
@@ -9989,10 +9989,10 @@
         <v>5</v>
       </c>
       <c r="B238" s="14"/>
-      <c r="C238" s="56" t="s">
+      <c r="C238" s="63" t="s">
         <v>117</v>
       </c>
-      <c r="D238" s="56"/>
+      <c r="D238" s="63"/>
       <c r="E238" s="25"/>
       <c r="F238" s="26"/>
       <c r="G238" s="27"/>
@@ -10017,10 +10017,10 @@
         <v>6</v>
       </c>
       <c r="B239" s="14"/>
-      <c r="C239" s="56" t="s">
+      <c r="C239" s="63" t="s">
         <v>118</v>
       </c>
-      <c r="D239" s="56"/>
+      <c r="D239" s="63"/>
       <c r="E239" s="25"/>
       <c r="F239" s="26"/>
       <c r="G239" s="27"/>
@@ -10045,10 +10045,10 @@
         <v>7</v>
       </c>
       <c r="B240" s="14"/>
-      <c r="C240" s="56" t="s">
+      <c r="C240" s="63" t="s">
         <v>119</v>
       </c>
-      <c r="D240" s="56"/>
+      <c r="D240" s="63"/>
       <c r="E240" s="25"/>
       <c r="F240" s="26"/>
       <c r="G240" s="27"/>
@@ -10073,10 +10073,10 @@
         <v>8</v>
       </c>
       <c r="B241" s="14"/>
-      <c r="C241" s="56" t="s">
+      <c r="C241" s="63" t="s">
         <v>120</v>
       </c>
-      <c r="D241" s="56"/>
+      <c r="D241" s="63"/>
       <c r="E241" s="25"/>
       <c r="F241" s="26"/>
       <c r="G241" s="27"/>
@@ -10099,10 +10099,10 @@
     <row r="242" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A242" s="14"/>
       <c r="B242" s="14"/>
-      <c r="C242" s="57" t="s">
+      <c r="C242" s="74" t="s">
         <v>98</v>
       </c>
-      <c r="D242" s="57"/>
+      <c r="D242" s="74"/>
       <c r="E242" s="25">
         <f>AVERAGE(E233:E241)</f>
         <v>59.666666666666664</v>
@@ -10178,25 +10178,25 @@
       <c r="S244" s="6"/>
     </row>
     <row r="245" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A245" s="74" t="s">
+      <c r="A245" s="79" t="s">
         <v>99</v>
       </c>
-      <c r="B245" s="74"/>
-      <c r="C245" s="74"/>
-      <c r="D245" s="74"/>
-      <c r="E245" s="74"/>
-      <c r="F245" s="74"/>
-      <c r="G245" s="74"/>
-      <c r="H245" s="74"/>
-      <c r="I245" s="74"/>
-      <c r="J245" s="74"/>
-      <c r="K245" s="74"/>
-      <c r="L245" s="74"/>
-      <c r="M245" s="74"/>
-      <c r="N245" s="74"/>
-      <c r="O245" s="74"/>
-      <c r="P245" s="74"/>
-      <c r="Q245" s="74"/>
+      <c r="B245" s="79"/>
+      <c r="C245" s="79"/>
+      <c r="D245" s="79"/>
+      <c r="E245" s="79"/>
+      <c r="F245" s="79"/>
+      <c r="G245" s="79"/>
+      <c r="H245" s="79"/>
+      <c r="I245" s="79"/>
+      <c r="J245" s="79"/>
+      <c r="K245" s="79"/>
+      <c r="L245" s="79"/>
+      <c r="M245" s="79"/>
+      <c r="N245" s="79"/>
+      <c r="O245" s="79"/>
+      <c r="P245" s="79"/>
+      <c r="Q245" s="79"/>
       <c r="R245"/>
       <c r="S245" s="11"/>
     </row>
@@ -10205,10 +10205,10 @@
         <v>1</v>
       </c>
       <c r="B246" s="16"/>
-      <c r="C246" s="67" t="s">
+      <c r="C246" s="80" t="s">
         <v>68</v>
       </c>
-      <c r="D246" s="67"/>
+      <c r="D246" s="80"/>
       <c r="E246" s="17" t="s">
         <v>69</v>
       </c>
@@ -10257,10 +10257,10 @@
         <v>1</v>
       </c>
       <c r="B247" s="14"/>
-      <c r="C247" s="56" t="s">
+      <c r="C247" s="63" t="s">
         <v>121</v>
       </c>
-      <c r="D247" s="56"/>
+      <c r="D247" s="63"/>
       <c r="E247" s="25"/>
       <c r="F247" s="26"/>
       <c r="G247" s="27"/>
@@ -10284,10 +10284,10 @@
         <v>2</v>
       </c>
       <c r="B248" s="14"/>
-      <c r="C248" s="56" t="s">
+      <c r="C248" s="63" t="s">
         <v>122</v>
       </c>
-      <c r="D248" s="56"/>
+      <c r="D248" s="63"/>
       <c r="E248" s="25"/>
       <c r="F248" s="26"/>
       <c r="G248" s="27"/>
@@ -10311,10 +10311,10 @@
         <v>3</v>
       </c>
       <c r="B249" s="14"/>
-      <c r="C249" s="56" t="s">
+      <c r="C249" s="63" t="s">
         <v>123</v>
       </c>
-      <c r="D249" s="56"/>
+      <c r="D249" s="63"/>
       <c r="E249" s="25"/>
       <c r="F249" s="26"/>
       <c r="G249" s="27"/>
@@ -10338,10 +10338,10 @@
         <v>4</v>
       </c>
       <c r="B250" s="14"/>
-      <c r="C250" s="56" t="s">
+      <c r="C250" s="63" t="s">
         <v>124</v>
       </c>
-      <c r="D250" s="56"/>
+      <c r="D250" s="63"/>
       <c r="E250" s="25"/>
       <c r="F250" s="26"/>
       <c r="G250" s="27"/>
@@ -10361,10 +10361,10 @@
       </c>
     </row>
     <row r="251" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="C251" s="57" t="s">
+      <c r="C251" s="74" t="s">
         <v>98</v>
       </c>
-      <c r="D251" s="57"/>
+      <c r="D251" s="74"/>
       <c r="E251" s="25"/>
       <c r="F251" s="26"/>
       <c r="G251" s="27"/>
@@ -10388,103 +10388,103 @@
       <c r="R256"/>
     </row>
     <row r="257" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A257" s="58" t="s">
+      <c r="A257" s="75" t="s">
         <v>107</v>
       </c>
-      <c r="B257" s="58"/>
-      <c r="C257" s="58"/>
-      <c r="D257" s="58"/>
-      <c r="E257" s="58"/>
-      <c r="F257" s="58"/>
-      <c r="G257" s="58"/>
-      <c r="H257" s="58"/>
-      <c r="I257" s="58"/>
-      <c r="J257" s="58"/>
-      <c r="K257" s="58"/>
-      <c r="L257" s="58"/>
-      <c r="M257" s="58"/>
-      <c r="N257" s="58"/>
-      <c r="O257" s="58"/>
-      <c r="P257" s="58"/>
-      <c r="Q257" s="58"/>
-      <c r="R257" s="58"/>
-      <c r="S257" s="58"/>
-      <c r="T257" s="58"/>
-      <c r="U257" s="58"/>
-      <c r="V257" s="58"/>
-      <c r="W257" s="58"/>
+      <c r="B257" s="75"/>
+      <c r="C257" s="75"/>
+      <c r="D257" s="75"/>
+      <c r="E257" s="75"/>
+      <c r="F257" s="75"/>
+      <c r="G257" s="75"/>
+      <c r="H257" s="75"/>
+      <c r="I257" s="75"/>
+      <c r="J257" s="75"/>
+      <c r="K257" s="75"/>
+      <c r="L257" s="75"/>
+      <c r="M257" s="75"/>
+      <c r="N257" s="75"/>
+      <c r="O257" s="75"/>
+      <c r="P257" s="75"/>
+      <c r="Q257" s="75"/>
+      <c r="R257" s="75"/>
+      <c r="S257" s="75"/>
+      <c r="T257" s="75"/>
+      <c r="U257" s="75"/>
+      <c r="V257" s="75"/>
+      <c r="W257" s="75"/>
     </row>
     <row r="258" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A258" s="58"/>
-      <c r="B258" s="58"/>
-      <c r="C258" s="58"/>
-      <c r="D258" s="58"/>
-      <c r="E258" s="58"/>
-      <c r="F258" s="58"/>
-      <c r="G258" s="58"/>
-      <c r="H258" s="58"/>
-      <c r="I258" s="58"/>
-      <c r="J258" s="58"/>
-      <c r="K258" s="58"/>
-      <c r="L258" s="58"/>
-      <c r="M258" s="58"/>
-      <c r="N258" s="58"/>
-      <c r="O258" s="58"/>
-      <c r="P258" s="58"/>
-      <c r="Q258" s="58"/>
-      <c r="R258" s="58"/>
-      <c r="S258" s="58"/>
-      <c r="T258" s="58"/>
-      <c r="U258" s="58"/>
-      <c r="V258" s="58"/>
-      <c r="W258" s="58"/>
+      <c r="A258" s="75"/>
+      <c r="B258" s="75"/>
+      <c r="C258" s="75"/>
+      <c r="D258" s="75"/>
+      <c r="E258" s="75"/>
+      <c r="F258" s="75"/>
+      <c r="G258" s="75"/>
+      <c r="H258" s="75"/>
+      <c r="I258" s="75"/>
+      <c r="J258" s="75"/>
+      <c r="K258" s="75"/>
+      <c r="L258" s="75"/>
+      <c r="M258" s="75"/>
+      <c r="N258" s="75"/>
+      <c r="O258" s="75"/>
+      <c r="P258" s="75"/>
+      <c r="Q258" s="75"/>
+      <c r="R258" s="75"/>
+      <c r="S258" s="75"/>
+      <c r="T258" s="75"/>
+      <c r="U258" s="75"/>
+      <c r="V258" s="75"/>
+      <c r="W258" s="75"/>
     </row>
     <row r="259" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A259" s="58"/>
-      <c r="B259" s="58"/>
-      <c r="C259" s="58"/>
-      <c r="D259" s="58"/>
-      <c r="E259" s="58"/>
-      <c r="F259" s="58"/>
-      <c r="G259" s="58"/>
-      <c r="H259" s="58"/>
-      <c r="I259" s="58"/>
-      <c r="J259" s="58"/>
-      <c r="K259" s="58"/>
-      <c r="L259" s="58"/>
-      <c r="M259" s="58"/>
-      <c r="N259" s="58"/>
-      <c r="O259" s="58"/>
-      <c r="P259" s="58"/>
-      <c r="Q259" s="58"/>
-      <c r="R259" s="58"/>
-      <c r="S259" s="58"/>
-      <c r="T259" s="58"/>
-      <c r="U259" s="58"/>
-      <c r="V259" s="58"/>
-      <c r="W259" s="58"/>
+      <c r="A259" s="75"/>
+      <c r="B259" s="75"/>
+      <c r="C259" s="75"/>
+      <c r="D259" s="75"/>
+      <c r="E259" s="75"/>
+      <c r="F259" s="75"/>
+      <c r="G259" s="75"/>
+      <c r="H259" s="75"/>
+      <c r="I259" s="75"/>
+      <c r="J259" s="75"/>
+      <c r="K259" s="75"/>
+      <c r="L259" s="75"/>
+      <c r="M259" s="75"/>
+      <c r="N259" s="75"/>
+      <c r="O259" s="75"/>
+      <c r="P259" s="75"/>
+      <c r="Q259" s="75"/>
+      <c r="R259" s="75"/>
+      <c r="S259" s="75"/>
+      <c r="T259" s="75"/>
+      <c r="U259" s="75"/>
+      <c r="V259" s="75"/>
+      <c r="W259" s="75"/>
     </row>
     <row r="260" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A260" s="68" t="s">
+      <c r="A260" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="B260" s="69"/>
-      <c r="C260" s="69"/>
-      <c r="D260" s="69"/>
-      <c r="E260" s="69"/>
-      <c r="F260" s="69"/>
-      <c r="G260" s="69"/>
-      <c r="H260" s="69"/>
-      <c r="I260" s="69"/>
-      <c r="J260" s="69"/>
-      <c r="K260" s="69"/>
-      <c r="L260" s="69"/>
-      <c r="M260" s="69"/>
-      <c r="N260" s="69"/>
-      <c r="O260" s="69"/>
-      <c r="P260" s="69"/>
-      <c r="Q260" s="69"/>
-      <c r="R260" s="70"/>
+      <c r="B260" s="77"/>
+      <c r="C260" s="77"/>
+      <c r="D260" s="77"/>
+      <c r="E260" s="77"/>
+      <c r="F260" s="77"/>
+      <c r="G260" s="77"/>
+      <c r="H260" s="77"/>
+      <c r="I260" s="77"/>
+      <c r="J260" s="77"/>
+      <c r="K260" s="77"/>
+      <c r="L260" s="77"/>
+      <c r="M260" s="77"/>
+      <c r="N260" s="77"/>
+      <c r="O260" s="77"/>
+      <c r="P260" s="77"/>
+      <c r="Q260" s="77"/>
+      <c r="R260" s="78"/>
       <c r="S260" s="38"/>
       <c r="T260" s="38"/>
       <c r="U260" s="38"/>
@@ -10550,17 +10550,17 @@
       <c r="B263" s="44">
         <v>44683</v>
       </c>
-      <c r="C263" s="82" t="s">
+      <c r="C263" s="54" t="s">
         <v>43</v>
       </c>
-      <c r="D263" s="83"/>
-      <c r="E263" s="83"/>
-      <c r="F263" s="83"/>
-      <c r="G263" s="83"/>
-      <c r="H263" s="83"/>
-      <c r="I263" s="83"/>
-      <c r="J263" s="83"/>
-      <c r="K263" s="84"/>
+      <c r="D263" s="55"/>
+      <c r="E263" s="55"/>
+      <c r="F263" s="55"/>
+      <c r="G263" s="55"/>
+      <c r="H263" s="55"/>
+      <c r="I263" s="55"/>
+      <c r="J263" s="55"/>
+      <c r="K263" s="56"/>
       <c r="L263" s="6">
         <v>17</v>
       </c>
@@ -10588,17 +10588,17 @@
       <c r="B264" s="41">
         <v>44684</v>
       </c>
-      <c r="C264" s="86" t="s">
+      <c r="C264" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="D264" s="87"/>
-      <c r="E264" s="87"/>
-      <c r="F264" s="87"/>
-      <c r="G264" s="87"/>
-      <c r="H264" s="87"/>
-      <c r="I264" s="87"/>
-      <c r="J264" s="87"/>
-      <c r="K264" s="88"/>
+      <c r="D264" s="58"/>
+      <c r="E264" s="58"/>
+      <c r="F264" s="58"/>
+      <c r="G264" s="58"/>
+      <c r="H264" s="58"/>
+      <c r="I264" s="58"/>
+      <c r="J264" s="58"/>
+      <c r="K264" s="59"/>
       <c r="L264" s="6">
         <v>17</v>
       </c>
@@ -10626,17 +10626,17 @@
       <c r="B265" s="41">
         <v>44686</v>
       </c>
-      <c r="C265" s="82" t="s">
+      <c r="C265" s="54" t="s">
         <v>39</v>
       </c>
-      <c r="D265" s="83"/>
-      <c r="E265" s="83"/>
-      <c r="F265" s="83"/>
-      <c r="G265" s="83"/>
-      <c r="H265" s="83"/>
-      <c r="I265" s="83"/>
-      <c r="J265" s="83"/>
-      <c r="K265" s="84"/>
+      <c r="D265" s="55"/>
+      <c r="E265" s="55"/>
+      <c r="F265" s="55"/>
+      <c r="G265" s="55"/>
+      <c r="H265" s="55"/>
+      <c r="I265" s="55"/>
+      <c r="J265" s="55"/>
+      <c r="K265" s="56"/>
       <c r="L265" s="6">
         <v>17</v>
       </c>
@@ -10664,17 +10664,17 @@
       <c r="B266" s="41">
         <v>44688</v>
       </c>
-      <c r="C266" s="82" t="s">
+      <c r="C266" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="D266" s="83"/>
-      <c r="E266" s="83"/>
-      <c r="F266" s="83"/>
-      <c r="G266" s="83"/>
-      <c r="H266" s="83"/>
-      <c r="I266" s="83"/>
-      <c r="J266" s="83"/>
-      <c r="K266" s="84"/>
+      <c r="D266" s="55"/>
+      <c r="E266" s="55"/>
+      <c r="F266" s="55"/>
+      <c r="G266" s="55"/>
+      <c r="H266" s="55"/>
+      <c r="I266" s="55"/>
+      <c r="J266" s="55"/>
+      <c r="K266" s="56"/>
       <c r="L266" s="6">
         <v>17</v>
       </c>
@@ -10702,17 +10702,17 @@
       <c r="B267" s="41">
         <v>44696</v>
       </c>
-      <c r="C267" s="86" t="s">
+      <c r="C267" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="D267" s="87"/>
-      <c r="E267" s="87"/>
-      <c r="F267" s="87"/>
-      <c r="G267" s="87"/>
-      <c r="H267" s="87"/>
-      <c r="I267" s="87"/>
-      <c r="J267" s="87"/>
-      <c r="K267" s="88"/>
+      <c r="D267" s="58"/>
+      <c r="E267" s="58"/>
+      <c r="F267" s="58"/>
+      <c r="G267" s="58"/>
+      <c r="H267" s="58"/>
+      <c r="I267" s="58"/>
+      <c r="J267" s="58"/>
+      <c r="K267" s="59"/>
       <c r="L267" s="6">
         <v>17</v>
       </c>
@@ -10740,17 +10740,17 @@
       <c r="B268" s="41">
         <v>44700</v>
       </c>
-      <c r="C268" s="82" t="s">
+      <c r="C268" s="54" t="s">
         <v>33</v>
       </c>
-      <c r="D268" s="83"/>
-      <c r="E268" s="83"/>
-      <c r="F268" s="83"/>
-      <c r="G268" s="83"/>
-      <c r="H268" s="83"/>
-      <c r="I268" s="83"/>
-      <c r="J268" s="83"/>
-      <c r="K268" s="84"/>
+      <c r="D268" s="55"/>
+      <c r="E268" s="55"/>
+      <c r="F268" s="55"/>
+      <c r="G268" s="55"/>
+      <c r="H268" s="55"/>
+      <c r="I268" s="55"/>
+      <c r="J268" s="55"/>
+      <c r="K268" s="56"/>
       <c r="L268" s="6">
         <v>17</v>
       </c>
@@ -10778,17 +10778,17 @@
       <c r="B269" s="41">
         <v>44703</v>
       </c>
-      <c r="C269" s="86" t="s">
+      <c r="C269" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="D269" s="87"/>
-      <c r="E269" s="87"/>
-      <c r="F269" s="87"/>
-      <c r="G269" s="87"/>
-      <c r="H269" s="87"/>
-      <c r="I269" s="87"/>
-      <c r="J269" s="87"/>
-      <c r="K269" s="88"/>
+      <c r="D269" s="58"/>
+      <c r="E269" s="58"/>
+      <c r="F269" s="58"/>
+      <c r="G269" s="58"/>
+      <c r="H269" s="58"/>
+      <c r="I269" s="58"/>
+      <c r="J269" s="58"/>
+      <c r="K269" s="59"/>
       <c r="L269" s="6">
         <v>17</v>
       </c>
@@ -10816,17 +10816,17 @@
       <c r="B270" s="41">
         <v>44707</v>
       </c>
-      <c r="C270" s="86" t="s">
+      <c r="C270" s="57" t="s">
         <v>44</v>
       </c>
-      <c r="D270" s="87"/>
-      <c r="E270" s="87"/>
-      <c r="F270" s="87"/>
-      <c r="G270" s="87"/>
-      <c r="H270" s="87"/>
-      <c r="I270" s="87"/>
-      <c r="J270" s="87"/>
-      <c r="K270" s="88"/>
+      <c r="D270" s="58"/>
+      <c r="E270" s="58"/>
+      <c r="F270" s="58"/>
+      <c r="G270" s="58"/>
+      <c r="H270" s="58"/>
+      <c r="I270" s="58"/>
+      <c r="J270" s="58"/>
+      <c r="K270" s="59"/>
       <c r="L270" s="6">
         <v>17</v>
       </c>
@@ -10851,17 +10851,17 @@
       <c r="B271" s="41">
         <v>44712</v>
       </c>
-      <c r="C271" s="82" t="s">
+      <c r="C271" s="54" t="s">
         <v>34</v>
       </c>
-      <c r="D271" s="83"/>
-      <c r="E271" s="83"/>
-      <c r="F271" s="83"/>
-      <c r="G271" s="83"/>
-      <c r="H271" s="83"/>
-      <c r="I271" s="83"/>
-      <c r="J271" s="83"/>
-      <c r="K271" s="84"/>
+      <c r="D271" s="55"/>
+      <c r="E271" s="55"/>
+      <c r="F271" s="55"/>
+      <c r="G271" s="55"/>
+      <c r="H271" s="55"/>
+      <c r="I271" s="55"/>
+      <c r="J271" s="55"/>
+      <c r="K271" s="56"/>
       <c r="L271" s="6">
         <v>17</v>
       </c>
@@ -10886,17 +10886,17 @@
       <c r="B272" s="41">
         <v>44717</v>
       </c>
-      <c r="C272" s="86" t="s">
+      <c r="C272" s="57" t="s">
         <v>35</v>
       </c>
-      <c r="D272" s="87"/>
-      <c r="E272" s="87"/>
-      <c r="F272" s="87"/>
-      <c r="G272" s="87"/>
-      <c r="H272" s="87"/>
-      <c r="I272" s="87"/>
-      <c r="J272" s="87"/>
-      <c r="K272" s="88"/>
+      <c r="D272" s="58"/>
+      <c r="E272" s="58"/>
+      <c r="F272" s="58"/>
+      <c r="G272" s="58"/>
+      <c r="H272" s="58"/>
+      <c r="I272" s="58"/>
+      <c r="J272" s="58"/>
+      <c r="K272" s="59"/>
       <c r="L272" s="6">
         <v>17</v>
       </c>
@@ -10924,17 +10924,17 @@
       <c r="B273" s="41">
         <v>44722</v>
       </c>
-      <c r="C273" s="82" t="s">
+      <c r="C273" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="D273" s="83"/>
-      <c r="E273" s="83"/>
-      <c r="F273" s="83"/>
-      <c r="G273" s="83"/>
-      <c r="H273" s="83"/>
-      <c r="I273" s="83"/>
-      <c r="J273" s="83"/>
-      <c r="K273" s="84"/>
+      <c r="D273" s="55"/>
+      <c r="E273" s="55"/>
+      <c r="F273" s="55"/>
+      <c r="G273" s="55"/>
+      <c r="H273" s="55"/>
+      <c r="I273" s="55"/>
+      <c r="J273" s="55"/>
+      <c r="K273" s="56"/>
       <c r="L273" s="6">
         <v>17</v>
       </c>
@@ -10959,17 +10959,17 @@
       <c r="B274" s="41">
         <v>44727</v>
       </c>
-      <c r="C274" s="82" t="s">
+      <c r="C274" s="54" t="s">
         <v>37</v>
       </c>
-      <c r="D274" s="83"/>
-      <c r="E274" s="83"/>
-      <c r="F274" s="83"/>
-      <c r="G274" s="83"/>
-      <c r="H274" s="83"/>
-      <c r="I274" s="83"/>
-      <c r="J274" s="83"/>
-      <c r="K274" s="84"/>
+      <c r="D274" s="55"/>
+      <c r="E274" s="55"/>
+      <c r="F274" s="55"/>
+      <c r="G274" s="55"/>
+      <c r="H274" s="55"/>
+      <c r="I274" s="55"/>
+      <c r="J274" s="55"/>
+      <c r="K274" s="56"/>
       <c r="L274" s="6">
         <v>17</v>
       </c>
@@ -10994,17 +10994,17 @@
       <c r="B275" s="41" t="s">
         <v>109</v>
       </c>
-      <c r="C275" s="82" t="s">
+      <c r="C275" s="54" t="s">
         <v>45</v>
       </c>
-      <c r="D275" s="83"/>
-      <c r="E275" s="83"/>
-      <c r="F275" s="83"/>
-      <c r="G275" s="83"/>
-      <c r="H275" s="83"/>
-      <c r="I275" s="83"/>
-      <c r="J275" s="83"/>
-      <c r="K275" s="84"/>
+      <c r="D275" s="55"/>
+      <c r="E275" s="55"/>
+      <c r="F275" s="55"/>
+      <c r="G275" s="55"/>
+      <c r="H275" s="55"/>
+      <c r="I275" s="55"/>
+      <c r="J275" s="55"/>
+      <c r="K275" s="56"/>
       <c r="L275" s="6">
         <v>17</v>
       </c>
@@ -11032,17 +11032,17 @@
       <c r="B276" s="41" t="s">
         <v>110</v>
       </c>
-      <c r="C276" s="82" t="s">
+      <c r="C276" s="54" t="s">
         <v>46</v>
       </c>
-      <c r="D276" s="83"/>
-      <c r="E276" s="83"/>
-      <c r="F276" s="83"/>
-      <c r="G276" s="83"/>
-      <c r="H276" s="83"/>
-      <c r="I276" s="83"/>
-      <c r="J276" s="83"/>
-      <c r="K276" s="84"/>
+      <c r="D276" s="55"/>
+      <c r="E276" s="55"/>
+      <c r="F276" s="55"/>
+      <c r="G276" s="55"/>
+      <c r="H276" s="55"/>
+      <c r="I276" s="55"/>
+      <c r="J276" s="55"/>
+      <c r="K276" s="56"/>
       <c r="L276" s="6">
         <v>17</v>
       </c>
@@ -11070,17 +11070,17 @@
       <c r="B277" s="41">
         <v>44736</v>
       </c>
-      <c r="C277" s="86" t="s">
+      <c r="C277" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="D277" s="87"/>
-      <c r="E277" s="87"/>
-      <c r="F277" s="87"/>
-      <c r="G277" s="87"/>
-      <c r="H277" s="87"/>
-      <c r="I277" s="87"/>
-      <c r="J277" s="87"/>
-      <c r="K277" s="88"/>
+      <c r="D277" s="58"/>
+      <c r="E277" s="58"/>
+      <c r="F277" s="58"/>
+      <c r="G277" s="58"/>
+      <c r="H277" s="58"/>
+      <c r="I277" s="58"/>
+      <c r="J277" s="58"/>
+      <c r="K277" s="59"/>
       <c r="L277" s="6">
         <v>17</v>
       </c>
@@ -11108,17 +11108,17 @@
       <c r="B278" s="41">
         <v>44740</v>
       </c>
-      <c r="C278" s="82" t="s">
+      <c r="C278" s="54" t="s">
         <v>38</v>
       </c>
-      <c r="D278" s="83"/>
-      <c r="E278" s="83"/>
-      <c r="F278" s="83"/>
-      <c r="G278" s="83"/>
-      <c r="H278" s="83"/>
-      <c r="I278" s="83"/>
-      <c r="J278" s="83"/>
-      <c r="K278" s="84"/>
+      <c r="D278" s="55"/>
+      <c r="E278" s="55"/>
+      <c r="F278" s="55"/>
+      <c r="G278" s="55"/>
+      <c r="H278" s="55"/>
+      <c r="I278" s="55"/>
+      <c r="J278" s="55"/>
+      <c r="K278" s="56"/>
       <c r="L278" s="6">
         <v>17</v>
       </c>
@@ -11146,17 +11146,17 @@
       <c r="B279" s="41">
         <v>44745</v>
       </c>
-      <c r="C279" s="86" t="s">
+      <c r="C279" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="D279" s="87"/>
-      <c r="E279" s="87"/>
-      <c r="F279" s="87"/>
-      <c r="G279" s="87"/>
-      <c r="H279" s="87"/>
-      <c r="I279" s="87"/>
-      <c r="J279" s="87"/>
-      <c r="K279" s="88"/>
+      <c r="D279" s="58"/>
+      <c r="E279" s="58"/>
+      <c r="F279" s="58"/>
+      <c r="G279" s="58"/>
+      <c r="H279" s="58"/>
+      <c r="I279" s="58"/>
+      <c r="J279" s="58"/>
+      <c r="K279" s="59"/>
       <c r="L279" s="6">
         <v>17</v>
       </c>
@@ -11184,17 +11184,17 @@
       <c r="B280" s="41">
         <v>44750</v>
       </c>
-      <c r="C280" s="82" t="s">
+      <c r="C280" s="54" t="s">
         <v>48</v>
       </c>
-      <c r="D280" s="83"/>
-      <c r="E280" s="83"/>
-      <c r="F280" s="83"/>
-      <c r="G280" s="83"/>
-      <c r="H280" s="83"/>
-      <c r="I280" s="83"/>
-      <c r="J280" s="83"/>
-      <c r="K280" s="84"/>
+      <c r="D280" s="55"/>
+      <c r="E280" s="55"/>
+      <c r="F280" s="55"/>
+      <c r="G280" s="55"/>
+      <c r="H280" s="55"/>
+      <c r="I280" s="55"/>
+      <c r="J280" s="55"/>
+      <c r="K280" s="56"/>
       <c r="L280" s="6">
         <v>17</v>
       </c>
@@ -11219,17 +11219,17 @@
       <c r="B281" s="41">
         <v>44752</v>
       </c>
-      <c r="C281" s="87" t="s">
+      <c r="C281" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="D281" s="87"/>
-      <c r="E281" s="87"/>
-      <c r="F281" s="87"/>
-      <c r="G281" s="87"/>
-      <c r="H281" s="87"/>
-      <c r="I281" s="87"/>
-      <c r="J281" s="87"/>
-      <c r="K281" s="88"/>
+      <c r="D281" s="58"/>
+      <c r="E281" s="58"/>
+      <c r="F281" s="58"/>
+      <c r="G281" s="58"/>
+      <c r="H281" s="58"/>
+      <c r="I281" s="58"/>
+      <c r="J281" s="58"/>
+      <c r="K281" s="59"/>
       <c r="L281" s="6">
         <v>17</v>
       </c>
@@ -11257,17 +11257,17 @@
       <c r="B282" s="41">
         <v>44754</v>
       </c>
-      <c r="C282" s="83" t="s">
+      <c r="C282" s="55" t="s">
         <v>49</v>
       </c>
-      <c r="D282" s="83"/>
-      <c r="E282" s="83"/>
-      <c r="F282" s="83"/>
-      <c r="G282" s="83"/>
-      <c r="H282" s="83"/>
-      <c r="I282" s="83"/>
-      <c r="J282" s="83"/>
-      <c r="K282" s="84"/>
+      <c r="D282" s="55"/>
+      <c r="E282" s="55"/>
+      <c r="F282" s="55"/>
+      <c r="G282" s="55"/>
+      <c r="H282" s="55"/>
+      <c r="I282" s="55"/>
+      <c r="J282" s="55"/>
+      <c r="K282" s="56"/>
       <c r="L282" s="6">
         <v>17</v>
       </c>
@@ -11292,17 +11292,17 @@
       <c r="B283" s="41">
         <v>44757</v>
       </c>
-      <c r="C283" s="86" t="s">
+      <c r="C283" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="D283" s="87"/>
-      <c r="E283" s="87"/>
-      <c r="F283" s="87"/>
-      <c r="G283" s="87"/>
-      <c r="H283" s="87"/>
-      <c r="I283" s="87"/>
-      <c r="J283" s="87"/>
-      <c r="K283" s="88"/>
+      <c r="D283" s="58"/>
+      <c r="E283" s="58"/>
+      <c r="F283" s="58"/>
+      <c r="G283" s="58"/>
+      <c r="H283" s="58"/>
+      <c r="I283" s="58"/>
+      <c r="J283" s="58"/>
+      <c r="K283" s="59"/>
       <c r="L283" s="6">
         <v>17</v>
       </c>
@@ -11330,17 +11330,17 @@
       <c r="B284" s="41">
         <v>44760</v>
       </c>
-      <c r="C284" s="86" t="s">
+      <c r="C284" s="57" t="s">
         <v>47</v>
       </c>
-      <c r="D284" s="87"/>
-      <c r="E284" s="87"/>
-      <c r="F284" s="87"/>
-      <c r="G284" s="87"/>
-      <c r="H284" s="87"/>
-      <c r="I284" s="87"/>
-      <c r="J284" s="87"/>
-      <c r="K284" s="88"/>
+      <c r="D284" s="58"/>
+      <c r="E284" s="58"/>
+      <c r="F284" s="58"/>
+      <c r="G284" s="58"/>
+      <c r="H284" s="58"/>
+      <c r="I284" s="58"/>
+      <c r="J284" s="58"/>
+      <c r="K284" s="59"/>
       <c r="L284" s="6">
         <v>17</v>
       </c>
@@ -11366,17 +11366,17 @@
         <v>23</v>
       </c>
       <c r="B285" s="41"/>
-      <c r="C285" s="82" t="s">
+      <c r="C285" s="54" t="s">
         <v>41</v>
       </c>
-      <c r="D285" s="83"/>
-      <c r="E285" s="83"/>
-      <c r="F285" s="83"/>
-      <c r="G285" s="83"/>
-      <c r="H285" s="83"/>
-      <c r="I285" s="83"/>
-      <c r="J285" s="83"/>
-      <c r="K285" s="84"/>
+      <c r="D285" s="55"/>
+      <c r="E285" s="55"/>
+      <c r="F285" s="55"/>
+      <c r="G285" s="55"/>
+      <c r="H285" s="55"/>
+      <c r="I285" s="55"/>
+      <c r="J285" s="55"/>
+      <c r="K285" s="56"/>
       <c r="L285" s="6">
         <v>17</v>
       </c>
@@ -11399,17 +11399,17 @@
         <v>24</v>
       </c>
       <c r="B286" s="41"/>
-      <c r="C286" s="82" t="s">
+      <c r="C286" s="54" t="s">
         <v>42</v>
       </c>
-      <c r="D286" s="83"/>
-      <c r="E286" s="83"/>
-      <c r="F286" s="83"/>
-      <c r="G286" s="83"/>
-      <c r="H286" s="83"/>
-      <c r="I286" s="83"/>
-      <c r="J286" s="83"/>
-      <c r="K286" s="84"/>
+      <c r="D286" s="55"/>
+      <c r="E286" s="55"/>
+      <c r="F286" s="55"/>
+      <c r="G286" s="55"/>
+      <c r="H286" s="55"/>
+      <c r="I286" s="55"/>
+      <c r="J286" s="55"/>
+      <c r="K286" s="56"/>
       <c r="L286" s="6">
         <v>17</v>
       </c>
@@ -11432,20 +11432,20 @@
         <v>25</v>
       </c>
       <c r="B287" s="47"/>
-      <c r="C287" s="59" t="s">
+      <c r="C287" s="66" t="s">
         <v>58</v>
       </c>
-      <c r="D287" s="60"/>
-      <c r="E287" s="60"/>
-      <c r="F287" s="60"/>
-      <c r="G287" s="60"/>
-      <c r="H287" s="60"/>
-      <c r="I287" s="60"/>
-      <c r="J287" s="60"/>
-      <c r="K287" s="60"/>
-      <c r="L287" s="60"/>
-      <c r="M287" s="60"/>
-      <c r="N287" s="61"/>
+      <c r="D287" s="67"/>
+      <c r="E287" s="67"/>
+      <c r="F287" s="67"/>
+      <c r="G287" s="67"/>
+      <c r="H287" s="67"/>
+      <c r="I287" s="67"/>
+      <c r="J287" s="67"/>
+      <c r="K287" s="67"/>
+      <c r="L287" s="67"/>
+      <c r="M287" s="67"/>
+      <c r="N287" s="68"/>
       <c r="O287" s="11"/>
       <c r="P287" s="12" t="e">
         <f>AVERAGE(P263:P286)</f>
@@ -11468,26 +11468,26 @@
       <c r="B288" s="41"/>
     </row>
     <row r="289" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A289" s="75" t="s">
+      <c r="A289" s="82" t="s">
         <v>13</v>
       </c>
-      <c r="B289" s="76"/>
-      <c r="C289" s="76"/>
-      <c r="D289" s="76"/>
-      <c r="E289" s="76"/>
-      <c r="F289" s="76"/>
-      <c r="G289" s="76"/>
-      <c r="H289" s="76"/>
-      <c r="I289" s="76"/>
-      <c r="J289" s="76"/>
-      <c r="K289" s="76"/>
-      <c r="L289" s="76"/>
-      <c r="M289" s="76"/>
-      <c r="N289" s="76"/>
-      <c r="O289" s="76"/>
-      <c r="P289" s="76"/>
-      <c r="Q289" s="76"/>
-      <c r="R289" s="77"/>
+      <c r="B289" s="83"/>
+      <c r="C289" s="83"/>
+      <c r="D289" s="83"/>
+      <c r="E289" s="83"/>
+      <c r="F289" s="83"/>
+      <c r="G289" s="83"/>
+      <c r="H289" s="83"/>
+      <c r="I289" s="83"/>
+      <c r="J289" s="83"/>
+      <c r="K289" s="83"/>
+      <c r="L289" s="83"/>
+      <c r="M289" s="83"/>
+      <c r="N289" s="83"/>
+      <c r="O289" s="83"/>
+      <c r="P289" s="83"/>
+      <c r="Q289" s="83"/>
+      <c r="R289" s="84"/>
       <c r="S289" s="15"/>
       <c r="T289" s="15"/>
       <c r="U289" s="15"/>
@@ -11577,17 +11577,17 @@
         <v>2</v>
       </c>
       <c r="B293" s="1"/>
-      <c r="C293" s="65" t="s">
+      <c r="C293" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="D293" s="66"/>
-      <c r="E293" s="66"/>
-      <c r="F293" s="66"/>
-      <c r="G293" s="66"/>
-      <c r="H293" s="66"/>
-      <c r="I293" s="66"/>
-      <c r="J293" s="66"/>
-      <c r="K293" s="66"/>
+      <c r="D293" s="65"/>
+      <c r="E293" s="65"/>
+      <c r="F293" s="65"/>
+      <c r="G293" s="65"/>
+      <c r="H293" s="65"/>
+      <c r="I293" s="65"/>
+      <c r="J293" s="65"/>
+      <c r="K293" s="65"/>
       <c r="L293" s="6">
         <v>33</v>
       </c>
@@ -11610,17 +11610,17 @@
         <v>3</v>
       </c>
       <c r="B294" s="1"/>
-      <c r="C294" s="65" t="s">
+      <c r="C294" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="D294" s="66"/>
-      <c r="E294" s="66"/>
-      <c r="F294" s="66"/>
-      <c r="G294" s="66"/>
-      <c r="H294" s="66"/>
-      <c r="I294" s="66"/>
-      <c r="J294" s="66"/>
-      <c r="K294" s="66"/>
+      <c r="D294" s="65"/>
+      <c r="E294" s="65"/>
+      <c r="F294" s="65"/>
+      <c r="G294" s="65"/>
+      <c r="H294" s="65"/>
+      <c r="I294" s="65"/>
+      <c r="J294" s="65"/>
+      <c r="K294" s="65"/>
       <c r="L294" s="6">
         <v>33</v>
       </c>
@@ -11643,17 +11643,17 @@
         <v>4</v>
       </c>
       <c r="B295" s="1"/>
-      <c r="C295" s="66" t="s">
+      <c r="C295" s="65" t="s">
         <v>18</v>
       </c>
-      <c r="D295" s="66"/>
-      <c r="E295" s="66"/>
-      <c r="F295" s="66"/>
-      <c r="G295" s="66"/>
-      <c r="H295" s="66"/>
-      <c r="I295" s="66"/>
-      <c r="J295" s="66"/>
-      <c r="K295" s="66"/>
+      <c r="D295" s="65"/>
+      <c r="E295" s="65"/>
+      <c r="F295" s="65"/>
+      <c r="G295" s="65"/>
+      <c r="H295" s="65"/>
+      <c r="I295" s="65"/>
+      <c r="J295" s="65"/>
+      <c r="K295" s="65"/>
       <c r="L295" s="6">
         <v>33</v>
       </c>
@@ -11676,17 +11676,17 @@
         <v>5</v>
       </c>
       <c r="B296" s="1"/>
-      <c r="C296" s="65" t="s">
+      <c r="C296" s="64" t="s">
         <v>61</v>
       </c>
-      <c r="D296" s="66"/>
-      <c r="E296" s="66"/>
-      <c r="F296" s="66"/>
-      <c r="G296" s="66"/>
-      <c r="H296" s="66"/>
-      <c r="I296" s="66"/>
-      <c r="J296" s="66"/>
-      <c r="K296" s="66"/>
+      <c r="D296" s="65"/>
+      <c r="E296" s="65"/>
+      <c r="F296" s="65"/>
+      <c r="G296" s="65"/>
+      <c r="H296" s="65"/>
+      <c r="I296" s="65"/>
+      <c r="J296" s="65"/>
+      <c r="K296" s="65"/>
       <c r="L296" s="6">
         <v>33</v>
       </c>
@@ -11709,17 +11709,17 @@
         <v>6</v>
       </c>
       <c r="B297" s="1"/>
-      <c r="C297" s="65" t="s">
+      <c r="C297" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="D297" s="66"/>
-      <c r="E297" s="66"/>
-      <c r="F297" s="66"/>
-      <c r="G297" s="66"/>
-      <c r="H297" s="66"/>
-      <c r="I297" s="66"/>
-      <c r="J297" s="66"/>
-      <c r="K297" s="66"/>
+      <c r="D297" s="65"/>
+      <c r="E297" s="65"/>
+      <c r="F297" s="65"/>
+      <c r="G297" s="65"/>
+      <c r="H297" s="65"/>
+      <c r="I297" s="65"/>
+      <c r="J297" s="65"/>
+      <c r="K297" s="65"/>
       <c r="L297" s="6">
         <v>33</v>
       </c>
@@ -11742,17 +11742,17 @@
         <v>7</v>
       </c>
       <c r="B298" s="1"/>
-      <c r="C298" s="66" t="s">
+      <c r="C298" s="65" t="s">
         <v>20</v>
       </c>
-      <c r="D298" s="66"/>
-      <c r="E298" s="66"/>
-      <c r="F298" s="66"/>
-      <c r="G298" s="66"/>
-      <c r="H298" s="66"/>
-      <c r="I298" s="66"/>
-      <c r="J298" s="66"/>
-      <c r="K298" s="66"/>
+      <c r="D298" s="65"/>
+      <c r="E298" s="65"/>
+      <c r="F298" s="65"/>
+      <c r="G298" s="65"/>
+      <c r="H298" s="65"/>
+      <c r="I298" s="65"/>
+      <c r="J298" s="65"/>
+      <c r="K298" s="65"/>
       <c r="L298" s="6">
         <v>33</v>
       </c>
@@ -11775,17 +11775,17 @@
         <v>8</v>
       </c>
       <c r="B299" s="1"/>
-      <c r="C299" s="65" t="s">
+      <c r="C299" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="D299" s="66"/>
-      <c r="E299" s="66"/>
-      <c r="F299" s="66"/>
-      <c r="G299" s="66"/>
-      <c r="H299" s="66"/>
-      <c r="I299" s="66"/>
-      <c r="J299" s="66"/>
-      <c r="K299" s="66"/>
+      <c r="D299" s="65"/>
+      <c r="E299" s="65"/>
+      <c r="F299" s="65"/>
+      <c r="G299" s="65"/>
+      <c r="H299" s="65"/>
+      <c r="I299" s="65"/>
+      <c r="J299" s="65"/>
+      <c r="K299" s="65"/>
       <c r="L299" s="6">
         <v>33</v>
       </c>
@@ -11808,17 +11808,17 @@
         <v>9</v>
       </c>
       <c r="B300" s="1"/>
-      <c r="C300" s="65" t="s">
+      <c r="C300" s="64" t="s">
         <v>62</v>
       </c>
-      <c r="D300" s="66"/>
-      <c r="E300" s="66"/>
-      <c r="F300" s="66"/>
-      <c r="G300" s="66"/>
-      <c r="H300" s="66"/>
-      <c r="I300" s="66"/>
-      <c r="J300" s="66"/>
-      <c r="K300" s="66"/>
+      <c r="D300" s="65"/>
+      <c r="E300" s="65"/>
+      <c r="F300" s="65"/>
+      <c r="G300" s="65"/>
+      <c r="H300" s="65"/>
+      <c r="I300" s="65"/>
+      <c r="J300" s="65"/>
+      <c r="K300" s="65"/>
       <c r="L300" s="6">
         <v>33</v>
       </c>
@@ -11841,17 +11841,17 @@
         <v>10</v>
       </c>
       <c r="B301" s="1"/>
-      <c r="C301" s="65" t="s">
+      <c r="C301" s="64" t="s">
         <v>22</v>
       </c>
-      <c r="D301" s="66"/>
-      <c r="E301" s="66"/>
-      <c r="F301" s="66"/>
-      <c r="G301" s="66"/>
-      <c r="H301" s="66"/>
-      <c r="I301" s="66"/>
-      <c r="J301" s="66"/>
-      <c r="K301" s="66"/>
+      <c r="D301" s="65"/>
+      <c r="E301" s="65"/>
+      <c r="F301" s="65"/>
+      <c r="G301" s="65"/>
+      <c r="H301" s="65"/>
+      <c r="I301" s="65"/>
+      <c r="J301" s="65"/>
+      <c r="K301" s="65"/>
       <c r="L301" s="6">
         <v>33</v>
       </c>
@@ -11874,17 +11874,17 @@
         <v>11</v>
       </c>
       <c r="B302" s="1"/>
-      <c r="C302" s="65" t="s">
+      <c r="C302" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="D302" s="66"/>
-      <c r="E302" s="66"/>
-      <c r="F302" s="66"/>
-      <c r="G302" s="66"/>
-      <c r="H302" s="66"/>
-      <c r="I302" s="66"/>
-      <c r="J302" s="66"/>
-      <c r="K302" s="66"/>
+      <c r="D302" s="65"/>
+      <c r="E302" s="65"/>
+      <c r="F302" s="65"/>
+      <c r="G302" s="65"/>
+      <c r="H302" s="65"/>
+      <c r="I302" s="65"/>
+      <c r="J302" s="65"/>
+      <c r="K302" s="65"/>
       <c r="L302" s="6">
         <v>33</v>
       </c>
@@ -11907,17 +11907,17 @@
         <v>12</v>
       </c>
       <c r="B303" s="1"/>
-      <c r="C303" s="65" t="s">
+      <c r="C303" s="64" t="s">
         <v>63</v>
       </c>
-      <c r="D303" s="66"/>
-      <c r="E303" s="66"/>
-      <c r="F303" s="66"/>
-      <c r="G303" s="66"/>
-      <c r="H303" s="66"/>
-      <c r="I303" s="66"/>
-      <c r="J303" s="66"/>
-      <c r="K303" s="66"/>
+      <c r="D303" s="65"/>
+      <c r="E303" s="65"/>
+      <c r="F303" s="65"/>
+      <c r="G303" s="65"/>
+      <c r="H303" s="65"/>
+      <c r="I303" s="65"/>
+      <c r="J303" s="65"/>
+      <c r="K303" s="65"/>
       <c r="L303" s="6">
         <v>33</v>
       </c>
@@ -11940,20 +11940,20 @@
         <v>13</v>
       </c>
       <c r="B304" s="1"/>
-      <c r="C304" s="59" t="s">
+      <c r="C304" s="66" t="s">
         <v>58</v>
       </c>
-      <c r="D304" s="60"/>
-      <c r="E304" s="60"/>
-      <c r="F304" s="60"/>
-      <c r="G304" s="60"/>
-      <c r="H304" s="60"/>
-      <c r="I304" s="60"/>
-      <c r="J304" s="60"/>
-      <c r="K304" s="60"/>
-      <c r="L304" s="60"/>
-      <c r="M304" s="60"/>
-      <c r="N304" s="61"/>
+      <c r="D304" s="67"/>
+      <c r="E304" s="67"/>
+      <c r="F304" s="67"/>
+      <c r="G304" s="67"/>
+      <c r="H304" s="67"/>
+      <c r="I304" s="67"/>
+      <c r="J304" s="67"/>
+      <c r="K304" s="67"/>
+      <c r="L304" s="67"/>
+      <c r="M304" s="67"/>
+      <c r="N304" s="68"/>
       <c r="O304" s="11"/>
       <c r="P304" s="12"/>
       <c r="Q304" s="13"/>
@@ -11967,26 +11967,26 @@
       <c r="B305" s="1"/>
     </row>
     <row r="306" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A306" s="62" t="s">
+      <c r="A306" s="69" t="s">
         <v>24</v>
       </c>
-      <c r="B306" s="63"/>
-      <c r="C306" s="63"/>
-      <c r="D306" s="63"/>
-      <c r="E306" s="63"/>
-      <c r="F306" s="63"/>
-      <c r="G306" s="63"/>
-      <c r="H306" s="63"/>
-      <c r="I306" s="63"/>
-      <c r="J306" s="63"/>
-      <c r="K306" s="63"/>
-      <c r="L306" s="63"/>
-      <c r="M306" s="63"/>
-      <c r="N306" s="63"/>
-      <c r="O306" s="63"/>
-      <c r="P306" s="63"/>
-      <c r="Q306" s="63"/>
-      <c r="R306" s="64"/>
+      <c r="B306" s="70"/>
+      <c r="C306" s="70"/>
+      <c r="D306" s="70"/>
+      <c r="E306" s="70"/>
+      <c r="F306" s="70"/>
+      <c r="G306" s="70"/>
+      <c r="H306" s="70"/>
+      <c r="I306" s="70"/>
+      <c r="J306" s="70"/>
+      <c r="K306" s="70"/>
+      <c r="L306" s="70"/>
+      <c r="M306" s="70"/>
+      <c r="N306" s="70"/>
+      <c r="O306" s="70"/>
+      <c r="P306" s="70"/>
+      <c r="Q306" s="70"/>
+      <c r="R306" s="71"/>
       <c r="S306" s="3"/>
       <c r="T306" s="3"/>
       <c r="U306" s="3"/>
@@ -12076,17 +12076,17 @@
         <v>2</v>
       </c>
       <c r="B310" s="1"/>
-      <c r="C310" s="65" t="s">
+      <c r="C310" s="64" t="s">
         <v>66</v>
       </c>
-      <c r="D310" s="66"/>
-      <c r="E310" s="66"/>
-      <c r="F310" s="66"/>
-      <c r="G310" s="66"/>
-      <c r="H310" s="66"/>
-      <c r="I310" s="66"/>
-      <c r="J310" s="66"/>
-      <c r="K310" s="66"/>
+      <c r="D310" s="65"/>
+      <c r="E310" s="65"/>
+      <c r="F310" s="65"/>
+      <c r="G310" s="65"/>
+      <c r="H310" s="65"/>
+      <c r="I310" s="65"/>
+      <c r="J310" s="65"/>
+      <c r="K310" s="65"/>
       <c r="L310" s="6">
         <v>33</v>
       </c>
@@ -12109,17 +12109,17 @@
         <v>3</v>
       </c>
       <c r="B311" s="1"/>
-      <c r="C311" s="65" t="s">
+      <c r="C311" s="64" t="s">
         <v>25</v>
       </c>
-      <c r="D311" s="66"/>
-      <c r="E311" s="66"/>
-      <c r="F311" s="66"/>
-      <c r="G311" s="66"/>
-      <c r="H311" s="66"/>
-      <c r="I311" s="66"/>
-      <c r="J311" s="66"/>
-      <c r="K311" s="66"/>
+      <c r="D311" s="65"/>
+      <c r="E311" s="65"/>
+      <c r="F311" s="65"/>
+      <c r="G311" s="65"/>
+      <c r="H311" s="65"/>
+      <c r="I311" s="65"/>
+      <c r="J311" s="65"/>
+      <c r="K311" s="65"/>
       <c r="L311" s="6">
         <v>33</v>
       </c>
@@ -12142,17 +12142,17 @@
         <v>4</v>
       </c>
       <c r="B312" s="1"/>
-      <c r="C312" s="66" t="s">
+      <c r="C312" s="65" t="s">
         <v>26</v>
       </c>
-      <c r="D312" s="66"/>
-      <c r="E312" s="66"/>
-      <c r="F312" s="66"/>
-      <c r="G312" s="66"/>
-      <c r="H312" s="66"/>
-      <c r="I312" s="66"/>
-      <c r="J312" s="66"/>
-      <c r="K312" s="66"/>
+      <c r="D312" s="65"/>
+      <c r="E312" s="65"/>
+      <c r="F312" s="65"/>
+      <c r="G312" s="65"/>
+      <c r="H312" s="65"/>
+      <c r="I312" s="65"/>
+      <c r="J312" s="65"/>
+      <c r="K312" s="65"/>
       <c r="L312" s="6">
         <v>33</v>
       </c>
@@ -12175,17 +12175,17 @@
         <v>5</v>
       </c>
       <c r="B313" s="1"/>
-      <c r="C313" s="65" t="s">
+      <c r="C313" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="D313" s="66"/>
-      <c r="E313" s="66"/>
-      <c r="F313" s="66"/>
-      <c r="G313" s="66"/>
-      <c r="H313" s="66"/>
-      <c r="I313" s="66"/>
-      <c r="J313" s="66"/>
-      <c r="K313" s="66"/>
+      <c r="D313" s="65"/>
+      <c r="E313" s="65"/>
+      <c r="F313" s="65"/>
+      <c r="G313" s="65"/>
+      <c r="H313" s="65"/>
+      <c r="I313" s="65"/>
+      <c r="J313" s="65"/>
+      <c r="K313" s="65"/>
       <c r="L313" s="6">
         <v>33</v>
       </c>
@@ -12208,17 +12208,17 @@
         <v>6</v>
       </c>
       <c r="B314" s="1"/>
-      <c r="C314" s="65" t="s">
+      <c r="C314" s="64" t="s">
         <v>67</v>
       </c>
-      <c r="D314" s="66"/>
-      <c r="E314" s="66"/>
-      <c r="F314" s="66"/>
-      <c r="G314" s="66"/>
-      <c r="H314" s="66"/>
-      <c r="I314" s="66"/>
-      <c r="J314" s="66"/>
-      <c r="K314" s="66"/>
+      <c r="D314" s="65"/>
+      <c r="E314" s="65"/>
+      <c r="F314" s="65"/>
+      <c r="G314" s="65"/>
+      <c r="H314" s="65"/>
+      <c r="I314" s="65"/>
+      <c r="J314" s="65"/>
+      <c r="K314" s="65"/>
       <c r="L314" s="6">
         <v>33</v>
       </c>
@@ -12241,20 +12241,20 @@
         <v>7</v>
       </c>
       <c r="B315" s="1"/>
-      <c r="C315" s="59" t="s">
+      <c r="C315" s="66" t="s">
         <v>58</v>
       </c>
-      <c r="D315" s="60"/>
-      <c r="E315" s="60"/>
-      <c r="F315" s="60"/>
-      <c r="G315" s="60"/>
-      <c r="H315" s="60"/>
-      <c r="I315" s="60"/>
-      <c r="J315" s="60"/>
-      <c r="K315" s="60"/>
-      <c r="L315" s="60"/>
-      <c r="M315" s="60"/>
-      <c r="N315" s="61"/>
+      <c r="D315" s="67"/>
+      <c r="E315" s="67"/>
+      <c r="F315" s="67"/>
+      <c r="G315" s="67"/>
+      <c r="H315" s="67"/>
+      <c r="I315" s="67"/>
+      <c r="J315" s="67"/>
+      <c r="K315" s="67"/>
+      <c r="L315" s="67"/>
+      <c r="M315" s="67"/>
+      <c r="N315" s="68"/>
       <c r="O315" s="11"/>
       <c r="P315" s="12" t="e">
         <f>AVERAGE(P309:P314)</f>
@@ -12274,25 +12274,25 @@
       <c r="B316" s="1"/>
     </row>
     <row r="317" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A317" s="71" t="s">
+      <c r="A317" s="81" t="s">
         <v>28</v>
       </c>
-      <c r="B317" s="71"/>
-      <c r="C317" s="71"/>
-      <c r="D317" s="71"/>
-      <c r="E317" s="71"/>
-      <c r="F317" s="71"/>
-      <c r="G317" s="71"/>
-      <c r="H317" s="71"/>
-      <c r="I317" s="71"/>
-      <c r="J317" s="71"/>
-      <c r="K317" s="71"/>
-      <c r="L317" s="71"/>
-      <c r="M317" s="71"/>
-      <c r="N317" s="71"/>
-      <c r="O317" s="71"/>
-      <c r="P317" s="71"/>
-      <c r="Q317" s="71"/>
+      <c r="B317" s="81"/>
+      <c r="C317" s="81"/>
+      <c r="D317" s="81"/>
+      <c r="E317" s="81"/>
+      <c r="F317" s="81"/>
+      <c r="G317" s="81"/>
+      <c r="H317" s="81"/>
+      <c r="I317" s="81"/>
+      <c r="J317" s="81"/>
+      <c r="K317" s="81"/>
+      <c r="L317" s="81"/>
+      <c r="M317" s="81"/>
+      <c r="N317" s="81"/>
+      <c r="O317" s="81"/>
+      <c r="P317" s="81"/>
+      <c r="Q317" s="81"/>
       <c r="R317"/>
     </row>
     <row r="318" spans="1:21" x14ac:dyDescent="0.3">
@@ -12300,10 +12300,10 @@
         <v>1</v>
       </c>
       <c r="B318" s="16"/>
-      <c r="C318" s="67" t="s">
+      <c r="C318" s="80" t="s">
         <v>68</v>
       </c>
-      <c r="D318" s="67"/>
+      <c r="D318" s="80"/>
       <c r="E318" s="17" t="s">
         <v>69</v>
       </c>
@@ -12350,10 +12350,10 @@
         <v>1</v>
       </c>
       <c r="B319" s="14"/>
-      <c r="C319" s="56" t="s">
+      <c r="C319" s="63" t="s">
         <v>84</v>
       </c>
-      <c r="D319" s="56"/>
+      <c r="D319" s="63"/>
       <c r="E319" s="25"/>
       <c r="F319" s="26"/>
       <c r="G319" s="27"/>
@@ -12374,10 +12374,10 @@
         <v>2</v>
       </c>
       <c r="B320" s="14"/>
-      <c r="C320" s="56" t="s">
+      <c r="C320" s="63" t="s">
         <v>85</v>
       </c>
-      <c r="D320" s="56"/>
+      <c r="D320" s="63"/>
       <c r="E320" s="25"/>
       <c r="F320" s="26"/>
       <c r="G320" s="27"/>
@@ -12398,10 +12398,10 @@
         <v>3</v>
       </c>
       <c r="B321" s="14"/>
-      <c r="C321" s="56" t="s">
+      <c r="C321" s="63" t="s">
         <v>86</v>
       </c>
-      <c r="D321" s="56"/>
+      <c r="D321" s="63"/>
       <c r="E321" s="25"/>
       <c r="F321" s="26"/>
       <c r="G321" s="27"/>
@@ -12422,10 +12422,10 @@
         <v>4</v>
       </c>
       <c r="B322" s="14"/>
-      <c r="C322" s="56" t="s">
+      <c r="C322" s="63" t="s">
         <v>87</v>
       </c>
-      <c r="D322" s="56"/>
+      <c r="D322" s="63"/>
       <c r="E322" s="25"/>
       <c r="F322" s="26"/>
       <c r="G322" s="27"/>
@@ -12446,10 +12446,10 @@
         <v>5</v>
       </c>
       <c r="B323" s="14"/>
-      <c r="C323" s="56" t="s">
+      <c r="C323" s="63" t="s">
         <v>90</v>
       </c>
-      <c r="D323" s="56"/>
+      <c r="D323" s="63"/>
       <c r="E323" s="25"/>
       <c r="F323" s="26"/>
       <c r="G323" s="27"/>
@@ -12470,10 +12470,10 @@
         <v>6</v>
       </c>
       <c r="B324" s="14"/>
-      <c r="C324" s="56" t="s">
+      <c r="C324" s="63" t="s">
         <v>91</v>
       </c>
-      <c r="D324" s="56"/>
+      <c r="D324" s="63"/>
       <c r="E324" s="25"/>
       <c r="F324" s="26"/>
       <c r="G324" s="27"/>
@@ -12494,10 +12494,10 @@
         <v>7</v>
       </c>
       <c r="B325" s="14"/>
-      <c r="C325" s="56" t="s">
+      <c r="C325" s="63" t="s">
         <v>92</v>
       </c>
-      <c r="D325" s="56"/>
+      <c r="D325" s="63"/>
       <c r="E325" s="25"/>
       <c r="F325" s="26"/>
       <c r="G325" s="27"/>
@@ -12518,10 +12518,10 @@
         <v>8</v>
       </c>
       <c r="B326" s="14"/>
-      <c r="C326" s="56" t="s">
+      <c r="C326" s="63" t="s">
         <v>93</v>
       </c>
-      <c r="D326" s="56"/>
+      <c r="D326" s="63"/>
       <c r="E326" s="25"/>
       <c r="F326" s="26"/>
       <c r="G326" s="27"/>
@@ -12540,10 +12540,10 @@
     <row r="327" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A327" s="14"/>
       <c r="B327" s="14"/>
-      <c r="C327" s="57" t="s">
+      <c r="C327" s="74" t="s">
         <v>98</v>
       </c>
-      <c r="D327" s="57"/>
+      <c r="D327" s="74"/>
       <c r="E327" s="25" t="e">
         <f t="shared" ref="E327:O327" si="25">AVERAGE(E319:E326)</f>
         <v>#DIV/0!</v>
@@ -12599,25 +12599,25 @@
       <c r="R329"/>
     </row>
     <row r="330" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A330" s="74" t="s">
+      <c r="A330" s="79" t="s">
         <v>99</v>
       </c>
-      <c r="B330" s="74"/>
-      <c r="C330" s="74"/>
-      <c r="D330" s="74"/>
-      <c r="E330" s="74"/>
-      <c r="F330" s="74"/>
-      <c r="G330" s="74"/>
-      <c r="H330" s="74"/>
-      <c r="I330" s="74"/>
-      <c r="J330" s="74"/>
-      <c r="K330" s="74"/>
-      <c r="L330" s="74"/>
-      <c r="M330" s="74"/>
-      <c r="N330" s="74"/>
-      <c r="O330" s="74"/>
-      <c r="P330" s="74"/>
-      <c r="Q330" s="74"/>
+      <c r="B330" s="79"/>
+      <c r="C330" s="79"/>
+      <c r="D330" s="79"/>
+      <c r="E330" s="79"/>
+      <c r="F330" s="79"/>
+      <c r="G330" s="79"/>
+      <c r="H330" s="79"/>
+      <c r="I330" s="79"/>
+      <c r="J330" s="79"/>
+      <c r="K330" s="79"/>
+      <c r="L330" s="79"/>
+      <c r="M330" s="79"/>
+      <c r="N330" s="79"/>
+      <c r="O330" s="79"/>
+      <c r="P330" s="79"/>
+      <c r="Q330" s="79"/>
       <c r="R330"/>
     </row>
     <row r="331" spans="1:18" x14ac:dyDescent="0.3">
@@ -12625,10 +12625,10 @@
         <v>1</v>
       </c>
       <c r="B331" s="16"/>
-      <c r="C331" s="67" t="s">
+      <c r="C331" s="80" t="s">
         <v>68</v>
       </c>
-      <c r="D331" s="67"/>
+      <c r="D331" s="80"/>
       <c r="E331" s="17" t="s">
         <v>69</v>
       </c>
@@ -12675,10 +12675,10 @@
         <v>1</v>
       </c>
       <c r="B332" s="14"/>
-      <c r="C332" s="56" t="s">
+      <c r="C332" s="63" t="s">
         <v>94</v>
       </c>
-      <c r="D332" s="56"/>
+      <c r="D332" s="63"/>
       <c r="E332" s="25"/>
       <c r="F332" s="26"/>
       <c r="G332" s="27"/>
@@ -12699,10 +12699,10 @@
         <v>2</v>
       </c>
       <c r="B333" s="14"/>
-      <c r="C333" s="56" t="s">
+      <c r="C333" s="63" t="s">
         <v>95</v>
       </c>
-      <c r="D333" s="56"/>
+      <c r="D333" s="63"/>
       <c r="E333" s="25"/>
       <c r="F333" s="26"/>
       <c r="G333" s="27"/>
@@ -12723,10 +12723,10 @@
         <v>3</v>
       </c>
       <c r="B334" s="14"/>
-      <c r="C334" s="56" t="s">
+      <c r="C334" s="63" t="s">
         <v>96</v>
       </c>
-      <c r="D334" s="56"/>
+      <c r="D334" s="63"/>
       <c r="E334" s="25"/>
       <c r="F334" s="26"/>
       <c r="G334" s="27"/>
@@ -12746,10 +12746,10 @@
         <v>4</v>
       </c>
       <c r="B335" s="14"/>
-      <c r="C335" s="56" t="s">
+      <c r="C335" s="63" t="s">
         <v>97</v>
       </c>
-      <c r="D335" s="56"/>
+      <c r="D335" s="63"/>
       <c r="E335" s="25"/>
       <c r="F335" s="26"/>
       <c r="G335" s="27"/>
@@ -12765,10 +12765,10 @@
       <c r="Q335" s="29"/>
     </row>
     <row r="336" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="C336" s="57" t="s">
+      <c r="C336" s="74" t="s">
         <v>98</v>
       </c>
-      <c r="D336" s="57"/>
+      <c r="D336" s="74"/>
       <c r="E336" s="25"/>
       <c r="F336" s="26"/>
       <c r="G336" s="27"/>
@@ -12785,6 +12785,265 @@
     </row>
   </sheetData>
   <mergeCells count="283">
+    <mergeCell ref="C233:D233"/>
+    <mergeCell ref="A1:V1"/>
+    <mergeCell ref="C163:D163"/>
+    <mergeCell ref="C164:D164"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="A84:W86"/>
+    <mergeCell ref="C132:N132"/>
+    <mergeCell ref="A134:R134"/>
+    <mergeCell ref="C139:K139"/>
+    <mergeCell ref="C140:K140"/>
+    <mergeCell ref="C141:K141"/>
+    <mergeCell ref="C142:K142"/>
+    <mergeCell ref="C159:D159"/>
+    <mergeCell ref="C160:D160"/>
+    <mergeCell ref="C161:D161"/>
+    <mergeCell ref="C162:D162"/>
+    <mergeCell ref="A87:R87"/>
+    <mergeCell ref="C110:K110"/>
+    <mergeCell ref="C111:K111"/>
+    <mergeCell ref="C112:K112"/>
+    <mergeCell ref="C113:K113"/>
+    <mergeCell ref="A145:Q145"/>
+    <mergeCell ref="C138:K138"/>
+    <mergeCell ref="C143:N143"/>
+    <mergeCell ref="C128:K128"/>
+    <mergeCell ref="C129:K129"/>
+    <mergeCell ref="C130:K130"/>
+    <mergeCell ref="C131:K131"/>
+    <mergeCell ref="C122:K122"/>
+    <mergeCell ref="C123:K123"/>
+    <mergeCell ref="C124:K124"/>
+    <mergeCell ref="C125:K125"/>
+    <mergeCell ref="C126:K126"/>
+    <mergeCell ref="C127:K127"/>
+    <mergeCell ref="C136:K136"/>
+    <mergeCell ref="C137:K137"/>
+    <mergeCell ref="C151:D151"/>
+    <mergeCell ref="C155:D155"/>
+    <mergeCell ref="C152:D152"/>
+    <mergeCell ref="C153:D153"/>
+    <mergeCell ref="C154:D154"/>
+    <mergeCell ref="A158:Q158"/>
+    <mergeCell ref="C146:D146"/>
+    <mergeCell ref="C147:D147"/>
+    <mergeCell ref="C148:D148"/>
+    <mergeCell ref="C149:D149"/>
+    <mergeCell ref="C150:D150"/>
+    <mergeCell ref="C119:K119"/>
+    <mergeCell ref="C120:K120"/>
+    <mergeCell ref="C121:K121"/>
+    <mergeCell ref="A117:R117"/>
+    <mergeCell ref="C103:K103"/>
+    <mergeCell ref="C104:K104"/>
+    <mergeCell ref="C105:K105"/>
+    <mergeCell ref="C106:K106"/>
+    <mergeCell ref="C107:K107"/>
+    <mergeCell ref="C108:K108"/>
+    <mergeCell ref="C109:K109"/>
+    <mergeCell ref="C114:N114"/>
+    <mergeCell ref="C89:K89"/>
+    <mergeCell ref="C90:K90"/>
+    <mergeCell ref="C97:K97"/>
+    <mergeCell ref="C98:K98"/>
+    <mergeCell ref="C99:K99"/>
+    <mergeCell ref="C100:K100"/>
+    <mergeCell ref="C101:K101"/>
+    <mergeCell ref="C102:K102"/>
+    <mergeCell ref="C91:K91"/>
+    <mergeCell ref="C92:K92"/>
+    <mergeCell ref="C93:K93"/>
+    <mergeCell ref="C94:K94"/>
+    <mergeCell ref="C95:K95"/>
+    <mergeCell ref="C96:K96"/>
+    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="A60:Q60"/>
+    <mergeCell ref="A73:Q73"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="C39:K39"/>
+    <mergeCell ref="C40:K40"/>
+    <mergeCell ref="C41:K41"/>
+    <mergeCell ref="C25:K25"/>
+    <mergeCell ref="C26:K26"/>
+    <mergeCell ref="C27:K27"/>
+    <mergeCell ref="C28:K28"/>
+    <mergeCell ref="C58:N58"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="C56:K56"/>
+    <mergeCell ref="C57:K57"/>
+    <mergeCell ref="C29:N29"/>
+    <mergeCell ref="C54:K54"/>
+    <mergeCell ref="C55:K55"/>
+    <mergeCell ref="C51:K51"/>
+    <mergeCell ref="C52:K52"/>
+    <mergeCell ref="C53:K53"/>
+    <mergeCell ref="C42:K42"/>
+    <mergeCell ref="C43:K43"/>
+    <mergeCell ref="C47:N47"/>
+    <mergeCell ref="A49:R49"/>
+    <mergeCell ref="C44:K44"/>
+    <mergeCell ref="C45:K45"/>
+    <mergeCell ref="C46:K46"/>
+    <mergeCell ref="C21:K21"/>
+    <mergeCell ref="C22:K22"/>
+    <mergeCell ref="A32:R32"/>
+    <mergeCell ref="A2:R2"/>
+    <mergeCell ref="C34:K34"/>
+    <mergeCell ref="C35:K35"/>
+    <mergeCell ref="C36:K36"/>
+    <mergeCell ref="C37:K37"/>
+    <mergeCell ref="C38:K38"/>
+    <mergeCell ref="C180:K180"/>
+    <mergeCell ref="C181:K181"/>
+    <mergeCell ref="C182:K182"/>
+    <mergeCell ref="A170:W172"/>
+    <mergeCell ref="A173:R173"/>
+    <mergeCell ref="C4:K4"/>
+    <mergeCell ref="C5:K5"/>
+    <mergeCell ref="C6:K6"/>
+    <mergeCell ref="C23:K23"/>
+    <mergeCell ref="C24:K24"/>
+    <mergeCell ref="C13:K13"/>
+    <mergeCell ref="C14:K14"/>
+    <mergeCell ref="C15:K15"/>
+    <mergeCell ref="C16:K16"/>
+    <mergeCell ref="C17:K17"/>
+    <mergeCell ref="C18:K18"/>
+    <mergeCell ref="C7:K7"/>
+    <mergeCell ref="C8:K8"/>
+    <mergeCell ref="C9:K9"/>
+    <mergeCell ref="C10:K10"/>
+    <mergeCell ref="C11:K11"/>
+    <mergeCell ref="C12:K12"/>
+    <mergeCell ref="C19:K19"/>
+    <mergeCell ref="C20:K20"/>
+    <mergeCell ref="C183:K183"/>
+    <mergeCell ref="C186:K186"/>
+    <mergeCell ref="C187:K187"/>
+    <mergeCell ref="C184:K184"/>
+    <mergeCell ref="C185:K185"/>
+    <mergeCell ref="C196:K196"/>
+    <mergeCell ref="C197:K197"/>
+    <mergeCell ref="C198:K198"/>
+    <mergeCell ref="C199:K199"/>
+    <mergeCell ref="C188:K188"/>
+    <mergeCell ref="C189:K189"/>
+    <mergeCell ref="C190:K190"/>
+    <mergeCell ref="C191:K191"/>
+    <mergeCell ref="C194:K194"/>
+    <mergeCell ref="C195:K195"/>
+    <mergeCell ref="C200:N200"/>
+    <mergeCell ref="A203:R203"/>
+    <mergeCell ref="C205:K205"/>
+    <mergeCell ref="C206:K206"/>
+    <mergeCell ref="C207:K207"/>
+    <mergeCell ref="C208:K208"/>
+    <mergeCell ref="C209:K209"/>
+    <mergeCell ref="C210:K210"/>
+    <mergeCell ref="C211:K211"/>
+    <mergeCell ref="C212:K212"/>
+    <mergeCell ref="C213:K213"/>
+    <mergeCell ref="C214:K214"/>
+    <mergeCell ref="C215:K215"/>
+    <mergeCell ref="C216:K216"/>
+    <mergeCell ref="C217:K217"/>
+    <mergeCell ref="C218:N218"/>
+    <mergeCell ref="A220:R220"/>
+    <mergeCell ref="C222:K222"/>
+    <mergeCell ref="C223:K223"/>
+    <mergeCell ref="C224:K224"/>
+    <mergeCell ref="C225:K225"/>
+    <mergeCell ref="C226:K226"/>
+    <mergeCell ref="C227:K227"/>
+    <mergeCell ref="C228:K228"/>
+    <mergeCell ref="C229:N229"/>
+    <mergeCell ref="A231:Q231"/>
+    <mergeCell ref="C232:D232"/>
+    <mergeCell ref="C234:D234"/>
+    <mergeCell ref="C235:D235"/>
+    <mergeCell ref="C236:D236"/>
+    <mergeCell ref="C237:D237"/>
+    <mergeCell ref="C238:D238"/>
+    <mergeCell ref="C239:D239"/>
+    <mergeCell ref="C240:D240"/>
+    <mergeCell ref="C241:D241"/>
+    <mergeCell ref="C242:D242"/>
+    <mergeCell ref="C262:K262"/>
+    <mergeCell ref="C263:K263"/>
+    <mergeCell ref="C264:K264"/>
+    <mergeCell ref="C265:K265"/>
+    <mergeCell ref="C266:K266"/>
+    <mergeCell ref="C267:K267"/>
+    <mergeCell ref="C268:K268"/>
+    <mergeCell ref="C269:K269"/>
+    <mergeCell ref="A245:Q245"/>
+    <mergeCell ref="C246:D246"/>
+    <mergeCell ref="C247:D247"/>
+    <mergeCell ref="C248:D248"/>
+    <mergeCell ref="C249:D249"/>
+    <mergeCell ref="C250:D250"/>
+    <mergeCell ref="C251:D251"/>
+    <mergeCell ref="C270:K270"/>
+    <mergeCell ref="C271:K271"/>
+    <mergeCell ref="C272:K272"/>
+    <mergeCell ref="C273:K273"/>
+    <mergeCell ref="C274:K274"/>
+    <mergeCell ref="C275:K275"/>
+    <mergeCell ref="C276:K276"/>
+    <mergeCell ref="C277:K277"/>
+    <mergeCell ref="C278:K278"/>
+    <mergeCell ref="C296:K296"/>
+    <mergeCell ref="C297:K297"/>
+    <mergeCell ref="C298:K298"/>
+    <mergeCell ref="C299:K299"/>
+    <mergeCell ref="C279:K279"/>
+    <mergeCell ref="C280:K280"/>
+    <mergeCell ref="C281:K281"/>
+    <mergeCell ref="C282:K282"/>
+    <mergeCell ref="C283:K283"/>
+    <mergeCell ref="C284:K284"/>
+    <mergeCell ref="C285:K285"/>
+    <mergeCell ref="A289:R289"/>
+    <mergeCell ref="C334:D334"/>
+    <mergeCell ref="C335:D335"/>
+    <mergeCell ref="C336:D336"/>
+    <mergeCell ref="A257:W259"/>
+    <mergeCell ref="A260:R260"/>
+    <mergeCell ref="C286:K286"/>
+    <mergeCell ref="C287:N287"/>
+    <mergeCell ref="C321:D321"/>
+    <mergeCell ref="C322:D322"/>
+    <mergeCell ref="C323:D323"/>
+    <mergeCell ref="C324:D324"/>
+    <mergeCell ref="C325:D325"/>
+    <mergeCell ref="C326:D326"/>
+    <mergeCell ref="C327:D327"/>
+    <mergeCell ref="A330:Q330"/>
+    <mergeCell ref="C331:D331"/>
+    <mergeCell ref="C311:K311"/>
+    <mergeCell ref="C312:K312"/>
+    <mergeCell ref="C313:K313"/>
+    <mergeCell ref="C314:K314"/>
+    <mergeCell ref="C315:N315"/>
+    <mergeCell ref="A317:Q317"/>
+    <mergeCell ref="C318:D318"/>
+    <mergeCell ref="C319:D319"/>
     <mergeCell ref="C179:K179"/>
     <mergeCell ref="C178:K178"/>
     <mergeCell ref="C176:K176"/>
@@ -12809,265 +13068,6 @@
     <mergeCell ref="C293:K293"/>
     <mergeCell ref="C294:K294"/>
     <mergeCell ref="C295:K295"/>
-    <mergeCell ref="C334:D334"/>
-    <mergeCell ref="C335:D335"/>
-    <mergeCell ref="C336:D336"/>
-    <mergeCell ref="A257:W259"/>
-    <mergeCell ref="A260:R260"/>
-    <mergeCell ref="C286:K286"/>
-    <mergeCell ref="C287:N287"/>
-    <mergeCell ref="C321:D321"/>
-    <mergeCell ref="C322:D322"/>
-    <mergeCell ref="C323:D323"/>
-    <mergeCell ref="C324:D324"/>
-    <mergeCell ref="C325:D325"/>
-    <mergeCell ref="C326:D326"/>
-    <mergeCell ref="C327:D327"/>
-    <mergeCell ref="A330:Q330"/>
-    <mergeCell ref="C331:D331"/>
-    <mergeCell ref="C311:K311"/>
-    <mergeCell ref="C312:K312"/>
-    <mergeCell ref="C313:K313"/>
-    <mergeCell ref="C314:K314"/>
-    <mergeCell ref="C315:N315"/>
-    <mergeCell ref="A317:Q317"/>
-    <mergeCell ref="C318:D318"/>
-    <mergeCell ref="C319:D319"/>
-    <mergeCell ref="C296:K296"/>
-    <mergeCell ref="C297:K297"/>
-    <mergeCell ref="C298:K298"/>
-    <mergeCell ref="C299:K299"/>
-    <mergeCell ref="C279:K279"/>
-    <mergeCell ref="C280:K280"/>
-    <mergeCell ref="C281:K281"/>
-    <mergeCell ref="C282:K282"/>
-    <mergeCell ref="C283:K283"/>
-    <mergeCell ref="C284:K284"/>
-    <mergeCell ref="C285:K285"/>
-    <mergeCell ref="A289:R289"/>
-    <mergeCell ref="C270:K270"/>
-    <mergeCell ref="C271:K271"/>
-    <mergeCell ref="C272:K272"/>
-    <mergeCell ref="C273:K273"/>
-    <mergeCell ref="C274:K274"/>
-    <mergeCell ref="C275:K275"/>
-    <mergeCell ref="C276:K276"/>
-    <mergeCell ref="C277:K277"/>
-    <mergeCell ref="C278:K278"/>
-    <mergeCell ref="C262:K262"/>
-    <mergeCell ref="C263:K263"/>
-    <mergeCell ref="C264:K264"/>
-    <mergeCell ref="C265:K265"/>
-    <mergeCell ref="C266:K266"/>
-    <mergeCell ref="C267:K267"/>
-    <mergeCell ref="C268:K268"/>
-    <mergeCell ref="C269:K269"/>
-    <mergeCell ref="A245:Q245"/>
-    <mergeCell ref="C246:D246"/>
-    <mergeCell ref="C247:D247"/>
-    <mergeCell ref="C248:D248"/>
-    <mergeCell ref="C249:D249"/>
-    <mergeCell ref="C250:D250"/>
-    <mergeCell ref="C251:D251"/>
-    <mergeCell ref="C234:D234"/>
-    <mergeCell ref="C235:D235"/>
-    <mergeCell ref="C236:D236"/>
-    <mergeCell ref="C237:D237"/>
-    <mergeCell ref="C238:D238"/>
-    <mergeCell ref="C239:D239"/>
-    <mergeCell ref="C240:D240"/>
-    <mergeCell ref="C241:D241"/>
-    <mergeCell ref="C242:D242"/>
-    <mergeCell ref="C223:K223"/>
-    <mergeCell ref="C224:K224"/>
-    <mergeCell ref="C225:K225"/>
-    <mergeCell ref="C226:K226"/>
-    <mergeCell ref="C227:K227"/>
-    <mergeCell ref="C228:K228"/>
-    <mergeCell ref="C229:N229"/>
-    <mergeCell ref="A231:Q231"/>
-    <mergeCell ref="C232:D232"/>
-    <mergeCell ref="C212:K212"/>
-    <mergeCell ref="C213:K213"/>
-    <mergeCell ref="C214:K214"/>
-    <mergeCell ref="C215:K215"/>
-    <mergeCell ref="C216:K216"/>
-    <mergeCell ref="C217:K217"/>
-    <mergeCell ref="C218:N218"/>
-    <mergeCell ref="A220:R220"/>
-    <mergeCell ref="C222:K222"/>
-    <mergeCell ref="C200:N200"/>
-    <mergeCell ref="A203:R203"/>
-    <mergeCell ref="C205:K205"/>
-    <mergeCell ref="C206:K206"/>
-    <mergeCell ref="C207:K207"/>
-    <mergeCell ref="C208:K208"/>
-    <mergeCell ref="C209:K209"/>
-    <mergeCell ref="C210:K210"/>
-    <mergeCell ref="C211:K211"/>
-    <mergeCell ref="C183:K183"/>
-    <mergeCell ref="C186:K186"/>
-    <mergeCell ref="C187:K187"/>
-    <mergeCell ref="C184:K184"/>
-    <mergeCell ref="C185:K185"/>
-    <mergeCell ref="C196:K196"/>
-    <mergeCell ref="C197:K197"/>
-    <mergeCell ref="C198:K198"/>
-    <mergeCell ref="C199:K199"/>
-    <mergeCell ref="C188:K188"/>
-    <mergeCell ref="C189:K189"/>
-    <mergeCell ref="C190:K190"/>
-    <mergeCell ref="C191:K191"/>
-    <mergeCell ref="C194:K194"/>
-    <mergeCell ref="C195:K195"/>
-    <mergeCell ref="C180:K180"/>
-    <mergeCell ref="C181:K181"/>
-    <mergeCell ref="C182:K182"/>
-    <mergeCell ref="A170:W172"/>
-    <mergeCell ref="A173:R173"/>
-    <mergeCell ref="C4:K4"/>
-    <mergeCell ref="C5:K5"/>
-    <mergeCell ref="C6:K6"/>
-    <mergeCell ref="C23:K23"/>
-    <mergeCell ref="C24:K24"/>
-    <mergeCell ref="C13:K13"/>
-    <mergeCell ref="C14:K14"/>
-    <mergeCell ref="C15:K15"/>
-    <mergeCell ref="C16:K16"/>
-    <mergeCell ref="C17:K17"/>
-    <mergeCell ref="C18:K18"/>
-    <mergeCell ref="C7:K7"/>
-    <mergeCell ref="C8:K8"/>
-    <mergeCell ref="C9:K9"/>
-    <mergeCell ref="C10:K10"/>
-    <mergeCell ref="C11:K11"/>
-    <mergeCell ref="C12:K12"/>
-    <mergeCell ref="C19:K19"/>
-    <mergeCell ref="C20:K20"/>
-    <mergeCell ref="C21:K21"/>
-    <mergeCell ref="C22:K22"/>
-    <mergeCell ref="A32:R32"/>
-    <mergeCell ref="A2:R2"/>
-    <mergeCell ref="C34:K34"/>
-    <mergeCell ref="C35:K35"/>
-    <mergeCell ref="C36:K36"/>
-    <mergeCell ref="C37:K37"/>
-    <mergeCell ref="C38:K38"/>
-    <mergeCell ref="C39:K39"/>
-    <mergeCell ref="C40:K40"/>
-    <mergeCell ref="C41:K41"/>
-    <mergeCell ref="C25:K25"/>
-    <mergeCell ref="C26:K26"/>
-    <mergeCell ref="C27:K27"/>
-    <mergeCell ref="C28:K28"/>
-    <mergeCell ref="C58:N58"/>
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="C56:K56"/>
-    <mergeCell ref="C57:K57"/>
-    <mergeCell ref="C29:N29"/>
-    <mergeCell ref="C54:K54"/>
-    <mergeCell ref="C55:K55"/>
-    <mergeCell ref="C51:K51"/>
-    <mergeCell ref="C52:K52"/>
-    <mergeCell ref="C53:K53"/>
-    <mergeCell ref="C42:K42"/>
-    <mergeCell ref="C43:K43"/>
-    <mergeCell ref="C47:N47"/>
-    <mergeCell ref="A49:R49"/>
-    <mergeCell ref="C44:K44"/>
-    <mergeCell ref="C45:K45"/>
-    <mergeCell ref="C46:K46"/>
-    <mergeCell ref="C79:D79"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="C81:D81"/>
-    <mergeCell ref="C75:D75"/>
-    <mergeCell ref="C76:D76"/>
-    <mergeCell ref="C77:D77"/>
-    <mergeCell ref="C78:D78"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="A60:Q60"/>
-    <mergeCell ref="A73:Q73"/>
-    <mergeCell ref="C74:D74"/>
-    <mergeCell ref="C67:D67"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="C68:D68"/>
-    <mergeCell ref="C69:D69"/>
-    <mergeCell ref="C89:K89"/>
-    <mergeCell ref="C90:K90"/>
-    <mergeCell ref="C97:K97"/>
-    <mergeCell ref="C98:K98"/>
-    <mergeCell ref="C99:K99"/>
-    <mergeCell ref="C100:K100"/>
-    <mergeCell ref="C101:K101"/>
-    <mergeCell ref="C102:K102"/>
-    <mergeCell ref="C91:K91"/>
-    <mergeCell ref="C92:K92"/>
-    <mergeCell ref="C93:K93"/>
-    <mergeCell ref="C94:K94"/>
-    <mergeCell ref="C95:K95"/>
-    <mergeCell ref="C96:K96"/>
-    <mergeCell ref="C119:K119"/>
-    <mergeCell ref="C120:K120"/>
-    <mergeCell ref="C121:K121"/>
-    <mergeCell ref="A117:R117"/>
-    <mergeCell ref="C103:K103"/>
-    <mergeCell ref="C104:K104"/>
-    <mergeCell ref="C105:K105"/>
-    <mergeCell ref="C106:K106"/>
-    <mergeCell ref="C107:K107"/>
-    <mergeCell ref="C108:K108"/>
-    <mergeCell ref="C109:K109"/>
-    <mergeCell ref="C114:N114"/>
-    <mergeCell ref="C151:D151"/>
-    <mergeCell ref="C155:D155"/>
-    <mergeCell ref="C152:D152"/>
-    <mergeCell ref="C153:D153"/>
-    <mergeCell ref="C154:D154"/>
-    <mergeCell ref="A158:Q158"/>
-    <mergeCell ref="C146:D146"/>
-    <mergeCell ref="C147:D147"/>
-    <mergeCell ref="C148:D148"/>
-    <mergeCell ref="C149:D149"/>
-    <mergeCell ref="C150:D150"/>
-    <mergeCell ref="A145:Q145"/>
-    <mergeCell ref="C138:K138"/>
-    <mergeCell ref="C143:N143"/>
-    <mergeCell ref="C128:K128"/>
-    <mergeCell ref="C129:K129"/>
-    <mergeCell ref="C130:K130"/>
-    <mergeCell ref="C131:K131"/>
-    <mergeCell ref="C122:K122"/>
-    <mergeCell ref="C123:K123"/>
-    <mergeCell ref="C124:K124"/>
-    <mergeCell ref="C125:K125"/>
-    <mergeCell ref="C126:K126"/>
-    <mergeCell ref="C127:K127"/>
-    <mergeCell ref="C136:K136"/>
-    <mergeCell ref="C137:K137"/>
-    <mergeCell ref="C233:D233"/>
-    <mergeCell ref="A1:V1"/>
-    <mergeCell ref="C163:D163"/>
-    <mergeCell ref="C164:D164"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="A84:W86"/>
-    <mergeCell ref="C132:N132"/>
-    <mergeCell ref="A134:R134"/>
-    <mergeCell ref="C139:K139"/>
-    <mergeCell ref="C140:K140"/>
-    <mergeCell ref="C141:K141"/>
-    <mergeCell ref="C142:K142"/>
-    <mergeCell ref="C159:D159"/>
-    <mergeCell ref="C160:D160"/>
-    <mergeCell ref="C161:D161"/>
-    <mergeCell ref="C162:D162"/>
-    <mergeCell ref="A87:R87"/>
-    <mergeCell ref="C110:K110"/>
-    <mergeCell ref="C111:K111"/>
-    <mergeCell ref="C112:K112"/>
-    <mergeCell ref="C113:K113"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="C5:K28">
@@ -15786,103 +15786,103 @@
   </cols>
   <sheetData>
     <row r="4" spans="3:25" x14ac:dyDescent="0.3">
-      <c r="C4" s="58" t="s">
+      <c r="C4" s="75" t="s">
         <v>107</v>
       </c>
-      <c r="D4" s="58"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="58"/>
-      <c r="G4" s="58"/>
-      <c r="H4" s="58"/>
-      <c r="I4" s="58"/>
-      <c r="J4" s="58"/>
-      <c r="K4" s="58"/>
-      <c r="L4" s="58"/>
-      <c r="M4" s="58"/>
-      <c r="N4" s="58"/>
-      <c r="O4" s="58"/>
-      <c r="P4" s="58"/>
-      <c r="Q4" s="58"/>
-      <c r="R4" s="58"/>
-      <c r="S4" s="58"/>
-      <c r="T4" s="58"/>
-      <c r="U4" s="58"/>
-      <c r="V4" s="58"/>
-      <c r="W4" s="58"/>
-      <c r="X4" s="58"/>
-      <c r="Y4" s="58"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="75"/>
+      <c r="K4" s="75"/>
+      <c r="L4" s="75"/>
+      <c r="M4" s="75"/>
+      <c r="N4" s="75"/>
+      <c r="O4" s="75"/>
+      <c r="P4" s="75"/>
+      <c r="Q4" s="75"/>
+      <c r="R4" s="75"/>
+      <c r="S4" s="75"/>
+      <c r="T4" s="75"/>
+      <c r="U4" s="75"/>
+      <c r="V4" s="75"/>
+      <c r="W4" s="75"/>
+      <c r="X4" s="75"/>
+      <c r="Y4" s="75"/>
     </row>
     <row r="5" spans="3:25" x14ac:dyDescent="0.3">
-      <c r="C5" s="58"/>
-      <c r="D5" s="58"/>
-      <c r="E5" s="58"/>
-      <c r="F5" s="58"/>
-      <c r="G5" s="58"/>
-      <c r="H5" s="58"/>
-      <c r="I5" s="58"/>
-      <c r="J5" s="58"/>
-      <c r="K5" s="58"/>
-      <c r="L5" s="58"/>
-      <c r="M5" s="58"/>
-      <c r="N5" s="58"/>
-      <c r="O5" s="58"/>
-      <c r="P5" s="58"/>
-      <c r="Q5" s="58"/>
-      <c r="R5" s="58"/>
-      <c r="S5" s="58"/>
-      <c r="T5" s="58"/>
-      <c r="U5" s="58"/>
-      <c r="V5" s="58"/>
-      <c r="W5" s="58"/>
-      <c r="X5" s="58"/>
-      <c r="Y5" s="58"/>
+      <c r="C5" s="75"/>
+      <c r="D5" s="75"/>
+      <c r="E5" s="75"/>
+      <c r="F5" s="75"/>
+      <c r="G5" s="75"/>
+      <c r="H5" s="75"/>
+      <c r="I5" s="75"/>
+      <c r="J5" s="75"/>
+      <c r="K5" s="75"/>
+      <c r="L5" s="75"/>
+      <c r="M5" s="75"/>
+      <c r="N5" s="75"/>
+      <c r="O5" s="75"/>
+      <c r="P5" s="75"/>
+      <c r="Q5" s="75"/>
+      <c r="R5" s="75"/>
+      <c r="S5" s="75"/>
+      <c r="T5" s="75"/>
+      <c r="U5" s="75"/>
+      <c r="V5" s="75"/>
+      <c r="W5" s="75"/>
+      <c r="X5" s="75"/>
+      <c r="Y5" s="75"/>
     </row>
     <row r="6" spans="3:25" x14ac:dyDescent="0.3">
-      <c r="C6" s="58"/>
-      <c r="D6" s="58"/>
-      <c r="E6" s="58"/>
-      <c r="F6" s="58"/>
-      <c r="G6" s="58"/>
-      <c r="H6" s="58"/>
-      <c r="I6" s="58"/>
-      <c r="J6" s="58"/>
-      <c r="K6" s="58"/>
-      <c r="L6" s="58"/>
-      <c r="M6" s="58"/>
-      <c r="N6" s="58"/>
-      <c r="O6" s="58"/>
-      <c r="P6" s="58"/>
-      <c r="Q6" s="58"/>
-      <c r="R6" s="58"/>
-      <c r="S6" s="58"/>
-      <c r="T6" s="58"/>
-      <c r="U6" s="58"/>
-      <c r="V6" s="58"/>
-      <c r="W6" s="58"/>
-      <c r="X6" s="58"/>
-      <c r="Y6" s="58"/>
+      <c r="C6" s="75"/>
+      <c r="D6" s="75"/>
+      <c r="E6" s="75"/>
+      <c r="F6" s="75"/>
+      <c r="G6" s="75"/>
+      <c r="H6" s="75"/>
+      <c r="I6" s="75"/>
+      <c r="J6" s="75"/>
+      <c r="K6" s="75"/>
+      <c r="L6" s="75"/>
+      <c r="M6" s="75"/>
+      <c r="N6" s="75"/>
+      <c r="O6" s="75"/>
+      <c r="P6" s="75"/>
+      <c r="Q6" s="75"/>
+      <c r="R6" s="75"/>
+      <c r="S6" s="75"/>
+      <c r="T6" s="75"/>
+      <c r="U6" s="75"/>
+      <c r="V6" s="75"/>
+      <c r="W6" s="75"/>
+      <c r="X6" s="75"/>
+      <c r="Y6" s="75"/>
     </row>
     <row r="7" spans="3:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C7" s="68" t="s">
+      <c r="C7" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="D7" s="69"/>
-      <c r="E7" s="69"/>
-      <c r="F7" s="69"/>
-      <c r="G7" s="69"/>
-      <c r="H7" s="69"/>
-      <c r="I7" s="69"/>
-      <c r="J7" s="69"/>
-      <c r="K7" s="69"/>
-      <c r="L7" s="69"/>
-      <c r="M7" s="69"/>
-      <c r="N7" s="69"/>
-      <c r="O7" s="69"/>
-      <c r="P7" s="69"/>
-      <c r="Q7" s="69"/>
-      <c r="R7" s="69"/>
-      <c r="S7" s="69"/>
-      <c r="T7" s="70"/>
+      <c r="D7" s="77"/>
+      <c r="E7" s="77"/>
+      <c r="F7" s="77"/>
+      <c r="G7" s="77"/>
+      <c r="H7" s="77"/>
+      <c r="I7" s="77"/>
+      <c r="J7" s="77"/>
+      <c r="K7" s="77"/>
+      <c r="L7" s="77"/>
+      <c r="M7" s="77"/>
+      <c r="N7" s="77"/>
+      <c r="O7" s="77"/>
+      <c r="P7" s="77"/>
+      <c r="Q7" s="77"/>
+      <c r="R7" s="77"/>
+      <c r="S7" s="77"/>
+      <c r="T7" s="78"/>
       <c r="U7" s="38"/>
       <c r="V7" s="38"/>
       <c r="W7" s="38"/>
@@ -15948,17 +15948,17 @@
       <c r="D10" s="44">
         <v>44683</v>
       </c>
-      <c r="E10" s="82" t="s">
+      <c r="E10" s="54" t="s">
         <v>43</v>
       </c>
-      <c r="F10" s="83"/>
-      <c r="G10" s="83"/>
-      <c r="H10" s="83"/>
-      <c r="I10" s="83"/>
-      <c r="J10" s="83"/>
-      <c r="K10" s="83"/>
-      <c r="L10" s="83"/>
-      <c r="M10" s="84"/>
+      <c r="F10" s="55"/>
+      <c r="G10" s="55"/>
+      <c r="H10" s="55"/>
+      <c r="I10" s="55"/>
+      <c r="J10" s="55"/>
+      <c r="K10" s="55"/>
+      <c r="L10" s="55"/>
+      <c r="M10" s="56"/>
       <c r="N10" s="6">
         <v>17</v>
       </c>
@@ -15986,17 +15986,17 @@
       <c r="D11" s="41">
         <v>44684</v>
       </c>
-      <c r="E11" s="86" t="s">
+      <c r="E11" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="F11" s="87"/>
-      <c r="G11" s="87"/>
-      <c r="H11" s="87"/>
-      <c r="I11" s="87"/>
-      <c r="J11" s="87"/>
-      <c r="K11" s="87"/>
-      <c r="L11" s="87"/>
-      <c r="M11" s="88"/>
+      <c r="F11" s="58"/>
+      <c r="G11" s="58"/>
+      <c r="H11" s="58"/>
+      <c r="I11" s="58"/>
+      <c r="J11" s="58"/>
+      <c r="K11" s="58"/>
+      <c r="L11" s="58"/>
+      <c r="M11" s="59"/>
       <c r="N11" s="6">
         <v>17</v>
       </c>
@@ -16024,17 +16024,17 @@
       <c r="D12" s="41">
         <v>44686</v>
       </c>
-      <c r="E12" s="82" t="s">
+      <c r="E12" s="54" t="s">
         <v>39</v>
       </c>
-      <c r="F12" s="83"/>
-      <c r="G12" s="83"/>
-      <c r="H12" s="83"/>
-      <c r="I12" s="83"/>
-      <c r="J12" s="83"/>
-      <c r="K12" s="83"/>
-      <c r="L12" s="83"/>
-      <c r="M12" s="84"/>
+      <c r="F12" s="55"/>
+      <c r="G12" s="55"/>
+      <c r="H12" s="55"/>
+      <c r="I12" s="55"/>
+      <c r="J12" s="55"/>
+      <c r="K12" s="55"/>
+      <c r="L12" s="55"/>
+      <c r="M12" s="56"/>
       <c r="N12" s="6">
         <v>17</v>
       </c>
@@ -16062,17 +16062,17 @@
       <c r="D13" s="41">
         <v>44688</v>
       </c>
-      <c r="E13" s="82" t="s">
+      <c r="E13" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="F13" s="83"/>
-      <c r="G13" s="83"/>
-      <c r="H13" s="83"/>
-      <c r="I13" s="83"/>
-      <c r="J13" s="83"/>
-      <c r="K13" s="83"/>
-      <c r="L13" s="83"/>
-      <c r="M13" s="84"/>
+      <c r="F13" s="55"/>
+      <c r="G13" s="55"/>
+      <c r="H13" s="55"/>
+      <c r="I13" s="55"/>
+      <c r="J13" s="55"/>
+      <c r="K13" s="55"/>
+      <c r="L13" s="55"/>
+      <c r="M13" s="56"/>
       <c r="N13" s="6">
         <v>17</v>
       </c>
@@ -16100,17 +16100,17 @@
       <c r="D14" s="41">
         <v>44696</v>
       </c>
-      <c r="E14" s="86" t="s">
+      <c r="E14" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="F14" s="87"/>
-      <c r="G14" s="87"/>
-      <c r="H14" s="87"/>
-      <c r="I14" s="87"/>
-      <c r="J14" s="87"/>
-      <c r="K14" s="87"/>
-      <c r="L14" s="87"/>
-      <c r="M14" s="88"/>
+      <c r="F14" s="58"/>
+      <c r="G14" s="58"/>
+      <c r="H14" s="58"/>
+      <c r="I14" s="58"/>
+      <c r="J14" s="58"/>
+      <c r="K14" s="58"/>
+      <c r="L14" s="58"/>
+      <c r="M14" s="59"/>
       <c r="N14" s="6">
         <v>17</v>
       </c>
@@ -16138,17 +16138,17 @@
       <c r="D15" s="41">
         <v>44700</v>
       </c>
-      <c r="E15" s="82" t="s">
+      <c r="E15" s="54" t="s">
         <v>33</v>
       </c>
-      <c r="F15" s="83"/>
-      <c r="G15" s="83"/>
-      <c r="H15" s="83"/>
-      <c r="I15" s="83"/>
-      <c r="J15" s="83"/>
-      <c r="K15" s="83"/>
-      <c r="L15" s="83"/>
-      <c r="M15" s="84"/>
+      <c r="F15" s="55"/>
+      <c r="G15" s="55"/>
+      <c r="H15" s="55"/>
+      <c r="I15" s="55"/>
+      <c r="J15" s="55"/>
+      <c r="K15" s="55"/>
+      <c r="L15" s="55"/>
+      <c r="M15" s="56"/>
       <c r="N15" s="6">
         <v>17</v>
       </c>
@@ -16176,17 +16176,17 @@
       <c r="D16" s="41">
         <v>44703</v>
       </c>
-      <c r="E16" s="86" t="s">
+      <c r="E16" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="F16" s="87"/>
-      <c r="G16" s="87"/>
-      <c r="H16" s="87"/>
-      <c r="I16" s="87"/>
-      <c r="J16" s="87"/>
-      <c r="K16" s="87"/>
-      <c r="L16" s="87"/>
-      <c r="M16" s="88"/>
+      <c r="F16" s="58"/>
+      <c r="G16" s="58"/>
+      <c r="H16" s="58"/>
+      <c r="I16" s="58"/>
+      <c r="J16" s="58"/>
+      <c r="K16" s="58"/>
+      <c r="L16" s="58"/>
+      <c r="M16" s="59"/>
       <c r="N16" s="6">
         <v>17</v>
       </c>
@@ -16214,17 +16214,17 @@
       <c r="D17" s="41">
         <v>44707</v>
       </c>
-      <c r="E17" s="86" t="s">
+      <c r="E17" s="57" t="s">
         <v>44</v>
       </c>
-      <c r="F17" s="87"/>
-      <c r="G17" s="87"/>
-      <c r="H17" s="87"/>
-      <c r="I17" s="87"/>
-      <c r="J17" s="87"/>
-      <c r="K17" s="87"/>
-      <c r="L17" s="87"/>
-      <c r="M17" s="88"/>
+      <c r="F17" s="58"/>
+      <c r="G17" s="58"/>
+      <c r="H17" s="58"/>
+      <c r="I17" s="58"/>
+      <c r="J17" s="58"/>
+      <c r="K17" s="58"/>
+      <c r="L17" s="58"/>
+      <c r="M17" s="59"/>
       <c r="N17" s="6">
         <v>17</v>
       </c>
@@ -16249,17 +16249,17 @@
       <c r="D18" s="41">
         <v>44712</v>
       </c>
-      <c r="E18" s="82" t="s">
+      <c r="E18" s="54" t="s">
         <v>34</v>
       </c>
-      <c r="F18" s="83"/>
-      <c r="G18" s="83"/>
-      <c r="H18" s="83"/>
-      <c r="I18" s="83"/>
-      <c r="J18" s="83"/>
-      <c r="K18" s="83"/>
-      <c r="L18" s="83"/>
-      <c r="M18" s="84"/>
+      <c r="F18" s="55"/>
+      <c r="G18" s="55"/>
+      <c r="H18" s="55"/>
+      <c r="I18" s="55"/>
+      <c r="J18" s="55"/>
+      <c r="K18" s="55"/>
+      <c r="L18" s="55"/>
+      <c r="M18" s="56"/>
       <c r="N18" s="6">
         <v>17</v>
       </c>
@@ -16284,17 +16284,17 @@
       <c r="D19" s="41">
         <v>44717</v>
       </c>
-      <c r="E19" s="86" t="s">
+      <c r="E19" s="57" t="s">
         <v>35</v>
       </c>
-      <c r="F19" s="87"/>
-      <c r="G19" s="87"/>
-      <c r="H19" s="87"/>
-      <c r="I19" s="87"/>
-      <c r="J19" s="87"/>
-      <c r="K19" s="87"/>
-      <c r="L19" s="87"/>
-      <c r="M19" s="88"/>
+      <c r="F19" s="58"/>
+      <c r="G19" s="58"/>
+      <c r="H19" s="58"/>
+      <c r="I19" s="58"/>
+      <c r="J19" s="58"/>
+      <c r="K19" s="58"/>
+      <c r="L19" s="58"/>
+      <c r="M19" s="59"/>
       <c r="N19" s="6">
         <v>17</v>
       </c>
@@ -16322,17 +16322,17 @@
       <c r="D20" s="41">
         <v>44722</v>
       </c>
-      <c r="E20" s="82" t="s">
+      <c r="E20" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="F20" s="83"/>
-      <c r="G20" s="83"/>
-      <c r="H20" s="83"/>
-      <c r="I20" s="83"/>
-      <c r="J20" s="83"/>
-      <c r="K20" s="83"/>
-      <c r="L20" s="83"/>
-      <c r="M20" s="84"/>
+      <c r="F20" s="55"/>
+      <c r="G20" s="55"/>
+      <c r="H20" s="55"/>
+      <c r="I20" s="55"/>
+      <c r="J20" s="55"/>
+      <c r="K20" s="55"/>
+      <c r="L20" s="55"/>
+      <c r="M20" s="56"/>
       <c r="N20" s="6">
         <v>17</v>
       </c>
@@ -16357,17 +16357,17 @@
       <c r="D21" s="41">
         <v>44727</v>
       </c>
-      <c r="E21" s="82" t="s">
+      <c r="E21" s="54" t="s">
         <v>37</v>
       </c>
-      <c r="F21" s="83"/>
-      <c r="G21" s="83"/>
-      <c r="H21" s="83"/>
-      <c r="I21" s="83"/>
-      <c r="J21" s="83"/>
-      <c r="K21" s="83"/>
-      <c r="L21" s="83"/>
-      <c r="M21" s="84"/>
+      <c r="F21" s="55"/>
+      <c r="G21" s="55"/>
+      <c r="H21" s="55"/>
+      <c r="I21" s="55"/>
+      <c r="J21" s="55"/>
+      <c r="K21" s="55"/>
+      <c r="L21" s="55"/>
+      <c r="M21" s="56"/>
       <c r="N21" s="6">
         <v>17</v>
       </c>
@@ -16392,17 +16392,17 @@
       <c r="D22" s="41" t="s">
         <v>109</v>
       </c>
-      <c r="E22" s="82" t="s">
+      <c r="E22" s="54" t="s">
         <v>45</v>
       </c>
-      <c r="F22" s="83"/>
-      <c r="G22" s="83"/>
-      <c r="H22" s="83"/>
-      <c r="I22" s="83"/>
-      <c r="J22" s="83"/>
-      <c r="K22" s="83"/>
-      <c r="L22" s="83"/>
-      <c r="M22" s="84"/>
+      <c r="F22" s="55"/>
+      <c r="G22" s="55"/>
+      <c r="H22" s="55"/>
+      <c r="I22" s="55"/>
+      <c r="J22" s="55"/>
+      <c r="K22" s="55"/>
+      <c r="L22" s="55"/>
+      <c r="M22" s="56"/>
       <c r="N22" s="6">
         <v>17</v>
       </c>
@@ -16430,17 +16430,17 @@
       <c r="D23" s="41" t="s">
         <v>110</v>
       </c>
-      <c r="E23" s="82" t="s">
+      <c r="E23" s="54" t="s">
         <v>46</v>
       </c>
-      <c r="F23" s="83"/>
-      <c r="G23" s="83"/>
-      <c r="H23" s="83"/>
-      <c r="I23" s="83"/>
-      <c r="J23" s="83"/>
-      <c r="K23" s="83"/>
-      <c r="L23" s="83"/>
-      <c r="M23" s="84"/>
+      <c r="F23" s="55"/>
+      <c r="G23" s="55"/>
+      <c r="H23" s="55"/>
+      <c r="I23" s="55"/>
+      <c r="J23" s="55"/>
+      <c r="K23" s="55"/>
+      <c r="L23" s="55"/>
+      <c r="M23" s="56"/>
       <c r="N23" s="6">
         <v>17</v>
       </c>
@@ -16468,17 +16468,17 @@
       <c r="D24" s="41">
         <v>44736</v>
       </c>
-      <c r="E24" s="86" t="s">
+      <c r="E24" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="F24" s="87"/>
-      <c r="G24" s="87"/>
-      <c r="H24" s="87"/>
-      <c r="I24" s="87"/>
-      <c r="J24" s="87"/>
-      <c r="K24" s="87"/>
-      <c r="L24" s="87"/>
-      <c r="M24" s="88"/>
+      <c r="F24" s="58"/>
+      <c r="G24" s="58"/>
+      <c r="H24" s="58"/>
+      <c r="I24" s="58"/>
+      <c r="J24" s="58"/>
+      <c r="K24" s="58"/>
+      <c r="L24" s="58"/>
+      <c r="M24" s="59"/>
       <c r="N24" s="6">
         <v>17</v>
       </c>
@@ -16506,17 +16506,17 @@
       <c r="D25" s="41">
         <v>44740</v>
       </c>
-      <c r="E25" s="82" t="s">
+      <c r="E25" s="54" t="s">
         <v>38</v>
       </c>
-      <c r="F25" s="83"/>
-      <c r="G25" s="83"/>
-      <c r="H25" s="83"/>
-      <c r="I25" s="83"/>
-      <c r="J25" s="83"/>
-      <c r="K25" s="83"/>
-      <c r="L25" s="83"/>
-      <c r="M25" s="84"/>
+      <c r="F25" s="55"/>
+      <c r="G25" s="55"/>
+      <c r="H25" s="55"/>
+      <c r="I25" s="55"/>
+      <c r="J25" s="55"/>
+      <c r="K25" s="55"/>
+      <c r="L25" s="55"/>
+      <c r="M25" s="56"/>
       <c r="N25" s="6">
         <v>17</v>
       </c>
@@ -16544,17 +16544,17 @@
       <c r="D26" s="41">
         <v>44745</v>
       </c>
-      <c r="E26" s="86" t="s">
+      <c r="E26" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="F26" s="87"/>
-      <c r="G26" s="87"/>
-      <c r="H26" s="87"/>
-      <c r="I26" s="87"/>
-      <c r="J26" s="87"/>
-      <c r="K26" s="87"/>
-      <c r="L26" s="87"/>
-      <c r="M26" s="88"/>
+      <c r="F26" s="58"/>
+      <c r="G26" s="58"/>
+      <c r="H26" s="58"/>
+      <c r="I26" s="58"/>
+      <c r="J26" s="58"/>
+      <c r="K26" s="58"/>
+      <c r="L26" s="58"/>
+      <c r="M26" s="59"/>
       <c r="N26" s="6">
         <v>17</v>
       </c>
@@ -16582,17 +16582,17 @@
       <c r="D27" s="41">
         <v>44750</v>
       </c>
-      <c r="E27" s="82" t="s">
+      <c r="E27" s="54" t="s">
         <v>48</v>
       </c>
-      <c r="F27" s="83"/>
-      <c r="G27" s="83"/>
-      <c r="H27" s="83"/>
-      <c r="I27" s="83"/>
-      <c r="J27" s="83"/>
-      <c r="K27" s="83"/>
-      <c r="L27" s="83"/>
-      <c r="M27" s="84"/>
+      <c r="F27" s="55"/>
+      <c r="G27" s="55"/>
+      <c r="H27" s="55"/>
+      <c r="I27" s="55"/>
+      <c r="J27" s="55"/>
+      <c r="K27" s="55"/>
+      <c r="L27" s="55"/>
+      <c r="M27" s="56"/>
       <c r="N27" s="6">
         <v>17</v>
       </c>
@@ -16617,17 +16617,17 @@
       <c r="D28" s="41">
         <v>44752</v>
       </c>
-      <c r="E28" s="87" t="s">
+      <c r="E28" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="F28" s="87"/>
-      <c r="G28" s="87"/>
-      <c r="H28" s="87"/>
-      <c r="I28" s="87"/>
-      <c r="J28" s="87"/>
-      <c r="K28" s="87"/>
-      <c r="L28" s="87"/>
-      <c r="M28" s="88"/>
+      <c r="F28" s="58"/>
+      <c r="G28" s="58"/>
+      <c r="H28" s="58"/>
+      <c r="I28" s="58"/>
+      <c r="J28" s="58"/>
+      <c r="K28" s="58"/>
+      <c r="L28" s="58"/>
+      <c r="M28" s="59"/>
       <c r="N28" s="6">
         <v>17</v>
       </c>
@@ -16655,17 +16655,17 @@
       <c r="D29" s="41">
         <v>44754</v>
       </c>
-      <c r="E29" s="83" t="s">
+      <c r="E29" s="55" t="s">
         <v>49</v>
       </c>
-      <c r="F29" s="83"/>
-      <c r="G29" s="83"/>
-      <c r="H29" s="83"/>
-      <c r="I29" s="83"/>
-      <c r="J29" s="83"/>
-      <c r="K29" s="83"/>
-      <c r="L29" s="83"/>
-      <c r="M29" s="84"/>
+      <c r="F29" s="55"/>
+      <c r="G29" s="55"/>
+      <c r="H29" s="55"/>
+      <c r="I29" s="55"/>
+      <c r="J29" s="55"/>
+      <c r="K29" s="55"/>
+      <c r="L29" s="55"/>
+      <c r="M29" s="56"/>
       <c r="N29" s="6">
         <v>17</v>
       </c>
@@ -16690,17 +16690,17 @@
       <c r="D30" s="41">
         <v>44757</v>
       </c>
-      <c r="E30" s="86" t="s">
+      <c r="E30" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="F30" s="87"/>
-      <c r="G30" s="87"/>
-      <c r="H30" s="87"/>
-      <c r="I30" s="87"/>
-      <c r="J30" s="87"/>
-      <c r="K30" s="87"/>
-      <c r="L30" s="87"/>
-      <c r="M30" s="88"/>
+      <c r="F30" s="58"/>
+      <c r="G30" s="58"/>
+      <c r="H30" s="58"/>
+      <c r="I30" s="58"/>
+      <c r="J30" s="58"/>
+      <c r="K30" s="58"/>
+      <c r="L30" s="58"/>
+      <c r="M30" s="59"/>
       <c r="N30" s="6">
         <v>17</v>
       </c>
@@ -16728,17 +16728,17 @@
       <c r="D31" s="41">
         <v>44760</v>
       </c>
-      <c r="E31" s="86" t="s">
+      <c r="E31" s="57" t="s">
         <v>47</v>
       </c>
-      <c r="F31" s="87"/>
-      <c r="G31" s="87"/>
-      <c r="H31" s="87"/>
-      <c r="I31" s="87"/>
-      <c r="J31" s="87"/>
-      <c r="K31" s="87"/>
-      <c r="L31" s="87"/>
-      <c r="M31" s="88"/>
+      <c r="F31" s="58"/>
+      <c r="G31" s="58"/>
+      <c r="H31" s="58"/>
+      <c r="I31" s="58"/>
+      <c r="J31" s="58"/>
+      <c r="K31" s="58"/>
+      <c r="L31" s="58"/>
+      <c r="M31" s="59"/>
       <c r="N31" s="6">
         <v>17</v>
       </c>
@@ -16763,17 +16763,17 @@
       <c r="C32" s="1">
         <v>23</v>
       </c>
-      <c r="E32" s="82" t="s">
+      <c r="E32" s="54" t="s">
         <v>41</v>
       </c>
-      <c r="F32" s="83"/>
-      <c r="G32" s="83"/>
-      <c r="H32" s="83"/>
-      <c r="I32" s="83"/>
-      <c r="J32" s="83"/>
-      <c r="K32" s="83"/>
-      <c r="L32" s="83"/>
-      <c r="M32" s="84"/>
+      <c r="F32" s="55"/>
+      <c r="G32" s="55"/>
+      <c r="H32" s="55"/>
+      <c r="I32" s="55"/>
+      <c r="J32" s="55"/>
+      <c r="K32" s="55"/>
+      <c r="L32" s="55"/>
+      <c r="M32" s="56"/>
       <c r="N32" s="6">
         <v>17</v>
       </c>
@@ -16795,17 +16795,17 @@
       <c r="C33" s="1">
         <v>24</v>
       </c>
-      <c r="E33" s="82" t="s">
+      <c r="E33" s="54" t="s">
         <v>42</v>
       </c>
-      <c r="F33" s="83"/>
-      <c r="G33" s="83"/>
-      <c r="H33" s="83"/>
-      <c r="I33" s="83"/>
-      <c r="J33" s="83"/>
-      <c r="K33" s="83"/>
-      <c r="L33" s="83"/>
-      <c r="M33" s="84"/>
+      <c r="F33" s="55"/>
+      <c r="G33" s="55"/>
+      <c r="H33" s="55"/>
+      <c r="I33" s="55"/>
+      <c r="J33" s="55"/>
+      <c r="K33" s="55"/>
+      <c r="L33" s="55"/>
+      <c r="M33" s="56"/>
       <c r="N33" s="6">
         <v>17</v>
       </c>
@@ -16828,20 +16828,20 @@
         <v>25</v>
       </c>
       <c r="D34" s="47"/>
-      <c r="E34" s="59" t="s">
+      <c r="E34" s="66" t="s">
         <v>58</v>
       </c>
-      <c r="F34" s="60"/>
-      <c r="G34" s="60"/>
-      <c r="H34" s="60"/>
-      <c r="I34" s="60"/>
-      <c r="J34" s="60"/>
-      <c r="K34" s="60"/>
-      <c r="L34" s="60"/>
-      <c r="M34" s="60"/>
-      <c r="N34" s="60"/>
-      <c r="O34" s="60"/>
-      <c r="P34" s="61"/>
+      <c r="F34" s="67"/>
+      <c r="G34" s="67"/>
+      <c r="H34" s="67"/>
+      <c r="I34" s="67"/>
+      <c r="J34" s="67"/>
+      <c r="K34" s="67"/>
+      <c r="L34" s="67"/>
+      <c r="M34" s="67"/>
+      <c r="N34" s="67"/>
+      <c r="O34" s="67"/>
+      <c r="P34" s="68"/>
       <c r="Q34" s="11"/>
       <c r="R34" s="12" t="e">
         <f>AVERAGE(R10:R33)</f>
@@ -16868,22 +16868,6 @@
     <sortCondition ref="D10:D33"/>
   </sortState>
   <mergeCells count="28">
-    <mergeCell ref="E26:M26"/>
-    <mergeCell ref="E32:M32"/>
-    <mergeCell ref="E33:M33"/>
-    <mergeCell ref="E34:P34"/>
-    <mergeCell ref="E27:M27"/>
-    <mergeCell ref="E28:M28"/>
-    <mergeCell ref="E29:M29"/>
-    <mergeCell ref="E30:M30"/>
-    <mergeCell ref="E31:M31"/>
-    <mergeCell ref="E19:M19"/>
-    <mergeCell ref="E20:M20"/>
-    <mergeCell ref="E21:M21"/>
-    <mergeCell ref="E24:M24"/>
-    <mergeCell ref="E25:M25"/>
-    <mergeCell ref="E22:M22"/>
-    <mergeCell ref="E23:M23"/>
     <mergeCell ref="E18:M18"/>
     <mergeCell ref="C4:Y6"/>
     <mergeCell ref="C7:T7"/>
@@ -16896,6 +16880,22 @@
     <mergeCell ref="E15:M15"/>
     <mergeCell ref="E16:M16"/>
     <mergeCell ref="E17:M17"/>
+    <mergeCell ref="E19:M19"/>
+    <mergeCell ref="E20:M20"/>
+    <mergeCell ref="E21:M21"/>
+    <mergeCell ref="E24:M24"/>
+    <mergeCell ref="E25:M25"/>
+    <mergeCell ref="E22:M22"/>
+    <mergeCell ref="E23:M23"/>
+    <mergeCell ref="E26:M26"/>
+    <mergeCell ref="E32:M32"/>
+    <mergeCell ref="E33:M33"/>
+    <mergeCell ref="E34:P34"/>
+    <mergeCell ref="E27:M27"/>
+    <mergeCell ref="E28:M28"/>
+    <mergeCell ref="E29:M29"/>
+    <mergeCell ref="E30:M30"/>
+    <mergeCell ref="E31:M31"/>
   </mergeCells>
   <conditionalFormatting sqref="V10:V33">
     <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">

--- a/My Test Tracker Original GATE 2023.xlsx
+++ b/My Test Tracker Original GATE 2023.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GATE 2022 &amp; 2023\My Progress trackers &amp; Journey - In Git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9711C3B4-3A52-48AB-8F42-875C56A0CF3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81E7C347-82F4-4BC3-B335-F26C10580EB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{158952DD-A7DC-477E-91D8-188954568D39}"/>
+    <workbookView xWindow="1116" yWindow="1116" windowWidth="17280" windowHeight="8964" xr2:uid="{158952DD-A7DC-477E-91D8-188954568D39}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -908,40 +908,20 @@
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -962,14 +942,13 @@
     <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -981,13 +960,16 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -999,9 +981,7 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1011,14 +991,34 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2050,8 +2050,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E053581-A6B0-45B0-A9DB-B07F5A1622B0}">
   <dimension ref="A1:W336"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A222" workbookViewId="0">
-      <selection activeCell="G232" sqref="G232"/>
+    <sheetView tabSelected="1" topLeftCell="A175" workbookViewId="0">
+      <selection activeCell="C176" sqref="C176:K176"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2077,52 +2077,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="34.200000000000003" thickBot="1" x14ac:dyDescent="0.7">
-      <c r="A1" s="92">
+      <c r="A1" s="56">
         <v>2021</v>
       </c>
-      <c r="B1" s="92"/>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
-      <c r="F1" s="92"/>
-      <c r="G1" s="92"/>
-      <c r="H1" s="92"/>
-      <c r="I1" s="92"/>
-      <c r="J1" s="92"/>
-      <c r="K1" s="92"/>
-      <c r="L1" s="92"/>
-      <c r="M1" s="92"/>
-      <c r="N1" s="92"/>
-      <c r="O1" s="92"/>
-      <c r="P1" s="92"/>
-      <c r="Q1" s="92"/>
-      <c r="R1" s="92"/>
-      <c r="S1" s="92"/>
-      <c r="T1" s="92"/>
-      <c r="U1" s="92"/>
-      <c r="V1" s="92"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="56"/>
+      <c r="K1" s="56"/>
+      <c r="L1" s="56"/>
+      <c r="M1" s="56"/>
+      <c r="N1" s="56"/>
+      <c r="O1" s="56"/>
+      <c r="P1" s="56"/>
+      <c r="Q1" s="56"/>
+      <c r="R1" s="56"/>
+      <c r="S1" s="56"/>
+      <c r="T1" s="56"/>
+      <c r="U1" s="56"/>
+      <c r="V1" s="56"/>
     </row>
     <row r="2" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="86" t="s">
+      <c r="A2" s="80" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="87"/>
-      <c r="C2" s="87"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="87"/>
-      <c r="G2" s="87"/>
-      <c r="H2" s="87"/>
-      <c r="I2" s="87"/>
-      <c r="J2" s="87"/>
-      <c r="K2" s="87"/>
-      <c r="L2" s="87"/>
-      <c r="M2" s="87"/>
-      <c r="N2" s="87"/>
-      <c r="O2" s="87"/>
-      <c r="P2" s="87"/>
-      <c r="Q2" s="87"/>
-      <c r="R2" s="88"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="81"/>
+      <c r="G2" s="81"/>
+      <c r="H2" s="81"/>
+      <c r="I2" s="81"/>
+      <c r="J2" s="81"/>
+      <c r="K2" s="81"/>
+      <c r="L2" s="81"/>
+      <c r="M2" s="81"/>
+      <c r="N2" s="81"/>
+      <c r="O2" s="81"/>
+      <c r="P2" s="81"/>
+      <c r="Q2" s="81"/>
+      <c r="R2" s="82"/>
       <c r="S2" s="3"/>
       <c r="T2" s="3"/>
       <c r="U2" s="3"/>
@@ -2133,17 +2133,17 @@
         <v>1</v>
       </c>
       <c r="B4" s="5"/>
-      <c r="C4" s="85" t="s">
+      <c r="C4" s="86" t="s">
         <v>100</v>
       </c>
-      <c r="D4" s="85"/>
-      <c r="E4" s="85"/>
-      <c r="F4" s="85"/>
-      <c r="G4" s="85"/>
-      <c r="H4" s="85"/>
-      <c r="I4" s="85"/>
-      <c r="J4" s="85"/>
-      <c r="K4" s="85"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86"/>
+      <c r="K4" s="86"/>
       <c r="L4" s="5" t="s">
         <v>2</v>
       </c>
@@ -2183,17 +2183,17 @@
       <c r="B5" s="41">
         <v>44613</v>
       </c>
-      <c r="C5" s="73" t="s">
+      <c r="C5" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="73"/>
-      <c r="E5" s="73"/>
-      <c r="F5" s="73"/>
-      <c r="G5" s="73"/>
-      <c r="H5" s="73"/>
-      <c r="I5" s="73"/>
-      <c r="J5" s="73"/>
-      <c r="K5" s="73"/>
+      <c r="D5" s="74"/>
+      <c r="E5" s="74"/>
+      <c r="F5" s="74"/>
+      <c r="G5" s="74"/>
+      <c r="H5" s="74"/>
+      <c r="I5" s="74"/>
+      <c r="J5" s="74"/>
+      <c r="K5" s="74"/>
       <c r="L5" s="6">
         <v>17</v>
       </c>
@@ -2221,17 +2221,17 @@
       <c r="B6" s="41">
         <v>44617</v>
       </c>
-      <c r="C6" s="64" t="s">
+      <c r="C6" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="65"/>
-      <c r="E6" s="65"/>
-      <c r="F6" s="65"/>
-      <c r="G6" s="65"/>
-      <c r="H6" s="65"/>
-      <c r="I6" s="65"/>
-      <c r="J6" s="65"/>
-      <c r="K6" s="65"/>
+      <c r="D6" s="67"/>
+      <c r="E6" s="67"/>
+      <c r="F6" s="67"/>
+      <c r="G6" s="67"/>
+      <c r="H6" s="67"/>
+      <c r="I6" s="67"/>
+      <c r="J6" s="67"/>
+      <c r="K6" s="67"/>
       <c r="L6" s="6">
         <v>17</v>
       </c>
@@ -2259,17 +2259,17 @@
       <c r="B7" s="41">
         <v>44621</v>
       </c>
-      <c r="C7" s="64" t="s">
+      <c r="C7" s="66" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="65"/>
-      <c r="E7" s="65"/>
-      <c r="F7" s="65"/>
-      <c r="G7" s="65"/>
-      <c r="H7" s="65"/>
-      <c r="I7" s="65"/>
-      <c r="J7" s="65"/>
-      <c r="K7" s="65"/>
+      <c r="D7" s="67"/>
+      <c r="E7" s="67"/>
+      <c r="F7" s="67"/>
+      <c r="G7" s="67"/>
+      <c r="H7" s="67"/>
+      <c r="I7" s="67"/>
+      <c r="J7" s="67"/>
+      <c r="K7" s="67"/>
       <c r="L7" s="6">
         <v>17</v>
       </c>
@@ -2297,17 +2297,17 @@
       <c r="B8" s="41">
         <v>44625</v>
       </c>
-      <c r="C8" s="65" t="s">
+      <c r="C8" s="67" t="s">
         <v>35</v>
       </c>
-      <c r="D8" s="65"/>
-      <c r="E8" s="65"/>
-      <c r="F8" s="65"/>
-      <c r="G8" s="65"/>
-      <c r="H8" s="65"/>
-      <c r="I8" s="65"/>
-      <c r="J8" s="65"/>
-      <c r="K8" s="65"/>
+      <c r="D8" s="67"/>
+      <c r="E8" s="67"/>
+      <c r="F8" s="67"/>
+      <c r="G8" s="67"/>
+      <c r="H8" s="67"/>
+      <c r="I8" s="67"/>
+      <c r="J8" s="67"/>
+      <c r="K8" s="67"/>
       <c r="L8" s="6">
         <v>17</v>
       </c>
@@ -2335,17 +2335,17 @@
       <c r="B9" s="41">
         <v>44629</v>
       </c>
-      <c r="C9" s="64" t="s">
+      <c r="C9" s="66" t="s">
         <v>36</v>
       </c>
-      <c r="D9" s="65"/>
-      <c r="E9" s="65"/>
-      <c r="F9" s="65"/>
-      <c r="G9" s="65"/>
-      <c r="H9" s="65"/>
-      <c r="I9" s="65"/>
-      <c r="J9" s="65"/>
-      <c r="K9" s="65"/>
+      <c r="D9" s="67"/>
+      <c r="E9" s="67"/>
+      <c r="F9" s="67"/>
+      <c r="G9" s="67"/>
+      <c r="H9" s="67"/>
+      <c r="I9" s="67"/>
+      <c r="J9" s="67"/>
+      <c r="K9" s="67"/>
       <c r="L9" s="6">
         <v>17</v>
       </c>
@@ -2373,17 +2373,17 @@
       <c r="B10" s="41">
         <v>44633</v>
       </c>
-      <c r="C10" s="64" t="s">
+      <c r="C10" s="66" t="s">
         <v>37</v>
       </c>
-      <c r="D10" s="65"/>
-      <c r="E10" s="65"/>
-      <c r="F10" s="65"/>
-      <c r="G10" s="65"/>
-      <c r="H10" s="65"/>
-      <c r="I10" s="65"/>
-      <c r="J10" s="65"/>
-      <c r="K10" s="65"/>
+      <c r="D10" s="67"/>
+      <c r="E10" s="67"/>
+      <c r="F10" s="67"/>
+      <c r="G10" s="67"/>
+      <c r="H10" s="67"/>
+      <c r="I10" s="67"/>
+      <c r="J10" s="67"/>
+      <c r="K10" s="67"/>
       <c r="L10" s="6">
         <v>17</v>
       </c>
@@ -2411,17 +2411,17 @@
       <c r="B11" s="41">
         <v>44637</v>
       </c>
-      <c r="C11" s="65" t="s">
+      <c r="C11" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="65"/>
-      <c r="E11" s="65"/>
-      <c r="F11" s="65"/>
-      <c r="G11" s="65"/>
-      <c r="H11" s="65"/>
-      <c r="I11" s="65"/>
-      <c r="J11" s="65"/>
-      <c r="K11" s="65"/>
+      <c r="D11" s="67"/>
+      <c r="E11" s="67"/>
+      <c r="F11" s="67"/>
+      <c r="G11" s="67"/>
+      <c r="H11" s="67"/>
+      <c r="I11" s="67"/>
+      <c r="J11" s="67"/>
+      <c r="K11" s="67"/>
       <c r="L11" s="6">
         <v>17</v>
       </c>
@@ -2449,17 +2449,17 @@
       <c r="B12" s="41">
         <v>44641</v>
       </c>
-      <c r="C12" s="64" t="s">
+      <c r="C12" s="66" t="s">
         <v>38</v>
       </c>
-      <c r="D12" s="65"/>
-      <c r="E12" s="65"/>
-      <c r="F12" s="65"/>
-      <c r="G12" s="65"/>
-      <c r="H12" s="65"/>
-      <c r="I12" s="65"/>
-      <c r="J12" s="65"/>
-      <c r="K12" s="65"/>
+      <c r="D12" s="67"/>
+      <c r="E12" s="67"/>
+      <c r="F12" s="67"/>
+      <c r="G12" s="67"/>
+      <c r="H12" s="67"/>
+      <c r="I12" s="67"/>
+      <c r="J12" s="67"/>
+      <c r="K12" s="67"/>
       <c r="L12" s="6">
         <v>17</v>
       </c>
@@ -2485,17 +2485,17 @@
         <v>9</v>
       </c>
       <c r="B13" s="1"/>
-      <c r="C13" s="64" t="s">
+      <c r="C13" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="D13" s="65"/>
-      <c r="E13" s="65"/>
-      <c r="F13" s="65"/>
-      <c r="G13" s="65"/>
-      <c r="H13" s="65"/>
-      <c r="I13" s="65"/>
-      <c r="J13" s="65"/>
-      <c r="K13" s="65"/>
+      <c r="D13" s="67"/>
+      <c r="E13" s="67"/>
+      <c r="F13" s="67"/>
+      <c r="G13" s="67"/>
+      <c r="H13" s="67"/>
+      <c r="I13" s="67"/>
+      <c r="J13" s="67"/>
+      <c r="K13" s="67"/>
       <c r="L13" s="6">
         <v>17</v>
       </c>
@@ -2521,17 +2521,17 @@
         <v>10</v>
       </c>
       <c r="B14" s="1"/>
-      <c r="C14" s="64" t="s">
+      <c r="C14" s="66" t="s">
         <v>40</v>
       </c>
-      <c r="D14" s="65"/>
-      <c r="E14" s="65"/>
-      <c r="F14" s="65"/>
-      <c r="G14" s="65"/>
-      <c r="H14" s="65"/>
-      <c r="I14" s="65"/>
-      <c r="J14" s="65"/>
-      <c r="K14" s="65"/>
+      <c r="D14" s="67"/>
+      <c r="E14" s="67"/>
+      <c r="F14" s="67"/>
+      <c r="G14" s="67"/>
+      <c r="H14" s="67"/>
+      <c r="I14" s="67"/>
+      <c r="J14" s="67"/>
+      <c r="K14" s="67"/>
       <c r="L14" s="6">
         <v>17</v>
       </c>
@@ -2557,17 +2557,17 @@
         <v>11</v>
       </c>
       <c r="B15" s="1"/>
-      <c r="C15" s="64" t="s">
+      <c r="C15" s="66" t="s">
         <v>41</v>
       </c>
-      <c r="D15" s="65"/>
-      <c r="E15" s="65"/>
-      <c r="F15" s="65"/>
-      <c r="G15" s="65"/>
-      <c r="H15" s="65"/>
-      <c r="I15" s="65"/>
-      <c r="J15" s="65"/>
-      <c r="K15" s="65"/>
+      <c r="D15" s="67"/>
+      <c r="E15" s="67"/>
+      <c r="F15" s="67"/>
+      <c r="G15" s="67"/>
+      <c r="H15" s="67"/>
+      <c r="I15" s="67"/>
+      <c r="J15" s="67"/>
+      <c r="K15" s="67"/>
       <c r="L15" s="6">
         <v>17</v>
       </c>
@@ -2593,17 +2593,17 @@
         <v>12</v>
       </c>
       <c r="B16" s="1"/>
-      <c r="C16" s="64" t="s">
+      <c r="C16" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="D16" s="65"/>
-      <c r="E16" s="65"/>
-      <c r="F16" s="65"/>
-      <c r="G16" s="65"/>
-      <c r="H16" s="65"/>
-      <c r="I16" s="65"/>
-      <c r="J16" s="65"/>
-      <c r="K16" s="65"/>
+      <c r="D16" s="67"/>
+      <c r="E16" s="67"/>
+      <c r="F16" s="67"/>
+      <c r="G16" s="67"/>
+      <c r="H16" s="67"/>
+      <c r="I16" s="67"/>
+      <c r="J16" s="67"/>
+      <c r="K16" s="67"/>
       <c r="L16" s="6">
         <v>17</v>
       </c>
@@ -2631,17 +2631,17 @@
       <c r="B17" s="41">
         <v>44645</v>
       </c>
-      <c r="C17" s="65" t="s">
+      <c r="C17" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="D17" s="65"/>
-      <c r="E17" s="65"/>
-      <c r="F17" s="65"/>
-      <c r="G17" s="65"/>
-      <c r="H17" s="65"/>
-      <c r="I17" s="65"/>
-      <c r="J17" s="65"/>
-      <c r="K17" s="65"/>
+      <c r="D17" s="67"/>
+      <c r="E17" s="67"/>
+      <c r="F17" s="67"/>
+      <c r="G17" s="67"/>
+      <c r="H17" s="67"/>
+      <c r="I17" s="67"/>
+      <c r="J17" s="67"/>
+      <c r="K17" s="67"/>
       <c r="L17" s="6">
         <v>17</v>
       </c>
@@ -2669,17 +2669,17 @@
       <c r="B18" s="41">
         <v>44649</v>
       </c>
-      <c r="C18" s="64" t="s">
+      <c r="C18" s="66" t="s">
         <v>43</v>
       </c>
-      <c r="D18" s="65"/>
-      <c r="E18" s="65"/>
-      <c r="F18" s="65"/>
-      <c r="G18" s="65"/>
-      <c r="H18" s="65"/>
-      <c r="I18" s="65"/>
-      <c r="J18" s="65"/>
-      <c r="K18" s="65"/>
+      <c r="D18" s="67"/>
+      <c r="E18" s="67"/>
+      <c r="F18" s="67"/>
+      <c r="G18" s="67"/>
+      <c r="H18" s="67"/>
+      <c r="I18" s="67"/>
+      <c r="J18" s="67"/>
+      <c r="K18" s="67"/>
       <c r="L18" s="6">
         <v>17</v>
       </c>
@@ -2707,17 +2707,17 @@
       <c r="B19" s="41">
         <v>44653</v>
       </c>
-      <c r="C19" s="65" t="s">
+      <c r="C19" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="D19" s="65"/>
-      <c r="E19" s="65"/>
-      <c r="F19" s="65"/>
-      <c r="G19" s="65"/>
-      <c r="H19" s="65"/>
-      <c r="I19" s="65"/>
-      <c r="J19" s="65"/>
-      <c r="K19" s="65"/>
+      <c r="D19" s="67"/>
+      <c r="E19" s="67"/>
+      <c r="F19" s="67"/>
+      <c r="G19" s="67"/>
+      <c r="H19" s="67"/>
+      <c r="I19" s="67"/>
+      <c r="J19" s="67"/>
+      <c r="K19" s="67"/>
       <c r="L19" s="6">
         <v>17</v>
       </c>
@@ -2755,17 +2755,17 @@
       <c r="B20" s="41">
         <v>44657</v>
       </c>
-      <c r="C20" s="65" t="s">
+      <c r="C20" s="67" t="s">
         <v>44</v>
       </c>
-      <c r="D20" s="65"/>
-      <c r="E20" s="65"/>
-      <c r="F20" s="65"/>
-      <c r="G20" s="65"/>
-      <c r="H20" s="65"/>
-      <c r="I20" s="65"/>
-      <c r="J20" s="65"/>
-      <c r="K20" s="65"/>
+      <c r="D20" s="67"/>
+      <c r="E20" s="67"/>
+      <c r="F20" s="67"/>
+      <c r="G20" s="67"/>
+      <c r="H20" s="67"/>
+      <c r="I20" s="67"/>
+      <c r="J20" s="67"/>
+      <c r="K20" s="67"/>
       <c r="L20" s="6">
         <v>17</v>
       </c>
@@ -2793,17 +2793,17 @@
       <c r="B21" s="41">
         <v>44661</v>
       </c>
-      <c r="C21" s="64" t="s">
+      <c r="C21" s="66" t="s">
         <v>45</v>
       </c>
-      <c r="D21" s="65"/>
-      <c r="E21" s="65"/>
-      <c r="F21" s="65"/>
-      <c r="G21" s="65"/>
-      <c r="H21" s="65"/>
-      <c r="I21" s="65"/>
-      <c r="J21" s="65"/>
-      <c r="K21" s="65"/>
+      <c r="D21" s="67"/>
+      <c r="E21" s="67"/>
+      <c r="F21" s="67"/>
+      <c r="G21" s="67"/>
+      <c r="H21" s="67"/>
+      <c r="I21" s="67"/>
+      <c r="J21" s="67"/>
+      <c r="K21" s="67"/>
       <c r="L21" s="6">
         <v>17</v>
       </c>
@@ -2831,17 +2831,17 @@
       <c r="B22" s="41">
         <v>44665</v>
       </c>
-      <c r="C22" s="64" t="s">
+      <c r="C22" s="66" t="s">
         <v>46</v>
       </c>
-      <c r="D22" s="65"/>
-      <c r="E22" s="65"/>
-      <c r="F22" s="65"/>
-      <c r="G22" s="65"/>
-      <c r="H22" s="65"/>
-      <c r="I22" s="65"/>
-      <c r="J22" s="65"/>
-      <c r="K22" s="65"/>
+      <c r="D22" s="67"/>
+      <c r="E22" s="67"/>
+      <c r="F22" s="67"/>
+      <c r="G22" s="67"/>
+      <c r="H22" s="67"/>
+      <c r="I22" s="67"/>
+      <c r="J22" s="67"/>
+      <c r="K22" s="67"/>
       <c r="L22" s="6">
         <v>17</v>
       </c>
@@ -2869,17 +2869,17 @@
       <c r="B23" s="41">
         <v>44669</v>
       </c>
-      <c r="C23" s="65" t="s">
+      <c r="C23" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="D23" s="65"/>
-      <c r="E23" s="65"/>
-      <c r="F23" s="65"/>
-      <c r="G23" s="65"/>
-      <c r="H23" s="65"/>
-      <c r="I23" s="65"/>
-      <c r="J23" s="65"/>
-      <c r="K23" s="65"/>
+      <c r="D23" s="67"/>
+      <c r="E23" s="67"/>
+      <c r="F23" s="67"/>
+      <c r="G23" s="67"/>
+      <c r="H23" s="67"/>
+      <c r="I23" s="67"/>
+      <c r="J23" s="67"/>
+      <c r="K23" s="67"/>
       <c r="L23" s="6">
         <v>17</v>
       </c>
@@ -2907,17 +2907,17 @@
       <c r="B24" s="41">
         <v>44673</v>
       </c>
-      <c r="C24" s="65" t="s">
+      <c r="C24" s="67" t="s">
         <v>47</v>
       </c>
-      <c r="D24" s="65"/>
-      <c r="E24" s="65"/>
-      <c r="F24" s="65"/>
-      <c r="G24" s="65"/>
-      <c r="H24" s="65"/>
-      <c r="I24" s="65"/>
-      <c r="J24" s="65"/>
-      <c r="K24" s="65"/>
+      <c r="D24" s="67"/>
+      <c r="E24" s="67"/>
+      <c r="F24" s="67"/>
+      <c r="G24" s="67"/>
+      <c r="H24" s="67"/>
+      <c r="I24" s="67"/>
+      <c r="J24" s="67"/>
+      <c r="K24" s="67"/>
       <c r="L24" s="6">
         <v>17</v>
       </c>
@@ -2945,17 +2945,17 @@
       <c r="B25" s="42">
         <v>44646</v>
       </c>
-      <c r="C25" s="65" t="s">
+      <c r="C25" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="D25" s="65"/>
-      <c r="E25" s="65"/>
-      <c r="F25" s="65"/>
-      <c r="G25" s="65"/>
-      <c r="H25" s="65"/>
-      <c r="I25" s="65"/>
-      <c r="J25" s="65"/>
-      <c r="K25" s="65"/>
+      <c r="D25" s="67"/>
+      <c r="E25" s="67"/>
+      <c r="F25" s="67"/>
+      <c r="G25" s="67"/>
+      <c r="H25" s="67"/>
+      <c r="I25" s="67"/>
+      <c r="J25" s="67"/>
+      <c r="K25" s="67"/>
       <c r="L25" s="6">
         <v>17</v>
       </c>
@@ -2983,17 +2983,17 @@
       <c r="B26" s="43">
         <v>44646</v>
       </c>
-      <c r="C26" s="64" t="s">
+      <c r="C26" s="66" t="s">
         <v>48</v>
       </c>
-      <c r="D26" s="65"/>
-      <c r="E26" s="65"/>
-      <c r="F26" s="65"/>
-      <c r="G26" s="65"/>
-      <c r="H26" s="65"/>
-      <c r="I26" s="65"/>
-      <c r="J26" s="65"/>
-      <c r="K26" s="65"/>
+      <c r="D26" s="67"/>
+      <c r="E26" s="67"/>
+      <c r="F26" s="67"/>
+      <c r="G26" s="67"/>
+      <c r="H26" s="67"/>
+      <c r="I26" s="67"/>
+      <c r="J26" s="67"/>
+      <c r="K26" s="67"/>
       <c r="L26" s="6">
         <v>17</v>
       </c>
@@ -3021,17 +3021,17 @@
       <c r="B27" s="41">
         <v>44677</v>
       </c>
-      <c r="C27" s="65" t="s">
+      <c r="C27" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="D27" s="65"/>
-      <c r="E27" s="65"/>
-      <c r="F27" s="65"/>
-      <c r="G27" s="65"/>
-      <c r="H27" s="65"/>
-      <c r="I27" s="65"/>
-      <c r="J27" s="65"/>
-      <c r="K27" s="65"/>
+      <c r="D27" s="67"/>
+      <c r="E27" s="67"/>
+      <c r="F27" s="67"/>
+      <c r="G27" s="67"/>
+      <c r="H27" s="67"/>
+      <c r="I27" s="67"/>
+      <c r="J27" s="67"/>
+      <c r="K27" s="67"/>
       <c r="L27" s="6">
         <v>17</v>
       </c>
@@ -3059,17 +3059,17 @@
       <c r="B28" s="41">
         <v>44681</v>
       </c>
-      <c r="C28" s="64" t="s">
+      <c r="C28" s="66" t="s">
         <v>49</v>
       </c>
-      <c r="D28" s="65"/>
-      <c r="E28" s="65"/>
-      <c r="F28" s="65"/>
-      <c r="G28" s="65"/>
-      <c r="H28" s="65"/>
-      <c r="I28" s="65"/>
-      <c r="J28" s="65"/>
-      <c r="K28" s="65"/>
+      <c r="D28" s="67"/>
+      <c r="E28" s="67"/>
+      <c r="F28" s="67"/>
+      <c r="G28" s="67"/>
+      <c r="H28" s="67"/>
+      <c r="I28" s="67"/>
+      <c r="J28" s="67"/>
+      <c r="K28" s="67"/>
       <c r="L28" s="6">
         <v>17</v>
       </c>
@@ -3095,20 +3095,20 @@
         <v>25</v>
       </c>
       <c r="B29" s="8"/>
-      <c r="C29" s="66" t="s">
+      <c r="C29" s="60" t="s">
         <v>58</v>
       </c>
-      <c r="D29" s="67"/>
-      <c r="E29" s="67"/>
-      <c r="F29" s="67"/>
-      <c r="G29" s="67"/>
-      <c r="H29" s="67"/>
-      <c r="I29" s="67"/>
-      <c r="J29" s="67"/>
-      <c r="K29" s="67"/>
-      <c r="L29" s="67"/>
-      <c r="M29" s="67"/>
-      <c r="N29" s="68"/>
+      <c r="D29" s="61"/>
+      <c r="E29" s="61"/>
+      <c r="F29" s="61"/>
+      <c r="G29" s="61"/>
+      <c r="H29" s="61"/>
+      <c r="I29" s="61"/>
+      <c r="J29" s="61"/>
+      <c r="K29" s="61"/>
+      <c r="L29" s="61"/>
+      <c r="M29" s="61"/>
+      <c r="N29" s="62"/>
       <c r="O29" s="11"/>
       <c r="P29" s="12">
         <f>AVERAGE(P5:P28)</f>
@@ -3128,26 +3128,26 @@
     </row>
     <row r="31" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="32" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="82" t="s">
+      <c r="A32" s="76" t="s">
         <v>13</v>
       </c>
-      <c r="B32" s="83"/>
-      <c r="C32" s="83"/>
-      <c r="D32" s="83"/>
-      <c r="E32" s="83"/>
-      <c r="F32" s="83"/>
-      <c r="G32" s="83"/>
-      <c r="H32" s="83"/>
-      <c r="I32" s="83"/>
-      <c r="J32" s="83"/>
-      <c r="K32" s="83"/>
-      <c r="L32" s="83"/>
-      <c r="M32" s="83"/>
-      <c r="N32" s="83"/>
-      <c r="O32" s="83"/>
-      <c r="P32" s="83"/>
-      <c r="Q32" s="83"/>
-      <c r="R32" s="84"/>
+      <c r="B32" s="77"/>
+      <c r="C32" s="77"/>
+      <c r="D32" s="77"/>
+      <c r="E32" s="77"/>
+      <c r="F32" s="77"/>
+      <c r="G32" s="77"/>
+      <c r="H32" s="77"/>
+      <c r="I32" s="77"/>
+      <c r="J32" s="77"/>
+      <c r="K32" s="77"/>
+      <c r="L32" s="77"/>
+      <c r="M32" s="77"/>
+      <c r="N32" s="77"/>
+      <c r="O32" s="77"/>
+      <c r="P32" s="77"/>
+      <c r="Q32" s="77"/>
+      <c r="R32" s="78"/>
       <c r="S32" s="15"/>
       <c r="T32" s="15"/>
       <c r="U32" s="15"/>
@@ -3157,17 +3157,17 @@
         <v>1</v>
       </c>
       <c r="B34" s="5"/>
-      <c r="C34" s="72" t="s">
+      <c r="C34" s="73" t="s">
         <v>100</v>
       </c>
-      <c r="D34" s="72"/>
-      <c r="E34" s="72"/>
-      <c r="F34" s="72"/>
-      <c r="G34" s="72"/>
-      <c r="H34" s="72"/>
-      <c r="I34" s="72"/>
-      <c r="J34" s="72"/>
-      <c r="K34" s="72"/>
+      <c r="D34" s="73"/>
+      <c r="E34" s="73"/>
+      <c r="F34" s="73"/>
+      <c r="G34" s="73"/>
+      <c r="H34" s="73"/>
+      <c r="I34" s="73"/>
+      <c r="J34" s="73"/>
+      <c r="K34" s="73"/>
       <c r="L34" s="5" t="s">
         <v>2</v>
       </c>
@@ -3204,17 +3204,17 @@
         <v>1</v>
       </c>
       <c r="B35" s="1"/>
-      <c r="C35" s="73" t="s">
+      <c r="C35" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="D35" s="73"/>
-      <c r="E35" s="73"/>
-      <c r="F35" s="73"/>
-      <c r="G35" s="73"/>
-      <c r="H35" s="73"/>
-      <c r="I35" s="73"/>
-      <c r="J35" s="73"/>
-      <c r="K35" s="73"/>
+      <c r="D35" s="74"/>
+      <c r="E35" s="74"/>
+      <c r="F35" s="74"/>
+      <c r="G35" s="74"/>
+      <c r="H35" s="74"/>
+      <c r="I35" s="74"/>
+      <c r="J35" s="74"/>
+      <c r="K35" s="74"/>
       <c r="L35" s="6">
         <v>33</v>
       </c>
@@ -3237,17 +3237,17 @@
         <v>2</v>
       </c>
       <c r="B36" s="1"/>
-      <c r="C36" s="64" t="s">
+      <c r="C36" s="66" t="s">
         <v>16</v>
       </c>
-      <c r="D36" s="65"/>
-      <c r="E36" s="65"/>
-      <c r="F36" s="65"/>
-      <c r="G36" s="65"/>
-      <c r="H36" s="65"/>
-      <c r="I36" s="65"/>
-      <c r="J36" s="65"/>
-      <c r="K36" s="65"/>
+      <c r="D36" s="67"/>
+      <c r="E36" s="67"/>
+      <c r="F36" s="67"/>
+      <c r="G36" s="67"/>
+      <c r="H36" s="67"/>
+      <c r="I36" s="67"/>
+      <c r="J36" s="67"/>
+      <c r="K36" s="67"/>
       <c r="L36" s="6">
         <v>33</v>
       </c>
@@ -3270,17 +3270,17 @@
         <v>3</v>
       </c>
       <c r="B37" s="1"/>
-      <c r="C37" s="64" t="s">
+      <c r="C37" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="D37" s="65"/>
-      <c r="E37" s="65"/>
-      <c r="F37" s="65"/>
-      <c r="G37" s="65"/>
-      <c r="H37" s="65"/>
-      <c r="I37" s="65"/>
-      <c r="J37" s="65"/>
-      <c r="K37" s="65"/>
+      <c r="D37" s="67"/>
+      <c r="E37" s="67"/>
+      <c r="F37" s="67"/>
+      <c r="G37" s="67"/>
+      <c r="H37" s="67"/>
+      <c r="I37" s="67"/>
+      <c r="J37" s="67"/>
+      <c r="K37" s="67"/>
       <c r="L37" s="6">
         <v>33</v>
       </c>
@@ -3303,17 +3303,17 @@
         <v>4</v>
       </c>
       <c r="B38" s="1"/>
-      <c r="C38" s="65" t="s">
+      <c r="C38" s="67" t="s">
         <v>18</v>
       </c>
-      <c r="D38" s="65"/>
-      <c r="E38" s="65"/>
-      <c r="F38" s="65"/>
-      <c r="G38" s="65"/>
-      <c r="H38" s="65"/>
-      <c r="I38" s="65"/>
-      <c r="J38" s="65"/>
-      <c r="K38" s="65"/>
+      <c r="D38" s="67"/>
+      <c r="E38" s="67"/>
+      <c r="F38" s="67"/>
+      <c r="G38" s="67"/>
+      <c r="H38" s="67"/>
+      <c r="I38" s="67"/>
+      <c r="J38" s="67"/>
+      <c r="K38" s="67"/>
       <c r="L38" s="6">
         <v>33</v>
       </c>
@@ -3336,17 +3336,17 @@
         <v>5</v>
       </c>
       <c r="B39" s="1"/>
-      <c r="C39" s="64" t="s">
+      <c r="C39" s="66" t="s">
         <v>61</v>
       </c>
-      <c r="D39" s="65"/>
-      <c r="E39" s="65"/>
-      <c r="F39" s="65"/>
-      <c r="G39" s="65"/>
-      <c r="H39" s="65"/>
-      <c r="I39" s="65"/>
-      <c r="J39" s="65"/>
-      <c r="K39" s="65"/>
+      <c r="D39" s="67"/>
+      <c r="E39" s="67"/>
+      <c r="F39" s="67"/>
+      <c r="G39" s="67"/>
+      <c r="H39" s="67"/>
+      <c r="I39" s="67"/>
+      <c r="J39" s="67"/>
+      <c r="K39" s="67"/>
       <c r="L39" s="6">
         <v>33</v>
       </c>
@@ -3369,17 +3369,17 @@
         <v>6</v>
       </c>
       <c r="B40" s="1"/>
-      <c r="C40" s="64" t="s">
+      <c r="C40" s="66" t="s">
         <v>61</v>
       </c>
-      <c r="D40" s="65"/>
-      <c r="E40" s="65"/>
-      <c r="F40" s="65"/>
-      <c r="G40" s="65"/>
-      <c r="H40" s="65"/>
-      <c r="I40" s="65"/>
-      <c r="J40" s="65"/>
-      <c r="K40" s="65"/>
+      <c r="D40" s="67"/>
+      <c r="E40" s="67"/>
+      <c r="F40" s="67"/>
+      <c r="G40" s="67"/>
+      <c r="H40" s="67"/>
+      <c r="I40" s="67"/>
+      <c r="J40" s="67"/>
+      <c r="K40" s="67"/>
       <c r="L40" s="6">
         <v>33</v>
       </c>
@@ -3402,17 +3402,17 @@
         <v>7</v>
       </c>
       <c r="B41" s="1"/>
-      <c r="C41" s="65" t="s">
+      <c r="C41" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="D41" s="65"/>
-      <c r="E41" s="65"/>
-      <c r="F41" s="65"/>
-      <c r="G41" s="65"/>
-      <c r="H41" s="65"/>
-      <c r="I41" s="65"/>
-      <c r="J41" s="65"/>
-      <c r="K41" s="65"/>
+      <c r="D41" s="67"/>
+      <c r="E41" s="67"/>
+      <c r="F41" s="67"/>
+      <c r="G41" s="67"/>
+      <c r="H41" s="67"/>
+      <c r="I41" s="67"/>
+      <c r="J41" s="67"/>
+      <c r="K41" s="67"/>
       <c r="L41" s="6">
         <v>33</v>
       </c>
@@ -3435,17 +3435,17 @@
         <v>8</v>
       </c>
       <c r="B42" s="1"/>
-      <c r="C42" s="64" t="s">
+      <c r="C42" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="D42" s="65"/>
-      <c r="E42" s="65"/>
-      <c r="F42" s="65"/>
-      <c r="G42" s="65"/>
-      <c r="H42" s="65"/>
-      <c r="I42" s="65"/>
-      <c r="J42" s="65"/>
-      <c r="K42" s="65"/>
+      <c r="D42" s="67"/>
+      <c r="E42" s="67"/>
+      <c r="F42" s="67"/>
+      <c r="G42" s="67"/>
+      <c r="H42" s="67"/>
+      <c r="I42" s="67"/>
+      <c r="J42" s="67"/>
+      <c r="K42" s="67"/>
       <c r="L42" s="6">
         <v>33</v>
       </c>
@@ -3468,17 +3468,17 @@
         <v>9</v>
       </c>
       <c r="B43" s="1"/>
-      <c r="C43" s="64" t="s">
+      <c r="C43" s="66" t="s">
         <v>62</v>
       </c>
-      <c r="D43" s="65"/>
-      <c r="E43" s="65"/>
-      <c r="F43" s="65"/>
-      <c r="G43" s="65"/>
-      <c r="H43" s="65"/>
-      <c r="I43" s="65"/>
-      <c r="J43" s="65"/>
-      <c r="K43" s="65"/>
+      <c r="D43" s="67"/>
+      <c r="E43" s="67"/>
+      <c r="F43" s="67"/>
+      <c r="G43" s="67"/>
+      <c r="H43" s="67"/>
+      <c r="I43" s="67"/>
+      <c r="J43" s="67"/>
+      <c r="K43" s="67"/>
       <c r="L43" s="6">
         <v>33</v>
       </c>
@@ -3501,17 +3501,17 @@
         <v>10</v>
       </c>
       <c r="B44" s="1"/>
-      <c r="C44" s="64" t="s">
+      <c r="C44" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="D44" s="65"/>
-      <c r="E44" s="65"/>
-      <c r="F44" s="65"/>
-      <c r="G44" s="65"/>
-      <c r="H44" s="65"/>
-      <c r="I44" s="65"/>
-      <c r="J44" s="65"/>
-      <c r="K44" s="65"/>
+      <c r="D44" s="67"/>
+      <c r="E44" s="67"/>
+      <c r="F44" s="67"/>
+      <c r="G44" s="67"/>
+      <c r="H44" s="67"/>
+      <c r="I44" s="67"/>
+      <c r="J44" s="67"/>
+      <c r="K44" s="67"/>
       <c r="L44" s="6">
         <v>33</v>
       </c>
@@ -3534,17 +3534,17 @@
         <v>11</v>
       </c>
       <c r="B45" s="1"/>
-      <c r="C45" s="64" t="s">
+      <c r="C45" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="D45" s="65"/>
-      <c r="E45" s="65"/>
-      <c r="F45" s="65"/>
-      <c r="G45" s="65"/>
-      <c r="H45" s="65"/>
-      <c r="I45" s="65"/>
-      <c r="J45" s="65"/>
-      <c r="K45" s="65"/>
+      <c r="D45" s="67"/>
+      <c r="E45" s="67"/>
+      <c r="F45" s="67"/>
+      <c r="G45" s="67"/>
+      <c r="H45" s="67"/>
+      <c r="I45" s="67"/>
+      <c r="J45" s="67"/>
+      <c r="K45" s="67"/>
       <c r="L45" s="6">
         <v>33</v>
       </c>
@@ -3569,17 +3569,17 @@
       <c r="B46" s="42">
         <v>44647</v>
       </c>
-      <c r="C46" s="64" t="s">
+      <c r="C46" s="66" t="s">
         <v>63</v>
       </c>
-      <c r="D46" s="65"/>
-      <c r="E46" s="65"/>
-      <c r="F46" s="65"/>
-      <c r="G46" s="65"/>
-      <c r="H46" s="65"/>
-      <c r="I46" s="65"/>
-      <c r="J46" s="65"/>
-      <c r="K46" s="65"/>
+      <c r="D46" s="67"/>
+      <c r="E46" s="67"/>
+      <c r="F46" s="67"/>
+      <c r="G46" s="67"/>
+      <c r="H46" s="67"/>
+      <c r="I46" s="67"/>
+      <c r="J46" s="67"/>
+      <c r="K46" s="67"/>
       <c r="L46" s="6">
         <v>33</v>
       </c>
@@ -3602,20 +3602,20 @@
         <v>13</v>
       </c>
       <c r="B47" s="1"/>
-      <c r="C47" s="66" t="s">
+      <c r="C47" s="60" t="s">
         <v>58</v>
       </c>
-      <c r="D47" s="67"/>
-      <c r="E47" s="67"/>
-      <c r="F47" s="67"/>
-      <c r="G47" s="67"/>
-      <c r="H47" s="67"/>
-      <c r="I47" s="67"/>
-      <c r="J47" s="67"/>
-      <c r="K47" s="67"/>
-      <c r="L47" s="67"/>
-      <c r="M47" s="67"/>
-      <c r="N47" s="68"/>
+      <c r="D47" s="61"/>
+      <c r="E47" s="61"/>
+      <c r="F47" s="61"/>
+      <c r="G47" s="61"/>
+      <c r="H47" s="61"/>
+      <c r="I47" s="61"/>
+      <c r="J47" s="61"/>
+      <c r="K47" s="61"/>
+      <c r="L47" s="61"/>
+      <c r="M47" s="61"/>
+      <c r="N47" s="62"/>
       <c r="O47" s="11"/>
       <c r="P47" s="12"/>
       <c r="Q47" s="13"/>
@@ -3629,26 +3629,26 @@
       <c r="B48" s="1"/>
     </row>
     <row r="49" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="69" t="s">
+      <c r="A49" s="63" t="s">
         <v>24</v>
       </c>
-      <c r="B49" s="70"/>
-      <c r="C49" s="70"/>
-      <c r="D49" s="70"/>
-      <c r="E49" s="70"/>
-      <c r="F49" s="70"/>
-      <c r="G49" s="70"/>
-      <c r="H49" s="70"/>
-      <c r="I49" s="70"/>
-      <c r="J49" s="70"/>
-      <c r="K49" s="70"/>
-      <c r="L49" s="70"/>
-      <c r="M49" s="70"/>
-      <c r="N49" s="70"/>
-      <c r="O49" s="70"/>
-      <c r="P49" s="70"/>
-      <c r="Q49" s="70"/>
-      <c r="R49" s="71"/>
+      <c r="B49" s="64"/>
+      <c r="C49" s="64"/>
+      <c r="D49" s="64"/>
+      <c r="E49" s="64"/>
+      <c r="F49" s="64"/>
+      <c r="G49" s="64"/>
+      <c r="H49" s="64"/>
+      <c r="I49" s="64"/>
+      <c r="J49" s="64"/>
+      <c r="K49" s="64"/>
+      <c r="L49" s="64"/>
+      <c r="M49" s="64"/>
+      <c r="N49" s="64"/>
+      <c r="O49" s="64"/>
+      <c r="P49" s="64"/>
+      <c r="Q49" s="64"/>
+      <c r="R49" s="65"/>
       <c r="S49" s="3"/>
       <c r="T49" s="3"/>
       <c r="U49" s="3"/>
@@ -3658,17 +3658,17 @@
         <v>1</v>
       </c>
       <c r="B51" s="5"/>
-      <c r="C51" s="72" t="s">
+      <c r="C51" s="73" t="s">
         <v>100</v>
       </c>
-      <c r="D51" s="72"/>
-      <c r="E51" s="72"/>
-      <c r="F51" s="72"/>
-      <c r="G51" s="72"/>
-      <c r="H51" s="72"/>
-      <c r="I51" s="72"/>
-      <c r="J51" s="72"/>
-      <c r="K51" s="72"/>
+      <c r="D51" s="73"/>
+      <c r="E51" s="73"/>
+      <c r="F51" s="73"/>
+      <c r="G51" s="73"/>
+      <c r="H51" s="73"/>
+      <c r="I51" s="73"/>
+      <c r="J51" s="73"/>
+      <c r="K51" s="73"/>
       <c r="L51" s="5" t="s">
         <v>2</v>
       </c>
@@ -3705,17 +3705,17 @@
         <v>1</v>
       </c>
       <c r="B52" s="1"/>
-      <c r="C52" s="73" t="s">
+      <c r="C52" s="74" t="s">
         <v>65</v>
       </c>
-      <c r="D52" s="73"/>
-      <c r="E52" s="73"/>
-      <c r="F52" s="73"/>
-      <c r="G52" s="73"/>
-      <c r="H52" s="73"/>
-      <c r="I52" s="73"/>
-      <c r="J52" s="73"/>
-      <c r="K52" s="73"/>
+      <c r="D52" s="74"/>
+      <c r="E52" s="74"/>
+      <c r="F52" s="74"/>
+      <c r="G52" s="74"/>
+      <c r="H52" s="74"/>
+      <c r="I52" s="74"/>
+      <c r="J52" s="74"/>
+      <c r="K52" s="74"/>
       <c r="L52" s="6">
         <v>33</v>
       </c>
@@ -3738,17 +3738,17 @@
         <v>2</v>
       </c>
       <c r="B53" s="1"/>
-      <c r="C53" s="64" t="s">
+      <c r="C53" s="66" t="s">
         <v>66</v>
       </c>
-      <c r="D53" s="65"/>
-      <c r="E53" s="65"/>
-      <c r="F53" s="65"/>
-      <c r="G53" s="65"/>
-      <c r="H53" s="65"/>
-      <c r="I53" s="65"/>
-      <c r="J53" s="65"/>
-      <c r="K53" s="65"/>
+      <c r="D53" s="67"/>
+      <c r="E53" s="67"/>
+      <c r="F53" s="67"/>
+      <c r="G53" s="67"/>
+      <c r="H53" s="67"/>
+      <c r="I53" s="67"/>
+      <c r="J53" s="67"/>
+      <c r="K53" s="67"/>
       <c r="L53" s="6">
         <v>33</v>
       </c>
@@ -3771,17 +3771,17 @@
         <v>3</v>
       </c>
       <c r="B54" s="1"/>
-      <c r="C54" s="64" t="s">
+      <c r="C54" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="D54" s="65"/>
-      <c r="E54" s="65"/>
-      <c r="F54" s="65"/>
-      <c r="G54" s="65"/>
-      <c r="H54" s="65"/>
-      <c r="I54" s="65"/>
-      <c r="J54" s="65"/>
-      <c r="K54" s="65"/>
+      <c r="D54" s="67"/>
+      <c r="E54" s="67"/>
+      <c r="F54" s="67"/>
+      <c r="G54" s="67"/>
+      <c r="H54" s="67"/>
+      <c r="I54" s="67"/>
+      <c r="J54" s="67"/>
+      <c r="K54" s="67"/>
       <c r="L54" s="6">
         <v>33</v>
       </c>
@@ -3804,17 +3804,17 @@
         <v>4</v>
       </c>
       <c r="B55" s="1"/>
-      <c r="C55" s="65" t="s">
+      <c r="C55" s="67" t="s">
         <v>26</v>
       </c>
-      <c r="D55" s="65"/>
-      <c r="E55" s="65"/>
-      <c r="F55" s="65"/>
-      <c r="G55" s="65"/>
-      <c r="H55" s="65"/>
-      <c r="I55" s="65"/>
-      <c r="J55" s="65"/>
-      <c r="K55" s="65"/>
+      <c r="D55" s="67"/>
+      <c r="E55" s="67"/>
+      <c r="F55" s="67"/>
+      <c r="G55" s="67"/>
+      <c r="H55" s="67"/>
+      <c r="I55" s="67"/>
+      <c r="J55" s="67"/>
+      <c r="K55" s="67"/>
       <c r="L55" s="6">
         <v>33</v>
       </c>
@@ -3837,17 +3837,17 @@
         <v>5</v>
       </c>
       <c r="B56" s="1"/>
-      <c r="C56" s="64" t="s">
+      <c r="C56" s="66" t="s">
         <v>27</v>
       </c>
-      <c r="D56" s="65"/>
-      <c r="E56" s="65"/>
-      <c r="F56" s="65"/>
-      <c r="G56" s="65"/>
-      <c r="H56" s="65"/>
-      <c r="I56" s="65"/>
-      <c r="J56" s="65"/>
-      <c r="K56" s="65"/>
+      <c r="D56" s="67"/>
+      <c r="E56" s="67"/>
+      <c r="F56" s="67"/>
+      <c r="G56" s="67"/>
+      <c r="H56" s="67"/>
+      <c r="I56" s="67"/>
+      <c r="J56" s="67"/>
+      <c r="K56" s="67"/>
       <c r="L56" s="6">
         <v>33</v>
       </c>
@@ -3870,17 +3870,17 @@
         <v>6</v>
       </c>
       <c r="B57" s="1"/>
-      <c r="C57" s="64" t="s">
+      <c r="C57" s="66" t="s">
         <v>67</v>
       </c>
-      <c r="D57" s="65"/>
-      <c r="E57" s="65"/>
-      <c r="F57" s="65"/>
-      <c r="G57" s="65"/>
-      <c r="H57" s="65"/>
-      <c r="I57" s="65"/>
-      <c r="J57" s="65"/>
-      <c r="K57" s="65"/>
+      <c r="D57" s="67"/>
+      <c r="E57" s="67"/>
+      <c r="F57" s="67"/>
+      <c r="G57" s="67"/>
+      <c r="H57" s="67"/>
+      <c r="I57" s="67"/>
+      <c r="J57" s="67"/>
+      <c r="K57" s="67"/>
       <c r="L57" s="6">
         <v>33</v>
       </c>
@@ -3901,20 +3901,20 @@
     <row r="58" spans="1:21" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
-      <c r="C58" s="66" t="s">
+      <c r="C58" s="60" t="s">
         <v>58</v>
       </c>
-      <c r="D58" s="67"/>
-      <c r="E58" s="67"/>
-      <c r="F58" s="67"/>
-      <c r="G58" s="67"/>
-      <c r="H58" s="67"/>
-      <c r="I58" s="67"/>
-      <c r="J58" s="67"/>
-      <c r="K58" s="67"/>
-      <c r="L58" s="67"/>
-      <c r="M58" s="67"/>
-      <c r="N58" s="68"/>
+      <c r="D58" s="61"/>
+      <c r="E58" s="61"/>
+      <c r="F58" s="61"/>
+      <c r="G58" s="61"/>
+      <c r="H58" s="61"/>
+      <c r="I58" s="61"/>
+      <c r="J58" s="61"/>
+      <c r="K58" s="61"/>
+      <c r="L58" s="61"/>
+      <c r="M58" s="61"/>
+      <c r="N58" s="62"/>
       <c r="O58" s="11"/>
       <c r="P58" s="12" t="e">
         <f>AVERAGE(P52:P57)</f>
@@ -3934,25 +3934,25 @@
       <c r="B59" s="1"/>
     </row>
     <row r="60" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A60" s="81" t="s">
+      <c r="A60" s="72" t="s">
         <v>28</v>
       </c>
-      <c r="B60" s="81"/>
-      <c r="C60" s="81"/>
-      <c r="D60" s="81"/>
-      <c r="E60" s="81"/>
-      <c r="F60" s="81"/>
-      <c r="G60" s="81"/>
-      <c r="H60" s="81"/>
-      <c r="I60" s="81"/>
-      <c r="J60" s="81"/>
-      <c r="K60" s="81"/>
-      <c r="L60" s="81"/>
-      <c r="M60" s="81"/>
-      <c r="N60" s="81"/>
-      <c r="O60" s="81"/>
-      <c r="P60" s="81"/>
-      <c r="Q60" s="81"/>
+      <c r="B60" s="72"/>
+      <c r="C60" s="72"/>
+      <c r="D60" s="72"/>
+      <c r="E60" s="72"/>
+      <c r="F60" s="72"/>
+      <c r="G60" s="72"/>
+      <c r="H60" s="72"/>
+      <c r="I60" s="72"/>
+      <c r="J60" s="72"/>
+      <c r="K60" s="72"/>
+      <c r="L60" s="72"/>
+      <c r="M60" s="72"/>
+      <c r="N60" s="72"/>
+      <c r="O60" s="72"/>
+      <c r="P60" s="72"/>
+      <c r="Q60" s="72"/>
       <c r="R60"/>
     </row>
     <row r="61" spans="1:21" x14ac:dyDescent="0.3">
@@ -3960,10 +3960,10 @@
         <v>1</v>
       </c>
       <c r="B61" s="16"/>
-      <c r="C61" s="80" t="s">
+      <c r="C61" s="68" t="s">
         <v>68</v>
       </c>
-      <c r="D61" s="80"/>
+      <c r="D61" s="68"/>
       <c r="E61" s="17" t="s">
         <v>69</v>
       </c>
@@ -4010,10 +4010,10 @@
         <v>1</v>
       </c>
       <c r="B62" s="14"/>
-      <c r="C62" s="63" t="s">
+      <c r="C62" s="57" t="s">
         <v>82</v>
       </c>
-      <c r="D62" s="63"/>
+      <c r="D62" s="57"/>
       <c r="E62" s="25">
         <v>41</v>
       </c>
@@ -4060,10 +4060,10 @@
         <v>2</v>
       </c>
       <c r="B63" s="14"/>
-      <c r="C63" s="63" t="s">
+      <c r="C63" s="57" t="s">
         <v>83</v>
       </c>
-      <c r="D63" s="63"/>
+      <c r="D63" s="57"/>
       <c r="E63" s="25">
         <v>40</v>
       </c>
@@ -4110,10 +4110,10 @@
         <v>3</v>
       </c>
       <c r="B64" s="14"/>
-      <c r="C64" s="63" t="s">
+      <c r="C64" s="57" t="s">
         <v>88</v>
       </c>
-      <c r="D64" s="63"/>
+      <c r="D64" s="57"/>
       <c r="E64" s="25">
         <v>55</v>
       </c>
@@ -4160,10 +4160,10 @@
         <v>4</v>
       </c>
       <c r="B65" s="14"/>
-      <c r="C65" s="63" t="s">
+      <c r="C65" s="57" t="s">
         <v>89</v>
       </c>
-      <c r="D65" s="63"/>
+      <c r="D65" s="57"/>
       <c r="E65" s="25">
         <v>58</v>
       </c>
@@ -4210,10 +4210,10 @@
         <v>5</v>
       </c>
       <c r="B66" s="14"/>
-      <c r="C66" s="63" t="s">
+      <c r="C66" s="57" t="s">
         <v>29</v>
       </c>
-      <c r="D66" s="63"/>
+      <c r="D66" s="57"/>
       <c r="E66" s="25"/>
       <c r="F66" s="26"/>
       <c r="G66" s="27"/>
@@ -4234,10 +4234,10 @@
         <v>6</v>
       </c>
       <c r="B67" s="40"/>
-      <c r="C67" s="90" t="s">
+      <c r="C67" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="D67" s="91"/>
+      <c r="D67" s="55"/>
       <c r="E67" s="25"/>
       <c r="F67" s="26"/>
       <c r="G67" s="27"/>
@@ -4258,10 +4258,10 @@
         <v>7</v>
       </c>
       <c r="B68" s="14"/>
-      <c r="C68" s="63" t="s">
+      <c r="C68" s="57" t="s">
         <v>31</v>
       </c>
-      <c r="D68" s="63"/>
+      <c r="D68" s="57"/>
       <c r="E68" s="25"/>
       <c r="F68" s="26"/>
       <c r="G68" s="27"/>
@@ -4282,10 +4282,10 @@
         <v>8</v>
       </c>
       <c r="B69" s="40"/>
-      <c r="C69" s="90" t="s">
+      <c r="C69" s="54" t="s">
         <v>32</v>
       </c>
-      <c r="D69" s="91"/>
+      <c r="D69" s="55"/>
       <c r="E69" s="25"/>
       <c r="F69" s="26"/>
       <c r="G69" s="27"/>
@@ -4304,10 +4304,10 @@
     <row r="70" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A70" s="14"/>
       <c r="B70" s="14"/>
-      <c r="C70" s="74" t="s">
+      <c r="C70" s="58" t="s">
         <v>98</v>
       </c>
-      <c r="D70" s="74"/>
+      <c r="D70" s="58"/>
       <c r="E70" s="25">
         <f t="shared" ref="E70:O70" si="1">AVERAGE(E62:E69)</f>
         <v>48.5</v>
@@ -4363,25 +4363,25 @@
       <c r="R72"/>
     </row>
     <row r="73" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A73" s="79" t="s">
+      <c r="A73" s="75" t="s">
         <v>99</v>
       </c>
-      <c r="B73" s="79"/>
-      <c r="C73" s="79"/>
-      <c r="D73" s="79"/>
-      <c r="E73" s="79"/>
-      <c r="F73" s="79"/>
-      <c r="G73" s="79"/>
-      <c r="H73" s="79"/>
-      <c r="I73" s="79"/>
-      <c r="J73" s="79"/>
-      <c r="K73" s="79"/>
-      <c r="L73" s="79"/>
-      <c r="M73" s="79"/>
-      <c r="N73" s="79"/>
-      <c r="O73" s="79"/>
-      <c r="P73" s="79"/>
-      <c r="Q73" s="79"/>
+      <c r="B73" s="75"/>
+      <c r="C73" s="75"/>
+      <c r="D73" s="75"/>
+      <c r="E73" s="75"/>
+      <c r="F73" s="75"/>
+      <c r="G73" s="75"/>
+      <c r="H73" s="75"/>
+      <c r="I73" s="75"/>
+      <c r="J73" s="75"/>
+      <c r="K73" s="75"/>
+      <c r="L73" s="75"/>
+      <c r="M73" s="75"/>
+      <c r="N73" s="75"/>
+      <c r="O73" s="75"/>
+      <c r="P73" s="75"/>
+      <c r="Q73" s="75"/>
       <c r="R73"/>
     </row>
     <row r="74" spans="1:18" x14ac:dyDescent="0.3">
@@ -4389,10 +4389,10 @@
         <v>1</v>
       </c>
       <c r="B74" s="16"/>
-      <c r="C74" s="80" t="s">
+      <c r="C74" s="68" t="s">
         <v>68</v>
       </c>
-      <c r="D74" s="80"/>
+      <c r="D74" s="68"/>
       <c r="E74" s="17" t="s">
         <v>69</v>
       </c>
@@ -4439,10 +4439,10 @@
         <v>1</v>
       </c>
       <c r="B75" s="14"/>
-      <c r="C75" s="63" t="s">
+      <c r="C75" s="57" t="s">
         <v>101</v>
       </c>
-      <c r="D75" s="63"/>
+      <c r="D75" s="57"/>
       <c r="E75" s="25"/>
       <c r="F75" s="26"/>
       <c r="G75" s="27"/>
@@ -4463,10 +4463,10 @@
         <v>2</v>
       </c>
       <c r="B76" s="14"/>
-      <c r="C76" s="63" t="s">
+      <c r="C76" s="57" t="s">
         <v>102</v>
       </c>
-      <c r="D76" s="63"/>
+      <c r="D76" s="57"/>
       <c r="E76" s="25"/>
       <c r="F76" s="26"/>
       <c r="G76" s="27"/>
@@ -4487,10 +4487,10 @@
         <v>3</v>
       </c>
       <c r="B77" s="14"/>
-      <c r="C77" s="63" t="s">
+      <c r="C77" s="57" t="s">
         <v>103</v>
       </c>
-      <c r="D77" s="63"/>
+      <c r="D77" s="57"/>
       <c r="E77" s="25"/>
       <c r="F77" s="26"/>
       <c r="G77" s="27"/>
@@ -4510,10 +4510,10 @@
         <v>4</v>
       </c>
       <c r="B78" s="14"/>
-      <c r="C78" s="63" t="s">
+      <c r="C78" s="57" t="s">
         <v>104</v>
       </c>
-      <c r="D78" s="63"/>
+      <c r="D78" s="57"/>
       <c r="E78" s="25"/>
       <c r="F78" s="26"/>
       <c r="G78" s="27"/>
@@ -4533,8 +4533,8 @@
         <v>5</v>
       </c>
       <c r="B79" s="14"/>
-      <c r="C79" s="89"/>
-      <c r="D79" s="89"/>
+      <c r="C79" s="79"/>
+      <c r="D79" s="79"/>
       <c r="E79" s="25"/>
       <c r="F79" s="26"/>
       <c r="G79" s="27"/>
@@ -4554,8 +4554,8 @@
         <v>6</v>
       </c>
       <c r="B80" s="14"/>
-      <c r="C80" s="89"/>
-      <c r="D80" s="89"/>
+      <c r="C80" s="79"/>
+      <c r="D80" s="79"/>
       <c r="E80" s="25"/>
       <c r="F80" s="26"/>
       <c r="G80" s="27"/>
@@ -4573,10 +4573,10 @@
     <row r="81" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A81" s="14"/>
       <c r="B81" s="14"/>
-      <c r="C81" s="74" t="s">
+      <c r="C81" s="58" t="s">
         <v>98</v>
       </c>
-      <c r="D81" s="74"/>
+      <c r="D81" s="58"/>
       <c r="E81" s="25" t="e">
         <f t="shared" ref="E81:K81" si="2">AVERAGE(E75:E80)</f>
         <v>#DIV/0!</v>
@@ -4625,103 +4625,103 @@
       <c r="Q81" s="29"/>
     </row>
     <row r="84" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A84" s="75">
+      <c r="A84" s="59">
         <v>2022</v>
       </c>
-      <c r="B84" s="75"/>
-      <c r="C84" s="75"/>
-      <c r="D84" s="75"/>
-      <c r="E84" s="75"/>
-      <c r="F84" s="75"/>
-      <c r="G84" s="75"/>
-      <c r="H84" s="75"/>
-      <c r="I84" s="75"/>
-      <c r="J84" s="75"/>
-      <c r="K84" s="75"/>
-      <c r="L84" s="75"/>
-      <c r="M84" s="75"/>
-      <c r="N84" s="75"/>
-      <c r="O84" s="75"/>
-      <c r="P84" s="75"/>
-      <c r="Q84" s="75"/>
-      <c r="R84" s="75"/>
-      <c r="S84" s="75"/>
-      <c r="T84" s="75"/>
-      <c r="U84" s="75"/>
-      <c r="V84" s="75"/>
-      <c r="W84" s="75"/>
+      <c r="B84" s="59"/>
+      <c r="C84" s="59"/>
+      <c r="D84" s="59"/>
+      <c r="E84" s="59"/>
+      <c r="F84" s="59"/>
+      <c r="G84" s="59"/>
+      <c r="H84" s="59"/>
+      <c r="I84" s="59"/>
+      <c r="J84" s="59"/>
+      <c r="K84" s="59"/>
+      <c r="L84" s="59"/>
+      <c r="M84" s="59"/>
+      <c r="N84" s="59"/>
+      <c r="O84" s="59"/>
+      <c r="P84" s="59"/>
+      <c r="Q84" s="59"/>
+      <c r="R84" s="59"/>
+      <c r="S84" s="59"/>
+      <c r="T84" s="59"/>
+      <c r="U84" s="59"/>
+      <c r="V84" s="59"/>
+      <c r="W84" s="59"/>
     </row>
     <row r="85" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A85" s="75"/>
-      <c r="B85" s="75"/>
-      <c r="C85" s="75"/>
-      <c r="D85" s="75"/>
-      <c r="E85" s="75"/>
-      <c r="F85" s="75"/>
-      <c r="G85" s="75"/>
-      <c r="H85" s="75"/>
-      <c r="I85" s="75"/>
-      <c r="J85" s="75"/>
-      <c r="K85" s="75"/>
-      <c r="L85" s="75"/>
-      <c r="M85" s="75"/>
-      <c r="N85" s="75"/>
-      <c r="O85" s="75"/>
-      <c r="P85" s="75"/>
-      <c r="Q85" s="75"/>
-      <c r="R85" s="75"/>
-      <c r="S85" s="75"/>
-      <c r="T85" s="75"/>
-      <c r="U85" s="75"/>
-      <c r="V85" s="75"/>
-      <c r="W85" s="75"/>
+      <c r="A85" s="59"/>
+      <c r="B85" s="59"/>
+      <c r="C85" s="59"/>
+      <c r="D85" s="59"/>
+      <c r="E85" s="59"/>
+      <c r="F85" s="59"/>
+      <c r="G85" s="59"/>
+      <c r="H85" s="59"/>
+      <c r="I85" s="59"/>
+      <c r="J85" s="59"/>
+      <c r="K85" s="59"/>
+      <c r="L85" s="59"/>
+      <c r="M85" s="59"/>
+      <c r="N85" s="59"/>
+      <c r="O85" s="59"/>
+      <c r="P85" s="59"/>
+      <c r="Q85" s="59"/>
+      <c r="R85" s="59"/>
+      <c r="S85" s="59"/>
+      <c r="T85" s="59"/>
+      <c r="U85" s="59"/>
+      <c r="V85" s="59"/>
+      <c r="W85" s="59"/>
     </row>
     <row r="86" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A86" s="75"/>
-      <c r="B86" s="75"/>
-      <c r="C86" s="75"/>
-      <c r="D86" s="75"/>
-      <c r="E86" s="75"/>
-      <c r="F86" s="75"/>
-      <c r="G86" s="75"/>
-      <c r="H86" s="75"/>
-      <c r="I86" s="75"/>
-      <c r="J86" s="75"/>
-      <c r="K86" s="75"/>
-      <c r="L86" s="75"/>
-      <c r="M86" s="75"/>
-      <c r="N86" s="75"/>
-      <c r="O86" s="75"/>
-      <c r="P86" s="75"/>
-      <c r="Q86" s="75"/>
-      <c r="R86" s="75"/>
-      <c r="S86" s="75"/>
-      <c r="T86" s="75"/>
-      <c r="U86" s="75"/>
-      <c r="V86" s="75"/>
-      <c r="W86" s="75"/>
+      <c r="A86" s="59"/>
+      <c r="B86" s="59"/>
+      <c r="C86" s="59"/>
+      <c r="D86" s="59"/>
+      <c r="E86" s="59"/>
+      <c r="F86" s="59"/>
+      <c r="G86" s="59"/>
+      <c r="H86" s="59"/>
+      <c r="I86" s="59"/>
+      <c r="J86" s="59"/>
+      <c r="K86" s="59"/>
+      <c r="L86" s="59"/>
+      <c r="M86" s="59"/>
+      <c r="N86" s="59"/>
+      <c r="O86" s="59"/>
+      <c r="P86" s="59"/>
+      <c r="Q86" s="59"/>
+      <c r="R86" s="59"/>
+      <c r="S86" s="59"/>
+      <c r="T86" s="59"/>
+      <c r="U86" s="59"/>
+      <c r="V86" s="59"/>
+      <c r="W86" s="59"/>
     </row>
     <row r="87" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A87" s="76" t="s">
+      <c r="A87" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="B87" s="77"/>
-      <c r="C87" s="77"/>
-      <c r="D87" s="77"/>
-      <c r="E87" s="77"/>
-      <c r="F87" s="77"/>
-      <c r="G87" s="77"/>
-      <c r="H87" s="77"/>
-      <c r="I87" s="77"/>
-      <c r="J87" s="77"/>
-      <c r="K87" s="77"/>
-      <c r="L87" s="77"/>
-      <c r="M87" s="77"/>
-      <c r="N87" s="77"/>
-      <c r="O87" s="77"/>
-      <c r="P87" s="77"/>
-      <c r="Q87" s="77"/>
-      <c r="R87" s="78"/>
+      <c r="B87" s="70"/>
+      <c r="C87" s="70"/>
+      <c r="D87" s="70"/>
+      <c r="E87" s="70"/>
+      <c r="F87" s="70"/>
+      <c r="G87" s="70"/>
+      <c r="H87" s="70"/>
+      <c r="I87" s="70"/>
+      <c r="J87" s="70"/>
+      <c r="K87" s="70"/>
+      <c r="L87" s="70"/>
+      <c r="M87" s="70"/>
+      <c r="N87" s="70"/>
+      <c r="O87" s="70"/>
+      <c r="P87" s="70"/>
+      <c r="Q87" s="70"/>
+      <c r="R87" s="71"/>
       <c r="S87" s="38"/>
       <c r="T87" s="38"/>
       <c r="U87" s="38"/>
@@ -4732,17 +4732,17 @@
         <v>1</v>
       </c>
       <c r="B89" s="5"/>
-      <c r="C89" s="72" t="s">
+      <c r="C89" s="73" t="s">
         <v>56</v>
       </c>
-      <c r="D89" s="72"/>
-      <c r="E89" s="72"/>
-      <c r="F89" s="72"/>
-      <c r="G89" s="72"/>
-      <c r="H89" s="72"/>
-      <c r="I89" s="72"/>
-      <c r="J89" s="72"/>
-      <c r="K89" s="72"/>
+      <c r="D89" s="73"/>
+      <c r="E89" s="73"/>
+      <c r="F89" s="73"/>
+      <c r="G89" s="73"/>
+      <c r="H89" s="73"/>
+      <c r="I89" s="73"/>
+      <c r="J89" s="73"/>
+      <c r="K89" s="73"/>
       <c r="L89" s="5" t="s">
         <v>2</v>
       </c>
@@ -4780,17 +4780,17 @@
         <v>1</v>
       </c>
       <c r="B90" s="1"/>
-      <c r="C90" s="73" t="s">
+      <c r="C90" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="D90" s="73"/>
-      <c r="E90" s="73"/>
-      <c r="F90" s="73"/>
-      <c r="G90" s="73"/>
-      <c r="H90" s="73"/>
-      <c r="I90" s="73"/>
-      <c r="J90" s="73"/>
-      <c r="K90" s="73"/>
+      <c r="D90" s="74"/>
+      <c r="E90" s="74"/>
+      <c r="F90" s="74"/>
+      <c r="G90" s="74"/>
+      <c r="H90" s="74"/>
+      <c r="I90" s="74"/>
+      <c r="J90" s="74"/>
+      <c r="K90" s="74"/>
       <c r="L90" s="6">
         <v>17</v>
       </c>
@@ -4826,17 +4826,17 @@
         <v>2</v>
       </c>
       <c r="B91" s="1"/>
-      <c r="C91" s="64" t="s">
+      <c r="C91" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="D91" s="65"/>
-      <c r="E91" s="65"/>
-      <c r="F91" s="65"/>
-      <c r="G91" s="65"/>
-      <c r="H91" s="65"/>
-      <c r="I91" s="65"/>
-      <c r="J91" s="65"/>
-      <c r="K91" s="65"/>
+      <c r="D91" s="67"/>
+      <c r="E91" s="67"/>
+      <c r="F91" s="67"/>
+      <c r="G91" s="67"/>
+      <c r="H91" s="67"/>
+      <c r="I91" s="67"/>
+      <c r="J91" s="67"/>
+      <c r="K91" s="67"/>
       <c r="L91" s="6">
         <v>17</v>
       </c>
@@ -4872,17 +4872,17 @@
         <v>3</v>
       </c>
       <c r="B92" s="1"/>
-      <c r="C92" s="64" t="s">
+      <c r="C92" s="66" t="s">
         <v>34</v>
       </c>
-      <c r="D92" s="65"/>
-      <c r="E92" s="65"/>
-      <c r="F92" s="65"/>
-      <c r="G92" s="65"/>
-      <c r="H92" s="65"/>
-      <c r="I92" s="65"/>
-      <c r="J92" s="65"/>
-      <c r="K92" s="65"/>
+      <c r="D92" s="67"/>
+      <c r="E92" s="67"/>
+      <c r="F92" s="67"/>
+      <c r="G92" s="67"/>
+      <c r="H92" s="67"/>
+      <c r="I92" s="67"/>
+      <c r="J92" s="67"/>
+      <c r="K92" s="67"/>
       <c r="L92" s="6">
         <v>17</v>
       </c>
@@ -4918,17 +4918,17 @@
         <v>4</v>
       </c>
       <c r="B93" s="1"/>
-      <c r="C93" s="65" t="s">
+      <c r="C93" s="67" t="s">
         <v>35</v>
       </c>
-      <c r="D93" s="65"/>
-      <c r="E93" s="65"/>
-      <c r="F93" s="65"/>
-      <c r="G93" s="65"/>
-      <c r="H93" s="65"/>
-      <c r="I93" s="65"/>
-      <c r="J93" s="65"/>
-      <c r="K93" s="65"/>
+      <c r="D93" s="67"/>
+      <c r="E93" s="67"/>
+      <c r="F93" s="67"/>
+      <c r="G93" s="67"/>
+      <c r="H93" s="67"/>
+      <c r="I93" s="67"/>
+      <c r="J93" s="67"/>
+      <c r="K93" s="67"/>
       <c r="L93" s="6">
         <v>17</v>
       </c>
@@ -4964,17 +4964,17 @@
         <v>5</v>
       </c>
       <c r="B94" s="1"/>
-      <c r="C94" s="64" t="s">
+      <c r="C94" s="66" t="s">
         <v>36</v>
       </c>
-      <c r="D94" s="65"/>
-      <c r="E94" s="65"/>
-      <c r="F94" s="65"/>
-      <c r="G94" s="65"/>
-      <c r="H94" s="65"/>
-      <c r="I94" s="65"/>
-      <c r="J94" s="65"/>
-      <c r="K94" s="65"/>
+      <c r="D94" s="67"/>
+      <c r="E94" s="67"/>
+      <c r="F94" s="67"/>
+      <c r="G94" s="67"/>
+      <c r="H94" s="67"/>
+      <c r="I94" s="67"/>
+      <c r="J94" s="67"/>
+      <c r="K94" s="67"/>
       <c r="L94" s="6">
         <v>17</v>
       </c>
@@ -5010,17 +5010,17 @@
         <v>6</v>
       </c>
       <c r="B95" s="1"/>
-      <c r="C95" s="64" t="s">
+      <c r="C95" s="66" t="s">
         <v>37</v>
       </c>
-      <c r="D95" s="65"/>
-      <c r="E95" s="65"/>
-      <c r="F95" s="65"/>
-      <c r="G95" s="65"/>
-      <c r="H95" s="65"/>
-      <c r="I95" s="65"/>
-      <c r="J95" s="65"/>
-      <c r="K95" s="65"/>
+      <c r="D95" s="67"/>
+      <c r="E95" s="67"/>
+      <c r="F95" s="67"/>
+      <c r="G95" s="67"/>
+      <c r="H95" s="67"/>
+      <c r="I95" s="67"/>
+      <c r="J95" s="67"/>
+      <c r="K95" s="67"/>
       <c r="L95" s="6">
         <v>17</v>
       </c>
@@ -5056,17 +5056,17 @@
         <v>7</v>
       </c>
       <c r="B96" s="1"/>
-      <c r="C96" s="65" t="s">
+      <c r="C96" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="D96" s="65"/>
-      <c r="E96" s="65"/>
-      <c r="F96" s="65"/>
-      <c r="G96" s="65"/>
-      <c r="H96" s="65"/>
-      <c r="I96" s="65"/>
-      <c r="J96" s="65"/>
-      <c r="K96" s="65"/>
+      <c r="D96" s="67"/>
+      <c r="E96" s="67"/>
+      <c r="F96" s="67"/>
+      <c r="G96" s="67"/>
+      <c r="H96" s="67"/>
+      <c r="I96" s="67"/>
+      <c r="J96" s="67"/>
+      <c r="K96" s="67"/>
       <c r="L96" s="6">
         <v>17</v>
       </c>
@@ -5102,17 +5102,17 @@
         <v>8</v>
       </c>
       <c r="B97" s="1"/>
-      <c r="C97" s="64" t="s">
+      <c r="C97" s="66" t="s">
         <v>38</v>
       </c>
-      <c r="D97" s="65"/>
-      <c r="E97" s="65"/>
-      <c r="F97" s="65"/>
-      <c r="G97" s="65"/>
-      <c r="H97" s="65"/>
-      <c r="I97" s="65"/>
-      <c r="J97" s="65"/>
-      <c r="K97" s="65"/>
+      <c r="D97" s="67"/>
+      <c r="E97" s="67"/>
+      <c r="F97" s="67"/>
+      <c r="G97" s="67"/>
+      <c r="H97" s="67"/>
+      <c r="I97" s="67"/>
+      <c r="J97" s="67"/>
+      <c r="K97" s="67"/>
       <c r="L97" s="6">
         <v>17</v>
       </c>
@@ -5135,17 +5135,17 @@
         <v>9</v>
       </c>
       <c r="B98" s="1"/>
-      <c r="C98" s="64" t="s">
+      <c r="C98" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="D98" s="65"/>
-      <c r="E98" s="65"/>
-      <c r="F98" s="65"/>
-      <c r="G98" s="65"/>
-      <c r="H98" s="65"/>
-      <c r="I98" s="65"/>
-      <c r="J98" s="65"/>
-      <c r="K98" s="65"/>
+      <c r="D98" s="67"/>
+      <c r="E98" s="67"/>
+      <c r="F98" s="67"/>
+      <c r="G98" s="67"/>
+      <c r="H98" s="67"/>
+      <c r="I98" s="67"/>
+      <c r="J98" s="67"/>
+      <c r="K98" s="67"/>
       <c r="L98" s="6">
         <v>17</v>
       </c>
@@ -5168,17 +5168,17 @@
         <v>10</v>
       </c>
       <c r="B99" s="1"/>
-      <c r="C99" s="64" t="s">
+      <c r="C99" s="66" t="s">
         <v>40</v>
       </c>
-      <c r="D99" s="65"/>
-      <c r="E99" s="65"/>
-      <c r="F99" s="65"/>
-      <c r="G99" s="65"/>
-      <c r="H99" s="65"/>
-      <c r="I99" s="65"/>
-      <c r="J99" s="65"/>
-      <c r="K99" s="65"/>
+      <c r="D99" s="67"/>
+      <c r="E99" s="67"/>
+      <c r="F99" s="67"/>
+      <c r="G99" s="67"/>
+      <c r="H99" s="67"/>
+      <c r="I99" s="67"/>
+      <c r="J99" s="67"/>
+      <c r="K99" s="67"/>
       <c r="L99" s="6">
         <v>17</v>
       </c>
@@ -5214,17 +5214,17 @@
         <v>11</v>
       </c>
       <c r="B100" s="1"/>
-      <c r="C100" s="64" t="s">
+      <c r="C100" s="66" t="s">
         <v>41</v>
       </c>
-      <c r="D100" s="65"/>
-      <c r="E100" s="65"/>
-      <c r="F100" s="65"/>
-      <c r="G100" s="65"/>
-      <c r="H100" s="65"/>
-      <c r="I100" s="65"/>
-      <c r="J100" s="65"/>
-      <c r="K100" s="65"/>
+      <c r="D100" s="67"/>
+      <c r="E100" s="67"/>
+      <c r="F100" s="67"/>
+      <c r="G100" s="67"/>
+      <c r="H100" s="67"/>
+      <c r="I100" s="67"/>
+      <c r="J100" s="67"/>
+      <c r="K100" s="67"/>
       <c r="L100" s="6">
         <v>17</v>
       </c>
@@ -5247,17 +5247,17 @@
         <v>12</v>
       </c>
       <c r="B101" s="1"/>
-      <c r="C101" s="64" t="s">
+      <c r="C101" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="D101" s="65"/>
-      <c r="E101" s="65"/>
-      <c r="F101" s="65"/>
-      <c r="G101" s="65"/>
-      <c r="H101" s="65"/>
-      <c r="I101" s="65"/>
-      <c r="J101" s="65"/>
-      <c r="K101" s="65"/>
+      <c r="D101" s="67"/>
+      <c r="E101" s="67"/>
+      <c r="F101" s="67"/>
+      <c r="G101" s="67"/>
+      <c r="H101" s="67"/>
+      <c r="I101" s="67"/>
+      <c r="J101" s="67"/>
+      <c r="K101" s="67"/>
       <c r="L101" s="6">
         <v>17</v>
       </c>
@@ -5280,17 +5280,17 @@
         <v>13</v>
       </c>
       <c r="B102" s="1"/>
-      <c r="C102" s="65" t="s">
+      <c r="C102" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="D102" s="65"/>
-      <c r="E102" s="65"/>
-      <c r="F102" s="65"/>
-      <c r="G102" s="65"/>
-      <c r="H102" s="65"/>
-      <c r="I102" s="65"/>
-      <c r="J102" s="65"/>
-      <c r="K102" s="65"/>
+      <c r="D102" s="67"/>
+      <c r="E102" s="67"/>
+      <c r="F102" s="67"/>
+      <c r="G102" s="67"/>
+      <c r="H102" s="67"/>
+      <c r="I102" s="67"/>
+      <c r="J102" s="67"/>
+      <c r="K102" s="67"/>
       <c r="L102" s="6">
         <v>17</v>
       </c>
@@ -5326,17 +5326,17 @@
         <v>14</v>
       </c>
       <c r="B103" s="1"/>
-      <c r="C103" s="64" t="s">
+      <c r="C103" s="66" t="s">
         <v>43</v>
       </c>
-      <c r="D103" s="65"/>
-      <c r="E103" s="65"/>
-      <c r="F103" s="65"/>
-      <c r="G103" s="65"/>
-      <c r="H103" s="65"/>
-      <c r="I103" s="65"/>
-      <c r="J103" s="65"/>
-      <c r="K103" s="65"/>
+      <c r="D103" s="67"/>
+      <c r="E103" s="67"/>
+      <c r="F103" s="67"/>
+      <c r="G103" s="67"/>
+      <c r="H103" s="67"/>
+      <c r="I103" s="67"/>
+      <c r="J103" s="67"/>
+      <c r="K103" s="67"/>
       <c r="L103" s="6">
         <v>17</v>
       </c>
@@ -5372,17 +5372,17 @@
         <v>15</v>
       </c>
       <c r="B104" s="1"/>
-      <c r="C104" s="65" t="s">
+      <c r="C104" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="D104" s="65"/>
-      <c r="E104" s="65"/>
-      <c r="F104" s="65"/>
-      <c r="G104" s="65"/>
-      <c r="H104" s="65"/>
-      <c r="I104" s="65"/>
-      <c r="J104" s="65"/>
-      <c r="K104" s="65"/>
+      <c r="D104" s="67"/>
+      <c r="E104" s="67"/>
+      <c r="F104" s="67"/>
+      <c r="G104" s="67"/>
+      <c r="H104" s="67"/>
+      <c r="I104" s="67"/>
+      <c r="J104" s="67"/>
+      <c r="K104" s="67"/>
       <c r="L104" s="6">
         <v>17</v>
       </c>
@@ -5418,17 +5418,17 @@
         <v>16</v>
       </c>
       <c r="B105" s="1"/>
-      <c r="C105" s="65" t="s">
+      <c r="C105" s="67" t="s">
         <v>44</v>
       </c>
-      <c r="D105" s="65"/>
-      <c r="E105" s="65"/>
-      <c r="F105" s="65"/>
-      <c r="G105" s="65"/>
-      <c r="H105" s="65"/>
-      <c r="I105" s="65"/>
-      <c r="J105" s="65"/>
-      <c r="K105" s="65"/>
+      <c r="D105" s="67"/>
+      <c r="E105" s="67"/>
+      <c r="F105" s="67"/>
+      <c r="G105" s="67"/>
+      <c r="H105" s="67"/>
+      <c r="I105" s="67"/>
+      <c r="J105" s="67"/>
+      <c r="K105" s="67"/>
       <c r="L105" s="6">
         <v>17</v>
       </c>
@@ -5451,17 +5451,17 @@
         <v>17</v>
       </c>
       <c r="B106" s="1"/>
-      <c r="C106" s="64" t="s">
+      <c r="C106" s="66" t="s">
         <v>45</v>
       </c>
-      <c r="D106" s="65"/>
-      <c r="E106" s="65"/>
-      <c r="F106" s="65"/>
-      <c r="G106" s="65"/>
-      <c r="H106" s="65"/>
-      <c r="I106" s="65"/>
-      <c r="J106" s="65"/>
-      <c r="K106" s="65"/>
+      <c r="D106" s="67"/>
+      <c r="E106" s="67"/>
+      <c r="F106" s="67"/>
+      <c r="G106" s="67"/>
+      <c r="H106" s="67"/>
+      <c r="I106" s="67"/>
+      <c r="J106" s="67"/>
+      <c r="K106" s="67"/>
       <c r="L106" s="6">
         <v>17</v>
       </c>
@@ -5497,17 +5497,17 @@
         <v>18</v>
       </c>
       <c r="B107" s="1"/>
-      <c r="C107" s="64" t="s">
+      <c r="C107" s="66" t="s">
         <v>46</v>
       </c>
-      <c r="D107" s="65"/>
-      <c r="E107" s="65"/>
-      <c r="F107" s="65"/>
-      <c r="G107" s="65"/>
-      <c r="H107" s="65"/>
-      <c r="I107" s="65"/>
-      <c r="J107" s="65"/>
-      <c r="K107" s="65"/>
+      <c r="D107" s="67"/>
+      <c r="E107" s="67"/>
+      <c r="F107" s="67"/>
+      <c r="G107" s="67"/>
+      <c r="H107" s="67"/>
+      <c r="I107" s="67"/>
+      <c r="J107" s="67"/>
+      <c r="K107" s="67"/>
       <c r="L107" s="6">
         <v>17</v>
       </c>
@@ -5530,17 +5530,17 @@
         <v>19</v>
       </c>
       <c r="B108" s="1"/>
-      <c r="C108" s="65" t="s">
+      <c r="C108" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="D108" s="65"/>
-      <c r="E108" s="65"/>
-      <c r="F108" s="65"/>
-      <c r="G108" s="65"/>
-      <c r="H108" s="65"/>
-      <c r="I108" s="65"/>
-      <c r="J108" s="65"/>
-      <c r="K108" s="65"/>
+      <c r="D108" s="67"/>
+      <c r="E108" s="67"/>
+      <c r="F108" s="67"/>
+      <c r="G108" s="67"/>
+      <c r="H108" s="67"/>
+      <c r="I108" s="67"/>
+      <c r="J108" s="67"/>
+      <c r="K108" s="67"/>
       <c r="L108" s="6">
         <v>17</v>
       </c>
@@ -5576,17 +5576,17 @@
         <v>20</v>
       </c>
       <c r="B109" s="1"/>
-      <c r="C109" s="65" t="s">
+      <c r="C109" s="67" t="s">
         <v>47</v>
       </c>
-      <c r="D109" s="65"/>
-      <c r="E109" s="65"/>
-      <c r="F109" s="65"/>
-      <c r="G109" s="65"/>
-      <c r="H109" s="65"/>
-      <c r="I109" s="65"/>
-      <c r="J109" s="65"/>
-      <c r="K109" s="65"/>
+      <c r="D109" s="67"/>
+      <c r="E109" s="67"/>
+      <c r="F109" s="67"/>
+      <c r="G109" s="67"/>
+      <c r="H109" s="67"/>
+      <c r="I109" s="67"/>
+      <c r="J109" s="67"/>
+      <c r="K109" s="67"/>
       <c r="L109" s="6">
         <v>17</v>
       </c>
@@ -5622,17 +5622,17 @@
         <v>21</v>
       </c>
       <c r="B110" s="1"/>
-      <c r="C110" s="65" t="s">
+      <c r="C110" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="D110" s="65"/>
-      <c r="E110" s="65"/>
-      <c r="F110" s="65"/>
-      <c r="G110" s="65"/>
-      <c r="H110" s="65"/>
-      <c r="I110" s="65"/>
-      <c r="J110" s="65"/>
-      <c r="K110" s="65"/>
+      <c r="D110" s="67"/>
+      <c r="E110" s="67"/>
+      <c r="F110" s="67"/>
+      <c r="G110" s="67"/>
+      <c r="H110" s="67"/>
+      <c r="I110" s="67"/>
+      <c r="J110" s="67"/>
+      <c r="K110" s="67"/>
       <c r="L110" s="6">
         <v>17</v>
       </c>
@@ -5668,17 +5668,17 @@
         <v>22</v>
       </c>
       <c r="B111" s="1"/>
-      <c r="C111" s="64" t="s">
+      <c r="C111" s="66" t="s">
         <v>48</v>
       </c>
-      <c r="D111" s="65"/>
-      <c r="E111" s="65"/>
-      <c r="F111" s="65"/>
-      <c r="G111" s="65"/>
-      <c r="H111" s="65"/>
-      <c r="I111" s="65"/>
-      <c r="J111" s="65"/>
-      <c r="K111" s="65"/>
+      <c r="D111" s="67"/>
+      <c r="E111" s="67"/>
+      <c r="F111" s="67"/>
+      <c r="G111" s="67"/>
+      <c r="H111" s="67"/>
+      <c r="I111" s="67"/>
+      <c r="J111" s="67"/>
+      <c r="K111" s="67"/>
       <c r="L111" s="6">
         <v>17</v>
       </c>
@@ -5714,17 +5714,17 @@
         <v>23</v>
       </c>
       <c r="B112" s="1"/>
-      <c r="C112" s="65" t="s">
+      <c r="C112" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="D112" s="65"/>
-      <c r="E112" s="65"/>
-      <c r="F112" s="65"/>
-      <c r="G112" s="65"/>
-      <c r="H112" s="65"/>
-      <c r="I112" s="65"/>
-      <c r="J112" s="65"/>
-      <c r="K112" s="65"/>
+      <c r="D112" s="67"/>
+      <c r="E112" s="67"/>
+      <c r="F112" s="67"/>
+      <c r="G112" s="67"/>
+      <c r="H112" s="67"/>
+      <c r="I112" s="67"/>
+      <c r="J112" s="67"/>
+      <c r="K112" s="67"/>
       <c r="L112" s="6">
         <v>17</v>
       </c>
@@ -5747,17 +5747,17 @@
         <v>24</v>
       </c>
       <c r="B113" s="1"/>
-      <c r="C113" s="64" t="s">
+      <c r="C113" s="66" t="s">
         <v>49</v>
       </c>
-      <c r="D113" s="65"/>
-      <c r="E113" s="65"/>
-      <c r="F113" s="65"/>
-      <c r="G113" s="65"/>
-      <c r="H113" s="65"/>
-      <c r="I113" s="65"/>
-      <c r="J113" s="65"/>
-      <c r="K113" s="65"/>
+      <c r="D113" s="67"/>
+      <c r="E113" s="67"/>
+      <c r="F113" s="67"/>
+      <c r="G113" s="67"/>
+      <c r="H113" s="67"/>
+      <c r="I113" s="67"/>
+      <c r="J113" s="67"/>
+      <c r="K113" s="67"/>
       <c r="L113" s="6">
         <v>17</v>
       </c>
@@ -5780,20 +5780,20 @@
         <v>25</v>
       </c>
       <c r="B114" s="8"/>
-      <c r="C114" s="66" t="s">
+      <c r="C114" s="60" t="s">
         <v>58</v>
       </c>
-      <c r="D114" s="67"/>
-      <c r="E114" s="67"/>
-      <c r="F114" s="67"/>
-      <c r="G114" s="67"/>
-      <c r="H114" s="67"/>
-      <c r="I114" s="67"/>
-      <c r="J114" s="67"/>
-      <c r="K114" s="67"/>
-      <c r="L114" s="67"/>
-      <c r="M114" s="67"/>
-      <c r="N114" s="68"/>
+      <c r="D114" s="61"/>
+      <c r="E114" s="61"/>
+      <c r="F114" s="61"/>
+      <c r="G114" s="61"/>
+      <c r="H114" s="61"/>
+      <c r="I114" s="61"/>
+      <c r="J114" s="61"/>
+      <c r="K114" s="61"/>
+      <c r="L114" s="61"/>
+      <c r="M114" s="61"/>
+      <c r="N114" s="62"/>
       <c r="O114" s="11"/>
       <c r="P114" s="12">
         <f>AVERAGE(P90:P113)</f>
@@ -5814,26 +5814,26 @@
     </row>
     <row r="116" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="117" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A117" s="82" t="s">
+      <c r="A117" s="76" t="s">
         <v>13</v>
       </c>
-      <c r="B117" s="83"/>
-      <c r="C117" s="83"/>
-      <c r="D117" s="83"/>
-      <c r="E117" s="83"/>
-      <c r="F117" s="83"/>
-      <c r="G117" s="83"/>
-      <c r="H117" s="83"/>
-      <c r="I117" s="83"/>
-      <c r="J117" s="83"/>
-      <c r="K117" s="83"/>
-      <c r="L117" s="83"/>
-      <c r="M117" s="83"/>
-      <c r="N117" s="83"/>
-      <c r="O117" s="83"/>
-      <c r="P117" s="83"/>
-      <c r="Q117" s="83"/>
-      <c r="R117" s="84"/>
+      <c r="B117" s="77"/>
+      <c r="C117" s="77"/>
+      <c r="D117" s="77"/>
+      <c r="E117" s="77"/>
+      <c r="F117" s="77"/>
+      <c r="G117" s="77"/>
+      <c r="H117" s="77"/>
+      <c r="I117" s="77"/>
+      <c r="J117" s="77"/>
+      <c r="K117" s="77"/>
+      <c r="L117" s="77"/>
+      <c r="M117" s="77"/>
+      <c r="N117" s="77"/>
+      <c r="O117" s="77"/>
+      <c r="P117" s="77"/>
+      <c r="Q117" s="77"/>
+      <c r="R117" s="78"/>
       <c r="S117" s="15"/>
       <c r="T117" s="15"/>
       <c r="U117" s="15"/>
@@ -5843,17 +5843,17 @@
         <v>1</v>
       </c>
       <c r="B119" s="5"/>
-      <c r="C119" s="72" t="s">
+      <c r="C119" s="73" t="s">
         <v>56</v>
       </c>
-      <c r="D119" s="72"/>
-      <c r="E119" s="72"/>
-      <c r="F119" s="72"/>
-      <c r="G119" s="72"/>
-      <c r="H119" s="72"/>
-      <c r="I119" s="72"/>
-      <c r="J119" s="72"/>
-      <c r="K119" s="72"/>
+      <c r="D119" s="73"/>
+      <c r="E119" s="73"/>
+      <c r="F119" s="73"/>
+      <c r="G119" s="73"/>
+      <c r="H119" s="73"/>
+      <c r="I119" s="73"/>
+      <c r="J119" s="73"/>
+      <c r="K119" s="73"/>
       <c r="L119" s="5" t="s">
         <v>2</v>
       </c>
@@ -5890,17 +5890,17 @@
         <v>1</v>
       </c>
       <c r="B120" s="1"/>
-      <c r="C120" s="73" t="s">
+      <c r="C120" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="D120" s="73"/>
-      <c r="E120" s="73"/>
-      <c r="F120" s="73"/>
-      <c r="G120" s="73"/>
-      <c r="H120" s="73"/>
-      <c r="I120" s="73"/>
-      <c r="J120" s="73"/>
-      <c r="K120" s="73"/>
+      <c r="D120" s="74"/>
+      <c r="E120" s="74"/>
+      <c r="F120" s="74"/>
+      <c r="G120" s="74"/>
+      <c r="H120" s="74"/>
+      <c r="I120" s="74"/>
+      <c r="J120" s="74"/>
+      <c r="K120" s="74"/>
       <c r="L120" s="6">
         <v>33</v>
       </c>
@@ -5923,17 +5923,17 @@
         <v>2</v>
       </c>
       <c r="B121" s="1"/>
-      <c r="C121" s="64" t="s">
+      <c r="C121" s="66" t="s">
         <v>16</v>
       </c>
-      <c r="D121" s="65"/>
-      <c r="E121" s="65"/>
-      <c r="F121" s="65"/>
-      <c r="G121" s="65"/>
-      <c r="H121" s="65"/>
-      <c r="I121" s="65"/>
-      <c r="J121" s="65"/>
-      <c r="K121" s="65"/>
+      <c r="D121" s="67"/>
+      <c r="E121" s="67"/>
+      <c r="F121" s="67"/>
+      <c r="G121" s="67"/>
+      <c r="H121" s="67"/>
+      <c r="I121" s="67"/>
+      <c r="J121" s="67"/>
+      <c r="K121" s="67"/>
       <c r="L121" s="6">
         <v>33</v>
       </c>
@@ -5956,17 +5956,17 @@
         <v>3</v>
       </c>
       <c r="B122" s="1"/>
-      <c r="C122" s="64" t="s">
+      <c r="C122" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="D122" s="65"/>
-      <c r="E122" s="65"/>
-      <c r="F122" s="65"/>
-      <c r="G122" s="65"/>
-      <c r="H122" s="65"/>
-      <c r="I122" s="65"/>
-      <c r="J122" s="65"/>
-      <c r="K122" s="65"/>
+      <c r="D122" s="67"/>
+      <c r="E122" s="67"/>
+      <c r="F122" s="67"/>
+      <c r="G122" s="67"/>
+      <c r="H122" s="67"/>
+      <c r="I122" s="67"/>
+      <c r="J122" s="67"/>
+      <c r="K122" s="67"/>
       <c r="L122" s="6">
         <v>33</v>
       </c>
@@ -6002,17 +6002,17 @@
         <v>4</v>
       </c>
       <c r="B123" s="1"/>
-      <c r="C123" s="65" t="s">
+      <c r="C123" s="67" t="s">
         <v>18</v>
       </c>
-      <c r="D123" s="65"/>
-      <c r="E123" s="65"/>
-      <c r="F123" s="65"/>
-      <c r="G123" s="65"/>
-      <c r="H123" s="65"/>
-      <c r="I123" s="65"/>
-      <c r="J123" s="65"/>
-      <c r="K123" s="65"/>
+      <c r="D123" s="67"/>
+      <c r="E123" s="67"/>
+      <c r="F123" s="67"/>
+      <c r="G123" s="67"/>
+      <c r="H123" s="67"/>
+      <c r="I123" s="67"/>
+      <c r="J123" s="67"/>
+      <c r="K123" s="67"/>
       <c r="L123" s="6">
         <v>33</v>
       </c>
@@ -6035,17 +6035,17 @@
         <v>5</v>
       </c>
       <c r="B124" s="1"/>
-      <c r="C124" s="64" t="s">
+      <c r="C124" s="66" t="s">
         <v>61</v>
       </c>
-      <c r="D124" s="65"/>
-      <c r="E124" s="65"/>
-      <c r="F124" s="65"/>
-      <c r="G124" s="65"/>
-      <c r="H124" s="65"/>
-      <c r="I124" s="65"/>
-      <c r="J124" s="65"/>
-      <c r="K124" s="65"/>
+      <c r="D124" s="67"/>
+      <c r="E124" s="67"/>
+      <c r="F124" s="67"/>
+      <c r="G124" s="67"/>
+      <c r="H124" s="67"/>
+      <c r="I124" s="67"/>
+      <c r="J124" s="67"/>
+      <c r="K124" s="67"/>
       <c r="L124" s="6">
         <v>33</v>
       </c>
@@ -6068,17 +6068,17 @@
         <v>6</v>
       </c>
       <c r="B125" s="1"/>
-      <c r="C125" s="64" t="s">
+      <c r="C125" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="D125" s="65"/>
-      <c r="E125" s="65"/>
-      <c r="F125" s="65"/>
-      <c r="G125" s="65"/>
-      <c r="H125" s="65"/>
-      <c r="I125" s="65"/>
-      <c r="J125" s="65"/>
-      <c r="K125" s="65"/>
+      <c r="D125" s="67"/>
+      <c r="E125" s="67"/>
+      <c r="F125" s="67"/>
+      <c r="G125" s="67"/>
+      <c r="H125" s="67"/>
+      <c r="I125" s="67"/>
+      <c r="J125" s="67"/>
+      <c r="K125" s="67"/>
       <c r="L125" s="6">
         <v>33</v>
       </c>
@@ -6101,17 +6101,17 @@
         <v>7</v>
       </c>
       <c r="B126" s="1"/>
-      <c r="C126" s="65" t="s">
+      <c r="C126" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="D126" s="65"/>
-      <c r="E126" s="65"/>
-      <c r="F126" s="65"/>
-      <c r="G126" s="65"/>
-      <c r="H126" s="65"/>
-      <c r="I126" s="65"/>
-      <c r="J126" s="65"/>
-      <c r="K126" s="65"/>
+      <c r="D126" s="67"/>
+      <c r="E126" s="67"/>
+      <c r="F126" s="67"/>
+      <c r="G126" s="67"/>
+      <c r="H126" s="67"/>
+      <c r="I126" s="67"/>
+      <c r="J126" s="67"/>
+      <c r="K126" s="67"/>
       <c r="L126" s="6">
         <v>33</v>
       </c>
@@ -6134,17 +6134,17 @@
         <v>8</v>
       </c>
       <c r="B127" s="1"/>
-      <c r="C127" s="64" t="s">
+      <c r="C127" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="D127" s="65"/>
-      <c r="E127" s="65"/>
-      <c r="F127" s="65"/>
-      <c r="G127" s="65"/>
-      <c r="H127" s="65"/>
-      <c r="I127" s="65"/>
-      <c r="J127" s="65"/>
-      <c r="K127" s="65"/>
+      <c r="D127" s="67"/>
+      <c r="E127" s="67"/>
+      <c r="F127" s="67"/>
+      <c r="G127" s="67"/>
+      <c r="H127" s="67"/>
+      <c r="I127" s="67"/>
+      <c r="J127" s="67"/>
+      <c r="K127" s="67"/>
       <c r="L127" s="6">
         <v>33</v>
       </c>
@@ -6167,17 +6167,17 @@
         <v>9</v>
       </c>
       <c r="B128" s="1"/>
-      <c r="C128" s="64" t="s">
+      <c r="C128" s="66" t="s">
         <v>62</v>
       </c>
-      <c r="D128" s="65"/>
-      <c r="E128" s="65"/>
-      <c r="F128" s="65"/>
-      <c r="G128" s="65"/>
-      <c r="H128" s="65"/>
-      <c r="I128" s="65"/>
-      <c r="J128" s="65"/>
-      <c r="K128" s="65"/>
+      <c r="D128" s="67"/>
+      <c r="E128" s="67"/>
+      <c r="F128" s="67"/>
+      <c r="G128" s="67"/>
+      <c r="H128" s="67"/>
+      <c r="I128" s="67"/>
+      <c r="J128" s="67"/>
+      <c r="K128" s="67"/>
       <c r="L128" s="6">
         <v>33</v>
       </c>
@@ -6200,17 +6200,17 @@
         <v>10</v>
       </c>
       <c r="B129" s="1"/>
-      <c r="C129" s="64" t="s">
+      <c r="C129" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="D129" s="65"/>
-      <c r="E129" s="65"/>
-      <c r="F129" s="65"/>
-      <c r="G129" s="65"/>
-      <c r="H129" s="65"/>
-      <c r="I129" s="65"/>
-      <c r="J129" s="65"/>
-      <c r="K129" s="65"/>
+      <c r="D129" s="67"/>
+      <c r="E129" s="67"/>
+      <c r="F129" s="67"/>
+      <c r="G129" s="67"/>
+      <c r="H129" s="67"/>
+      <c r="I129" s="67"/>
+      <c r="J129" s="67"/>
+      <c r="K129" s="67"/>
       <c r="L129" s="6">
         <v>33</v>
       </c>
@@ -6233,17 +6233,17 @@
         <v>11</v>
       </c>
       <c r="B130" s="1"/>
-      <c r="C130" s="64" t="s">
+      <c r="C130" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="D130" s="65"/>
-      <c r="E130" s="65"/>
-      <c r="F130" s="65"/>
-      <c r="G130" s="65"/>
-      <c r="H130" s="65"/>
-      <c r="I130" s="65"/>
-      <c r="J130" s="65"/>
-      <c r="K130" s="65"/>
+      <c r="D130" s="67"/>
+      <c r="E130" s="67"/>
+      <c r="F130" s="67"/>
+      <c r="G130" s="67"/>
+      <c r="H130" s="67"/>
+      <c r="I130" s="67"/>
+      <c r="J130" s="67"/>
+      <c r="K130" s="67"/>
       <c r="L130" s="6">
         <v>33</v>
       </c>
@@ -6266,17 +6266,17 @@
         <v>12</v>
       </c>
       <c r="B131" s="1"/>
-      <c r="C131" s="64" t="s">
+      <c r="C131" s="66" t="s">
         <v>63</v>
       </c>
-      <c r="D131" s="65"/>
-      <c r="E131" s="65"/>
-      <c r="F131" s="65"/>
-      <c r="G131" s="65"/>
-      <c r="H131" s="65"/>
-      <c r="I131" s="65"/>
-      <c r="J131" s="65"/>
-      <c r="K131" s="65"/>
+      <c r="D131" s="67"/>
+      <c r="E131" s="67"/>
+      <c r="F131" s="67"/>
+      <c r="G131" s="67"/>
+      <c r="H131" s="67"/>
+      <c r="I131" s="67"/>
+      <c r="J131" s="67"/>
+      <c r="K131" s="67"/>
       <c r="L131" s="6">
         <v>33</v>
       </c>
@@ -6312,20 +6312,20 @@
         <v>13</v>
       </c>
       <c r="B132" s="1"/>
-      <c r="C132" s="66" t="s">
+      <c r="C132" s="60" t="s">
         <v>58</v>
       </c>
-      <c r="D132" s="67"/>
-      <c r="E132" s="67"/>
-      <c r="F132" s="67"/>
-      <c r="G132" s="67"/>
-      <c r="H132" s="67"/>
-      <c r="I132" s="67"/>
-      <c r="J132" s="67"/>
-      <c r="K132" s="67"/>
-      <c r="L132" s="67"/>
-      <c r="M132" s="67"/>
-      <c r="N132" s="68"/>
+      <c r="D132" s="61"/>
+      <c r="E132" s="61"/>
+      <c r="F132" s="61"/>
+      <c r="G132" s="61"/>
+      <c r="H132" s="61"/>
+      <c r="I132" s="61"/>
+      <c r="J132" s="61"/>
+      <c r="K132" s="61"/>
+      <c r="L132" s="61"/>
+      <c r="M132" s="61"/>
+      <c r="N132" s="62"/>
       <c r="O132" s="11"/>
       <c r="P132" s="12">
         <f>AVERAGE(P120:P131)</f>
@@ -6348,26 +6348,26 @@
       <c r="B133" s="1"/>
     </row>
     <row r="134" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A134" s="69" t="s">
+      <c r="A134" s="63" t="s">
         <v>24</v>
       </c>
-      <c r="B134" s="70"/>
-      <c r="C134" s="70"/>
-      <c r="D134" s="70"/>
-      <c r="E134" s="70"/>
-      <c r="F134" s="70"/>
-      <c r="G134" s="70"/>
-      <c r="H134" s="70"/>
-      <c r="I134" s="70"/>
-      <c r="J134" s="70"/>
-      <c r="K134" s="70"/>
-      <c r="L134" s="70"/>
-      <c r="M134" s="70"/>
-      <c r="N134" s="70"/>
-      <c r="O134" s="70"/>
-      <c r="P134" s="70"/>
-      <c r="Q134" s="70"/>
-      <c r="R134" s="71"/>
+      <c r="B134" s="64"/>
+      <c r="C134" s="64"/>
+      <c r="D134" s="64"/>
+      <c r="E134" s="64"/>
+      <c r="F134" s="64"/>
+      <c r="G134" s="64"/>
+      <c r="H134" s="64"/>
+      <c r="I134" s="64"/>
+      <c r="J134" s="64"/>
+      <c r="K134" s="64"/>
+      <c r="L134" s="64"/>
+      <c r="M134" s="64"/>
+      <c r="N134" s="64"/>
+      <c r="O134" s="64"/>
+      <c r="P134" s="64"/>
+      <c r="Q134" s="64"/>
+      <c r="R134" s="65"/>
       <c r="S134" s="3"/>
       <c r="T134" s="3"/>
       <c r="U134" s="3"/>
@@ -6377,17 +6377,17 @@
         <v>1</v>
       </c>
       <c r="B136" s="5"/>
-      <c r="C136" s="72" t="s">
+      <c r="C136" s="73" t="s">
         <v>56</v>
       </c>
-      <c r="D136" s="72"/>
-      <c r="E136" s="72"/>
-      <c r="F136" s="72"/>
-      <c r="G136" s="72"/>
-      <c r="H136" s="72"/>
-      <c r="I136" s="72"/>
-      <c r="J136" s="72"/>
-      <c r="K136" s="72"/>
+      <c r="D136" s="73"/>
+      <c r="E136" s="73"/>
+      <c r="F136" s="73"/>
+      <c r="G136" s="73"/>
+      <c r="H136" s="73"/>
+      <c r="I136" s="73"/>
+      <c r="J136" s="73"/>
+      <c r="K136" s="73"/>
       <c r="L136" s="5" t="s">
         <v>2</v>
       </c>
@@ -6424,17 +6424,17 @@
         <v>1</v>
       </c>
       <c r="B137" s="1"/>
-      <c r="C137" s="73" t="s">
+      <c r="C137" s="74" t="s">
         <v>65</v>
       </c>
-      <c r="D137" s="73"/>
-      <c r="E137" s="73"/>
-      <c r="F137" s="73"/>
-      <c r="G137" s="73"/>
-      <c r="H137" s="73"/>
-      <c r="I137" s="73"/>
-      <c r="J137" s="73"/>
-      <c r="K137" s="73"/>
+      <c r="D137" s="74"/>
+      <c r="E137" s="74"/>
+      <c r="F137" s="74"/>
+      <c r="G137" s="74"/>
+      <c r="H137" s="74"/>
+      <c r="I137" s="74"/>
+      <c r="J137" s="74"/>
+      <c r="K137" s="74"/>
       <c r="L137" s="6">
         <v>33</v>
       </c>
@@ -6457,17 +6457,17 @@
         <v>2</v>
       </c>
       <c r="B138" s="1"/>
-      <c r="C138" s="64" t="s">
+      <c r="C138" s="66" t="s">
         <v>66</v>
       </c>
-      <c r="D138" s="65"/>
-      <c r="E138" s="65"/>
-      <c r="F138" s="65"/>
-      <c r="G138" s="65"/>
-      <c r="H138" s="65"/>
-      <c r="I138" s="65"/>
-      <c r="J138" s="65"/>
-      <c r="K138" s="65"/>
+      <c r="D138" s="67"/>
+      <c r="E138" s="67"/>
+      <c r="F138" s="67"/>
+      <c r="G138" s="67"/>
+      <c r="H138" s="67"/>
+      <c r="I138" s="67"/>
+      <c r="J138" s="67"/>
+      <c r="K138" s="67"/>
       <c r="L138" s="6">
         <v>33</v>
       </c>
@@ -6490,17 +6490,17 @@
         <v>3</v>
       </c>
       <c r="B139" s="1"/>
-      <c r="C139" s="64" t="s">
+      <c r="C139" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="D139" s="65"/>
-      <c r="E139" s="65"/>
-      <c r="F139" s="65"/>
-      <c r="G139" s="65"/>
-      <c r="H139" s="65"/>
-      <c r="I139" s="65"/>
-      <c r="J139" s="65"/>
-      <c r="K139" s="65"/>
+      <c r="D139" s="67"/>
+      <c r="E139" s="67"/>
+      <c r="F139" s="67"/>
+      <c r="G139" s="67"/>
+      <c r="H139" s="67"/>
+      <c r="I139" s="67"/>
+      <c r="J139" s="67"/>
+      <c r="K139" s="67"/>
       <c r="L139" s="6">
         <v>33</v>
       </c>
@@ -6523,17 +6523,17 @@
         <v>4</v>
       </c>
       <c r="B140" s="1"/>
-      <c r="C140" s="65" t="s">
+      <c r="C140" s="67" t="s">
         <v>26</v>
       </c>
-      <c r="D140" s="65"/>
-      <c r="E140" s="65"/>
-      <c r="F140" s="65"/>
-      <c r="G140" s="65"/>
-      <c r="H140" s="65"/>
-      <c r="I140" s="65"/>
-      <c r="J140" s="65"/>
-      <c r="K140" s="65"/>
+      <c r="D140" s="67"/>
+      <c r="E140" s="67"/>
+      <c r="F140" s="67"/>
+      <c r="G140" s="67"/>
+      <c r="H140" s="67"/>
+      <c r="I140" s="67"/>
+      <c r="J140" s="67"/>
+      <c r="K140" s="67"/>
       <c r="L140" s="6">
         <v>33</v>
       </c>
@@ -6556,17 +6556,17 @@
         <v>5</v>
       </c>
       <c r="B141" s="1"/>
-      <c r="C141" s="64" t="s">
+      <c r="C141" s="66" t="s">
         <v>27</v>
       </c>
-      <c r="D141" s="65"/>
-      <c r="E141" s="65"/>
-      <c r="F141" s="65"/>
-      <c r="G141" s="65"/>
-      <c r="H141" s="65"/>
-      <c r="I141" s="65"/>
-      <c r="J141" s="65"/>
-      <c r="K141" s="65"/>
+      <c r="D141" s="67"/>
+      <c r="E141" s="67"/>
+      <c r="F141" s="67"/>
+      <c r="G141" s="67"/>
+      <c r="H141" s="67"/>
+      <c r="I141" s="67"/>
+      <c r="J141" s="67"/>
+      <c r="K141" s="67"/>
       <c r="L141" s="6">
         <v>33</v>
       </c>
@@ -6589,17 +6589,17 @@
         <v>6</v>
       </c>
       <c r="B142" s="1"/>
-      <c r="C142" s="64" t="s">
+      <c r="C142" s="66" t="s">
         <v>67</v>
       </c>
-      <c r="D142" s="65"/>
-      <c r="E142" s="65"/>
-      <c r="F142" s="65"/>
-      <c r="G142" s="65"/>
-      <c r="H142" s="65"/>
-      <c r="I142" s="65"/>
-      <c r="J142" s="65"/>
-      <c r="K142" s="65"/>
+      <c r="D142" s="67"/>
+      <c r="E142" s="67"/>
+      <c r="F142" s="67"/>
+      <c r="G142" s="67"/>
+      <c r="H142" s="67"/>
+      <c r="I142" s="67"/>
+      <c r="J142" s="67"/>
+      <c r="K142" s="67"/>
       <c r="L142" s="6">
         <v>33</v>
       </c>
@@ -6622,20 +6622,20 @@
         <v>7</v>
       </c>
       <c r="B143" s="1"/>
-      <c r="C143" s="66" t="s">
+      <c r="C143" s="60" t="s">
         <v>58</v>
       </c>
-      <c r="D143" s="67"/>
-      <c r="E143" s="67"/>
-      <c r="F143" s="67"/>
-      <c r="G143" s="67"/>
-      <c r="H143" s="67"/>
-      <c r="I143" s="67"/>
-      <c r="J143" s="67"/>
-      <c r="K143" s="67"/>
-      <c r="L143" s="67"/>
-      <c r="M143" s="67"/>
-      <c r="N143" s="68"/>
+      <c r="D143" s="61"/>
+      <c r="E143" s="61"/>
+      <c r="F143" s="61"/>
+      <c r="G143" s="61"/>
+      <c r="H143" s="61"/>
+      <c r="I143" s="61"/>
+      <c r="J143" s="61"/>
+      <c r="K143" s="61"/>
+      <c r="L143" s="61"/>
+      <c r="M143" s="61"/>
+      <c r="N143" s="62"/>
       <c r="O143" s="11"/>
       <c r="P143" s="12" t="e">
         <f>AVERAGE(P137:P142)</f>
@@ -6655,25 +6655,25 @@
       <c r="B144" s="1"/>
     </row>
     <row r="145" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A145" s="81" t="s">
+      <c r="A145" s="72" t="s">
         <v>28</v>
       </c>
-      <c r="B145" s="81"/>
-      <c r="C145" s="81"/>
-      <c r="D145" s="81"/>
-      <c r="E145" s="81"/>
-      <c r="F145" s="81"/>
-      <c r="G145" s="81"/>
-      <c r="H145" s="81"/>
-      <c r="I145" s="81"/>
-      <c r="J145" s="81"/>
-      <c r="K145" s="81"/>
-      <c r="L145" s="81"/>
-      <c r="M145" s="81"/>
-      <c r="N145" s="81"/>
-      <c r="O145" s="81"/>
-      <c r="P145" s="81"/>
-      <c r="Q145" s="81"/>
+      <c r="B145" s="72"/>
+      <c r="C145" s="72"/>
+      <c r="D145" s="72"/>
+      <c r="E145" s="72"/>
+      <c r="F145" s="72"/>
+      <c r="G145" s="72"/>
+      <c r="H145" s="72"/>
+      <c r="I145" s="72"/>
+      <c r="J145" s="72"/>
+      <c r="K145" s="72"/>
+      <c r="L145" s="72"/>
+      <c r="M145" s="72"/>
+      <c r="N145" s="72"/>
+      <c r="O145" s="72"/>
+      <c r="P145" s="72"/>
+      <c r="Q145" s="72"/>
       <c r="R145"/>
     </row>
     <row r="146" spans="1:18" x14ac:dyDescent="0.3">
@@ -6681,10 +6681,10 @@
         <v>1</v>
       </c>
       <c r="B146" s="16"/>
-      <c r="C146" s="80" t="s">
+      <c r="C146" s="68" t="s">
         <v>68</v>
       </c>
-      <c r="D146" s="80"/>
+      <c r="D146" s="68"/>
       <c r="E146" s="17" t="s">
         <v>69</v>
       </c>
@@ -6731,10 +6731,10 @@
         <v>1</v>
       </c>
       <c r="B147" s="14"/>
-      <c r="C147" s="63" t="s">
+      <c r="C147" s="57" t="s">
         <v>84</v>
       </c>
-      <c r="D147" s="63"/>
+      <c r="D147" s="57"/>
       <c r="E147" s="25">
         <v>51</v>
       </c>
@@ -6781,10 +6781,10 @@
         <v>2</v>
       </c>
       <c r="B148" s="14"/>
-      <c r="C148" s="63" t="s">
+      <c r="C148" s="57" t="s">
         <v>85</v>
       </c>
-      <c r="D148" s="63"/>
+      <c r="D148" s="57"/>
       <c r="E148" s="25">
         <v>47</v>
       </c>
@@ -6831,10 +6831,10 @@
         <v>3</v>
       </c>
       <c r="B149" s="14"/>
-      <c r="C149" s="63" t="s">
+      <c r="C149" s="57" t="s">
         <v>86</v>
       </c>
-      <c r="D149" s="63"/>
+      <c r="D149" s="57"/>
       <c r="E149" s="25">
         <v>51</v>
       </c>
@@ -6881,10 +6881,10 @@
         <v>4</v>
       </c>
       <c r="B150" s="14"/>
-      <c r="C150" s="63" t="s">
+      <c r="C150" s="57" t="s">
         <v>87</v>
       </c>
-      <c r="D150" s="63"/>
+      <c r="D150" s="57"/>
       <c r="E150" s="25">
         <v>52</v>
       </c>
@@ -6931,10 +6931,10 @@
         <v>5</v>
       </c>
       <c r="B151" s="14"/>
-      <c r="C151" s="63" t="s">
+      <c r="C151" s="57" t="s">
         <v>90</v>
       </c>
-      <c r="D151" s="63"/>
+      <c r="D151" s="57"/>
       <c r="E151" s="25">
         <v>60</v>
       </c>
@@ -6981,10 +6981,10 @@
         <v>6</v>
       </c>
       <c r="B152" s="14"/>
-      <c r="C152" s="63" t="s">
+      <c r="C152" s="57" t="s">
         <v>91</v>
       </c>
-      <c r="D152" s="63"/>
+      <c r="D152" s="57"/>
       <c r="E152" s="25">
         <v>56</v>
       </c>
@@ -7031,10 +7031,10 @@
         <v>7</v>
       </c>
       <c r="B153" s="14"/>
-      <c r="C153" s="63" t="s">
+      <c r="C153" s="57" t="s">
         <v>92</v>
       </c>
-      <c r="D153" s="63"/>
+      <c r="D153" s="57"/>
       <c r="E153" s="25">
         <v>56</v>
       </c>
@@ -7081,10 +7081,10 @@
         <v>8</v>
       </c>
       <c r="B154" s="14"/>
-      <c r="C154" s="63" t="s">
+      <c r="C154" s="57" t="s">
         <v>93</v>
       </c>
-      <c r="D154" s="63"/>
+      <c r="D154" s="57"/>
       <c r="E154" s="25">
         <v>56</v>
       </c>
@@ -7129,10 +7129,10 @@
     <row r="155" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A155" s="14"/>
       <c r="B155" s="14"/>
-      <c r="C155" s="74" t="s">
+      <c r="C155" s="58" t="s">
         <v>98</v>
       </c>
-      <c r="D155" s="74"/>
+      <c r="D155" s="58"/>
       <c r="E155" s="25">
         <f t="shared" ref="E155:O155" si="11">AVERAGE(E147:E154)</f>
         <v>53.625</v>
@@ -7194,25 +7194,25 @@
       <c r="R157"/>
     </row>
     <row r="158" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A158" s="79" t="s">
+      <c r="A158" s="75" t="s">
         <v>99</v>
       </c>
-      <c r="B158" s="79"/>
-      <c r="C158" s="79"/>
-      <c r="D158" s="79"/>
-      <c r="E158" s="79"/>
-      <c r="F158" s="79"/>
-      <c r="G158" s="79"/>
-      <c r="H158" s="79"/>
-      <c r="I158" s="79"/>
-      <c r="J158" s="79"/>
-      <c r="K158" s="79"/>
-      <c r="L158" s="79"/>
-      <c r="M158" s="79"/>
-      <c r="N158" s="79"/>
-      <c r="O158" s="79"/>
-      <c r="P158" s="79"/>
-      <c r="Q158" s="79"/>
+      <c r="B158" s="75"/>
+      <c r="C158" s="75"/>
+      <c r="D158" s="75"/>
+      <c r="E158" s="75"/>
+      <c r="F158" s="75"/>
+      <c r="G158" s="75"/>
+      <c r="H158" s="75"/>
+      <c r="I158" s="75"/>
+      <c r="J158" s="75"/>
+      <c r="K158" s="75"/>
+      <c r="L158" s="75"/>
+      <c r="M158" s="75"/>
+      <c r="N158" s="75"/>
+      <c r="O158" s="75"/>
+      <c r="P158" s="75"/>
+      <c r="Q158" s="75"/>
       <c r="R158"/>
     </row>
     <row r="159" spans="1:18" x14ac:dyDescent="0.3">
@@ -7220,10 +7220,10 @@
         <v>1</v>
       </c>
       <c r="B159" s="16"/>
-      <c r="C159" s="80" t="s">
+      <c r="C159" s="68" t="s">
         <v>68</v>
       </c>
-      <c r="D159" s="80"/>
+      <c r="D159" s="68"/>
       <c r="E159" s="17" t="s">
         <v>69</v>
       </c>
@@ -7270,10 +7270,10 @@
         <v>1</v>
       </c>
       <c r="B160" s="14"/>
-      <c r="C160" s="63" t="s">
+      <c r="C160" s="57" t="s">
         <v>94</v>
       </c>
-      <c r="D160" s="63"/>
+      <c r="D160" s="57"/>
       <c r="E160" s="25">
         <v>58</v>
       </c>
@@ -7320,10 +7320,10 @@
         <v>2</v>
       </c>
       <c r="B161" s="14"/>
-      <c r="C161" s="63" t="s">
+      <c r="C161" s="57" t="s">
         <v>95</v>
       </c>
-      <c r="D161" s="63"/>
+      <c r="D161" s="57"/>
       <c r="E161" s="25">
         <v>60</v>
       </c>
@@ -7370,10 +7370,10 @@
         <v>3</v>
       </c>
       <c r="B162" s="14"/>
-      <c r="C162" s="63" t="s">
+      <c r="C162" s="57" t="s">
         <v>96</v>
       </c>
-      <c r="D162" s="63"/>
+      <c r="D162" s="57"/>
       <c r="E162" s="25">
         <v>59</v>
       </c>
@@ -7419,10 +7419,10 @@
         <v>4</v>
       </c>
       <c r="B163" s="14"/>
-      <c r="C163" s="63" t="s">
+      <c r="C163" s="57" t="s">
         <v>97</v>
       </c>
-      <c r="D163" s="63"/>
+      <c r="D163" s="57"/>
       <c r="E163" s="25">
         <v>56</v>
       </c>
@@ -7464,10 +7464,10 @@
       </c>
     </row>
     <row r="164" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="C164" s="74" t="s">
+      <c r="C164" s="58" t="s">
         <v>98</v>
       </c>
-      <c r="D164" s="74"/>
+      <c r="D164" s="58"/>
       <c r="E164" s="25">
         <f t="shared" ref="E164:O164" si="12">AVERAGE(E160:E163)</f>
         <v>58.25</v>
@@ -7522,103 +7522,103 @@
       </c>
     </row>
     <row r="170" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A170" s="75" t="s">
+      <c r="A170" s="59" t="s">
         <v>106</v>
       </c>
-      <c r="B170" s="75"/>
-      <c r="C170" s="75"/>
-      <c r="D170" s="75"/>
-      <c r="E170" s="75"/>
-      <c r="F170" s="75"/>
-      <c r="G170" s="75"/>
-      <c r="H170" s="75"/>
-      <c r="I170" s="75"/>
-      <c r="J170" s="75"/>
-      <c r="K170" s="75"/>
-      <c r="L170" s="75"/>
-      <c r="M170" s="75"/>
-      <c r="N170" s="75"/>
-      <c r="O170" s="75"/>
-      <c r="P170" s="75"/>
-      <c r="Q170" s="75"/>
-      <c r="R170" s="75"/>
-      <c r="S170" s="75"/>
-      <c r="T170" s="75"/>
-      <c r="U170" s="75"/>
-      <c r="V170" s="75"/>
-      <c r="W170" s="75"/>
+      <c r="B170" s="59"/>
+      <c r="C170" s="59"/>
+      <c r="D170" s="59"/>
+      <c r="E170" s="59"/>
+      <c r="F170" s="59"/>
+      <c r="G170" s="59"/>
+      <c r="H170" s="59"/>
+      <c r="I170" s="59"/>
+      <c r="J170" s="59"/>
+      <c r="K170" s="59"/>
+      <c r="L170" s="59"/>
+      <c r="M170" s="59"/>
+      <c r="N170" s="59"/>
+      <c r="O170" s="59"/>
+      <c r="P170" s="59"/>
+      <c r="Q170" s="59"/>
+      <c r="R170" s="59"/>
+      <c r="S170" s="59"/>
+      <c r="T170" s="59"/>
+      <c r="U170" s="59"/>
+      <c r="V170" s="59"/>
+      <c r="W170" s="59"/>
     </row>
     <row r="171" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A171" s="75"/>
-      <c r="B171" s="75"/>
-      <c r="C171" s="75"/>
-      <c r="D171" s="75"/>
-      <c r="E171" s="75"/>
-      <c r="F171" s="75"/>
-      <c r="G171" s="75"/>
-      <c r="H171" s="75"/>
-      <c r="I171" s="75"/>
-      <c r="J171" s="75"/>
-      <c r="K171" s="75"/>
-      <c r="L171" s="75"/>
-      <c r="M171" s="75"/>
-      <c r="N171" s="75"/>
-      <c r="O171" s="75"/>
-      <c r="P171" s="75"/>
-      <c r="Q171" s="75"/>
-      <c r="R171" s="75"/>
-      <c r="S171" s="75"/>
-      <c r="T171" s="75"/>
-      <c r="U171" s="75"/>
-      <c r="V171" s="75"/>
-      <c r="W171" s="75"/>
+      <c r="A171" s="59"/>
+      <c r="B171" s="59"/>
+      <c r="C171" s="59"/>
+      <c r="D171" s="59"/>
+      <c r="E171" s="59"/>
+      <c r="F171" s="59"/>
+      <c r="G171" s="59"/>
+      <c r="H171" s="59"/>
+      <c r="I171" s="59"/>
+      <c r="J171" s="59"/>
+      <c r="K171" s="59"/>
+      <c r="L171" s="59"/>
+      <c r="M171" s="59"/>
+      <c r="N171" s="59"/>
+      <c r="O171" s="59"/>
+      <c r="P171" s="59"/>
+      <c r="Q171" s="59"/>
+      <c r="R171" s="59"/>
+      <c r="S171" s="59"/>
+      <c r="T171" s="59"/>
+      <c r="U171" s="59"/>
+      <c r="V171" s="59"/>
+      <c r="W171" s="59"/>
     </row>
     <row r="172" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A172" s="75"/>
-      <c r="B172" s="75"/>
-      <c r="C172" s="75"/>
-      <c r="D172" s="75"/>
-      <c r="E172" s="75"/>
-      <c r="F172" s="75"/>
-      <c r="G172" s="75"/>
-      <c r="H172" s="75"/>
-      <c r="I172" s="75"/>
-      <c r="J172" s="75"/>
-      <c r="K172" s="75"/>
-      <c r="L172" s="75"/>
-      <c r="M172" s="75"/>
-      <c r="N172" s="75"/>
-      <c r="O172" s="75"/>
-      <c r="P172" s="75"/>
-      <c r="Q172" s="75"/>
-      <c r="R172" s="75"/>
-      <c r="S172" s="75"/>
-      <c r="T172" s="75"/>
-      <c r="U172" s="75"/>
-      <c r="V172" s="75"/>
-      <c r="W172" s="75"/>
+      <c r="A172" s="59"/>
+      <c r="B172" s="59"/>
+      <c r="C172" s="59"/>
+      <c r="D172" s="59"/>
+      <c r="E172" s="59"/>
+      <c r="F172" s="59"/>
+      <c r="G172" s="59"/>
+      <c r="H172" s="59"/>
+      <c r="I172" s="59"/>
+      <c r="J172" s="59"/>
+      <c r="K172" s="59"/>
+      <c r="L172" s="59"/>
+      <c r="M172" s="59"/>
+      <c r="N172" s="59"/>
+      <c r="O172" s="59"/>
+      <c r="P172" s="59"/>
+      <c r="Q172" s="59"/>
+      <c r="R172" s="59"/>
+      <c r="S172" s="59"/>
+      <c r="T172" s="59"/>
+      <c r="U172" s="59"/>
+      <c r="V172" s="59"/>
+      <c r="W172" s="59"/>
     </row>
     <row r="173" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A173" s="76" t="s">
+      <c r="A173" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="B173" s="77"/>
-      <c r="C173" s="77"/>
-      <c r="D173" s="77"/>
-      <c r="E173" s="77"/>
-      <c r="F173" s="77"/>
-      <c r="G173" s="77"/>
-      <c r="H173" s="77"/>
-      <c r="I173" s="77"/>
-      <c r="J173" s="77"/>
-      <c r="K173" s="77"/>
-      <c r="L173" s="77"/>
-      <c r="M173" s="77"/>
-      <c r="N173" s="77"/>
-      <c r="O173" s="77"/>
-      <c r="P173" s="77"/>
-      <c r="Q173" s="77"/>
-      <c r="R173" s="78"/>
+      <c r="B173" s="70"/>
+      <c r="C173" s="70"/>
+      <c r="D173" s="70"/>
+      <c r="E173" s="70"/>
+      <c r="F173" s="70"/>
+      <c r="G173" s="70"/>
+      <c r="H173" s="70"/>
+      <c r="I173" s="70"/>
+      <c r="J173" s="70"/>
+      <c r="K173" s="70"/>
+      <c r="L173" s="70"/>
+      <c r="M173" s="70"/>
+      <c r="N173" s="70"/>
+      <c r="O173" s="70"/>
+      <c r="P173" s="70"/>
+      <c r="Q173" s="70"/>
+      <c r="R173" s="71"/>
       <c r="S173" s="38"/>
       <c r="T173" s="38"/>
       <c r="U173" s="38"/>
@@ -7634,17 +7634,17 @@
       <c r="B175" s="46" t="s">
         <v>105</v>
       </c>
-      <c r="C175" s="60" t="s">
+      <c r="C175" s="90" t="s">
         <v>108</v>
       </c>
-      <c r="D175" s="61"/>
-      <c r="E175" s="61"/>
-      <c r="F175" s="61"/>
-      <c r="G175" s="61"/>
-      <c r="H175" s="61"/>
-      <c r="I175" s="61"/>
-      <c r="J175" s="61"/>
-      <c r="K175" s="62"/>
+      <c r="D175" s="91"/>
+      <c r="E175" s="91"/>
+      <c r="F175" s="91"/>
+      <c r="G175" s="91"/>
+      <c r="H175" s="91"/>
+      <c r="I175" s="91"/>
+      <c r="J175" s="91"/>
+      <c r="K175" s="92"/>
       <c r="L175" s="5" t="s">
         <v>2</v>
       </c>
@@ -7684,17 +7684,17 @@
       <c r="B176" s="48">
         <v>44741</v>
       </c>
-      <c r="C176" s="54" t="s">
+      <c r="C176" s="83" t="s">
         <v>43</v>
       </c>
-      <c r="D176" s="55"/>
-      <c r="E176" s="55"/>
-      <c r="F176" s="55"/>
-      <c r="G176" s="55"/>
-      <c r="H176" s="55"/>
-      <c r="I176" s="55"/>
-      <c r="J176" s="55"/>
-      <c r="K176" s="56"/>
+      <c r="D176" s="84"/>
+      <c r="E176" s="84"/>
+      <c r="F176" s="84"/>
+      <c r="G176" s="84"/>
+      <c r="H176" s="84"/>
+      <c r="I176" s="84"/>
+      <c r="J176" s="84"/>
+      <c r="K176" s="85"/>
       <c r="L176" s="6">
         <v>17</v>
       </c>
@@ -7734,17 +7734,17 @@
       <c r="B177" s="48">
         <v>44740</v>
       </c>
-      <c r="C177" s="57" t="s">
+      <c r="C177" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="D177" s="58"/>
-      <c r="E177" s="58"/>
-      <c r="F177" s="58"/>
-      <c r="G177" s="58"/>
-      <c r="H177" s="58"/>
-      <c r="I177" s="58"/>
-      <c r="J177" s="58"/>
-      <c r="K177" s="59"/>
+      <c r="D177" s="88"/>
+      <c r="E177" s="88"/>
+      <c r="F177" s="88"/>
+      <c r="G177" s="88"/>
+      <c r="H177" s="88"/>
+      <c r="I177" s="88"/>
+      <c r="J177" s="88"/>
+      <c r="K177" s="89"/>
       <c r="L177" s="6">
         <v>17</v>
       </c>
@@ -7784,17 +7784,17 @@
       <c r="B178" s="48">
         <v>44765</v>
       </c>
-      <c r="C178" s="57" t="s">
+      <c r="C178" s="87" t="s">
         <v>11</v>
       </c>
-      <c r="D178" s="58"/>
-      <c r="E178" s="58"/>
-      <c r="F178" s="58"/>
-      <c r="G178" s="58"/>
-      <c r="H178" s="58"/>
-      <c r="I178" s="58"/>
-      <c r="J178" s="58"/>
-      <c r="K178" s="59"/>
+      <c r="D178" s="88"/>
+      <c r="E178" s="88"/>
+      <c r="F178" s="88"/>
+      <c r="G178" s="88"/>
+      <c r="H178" s="88"/>
+      <c r="I178" s="88"/>
+      <c r="J178" s="88"/>
+      <c r="K178" s="89"/>
       <c r="L178" s="6">
         <v>17</v>
       </c>
@@ -7834,17 +7834,17 @@
       <c r="B179" s="48">
         <v>44766</v>
       </c>
-      <c r="C179" s="54" t="s">
+      <c r="C179" s="83" t="s">
         <v>48</v>
       </c>
-      <c r="D179" s="55"/>
-      <c r="E179" s="55"/>
-      <c r="F179" s="55"/>
-      <c r="G179" s="55"/>
-      <c r="H179" s="55"/>
-      <c r="I179" s="55"/>
-      <c r="J179" s="55"/>
-      <c r="K179" s="56"/>
+      <c r="D179" s="84"/>
+      <c r="E179" s="84"/>
+      <c r="F179" s="84"/>
+      <c r="G179" s="84"/>
+      <c r="H179" s="84"/>
+      <c r="I179" s="84"/>
+      <c r="J179" s="84"/>
+      <c r="K179" s="85"/>
       <c r="L179" s="6">
         <v>17</v>
       </c>
@@ -7884,17 +7884,17 @@
       <c r="B180" s="48">
         <v>44797</v>
       </c>
-      <c r="C180" s="54" t="s">
+      <c r="C180" s="83" t="s">
         <v>45</v>
       </c>
-      <c r="D180" s="55"/>
-      <c r="E180" s="55"/>
-      <c r="F180" s="55"/>
-      <c r="G180" s="55"/>
-      <c r="H180" s="55"/>
-      <c r="I180" s="55"/>
-      <c r="J180" s="55"/>
-      <c r="K180" s="56"/>
+      <c r="D180" s="84"/>
+      <c r="E180" s="84"/>
+      <c r="F180" s="84"/>
+      <c r="G180" s="84"/>
+      <c r="H180" s="84"/>
+      <c r="I180" s="84"/>
+      <c r="J180" s="84"/>
+      <c r="K180" s="85"/>
       <c r="L180" s="6">
         <v>17</v>
       </c>
@@ -7934,17 +7934,17 @@
       <c r="B181" s="48">
         <v>44797</v>
       </c>
-      <c r="C181" s="54" t="s">
+      <c r="C181" s="83" t="s">
         <v>46</v>
       </c>
-      <c r="D181" s="55"/>
-      <c r="E181" s="55"/>
-      <c r="F181" s="55"/>
-      <c r="G181" s="55"/>
-      <c r="H181" s="55"/>
-      <c r="I181" s="55"/>
-      <c r="J181" s="55"/>
-      <c r="K181" s="56"/>
+      <c r="D181" s="84"/>
+      <c r="E181" s="84"/>
+      <c r="F181" s="84"/>
+      <c r="G181" s="84"/>
+      <c r="H181" s="84"/>
+      <c r="I181" s="84"/>
+      <c r="J181" s="84"/>
+      <c r="K181" s="85"/>
       <c r="L181" s="6">
         <v>17</v>
       </c>
@@ -7982,17 +7982,17 @@
         <v>15</v>
       </c>
       <c r="B182" s="48"/>
-      <c r="C182" s="54" t="s">
+      <c r="C182" s="83" t="s">
         <v>36</v>
       </c>
-      <c r="D182" s="55"/>
-      <c r="E182" s="55"/>
-      <c r="F182" s="55"/>
-      <c r="G182" s="55"/>
-      <c r="H182" s="55"/>
-      <c r="I182" s="55"/>
-      <c r="J182" s="55"/>
-      <c r="K182" s="56"/>
+      <c r="D182" s="84"/>
+      <c r="E182" s="84"/>
+      <c r="F182" s="84"/>
+      <c r="G182" s="84"/>
+      <c r="H182" s="84"/>
+      <c r="I182" s="84"/>
+      <c r="J182" s="84"/>
+      <c r="K182" s="85"/>
       <c r="L182" s="6">
         <v>17</v>
       </c>
@@ -8032,17 +8032,17 @@
       <c r="B183" s="48">
         <v>44813</v>
       </c>
-      <c r="C183" s="54" t="s">
+      <c r="C183" s="83" t="s">
         <v>37</v>
       </c>
-      <c r="D183" s="55"/>
-      <c r="E183" s="55"/>
-      <c r="F183" s="55"/>
-      <c r="G183" s="55"/>
-      <c r="H183" s="55"/>
-      <c r="I183" s="55"/>
-      <c r="J183" s="55"/>
-      <c r="K183" s="56"/>
+      <c r="D183" s="84"/>
+      <c r="E183" s="84"/>
+      <c r="F183" s="84"/>
+      <c r="G183" s="84"/>
+      <c r="H183" s="84"/>
+      <c r="I183" s="84"/>
+      <c r="J183" s="84"/>
+      <c r="K183" s="85"/>
       <c r="L183" s="6">
         <v>17</v>
       </c>
@@ -8082,17 +8082,17 @@
       <c r="B184" s="48">
         <v>44822</v>
       </c>
-      <c r="C184" s="54" t="s">
+      <c r="C184" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="D184" s="55"/>
-      <c r="E184" s="55"/>
-      <c r="F184" s="55"/>
-      <c r="G184" s="55"/>
-      <c r="H184" s="55"/>
-      <c r="I184" s="55"/>
-      <c r="J184" s="55"/>
-      <c r="K184" s="56"/>
+      <c r="D184" s="84"/>
+      <c r="E184" s="84"/>
+      <c r="F184" s="84"/>
+      <c r="G184" s="84"/>
+      <c r="H184" s="84"/>
+      <c r="I184" s="84"/>
+      <c r="J184" s="84"/>
+      <c r="K184" s="85"/>
       <c r="L184" s="6">
         <v>17</v>
       </c>
@@ -8132,17 +8132,17 @@
       <c r="B185" s="48">
         <v>44822</v>
       </c>
-      <c r="C185" s="54" t="s">
+      <c r="C185" s="83" t="s">
         <v>40</v>
       </c>
-      <c r="D185" s="55"/>
-      <c r="E185" s="55"/>
-      <c r="F185" s="55"/>
-      <c r="G185" s="55"/>
-      <c r="H185" s="55"/>
-      <c r="I185" s="55"/>
-      <c r="J185" s="55"/>
-      <c r="K185" s="56"/>
+      <c r="D185" s="84"/>
+      <c r="E185" s="84"/>
+      <c r="F185" s="84"/>
+      <c r="G185" s="84"/>
+      <c r="H185" s="84"/>
+      <c r="I185" s="84"/>
+      <c r="J185" s="84"/>
+      <c r="K185" s="85"/>
       <c r="L185" s="6">
         <v>17</v>
       </c>
@@ -8182,17 +8182,17 @@
       <c r="B186" s="48">
         <v>44830</v>
       </c>
-      <c r="C186" s="57" t="s">
+      <c r="C186" s="87" t="s">
         <v>7</v>
       </c>
-      <c r="D186" s="58"/>
-      <c r="E186" s="58"/>
-      <c r="F186" s="58"/>
-      <c r="G186" s="58"/>
-      <c r="H186" s="58"/>
-      <c r="I186" s="58"/>
-      <c r="J186" s="58"/>
-      <c r="K186" s="59"/>
+      <c r="D186" s="88"/>
+      <c r="E186" s="88"/>
+      <c r="F186" s="88"/>
+      <c r="G186" s="88"/>
+      <c r="H186" s="88"/>
+      <c r="I186" s="88"/>
+      <c r="J186" s="88"/>
+      <c r="K186" s="89"/>
       <c r="L186" s="6">
         <v>17</v>
       </c>
@@ -8220,17 +8220,17 @@
       <c r="B187" s="48">
         <v>44831</v>
       </c>
-      <c r="C187" s="54" t="s">
+      <c r="C187" s="83" t="s">
         <v>38</v>
       </c>
-      <c r="D187" s="55"/>
-      <c r="E187" s="55"/>
-      <c r="F187" s="55"/>
-      <c r="G187" s="55"/>
-      <c r="H187" s="55"/>
-      <c r="I187" s="55"/>
-      <c r="J187" s="55"/>
-      <c r="K187" s="56"/>
+      <c r="D187" s="84"/>
+      <c r="E187" s="84"/>
+      <c r="F187" s="84"/>
+      <c r="G187" s="84"/>
+      <c r="H187" s="84"/>
+      <c r="I187" s="84"/>
+      <c r="J187" s="84"/>
+      <c r="K187" s="85"/>
       <c r="L187" s="6">
         <v>17</v>
       </c>
@@ -8258,17 +8258,17 @@
       <c r="B188" s="48">
         <v>44841</v>
       </c>
-      <c r="C188" s="57" t="s">
+      <c r="C188" s="87" t="s">
         <v>5</v>
       </c>
-      <c r="D188" s="58"/>
-      <c r="E188" s="58"/>
-      <c r="F188" s="58"/>
-      <c r="G188" s="58"/>
-      <c r="H188" s="58"/>
-      <c r="I188" s="58"/>
-      <c r="J188" s="58"/>
-      <c r="K188" s="59"/>
+      <c r="D188" s="88"/>
+      <c r="E188" s="88"/>
+      <c r="F188" s="88"/>
+      <c r="G188" s="88"/>
+      <c r="H188" s="88"/>
+      <c r="I188" s="88"/>
+      <c r="J188" s="88"/>
+      <c r="K188" s="89"/>
       <c r="L188" s="6">
         <v>17</v>
       </c>
@@ -8296,17 +8296,17 @@
       <c r="B189" s="48">
         <v>44841</v>
       </c>
-      <c r="C189" s="54" t="s">
+      <c r="C189" s="83" t="s">
         <v>33</v>
       </c>
-      <c r="D189" s="55"/>
-      <c r="E189" s="55"/>
-      <c r="F189" s="55"/>
-      <c r="G189" s="55"/>
-      <c r="H189" s="55"/>
-      <c r="I189" s="55"/>
-      <c r="J189" s="55"/>
-      <c r="K189" s="56"/>
+      <c r="D189" s="84"/>
+      <c r="E189" s="84"/>
+      <c r="F189" s="84"/>
+      <c r="G189" s="84"/>
+      <c r="H189" s="84"/>
+      <c r="I189" s="84"/>
+      <c r="J189" s="84"/>
+      <c r="K189" s="85"/>
       <c r="L189" s="6">
         <v>17</v>
       </c>
@@ -8334,17 +8334,17 @@
       <c r="B190" s="48">
         <v>44846</v>
       </c>
-      <c r="C190" s="57" t="s">
+      <c r="C190" s="87" t="s">
         <v>9</v>
       </c>
-      <c r="D190" s="58"/>
-      <c r="E190" s="58"/>
-      <c r="F190" s="58"/>
-      <c r="G190" s="58"/>
-      <c r="H190" s="58"/>
-      <c r="I190" s="58"/>
-      <c r="J190" s="58"/>
-      <c r="K190" s="59"/>
+      <c r="D190" s="88"/>
+      <c r="E190" s="88"/>
+      <c r="F190" s="88"/>
+      <c r="G190" s="88"/>
+      <c r="H190" s="88"/>
+      <c r="I190" s="88"/>
+      <c r="J190" s="88"/>
+      <c r="K190" s="89"/>
       <c r="L190" s="6">
         <v>17</v>
       </c>
@@ -8372,17 +8372,17 @@
       <c r="B191" s="48">
         <v>44846</v>
       </c>
-      <c r="C191" s="57" t="s">
+      <c r="C191" s="87" t="s">
         <v>44</v>
       </c>
-      <c r="D191" s="58"/>
-      <c r="E191" s="58"/>
-      <c r="F191" s="58"/>
-      <c r="G191" s="58"/>
-      <c r="H191" s="58"/>
-      <c r="I191" s="58"/>
-      <c r="J191" s="58"/>
-      <c r="K191" s="59"/>
+      <c r="D191" s="88"/>
+      <c r="E191" s="88"/>
+      <c r="F191" s="88"/>
+      <c r="G191" s="88"/>
+      <c r="H191" s="88"/>
+      <c r="I191" s="88"/>
+      <c r="J191" s="88"/>
+      <c r="K191" s="89"/>
       <c r="L191" s="6">
         <v>17</v>
       </c>
@@ -8410,17 +8410,17 @@
       <c r="B192" s="48">
         <v>44856</v>
       </c>
-      <c r="C192" s="54" t="s">
+      <c r="C192" s="83" t="s">
         <v>34</v>
       </c>
-      <c r="D192" s="55"/>
-      <c r="E192" s="55"/>
-      <c r="F192" s="55"/>
-      <c r="G192" s="55"/>
-      <c r="H192" s="55"/>
-      <c r="I192" s="55"/>
-      <c r="J192" s="55"/>
-      <c r="K192" s="56"/>
+      <c r="D192" s="84"/>
+      <c r="E192" s="84"/>
+      <c r="F192" s="84"/>
+      <c r="G192" s="84"/>
+      <c r="H192" s="84"/>
+      <c r="I192" s="84"/>
+      <c r="J192" s="84"/>
+      <c r="K192" s="85"/>
       <c r="L192" s="6">
         <v>17</v>
       </c>
@@ -8448,17 +8448,17 @@
       <c r="B193" s="48">
         <v>44856</v>
       </c>
-      <c r="C193" s="57" t="s">
+      <c r="C193" s="87" t="s">
         <v>35</v>
       </c>
-      <c r="D193" s="58"/>
-      <c r="E193" s="58"/>
-      <c r="F193" s="58"/>
-      <c r="G193" s="58"/>
-      <c r="H193" s="58"/>
-      <c r="I193" s="58"/>
-      <c r="J193" s="58"/>
-      <c r="K193" s="59"/>
+      <c r="D193" s="88"/>
+      <c r="E193" s="88"/>
+      <c r="F193" s="88"/>
+      <c r="G193" s="88"/>
+      <c r="H193" s="88"/>
+      <c r="I193" s="88"/>
+      <c r="J193" s="88"/>
+      <c r="K193" s="89"/>
       <c r="L193" s="6">
         <v>17</v>
       </c>
@@ -8486,17 +8486,17 @@
       <c r="B194" s="48">
         <v>44863</v>
       </c>
-      <c r="C194" s="57" t="s">
+      <c r="C194" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="D194" s="58"/>
-      <c r="E194" s="58"/>
-      <c r="F194" s="58"/>
-      <c r="G194" s="58"/>
-      <c r="H194" s="58"/>
-      <c r="I194" s="58"/>
-      <c r="J194" s="58"/>
-      <c r="K194" s="59"/>
+      <c r="D194" s="88"/>
+      <c r="E194" s="88"/>
+      <c r="F194" s="88"/>
+      <c r="G194" s="88"/>
+      <c r="H194" s="88"/>
+      <c r="I194" s="88"/>
+      <c r="J194" s="88"/>
+      <c r="K194" s="89"/>
       <c r="L194" s="6">
         <v>17</v>
       </c>
@@ -8524,17 +8524,17 @@
       <c r="B195" s="48">
         <v>44864</v>
       </c>
-      <c r="C195" s="54" t="s">
+      <c r="C195" s="83" t="s">
         <v>49</v>
       </c>
-      <c r="D195" s="58"/>
-      <c r="E195" s="58"/>
-      <c r="F195" s="58"/>
-      <c r="G195" s="58"/>
-      <c r="H195" s="58"/>
-      <c r="I195" s="58"/>
-      <c r="J195" s="58"/>
-      <c r="K195" s="59"/>
+      <c r="D195" s="88"/>
+      <c r="E195" s="88"/>
+      <c r="F195" s="88"/>
+      <c r="G195" s="88"/>
+      <c r="H195" s="88"/>
+      <c r="I195" s="88"/>
+      <c r="J195" s="88"/>
+      <c r="K195" s="89"/>
       <c r="L195" s="6">
         <v>17</v>
       </c>
@@ -8562,17 +8562,17 @@
       <c r="B196" s="48">
         <v>44875</v>
       </c>
-      <c r="C196" s="57" t="s">
+      <c r="C196" s="87" t="s">
         <v>10</v>
       </c>
-      <c r="D196" s="58"/>
-      <c r="E196" s="58"/>
-      <c r="F196" s="58"/>
-      <c r="G196" s="58"/>
-      <c r="H196" s="58"/>
-      <c r="I196" s="58"/>
-      <c r="J196" s="58"/>
-      <c r="K196" s="59"/>
+      <c r="D196" s="88"/>
+      <c r="E196" s="88"/>
+      <c r="F196" s="88"/>
+      <c r="G196" s="88"/>
+      <c r="H196" s="88"/>
+      <c r="I196" s="88"/>
+      <c r="J196" s="88"/>
+      <c r="K196" s="89"/>
       <c r="L196" s="6">
         <v>17</v>
       </c>
@@ -8600,17 +8600,17 @@
       <c r="B197" s="48">
         <v>44875</v>
       </c>
-      <c r="C197" s="57" t="s">
+      <c r="C197" s="87" t="s">
         <v>47</v>
       </c>
-      <c r="D197" s="58"/>
-      <c r="E197" s="58"/>
-      <c r="F197" s="58"/>
-      <c r="G197" s="58"/>
-      <c r="H197" s="58"/>
-      <c r="I197" s="58"/>
-      <c r="J197" s="58"/>
-      <c r="K197" s="59"/>
+      <c r="D197" s="88"/>
+      <c r="E197" s="88"/>
+      <c r="F197" s="88"/>
+      <c r="G197" s="88"/>
+      <c r="H197" s="88"/>
+      <c r="I197" s="88"/>
+      <c r="J197" s="88"/>
+      <c r="K197" s="89"/>
       <c r="L197" s="6">
         <v>17</v>
       </c>
@@ -8636,17 +8636,17 @@
         <v>23</v>
       </c>
       <c r="B198" s="48"/>
-      <c r="C198" s="54" t="s">
+      <c r="C198" s="83" t="s">
         <v>41</v>
       </c>
-      <c r="D198" s="55"/>
-      <c r="E198" s="55"/>
-      <c r="F198" s="55"/>
-      <c r="G198" s="55"/>
-      <c r="H198" s="55"/>
-      <c r="I198" s="55"/>
-      <c r="J198" s="55"/>
-      <c r="K198" s="56"/>
+      <c r="D198" s="84"/>
+      <c r="E198" s="84"/>
+      <c r="F198" s="84"/>
+      <c r="G198" s="84"/>
+      <c r="H198" s="84"/>
+      <c r="I198" s="84"/>
+      <c r="J198" s="84"/>
+      <c r="K198" s="85"/>
       <c r="L198" s="6">
         <v>17</v>
       </c>
@@ -8672,17 +8672,17 @@
         <v>24</v>
       </c>
       <c r="B199" s="48"/>
-      <c r="C199" s="54" t="s">
+      <c r="C199" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="D199" s="55"/>
-      <c r="E199" s="55"/>
-      <c r="F199" s="55"/>
-      <c r="G199" s="55"/>
-      <c r="H199" s="55"/>
-      <c r="I199" s="55"/>
-      <c r="J199" s="55"/>
-      <c r="K199" s="56"/>
+      <c r="D199" s="84"/>
+      <c r="E199" s="84"/>
+      <c r="F199" s="84"/>
+      <c r="G199" s="84"/>
+      <c r="H199" s="84"/>
+      <c r="I199" s="84"/>
+      <c r="J199" s="84"/>
+      <c r="K199" s="85"/>
       <c r="L199" s="6">
         <v>17</v>
       </c>
@@ -8708,20 +8708,20 @@
         <v>25</v>
       </c>
       <c r="B200" s="47"/>
-      <c r="C200" s="66" t="s">
+      <c r="C200" s="60" t="s">
         <v>58</v>
       </c>
-      <c r="D200" s="67"/>
-      <c r="E200" s="67"/>
-      <c r="F200" s="67"/>
-      <c r="G200" s="67"/>
-      <c r="H200" s="67"/>
-      <c r="I200" s="67"/>
-      <c r="J200" s="67"/>
-      <c r="K200" s="67"/>
-      <c r="L200" s="67"/>
-      <c r="M200" s="67"/>
-      <c r="N200" s="68"/>
+      <c r="D200" s="61"/>
+      <c r="E200" s="61"/>
+      <c r="F200" s="61"/>
+      <c r="G200" s="61"/>
+      <c r="H200" s="61"/>
+      <c r="I200" s="61"/>
+      <c r="J200" s="61"/>
+      <c r="K200" s="61"/>
+      <c r="L200" s="61"/>
+      <c r="M200" s="61"/>
+      <c r="N200" s="62"/>
       <c r="O200" s="11"/>
       <c r="P200" s="12">
         <f>AVERAGE(P176:P199)</f>
@@ -8758,26 +8758,26 @@
       <c r="R202"/>
     </row>
     <row r="203" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A203" s="82" t="s">
+      <c r="A203" s="76" t="s">
         <v>13</v>
       </c>
-      <c r="B203" s="83"/>
-      <c r="C203" s="83"/>
-      <c r="D203" s="83"/>
-      <c r="E203" s="83"/>
-      <c r="F203" s="83"/>
-      <c r="G203" s="83"/>
-      <c r="H203" s="83"/>
-      <c r="I203" s="83"/>
-      <c r="J203" s="83"/>
-      <c r="K203" s="83"/>
-      <c r="L203" s="83"/>
-      <c r="M203" s="83"/>
-      <c r="N203" s="83"/>
-      <c r="O203" s="83"/>
-      <c r="P203" s="83"/>
-      <c r="Q203" s="83"/>
-      <c r="R203" s="84"/>
+      <c r="B203" s="77"/>
+      <c r="C203" s="77"/>
+      <c r="D203" s="77"/>
+      <c r="E203" s="77"/>
+      <c r="F203" s="77"/>
+      <c r="G203" s="77"/>
+      <c r="H203" s="77"/>
+      <c r="I203" s="77"/>
+      <c r="J203" s="77"/>
+      <c r="K203" s="77"/>
+      <c r="L203" s="77"/>
+      <c r="M203" s="77"/>
+      <c r="N203" s="77"/>
+      <c r="O203" s="77"/>
+      <c r="P203" s="77"/>
+      <c r="Q203" s="77"/>
+      <c r="R203" s="78"/>
       <c r="S203" s="15"/>
       <c r="T203" s="15"/>
       <c r="U203" s="15"/>
@@ -8787,17 +8787,17 @@
         <v>1</v>
       </c>
       <c r="B205" s="5"/>
-      <c r="C205" s="72" t="s">
+      <c r="C205" s="73" t="s">
         <v>56</v>
       </c>
-      <c r="D205" s="72"/>
-      <c r="E205" s="72"/>
-      <c r="F205" s="72"/>
-      <c r="G205" s="72"/>
-      <c r="H205" s="72"/>
-      <c r="I205" s="72"/>
-      <c r="J205" s="72"/>
-      <c r="K205" s="72"/>
+      <c r="D205" s="73"/>
+      <c r="E205" s="73"/>
+      <c r="F205" s="73"/>
+      <c r="G205" s="73"/>
+      <c r="H205" s="73"/>
+      <c r="I205" s="73"/>
+      <c r="J205" s="73"/>
+      <c r="K205" s="73"/>
       <c r="L205" s="5" t="s">
         <v>2</v>
       </c>
@@ -8834,17 +8834,17 @@
         <v>1</v>
       </c>
       <c r="B206" s="1"/>
-      <c r="C206" s="73" t="s">
+      <c r="C206" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="D206" s="73"/>
-      <c r="E206" s="73"/>
-      <c r="F206" s="73"/>
-      <c r="G206" s="73"/>
-      <c r="H206" s="73"/>
-      <c r="I206" s="73"/>
-      <c r="J206" s="73"/>
-      <c r="K206" s="73"/>
+      <c r="D206" s="74"/>
+      <c r="E206" s="74"/>
+      <c r="F206" s="74"/>
+      <c r="G206" s="74"/>
+      <c r="H206" s="74"/>
+      <c r="I206" s="74"/>
+      <c r="J206" s="74"/>
+      <c r="K206" s="74"/>
       <c r="L206" s="6">
         <v>33</v>
       </c>
@@ -8870,17 +8870,17 @@
         <v>2</v>
       </c>
       <c r="B207" s="1"/>
-      <c r="C207" s="64" t="s">
+      <c r="C207" s="66" t="s">
         <v>16</v>
       </c>
-      <c r="D207" s="65"/>
-      <c r="E207" s="65"/>
-      <c r="F207" s="65"/>
-      <c r="G207" s="65"/>
-      <c r="H207" s="65"/>
-      <c r="I207" s="65"/>
-      <c r="J207" s="65"/>
-      <c r="K207" s="65"/>
+      <c r="D207" s="67"/>
+      <c r="E207" s="67"/>
+      <c r="F207" s="67"/>
+      <c r="G207" s="67"/>
+      <c r="H207" s="67"/>
+      <c r="I207" s="67"/>
+      <c r="J207" s="67"/>
+      <c r="K207" s="67"/>
       <c r="L207" s="6">
         <v>33</v>
       </c>
@@ -8906,17 +8906,17 @@
         <v>3</v>
       </c>
       <c r="B208" s="1"/>
-      <c r="C208" s="64" t="s">
+      <c r="C208" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="D208" s="65"/>
-      <c r="E208" s="65"/>
-      <c r="F208" s="65"/>
-      <c r="G208" s="65"/>
-      <c r="H208" s="65"/>
-      <c r="I208" s="65"/>
-      <c r="J208" s="65"/>
-      <c r="K208" s="65"/>
+      <c r="D208" s="67"/>
+      <c r="E208" s="67"/>
+      <c r="F208" s="67"/>
+      <c r="G208" s="67"/>
+      <c r="H208" s="67"/>
+      <c r="I208" s="67"/>
+      <c r="J208" s="67"/>
+      <c r="K208" s="67"/>
       <c r="L208" s="6">
         <v>33</v>
       </c>
@@ -8954,17 +8954,17 @@
         <v>4</v>
       </c>
       <c r="B209" s="1"/>
-      <c r="C209" s="65" t="s">
+      <c r="C209" s="67" t="s">
         <v>18</v>
       </c>
-      <c r="D209" s="65"/>
-      <c r="E209" s="65"/>
-      <c r="F209" s="65"/>
-      <c r="G209" s="65"/>
-      <c r="H209" s="65"/>
-      <c r="I209" s="65"/>
-      <c r="J209" s="65"/>
-      <c r="K209" s="65"/>
+      <c r="D209" s="67"/>
+      <c r="E209" s="67"/>
+      <c r="F209" s="67"/>
+      <c r="G209" s="67"/>
+      <c r="H209" s="67"/>
+      <c r="I209" s="67"/>
+      <c r="J209" s="67"/>
+      <c r="K209" s="67"/>
       <c r="L209" s="6">
         <v>33</v>
       </c>
@@ -9002,17 +9002,17 @@
         <v>5</v>
       </c>
       <c r="B210" s="1"/>
-      <c r="C210" s="64" t="s">
+      <c r="C210" s="66" t="s">
         <v>61</v>
       </c>
-      <c r="D210" s="65"/>
-      <c r="E210" s="65"/>
-      <c r="F210" s="65"/>
-      <c r="G210" s="65"/>
-      <c r="H210" s="65"/>
-      <c r="I210" s="65"/>
-      <c r="J210" s="65"/>
-      <c r="K210" s="65"/>
+      <c r="D210" s="67"/>
+      <c r="E210" s="67"/>
+      <c r="F210" s="67"/>
+      <c r="G210" s="67"/>
+      <c r="H210" s="67"/>
+      <c r="I210" s="67"/>
+      <c r="J210" s="67"/>
+      <c r="K210" s="67"/>
       <c r="L210" s="6">
         <v>33</v>
       </c>
@@ -9050,17 +9050,17 @@
         <v>6</v>
       </c>
       <c r="B211" s="1"/>
-      <c r="C211" s="64" t="s">
+      <c r="C211" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="D211" s="65"/>
-      <c r="E211" s="65"/>
-      <c r="F211" s="65"/>
-      <c r="G211" s="65"/>
-      <c r="H211" s="65"/>
-      <c r="I211" s="65"/>
-      <c r="J211" s="65"/>
-      <c r="K211" s="65"/>
+      <c r="D211" s="67"/>
+      <c r="E211" s="67"/>
+      <c r="F211" s="67"/>
+      <c r="G211" s="67"/>
+      <c r="H211" s="67"/>
+      <c r="I211" s="67"/>
+      <c r="J211" s="67"/>
+      <c r="K211" s="67"/>
       <c r="L211" s="6">
         <v>33</v>
       </c>
@@ -9086,17 +9086,17 @@
         <v>7</v>
       </c>
       <c r="B212" s="1"/>
-      <c r="C212" s="65" t="s">
+      <c r="C212" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="D212" s="65"/>
-      <c r="E212" s="65"/>
-      <c r="F212" s="65"/>
-      <c r="G212" s="65"/>
-      <c r="H212" s="65"/>
-      <c r="I212" s="65"/>
-      <c r="J212" s="65"/>
-      <c r="K212" s="65"/>
+      <c r="D212" s="67"/>
+      <c r="E212" s="67"/>
+      <c r="F212" s="67"/>
+      <c r="G212" s="67"/>
+      <c r="H212" s="67"/>
+      <c r="I212" s="67"/>
+      <c r="J212" s="67"/>
+      <c r="K212" s="67"/>
       <c r="L212" s="6">
         <v>33</v>
       </c>
@@ -9122,17 +9122,17 @@
         <v>8</v>
       </c>
       <c r="B213" s="1"/>
-      <c r="C213" s="64" t="s">
+      <c r="C213" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="D213" s="65"/>
-      <c r="E213" s="65"/>
-      <c r="F213" s="65"/>
-      <c r="G213" s="65"/>
-      <c r="H213" s="65"/>
-      <c r="I213" s="65"/>
-      <c r="J213" s="65"/>
-      <c r="K213" s="65"/>
+      <c r="D213" s="67"/>
+      <c r="E213" s="67"/>
+      <c r="F213" s="67"/>
+      <c r="G213" s="67"/>
+      <c r="H213" s="67"/>
+      <c r="I213" s="67"/>
+      <c r="J213" s="67"/>
+      <c r="K213" s="67"/>
       <c r="L213" s="6">
         <v>33</v>
       </c>
@@ -9158,17 +9158,17 @@
         <v>9</v>
       </c>
       <c r="B214" s="1"/>
-      <c r="C214" s="64" t="s">
+      <c r="C214" s="66" t="s">
         <v>62</v>
       </c>
-      <c r="D214" s="65"/>
-      <c r="E214" s="65"/>
-      <c r="F214" s="65"/>
-      <c r="G214" s="65"/>
-      <c r="H214" s="65"/>
-      <c r="I214" s="65"/>
-      <c r="J214" s="65"/>
-      <c r="K214" s="65"/>
+      <c r="D214" s="67"/>
+      <c r="E214" s="67"/>
+      <c r="F214" s="67"/>
+      <c r="G214" s="67"/>
+      <c r="H214" s="67"/>
+      <c r="I214" s="67"/>
+      <c r="J214" s="67"/>
+      <c r="K214" s="67"/>
       <c r="L214" s="6">
         <v>33</v>
       </c>
@@ -9206,17 +9206,17 @@
         <v>10</v>
       </c>
       <c r="B215" s="1"/>
-      <c r="C215" s="64" t="s">
+      <c r="C215" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="D215" s="65"/>
-      <c r="E215" s="65"/>
-      <c r="F215" s="65"/>
-      <c r="G215" s="65"/>
-      <c r="H215" s="65"/>
-      <c r="I215" s="65"/>
-      <c r="J215" s="65"/>
-      <c r="K215" s="65"/>
+      <c r="D215" s="67"/>
+      <c r="E215" s="67"/>
+      <c r="F215" s="67"/>
+      <c r="G215" s="67"/>
+      <c r="H215" s="67"/>
+      <c r="I215" s="67"/>
+      <c r="J215" s="67"/>
+      <c r="K215" s="67"/>
       <c r="L215" s="6">
         <v>33</v>
       </c>
@@ -9242,17 +9242,17 @@
         <v>11</v>
       </c>
       <c r="B216" s="1"/>
-      <c r="C216" s="64" t="s">
+      <c r="C216" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="D216" s="65"/>
-      <c r="E216" s="65"/>
-      <c r="F216" s="65"/>
-      <c r="G216" s="65"/>
-      <c r="H216" s="65"/>
-      <c r="I216" s="65"/>
-      <c r="J216" s="65"/>
-      <c r="K216" s="65"/>
+      <c r="D216" s="67"/>
+      <c r="E216" s="67"/>
+      <c r="F216" s="67"/>
+      <c r="G216" s="67"/>
+      <c r="H216" s="67"/>
+      <c r="I216" s="67"/>
+      <c r="J216" s="67"/>
+      <c r="K216" s="67"/>
       <c r="L216" s="6">
         <v>33</v>
       </c>
@@ -9278,17 +9278,17 @@
         <v>12</v>
       </c>
       <c r="B217" s="1"/>
-      <c r="C217" s="64" t="s">
+      <c r="C217" s="66" t="s">
         <v>63</v>
       </c>
-      <c r="D217" s="65"/>
-      <c r="E217" s="65"/>
-      <c r="F217" s="65"/>
-      <c r="G217" s="65"/>
-      <c r="H217" s="65"/>
-      <c r="I217" s="65"/>
-      <c r="J217" s="65"/>
-      <c r="K217" s="65"/>
+      <c r="D217" s="67"/>
+      <c r="E217" s="67"/>
+      <c r="F217" s="67"/>
+      <c r="G217" s="67"/>
+      <c r="H217" s="67"/>
+      <c r="I217" s="67"/>
+      <c r="J217" s="67"/>
+      <c r="K217" s="67"/>
       <c r="L217" s="6">
         <v>33</v>
       </c>
@@ -9326,20 +9326,20 @@
         <v>13</v>
       </c>
       <c r="B218" s="1"/>
-      <c r="C218" s="66" t="s">
+      <c r="C218" s="60" t="s">
         <v>58</v>
       </c>
-      <c r="D218" s="67"/>
-      <c r="E218" s="67"/>
-      <c r="F218" s="67"/>
-      <c r="G218" s="67"/>
-      <c r="H218" s="67"/>
-      <c r="I218" s="67"/>
-      <c r="J218" s="67"/>
-      <c r="K218" s="67"/>
-      <c r="L218" s="67"/>
-      <c r="M218" s="67"/>
-      <c r="N218" s="68"/>
+      <c r="D218" s="61"/>
+      <c r="E218" s="61"/>
+      <c r="F218" s="61"/>
+      <c r="G218" s="61"/>
+      <c r="H218" s="61"/>
+      <c r="I218" s="61"/>
+      <c r="J218" s="61"/>
+      <c r="K218" s="61"/>
+      <c r="L218" s="61"/>
+      <c r="M218" s="61"/>
+      <c r="N218" s="62"/>
       <c r="O218" s="11"/>
       <c r="P218" s="12">
         <f>AVERAGE(P206:P217)</f>
@@ -9369,26 +9369,26 @@
       <c r="Q219" s="52"/>
     </row>
     <row r="220" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A220" s="69" t="s">
+      <c r="A220" s="63" t="s">
         <v>24</v>
       </c>
-      <c r="B220" s="70"/>
-      <c r="C220" s="70"/>
-      <c r="D220" s="70"/>
-      <c r="E220" s="70"/>
-      <c r="F220" s="70"/>
-      <c r="G220" s="70"/>
-      <c r="H220" s="70"/>
-      <c r="I220" s="70"/>
-      <c r="J220" s="70"/>
-      <c r="K220" s="70"/>
-      <c r="L220" s="70"/>
-      <c r="M220" s="70"/>
-      <c r="N220" s="70"/>
-      <c r="O220" s="70"/>
-      <c r="P220" s="70"/>
-      <c r="Q220" s="70"/>
-      <c r="R220" s="71"/>
+      <c r="B220" s="64"/>
+      <c r="C220" s="64"/>
+      <c r="D220" s="64"/>
+      <c r="E220" s="64"/>
+      <c r="F220" s="64"/>
+      <c r="G220" s="64"/>
+      <c r="H220" s="64"/>
+      <c r="I220" s="64"/>
+      <c r="J220" s="64"/>
+      <c r="K220" s="64"/>
+      <c r="L220" s="64"/>
+      <c r="M220" s="64"/>
+      <c r="N220" s="64"/>
+      <c r="O220" s="64"/>
+      <c r="P220" s="64"/>
+      <c r="Q220" s="64"/>
+      <c r="R220" s="65"/>
       <c r="S220" s="3"/>
       <c r="T220" s="3"/>
       <c r="U220" s="3"/>
@@ -9398,17 +9398,17 @@
         <v>1</v>
       </c>
       <c r="B222" s="5"/>
-      <c r="C222" s="72" t="s">
+      <c r="C222" s="73" t="s">
         <v>108</v>
       </c>
-      <c r="D222" s="72"/>
-      <c r="E222" s="72"/>
-      <c r="F222" s="72"/>
-      <c r="G222" s="72"/>
-      <c r="H222" s="72"/>
-      <c r="I222" s="72"/>
-      <c r="J222" s="72"/>
-      <c r="K222" s="72"/>
+      <c r="D222" s="73"/>
+      <c r="E222" s="73"/>
+      <c r="F222" s="73"/>
+      <c r="G222" s="73"/>
+      <c r="H222" s="73"/>
+      <c r="I222" s="73"/>
+      <c r="J222" s="73"/>
+      <c r="K222" s="73"/>
       <c r="L222" s="5" t="s">
         <v>2</v>
       </c>
@@ -9445,17 +9445,17 @@
         <v>1</v>
       </c>
       <c r="B223" s="1"/>
-      <c r="C223" s="73" t="s">
+      <c r="C223" s="74" t="s">
         <v>65</v>
       </c>
-      <c r="D223" s="73"/>
-      <c r="E223" s="73"/>
-      <c r="F223" s="73"/>
-      <c r="G223" s="73"/>
-      <c r="H223" s="73"/>
-      <c r="I223" s="73"/>
-      <c r="J223" s="73"/>
-      <c r="K223" s="73"/>
+      <c r="D223" s="74"/>
+      <c r="E223" s="74"/>
+      <c r="F223" s="74"/>
+      <c r="G223" s="74"/>
+      <c r="H223" s="74"/>
+      <c r="I223" s="74"/>
+      <c r="J223" s="74"/>
+      <c r="K223" s="74"/>
       <c r="L223" s="6">
         <v>33</v>
       </c>
@@ -9478,17 +9478,17 @@
         <v>2</v>
       </c>
       <c r="B224" s="1"/>
-      <c r="C224" s="64" t="s">
+      <c r="C224" s="66" t="s">
         <v>66</v>
       </c>
-      <c r="D224" s="65"/>
-      <c r="E224" s="65"/>
-      <c r="F224" s="65"/>
-      <c r="G224" s="65"/>
-      <c r="H224" s="65"/>
-      <c r="I224" s="65"/>
-      <c r="J224" s="65"/>
-      <c r="K224" s="65"/>
+      <c r="D224" s="67"/>
+      <c r="E224" s="67"/>
+      <c r="F224" s="67"/>
+      <c r="G224" s="67"/>
+      <c r="H224" s="67"/>
+      <c r="I224" s="67"/>
+      <c r="J224" s="67"/>
+      <c r="K224" s="67"/>
       <c r="L224" s="6">
         <v>33</v>
       </c>
@@ -9511,17 +9511,17 @@
         <v>3</v>
       </c>
       <c r="B225" s="1"/>
-      <c r="C225" s="64" t="s">
+      <c r="C225" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="D225" s="65"/>
-      <c r="E225" s="65"/>
-      <c r="F225" s="65"/>
-      <c r="G225" s="65"/>
-      <c r="H225" s="65"/>
-      <c r="I225" s="65"/>
-      <c r="J225" s="65"/>
-      <c r="K225" s="65"/>
+      <c r="D225" s="67"/>
+      <c r="E225" s="67"/>
+      <c r="F225" s="67"/>
+      <c r="G225" s="67"/>
+      <c r="H225" s="67"/>
+      <c r="I225" s="67"/>
+      <c r="J225" s="67"/>
+      <c r="K225" s="67"/>
       <c r="L225" s="6">
         <v>33</v>
       </c>
@@ -9544,17 +9544,17 @@
         <v>4</v>
       </c>
       <c r="B226" s="1"/>
-      <c r="C226" s="65" t="s">
+      <c r="C226" s="67" t="s">
         <v>26</v>
       </c>
-      <c r="D226" s="65"/>
-      <c r="E226" s="65"/>
-      <c r="F226" s="65"/>
-      <c r="G226" s="65"/>
-      <c r="H226" s="65"/>
-      <c r="I226" s="65"/>
-      <c r="J226" s="65"/>
-      <c r="K226" s="65"/>
+      <c r="D226" s="67"/>
+      <c r="E226" s="67"/>
+      <c r="F226" s="67"/>
+      <c r="G226" s="67"/>
+      <c r="H226" s="67"/>
+      <c r="I226" s="67"/>
+      <c r="J226" s="67"/>
+      <c r="K226" s="67"/>
       <c r="L226" s="6">
         <v>33</v>
       </c>
@@ -9577,17 +9577,17 @@
         <v>5</v>
       </c>
       <c r="B227" s="1"/>
-      <c r="C227" s="64" t="s">
+      <c r="C227" s="66" t="s">
         <v>27</v>
       </c>
-      <c r="D227" s="65"/>
-      <c r="E227" s="65"/>
-      <c r="F227" s="65"/>
-      <c r="G227" s="65"/>
-      <c r="H227" s="65"/>
-      <c r="I227" s="65"/>
-      <c r="J227" s="65"/>
-      <c r="K227" s="65"/>
+      <c r="D227" s="67"/>
+      <c r="E227" s="67"/>
+      <c r="F227" s="67"/>
+      <c r="G227" s="67"/>
+      <c r="H227" s="67"/>
+      <c r="I227" s="67"/>
+      <c r="J227" s="67"/>
+      <c r="K227" s="67"/>
       <c r="L227" s="6">
         <v>33</v>
       </c>
@@ -9610,17 +9610,17 @@
         <v>6</v>
       </c>
       <c r="B228" s="1"/>
-      <c r="C228" s="64" t="s">
+      <c r="C228" s="66" t="s">
         <v>67</v>
       </c>
-      <c r="D228" s="65"/>
-      <c r="E228" s="65"/>
-      <c r="F228" s="65"/>
-      <c r="G228" s="65"/>
-      <c r="H228" s="65"/>
-      <c r="I228" s="65"/>
-      <c r="J228" s="65"/>
-      <c r="K228" s="65"/>
+      <c r="D228" s="67"/>
+      <c r="E228" s="67"/>
+      <c r="F228" s="67"/>
+      <c r="G228" s="67"/>
+      <c r="H228" s="67"/>
+      <c r="I228" s="67"/>
+      <c r="J228" s="67"/>
+      <c r="K228" s="67"/>
       <c r="L228" s="6">
         <v>33</v>
       </c>
@@ -9643,20 +9643,20 @@
         <v>7</v>
       </c>
       <c r="B229" s="1"/>
-      <c r="C229" s="66" t="s">
+      <c r="C229" s="60" t="s">
         <v>58</v>
       </c>
-      <c r="D229" s="67"/>
-      <c r="E229" s="67"/>
-      <c r="F229" s="67"/>
-      <c r="G229" s="67"/>
-      <c r="H229" s="67"/>
-      <c r="I229" s="67"/>
-      <c r="J229" s="67"/>
-      <c r="K229" s="67"/>
-      <c r="L229" s="67"/>
-      <c r="M229" s="67"/>
-      <c r="N229" s="68"/>
+      <c r="D229" s="61"/>
+      <c r="E229" s="61"/>
+      <c r="F229" s="61"/>
+      <c r="G229" s="61"/>
+      <c r="H229" s="61"/>
+      <c r="I229" s="61"/>
+      <c r="J229" s="61"/>
+      <c r="K229" s="61"/>
+      <c r="L229" s="61"/>
+      <c r="M229" s="61"/>
+      <c r="N229" s="62"/>
       <c r="O229" s="11"/>
       <c r="P229" s="12" t="e">
         <f>AVERAGE(P223:P228)</f>
@@ -9676,25 +9676,25 @@
       <c r="B230" s="1"/>
     </row>
     <row r="231" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A231" s="81" t="s">
+      <c r="A231" s="72" t="s">
         <v>28</v>
       </c>
-      <c r="B231" s="81"/>
-      <c r="C231" s="81"/>
-      <c r="D231" s="81"/>
-      <c r="E231" s="81"/>
-      <c r="F231" s="81"/>
-      <c r="G231" s="81"/>
-      <c r="H231" s="81"/>
-      <c r="I231" s="81"/>
-      <c r="J231" s="81"/>
-      <c r="K231" s="81"/>
-      <c r="L231" s="81"/>
-      <c r="M231" s="81"/>
-      <c r="N231" s="81"/>
-      <c r="O231" s="81"/>
-      <c r="P231" s="81"/>
-      <c r="Q231" s="81"/>
+      <c r="B231" s="72"/>
+      <c r="C231" s="72"/>
+      <c r="D231" s="72"/>
+      <c r="E231" s="72"/>
+      <c r="F231" s="72"/>
+      <c r="G231" s="72"/>
+      <c r="H231" s="72"/>
+      <c r="I231" s="72"/>
+      <c r="J231" s="72"/>
+      <c r="K231" s="72"/>
+      <c r="L231" s="72"/>
+      <c r="M231" s="72"/>
+      <c r="N231" s="72"/>
+      <c r="O231" s="72"/>
+      <c r="P231" s="72"/>
+      <c r="Q231" s="72"/>
       <c r="R231"/>
     </row>
     <row r="232" spans="1:21" ht="40.799999999999997" x14ac:dyDescent="0.3">
@@ -9704,10 +9704,10 @@
       <c r="B232" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="C232" s="80" t="s">
+      <c r="C232" s="68" t="s">
         <v>68</v>
       </c>
-      <c r="D232" s="80"/>
+      <c r="D232" s="68"/>
       <c r="E232" s="17" t="s">
         <v>69</v>
       </c>
@@ -9761,10 +9761,10 @@
       <c r="B233" s="53">
         <v>44808</v>
       </c>
-      <c r="C233" s="90" t="s">
+      <c r="C233" s="54" t="s">
         <v>125</v>
       </c>
-      <c r="D233" s="91"/>
+      <c r="D233" s="55"/>
       <c r="E233" s="25">
         <v>57</v>
       </c>
@@ -9819,10 +9819,10 @@
       <c r="B234" s="53">
         <v>44816</v>
       </c>
-      <c r="C234" s="63" t="s">
+      <c r="C234" s="57" t="s">
         <v>113</v>
       </c>
-      <c r="D234" s="63"/>
+      <c r="D234" s="57"/>
       <c r="E234" s="25">
         <v>58</v>
       </c>
@@ -9877,10 +9877,10 @@
       <c r="B235" s="53">
         <v>44822</v>
       </c>
-      <c r="C235" s="63" t="s">
+      <c r="C235" s="57" t="s">
         <v>114</v>
       </c>
-      <c r="D235" s="63"/>
+      <c r="D235" s="57"/>
       <c r="E235" s="25">
         <v>64</v>
       </c>
@@ -9933,10 +9933,10 @@
         <v>3</v>
       </c>
       <c r="B236" s="14"/>
-      <c r="C236" s="63" t="s">
+      <c r="C236" s="57" t="s">
         <v>115</v>
       </c>
-      <c r="D236" s="63"/>
+      <c r="D236" s="57"/>
       <c r="E236" s="25"/>
       <c r="F236" s="26"/>
       <c r="G236" s="27"/>
@@ -9961,10 +9961,10 @@
         <v>4</v>
       </c>
       <c r="B237" s="14"/>
-      <c r="C237" s="63" t="s">
+      <c r="C237" s="57" t="s">
         <v>116</v>
       </c>
-      <c r="D237" s="63"/>
+      <c r="D237" s="57"/>
       <c r="E237" s="25"/>
       <c r="F237" s="26"/>
       <c r="G237" s="27"/>
@@ -9989,10 +9989,10 @@
         <v>5</v>
       </c>
       <c r="B238" s="14"/>
-      <c r="C238" s="63" t="s">
+      <c r="C238" s="57" t="s">
         <v>117</v>
       </c>
-      <c r="D238" s="63"/>
+      <c r="D238" s="57"/>
       <c r="E238" s="25"/>
       <c r="F238" s="26"/>
       <c r="G238" s="27"/>
@@ -10017,10 +10017,10 @@
         <v>6</v>
       </c>
       <c r="B239" s="14"/>
-      <c r="C239" s="63" t="s">
+      <c r="C239" s="57" t="s">
         <v>118</v>
       </c>
-      <c r="D239" s="63"/>
+      <c r="D239" s="57"/>
       <c r="E239" s="25"/>
       <c r="F239" s="26"/>
       <c r="G239" s="27"/>
@@ -10045,10 +10045,10 @@
         <v>7</v>
       </c>
       <c r="B240" s="14"/>
-      <c r="C240" s="63" t="s">
+      <c r="C240" s="57" t="s">
         <v>119</v>
       </c>
-      <c r="D240" s="63"/>
+      <c r="D240" s="57"/>
       <c r="E240" s="25"/>
       <c r="F240" s="26"/>
       <c r="G240" s="27"/>
@@ -10073,10 +10073,10 @@
         <v>8</v>
       </c>
       <c r="B241" s="14"/>
-      <c r="C241" s="63" t="s">
+      <c r="C241" s="57" t="s">
         <v>120</v>
       </c>
-      <c r="D241" s="63"/>
+      <c r="D241" s="57"/>
       <c r="E241" s="25"/>
       <c r="F241" s="26"/>
       <c r="G241" s="27"/>
@@ -10099,10 +10099,10 @@
     <row r="242" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A242" s="14"/>
       <c r="B242" s="14"/>
-      <c r="C242" s="74" t="s">
+      <c r="C242" s="58" t="s">
         <v>98</v>
       </c>
-      <c r="D242" s="74"/>
+      <c r="D242" s="58"/>
       <c r="E242" s="25">
         <f>AVERAGE(E233:E241)</f>
         <v>59.666666666666664</v>
@@ -10178,25 +10178,25 @@
       <c r="S244" s="6"/>
     </row>
     <row r="245" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A245" s="79" t="s">
+      <c r="A245" s="75" t="s">
         <v>99</v>
       </c>
-      <c r="B245" s="79"/>
-      <c r="C245" s="79"/>
-      <c r="D245" s="79"/>
-      <c r="E245" s="79"/>
-      <c r="F245" s="79"/>
-      <c r="G245" s="79"/>
-      <c r="H245" s="79"/>
-      <c r="I245" s="79"/>
-      <c r="J245" s="79"/>
-      <c r="K245" s="79"/>
-      <c r="L245" s="79"/>
-      <c r="M245" s="79"/>
-      <c r="N245" s="79"/>
-      <c r="O245" s="79"/>
-      <c r="P245" s="79"/>
-      <c r="Q245" s="79"/>
+      <c r="B245" s="75"/>
+      <c r="C245" s="75"/>
+      <c r="D245" s="75"/>
+      <c r="E245" s="75"/>
+      <c r="F245" s="75"/>
+      <c r="G245" s="75"/>
+      <c r="H245" s="75"/>
+      <c r="I245" s="75"/>
+      <c r="J245" s="75"/>
+      <c r="K245" s="75"/>
+      <c r="L245" s="75"/>
+      <c r="M245" s="75"/>
+      <c r="N245" s="75"/>
+      <c r="O245" s="75"/>
+      <c r="P245" s="75"/>
+      <c r="Q245" s="75"/>
       <c r="R245"/>
       <c r="S245" s="11"/>
     </row>
@@ -10205,10 +10205,10 @@
         <v>1</v>
       </c>
       <c r="B246" s="16"/>
-      <c r="C246" s="80" t="s">
+      <c r="C246" s="68" t="s">
         <v>68</v>
       </c>
-      <c r="D246" s="80"/>
+      <c r="D246" s="68"/>
       <c r="E246" s="17" t="s">
         <v>69</v>
       </c>
@@ -10257,10 +10257,10 @@
         <v>1</v>
       </c>
       <c r="B247" s="14"/>
-      <c r="C247" s="63" t="s">
+      <c r="C247" s="57" t="s">
         <v>121</v>
       </c>
-      <c r="D247" s="63"/>
+      <c r="D247" s="57"/>
       <c r="E247" s="25"/>
       <c r="F247" s="26"/>
       <c r="G247" s="27"/>
@@ -10284,10 +10284,10 @@
         <v>2</v>
       </c>
       <c r="B248" s="14"/>
-      <c r="C248" s="63" t="s">
+      <c r="C248" s="57" t="s">
         <v>122</v>
       </c>
-      <c r="D248" s="63"/>
+      <c r="D248" s="57"/>
       <c r="E248" s="25"/>
       <c r="F248" s="26"/>
       <c r="G248" s="27"/>
@@ -10311,10 +10311,10 @@
         <v>3</v>
       </c>
       <c r="B249" s="14"/>
-      <c r="C249" s="63" t="s">
+      <c r="C249" s="57" t="s">
         <v>123</v>
       </c>
-      <c r="D249" s="63"/>
+      <c r="D249" s="57"/>
       <c r="E249" s="25"/>
       <c r="F249" s="26"/>
       <c r="G249" s="27"/>
@@ -10338,10 +10338,10 @@
         <v>4</v>
       </c>
       <c r="B250" s="14"/>
-      <c r="C250" s="63" t="s">
+      <c r="C250" s="57" t="s">
         <v>124</v>
       </c>
-      <c r="D250" s="63"/>
+      <c r="D250" s="57"/>
       <c r="E250" s="25"/>
       <c r="F250" s="26"/>
       <c r="G250" s="27"/>
@@ -10361,10 +10361,10 @@
       </c>
     </row>
     <row r="251" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="C251" s="74" t="s">
+      <c r="C251" s="58" t="s">
         <v>98</v>
       </c>
-      <c r="D251" s="74"/>
+      <c r="D251" s="58"/>
       <c r="E251" s="25"/>
       <c r="F251" s="26"/>
       <c r="G251" s="27"/>
@@ -10388,103 +10388,103 @@
       <c r="R256"/>
     </row>
     <row r="257" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A257" s="75" t="s">
+      <c r="A257" s="59" t="s">
         <v>107</v>
       </c>
-      <c r="B257" s="75"/>
-      <c r="C257" s="75"/>
-      <c r="D257" s="75"/>
-      <c r="E257" s="75"/>
-      <c r="F257" s="75"/>
-      <c r="G257" s="75"/>
-      <c r="H257" s="75"/>
-      <c r="I257" s="75"/>
-      <c r="J257" s="75"/>
-      <c r="K257" s="75"/>
-      <c r="L257" s="75"/>
-      <c r="M257" s="75"/>
-      <c r="N257" s="75"/>
-      <c r="O257" s="75"/>
-      <c r="P257" s="75"/>
-      <c r="Q257" s="75"/>
-      <c r="R257" s="75"/>
-      <c r="S257" s="75"/>
-      <c r="T257" s="75"/>
-      <c r="U257" s="75"/>
-      <c r="V257" s="75"/>
-      <c r="W257" s="75"/>
+      <c r="B257" s="59"/>
+      <c r="C257" s="59"/>
+      <c r="D257" s="59"/>
+      <c r="E257" s="59"/>
+      <c r="F257" s="59"/>
+      <c r="G257" s="59"/>
+      <c r="H257" s="59"/>
+      <c r="I257" s="59"/>
+      <c r="J257" s="59"/>
+      <c r="K257" s="59"/>
+      <c r="L257" s="59"/>
+      <c r="M257" s="59"/>
+      <c r="N257" s="59"/>
+      <c r="O257" s="59"/>
+      <c r="P257" s="59"/>
+      <c r="Q257" s="59"/>
+      <c r="R257" s="59"/>
+      <c r="S257" s="59"/>
+      <c r="T257" s="59"/>
+      <c r="U257" s="59"/>
+      <c r="V257" s="59"/>
+      <c r="W257" s="59"/>
     </row>
     <row r="258" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A258" s="75"/>
-      <c r="B258" s="75"/>
-      <c r="C258" s="75"/>
-      <c r="D258" s="75"/>
-      <c r="E258" s="75"/>
-      <c r="F258" s="75"/>
-      <c r="G258" s="75"/>
-      <c r="H258" s="75"/>
-      <c r="I258" s="75"/>
-      <c r="J258" s="75"/>
-      <c r="K258" s="75"/>
-      <c r="L258" s="75"/>
-      <c r="M258" s="75"/>
-      <c r="N258" s="75"/>
-      <c r="O258" s="75"/>
-      <c r="P258" s="75"/>
-      <c r="Q258" s="75"/>
-      <c r="R258" s="75"/>
-      <c r="S258" s="75"/>
-      <c r="T258" s="75"/>
-      <c r="U258" s="75"/>
-      <c r="V258" s="75"/>
-      <c r="W258" s="75"/>
+      <c r="A258" s="59"/>
+      <c r="B258" s="59"/>
+      <c r="C258" s="59"/>
+      <c r="D258" s="59"/>
+      <c r="E258" s="59"/>
+      <c r="F258" s="59"/>
+      <c r="G258" s="59"/>
+      <c r="H258" s="59"/>
+      <c r="I258" s="59"/>
+      <c r="J258" s="59"/>
+      <c r="K258" s="59"/>
+      <c r="L258" s="59"/>
+      <c r="M258" s="59"/>
+      <c r="N258" s="59"/>
+      <c r="O258" s="59"/>
+      <c r="P258" s="59"/>
+      <c r="Q258" s="59"/>
+      <c r="R258" s="59"/>
+      <c r="S258" s="59"/>
+      <c r="T258" s="59"/>
+      <c r="U258" s="59"/>
+      <c r="V258" s="59"/>
+      <c r="W258" s="59"/>
     </row>
     <row r="259" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A259" s="75"/>
-      <c r="B259" s="75"/>
-      <c r="C259" s="75"/>
-      <c r="D259" s="75"/>
-      <c r="E259" s="75"/>
-      <c r="F259" s="75"/>
-      <c r="G259" s="75"/>
-      <c r="H259" s="75"/>
-      <c r="I259" s="75"/>
-      <c r="J259" s="75"/>
-      <c r="K259" s="75"/>
-      <c r="L259" s="75"/>
-      <c r="M259" s="75"/>
-      <c r="N259" s="75"/>
-      <c r="O259" s="75"/>
-      <c r="P259" s="75"/>
-      <c r="Q259" s="75"/>
-      <c r="R259" s="75"/>
-      <c r="S259" s="75"/>
-      <c r="T259" s="75"/>
-      <c r="U259" s="75"/>
-      <c r="V259" s="75"/>
-      <c r="W259" s="75"/>
+      <c r="A259" s="59"/>
+      <c r="B259" s="59"/>
+      <c r="C259" s="59"/>
+      <c r="D259" s="59"/>
+      <c r="E259" s="59"/>
+      <c r="F259" s="59"/>
+      <c r="G259" s="59"/>
+      <c r="H259" s="59"/>
+      <c r="I259" s="59"/>
+      <c r="J259" s="59"/>
+      <c r="K259" s="59"/>
+      <c r="L259" s="59"/>
+      <c r="M259" s="59"/>
+      <c r="N259" s="59"/>
+      <c r="O259" s="59"/>
+      <c r="P259" s="59"/>
+      <c r="Q259" s="59"/>
+      <c r="R259" s="59"/>
+      <c r="S259" s="59"/>
+      <c r="T259" s="59"/>
+      <c r="U259" s="59"/>
+      <c r="V259" s="59"/>
+      <c r="W259" s="59"/>
     </row>
     <row r="260" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A260" s="76" t="s">
+      <c r="A260" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="B260" s="77"/>
-      <c r="C260" s="77"/>
-      <c r="D260" s="77"/>
-      <c r="E260" s="77"/>
-      <c r="F260" s="77"/>
-      <c r="G260" s="77"/>
-      <c r="H260" s="77"/>
-      <c r="I260" s="77"/>
-      <c r="J260" s="77"/>
-      <c r="K260" s="77"/>
-      <c r="L260" s="77"/>
-      <c r="M260" s="77"/>
-      <c r="N260" s="77"/>
-      <c r="O260" s="77"/>
-      <c r="P260" s="77"/>
-      <c r="Q260" s="77"/>
-      <c r="R260" s="78"/>
+      <c r="B260" s="70"/>
+      <c r="C260" s="70"/>
+      <c r="D260" s="70"/>
+      <c r="E260" s="70"/>
+      <c r="F260" s="70"/>
+      <c r="G260" s="70"/>
+      <c r="H260" s="70"/>
+      <c r="I260" s="70"/>
+      <c r="J260" s="70"/>
+      <c r="K260" s="70"/>
+      <c r="L260" s="70"/>
+      <c r="M260" s="70"/>
+      <c r="N260" s="70"/>
+      <c r="O260" s="70"/>
+      <c r="P260" s="70"/>
+      <c r="Q260" s="70"/>
+      <c r="R260" s="71"/>
       <c r="S260" s="38"/>
       <c r="T260" s="38"/>
       <c r="U260" s="38"/>
@@ -10500,17 +10500,17 @@
       <c r="B262" s="46" t="s">
         <v>105</v>
       </c>
-      <c r="C262" s="72" t="s">
+      <c r="C262" s="73" t="s">
         <v>108</v>
       </c>
-      <c r="D262" s="72"/>
-      <c r="E262" s="72"/>
-      <c r="F262" s="72"/>
-      <c r="G262" s="72"/>
-      <c r="H262" s="72"/>
-      <c r="I262" s="72"/>
-      <c r="J262" s="72"/>
-      <c r="K262" s="72"/>
+      <c r="D262" s="73"/>
+      <c r="E262" s="73"/>
+      <c r="F262" s="73"/>
+      <c r="G262" s="73"/>
+      <c r="H262" s="73"/>
+      <c r="I262" s="73"/>
+      <c r="J262" s="73"/>
+      <c r="K262" s="73"/>
       <c r="L262" s="5" t="s">
         <v>2</v>
       </c>
@@ -10550,17 +10550,17 @@
       <c r="B263" s="44">
         <v>44683</v>
       </c>
-      <c r="C263" s="54" t="s">
+      <c r="C263" s="83" t="s">
         <v>43</v>
       </c>
-      <c r="D263" s="55"/>
-      <c r="E263" s="55"/>
-      <c r="F263" s="55"/>
-      <c r="G263" s="55"/>
-      <c r="H263" s="55"/>
-      <c r="I263" s="55"/>
-      <c r="J263" s="55"/>
-      <c r="K263" s="56"/>
+      <c r="D263" s="84"/>
+      <c r="E263" s="84"/>
+      <c r="F263" s="84"/>
+      <c r="G263" s="84"/>
+      <c r="H263" s="84"/>
+      <c r="I263" s="84"/>
+      <c r="J263" s="84"/>
+      <c r="K263" s="85"/>
       <c r="L263" s="6">
         <v>17</v>
       </c>
@@ -10588,17 +10588,17 @@
       <c r="B264" s="41">
         <v>44684</v>
       </c>
-      <c r="C264" s="57" t="s">
+      <c r="C264" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="D264" s="58"/>
-      <c r="E264" s="58"/>
-      <c r="F264" s="58"/>
-      <c r="G264" s="58"/>
-      <c r="H264" s="58"/>
-      <c r="I264" s="58"/>
-      <c r="J264" s="58"/>
-      <c r="K264" s="59"/>
+      <c r="D264" s="88"/>
+      <c r="E264" s="88"/>
+      <c r="F264" s="88"/>
+      <c r="G264" s="88"/>
+      <c r="H264" s="88"/>
+      <c r="I264" s="88"/>
+      <c r="J264" s="88"/>
+      <c r="K264" s="89"/>
       <c r="L264" s="6">
         <v>17</v>
       </c>
@@ -10626,17 +10626,17 @@
       <c r="B265" s="41">
         <v>44686</v>
       </c>
-      <c r="C265" s="54" t="s">
+      <c r="C265" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="D265" s="55"/>
-      <c r="E265" s="55"/>
-      <c r="F265" s="55"/>
-      <c r="G265" s="55"/>
-      <c r="H265" s="55"/>
-      <c r="I265" s="55"/>
-      <c r="J265" s="55"/>
-      <c r="K265" s="56"/>
+      <c r="D265" s="84"/>
+      <c r="E265" s="84"/>
+      <c r="F265" s="84"/>
+      <c r="G265" s="84"/>
+      <c r="H265" s="84"/>
+      <c r="I265" s="84"/>
+      <c r="J265" s="84"/>
+      <c r="K265" s="85"/>
       <c r="L265" s="6">
         <v>17</v>
       </c>
@@ -10664,17 +10664,17 @@
       <c r="B266" s="41">
         <v>44688</v>
       </c>
-      <c r="C266" s="54" t="s">
+      <c r="C266" s="83" t="s">
         <v>40</v>
       </c>
-      <c r="D266" s="55"/>
-      <c r="E266" s="55"/>
-      <c r="F266" s="55"/>
-      <c r="G266" s="55"/>
-      <c r="H266" s="55"/>
-      <c r="I266" s="55"/>
-      <c r="J266" s="55"/>
-      <c r="K266" s="56"/>
+      <c r="D266" s="84"/>
+      <c r="E266" s="84"/>
+      <c r="F266" s="84"/>
+      <c r="G266" s="84"/>
+      <c r="H266" s="84"/>
+      <c r="I266" s="84"/>
+      <c r="J266" s="84"/>
+      <c r="K266" s="85"/>
       <c r="L266" s="6">
         <v>17</v>
       </c>
@@ -10702,17 +10702,17 @@
       <c r="B267" s="41">
         <v>44696</v>
       </c>
-      <c r="C267" s="57" t="s">
+      <c r="C267" s="87" t="s">
         <v>5</v>
       </c>
-      <c r="D267" s="58"/>
-      <c r="E267" s="58"/>
-      <c r="F267" s="58"/>
-      <c r="G267" s="58"/>
-      <c r="H267" s="58"/>
-      <c r="I267" s="58"/>
-      <c r="J267" s="58"/>
-      <c r="K267" s="59"/>
+      <c r="D267" s="88"/>
+      <c r="E267" s="88"/>
+      <c r="F267" s="88"/>
+      <c r="G267" s="88"/>
+      <c r="H267" s="88"/>
+      <c r="I267" s="88"/>
+      <c r="J267" s="88"/>
+      <c r="K267" s="89"/>
       <c r="L267" s="6">
         <v>17</v>
       </c>
@@ -10740,17 +10740,17 @@
       <c r="B268" s="41">
         <v>44700</v>
       </c>
-      <c r="C268" s="54" t="s">
+      <c r="C268" s="83" t="s">
         <v>33</v>
       </c>
-      <c r="D268" s="55"/>
-      <c r="E268" s="55"/>
-      <c r="F268" s="55"/>
-      <c r="G268" s="55"/>
-      <c r="H268" s="55"/>
-      <c r="I268" s="55"/>
-      <c r="J268" s="55"/>
-      <c r="K268" s="56"/>
+      <c r="D268" s="84"/>
+      <c r="E268" s="84"/>
+      <c r="F268" s="84"/>
+      <c r="G268" s="84"/>
+      <c r="H268" s="84"/>
+      <c r="I268" s="84"/>
+      <c r="J268" s="84"/>
+      <c r="K268" s="85"/>
       <c r="L268" s="6">
         <v>17</v>
       </c>
@@ -10778,17 +10778,17 @@
       <c r="B269" s="41">
         <v>44703</v>
       </c>
-      <c r="C269" s="57" t="s">
+      <c r="C269" s="87" t="s">
         <v>9</v>
       </c>
-      <c r="D269" s="58"/>
-      <c r="E269" s="58"/>
-      <c r="F269" s="58"/>
-      <c r="G269" s="58"/>
-      <c r="H269" s="58"/>
-      <c r="I269" s="58"/>
-      <c r="J269" s="58"/>
-      <c r="K269" s="59"/>
+      <c r="D269" s="88"/>
+      <c r="E269" s="88"/>
+      <c r="F269" s="88"/>
+      <c r="G269" s="88"/>
+      <c r="H269" s="88"/>
+      <c r="I269" s="88"/>
+      <c r="J269" s="88"/>
+      <c r="K269" s="89"/>
       <c r="L269" s="6">
         <v>17</v>
       </c>
@@ -10816,17 +10816,17 @@
       <c r="B270" s="41">
         <v>44707</v>
       </c>
-      <c r="C270" s="57" t="s">
+      <c r="C270" s="87" t="s">
         <v>44</v>
       </c>
-      <c r="D270" s="58"/>
-      <c r="E270" s="58"/>
-      <c r="F270" s="58"/>
-      <c r="G270" s="58"/>
-      <c r="H270" s="58"/>
-      <c r="I270" s="58"/>
-      <c r="J270" s="58"/>
-      <c r="K270" s="59"/>
+      <c r="D270" s="88"/>
+      <c r="E270" s="88"/>
+      <c r="F270" s="88"/>
+      <c r="G270" s="88"/>
+      <c r="H270" s="88"/>
+      <c r="I270" s="88"/>
+      <c r="J270" s="88"/>
+      <c r="K270" s="89"/>
       <c r="L270" s="6">
         <v>17</v>
       </c>
@@ -10851,17 +10851,17 @@
       <c r="B271" s="41">
         <v>44712</v>
       </c>
-      <c r="C271" s="54" t="s">
+      <c r="C271" s="83" t="s">
         <v>34</v>
       </c>
-      <c r="D271" s="55"/>
-      <c r="E271" s="55"/>
-      <c r="F271" s="55"/>
-      <c r="G271" s="55"/>
-      <c r="H271" s="55"/>
-      <c r="I271" s="55"/>
-      <c r="J271" s="55"/>
-      <c r="K271" s="56"/>
+      <c r="D271" s="84"/>
+      <c r="E271" s="84"/>
+      <c r="F271" s="84"/>
+      <c r="G271" s="84"/>
+      <c r="H271" s="84"/>
+      <c r="I271" s="84"/>
+      <c r="J271" s="84"/>
+      <c r="K271" s="85"/>
       <c r="L271" s="6">
         <v>17</v>
       </c>
@@ -10886,17 +10886,17 @@
       <c r="B272" s="41">
         <v>44717</v>
       </c>
-      <c r="C272" s="57" t="s">
+      <c r="C272" s="87" t="s">
         <v>35</v>
       </c>
-      <c r="D272" s="58"/>
-      <c r="E272" s="58"/>
-      <c r="F272" s="58"/>
-      <c r="G272" s="58"/>
-      <c r="H272" s="58"/>
-      <c r="I272" s="58"/>
-      <c r="J272" s="58"/>
-      <c r="K272" s="59"/>
+      <c r="D272" s="88"/>
+      <c r="E272" s="88"/>
+      <c r="F272" s="88"/>
+      <c r="G272" s="88"/>
+      <c r="H272" s="88"/>
+      <c r="I272" s="88"/>
+      <c r="J272" s="88"/>
+      <c r="K272" s="89"/>
       <c r="L272" s="6">
         <v>17</v>
       </c>
@@ -10924,17 +10924,17 @@
       <c r="B273" s="41">
         <v>44722</v>
       </c>
-      <c r="C273" s="54" t="s">
+      <c r="C273" s="83" t="s">
         <v>36</v>
       </c>
-      <c r="D273" s="55"/>
-      <c r="E273" s="55"/>
-      <c r="F273" s="55"/>
-      <c r="G273" s="55"/>
-      <c r="H273" s="55"/>
-      <c r="I273" s="55"/>
-      <c r="J273" s="55"/>
-      <c r="K273" s="56"/>
+      <c r="D273" s="84"/>
+      <c r="E273" s="84"/>
+      <c r="F273" s="84"/>
+      <c r="G273" s="84"/>
+      <c r="H273" s="84"/>
+      <c r="I273" s="84"/>
+      <c r="J273" s="84"/>
+      <c r="K273" s="85"/>
       <c r="L273" s="6">
         <v>17</v>
       </c>
@@ -10959,17 +10959,17 @@
       <c r="B274" s="41">
         <v>44727</v>
       </c>
-      <c r="C274" s="54" t="s">
+      <c r="C274" s="83" t="s">
         <v>37</v>
       </c>
-      <c r="D274" s="55"/>
-      <c r="E274" s="55"/>
-      <c r="F274" s="55"/>
-      <c r="G274" s="55"/>
-      <c r="H274" s="55"/>
-      <c r="I274" s="55"/>
-      <c r="J274" s="55"/>
-      <c r="K274" s="56"/>
+      <c r="D274" s="84"/>
+      <c r="E274" s="84"/>
+      <c r="F274" s="84"/>
+      <c r="G274" s="84"/>
+      <c r="H274" s="84"/>
+      <c r="I274" s="84"/>
+      <c r="J274" s="84"/>
+      <c r="K274" s="85"/>
       <c r="L274" s="6">
         <v>17</v>
       </c>
@@ -10994,17 +10994,17 @@
       <c r="B275" s="41" t="s">
         <v>109</v>
       </c>
-      <c r="C275" s="54" t="s">
+      <c r="C275" s="83" t="s">
         <v>45</v>
       </c>
-      <c r="D275" s="55"/>
-      <c r="E275" s="55"/>
-      <c r="F275" s="55"/>
-      <c r="G275" s="55"/>
-      <c r="H275" s="55"/>
-      <c r="I275" s="55"/>
-      <c r="J275" s="55"/>
-      <c r="K275" s="56"/>
+      <c r="D275" s="84"/>
+      <c r="E275" s="84"/>
+      <c r="F275" s="84"/>
+      <c r="G275" s="84"/>
+      <c r="H275" s="84"/>
+      <c r="I275" s="84"/>
+      <c r="J275" s="84"/>
+      <c r="K275" s="85"/>
       <c r="L275" s="6">
         <v>17</v>
       </c>
@@ -11032,17 +11032,17 @@
       <c r="B276" s="41" t="s">
         <v>110</v>
       </c>
-      <c r="C276" s="54" t="s">
+      <c r="C276" s="83" t="s">
         <v>46</v>
       </c>
-      <c r="D276" s="55"/>
-      <c r="E276" s="55"/>
-      <c r="F276" s="55"/>
-      <c r="G276" s="55"/>
-      <c r="H276" s="55"/>
-      <c r="I276" s="55"/>
-      <c r="J276" s="55"/>
-      <c r="K276" s="56"/>
+      <c r="D276" s="84"/>
+      <c r="E276" s="84"/>
+      <c r="F276" s="84"/>
+      <c r="G276" s="84"/>
+      <c r="H276" s="84"/>
+      <c r="I276" s="84"/>
+      <c r="J276" s="84"/>
+      <c r="K276" s="85"/>
       <c r="L276" s="6">
         <v>17</v>
       </c>
@@ -11070,17 +11070,17 @@
       <c r="B277" s="41">
         <v>44736</v>
       </c>
-      <c r="C277" s="57" t="s">
+      <c r="C277" s="87" t="s">
         <v>7</v>
       </c>
-      <c r="D277" s="58"/>
-      <c r="E277" s="58"/>
-      <c r="F277" s="58"/>
-      <c r="G277" s="58"/>
-      <c r="H277" s="58"/>
-      <c r="I277" s="58"/>
-      <c r="J277" s="58"/>
-      <c r="K277" s="59"/>
+      <c r="D277" s="88"/>
+      <c r="E277" s="88"/>
+      <c r="F277" s="88"/>
+      <c r="G277" s="88"/>
+      <c r="H277" s="88"/>
+      <c r="I277" s="88"/>
+      <c r="J277" s="88"/>
+      <c r="K277" s="89"/>
       <c r="L277" s="6">
         <v>17</v>
       </c>
@@ -11108,17 +11108,17 @@
       <c r="B278" s="41">
         <v>44740</v>
       </c>
-      <c r="C278" s="54" t="s">
+      <c r="C278" s="83" t="s">
         <v>38</v>
       </c>
-      <c r="D278" s="55"/>
-      <c r="E278" s="55"/>
-      <c r="F278" s="55"/>
-      <c r="G278" s="55"/>
-      <c r="H278" s="55"/>
-      <c r="I278" s="55"/>
-      <c r="J278" s="55"/>
-      <c r="K278" s="56"/>
+      <c r="D278" s="84"/>
+      <c r="E278" s="84"/>
+      <c r="F278" s="84"/>
+      <c r="G278" s="84"/>
+      <c r="H278" s="84"/>
+      <c r="I278" s="84"/>
+      <c r="J278" s="84"/>
+      <c r="K278" s="85"/>
       <c r="L278" s="6">
         <v>17</v>
       </c>
@@ -11146,17 +11146,17 @@
       <c r="B279" s="41">
         <v>44745</v>
       </c>
-      <c r="C279" s="57" t="s">
+      <c r="C279" s="87" t="s">
         <v>11</v>
       </c>
-      <c r="D279" s="58"/>
-      <c r="E279" s="58"/>
-      <c r="F279" s="58"/>
-      <c r="G279" s="58"/>
-      <c r="H279" s="58"/>
-      <c r="I279" s="58"/>
-      <c r="J279" s="58"/>
-      <c r="K279" s="59"/>
+      <c r="D279" s="88"/>
+      <c r="E279" s="88"/>
+      <c r="F279" s="88"/>
+      <c r="G279" s="88"/>
+      <c r="H279" s="88"/>
+      <c r="I279" s="88"/>
+      <c r="J279" s="88"/>
+      <c r="K279" s="89"/>
       <c r="L279" s="6">
         <v>17</v>
       </c>
@@ -11184,17 +11184,17 @@
       <c r="B280" s="41">
         <v>44750</v>
       </c>
-      <c r="C280" s="54" t="s">
+      <c r="C280" s="83" t="s">
         <v>48</v>
       </c>
-      <c r="D280" s="55"/>
-      <c r="E280" s="55"/>
-      <c r="F280" s="55"/>
-      <c r="G280" s="55"/>
-      <c r="H280" s="55"/>
-      <c r="I280" s="55"/>
-      <c r="J280" s="55"/>
-      <c r="K280" s="56"/>
+      <c r="D280" s="84"/>
+      <c r="E280" s="84"/>
+      <c r="F280" s="84"/>
+      <c r="G280" s="84"/>
+      <c r="H280" s="84"/>
+      <c r="I280" s="84"/>
+      <c r="J280" s="84"/>
+      <c r="K280" s="85"/>
       <c r="L280" s="6">
         <v>17</v>
       </c>
@@ -11219,17 +11219,17 @@
       <c r="B281" s="41">
         <v>44752</v>
       </c>
-      <c r="C281" s="58" t="s">
+      <c r="C281" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="D281" s="58"/>
-      <c r="E281" s="58"/>
-      <c r="F281" s="58"/>
-      <c r="G281" s="58"/>
-      <c r="H281" s="58"/>
-      <c r="I281" s="58"/>
-      <c r="J281" s="58"/>
-      <c r="K281" s="59"/>
+      <c r="D281" s="88"/>
+      <c r="E281" s="88"/>
+      <c r="F281" s="88"/>
+      <c r="G281" s="88"/>
+      <c r="H281" s="88"/>
+      <c r="I281" s="88"/>
+      <c r="J281" s="88"/>
+      <c r="K281" s="89"/>
       <c r="L281" s="6">
         <v>17</v>
       </c>
@@ -11257,17 +11257,17 @@
       <c r="B282" s="41">
         <v>44754</v>
       </c>
-      <c r="C282" s="55" t="s">
+      <c r="C282" s="84" t="s">
         <v>49</v>
       </c>
-      <c r="D282" s="55"/>
-      <c r="E282" s="55"/>
-      <c r="F282" s="55"/>
-      <c r="G282" s="55"/>
-      <c r="H282" s="55"/>
-      <c r="I282" s="55"/>
-      <c r="J282" s="55"/>
-      <c r="K282" s="56"/>
+      <c r="D282" s="84"/>
+      <c r="E282" s="84"/>
+      <c r="F282" s="84"/>
+      <c r="G282" s="84"/>
+      <c r="H282" s="84"/>
+      <c r="I282" s="84"/>
+      <c r="J282" s="84"/>
+      <c r="K282" s="85"/>
       <c r="L282" s="6">
         <v>17</v>
       </c>
@@ -11292,17 +11292,17 @@
       <c r="B283" s="41">
         <v>44757</v>
       </c>
-      <c r="C283" s="57" t="s">
+      <c r="C283" s="87" t="s">
         <v>10</v>
       </c>
-      <c r="D283" s="58"/>
-      <c r="E283" s="58"/>
-      <c r="F283" s="58"/>
-      <c r="G283" s="58"/>
-      <c r="H283" s="58"/>
-      <c r="I283" s="58"/>
-      <c r="J283" s="58"/>
-      <c r="K283" s="59"/>
+      <c r="D283" s="88"/>
+      <c r="E283" s="88"/>
+      <c r="F283" s="88"/>
+      <c r="G283" s="88"/>
+      <c r="H283" s="88"/>
+      <c r="I283" s="88"/>
+      <c r="J283" s="88"/>
+      <c r="K283" s="89"/>
       <c r="L283" s="6">
         <v>17</v>
       </c>
@@ -11330,17 +11330,17 @@
       <c r="B284" s="41">
         <v>44760</v>
       </c>
-      <c r="C284" s="57" t="s">
+      <c r="C284" s="87" t="s">
         <v>47</v>
       </c>
-      <c r="D284" s="58"/>
-      <c r="E284" s="58"/>
-      <c r="F284" s="58"/>
-      <c r="G284" s="58"/>
-      <c r="H284" s="58"/>
-      <c r="I284" s="58"/>
-      <c r="J284" s="58"/>
-      <c r="K284" s="59"/>
+      <c r="D284" s="88"/>
+      <c r="E284" s="88"/>
+      <c r="F284" s="88"/>
+      <c r="G284" s="88"/>
+      <c r="H284" s="88"/>
+      <c r="I284" s="88"/>
+      <c r="J284" s="88"/>
+      <c r="K284" s="89"/>
       <c r="L284" s="6">
         <v>17</v>
       </c>
@@ -11366,17 +11366,17 @@
         <v>23</v>
       </c>
       <c r="B285" s="41"/>
-      <c r="C285" s="54" t="s">
+      <c r="C285" s="83" t="s">
         <v>41</v>
       </c>
-      <c r="D285" s="55"/>
-      <c r="E285" s="55"/>
-      <c r="F285" s="55"/>
-      <c r="G285" s="55"/>
-      <c r="H285" s="55"/>
-      <c r="I285" s="55"/>
-      <c r="J285" s="55"/>
-      <c r="K285" s="56"/>
+      <c r="D285" s="84"/>
+      <c r="E285" s="84"/>
+      <c r="F285" s="84"/>
+      <c r="G285" s="84"/>
+      <c r="H285" s="84"/>
+      <c r="I285" s="84"/>
+      <c r="J285" s="84"/>
+      <c r="K285" s="85"/>
       <c r="L285" s="6">
         <v>17</v>
       </c>
@@ -11399,17 +11399,17 @@
         <v>24</v>
       </c>
       <c r="B286" s="41"/>
-      <c r="C286" s="54" t="s">
+      <c r="C286" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="D286" s="55"/>
-      <c r="E286" s="55"/>
-      <c r="F286" s="55"/>
-      <c r="G286" s="55"/>
-      <c r="H286" s="55"/>
-      <c r="I286" s="55"/>
-      <c r="J286" s="55"/>
-      <c r="K286" s="56"/>
+      <c r="D286" s="84"/>
+      <c r="E286" s="84"/>
+      <c r="F286" s="84"/>
+      <c r="G286" s="84"/>
+      <c r="H286" s="84"/>
+      <c r="I286" s="84"/>
+      <c r="J286" s="84"/>
+      <c r="K286" s="85"/>
       <c r="L286" s="6">
         <v>17</v>
       </c>
@@ -11432,20 +11432,20 @@
         <v>25</v>
       </c>
       <c r="B287" s="47"/>
-      <c r="C287" s="66" t="s">
+      <c r="C287" s="60" t="s">
         <v>58</v>
       </c>
-      <c r="D287" s="67"/>
-      <c r="E287" s="67"/>
-      <c r="F287" s="67"/>
-      <c r="G287" s="67"/>
-      <c r="H287" s="67"/>
-      <c r="I287" s="67"/>
-      <c r="J287" s="67"/>
-      <c r="K287" s="67"/>
-      <c r="L287" s="67"/>
-      <c r="M287" s="67"/>
-      <c r="N287" s="68"/>
+      <c r="D287" s="61"/>
+      <c r="E287" s="61"/>
+      <c r="F287" s="61"/>
+      <c r="G287" s="61"/>
+      <c r="H287" s="61"/>
+      <c r="I287" s="61"/>
+      <c r="J287" s="61"/>
+      <c r="K287" s="61"/>
+      <c r="L287" s="61"/>
+      <c r="M287" s="61"/>
+      <c r="N287" s="62"/>
       <c r="O287" s="11"/>
       <c r="P287" s="12" t="e">
         <f>AVERAGE(P263:P286)</f>
@@ -11468,26 +11468,26 @@
       <c r="B288" s="41"/>
     </row>
     <row r="289" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A289" s="82" t="s">
+      <c r="A289" s="76" t="s">
         <v>13</v>
       </c>
-      <c r="B289" s="83"/>
-      <c r="C289" s="83"/>
-      <c r="D289" s="83"/>
-      <c r="E289" s="83"/>
-      <c r="F289" s="83"/>
-      <c r="G289" s="83"/>
-      <c r="H289" s="83"/>
-      <c r="I289" s="83"/>
-      <c r="J289" s="83"/>
-      <c r="K289" s="83"/>
-      <c r="L289" s="83"/>
-      <c r="M289" s="83"/>
-      <c r="N289" s="83"/>
-      <c r="O289" s="83"/>
-      <c r="P289" s="83"/>
-      <c r="Q289" s="83"/>
-      <c r="R289" s="84"/>
+      <c r="B289" s="77"/>
+      <c r="C289" s="77"/>
+      <c r="D289" s="77"/>
+      <c r="E289" s="77"/>
+      <c r="F289" s="77"/>
+      <c r="G289" s="77"/>
+      <c r="H289" s="77"/>
+      <c r="I289" s="77"/>
+      <c r="J289" s="77"/>
+      <c r="K289" s="77"/>
+      <c r="L289" s="77"/>
+      <c r="M289" s="77"/>
+      <c r="N289" s="77"/>
+      <c r="O289" s="77"/>
+      <c r="P289" s="77"/>
+      <c r="Q289" s="77"/>
+      <c r="R289" s="78"/>
       <c r="S289" s="15"/>
       <c r="T289" s="15"/>
       <c r="U289" s="15"/>
@@ -11497,17 +11497,17 @@
         <v>1</v>
       </c>
       <c r="B291" s="5"/>
-      <c r="C291" s="72" t="s">
+      <c r="C291" s="73" t="s">
         <v>56</v>
       </c>
-      <c r="D291" s="72"/>
-      <c r="E291" s="72"/>
-      <c r="F291" s="72"/>
-      <c r="G291" s="72"/>
-      <c r="H291" s="72"/>
-      <c r="I291" s="72"/>
-      <c r="J291" s="72"/>
-      <c r="K291" s="72"/>
+      <c r="D291" s="73"/>
+      <c r="E291" s="73"/>
+      <c r="F291" s="73"/>
+      <c r="G291" s="73"/>
+      <c r="H291" s="73"/>
+      <c r="I291" s="73"/>
+      <c r="J291" s="73"/>
+      <c r="K291" s="73"/>
       <c r="L291" s="5" t="s">
         <v>2</v>
       </c>
@@ -11544,17 +11544,17 @@
         <v>1</v>
       </c>
       <c r="B292" s="1"/>
-      <c r="C292" s="73" t="s">
+      <c r="C292" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="D292" s="73"/>
-      <c r="E292" s="73"/>
-      <c r="F292" s="73"/>
-      <c r="G292" s="73"/>
-      <c r="H292" s="73"/>
-      <c r="I292" s="73"/>
-      <c r="J292" s="73"/>
-      <c r="K292" s="73"/>
+      <c r="D292" s="74"/>
+      <c r="E292" s="74"/>
+      <c r="F292" s="74"/>
+      <c r="G292" s="74"/>
+      <c r="H292" s="74"/>
+      <c r="I292" s="74"/>
+      <c r="J292" s="74"/>
+      <c r="K292" s="74"/>
       <c r="L292" s="6">
         <v>33</v>
       </c>
@@ -11577,17 +11577,17 @@
         <v>2</v>
       </c>
       <c r="B293" s="1"/>
-      <c r="C293" s="64" t="s">
+      <c r="C293" s="66" t="s">
         <v>16</v>
       </c>
-      <c r="D293" s="65"/>
-      <c r="E293" s="65"/>
-      <c r="F293" s="65"/>
-      <c r="G293" s="65"/>
-      <c r="H293" s="65"/>
-      <c r="I293" s="65"/>
-      <c r="J293" s="65"/>
-      <c r="K293" s="65"/>
+      <c r="D293" s="67"/>
+      <c r="E293" s="67"/>
+      <c r="F293" s="67"/>
+      <c r="G293" s="67"/>
+      <c r="H293" s="67"/>
+      <c r="I293" s="67"/>
+      <c r="J293" s="67"/>
+      <c r="K293" s="67"/>
       <c r="L293" s="6">
         <v>33</v>
       </c>
@@ -11610,17 +11610,17 @@
         <v>3</v>
       </c>
       <c r="B294" s="1"/>
-      <c r="C294" s="64" t="s">
+      <c r="C294" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="D294" s="65"/>
-      <c r="E294" s="65"/>
-      <c r="F294" s="65"/>
-      <c r="G294" s="65"/>
-      <c r="H294" s="65"/>
-      <c r="I294" s="65"/>
-      <c r="J294" s="65"/>
-      <c r="K294" s="65"/>
+      <c r="D294" s="67"/>
+      <c r="E294" s="67"/>
+      <c r="F294" s="67"/>
+      <c r="G294" s="67"/>
+      <c r="H294" s="67"/>
+      <c r="I294" s="67"/>
+      <c r="J294" s="67"/>
+      <c r="K294" s="67"/>
       <c r="L294" s="6">
         <v>33</v>
       </c>
@@ -11643,17 +11643,17 @@
         <v>4</v>
       </c>
       <c r="B295" s="1"/>
-      <c r="C295" s="65" t="s">
+      <c r="C295" s="67" t="s">
         <v>18</v>
       </c>
-      <c r="D295" s="65"/>
-      <c r="E295" s="65"/>
-      <c r="F295" s="65"/>
-      <c r="G295" s="65"/>
-      <c r="H295" s="65"/>
-      <c r="I295" s="65"/>
-      <c r="J295" s="65"/>
-      <c r="K295" s="65"/>
+      <c r="D295" s="67"/>
+      <c r="E295" s="67"/>
+      <c r="F295" s="67"/>
+      <c r="G295" s="67"/>
+      <c r="H295" s="67"/>
+      <c r="I295" s="67"/>
+      <c r="J295" s="67"/>
+      <c r="K295" s="67"/>
       <c r="L295" s="6">
         <v>33</v>
       </c>
@@ -11676,17 +11676,17 @@
         <v>5</v>
       </c>
       <c r="B296" s="1"/>
-      <c r="C296" s="64" t="s">
+      <c r="C296" s="66" t="s">
         <v>61</v>
       </c>
-      <c r="D296" s="65"/>
-      <c r="E296" s="65"/>
-      <c r="F296" s="65"/>
-      <c r="G296" s="65"/>
-      <c r="H296" s="65"/>
-      <c r="I296" s="65"/>
-      <c r="J296" s="65"/>
-      <c r="K296" s="65"/>
+      <c r="D296" s="67"/>
+      <c r="E296" s="67"/>
+      <c r="F296" s="67"/>
+      <c r="G296" s="67"/>
+      <c r="H296" s="67"/>
+      <c r="I296" s="67"/>
+      <c r="J296" s="67"/>
+      <c r="K296" s="67"/>
       <c r="L296" s="6">
         <v>33</v>
       </c>
@@ -11709,17 +11709,17 @@
         <v>6</v>
       </c>
       <c r="B297" s="1"/>
-      <c r="C297" s="64" t="s">
+      <c r="C297" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="D297" s="65"/>
-      <c r="E297" s="65"/>
-      <c r="F297" s="65"/>
-      <c r="G297" s="65"/>
-      <c r="H297" s="65"/>
-      <c r="I297" s="65"/>
-      <c r="J297" s="65"/>
-      <c r="K297" s="65"/>
+      <c r="D297" s="67"/>
+      <c r="E297" s="67"/>
+      <c r="F297" s="67"/>
+      <c r="G297" s="67"/>
+      <c r="H297" s="67"/>
+      <c r="I297" s="67"/>
+      <c r="J297" s="67"/>
+      <c r="K297" s="67"/>
       <c r="L297" s="6">
         <v>33</v>
       </c>
@@ -11742,17 +11742,17 @@
         <v>7</v>
       </c>
       <c r="B298" s="1"/>
-      <c r="C298" s="65" t="s">
+      <c r="C298" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="D298" s="65"/>
-      <c r="E298" s="65"/>
-      <c r="F298" s="65"/>
-      <c r="G298" s="65"/>
-      <c r="H298" s="65"/>
-      <c r="I298" s="65"/>
-      <c r="J298" s="65"/>
-      <c r="K298" s="65"/>
+      <c r="D298" s="67"/>
+      <c r="E298" s="67"/>
+      <c r="F298" s="67"/>
+      <c r="G298" s="67"/>
+      <c r="H298" s="67"/>
+      <c r="I298" s="67"/>
+      <c r="J298" s="67"/>
+      <c r="K298" s="67"/>
       <c r="L298" s="6">
         <v>33</v>
       </c>
@@ -11775,17 +11775,17 @@
         <v>8</v>
       </c>
       <c r="B299" s="1"/>
-      <c r="C299" s="64" t="s">
+      <c r="C299" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="D299" s="65"/>
-      <c r="E299" s="65"/>
-      <c r="F299" s="65"/>
-      <c r="G299" s="65"/>
-      <c r="H299" s="65"/>
-      <c r="I299" s="65"/>
-      <c r="J299" s="65"/>
-      <c r="K299" s="65"/>
+      <c r="D299" s="67"/>
+      <c r="E299" s="67"/>
+      <c r="F299" s="67"/>
+      <c r="G299" s="67"/>
+      <c r="H299" s="67"/>
+      <c r="I299" s="67"/>
+      <c r="J299" s="67"/>
+      <c r="K299" s="67"/>
       <c r="L299" s="6">
         <v>33</v>
       </c>
@@ -11808,17 +11808,17 @@
         <v>9</v>
       </c>
       <c r="B300" s="1"/>
-      <c r="C300" s="64" t="s">
+      <c r="C300" s="66" t="s">
         <v>62</v>
       </c>
-      <c r="D300" s="65"/>
-      <c r="E300" s="65"/>
-      <c r="F300" s="65"/>
-      <c r="G300" s="65"/>
-      <c r="H300" s="65"/>
-      <c r="I300" s="65"/>
-      <c r="J300" s="65"/>
-      <c r="K300" s="65"/>
+      <c r="D300" s="67"/>
+      <c r="E300" s="67"/>
+      <c r="F300" s="67"/>
+      <c r="G300" s="67"/>
+      <c r="H300" s="67"/>
+      <c r="I300" s="67"/>
+      <c r="J300" s="67"/>
+      <c r="K300" s="67"/>
       <c r="L300" s="6">
         <v>33</v>
       </c>
@@ -11841,17 +11841,17 @@
         <v>10</v>
       </c>
       <c r="B301" s="1"/>
-      <c r="C301" s="64" t="s">
+      <c r="C301" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="D301" s="65"/>
-      <c r="E301" s="65"/>
-      <c r="F301" s="65"/>
-      <c r="G301" s="65"/>
-      <c r="H301" s="65"/>
-      <c r="I301" s="65"/>
-      <c r="J301" s="65"/>
-      <c r="K301" s="65"/>
+      <c r="D301" s="67"/>
+      <c r="E301" s="67"/>
+      <c r="F301" s="67"/>
+      <c r="G301" s="67"/>
+      <c r="H301" s="67"/>
+      <c r="I301" s="67"/>
+      <c r="J301" s="67"/>
+      <c r="K301" s="67"/>
       <c r="L301" s="6">
         <v>33</v>
       </c>
@@ -11874,17 +11874,17 @@
         <v>11</v>
       </c>
       <c r="B302" s="1"/>
-      <c r="C302" s="64" t="s">
+      <c r="C302" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="D302" s="65"/>
-      <c r="E302" s="65"/>
-      <c r="F302" s="65"/>
-      <c r="G302" s="65"/>
-      <c r="H302" s="65"/>
-      <c r="I302" s="65"/>
-      <c r="J302" s="65"/>
-      <c r="K302" s="65"/>
+      <c r="D302" s="67"/>
+      <c r="E302" s="67"/>
+      <c r="F302" s="67"/>
+      <c r="G302" s="67"/>
+      <c r="H302" s="67"/>
+      <c r="I302" s="67"/>
+      <c r="J302" s="67"/>
+      <c r="K302" s="67"/>
       <c r="L302" s="6">
         <v>33</v>
       </c>
@@ -11907,17 +11907,17 @@
         <v>12</v>
       </c>
       <c r="B303" s="1"/>
-      <c r="C303" s="64" t="s">
+      <c r="C303" s="66" t="s">
         <v>63</v>
       </c>
-      <c r="D303" s="65"/>
-      <c r="E303" s="65"/>
-      <c r="F303" s="65"/>
-      <c r="G303" s="65"/>
-      <c r="H303" s="65"/>
-      <c r="I303" s="65"/>
-      <c r="J303" s="65"/>
-      <c r="K303" s="65"/>
+      <c r="D303" s="67"/>
+      <c r="E303" s="67"/>
+      <c r="F303" s="67"/>
+      <c r="G303" s="67"/>
+      <c r="H303" s="67"/>
+      <c r="I303" s="67"/>
+      <c r="J303" s="67"/>
+      <c r="K303" s="67"/>
       <c r="L303" s="6">
         <v>33</v>
       </c>
@@ -11940,20 +11940,20 @@
         <v>13</v>
       </c>
       <c r="B304" s="1"/>
-      <c r="C304" s="66" t="s">
+      <c r="C304" s="60" t="s">
         <v>58</v>
       </c>
-      <c r="D304" s="67"/>
-      <c r="E304" s="67"/>
-      <c r="F304" s="67"/>
-      <c r="G304" s="67"/>
-      <c r="H304" s="67"/>
-      <c r="I304" s="67"/>
-      <c r="J304" s="67"/>
-      <c r="K304" s="67"/>
-      <c r="L304" s="67"/>
-      <c r="M304" s="67"/>
-      <c r="N304" s="68"/>
+      <c r="D304" s="61"/>
+      <c r="E304" s="61"/>
+      <c r="F304" s="61"/>
+      <c r="G304" s="61"/>
+      <c r="H304" s="61"/>
+      <c r="I304" s="61"/>
+      <c r="J304" s="61"/>
+      <c r="K304" s="61"/>
+      <c r="L304" s="61"/>
+      <c r="M304" s="61"/>
+      <c r="N304" s="62"/>
       <c r="O304" s="11"/>
       <c r="P304" s="12"/>
       <c r="Q304" s="13"/>
@@ -11967,26 +11967,26 @@
       <c r="B305" s="1"/>
     </row>
     <row r="306" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A306" s="69" t="s">
+      <c r="A306" s="63" t="s">
         <v>24</v>
       </c>
-      <c r="B306" s="70"/>
-      <c r="C306" s="70"/>
-      <c r="D306" s="70"/>
-      <c r="E306" s="70"/>
-      <c r="F306" s="70"/>
-      <c r="G306" s="70"/>
-      <c r="H306" s="70"/>
-      <c r="I306" s="70"/>
-      <c r="J306" s="70"/>
-      <c r="K306" s="70"/>
-      <c r="L306" s="70"/>
-      <c r="M306" s="70"/>
-      <c r="N306" s="70"/>
-      <c r="O306" s="70"/>
-      <c r="P306" s="70"/>
-      <c r="Q306" s="70"/>
-      <c r="R306" s="71"/>
+      <c r="B306" s="64"/>
+      <c r="C306" s="64"/>
+      <c r="D306" s="64"/>
+      <c r="E306" s="64"/>
+      <c r="F306" s="64"/>
+      <c r="G306" s="64"/>
+      <c r="H306" s="64"/>
+      <c r="I306" s="64"/>
+      <c r="J306" s="64"/>
+      <c r="K306" s="64"/>
+      <c r="L306" s="64"/>
+      <c r="M306" s="64"/>
+      <c r="N306" s="64"/>
+      <c r="O306" s="64"/>
+      <c r="P306" s="64"/>
+      <c r="Q306" s="64"/>
+      <c r="R306" s="65"/>
       <c r="S306" s="3"/>
       <c r="T306" s="3"/>
       <c r="U306" s="3"/>
@@ -11996,17 +11996,17 @@
         <v>1</v>
       </c>
       <c r="B308" s="5"/>
-      <c r="C308" s="72" t="s">
+      <c r="C308" s="73" t="s">
         <v>56</v>
       </c>
-      <c r="D308" s="72"/>
-      <c r="E308" s="72"/>
-      <c r="F308" s="72"/>
-      <c r="G308" s="72"/>
-      <c r="H308" s="72"/>
-      <c r="I308" s="72"/>
-      <c r="J308" s="72"/>
-      <c r="K308" s="72"/>
+      <c r="D308" s="73"/>
+      <c r="E308" s="73"/>
+      <c r="F308" s="73"/>
+      <c r="G308" s="73"/>
+      <c r="H308" s="73"/>
+      <c r="I308" s="73"/>
+      <c r="J308" s="73"/>
+      <c r="K308" s="73"/>
       <c r="L308" s="5" t="s">
         <v>2</v>
       </c>
@@ -12043,17 +12043,17 @@
         <v>1</v>
       </c>
       <c r="B309" s="1"/>
-      <c r="C309" s="73" t="s">
+      <c r="C309" s="74" t="s">
         <v>65</v>
       </c>
-      <c r="D309" s="73"/>
-      <c r="E309" s="73"/>
-      <c r="F309" s="73"/>
-      <c r="G309" s="73"/>
-      <c r="H309" s="73"/>
-      <c r="I309" s="73"/>
-      <c r="J309" s="73"/>
-      <c r="K309" s="73"/>
+      <c r="D309" s="74"/>
+      <c r="E309" s="74"/>
+      <c r="F309" s="74"/>
+      <c r="G309" s="74"/>
+      <c r="H309" s="74"/>
+      <c r="I309" s="74"/>
+      <c r="J309" s="74"/>
+      <c r="K309" s="74"/>
       <c r="L309" s="6">
         <v>33</v>
       </c>
@@ -12076,17 +12076,17 @@
         <v>2</v>
       </c>
       <c r="B310" s="1"/>
-      <c r="C310" s="64" t="s">
+      <c r="C310" s="66" t="s">
         <v>66</v>
       </c>
-      <c r="D310" s="65"/>
-      <c r="E310" s="65"/>
-      <c r="F310" s="65"/>
-      <c r="G310" s="65"/>
-      <c r="H310" s="65"/>
-      <c r="I310" s="65"/>
-      <c r="J310" s="65"/>
-      <c r="K310" s="65"/>
+      <c r="D310" s="67"/>
+      <c r="E310" s="67"/>
+      <c r="F310" s="67"/>
+      <c r="G310" s="67"/>
+      <c r="H310" s="67"/>
+      <c r="I310" s="67"/>
+      <c r="J310" s="67"/>
+      <c r="K310" s="67"/>
       <c r="L310" s="6">
         <v>33</v>
       </c>
@@ -12109,17 +12109,17 @@
         <v>3</v>
       </c>
       <c r="B311" s="1"/>
-      <c r="C311" s="64" t="s">
+      <c r="C311" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="D311" s="65"/>
-      <c r="E311" s="65"/>
-      <c r="F311" s="65"/>
-      <c r="G311" s="65"/>
-      <c r="H311" s="65"/>
-      <c r="I311" s="65"/>
-      <c r="J311" s="65"/>
-      <c r="K311" s="65"/>
+      <c r="D311" s="67"/>
+      <c r="E311" s="67"/>
+      <c r="F311" s="67"/>
+      <c r="G311" s="67"/>
+      <c r="H311" s="67"/>
+      <c r="I311" s="67"/>
+      <c r="J311" s="67"/>
+      <c r="K311" s="67"/>
       <c r="L311" s="6">
         <v>33</v>
       </c>
@@ -12142,17 +12142,17 @@
         <v>4</v>
       </c>
       <c r="B312" s="1"/>
-      <c r="C312" s="65" t="s">
+      <c r="C312" s="67" t="s">
         <v>26</v>
       </c>
-      <c r="D312" s="65"/>
-      <c r="E312" s="65"/>
-      <c r="F312" s="65"/>
-      <c r="G312" s="65"/>
-      <c r="H312" s="65"/>
-      <c r="I312" s="65"/>
-      <c r="J312" s="65"/>
-      <c r="K312" s="65"/>
+      <c r="D312" s="67"/>
+      <c r="E312" s="67"/>
+      <c r="F312" s="67"/>
+      <c r="G312" s="67"/>
+      <c r="H312" s="67"/>
+      <c r="I312" s="67"/>
+      <c r="J312" s="67"/>
+      <c r="K312" s="67"/>
       <c r="L312" s="6">
         <v>33</v>
       </c>
@@ -12175,17 +12175,17 @@
         <v>5</v>
       </c>
       <c r="B313" s="1"/>
-      <c r="C313" s="64" t="s">
+      <c r="C313" s="66" t="s">
         <v>27</v>
       </c>
-      <c r="D313" s="65"/>
-      <c r="E313" s="65"/>
-      <c r="F313" s="65"/>
-      <c r="G313" s="65"/>
-      <c r="H313" s="65"/>
-      <c r="I313" s="65"/>
-      <c r="J313" s="65"/>
-      <c r="K313" s="65"/>
+      <c r="D313" s="67"/>
+      <c r="E313" s="67"/>
+      <c r="F313" s="67"/>
+      <c r="G313" s="67"/>
+      <c r="H313" s="67"/>
+      <c r="I313" s="67"/>
+      <c r="J313" s="67"/>
+      <c r="K313" s="67"/>
       <c r="L313" s="6">
         <v>33</v>
       </c>
@@ -12208,17 +12208,17 @@
         <v>6</v>
       </c>
       <c r="B314" s="1"/>
-      <c r="C314" s="64" t="s">
+      <c r="C314" s="66" t="s">
         <v>67</v>
       </c>
-      <c r="D314" s="65"/>
-      <c r="E314" s="65"/>
-      <c r="F314" s="65"/>
-      <c r="G314" s="65"/>
-      <c r="H314" s="65"/>
-      <c r="I314" s="65"/>
-      <c r="J314" s="65"/>
-      <c r="K314" s="65"/>
+      <c r="D314" s="67"/>
+      <c r="E314" s="67"/>
+      <c r="F314" s="67"/>
+      <c r="G314" s="67"/>
+      <c r="H314" s="67"/>
+      <c r="I314" s="67"/>
+      <c r="J314" s="67"/>
+      <c r="K314" s="67"/>
       <c r="L314" s="6">
         <v>33</v>
       </c>
@@ -12241,20 +12241,20 @@
         <v>7</v>
       </c>
       <c r="B315" s="1"/>
-      <c r="C315" s="66" t="s">
+      <c r="C315" s="60" t="s">
         <v>58</v>
       </c>
-      <c r="D315" s="67"/>
-      <c r="E315" s="67"/>
-      <c r="F315" s="67"/>
-      <c r="G315" s="67"/>
-      <c r="H315" s="67"/>
-      <c r="I315" s="67"/>
-      <c r="J315" s="67"/>
-      <c r="K315" s="67"/>
-      <c r="L315" s="67"/>
-      <c r="M315" s="67"/>
-      <c r="N315" s="68"/>
+      <c r="D315" s="61"/>
+      <c r="E315" s="61"/>
+      <c r="F315" s="61"/>
+      <c r="G315" s="61"/>
+      <c r="H315" s="61"/>
+      <c r="I315" s="61"/>
+      <c r="J315" s="61"/>
+      <c r="K315" s="61"/>
+      <c r="L315" s="61"/>
+      <c r="M315" s="61"/>
+      <c r="N315" s="62"/>
       <c r="O315" s="11"/>
       <c r="P315" s="12" t="e">
         <f>AVERAGE(P309:P314)</f>
@@ -12274,25 +12274,25 @@
       <c r="B316" s="1"/>
     </row>
     <row r="317" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A317" s="81" t="s">
+      <c r="A317" s="72" t="s">
         <v>28</v>
       </c>
-      <c r="B317" s="81"/>
-      <c r="C317" s="81"/>
-      <c r="D317" s="81"/>
-      <c r="E317" s="81"/>
-      <c r="F317" s="81"/>
-      <c r="G317" s="81"/>
-      <c r="H317" s="81"/>
-      <c r="I317" s="81"/>
-      <c r="J317" s="81"/>
-      <c r="K317" s="81"/>
-      <c r="L317" s="81"/>
-      <c r="M317" s="81"/>
-      <c r="N317" s="81"/>
-      <c r="O317" s="81"/>
-      <c r="P317" s="81"/>
-      <c r="Q317" s="81"/>
+      <c r="B317" s="72"/>
+      <c r="C317" s="72"/>
+      <c r="D317" s="72"/>
+      <c r="E317" s="72"/>
+      <c r="F317" s="72"/>
+      <c r="G317" s="72"/>
+      <c r="H317" s="72"/>
+      <c r="I317" s="72"/>
+      <c r="J317" s="72"/>
+      <c r="K317" s="72"/>
+      <c r="L317" s="72"/>
+      <c r="M317" s="72"/>
+      <c r="N317" s="72"/>
+      <c r="O317" s="72"/>
+      <c r="P317" s="72"/>
+      <c r="Q317" s="72"/>
       <c r="R317"/>
     </row>
     <row r="318" spans="1:21" x14ac:dyDescent="0.3">
@@ -12300,10 +12300,10 @@
         <v>1</v>
       </c>
       <c r="B318" s="16"/>
-      <c r="C318" s="80" t="s">
+      <c r="C318" s="68" t="s">
         <v>68</v>
       </c>
-      <c r="D318" s="80"/>
+      <c r="D318" s="68"/>
       <c r="E318" s="17" t="s">
         <v>69</v>
       </c>
@@ -12350,10 +12350,10 @@
         <v>1</v>
       </c>
       <c r="B319" s="14"/>
-      <c r="C319" s="63" t="s">
+      <c r="C319" s="57" t="s">
         <v>84</v>
       </c>
-      <c r="D319" s="63"/>
+      <c r="D319" s="57"/>
       <c r="E319" s="25"/>
       <c r="F319" s="26"/>
       <c r="G319" s="27"/>
@@ -12374,10 +12374,10 @@
         <v>2</v>
       </c>
       <c r="B320" s="14"/>
-      <c r="C320" s="63" t="s">
+      <c r="C320" s="57" t="s">
         <v>85</v>
       </c>
-      <c r="D320" s="63"/>
+      <c r="D320" s="57"/>
       <c r="E320" s="25"/>
       <c r="F320" s="26"/>
       <c r="G320" s="27"/>
@@ -12398,10 +12398,10 @@
         <v>3</v>
       </c>
       <c r="B321" s="14"/>
-      <c r="C321" s="63" t="s">
+      <c r="C321" s="57" t="s">
         <v>86</v>
       </c>
-      <c r="D321" s="63"/>
+      <c r="D321" s="57"/>
       <c r="E321" s="25"/>
       <c r="F321" s="26"/>
       <c r="G321" s="27"/>
@@ -12422,10 +12422,10 @@
         <v>4</v>
       </c>
       <c r="B322" s="14"/>
-      <c r="C322" s="63" t="s">
+      <c r="C322" s="57" t="s">
         <v>87</v>
       </c>
-      <c r="D322" s="63"/>
+      <c r="D322" s="57"/>
       <c r="E322" s="25"/>
       <c r="F322" s="26"/>
       <c r="G322" s="27"/>
@@ -12446,10 +12446,10 @@
         <v>5</v>
       </c>
       <c r="B323" s="14"/>
-      <c r="C323" s="63" t="s">
+      <c r="C323" s="57" t="s">
         <v>90</v>
       </c>
-      <c r="D323" s="63"/>
+      <c r="D323" s="57"/>
       <c r="E323" s="25"/>
       <c r="F323" s="26"/>
       <c r="G323" s="27"/>
@@ -12470,10 +12470,10 @@
         <v>6</v>
       </c>
       <c r="B324" s="14"/>
-      <c r="C324" s="63" t="s">
+      <c r="C324" s="57" t="s">
         <v>91</v>
       </c>
-      <c r="D324" s="63"/>
+      <c r="D324" s="57"/>
       <c r="E324" s="25"/>
       <c r="F324" s="26"/>
       <c r="G324" s="27"/>
@@ -12494,10 +12494,10 @@
         <v>7</v>
       </c>
       <c r="B325" s="14"/>
-      <c r="C325" s="63" t="s">
+      <c r="C325" s="57" t="s">
         <v>92</v>
       </c>
-      <c r="D325" s="63"/>
+      <c r="D325" s="57"/>
       <c r="E325" s="25"/>
       <c r="F325" s="26"/>
       <c r="G325" s="27"/>
@@ -12518,10 +12518,10 @@
         <v>8</v>
       </c>
       <c r="B326" s="14"/>
-      <c r="C326" s="63" t="s">
+      <c r="C326" s="57" t="s">
         <v>93</v>
       </c>
-      <c r="D326" s="63"/>
+      <c r="D326" s="57"/>
       <c r="E326" s="25"/>
       <c r="F326" s="26"/>
       <c r="G326" s="27"/>
@@ -12540,10 +12540,10 @@
     <row r="327" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A327" s="14"/>
       <c r="B327" s="14"/>
-      <c r="C327" s="74" t="s">
+      <c r="C327" s="58" t="s">
         <v>98</v>
       </c>
-      <c r="D327" s="74"/>
+      <c r="D327" s="58"/>
       <c r="E327" s="25" t="e">
         <f t="shared" ref="E327:O327" si="25">AVERAGE(E319:E326)</f>
         <v>#DIV/0!</v>
@@ -12599,25 +12599,25 @@
       <c r="R329"/>
     </row>
     <row r="330" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A330" s="79" t="s">
+      <c r="A330" s="75" t="s">
         <v>99</v>
       </c>
-      <c r="B330" s="79"/>
-      <c r="C330" s="79"/>
-      <c r="D330" s="79"/>
-      <c r="E330" s="79"/>
-      <c r="F330" s="79"/>
-      <c r="G330" s="79"/>
-      <c r="H330" s="79"/>
-      <c r="I330" s="79"/>
-      <c r="J330" s="79"/>
-      <c r="K330" s="79"/>
-      <c r="L330" s="79"/>
-      <c r="M330" s="79"/>
-      <c r="N330" s="79"/>
-      <c r="O330" s="79"/>
-      <c r="P330" s="79"/>
-      <c r="Q330" s="79"/>
+      <c r="B330" s="75"/>
+      <c r="C330" s="75"/>
+      <c r="D330" s="75"/>
+      <c r="E330" s="75"/>
+      <c r="F330" s="75"/>
+      <c r="G330" s="75"/>
+      <c r="H330" s="75"/>
+      <c r="I330" s="75"/>
+      <c r="J330" s="75"/>
+      <c r="K330" s="75"/>
+      <c r="L330" s="75"/>
+      <c r="M330" s="75"/>
+      <c r="N330" s="75"/>
+      <c r="O330" s="75"/>
+      <c r="P330" s="75"/>
+      <c r="Q330" s="75"/>
       <c r="R330"/>
     </row>
     <row r="331" spans="1:18" x14ac:dyDescent="0.3">
@@ -12625,10 +12625,10 @@
         <v>1</v>
       </c>
       <c r="B331" s="16"/>
-      <c r="C331" s="80" t="s">
+      <c r="C331" s="68" t="s">
         <v>68</v>
       </c>
-      <c r="D331" s="80"/>
+      <c r="D331" s="68"/>
       <c r="E331" s="17" t="s">
         <v>69</v>
       </c>
@@ -12675,10 +12675,10 @@
         <v>1</v>
       </c>
       <c r="B332" s="14"/>
-      <c r="C332" s="63" t="s">
+      <c r="C332" s="57" t="s">
         <v>94</v>
       </c>
-      <c r="D332" s="63"/>
+      <c r="D332" s="57"/>
       <c r="E332" s="25"/>
       <c r="F332" s="26"/>
       <c r="G332" s="27"/>
@@ -12699,10 +12699,10 @@
         <v>2</v>
       </c>
       <c r="B333" s="14"/>
-      <c r="C333" s="63" t="s">
+      <c r="C333" s="57" t="s">
         <v>95</v>
       </c>
-      <c r="D333" s="63"/>
+      <c r="D333" s="57"/>
       <c r="E333" s="25"/>
       <c r="F333" s="26"/>
       <c r="G333" s="27"/>
@@ -12723,10 +12723,10 @@
         <v>3</v>
       </c>
       <c r="B334" s="14"/>
-      <c r="C334" s="63" t="s">
+      <c r="C334" s="57" t="s">
         <v>96</v>
       </c>
-      <c r="D334" s="63"/>
+      <c r="D334" s="57"/>
       <c r="E334" s="25"/>
       <c r="F334" s="26"/>
       <c r="G334" s="27"/>
@@ -12746,10 +12746,10 @@
         <v>4</v>
       </c>
       <c r="B335" s="14"/>
-      <c r="C335" s="63" t="s">
+      <c r="C335" s="57" t="s">
         <v>97</v>
       </c>
-      <c r="D335" s="63"/>
+      <c r="D335" s="57"/>
       <c r="E335" s="25"/>
       <c r="F335" s="26"/>
       <c r="G335" s="27"/>
@@ -12765,10 +12765,10 @@
       <c r="Q335" s="29"/>
     </row>
     <row r="336" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="C336" s="74" t="s">
+      <c r="C336" s="58" t="s">
         <v>98</v>
       </c>
-      <c r="D336" s="74"/>
+      <c r="D336" s="58"/>
       <c r="E336" s="25"/>
       <c r="F336" s="26"/>
       <c r="G336" s="27"/>
@@ -12785,6 +12785,265 @@
     </row>
   </sheetData>
   <mergeCells count="283">
+    <mergeCell ref="C179:K179"/>
+    <mergeCell ref="C178:K178"/>
+    <mergeCell ref="C176:K176"/>
+    <mergeCell ref="C177:K177"/>
+    <mergeCell ref="C193:K193"/>
+    <mergeCell ref="C192:K192"/>
+    <mergeCell ref="C175:K175"/>
+    <mergeCell ref="C332:D332"/>
+    <mergeCell ref="C333:D333"/>
+    <mergeCell ref="C320:D320"/>
+    <mergeCell ref="C300:K300"/>
+    <mergeCell ref="C301:K301"/>
+    <mergeCell ref="C302:K302"/>
+    <mergeCell ref="C303:K303"/>
+    <mergeCell ref="C304:N304"/>
+    <mergeCell ref="A306:R306"/>
+    <mergeCell ref="C308:K308"/>
+    <mergeCell ref="C309:K309"/>
+    <mergeCell ref="C310:K310"/>
+    <mergeCell ref="C291:K291"/>
+    <mergeCell ref="C292:K292"/>
+    <mergeCell ref="C293:K293"/>
+    <mergeCell ref="C294:K294"/>
+    <mergeCell ref="C295:K295"/>
+    <mergeCell ref="C334:D334"/>
+    <mergeCell ref="C335:D335"/>
+    <mergeCell ref="C336:D336"/>
+    <mergeCell ref="A257:W259"/>
+    <mergeCell ref="A260:R260"/>
+    <mergeCell ref="C286:K286"/>
+    <mergeCell ref="C287:N287"/>
+    <mergeCell ref="C321:D321"/>
+    <mergeCell ref="C322:D322"/>
+    <mergeCell ref="C323:D323"/>
+    <mergeCell ref="C324:D324"/>
+    <mergeCell ref="C325:D325"/>
+    <mergeCell ref="C326:D326"/>
+    <mergeCell ref="C327:D327"/>
+    <mergeCell ref="A330:Q330"/>
+    <mergeCell ref="C331:D331"/>
+    <mergeCell ref="C311:K311"/>
+    <mergeCell ref="C312:K312"/>
+    <mergeCell ref="C313:K313"/>
+    <mergeCell ref="C314:K314"/>
+    <mergeCell ref="C315:N315"/>
+    <mergeCell ref="A317:Q317"/>
+    <mergeCell ref="C318:D318"/>
+    <mergeCell ref="C319:D319"/>
+    <mergeCell ref="C296:K296"/>
+    <mergeCell ref="C297:K297"/>
+    <mergeCell ref="C298:K298"/>
+    <mergeCell ref="C299:K299"/>
+    <mergeCell ref="C279:K279"/>
+    <mergeCell ref="C280:K280"/>
+    <mergeCell ref="C281:K281"/>
+    <mergeCell ref="C282:K282"/>
+    <mergeCell ref="C283:K283"/>
+    <mergeCell ref="C284:K284"/>
+    <mergeCell ref="C285:K285"/>
+    <mergeCell ref="A289:R289"/>
+    <mergeCell ref="C270:K270"/>
+    <mergeCell ref="C271:K271"/>
+    <mergeCell ref="C272:K272"/>
+    <mergeCell ref="C273:K273"/>
+    <mergeCell ref="C274:K274"/>
+    <mergeCell ref="C275:K275"/>
+    <mergeCell ref="C276:K276"/>
+    <mergeCell ref="C277:K277"/>
+    <mergeCell ref="C278:K278"/>
+    <mergeCell ref="C262:K262"/>
+    <mergeCell ref="C263:K263"/>
+    <mergeCell ref="C264:K264"/>
+    <mergeCell ref="C265:K265"/>
+    <mergeCell ref="C266:K266"/>
+    <mergeCell ref="C267:K267"/>
+    <mergeCell ref="C268:K268"/>
+    <mergeCell ref="C269:K269"/>
+    <mergeCell ref="A245:Q245"/>
+    <mergeCell ref="C246:D246"/>
+    <mergeCell ref="C247:D247"/>
+    <mergeCell ref="C248:D248"/>
+    <mergeCell ref="C249:D249"/>
+    <mergeCell ref="C250:D250"/>
+    <mergeCell ref="C251:D251"/>
+    <mergeCell ref="C234:D234"/>
+    <mergeCell ref="C235:D235"/>
+    <mergeCell ref="C236:D236"/>
+    <mergeCell ref="C237:D237"/>
+    <mergeCell ref="C238:D238"/>
+    <mergeCell ref="C239:D239"/>
+    <mergeCell ref="C240:D240"/>
+    <mergeCell ref="C241:D241"/>
+    <mergeCell ref="C242:D242"/>
+    <mergeCell ref="C223:K223"/>
+    <mergeCell ref="C224:K224"/>
+    <mergeCell ref="C225:K225"/>
+    <mergeCell ref="C226:K226"/>
+    <mergeCell ref="C227:K227"/>
+    <mergeCell ref="C228:K228"/>
+    <mergeCell ref="C229:N229"/>
+    <mergeCell ref="A231:Q231"/>
+    <mergeCell ref="C232:D232"/>
+    <mergeCell ref="C212:K212"/>
+    <mergeCell ref="C213:K213"/>
+    <mergeCell ref="C214:K214"/>
+    <mergeCell ref="C215:K215"/>
+    <mergeCell ref="C216:K216"/>
+    <mergeCell ref="C217:K217"/>
+    <mergeCell ref="C218:N218"/>
+    <mergeCell ref="A220:R220"/>
+    <mergeCell ref="C222:K222"/>
+    <mergeCell ref="C200:N200"/>
+    <mergeCell ref="A203:R203"/>
+    <mergeCell ref="C205:K205"/>
+    <mergeCell ref="C206:K206"/>
+    <mergeCell ref="C207:K207"/>
+    <mergeCell ref="C208:K208"/>
+    <mergeCell ref="C209:K209"/>
+    <mergeCell ref="C210:K210"/>
+    <mergeCell ref="C211:K211"/>
+    <mergeCell ref="C183:K183"/>
+    <mergeCell ref="C186:K186"/>
+    <mergeCell ref="C187:K187"/>
+    <mergeCell ref="C184:K184"/>
+    <mergeCell ref="C185:K185"/>
+    <mergeCell ref="C196:K196"/>
+    <mergeCell ref="C197:K197"/>
+    <mergeCell ref="C198:K198"/>
+    <mergeCell ref="C199:K199"/>
+    <mergeCell ref="C188:K188"/>
+    <mergeCell ref="C189:K189"/>
+    <mergeCell ref="C190:K190"/>
+    <mergeCell ref="C191:K191"/>
+    <mergeCell ref="C194:K194"/>
+    <mergeCell ref="C195:K195"/>
+    <mergeCell ref="C180:K180"/>
+    <mergeCell ref="C181:K181"/>
+    <mergeCell ref="C182:K182"/>
+    <mergeCell ref="A170:W172"/>
+    <mergeCell ref="A173:R173"/>
+    <mergeCell ref="C4:K4"/>
+    <mergeCell ref="C5:K5"/>
+    <mergeCell ref="C6:K6"/>
+    <mergeCell ref="C23:K23"/>
+    <mergeCell ref="C24:K24"/>
+    <mergeCell ref="C13:K13"/>
+    <mergeCell ref="C14:K14"/>
+    <mergeCell ref="C15:K15"/>
+    <mergeCell ref="C16:K16"/>
+    <mergeCell ref="C17:K17"/>
+    <mergeCell ref="C18:K18"/>
+    <mergeCell ref="C7:K7"/>
+    <mergeCell ref="C8:K8"/>
+    <mergeCell ref="C9:K9"/>
+    <mergeCell ref="C10:K10"/>
+    <mergeCell ref="C11:K11"/>
+    <mergeCell ref="C12:K12"/>
+    <mergeCell ref="C19:K19"/>
+    <mergeCell ref="C20:K20"/>
+    <mergeCell ref="C21:K21"/>
+    <mergeCell ref="C22:K22"/>
+    <mergeCell ref="A32:R32"/>
+    <mergeCell ref="A2:R2"/>
+    <mergeCell ref="C34:K34"/>
+    <mergeCell ref="C35:K35"/>
+    <mergeCell ref="C36:K36"/>
+    <mergeCell ref="C37:K37"/>
+    <mergeCell ref="C38:K38"/>
+    <mergeCell ref="C39:K39"/>
+    <mergeCell ref="C40:K40"/>
+    <mergeCell ref="C41:K41"/>
+    <mergeCell ref="C25:K25"/>
+    <mergeCell ref="C26:K26"/>
+    <mergeCell ref="C27:K27"/>
+    <mergeCell ref="C28:K28"/>
+    <mergeCell ref="C58:N58"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="C56:K56"/>
+    <mergeCell ref="C57:K57"/>
+    <mergeCell ref="C29:N29"/>
+    <mergeCell ref="C54:K54"/>
+    <mergeCell ref="C55:K55"/>
+    <mergeCell ref="C51:K51"/>
+    <mergeCell ref="C52:K52"/>
+    <mergeCell ref="C53:K53"/>
+    <mergeCell ref="C42:K42"/>
+    <mergeCell ref="C43:K43"/>
+    <mergeCell ref="C47:N47"/>
+    <mergeCell ref="A49:R49"/>
+    <mergeCell ref="C44:K44"/>
+    <mergeCell ref="C45:K45"/>
+    <mergeCell ref="C46:K46"/>
+    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="A60:Q60"/>
+    <mergeCell ref="A73:Q73"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="C89:K89"/>
+    <mergeCell ref="C90:K90"/>
+    <mergeCell ref="C97:K97"/>
+    <mergeCell ref="C98:K98"/>
+    <mergeCell ref="C99:K99"/>
+    <mergeCell ref="C100:K100"/>
+    <mergeCell ref="C101:K101"/>
+    <mergeCell ref="C102:K102"/>
+    <mergeCell ref="C91:K91"/>
+    <mergeCell ref="C92:K92"/>
+    <mergeCell ref="C93:K93"/>
+    <mergeCell ref="C94:K94"/>
+    <mergeCell ref="C95:K95"/>
+    <mergeCell ref="C96:K96"/>
+    <mergeCell ref="C119:K119"/>
+    <mergeCell ref="C120:K120"/>
+    <mergeCell ref="C121:K121"/>
+    <mergeCell ref="A117:R117"/>
+    <mergeCell ref="C103:K103"/>
+    <mergeCell ref="C104:K104"/>
+    <mergeCell ref="C105:K105"/>
+    <mergeCell ref="C106:K106"/>
+    <mergeCell ref="C107:K107"/>
+    <mergeCell ref="C108:K108"/>
+    <mergeCell ref="C109:K109"/>
+    <mergeCell ref="C114:N114"/>
+    <mergeCell ref="C151:D151"/>
+    <mergeCell ref="C155:D155"/>
+    <mergeCell ref="C152:D152"/>
+    <mergeCell ref="C153:D153"/>
+    <mergeCell ref="C154:D154"/>
+    <mergeCell ref="A158:Q158"/>
+    <mergeCell ref="C146:D146"/>
+    <mergeCell ref="C147:D147"/>
+    <mergeCell ref="C148:D148"/>
+    <mergeCell ref="C149:D149"/>
+    <mergeCell ref="C150:D150"/>
+    <mergeCell ref="A145:Q145"/>
+    <mergeCell ref="C138:K138"/>
+    <mergeCell ref="C143:N143"/>
+    <mergeCell ref="C128:K128"/>
+    <mergeCell ref="C129:K129"/>
+    <mergeCell ref="C130:K130"/>
+    <mergeCell ref="C131:K131"/>
+    <mergeCell ref="C122:K122"/>
+    <mergeCell ref="C123:K123"/>
+    <mergeCell ref="C124:K124"/>
+    <mergeCell ref="C125:K125"/>
+    <mergeCell ref="C126:K126"/>
+    <mergeCell ref="C127:K127"/>
+    <mergeCell ref="C136:K136"/>
+    <mergeCell ref="C137:K137"/>
     <mergeCell ref="C233:D233"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="C163:D163"/>
@@ -12809,265 +13068,6 @@
     <mergeCell ref="C111:K111"/>
     <mergeCell ref="C112:K112"/>
     <mergeCell ref="C113:K113"/>
-    <mergeCell ref="A145:Q145"/>
-    <mergeCell ref="C138:K138"/>
-    <mergeCell ref="C143:N143"/>
-    <mergeCell ref="C128:K128"/>
-    <mergeCell ref="C129:K129"/>
-    <mergeCell ref="C130:K130"/>
-    <mergeCell ref="C131:K131"/>
-    <mergeCell ref="C122:K122"/>
-    <mergeCell ref="C123:K123"/>
-    <mergeCell ref="C124:K124"/>
-    <mergeCell ref="C125:K125"/>
-    <mergeCell ref="C126:K126"/>
-    <mergeCell ref="C127:K127"/>
-    <mergeCell ref="C136:K136"/>
-    <mergeCell ref="C137:K137"/>
-    <mergeCell ref="C151:D151"/>
-    <mergeCell ref="C155:D155"/>
-    <mergeCell ref="C152:D152"/>
-    <mergeCell ref="C153:D153"/>
-    <mergeCell ref="C154:D154"/>
-    <mergeCell ref="A158:Q158"/>
-    <mergeCell ref="C146:D146"/>
-    <mergeCell ref="C147:D147"/>
-    <mergeCell ref="C148:D148"/>
-    <mergeCell ref="C149:D149"/>
-    <mergeCell ref="C150:D150"/>
-    <mergeCell ref="C119:K119"/>
-    <mergeCell ref="C120:K120"/>
-    <mergeCell ref="C121:K121"/>
-    <mergeCell ref="A117:R117"/>
-    <mergeCell ref="C103:K103"/>
-    <mergeCell ref="C104:K104"/>
-    <mergeCell ref="C105:K105"/>
-    <mergeCell ref="C106:K106"/>
-    <mergeCell ref="C107:K107"/>
-    <mergeCell ref="C108:K108"/>
-    <mergeCell ref="C109:K109"/>
-    <mergeCell ref="C114:N114"/>
-    <mergeCell ref="C89:K89"/>
-    <mergeCell ref="C90:K90"/>
-    <mergeCell ref="C97:K97"/>
-    <mergeCell ref="C98:K98"/>
-    <mergeCell ref="C99:K99"/>
-    <mergeCell ref="C100:K100"/>
-    <mergeCell ref="C101:K101"/>
-    <mergeCell ref="C102:K102"/>
-    <mergeCell ref="C91:K91"/>
-    <mergeCell ref="C92:K92"/>
-    <mergeCell ref="C93:K93"/>
-    <mergeCell ref="C94:K94"/>
-    <mergeCell ref="C95:K95"/>
-    <mergeCell ref="C96:K96"/>
-    <mergeCell ref="C79:D79"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="C81:D81"/>
-    <mergeCell ref="C75:D75"/>
-    <mergeCell ref="C76:D76"/>
-    <mergeCell ref="C77:D77"/>
-    <mergeCell ref="C78:D78"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="A60:Q60"/>
-    <mergeCell ref="A73:Q73"/>
-    <mergeCell ref="C74:D74"/>
-    <mergeCell ref="C67:D67"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="C68:D68"/>
-    <mergeCell ref="C69:D69"/>
-    <mergeCell ref="C39:K39"/>
-    <mergeCell ref="C40:K40"/>
-    <mergeCell ref="C41:K41"/>
-    <mergeCell ref="C25:K25"/>
-    <mergeCell ref="C26:K26"/>
-    <mergeCell ref="C27:K27"/>
-    <mergeCell ref="C28:K28"/>
-    <mergeCell ref="C58:N58"/>
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="C56:K56"/>
-    <mergeCell ref="C57:K57"/>
-    <mergeCell ref="C29:N29"/>
-    <mergeCell ref="C54:K54"/>
-    <mergeCell ref="C55:K55"/>
-    <mergeCell ref="C51:K51"/>
-    <mergeCell ref="C52:K52"/>
-    <mergeCell ref="C53:K53"/>
-    <mergeCell ref="C42:K42"/>
-    <mergeCell ref="C43:K43"/>
-    <mergeCell ref="C47:N47"/>
-    <mergeCell ref="A49:R49"/>
-    <mergeCell ref="C44:K44"/>
-    <mergeCell ref="C45:K45"/>
-    <mergeCell ref="C46:K46"/>
-    <mergeCell ref="C21:K21"/>
-    <mergeCell ref="C22:K22"/>
-    <mergeCell ref="A32:R32"/>
-    <mergeCell ref="A2:R2"/>
-    <mergeCell ref="C34:K34"/>
-    <mergeCell ref="C35:K35"/>
-    <mergeCell ref="C36:K36"/>
-    <mergeCell ref="C37:K37"/>
-    <mergeCell ref="C38:K38"/>
-    <mergeCell ref="C180:K180"/>
-    <mergeCell ref="C181:K181"/>
-    <mergeCell ref="C182:K182"/>
-    <mergeCell ref="A170:W172"/>
-    <mergeCell ref="A173:R173"/>
-    <mergeCell ref="C4:K4"/>
-    <mergeCell ref="C5:K5"/>
-    <mergeCell ref="C6:K6"/>
-    <mergeCell ref="C23:K23"/>
-    <mergeCell ref="C24:K24"/>
-    <mergeCell ref="C13:K13"/>
-    <mergeCell ref="C14:K14"/>
-    <mergeCell ref="C15:K15"/>
-    <mergeCell ref="C16:K16"/>
-    <mergeCell ref="C17:K17"/>
-    <mergeCell ref="C18:K18"/>
-    <mergeCell ref="C7:K7"/>
-    <mergeCell ref="C8:K8"/>
-    <mergeCell ref="C9:K9"/>
-    <mergeCell ref="C10:K10"/>
-    <mergeCell ref="C11:K11"/>
-    <mergeCell ref="C12:K12"/>
-    <mergeCell ref="C19:K19"/>
-    <mergeCell ref="C20:K20"/>
-    <mergeCell ref="C183:K183"/>
-    <mergeCell ref="C186:K186"/>
-    <mergeCell ref="C187:K187"/>
-    <mergeCell ref="C184:K184"/>
-    <mergeCell ref="C185:K185"/>
-    <mergeCell ref="C196:K196"/>
-    <mergeCell ref="C197:K197"/>
-    <mergeCell ref="C198:K198"/>
-    <mergeCell ref="C199:K199"/>
-    <mergeCell ref="C188:K188"/>
-    <mergeCell ref="C189:K189"/>
-    <mergeCell ref="C190:K190"/>
-    <mergeCell ref="C191:K191"/>
-    <mergeCell ref="C194:K194"/>
-    <mergeCell ref="C195:K195"/>
-    <mergeCell ref="C200:N200"/>
-    <mergeCell ref="A203:R203"/>
-    <mergeCell ref="C205:K205"/>
-    <mergeCell ref="C206:K206"/>
-    <mergeCell ref="C207:K207"/>
-    <mergeCell ref="C208:K208"/>
-    <mergeCell ref="C209:K209"/>
-    <mergeCell ref="C210:K210"/>
-    <mergeCell ref="C211:K211"/>
-    <mergeCell ref="C212:K212"/>
-    <mergeCell ref="C213:K213"/>
-    <mergeCell ref="C214:K214"/>
-    <mergeCell ref="C215:K215"/>
-    <mergeCell ref="C216:K216"/>
-    <mergeCell ref="C217:K217"/>
-    <mergeCell ref="C218:N218"/>
-    <mergeCell ref="A220:R220"/>
-    <mergeCell ref="C222:K222"/>
-    <mergeCell ref="C223:K223"/>
-    <mergeCell ref="C224:K224"/>
-    <mergeCell ref="C225:K225"/>
-    <mergeCell ref="C226:K226"/>
-    <mergeCell ref="C227:K227"/>
-    <mergeCell ref="C228:K228"/>
-    <mergeCell ref="C229:N229"/>
-    <mergeCell ref="A231:Q231"/>
-    <mergeCell ref="C232:D232"/>
-    <mergeCell ref="C234:D234"/>
-    <mergeCell ref="C235:D235"/>
-    <mergeCell ref="C236:D236"/>
-    <mergeCell ref="C237:D237"/>
-    <mergeCell ref="C238:D238"/>
-    <mergeCell ref="C239:D239"/>
-    <mergeCell ref="C240:D240"/>
-    <mergeCell ref="C241:D241"/>
-    <mergeCell ref="C242:D242"/>
-    <mergeCell ref="C262:K262"/>
-    <mergeCell ref="C263:K263"/>
-    <mergeCell ref="C264:K264"/>
-    <mergeCell ref="C265:K265"/>
-    <mergeCell ref="C266:K266"/>
-    <mergeCell ref="C267:K267"/>
-    <mergeCell ref="C268:K268"/>
-    <mergeCell ref="C269:K269"/>
-    <mergeCell ref="A245:Q245"/>
-    <mergeCell ref="C246:D246"/>
-    <mergeCell ref="C247:D247"/>
-    <mergeCell ref="C248:D248"/>
-    <mergeCell ref="C249:D249"/>
-    <mergeCell ref="C250:D250"/>
-    <mergeCell ref="C251:D251"/>
-    <mergeCell ref="C270:K270"/>
-    <mergeCell ref="C271:K271"/>
-    <mergeCell ref="C272:K272"/>
-    <mergeCell ref="C273:K273"/>
-    <mergeCell ref="C274:K274"/>
-    <mergeCell ref="C275:K275"/>
-    <mergeCell ref="C276:K276"/>
-    <mergeCell ref="C277:K277"/>
-    <mergeCell ref="C278:K278"/>
-    <mergeCell ref="C296:K296"/>
-    <mergeCell ref="C297:K297"/>
-    <mergeCell ref="C298:K298"/>
-    <mergeCell ref="C299:K299"/>
-    <mergeCell ref="C279:K279"/>
-    <mergeCell ref="C280:K280"/>
-    <mergeCell ref="C281:K281"/>
-    <mergeCell ref="C282:K282"/>
-    <mergeCell ref="C283:K283"/>
-    <mergeCell ref="C284:K284"/>
-    <mergeCell ref="C285:K285"/>
-    <mergeCell ref="A289:R289"/>
-    <mergeCell ref="C334:D334"/>
-    <mergeCell ref="C335:D335"/>
-    <mergeCell ref="C336:D336"/>
-    <mergeCell ref="A257:W259"/>
-    <mergeCell ref="A260:R260"/>
-    <mergeCell ref="C286:K286"/>
-    <mergeCell ref="C287:N287"/>
-    <mergeCell ref="C321:D321"/>
-    <mergeCell ref="C322:D322"/>
-    <mergeCell ref="C323:D323"/>
-    <mergeCell ref="C324:D324"/>
-    <mergeCell ref="C325:D325"/>
-    <mergeCell ref="C326:D326"/>
-    <mergeCell ref="C327:D327"/>
-    <mergeCell ref="A330:Q330"/>
-    <mergeCell ref="C331:D331"/>
-    <mergeCell ref="C311:K311"/>
-    <mergeCell ref="C312:K312"/>
-    <mergeCell ref="C313:K313"/>
-    <mergeCell ref="C314:K314"/>
-    <mergeCell ref="C315:N315"/>
-    <mergeCell ref="A317:Q317"/>
-    <mergeCell ref="C318:D318"/>
-    <mergeCell ref="C319:D319"/>
-    <mergeCell ref="C179:K179"/>
-    <mergeCell ref="C178:K178"/>
-    <mergeCell ref="C176:K176"/>
-    <mergeCell ref="C177:K177"/>
-    <mergeCell ref="C193:K193"/>
-    <mergeCell ref="C192:K192"/>
-    <mergeCell ref="C175:K175"/>
-    <mergeCell ref="C332:D332"/>
-    <mergeCell ref="C333:D333"/>
-    <mergeCell ref="C320:D320"/>
-    <mergeCell ref="C300:K300"/>
-    <mergeCell ref="C301:K301"/>
-    <mergeCell ref="C302:K302"/>
-    <mergeCell ref="C303:K303"/>
-    <mergeCell ref="C304:N304"/>
-    <mergeCell ref="A306:R306"/>
-    <mergeCell ref="C308:K308"/>
-    <mergeCell ref="C309:K309"/>
-    <mergeCell ref="C310:K310"/>
-    <mergeCell ref="C291:K291"/>
-    <mergeCell ref="C292:K292"/>
-    <mergeCell ref="C293:K293"/>
-    <mergeCell ref="C294:K294"/>
-    <mergeCell ref="C295:K295"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="C5:K28">
@@ -15786,103 +15786,103 @@
   </cols>
   <sheetData>
     <row r="4" spans="3:25" x14ac:dyDescent="0.3">
-      <c r="C4" s="75" t="s">
+      <c r="C4" s="59" t="s">
         <v>107</v>
       </c>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="75"/>
-      <c r="K4" s="75"/>
-      <c r="L4" s="75"/>
-      <c r="M4" s="75"/>
-      <c r="N4" s="75"/>
-      <c r="O4" s="75"/>
-      <c r="P4" s="75"/>
-      <c r="Q4" s="75"/>
-      <c r="R4" s="75"/>
-      <c r="S4" s="75"/>
-      <c r="T4" s="75"/>
-      <c r="U4" s="75"/>
-      <c r="V4" s="75"/>
-      <c r="W4" s="75"/>
-      <c r="X4" s="75"/>
-      <c r="Y4" s="75"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="59"/>
+      <c r="G4" s="59"/>
+      <c r="H4" s="59"/>
+      <c r="I4" s="59"/>
+      <c r="J4" s="59"/>
+      <c r="K4" s="59"/>
+      <c r="L4" s="59"/>
+      <c r="M4" s="59"/>
+      <c r="N4" s="59"/>
+      <c r="O4" s="59"/>
+      <c r="P4" s="59"/>
+      <c r="Q4" s="59"/>
+      <c r="R4" s="59"/>
+      <c r="S4" s="59"/>
+      <c r="T4" s="59"/>
+      <c r="U4" s="59"/>
+      <c r="V4" s="59"/>
+      <c r="W4" s="59"/>
+      <c r="X4" s="59"/>
+      <c r="Y4" s="59"/>
     </row>
     <row r="5" spans="3:25" x14ac:dyDescent="0.3">
-      <c r="C5" s="75"/>
-      <c r="D5" s="75"/>
-      <c r="E5" s="75"/>
-      <c r="F5" s="75"/>
-      <c r="G5" s="75"/>
-      <c r="H5" s="75"/>
-      <c r="I5" s="75"/>
-      <c r="J5" s="75"/>
-      <c r="K5" s="75"/>
-      <c r="L5" s="75"/>
-      <c r="M5" s="75"/>
-      <c r="N5" s="75"/>
-      <c r="O5" s="75"/>
-      <c r="P5" s="75"/>
-      <c r="Q5" s="75"/>
-      <c r="R5" s="75"/>
-      <c r="S5" s="75"/>
-      <c r="T5" s="75"/>
-      <c r="U5" s="75"/>
-      <c r="V5" s="75"/>
-      <c r="W5" s="75"/>
-      <c r="X5" s="75"/>
-      <c r="Y5" s="75"/>
+      <c r="C5" s="59"/>
+      <c r="D5" s="59"/>
+      <c r="E5" s="59"/>
+      <c r="F5" s="59"/>
+      <c r="G5" s="59"/>
+      <c r="H5" s="59"/>
+      <c r="I5" s="59"/>
+      <c r="J5" s="59"/>
+      <c r="K5" s="59"/>
+      <c r="L5" s="59"/>
+      <c r="M5" s="59"/>
+      <c r="N5" s="59"/>
+      <c r="O5" s="59"/>
+      <c r="P5" s="59"/>
+      <c r="Q5" s="59"/>
+      <c r="R5" s="59"/>
+      <c r="S5" s="59"/>
+      <c r="T5" s="59"/>
+      <c r="U5" s="59"/>
+      <c r="V5" s="59"/>
+      <c r="W5" s="59"/>
+      <c r="X5" s="59"/>
+      <c r="Y5" s="59"/>
     </row>
     <row r="6" spans="3:25" x14ac:dyDescent="0.3">
-      <c r="C6" s="75"/>
-      <c r="D6" s="75"/>
-      <c r="E6" s="75"/>
-      <c r="F6" s="75"/>
-      <c r="G6" s="75"/>
-      <c r="H6" s="75"/>
-      <c r="I6" s="75"/>
-      <c r="J6" s="75"/>
-      <c r="K6" s="75"/>
-      <c r="L6" s="75"/>
-      <c r="M6" s="75"/>
-      <c r="N6" s="75"/>
-      <c r="O6" s="75"/>
-      <c r="P6" s="75"/>
-      <c r="Q6" s="75"/>
-      <c r="R6" s="75"/>
-      <c r="S6" s="75"/>
-      <c r="T6" s="75"/>
-      <c r="U6" s="75"/>
-      <c r="V6" s="75"/>
-      <c r="W6" s="75"/>
-      <c r="X6" s="75"/>
-      <c r="Y6" s="75"/>
+      <c r="C6" s="59"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="59"/>
+      <c r="F6" s="59"/>
+      <c r="G6" s="59"/>
+      <c r="H6" s="59"/>
+      <c r="I6" s="59"/>
+      <c r="J6" s="59"/>
+      <c r="K6" s="59"/>
+      <c r="L6" s="59"/>
+      <c r="M6" s="59"/>
+      <c r="N6" s="59"/>
+      <c r="O6" s="59"/>
+      <c r="P6" s="59"/>
+      <c r="Q6" s="59"/>
+      <c r="R6" s="59"/>
+      <c r="S6" s="59"/>
+      <c r="T6" s="59"/>
+      <c r="U6" s="59"/>
+      <c r="V6" s="59"/>
+      <c r="W6" s="59"/>
+      <c r="X6" s="59"/>
+      <c r="Y6" s="59"/>
     </row>
     <row r="7" spans="3:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C7" s="76" t="s">
+      <c r="C7" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="D7" s="77"/>
-      <c r="E7" s="77"/>
-      <c r="F7" s="77"/>
-      <c r="G7" s="77"/>
-      <c r="H7" s="77"/>
-      <c r="I7" s="77"/>
-      <c r="J7" s="77"/>
-      <c r="K7" s="77"/>
-      <c r="L7" s="77"/>
-      <c r="M7" s="77"/>
-      <c r="N7" s="77"/>
-      <c r="O7" s="77"/>
-      <c r="P7" s="77"/>
-      <c r="Q7" s="77"/>
-      <c r="R7" s="77"/>
-      <c r="S7" s="77"/>
-      <c r="T7" s="78"/>
+      <c r="D7" s="70"/>
+      <c r="E7" s="70"/>
+      <c r="F7" s="70"/>
+      <c r="G7" s="70"/>
+      <c r="H7" s="70"/>
+      <c r="I7" s="70"/>
+      <c r="J7" s="70"/>
+      <c r="K7" s="70"/>
+      <c r="L7" s="70"/>
+      <c r="M7" s="70"/>
+      <c r="N7" s="70"/>
+      <c r="O7" s="70"/>
+      <c r="P7" s="70"/>
+      <c r="Q7" s="70"/>
+      <c r="R7" s="70"/>
+      <c r="S7" s="70"/>
+      <c r="T7" s="71"/>
       <c r="U7" s="38"/>
       <c r="V7" s="38"/>
       <c r="W7" s="38"/>
@@ -15898,17 +15898,17 @@
       <c r="D9" s="46" t="s">
         <v>105</v>
       </c>
-      <c r="E9" s="72" t="s">
+      <c r="E9" s="73" t="s">
         <v>108</v>
       </c>
-      <c r="F9" s="72"/>
-      <c r="G9" s="72"/>
-      <c r="H9" s="72"/>
-      <c r="I9" s="72"/>
-      <c r="J9" s="72"/>
-      <c r="K9" s="72"/>
-      <c r="L9" s="72"/>
-      <c r="M9" s="72"/>
+      <c r="F9" s="73"/>
+      <c r="G9" s="73"/>
+      <c r="H9" s="73"/>
+      <c r="I9" s="73"/>
+      <c r="J9" s="73"/>
+      <c r="K9" s="73"/>
+      <c r="L9" s="73"/>
+      <c r="M9" s="73"/>
       <c r="N9" s="5" t="s">
         <v>2</v>
       </c>
@@ -15948,17 +15948,17 @@
       <c r="D10" s="44">
         <v>44683</v>
       </c>
-      <c r="E10" s="54" t="s">
+      <c r="E10" s="83" t="s">
         <v>43</v>
       </c>
-      <c r="F10" s="55"/>
-      <c r="G10" s="55"/>
-      <c r="H10" s="55"/>
-      <c r="I10" s="55"/>
-      <c r="J10" s="55"/>
-      <c r="K10" s="55"/>
-      <c r="L10" s="55"/>
-      <c r="M10" s="56"/>
+      <c r="F10" s="84"/>
+      <c r="G10" s="84"/>
+      <c r="H10" s="84"/>
+      <c r="I10" s="84"/>
+      <c r="J10" s="84"/>
+      <c r="K10" s="84"/>
+      <c r="L10" s="84"/>
+      <c r="M10" s="85"/>
       <c r="N10" s="6">
         <v>17</v>
       </c>
@@ -15986,17 +15986,17 @@
       <c r="D11" s="41">
         <v>44684</v>
       </c>
-      <c r="E11" s="57" t="s">
+      <c r="E11" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="F11" s="58"/>
-      <c r="G11" s="58"/>
-      <c r="H11" s="58"/>
-      <c r="I11" s="58"/>
-      <c r="J11" s="58"/>
-      <c r="K11" s="58"/>
-      <c r="L11" s="58"/>
-      <c r="M11" s="59"/>
+      <c r="F11" s="88"/>
+      <c r="G11" s="88"/>
+      <c r="H11" s="88"/>
+      <c r="I11" s="88"/>
+      <c r="J11" s="88"/>
+      <c r="K11" s="88"/>
+      <c r="L11" s="88"/>
+      <c r="M11" s="89"/>
       <c r="N11" s="6">
         <v>17</v>
       </c>
@@ -16024,17 +16024,17 @@
       <c r="D12" s="41">
         <v>44686</v>
       </c>
-      <c r="E12" s="54" t="s">
+      <c r="E12" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="F12" s="55"/>
-      <c r="G12" s="55"/>
-      <c r="H12" s="55"/>
-      <c r="I12" s="55"/>
-      <c r="J12" s="55"/>
-      <c r="K12" s="55"/>
-      <c r="L12" s="55"/>
-      <c r="M12" s="56"/>
+      <c r="F12" s="84"/>
+      <c r="G12" s="84"/>
+      <c r="H12" s="84"/>
+      <c r="I12" s="84"/>
+      <c r="J12" s="84"/>
+      <c r="K12" s="84"/>
+      <c r="L12" s="84"/>
+      <c r="M12" s="85"/>
       <c r="N12" s="6">
         <v>17</v>
       </c>
@@ -16062,17 +16062,17 @@
       <c r="D13" s="41">
         <v>44688</v>
       </c>
-      <c r="E13" s="54" t="s">
+      <c r="E13" s="83" t="s">
         <v>40</v>
       </c>
-      <c r="F13" s="55"/>
-      <c r="G13" s="55"/>
-      <c r="H13" s="55"/>
-      <c r="I13" s="55"/>
-      <c r="J13" s="55"/>
-      <c r="K13" s="55"/>
-      <c r="L13" s="55"/>
-      <c r="M13" s="56"/>
+      <c r="F13" s="84"/>
+      <c r="G13" s="84"/>
+      <c r="H13" s="84"/>
+      <c r="I13" s="84"/>
+      <c r="J13" s="84"/>
+      <c r="K13" s="84"/>
+      <c r="L13" s="84"/>
+      <c r="M13" s="85"/>
       <c r="N13" s="6">
         <v>17</v>
       </c>
@@ -16100,17 +16100,17 @@
       <c r="D14" s="41">
         <v>44696</v>
       </c>
-      <c r="E14" s="57" t="s">
+      <c r="E14" s="87" t="s">
         <v>5</v>
       </c>
-      <c r="F14" s="58"/>
-      <c r="G14" s="58"/>
-      <c r="H14" s="58"/>
-      <c r="I14" s="58"/>
-      <c r="J14" s="58"/>
-      <c r="K14" s="58"/>
-      <c r="L14" s="58"/>
-      <c r="M14" s="59"/>
+      <c r="F14" s="88"/>
+      <c r="G14" s="88"/>
+      <c r="H14" s="88"/>
+      <c r="I14" s="88"/>
+      <c r="J14" s="88"/>
+      <c r="K14" s="88"/>
+      <c r="L14" s="88"/>
+      <c r="M14" s="89"/>
       <c r="N14" s="6">
         <v>17</v>
       </c>
@@ -16138,17 +16138,17 @@
       <c r="D15" s="41">
         <v>44700</v>
       </c>
-      <c r="E15" s="54" t="s">
+      <c r="E15" s="83" t="s">
         <v>33</v>
       </c>
-      <c r="F15" s="55"/>
-      <c r="G15" s="55"/>
-      <c r="H15" s="55"/>
-      <c r="I15" s="55"/>
-      <c r="J15" s="55"/>
-      <c r="K15" s="55"/>
-      <c r="L15" s="55"/>
-      <c r="M15" s="56"/>
+      <c r="F15" s="84"/>
+      <c r="G15" s="84"/>
+      <c r="H15" s="84"/>
+      <c r="I15" s="84"/>
+      <c r="J15" s="84"/>
+      <c r="K15" s="84"/>
+      <c r="L15" s="84"/>
+      <c r="M15" s="85"/>
       <c r="N15" s="6">
         <v>17</v>
       </c>
@@ -16176,17 +16176,17 @@
       <c r="D16" s="41">
         <v>44703</v>
       </c>
-      <c r="E16" s="57" t="s">
+      <c r="E16" s="87" t="s">
         <v>9</v>
       </c>
-      <c r="F16" s="58"/>
-      <c r="G16" s="58"/>
-      <c r="H16" s="58"/>
-      <c r="I16" s="58"/>
-      <c r="J16" s="58"/>
-      <c r="K16" s="58"/>
-      <c r="L16" s="58"/>
-      <c r="M16" s="59"/>
+      <c r="F16" s="88"/>
+      <c r="G16" s="88"/>
+      <c r="H16" s="88"/>
+      <c r="I16" s="88"/>
+      <c r="J16" s="88"/>
+      <c r="K16" s="88"/>
+      <c r="L16" s="88"/>
+      <c r="M16" s="89"/>
       <c r="N16" s="6">
         <v>17</v>
       </c>
@@ -16214,17 +16214,17 @@
       <c r="D17" s="41">
         <v>44707</v>
       </c>
-      <c r="E17" s="57" t="s">
+      <c r="E17" s="87" t="s">
         <v>44</v>
       </c>
-      <c r="F17" s="58"/>
-      <c r="G17" s="58"/>
-      <c r="H17" s="58"/>
-      <c r="I17" s="58"/>
-      <c r="J17" s="58"/>
-      <c r="K17" s="58"/>
-      <c r="L17" s="58"/>
-      <c r="M17" s="59"/>
+      <c r="F17" s="88"/>
+      <c r="G17" s="88"/>
+      <c r="H17" s="88"/>
+      <c r="I17" s="88"/>
+      <c r="J17" s="88"/>
+      <c r="K17" s="88"/>
+      <c r="L17" s="88"/>
+      <c r="M17" s="89"/>
       <c r="N17" s="6">
         <v>17</v>
       </c>
@@ -16249,17 +16249,17 @@
       <c r="D18" s="41">
         <v>44712</v>
       </c>
-      <c r="E18" s="54" t="s">
+      <c r="E18" s="83" t="s">
         <v>34</v>
       </c>
-      <c r="F18" s="55"/>
-      <c r="G18" s="55"/>
-      <c r="H18" s="55"/>
-      <c r="I18" s="55"/>
-      <c r="J18" s="55"/>
-      <c r="K18" s="55"/>
-      <c r="L18" s="55"/>
-      <c r="M18" s="56"/>
+      <c r="F18" s="84"/>
+      <c r="G18" s="84"/>
+      <c r="H18" s="84"/>
+      <c r="I18" s="84"/>
+      <c r="J18" s="84"/>
+      <c r="K18" s="84"/>
+      <c r="L18" s="84"/>
+      <c r="M18" s="85"/>
       <c r="N18" s="6">
         <v>17</v>
       </c>
@@ -16284,17 +16284,17 @@
       <c r="D19" s="41">
         <v>44717</v>
       </c>
-      <c r="E19" s="57" t="s">
+      <c r="E19" s="87" t="s">
         <v>35</v>
       </c>
-      <c r="F19" s="58"/>
-      <c r="G19" s="58"/>
-      <c r="H19" s="58"/>
-      <c r="I19" s="58"/>
-      <c r="J19" s="58"/>
-      <c r="K19" s="58"/>
-      <c r="L19" s="58"/>
-      <c r="M19" s="59"/>
+      <c r="F19" s="88"/>
+      <c r="G19" s="88"/>
+      <c r="H19" s="88"/>
+      <c r="I19" s="88"/>
+      <c r="J19" s="88"/>
+      <c r="K19" s="88"/>
+      <c r="L19" s="88"/>
+      <c r="M19" s="89"/>
       <c r="N19" s="6">
         <v>17</v>
       </c>
@@ -16322,17 +16322,17 @@
       <c r="D20" s="41">
         <v>44722</v>
       </c>
-      <c r="E20" s="54" t="s">
+      <c r="E20" s="83" t="s">
         <v>36</v>
       </c>
-      <c r="F20" s="55"/>
-      <c r="G20" s="55"/>
-      <c r="H20" s="55"/>
-      <c r="I20" s="55"/>
-      <c r="J20" s="55"/>
-      <c r="K20" s="55"/>
-      <c r="L20" s="55"/>
-      <c r="M20" s="56"/>
+      <c r="F20" s="84"/>
+      <c r="G20" s="84"/>
+      <c r="H20" s="84"/>
+      <c r="I20" s="84"/>
+      <c r="J20" s="84"/>
+      <c r="K20" s="84"/>
+      <c r="L20" s="84"/>
+      <c r="M20" s="85"/>
       <c r="N20" s="6">
         <v>17</v>
       </c>
@@ -16357,17 +16357,17 @@
       <c r="D21" s="41">
         <v>44727</v>
       </c>
-      <c r="E21" s="54" t="s">
+      <c r="E21" s="83" t="s">
         <v>37</v>
       </c>
-      <c r="F21" s="55"/>
-      <c r="G21" s="55"/>
-      <c r="H21" s="55"/>
-      <c r="I21" s="55"/>
-      <c r="J21" s="55"/>
-      <c r="K21" s="55"/>
-      <c r="L21" s="55"/>
-      <c r="M21" s="56"/>
+      <c r="F21" s="84"/>
+      <c r="G21" s="84"/>
+      <c r="H21" s="84"/>
+      <c r="I21" s="84"/>
+      <c r="J21" s="84"/>
+      <c r="K21" s="84"/>
+      <c r="L21" s="84"/>
+      <c r="M21" s="85"/>
       <c r="N21" s="6">
         <v>17</v>
       </c>
@@ -16392,17 +16392,17 @@
       <c r="D22" s="41" t="s">
         <v>109</v>
       </c>
-      <c r="E22" s="54" t="s">
+      <c r="E22" s="83" t="s">
         <v>45</v>
       </c>
-      <c r="F22" s="55"/>
-      <c r="G22" s="55"/>
-      <c r="H22" s="55"/>
-      <c r="I22" s="55"/>
-      <c r="J22" s="55"/>
-      <c r="K22" s="55"/>
-      <c r="L22" s="55"/>
-      <c r="M22" s="56"/>
+      <c r="F22" s="84"/>
+      <c r="G22" s="84"/>
+      <c r="H22" s="84"/>
+      <c r="I22" s="84"/>
+      <c r="J22" s="84"/>
+      <c r="K22" s="84"/>
+      <c r="L22" s="84"/>
+      <c r="M22" s="85"/>
       <c r="N22" s="6">
         <v>17</v>
       </c>
@@ -16430,17 +16430,17 @@
       <c r="D23" s="41" t="s">
         <v>110</v>
       </c>
-      <c r="E23" s="54" t="s">
+      <c r="E23" s="83" t="s">
         <v>46</v>
       </c>
-      <c r="F23" s="55"/>
-      <c r="G23" s="55"/>
-      <c r="H23" s="55"/>
-      <c r="I23" s="55"/>
-      <c r="J23" s="55"/>
-      <c r="K23" s="55"/>
-      <c r="L23" s="55"/>
-      <c r="M23" s="56"/>
+      <c r="F23" s="84"/>
+      <c r="G23" s="84"/>
+      <c r="H23" s="84"/>
+      <c r="I23" s="84"/>
+      <c r="J23" s="84"/>
+      <c r="K23" s="84"/>
+      <c r="L23" s="84"/>
+      <c r="M23" s="85"/>
       <c r="N23" s="6">
         <v>17</v>
       </c>
@@ -16468,17 +16468,17 @@
       <c r="D24" s="41">
         <v>44736</v>
       </c>
-      <c r="E24" s="57" t="s">
+      <c r="E24" s="87" t="s">
         <v>7</v>
       </c>
-      <c r="F24" s="58"/>
-      <c r="G24" s="58"/>
-      <c r="H24" s="58"/>
-      <c r="I24" s="58"/>
-      <c r="J24" s="58"/>
-      <c r="K24" s="58"/>
-      <c r="L24" s="58"/>
-      <c r="M24" s="59"/>
+      <c r="F24" s="88"/>
+      <c r="G24" s="88"/>
+      <c r="H24" s="88"/>
+      <c r="I24" s="88"/>
+      <c r="J24" s="88"/>
+      <c r="K24" s="88"/>
+      <c r="L24" s="88"/>
+      <c r="M24" s="89"/>
       <c r="N24" s="6">
         <v>17</v>
       </c>
@@ -16506,17 +16506,17 @@
       <c r="D25" s="41">
         <v>44740</v>
       </c>
-      <c r="E25" s="54" t="s">
+      <c r="E25" s="83" t="s">
         <v>38</v>
       </c>
-      <c r="F25" s="55"/>
-      <c r="G25" s="55"/>
-      <c r="H25" s="55"/>
-      <c r="I25" s="55"/>
-      <c r="J25" s="55"/>
-      <c r="K25" s="55"/>
-      <c r="L25" s="55"/>
-      <c r="M25" s="56"/>
+      <c r="F25" s="84"/>
+      <c r="G25" s="84"/>
+      <c r="H25" s="84"/>
+      <c r="I25" s="84"/>
+      <c r="J25" s="84"/>
+      <c r="K25" s="84"/>
+      <c r="L25" s="84"/>
+      <c r="M25" s="85"/>
       <c r="N25" s="6">
         <v>17</v>
       </c>
@@ -16544,17 +16544,17 @@
       <c r="D26" s="41">
         <v>44745</v>
       </c>
-      <c r="E26" s="57" t="s">
+      <c r="E26" s="87" t="s">
         <v>11</v>
       </c>
-      <c r="F26" s="58"/>
-      <c r="G26" s="58"/>
-      <c r="H26" s="58"/>
-      <c r="I26" s="58"/>
-      <c r="J26" s="58"/>
-      <c r="K26" s="58"/>
-      <c r="L26" s="58"/>
-      <c r="M26" s="59"/>
+      <c r="F26" s="88"/>
+      <c r="G26" s="88"/>
+      <c r="H26" s="88"/>
+      <c r="I26" s="88"/>
+      <c r="J26" s="88"/>
+      <c r="K26" s="88"/>
+      <c r="L26" s="88"/>
+      <c r="M26" s="89"/>
       <c r="N26" s="6">
         <v>17</v>
       </c>
@@ -16582,17 +16582,17 @@
       <c r="D27" s="41">
         <v>44750</v>
       </c>
-      <c r="E27" s="54" t="s">
+      <c r="E27" s="83" t="s">
         <v>48</v>
       </c>
-      <c r="F27" s="55"/>
-      <c r="G27" s="55"/>
-      <c r="H27" s="55"/>
-      <c r="I27" s="55"/>
-      <c r="J27" s="55"/>
-      <c r="K27" s="55"/>
-      <c r="L27" s="55"/>
-      <c r="M27" s="56"/>
+      <c r="F27" s="84"/>
+      <c r="G27" s="84"/>
+      <c r="H27" s="84"/>
+      <c r="I27" s="84"/>
+      <c r="J27" s="84"/>
+      <c r="K27" s="84"/>
+      <c r="L27" s="84"/>
+      <c r="M27" s="85"/>
       <c r="N27" s="6">
         <v>17</v>
       </c>
@@ -16617,17 +16617,17 @@
       <c r="D28" s="41">
         <v>44752</v>
       </c>
-      <c r="E28" s="58" t="s">
+      <c r="E28" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="F28" s="58"/>
-      <c r="G28" s="58"/>
-      <c r="H28" s="58"/>
-      <c r="I28" s="58"/>
-      <c r="J28" s="58"/>
-      <c r="K28" s="58"/>
-      <c r="L28" s="58"/>
-      <c r="M28" s="59"/>
+      <c r="F28" s="88"/>
+      <c r="G28" s="88"/>
+      <c r="H28" s="88"/>
+      <c r="I28" s="88"/>
+      <c r="J28" s="88"/>
+      <c r="K28" s="88"/>
+      <c r="L28" s="88"/>
+      <c r="M28" s="89"/>
       <c r="N28" s="6">
         <v>17</v>
       </c>
@@ -16655,17 +16655,17 @@
       <c r="D29" s="41">
         <v>44754</v>
       </c>
-      <c r="E29" s="55" t="s">
+      <c r="E29" s="84" t="s">
         <v>49</v>
       </c>
-      <c r="F29" s="55"/>
-      <c r="G29" s="55"/>
-      <c r="H29" s="55"/>
-      <c r="I29" s="55"/>
-      <c r="J29" s="55"/>
-      <c r="K29" s="55"/>
-      <c r="L29" s="55"/>
-      <c r="M29" s="56"/>
+      <c r="F29" s="84"/>
+      <c r="G29" s="84"/>
+      <c r="H29" s="84"/>
+      <c r="I29" s="84"/>
+      <c r="J29" s="84"/>
+      <c r="K29" s="84"/>
+      <c r="L29" s="84"/>
+      <c r="M29" s="85"/>
       <c r="N29" s="6">
         <v>17</v>
       </c>
@@ -16690,17 +16690,17 @@
       <c r="D30" s="41">
         <v>44757</v>
       </c>
-      <c r="E30" s="57" t="s">
+      <c r="E30" s="87" t="s">
         <v>10</v>
       </c>
-      <c r="F30" s="58"/>
-      <c r="G30" s="58"/>
-      <c r="H30" s="58"/>
-      <c r="I30" s="58"/>
-      <c r="J30" s="58"/>
-      <c r="K30" s="58"/>
-      <c r="L30" s="58"/>
-      <c r="M30" s="59"/>
+      <c r="F30" s="88"/>
+      <c r="G30" s="88"/>
+      <c r="H30" s="88"/>
+      <c r="I30" s="88"/>
+      <c r="J30" s="88"/>
+      <c r="K30" s="88"/>
+      <c r="L30" s="88"/>
+      <c r="M30" s="89"/>
       <c r="N30" s="6">
         <v>17</v>
       </c>
@@ -16728,17 +16728,17 @@
       <c r="D31" s="41">
         <v>44760</v>
       </c>
-      <c r="E31" s="57" t="s">
+      <c r="E31" s="87" t="s">
         <v>47</v>
       </c>
-      <c r="F31" s="58"/>
-      <c r="G31" s="58"/>
-      <c r="H31" s="58"/>
-      <c r="I31" s="58"/>
-      <c r="J31" s="58"/>
-      <c r="K31" s="58"/>
-      <c r="L31" s="58"/>
-      <c r="M31" s="59"/>
+      <c r="F31" s="88"/>
+      <c r="G31" s="88"/>
+      <c r="H31" s="88"/>
+      <c r="I31" s="88"/>
+      <c r="J31" s="88"/>
+      <c r="K31" s="88"/>
+      <c r="L31" s="88"/>
+      <c r="M31" s="89"/>
       <c r="N31" s="6">
         <v>17</v>
       </c>
@@ -16763,17 +16763,17 @@
       <c r="C32" s="1">
         <v>23</v>
       </c>
-      <c r="E32" s="54" t="s">
+      <c r="E32" s="83" t="s">
         <v>41</v>
       </c>
-      <c r="F32" s="55"/>
-      <c r="G32" s="55"/>
-      <c r="H32" s="55"/>
-      <c r="I32" s="55"/>
-      <c r="J32" s="55"/>
-      <c r="K32" s="55"/>
-      <c r="L32" s="55"/>
-      <c r="M32" s="56"/>
+      <c r="F32" s="84"/>
+      <c r="G32" s="84"/>
+      <c r="H32" s="84"/>
+      <c r="I32" s="84"/>
+      <c r="J32" s="84"/>
+      <c r="K32" s="84"/>
+      <c r="L32" s="84"/>
+      <c r="M32" s="85"/>
       <c r="N32" s="6">
         <v>17</v>
       </c>
@@ -16795,17 +16795,17 @@
       <c r="C33" s="1">
         <v>24</v>
       </c>
-      <c r="E33" s="54" t="s">
+      <c r="E33" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="F33" s="55"/>
-      <c r="G33" s="55"/>
-      <c r="H33" s="55"/>
-      <c r="I33" s="55"/>
-      <c r="J33" s="55"/>
-      <c r="K33" s="55"/>
-      <c r="L33" s="55"/>
-      <c r="M33" s="56"/>
+      <c r="F33" s="84"/>
+      <c r="G33" s="84"/>
+      <c r="H33" s="84"/>
+      <c r="I33" s="84"/>
+      <c r="J33" s="84"/>
+      <c r="K33" s="84"/>
+      <c r="L33" s="84"/>
+      <c r="M33" s="85"/>
       <c r="N33" s="6">
         <v>17</v>
       </c>
@@ -16828,20 +16828,20 @@
         <v>25</v>
       </c>
       <c r="D34" s="47"/>
-      <c r="E34" s="66" t="s">
+      <c r="E34" s="60" t="s">
         <v>58</v>
       </c>
-      <c r="F34" s="67"/>
-      <c r="G34" s="67"/>
-      <c r="H34" s="67"/>
-      <c r="I34" s="67"/>
-      <c r="J34" s="67"/>
-      <c r="K34" s="67"/>
-      <c r="L34" s="67"/>
-      <c r="M34" s="67"/>
-      <c r="N34" s="67"/>
-      <c r="O34" s="67"/>
-      <c r="P34" s="68"/>
+      <c r="F34" s="61"/>
+      <c r="G34" s="61"/>
+      <c r="H34" s="61"/>
+      <c r="I34" s="61"/>
+      <c r="J34" s="61"/>
+      <c r="K34" s="61"/>
+      <c r="L34" s="61"/>
+      <c r="M34" s="61"/>
+      <c r="N34" s="61"/>
+      <c r="O34" s="61"/>
+      <c r="P34" s="62"/>
       <c r="Q34" s="11"/>
       <c r="R34" s="12" t="e">
         <f>AVERAGE(R10:R33)</f>
@@ -16868,6 +16868,22 @@
     <sortCondition ref="D10:D33"/>
   </sortState>
   <mergeCells count="28">
+    <mergeCell ref="E26:M26"/>
+    <mergeCell ref="E32:M32"/>
+    <mergeCell ref="E33:M33"/>
+    <mergeCell ref="E34:P34"/>
+    <mergeCell ref="E27:M27"/>
+    <mergeCell ref="E28:M28"/>
+    <mergeCell ref="E29:M29"/>
+    <mergeCell ref="E30:M30"/>
+    <mergeCell ref="E31:M31"/>
+    <mergeCell ref="E19:M19"/>
+    <mergeCell ref="E20:M20"/>
+    <mergeCell ref="E21:M21"/>
+    <mergeCell ref="E24:M24"/>
+    <mergeCell ref="E25:M25"/>
+    <mergeCell ref="E22:M22"/>
+    <mergeCell ref="E23:M23"/>
     <mergeCell ref="E18:M18"/>
     <mergeCell ref="C4:Y6"/>
     <mergeCell ref="C7:T7"/>
@@ -16880,22 +16896,6 @@
     <mergeCell ref="E15:M15"/>
     <mergeCell ref="E16:M16"/>
     <mergeCell ref="E17:M17"/>
-    <mergeCell ref="E19:M19"/>
-    <mergeCell ref="E20:M20"/>
-    <mergeCell ref="E21:M21"/>
-    <mergeCell ref="E24:M24"/>
-    <mergeCell ref="E25:M25"/>
-    <mergeCell ref="E22:M22"/>
-    <mergeCell ref="E23:M23"/>
-    <mergeCell ref="E26:M26"/>
-    <mergeCell ref="E32:M32"/>
-    <mergeCell ref="E33:M33"/>
-    <mergeCell ref="E34:P34"/>
-    <mergeCell ref="E27:M27"/>
-    <mergeCell ref="E28:M28"/>
-    <mergeCell ref="E29:M29"/>
-    <mergeCell ref="E30:M30"/>
-    <mergeCell ref="E31:M31"/>
   </mergeCells>
   <conditionalFormatting sqref="V10:V33">
     <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">

--- a/My Test Tracker Original GATE 2023.xlsx
+++ b/My Test Tracker Original GATE 2023.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GATE 2022 &amp; 2023\My Progress trackers &amp; Journey - In Git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81E7C347-82F4-4BC3-B335-F26C10580EB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6562F4BB-6C1D-437A-98F1-840EA8B4E55C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1116" yWindow="1116" windowWidth="17280" windowHeight="8964" xr2:uid="{158952DD-A7DC-477E-91D8-188954568D39}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{158952DD-A7DC-477E-91D8-188954568D39}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -908,20 +908,40 @@
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -942,13 +962,14 @@
     <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -960,16 +981,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -981,7 +999,9 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -991,34 +1011,14 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2050,8 +2050,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E053581-A6B0-45B0-A9DB-B07F5A1622B0}">
   <dimension ref="A1:W336"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A175" workbookViewId="0">
-      <selection activeCell="C176" sqref="C176:K176"/>
+    <sheetView tabSelected="1" topLeftCell="A184" workbookViewId="0">
+      <selection activeCell="M188" sqref="M188"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2077,52 +2077,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="34.200000000000003" thickBot="1" x14ac:dyDescent="0.7">
-      <c r="A1" s="56">
+      <c r="A1" s="92">
         <v>2021</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="56"/>
-      <c r="J1" s="56"/>
-      <c r="K1" s="56"/>
-      <c r="L1" s="56"/>
-      <c r="M1" s="56"/>
-      <c r="N1" s="56"/>
-      <c r="O1" s="56"/>
-      <c r="P1" s="56"/>
-      <c r="Q1" s="56"/>
-      <c r="R1" s="56"/>
-      <c r="S1" s="56"/>
-      <c r="T1" s="56"/>
-      <c r="U1" s="56"/>
-      <c r="V1" s="56"/>
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="92"/>
+      <c r="I1" s="92"/>
+      <c r="J1" s="92"/>
+      <c r="K1" s="92"/>
+      <c r="L1" s="92"/>
+      <c r="M1" s="92"/>
+      <c r="N1" s="92"/>
+      <c r="O1" s="92"/>
+      <c r="P1" s="92"/>
+      <c r="Q1" s="92"/>
+      <c r="R1" s="92"/>
+      <c r="S1" s="92"/>
+      <c r="T1" s="92"/>
+      <c r="U1" s="92"/>
+      <c r="V1" s="92"/>
     </row>
     <row r="2" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="86" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="81"/>
-      <c r="F2" s="81"/>
-      <c r="G2" s="81"/>
-      <c r="H2" s="81"/>
-      <c r="I2" s="81"/>
-      <c r="J2" s="81"/>
-      <c r="K2" s="81"/>
-      <c r="L2" s="81"/>
-      <c r="M2" s="81"/>
-      <c r="N2" s="81"/>
-      <c r="O2" s="81"/>
-      <c r="P2" s="81"/>
-      <c r="Q2" s="81"/>
-      <c r="R2" s="82"/>
+      <c r="B2" s="87"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="87"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="87"/>
+      <c r="J2" s="87"/>
+      <c r="K2" s="87"/>
+      <c r="L2" s="87"/>
+      <c r="M2" s="87"/>
+      <c r="N2" s="87"/>
+      <c r="O2" s="87"/>
+      <c r="P2" s="87"/>
+      <c r="Q2" s="87"/>
+      <c r="R2" s="88"/>
       <c r="S2" s="3"/>
       <c r="T2" s="3"/>
       <c r="U2" s="3"/>
@@ -2133,17 +2133,17 @@
         <v>1</v>
       </c>
       <c r="B4" s="5"/>
-      <c r="C4" s="86" t="s">
+      <c r="C4" s="85" t="s">
         <v>100</v>
       </c>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86"/>
-      <c r="K4" s="86"/>
+      <c r="D4" s="85"/>
+      <c r="E4" s="85"/>
+      <c r="F4" s="85"/>
+      <c r="G4" s="85"/>
+      <c r="H4" s="85"/>
+      <c r="I4" s="85"/>
+      <c r="J4" s="85"/>
+      <c r="K4" s="85"/>
       <c r="L4" s="5" t="s">
         <v>2</v>
       </c>
@@ -2183,17 +2183,17 @@
       <c r="B5" s="41">
         <v>44613</v>
       </c>
-      <c r="C5" s="74" t="s">
+      <c r="C5" s="73" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="74"/>
-      <c r="E5" s="74"/>
-      <c r="F5" s="74"/>
-      <c r="G5" s="74"/>
-      <c r="H5" s="74"/>
-      <c r="I5" s="74"/>
-      <c r="J5" s="74"/>
-      <c r="K5" s="74"/>
+      <c r="D5" s="73"/>
+      <c r="E5" s="73"/>
+      <c r="F5" s="73"/>
+      <c r="G5" s="73"/>
+      <c r="H5" s="73"/>
+      <c r="I5" s="73"/>
+      <c r="J5" s="73"/>
+      <c r="K5" s="73"/>
       <c r="L5" s="6">
         <v>17</v>
       </c>
@@ -2221,17 +2221,17 @@
       <c r="B6" s="41">
         <v>44617</v>
       </c>
-      <c r="C6" s="66" t="s">
+      <c r="C6" s="64" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="67"/>
-      <c r="E6" s="67"/>
-      <c r="F6" s="67"/>
-      <c r="G6" s="67"/>
-      <c r="H6" s="67"/>
-      <c r="I6" s="67"/>
-      <c r="J6" s="67"/>
-      <c r="K6" s="67"/>
+      <c r="D6" s="65"/>
+      <c r="E6" s="65"/>
+      <c r="F6" s="65"/>
+      <c r="G6" s="65"/>
+      <c r="H6" s="65"/>
+      <c r="I6" s="65"/>
+      <c r="J6" s="65"/>
+      <c r="K6" s="65"/>
       <c r="L6" s="6">
         <v>17</v>
       </c>
@@ -2259,17 +2259,17 @@
       <c r="B7" s="41">
         <v>44621</v>
       </c>
-      <c r="C7" s="66" t="s">
+      <c r="C7" s="64" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="67"/>
-      <c r="E7" s="67"/>
-      <c r="F7" s="67"/>
-      <c r="G7" s="67"/>
-      <c r="H7" s="67"/>
-      <c r="I7" s="67"/>
-      <c r="J7" s="67"/>
-      <c r="K7" s="67"/>
+      <c r="D7" s="65"/>
+      <c r="E7" s="65"/>
+      <c r="F7" s="65"/>
+      <c r="G7" s="65"/>
+      <c r="H7" s="65"/>
+      <c r="I7" s="65"/>
+      <c r="J7" s="65"/>
+      <c r="K7" s="65"/>
       <c r="L7" s="6">
         <v>17</v>
       </c>
@@ -2297,17 +2297,17 @@
       <c r="B8" s="41">
         <v>44625</v>
       </c>
-      <c r="C8" s="67" t="s">
+      <c r="C8" s="65" t="s">
         <v>35</v>
       </c>
-      <c r="D8" s="67"/>
-      <c r="E8" s="67"/>
-      <c r="F8" s="67"/>
-      <c r="G8" s="67"/>
-      <c r="H8" s="67"/>
-      <c r="I8" s="67"/>
-      <c r="J8" s="67"/>
-      <c r="K8" s="67"/>
+      <c r="D8" s="65"/>
+      <c r="E8" s="65"/>
+      <c r="F8" s="65"/>
+      <c r="G8" s="65"/>
+      <c r="H8" s="65"/>
+      <c r="I8" s="65"/>
+      <c r="J8" s="65"/>
+      <c r="K8" s="65"/>
       <c r="L8" s="6">
         <v>17</v>
       </c>
@@ -2335,17 +2335,17 @@
       <c r="B9" s="41">
         <v>44629</v>
       </c>
-      <c r="C9" s="66" t="s">
+      <c r="C9" s="64" t="s">
         <v>36</v>
       </c>
-      <c r="D9" s="67"/>
-      <c r="E9" s="67"/>
-      <c r="F9" s="67"/>
-      <c r="G9" s="67"/>
-      <c r="H9" s="67"/>
-      <c r="I9" s="67"/>
-      <c r="J9" s="67"/>
-      <c r="K9" s="67"/>
+      <c r="D9" s="65"/>
+      <c r="E9" s="65"/>
+      <c r="F9" s="65"/>
+      <c r="G9" s="65"/>
+      <c r="H9" s="65"/>
+      <c r="I9" s="65"/>
+      <c r="J9" s="65"/>
+      <c r="K9" s="65"/>
       <c r="L9" s="6">
         <v>17</v>
       </c>
@@ -2373,17 +2373,17 @@
       <c r="B10" s="41">
         <v>44633</v>
       </c>
-      <c r="C10" s="66" t="s">
+      <c r="C10" s="64" t="s">
         <v>37</v>
       </c>
-      <c r="D10" s="67"/>
-      <c r="E10" s="67"/>
-      <c r="F10" s="67"/>
-      <c r="G10" s="67"/>
-      <c r="H10" s="67"/>
-      <c r="I10" s="67"/>
-      <c r="J10" s="67"/>
-      <c r="K10" s="67"/>
+      <c r="D10" s="65"/>
+      <c r="E10" s="65"/>
+      <c r="F10" s="65"/>
+      <c r="G10" s="65"/>
+      <c r="H10" s="65"/>
+      <c r="I10" s="65"/>
+      <c r="J10" s="65"/>
+      <c r="K10" s="65"/>
       <c r="L10" s="6">
         <v>17</v>
       </c>
@@ -2411,17 +2411,17 @@
       <c r="B11" s="41">
         <v>44637</v>
       </c>
-      <c r="C11" s="67" t="s">
+      <c r="C11" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="67"/>
-      <c r="E11" s="67"/>
-      <c r="F11" s="67"/>
-      <c r="G11" s="67"/>
-      <c r="H11" s="67"/>
-      <c r="I11" s="67"/>
-      <c r="J11" s="67"/>
-      <c r="K11" s="67"/>
+      <c r="D11" s="65"/>
+      <c r="E11" s="65"/>
+      <c r="F11" s="65"/>
+      <c r="G11" s="65"/>
+      <c r="H11" s="65"/>
+      <c r="I11" s="65"/>
+      <c r="J11" s="65"/>
+      <c r="K11" s="65"/>
       <c r="L11" s="6">
         <v>17</v>
       </c>
@@ -2449,17 +2449,17 @@
       <c r="B12" s="41">
         <v>44641</v>
       </c>
-      <c r="C12" s="66" t="s">
+      <c r="C12" s="64" t="s">
         <v>38</v>
       </c>
-      <c r="D12" s="67"/>
-      <c r="E12" s="67"/>
-      <c r="F12" s="67"/>
-      <c r="G12" s="67"/>
-      <c r="H12" s="67"/>
-      <c r="I12" s="67"/>
-      <c r="J12" s="67"/>
-      <c r="K12" s="67"/>
+      <c r="D12" s="65"/>
+      <c r="E12" s="65"/>
+      <c r="F12" s="65"/>
+      <c r="G12" s="65"/>
+      <c r="H12" s="65"/>
+      <c r="I12" s="65"/>
+      <c r="J12" s="65"/>
+      <c r="K12" s="65"/>
       <c r="L12" s="6">
         <v>17</v>
       </c>
@@ -2485,17 +2485,17 @@
         <v>9</v>
       </c>
       <c r="B13" s="1"/>
-      <c r="C13" s="66" t="s">
+      <c r="C13" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="D13" s="67"/>
-      <c r="E13" s="67"/>
-      <c r="F13" s="67"/>
-      <c r="G13" s="67"/>
-      <c r="H13" s="67"/>
-      <c r="I13" s="67"/>
-      <c r="J13" s="67"/>
-      <c r="K13" s="67"/>
+      <c r="D13" s="65"/>
+      <c r="E13" s="65"/>
+      <c r="F13" s="65"/>
+      <c r="G13" s="65"/>
+      <c r="H13" s="65"/>
+      <c r="I13" s="65"/>
+      <c r="J13" s="65"/>
+      <c r="K13" s="65"/>
       <c r="L13" s="6">
         <v>17</v>
       </c>
@@ -2521,17 +2521,17 @@
         <v>10</v>
       </c>
       <c r="B14" s="1"/>
-      <c r="C14" s="66" t="s">
+      <c r="C14" s="64" t="s">
         <v>40</v>
       </c>
-      <c r="D14" s="67"/>
-      <c r="E14" s="67"/>
-      <c r="F14" s="67"/>
-      <c r="G14" s="67"/>
-      <c r="H14" s="67"/>
-      <c r="I14" s="67"/>
-      <c r="J14" s="67"/>
-      <c r="K14" s="67"/>
+      <c r="D14" s="65"/>
+      <c r="E14" s="65"/>
+      <c r="F14" s="65"/>
+      <c r="G14" s="65"/>
+      <c r="H14" s="65"/>
+      <c r="I14" s="65"/>
+      <c r="J14" s="65"/>
+      <c r="K14" s="65"/>
       <c r="L14" s="6">
         <v>17</v>
       </c>
@@ -2557,17 +2557,17 @@
         <v>11</v>
       </c>
       <c r="B15" s="1"/>
-      <c r="C15" s="66" t="s">
+      <c r="C15" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="D15" s="67"/>
-      <c r="E15" s="67"/>
-      <c r="F15" s="67"/>
-      <c r="G15" s="67"/>
-      <c r="H15" s="67"/>
-      <c r="I15" s="67"/>
-      <c r="J15" s="67"/>
-      <c r="K15" s="67"/>
+      <c r="D15" s="65"/>
+      <c r="E15" s="65"/>
+      <c r="F15" s="65"/>
+      <c r="G15" s="65"/>
+      <c r="H15" s="65"/>
+      <c r="I15" s="65"/>
+      <c r="J15" s="65"/>
+      <c r="K15" s="65"/>
       <c r="L15" s="6">
         <v>17</v>
       </c>
@@ -2593,17 +2593,17 @@
         <v>12</v>
       </c>
       <c r="B16" s="1"/>
-      <c r="C16" s="66" t="s">
+      <c r="C16" s="64" t="s">
         <v>42</v>
       </c>
-      <c r="D16" s="67"/>
-      <c r="E16" s="67"/>
-      <c r="F16" s="67"/>
-      <c r="G16" s="67"/>
-      <c r="H16" s="67"/>
-      <c r="I16" s="67"/>
-      <c r="J16" s="67"/>
-      <c r="K16" s="67"/>
+      <c r="D16" s="65"/>
+      <c r="E16" s="65"/>
+      <c r="F16" s="65"/>
+      <c r="G16" s="65"/>
+      <c r="H16" s="65"/>
+      <c r="I16" s="65"/>
+      <c r="J16" s="65"/>
+      <c r="K16" s="65"/>
       <c r="L16" s="6">
         <v>17</v>
       </c>
@@ -2631,17 +2631,17 @@
       <c r="B17" s="41">
         <v>44645</v>
       </c>
-      <c r="C17" s="67" t="s">
+      <c r="C17" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="D17" s="67"/>
-      <c r="E17" s="67"/>
-      <c r="F17" s="67"/>
-      <c r="G17" s="67"/>
-      <c r="H17" s="67"/>
-      <c r="I17" s="67"/>
-      <c r="J17" s="67"/>
-      <c r="K17" s="67"/>
+      <c r="D17" s="65"/>
+      <c r="E17" s="65"/>
+      <c r="F17" s="65"/>
+      <c r="G17" s="65"/>
+      <c r="H17" s="65"/>
+      <c r="I17" s="65"/>
+      <c r="J17" s="65"/>
+      <c r="K17" s="65"/>
       <c r="L17" s="6">
         <v>17</v>
       </c>
@@ -2669,17 +2669,17 @@
       <c r="B18" s="41">
         <v>44649</v>
       </c>
-      <c r="C18" s="66" t="s">
+      <c r="C18" s="64" t="s">
         <v>43</v>
       </c>
-      <c r="D18" s="67"/>
-      <c r="E18" s="67"/>
-      <c r="F18" s="67"/>
-      <c r="G18" s="67"/>
-      <c r="H18" s="67"/>
-      <c r="I18" s="67"/>
-      <c r="J18" s="67"/>
-      <c r="K18" s="67"/>
+      <c r="D18" s="65"/>
+      <c r="E18" s="65"/>
+      <c r="F18" s="65"/>
+      <c r="G18" s="65"/>
+      <c r="H18" s="65"/>
+      <c r="I18" s="65"/>
+      <c r="J18" s="65"/>
+      <c r="K18" s="65"/>
       <c r="L18" s="6">
         <v>17</v>
       </c>
@@ -2707,17 +2707,17 @@
       <c r="B19" s="41">
         <v>44653</v>
       </c>
-      <c r="C19" s="67" t="s">
+      <c r="C19" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="D19" s="67"/>
-      <c r="E19" s="67"/>
-      <c r="F19" s="67"/>
-      <c r="G19" s="67"/>
-      <c r="H19" s="67"/>
-      <c r="I19" s="67"/>
-      <c r="J19" s="67"/>
-      <c r="K19" s="67"/>
+      <c r="D19" s="65"/>
+      <c r="E19" s="65"/>
+      <c r="F19" s="65"/>
+      <c r="G19" s="65"/>
+      <c r="H19" s="65"/>
+      <c r="I19" s="65"/>
+      <c r="J19" s="65"/>
+      <c r="K19" s="65"/>
       <c r="L19" s="6">
         <v>17</v>
       </c>
@@ -2755,17 +2755,17 @@
       <c r="B20" s="41">
         <v>44657</v>
       </c>
-      <c r="C20" s="67" t="s">
+      <c r="C20" s="65" t="s">
         <v>44</v>
       </c>
-      <c r="D20" s="67"/>
-      <c r="E20" s="67"/>
-      <c r="F20" s="67"/>
-      <c r="G20" s="67"/>
-      <c r="H20" s="67"/>
-      <c r="I20" s="67"/>
-      <c r="J20" s="67"/>
-      <c r="K20" s="67"/>
+      <c r="D20" s="65"/>
+      <c r="E20" s="65"/>
+      <c r="F20" s="65"/>
+      <c r="G20" s="65"/>
+      <c r="H20" s="65"/>
+      <c r="I20" s="65"/>
+      <c r="J20" s="65"/>
+      <c r="K20" s="65"/>
       <c r="L20" s="6">
         <v>17</v>
       </c>
@@ -2793,17 +2793,17 @@
       <c r="B21" s="41">
         <v>44661</v>
       </c>
-      <c r="C21" s="66" t="s">
+      <c r="C21" s="64" t="s">
         <v>45</v>
       </c>
-      <c r="D21" s="67"/>
-      <c r="E21" s="67"/>
-      <c r="F21" s="67"/>
-      <c r="G21" s="67"/>
-      <c r="H21" s="67"/>
-      <c r="I21" s="67"/>
-      <c r="J21" s="67"/>
-      <c r="K21" s="67"/>
+      <c r="D21" s="65"/>
+      <c r="E21" s="65"/>
+      <c r="F21" s="65"/>
+      <c r="G21" s="65"/>
+      <c r="H21" s="65"/>
+      <c r="I21" s="65"/>
+      <c r="J21" s="65"/>
+      <c r="K21" s="65"/>
       <c r="L21" s="6">
         <v>17</v>
       </c>
@@ -2831,17 +2831,17 @@
       <c r="B22" s="41">
         <v>44665</v>
       </c>
-      <c r="C22" s="66" t="s">
+      <c r="C22" s="64" t="s">
         <v>46</v>
       </c>
-      <c r="D22" s="67"/>
-      <c r="E22" s="67"/>
-      <c r="F22" s="67"/>
-      <c r="G22" s="67"/>
-      <c r="H22" s="67"/>
-      <c r="I22" s="67"/>
-      <c r="J22" s="67"/>
-      <c r="K22" s="67"/>
+      <c r="D22" s="65"/>
+      <c r="E22" s="65"/>
+      <c r="F22" s="65"/>
+      <c r="G22" s="65"/>
+      <c r="H22" s="65"/>
+      <c r="I22" s="65"/>
+      <c r="J22" s="65"/>
+      <c r="K22" s="65"/>
       <c r="L22" s="6">
         <v>17</v>
       </c>
@@ -2869,17 +2869,17 @@
       <c r="B23" s="41">
         <v>44669</v>
       </c>
-      <c r="C23" s="67" t="s">
+      <c r="C23" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="D23" s="67"/>
-      <c r="E23" s="67"/>
-      <c r="F23" s="67"/>
-      <c r="G23" s="67"/>
-      <c r="H23" s="67"/>
-      <c r="I23" s="67"/>
-      <c r="J23" s="67"/>
-      <c r="K23" s="67"/>
+      <c r="D23" s="65"/>
+      <c r="E23" s="65"/>
+      <c r="F23" s="65"/>
+      <c r="G23" s="65"/>
+      <c r="H23" s="65"/>
+      <c r="I23" s="65"/>
+      <c r="J23" s="65"/>
+      <c r="K23" s="65"/>
       <c r="L23" s="6">
         <v>17</v>
       </c>
@@ -2907,17 +2907,17 @@
       <c r="B24" s="41">
         <v>44673</v>
       </c>
-      <c r="C24" s="67" t="s">
+      <c r="C24" s="65" t="s">
         <v>47</v>
       </c>
-      <c r="D24" s="67"/>
-      <c r="E24" s="67"/>
-      <c r="F24" s="67"/>
-      <c r="G24" s="67"/>
-      <c r="H24" s="67"/>
-      <c r="I24" s="67"/>
-      <c r="J24" s="67"/>
-      <c r="K24" s="67"/>
+      <c r="D24" s="65"/>
+      <c r="E24" s="65"/>
+      <c r="F24" s="65"/>
+      <c r="G24" s="65"/>
+      <c r="H24" s="65"/>
+      <c r="I24" s="65"/>
+      <c r="J24" s="65"/>
+      <c r="K24" s="65"/>
       <c r="L24" s="6">
         <v>17</v>
       </c>
@@ -2945,17 +2945,17 @@
       <c r="B25" s="42">
         <v>44646</v>
       </c>
-      <c r="C25" s="67" t="s">
+      <c r="C25" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="D25" s="67"/>
-      <c r="E25" s="67"/>
-      <c r="F25" s="67"/>
-      <c r="G25" s="67"/>
-      <c r="H25" s="67"/>
-      <c r="I25" s="67"/>
-      <c r="J25" s="67"/>
-      <c r="K25" s="67"/>
+      <c r="D25" s="65"/>
+      <c r="E25" s="65"/>
+      <c r="F25" s="65"/>
+      <c r="G25" s="65"/>
+      <c r="H25" s="65"/>
+      <c r="I25" s="65"/>
+      <c r="J25" s="65"/>
+      <c r="K25" s="65"/>
       <c r="L25" s="6">
         <v>17</v>
       </c>
@@ -2983,17 +2983,17 @@
       <c r="B26" s="43">
         <v>44646</v>
       </c>
-      <c r="C26" s="66" t="s">
+      <c r="C26" s="64" t="s">
         <v>48</v>
       </c>
-      <c r="D26" s="67"/>
-      <c r="E26" s="67"/>
-      <c r="F26" s="67"/>
-      <c r="G26" s="67"/>
-      <c r="H26" s="67"/>
-      <c r="I26" s="67"/>
-      <c r="J26" s="67"/>
-      <c r="K26" s="67"/>
+      <c r="D26" s="65"/>
+      <c r="E26" s="65"/>
+      <c r="F26" s="65"/>
+      <c r="G26" s="65"/>
+      <c r="H26" s="65"/>
+      <c r="I26" s="65"/>
+      <c r="J26" s="65"/>
+      <c r="K26" s="65"/>
       <c r="L26" s="6">
         <v>17</v>
       </c>
@@ -3021,17 +3021,17 @@
       <c r="B27" s="41">
         <v>44677</v>
       </c>
-      <c r="C27" s="67" t="s">
+      <c r="C27" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="D27" s="67"/>
-      <c r="E27" s="67"/>
-      <c r="F27" s="67"/>
-      <c r="G27" s="67"/>
-      <c r="H27" s="67"/>
-      <c r="I27" s="67"/>
-      <c r="J27" s="67"/>
-      <c r="K27" s="67"/>
+      <c r="D27" s="65"/>
+      <c r="E27" s="65"/>
+      <c r="F27" s="65"/>
+      <c r="G27" s="65"/>
+      <c r="H27" s="65"/>
+      <c r="I27" s="65"/>
+      <c r="J27" s="65"/>
+      <c r="K27" s="65"/>
       <c r="L27" s="6">
         <v>17</v>
       </c>
@@ -3059,17 +3059,17 @@
       <c r="B28" s="41">
         <v>44681</v>
       </c>
-      <c r="C28" s="66" t="s">
+      <c r="C28" s="64" t="s">
         <v>49</v>
       </c>
-      <c r="D28" s="67"/>
-      <c r="E28" s="67"/>
-      <c r="F28" s="67"/>
-      <c r="G28" s="67"/>
-      <c r="H28" s="67"/>
-      <c r="I28" s="67"/>
-      <c r="J28" s="67"/>
-      <c r="K28" s="67"/>
+      <c r="D28" s="65"/>
+      <c r="E28" s="65"/>
+      <c r="F28" s="65"/>
+      <c r="G28" s="65"/>
+      <c r="H28" s="65"/>
+      <c r="I28" s="65"/>
+      <c r="J28" s="65"/>
+      <c r="K28" s="65"/>
       <c r="L28" s="6">
         <v>17</v>
       </c>
@@ -3095,20 +3095,20 @@
         <v>25</v>
       </c>
       <c r="B29" s="8"/>
-      <c r="C29" s="60" t="s">
+      <c r="C29" s="66" t="s">
         <v>58</v>
       </c>
-      <c r="D29" s="61"/>
-      <c r="E29" s="61"/>
-      <c r="F29" s="61"/>
-      <c r="G29" s="61"/>
-      <c r="H29" s="61"/>
-      <c r="I29" s="61"/>
-      <c r="J29" s="61"/>
-      <c r="K29" s="61"/>
-      <c r="L29" s="61"/>
-      <c r="M29" s="61"/>
-      <c r="N29" s="62"/>
+      <c r="D29" s="67"/>
+      <c r="E29" s="67"/>
+      <c r="F29" s="67"/>
+      <c r="G29" s="67"/>
+      <c r="H29" s="67"/>
+      <c r="I29" s="67"/>
+      <c r="J29" s="67"/>
+      <c r="K29" s="67"/>
+      <c r="L29" s="67"/>
+      <c r="M29" s="67"/>
+      <c r="N29" s="68"/>
       <c r="O29" s="11"/>
       <c r="P29" s="12">
         <f>AVERAGE(P5:P28)</f>
@@ -3128,26 +3128,26 @@
     </row>
     <row r="31" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="32" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="76" t="s">
+      <c r="A32" s="82" t="s">
         <v>13</v>
       </c>
-      <c r="B32" s="77"/>
-      <c r="C32" s="77"/>
-      <c r="D32" s="77"/>
-      <c r="E32" s="77"/>
-      <c r="F32" s="77"/>
-      <c r="G32" s="77"/>
-      <c r="H32" s="77"/>
-      <c r="I32" s="77"/>
-      <c r="J32" s="77"/>
-      <c r="K32" s="77"/>
-      <c r="L32" s="77"/>
-      <c r="M32" s="77"/>
-      <c r="N32" s="77"/>
-      <c r="O32" s="77"/>
-      <c r="P32" s="77"/>
-      <c r="Q32" s="77"/>
-      <c r="R32" s="78"/>
+      <c r="B32" s="83"/>
+      <c r="C32" s="83"/>
+      <c r="D32" s="83"/>
+      <c r="E32" s="83"/>
+      <c r="F32" s="83"/>
+      <c r="G32" s="83"/>
+      <c r="H32" s="83"/>
+      <c r="I32" s="83"/>
+      <c r="J32" s="83"/>
+      <c r="K32" s="83"/>
+      <c r="L32" s="83"/>
+      <c r="M32" s="83"/>
+      <c r="N32" s="83"/>
+      <c r="O32" s="83"/>
+      <c r="P32" s="83"/>
+      <c r="Q32" s="83"/>
+      <c r="R32" s="84"/>
       <c r="S32" s="15"/>
       <c r="T32" s="15"/>
       <c r="U32" s="15"/>
@@ -3157,17 +3157,17 @@
         <v>1</v>
       </c>
       <c r="B34" s="5"/>
-      <c r="C34" s="73" t="s">
+      <c r="C34" s="72" t="s">
         <v>100</v>
       </c>
-      <c r="D34" s="73"/>
-      <c r="E34" s="73"/>
-      <c r="F34" s="73"/>
-      <c r="G34" s="73"/>
-      <c r="H34" s="73"/>
-      <c r="I34" s="73"/>
-      <c r="J34" s="73"/>
-      <c r="K34" s="73"/>
+      <c r="D34" s="72"/>
+      <c r="E34" s="72"/>
+      <c r="F34" s="72"/>
+      <c r="G34" s="72"/>
+      <c r="H34" s="72"/>
+      <c r="I34" s="72"/>
+      <c r="J34" s="72"/>
+      <c r="K34" s="72"/>
       <c r="L34" s="5" t="s">
         <v>2</v>
       </c>
@@ -3204,17 +3204,17 @@
         <v>1</v>
       </c>
       <c r="B35" s="1"/>
-      <c r="C35" s="74" t="s">
+      <c r="C35" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="D35" s="74"/>
-      <c r="E35" s="74"/>
-      <c r="F35" s="74"/>
-      <c r="G35" s="74"/>
-      <c r="H35" s="74"/>
-      <c r="I35" s="74"/>
-      <c r="J35" s="74"/>
-      <c r="K35" s="74"/>
+      <c r="D35" s="73"/>
+      <c r="E35" s="73"/>
+      <c r="F35" s="73"/>
+      <c r="G35" s="73"/>
+      <c r="H35" s="73"/>
+      <c r="I35" s="73"/>
+      <c r="J35" s="73"/>
+      <c r="K35" s="73"/>
       <c r="L35" s="6">
         <v>33</v>
       </c>
@@ -3237,17 +3237,17 @@
         <v>2</v>
       </c>
       <c r="B36" s="1"/>
-      <c r="C36" s="66" t="s">
+      <c r="C36" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="D36" s="67"/>
-      <c r="E36" s="67"/>
-      <c r="F36" s="67"/>
-      <c r="G36" s="67"/>
-      <c r="H36" s="67"/>
-      <c r="I36" s="67"/>
-      <c r="J36" s="67"/>
-      <c r="K36" s="67"/>
+      <c r="D36" s="65"/>
+      <c r="E36" s="65"/>
+      <c r="F36" s="65"/>
+      <c r="G36" s="65"/>
+      <c r="H36" s="65"/>
+      <c r="I36" s="65"/>
+      <c r="J36" s="65"/>
+      <c r="K36" s="65"/>
       <c r="L36" s="6">
         <v>33</v>
       </c>
@@ -3270,17 +3270,17 @@
         <v>3</v>
       </c>
       <c r="B37" s="1"/>
-      <c r="C37" s="66" t="s">
+      <c r="C37" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="D37" s="67"/>
-      <c r="E37" s="67"/>
-      <c r="F37" s="67"/>
-      <c r="G37" s="67"/>
-      <c r="H37" s="67"/>
-      <c r="I37" s="67"/>
-      <c r="J37" s="67"/>
-      <c r="K37" s="67"/>
+      <c r="D37" s="65"/>
+      <c r="E37" s="65"/>
+      <c r="F37" s="65"/>
+      <c r="G37" s="65"/>
+      <c r="H37" s="65"/>
+      <c r="I37" s="65"/>
+      <c r="J37" s="65"/>
+      <c r="K37" s="65"/>
       <c r="L37" s="6">
         <v>33</v>
       </c>
@@ -3303,17 +3303,17 @@
         <v>4</v>
       </c>
       <c r="B38" s="1"/>
-      <c r="C38" s="67" t="s">
+      <c r="C38" s="65" t="s">
         <v>18</v>
       </c>
-      <c r="D38" s="67"/>
-      <c r="E38" s="67"/>
-      <c r="F38" s="67"/>
-      <c r="G38" s="67"/>
-      <c r="H38" s="67"/>
-      <c r="I38" s="67"/>
-      <c r="J38" s="67"/>
-      <c r="K38" s="67"/>
+      <c r="D38" s="65"/>
+      <c r="E38" s="65"/>
+      <c r="F38" s="65"/>
+      <c r="G38" s="65"/>
+      <c r="H38" s="65"/>
+      <c r="I38" s="65"/>
+      <c r="J38" s="65"/>
+      <c r="K38" s="65"/>
       <c r="L38" s="6">
         <v>33</v>
       </c>
@@ -3336,17 +3336,17 @@
         <v>5</v>
       </c>
       <c r="B39" s="1"/>
-      <c r="C39" s="66" t="s">
+      <c r="C39" s="64" t="s">
         <v>61</v>
       </c>
-      <c r="D39" s="67"/>
-      <c r="E39" s="67"/>
-      <c r="F39" s="67"/>
-      <c r="G39" s="67"/>
-      <c r="H39" s="67"/>
-      <c r="I39" s="67"/>
-      <c r="J39" s="67"/>
-      <c r="K39" s="67"/>
+      <c r="D39" s="65"/>
+      <c r="E39" s="65"/>
+      <c r="F39" s="65"/>
+      <c r="G39" s="65"/>
+      <c r="H39" s="65"/>
+      <c r="I39" s="65"/>
+      <c r="J39" s="65"/>
+      <c r="K39" s="65"/>
       <c r="L39" s="6">
         <v>33</v>
       </c>
@@ -3369,17 +3369,17 @@
         <v>6</v>
       </c>
       <c r="B40" s="1"/>
-      <c r="C40" s="66" t="s">
+      <c r="C40" s="64" t="s">
         <v>61</v>
       </c>
-      <c r="D40" s="67"/>
-      <c r="E40" s="67"/>
-      <c r="F40" s="67"/>
-      <c r="G40" s="67"/>
-      <c r="H40" s="67"/>
-      <c r="I40" s="67"/>
-      <c r="J40" s="67"/>
-      <c r="K40" s="67"/>
+      <c r="D40" s="65"/>
+      <c r="E40" s="65"/>
+      <c r="F40" s="65"/>
+      <c r="G40" s="65"/>
+      <c r="H40" s="65"/>
+      <c r="I40" s="65"/>
+      <c r="J40" s="65"/>
+      <c r="K40" s="65"/>
       <c r="L40" s="6">
         <v>33</v>
       </c>
@@ -3402,17 +3402,17 @@
         <v>7</v>
       </c>
       <c r="B41" s="1"/>
-      <c r="C41" s="67" t="s">
+      <c r="C41" s="65" t="s">
         <v>20</v>
       </c>
-      <c r="D41" s="67"/>
-      <c r="E41" s="67"/>
-      <c r="F41" s="67"/>
-      <c r="G41" s="67"/>
-      <c r="H41" s="67"/>
-      <c r="I41" s="67"/>
-      <c r="J41" s="67"/>
-      <c r="K41" s="67"/>
+      <c r="D41" s="65"/>
+      <c r="E41" s="65"/>
+      <c r="F41" s="65"/>
+      <c r="G41" s="65"/>
+      <c r="H41" s="65"/>
+      <c r="I41" s="65"/>
+      <c r="J41" s="65"/>
+      <c r="K41" s="65"/>
       <c r="L41" s="6">
         <v>33</v>
       </c>
@@ -3435,17 +3435,17 @@
         <v>8</v>
       </c>
       <c r="B42" s="1"/>
-      <c r="C42" s="66" t="s">
+      <c r="C42" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="D42" s="67"/>
-      <c r="E42" s="67"/>
-      <c r="F42" s="67"/>
-      <c r="G42" s="67"/>
-      <c r="H42" s="67"/>
-      <c r="I42" s="67"/>
-      <c r="J42" s="67"/>
-      <c r="K42" s="67"/>
+      <c r="D42" s="65"/>
+      <c r="E42" s="65"/>
+      <c r="F42" s="65"/>
+      <c r="G42" s="65"/>
+      <c r="H42" s="65"/>
+      <c r="I42" s="65"/>
+      <c r="J42" s="65"/>
+      <c r="K42" s="65"/>
       <c r="L42" s="6">
         <v>33</v>
       </c>
@@ -3468,17 +3468,17 @@
         <v>9</v>
       </c>
       <c r="B43" s="1"/>
-      <c r="C43" s="66" t="s">
+      <c r="C43" s="64" t="s">
         <v>62</v>
       </c>
-      <c r="D43" s="67"/>
-      <c r="E43" s="67"/>
-      <c r="F43" s="67"/>
-      <c r="G43" s="67"/>
-      <c r="H43" s="67"/>
-      <c r="I43" s="67"/>
-      <c r="J43" s="67"/>
-      <c r="K43" s="67"/>
+      <c r="D43" s="65"/>
+      <c r="E43" s="65"/>
+      <c r="F43" s="65"/>
+      <c r="G43" s="65"/>
+      <c r="H43" s="65"/>
+      <c r="I43" s="65"/>
+      <c r="J43" s="65"/>
+      <c r="K43" s="65"/>
       <c r="L43" s="6">
         <v>33</v>
       </c>
@@ -3501,17 +3501,17 @@
         <v>10</v>
       </c>
       <c r="B44" s="1"/>
-      <c r="C44" s="66" t="s">
+      <c r="C44" s="64" t="s">
         <v>22</v>
       </c>
-      <c r="D44" s="67"/>
-      <c r="E44" s="67"/>
-      <c r="F44" s="67"/>
-      <c r="G44" s="67"/>
-      <c r="H44" s="67"/>
-      <c r="I44" s="67"/>
-      <c r="J44" s="67"/>
-      <c r="K44" s="67"/>
+      <c r="D44" s="65"/>
+      <c r="E44" s="65"/>
+      <c r="F44" s="65"/>
+      <c r="G44" s="65"/>
+      <c r="H44" s="65"/>
+      <c r="I44" s="65"/>
+      <c r="J44" s="65"/>
+      <c r="K44" s="65"/>
       <c r="L44" s="6">
         <v>33</v>
       </c>
@@ -3534,17 +3534,17 @@
         <v>11</v>
       </c>
       <c r="B45" s="1"/>
-      <c r="C45" s="66" t="s">
+      <c r="C45" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="D45" s="67"/>
-      <c r="E45" s="67"/>
-      <c r="F45" s="67"/>
-      <c r="G45" s="67"/>
-      <c r="H45" s="67"/>
-      <c r="I45" s="67"/>
-      <c r="J45" s="67"/>
-      <c r="K45" s="67"/>
+      <c r="D45" s="65"/>
+      <c r="E45" s="65"/>
+      <c r="F45" s="65"/>
+      <c r="G45" s="65"/>
+      <c r="H45" s="65"/>
+      <c r="I45" s="65"/>
+      <c r="J45" s="65"/>
+      <c r="K45" s="65"/>
       <c r="L45" s="6">
         <v>33</v>
       </c>
@@ -3569,17 +3569,17 @@
       <c r="B46" s="42">
         <v>44647</v>
       </c>
-      <c r="C46" s="66" t="s">
+      <c r="C46" s="64" t="s">
         <v>63</v>
       </c>
-      <c r="D46" s="67"/>
-      <c r="E46" s="67"/>
-      <c r="F46" s="67"/>
-      <c r="G46" s="67"/>
-      <c r="H46" s="67"/>
-      <c r="I46" s="67"/>
-      <c r="J46" s="67"/>
-      <c r="K46" s="67"/>
+      <c r="D46" s="65"/>
+      <c r="E46" s="65"/>
+      <c r="F46" s="65"/>
+      <c r="G46" s="65"/>
+      <c r="H46" s="65"/>
+      <c r="I46" s="65"/>
+      <c r="J46" s="65"/>
+      <c r="K46" s="65"/>
       <c r="L46" s="6">
         <v>33</v>
       </c>
@@ -3602,20 +3602,20 @@
         <v>13</v>
       </c>
       <c r="B47" s="1"/>
-      <c r="C47" s="60" t="s">
+      <c r="C47" s="66" t="s">
         <v>58</v>
       </c>
-      <c r="D47" s="61"/>
-      <c r="E47" s="61"/>
-      <c r="F47" s="61"/>
-      <c r="G47" s="61"/>
-      <c r="H47" s="61"/>
-      <c r="I47" s="61"/>
-      <c r="J47" s="61"/>
-      <c r="K47" s="61"/>
-      <c r="L47" s="61"/>
-      <c r="M47" s="61"/>
-      <c r="N47" s="62"/>
+      <c r="D47" s="67"/>
+      <c r="E47" s="67"/>
+      <c r="F47" s="67"/>
+      <c r="G47" s="67"/>
+      <c r="H47" s="67"/>
+      <c r="I47" s="67"/>
+      <c r="J47" s="67"/>
+      <c r="K47" s="67"/>
+      <c r="L47" s="67"/>
+      <c r="M47" s="67"/>
+      <c r="N47" s="68"/>
       <c r="O47" s="11"/>
       <c r="P47" s="12"/>
       <c r="Q47" s="13"/>
@@ -3629,26 +3629,26 @@
       <c r="B48" s="1"/>
     </row>
     <row r="49" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="63" t="s">
+      <c r="A49" s="69" t="s">
         <v>24</v>
       </c>
-      <c r="B49" s="64"/>
-      <c r="C49" s="64"/>
-      <c r="D49" s="64"/>
-      <c r="E49" s="64"/>
-      <c r="F49" s="64"/>
-      <c r="G49" s="64"/>
-      <c r="H49" s="64"/>
-      <c r="I49" s="64"/>
-      <c r="J49" s="64"/>
-      <c r="K49" s="64"/>
-      <c r="L49" s="64"/>
-      <c r="M49" s="64"/>
-      <c r="N49" s="64"/>
-      <c r="O49" s="64"/>
-      <c r="P49" s="64"/>
-      <c r="Q49" s="64"/>
-      <c r="R49" s="65"/>
+      <c r="B49" s="70"/>
+      <c r="C49" s="70"/>
+      <c r="D49" s="70"/>
+      <c r="E49" s="70"/>
+      <c r="F49" s="70"/>
+      <c r="G49" s="70"/>
+      <c r="H49" s="70"/>
+      <c r="I49" s="70"/>
+      <c r="J49" s="70"/>
+      <c r="K49" s="70"/>
+      <c r="L49" s="70"/>
+      <c r="M49" s="70"/>
+      <c r="N49" s="70"/>
+      <c r="O49" s="70"/>
+      <c r="P49" s="70"/>
+      <c r="Q49" s="70"/>
+      <c r="R49" s="71"/>
       <c r="S49" s="3"/>
       <c r="T49" s="3"/>
       <c r="U49" s="3"/>
@@ -3658,17 +3658,17 @@
         <v>1</v>
       </c>
       <c r="B51" s="5"/>
-      <c r="C51" s="73" t="s">
+      <c r="C51" s="72" t="s">
         <v>100</v>
       </c>
-      <c r="D51" s="73"/>
-      <c r="E51" s="73"/>
-      <c r="F51" s="73"/>
-      <c r="G51" s="73"/>
-      <c r="H51" s="73"/>
-      <c r="I51" s="73"/>
-      <c r="J51" s="73"/>
-      <c r="K51" s="73"/>
+      <c r="D51" s="72"/>
+      <c r="E51" s="72"/>
+      <c r="F51" s="72"/>
+      <c r="G51" s="72"/>
+      <c r="H51" s="72"/>
+      <c r="I51" s="72"/>
+      <c r="J51" s="72"/>
+      <c r="K51" s="72"/>
       <c r="L51" s="5" t="s">
         <v>2</v>
       </c>
@@ -3705,17 +3705,17 @@
         <v>1</v>
       </c>
       <c r="B52" s="1"/>
-      <c r="C52" s="74" t="s">
+      <c r="C52" s="73" t="s">
         <v>65</v>
       </c>
-      <c r="D52" s="74"/>
-      <c r="E52" s="74"/>
-      <c r="F52" s="74"/>
-      <c r="G52" s="74"/>
-      <c r="H52" s="74"/>
-      <c r="I52" s="74"/>
-      <c r="J52" s="74"/>
-      <c r="K52" s="74"/>
+      <c r="D52" s="73"/>
+      <c r="E52" s="73"/>
+      <c r="F52" s="73"/>
+      <c r="G52" s="73"/>
+      <c r="H52" s="73"/>
+      <c r="I52" s="73"/>
+      <c r="J52" s="73"/>
+      <c r="K52" s="73"/>
       <c r="L52" s="6">
         <v>33</v>
       </c>
@@ -3738,17 +3738,17 @@
         <v>2</v>
       </c>
       <c r="B53" s="1"/>
-      <c r="C53" s="66" t="s">
+      <c r="C53" s="64" t="s">
         <v>66</v>
       </c>
-      <c r="D53" s="67"/>
-      <c r="E53" s="67"/>
-      <c r="F53" s="67"/>
-      <c r="G53" s="67"/>
-      <c r="H53" s="67"/>
-      <c r="I53" s="67"/>
-      <c r="J53" s="67"/>
-      <c r="K53" s="67"/>
+      <c r="D53" s="65"/>
+      <c r="E53" s="65"/>
+      <c r="F53" s="65"/>
+      <c r="G53" s="65"/>
+      <c r="H53" s="65"/>
+      <c r="I53" s="65"/>
+      <c r="J53" s="65"/>
+      <c r="K53" s="65"/>
       <c r="L53" s="6">
         <v>33</v>
       </c>
@@ -3771,17 +3771,17 @@
         <v>3</v>
       </c>
       <c r="B54" s="1"/>
-      <c r="C54" s="66" t="s">
+      <c r="C54" s="64" t="s">
         <v>25</v>
       </c>
-      <c r="D54" s="67"/>
-      <c r="E54" s="67"/>
-      <c r="F54" s="67"/>
-      <c r="G54" s="67"/>
-      <c r="H54" s="67"/>
-      <c r="I54" s="67"/>
-      <c r="J54" s="67"/>
-      <c r="K54" s="67"/>
+      <c r="D54" s="65"/>
+      <c r="E54" s="65"/>
+      <c r="F54" s="65"/>
+      <c r="G54" s="65"/>
+      <c r="H54" s="65"/>
+      <c r="I54" s="65"/>
+      <c r="J54" s="65"/>
+      <c r="K54" s="65"/>
       <c r="L54" s="6">
         <v>33</v>
       </c>
@@ -3804,17 +3804,17 @@
         <v>4</v>
       </c>
       <c r="B55" s="1"/>
-      <c r="C55" s="67" t="s">
+      <c r="C55" s="65" t="s">
         <v>26</v>
       </c>
-      <c r="D55" s="67"/>
-      <c r="E55" s="67"/>
-      <c r="F55" s="67"/>
-      <c r="G55" s="67"/>
-      <c r="H55" s="67"/>
-      <c r="I55" s="67"/>
-      <c r="J55" s="67"/>
-      <c r="K55" s="67"/>
+      <c r="D55" s="65"/>
+      <c r="E55" s="65"/>
+      <c r="F55" s="65"/>
+      <c r="G55" s="65"/>
+      <c r="H55" s="65"/>
+      <c r="I55" s="65"/>
+      <c r="J55" s="65"/>
+      <c r="K55" s="65"/>
       <c r="L55" s="6">
         <v>33</v>
       </c>
@@ -3837,17 +3837,17 @@
         <v>5</v>
       </c>
       <c r="B56" s="1"/>
-      <c r="C56" s="66" t="s">
+      <c r="C56" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="D56" s="67"/>
-      <c r="E56" s="67"/>
-      <c r="F56" s="67"/>
-      <c r="G56" s="67"/>
-      <c r="H56" s="67"/>
-      <c r="I56" s="67"/>
-      <c r="J56" s="67"/>
-      <c r="K56" s="67"/>
+      <c r="D56" s="65"/>
+      <c r="E56" s="65"/>
+      <c r="F56" s="65"/>
+      <c r="G56" s="65"/>
+      <c r="H56" s="65"/>
+      <c r="I56" s="65"/>
+      <c r="J56" s="65"/>
+      <c r="K56" s="65"/>
       <c r="L56" s="6">
         <v>33</v>
       </c>
@@ -3870,17 +3870,17 @@
         <v>6</v>
       </c>
       <c r="B57" s="1"/>
-      <c r="C57" s="66" t="s">
+      <c r="C57" s="64" t="s">
         <v>67</v>
       </c>
-      <c r="D57" s="67"/>
-      <c r="E57" s="67"/>
-      <c r="F57" s="67"/>
-      <c r="G57" s="67"/>
-      <c r="H57" s="67"/>
-      <c r="I57" s="67"/>
-      <c r="J57" s="67"/>
-      <c r="K57" s="67"/>
+      <c r="D57" s="65"/>
+      <c r="E57" s="65"/>
+      <c r="F57" s="65"/>
+      <c r="G57" s="65"/>
+      <c r="H57" s="65"/>
+      <c r="I57" s="65"/>
+      <c r="J57" s="65"/>
+      <c r="K57" s="65"/>
       <c r="L57" s="6">
         <v>33</v>
       </c>
@@ -3901,20 +3901,20 @@
     <row r="58" spans="1:21" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
-      <c r="C58" s="60" t="s">
+      <c r="C58" s="66" t="s">
         <v>58</v>
       </c>
-      <c r="D58" s="61"/>
-      <c r="E58" s="61"/>
-      <c r="F58" s="61"/>
-      <c r="G58" s="61"/>
-      <c r="H58" s="61"/>
-      <c r="I58" s="61"/>
-      <c r="J58" s="61"/>
-      <c r="K58" s="61"/>
-      <c r="L58" s="61"/>
-      <c r="M58" s="61"/>
-      <c r="N58" s="62"/>
+      <c r="D58" s="67"/>
+      <c r="E58" s="67"/>
+      <c r="F58" s="67"/>
+      <c r="G58" s="67"/>
+      <c r="H58" s="67"/>
+      <c r="I58" s="67"/>
+      <c r="J58" s="67"/>
+      <c r="K58" s="67"/>
+      <c r="L58" s="67"/>
+      <c r="M58" s="67"/>
+      <c r="N58" s="68"/>
       <c r="O58" s="11"/>
       <c r="P58" s="12" t="e">
         <f>AVERAGE(P52:P57)</f>
@@ -3934,25 +3934,25 @@
       <c r="B59" s="1"/>
     </row>
     <row r="60" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A60" s="72" t="s">
+      <c r="A60" s="81" t="s">
         <v>28</v>
       </c>
-      <c r="B60" s="72"/>
-      <c r="C60" s="72"/>
-      <c r="D60" s="72"/>
-      <c r="E60" s="72"/>
-      <c r="F60" s="72"/>
-      <c r="G60" s="72"/>
-      <c r="H60" s="72"/>
-      <c r="I60" s="72"/>
-      <c r="J60" s="72"/>
-      <c r="K60" s="72"/>
-      <c r="L60" s="72"/>
-      <c r="M60" s="72"/>
-      <c r="N60" s="72"/>
-      <c r="O60" s="72"/>
-      <c r="P60" s="72"/>
-      <c r="Q60" s="72"/>
+      <c r="B60" s="81"/>
+      <c r="C60" s="81"/>
+      <c r="D60" s="81"/>
+      <c r="E60" s="81"/>
+      <c r="F60" s="81"/>
+      <c r="G60" s="81"/>
+      <c r="H60" s="81"/>
+      <c r="I60" s="81"/>
+      <c r="J60" s="81"/>
+      <c r="K60" s="81"/>
+      <c r="L60" s="81"/>
+      <c r="M60" s="81"/>
+      <c r="N60" s="81"/>
+      <c r="O60" s="81"/>
+      <c r="P60" s="81"/>
+      <c r="Q60" s="81"/>
       <c r="R60"/>
     </row>
     <row r="61" spans="1:21" x14ac:dyDescent="0.3">
@@ -3960,10 +3960,10 @@
         <v>1</v>
       </c>
       <c r="B61" s="16"/>
-      <c r="C61" s="68" t="s">
+      <c r="C61" s="80" t="s">
         <v>68</v>
       </c>
-      <c r="D61" s="68"/>
+      <c r="D61" s="80"/>
       <c r="E61" s="17" t="s">
         <v>69</v>
       </c>
@@ -4010,10 +4010,10 @@
         <v>1</v>
       </c>
       <c r="B62" s="14"/>
-      <c r="C62" s="57" t="s">
+      <c r="C62" s="63" t="s">
         <v>82</v>
       </c>
-      <c r="D62" s="57"/>
+      <c r="D62" s="63"/>
       <c r="E62" s="25">
         <v>41</v>
       </c>
@@ -4060,10 +4060,10 @@
         <v>2</v>
       </c>
       <c r="B63" s="14"/>
-      <c r="C63" s="57" t="s">
+      <c r="C63" s="63" t="s">
         <v>83</v>
       </c>
-      <c r="D63" s="57"/>
+      <c r="D63" s="63"/>
       <c r="E63" s="25">
         <v>40</v>
       </c>
@@ -4110,10 +4110,10 @@
         <v>3</v>
       </c>
       <c r="B64" s="14"/>
-      <c r="C64" s="57" t="s">
+      <c r="C64" s="63" t="s">
         <v>88</v>
       </c>
-      <c r="D64" s="57"/>
+      <c r="D64" s="63"/>
       <c r="E64" s="25">
         <v>55</v>
       </c>
@@ -4160,10 +4160,10 @@
         <v>4</v>
       </c>
       <c r="B65" s="14"/>
-      <c r="C65" s="57" t="s">
+      <c r="C65" s="63" t="s">
         <v>89</v>
       </c>
-      <c r="D65" s="57"/>
+      <c r="D65" s="63"/>
       <c r="E65" s="25">
         <v>58</v>
       </c>
@@ -4210,10 +4210,10 @@
         <v>5</v>
       </c>
       <c r="B66" s="14"/>
-      <c r="C66" s="57" t="s">
+      <c r="C66" s="63" t="s">
         <v>29</v>
       </c>
-      <c r="D66" s="57"/>
+      <c r="D66" s="63"/>
       <c r="E66" s="25"/>
       <c r="F66" s="26"/>
       <c r="G66" s="27"/>
@@ -4234,10 +4234,10 @@
         <v>6</v>
       </c>
       <c r="B67" s="40"/>
-      <c r="C67" s="54" t="s">
+      <c r="C67" s="90" t="s">
         <v>30</v>
       </c>
-      <c r="D67" s="55"/>
+      <c r="D67" s="91"/>
       <c r="E67" s="25"/>
       <c r="F67" s="26"/>
       <c r="G67" s="27"/>
@@ -4258,10 +4258,10 @@
         <v>7</v>
       </c>
       <c r="B68" s="14"/>
-      <c r="C68" s="57" t="s">
+      <c r="C68" s="63" t="s">
         <v>31</v>
       </c>
-      <c r="D68" s="57"/>
+      <c r="D68" s="63"/>
       <c r="E68" s="25"/>
       <c r="F68" s="26"/>
       <c r="G68" s="27"/>
@@ -4282,10 +4282,10 @@
         <v>8</v>
       </c>
       <c r="B69" s="40"/>
-      <c r="C69" s="54" t="s">
+      <c r="C69" s="90" t="s">
         <v>32</v>
       </c>
-      <c r="D69" s="55"/>
+      <c r="D69" s="91"/>
       <c r="E69" s="25"/>
       <c r="F69" s="26"/>
       <c r="G69" s="27"/>
@@ -4304,10 +4304,10 @@
     <row r="70" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A70" s="14"/>
       <c r="B70" s="14"/>
-      <c r="C70" s="58" t="s">
+      <c r="C70" s="74" t="s">
         <v>98</v>
       </c>
-      <c r="D70" s="58"/>
+      <c r="D70" s="74"/>
       <c r="E70" s="25">
         <f t="shared" ref="E70:O70" si="1">AVERAGE(E62:E69)</f>
         <v>48.5</v>
@@ -4363,25 +4363,25 @@
       <c r="R72"/>
     </row>
     <row r="73" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A73" s="75" t="s">
+      <c r="A73" s="79" t="s">
         <v>99</v>
       </c>
-      <c r="B73" s="75"/>
-      <c r="C73" s="75"/>
-      <c r="D73" s="75"/>
-      <c r="E73" s="75"/>
-      <c r="F73" s="75"/>
-      <c r="G73" s="75"/>
-      <c r="H73" s="75"/>
-      <c r="I73" s="75"/>
-      <c r="J73" s="75"/>
-      <c r="K73" s="75"/>
-      <c r="L73" s="75"/>
-      <c r="M73" s="75"/>
-      <c r="N73" s="75"/>
-      <c r="O73" s="75"/>
-      <c r="P73" s="75"/>
-      <c r="Q73" s="75"/>
+      <c r="B73" s="79"/>
+      <c r="C73" s="79"/>
+      <c r="D73" s="79"/>
+      <c r="E73" s="79"/>
+      <c r="F73" s="79"/>
+      <c r="G73" s="79"/>
+      <c r="H73" s="79"/>
+      <c r="I73" s="79"/>
+      <c r="J73" s="79"/>
+      <c r="K73" s="79"/>
+      <c r="L73" s="79"/>
+      <c r="M73" s="79"/>
+      <c r="N73" s="79"/>
+      <c r="O73" s="79"/>
+      <c r="P73" s="79"/>
+      <c r="Q73" s="79"/>
       <c r="R73"/>
     </row>
     <row r="74" spans="1:18" x14ac:dyDescent="0.3">
@@ -4389,10 +4389,10 @@
         <v>1</v>
       </c>
       <c r="B74" s="16"/>
-      <c r="C74" s="68" t="s">
+      <c r="C74" s="80" t="s">
         <v>68</v>
       </c>
-      <c r="D74" s="68"/>
+      <c r="D74" s="80"/>
       <c r="E74" s="17" t="s">
         <v>69</v>
       </c>
@@ -4439,10 +4439,10 @@
         <v>1</v>
       </c>
       <c r="B75" s="14"/>
-      <c r="C75" s="57" t="s">
+      <c r="C75" s="63" t="s">
         <v>101</v>
       </c>
-      <c r="D75" s="57"/>
+      <c r="D75" s="63"/>
       <c r="E75" s="25"/>
       <c r="F75" s="26"/>
       <c r="G75" s="27"/>
@@ -4463,10 +4463,10 @@
         <v>2</v>
       </c>
       <c r="B76" s="14"/>
-      <c r="C76" s="57" t="s">
+      <c r="C76" s="63" t="s">
         <v>102</v>
       </c>
-      <c r="D76" s="57"/>
+      <c r="D76" s="63"/>
       <c r="E76" s="25"/>
       <c r="F76" s="26"/>
       <c r="G76" s="27"/>
@@ -4487,10 +4487,10 @@
         <v>3</v>
       </c>
       <c r="B77" s="14"/>
-      <c r="C77" s="57" t="s">
+      <c r="C77" s="63" t="s">
         <v>103</v>
       </c>
-      <c r="D77" s="57"/>
+      <c r="D77" s="63"/>
       <c r="E77" s="25"/>
       <c r="F77" s="26"/>
       <c r="G77" s="27"/>
@@ -4510,10 +4510,10 @@
         <v>4</v>
       </c>
       <c r="B78" s="14"/>
-      <c r="C78" s="57" t="s">
+      <c r="C78" s="63" t="s">
         <v>104</v>
       </c>
-      <c r="D78" s="57"/>
+      <c r="D78" s="63"/>
       <c r="E78" s="25"/>
       <c r="F78" s="26"/>
       <c r="G78" s="27"/>
@@ -4533,8 +4533,8 @@
         <v>5</v>
       </c>
       <c r="B79" s="14"/>
-      <c r="C79" s="79"/>
-      <c r="D79" s="79"/>
+      <c r="C79" s="89"/>
+      <c r="D79" s="89"/>
       <c r="E79" s="25"/>
       <c r="F79" s="26"/>
       <c r="G79" s="27"/>
@@ -4554,8 +4554,8 @@
         <v>6</v>
       </c>
       <c r="B80" s="14"/>
-      <c r="C80" s="79"/>
-      <c r="D80" s="79"/>
+      <c r="C80" s="89"/>
+      <c r="D80" s="89"/>
       <c r="E80" s="25"/>
       <c r="F80" s="26"/>
       <c r="G80" s="27"/>
@@ -4573,10 +4573,10 @@
     <row r="81" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A81" s="14"/>
       <c r="B81" s="14"/>
-      <c r="C81" s="58" t="s">
+      <c r="C81" s="74" t="s">
         <v>98</v>
       </c>
-      <c r="D81" s="58"/>
+      <c r="D81" s="74"/>
       <c r="E81" s="25" t="e">
         <f t="shared" ref="E81:K81" si="2">AVERAGE(E75:E80)</f>
         <v>#DIV/0!</v>
@@ -4625,103 +4625,103 @@
       <c r="Q81" s="29"/>
     </row>
     <row r="84" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A84" s="59">
+      <c r="A84" s="75">
         <v>2022</v>
       </c>
-      <c r="B84" s="59"/>
-      <c r="C84" s="59"/>
-      <c r="D84" s="59"/>
-      <c r="E84" s="59"/>
-      <c r="F84" s="59"/>
-      <c r="G84" s="59"/>
-      <c r="H84" s="59"/>
-      <c r="I84" s="59"/>
-      <c r="J84" s="59"/>
-      <c r="K84" s="59"/>
-      <c r="L84" s="59"/>
-      <c r="M84" s="59"/>
-      <c r="N84" s="59"/>
-      <c r="O84" s="59"/>
-      <c r="P84" s="59"/>
-      <c r="Q84" s="59"/>
-      <c r="R84" s="59"/>
-      <c r="S84" s="59"/>
-      <c r="T84" s="59"/>
-      <c r="U84" s="59"/>
-      <c r="V84" s="59"/>
-      <c r="W84" s="59"/>
+      <c r="B84" s="75"/>
+      <c r="C84" s="75"/>
+      <c r="D84" s="75"/>
+      <c r="E84" s="75"/>
+      <c r="F84" s="75"/>
+      <c r="G84" s="75"/>
+      <c r="H84" s="75"/>
+      <c r="I84" s="75"/>
+      <c r="J84" s="75"/>
+      <c r="K84" s="75"/>
+      <c r="L84" s="75"/>
+      <c r="M84" s="75"/>
+      <c r="N84" s="75"/>
+      <c r="O84" s="75"/>
+      <c r="P84" s="75"/>
+      <c r="Q84" s="75"/>
+      <c r="R84" s="75"/>
+      <c r="S84" s="75"/>
+      <c r="T84" s="75"/>
+      <c r="U84" s="75"/>
+      <c r="V84" s="75"/>
+      <c r="W84" s="75"/>
     </row>
     <row r="85" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A85" s="59"/>
-      <c r="B85" s="59"/>
-      <c r="C85" s="59"/>
-      <c r="D85" s="59"/>
-      <c r="E85" s="59"/>
-      <c r="F85" s="59"/>
-      <c r="G85" s="59"/>
-      <c r="H85" s="59"/>
-      <c r="I85" s="59"/>
-      <c r="J85" s="59"/>
-      <c r="K85" s="59"/>
-      <c r="L85" s="59"/>
-      <c r="M85" s="59"/>
-      <c r="N85" s="59"/>
-      <c r="O85" s="59"/>
-      <c r="P85" s="59"/>
-      <c r="Q85" s="59"/>
-      <c r="R85" s="59"/>
-      <c r="S85" s="59"/>
-      <c r="T85" s="59"/>
-      <c r="U85" s="59"/>
-      <c r="V85" s="59"/>
-      <c r="W85" s="59"/>
+      <c r="A85" s="75"/>
+      <c r="B85" s="75"/>
+      <c r="C85" s="75"/>
+      <c r="D85" s="75"/>
+      <c r="E85" s="75"/>
+      <c r="F85" s="75"/>
+      <c r="G85" s="75"/>
+      <c r="H85" s="75"/>
+      <c r="I85" s="75"/>
+      <c r="J85" s="75"/>
+      <c r="K85" s="75"/>
+      <c r="L85" s="75"/>
+      <c r="M85" s="75"/>
+      <c r="N85" s="75"/>
+      <c r="O85" s="75"/>
+      <c r="P85" s="75"/>
+      <c r="Q85" s="75"/>
+      <c r="R85" s="75"/>
+      <c r="S85" s="75"/>
+      <c r="T85" s="75"/>
+      <c r="U85" s="75"/>
+      <c r="V85" s="75"/>
+      <c r="W85" s="75"/>
     </row>
     <row r="86" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A86" s="59"/>
-      <c r="B86" s="59"/>
-      <c r="C86" s="59"/>
-      <c r="D86" s="59"/>
-      <c r="E86" s="59"/>
-      <c r="F86" s="59"/>
-      <c r="G86" s="59"/>
-      <c r="H86" s="59"/>
-      <c r="I86" s="59"/>
-      <c r="J86" s="59"/>
-      <c r="K86" s="59"/>
-      <c r="L86" s="59"/>
-      <c r="M86" s="59"/>
-      <c r="N86" s="59"/>
-      <c r="O86" s="59"/>
-      <c r="P86" s="59"/>
-      <c r="Q86" s="59"/>
-      <c r="R86" s="59"/>
-      <c r="S86" s="59"/>
-      <c r="T86" s="59"/>
-      <c r="U86" s="59"/>
-      <c r="V86" s="59"/>
-      <c r="W86" s="59"/>
+      <c r="A86" s="75"/>
+      <c r="B86" s="75"/>
+      <c r="C86" s="75"/>
+      <c r="D86" s="75"/>
+      <c r="E86" s="75"/>
+      <c r="F86" s="75"/>
+      <c r="G86" s="75"/>
+      <c r="H86" s="75"/>
+      <c r="I86" s="75"/>
+      <c r="J86" s="75"/>
+      <c r="K86" s="75"/>
+      <c r="L86" s="75"/>
+      <c r="M86" s="75"/>
+      <c r="N86" s="75"/>
+      <c r="O86" s="75"/>
+      <c r="P86" s="75"/>
+      <c r="Q86" s="75"/>
+      <c r="R86" s="75"/>
+      <c r="S86" s="75"/>
+      <c r="T86" s="75"/>
+      <c r="U86" s="75"/>
+      <c r="V86" s="75"/>
+      <c r="W86" s="75"/>
     </row>
     <row r="87" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A87" s="69" t="s">
+      <c r="A87" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="B87" s="70"/>
-      <c r="C87" s="70"/>
-      <c r="D87" s="70"/>
-      <c r="E87" s="70"/>
-      <c r="F87" s="70"/>
-      <c r="G87" s="70"/>
-      <c r="H87" s="70"/>
-      <c r="I87" s="70"/>
-      <c r="J87" s="70"/>
-      <c r="K87" s="70"/>
-      <c r="L87" s="70"/>
-      <c r="M87" s="70"/>
-      <c r="N87" s="70"/>
-      <c r="O87" s="70"/>
-      <c r="P87" s="70"/>
-      <c r="Q87" s="70"/>
-      <c r="R87" s="71"/>
+      <c r="B87" s="77"/>
+      <c r="C87" s="77"/>
+      <c r="D87" s="77"/>
+      <c r="E87" s="77"/>
+      <c r="F87" s="77"/>
+      <c r="G87" s="77"/>
+      <c r="H87" s="77"/>
+      <c r="I87" s="77"/>
+      <c r="J87" s="77"/>
+      <c r="K87" s="77"/>
+      <c r="L87" s="77"/>
+      <c r="M87" s="77"/>
+      <c r="N87" s="77"/>
+      <c r="O87" s="77"/>
+      <c r="P87" s="77"/>
+      <c r="Q87" s="77"/>
+      <c r="R87" s="78"/>
       <c r="S87" s="38"/>
       <c r="T87" s="38"/>
       <c r="U87" s="38"/>
@@ -4732,17 +4732,17 @@
         <v>1</v>
       </c>
       <c r="B89" s="5"/>
-      <c r="C89" s="73" t="s">
+      <c r="C89" s="72" t="s">
         <v>56</v>
       </c>
-      <c r="D89" s="73"/>
-      <c r="E89" s="73"/>
-      <c r="F89" s="73"/>
-      <c r="G89" s="73"/>
-      <c r="H89" s="73"/>
-      <c r="I89" s="73"/>
-      <c r="J89" s="73"/>
-      <c r="K89" s="73"/>
+      <c r="D89" s="72"/>
+      <c r="E89" s="72"/>
+      <c r="F89" s="72"/>
+      <c r="G89" s="72"/>
+      <c r="H89" s="72"/>
+      <c r="I89" s="72"/>
+      <c r="J89" s="72"/>
+      <c r="K89" s="72"/>
       <c r="L89" s="5" t="s">
         <v>2</v>
       </c>
@@ -4780,17 +4780,17 @@
         <v>1</v>
       </c>
       <c r="B90" s="1"/>
-      <c r="C90" s="74" t="s">
+      <c r="C90" s="73" t="s">
         <v>5</v>
       </c>
-      <c r="D90" s="74"/>
-      <c r="E90" s="74"/>
-      <c r="F90" s="74"/>
-      <c r="G90" s="74"/>
-      <c r="H90" s="74"/>
-      <c r="I90" s="74"/>
-      <c r="J90" s="74"/>
-      <c r="K90" s="74"/>
+      <c r="D90" s="73"/>
+      <c r="E90" s="73"/>
+      <c r="F90" s="73"/>
+      <c r="G90" s="73"/>
+      <c r="H90" s="73"/>
+      <c r="I90" s="73"/>
+      <c r="J90" s="73"/>
+      <c r="K90" s="73"/>
       <c r="L90" s="6">
         <v>17</v>
       </c>
@@ -4826,17 +4826,17 @@
         <v>2</v>
       </c>
       <c r="B91" s="1"/>
-      <c r="C91" s="66" t="s">
+      <c r="C91" s="64" t="s">
         <v>33</v>
       </c>
-      <c r="D91" s="67"/>
-      <c r="E91" s="67"/>
-      <c r="F91" s="67"/>
-      <c r="G91" s="67"/>
-      <c r="H91" s="67"/>
-      <c r="I91" s="67"/>
-      <c r="J91" s="67"/>
-      <c r="K91" s="67"/>
+      <c r="D91" s="65"/>
+      <c r="E91" s="65"/>
+      <c r="F91" s="65"/>
+      <c r="G91" s="65"/>
+      <c r="H91" s="65"/>
+      <c r="I91" s="65"/>
+      <c r="J91" s="65"/>
+      <c r="K91" s="65"/>
       <c r="L91" s="6">
         <v>17</v>
       </c>
@@ -4872,17 +4872,17 @@
         <v>3</v>
       </c>
       <c r="B92" s="1"/>
-      <c r="C92" s="66" t="s">
+      <c r="C92" s="64" t="s">
         <v>34</v>
       </c>
-      <c r="D92" s="67"/>
-      <c r="E92" s="67"/>
-      <c r="F92" s="67"/>
-      <c r="G92" s="67"/>
-      <c r="H92" s="67"/>
-      <c r="I92" s="67"/>
-      <c r="J92" s="67"/>
-      <c r="K92" s="67"/>
+      <c r="D92" s="65"/>
+      <c r="E92" s="65"/>
+      <c r="F92" s="65"/>
+      <c r="G92" s="65"/>
+      <c r="H92" s="65"/>
+      <c r="I92" s="65"/>
+      <c r="J92" s="65"/>
+      <c r="K92" s="65"/>
       <c r="L92" s="6">
         <v>17</v>
       </c>
@@ -4918,17 +4918,17 @@
         <v>4</v>
       </c>
       <c r="B93" s="1"/>
-      <c r="C93" s="67" t="s">
+      <c r="C93" s="65" t="s">
         <v>35</v>
       </c>
-      <c r="D93" s="67"/>
-      <c r="E93" s="67"/>
-      <c r="F93" s="67"/>
-      <c r="G93" s="67"/>
-      <c r="H93" s="67"/>
-      <c r="I93" s="67"/>
-      <c r="J93" s="67"/>
-      <c r="K93" s="67"/>
+      <c r="D93" s="65"/>
+      <c r="E93" s="65"/>
+      <c r="F93" s="65"/>
+      <c r="G93" s="65"/>
+      <c r="H93" s="65"/>
+      <c r="I93" s="65"/>
+      <c r="J93" s="65"/>
+      <c r="K93" s="65"/>
       <c r="L93" s="6">
         <v>17</v>
       </c>
@@ -4964,17 +4964,17 @@
         <v>5</v>
       </c>
       <c r="B94" s="1"/>
-      <c r="C94" s="66" t="s">
+      <c r="C94" s="64" t="s">
         <v>36</v>
       </c>
-      <c r="D94" s="67"/>
-      <c r="E94" s="67"/>
-      <c r="F94" s="67"/>
-      <c r="G94" s="67"/>
-      <c r="H94" s="67"/>
-      <c r="I94" s="67"/>
-      <c r="J94" s="67"/>
-      <c r="K94" s="67"/>
+      <c r="D94" s="65"/>
+      <c r="E94" s="65"/>
+      <c r="F94" s="65"/>
+      <c r="G94" s="65"/>
+      <c r="H94" s="65"/>
+      <c r="I94" s="65"/>
+      <c r="J94" s="65"/>
+      <c r="K94" s="65"/>
       <c r="L94" s="6">
         <v>17</v>
       </c>
@@ -5010,17 +5010,17 @@
         <v>6</v>
       </c>
       <c r="B95" s="1"/>
-      <c r="C95" s="66" t="s">
+      <c r="C95" s="64" t="s">
         <v>37</v>
       </c>
-      <c r="D95" s="67"/>
-      <c r="E95" s="67"/>
-      <c r="F95" s="67"/>
-      <c r="G95" s="67"/>
-      <c r="H95" s="67"/>
-      <c r="I95" s="67"/>
-      <c r="J95" s="67"/>
-      <c r="K95" s="67"/>
+      <c r="D95" s="65"/>
+      <c r="E95" s="65"/>
+      <c r="F95" s="65"/>
+      <c r="G95" s="65"/>
+      <c r="H95" s="65"/>
+      <c r="I95" s="65"/>
+      <c r="J95" s="65"/>
+      <c r="K95" s="65"/>
       <c r="L95" s="6">
         <v>17</v>
       </c>
@@ -5056,17 +5056,17 @@
         <v>7</v>
       </c>
       <c r="B96" s="1"/>
-      <c r="C96" s="67" t="s">
+      <c r="C96" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="D96" s="67"/>
-      <c r="E96" s="67"/>
-      <c r="F96" s="67"/>
-      <c r="G96" s="67"/>
-      <c r="H96" s="67"/>
-      <c r="I96" s="67"/>
-      <c r="J96" s="67"/>
-      <c r="K96" s="67"/>
+      <c r="D96" s="65"/>
+      <c r="E96" s="65"/>
+      <c r="F96" s="65"/>
+      <c r="G96" s="65"/>
+      <c r="H96" s="65"/>
+      <c r="I96" s="65"/>
+      <c r="J96" s="65"/>
+      <c r="K96" s="65"/>
       <c r="L96" s="6">
         <v>17</v>
       </c>
@@ -5102,17 +5102,17 @@
         <v>8</v>
       </c>
       <c r="B97" s="1"/>
-      <c r="C97" s="66" t="s">
+      <c r="C97" s="64" t="s">
         <v>38</v>
       </c>
-      <c r="D97" s="67"/>
-      <c r="E97" s="67"/>
-      <c r="F97" s="67"/>
-      <c r="G97" s="67"/>
-      <c r="H97" s="67"/>
-      <c r="I97" s="67"/>
-      <c r="J97" s="67"/>
-      <c r="K97" s="67"/>
+      <c r="D97" s="65"/>
+      <c r="E97" s="65"/>
+      <c r="F97" s="65"/>
+      <c r="G97" s="65"/>
+      <c r="H97" s="65"/>
+      <c r="I97" s="65"/>
+      <c r="J97" s="65"/>
+      <c r="K97" s="65"/>
       <c r="L97" s="6">
         <v>17</v>
       </c>
@@ -5135,17 +5135,17 @@
         <v>9</v>
       </c>
       <c r="B98" s="1"/>
-      <c r="C98" s="66" t="s">
+      <c r="C98" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="D98" s="67"/>
-      <c r="E98" s="67"/>
-      <c r="F98" s="67"/>
-      <c r="G98" s="67"/>
-      <c r="H98" s="67"/>
-      <c r="I98" s="67"/>
-      <c r="J98" s="67"/>
-      <c r="K98" s="67"/>
+      <c r="D98" s="65"/>
+      <c r="E98" s="65"/>
+      <c r="F98" s="65"/>
+      <c r="G98" s="65"/>
+      <c r="H98" s="65"/>
+      <c r="I98" s="65"/>
+      <c r="J98" s="65"/>
+      <c r="K98" s="65"/>
       <c r="L98" s="6">
         <v>17</v>
       </c>
@@ -5168,17 +5168,17 @@
         <v>10</v>
       </c>
       <c r="B99" s="1"/>
-      <c r="C99" s="66" t="s">
+      <c r="C99" s="64" t="s">
         <v>40</v>
       </c>
-      <c r="D99" s="67"/>
-      <c r="E99" s="67"/>
-      <c r="F99" s="67"/>
-      <c r="G99" s="67"/>
-      <c r="H99" s="67"/>
-      <c r="I99" s="67"/>
-      <c r="J99" s="67"/>
-      <c r="K99" s="67"/>
+      <c r="D99" s="65"/>
+      <c r="E99" s="65"/>
+      <c r="F99" s="65"/>
+      <c r="G99" s="65"/>
+      <c r="H99" s="65"/>
+      <c r="I99" s="65"/>
+      <c r="J99" s="65"/>
+      <c r="K99" s="65"/>
       <c r="L99" s="6">
         <v>17</v>
       </c>
@@ -5214,17 +5214,17 @@
         <v>11</v>
       </c>
       <c r="B100" s="1"/>
-      <c r="C100" s="66" t="s">
+      <c r="C100" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="D100" s="67"/>
-      <c r="E100" s="67"/>
-      <c r="F100" s="67"/>
-      <c r="G100" s="67"/>
-      <c r="H100" s="67"/>
-      <c r="I100" s="67"/>
-      <c r="J100" s="67"/>
-      <c r="K100" s="67"/>
+      <c r="D100" s="65"/>
+      <c r="E100" s="65"/>
+      <c r="F100" s="65"/>
+      <c r="G100" s="65"/>
+      <c r="H100" s="65"/>
+      <c r="I100" s="65"/>
+      <c r="J100" s="65"/>
+      <c r="K100" s="65"/>
       <c r="L100" s="6">
         <v>17</v>
       </c>
@@ -5247,17 +5247,17 @@
         <v>12</v>
       </c>
       <c r="B101" s="1"/>
-      <c r="C101" s="66" t="s">
+      <c r="C101" s="64" t="s">
         <v>42</v>
       </c>
-      <c r="D101" s="67"/>
-      <c r="E101" s="67"/>
-      <c r="F101" s="67"/>
-      <c r="G101" s="67"/>
-      <c r="H101" s="67"/>
-      <c r="I101" s="67"/>
-      <c r="J101" s="67"/>
-      <c r="K101" s="67"/>
+      <c r="D101" s="65"/>
+      <c r="E101" s="65"/>
+      <c r="F101" s="65"/>
+      <c r="G101" s="65"/>
+      <c r="H101" s="65"/>
+      <c r="I101" s="65"/>
+      <c r="J101" s="65"/>
+      <c r="K101" s="65"/>
       <c r="L101" s="6">
         <v>17</v>
       </c>
@@ -5280,17 +5280,17 @@
         <v>13</v>
       </c>
       <c r="B102" s="1"/>
-      <c r="C102" s="67" t="s">
+      <c r="C102" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="D102" s="67"/>
-      <c r="E102" s="67"/>
-      <c r="F102" s="67"/>
-      <c r="G102" s="67"/>
-      <c r="H102" s="67"/>
-      <c r="I102" s="67"/>
-      <c r="J102" s="67"/>
-      <c r="K102" s="67"/>
+      <c r="D102" s="65"/>
+      <c r="E102" s="65"/>
+      <c r="F102" s="65"/>
+      <c r="G102" s="65"/>
+      <c r="H102" s="65"/>
+      <c r="I102" s="65"/>
+      <c r="J102" s="65"/>
+      <c r="K102" s="65"/>
       <c r="L102" s="6">
         <v>17</v>
       </c>
@@ -5326,17 +5326,17 @@
         <v>14</v>
       </c>
       <c r="B103" s="1"/>
-      <c r="C103" s="66" t="s">
+      <c r="C103" s="64" t="s">
         <v>43</v>
       </c>
-      <c r="D103" s="67"/>
-      <c r="E103" s="67"/>
-      <c r="F103" s="67"/>
-      <c r="G103" s="67"/>
-      <c r="H103" s="67"/>
-      <c r="I103" s="67"/>
-      <c r="J103" s="67"/>
-      <c r="K103" s="67"/>
+      <c r="D103" s="65"/>
+      <c r="E103" s="65"/>
+      <c r="F103" s="65"/>
+      <c r="G103" s="65"/>
+      <c r="H103" s="65"/>
+      <c r="I103" s="65"/>
+      <c r="J103" s="65"/>
+      <c r="K103" s="65"/>
       <c r="L103" s="6">
         <v>17</v>
       </c>
@@ -5372,17 +5372,17 @@
         <v>15</v>
       </c>
       <c r="B104" s="1"/>
-      <c r="C104" s="67" t="s">
+      <c r="C104" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="D104" s="67"/>
-      <c r="E104" s="67"/>
-      <c r="F104" s="67"/>
-      <c r="G104" s="67"/>
-      <c r="H104" s="67"/>
-      <c r="I104" s="67"/>
-      <c r="J104" s="67"/>
-      <c r="K104" s="67"/>
+      <c r="D104" s="65"/>
+      <c r="E104" s="65"/>
+      <c r="F104" s="65"/>
+      <c r="G104" s="65"/>
+      <c r="H104" s="65"/>
+      <c r="I104" s="65"/>
+      <c r="J104" s="65"/>
+      <c r="K104" s="65"/>
       <c r="L104" s="6">
         <v>17</v>
       </c>
@@ -5418,17 +5418,17 @@
         <v>16</v>
       </c>
       <c r="B105" s="1"/>
-      <c r="C105" s="67" t="s">
+      <c r="C105" s="65" t="s">
         <v>44</v>
       </c>
-      <c r="D105" s="67"/>
-      <c r="E105" s="67"/>
-      <c r="F105" s="67"/>
-      <c r="G105" s="67"/>
-      <c r="H105" s="67"/>
-      <c r="I105" s="67"/>
-      <c r="J105" s="67"/>
-      <c r="K105" s="67"/>
+      <c r="D105" s="65"/>
+      <c r="E105" s="65"/>
+      <c r="F105" s="65"/>
+      <c r="G105" s="65"/>
+      <c r="H105" s="65"/>
+      <c r="I105" s="65"/>
+      <c r="J105" s="65"/>
+      <c r="K105" s="65"/>
       <c r="L105" s="6">
         <v>17</v>
       </c>
@@ -5451,17 +5451,17 @@
         <v>17</v>
       </c>
       <c r="B106" s="1"/>
-      <c r="C106" s="66" t="s">
+      <c r="C106" s="64" t="s">
         <v>45</v>
       </c>
-      <c r="D106" s="67"/>
-      <c r="E106" s="67"/>
-      <c r="F106" s="67"/>
-      <c r="G106" s="67"/>
-      <c r="H106" s="67"/>
-      <c r="I106" s="67"/>
-      <c r="J106" s="67"/>
-      <c r="K106" s="67"/>
+      <c r="D106" s="65"/>
+      <c r="E106" s="65"/>
+      <c r="F106" s="65"/>
+      <c r="G106" s="65"/>
+      <c r="H106" s="65"/>
+      <c r="I106" s="65"/>
+      <c r="J106" s="65"/>
+      <c r="K106" s="65"/>
       <c r="L106" s="6">
         <v>17</v>
       </c>
@@ -5497,17 +5497,17 @@
         <v>18</v>
       </c>
       <c r="B107" s="1"/>
-      <c r="C107" s="66" t="s">
+      <c r="C107" s="64" t="s">
         <v>46</v>
       </c>
-      <c r="D107" s="67"/>
-      <c r="E107" s="67"/>
-      <c r="F107" s="67"/>
-      <c r="G107" s="67"/>
-      <c r="H107" s="67"/>
-      <c r="I107" s="67"/>
-      <c r="J107" s="67"/>
-      <c r="K107" s="67"/>
+      <c r="D107" s="65"/>
+      <c r="E107" s="65"/>
+      <c r="F107" s="65"/>
+      <c r="G107" s="65"/>
+      <c r="H107" s="65"/>
+      <c r="I107" s="65"/>
+      <c r="J107" s="65"/>
+      <c r="K107" s="65"/>
       <c r="L107" s="6">
         <v>17</v>
       </c>
@@ -5530,17 +5530,17 @@
         <v>19</v>
       </c>
       <c r="B108" s="1"/>
-      <c r="C108" s="67" t="s">
+      <c r="C108" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="D108" s="67"/>
-      <c r="E108" s="67"/>
-      <c r="F108" s="67"/>
-      <c r="G108" s="67"/>
-      <c r="H108" s="67"/>
-      <c r="I108" s="67"/>
-      <c r="J108" s="67"/>
-      <c r="K108" s="67"/>
+      <c r="D108" s="65"/>
+      <c r="E108" s="65"/>
+      <c r="F108" s="65"/>
+      <c r="G108" s="65"/>
+      <c r="H108" s="65"/>
+      <c r="I108" s="65"/>
+      <c r="J108" s="65"/>
+      <c r="K108" s="65"/>
       <c r="L108" s="6">
         <v>17</v>
       </c>
@@ -5576,17 +5576,17 @@
         <v>20</v>
       </c>
       <c r="B109" s="1"/>
-      <c r="C109" s="67" t="s">
+      <c r="C109" s="65" t="s">
         <v>47</v>
       </c>
-      <c r="D109" s="67"/>
-      <c r="E109" s="67"/>
-      <c r="F109" s="67"/>
-      <c r="G109" s="67"/>
-      <c r="H109" s="67"/>
-      <c r="I109" s="67"/>
-      <c r="J109" s="67"/>
-      <c r="K109" s="67"/>
+      <c r="D109" s="65"/>
+      <c r="E109" s="65"/>
+      <c r="F109" s="65"/>
+      <c r="G109" s="65"/>
+      <c r="H109" s="65"/>
+      <c r="I109" s="65"/>
+      <c r="J109" s="65"/>
+      <c r="K109" s="65"/>
       <c r="L109" s="6">
         <v>17</v>
       </c>
@@ -5622,17 +5622,17 @@
         <v>21</v>
       </c>
       <c r="B110" s="1"/>
-      <c r="C110" s="67" t="s">
+      <c r="C110" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="D110" s="67"/>
-      <c r="E110" s="67"/>
-      <c r="F110" s="67"/>
-      <c r="G110" s="67"/>
-      <c r="H110" s="67"/>
-      <c r="I110" s="67"/>
-      <c r="J110" s="67"/>
-      <c r="K110" s="67"/>
+      <c r="D110" s="65"/>
+      <c r="E110" s="65"/>
+      <c r="F110" s="65"/>
+      <c r="G110" s="65"/>
+      <c r="H110" s="65"/>
+      <c r="I110" s="65"/>
+      <c r="J110" s="65"/>
+      <c r="K110" s="65"/>
       <c r="L110" s="6">
         <v>17</v>
       </c>
@@ -5668,17 +5668,17 @@
         <v>22</v>
       </c>
       <c r="B111" s="1"/>
-      <c r="C111" s="66" t="s">
+      <c r="C111" s="64" t="s">
         <v>48</v>
       </c>
-      <c r="D111" s="67"/>
-      <c r="E111" s="67"/>
-      <c r="F111" s="67"/>
-      <c r="G111" s="67"/>
-      <c r="H111" s="67"/>
-      <c r="I111" s="67"/>
-      <c r="J111" s="67"/>
-      <c r="K111" s="67"/>
+      <c r="D111" s="65"/>
+      <c r="E111" s="65"/>
+      <c r="F111" s="65"/>
+      <c r="G111" s="65"/>
+      <c r="H111" s="65"/>
+      <c r="I111" s="65"/>
+      <c r="J111" s="65"/>
+      <c r="K111" s="65"/>
       <c r="L111" s="6">
         <v>17</v>
       </c>
@@ -5714,17 +5714,17 @@
         <v>23</v>
       </c>
       <c r="B112" s="1"/>
-      <c r="C112" s="67" t="s">
+      <c r="C112" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="D112" s="67"/>
-      <c r="E112" s="67"/>
-      <c r="F112" s="67"/>
-      <c r="G112" s="67"/>
-      <c r="H112" s="67"/>
-      <c r="I112" s="67"/>
-      <c r="J112" s="67"/>
-      <c r="K112" s="67"/>
+      <c r="D112" s="65"/>
+      <c r="E112" s="65"/>
+      <c r="F112" s="65"/>
+      <c r="G112" s="65"/>
+      <c r="H112" s="65"/>
+      <c r="I112" s="65"/>
+      <c r="J112" s="65"/>
+      <c r="K112" s="65"/>
       <c r="L112" s="6">
         <v>17</v>
       </c>
@@ -5747,17 +5747,17 @@
         <v>24</v>
       </c>
       <c r="B113" s="1"/>
-      <c r="C113" s="66" t="s">
+      <c r="C113" s="64" t="s">
         <v>49</v>
       </c>
-      <c r="D113" s="67"/>
-      <c r="E113" s="67"/>
-      <c r="F113" s="67"/>
-      <c r="G113" s="67"/>
-      <c r="H113" s="67"/>
-      <c r="I113" s="67"/>
-      <c r="J113" s="67"/>
-      <c r="K113" s="67"/>
+      <c r="D113" s="65"/>
+      <c r="E113" s="65"/>
+      <c r="F113" s="65"/>
+      <c r="G113" s="65"/>
+      <c r="H113" s="65"/>
+      <c r="I113" s="65"/>
+      <c r="J113" s="65"/>
+      <c r="K113" s="65"/>
       <c r="L113" s="6">
         <v>17</v>
       </c>
@@ -5780,20 +5780,20 @@
         <v>25</v>
       </c>
       <c r="B114" s="8"/>
-      <c r="C114" s="60" t="s">
+      <c r="C114" s="66" t="s">
         <v>58</v>
       </c>
-      <c r="D114" s="61"/>
-      <c r="E114" s="61"/>
-      <c r="F114" s="61"/>
-      <c r="G114" s="61"/>
-      <c r="H114" s="61"/>
-      <c r="I114" s="61"/>
-      <c r="J114" s="61"/>
-      <c r="K114" s="61"/>
-      <c r="L114" s="61"/>
-      <c r="M114" s="61"/>
-      <c r="N114" s="62"/>
+      <c r="D114" s="67"/>
+      <c r="E114" s="67"/>
+      <c r="F114" s="67"/>
+      <c r="G114" s="67"/>
+      <c r="H114" s="67"/>
+      <c r="I114" s="67"/>
+      <c r="J114" s="67"/>
+      <c r="K114" s="67"/>
+      <c r="L114" s="67"/>
+      <c r="M114" s="67"/>
+      <c r="N114" s="68"/>
       <c r="O114" s="11"/>
       <c r="P114" s="12">
         <f>AVERAGE(P90:P113)</f>
@@ -5814,26 +5814,26 @@
     </row>
     <row r="116" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="117" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A117" s="76" t="s">
+      <c r="A117" s="82" t="s">
         <v>13</v>
       </c>
-      <c r="B117" s="77"/>
-      <c r="C117" s="77"/>
-      <c r="D117" s="77"/>
-      <c r="E117" s="77"/>
-      <c r="F117" s="77"/>
-      <c r="G117" s="77"/>
-      <c r="H117" s="77"/>
-      <c r="I117" s="77"/>
-      <c r="J117" s="77"/>
-      <c r="K117" s="77"/>
-      <c r="L117" s="77"/>
-      <c r="M117" s="77"/>
-      <c r="N117" s="77"/>
-      <c r="O117" s="77"/>
-      <c r="P117" s="77"/>
-      <c r="Q117" s="77"/>
-      <c r="R117" s="78"/>
+      <c r="B117" s="83"/>
+      <c r="C117" s="83"/>
+      <c r="D117" s="83"/>
+      <c r="E117" s="83"/>
+      <c r="F117" s="83"/>
+      <c r="G117" s="83"/>
+      <c r="H117" s="83"/>
+      <c r="I117" s="83"/>
+      <c r="J117" s="83"/>
+      <c r="K117" s="83"/>
+      <c r="L117" s="83"/>
+      <c r="M117" s="83"/>
+      <c r="N117" s="83"/>
+      <c r="O117" s="83"/>
+      <c r="P117" s="83"/>
+      <c r="Q117" s="83"/>
+      <c r="R117" s="84"/>
       <c r="S117" s="15"/>
       <c r="T117" s="15"/>
       <c r="U117" s="15"/>
@@ -5843,17 +5843,17 @@
         <v>1</v>
       </c>
       <c r="B119" s="5"/>
-      <c r="C119" s="73" t="s">
+      <c r="C119" s="72" t="s">
         <v>56</v>
       </c>
-      <c r="D119" s="73"/>
-      <c r="E119" s="73"/>
-      <c r="F119" s="73"/>
-      <c r="G119" s="73"/>
-      <c r="H119" s="73"/>
-      <c r="I119" s="73"/>
-      <c r="J119" s="73"/>
-      <c r="K119" s="73"/>
+      <c r="D119" s="72"/>
+      <c r="E119" s="72"/>
+      <c r="F119" s="72"/>
+      <c r="G119" s="72"/>
+      <c r="H119" s="72"/>
+      <c r="I119" s="72"/>
+      <c r="J119" s="72"/>
+      <c r="K119" s="72"/>
       <c r="L119" s="5" t="s">
         <v>2</v>
       </c>
@@ -5890,17 +5890,17 @@
         <v>1</v>
       </c>
       <c r="B120" s="1"/>
-      <c r="C120" s="74" t="s">
+      <c r="C120" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="D120" s="74"/>
-      <c r="E120" s="74"/>
-      <c r="F120" s="74"/>
-      <c r="G120" s="74"/>
-      <c r="H120" s="74"/>
-      <c r="I120" s="74"/>
-      <c r="J120" s="74"/>
-      <c r="K120" s="74"/>
+      <c r="D120" s="73"/>
+      <c r="E120" s="73"/>
+      <c r="F120" s="73"/>
+      <c r="G120" s="73"/>
+      <c r="H120" s="73"/>
+      <c r="I120" s="73"/>
+      <c r="J120" s="73"/>
+      <c r="K120" s="73"/>
       <c r="L120" s="6">
         <v>33</v>
       </c>
@@ -5923,17 +5923,17 @@
         <v>2</v>
       </c>
       <c r="B121" s="1"/>
-      <c r="C121" s="66" t="s">
+      <c r="C121" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="D121" s="67"/>
-      <c r="E121" s="67"/>
-      <c r="F121" s="67"/>
-      <c r="G121" s="67"/>
-      <c r="H121" s="67"/>
-      <c r="I121" s="67"/>
-      <c r="J121" s="67"/>
-      <c r="K121" s="67"/>
+      <c r="D121" s="65"/>
+      <c r="E121" s="65"/>
+      <c r="F121" s="65"/>
+      <c r="G121" s="65"/>
+      <c r="H121" s="65"/>
+      <c r="I121" s="65"/>
+      <c r="J121" s="65"/>
+      <c r="K121" s="65"/>
       <c r="L121" s="6">
         <v>33</v>
       </c>
@@ -5956,17 +5956,17 @@
         <v>3</v>
       </c>
       <c r="B122" s="1"/>
-      <c r="C122" s="66" t="s">
+      <c r="C122" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="D122" s="67"/>
-      <c r="E122" s="67"/>
-      <c r="F122" s="67"/>
-      <c r="G122" s="67"/>
-      <c r="H122" s="67"/>
-      <c r="I122" s="67"/>
-      <c r="J122" s="67"/>
-      <c r="K122" s="67"/>
+      <c r="D122" s="65"/>
+      <c r="E122" s="65"/>
+      <c r="F122" s="65"/>
+      <c r="G122" s="65"/>
+      <c r="H122" s="65"/>
+      <c r="I122" s="65"/>
+      <c r="J122" s="65"/>
+      <c r="K122" s="65"/>
       <c r="L122" s="6">
         <v>33</v>
       </c>
@@ -6002,17 +6002,17 @@
         <v>4</v>
       </c>
       <c r="B123" s="1"/>
-      <c r="C123" s="67" t="s">
+      <c r="C123" s="65" t="s">
         <v>18</v>
       </c>
-      <c r="D123" s="67"/>
-      <c r="E123" s="67"/>
-      <c r="F123" s="67"/>
-      <c r="G123" s="67"/>
-      <c r="H123" s="67"/>
-      <c r="I123" s="67"/>
-      <c r="J123" s="67"/>
-      <c r="K123" s="67"/>
+      <c r="D123" s="65"/>
+      <c r="E123" s="65"/>
+      <c r="F123" s="65"/>
+      <c r="G123" s="65"/>
+      <c r="H123" s="65"/>
+      <c r="I123" s="65"/>
+      <c r="J123" s="65"/>
+      <c r="K123" s="65"/>
       <c r="L123" s="6">
         <v>33</v>
       </c>
@@ -6035,17 +6035,17 @@
         <v>5</v>
       </c>
       <c r="B124" s="1"/>
-      <c r="C124" s="66" t="s">
+      <c r="C124" s="64" t="s">
         <v>61</v>
       </c>
-      <c r="D124" s="67"/>
-      <c r="E124" s="67"/>
-      <c r="F124" s="67"/>
-      <c r="G124" s="67"/>
-      <c r="H124" s="67"/>
-      <c r="I124" s="67"/>
-      <c r="J124" s="67"/>
-      <c r="K124" s="67"/>
+      <c r="D124" s="65"/>
+      <c r="E124" s="65"/>
+      <c r="F124" s="65"/>
+      <c r="G124" s="65"/>
+      <c r="H124" s="65"/>
+      <c r="I124" s="65"/>
+      <c r="J124" s="65"/>
+      <c r="K124" s="65"/>
       <c r="L124" s="6">
         <v>33</v>
       </c>
@@ -6068,17 +6068,17 @@
         <v>6</v>
       </c>
       <c r="B125" s="1"/>
-      <c r="C125" s="66" t="s">
+      <c r="C125" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="D125" s="67"/>
-      <c r="E125" s="67"/>
-      <c r="F125" s="67"/>
-      <c r="G125" s="67"/>
-      <c r="H125" s="67"/>
-      <c r="I125" s="67"/>
-      <c r="J125" s="67"/>
-      <c r="K125" s="67"/>
+      <c r="D125" s="65"/>
+      <c r="E125" s="65"/>
+      <c r="F125" s="65"/>
+      <c r="G125" s="65"/>
+      <c r="H125" s="65"/>
+      <c r="I125" s="65"/>
+      <c r="J125" s="65"/>
+      <c r="K125" s="65"/>
       <c r="L125" s="6">
         <v>33</v>
       </c>
@@ -6101,17 +6101,17 @@
         <v>7</v>
       </c>
       <c r="B126" s="1"/>
-      <c r="C126" s="67" t="s">
+      <c r="C126" s="65" t="s">
         <v>20</v>
       </c>
-      <c r="D126" s="67"/>
-      <c r="E126" s="67"/>
-      <c r="F126" s="67"/>
-      <c r="G126" s="67"/>
-      <c r="H126" s="67"/>
-      <c r="I126" s="67"/>
-      <c r="J126" s="67"/>
-      <c r="K126" s="67"/>
+      <c r="D126" s="65"/>
+      <c r="E126" s="65"/>
+      <c r="F126" s="65"/>
+      <c r="G126" s="65"/>
+      <c r="H126" s="65"/>
+      <c r="I126" s="65"/>
+      <c r="J126" s="65"/>
+      <c r="K126" s="65"/>
       <c r="L126" s="6">
         <v>33</v>
       </c>
@@ -6134,17 +6134,17 @@
         <v>8</v>
       </c>
       <c r="B127" s="1"/>
-      <c r="C127" s="66" t="s">
+      <c r="C127" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="D127" s="67"/>
-      <c r="E127" s="67"/>
-      <c r="F127" s="67"/>
-      <c r="G127" s="67"/>
-      <c r="H127" s="67"/>
-      <c r="I127" s="67"/>
-      <c r="J127" s="67"/>
-      <c r="K127" s="67"/>
+      <c r="D127" s="65"/>
+      <c r="E127" s="65"/>
+      <c r="F127" s="65"/>
+      <c r="G127" s="65"/>
+      <c r="H127" s="65"/>
+      <c r="I127" s="65"/>
+      <c r="J127" s="65"/>
+      <c r="K127" s="65"/>
       <c r="L127" s="6">
         <v>33</v>
       </c>
@@ -6167,17 +6167,17 @@
         <v>9</v>
       </c>
       <c r="B128" s="1"/>
-      <c r="C128" s="66" t="s">
+      <c r="C128" s="64" t="s">
         <v>62</v>
       </c>
-      <c r="D128" s="67"/>
-      <c r="E128" s="67"/>
-      <c r="F128" s="67"/>
-      <c r="G128" s="67"/>
-      <c r="H128" s="67"/>
-      <c r="I128" s="67"/>
-      <c r="J128" s="67"/>
-      <c r="K128" s="67"/>
+      <c r="D128" s="65"/>
+      <c r="E128" s="65"/>
+      <c r="F128" s="65"/>
+      <c r="G128" s="65"/>
+      <c r="H128" s="65"/>
+      <c r="I128" s="65"/>
+      <c r="J128" s="65"/>
+      <c r="K128" s="65"/>
       <c r="L128" s="6">
         <v>33</v>
       </c>
@@ -6200,17 +6200,17 @@
         <v>10</v>
       </c>
       <c r="B129" s="1"/>
-      <c r="C129" s="66" t="s">
+      <c r="C129" s="64" t="s">
         <v>22</v>
       </c>
-      <c r="D129" s="67"/>
-      <c r="E129" s="67"/>
-      <c r="F129" s="67"/>
-      <c r="G129" s="67"/>
-      <c r="H129" s="67"/>
-      <c r="I129" s="67"/>
-      <c r="J129" s="67"/>
-      <c r="K129" s="67"/>
+      <c r="D129" s="65"/>
+      <c r="E129" s="65"/>
+      <c r="F129" s="65"/>
+      <c r="G129" s="65"/>
+      <c r="H129" s="65"/>
+      <c r="I129" s="65"/>
+      <c r="J129" s="65"/>
+      <c r="K129" s="65"/>
       <c r="L129" s="6">
         <v>33</v>
       </c>
@@ -6233,17 +6233,17 @@
         <v>11</v>
       </c>
       <c r="B130" s="1"/>
-      <c r="C130" s="66" t="s">
+      <c r="C130" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="D130" s="67"/>
-      <c r="E130" s="67"/>
-      <c r="F130" s="67"/>
-      <c r="G130" s="67"/>
-      <c r="H130" s="67"/>
-      <c r="I130" s="67"/>
-      <c r="J130" s="67"/>
-      <c r="K130" s="67"/>
+      <c r="D130" s="65"/>
+      <c r="E130" s="65"/>
+      <c r="F130" s="65"/>
+      <c r="G130" s="65"/>
+      <c r="H130" s="65"/>
+      <c r="I130" s="65"/>
+      <c r="J130" s="65"/>
+      <c r="K130" s="65"/>
       <c r="L130" s="6">
         <v>33</v>
       </c>
@@ -6266,17 +6266,17 @@
         <v>12</v>
       </c>
       <c r="B131" s="1"/>
-      <c r="C131" s="66" t="s">
+      <c r="C131" s="64" t="s">
         <v>63</v>
       </c>
-      <c r="D131" s="67"/>
-      <c r="E131" s="67"/>
-      <c r="F131" s="67"/>
-      <c r="G131" s="67"/>
-      <c r="H131" s="67"/>
-      <c r="I131" s="67"/>
-      <c r="J131" s="67"/>
-      <c r="K131" s="67"/>
+      <c r="D131" s="65"/>
+      <c r="E131" s="65"/>
+      <c r="F131" s="65"/>
+      <c r="G131" s="65"/>
+      <c r="H131" s="65"/>
+      <c r="I131" s="65"/>
+      <c r="J131" s="65"/>
+      <c r="K131" s="65"/>
       <c r="L131" s="6">
         <v>33</v>
       </c>
@@ -6312,20 +6312,20 @@
         <v>13</v>
       </c>
       <c r="B132" s="1"/>
-      <c r="C132" s="60" t="s">
+      <c r="C132" s="66" t="s">
         <v>58</v>
       </c>
-      <c r="D132" s="61"/>
-      <c r="E132" s="61"/>
-      <c r="F132" s="61"/>
-      <c r="G132" s="61"/>
-      <c r="H132" s="61"/>
-      <c r="I132" s="61"/>
-      <c r="J132" s="61"/>
-      <c r="K132" s="61"/>
-      <c r="L132" s="61"/>
-      <c r="M132" s="61"/>
-      <c r="N132" s="62"/>
+      <c r="D132" s="67"/>
+      <c r="E132" s="67"/>
+      <c r="F132" s="67"/>
+      <c r="G132" s="67"/>
+      <c r="H132" s="67"/>
+      <c r="I132" s="67"/>
+      <c r="J132" s="67"/>
+      <c r="K132" s="67"/>
+      <c r="L132" s="67"/>
+      <c r="M132" s="67"/>
+      <c r="N132" s="68"/>
       <c r="O132" s="11"/>
       <c r="P132" s="12">
         <f>AVERAGE(P120:P131)</f>
@@ -6348,26 +6348,26 @@
       <c r="B133" s="1"/>
     </row>
     <row r="134" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A134" s="63" t="s">
+      <c r="A134" s="69" t="s">
         <v>24</v>
       </c>
-      <c r="B134" s="64"/>
-      <c r="C134" s="64"/>
-      <c r="D134" s="64"/>
-      <c r="E134" s="64"/>
-      <c r="F134" s="64"/>
-      <c r="G134" s="64"/>
-      <c r="H134" s="64"/>
-      <c r="I134" s="64"/>
-      <c r="J134" s="64"/>
-      <c r="K134" s="64"/>
-      <c r="L134" s="64"/>
-      <c r="M134" s="64"/>
-      <c r="N134" s="64"/>
-      <c r="O134" s="64"/>
-      <c r="P134" s="64"/>
-      <c r="Q134" s="64"/>
-      <c r="R134" s="65"/>
+      <c r="B134" s="70"/>
+      <c r="C134" s="70"/>
+      <c r="D134" s="70"/>
+      <c r="E134" s="70"/>
+      <c r="F134" s="70"/>
+      <c r="G134" s="70"/>
+      <c r="H134" s="70"/>
+      <c r="I134" s="70"/>
+      <c r="J134" s="70"/>
+      <c r="K134" s="70"/>
+      <c r="L134" s="70"/>
+      <c r="M134" s="70"/>
+      <c r="N134" s="70"/>
+      <c r="O134" s="70"/>
+      <c r="P134" s="70"/>
+      <c r="Q134" s="70"/>
+      <c r="R134" s="71"/>
       <c r="S134" s="3"/>
       <c r="T134" s="3"/>
       <c r="U134" s="3"/>
@@ -6377,17 +6377,17 @@
         <v>1</v>
       </c>
       <c r="B136" s="5"/>
-      <c r="C136" s="73" t="s">
+      <c r="C136" s="72" t="s">
         <v>56</v>
       </c>
-      <c r="D136" s="73"/>
-      <c r="E136" s="73"/>
-      <c r="F136" s="73"/>
-      <c r="G136" s="73"/>
-      <c r="H136" s="73"/>
-      <c r="I136" s="73"/>
-      <c r="J136" s="73"/>
-      <c r="K136" s="73"/>
+      <c r="D136" s="72"/>
+      <c r="E136" s="72"/>
+      <c r="F136" s="72"/>
+      <c r="G136" s="72"/>
+      <c r="H136" s="72"/>
+      <c r="I136" s="72"/>
+      <c r="J136" s="72"/>
+      <c r="K136" s="72"/>
       <c r="L136" s="5" t="s">
         <v>2</v>
       </c>
@@ -6424,17 +6424,17 @@
         <v>1</v>
       </c>
       <c r="B137" s="1"/>
-      <c r="C137" s="74" t="s">
+      <c r="C137" s="73" t="s">
         <v>65</v>
       </c>
-      <c r="D137" s="74"/>
-      <c r="E137" s="74"/>
-      <c r="F137" s="74"/>
-      <c r="G137" s="74"/>
-      <c r="H137" s="74"/>
-      <c r="I137" s="74"/>
-      <c r="J137" s="74"/>
-      <c r="K137" s="74"/>
+      <c r="D137" s="73"/>
+      <c r="E137" s="73"/>
+      <c r="F137" s="73"/>
+      <c r="G137" s="73"/>
+      <c r="H137" s="73"/>
+      <c r="I137" s="73"/>
+      <c r="J137" s="73"/>
+      <c r="K137" s="73"/>
       <c r="L137" s="6">
         <v>33</v>
       </c>
@@ -6457,17 +6457,17 @@
         <v>2</v>
       </c>
       <c r="B138" s="1"/>
-      <c r="C138" s="66" t="s">
+      <c r="C138" s="64" t="s">
         <v>66</v>
       </c>
-      <c r="D138" s="67"/>
-      <c r="E138" s="67"/>
-      <c r="F138" s="67"/>
-      <c r="G138" s="67"/>
-      <c r="H138" s="67"/>
-      <c r="I138" s="67"/>
-      <c r="J138" s="67"/>
-      <c r="K138" s="67"/>
+      <c r="D138" s="65"/>
+      <c r="E138" s="65"/>
+      <c r="F138" s="65"/>
+      <c r="G138" s="65"/>
+      <c r="H138" s="65"/>
+      <c r="I138" s="65"/>
+      <c r="J138" s="65"/>
+      <c r="K138" s="65"/>
       <c r="L138" s="6">
         <v>33</v>
       </c>
@@ -6490,17 +6490,17 @@
         <v>3</v>
       </c>
       <c r="B139" s="1"/>
-      <c r="C139" s="66" t="s">
+      <c r="C139" s="64" t="s">
         <v>25</v>
       </c>
-      <c r="D139" s="67"/>
-      <c r="E139" s="67"/>
-      <c r="F139" s="67"/>
-      <c r="G139" s="67"/>
-      <c r="H139" s="67"/>
-      <c r="I139" s="67"/>
-      <c r="J139" s="67"/>
-      <c r="K139" s="67"/>
+      <c r="D139" s="65"/>
+      <c r="E139" s="65"/>
+      <c r="F139" s="65"/>
+      <c r="G139" s="65"/>
+      <c r="H139" s="65"/>
+      <c r="I139" s="65"/>
+      <c r="J139" s="65"/>
+      <c r="K139" s="65"/>
       <c r="L139" s="6">
         <v>33</v>
       </c>
@@ -6523,17 +6523,17 @@
         <v>4</v>
       </c>
       <c r="B140" s="1"/>
-      <c r="C140" s="67" t="s">
+      <c r="C140" s="65" t="s">
         <v>26</v>
       </c>
-      <c r="D140" s="67"/>
-      <c r="E140" s="67"/>
-      <c r="F140" s="67"/>
-      <c r="G140" s="67"/>
-      <c r="H140" s="67"/>
-      <c r="I140" s="67"/>
-      <c r="J140" s="67"/>
-      <c r="K140" s="67"/>
+      <c r="D140" s="65"/>
+      <c r="E140" s="65"/>
+      <c r="F140" s="65"/>
+      <c r="G140" s="65"/>
+      <c r="H140" s="65"/>
+      <c r="I140" s="65"/>
+      <c r="J140" s="65"/>
+      <c r="K140" s="65"/>
       <c r="L140" s="6">
         <v>33</v>
       </c>
@@ -6556,17 +6556,17 @@
         <v>5</v>
       </c>
       <c r="B141" s="1"/>
-      <c r="C141" s="66" t="s">
+      <c r="C141" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="D141" s="67"/>
-      <c r="E141" s="67"/>
-      <c r="F141" s="67"/>
-      <c r="G141" s="67"/>
-      <c r="H141" s="67"/>
-      <c r="I141" s="67"/>
-      <c r="J141" s="67"/>
-      <c r="K141" s="67"/>
+      <c r="D141" s="65"/>
+      <c r="E141" s="65"/>
+      <c r="F141" s="65"/>
+      <c r="G141" s="65"/>
+      <c r="H141" s="65"/>
+      <c r="I141" s="65"/>
+      <c r="J141" s="65"/>
+      <c r="K141" s="65"/>
       <c r="L141" s="6">
         <v>33</v>
       </c>
@@ -6589,17 +6589,17 @@
         <v>6</v>
       </c>
       <c r="B142" s="1"/>
-      <c r="C142" s="66" t="s">
+      <c r="C142" s="64" t="s">
         <v>67</v>
       </c>
-      <c r="D142" s="67"/>
-      <c r="E142" s="67"/>
-      <c r="F142" s="67"/>
-      <c r="G142" s="67"/>
-      <c r="H142" s="67"/>
-      <c r="I142" s="67"/>
-      <c r="J142" s="67"/>
-      <c r="K142" s="67"/>
+      <c r="D142" s="65"/>
+      <c r="E142" s="65"/>
+      <c r="F142" s="65"/>
+      <c r="G142" s="65"/>
+      <c r="H142" s="65"/>
+      <c r="I142" s="65"/>
+      <c r="J142" s="65"/>
+      <c r="K142" s="65"/>
       <c r="L142" s="6">
         <v>33</v>
       </c>
@@ -6622,20 +6622,20 @@
         <v>7</v>
       </c>
       <c r="B143" s="1"/>
-      <c r="C143" s="60" t="s">
+      <c r="C143" s="66" t="s">
         <v>58</v>
       </c>
-      <c r="D143" s="61"/>
-      <c r="E143" s="61"/>
-      <c r="F143" s="61"/>
-      <c r="G143" s="61"/>
-      <c r="H143" s="61"/>
-      <c r="I143" s="61"/>
-      <c r="J143" s="61"/>
-      <c r="K143" s="61"/>
-      <c r="L143" s="61"/>
-      <c r="M143" s="61"/>
-      <c r="N143" s="62"/>
+      <c r="D143" s="67"/>
+      <c r="E143" s="67"/>
+      <c r="F143" s="67"/>
+      <c r="G143" s="67"/>
+      <c r="H143" s="67"/>
+      <c r="I143" s="67"/>
+      <c r="J143" s="67"/>
+      <c r="K143" s="67"/>
+      <c r="L143" s="67"/>
+      <c r="M143" s="67"/>
+      <c r="N143" s="68"/>
       <c r="O143" s="11"/>
       <c r="P143" s="12" t="e">
         <f>AVERAGE(P137:P142)</f>
@@ -6655,25 +6655,25 @@
       <c r="B144" s="1"/>
     </row>
     <row r="145" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A145" s="72" t="s">
+      <c r="A145" s="81" t="s">
         <v>28</v>
       </c>
-      <c r="B145" s="72"/>
-      <c r="C145" s="72"/>
-      <c r="D145" s="72"/>
-      <c r="E145" s="72"/>
-      <c r="F145" s="72"/>
-      <c r="G145" s="72"/>
-      <c r="H145" s="72"/>
-      <c r="I145" s="72"/>
-      <c r="J145" s="72"/>
-      <c r="K145" s="72"/>
-      <c r="L145" s="72"/>
-      <c r="M145" s="72"/>
-      <c r="N145" s="72"/>
-      <c r="O145" s="72"/>
-      <c r="P145" s="72"/>
-      <c r="Q145" s="72"/>
+      <c r="B145" s="81"/>
+      <c r="C145" s="81"/>
+      <c r="D145" s="81"/>
+      <c r="E145" s="81"/>
+      <c r="F145" s="81"/>
+      <c r="G145" s="81"/>
+      <c r="H145" s="81"/>
+      <c r="I145" s="81"/>
+      <c r="J145" s="81"/>
+      <c r="K145" s="81"/>
+      <c r="L145" s="81"/>
+      <c r="M145" s="81"/>
+      <c r="N145" s="81"/>
+      <c r="O145" s="81"/>
+      <c r="P145" s="81"/>
+      <c r="Q145" s="81"/>
       <c r="R145"/>
     </row>
     <row r="146" spans="1:18" x14ac:dyDescent="0.3">
@@ -6681,10 +6681,10 @@
         <v>1</v>
       </c>
       <c r="B146" s="16"/>
-      <c r="C146" s="68" t="s">
+      <c r="C146" s="80" t="s">
         <v>68</v>
       </c>
-      <c r="D146" s="68"/>
+      <c r="D146" s="80"/>
       <c r="E146" s="17" t="s">
         <v>69</v>
       </c>
@@ -6731,10 +6731,10 @@
         <v>1</v>
       </c>
       <c r="B147" s="14"/>
-      <c r="C147" s="57" t="s">
+      <c r="C147" s="63" t="s">
         <v>84</v>
       </c>
-      <c r="D147" s="57"/>
+      <c r="D147" s="63"/>
       <c r="E147" s="25">
         <v>51</v>
       </c>
@@ -6781,10 +6781,10 @@
         <v>2</v>
       </c>
       <c r="B148" s="14"/>
-      <c r="C148" s="57" t="s">
+      <c r="C148" s="63" t="s">
         <v>85</v>
       </c>
-      <c r="D148" s="57"/>
+      <c r="D148" s="63"/>
       <c r="E148" s="25">
         <v>47</v>
       </c>
@@ -6831,10 +6831,10 @@
         <v>3</v>
       </c>
       <c r="B149" s="14"/>
-      <c r="C149" s="57" t="s">
+      <c r="C149" s="63" t="s">
         <v>86</v>
       </c>
-      <c r="D149" s="57"/>
+      <c r="D149" s="63"/>
       <c r="E149" s="25">
         <v>51</v>
       </c>
@@ -6881,10 +6881,10 @@
         <v>4</v>
       </c>
       <c r="B150" s="14"/>
-      <c r="C150" s="57" t="s">
+      <c r="C150" s="63" t="s">
         <v>87</v>
       </c>
-      <c r="D150" s="57"/>
+      <c r="D150" s="63"/>
       <c r="E150" s="25">
         <v>52</v>
       </c>
@@ -6931,10 +6931,10 @@
         <v>5</v>
       </c>
       <c r="B151" s="14"/>
-      <c r="C151" s="57" t="s">
+      <c r="C151" s="63" t="s">
         <v>90</v>
       </c>
-      <c r="D151" s="57"/>
+      <c r="D151" s="63"/>
       <c r="E151" s="25">
         <v>60</v>
       </c>
@@ -6981,10 +6981,10 @@
         <v>6</v>
       </c>
       <c r="B152" s="14"/>
-      <c r="C152" s="57" t="s">
+      <c r="C152" s="63" t="s">
         <v>91</v>
       </c>
-      <c r="D152" s="57"/>
+      <c r="D152" s="63"/>
       <c r="E152" s="25">
         <v>56</v>
       </c>
@@ -7031,10 +7031,10 @@
         <v>7</v>
       </c>
       <c r="B153" s="14"/>
-      <c r="C153" s="57" t="s">
+      <c r="C153" s="63" t="s">
         <v>92</v>
       </c>
-      <c r="D153" s="57"/>
+      <c r="D153" s="63"/>
       <c r="E153" s="25">
         <v>56</v>
       </c>
@@ -7081,10 +7081,10 @@
         <v>8</v>
       </c>
       <c r="B154" s="14"/>
-      <c r="C154" s="57" t="s">
+      <c r="C154" s="63" t="s">
         <v>93</v>
       </c>
-      <c r="D154" s="57"/>
+      <c r="D154" s="63"/>
       <c r="E154" s="25">
         <v>56</v>
       </c>
@@ -7129,10 +7129,10 @@
     <row r="155" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A155" s="14"/>
       <c r="B155" s="14"/>
-      <c r="C155" s="58" t="s">
+      <c r="C155" s="74" t="s">
         <v>98</v>
       </c>
-      <c r="D155" s="58"/>
+      <c r="D155" s="74"/>
       <c r="E155" s="25">
         <f t="shared" ref="E155:O155" si="11">AVERAGE(E147:E154)</f>
         <v>53.625</v>
@@ -7194,25 +7194,25 @@
       <c r="R157"/>
     </row>
     <row r="158" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A158" s="75" t="s">
+      <c r="A158" s="79" t="s">
         <v>99</v>
       </c>
-      <c r="B158" s="75"/>
-      <c r="C158" s="75"/>
-      <c r="D158" s="75"/>
-      <c r="E158" s="75"/>
-      <c r="F158" s="75"/>
-      <c r="G158" s="75"/>
-      <c r="H158" s="75"/>
-      <c r="I158" s="75"/>
-      <c r="J158" s="75"/>
-      <c r="K158" s="75"/>
-      <c r="L158" s="75"/>
-      <c r="M158" s="75"/>
-      <c r="N158" s="75"/>
-      <c r="O158" s="75"/>
-      <c r="P158" s="75"/>
-      <c r="Q158" s="75"/>
+      <c r="B158" s="79"/>
+      <c r="C158" s="79"/>
+      <c r="D158" s="79"/>
+      <c r="E158" s="79"/>
+      <c r="F158" s="79"/>
+      <c r="G158" s="79"/>
+      <c r="H158" s="79"/>
+      <c r="I158" s="79"/>
+      <c r="J158" s="79"/>
+      <c r="K158" s="79"/>
+      <c r="L158" s="79"/>
+      <c r="M158" s="79"/>
+      <c r="N158" s="79"/>
+      <c r="O158" s="79"/>
+      <c r="P158" s="79"/>
+      <c r="Q158" s="79"/>
       <c r="R158"/>
     </row>
     <row r="159" spans="1:18" x14ac:dyDescent="0.3">
@@ -7220,10 +7220,10 @@
         <v>1</v>
       </c>
       <c r="B159" s="16"/>
-      <c r="C159" s="68" t="s">
+      <c r="C159" s="80" t="s">
         <v>68</v>
       </c>
-      <c r="D159" s="68"/>
+      <c r="D159" s="80"/>
       <c r="E159" s="17" t="s">
         <v>69</v>
       </c>
@@ -7270,10 +7270,10 @@
         <v>1</v>
       </c>
       <c r="B160" s="14"/>
-      <c r="C160" s="57" t="s">
+      <c r="C160" s="63" t="s">
         <v>94</v>
       </c>
-      <c r="D160" s="57"/>
+      <c r="D160" s="63"/>
       <c r="E160" s="25">
         <v>58</v>
       </c>
@@ -7320,10 +7320,10 @@
         <v>2</v>
       </c>
       <c r="B161" s="14"/>
-      <c r="C161" s="57" t="s">
+      <c r="C161" s="63" t="s">
         <v>95</v>
       </c>
-      <c r="D161" s="57"/>
+      <c r="D161" s="63"/>
       <c r="E161" s="25">
         <v>60</v>
       </c>
@@ -7370,10 +7370,10 @@
         <v>3</v>
       </c>
       <c r="B162" s="14"/>
-      <c r="C162" s="57" t="s">
+      <c r="C162" s="63" t="s">
         <v>96</v>
       </c>
-      <c r="D162" s="57"/>
+      <c r="D162" s="63"/>
       <c r="E162" s="25">
         <v>59</v>
       </c>
@@ -7419,10 +7419,10 @@
         <v>4</v>
       </c>
       <c r="B163" s="14"/>
-      <c r="C163" s="57" t="s">
+      <c r="C163" s="63" t="s">
         <v>97</v>
       </c>
-      <c r="D163" s="57"/>
+      <c r="D163" s="63"/>
       <c r="E163" s="25">
         <v>56</v>
       </c>
@@ -7464,10 +7464,10 @@
       </c>
     </row>
     <row r="164" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="C164" s="58" t="s">
+      <c r="C164" s="74" t="s">
         <v>98</v>
       </c>
-      <c r="D164" s="58"/>
+      <c r="D164" s="74"/>
       <c r="E164" s="25">
         <f t="shared" ref="E164:O164" si="12">AVERAGE(E160:E163)</f>
         <v>58.25</v>
@@ -7522,103 +7522,103 @@
       </c>
     </row>
     <row r="170" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A170" s="59" t="s">
+      <c r="A170" s="75" t="s">
         <v>106</v>
       </c>
-      <c r="B170" s="59"/>
-      <c r="C170" s="59"/>
-      <c r="D170" s="59"/>
-      <c r="E170" s="59"/>
-      <c r="F170" s="59"/>
-      <c r="G170" s="59"/>
-      <c r="H170" s="59"/>
-      <c r="I170" s="59"/>
-      <c r="J170" s="59"/>
-      <c r="K170" s="59"/>
-      <c r="L170" s="59"/>
-      <c r="M170" s="59"/>
-      <c r="N170" s="59"/>
-      <c r="O170" s="59"/>
-      <c r="P170" s="59"/>
-      <c r="Q170" s="59"/>
-      <c r="R170" s="59"/>
-      <c r="S170" s="59"/>
-      <c r="T170" s="59"/>
-      <c r="U170" s="59"/>
-      <c r="V170" s="59"/>
-      <c r="W170" s="59"/>
+      <c r="B170" s="75"/>
+      <c r="C170" s="75"/>
+      <c r="D170" s="75"/>
+      <c r="E170" s="75"/>
+      <c r="F170" s="75"/>
+      <c r="G170" s="75"/>
+      <c r="H170" s="75"/>
+      <c r="I170" s="75"/>
+      <c r="J170" s="75"/>
+      <c r="K170" s="75"/>
+      <c r="L170" s="75"/>
+      <c r="M170" s="75"/>
+      <c r="N170" s="75"/>
+      <c r="O170" s="75"/>
+      <c r="P170" s="75"/>
+      <c r="Q170" s="75"/>
+      <c r="R170" s="75"/>
+      <c r="S170" s="75"/>
+      <c r="T170" s="75"/>
+      <c r="U170" s="75"/>
+      <c r="V170" s="75"/>
+      <c r="W170" s="75"/>
     </row>
     <row r="171" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A171" s="59"/>
-      <c r="B171" s="59"/>
-      <c r="C171" s="59"/>
-      <c r="D171" s="59"/>
-      <c r="E171" s="59"/>
-      <c r="F171" s="59"/>
-      <c r="G171" s="59"/>
-      <c r="H171" s="59"/>
-      <c r="I171" s="59"/>
-      <c r="J171" s="59"/>
-      <c r="K171" s="59"/>
-      <c r="L171" s="59"/>
-      <c r="M171" s="59"/>
-      <c r="N171" s="59"/>
-      <c r="O171" s="59"/>
-      <c r="P171" s="59"/>
-      <c r="Q171" s="59"/>
-      <c r="R171" s="59"/>
-      <c r="S171" s="59"/>
-      <c r="T171" s="59"/>
-      <c r="U171" s="59"/>
-      <c r="V171" s="59"/>
-      <c r="W171" s="59"/>
+      <c r="A171" s="75"/>
+      <c r="B171" s="75"/>
+      <c r="C171" s="75"/>
+      <c r="D171" s="75"/>
+      <c r="E171" s="75"/>
+      <c r="F171" s="75"/>
+      <c r="G171" s="75"/>
+      <c r="H171" s="75"/>
+      <c r="I171" s="75"/>
+      <c r="J171" s="75"/>
+      <c r="K171" s="75"/>
+      <c r="L171" s="75"/>
+      <c r="M171" s="75"/>
+      <c r="N171" s="75"/>
+      <c r="O171" s="75"/>
+      <c r="P171" s="75"/>
+      <c r="Q171" s="75"/>
+      <c r="R171" s="75"/>
+      <c r="S171" s="75"/>
+      <c r="T171" s="75"/>
+      <c r="U171" s="75"/>
+      <c r="V171" s="75"/>
+      <c r="W171" s="75"/>
     </row>
     <row r="172" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A172" s="59"/>
-      <c r="B172" s="59"/>
-      <c r="C172" s="59"/>
-      <c r="D172" s="59"/>
-      <c r="E172" s="59"/>
-      <c r="F172" s="59"/>
-      <c r="G172" s="59"/>
-      <c r="H172" s="59"/>
-      <c r="I172" s="59"/>
-      <c r="J172" s="59"/>
-      <c r="K172" s="59"/>
-      <c r="L172" s="59"/>
-      <c r="M172" s="59"/>
-      <c r="N172" s="59"/>
-      <c r="O172" s="59"/>
-      <c r="P172" s="59"/>
-      <c r="Q172" s="59"/>
-      <c r="R172" s="59"/>
-      <c r="S172" s="59"/>
-      <c r="T172" s="59"/>
-      <c r="U172" s="59"/>
-      <c r="V172" s="59"/>
-      <c r="W172" s="59"/>
+      <c r="A172" s="75"/>
+      <c r="B172" s="75"/>
+      <c r="C172" s="75"/>
+      <c r="D172" s="75"/>
+      <c r="E172" s="75"/>
+      <c r="F172" s="75"/>
+      <c r="G172" s="75"/>
+      <c r="H172" s="75"/>
+      <c r="I172" s="75"/>
+      <c r="J172" s="75"/>
+      <c r="K172" s="75"/>
+      <c r="L172" s="75"/>
+      <c r="M172" s="75"/>
+      <c r="N172" s="75"/>
+      <c r="O172" s="75"/>
+      <c r="P172" s="75"/>
+      <c r="Q172" s="75"/>
+      <c r="R172" s="75"/>
+      <c r="S172" s="75"/>
+      <c r="T172" s="75"/>
+      <c r="U172" s="75"/>
+      <c r="V172" s="75"/>
+      <c r="W172" s="75"/>
     </row>
     <row r="173" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A173" s="69" t="s">
+      <c r="A173" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="B173" s="70"/>
-      <c r="C173" s="70"/>
-      <c r="D173" s="70"/>
-      <c r="E173" s="70"/>
-      <c r="F173" s="70"/>
-      <c r="G173" s="70"/>
-      <c r="H173" s="70"/>
-      <c r="I173" s="70"/>
-      <c r="J173" s="70"/>
-      <c r="K173" s="70"/>
-      <c r="L173" s="70"/>
-      <c r="M173" s="70"/>
-      <c r="N173" s="70"/>
-      <c r="O173" s="70"/>
-      <c r="P173" s="70"/>
-      <c r="Q173" s="70"/>
-      <c r="R173" s="71"/>
+      <c r="B173" s="77"/>
+      <c r="C173" s="77"/>
+      <c r="D173" s="77"/>
+      <c r="E173" s="77"/>
+      <c r="F173" s="77"/>
+      <c r="G173" s="77"/>
+      <c r="H173" s="77"/>
+      <c r="I173" s="77"/>
+      <c r="J173" s="77"/>
+      <c r="K173" s="77"/>
+      <c r="L173" s="77"/>
+      <c r="M173" s="77"/>
+      <c r="N173" s="77"/>
+      <c r="O173" s="77"/>
+      <c r="P173" s="77"/>
+      <c r="Q173" s="77"/>
+      <c r="R173" s="78"/>
       <c r="S173" s="38"/>
       <c r="T173" s="38"/>
       <c r="U173" s="38"/>
@@ -7634,17 +7634,17 @@
       <c r="B175" s="46" t="s">
         <v>105</v>
       </c>
-      <c r="C175" s="90" t="s">
+      <c r="C175" s="60" t="s">
         <v>108</v>
       </c>
-      <c r="D175" s="91"/>
-      <c r="E175" s="91"/>
-      <c r="F175" s="91"/>
-      <c r="G175" s="91"/>
-      <c r="H175" s="91"/>
-      <c r="I175" s="91"/>
-      <c r="J175" s="91"/>
-      <c r="K175" s="92"/>
+      <c r="D175" s="61"/>
+      <c r="E175" s="61"/>
+      <c r="F175" s="61"/>
+      <c r="G175" s="61"/>
+      <c r="H175" s="61"/>
+      <c r="I175" s="61"/>
+      <c r="J175" s="61"/>
+      <c r="K175" s="62"/>
       <c r="L175" s="5" t="s">
         <v>2</v>
       </c>
@@ -7684,17 +7684,17 @@
       <c r="B176" s="48">
         <v>44741</v>
       </c>
-      <c r="C176" s="83" t="s">
+      <c r="C176" s="54" t="s">
         <v>43</v>
       </c>
-      <c r="D176" s="84"/>
-      <c r="E176" s="84"/>
-      <c r="F176" s="84"/>
-      <c r="G176" s="84"/>
-      <c r="H176" s="84"/>
-      <c r="I176" s="84"/>
-      <c r="J176" s="84"/>
-      <c r="K176" s="85"/>
+      <c r="D176" s="55"/>
+      <c r="E176" s="55"/>
+      <c r="F176" s="55"/>
+      <c r="G176" s="55"/>
+      <c r="H176" s="55"/>
+      <c r="I176" s="55"/>
+      <c r="J176" s="55"/>
+      <c r="K176" s="56"/>
       <c r="L176" s="6">
         <v>17</v>
       </c>
@@ -7734,17 +7734,17 @@
       <c r="B177" s="48">
         <v>44740</v>
       </c>
-      <c r="C177" s="87" t="s">
+      <c r="C177" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="D177" s="88"/>
-      <c r="E177" s="88"/>
-      <c r="F177" s="88"/>
-      <c r="G177" s="88"/>
-      <c r="H177" s="88"/>
-      <c r="I177" s="88"/>
-      <c r="J177" s="88"/>
-      <c r="K177" s="89"/>
+      <c r="D177" s="58"/>
+      <c r="E177" s="58"/>
+      <c r="F177" s="58"/>
+      <c r="G177" s="58"/>
+      <c r="H177" s="58"/>
+      <c r="I177" s="58"/>
+      <c r="J177" s="58"/>
+      <c r="K177" s="59"/>
       <c r="L177" s="6">
         <v>17</v>
       </c>
@@ -7784,17 +7784,17 @@
       <c r="B178" s="48">
         <v>44765</v>
       </c>
-      <c r="C178" s="87" t="s">
+      <c r="C178" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="D178" s="88"/>
-      <c r="E178" s="88"/>
-      <c r="F178" s="88"/>
-      <c r="G178" s="88"/>
-      <c r="H178" s="88"/>
-      <c r="I178" s="88"/>
-      <c r="J178" s="88"/>
-      <c r="K178" s="89"/>
+      <c r="D178" s="58"/>
+      <c r="E178" s="58"/>
+      <c r="F178" s="58"/>
+      <c r="G178" s="58"/>
+      <c r="H178" s="58"/>
+      <c r="I178" s="58"/>
+      <c r="J178" s="58"/>
+      <c r="K178" s="59"/>
       <c r="L178" s="6">
         <v>17</v>
       </c>
@@ -7834,17 +7834,17 @@
       <c r="B179" s="48">
         <v>44766</v>
       </c>
-      <c r="C179" s="83" t="s">
+      <c r="C179" s="54" t="s">
         <v>48</v>
       </c>
-      <c r="D179" s="84"/>
-      <c r="E179" s="84"/>
-      <c r="F179" s="84"/>
-      <c r="G179" s="84"/>
-      <c r="H179" s="84"/>
-      <c r="I179" s="84"/>
-      <c r="J179" s="84"/>
-      <c r="K179" s="85"/>
+      <c r="D179" s="55"/>
+      <c r="E179" s="55"/>
+      <c r="F179" s="55"/>
+      <c r="G179" s="55"/>
+      <c r="H179" s="55"/>
+      <c r="I179" s="55"/>
+      <c r="J179" s="55"/>
+      <c r="K179" s="56"/>
       <c r="L179" s="6">
         <v>17</v>
       </c>
@@ -7884,17 +7884,17 @@
       <c r="B180" s="48">
         <v>44797</v>
       </c>
-      <c r="C180" s="83" t="s">
+      <c r="C180" s="54" t="s">
         <v>45</v>
       </c>
-      <c r="D180" s="84"/>
-      <c r="E180" s="84"/>
-      <c r="F180" s="84"/>
-      <c r="G180" s="84"/>
-      <c r="H180" s="84"/>
-      <c r="I180" s="84"/>
-      <c r="J180" s="84"/>
-      <c r="K180" s="85"/>
+      <c r="D180" s="55"/>
+      <c r="E180" s="55"/>
+      <c r="F180" s="55"/>
+      <c r="G180" s="55"/>
+      <c r="H180" s="55"/>
+      <c r="I180" s="55"/>
+      <c r="J180" s="55"/>
+      <c r="K180" s="56"/>
       <c r="L180" s="6">
         <v>17</v>
       </c>
@@ -7934,17 +7934,17 @@
       <c r="B181" s="48">
         <v>44797</v>
       </c>
-      <c r="C181" s="83" t="s">
+      <c r="C181" s="54" t="s">
         <v>46</v>
       </c>
-      <c r="D181" s="84"/>
-      <c r="E181" s="84"/>
-      <c r="F181" s="84"/>
-      <c r="G181" s="84"/>
-      <c r="H181" s="84"/>
-      <c r="I181" s="84"/>
-      <c r="J181" s="84"/>
-      <c r="K181" s="85"/>
+      <c r="D181" s="55"/>
+      <c r="E181" s="55"/>
+      <c r="F181" s="55"/>
+      <c r="G181" s="55"/>
+      <c r="H181" s="55"/>
+      <c r="I181" s="55"/>
+      <c r="J181" s="55"/>
+      <c r="K181" s="56"/>
       <c r="L181" s="6">
         <v>17</v>
       </c>
@@ -7982,17 +7982,17 @@
         <v>15</v>
       </c>
       <c r="B182" s="48"/>
-      <c r="C182" s="83" t="s">
+      <c r="C182" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="D182" s="84"/>
-      <c r="E182" s="84"/>
-      <c r="F182" s="84"/>
-      <c r="G182" s="84"/>
-      <c r="H182" s="84"/>
-      <c r="I182" s="84"/>
-      <c r="J182" s="84"/>
-      <c r="K182" s="85"/>
+      <c r="D182" s="55"/>
+      <c r="E182" s="55"/>
+      <c r="F182" s="55"/>
+      <c r="G182" s="55"/>
+      <c r="H182" s="55"/>
+      <c r="I182" s="55"/>
+      <c r="J182" s="55"/>
+      <c r="K182" s="56"/>
       <c r="L182" s="6">
         <v>17</v>
       </c>
@@ -8032,17 +8032,17 @@
       <c r="B183" s="48">
         <v>44813</v>
       </c>
-      <c r="C183" s="83" t="s">
+      <c r="C183" s="54" t="s">
         <v>37</v>
       </c>
-      <c r="D183" s="84"/>
-      <c r="E183" s="84"/>
-      <c r="F183" s="84"/>
-      <c r="G183" s="84"/>
-      <c r="H183" s="84"/>
-      <c r="I183" s="84"/>
-      <c r="J183" s="84"/>
-      <c r="K183" s="85"/>
+      <c r="D183" s="55"/>
+      <c r="E183" s="55"/>
+      <c r="F183" s="55"/>
+      <c r="G183" s="55"/>
+      <c r="H183" s="55"/>
+      <c r="I183" s="55"/>
+      <c r="J183" s="55"/>
+      <c r="K183" s="56"/>
       <c r="L183" s="6">
         <v>17</v>
       </c>
@@ -8082,17 +8082,17 @@
       <c r="B184" s="48">
         <v>44822</v>
       </c>
-      <c r="C184" s="83" t="s">
+      <c r="C184" s="54" t="s">
         <v>39</v>
       </c>
-      <c r="D184" s="84"/>
-      <c r="E184" s="84"/>
-      <c r="F184" s="84"/>
-      <c r="G184" s="84"/>
-      <c r="H184" s="84"/>
-      <c r="I184" s="84"/>
-      <c r="J184" s="84"/>
-      <c r="K184" s="85"/>
+      <c r="D184" s="55"/>
+      <c r="E184" s="55"/>
+      <c r="F184" s="55"/>
+      <c r="G184" s="55"/>
+      <c r="H184" s="55"/>
+      <c r="I184" s="55"/>
+      <c r="J184" s="55"/>
+      <c r="K184" s="56"/>
       <c r="L184" s="6">
         <v>17</v>
       </c>
@@ -8132,17 +8132,17 @@
       <c r="B185" s="48">
         <v>44822</v>
       </c>
-      <c r="C185" s="83" t="s">
+      <c r="C185" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="D185" s="84"/>
-      <c r="E185" s="84"/>
-      <c r="F185" s="84"/>
-      <c r="G185" s="84"/>
-      <c r="H185" s="84"/>
-      <c r="I185" s="84"/>
-      <c r="J185" s="84"/>
-      <c r="K185" s="85"/>
+      <c r="D185" s="55"/>
+      <c r="E185" s="55"/>
+      <c r="F185" s="55"/>
+      <c r="G185" s="55"/>
+      <c r="H185" s="55"/>
+      <c r="I185" s="55"/>
+      <c r="J185" s="55"/>
+      <c r="K185" s="56"/>
       <c r="L185" s="6">
         <v>17</v>
       </c>
@@ -8180,19 +8180,19 @@
         <v>17</v>
       </c>
       <c r="B186" s="48">
-        <v>44830</v>
-      </c>
-      <c r="C186" s="87" t="s">
+        <v>44844</v>
+      </c>
+      <c r="C186" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="D186" s="88"/>
-      <c r="E186" s="88"/>
-      <c r="F186" s="88"/>
-      <c r="G186" s="88"/>
-      <c r="H186" s="88"/>
-      <c r="I186" s="88"/>
-      <c r="J186" s="88"/>
-      <c r="K186" s="89"/>
+      <c r="D186" s="58"/>
+      <c r="E186" s="58"/>
+      <c r="F186" s="58"/>
+      <c r="G186" s="58"/>
+      <c r="H186" s="58"/>
+      <c r="I186" s="58"/>
+      <c r="J186" s="58"/>
+      <c r="K186" s="59"/>
       <c r="L186" s="6">
         <v>17</v>
       </c>
@@ -8218,19 +8218,19 @@
         <v>18</v>
       </c>
       <c r="B187" s="48">
-        <v>44831</v>
-      </c>
-      <c r="C187" s="83" t="s">
+        <v>44844</v>
+      </c>
+      <c r="C187" s="54" t="s">
         <v>38</v>
       </c>
-      <c r="D187" s="84"/>
-      <c r="E187" s="84"/>
-      <c r="F187" s="84"/>
-      <c r="G187" s="84"/>
-      <c r="H187" s="84"/>
-      <c r="I187" s="84"/>
-      <c r="J187" s="84"/>
-      <c r="K187" s="85"/>
+      <c r="D187" s="55"/>
+      <c r="E187" s="55"/>
+      <c r="F187" s="55"/>
+      <c r="G187" s="55"/>
+      <c r="H187" s="55"/>
+      <c r="I187" s="55"/>
+      <c r="J187" s="55"/>
+      <c r="K187" s="56"/>
       <c r="L187" s="6">
         <v>17</v>
       </c>
@@ -8256,19 +8256,19 @@
         <v>9</v>
       </c>
       <c r="B188" s="48">
-        <v>44841</v>
-      </c>
-      <c r="C188" s="87" t="s">
+        <v>44849</v>
+      </c>
+      <c r="C188" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="D188" s="88"/>
-      <c r="E188" s="88"/>
-      <c r="F188" s="88"/>
-      <c r="G188" s="88"/>
-      <c r="H188" s="88"/>
-      <c r="I188" s="88"/>
-      <c r="J188" s="88"/>
-      <c r="K188" s="89"/>
+      <c r="D188" s="58"/>
+      <c r="E188" s="58"/>
+      <c r="F188" s="58"/>
+      <c r="G188" s="58"/>
+      <c r="H188" s="58"/>
+      <c r="I188" s="58"/>
+      <c r="J188" s="58"/>
+      <c r="K188" s="59"/>
       <c r="L188" s="6">
         <v>17</v>
       </c>
@@ -8294,19 +8294,19 @@
         <v>10</v>
       </c>
       <c r="B189" s="48">
-        <v>44841</v>
-      </c>
-      <c r="C189" s="83" t="s">
+        <v>44849</v>
+      </c>
+      <c r="C189" s="54" t="s">
         <v>33</v>
       </c>
-      <c r="D189" s="84"/>
-      <c r="E189" s="84"/>
-      <c r="F189" s="84"/>
-      <c r="G189" s="84"/>
-      <c r="H189" s="84"/>
-      <c r="I189" s="84"/>
-      <c r="J189" s="84"/>
-      <c r="K189" s="85"/>
+      <c r="D189" s="55"/>
+      <c r="E189" s="55"/>
+      <c r="F189" s="55"/>
+      <c r="G189" s="55"/>
+      <c r="H189" s="55"/>
+      <c r="I189" s="55"/>
+      <c r="J189" s="55"/>
+      <c r="K189" s="56"/>
       <c r="L189" s="6">
         <v>17</v>
       </c>
@@ -8332,19 +8332,19 @@
         <v>11</v>
       </c>
       <c r="B190" s="48">
-        <v>44846</v>
-      </c>
-      <c r="C190" s="87" t="s">
+        <v>44851</v>
+      </c>
+      <c r="C190" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="D190" s="88"/>
-      <c r="E190" s="88"/>
-      <c r="F190" s="88"/>
-      <c r="G190" s="88"/>
-      <c r="H190" s="88"/>
-      <c r="I190" s="88"/>
-      <c r="J190" s="88"/>
-      <c r="K190" s="89"/>
+      <c r="D190" s="58"/>
+      <c r="E190" s="58"/>
+      <c r="F190" s="58"/>
+      <c r="G190" s="58"/>
+      <c r="H190" s="58"/>
+      <c r="I190" s="58"/>
+      <c r="J190" s="58"/>
+      <c r="K190" s="59"/>
       <c r="L190" s="6">
         <v>17</v>
       </c>
@@ -8370,19 +8370,19 @@
         <v>12</v>
       </c>
       <c r="B191" s="48">
-        <v>44846</v>
-      </c>
-      <c r="C191" s="87" t="s">
+        <v>44851</v>
+      </c>
+      <c r="C191" s="57" t="s">
         <v>44</v>
       </c>
-      <c r="D191" s="88"/>
-      <c r="E191" s="88"/>
-      <c r="F191" s="88"/>
-      <c r="G191" s="88"/>
-      <c r="H191" s="88"/>
-      <c r="I191" s="88"/>
-      <c r="J191" s="88"/>
-      <c r="K191" s="89"/>
+      <c r="D191" s="58"/>
+      <c r="E191" s="58"/>
+      <c r="F191" s="58"/>
+      <c r="G191" s="58"/>
+      <c r="H191" s="58"/>
+      <c r="I191" s="58"/>
+      <c r="J191" s="58"/>
+      <c r="K191" s="59"/>
       <c r="L191" s="6">
         <v>17</v>
       </c>
@@ -8403,24 +8403,24 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="192" spans="1:21" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:21" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A192" s="1">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B192" s="48">
-        <v>44856</v>
-      </c>
-      <c r="C192" s="83" t="s">
-        <v>34</v>
-      </c>
-      <c r="D192" s="84"/>
-      <c r="E192" s="84"/>
-      <c r="F192" s="84"/>
-      <c r="G192" s="84"/>
-      <c r="H192" s="84"/>
-      <c r="I192" s="84"/>
-      <c r="J192" s="84"/>
-      <c r="K192" s="85"/>
+        <v>44854</v>
+      </c>
+      <c r="C192" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="D192" s="58"/>
+      <c r="E192" s="58"/>
+      <c r="F192" s="58"/>
+      <c r="G192" s="58"/>
+      <c r="H192" s="58"/>
+      <c r="I192" s="58"/>
+      <c r="J192" s="58"/>
+      <c r="K192" s="59"/>
       <c r="L192" s="6">
         <v>17</v>
       </c>
@@ -8441,24 +8441,24 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="193" spans="1:22" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:22" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A193" s="1">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B193" s="48">
-        <v>44856</v>
-      </c>
-      <c r="C193" s="87" t="s">
-        <v>35</v>
-      </c>
-      <c r="D193" s="88"/>
-      <c r="E193" s="88"/>
-      <c r="F193" s="88"/>
-      <c r="G193" s="88"/>
-      <c r="H193" s="88"/>
-      <c r="I193" s="88"/>
-      <c r="J193" s="88"/>
-      <c r="K193" s="89"/>
+        <v>44854</v>
+      </c>
+      <c r="C193" s="54" t="s">
+        <v>49</v>
+      </c>
+      <c r="D193" s="58"/>
+      <c r="E193" s="58"/>
+      <c r="F193" s="58"/>
+      <c r="G193" s="58"/>
+      <c r="H193" s="58"/>
+      <c r="I193" s="58"/>
+      <c r="J193" s="58"/>
+      <c r="K193" s="59"/>
       <c r="L193" s="6">
         <v>17</v>
       </c>
@@ -8479,24 +8479,24 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="194" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:22" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A194" s="1">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B194" s="48">
-        <v>44863</v>
-      </c>
-      <c r="C194" s="87" t="s">
-        <v>12</v>
-      </c>
-      <c r="D194" s="88"/>
-      <c r="E194" s="88"/>
-      <c r="F194" s="88"/>
-      <c r="G194" s="88"/>
-      <c r="H194" s="88"/>
-      <c r="I194" s="88"/>
-      <c r="J194" s="88"/>
-      <c r="K194" s="89"/>
+        <v>44864</v>
+      </c>
+      <c r="C194" s="54" t="s">
+        <v>34</v>
+      </c>
+      <c r="D194" s="55"/>
+      <c r="E194" s="55"/>
+      <c r="F194" s="55"/>
+      <c r="G194" s="55"/>
+      <c r="H194" s="55"/>
+      <c r="I194" s="55"/>
+      <c r="J194" s="55"/>
+      <c r="K194" s="56"/>
       <c r="L194" s="6">
         <v>17</v>
       </c>
@@ -8513,28 +8513,28 @@
       <c r="S194" s="6"/>
       <c r="T194" s="6"/>
       <c r="U194" s="6" t="e">
-        <f t="shared" si="13"/>
+        <f xml:space="preserve"> (S194-R194+1)/(S194)*100</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="195" spans="1:22" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:22" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A195" s="1">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B195" s="48">
         <v>44864</v>
       </c>
-      <c r="C195" s="83" t="s">
-        <v>49</v>
-      </c>
-      <c r="D195" s="88"/>
-      <c r="E195" s="88"/>
-      <c r="F195" s="88"/>
-      <c r="G195" s="88"/>
-      <c r="H195" s="88"/>
-      <c r="I195" s="88"/>
-      <c r="J195" s="88"/>
-      <c r="K195" s="89"/>
+      <c r="C195" s="57" t="s">
+        <v>35</v>
+      </c>
+      <c r="D195" s="58"/>
+      <c r="E195" s="58"/>
+      <c r="F195" s="58"/>
+      <c r="G195" s="58"/>
+      <c r="H195" s="58"/>
+      <c r="I195" s="58"/>
+      <c r="J195" s="58"/>
+      <c r="K195" s="59"/>
       <c r="L195" s="6">
         <v>17</v>
       </c>
@@ -8551,7 +8551,7 @@
       <c r="S195" s="6"/>
       <c r="T195" s="6"/>
       <c r="U195" s="6" t="e">
-        <f t="shared" si="13"/>
+        <f xml:space="preserve"> (S195-R195+1)/(S195)*100</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -8560,19 +8560,19 @@
         <v>21</v>
       </c>
       <c r="B196" s="48">
-        <v>44875</v>
-      </c>
-      <c r="C196" s="87" t="s">
+        <v>44870</v>
+      </c>
+      <c r="C196" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="D196" s="88"/>
-      <c r="E196" s="88"/>
-      <c r="F196" s="88"/>
-      <c r="G196" s="88"/>
-      <c r="H196" s="88"/>
-      <c r="I196" s="88"/>
-      <c r="J196" s="88"/>
-      <c r="K196" s="89"/>
+      <c r="D196" s="58"/>
+      <c r="E196" s="58"/>
+      <c r="F196" s="58"/>
+      <c r="G196" s="58"/>
+      <c r="H196" s="58"/>
+      <c r="I196" s="58"/>
+      <c r="J196" s="58"/>
+      <c r="K196" s="59"/>
       <c r="L196" s="6">
         <v>17</v>
       </c>
@@ -8598,19 +8598,19 @@
         <v>22</v>
       </c>
       <c r="B197" s="48">
-        <v>44875</v>
-      </c>
-      <c r="C197" s="87" t="s">
+        <v>44870</v>
+      </c>
+      <c r="C197" s="57" t="s">
         <v>47</v>
       </c>
-      <c r="D197" s="88"/>
-      <c r="E197" s="88"/>
-      <c r="F197" s="88"/>
-      <c r="G197" s="88"/>
-      <c r="H197" s="88"/>
-      <c r="I197" s="88"/>
-      <c r="J197" s="88"/>
-      <c r="K197" s="89"/>
+      <c r="D197" s="58"/>
+      <c r="E197" s="58"/>
+      <c r="F197" s="58"/>
+      <c r="G197" s="58"/>
+      <c r="H197" s="58"/>
+      <c r="I197" s="58"/>
+      <c r="J197" s="58"/>
+      <c r="K197" s="59"/>
       <c r="L197" s="6">
         <v>17</v>
       </c>
@@ -8636,17 +8636,17 @@
         <v>23</v>
       </c>
       <c r="B198" s="48"/>
-      <c r="C198" s="83" t="s">
+      <c r="C198" s="54" t="s">
         <v>41</v>
       </c>
-      <c r="D198" s="84"/>
-      <c r="E198" s="84"/>
-      <c r="F198" s="84"/>
-      <c r="G198" s="84"/>
-      <c r="H198" s="84"/>
-      <c r="I198" s="84"/>
-      <c r="J198" s="84"/>
-      <c r="K198" s="85"/>
+      <c r="D198" s="55"/>
+      <c r="E198" s="55"/>
+      <c r="F198" s="55"/>
+      <c r="G198" s="55"/>
+      <c r="H198" s="55"/>
+      <c r="I198" s="55"/>
+      <c r="J198" s="55"/>
+      <c r="K198" s="56"/>
       <c r="L198" s="6">
         <v>17</v>
       </c>
@@ -8672,17 +8672,17 @@
         <v>24</v>
       </c>
       <c r="B199" s="48"/>
-      <c r="C199" s="83" t="s">
+      <c r="C199" s="54" t="s">
         <v>42</v>
       </c>
-      <c r="D199" s="84"/>
-      <c r="E199" s="84"/>
-      <c r="F199" s="84"/>
-      <c r="G199" s="84"/>
-      <c r="H199" s="84"/>
-      <c r="I199" s="84"/>
-      <c r="J199" s="84"/>
-      <c r="K199" s="85"/>
+      <c r="D199" s="55"/>
+      <c r="E199" s="55"/>
+      <c r="F199" s="55"/>
+      <c r="G199" s="55"/>
+      <c r="H199" s="55"/>
+      <c r="I199" s="55"/>
+      <c r="J199" s="55"/>
+      <c r="K199" s="56"/>
       <c r="L199" s="6">
         <v>17</v>
       </c>
@@ -8708,20 +8708,20 @@
         <v>25</v>
       </c>
       <c r="B200" s="47"/>
-      <c r="C200" s="60" t="s">
+      <c r="C200" s="66" t="s">
         <v>58</v>
       </c>
-      <c r="D200" s="61"/>
-      <c r="E200" s="61"/>
-      <c r="F200" s="61"/>
-      <c r="G200" s="61"/>
-      <c r="H200" s="61"/>
-      <c r="I200" s="61"/>
-      <c r="J200" s="61"/>
-      <c r="K200" s="61"/>
-      <c r="L200" s="61"/>
-      <c r="M200" s="61"/>
-      <c r="N200" s="62"/>
+      <c r="D200" s="67"/>
+      <c r="E200" s="67"/>
+      <c r="F200" s="67"/>
+      <c r="G200" s="67"/>
+      <c r="H200" s="67"/>
+      <c r="I200" s="67"/>
+      <c r="J200" s="67"/>
+      <c r="K200" s="67"/>
+      <c r="L200" s="67"/>
+      <c r="M200" s="67"/>
+      <c r="N200" s="68"/>
       <c r="O200" s="11"/>
       <c r="P200" s="12">
         <f>AVERAGE(P176:P199)</f>
@@ -8732,19 +8732,19 @@
         <v>0.60707999999999995</v>
       </c>
       <c r="R200" s="12">
-        <f t="shared" ref="R200:U200" si="15">AVERAGE(R176:R199)</f>
+        <f>AVERAGE(R176:R199)</f>
         <v>17.100000000000001</v>
       </c>
       <c r="S200" s="12">
-        <f t="shared" si="15"/>
+        <f>AVERAGE(S176:S199)</f>
         <v>147</v>
       </c>
       <c r="T200" s="12" t="e">
-        <f t="shared" si="15"/>
+        <f>AVERAGE(T176:T199)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="U200" s="12" t="e">
-        <f t="shared" si="15"/>
+        <f>AVERAGE(U176:U199)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="V200" s="2"/>
@@ -8758,26 +8758,26 @@
       <c r="R202"/>
     </row>
     <row r="203" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A203" s="76" t="s">
+      <c r="A203" s="82" t="s">
         <v>13</v>
       </c>
-      <c r="B203" s="77"/>
-      <c r="C203" s="77"/>
-      <c r="D203" s="77"/>
-      <c r="E203" s="77"/>
-      <c r="F203" s="77"/>
-      <c r="G203" s="77"/>
-      <c r="H203" s="77"/>
-      <c r="I203" s="77"/>
-      <c r="J203" s="77"/>
-      <c r="K203" s="77"/>
-      <c r="L203" s="77"/>
-      <c r="M203" s="77"/>
-      <c r="N203" s="77"/>
-      <c r="O203" s="77"/>
-      <c r="P203" s="77"/>
-      <c r="Q203" s="77"/>
-      <c r="R203" s="78"/>
+      <c r="B203" s="83"/>
+      <c r="C203" s="83"/>
+      <c r="D203" s="83"/>
+      <c r="E203" s="83"/>
+      <c r="F203" s="83"/>
+      <c r="G203" s="83"/>
+      <c r="H203" s="83"/>
+      <c r="I203" s="83"/>
+      <c r="J203" s="83"/>
+      <c r="K203" s="83"/>
+      <c r="L203" s="83"/>
+      <c r="M203" s="83"/>
+      <c r="N203" s="83"/>
+      <c r="O203" s="83"/>
+      <c r="P203" s="83"/>
+      <c r="Q203" s="83"/>
+      <c r="R203" s="84"/>
       <c r="S203" s="15"/>
       <c r="T203" s="15"/>
       <c r="U203" s="15"/>
@@ -8787,17 +8787,17 @@
         <v>1</v>
       </c>
       <c r="B205" s="5"/>
-      <c r="C205" s="73" t="s">
+      <c r="C205" s="72" t="s">
         <v>56</v>
       </c>
-      <c r="D205" s="73"/>
-      <c r="E205" s="73"/>
-      <c r="F205" s="73"/>
-      <c r="G205" s="73"/>
-      <c r="H205" s="73"/>
-      <c r="I205" s="73"/>
-      <c r="J205" s="73"/>
-      <c r="K205" s="73"/>
+      <c r="D205" s="72"/>
+      <c r="E205" s="72"/>
+      <c r="F205" s="72"/>
+      <c r="G205" s="72"/>
+      <c r="H205" s="72"/>
+      <c r="I205" s="72"/>
+      <c r="J205" s="72"/>
+      <c r="K205" s="72"/>
       <c r="L205" s="5" t="s">
         <v>2</v>
       </c>
@@ -8834,17 +8834,17 @@
         <v>1</v>
       </c>
       <c r="B206" s="1"/>
-      <c r="C206" s="74" t="s">
+      <c r="C206" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="D206" s="74"/>
-      <c r="E206" s="74"/>
-      <c r="F206" s="74"/>
-      <c r="G206" s="74"/>
-      <c r="H206" s="74"/>
-      <c r="I206" s="74"/>
-      <c r="J206" s="74"/>
-      <c r="K206" s="74"/>
+      <c r="D206" s="73"/>
+      <c r="E206" s="73"/>
+      <c r="F206" s="73"/>
+      <c r="G206" s="73"/>
+      <c r="H206" s="73"/>
+      <c r="I206" s="73"/>
+      <c r="J206" s="73"/>
+      <c r="K206" s="73"/>
       <c r="L206" s="6">
         <v>33</v>
       </c>
@@ -8861,7 +8861,7 @@
       <c r="S206" s="6"/>
       <c r="T206" s="6"/>
       <c r="U206" s="6" t="e">
-        <f t="shared" ref="U206:U218" si="16" xml:space="preserve"> (S206-R206+1)/(S206)*100</f>
+        <f t="shared" ref="U206:U218" si="15" xml:space="preserve"> (S206-R206+1)/(S206)*100</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -8870,17 +8870,17 @@
         <v>2</v>
       </c>
       <c r="B207" s="1"/>
-      <c r="C207" s="66" t="s">
+      <c r="C207" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="D207" s="67"/>
-      <c r="E207" s="67"/>
-      <c r="F207" s="67"/>
-      <c r="G207" s="67"/>
-      <c r="H207" s="67"/>
-      <c r="I207" s="67"/>
-      <c r="J207" s="67"/>
-      <c r="K207" s="67"/>
+      <c r="D207" s="65"/>
+      <c r="E207" s="65"/>
+      <c r="F207" s="65"/>
+      <c r="G207" s="65"/>
+      <c r="H207" s="65"/>
+      <c r="I207" s="65"/>
+      <c r="J207" s="65"/>
+      <c r="K207" s="65"/>
       <c r="L207" s="6">
         <v>33</v>
       </c>
@@ -8897,7 +8897,7 @@
       <c r="S207" s="6"/>
       <c r="T207" s="6"/>
       <c r="U207" s="6" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -8906,17 +8906,17 @@
         <v>3</v>
       </c>
       <c r="B208" s="1"/>
-      <c r="C208" s="66" t="s">
+      <c r="C208" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="D208" s="67"/>
-      <c r="E208" s="67"/>
-      <c r="F208" s="67"/>
-      <c r="G208" s="67"/>
-      <c r="H208" s="67"/>
-      <c r="I208" s="67"/>
-      <c r="J208" s="67"/>
-      <c r="K208" s="67"/>
+      <c r="D208" s="65"/>
+      <c r="E208" s="65"/>
+      <c r="F208" s="65"/>
+      <c r="G208" s="65"/>
+      <c r="H208" s="65"/>
+      <c r="I208" s="65"/>
+      <c r="J208" s="65"/>
+      <c r="K208" s="65"/>
       <c r="L208" s="6">
         <v>33</v>
       </c>
@@ -8945,7 +8945,7 @@
         <v>59</v>
       </c>
       <c r="U208" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>74.418604651162795</v>
       </c>
     </row>
@@ -8954,17 +8954,17 @@
         <v>4</v>
       </c>
       <c r="B209" s="1"/>
-      <c r="C209" s="67" t="s">
+      <c r="C209" s="65" t="s">
         <v>18</v>
       </c>
-      <c r="D209" s="67"/>
-      <c r="E209" s="67"/>
-      <c r="F209" s="67"/>
-      <c r="G209" s="67"/>
-      <c r="H209" s="67"/>
-      <c r="I209" s="67"/>
-      <c r="J209" s="67"/>
-      <c r="K209" s="67"/>
+      <c r="D209" s="65"/>
+      <c r="E209" s="65"/>
+      <c r="F209" s="65"/>
+      <c r="G209" s="65"/>
+      <c r="H209" s="65"/>
+      <c r="I209" s="65"/>
+      <c r="J209" s="65"/>
+      <c r="K209" s="65"/>
       <c r="L209" s="6">
         <v>33</v>
       </c>
@@ -8993,7 +8993,7 @@
         <v>60</v>
       </c>
       <c r="U209" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>96.875</v>
       </c>
     </row>
@@ -9002,17 +9002,17 @@
         <v>5</v>
       </c>
       <c r="B210" s="1"/>
-      <c r="C210" s="66" t="s">
+      <c r="C210" s="64" t="s">
         <v>61</v>
       </c>
-      <c r="D210" s="67"/>
-      <c r="E210" s="67"/>
-      <c r="F210" s="67"/>
-      <c r="G210" s="67"/>
-      <c r="H210" s="67"/>
-      <c r="I210" s="67"/>
-      <c r="J210" s="67"/>
-      <c r="K210" s="67"/>
+      <c r="D210" s="65"/>
+      <c r="E210" s="65"/>
+      <c r="F210" s="65"/>
+      <c r="G210" s="65"/>
+      <c r="H210" s="65"/>
+      <c r="I210" s="65"/>
+      <c r="J210" s="65"/>
+      <c r="K210" s="65"/>
       <c r="L210" s="6">
         <v>33</v>
       </c>
@@ -9041,7 +9041,7 @@
         <v>59</v>
       </c>
       <c r="U210" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>88.888888888888886</v>
       </c>
     </row>
@@ -9050,17 +9050,17 @@
         <v>6</v>
       </c>
       <c r="B211" s="1"/>
-      <c r="C211" s="66" t="s">
+      <c r="C211" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="D211" s="67"/>
-      <c r="E211" s="67"/>
-      <c r="F211" s="67"/>
-      <c r="G211" s="67"/>
-      <c r="H211" s="67"/>
-      <c r="I211" s="67"/>
-      <c r="J211" s="67"/>
-      <c r="K211" s="67"/>
+      <c r="D211" s="65"/>
+      <c r="E211" s="65"/>
+      <c r="F211" s="65"/>
+      <c r="G211" s="65"/>
+      <c r="H211" s="65"/>
+      <c r="I211" s="65"/>
+      <c r="J211" s="65"/>
+      <c r="K211" s="65"/>
       <c r="L211" s="6">
         <v>33</v>
       </c>
@@ -9077,7 +9077,7 @@
       <c r="S211" s="6"/>
       <c r="T211" s="6"/>
       <c r="U211" s="6" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -9086,17 +9086,17 @@
         <v>7</v>
       </c>
       <c r="B212" s="1"/>
-      <c r="C212" s="67" t="s">
+      <c r="C212" s="65" t="s">
         <v>20</v>
       </c>
-      <c r="D212" s="67"/>
-      <c r="E212" s="67"/>
-      <c r="F212" s="67"/>
-      <c r="G212" s="67"/>
-      <c r="H212" s="67"/>
-      <c r="I212" s="67"/>
-      <c r="J212" s="67"/>
-      <c r="K212" s="67"/>
+      <c r="D212" s="65"/>
+      <c r="E212" s="65"/>
+      <c r="F212" s="65"/>
+      <c r="G212" s="65"/>
+      <c r="H212" s="65"/>
+      <c r="I212" s="65"/>
+      <c r="J212" s="65"/>
+      <c r="K212" s="65"/>
       <c r="L212" s="6">
         <v>33</v>
       </c>
@@ -9113,7 +9113,7 @@
       <c r="S212" s="6"/>
       <c r="T212" s="6"/>
       <c r="U212" s="6" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -9122,17 +9122,17 @@
         <v>8</v>
       </c>
       <c r="B213" s="1"/>
-      <c r="C213" s="66" t="s">
+      <c r="C213" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="D213" s="67"/>
-      <c r="E213" s="67"/>
-      <c r="F213" s="67"/>
-      <c r="G213" s="67"/>
-      <c r="H213" s="67"/>
-      <c r="I213" s="67"/>
-      <c r="J213" s="67"/>
-      <c r="K213" s="67"/>
+      <c r="D213" s="65"/>
+      <c r="E213" s="65"/>
+      <c r="F213" s="65"/>
+      <c r="G213" s="65"/>
+      <c r="H213" s="65"/>
+      <c r="I213" s="65"/>
+      <c r="J213" s="65"/>
+      <c r="K213" s="65"/>
       <c r="L213" s="6">
         <v>33</v>
       </c>
@@ -9149,7 +9149,7 @@
       <c r="S213" s="6"/>
       <c r="T213" s="6"/>
       <c r="U213" s="6" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -9158,17 +9158,17 @@
         <v>9</v>
       </c>
       <c r="B214" s="1"/>
-      <c r="C214" s="66" t="s">
+      <c r="C214" s="64" t="s">
         <v>62</v>
       </c>
-      <c r="D214" s="67"/>
-      <c r="E214" s="67"/>
-      <c r="F214" s="67"/>
-      <c r="G214" s="67"/>
-      <c r="H214" s="67"/>
-      <c r="I214" s="67"/>
-      <c r="J214" s="67"/>
-      <c r="K214" s="67"/>
+      <c r="D214" s="65"/>
+      <c r="E214" s="65"/>
+      <c r="F214" s="65"/>
+      <c r="G214" s="65"/>
+      <c r="H214" s="65"/>
+      <c r="I214" s="65"/>
+      <c r="J214" s="65"/>
+      <c r="K214" s="65"/>
       <c r="L214" s="6">
         <v>33</v>
       </c>
@@ -9197,7 +9197,7 @@
         <v>60</v>
       </c>
       <c r="U214" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>88</v>
       </c>
     </row>
@@ -9206,17 +9206,17 @@
         <v>10</v>
       </c>
       <c r="B215" s="1"/>
-      <c r="C215" s="66" t="s">
+      <c r="C215" s="64" t="s">
         <v>22</v>
       </c>
-      <c r="D215" s="67"/>
-      <c r="E215" s="67"/>
-      <c r="F215" s="67"/>
-      <c r="G215" s="67"/>
-      <c r="H215" s="67"/>
-      <c r="I215" s="67"/>
-      <c r="J215" s="67"/>
-      <c r="K215" s="67"/>
+      <c r="D215" s="65"/>
+      <c r="E215" s="65"/>
+      <c r="F215" s="65"/>
+      <c r="G215" s="65"/>
+      <c r="H215" s="65"/>
+      <c r="I215" s="65"/>
+      <c r="J215" s="65"/>
+      <c r="K215" s="65"/>
       <c r="L215" s="6">
         <v>33</v>
       </c>
@@ -9233,7 +9233,7 @@
       <c r="S215" s="6"/>
       <c r="T215" s="6"/>
       <c r="U215" s="6" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -9242,17 +9242,17 @@
         <v>11</v>
       </c>
       <c r="B216" s="1"/>
-      <c r="C216" s="66" t="s">
+      <c r="C216" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="D216" s="67"/>
-      <c r="E216" s="67"/>
-      <c r="F216" s="67"/>
-      <c r="G216" s="67"/>
-      <c r="H216" s="67"/>
-      <c r="I216" s="67"/>
-      <c r="J216" s="67"/>
-      <c r="K216" s="67"/>
+      <c r="D216" s="65"/>
+      <c r="E216" s="65"/>
+      <c r="F216" s="65"/>
+      <c r="G216" s="65"/>
+      <c r="H216" s="65"/>
+      <c r="I216" s="65"/>
+      <c r="J216" s="65"/>
+      <c r="K216" s="65"/>
       <c r="L216" s="6">
         <v>33</v>
       </c>
@@ -9269,7 +9269,7 @@
       <c r="S216" s="6"/>
       <c r="T216" s="6"/>
       <c r="U216" s="6" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -9278,17 +9278,17 @@
         <v>12</v>
       </c>
       <c r="B217" s="1"/>
-      <c r="C217" s="66" t="s">
+      <c r="C217" s="64" t="s">
         <v>63</v>
       </c>
-      <c r="D217" s="67"/>
-      <c r="E217" s="67"/>
-      <c r="F217" s="67"/>
-      <c r="G217" s="67"/>
-      <c r="H217" s="67"/>
-      <c r="I217" s="67"/>
-      <c r="J217" s="67"/>
-      <c r="K217" s="67"/>
+      <c r="D217" s="65"/>
+      <c r="E217" s="65"/>
+      <c r="F217" s="65"/>
+      <c r="G217" s="65"/>
+      <c r="H217" s="65"/>
+      <c r="I217" s="65"/>
+      <c r="J217" s="65"/>
+      <c r="K217" s="65"/>
       <c r="L217" s="6">
         <v>33</v>
       </c>
@@ -9317,7 +9317,7 @@
         <v>60</v>
       </c>
       <c r="U217" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>97.142857142857139</v>
       </c>
     </row>
@@ -9326,20 +9326,20 @@
         <v>13</v>
       </c>
       <c r="B218" s="1"/>
-      <c r="C218" s="60" t="s">
+      <c r="C218" s="66" t="s">
         <v>58</v>
       </c>
-      <c r="D218" s="61"/>
-      <c r="E218" s="61"/>
-      <c r="F218" s="61"/>
-      <c r="G218" s="61"/>
-      <c r="H218" s="61"/>
-      <c r="I218" s="61"/>
-      <c r="J218" s="61"/>
-      <c r="K218" s="61"/>
-      <c r="L218" s="61"/>
-      <c r="M218" s="61"/>
-      <c r="N218" s="62"/>
+      <c r="D218" s="67"/>
+      <c r="E218" s="67"/>
+      <c r="F218" s="67"/>
+      <c r="G218" s="67"/>
+      <c r="H218" s="67"/>
+      <c r="I218" s="67"/>
+      <c r="J218" s="67"/>
+      <c r="K218" s="67"/>
+      <c r="L218" s="67"/>
+      <c r="M218" s="67"/>
+      <c r="N218" s="68"/>
       <c r="O218" s="11"/>
       <c r="P218" s="12">
         <f>AVERAGE(P206:P217)</f>
@@ -9350,16 +9350,16 @@
         <v>63.963999999999999</v>
       </c>
       <c r="R218" s="12">
-        <f t="shared" ref="R218:S218" si="17">AVERAGE(R206:R217)</f>
+        <f t="shared" ref="R218:S218" si="16">AVERAGE(R206:R217)</f>
         <v>6</v>
       </c>
       <c r="S218" s="12">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>47.4</v>
       </c>
       <c r="T218" s="11"/>
       <c r="U218" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>89.451476793248943</v>
       </c>
     </row>
@@ -9369,26 +9369,26 @@
       <c r="Q219" s="52"/>
     </row>
     <row r="220" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A220" s="63" t="s">
+      <c r="A220" s="69" t="s">
         <v>24</v>
       </c>
-      <c r="B220" s="64"/>
-      <c r="C220" s="64"/>
-      <c r="D220" s="64"/>
-      <c r="E220" s="64"/>
-      <c r="F220" s="64"/>
-      <c r="G220" s="64"/>
-      <c r="H220" s="64"/>
-      <c r="I220" s="64"/>
-      <c r="J220" s="64"/>
-      <c r="K220" s="64"/>
-      <c r="L220" s="64"/>
-      <c r="M220" s="64"/>
-      <c r="N220" s="64"/>
-      <c r="O220" s="64"/>
-      <c r="P220" s="64"/>
-      <c r="Q220" s="64"/>
-      <c r="R220" s="65"/>
+      <c r="B220" s="70"/>
+      <c r="C220" s="70"/>
+      <c r="D220" s="70"/>
+      <c r="E220" s="70"/>
+      <c r="F220" s="70"/>
+      <c r="G220" s="70"/>
+      <c r="H220" s="70"/>
+      <c r="I220" s="70"/>
+      <c r="J220" s="70"/>
+      <c r="K220" s="70"/>
+      <c r="L220" s="70"/>
+      <c r="M220" s="70"/>
+      <c r="N220" s="70"/>
+      <c r="O220" s="70"/>
+      <c r="P220" s="70"/>
+      <c r="Q220" s="70"/>
+      <c r="R220" s="71"/>
       <c r="S220" s="3"/>
       <c r="T220" s="3"/>
       <c r="U220" s="3"/>
@@ -9398,17 +9398,17 @@
         <v>1</v>
       </c>
       <c r="B222" s="5"/>
-      <c r="C222" s="73" t="s">
+      <c r="C222" s="72" t="s">
         <v>108</v>
       </c>
-      <c r="D222" s="73"/>
-      <c r="E222" s="73"/>
-      <c r="F222" s="73"/>
-      <c r="G222" s="73"/>
-      <c r="H222" s="73"/>
-      <c r="I222" s="73"/>
-      <c r="J222" s="73"/>
-      <c r="K222" s="73"/>
+      <c r="D222" s="72"/>
+      <c r="E222" s="72"/>
+      <c r="F222" s="72"/>
+      <c r="G222" s="72"/>
+      <c r="H222" s="72"/>
+      <c r="I222" s="72"/>
+      <c r="J222" s="72"/>
+      <c r="K222" s="72"/>
       <c r="L222" s="5" t="s">
         <v>2</v>
       </c>
@@ -9445,17 +9445,17 @@
         <v>1</v>
       </c>
       <c r="B223" s="1"/>
-      <c r="C223" s="74" t="s">
+      <c r="C223" s="73" t="s">
         <v>65</v>
       </c>
-      <c r="D223" s="74"/>
-      <c r="E223" s="74"/>
-      <c r="F223" s="74"/>
-      <c r="G223" s="74"/>
-      <c r="H223" s="74"/>
-      <c r="I223" s="74"/>
-      <c r="J223" s="74"/>
-      <c r="K223" s="74"/>
+      <c r="D223" s="73"/>
+      <c r="E223" s="73"/>
+      <c r="F223" s="73"/>
+      <c r="G223" s="73"/>
+      <c r="H223" s="73"/>
+      <c r="I223" s="73"/>
+      <c r="J223" s="73"/>
+      <c r="K223" s="73"/>
       <c r="L223" s="6">
         <v>33</v>
       </c>
@@ -9478,17 +9478,17 @@
         <v>2</v>
       </c>
       <c r="B224" s="1"/>
-      <c r="C224" s="66" t="s">
+      <c r="C224" s="64" t="s">
         <v>66</v>
       </c>
-      <c r="D224" s="67"/>
-      <c r="E224" s="67"/>
-      <c r="F224" s="67"/>
-      <c r="G224" s="67"/>
-      <c r="H224" s="67"/>
-      <c r="I224" s="67"/>
-      <c r="J224" s="67"/>
-      <c r="K224" s="67"/>
+      <c r="D224" s="65"/>
+      <c r="E224" s="65"/>
+      <c r="F224" s="65"/>
+      <c r="G224" s="65"/>
+      <c r="H224" s="65"/>
+      <c r="I224" s="65"/>
+      <c r="J224" s="65"/>
+      <c r="K224" s="65"/>
       <c r="L224" s="6">
         <v>33</v>
       </c>
@@ -9511,17 +9511,17 @@
         <v>3</v>
       </c>
       <c r="B225" s="1"/>
-      <c r="C225" s="66" t="s">
+      <c r="C225" s="64" t="s">
         <v>25</v>
       </c>
-      <c r="D225" s="67"/>
-      <c r="E225" s="67"/>
-      <c r="F225" s="67"/>
-      <c r="G225" s="67"/>
-      <c r="H225" s="67"/>
-      <c r="I225" s="67"/>
-      <c r="J225" s="67"/>
-      <c r="K225" s="67"/>
+      <c r="D225" s="65"/>
+      <c r="E225" s="65"/>
+      <c r="F225" s="65"/>
+      <c r="G225" s="65"/>
+      <c r="H225" s="65"/>
+      <c r="I225" s="65"/>
+      <c r="J225" s="65"/>
+      <c r="K225" s="65"/>
       <c r="L225" s="6">
         <v>33</v>
       </c>
@@ -9544,17 +9544,17 @@
         <v>4</v>
       </c>
       <c r="B226" s="1"/>
-      <c r="C226" s="67" t="s">
+      <c r="C226" s="65" t="s">
         <v>26</v>
       </c>
-      <c r="D226" s="67"/>
-      <c r="E226" s="67"/>
-      <c r="F226" s="67"/>
-      <c r="G226" s="67"/>
-      <c r="H226" s="67"/>
-      <c r="I226" s="67"/>
-      <c r="J226" s="67"/>
-      <c r="K226" s="67"/>
+      <c r="D226" s="65"/>
+      <c r="E226" s="65"/>
+      <c r="F226" s="65"/>
+      <c r="G226" s="65"/>
+      <c r="H226" s="65"/>
+      <c r="I226" s="65"/>
+      <c r="J226" s="65"/>
+      <c r="K226" s="65"/>
       <c r="L226" s="6">
         <v>33</v>
       </c>
@@ -9577,17 +9577,17 @@
         <v>5</v>
       </c>
       <c r="B227" s="1"/>
-      <c r="C227" s="66" t="s">
+      <c r="C227" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="D227" s="67"/>
-      <c r="E227" s="67"/>
-      <c r="F227" s="67"/>
-      <c r="G227" s="67"/>
-      <c r="H227" s="67"/>
-      <c r="I227" s="67"/>
-      <c r="J227" s="67"/>
-      <c r="K227" s="67"/>
+      <c r="D227" s="65"/>
+      <c r="E227" s="65"/>
+      <c r="F227" s="65"/>
+      <c r="G227" s="65"/>
+      <c r="H227" s="65"/>
+      <c r="I227" s="65"/>
+      <c r="J227" s="65"/>
+      <c r="K227" s="65"/>
       <c r="L227" s="6">
         <v>33</v>
       </c>
@@ -9610,17 +9610,17 @@
         <v>6</v>
       </c>
       <c r="B228" s="1"/>
-      <c r="C228" s="66" t="s">
+      <c r="C228" s="64" t="s">
         <v>67</v>
       </c>
-      <c r="D228" s="67"/>
-      <c r="E228" s="67"/>
-      <c r="F228" s="67"/>
-      <c r="G228" s="67"/>
-      <c r="H228" s="67"/>
-      <c r="I228" s="67"/>
-      <c r="J228" s="67"/>
-      <c r="K228" s="67"/>
+      <c r="D228" s="65"/>
+      <c r="E228" s="65"/>
+      <c r="F228" s="65"/>
+      <c r="G228" s="65"/>
+      <c r="H228" s="65"/>
+      <c r="I228" s="65"/>
+      <c r="J228" s="65"/>
+      <c r="K228" s="65"/>
       <c r="L228" s="6">
         <v>33</v>
       </c>
@@ -9643,20 +9643,20 @@
         <v>7</v>
       </c>
       <c r="B229" s="1"/>
-      <c r="C229" s="60" t="s">
+      <c r="C229" s="66" t="s">
         <v>58</v>
       </c>
-      <c r="D229" s="61"/>
-      <c r="E229" s="61"/>
-      <c r="F229" s="61"/>
-      <c r="G229" s="61"/>
-      <c r="H229" s="61"/>
-      <c r="I229" s="61"/>
-      <c r="J229" s="61"/>
-      <c r="K229" s="61"/>
-      <c r="L229" s="61"/>
-      <c r="M229" s="61"/>
-      <c r="N229" s="62"/>
+      <c r="D229" s="67"/>
+      <c r="E229" s="67"/>
+      <c r="F229" s="67"/>
+      <c r="G229" s="67"/>
+      <c r="H229" s="67"/>
+      <c r="I229" s="67"/>
+      <c r="J229" s="67"/>
+      <c r="K229" s="67"/>
+      <c r="L229" s="67"/>
+      <c r="M229" s="67"/>
+      <c r="N229" s="68"/>
       <c r="O229" s="11"/>
       <c r="P229" s="12" t="e">
         <f>AVERAGE(P223:P228)</f>
@@ -9676,25 +9676,25 @@
       <c r="B230" s="1"/>
     </row>
     <row r="231" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A231" s="72" t="s">
+      <c r="A231" s="81" t="s">
         <v>28</v>
       </c>
-      <c r="B231" s="72"/>
-      <c r="C231" s="72"/>
-      <c r="D231" s="72"/>
-      <c r="E231" s="72"/>
-      <c r="F231" s="72"/>
-      <c r="G231" s="72"/>
-      <c r="H231" s="72"/>
-      <c r="I231" s="72"/>
-      <c r="J231" s="72"/>
-      <c r="K231" s="72"/>
-      <c r="L231" s="72"/>
-      <c r="M231" s="72"/>
-      <c r="N231" s="72"/>
-      <c r="O231" s="72"/>
-      <c r="P231" s="72"/>
-      <c r="Q231" s="72"/>
+      <c r="B231" s="81"/>
+      <c r="C231" s="81"/>
+      <c r="D231" s="81"/>
+      <c r="E231" s="81"/>
+      <c r="F231" s="81"/>
+      <c r="G231" s="81"/>
+      <c r="H231" s="81"/>
+      <c r="I231" s="81"/>
+      <c r="J231" s="81"/>
+      <c r="K231" s="81"/>
+      <c r="L231" s="81"/>
+      <c r="M231" s="81"/>
+      <c r="N231" s="81"/>
+      <c r="O231" s="81"/>
+      <c r="P231" s="81"/>
+      <c r="Q231" s="81"/>
       <c r="R231"/>
     </row>
     <row r="232" spans="1:21" ht="40.799999999999997" x14ac:dyDescent="0.3">
@@ -9704,10 +9704,10 @@
       <c r="B232" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="C232" s="68" t="s">
+      <c r="C232" s="80" t="s">
         <v>68</v>
       </c>
-      <c r="D232" s="68"/>
+      <c r="D232" s="80"/>
       <c r="E232" s="17" t="s">
         <v>69</v>
       </c>
@@ -9761,10 +9761,10 @@
       <c r="B233" s="53">
         <v>44808</v>
       </c>
-      <c r="C233" s="54" t="s">
+      <c r="C233" s="90" t="s">
         <v>125</v>
       </c>
-      <c r="D233" s="55"/>
+      <c r="D233" s="91"/>
       <c r="E233" s="25">
         <v>57</v>
       </c>
@@ -9805,7 +9805,7 @@
         <v>385</v>
       </c>
       <c r="R233" s="6">
-        <f t="shared" ref="R233:R241" si="18" xml:space="preserve"> (Q233-P233+1)/(Q233)*100</f>
+        <f t="shared" ref="R233:R241" si="17" xml:space="preserve"> (Q233-P233+1)/(Q233)*100</f>
         <v>98.701298701298697</v>
       </c>
       <c r="S233" s="6" t="s">
@@ -9819,10 +9819,10 @@
       <c r="B234" s="53">
         <v>44816</v>
       </c>
-      <c r="C234" s="57" t="s">
+      <c r="C234" s="63" t="s">
         <v>113</v>
       </c>
-      <c r="D234" s="57"/>
+      <c r="D234" s="63"/>
       <c r="E234" s="25">
         <v>58</v>
       </c>
@@ -9863,7 +9863,7 @@
         <v>42</v>
       </c>
       <c r="R234" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>90.476190476190482</v>
       </c>
       <c r="S234" s="6" t="s">
@@ -9877,10 +9877,10 @@
       <c r="B235" s="53">
         <v>44822</v>
       </c>
-      <c r="C235" s="57" t="s">
+      <c r="C235" s="63" t="s">
         <v>114</v>
       </c>
-      <c r="D235" s="57"/>
+      <c r="D235" s="63"/>
       <c r="E235" s="25">
         <v>64</v>
       </c>
@@ -9921,7 +9921,7 @@
         <v>11</v>
       </c>
       <c r="R235" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>90.909090909090907</v>
       </c>
       <c r="S235" s="6" t="s">
@@ -9933,10 +9933,10 @@
         <v>3</v>
       </c>
       <c r="B236" s="14"/>
-      <c r="C236" s="57" t="s">
+      <c r="C236" s="63" t="s">
         <v>115</v>
       </c>
-      <c r="D236" s="57"/>
+      <c r="D236" s="63"/>
       <c r="E236" s="25"/>
       <c r="F236" s="26"/>
       <c r="G236" s="27"/>
@@ -9951,7 +9951,7 @@
       <c r="P236" s="29"/>
       <c r="Q236" s="29"/>
       <c r="R236" s="6" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S236" s="6"/>
@@ -9961,10 +9961,10 @@
         <v>4</v>
       </c>
       <c r="B237" s="14"/>
-      <c r="C237" s="57" t="s">
+      <c r="C237" s="63" t="s">
         <v>116</v>
       </c>
-      <c r="D237" s="57"/>
+      <c r="D237" s="63"/>
       <c r="E237" s="25"/>
       <c r="F237" s="26"/>
       <c r="G237" s="27"/>
@@ -9979,7 +9979,7 @@
       <c r="P237" s="29"/>
       <c r="Q237" s="29"/>
       <c r="R237" s="6" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S237" s="6"/>
@@ -9989,10 +9989,10 @@
         <v>5</v>
       </c>
       <c r="B238" s="14"/>
-      <c r="C238" s="57" t="s">
+      <c r="C238" s="63" t="s">
         <v>117</v>
       </c>
-      <c r="D238" s="57"/>
+      <c r="D238" s="63"/>
       <c r="E238" s="25"/>
       <c r="F238" s="26"/>
       <c r="G238" s="27"/>
@@ -10007,7 +10007,7 @@
       <c r="P238" s="29"/>
       <c r="Q238" s="29"/>
       <c r="R238" s="6" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S238" s="6"/>
@@ -10017,10 +10017,10 @@
         <v>6</v>
       </c>
       <c r="B239" s="14"/>
-      <c r="C239" s="57" t="s">
+      <c r="C239" s="63" t="s">
         <v>118</v>
       </c>
-      <c r="D239" s="57"/>
+      <c r="D239" s="63"/>
       <c r="E239" s="25"/>
       <c r="F239" s="26"/>
       <c r="G239" s="27"/>
@@ -10035,7 +10035,7 @@
       <c r="P239" s="29"/>
       <c r="Q239" s="29"/>
       <c r="R239" s="6" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S239" s="6"/>
@@ -10045,10 +10045,10 @@
         <v>7</v>
       </c>
       <c r="B240" s="14"/>
-      <c r="C240" s="57" t="s">
+      <c r="C240" s="63" t="s">
         <v>119</v>
       </c>
-      <c r="D240" s="57"/>
+      <c r="D240" s="63"/>
       <c r="E240" s="25"/>
       <c r="F240" s="26"/>
       <c r="G240" s="27"/>
@@ -10063,7 +10063,7 @@
       <c r="P240" s="29"/>
       <c r="Q240" s="29"/>
       <c r="R240" s="6" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S240" s="6"/>
@@ -10073,10 +10073,10 @@
         <v>8</v>
       </c>
       <c r="B241" s="14"/>
-      <c r="C241" s="57" t="s">
+      <c r="C241" s="63" t="s">
         <v>120</v>
       </c>
-      <c r="D241" s="57"/>
+      <c r="D241" s="63"/>
       <c r="E241" s="25"/>
       <c r="F241" s="26"/>
       <c r="G241" s="27"/>
@@ -10091,7 +10091,7 @@
       <c r="P241" s="29"/>
       <c r="Q241" s="29"/>
       <c r="R241" s="6" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S241" s="6"/>
@@ -10099,10 +10099,10 @@
     <row r="242" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A242" s="14"/>
       <c r="B242" s="14"/>
-      <c r="C242" s="58" t="s">
+      <c r="C242" s="74" t="s">
         <v>98</v>
       </c>
-      <c r="D242" s="58"/>
+      <c r="D242" s="74"/>
       <c r="E242" s="25">
         <f>AVERAGE(E233:E241)</f>
         <v>59.666666666666664</v>
@@ -10112,47 +10112,47 @@
         <v>44.333333333333336</v>
       </c>
       <c r="G242" s="25">
-        <f t="shared" ref="G242:Q242" si="19">AVERAGE(G233:G241)</f>
+        <f t="shared" ref="G242:Q242" si="18">AVERAGE(G233:G241)</f>
         <v>15.333333333333334</v>
       </c>
       <c r="H242" s="25">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>5.333333333333333</v>
       </c>
       <c r="I242" s="25">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>67</v>
       </c>
       <c r="J242" s="25">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>-2.86</v>
       </c>
       <c r="K242" s="25">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>10.333333333333334</v>
       </c>
       <c r="L242" s="25">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>64.14</v>
       </c>
       <c r="M242" s="25">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>22.096666666666664</v>
       </c>
       <c r="N242" s="25">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>74.349999999999994</v>
       </c>
       <c r="O242" s="25">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>74.393333333333331</v>
       </c>
       <c r="P242" s="25">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>4.333333333333333</v>
       </c>
       <c r="Q242" s="25">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>146</v>
       </c>
       <c r="R242" s="25" t="e">
@@ -10178,25 +10178,25 @@
       <c r="S244" s="6"/>
     </row>
     <row r="245" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A245" s="75" t="s">
+      <c r="A245" s="79" t="s">
         <v>99</v>
       </c>
-      <c r="B245" s="75"/>
-      <c r="C245" s="75"/>
-      <c r="D245" s="75"/>
-      <c r="E245" s="75"/>
-      <c r="F245" s="75"/>
-      <c r="G245" s="75"/>
-      <c r="H245" s="75"/>
-      <c r="I245" s="75"/>
-      <c r="J245" s="75"/>
-      <c r="K245" s="75"/>
-      <c r="L245" s="75"/>
-      <c r="M245" s="75"/>
-      <c r="N245" s="75"/>
-      <c r="O245" s="75"/>
-      <c r="P245" s="75"/>
-      <c r="Q245" s="75"/>
+      <c r="B245" s="79"/>
+      <c r="C245" s="79"/>
+      <c r="D245" s="79"/>
+      <c r="E245" s="79"/>
+      <c r="F245" s="79"/>
+      <c r="G245" s="79"/>
+      <c r="H245" s="79"/>
+      <c r="I245" s="79"/>
+      <c r="J245" s="79"/>
+      <c r="K245" s="79"/>
+      <c r="L245" s="79"/>
+      <c r="M245" s="79"/>
+      <c r="N245" s="79"/>
+      <c r="O245" s="79"/>
+      <c r="P245" s="79"/>
+      <c r="Q245" s="79"/>
       <c r="R245"/>
       <c r="S245" s="11"/>
     </row>
@@ -10205,10 +10205,10 @@
         <v>1</v>
       </c>
       <c r="B246" s="16"/>
-      <c r="C246" s="68" t="s">
+      <c r="C246" s="80" t="s">
         <v>68</v>
       </c>
-      <c r="D246" s="68"/>
+      <c r="D246" s="80"/>
       <c r="E246" s="17" t="s">
         <v>69</v>
       </c>
@@ -10257,10 +10257,10 @@
         <v>1</v>
       </c>
       <c r="B247" s="14"/>
-      <c r="C247" s="57" t="s">
+      <c r="C247" s="63" t="s">
         <v>121</v>
       </c>
-      <c r="D247" s="57"/>
+      <c r="D247" s="63"/>
       <c r="E247" s="25"/>
       <c r="F247" s="26"/>
       <c r="G247" s="27"/>
@@ -10284,10 +10284,10 @@
         <v>2</v>
       </c>
       <c r="B248" s="14"/>
-      <c r="C248" s="57" t="s">
+      <c r="C248" s="63" t="s">
         <v>122</v>
       </c>
-      <c r="D248" s="57"/>
+      <c r="D248" s="63"/>
       <c r="E248" s="25"/>
       <c r="F248" s="26"/>
       <c r="G248" s="27"/>
@@ -10311,10 +10311,10 @@
         <v>3</v>
       </c>
       <c r="B249" s="14"/>
-      <c r="C249" s="57" t="s">
+      <c r="C249" s="63" t="s">
         <v>123</v>
       </c>
-      <c r="D249" s="57"/>
+      <c r="D249" s="63"/>
       <c r="E249" s="25"/>
       <c r="F249" s="26"/>
       <c r="G249" s="27"/>
@@ -10338,10 +10338,10 @@
         <v>4</v>
       </c>
       <c r="B250" s="14"/>
-      <c r="C250" s="57" t="s">
+      <c r="C250" s="63" t="s">
         <v>124</v>
       </c>
-      <c r="D250" s="57"/>
+      <c r="D250" s="63"/>
       <c r="E250" s="25"/>
       <c r="F250" s="26"/>
       <c r="G250" s="27"/>
@@ -10361,10 +10361,10 @@
       </c>
     </row>
     <row r="251" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="C251" s="58" t="s">
+      <c r="C251" s="74" t="s">
         <v>98</v>
       </c>
-      <c r="D251" s="58"/>
+      <c r="D251" s="74"/>
       <c r="E251" s="25"/>
       <c r="F251" s="26"/>
       <c r="G251" s="27"/>
@@ -10388,103 +10388,103 @@
       <c r="R256"/>
     </row>
     <row r="257" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A257" s="59" t="s">
+      <c r="A257" s="75" t="s">
         <v>107</v>
       </c>
-      <c r="B257" s="59"/>
-      <c r="C257" s="59"/>
-      <c r="D257" s="59"/>
-      <c r="E257" s="59"/>
-      <c r="F257" s="59"/>
-      <c r="G257" s="59"/>
-      <c r="H257" s="59"/>
-      <c r="I257" s="59"/>
-      <c r="J257" s="59"/>
-      <c r="K257" s="59"/>
-      <c r="L257" s="59"/>
-      <c r="M257" s="59"/>
-      <c r="N257" s="59"/>
-      <c r="O257" s="59"/>
-      <c r="P257" s="59"/>
-      <c r="Q257" s="59"/>
-      <c r="R257" s="59"/>
-      <c r="S257" s="59"/>
-      <c r="T257" s="59"/>
-      <c r="U257" s="59"/>
-      <c r="V257" s="59"/>
-      <c r="W257" s="59"/>
+      <c r="B257" s="75"/>
+      <c r="C257" s="75"/>
+      <c r="D257" s="75"/>
+      <c r="E257" s="75"/>
+      <c r="F257" s="75"/>
+      <c r="G257" s="75"/>
+      <c r="H257" s="75"/>
+      <c r="I257" s="75"/>
+      <c r="J257" s="75"/>
+      <c r="K257" s="75"/>
+      <c r="L257" s="75"/>
+      <c r="M257" s="75"/>
+      <c r="N257" s="75"/>
+      <c r="O257" s="75"/>
+      <c r="P257" s="75"/>
+      <c r="Q257" s="75"/>
+      <c r="R257" s="75"/>
+      <c r="S257" s="75"/>
+      <c r="T257" s="75"/>
+      <c r="U257" s="75"/>
+      <c r="V257" s="75"/>
+      <c r="W257" s="75"/>
     </row>
     <row r="258" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A258" s="59"/>
-      <c r="B258" s="59"/>
-      <c r="C258" s="59"/>
-      <c r="D258" s="59"/>
-      <c r="E258" s="59"/>
-      <c r="F258" s="59"/>
-      <c r="G258" s="59"/>
-      <c r="H258" s="59"/>
-      <c r="I258" s="59"/>
-      <c r="J258" s="59"/>
-      <c r="K258" s="59"/>
-      <c r="L258" s="59"/>
-      <c r="M258" s="59"/>
-      <c r="N258" s="59"/>
-      <c r="O258" s="59"/>
-      <c r="P258" s="59"/>
-      <c r="Q258" s="59"/>
-      <c r="R258" s="59"/>
-      <c r="S258" s="59"/>
-      <c r="T258" s="59"/>
-      <c r="U258" s="59"/>
-      <c r="V258" s="59"/>
-      <c r="W258" s="59"/>
+      <c r="A258" s="75"/>
+      <c r="B258" s="75"/>
+      <c r="C258" s="75"/>
+      <c r="D258" s="75"/>
+      <c r="E258" s="75"/>
+      <c r="F258" s="75"/>
+      <c r="G258" s="75"/>
+      <c r="H258" s="75"/>
+      <c r="I258" s="75"/>
+      <c r="J258" s="75"/>
+      <c r="K258" s="75"/>
+      <c r="L258" s="75"/>
+      <c r="M258" s="75"/>
+      <c r="N258" s="75"/>
+      <c r="O258" s="75"/>
+      <c r="P258" s="75"/>
+      <c r="Q258" s="75"/>
+      <c r="R258" s="75"/>
+      <c r="S258" s="75"/>
+      <c r="T258" s="75"/>
+      <c r="U258" s="75"/>
+      <c r="V258" s="75"/>
+      <c r="W258" s="75"/>
     </row>
     <row r="259" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A259" s="59"/>
-      <c r="B259" s="59"/>
-      <c r="C259" s="59"/>
-      <c r="D259" s="59"/>
-      <c r="E259" s="59"/>
-      <c r="F259" s="59"/>
-      <c r="G259" s="59"/>
-      <c r="H259" s="59"/>
-      <c r="I259" s="59"/>
-      <c r="J259" s="59"/>
-      <c r="K259" s="59"/>
-      <c r="L259" s="59"/>
-      <c r="M259" s="59"/>
-      <c r="N259" s="59"/>
-      <c r="O259" s="59"/>
-      <c r="P259" s="59"/>
-      <c r="Q259" s="59"/>
-      <c r="R259" s="59"/>
-      <c r="S259" s="59"/>
-      <c r="T259" s="59"/>
-      <c r="U259" s="59"/>
-      <c r="V259" s="59"/>
-      <c r="W259" s="59"/>
+      <c r="A259" s="75"/>
+      <c r="B259" s="75"/>
+      <c r="C259" s="75"/>
+      <c r="D259" s="75"/>
+      <c r="E259" s="75"/>
+      <c r="F259" s="75"/>
+      <c r="G259" s="75"/>
+      <c r="H259" s="75"/>
+      <c r="I259" s="75"/>
+      <c r="J259" s="75"/>
+      <c r="K259" s="75"/>
+      <c r="L259" s="75"/>
+      <c r="M259" s="75"/>
+      <c r="N259" s="75"/>
+      <c r="O259" s="75"/>
+      <c r="P259" s="75"/>
+      <c r="Q259" s="75"/>
+      <c r="R259" s="75"/>
+      <c r="S259" s="75"/>
+      <c r="T259" s="75"/>
+      <c r="U259" s="75"/>
+      <c r="V259" s="75"/>
+      <c r="W259" s="75"/>
     </row>
     <row r="260" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A260" s="69" t="s">
+      <c r="A260" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="B260" s="70"/>
-      <c r="C260" s="70"/>
-      <c r="D260" s="70"/>
-      <c r="E260" s="70"/>
-      <c r="F260" s="70"/>
-      <c r="G260" s="70"/>
-      <c r="H260" s="70"/>
-      <c r="I260" s="70"/>
-      <c r="J260" s="70"/>
-      <c r="K260" s="70"/>
-      <c r="L260" s="70"/>
-      <c r="M260" s="70"/>
-      <c r="N260" s="70"/>
-      <c r="O260" s="70"/>
-      <c r="P260" s="70"/>
-      <c r="Q260" s="70"/>
-      <c r="R260" s="71"/>
+      <c r="B260" s="77"/>
+      <c r="C260" s="77"/>
+      <c r="D260" s="77"/>
+      <c r="E260" s="77"/>
+      <c r="F260" s="77"/>
+      <c r="G260" s="77"/>
+      <c r="H260" s="77"/>
+      <c r="I260" s="77"/>
+      <c r="J260" s="77"/>
+      <c r="K260" s="77"/>
+      <c r="L260" s="77"/>
+      <c r="M260" s="77"/>
+      <c r="N260" s="77"/>
+      <c r="O260" s="77"/>
+      <c r="P260" s="77"/>
+      <c r="Q260" s="77"/>
+      <c r="R260" s="78"/>
       <c r="S260" s="38"/>
       <c r="T260" s="38"/>
       <c r="U260" s="38"/>
@@ -10500,17 +10500,17 @@
       <c r="B262" s="46" t="s">
         <v>105</v>
       </c>
-      <c r="C262" s="73" t="s">
+      <c r="C262" s="72" t="s">
         <v>108</v>
       </c>
-      <c r="D262" s="73"/>
-      <c r="E262" s="73"/>
-      <c r="F262" s="73"/>
-      <c r="G262" s="73"/>
-      <c r="H262" s="73"/>
-      <c r="I262" s="73"/>
-      <c r="J262" s="73"/>
-      <c r="K262" s="73"/>
+      <c r="D262" s="72"/>
+      <c r="E262" s="72"/>
+      <c r="F262" s="72"/>
+      <c r="G262" s="72"/>
+      <c r="H262" s="72"/>
+      <c r="I262" s="72"/>
+      <c r="J262" s="72"/>
+      <c r="K262" s="72"/>
       <c r="L262" s="5" t="s">
         <v>2</v>
       </c>
@@ -10550,17 +10550,17 @@
       <c r="B263" s="44">
         <v>44683</v>
       </c>
-      <c r="C263" s="83" t="s">
+      <c r="C263" s="54" t="s">
         <v>43</v>
       </c>
-      <c r="D263" s="84"/>
-      <c r="E263" s="84"/>
-      <c r="F263" s="84"/>
-      <c r="G263" s="84"/>
-      <c r="H263" s="84"/>
-      <c r="I263" s="84"/>
-      <c r="J263" s="84"/>
-      <c r="K263" s="85"/>
+      <c r="D263" s="55"/>
+      <c r="E263" s="55"/>
+      <c r="F263" s="55"/>
+      <c r="G263" s="55"/>
+      <c r="H263" s="55"/>
+      <c r="I263" s="55"/>
+      <c r="J263" s="55"/>
+      <c r="K263" s="56"/>
       <c r="L263" s="6">
         <v>17</v>
       </c>
@@ -10588,17 +10588,17 @@
       <c r="B264" s="41">
         <v>44684</v>
       </c>
-      <c r="C264" s="87" t="s">
+      <c r="C264" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="D264" s="88"/>
-      <c r="E264" s="88"/>
-      <c r="F264" s="88"/>
-      <c r="G264" s="88"/>
-      <c r="H264" s="88"/>
-      <c r="I264" s="88"/>
-      <c r="J264" s="88"/>
-      <c r="K264" s="89"/>
+      <c r="D264" s="58"/>
+      <c r="E264" s="58"/>
+      <c r="F264" s="58"/>
+      <c r="G264" s="58"/>
+      <c r="H264" s="58"/>
+      <c r="I264" s="58"/>
+      <c r="J264" s="58"/>
+      <c r="K264" s="59"/>
       <c r="L264" s="6">
         <v>17</v>
       </c>
@@ -10615,7 +10615,7 @@
       <c r="S264" s="6"/>
       <c r="T264" s="6"/>
       <c r="U264" s="6" t="e">
-        <f t="shared" ref="U264:U268" si="20" xml:space="preserve"> (S264-R264)/(S264)*100</f>
+        <f t="shared" ref="U264:U268" si="19" xml:space="preserve"> (S264-R264)/(S264)*100</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -10626,17 +10626,17 @@
       <c r="B265" s="41">
         <v>44686</v>
       </c>
-      <c r="C265" s="83" t="s">
+      <c r="C265" s="54" t="s">
         <v>39</v>
       </c>
-      <c r="D265" s="84"/>
-      <c r="E265" s="84"/>
-      <c r="F265" s="84"/>
-      <c r="G265" s="84"/>
-      <c r="H265" s="84"/>
-      <c r="I265" s="84"/>
-      <c r="J265" s="84"/>
-      <c r="K265" s="85"/>
+      <c r="D265" s="55"/>
+      <c r="E265" s="55"/>
+      <c r="F265" s="55"/>
+      <c r="G265" s="55"/>
+      <c r="H265" s="55"/>
+      <c r="I265" s="55"/>
+      <c r="J265" s="55"/>
+      <c r="K265" s="56"/>
       <c r="L265" s="6">
         <v>17</v>
       </c>
@@ -10653,7 +10653,7 @@
       <c r="S265" s="6"/>
       <c r="T265" s="6"/>
       <c r="U265" s="6" t="e">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -10664,17 +10664,17 @@
       <c r="B266" s="41">
         <v>44688</v>
       </c>
-      <c r="C266" s="83" t="s">
+      <c r="C266" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="D266" s="84"/>
-      <c r="E266" s="84"/>
-      <c r="F266" s="84"/>
-      <c r="G266" s="84"/>
-      <c r="H266" s="84"/>
-      <c r="I266" s="84"/>
-      <c r="J266" s="84"/>
-      <c r="K266" s="85"/>
+      <c r="D266" s="55"/>
+      <c r="E266" s="55"/>
+      <c r="F266" s="55"/>
+      <c r="G266" s="55"/>
+      <c r="H266" s="55"/>
+      <c r="I266" s="55"/>
+      <c r="J266" s="55"/>
+      <c r="K266" s="56"/>
       <c r="L266" s="6">
         <v>17</v>
       </c>
@@ -10691,7 +10691,7 @@
       <c r="S266" s="6"/>
       <c r="T266" s="6"/>
       <c r="U266" s="6" t="e">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -10702,17 +10702,17 @@
       <c r="B267" s="41">
         <v>44696</v>
       </c>
-      <c r="C267" s="87" t="s">
+      <c r="C267" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="D267" s="88"/>
-      <c r="E267" s="88"/>
-      <c r="F267" s="88"/>
-      <c r="G267" s="88"/>
-      <c r="H267" s="88"/>
-      <c r="I267" s="88"/>
-      <c r="J267" s="88"/>
-      <c r="K267" s="89"/>
+      <c r="D267" s="58"/>
+      <c r="E267" s="58"/>
+      <c r="F267" s="58"/>
+      <c r="G267" s="58"/>
+      <c r="H267" s="58"/>
+      <c r="I267" s="58"/>
+      <c r="J267" s="58"/>
+      <c r="K267" s="59"/>
       <c r="L267" s="6">
         <v>17</v>
       </c>
@@ -10729,7 +10729,7 @@
       <c r="S267" s="6"/>
       <c r="T267" s="6"/>
       <c r="U267" s="6" t="e">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -10740,17 +10740,17 @@
       <c r="B268" s="41">
         <v>44700</v>
       </c>
-      <c r="C268" s="83" t="s">
+      <c r="C268" s="54" t="s">
         <v>33</v>
       </c>
-      <c r="D268" s="84"/>
-      <c r="E268" s="84"/>
-      <c r="F268" s="84"/>
-      <c r="G268" s="84"/>
-      <c r="H268" s="84"/>
-      <c r="I268" s="84"/>
-      <c r="J268" s="84"/>
-      <c r="K268" s="85"/>
+      <c r="D268" s="55"/>
+      <c r="E268" s="55"/>
+      <c r="F268" s="55"/>
+      <c r="G268" s="55"/>
+      <c r="H268" s="55"/>
+      <c r="I268" s="55"/>
+      <c r="J268" s="55"/>
+      <c r="K268" s="56"/>
       <c r="L268" s="6">
         <v>17</v>
       </c>
@@ -10767,7 +10767,7 @@
       <c r="S268" s="6"/>
       <c r="T268" s="6"/>
       <c r="U268" s="6" t="e">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -10778,17 +10778,17 @@
       <c r="B269" s="41">
         <v>44703</v>
       </c>
-      <c r="C269" s="87" t="s">
+      <c r="C269" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="D269" s="88"/>
-      <c r="E269" s="88"/>
-      <c r="F269" s="88"/>
-      <c r="G269" s="88"/>
-      <c r="H269" s="88"/>
-      <c r="I269" s="88"/>
-      <c r="J269" s="88"/>
-      <c r="K269" s="89"/>
+      <c r="D269" s="58"/>
+      <c r="E269" s="58"/>
+      <c r="F269" s="58"/>
+      <c r="G269" s="58"/>
+      <c r="H269" s="58"/>
+      <c r="I269" s="58"/>
+      <c r="J269" s="58"/>
+      <c r="K269" s="59"/>
       <c r="L269" s="6">
         <v>17</v>
       </c>
@@ -10816,17 +10816,17 @@
       <c r="B270" s="41">
         <v>44707</v>
       </c>
-      <c r="C270" s="87" t="s">
+      <c r="C270" s="57" t="s">
         <v>44</v>
       </c>
-      <c r="D270" s="88"/>
-      <c r="E270" s="88"/>
-      <c r="F270" s="88"/>
-      <c r="G270" s="88"/>
-      <c r="H270" s="88"/>
-      <c r="I270" s="88"/>
-      <c r="J270" s="88"/>
-      <c r="K270" s="89"/>
+      <c r="D270" s="58"/>
+      <c r="E270" s="58"/>
+      <c r="F270" s="58"/>
+      <c r="G270" s="58"/>
+      <c r="H270" s="58"/>
+      <c r="I270" s="58"/>
+      <c r="J270" s="58"/>
+      <c r="K270" s="59"/>
       <c r="L270" s="6">
         <v>17</v>
       </c>
@@ -10851,17 +10851,17 @@
       <c r="B271" s="41">
         <v>44712</v>
       </c>
-      <c r="C271" s="83" t="s">
+      <c r="C271" s="54" t="s">
         <v>34</v>
       </c>
-      <c r="D271" s="84"/>
-      <c r="E271" s="84"/>
-      <c r="F271" s="84"/>
-      <c r="G271" s="84"/>
-      <c r="H271" s="84"/>
-      <c r="I271" s="84"/>
-      <c r="J271" s="84"/>
-      <c r="K271" s="85"/>
+      <c r="D271" s="55"/>
+      <c r="E271" s="55"/>
+      <c r="F271" s="55"/>
+      <c r="G271" s="55"/>
+      <c r="H271" s="55"/>
+      <c r="I271" s="55"/>
+      <c r="J271" s="55"/>
+      <c r="K271" s="56"/>
       <c r="L271" s="6">
         <v>17</v>
       </c>
@@ -10886,17 +10886,17 @@
       <c r="B272" s="41">
         <v>44717</v>
       </c>
-      <c r="C272" s="87" t="s">
+      <c r="C272" s="57" t="s">
         <v>35</v>
       </c>
-      <c r="D272" s="88"/>
-      <c r="E272" s="88"/>
-      <c r="F272" s="88"/>
-      <c r="G272" s="88"/>
-      <c r="H272" s="88"/>
-      <c r="I272" s="88"/>
-      <c r="J272" s="88"/>
-      <c r="K272" s="89"/>
+      <c r="D272" s="58"/>
+      <c r="E272" s="58"/>
+      <c r="F272" s="58"/>
+      <c r="G272" s="58"/>
+      <c r="H272" s="58"/>
+      <c r="I272" s="58"/>
+      <c r="J272" s="58"/>
+      <c r="K272" s="59"/>
       <c r="L272" s="6">
         <v>17</v>
       </c>
@@ -10913,7 +10913,7 @@
       <c r="S272" s="6"/>
       <c r="T272" s="6"/>
       <c r="U272" s="6" t="e">
-        <f t="shared" ref="U272" si="21" xml:space="preserve"> (S272-R272)/(S272)*100</f>
+        <f t="shared" ref="U272" si="20" xml:space="preserve"> (S272-R272)/(S272)*100</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -10924,17 +10924,17 @@
       <c r="B273" s="41">
         <v>44722</v>
       </c>
-      <c r="C273" s="83" t="s">
+      <c r="C273" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="D273" s="84"/>
-      <c r="E273" s="84"/>
-      <c r="F273" s="84"/>
-      <c r="G273" s="84"/>
-      <c r="H273" s="84"/>
-      <c r="I273" s="84"/>
-      <c r="J273" s="84"/>
-      <c r="K273" s="85"/>
+      <c r="D273" s="55"/>
+      <c r="E273" s="55"/>
+      <c r="F273" s="55"/>
+      <c r="G273" s="55"/>
+      <c r="H273" s="55"/>
+      <c r="I273" s="55"/>
+      <c r="J273" s="55"/>
+      <c r="K273" s="56"/>
       <c r="L273" s="6">
         <v>17</v>
       </c>
@@ -10959,17 +10959,17 @@
       <c r="B274" s="41">
         <v>44727</v>
       </c>
-      <c r="C274" s="83" t="s">
+      <c r="C274" s="54" t="s">
         <v>37</v>
       </c>
-      <c r="D274" s="84"/>
-      <c r="E274" s="84"/>
-      <c r="F274" s="84"/>
-      <c r="G274" s="84"/>
-      <c r="H274" s="84"/>
-      <c r="I274" s="84"/>
-      <c r="J274" s="84"/>
-      <c r="K274" s="85"/>
+      <c r="D274" s="55"/>
+      <c r="E274" s="55"/>
+      <c r="F274" s="55"/>
+      <c r="G274" s="55"/>
+      <c r="H274" s="55"/>
+      <c r="I274" s="55"/>
+      <c r="J274" s="55"/>
+      <c r="K274" s="56"/>
       <c r="L274" s="6">
         <v>17</v>
       </c>
@@ -10994,17 +10994,17 @@
       <c r="B275" s="41" t="s">
         <v>109</v>
       </c>
-      <c r="C275" s="83" t="s">
+      <c r="C275" s="54" t="s">
         <v>45</v>
       </c>
-      <c r="D275" s="84"/>
-      <c r="E275" s="84"/>
-      <c r="F275" s="84"/>
-      <c r="G275" s="84"/>
-      <c r="H275" s="84"/>
-      <c r="I275" s="84"/>
-      <c r="J275" s="84"/>
-      <c r="K275" s="85"/>
+      <c r="D275" s="55"/>
+      <c r="E275" s="55"/>
+      <c r="F275" s="55"/>
+      <c r="G275" s="55"/>
+      <c r="H275" s="55"/>
+      <c r="I275" s="55"/>
+      <c r="J275" s="55"/>
+      <c r="K275" s="56"/>
       <c r="L275" s="6">
         <v>17</v>
       </c>
@@ -11032,17 +11032,17 @@
       <c r="B276" s="41" t="s">
         <v>110</v>
       </c>
-      <c r="C276" s="83" t="s">
+      <c r="C276" s="54" t="s">
         <v>46</v>
       </c>
-      <c r="D276" s="84"/>
-      <c r="E276" s="84"/>
-      <c r="F276" s="84"/>
-      <c r="G276" s="84"/>
-      <c r="H276" s="84"/>
-      <c r="I276" s="84"/>
-      <c r="J276" s="84"/>
-      <c r="K276" s="85"/>
+      <c r="D276" s="55"/>
+      <c r="E276" s="55"/>
+      <c r="F276" s="55"/>
+      <c r="G276" s="55"/>
+      <c r="H276" s="55"/>
+      <c r="I276" s="55"/>
+      <c r="J276" s="55"/>
+      <c r="K276" s="56"/>
       <c r="L276" s="6">
         <v>17</v>
       </c>
@@ -11059,7 +11059,7 @@
       <c r="S276" s="6"/>
       <c r="T276" s="6"/>
       <c r="U276" s="6" t="e">
-        <f t="shared" ref="U276:U279" si="22" xml:space="preserve"> (S276-R276)/(S276)*100</f>
+        <f t="shared" ref="U276:U279" si="21" xml:space="preserve"> (S276-R276)/(S276)*100</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -11070,17 +11070,17 @@
       <c r="B277" s="41">
         <v>44736</v>
       </c>
-      <c r="C277" s="87" t="s">
+      <c r="C277" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="D277" s="88"/>
-      <c r="E277" s="88"/>
-      <c r="F277" s="88"/>
-      <c r="G277" s="88"/>
-      <c r="H277" s="88"/>
-      <c r="I277" s="88"/>
-      <c r="J277" s="88"/>
-      <c r="K277" s="89"/>
+      <c r="D277" s="58"/>
+      <c r="E277" s="58"/>
+      <c r="F277" s="58"/>
+      <c r="G277" s="58"/>
+      <c r="H277" s="58"/>
+      <c r="I277" s="58"/>
+      <c r="J277" s="58"/>
+      <c r="K277" s="59"/>
       <c r="L277" s="6">
         <v>17</v>
       </c>
@@ -11097,7 +11097,7 @@
       <c r="S277" s="6"/>
       <c r="T277" s="6"/>
       <c r="U277" s="6" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -11108,17 +11108,17 @@
       <c r="B278" s="41">
         <v>44740</v>
       </c>
-      <c r="C278" s="83" t="s">
+      <c r="C278" s="54" t="s">
         <v>38</v>
       </c>
-      <c r="D278" s="84"/>
-      <c r="E278" s="84"/>
-      <c r="F278" s="84"/>
-      <c r="G278" s="84"/>
-      <c r="H278" s="84"/>
-      <c r="I278" s="84"/>
-      <c r="J278" s="84"/>
-      <c r="K278" s="85"/>
+      <c r="D278" s="55"/>
+      <c r="E278" s="55"/>
+      <c r="F278" s="55"/>
+      <c r="G278" s="55"/>
+      <c r="H278" s="55"/>
+      <c r="I278" s="55"/>
+      <c r="J278" s="55"/>
+      <c r="K278" s="56"/>
       <c r="L278" s="6">
         <v>17</v>
       </c>
@@ -11135,7 +11135,7 @@
       <c r="S278" s="6"/>
       <c r="T278" s="6"/>
       <c r="U278" s="6" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -11146,17 +11146,17 @@
       <c r="B279" s="41">
         <v>44745</v>
       </c>
-      <c r="C279" s="87" t="s">
+      <c r="C279" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="D279" s="88"/>
-      <c r="E279" s="88"/>
-      <c r="F279" s="88"/>
-      <c r="G279" s="88"/>
-      <c r="H279" s="88"/>
-      <c r="I279" s="88"/>
-      <c r="J279" s="88"/>
-      <c r="K279" s="89"/>
+      <c r="D279" s="58"/>
+      <c r="E279" s="58"/>
+      <c r="F279" s="58"/>
+      <c r="G279" s="58"/>
+      <c r="H279" s="58"/>
+      <c r="I279" s="58"/>
+      <c r="J279" s="58"/>
+      <c r="K279" s="59"/>
       <c r="L279" s="6">
         <v>17</v>
       </c>
@@ -11173,7 +11173,7 @@
       <c r="S279" s="6"/>
       <c r="T279" s="6"/>
       <c r="U279" s="6" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -11184,17 +11184,17 @@
       <c r="B280" s="41">
         <v>44750</v>
       </c>
-      <c r="C280" s="83" t="s">
+      <c r="C280" s="54" t="s">
         <v>48</v>
       </c>
-      <c r="D280" s="84"/>
-      <c r="E280" s="84"/>
-      <c r="F280" s="84"/>
-      <c r="G280" s="84"/>
-      <c r="H280" s="84"/>
-      <c r="I280" s="84"/>
-      <c r="J280" s="84"/>
-      <c r="K280" s="85"/>
+      <c r="D280" s="55"/>
+      <c r="E280" s="55"/>
+      <c r="F280" s="55"/>
+      <c r="G280" s="55"/>
+      <c r="H280" s="55"/>
+      <c r="I280" s="55"/>
+      <c r="J280" s="55"/>
+      <c r="K280" s="56"/>
       <c r="L280" s="6">
         <v>17</v>
       </c>
@@ -11219,17 +11219,17 @@
       <c r="B281" s="41">
         <v>44752</v>
       </c>
-      <c r="C281" s="88" t="s">
+      <c r="C281" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="D281" s="88"/>
-      <c r="E281" s="88"/>
-      <c r="F281" s="88"/>
-      <c r="G281" s="88"/>
-      <c r="H281" s="88"/>
-      <c r="I281" s="88"/>
-      <c r="J281" s="88"/>
-      <c r="K281" s="89"/>
+      <c r="D281" s="58"/>
+      <c r="E281" s="58"/>
+      <c r="F281" s="58"/>
+      <c r="G281" s="58"/>
+      <c r="H281" s="58"/>
+      <c r="I281" s="58"/>
+      <c r="J281" s="58"/>
+      <c r="K281" s="59"/>
       <c r="L281" s="6">
         <v>17</v>
       </c>
@@ -11246,7 +11246,7 @@
       <c r="S281" s="6"/>
       <c r="T281" s="6"/>
       <c r="U281" s="6" t="e">
-        <f t="shared" ref="U281" si="23" xml:space="preserve"> (S281-R281)/(S281)*100</f>
+        <f t="shared" ref="U281" si="22" xml:space="preserve"> (S281-R281)/(S281)*100</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -11257,17 +11257,17 @@
       <c r="B282" s="41">
         <v>44754</v>
       </c>
-      <c r="C282" s="84" t="s">
+      <c r="C282" s="55" t="s">
         <v>49</v>
       </c>
-      <c r="D282" s="84"/>
-      <c r="E282" s="84"/>
-      <c r="F282" s="84"/>
-      <c r="G282" s="84"/>
-      <c r="H282" s="84"/>
-      <c r="I282" s="84"/>
-      <c r="J282" s="84"/>
-      <c r="K282" s="85"/>
+      <c r="D282" s="55"/>
+      <c r="E282" s="55"/>
+      <c r="F282" s="55"/>
+      <c r="G282" s="55"/>
+      <c r="H282" s="55"/>
+      <c r="I282" s="55"/>
+      <c r="J282" s="55"/>
+      <c r="K282" s="56"/>
       <c r="L282" s="6">
         <v>17</v>
       </c>
@@ -11292,17 +11292,17 @@
       <c r="B283" s="41">
         <v>44757</v>
       </c>
-      <c r="C283" s="87" t="s">
+      <c r="C283" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="D283" s="88"/>
-      <c r="E283" s="88"/>
-      <c r="F283" s="88"/>
-      <c r="G283" s="88"/>
-      <c r="H283" s="88"/>
-      <c r="I283" s="88"/>
-      <c r="J283" s="88"/>
-      <c r="K283" s="89"/>
+      <c r="D283" s="58"/>
+      <c r="E283" s="58"/>
+      <c r="F283" s="58"/>
+      <c r="G283" s="58"/>
+      <c r="H283" s="58"/>
+      <c r="I283" s="58"/>
+      <c r="J283" s="58"/>
+      <c r="K283" s="59"/>
       <c r="L283" s="6">
         <v>17</v>
       </c>
@@ -11319,7 +11319,7 @@
       <c r="S283" s="6"/>
       <c r="T283" s="6"/>
       <c r="U283" s="6" t="e">
-        <f t="shared" ref="U283:U284" si="24" xml:space="preserve"> (S283-R283)/(S283)*100</f>
+        <f t="shared" ref="U283:U284" si="23" xml:space="preserve"> (S283-R283)/(S283)*100</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -11330,17 +11330,17 @@
       <c r="B284" s="41">
         <v>44760</v>
       </c>
-      <c r="C284" s="87" t="s">
+      <c r="C284" s="57" t="s">
         <v>47</v>
       </c>
-      <c r="D284" s="88"/>
-      <c r="E284" s="88"/>
-      <c r="F284" s="88"/>
-      <c r="G284" s="88"/>
-      <c r="H284" s="88"/>
-      <c r="I284" s="88"/>
-      <c r="J284" s="88"/>
-      <c r="K284" s="89"/>
+      <c r="D284" s="58"/>
+      <c r="E284" s="58"/>
+      <c r="F284" s="58"/>
+      <c r="G284" s="58"/>
+      <c r="H284" s="58"/>
+      <c r="I284" s="58"/>
+      <c r="J284" s="58"/>
+      <c r="K284" s="59"/>
       <c r="L284" s="6">
         <v>17</v>
       </c>
@@ -11357,7 +11357,7 @@
       <c r="S284" s="6"/>
       <c r="T284" s="6"/>
       <c r="U284" s="6" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -11366,17 +11366,17 @@
         <v>23</v>
       </c>
       <c r="B285" s="41"/>
-      <c r="C285" s="83" t="s">
+      <c r="C285" s="54" t="s">
         <v>41</v>
       </c>
-      <c r="D285" s="84"/>
-      <c r="E285" s="84"/>
-      <c r="F285" s="84"/>
-      <c r="G285" s="84"/>
-      <c r="H285" s="84"/>
-      <c r="I285" s="84"/>
-      <c r="J285" s="84"/>
-      <c r="K285" s="85"/>
+      <c r="D285" s="55"/>
+      <c r="E285" s="55"/>
+      <c r="F285" s="55"/>
+      <c r="G285" s="55"/>
+      <c r="H285" s="55"/>
+      <c r="I285" s="55"/>
+      <c r="J285" s="55"/>
+      <c r="K285" s="56"/>
       <c r="L285" s="6">
         <v>17</v>
       </c>
@@ -11399,17 +11399,17 @@
         <v>24</v>
       </c>
       <c r="B286" s="41"/>
-      <c r="C286" s="83" t="s">
+      <c r="C286" s="54" t="s">
         <v>42</v>
       </c>
-      <c r="D286" s="84"/>
-      <c r="E286" s="84"/>
-      <c r="F286" s="84"/>
-      <c r="G286" s="84"/>
-      <c r="H286" s="84"/>
-      <c r="I286" s="84"/>
-      <c r="J286" s="84"/>
-      <c r="K286" s="85"/>
+      <c r="D286" s="55"/>
+      <c r="E286" s="55"/>
+      <c r="F286" s="55"/>
+      <c r="G286" s="55"/>
+      <c r="H286" s="55"/>
+      <c r="I286" s="55"/>
+      <c r="J286" s="55"/>
+      <c r="K286" s="56"/>
       <c r="L286" s="6">
         <v>17</v>
       </c>
@@ -11432,20 +11432,20 @@
         <v>25</v>
       </c>
       <c r="B287" s="47"/>
-      <c r="C287" s="60" t="s">
+      <c r="C287" s="66" t="s">
         <v>58</v>
       </c>
-      <c r="D287" s="61"/>
-      <c r="E287" s="61"/>
-      <c r="F287" s="61"/>
-      <c r="G287" s="61"/>
-      <c r="H287" s="61"/>
-      <c r="I287" s="61"/>
-      <c r="J287" s="61"/>
-      <c r="K287" s="61"/>
-      <c r="L287" s="61"/>
-      <c r="M287" s="61"/>
-      <c r="N287" s="62"/>
+      <c r="D287" s="67"/>
+      <c r="E287" s="67"/>
+      <c r="F287" s="67"/>
+      <c r="G287" s="67"/>
+      <c r="H287" s="67"/>
+      <c r="I287" s="67"/>
+      <c r="J287" s="67"/>
+      <c r="K287" s="67"/>
+      <c r="L287" s="67"/>
+      <c r="M287" s="67"/>
+      <c r="N287" s="68"/>
       <c r="O287" s="11"/>
       <c r="P287" s="12" t="e">
         <f>AVERAGE(P263:P286)</f>
@@ -11468,26 +11468,26 @@
       <c r="B288" s="41"/>
     </row>
     <row r="289" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A289" s="76" t="s">
+      <c r="A289" s="82" t="s">
         <v>13</v>
       </c>
-      <c r="B289" s="77"/>
-      <c r="C289" s="77"/>
-      <c r="D289" s="77"/>
-      <c r="E289" s="77"/>
-      <c r="F289" s="77"/>
-      <c r="G289" s="77"/>
-      <c r="H289" s="77"/>
-      <c r="I289" s="77"/>
-      <c r="J289" s="77"/>
-      <c r="K289" s="77"/>
-      <c r="L289" s="77"/>
-      <c r="M289" s="77"/>
-      <c r="N289" s="77"/>
-      <c r="O289" s="77"/>
-      <c r="P289" s="77"/>
-      <c r="Q289" s="77"/>
-      <c r="R289" s="78"/>
+      <c r="B289" s="83"/>
+      <c r="C289" s="83"/>
+      <c r="D289" s="83"/>
+      <c r="E289" s="83"/>
+      <c r="F289" s="83"/>
+      <c r="G289" s="83"/>
+      <c r="H289" s="83"/>
+      <c r="I289" s="83"/>
+      <c r="J289" s="83"/>
+      <c r="K289" s="83"/>
+      <c r="L289" s="83"/>
+      <c r="M289" s="83"/>
+      <c r="N289" s="83"/>
+      <c r="O289" s="83"/>
+      <c r="P289" s="83"/>
+      <c r="Q289" s="83"/>
+      <c r="R289" s="84"/>
       <c r="S289" s="15"/>
       <c r="T289" s="15"/>
       <c r="U289" s="15"/>
@@ -11497,17 +11497,17 @@
         <v>1</v>
       </c>
       <c r="B291" s="5"/>
-      <c r="C291" s="73" t="s">
+      <c r="C291" s="72" t="s">
         <v>56</v>
       </c>
-      <c r="D291" s="73"/>
-      <c r="E291" s="73"/>
-      <c r="F291" s="73"/>
-      <c r="G291" s="73"/>
-      <c r="H291" s="73"/>
-      <c r="I291" s="73"/>
-      <c r="J291" s="73"/>
-      <c r="K291" s="73"/>
+      <c r="D291" s="72"/>
+      <c r="E291" s="72"/>
+      <c r="F291" s="72"/>
+      <c r="G291" s="72"/>
+      <c r="H291" s="72"/>
+      <c r="I291" s="72"/>
+      <c r="J291" s="72"/>
+      <c r="K291" s="72"/>
       <c r="L291" s="5" t="s">
         <v>2</v>
       </c>
@@ -11544,17 +11544,17 @@
         <v>1</v>
       </c>
       <c r="B292" s="1"/>
-      <c r="C292" s="74" t="s">
+      <c r="C292" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="D292" s="74"/>
-      <c r="E292" s="74"/>
-      <c r="F292" s="74"/>
-      <c r="G292" s="74"/>
-      <c r="H292" s="74"/>
-      <c r="I292" s="74"/>
-      <c r="J292" s="74"/>
-      <c r="K292" s="74"/>
+      <c r="D292" s="73"/>
+      <c r="E292" s="73"/>
+      <c r="F292" s="73"/>
+      <c r="G292" s="73"/>
+      <c r="H292" s="73"/>
+      <c r="I292" s="73"/>
+      <c r="J292" s="73"/>
+      <c r="K292" s="73"/>
       <c r="L292" s="6">
         <v>33</v>
       </c>
@@ -11577,17 +11577,17 @@
         <v>2</v>
       </c>
       <c r="B293" s="1"/>
-      <c r="C293" s="66" t="s">
+      <c r="C293" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="D293" s="67"/>
-      <c r="E293" s="67"/>
-      <c r="F293" s="67"/>
-      <c r="G293" s="67"/>
-      <c r="H293" s="67"/>
-      <c r="I293" s="67"/>
-      <c r="J293" s="67"/>
-      <c r="K293" s="67"/>
+      <c r="D293" s="65"/>
+      <c r="E293" s="65"/>
+      <c r="F293" s="65"/>
+      <c r="G293" s="65"/>
+      <c r="H293" s="65"/>
+      <c r="I293" s="65"/>
+      <c r="J293" s="65"/>
+      <c r="K293" s="65"/>
       <c r="L293" s="6">
         <v>33</v>
       </c>
@@ -11610,17 +11610,17 @@
         <v>3</v>
       </c>
       <c r="B294" s="1"/>
-      <c r="C294" s="66" t="s">
+      <c r="C294" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="D294" s="67"/>
-      <c r="E294" s="67"/>
-      <c r="F294" s="67"/>
-      <c r="G294" s="67"/>
-      <c r="H294" s="67"/>
-      <c r="I294" s="67"/>
-      <c r="J294" s="67"/>
-      <c r="K294" s="67"/>
+      <c r="D294" s="65"/>
+      <c r="E294" s="65"/>
+      <c r="F294" s="65"/>
+      <c r="G294" s="65"/>
+      <c r="H294" s="65"/>
+      <c r="I294" s="65"/>
+      <c r="J294" s="65"/>
+      <c r="K294" s="65"/>
       <c r="L294" s="6">
         <v>33</v>
       </c>
@@ -11643,17 +11643,17 @@
         <v>4</v>
       </c>
       <c r="B295" s="1"/>
-      <c r="C295" s="67" t="s">
+      <c r="C295" s="65" t="s">
         <v>18</v>
       </c>
-      <c r="D295" s="67"/>
-      <c r="E295" s="67"/>
-      <c r="F295" s="67"/>
-      <c r="G295" s="67"/>
-      <c r="H295" s="67"/>
-      <c r="I295" s="67"/>
-      <c r="J295" s="67"/>
-      <c r="K295" s="67"/>
+      <c r="D295" s="65"/>
+      <c r="E295" s="65"/>
+      <c r="F295" s="65"/>
+      <c r="G295" s="65"/>
+      <c r="H295" s="65"/>
+      <c r="I295" s="65"/>
+      <c r="J295" s="65"/>
+      <c r="K295" s="65"/>
       <c r="L295" s="6">
         <v>33</v>
       </c>
@@ -11676,17 +11676,17 @@
         <v>5</v>
       </c>
       <c r="B296" s="1"/>
-      <c r="C296" s="66" t="s">
+      <c r="C296" s="64" t="s">
         <v>61</v>
       </c>
-      <c r="D296" s="67"/>
-      <c r="E296" s="67"/>
-      <c r="F296" s="67"/>
-      <c r="G296" s="67"/>
-      <c r="H296" s="67"/>
-      <c r="I296" s="67"/>
-      <c r="J296" s="67"/>
-      <c r="K296" s="67"/>
+      <c r="D296" s="65"/>
+      <c r="E296" s="65"/>
+      <c r="F296" s="65"/>
+      <c r="G296" s="65"/>
+      <c r="H296" s="65"/>
+      <c r="I296" s="65"/>
+      <c r="J296" s="65"/>
+      <c r="K296" s="65"/>
       <c r="L296" s="6">
         <v>33</v>
       </c>
@@ -11709,17 +11709,17 @@
         <v>6</v>
       </c>
       <c r="B297" s="1"/>
-      <c r="C297" s="66" t="s">
+      <c r="C297" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="D297" s="67"/>
-      <c r="E297" s="67"/>
-      <c r="F297" s="67"/>
-      <c r="G297" s="67"/>
-      <c r="H297" s="67"/>
-      <c r="I297" s="67"/>
-      <c r="J297" s="67"/>
-      <c r="K297" s="67"/>
+      <c r="D297" s="65"/>
+      <c r="E297" s="65"/>
+      <c r="F297" s="65"/>
+      <c r="G297" s="65"/>
+      <c r="H297" s="65"/>
+      <c r="I297" s="65"/>
+      <c r="J297" s="65"/>
+      <c r="K297" s="65"/>
       <c r="L297" s="6">
         <v>33</v>
       </c>
@@ -11742,17 +11742,17 @@
         <v>7</v>
       </c>
       <c r="B298" s="1"/>
-      <c r="C298" s="67" t="s">
+      <c r="C298" s="65" t="s">
         <v>20</v>
       </c>
-      <c r="D298" s="67"/>
-      <c r="E298" s="67"/>
-      <c r="F298" s="67"/>
-      <c r="G298" s="67"/>
-      <c r="H298" s="67"/>
-      <c r="I298" s="67"/>
-      <c r="J298" s="67"/>
-      <c r="K298" s="67"/>
+      <c r="D298" s="65"/>
+      <c r="E298" s="65"/>
+      <c r="F298" s="65"/>
+      <c r="G298" s="65"/>
+      <c r="H298" s="65"/>
+      <c r="I298" s="65"/>
+      <c r="J298" s="65"/>
+      <c r="K298" s="65"/>
       <c r="L298" s="6">
         <v>33</v>
       </c>
@@ -11775,17 +11775,17 @@
         <v>8</v>
       </c>
       <c r="B299" s="1"/>
-      <c r="C299" s="66" t="s">
+      <c r="C299" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="D299" s="67"/>
-      <c r="E299" s="67"/>
-      <c r="F299" s="67"/>
-      <c r="G299" s="67"/>
-      <c r="H299" s="67"/>
-      <c r="I299" s="67"/>
-      <c r="J299" s="67"/>
-      <c r="K299" s="67"/>
+      <c r="D299" s="65"/>
+      <c r="E299" s="65"/>
+      <c r="F299" s="65"/>
+      <c r="G299" s="65"/>
+      <c r="H299" s="65"/>
+      <c r="I299" s="65"/>
+      <c r="J299" s="65"/>
+      <c r="K299" s="65"/>
       <c r="L299" s="6">
         <v>33</v>
       </c>
@@ -11808,17 +11808,17 @@
         <v>9</v>
       </c>
       <c r="B300" s="1"/>
-      <c r="C300" s="66" t="s">
+      <c r="C300" s="64" t="s">
         <v>62</v>
       </c>
-      <c r="D300" s="67"/>
-      <c r="E300" s="67"/>
-      <c r="F300" s="67"/>
-      <c r="G300" s="67"/>
-      <c r="H300" s="67"/>
-      <c r="I300" s="67"/>
-      <c r="J300" s="67"/>
-      <c r="K300" s="67"/>
+      <c r="D300" s="65"/>
+      <c r="E300" s="65"/>
+      <c r="F300" s="65"/>
+      <c r="G300" s="65"/>
+      <c r="H300" s="65"/>
+      <c r="I300" s="65"/>
+      <c r="J300" s="65"/>
+      <c r="K300" s="65"/>
       <c r="L300" s="6">
         <v>33</v>
       </c>
@@ -11841,17 +11841,17 @@
         <v>10</v>
       </c>
       <c r="B301" s="1"/>
-      <c r="C301" s="66" t="s">
+      <c r="C301" s="64" t="s">
         <v>22</v>
       </c>
-      <c r="D301" s="67"/>
-      <c r="E301" s="67"/>
-      <c r="F301" s="67"/>
-      <c r="G301" s="67"/>
-      <c r="H301" s="67"/>
-      <c r="I301" s="67"/>
-      <c r="J301" s="67"/>
-      <c r="K301" s="67"/>
+      <c r="D301" s="65"/>
+      <c r="E301" s="65"/>
+      <c r="F301" s="65"/>
+      <c r="G301" s="65"/>
+      <c r="H301" s="65"/>
+      <c r="I301" s="65"/>
+      <c r="J301" s="65"/>
+      <c r="K301" s="65"/>
       <c r="L301" s="6">
         <v>33</v>
       </c>
@@ -11874,17 +11874,17 @@
         <v>11</v>
       </c>
       <c r="B302" s="1"/>
-      <c r="C302" s="66" t="s">
+      <c r="C302" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="D302" s="67"/>
-      <c r="E302" s="67"/>
-      <c r="F302" s="67"/>
-      <c r="G302" s="67"/>
-      <c r="H302" s="67"/>
-      <c r="I302" s="67"/>
-      <c r="J302" s="67"/>
-      <c r="K302" s="67"/>
+      <c r="D302" s="65"/>
+      <c r="E302" s="65"/>
+      <c r="F302" s="65"/>
+      <c r="G302" s="65"/>
+      <c r="H302" s="65"/>
+      <c r="I302" s="65"/>
+      <c r="J302" s="65"/>
+      <c r="K302" s="65"/>
       <c r="L302" s="6">
         <v>33</v>
       </c>
@@ -11907,17 +11907,17 @@
         <v>12</v>
       </c>
       <c r="B303" s="1"/>
-      <c r="C303" s="66" t="s">
+      <c r="C303" s="64" t="s">
         <v>63</v>
       </c>
-      <c r="D303" s="67"/>
-      <c r="E303" s="67"/>
-      <c r="F303" s="67"/>
-      <c r="G303" s="67"/>
-      <c r="H303" s="67"/>
-      <c r="I303" s="67"/>
-      <c r="J303" s="67"/>
-      <c r="K303" s="67"/>
+      <c r="D303" s="65"/>
+      <c r="E303" s="65"/>
+      <c r="F303" s="65"/>
+      <c r="G303" s="65"/>
+      <c r="H303" s="65"/>
+      <c r="I303" s="65"/>
+      <c r="J303" s="65"/>
+      <c r="K303" s="65"/>
       <c r="L303" s="6">
         <v>33</v>
       </c>
@@ -11940,20 +11940,20 @@
         <v>13</v>
       </c>
       <c r="B304" s="1"/>
-      <c r="C304" s="60" t="s">
+      <c r="C304" s="66" t="s">
         <v>58</v>
       </c>
-      <c r="D304" s="61"/>
-      <c r="E304" s="61"/>
-      <c r="F304" s="61"/>
-      <c r="G304" s="61"/>
-      <c r="H304" s="61"/>
-      <c r="I304" s="61"/>
-      <c r="J304" s="61"/>
-      <c r="K304" s="61"/>
-      <c r="L304" s="61"/>
-      <c r="M304" s="61"/>
-      <c r="N304" s="62"/>
+      <c r="D304" s="67"/>
+      <c r="E304" s="67"/>
+      <c r="F304" s="67"/>
+      <c r="G304" s="67"/>
+      <c r="H304" s="67"/>
+      <c r="I304" s="67"/>
+      <c r="J304" s="67"/>
+      <c r="K304" s="67"/>
+      <c r="L304" s="67"/>
+      <c r="M304" s="67"/>
+      <c r="N304" s="68"/>
       <c r="O304" s="11"/>
       <c r="P304" s="12"/>
       <c r="Q304" s="13"/>
@@ -11967,26 +11967,26 @@
       <c r="B305" s="1"/>
     </row>
     <row r="306" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A306" s="63" t="s">
+      <c r="A306" s="69" t="s">
         <v>24</v>
       </c>
-      <c r="B306" s="64"/>
-      <c r="C306" s="64"/>
-      <c r="D306" s="64"/>
-      <c r="E306" s="64"/>
-      <c r="F306" s="64"/>
-      <c r="G306" s="64"/>
-      <c r="H306" s="64"/>
-      <c r="I306" s="64"/>
-      <c r="J306" s="64"/>
-      <c r="K306" s="64"/>
-      <c r="L306" s="64"/>
-      <c r="M306" s="64"/>
-      <c r="N306" s="64"/>
-      <c r="O306" s="64"/>
-      <c r="P306" s="64"/>
-      <c r="Q306" s="64"/>
-      <c r="R306" s="65"/>
+      <c r="B306" s="70"/>
+      <c r="C306" s="70"/>
+      <c r="D306" s="70"/>
+      <c r="E306" s="70"/>
+      <c r="F306" s="70"/>
+      <c r="G306" s="70"/>
+      <c r="H306" s="70"/>
+      <c r="I306" s="70"/>
+      <c r="J306" s="70"/>
+      <c r="K306" s="70"/>
+      <c r="L306" s="70"/>
+      <c r="M306" s="70"/>
+      <c r="N306" s="70"/>
+      <c r="O306" s="70"/>
+      <c r="P306" s="70"/>
+      <c r="Q306" s="70"/>
+      <c r="R306" s="71"/>
       <c r="S306" s="3"/>
       <c r="T306" s="3"/>
       <c r="U306" s="3"/>
@@ -11996,17 +11996,17 @@
         <v>1</v>
       </c>
       <c r="B308" s="5"/>
-      <c r="C308" s="73" t="s">
+      <c r="C308" s="72" t="s">
         <v>56</v>
       </c>
-      <c r="D308" s="73"/>
-      <c r="E308" s="73"/>
-      <c r="F308" s="73"/>
-      <c r="G308" s="73"/>
-      <c r="H308" s="73"/>
-      <c r="I308" s="73"/>
-      <c r="J308" s="73"/>
-      <c r="K308" s="73"/>
+      <c r="D308" s="72"/>
+      <c r="E308" s="72"/>
+      <c r="F308" s="72"/>
+      <c r="G308" s="72"/>
+      <c r="H308" s="72"/>
+      <c r="I308" s="72"/>
+      <c r="J308" s="72"/>
+      <c r="K308" s="72"/>
       <c r="L308" s="5" t="s">
         <v>2</v>
       </c>
@@ -12043,17 +12043,17 @@
         <v>1</v>
       </c>
       <c r="B309" s="1"/>
-      <c r="C309" s="74" t="s">
+      <c r="C309" s="73" t="s">
         <v>65</v>
       </c>
-      <c r="D309" s="74"/>
-      <c r="E309" s="74"/>
-      <c r="F309" s="74"/>
-      <c r="G309" s="74"/>
-      <c r="H309" s="74"/>
-      <c r="I309" s="74"/>
-      <c r="J309" s="74"/>
-      <c r="K309" s="74"/>
+      <c r="D309" s="73"/>
+      <c r="E309" s="73"/>
+      <c r="F309" s="73"/>
+      <c r="G309" s="73"/>
+      <c r="H309" s="73"/>
+      <c r="I309" s="73"/>
+      <c r="J309" s="73"/>
+      <c r="K309" s="73"/>
       <c r="L309" s="6">
         <v>33</v>
       </c>
@@ -12076,17 +12076,17 @@
         <v>2</v>
       </c>
       <c r="B310" s="1"/>
-      <c r="C310" s="66" t="s">
+      <c r="C310" s="64" t="s">
         <v>66</v>
       </c>
-      <c r="D310" s="67"/>
-      <c r="E310" s="67"/>
-      <c r="F310" s="67"/>
-      <c r="G310" s="67"/>
-      <c r="H310" s="67"/>
-      <c r="I310" s="67"/>
-      <c r="J310" s="67"/>
-      <c r="K310" s="67"/>
+      <c r="D310" s="65"/>
+      <c r="E310" s="65"/>
+      <c r="F310" s="65"/>
+      <c r="G310" s="65"/>
+      <c r="H310" s="65"/>
+      <c r="I310" s="65"/>
+      <c r="J310" s="65"/>
+      <c r="K310" s="65"/>
       <c r="L310" s="6">
         <v>33</v>
       </c>
@@ -12109,17 +12109,17 @@
         <v>3</v>
       </c>
       <c r="B311" s="1"/>
-      <c r="C311" s="66" t="s">
+      <c r="C311" s="64" t="s">
         <v>25</v>
       </c>
-      <c r="D311" s="67"/>
-      <c r="E311" s="67"/>
-      <c r="F311" s="67"/>
-      <c r="G311" s="67"/>
-      <c r="H311" s="67"/>
-      <c r="I311" s="67"/>
-      <c r="J311" s="67"/>
-      <c r="K311" s="67"/>
+      <c r="D311" s="65"/>
+      <c r="E311" s="65"/>
+      <c r="F311" s="65"/>
+      <c r="G311" s="65"/>
+      <c r="H311" s="65"/>
+      <c r="I311" s="65"/>
+      <c r="J311" s="65"/>
+      <c r="K311" s="65"/>
       <c r="L311" s="6">
         <v>33</v>
       </c>
@@ -12142,17 +12142,17 @@
         <v>4</v>
       </c>
       <c r="B312" s="1"/>
-      <c r="C312" s="67" t="s">
+      <c r="C312" s="65" t="s">
         <v>26</v>
       </c>
-      <c r="D312" s="67"/>
-      <c r="E312" s="67"/>
-      <c r="F312" s="67"/>
-      <c r="G312" s="67"/>
-      <c r="H312" s="67"/>
-      <c r="I312" s="67"/>
-      <c r="J312" s="67"/>
-      <c r="K312" s="67"/>
+      <c r="D312" s="65"/>
+      <c r="E312" s="65"/>
+      <c r="F312" s="65"/>
+      <c r="G312" s="65"/>
+      <c r="H312" s="65"/>
+      <c r="I312" s="65"/>
+      <c r="J312" s="65"/>
+      <c r="K312" s="65"/>
       <c r="L312" s="6">
         <v>33</v>
       </c>
@@ -12175,17 +12175,17 @@
         <v>5</v>
       </c>
       <c r="B313" s="1"/>
-      <c r="C313" s="66" t="s">
+      <c r="C313" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="D313" s="67"/>
-      <c r="E313" s="67"/>
-      <c r="F313" s="67"/>
-      <c r="G313" s="67"/>
-      <c r="H313" s="67"/>
-      <c r="I313" s="67"/>
-      <c r="J313" s="67"/>
-      <c r="K313" s="67"/>
+      <c r="D313" s="65"/>
+      <c r="E313" s="65"/>
+      <c r="F313" s="65"/>
+      <c r="G313" s="65"/>
+      <c r="H313" s="65"/>
+      <c r="I313" s="65"/>
+      <c r="J313" s="65"/>
+      <c r="K313" s="65"/>
       <c r="L313" s="6">
         <v>33</v>
       </c>
@@ -12208,17 +12208,17 @@
         <v>6</v>
       </c>
       <c r="B314" s="1"/>
-      <c r="C314" s="66" t="s">
+      <c r="C314" s="64" t="s">
         <v>67</v>
       </c>
-      <c r="D314" s="67"/>
-      <c r="E314" s="67"/>
-      <c r="F314" s="67"/>
-      <c r="G314" s="67"/>
-      <c r="H314" s="67"/>
-      <c r="I314" s="67"/>
-      <c r="J314" s="67"/>
-      <c r="K314" s="67"/>
+      <c r="D314" s="65"/>
+      <c r="E314" s="65"/>
+      <c r="F314" s="65"/>
+      <c r="G314" s="65"/>
+      <c r="H314" s="65"/>
+      <c r="I314" s="65"/>
+      <c r="J314" s="65"/>
+      <c r="K314" s="65"/>
       <c r="L314" s="6">
         <v>33</v>
       </c>
@@ -12241,20 +12241,20 @@
         <v>7</v>
       </c>
       <c r="B315" s="1"/>
-      <c r="C315" s="60" t="s">
+      <c r="C315" s="66" t="s">
         <v>58</v>
       </c>
-      <c r="D315" s="61"/>
-      <c r="E315" s="61"/>
-      <c r="F315" s="61"/>
-      <c r="G315" s="61"/>
-      <c r="H315" s="61"/>
-      <c r="I315" s="61"/>
-      <c r="J315" s="61"/>
-      <c r="K315" s="61"/>
-      <c r="L315" s="61"/>
-      <c r="M315" s="61"/>
-      <c r="N315" s="62"/>
+      <c r="D315" s="67"/>
+      <c r="E315" s="67"/>
+      <c r="F315" s="67"/>
+      <c r="G315" s="67"/>
+      <c r="H315" s="67"/>
+      <c r="I315" s="67"/>
+      <c r="J315" s="67"/>
+      <c r="K315" s="67"/>
+      <c r="L315" s="67"/>
+      <c r="M315" s="67"/>
+      <c r="N315" s="68"/>
       <c r="O315" s="11"/>
       <c r="P315" s="12" t="e">
         <f>AVERAGE(P309:P314)</f>
@@ -12274,25 +12274,25 @@
       <c r="B316" s="1"/>
     </row>
     <row r="317" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A317" s="72" t="s">
+      <c r="A317" s="81" t="s">
         <v>28</v>
       </c>
-      <c r="B317" s="72"/>
-      <c r="C317" s="72"/>
-      <c r="D317" s="72"/>
-      <c r="E317" s="72"/>
-      <c r="F317" s="72"/>
-      <c r="G317" s="72"/>
-      <c r="H317" s="72"/>
-      <c r="I317" s="72"/>
-      <c r="J317" s="72"/>
-      <c r="K317" s="72"/>
-      <c r="L317" s="72"/>
-      <c r="M317" s="72"/>
-      <c r="N317" s="72"/>
-      <c r="O317" s="72"/>
-      <c r="P317" s="72"/>
-      <c r="Q317" s="72"/>
+      <c r="B317" s="81"/>
+      <c r="C317" s="81"/>
+      <c r="D317" s="81"/>
+      <c r="E317" s="81"/>
+      <c r="F317" s="81"/>
+      <c r="G317" s="81"/>
+      <c r="H317" s="81"/>
+      <c r="I317" s="81"/>
+      <c r="J317" s="81"/>
+      <c r="K317" s="81"/>
+      <c r="L317" s="81"/>
+      <c r="M317" s="81"/>
+      <c r="N317" s="81"/>
+      <c r="O317" s="81"/>
+      <c r="P317" s="81"/>
+      <c r="Q317" s="81"/>
       <c r="R317"/>
     </row>
     <row r="318" spans="1:21" x14ac:dyDescent="0.3">
@@ -12300,10 +12300,10 @@
         <v>1</v>
       </c>
       <c r="B318" s="16"/>
-      <c r="C318" s="68" t="s">
+      <c r="C318" s="80" t="s">
         <v>68</v>
       </c>
-      <c r="D318" s="68"/>
+      <c r="D318" s="80"/>
       <c r="E318" s="17" t="s">
         <v>69</v>
       </c>
@@ -12350,10 +12350,10 @@
         <v>1</v>
       </c>
       <c r="B319" s="14"/>
-      <c r="C319" s="57" t="s">
+      <c r="C319" s="63" t="s">
         <v>84</v>
       </c>
-      <c r="D319" s="57"/>
+      <c r="D319" s="63"/>
       <c r="E319" s="25"/>
       <c r="F319" s="26"/>
       <c r="G319" s="27"/>
@@ -12374,10 +12374,10 @@
         <v>2</v>
       </c>
       <c r="B320" s="14"/>
-      <c r="C320" s="57" t="s">
+      <c r="C320" s="63" t="s">
         <v>85</v>
       </c>
-      <c r="D320" s="57"/>
+      <c r="D320" s="63"/>
       <c r="E320" s="25"/>
       <c r="F320" s="26"/>
       <c r="G320" s="27"/>
@@ -12398,10 +12398,10 @@
         <v>3</v>
       </c>
       <c r="B321" s="14"/>
-      <c r="C321" s="57" t="s">
+      <c r="C321" s="63" t="s">
         <v>86</v>
       </c>
-      <c r="D321" s="57"/>
+      <c r="D321" s="63"/>
       <c r="E321" s="25"/>
       <c r="F321" s="26"/>
       <c r="G321" s="27"/>
@@ -12422,10 +12422,10 @@
         <v>4</v>
       </c>
       <c r="B322" s="14"/>
-      <c r="C322" s="57" t="s">
+      <c r="C322" s="63" t="s">
         <v>87</v>
       </c>
-      <c r="D322" s="57"/>
+      <c r="D322" s="63"/>
       <c r="E322" s="25"/>
       <c r="F322" s="26"/>
       <c r="G322" s="27"/>
@@ -12446,10 +12446,10 @@
         <v>5</v>
       </c>
       <c r="B323" s="14"/>
-      <c r="C323" s="57" t="s">
+      <c r="C323" s="63" t="s">
         <v>90</v>
       </c>
-      <c r="D323" s="57"/>
+      <c r="D323" s="63"/>
       <c r="E323" s="25"/>
       <c r="F323" s="26"/>
       <c r="G323" s="27"/>
@@ -12470,10 +12470,10 @@
         <v>6</v>
       </c>
       <c r="B324" s="14"/>
-      <c r="C324" s="57" t="s">
+      <c r="C324" s="63" t="s">
         <v>91</v>
       </c>
-      <c r="D324" s="57"/>
+      <c r="D324" s="63"/>
       <c r="E324" s="25"/>
       <c r="F324" s="26"/>
       <c r="G324" s="27"/>
@@ -12494,10 +12494,10 @@
         <v>7</v>
       </c>
       <c r="B325" s="14"/>
-      <c r="C325" s="57" t="s">
+      <c r="C325" s="63" t="s">
         <v>92</v>
       </c>
-      <c r="D325" s="57"/>
+      <c r="D325" s="63"/>
       <c r="E325" s="25"/>
       <c r="F325" s="26"/>
       <c r="G325" s="27"/>
@@ -12518,10 +12518,10 @@
         <v>8</v>
       </c>
       <c r="B326" s="14"/>
-      <c r="C326" s="57" t="s">
+      <c r="C326" s="63" t="s">
         <v>93</v>
       </c>
-      <c r="D326" s="57"/>
+      <c r="D326" s="63"/>
       <c r="E326" s="25"/>
       <c r="F326" s="26"/>
       <c r="G326" s="27"/>
@@ -12540,52 +12540,52 @@
     <row r="327" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A327" s="14"/>
       <c r="B327" s="14"/>
-      <c r="C327" s="58" t="s">
+      <c r="C327" s="74" t="s">
         <v>98</v>
       </c>
-      <c r="D327" s="58"/>
+      <c r="D327" s="74"/>
       <c r="E327" s="25" t="e">
-        <f t="shared" ref="E327:O327" si="25">AVERAGE(E319:E326)</f>
+        <f t="shared" ref="E327:O327" si="24">AVERAGE(E319:E326)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F327" s="26" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G327" s="27" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H327" s="35" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I327" s="29" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J327" s="30" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K327" s="37" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L327" s="31" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M327" s="32" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N327" s="32" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O327" s="33" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P327" s="29"/>
@@ -12599,25 +12599,25 @@
       <c r="R329"/>
     </row>
     <row r="330" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A330" s="75" t="s">
+      <c r="A330" s="79" t="s">
         <v>99</v>
       </c>
-      <c r="B330" s="75"/>
-      <c r="C330" s="75"/>
-      <c r="D330" s="75"/>
-      <c r="E330" s="75"/>
-      <c r="F330" s="75"/>
-      <c r="G330" s="75"/>
-      <c r="H330" s="75"/>
-      <c r="I330" s="75"/>
-      <c r="J330" s="75"/>
-      <c r="K330" s="75"/>
-      <c r="L330" s="75"/>
-      <c r="M330" s="75"/>
-      <c r="N330" s="75"/>
-      <c r="O330" s="75"/>
-      <c r="P330" s="75"/>
-      <c r="Q330" s="75"/>
+      <c r="B330" s="79"/>
+      <c r="C330" s="79"/>
+      <c r="D330" s="79"/>
+      <c r="E330" s="79"/>
+      <c r="F330" s="79"/>
+      <c r="G330" s="79"/>
+      <c r="H330" s="79"/>
+      <c r="I330" s="79"/>
+      <c r="J330" s="79"/>
+      <c r="K330" s="79"/>
+      <c r="L330" s="79"/>
+      <c r="M330" s="79"/>
+      <c r="N330" s="79"/>
+      <c r="O330" s="79"/>
+      <c r="P330" s="79"/>
+      <c r="Q330" s="79"/>
       <c r="R330"/>
     </row>
     <row r="331" spans="1:18" x14ac:dyDescent="0.3">
@@ -12625,10 +12625,10 @@
         <v>1</v>
       </c>
       <c r="B331" s="16"/>
-      <c r="C331" s="68" t="s">
+      <c r="C331" s="80" t="s">
         <v>68</v>
       </c>
-      <c r="D331" s="68"/>
+      <c r="D331" s="80"/>
       <c r="E331" s="17" t="s">
         <v>69</v>
       </c>
@@ -12675,10 +12675,10 @@
         <v>1</v>
       </c>
       <c r="B332" s="14"/>
-      <c r="C332" s="57" t="s">
+      <c r="C332" s="63" t="s">
         <v>94</v>
       </c>
-      <c r="D332" s="57"/>
+      <c r="D332" s="63"/>
       <c r="E332" s="25"/>
       <c r="F332" s="26"/>
       <c r="G332" s="27"/>
@@ -12699,10 +12699,10 @@
         <v>2</v>
       </c>
       <c r="B333" s="14"/>
-      <c r="C333" s="57" t="s">
+      <c r="C333" s="63" t="s">
         <v>95</v>
       </c>
-      <c r="D333" s="57"/>
+      <c r="D333" s="63"/>
       <c r="E333" s="25"/>
       <c r="F333" s="26"/>
       <c r="G333" s="27"/>
@@ -12723,10 +12723,10 @@
         <v>3</v>
       </c>
       <c r="B334" s="14"/>
-      <c r="C334" s="57" t="s">
+      <c r="C334" s="63" t="s">
         <v>96</v>
       </c>
-      <c r="D334" s="57"/>
+      <c r="D334" s="63"/>
       <c r="E334" s="25"/>
       <c r="F334" s="26"/>
       <c r="G334" s="27"/>
@@ -12746,10 +12746,10 @@
         <v>4</v>
       </c>
       <c r="B335" s="14"/>
-      <c r="C335" s="57" t="s">
+      <c r="C335" s="63" t="s">
         <v>97</v>
       </c>
-      <c r="D335" s="57"/>
+      <c r="D335" s="63"/>
       <c r="E335" s="25"/>
       <c r="F335" s="26"/>
       <c r="G335" s="27"/>
@@ -12765,10 +12765,10 @@
       <c r="Q335" s="29"/>
     </row>
     <row r="336" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="C336" s="58" t="s">
+      <c r="C336" s="74" t="s">
         <v>98</v>
       </c>
-      <c r="D336" s="58"/>
+      <c r="D336" s="74"/>
       <c r="E336" s="25"/>
       <c r="F336" s="26"/>
       <c r="G336" s="27"/>
@@ -12785,30 +12785,241 @@
     </row>
   </sheetData>
   <mergeCells count="283">
-    <mergeCell ref="C179:K179"/>
-    <mergeCell ref="C178:K178"/>
-    <mergeCell ref="C176:K176"/>
-    <mergeCell ref="C177:K177"/>
+    <mergeCell ref="C233:D233"/>
+    <mergeCell ref="A1:V1"/>
+    <mergeCell ref="C163:D163"/>
+    <mergeCell ref="C164:D164"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="A84:W86"/>
+    <mergeCell ref="C132:N132"/>
+    <mergeCell ref="A134:R134"/>
+    <mergeCell ref="C139:K139"/>
+    <mergeCell ref="C140:K140"/>
+    <mergeCell ref="C141:K141"/>
+    <mergeCell ref="C142:K142"/>
+    <mergeCell ref="C159:D159"/>
+    <mergeCell ref="C160:D160"/>
+    <mergeCell ref="C161:D161"/>
+    <mergeCell ref="C162:D162"/>
+    <mergeCell ref="A87:R87"/>
+    <mergeCell ref="C110:K110"/>
+    <mergeCell ref="C111:K111"/>
+    <mergeCell ref="C112:K112"/>
+    <mergeCell ref="C113:K113"/>
+    <mergeCell ref="A145:Q145"/>
+    <mergeCell ref="C138:K138"/>
+    <mergeCell ref="C143:N143"/>
+    <mergeCell ref="C128:K128"/>
+    <mergeCell ref="C129:K129"/>
+    <mergeCell ref="C130:K130"/>
+    <mergeCell ref="C131:K131"/>
+    <mergeCell ref="C122:K122"/>
+    <mergeCell ref="C123:K123"/>
+    <mergeCell ref="C124:K124"/>
+    <mergeCell ref="C125:K125"/>
+    <mergeCell ref="C126:K126"/>
+    <mergeCell ref="C127:K127"/>
+    <mergeCell ref="C136:K136"/>
+    <mergeCell ref="C137:K137"/>
+    <mergeCell ref="C151:D151"/>
+    <mergeCell ref="C155:D155"/>
+    <mergeCell ref="C152:D152"/>
+    <mergeCell ref="C153:D153"/>
+    <mergeCell ref="C154:D154"/>
+    <mergeCell ref="A158:Q158"/>
+    <mergeCell ref="C146:D146"/>
+    <mergeCell ref="C147:D147"/>
+    <mergeCell ref="C148:D148"/>
+    <mergeCell ref="C149:D149"/>
+    <mergeCell ref="C150:D150"/>
+    <mergeCell ref="C119:K119"/>
+    <mergeCell ref="C120:K120"/>
+    <mergeCell ref="C121:K121"/>
+    <mergeCell ref="A117:R117"/>
+    <mergeCell ref="C103:K103"/>
+    <mergeCell ref="C104:K104"/>
+    <mergeCell ref="C105:K105"/>
+    <mergeCell ref="C106:K106"/>
+    <mergeCell ref="C107:K107"/>
+    <mergeCell ref="C108:K108"/>
+    <mergeCell ref="C109:K109"/>
+    <mergeCell ref="C114:N114"/>
+    <mergeCell ref="C89:K89"/>
+    <mergeCell ref="C90:K90"/>
+    <mergeCell ref="C97:K97"/>
+    <mergeCell ref="C98:K98"/>
+    <mergeCell ref="C99:K99"/>
+    <mergeCell ref="C100:K100"/>
+    <mergeCell ref="C101:K101"/>
+    <mergeCell ref="C102:K102"/>
+    <mergeCell ref="C91:K91"/>
+    <mergeCell ref="C92:K92"/>
+    <mergeCell ref="C93:K93"/>
+    <mergeCell ref="C94:K94"/>
+    <mergeCell ref="C95:K95"/>
+    <mergeCell ref="C96:K96"/>
+    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="A60:Q60"/>
+    <mergeCell ref="A73:Q73"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="C39:K39"/>
+    <mergeCell ref="C40:K40"/>
+    <mergeCell ref="C41:K41"/>
+    <mergeCell ref="C25:K25"/>
+    <mergeCell ref="C26:K26"/>
+    <mergeCell ref="C27:K27"/>
+    <mergeCell ref="C28:K28"/>
+    <mergeCell ref="C58:N58"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="C56:K56"/>
+    <mergeCell ref="C57:K57"/>
+    <mergeCell ref="C29:N29"/>
+    <mergeCell ref="C54:K54"/>
+    <mergeCell ref="C55:K55"/>
+    <mergeCell ref="C51:K51"/>
+    <mergeCell ref="C52:K52"/>
+    <mergeCell ref="C53:K53"/>
+    <mergeCell ref="C42:K42"/>
+    <mergeCell ref="C43:K43"/>
+    <mergeCell ref="C47:N47"/>
+    <mergeCell ref="A49:R49"/>
+    <mergeCell ref="C44:K44"/>
+    <mergeCell ref="C45:K45"/>
+    <mergeCell ref="C46:K46"/>
+    <mergeCell ref="C21:K21"/>
+    <mergeCell ref="C22:K22"/>
+    <mergeCell ref="A32:R32"/>
+    <mergeCell ref="A2:R2"/>
+    <mergeCell ref="C34:K34"/>
+    <mergeCell ref="C35:K35"/>
+    <mergeCell ref="C36:K36"/>
+    <mergeCell ref="C37:K37"/>
+    <mergeCell ref="C38:K38"/>
+    <mergeCell ref="C180:K180"/>
+    <mergeCell ref="C181:K181"/>
+    <mergeCell ref="C182:K182"/>
+    <mergeCell ref="A170:W172"/>
+    <mergeCell ref="A173:R173"/>
+    <mergeCell ref="C4:K4"/>
+    <mergeCell ref="C5:K5"/>
+    <mergeCell ref="C6:K6"/>
+    <mergeCell ref="C23:K23"/>
+    <mergeCell ref="C24:K24"/>
+    <mergeCell ref="C13:K13"/>
+    <mergeCell ref="C14:K14"/>
+    <mergeCell ref="C15:K15"/>
+    <mergeCell ref="C16:K16"/>
+    <mergeCell ref="C17:K17"/>
+    <mergeCell ref="C18:K18"/>
+    <mergeCell ref="C7:K7"/>
+    <mergeCell ref="C8:K8"/>
+    <mergeCell ref="C9:K9"/>
+    <mergeCell ref="C10:K10"/>
+    <mergeCell ref="C11:K11"/>
+    <mergeCell ref="C12:K12"/>
+    <mergeCell ref="C19:K19"/>
+    <mergeCell ref="C20:K20"/>
+    <mergeCell ref="C183:K183"/>
+    <mergeCell ref="C186:K186"/>
+    <mergeCell ref="C187:K187"/>
+    <mergeCell ref="C184:K184"/>
+    <mergeCell ref="C185:K185"/>
+    <mergeCell ref="C196:K196"/>
+    <mergeCell ref="C197:K197"/>
+    <mergeCell ref="C198:K198"/>
+    <mergeCell ref="C199:K199"/>
+    <mergeCell ref="C188:K188"/>
+    <mergeCell ref="C189:K189"/>
+    <mergeCell ref="C190:K190"/>
+    <mergeCell ref="C191:K191"/>
+    <mergeCell ref="C192:K192"/>
     <mergeCell ref="C193:K193"/>
-    <mergeCell ref="C192:K192"/>
-    <mergeCell ref="C175:K175"/>
-    <mergeCell ref="C332:D332"/>
-    <mergeCell ref="C333:D333"/>
-    <mergeCell ref="C320:D320"/>
-    <mergeCell ref="C300:K300"/>
-    <mergeCell ref="C301:K301"/>
-    <mergeCell ref="C302:K302"/>
-    <mergeCell ref="C303:K303"/>
-    <mergeCell ref="C304:N304"/>
-    <mergeCell ref="A306:R306"/>
-    <mergeCell ref="C308:K308"/>
-    <mergeCell ref="C309:K309"/>
-    <mergeCell ref="C310:K310"/>
-    <mergeCell ref="C291:K291"/>
-    <mergeCell ref="C292:K292"/>
-    <mergeCell ref="C293:K293"/>
-    <mergeCell ref="C294:K294"/>
-    <mergeCell ref="C295:K295"/>
+    <mergeCell ref="C200:N200"/>
+    <mergeCell ref="A203:R203"/>
+    <mergeCell ref="C205:K205"/>
+    <mergeCell ref="C206:K206"/>
+    <mergeCell ref="C207:K207"/>
+    <mergeCell ref="C208:K208"/>
+    <mergeCell ref="C209:K209"/>
+    <mergeCell ref="C210:K210"/>
+    <mergeCell ref="C211:K211"/>
+    <mergeCell ref="C212:K212"/>
+    <mergeCell ref="C213:K213"/>
+    <mergeCell ref="C214:K214"/>
+    <mergeCell ref="C215:K215"/>
+    <mergeCell ref="C216:K216"/>
+    <mergeCell ref="C217:K217"/>
+    <mergeCell ref="C218:N218"/>
+    <mergeCell ref="A220:R220"/>
+    <mergeCell ref="C222:K222"/>
+    <mergeCell ref="C223:K223"/>
+    <mergeCell ref="C224:K224"/>
+    <mergeCell ref="C225:K225"/>
+    <mergeCell ref="C226:K226"/>
+    <mergeCell ref="C227:K227"/>
+    <mergeCell ref="C228:K228"/>
+    <mergeCell ref="C229:N229"/>
+    <mergeCell ref="A231:Q231"/>
+    <mergeCell ref="C232:D232"/>
+    <mergeCell ref="C234:D234"/>
+    <mergeCell ref="C235:D235"/>
+    <mergeCell ref="C236:D236"/>
+    <mergeCell ref="C237:D237"/>
+    <mergeCell ref="C238:D238"/>
+    <mergeCell ref="C239:D239"/>
+    <mergeCell ref="C240:D240"/>
+    <mergeCell ref="C241:D241"/>
+    <mergeCell ref="C242:D242"/>
+    <mergeCell ref="C262:K262"/>
+    <mergeCell ref="C263:K263"/>
+    <mergeCell ref="C264:K264"/>
+    <mergeCell ref="C265:K265"/>
+    <mergeCell ref="C266:K266"/>
+    <mergeCell ref="C267:K267"/>
+    <mergeCell ref="C268:K268"/>
+    <mergeCell ref="C269:K269"/>
+    <mergeCell ref="A245:Q245"/>
+    <mergeCell ref="C246:D246"/>
+    <mergeCell ref="C247:D247"/>
+    <mergeCell ref="C248:D248"/>
+    <mergeCell ref="C249:D249"/>
+    <mergeCell ref="C250:D250"/>
+    <mergeCell ref="C251:D251"/>
+    <mergeCell ref="C270:K270"/>
+    <mergeCell ref="C271:K271"/>
+    <mergeCell ref="C272:K272"/>
+    <mergeCell ref="C273:K273"/>
+    <mergeCell ref="C274:K274"/>
+    <mergeCell ref="C275:K275"/>
+    <mergeCell ref="C276:K276"/>
+    <mergeCell ref="C277:K277"/>
+    <mergeCell ref="C278:K278"/>
+    <mergeCell ref="C296:K296"/>
+    <mergeCell ref="C297:K297"/>
+    <mergeCell ref="C298:K298"/>
+    <mergeCell ref="C299:K299"/>
+    <mergeCell ref="C279:K279"/>
+    <mergeCell ref="C280:K280"/>
+    <mergeCell ref="C281:K281"/>
+    <mergeCell ref="C282:K282"/>
+    <mergeCell ref="C283:K283"/>
+    <mergeCell ref="C284:K284"/>
+    <mergeCell ref="C285:K285"/>
+    <mergeCell ref="A289:R289"/>
     <mergeCell ref="C334:D334"/>
     <mergeCell ref="C335:D335"/>
     <mergeCell ref="C336:D336"/>
@@ -12833,241 +13044,30 @@
     <mergeCell ref="A317:Q317"/>
     <mergeCell ref="C318:D318"/>
     <mergeCell ref="C319:D319"/>
-    <mergeCell ref="C296:K296"/>
-    <mergeCell ref="C297:K297"/>
-    <mergeCell ref="C298:K298"/>
-    <mergeCell ref="C299:K299"/>
-    <mergeCell ref="C279:K279"/>
-    <mergeCell ref="C280:K280"/>
-    <mergeCell ref="C281:K281"/>
-    <mergeCell ref="C282:K282"/>
-    <mergeCell ref="C283:K283"/>
-    <mergeCell ref="C284:K284"/>
-    <mergeCell ref="C285:K285"/>
-    <mergeCell ref="A289:R289"/>
-    <mergeCell ref="C270:K270"/>
-    <mergeCell ref="C271:K271"/>
-    <mergeCell ref="C272:K272"/>
-    <mergeCell ref="C273:K273"/>
-    <mergeCell ref="C274:K274"/>
-    <mergeCell ref="C275:K275"/>
-    <mergeCell ref="C276:K276"/>
-    <mergeCell ref="C277:K277"/>
-    <mergeCell ref="C278:K278"/>
-    <mergeCell ref="C262:K262"/>
-    <mergeCell ref="C263:K263"/>
-    <mergeCell ref="C264:K264"/>
-    <mergeCell ref="C265:K265"/>
-    <mergeCell ref="C266:K266"/>
-    <mergeCell ref="C267:K267"/>
-    <mergeCell ref="C268:K268"/>
-    <mergeCell ref="C269:K269"/>
-    <mergeCell ref="A245:Q245"/>
-    <mergeCell ref="C246:D246"/>
-    <mergeCell ref="C247:D247"/>
-    <mergeCell ref="C248:D248"/>
-    <mergeCell ref="C249:D249"/>
-    <mergeCell ref="C250:D250"/>
-    <mergeCell ref="C251:D251"/>
-    <mergeCell ref="C234:D234"/>
-    <mergeCell ref="C235:D235"/>
-    <mergeCell ref="C236:D236"/>
-    <mergeCell ref="C237:D237"/>
-    <mergeCell ref="C238:D238"/>
-    <mergeCell ref="C239:D239"/>
-    <mergeCell ref="C240:D240"/>
-    <mergeCell ref="C241:D241"/>
-    <mergeCell ref="C242:D242"/>
-    <mergeCell ref="C223:K223"/>
-    <mergeCell ref="C224:K224"/>
-    <mergeCell ref="C225:K225"/>
-    <mergeCell ref="C226:K226"/>
-    <mergeCell ref="C227:K227"/>
-    <mergeCell ref="C228:K228"/>
-    <mergeCell ref="C229:N229"/>
-    <mergeCell ref="A231:Q231"/>
-    <mergeCell ref="C232:D232"/>
-    <mergeCell ref="C212:K212"/>
-    <mergeCell ref="C213:K213"/>
-    <mergeCell ref="C214:K214"/>
-    <mergeCell ref="C215:K215"/>
-    <mergeCell ref="C216:K216"/>
-    <mergeCell ref="C217:K217"/>
-    <mergeCell ref="C218:N218"/>
-    <mergeCell ref="A220:R220"/>
-    <mergeCell ref="C222:K222"/>
-    <mergeCell ref="C200:N200"/>
-    <mergeCell ref="A203:R203"/>
-    <mergeCell ref="C205:K205"/>
-    <mergeCell ref="C206:K206"/>
-    <mergeCell ref="C207:K207"/>
-    <mergeCell ref="C208:K208"/>
-    <mergeCell ref="C209:K209"/>
-    <mergeCell ref="C210:K210"/>
-    <mergeCell ref="C211:K211"/>
-    <mergeCell ref="C183:K183"/>
-    <mergeCell ref="C186:K186"/>
-    <mergeCell ref="C187:K187"/>
-    <mergeCell ref="C184:K184"/>
-    <mergeCell ref="C185:K185"/>
-    <mergeCell ref="C196:K196"/>
-    <mergeCell ref="C197:K197"/>
-    <mergeCell ref="C198:K198"/>
-    <mergeCell ref="C199:K199"/>
-    <mergeCell ref="C188:K188"/>
-    <mergeCell ref="C189:K189"/>
-    <mergeCell ref="C190:K190"/>
-    <mergeCell ref="C191:K191"/>
+    <mergeCell ref="C179:K179"/>
+    <mergeCell ref="C178:K178"/>
+    <mergeCell ref="C176:K176"/>
+    <mergeCell ref="C177:K177"/>
+    <mergeCell ref="C195:K195"/>
     <mergeCell ref="C194:K194"/>
-    <mergeCell ref="C195:K195"/>
-    <mergeCell ref="C180:K180"/>
-    <mergeCell ref="C181:K181"/>
-    <mergeCell ref="C182:K182"/>
-    <mergeCell ref="A170:W172"/>
-    <mergeCell ref="A173:R173"/>
-    <mergeCell ref="C4:K4"/>
-    <mergeCell ref="C5:K5"/>
-    <mergeCell ref="C6:K6"/>
-    <mergeCell ref="C23:K23"/>
-    <mergeCell ref="C24:K24"/>
-    <mergeCell ref="C13:K13"/>
-    <mergeCell ref="C14:K14"/>
-    <mergeCell ref="C15:K15"/>
-    <mergeCell ref="C16:K16"/>
-    <mergeCell ref="C17:K17"/>
-    <mergeCell ref="C18:K18"/>
-    <mergeCell ref="C7:K7"/>
-    <mergeCell ref="C8:K8"/>
-    <mergeCell ref="C9:K9"/>
-    <mergeCell ref="C10:K10"/>
-    <mergeCell ref="C11:K11"/>
-    <mergeCell ref="C12:K12"/>
-    <mergeCell ref="C19:K19"/>
-    <mergeCell ref="C20:K20"/>
-    <mergeCell ref="C21:K21"/>
-    <mergeCell ref="C22:K22"/>
-    <mergeCell ref="A32:R32"/>
-    <mergeCell ref="A2:R2"/>
-    <mergeCell ref="C34:K34"/>
-    <mergeCell ref="C35:K35"/>
-    <mergeCell ref="C36:K36"/>
-    <mergeCell ref="C37:K37"/>
-    <mergeCell ref="C38:K38"/>
-    <mergeCell ref="C39:K39"/>
-    <mergeCell ref="C40:K40"/>
-    <mergeCell ref="C41:K41"/>
-    <mergeCell ref="C25:K25"/>
-    <mergeCell ref="C26:K26"/>
-    <mergeCell ref="C27:K27"/>
-    <mergeCell ref="C28:K28"/>
-    <mergeCell ref="C58:N58"/>
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="C56:K56"/>
-    <mergeCell ref="C57:K57"/>
-    <mergeCell ref="C29:N29"/>
-    <mergeCell ref="C54:K54"/>
-    <mergeCell ref="C55:K55"/>
-    <mergeCell ref="C51:K51"/>
-    <mergeCell ref="C52:K52"/>
-    <mergeCell ref="C53:K53"/>
-    <mergeCell ref="C42:K42"/>
-    <mergeCell ref="C43:K43"/>
-    <mergeCell ref="C47:N47"/>
-    <mergeCell ref="A49:R49"/>
-    <mergeCell ref="C44:K44"/>
-    <mergeCell ref="C45:K45"/>
-    <mergeCell ref="C46:K46"/>
-    <mergeCell ref="C79:D79"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="C81:D81"/>
-    <mergeCell ref="C75:D75"/>
-    <mergeCell ref="C76:D76"/>
-    <mergeCell ref="C77:D77"/>
-    <mergeCell ref="C78:D78"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="A60:Q60"/>
-    <mergeCell ref="A73:Q73"/>
-    <mergeCell ref="C74:D74"/>
-    <mergeCell ref="C67:D67"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="C68:D68"/>
-    <mergeCell ref="C69:D69"/>
-    <mergeCell ref="C89:K89"/>
-    <mergeCell ref="C90:K90"/>
-    <mergeCell ref="C97:K97"/>
-    <mergeCell ref="C98:K98"/>
-    <mergeCell ref="C99:K99"/>
-    <mergeCell ref="C100:K100"/>
-    <mergeCell ref="C101:K101"/>
-    <mergeCell ref="C102:K102"/>
-    <mergeCell ref="C91:K91"/>
-    <mergeCell ref="C92:K92"/>
-    <mergeCell ref="C93:K93"/>
-    <mergeCell ref="C94:K94"/>
-    <mergeCell ref="C95:K95"/>
-    <mergeCell ref="C96:K96"/>
-    <mergeCell ref="C119:K119"/>
-    <mergeCell ref="C120:K120"/>
-    <mergeCell ref="C121:K121"/>
-    <mergeCell ref="A117:R117"/>
-    <mergeCell ref="C103:K103"/>
-    <mergeCell ref="C104:K104"/>
-    <mergeCell ref="C105:K105"/>
-    <mergeCell ref="C106:K106"/>
-    <mergeCell ref="C107:K107"/>
-    <mergeCell ref="C108:K108"/>
-    <mergeCell ref="C109:K109"/>
-    <mergeCell ref="C114:N114"/>
-    <mergeCell ref="C151:D151"/>
-    <mergeCell ref="C155:D155"/>
-    <mergeCell ref="C152:D152"/>
-    <mergeCell ref="C153:D153"/>
-    <mergeCell ref="C154:D154"/>
-    <mergeCell ref="A158:Q158"/>
-    <mergeCell ref="C146:D146"/>
-    <mergeCell ref="C147:D147"/>
-    <mergeCell ref="C148:D148"/>
-    <mergeCell ref="C149:D149"/>
-    <mergeCell ref="C150:D150"/>
-    <mergeCell ref="A145:Q145"/>
-    <mergeCell ref="C138:K138"/>
-    <mergeCell ref="C143:N143"/>
-    <mergeCell ref="C128:K128"/>
-    <mergeCell ref="C129:K129"/>
-    <mergeCell ref="C130:K130"/>
-    <mergeCell ref="C131:K131"/>
-    <mergeCell ref="C122:K122"/>
-    <mergeCell ref="C123:K123"/>
-    <mergeCell ref="C124:K124"/>
-    <mergeCell ref="C125:K125"/>
-    <mergeCell ref="C126:K126"/>
-    <mergeCell ref="C127:K127"/>
-    <mergeCell ref="C136:K136"/>
-    <mergeCell ref="C137:K137"/>
-    <mergeCell ref="C233:D233"/>
-    <mergeCell ref="A1:V1"/>
-    <mergeCell ref="C163:D163"/>
-    <mergeCell ref="C164:D164"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="A84:W86"/>
-    <mergeCell ref="C132:N132"/>
-    <mergeCell ref="A134:R134"/>
-    <mergeCell ref="C139:K139"/>
-    <mergeCell ref="C140:K140"/>
-    <mergeCell ref="C141:K141"/>
-    <mergeCell ref="C142:K142"/>
-    <mergeCell ref="C159:D159"/>
-    <mergeCell ref="C160:D160"/>
-    <mergeCell ref="C161:D161"/>
-    <mergeCell ref="C162:D162"/>
-    <mergeCell ref="A87:R87"/>
-    <mergeCell ref="C110:K110"/>
-    <mergeCell ref="C111:K111"/>
-    <mergeCell ref="C112:K112"/>
-    <mergeCell ref="C113:K113"/>
+    <mergeCell ref="C175:K175"/>
+    <mergeCell ref="C332:D332"/>
+    <mergeCell ref="C333:D333"/>
+    <mergeCell ref="C320:D320"/>
+    <mergeCell ref="C300:K300"/>
+    <mergeCell ref="C301:K301"/>
+    <mergeCell ref="C302:K302"/>
+    <mergeCell ref="C303:K303"/>
+    <mergeCell ref="C304:N304"/>
+    <mergeCell ref="A306:R306"/>
+    <mergeCell ref="C308:K308"/>
+    <mergeCell ref="C309:K309"/>
+    <mergeCell ref="C310:K310"/>
+    <mergeCell ref="C291:K291"/>
+    <mergeCell ref="C292:K292"/>
+    <mergeCell ref="C293:K293"/>
+    <mergeCell ref="C294:K294"/>
+    <mergeCell ref="C295:K295"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="C5:K28">
@@ -15174,7 +15174,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R1:R180 R182:R199 R243:R1048576 R201:R217 R219:R241">
+  <conditionalFormatting sqref="R1:R180 R243:R1048576 R201:R217 R219:R241 R182:R199">
     <cfRule type="cellIs" dxfId="11" priority="19" operator="between">
       <formula>1</formula>
       <formula>10</formula>
@@ -15190,7 +15190,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T1:T199 T201:T1048576">
+  <conditionalFormatting sqref="T201:T1048576 T1:T199">
     <cfRule type="cellIs" dxfId="10" priority="18" operator="equal">
       <formula>"YES"</formula>
     </cfRule>
@@ -15786,103 +15786,103 @@
   </cols>
   <sheetData>
     <row r="4" spans="3:25" x14ac:dyDescent="0.3">
-      <c r="C4" s="59" t="s">
+      <c r="C4" s="75" t="s">
         <v>107</v>
       </c>
-      <c r="D4" s="59"/>
-      <c r="E4" s="59"/>
-      <c r="F4" s="59"/>
-      <c r="G4" s="59"/>
-      <c r="H4" s="59"/>
-      <c r="I4" s="59"/>
-      <c r="J4" s="59"/>
-      <c r="K4" s="59"/>
-      <c r="L4" s="59"/>
-      <c r="M4" s="59"/>
-      <c r="N4" s="59"/>
-      <c r="O4" s="59"/>
-      <c r="P4" s="59"/>
-      <c r="Q4" s="59"/>
-      <c r="R4" s="59"/>
-      <c r="S4" s="59"/>
-      <c r="T4" s="59"/>
-      <c r="U4" s="59"/>
-      <c r="V4" s="59"/>
-      <c r="W4" s="59"/>
-      <c r="X4" s="59"/>
-      <c r="Y4" s="59"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="75"/>
+      <c r="K4" s="75"/>
+      <c r="L4" s="75"/>
+      <c r="M4" s="75"/>
+      <c r="N4" s="75"/>
+      <c r="O4" s="75"/>
+      <c r="P4" s="75"/>
+      <c r="Q4" s="75"/>
+      <c r="R4" s="75"/>
+      <c r="S4" s="75"/>
+      <c r="T4" s="75"/>
+      <c r="U4" s="75"/>
+      <c r="V4" s="75"/>
+      <c r="W4" s="75"/>
+      <c r="X4" s="75"/>
+      <c r="Y4" s="75"/>
     </row>
     <row r="5" spans="3:25" x14ac:dyDescent="0.3">
-      <c r="C5" s="59"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="59"/>
-      <c r="F5" s="59"/>
-      <c r="G5" s="59"/>
-      <c r="H5" s="59"/>
-      <c r="I5" s="59"/>
-      <c r="J5" s="59"/>
-      <c r="K5" s="59"/>
-      <c r="L5" s="59"/>
-      <c r="M5" s="59"/>
-      <c r="N5" s="59"/>
-      <c r="O5" s="59"/>
-      <c r="P5" s="59"/>
-      <c r="Q5" s="59"/>
-      <c r="R5" s="59"/>
-      <c r="S5" s="59"/>
-      <c r="T5" s="59"/>
-      <c r="U5" s="59"/>
-      <c r="V5" s="59"/>
-      <c r="W5" s="59"/>
-      <c r="X5" s="59"/>
-      <c r="Y5" s="59"/>
+      <c r="C5" s="75"/>
+      <c r="D5" s="75"/>
+      <c r="E5" s="75"/>
+      <c r="F5" s="75"/>
+      <c r="G5" s="75"/>
+      <c r="H5" s="75"/>
+      <c r="I5" s="75"/>
+      <c r="J5" s="75"/>
+      <c r="K5" s="75"/>
+      <c r="L5" s="75"/>
+      <c r="M5" s="75"/>
+      <c r="N5" s="75"/>
+      <c r="O5" s="75"/>
+      <c r="P5" s="75"/>
+      <c r="Q5" s="75"/>
+      <c r="R5" s="75"/>
+      <c r="S5" s="75"/>
+      <c r="T5" s="75"/>
+      <c r="U5" s="75"/>
+      <c r="V5" s="75"/>
+      <c r="W5" s="75"/>
+      <c r="X5" s="75"/>
+      <c r="Y5" s="75"/>
     </row>
     <row r="6" spans="3:25" x14ac:dyDescent="0.3">
-      <c r="C6" s="59"/>
-      <c r="D6" s="59"/>
-      <c r="E6" s="59"/>
-      <c r="F6" s="59"/>
-      <c r="G6" s="59"/>
-      <c r="H6" s="59"/>
-      <c r="I6" s="59"/>
-      <c r="J6" s="59"/>
-      <c r="K6" s="59"/>
-      <c r="L6" s="59"/>
-      <c r="M6" s="59"/>
-      <c r="N6" s="59"/>
-      <c r="O6" s="59"/>
-      <c r="P6" s="59"/>
-      <c r="Q6" s="59"/>
-      <c r="R6" s="59"/>
-      <c r="S6" s="59"/>
-      <c r="T6" s="59"/>
-      <c r="U6" s="59"/>
-      <c r="V6" s="59"/>
-      <c r="W6" s="59"/>
-      <c r="X6" s="59"/>
-      <c r="Y6" s="59"/>
+      <c r="C6" s="75"/>
+      <c r="D6" s="75"/>
+      <c r="E6" s="75"/>
+      <c r="F6" s="75"/>
+      <c r="G6" s="75"/>
+      <c r="H6" s="75"/>
+      <c r="I6" s="75"/>
+      <c r="J6" s="75"/>
+      <c r="K6" s="75"/>
+      <c r="L6" s="75"/>
+      <c r="M6" s="75"/>
+      <c r="N6" s="75"/>
+      <c r="O6" s="75"/>
+      <c r="P6" s="75"/>
+      <c r="Q6" s="75"/>
+      <c r="R6" s="75"/>
+      <c r="S6" s="75"/>
+      <c r="T6" s="75"/>
+      <c r="U6" s="75"/>
+      <c r="V6" s="75"/>
+      <c r="W6" s="75"/>
+      <c r="X6" s="75"/>
+      <c r="Y6" s="75"/>
     </row>
     <row r="7" spans="3:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C7" s="69" t="s">
+      <c r="C7" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="D7" s="70"/>
-      <c r="E7" s="70"/>
-      <c r="F7" s="70"/>
-      <c r="G7" s="70"/>
-      <c r="H7" s="70"/>
-      <c r="I7" s="70"/>
-      <c r="J7" s="70"/>
-      <c r="K7" s="70"/>
-      <c r="L7" s="70"/>
-      <c r="M7" s="70"/>
-      <c r="N7" s="70"/>
-      <c r="O7" s="70"/>
-      <c r="P7" s="70"/>
-      <c r="Q7" s="70"/>
-      <c r="R7" s="70"/>
-      <c r="S7" s="70"/>
-      <c r="T7" s="71"/>
+      <c r="D7" s="77"/>
+      <c r="E7" s="77"/>
+      <c r="F7" s="77"/>
+      <c r="G7" s="77"/>
+      <c r="H7" s="77"/>
+      <c r="I7" s="77"/>
+      <c r="J7" s="77"/>
+      <c r="K7" s="77"/>
+      <c r="L7" s="77"/>
+      <c r="M7" s="77"/>
+      <c r="N7" s="77"/>
+      <c r="O7" s="77"/>
+      <c r="P7" s="77"/>
+      <c r="Q7" s="77"/>
+      <c r="R7" s="77"/>
+      <c r="S7" s="77"/>
+      <c r="T7" s="78"/>
       <c r="U7" s="38"/>
       <c r="V7" s="38"/>
       <c r="W7" s="38"/>
@@ -15898,17 +15898,17 @@
       <c r="D9" s="46" t="s">
         <v>105</v>
       </c>
-      <c r="E9" s="73" t="s">
+      <c r="E9" s="72" t="s">
         <v>108</v>
       </c>
-      <c r="F9" s="73"/>
-      <c r="G9" s="73"/>
-      <c r="H9" s="73"/>
-      <c r="I9" s="73"/>
-      <c r="J9" s="73"/>
-      <c r="K9" s="73"/>
-      <c r="L9" s="73"/>
-      <c r="M9" s="73"/>
+      <c r="F9" s="72"/>
+      <c r="G9" s="72"/>
+      <c r="H9" s="72"/>
+      <c r="I9" s="72"/>
+      <c r="J9" s="72"/>
+      <c r="K9" s="72"/>
+      <c r="L9" s="72"/>
+      <c r="M9" s="72"/>
       <c r="N9" s="5" t="s">
         <v>2</v>
       </c>
@@ -15948,17 +15948,17 @@
       <c r="D10" s="44">
         <v>44683</v>
       </c>
-      <c r="E10" s="83" t="s">
+      <c r="E10" s="54" t="s">
         <v>43</v>
       </c>
-      <c r="F10" s="84"/>
-      <c r="G10" s="84"/>
-      <c r="H10" s="84"/>
-      <c r="I10" s="84"/>
-      <c r="J10" s="84"/>
-      <c r="K10" s="84"/>
-      <c r="L10" s="84"/>
-      <c r="M10" s="85"/>
+      <c r="F10" s="55"/>
+      <c r="G10" s="55"/>
+      <c r="H10" s="55"/>
+      <c r="I10" s="55"/>
+      <c r="J10" s="55"/>
+      <c r="K10" s="55"/>
+      <c r="L10" s="55"/>
+      <c r="M10" s="56"/>
       <c r="N10" s="6">
         <v>17</v>
       </c>
@@ -15986,17 +15986,17 @@
       <c r="D11" s="41">
         <v>44684</v>
       </c>
-      <c r="E11" s="87" t="s">
+      <c r="E11" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="F11" s="88"/>
-      <c r="G11" s="88"/>
-      <c r="H11" s="88"/>
-      <c r="I11" s="88"/>
-      <c r="J11" s="88"/>
-      <c r="K11" s="88"/>
-      <c r="L11" s="88"/>
-      <c r="M11" s="89"/>
+      <c r="F11" s="58"/>
+      <c r="G11" s="58"/>
+      <c r="H11" s="58"/>
+      <c r="I11" s="58"/>
+      <c r="J11" s="58"/>
+      <c r="K11" s="58"/>
+      <c r="L11" s="58"/>
+      <c r="M11" s="59"/>
       <c r="N11" s="6">
         <v>17</v>
       </c>
@@ -16024,17 +16024,17 @@
       <c r="D12" s="41">
         <v>44686</v>
       </c>
-      <c r="E12" s="83" t="s">
+      <c r="E12" s="54" t="s">
         <v>39</v>
       </c>
-      <c r="F12" s="84"/>
-      <c r="G12" s="84"/>
-      <c r="H12" s="84"/>
-      <c r="I12" s="84"/>
-      <c r="J12" s="84"/>
-      <c r="K12" s="84"/>
-      <c r="L12" s="84"/>
-      <c r="M12" s="85"/>
+      <c r="F12" s="55"/>
+      <c r="G12" s="55"/>
+      <c r="H12" s="55"/>
+      <c r="I12" s="55"/>
+      <c r="J12" s="55"/>
+      <c r="K12" s="55"/>
+      <c r="L12" s="55"/>
+      <c r="M12" s="56"/>
       <c r="N12" s="6">
         <v>17</v>
       </c>
@@ -16062,17 +16062,17 @@
       <c r="D13" s="41">
         <v>44688</v>
       </c>
-      <c r="E13" s="83" t="s">
+      <c r="E13" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="F13" s="84"/>
-      <c r="G13" s="84"/>
-      <c r="H13" s="84"/>
-      <c r="I13" s="84"/>
-      <c r="J13" s="84"/>
-      <c r="K13" s="84"/>
-      <c r="L13" s="84"/>
-      <c r="M13" s="85"/>
+      <c r="F13" s="55"/>
+      <c r="G13" s="55"/>
+      <c r="H13" s="55"/>
+      <c r="I13" s="55"/>
+      <c r="J13" s="55"/>
+      <c r="K13" s="55"/>
+      <c r="L13" s="55"/>
+      <c r="M13" s="56"/>
       <c r="N13" s="6">
         <v>17</v>
       </c>
@@ -16100,17 +16100,17 @@
       <c r="D14" s="41">
         <v>44696</v>
       </c>
-      <c r="E14" s="87" t="s">
+      <c r="E14" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="F14" s="88"/>
-      <c r="G14" s="88"/>
-      <c r="H14" s="88"/>
-      <c r="I14" s="88"/>
-      <c r="J14" s="88"/>
-      <c r="K14" s="88"/>
-      <c r="L14" s="88"/>
-      <c r="M14" s="89"/>
+      <c r="F14" s="58"/>
+      <c r="G14" s="58"/>
+      <c r="H14" s="58"/>
+      <c r="I14" s="58"/>
+      <c r="J14" s="58"/>
+      <c r="K14" s="58"/>
+      <c r="L14" s="58"/>
+      <c r="M14" s="59"/>
       <c r="N14" s="6">
         <v>17</v>
       </c>
@@ -16138,17 +16138,17 @@
       <c r="D15" s="41">
         <v>44700</v>
       </c>
-      <c r="E15" s="83" t="s">
+      <c r="E15" s="54" t="s">
         <v>33</v>
       </c>
-      <c r="F15" s="84"/>
-      <c r="G15" s="84"/>
-      <c r="H15" s="84"/>
-      <c r="I15" s="84"/>
-      <c r="J15" s="84"/>
-      <c r="K15" s="84"/>
-      <c r="L15" s="84"/>
-      <c r="M15" s="85"/>
+      <c r="F15" s="55"/>
+      <c r="G15" s="55"/>
+      <c r="H15" s="55"/>
+      <c r="I15" s="55"/>
+      <c r="J15" s="55"/>
+      <c r="K15" s="55"/>
+      <c r="L15" s="55"/>
+      <c r="M15" s="56"/>
       <c r="N15" s="6">
         <v>17</v>
       </c>
@@ -16176,17 +16176,17 @@
       <c r="D16" s="41">
         <v>44703</v>
       </c>
-      <c r="E16" s="87" t="s">
+      <c r="E16" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="F16" s="88"/>
-      <c r="G16" s="88"/>
-      <c r="H16" s="88"/>
-      <c r="I16" s="88"/>
-      <c r="J16" s="88"/>
-      <c r="K16" s="88"/>
-      <c r="L16" s="88"/>
-      <c r="M16" s="89"/>
+      <c r="F16" s="58"/>
+      <c r="G16" s="58"/>
+      <c r="H16" s="58"/>
+      <c r="I16" s="58"/>
+      <c r="J16" s="58"/>
+      <c r="K16" s="58"/>
+      <c r="L16" s="58"/>
+      <c r="M16" s="59"/>
       <c r="N16" s="6">
         <v>17</v>
       </c>
@@ -16214,17 +16214,17 @@
       <c r="D17" s="41">
         <v>44707</v>
       </c>
-      <c r="E17" s="87" t="s">
+      <c r="E17" s="57" t="s">
         <v>44</v>
       </c>
-      <c r="F17" s="88"/>
-      <c r="G17" s="88"/>
-      <c r="H17" s="88"/>
-      <c r="I17" s="88"/>
-      <c r="J17" s="88"/>
-      <c r="K17" s="88"/>
-      <c r="L17" s="88"/>
-      <c r="M17" s="89"/>
+      <c r="F17" s="58"/>
+      <c r="G17" s="58"/>
+      <c r="H17" s="58"/>
+      <c r="I17" s="58"/>
+      <c r="J17" s="58"/>
+      <c r="K17" s="58"/>
+      <c r="L17" s="58"/>
+      <c r="M17" s="59"/>
       <c r="N17" s="6">
         <v>17</v>
       </c>
@@ -16249,17 +16249,17 @@
       <c r="D18" s="41">
         <v>44712</v>
       </c>
-      <c r="E18" s="83" t="s">
+      <c r="E18" s="54" t="s">
         <v>34</v>
       </c>
-      <c r="F18" s="84"/>
-      <c r="G18" s="84"/>
-      <c r="H18" s="84"/>
-      <c r="I18" s="84"/>
-      <c r="J18" s="84"/>
-      <c r="K18" s="84"/>
-      <c r="L18" s="84"/>
-      <c r="M18" s="85"/>
+      <c r="F18" s="55"/>
+      <c r="G18" s="55"/>
+      <c r="H18" s="55"/>
+      <c r="I18" s="55"/>
+      <c r="J18" s="55"/>
+      <c r="K18" s="55"/>
+      <c r="L18" s="55"/>
+      <c r="M18" s="56"/>
       <c r="N18" s="6">
         <v>17</v>
       </c>
@@ -16284,17 +16284,17 @@
       <c r="D19" s="41">
         <v>44717</v>
       </c>
-      <c r="E19" s="87" t="s">
+      <c r="E19" s="57" t="s">
         <v>35</v>
       </c>
-      <c r="F19" s="88"/>
-      <c r="G19" s="88"/>
-      <c r="H19" s="88"/>
-      <c r="I19" s="88"/>
-      <c r="J19" s="88"/>
-      <c r="K19" s="88"/>
-      <c r="L19" s="88"/>
-      <c r="M19" s="89"/>
+      <c r="F19" s="58"/>
+      <c r="G19" s="58"/>
+      <c r="H19" s="58"/>
+      <c r="I19" s="58"/>
+      <c r="J19" s="58"/>
+      <c r="K19" s="58"/>
+      <c r="L19" s="58"/>
+      <c r="M19" s="59"/>
       <c r="N19" s="6">
         <v>17</v>
       </c>
@@ -16322,17 +16322,17 @@
       <c r="D20" s="41">
         <v>44722</v>
       </c>
-      <c r="E20" s="83" t="s">
+      <c r="E20" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="F20" s="84"/>
-      <c r="G20" s="84"/>
-      <c r="H20" s="84"/>
-      <c r="I20" s="84"/>
-      <c r="J20" s="84"/>
-      <c r="K20" s="84"/>
-      <c r="L20" s="84"/>
-      <c r="M20" s="85"/>
+      <c r="F20" s="55"/>
+      <c r="G20" s="55"/>
+      <c r="H20" s="55"/>
+      <c r="I20" s="55"/>
+      <c r="J20" s="55"/>
+      <c r="K20" s="55"/>
+      <c r="L20" s="55"/>
+      <c r="M20" s="56"/>
       <c r="N20" s="6">
         <v>17</v>
       </c>
@@ -16357,17 +16357,17 @@
       <c r="D21" s="41">
         <v>44727</v>
       </c>
-      <c r="E21" s="83" t="s">
+      <c r="E21" s="54" t="s">
         <v>37</v>
       </c>
-      <c r="F21" s="84"/>
-      <c r="G21" s="84"/>
-      <c r="H21" s="84"/>
-      <c r="I21" s="84"/>
-      <c r="J21" s="84"/>
-      <c r="K21" s="84"/>
-      <c r="L21" s="84"/>
-      <c r="M21" s="85"/>
+      <c r="F21" s="55"/>
+      <c r="G21" s="55"/>
+      <c r="H21" s="55"/>
+      <c r="I21" s="55"/>
+      <c r="J21" s="55"/>
+      <c r="K21" s="55"/>
+      <c r="L21" s="55"/>
+      <c r="M21" s="56"/>
       <c r="N21" s="6">
         <v>17</v>
       </c>
@@ -16392,17 +16392,17 @@
       <c r="D22" s="41" t="s">
         <v>109</v>
       </c>
-      <c r="E22" s="83" t="s">
+      <c r="E22" s="54" t="s">
         <v>45</v>
       </c>
-      <c r="F22" s="84"/>
-      <c r="G22" s="84"/>
-      <c r="H22" s="84"/>
-      <c r="I22" s="84"/>
-      <c r="J22" s="84"/>
-      <c r="K22" s="84"/>
-      <c r="L22" s="84"/>
-      <c r="M22" s="85"/>
+      <c r="F22" s="55"/>
+      <c r="G22" s="55"/>
+      <c r="H22" s="55"/>
+      <c r="I22" s="55"/>
+      <c r="J22" s="55"/>
+      <c r="K22" s="55"/>
+      <c r="L22" s="55"/>
+      <c r="M22" s="56"/>
       <c r="N22" s="6">
         <v>17</v>
       </c>
@@ -16430,17 +16430,17 @@
       <c r="D23" s="41" t="s">
         <v>110</v>
       </c>
-      <c r="E23" s="83" t="s">
+      <c r="E23" s="54" t="s">
         <v>46</v>
       </c>
-      <c r="F23" s="84"/>
-      <c r="G23" s="84"/>
-      <c r="H23" s="84"/>
-      <c r="I23" s="84"/>
-      <c r="J23" s="84"/>
-      <c r="K23" s="84"/>
-      <c r="L23" s="84"/>
-      <c r="M23" s="85"/>
+      <c r="F23" s="55"/>
+      <c r="G23" s="55"/>
+      <c r="H23" s="55"/>
+      <c r="I23" s="55"/>
+      <c r="J23" s="55"/>
+      <c r="K23" s="55"/>
+      <c r="L23" s="55"/>
+      <c r="M23" s="56"/>
       <c r="N23" s="6">
         <v>17</v>
       </c>
@@ -16468,17 +16468,17 @@
       <c r="D24" s="41">
         <v>44736</v>
       </c>
-      <c r="E24" s="87" t="s">
+      <c r="E24" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="F24" s="88"/>
-      <c r="G24" s="88"/>
-      <c r="H24" s="88"/>
-      <c r="I24" s="88"/>
-      <c r="J24" s="88"/>
-      <c r="K24" s="88"/>
-      <c r="L24" s="88"/>
-      <c r="M24" s="89"/>
+      <c r="F24" s="58"/>
+      <c r="G24" s="58"/>
+      <c r="H24" s="58"/>
+      <c r="I24" s="58"/>
+      <c r="J24" s="58"/>
+      <c r="K24" s="58"/>
+      <c r="L24" s="58"/>
+      <c r="M24" s="59"/>
       <c r="N24" s="6">
         <v>17</v>
       </c>
@@ -16506,17 +16506,17 @@
       <c r="D25" s="41">
         <v>44740</v>
       </c>
-      <c r="E25" s="83" t="s">
+      <c r="E25" s="54" t="s">
         <v>38</v>
       </c>
-      <c r="F25" s="84"/>
-      <c r="G25" s="84"/>
-      <c r="H25" s="84"/>
-      <c r="I25" s="84"/>
-      <c r="J25" s="84"/>
-      <c r="K25" s="84"/>
-      <c r="L25" s="84"/>
-      <c r="M25" s="85"/>
+      <c r="F25" s="55"/>
+      <c r="G25" s="55"/>
+      <c r="H25" s="55"/>
+      <c r="I25" s="55"/>
+      <c r="J25" s="55"/>
+      <c r="K25" s="55"/>
+      <c r="L25" s="55"/>
+      <c r="M25" s="56"/>
       <c r="N25" s="6">
         <v>17</v>
       </c>
@@ -16544,17 +16544,17 @@
       <c r="D26" s="41">
         <v>44745</v>
       </c>
-      <c r="E26" s="87" t="s">
+      <c r="E26" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="F26" s="88"/>
-      <c r="G26" s="88"/>
-      <c r="H26" s="88"/>
-      <c r="I26" s="88"/>
-      <c r="J26" s="88"/>
-      <c r="K26" s="88"/>
-      <c r="L26" s="88"/>
-      <c r="M26" s="89"/>
+      <c r="F26" s="58"/>
+      <c r="G26" s="58"/>
+      <c r="H26" s="58"/>
+      <c r="I26" s="58"/>
+      <c r="J26" s="58"/>
+      <c r="K26" s="58"/>
+      <c r="L26" s="58"/>
+      <c r="M26" s="59"/>
       <c r="N26" s="6">
         <v>17</v>
       </c>
@@ -16582,17 +16582,17 @@
       <c r="D27" s="41">
         <v>44750</v>
       </c>
-      <c r="E27" s="83" t="s">
+      <c r="E27" s="54" t="s">
         <v>48</v>
       </c>
-      <c r="F27" s="84"/>
-      <c r="G27" s="84"/>
-      <c r="H27" s="84"/>
-      <c r="I27" s="84"/>
-      <c r="J27" s="84"/>
-      <c r="K27" s="84"/>
-      <c r="L27" s="84"/>
-      <c r="M27" s="85"/>
+      <c r="F27" s="55"/>
+      <c r="G27" s="55"/>
+      <c r="H27" s="55"/>
+      <c r="I27" s="55"/>
+      <c r="J27" s="55"/>
+      <c r="K27" s="55"/>
+      <c r="L27" s="55"/>
+      <c r="M27" s="56"/>
       <c r="N27" s="6">
         <v>17</v>
       </c>
@@ -16617,17 +16617,17 @@
       <c r="D28" s="41">
         <v>44752</v>
       </c>
-      <c r="E28" s="88" t="s">
+      <c r="E28" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="F28" s="88"/>
-      <c r="G28" s="88"/>
-      <c r="H28" s="88"/>
-      <c r="I28" s="88"/>
-      <c r="J28" s="88"/>
-      <c r="K28" s="88"/>
-      <c r="L28" s="88"/>
-      <c r="M28" s="89"/>
+      <c r="F28" s="58"/>
+      <c r="G28" s="58"/>
+      <c r="H28" s="58"/>
+      <c r="I28" s="58"/>
+      <c r="J28" s="58"/>
+      <c r="K28" s="58"/>
+      <c r="L28" s="58"/>
+      <c r="M28" s="59"/>
       <c r="N28" s="6">
         <v>17</v>
       </c>
@@ -16655,17 +16655,17 @@
       <c r="D29" s="41">
         <v>44754</v>
       </c>
-      <c r="E29" s="84" t="s">
+      <c r="E29" s="55" t="s">
         <v>49</v>
       </c>
-      <c r="F29" s="84"/>
-      <c r="G29" s="84"/>
-      <c r="H29" s="84"/>
-      <c r="I29" s="84"/>
-      <c r="J29" s="84"/>
-      <c r="K29" s="84"/>
-      <c r="L29" s="84"/>
-      <c r="M29" s="85"/>
+      <c r="F29" s="55"/>
+      <c r="G29" s="55"/>
+      <c r="H29" s="55"/>
+      <c r="I29" s="55"/>
+      <c r="J29" s="55"/>
+      <c r="K29" s="55"/>
+      <c r="L29" s="55"/>
+      <c r="M29" s="56"/>
       <c r="N29" s="6">
         <v>17</v>
       </c>
@@ -16690,17 +16690,17 @@
       <c r="D30" s="41">
         <v>44757</v>
       </c>
-      <c r="E30" s="87" t="s">
+      <c r="E30" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="F30" s="88"/>
-      <c r="G30" s="88"/>
-      <c r="H30" s="88"/>
-      <c r="I30" s="88"/>
-      <c r="J30" s="88"/>
-      <c r="K30" s="88"/>
-      <c r="L30" s="88"/>
-      <c r="M30" s="89"/>
+      <c r="F30" s="58"/>
+      <c r="G30" s="58"/>
+      <c r="H30" s="58"/>
+      <c r="I30" s="58"/>
+      <c r="J30" s="58"/>
+      <c r="K30" s="58"/>
+      <c r="L30" s="58"/>
+      <c r="M30" s="59"/>
       <c r="N30" s="6">
         <v>17</v>
       </c>
@@ -16728,17 +16728,17 @@
       <c r="D31" s="41">
         <v>44760</v>
       </c>
-      <c r="E31" s="87" t="s">
+      <c r="E31" s="57" t="s">
         <v>47</v>
       </c>
-      <c r="F31" s="88"/>
-      <c r="G31" s="88"/>
-      <c r="H31" s="88"/>
-      <c r="I31" s="88"/>
-      <c r="J31" s="88"/>
-      <c r="K31" s="88"/>
-      <c r="L31" s="88"/>
-      <c r="M31" s="89"/>
+      <c r="F31" s="58"/>
+      <c r="G31" s="58"/>
+      <c r="H31" s="58"/>
+      <c r="I31" s="58"/>
+      <c r="J31" s="58"/>
+      <c r="K31" s="58"/>
+      <c r="L31" s="58"/>
+      <c r="M31" s="59"/>
       <c r="N31" s="6">
         <v>17</v>
       </c>
@@ -16763,17 +16763,17 @@
       <c r="C32" s="1">
         <v>23</v>
       </c>
-      <c r="E32" s="83" t="s">
+      <c r="E32" s="54" t="s">
         <v>41</v>
       </c>
-      <c r="F32" s="84"/>
-      <c r="G32" s="84"/>
-      <c r="H32" s="84"/>
-      <c r="I32" s="84"/>
-      <c r="J32" s="84"/>
-      <c r="K32" s="84"/>
-      <c r="L32" s="84"/>
-      <c r="M32" s="85"/>
+      <c r="F32" s="55"/>
+      <c r="G32" s="55"/>
+      <c r="H32" s="55"/>
+      <c r="I32" s="55"/>
+      <c r="J32" s="55"/>
+      <c r="K32" s="55"/>
+      <c r="L32" s="55"/>
+      <c r="M32" s="56"/>
       <c r="N32" s="6">
         <v>17</v>
       </c>
@@ -16795,17 +16795,17 @@
       <c r="C33" s="1">
         <v>24</v>
       </c>
-      <c r="E33" s="83" t="s">
+      <c r="E33" s="54" t="s">
         <v>42</v>
       </c>
-      <c r="F33" s="84"/>
-      <c r="G33" s="84"/>
-      <c r="H33" s="84"/>
-      <c r="I33" s="84"/>
-      <c r="J33" s="84"/>
-      <c r="K33" s="84"/>
-      <c r="L33" s="84"/>
-      <c r="M33" s="85"/>
+      <c r="F33" s="55"/>
+      <c r="G33" s="55"/>
+      <c r="H33" s="55"/>
+      <c r="I33" s="55"/>
+      <c r="J33" s="55"/>
+      <c r="K33" s="55"/>
+      <c r="L33" s="55"/>
+      <c r="M33" s="56"/>
       <c r="N33" s="6">
         <v>17</v>
       </c>
@@ -16828,20 +16828,20 @@
         <v>25</v>
       </c>
       <c r="D34" s="47"/>
-      <c r="E34" s="60" t="s">
+      <c r="E34" s="66" t="s">
         <v>58</v>
       </c>
-      <c r="F34" s="61"/>
-      <c r="G34" s="61"/>
-      <c r="H34" s="61"/>
-      <c r="I34" s="61"/>
-      <c r="J34" s="61"/>
-      <c r="K34" s="61"/>
-      <c r="L34" s="61"/>
-      <c r="M34" s="61"/>
-      <c r="N34" s="61"/>
-      <c r="O34" s="61"/>
-      <c r="P34" s="62"/>
+      <c r="F34" s="67"/>
+      <c r="G34" s="67"/>
+      <c r="H34" s="67"/>
+      <c r="I34" s="67"/>
+      <c r="J34" s="67"/>
+      <c r="K34" s="67"/>
+      <c r="L34" s="67"/>
+      <c r="M34" s="67"/>
+      <c r="N34" s="67"/>
+      <c r="O34" s="67"/>
+      <c r="P34" s="68"/>
       <c r="Q34" s="11"/>
       <c r="R34" s="12" t="e">
         <f>AVERAGE(R10:R33)</f>
@@ -16868,22 +16868,6 @@
     <sortCondition ref="D10:D33"/>
   </sortState>
   <mergeCells count="28">
-    <mergeCell ref="E26:M26"/>
-    <mergeCell ref="E32:M32"/>
-    <mergeCell ref="E33:M33"/>
-    <mergeCell ref="E34:P34"/>
-    <mergeCell ref="E27:M27"/>
-    <mergeCell ref="E28:M28"/>
-    <mergeCell ref="E29:M29"/>
-    <mergeCell ref="E30:M30"/>
-    <mergeCell ref="E31:M31"/>
-    <mergeCell ref="E19:M19"/>
-    <mergeCell ref="E20:M20"/>
-    <mergeCell ref="E21:M21"/>
-    <mergeCell ref="E24:M24"/>
-    <mergeCell ref="E25:M25"/>
-    <mergeCell ref="E22:M22"/>
-    <mergeCell ref="E23:M23"/>
     <mergeCell ref="E18:M18"/>
     <mergeCell ref="C4:Y6"/>
     <mergeCell ref="C7:T7"/>
@@ -16896,6 +16880,22 @@
     <mergeCell ref="E15:M15"/>
     <mergeCell ref="E16:M16"/>
     <mergeCell ref="E17:M17"/>
+    <mergeCell ref="E19:M19"/>
+    <mergeCell ref="E20:M20"/>
+    <mergeCell ref="E21:M21"/>
+    <mergeCell ref="E24:M24"/>
+    <mergeCell ref="E25:M25"/>
+    <mergeCell ref="E22:M22"/>
+    <mergeCell ref="E23:M23"/>
+    <mergeCell ref="E26:M26"/>
+    <mergeCell ref="E32:M32"/>
+    <mergeCell ref="E33:M33"/>
+    <mergeCell ref="E34:P34"/>
+    <mergeCell ref="E27:M27"/>
+    <mergeCell ref="E28:M28"/>
+    <mergeCell ref="E29:M29"/>
+    <mergeCell ref="E30:M30"/>
+    <mergeCell ref="E31:M31"/>
   </mergeCells>
   <conditionalFormatting sqref="V10:V33">
     <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">

--- a/My Test Tracker Original GATE 2023.xlsx
+++ b/My Test Tracker Original GATE 2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GATE 2022 &amp; 2023\My Progress trackers &amp; Journey - In Git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6562F4BB-6C1D-437A-98F1-840EA8B4E55C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB8F339F-8391-498C-8F35-8942DC795039}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{158952DD-A7DC-477E-91D8-188954568D39}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="803" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="804" uniqueCount="127">
   <si>
     <t>Topicwise Tests</t>
   </si>
@@ -908,40 +908,20 @@
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -962,14 +942,13 @@
     <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -981,13 +960,16 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -999,9 +981,7 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1011,14 +991,34 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2050,8 +2050,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E053581-A6B0-45B0-A9DB-B07F5A1622B0}">
   <dimension ref="A1:W336"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A184" workbookViewId="0">
-      <selection activeCell="M188" sqref="M188"/>
+    <sheetView tabSelected="1" topLeftCell="D184" workbookViewId="0">
+      <selection activeCell="N187" sqref="N187"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2077,52 +2077,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="34.200000000000003" thickBot="1" x14ac:dyDescent="0.7">
-      <c r="A1" s="92">
+      <c r="A1" s="56">
         <v>2021</v>
       </c>
-      <c r="B1" s="92"/>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
-      <c r="F1" s="92"/>
-      <c r="G1" s="92"/>
-      <c r="H1" s="92"/>
-      <c r="I1" s="92"/>
-      <c r="J1" s="92"/>
-      <c r="K1" s="92"/>
-      <c r="L1" s="92"/>
-      <c r="M1" s="92"/>
-      <c r="N1" s="92"/>
-      <c r="O1" s="92"/>
-      <c r="P1" s="92"/>
-      <c r="Q1" s="92"/>
-      <c r="R1" s="92"/>
-      <c r="S1" s="92"/>
-      <c r="T1" s="92"/>
-      <c r="U1" s="92"/>
-      <c r="V1" s="92"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="56"/>
+      <c r="K1" s="56"/>
+      <c r="L1" s="56"/>
+      <c r="M1" s="56"/>
+      <c r="N1" s="56"/>
+      <c r="O1" s="56"/>
+      <c r="P1" s="56"/>
+      <c r="Q1" s="56"/>
+      <c r="R1" s="56"/>
+      <c r="S1" s="56"/>
+      <c r="T1" s="56"/>
+      <c r="U1" s="56"/>
+      <c r="V1" s="56"/>
     </row>
     <row r="2" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="86" t="s">
+      <c r="A2" s="80" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="87"/>
-      <c r="C2" s="87"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="87"/>
-      <c r="G2" s="87"/>
-      <c r="H2" s="87"/>
-      <c r="I2" s="87"/>
-      <c r="J2" s="87"/>
-      <c r="K2" s="87"/>
-      <c r="L2" s="87"/>
-      <c r="M2" s="87"/>
-      <c r="N2" s="87"/>
-      <c r="O2" s="87"/>
-      <c r="P2" s="87"/>
-      <c r="Q2" s="87"/>
-      <c r="R2" s="88"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="81"/>
+      <c r="G2" s="81"/>
+      <c r="H2" s="81"/>
+      <c r="I2" s="81"/>
+      <c r="J2" s="81"/>
+      <c r="K2" s="81"/>
+      <c r="L2" s="81"/>
+      <c r="M2" s="81"/>
+      <c r="N2" s="81"/>
+      <c r="O2" s="81"/>
+      <c r="P2" s="81"/>
+      <c r="Q2" s="81"/>
+      <c r="R2" s="82"/>
       <c r="S2" s="3"/>
       <c r="T2" s="3"/>
       <c r="U2" s="3"/>
@@ -2133,17 +2133,17 @@
         <v>1</v>
       </c>
       <c r="B4" s="5"/>
-      <c r="C4" s="85" t="s">
+      <c r="C4" s="86" t="s">
         <v>100</v>
       </c>
-      <c r="D4" s="85"/>
-      <c r="E4" s="85"/>
-      <c r="F4" s="85"/>
-      <c r="G4" s="85"/>
-      <c r="H4" s="85"/>
-      <c r="I4" s="85"/>
-      <c r="J4" s="85"/>
-      <c r="K4" s="85"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86"/>
+      <c r="K4" s="86"/>
       <c r="L4" s="5" t="s">
         <v>2</v>
       </c>
@@ -2183,17 +2183,17 @@
       <c r="B5" s="41">
         <v>44613</v>
       </c>
-      <c r="C5" s="73" t="s">
+      <c r="C5" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="73"/>
-      <c r="E5" s="73"/>
-      <c r="F5" s="73"/>
-      <c r="G5" s="73"/>
-      <c r="H5" s="73"/>
-      <c r="I5" s="73"/>
-      <c r="J5" s="73"/>
-      <c r="K5" s="73"/>
+      <c r="D5" s="74"/>
+      <c r="E5" s="74"/>
+      <c r="F5" s="74"/>
+      <c r="G5" s="74"/>
+      <c r="H5" s="74"/>
+      <c r="I5" s="74"/>
+      <c r="J5" s="74"/>
+      <c r="K5" s="74"/>
       <c r="L5" s="6">
         <v>17</v>
       </c>
@@ -2221,17 +2221,17 @@
       <c r="B6" s="41">
         <v>44617</v>
       </c>
-      <c r="C6" s="64" t="s">
+      <c r="C6" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="65"/>
-      <c r="E6" s="65"/>
-      <c r="F6" s="65"/>
-      <c r="G6" s="65"/>
-      <c r="H6" s="65"/>
-      <c r="I6" s="65"/>
-      <c r="J6" s="65"/>
-      <c r="K6" s="65"/>
+      <c r="D6" s="67"/>
+      <c r="E6" s="67"/>
+      <c r="F6" s="67"/>
+      <c r="G6" s="67"/>
+      <c r="H6" s="67"/>
+      <c r="I6" s="67"/>
+      <c r="J6" s="67"/>
+      <c r="K6" s="67"/>
       <c r="L6" s="6">
         <v>17</v>
       </c>
@@ -2259,17 +2259,17 @@
       <c r="B7" s="41">
         <v>44621</v>
       </c>
-      <c r="C7" s="64" t="s">
+      <c r="C7" s="66" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="65"/>
-      <c r="E7" s="65"/>
-      <c r="F7" s="65"/>
-      <c r="G7" s="65"/>
-      <c r="H7" s="65"/>
-      <c r="I7" s="65"/>
-      <c r="J7" s="65"/>
-      <c r="K7" s="65"/>
+      <c r="D7" s="67"/>
+      <c r="E7" s="67"/>
+      <c r="F7" s="67"/>
+      <c r="G7" s="67"/>
+      <c r="H7" s="67"/>
+      <c r="I7" s="67"/>
+      <c r="J7" s="67"/>
+      <c r="K7" s="67"/>
       <c r="L7" s="6">
         <v>17</v>
       </c>
@@ -2297,17 +2297,17 @@
       <c r="B8" s="41">
         <v>44625</v>
       </c>
-      <c r="C8" s="65" t="s">
+      <c r="C8" s="67" t="s">
         <v>35</v>
       </c>
-      <c r="D8" s="65"/>
-      <c r="E8" s="65"/>
-      <c r="F8" s="65"/>
-      <c r="G8" s="65"/>
-      <c r="H8" s="65"/>
-      <c r="I8" s="65"/>
-      <c r="J8" s="65"/>
-      <c r="K8" s="65"/>
+      <c r="D8" s="67"/>
+      <c r="E8" s="67"/>
+      <c r="F8" s="67"/>
+      <c r="G8" s="67"/>
+      <c r="H8" s="67"/>
+      <c r="I8" s="67"/>
+      <c r="J8" s="67"/>
+      <c r="K8" s="67"/>
       <c r="L8" s="6">
         <v>17</v>
       </c>
@@ -2335,17 +2335,17 @@
       <c r="B9" s="41">
         <v>44629</v>
       </c>
-      <c r="C9" s="64" t="s">
+      <c r="C9" s="66" t="s">
         <v>36</v>
       </c>
-      <c r="D9" s="65"/>
-      <c r="E9" s="65"/>
-      <c r="F9" s="65"/>
-      <c r="G9" s="65"/>
-      <c r="H9" s="65"/>
-      <c r="I9" s="65"/>
-      <c r="J9" s="65"/>
-      <c r="K9" s="65"/>
+      <c r="D9" s="67"/>
+      <c r="E9" s="67"/>
+      <c r="F9" s="67"/>
+      <c r="G9" s="67"/>
+      <c r="H9" s="67"/>
+      <c r="I9" s="67"/>
+      <c r="J9" s="67"/>
+      <c r="K9" s="67"/>
       <c r="L9" s="6">
         <v>17</v>
       </c>
@@ -2373,17 +2373,17 @@
       <c r="B10" s="41">
         <v>44633</v>
       </c>
-      <c r="C10" s="64" t="s">
+      <c r="C10" s="66" t="s">
         <v>37</v>
       </c>
-      <c r="D10" s="65"/>
-      <c r="E10" s="65"/>
-      <c r="F10" s="65"/>
-      <c r="G10" s="65"/>
-      <c r="H10" s="65"/>
-      <c r="I10" s="65"/>
-      <c r="J10" s="65"/>
-      <c r="K10" s="65"/>
+      <c r="D10" s="67"/>
+      <c r="E10" s="67"/>
+      <c r="F10" s="67"/>
+      <c r="G10" s="67"/>
+      <c r="H10" s="67"/>
+      <c r="I10" s="67"/>
+      <c r="J10" s="67"/>
+      <c r="K10" s="67"/>
       <c r="L10" s="6">
         <v>17</v>
       </c>
@@ -2411,17 +2411,17 @@
       <c r="B11" s="41">
         <v>44637</v>
       </c>
-      <c r="C11" s="65" t="s">
+      <c r="C11" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="65"/>
-      <c r="E11" s="65"/>
-      <c r="F11" s="65"/>
-      <c r="G11" s="65"/>
-      <c r="H11" s="65"/>
-      <c r="I11" s="65"/>
-      <c r="J11" s="65"/>
-      <c r="K11" s="65"/>
+      <c r="D11" s="67"/>
+      <c r="E11" s="67"/>
+      <c r="F11" s="67"/>
+      <c r="G11" s="67"/>
+      <c r="H11" s="67"/>
+      <c r="I11" s="67"/>
+      <c r="J11" s="67"/>
+      <c r="K11" s="67"/>
       <c r="L11" s="6">
         <v>17</v>
       </c>
@@ -2449,17 +2449,17 @@
       <c r="B12" s="41">
         <v>44641</v>
       </c>
-      <c r="C12" s="64" t="s">
+      <c r="C12" s="66" t="s">
         <v>38</v>
       </c>
-      <c r="D12" s="65"/>
-      <c r="E12" s="65"/>
-      <c r="F12" s="65"/>
-      <c r="G12" s="65"/>
-      <c r="H12" s="65"/>
-      <c r="I12" s="65"/>
-      <c r="J12" s="65"/>
-      <c r="K12" s="65"/>
+      <c r="D12" s="67"/>
+      <c r="E12" s="67"/>
+      <c r="F12" s="67"/>
+      <c r="G12" s="67"/>
+      <c r="H12" s="67"/>
+      <c r="I12" s="67"/>
+      <c r="J12" s="67"/>
+      <c r="K12" s="67"/>
       <c r="L12" s="6">
         <v>17</v>
       </c>
@@ -2485,17 +2485,17 @@
         <v>9</v>
       </c>
       <c r="B13" s="1"/>
-      <c r="C13" s="64" t="s">
+      <c r="C13" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="D13" s="65"/>
-      <c r="E13" s="65"/>
-      <c r="F13" s="65"/>
-      <c r="G13" s="65"/>
-      <c r="H13" s="65"/>
-      <c r="I13" s="65"/>
-      <c r="J13" s="65"/>
-      <c r="K13" s="65"/>
+      <c r="D13" s="67"/>
+      <c r="E13" s="67"/>
+      <c r="F13" s="67"/>
+      <c r="G13" s="67"/>
+      <c r="H13" s="67"/>
+      <c r="I13" s="67"/>
+      <c r="J13" s="67"/>
+      <c r="K13" s="67"/>
       <c r="L13" s="6">
         <v>17</v>
       </c>
@@ -2521,17 +2521,17 @@
         <v>10</v>
       </c>
       <c r="B14" s="1"/>
-      <c r="C14" s="64" t="s">
+      <c r="C14" s="66" t="s">
         <v>40</v>
       </c>
-      <c r="D14" s="65"/>
-      <c r="E14" s="65"/>
-      <c r="F14" s="65"/>
-      <c r="G14" s="65"/>
-      <c r="H14" s="65"/>
-      <c r="I14" s="65"/>
-      <c r="J14" s="65"/>
-      <c r="K14" s="65"/>
+      <c r="D14" s="67"/>
+      <c r="E14" s="67"/>
+      <c r="F14" s="67"/>
+      <c r="G14" s="67"/>
+      <c r="H14" s="67"/>
+      <c r="I14" s="67"/>
+      <c r="J14" s="67"/>
+      <c r="K14" s="67"/>
       <c r="L14" s="6">
         <v>17</v>
       </c>
@@ -2557,17 +2557,17 @@
         <v>11</v>
       </c>
       <c r="B15" s="1"/>
-      <c r="C15" s="64" t="s">
+      <c r="C15" s="66" t="s">
         <v>41</v>
       </c>
-      <c r="D15" s="65"/>
-      <c r="E15" s="65"/>
-      <c r="F15" s="65"/>
-      <c r="G15" s="65"/>
-      <c r="H15" s="65"/>
-      <c r="I15" s="65"/>
-      <c r="J15" s="65"/>
-      <c r="K15" s="65"/>
+      <c r="D15" s="67"/>
+      <c r="E15" s="67"/>
+      <c r="F15" s="67"/>
+      <c r="G15" s="67"/>
+      <c r="H15" s="67"/>
+      <c r="I15" s="67"/>
+      <c r="J15" s="67"/>
+      <c r="K15" s="67"/>
       <c r="L15" s="6">
         <v>17</v>
       </c>
@@ -2593,17 +2593,17 @@
         <v>12</v>
       </c>
       <c r="B16" s="1"/>
-      <c r="C16" s="64" t="s">
+      <c r="C16" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="D16" s="65"/>
-      <c r="E16" s="65"/>
-      <c r="F16" s="65"/>
-      <c r="G16" s="65"/>
-      <c r="H16" s="65"/>
-      <c r="I16" s="65"/>
-      <c r="J16" s="65"/>
-      <c r="K16" s="65"/>
+      <c r="D16" s="67"/>
+      <c r="E16" s="67"/>
+      <c r="F16" s="67"/>
+      <c r="G16" s="67"/>
+      <c r="H16" s="67"/>
+      <c r="I16" s="67"/>
+      <c r="J16" s="67"/>
+      <c r="K16" s="67"/>
       <c r="L16" s="6">
         <v>17</v>
       </c>
@@ -2631,17 +2631,17 @@
       <c r="B17" s="41">
         <v>44645</v>
       </c>
-      <c r="C17" s="65" t="s">
+      <c r="C17" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="D17" s="65"/>
-      <c r="E17" s="65"/>
-      <c r="F17" s="65"/>
-      <c r="G17" s="65"/>
-      <c r="H17" s="65"/>
-      <c r="I17" s="65"/>
-      <c r="J17" s="65"/>
-      <c r="K17" s="65"/>
+      <c r="D17" s="67"/>
+      <c r="E17" s="67"/>
+      <c r="F17" s="67"/>
+      <c r="G17" s="67"/>
+      <c r="H17" s="67"/>
+      <c r="I17" s="67"/>
+      <c r="J17" s="67"/>
+      <c r="K17" s="67"/>
       <c r="L17" s="6">
         <v>17</v>
       </c>
@@ -2669,17 +2669,17 @@
       <c r="B18" s="41">
         <v>44649</v>
       </c>
-      <c r="C18" s="64" t="s">
+      <c r="C18" s="66" t="s">
         <v>43</v>
       </c>
-      <c r="D18" s="65"/>
-      <c r="E18" s="65"/>
-      <c r="F18" s="65"/>
-      <c r="G18" s="65"/>
-      <c r="H18" s="65"/>
-      <c r="I18" s="65"/>
-      <c r="J18" s="65"/>
-      <c r="K18" s="65"/>
+      <c r="D18" s="67"/>
+      <c r="E18" s="67"/>
+      <c r="F18" s="67"/>
+      <c r="G18" s="67"/>
+      <c r="H18" s="67"/>
+      <c r="I18" s="67"/>
+      <c r="J18" s="67"/>
+      <c r="K18" s="67"/>
       <c r="L18" s="6">
         <v>17</v>
       </c>
@@ -2707,17 +2707,17 @@
       <c r="B19" s="41">
         <v>44653</v>
       </c>
-      <c r="C19" s="65" t="s">
+      <c r="C19" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="D19" s="65"/>
-      <c r="E19" s="65"/>
-      <c r="F19" s="65"/>
-      <c r="G19" s="65"/>
-      <c r="H19" s="65"/>
-      <c r="I19" s="65"/>
-      <c r="J19" s="65"/>
-      <c r="K19" s="65"/>
+      <c r="D19" s="67"/>
+      <c r="E19" s="67"/>
+      <c r="F19" s="67"/>
+      <c r="G19" s="67"/>
+      <c r="H19" s="67"/>
+      <c r="I19" s="67"/>
+      <c r="J19" s="67"/>
+      <c r="K19" s="67"/>
       <c r="L19" s="6">
         <v>17</v>
       </c>
@@ -2755,17 +2755,17 @@
       <c r="B20" s="41">
         <v>44657</v>
       </c>
-      <c r="C20" s="65" t="s">
+      <c r="C20" s="67" t="s">
         <v>44</v>
       </c>
-      <c r="D20" s="65"/>
-      <c r="E20" s="65"/>
-      <c r="F20" s="65"/>
-      <c r="G20" s="65"/>
-      <c r="H20" s="65"/>
-      <c r="I20" s="65"/>
-      <c r="J20" s="65"/>
-      <c r="K20" s="65"/>
+      <c r="D20" s="67"/>
+      <c r="E20" s="67"/>
+      <c r="F20" s="67"/>
+      <c r="G20" s="67"/>
+      <c r="H20" s="67"/>
+      <c r="I20" s="67"/>
+      <c r="J20" s="67"/>
+      <c r="K20" s="67"/>
       <c r="L20" s="6">
         <v>17</v>
       </c>
@@ -2793,17 +2793,17 @@
       <c r="B21" s="41">
         <v>44661</v>
       </c>
-      <c r="C21" s="64" t="s">
+      <c r="C21" s="66" t="s">
         <v>45</v>
       </c>
-      <c r="D21" s="65"/>
-      <c r="E21" s="65"/>
-      <c r="F21" s="65"/>
-      <c r="G21" s="65"/>
-      <c r="H21" s="65"/>
-      <c r="I21" s="65"/>
-      <c r="J21" s="65"/>
-      <c r="K21" s="65"/>
+      <c r="D21" s="67"/>
+      <c r="E21" s="67"/>
+      <c r="F21" s="67"/>
+      <c r="G21" s="67"/>
+      <c r="H21" s="67"/>
+      <c r="I21" s="67"/>
+      <c r="J21" s="67"/>
+      <c r="K21" s="67"/>
       <c r="L21" s="6">
         <v>17</v>
       </c>
@@ -2831,17 +2831,17 @@
       <c r="B22" s="41">
         <v>44665</v>
       </c>
-      <c r="C22" s="64" t="s">
+      <c r="C22" s="66" t="s">
         <v>46</v>
       </c>
-      <c r="D22" s="65"/>
-      <c r="E22" s="65"/>
-      <c r="F22" s="65"/>
-      <c r="G22" s="65"/>
-      <c r="H22" s="65"/>
-      <c r="I22" s="65"/>
-      <c r="J22" s="65"/>
-      <c r="K22" s="65"/>
+      <c r="D22" s="67"/>
+      <c r="E22" s="67"/>
+      <c r="F22" s="67"/>
+      <c r="G22" s="67"/>
+      <c r="H22" s="67"/>
+      <c r="I22" s="67"/>
+      <c r="J22" s="67"/>
+      <c r="K22" s="67"/>
       <c r="L22" s="6">
         <v>17</v>
       </c>
@@ -2869,17 +2869,17 @@
       <c r="B23" s="41">
         <v>44669</v>
       </c>
-      <c r="C23" s="65" t="s">
+      <c r="C23" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="D23" s="65"/>
-      <c r="E23" s="65"/>
-      <c r="F23" s="65"/>
-      <c r="G23" s="65"/>
-      <c r="H23" s="65"/>
-      <c r="I23" s="65"/>
-      <c r="J23" s="65"/>
-      <c r="K23" s="65"/>
+      <c r="D23" s="67"/>
+      <c r="E23" s="67"/>
+      <c r="F23" s="67"/>
+      <c r="G23" s="67"/>
+      <c r="H23" s="67"/>
+      <c r="I23" s="67"/>
+      <c r="J23" s="67"/>
+      <c r="K23" s="67"/>
       <c r="L23" s="6">
         <v>17</v>
       </c>
@@ -2907,17 +2907,17 @@
       <c r="B24" s="41">
         <v>44673</v>
       </c>
-      <c r="C24" s="65" t="s">
+      <c r="C24" s="67" t="s">
         <v>47</v>
       </c>
-      <c r="D24" s="65"/>
-      <c r="E24" s="65"/>
-      <c r="F24" s="65"/>
-      <c r="G24" s="65"/>
-      <c r="H24" s="65"/>
-      <c r="I24" s="65"/>
-      <c r="J24" s="65"/>
-      <c r="K24" s="65"/>
+      <c r="D24" s="67"/>
+      <c r="E24" s="67"/>
+      <c r="F24" s="67"/>
+      <c r="G24" s="67"/>
+      <c r="H24" s="67"/>
+      <c r="I24" s="67"/>
+      <c r="J24" s="67"/>
+      <c r="K24" s="67"/>
       <c r="L24" s="6">
         <v>17</v>
       </c>
@@ -2945,17 +2945,17 @@
       <c r="B25" s="42">
         <v>44646</v>
       </c>
-      <c r="C25" s="65" t="s">
+      <c r="C25" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="D25" s="65"/>
-      <c r="E25" s="65"/>
-      <c r="F25" s="65"/>
-      <c r="G25" s="65"/>
-      <c r="H25" s="65"/>
-      <c r="I25" s="65"/>
-      <c r="J25" s="65"/>
-      <c r="K25" s="65"/>
+      <c r="D25" s="67"/>
+      <c r="E25" s="67"/>
+      <c r="F25" s="67"/>
+      <c r="G25" s="67"/>
+      <c r="H25" s="67"/>
+      <c r="I25" s="67"/>
+      <c r="J25" s="67"/>
+      <c r="K25" s="67"/>
       <c r="L25" s="6">
         <v>17</v>
       </c>
@@ -2983,17 +2983,17 @@
       <c r="B26" s="43">
         <v>44646</v>
       </c>
-      <c r="C26" s="64" t="s">
+      <c r="C26" s="66" t="s">
         <v>48</v>
       </c>
-      <c r="D26" s="65"/>
-      <c r="E26" s="65"/>
-      <c r="F26" s="65"/>
-      <c r="G26" s="65"/>
-      <c r="H26" s="65"/>
-      <c r="I26" s="65"/>
-      <c r="J26" s="65"/>
-      <c r="K26" s="65"/>
+      <c r="D26" s="67"/>
+      <c r="E26" s="67"/>
+      <c r="F26" s="67"/>
+      <c r="G26" s="67"/>
+      <c r="H26" s="67"/>
+      <c r="I26" s="67"/>
+      <c r="J26" s="67"/>
+      <c r="K26" s="67"/>
       <c r="L26" s="6">
         <v>17</v>
       </c>
@@ -3021,17 +3021,17 @@
       <c r="B27" s="41">
         <v>44677</v>
       </c>
-      <c r="C27" s="65" t="s">
+      <c r="C27" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="D27" s="65"/>
-      <c r="E27" s="65"/>
-      <c r="F27" s="65"/>
-      <c r="G27" s="65"/>
-      <c r="H27" s="65"/>
-      <c r="I27" s="65"/>
-      <c r="J27" s="65"/>
-      <c r="K27" s="65"/>
+      <c r="D27" s="67"/>
+      <c r="E27" s="67"/>
+      <c r="F27" s="67"/>
+      <c r="G27" s="67"/>
+      <c r="H27" s="67"/>
+      <c r="I27" s="67"/>
+      <c r="J27" s="67"/>
+      <c r="K27" s="67"/>
       <c r="L27" s="6">
         <v>17</v>
       </c>
@@ -3059,17 +3059,17 @@
       <c r="B28" s="41">
         <v>44681</v>
       </c>
-      <c r="C28" s="64" t="s">
+      <c r="C28" s="66" t="s">
         <v>49</v>
       </c>
-      <c r="D28" s="65"/>
-      <c r="E28" s="65"/>
-      <c r="F28" s="65"/>
-      <c r="G28" s="65"/>
-      <c r="H28" s="65"/>
-      <c r="I28" s="65"/>
-      <c r="J28" s="65"/>
-      <c r="K28" s="65"/>
+      <c r="D28" s="67"/>
+      <c r="E28" s="67"/>
+      <c r="F28" s="67"/>
+      <c r="G28" s="67"/>
+      <c r="H28" s="67"/>
+      <c r="I28" s="67"/>
+      <c r="J28" s="67"/>
+      <c r="K28" s="67"/>
       <c r="L28" s="6">
         <v>17</v>
       </c>
@@ -3095,20 +3095,20 @@
         <v>25</v>
       </c>
       <c r="B29" s="8"/>
-      <c r="C29" s="66" t="s">
+      <c r="C29" s="60" t="s">
         <v>58</v>
       </c>
-      <c r="D29" s="67"/>
-      <c r="E29" s="67"/>
-      <c r="F29" s="67"/>
-      <c r="G29" s="67"/>
-      <c r="H29" s="67"/>
-      <c r="I29" s="67"/>
-      <c r="J29" s="67"/>
-      <c r="K29" s="67"/>
-      <c r="L29" s="67"/>
-      <c r="M29" s="67"/>
-      <c r="N29" s="68"/>
+      <c r="D29" s="61"/>
+      <c r="E29" s="61"/>
+      <c r="F29" s="61"/>
+      <c r="G29" s="61"/>
+      <c r="H29" s="61"/>
+      <c r="I29" s="61"/>
+      <c r="J29" s="61"/>
+      <c r="K29" s="61"/>
+      <c r="L29" s="61"/>
+      <c r="M29" s="61"/>
+      <c r="N29" s="62"/>
       <c r="O29" s="11"/>
       <c r="P29" s="12">
         <f>AVERAGE(P5:P28)</f>
@@ -3128,26 +3128,26 @@
     </row>
     <row r="31" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="32" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="82" t="s">
+      <c r="A32" s="76" t="s">
         <v>13</v>
       </c>
-      <c r="B32" s="83"/>
-      <c r="C32" s="83"/>
-      <c r="D32" s="83"/>
-      <c r="E32" s="83"/>
-      <c r="F32" s="83"/>
-      <c r="G32" s="83"/>
-      <c r="H32" s="83"/>
-      <c r="I32" s="83"/>
-      <c r="J32" s="83"/>
-      <c r="K32" s="83"/>
-      <c r="L32" s="83"/>
-      <c r="M32" s="83"/>
-      <c r="N32" s="83"/>
-      <c r="O32" s="83"/>
-      <c r="P32" s="83"/>
-      <c r="Q32" s="83"/>
-      <c r="R32" s="84"/>
+      <c r="B32" s="77"/>
+      <c r="C32" s="77"/>
+      <c r="D32" s="77"/>
+      <c r="E32" s="77"/>
+      <c r="F32" s="77"/>
+      <c r="G32" s="77"/>
+      <c r="H32" s="77"/>
+      <c r="I32" s="77"/>
+      <c r="J32" s="77"/>
+      <c r="K32" s="77"/>
+      <c r="L32" s="77"/>
+      <c r="M32" s="77"/>
+      <c r="N32" s="77"/>
+      <c r="O32" s="77"/>
+      <c r="P32" s="77"/>
+      <c r="Q32" s="77"/>
+      <c r="R32" s="78"/>
       <c r="S32" s="15"/>
       <c r="T32" s="15"/>
       <c r="U32" s="15"/>
@@ -3157,17 +3157,17 @@
         <v>1</v>
       </c>
       <c r="B34" s="5"/>
-      <c r="C34" s="72" t="s">
+      <c r="C34" s="73" t="s">
         <v>100</v>
       </c>
-      <c r="D34" s="72"/>
-      <c r="E34" s="72"/>
-      <c r="F34" s="72"/>
-      <c r="G34" s="72"/>
-      <c r="H34" s="72"/>
-      <c r="I34" s="72"/>
-      <c r="J34" s="72"/>
-      <c r="K34" s="72"/>
+      <c r="D34" s="73"/>
+      <c r="E34" s="73"/>
+      <c r="F34" s="73"/>
+      <c r="G34" s="73"/>
+      <c r="H34" s="73"/>
+      <c r="I34" s="73"/>
+      <c r="J34" s="73"/>
+      <c r="K34" s="73"/>
       <c r="L34" s="5" t="s">
         <v>2</v>
       </c>
@@ -3204,17 +3204,17 @@
         <v>1</v>
       </c>
       <c r="B35" s="1"/>
-      <c r="C35" s="73" t="s">
+      <c r="C35" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="D35" s="73"/>
-      <c r="E35" s="73"/>
-      <c r="F35" s="73"/>
-      <c r="G35" s="73"/>
-      <c r="H35" s="73"/>
-      <c r="I35" s="73"/>
-      <c r="J35" s="73"/>
-      <c r="K35" s="73"/>
+      <c r="D35" s="74"/>
+      <c r="E35" s="74"/>
+      <c r="F35" s="74"/>
+      <c r="G35" s="74"/>
+      <c r="H35" s="74"/>
+      <c r="I35" s="74"/>
+      <c r="J35" s="74"/>
+      <c r="K35" s="74"/>
       <c r="L35" s="6">
         <v>33</v>
       </c>
@@ -3237,17 +3237,17 @@
         <v>2</v>
       </c>
       <c r="B36" s="1"/>
-      <c r="C36" s="64" t="s">
+      <c r="C36" s="66" t="s">
         <v>16</v>
       </c>
-      <c r="D36" s="65"/>
-      <c r="E36" s="65"/>
-      <c r="F36" s="65"/>
-      <c r="G36" s="65"/>
-      <c r="H36" s="65"/>
-      <c r="I36" s="65"/>
-      <c r="J36" s="65"/>
-      <c r="K36" s="65"/>
+      <c r="D36" s="67"/>
+      <c r="E36" s="67"/>
+      <c r="F36" s="67"/>
+      <c r="G36" s="67"/>
+      <c r="H36" s="67"/>
+      <c r="I36" s="67"/>
+      <c r="J36" s="67"/>
+      <c r="K36" s="67"/>
       <c r="L36" s="6">
         <v>33</v>
       </c>
@@ -3270,17 +3270,17 @@
         <v>3</v>
       </c>
       <c r="B37" s="1"/>
-      <c r="C37" s="64" t="s">
+      <c r="C37" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="D37" s="65"/>
-      <c r="E37" s="65"/>
-      <c r="F37" s="65"/>
-      <c r="G37" s="65"/>
-      <c r="H37" s="65"/>
-      <c r="I37" s="65"/>
-      <c r="J37" s="65"/>
-      <c r="K37" s="65"/>
+      <c r="D37" s="67"/>
+      <c r="E37" s="67"/>
+      <c r="F37" s="67"/>
+      <c r="G37" s="67"/>
+      <c r="H37" s="67"/>
+      <c r="I37" s="67"/>
+      <c r="J37" s="67"/>
+      <c r="K37" s="67"/>
       <c r="L37" s="6">
         <v>33</v>
       </c>
@@ -3303,17 +3303,17 @@
         <v>4</v>
       </c>
       <c r="B38" s="1"/>
-      <c r="C38" s="65" t="s">
+      <c r="C38" s="67" t="s">
         <v>18</v>
       </c>
-      <c r="D38" s="65"/>
-      <c r="E38" s="65"/>
-      <c r="F38" s="65"/>
-      <c r="G38" s="65"/>
-      <c r="H38" s="65"/>
-      <c r="I38" s="65"/>
-      <c r="J38" s="65"/>
-      <c r="K38" s="65"/>
+      <c r="D38" s="67"/>
+      <c r="E38" s="67"/>
+      <c r="F38" s="67"/>
+      <c r="G38" s="67"/>
+      <c r="H38" s="67"/>
+      <c r="I38" s="67"/>
+      <c r="J38" s="67"/>
+      <c r="K38" s="67"/>
       <c r="L38" s="6">
         <v>33</v>
       </c>
@@ -3336,17 +3336,17 @@
         <v>5</v>
       </c>
       <c r="B39" s="1"/>
-      <c r="C39" s="64" t="s">
+      <c r="C39" s="66" t="s">
         <v>61</v>
       </c>
-      <c r="D39" s="65"/>
-      <c r="E39" s="65"/>
-      <c r="F39" s="65"/>
-      <c r="G39" s="65"/>
-      <c r="H39" s="65"/>
-      <c r="I39" s="65"/>
-      <c r="J39" s="65"/>
-      <c r="K39" s="65"/>
+      <c r="D39" s="67"/>
+      <c r="E39" s="67"/>
+      <c r="F39" s="67"/>
+      <c r="G39" s="67"/>
+      <c r="H39" s="67"/>
+      <c r="I39" s="67"/>
+      <c r="J39" s="67"/>
+      <c r="K39" s="67"/>
       <c r="L39" s="6">
         <v>33</v>
       </c>
@@ -3369,17 +3369,17 @@
         <v>6</v>
       </c>
       <c r="B40" s="1"/>
-      <c r="C40" s="64" t="s">
+      <c r="C40" s="66" t="s">
         <v>61</v>
       </c>
-      <c r="D40" s="65"/>
-      <c r="E40" s="65"/>
-      <c r="F40" s="65"/>
-      <c r="G40" s="65"/>
-      <c r="H40" s="65"/>
-      <c r="I40" s="65"/>
-      <c r="J40" s="65"/>
-      <c r="K40" s="65"/>
+      <c r="D40" s="67"/>
+      <c r="E40" s="67"/>
+      <c r="F40" s="67"/>
+      <c r="G40" s="67"/>
+      <c r="H40" s="67"/>
+      <c r="I40" s="67"/>
+      <c r="J40" s="67"/>
+      <c r="K40" s="67"/>
       <c r="L40" s="6">
         <v>33</v>
       </c>
@@ -3402,17 +3402,17 @@
         <v>7</v>
       </c>
       <c r="B41" s="1"/>
-      <c r="C41" s="65" t="s">
+      <c r="C41" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="D41" s="65"/>
-      <c r="E41" s="65"/>
-      <c r="F41" s="65"/>
-      <c r="G41" s="65"/>
-      <c r="H41" s="65"/>
-      <c r="I41" s="65"/>
-      <c r="J41" s="65"/>
-      <c r="K41" s="65"/>
+      <c r="D41" s="67"/>
+      <c r="E41" s="67"/>
+      <c r="F41" s="67"/>
+      <c r="G41" s="67"/>
+      <c r="H41" s="67"/>
+      <c r="I41" s="67"/>
+      <c r="J41" s="67"/>
+      <c r="K41" s="67"/>
       <c r="L41" s="6">
         <v>33</v>
       </c>
@@ -3435,17 +3435,17 @@
         <v>8</v>
       </c>
       <c r="B42" s="1"/>
-      <c r="C42" s="64" t="s">
+      <c r="C42" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="D42" s="65"/>
-      <c r="E42" s="65"/>
-      <c r="F42" s="65"/>
-      <c r="G42" s="65"/>
-      <c r="H42" s="65"/>
-      <c r="I42" s="65"/>
-      <c r="J42" s="65"/>
-      <c r="K42" s="65"/>
+      <c r="D42" s="67"/>
+      <c r="E42" s="67"/>
+      <c r="F42" s="67"/>
+      <c r="G42" s="67"/>
+      <c r="H42" s="67"/>
+      <c r="I42" s="67"/>
+      <c r="J42" s="67"/>
+      <c r="K42" s="67"/>
       <c r="L42" s="6">
         <v>33</v>
       </c>
@@ -3468,17 +3468,17 @@
         <v>9</v>
       </c>
       <c r="B43" s="1"/>
-      <c r="C43" s="64" t="s">
+      <c r="C43" s="66" t="s">
         <v>62</v>
       </c>
-      <c r="D43" s="65"/>
-      <c r="E43" s="65"/>
-      <c r="F43" s="65"/>
-      <c r="G43" s="65"/>
-      <c r="H43" s="65"/>
-      <c r="I43" s="65"/>
-      <c r="J43" s="65"/>
-      <c r="K43" s="65"/>
+      <c r="D43" s="67"/>
+      <c r="E43" s="67"/>
+      <c r="F43" s="67"/>
+      <c r="G43" s="67"/>
+      <c r="H43" s="67"/>
+      <c r="I43" s="67"/>
+      <c r="J43" s="67"/>
+      <c r="K43" s="67"/>
       <c r="L43" s="6">
         <v>33</v>
       </c>
@@ -3501,17 +3501,17 @@
         <v>10</v>
       </c>
       <c r="B44" s="1"/>
-      <c r="C44" s="64" t="s">
+      <c r="C44" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="D44" s="65"/>
-      <c r="E44" s="65"/>
-      <c r="F44" s="65"/>
-      <c r="G44" s="65"/>
-      <c r="H44" s="65"/>
-      <c r="I44" s="65"/>
-      <c r="J44" s="65"/>
-      <c r="K44" s="65"/>
+      <c r="D44" s="67"/>
+      <c r="E44" s="67"/>
+      <c r="F44" s="67"/>
+      <c r="G44" s="67"/>
+      <c r="H44" s="67"/>
+      <c r="I44" s="67"/>
+      <c r="J44" s="67"/>
+      <c r="K44" s="67"/>
       <c r="L44" s="6">
         <v>33</v>
       </c>
@@ -3534,17 +3534,17 @@
         <v>11</v>
       </c>
       <c r="B45" s="1"/>
-      <c r="C45" s="64" t="s">
+      <c r="C45" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="D45" s="65"/>
-      <c r="E45" s="65"/>
-      <c r="F45" s="65"/>
-      <c r="G45" s="65"/>
-      <c r="H45" s="65"/>
-      <c r="I45" s="65"/>
-      <c r="J45" s="65"/>
-      <c r="K45" s="65"/>
+      <c r="D45" s="67"/>
+      <c r="E45" s="67"/>
+      <c r="F45" s="67"/>
+      <c r="G45" s="67"/>
+      <c r="H45" s="67"/>
+      <c r="I45" s="67"/>
+      <c r="J45" s="67"/>
+      <c r="K45" s="67"/>
       <c r="L45" s="6">
         <v>33</v>
       </c>
@@ -3569,17 +3569,17 @@
       <c r="B46" s="42">
         <v>44647</v>
       </c>
-      <c r="C46" s="64" t="s">
+      <c r="C46" s="66" t="s">
         <v>63</v>
       </c>
-      <c r="D46" s="65"/>
-      <c r="E46" s="65"/>
-      <c r="F46" s="65"/>
-      <c r="G46" s="65"/>
-      <c r="H46" s="65"/>
-      <c r="I46" s="65"/>
-      <c r="J46" s="65"/>
-      <c r="K46" s="65"/>
+      <c r="D46" s="67"/>
+      <c r="E46" s="67"/>
+      <c r="F46" s="67"/>
+      <c r="G46" s="67"/>
+      <c r="H46" s="67"/>
+      <c r="I46" s="67"/>
+      <c r="J46" s="67"/>
+      <c r="K46" s="67"/>
       <c r="L46" s="6">
         <v>33</v>
       </c>
@@ -3602,20 +3602,20 @@
         <v>13</v>
       </c>
       <c r="B47" s="1"/>
-      <c r="C47" s="66" t="s">
+      <c r="C47" s="60" t="s">
         <v>58</v>
       </c>
-      <c r="D47" s="67"/>
-      <c r="E47" s="67"/>
-      <c r="F47" s="67"/>
-      <c r="G47" s="67"/>
-      <c r="H47" s="67"/>
-      <c r="I47" s="67"/>
-      <c r="J47" s="67"/>
-      <c r="K47" s="67"/>
-      <c r="L47" s="67"/>
-      <c r="M47" s="67"/>
-      <c r="N47" s="68"/>
+      <c r="D47" s="61"/>
+      <c r="E47" s="61"/>
+      <c r="F47" s="61"/>
+      <c r="G47" s="61"/>
+      <c r="H47" s="61"/>
+      <c r="I47" s="61"/>
+      <c r="J47" s="61"/>
+      <c r="K47" s="61"/>
+      <c r="L47" s="61"/>
+      <c r="M47" s="61"/>
+      <c r="N47" s="62"/>
       <c r="O47" s="11"/>
       <c r="P47" s="12"/>
       <c r="Q47" s="13"/>
@@ -3629,26 +3629,26 @@
       <c r="B48" s="1"/>
     </row>
     <row r="49" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="69" t="s">
+      <c r="A49" s="63" t="s">
         <v>24</v>
       </c>
-      <c r="B49" s="70"/>
-      <c r="C49" s="70"/>
-      <c r="D49" s="70"/>
-      <c r="E49" s="70"/>
-      <c r="F49" s="70"/>
-      <c r="G49" s="70"/>
-      <c r="H49" s="70"/>
-      <c r="I49" s="70"/>
-      <c r="J49" s="70"/>
-      <c r="K49" s="70"/>
-      <c r="L49" s="70"/>
-      <c r="M49" s="70"/>
-      <c r="N49" s="70"/>
-      <c r="O49" s="70"/>
-      <c r="P49" s="70"/>
-      <c r="Q49" s="70"/>
-      <c r="R49" s="71"/>
+      <c r="B49" s="64"/>
+      <c r="C49" s="64"/>
+      <c r="D49" s="64"/>
+      <c r="E49" s="64"/>
+      <c r="F49" s="64"/>
+      <c r="G49" s="64"/>
+      <c r="H49" s="64"/>
+      <c r="I49" s="64"/>
+      <c r="J49" s="64"/>
+      <c r="K49" s="64"/>
+      <c r="L49" s="64"/>
+      <c r="M49" s="64"/>
+      <c r="N49" s="64"/>
+      <c r="O49" s="64"/>
+      <c r="P49" s="64"/>
+      <c r="Q49" s="64"/>
+      <c r="R49" s="65"/>
       <c r="S49" s="3"/>
       <c r="T49" s="3"/>
       <c r="U49" s="3"/>
@@ -3658,17 +3658,17 @@
         <v>1</v>
       </c>
       <c r="B51" s="5"/>
-      <c r="C51" s="72" t="s">
+      <c r="C51" s="73" t="s">
         <v>100</v>
       </c>
-      <c r="D51" s="72"/>
-      <c r="E51" s="72"/>
-      <c r="F51" s="72"/>
-      <c r="G51" s="72"/>
-      <c r="H51" s="72"/>
-      <c r="I51" s="72"/>
-      <c r="J51" s="72"/>
-      <c r="K51" s="72"/>
+      <c r="D51" s="73"/>
+      <c r="E51" s="73"/>
+      <c r="F51" s="73"/>
+      <c r="G51" s="73"/>
+      <c r="H51" s="73"/>
+      <c r="I51" s="73"/>
+      <c r="J51" s="73"/>
+      <c r="K51" s="73"/>
       <c r="L51" s="5" t="s">
         <v>2</v>
       </c>
@@ -3705,17 +3705,17 @@
         <v>1</v>
       </c>
       <c r="B52" s="1"/>
-      <c r="C52" s="73" t="s">
+      <c r="C52" s="74" t="s">
         <v>65</v>
       </c>
-      <c r="D52" s="73"/>
-      <c r="E52" s="73"/>
-      <c r="F52" s="73"/>
-      <c r="G52" s="73"/>
-      <c r="H52" s="73"/>
-      <c r="I52" s="73"/>
-      <c r="J52" s="73"/>
-      <c r="K52" s="73"/>
+      <c r="D52" s="74"/>
+      <c r="E52" s="74"/>
+      <c r="F52" s="74"/>
+      <c r="G52" s="74"/>
+      <c r="H52" s="74"/>
+      <c r="I52" s="74"/>
+      <c r="J52" s="74"/>
+      <c r="K52" s="74"/>
       <c r="L52" s="6">
         <v>33</v>
       </c>
@@ -3738,17 +3738,17 @@
         <v>2</v>
       </c>
       <c r="B53" s="1"/>
-      <c r="C53" s="64" t="s">
+      <c r="C53" s="66" t="s">
         <v>66</v>
       </c>
-      <c r="D53" s="65"/>
-      <c r="E53" s="65"/>
-      <c r="F53" s="65"/>
-      <c r="G53" s="65"/>
-      <c r="H53" s="65"/>
-      <c r="I53" s="65"/>
-      <c r="J53" s="65"/>
-      <c r="K53" s="65"/>
+      <c r="D53" s="67"/>
+      <c r="E53" s="67"/>
+      <c r="F53" s="67"/>
+      <c r="G53" s="67"/>
+      <c r="H53" s="67"/>
+      <c r="I53" s="67"/>
+      <c r="J53" s="67"/>
+      <c r="K53" s="67"/>
       <c r="L53" s="6">
         <v>33</v>
       </c>
@@ -3771,17 +3771,17 @@
         <v>3</v>
       </c>
       <c r="B54" s="1"/>
-      <c r="C54" s="64" t="s">
+      <c r="C54" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="D54" s="65"/>
-      <c r="E54" s="65"/>
-      <c r="F54" s="65"/>
-      <c r="G54" s="65"/>
-      <c r="H54" s="65"/>
-      <c r="I54" s="65"/>
-      <c r="J54" s="65"/>
-      <c r="K54" s="65"/>
+      <c r="D54" s="67"/>
+      <c r="E54" s="67"/>
+      <c r="F54" s="67"/>
+      <c r="G54" s="67"/>
+      <c r="H54" s="67"/>
+      <c r="I54" s="67"/>
+      <c r="J54" s="67"/>
+      <c r="K54" s="67"/>
       <c r="L54" s="6">
         <v>33</v>
       </c>
@@ -3804,17 +3804,17 @@
         <v>4</v>
       </c>
       <c r="B55" s="1"/>
-      <c r="C55" s="65" t="s">
+      <c r="C55" s="67" t="s">
         <v>26</v>
       </c>
-      <c r="D55" s="65"/>
-      <c r="E55" s="65"/>
-      <c r="F55" s="65"/>
-      <c r="G55" s="65"/>
-      <c r="H55" s="65"/>
-      <c r="I55" s="65"/>
-      <c r="J55" s="65"/>
-      <c r="K55" s="65"/>
+      <c r="D55" s="67"/>
+      <c r="E55" s="67"/>
+      <c r="F55" s="67"/>
+      <c r="G55" s="67"/>
+      <c r="H55" s="67"/>
+      <c r="I55" s="67"/>
+      <c r="J55" s="67"/>
+      <c r="K55" s="67"/>
       <c r="L55" s="6">
         <v>33</v>
       </c>
@@ -3837,17 +3837,17 @@
         <v>5</v>
       </c>
       <c r="B56" s="1"/>
-      <c r="C56" s="64" t="s">
+      <c r="C56" s="66" t="s">
         <v>27</v>
       </c>
-      <c r="D56" s="65"/>
-      <c r="E56" s="65"/>
-      <c r="F56" s="65"/>
-      <c r="G56" s="65"/>
-      <c r="H56" s="65"/>
-      <c r="I56" s="65"/>
-      <c r="J56" s="65"/>
-      <c r="K56" s="65"/>
+      <c r="D56" s="67"/>
+      <c r="E56" s="67"/>
+      <c r="F56" s="67"/>
+      <c r="G56" s="67"/>
+      <c r="H56" s="67"/>
+      <c r="I56" s="67"/>
+      <c r="J56" s="67"/>
+      <c r="K56" s="67"/>
       <c r="L56" s="6">
         <v>33</v>
       </c>
@@ -3870,17 +3870,17 @@
         <v>6</v>
       </c>
       <c r="B57" s="1"/>
-      <c r="C57" s="64" t="s">
+      <c r="C57" s="66" t="s">
         <v>67</v>
       </c>
-      <c r="D57" s="65"/>
-      <c r="E57" s="65"/>
-      <c r="F57" s="65"/>
-      <c r="G57" s="65"/>
-      <c r="H57" s="65"/>
-      <c r="I57" s="65"/>
-      <c r="J57" s="65"/>
-      <c r="K57" s="65"/>
+      <c r="D57" s="67"/>
+      <c r="E57" s="67"/>
+      <c r="F57" s="67"/>
+      <c r="G57" s="67"/>
+      <c r="H57" s="67"/>
+      <c r="I57" s="67"/>
+      <c r="J57" s="67"/>
+      <c r="K57" s="67"/>
       <c r="L57" s="6">
         <v>33</v>
       </c>
@@ -3901,20 +3901,20 @@
     <row r="58" spans="1:21" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
-      <c r="C58" s="66" t="s">
+      <c r="C58" s="60" t="s">
         <v>58</v>
       </c>
-      <c r="D58" s="67"/>
-      <c r="E58" s="67"/>
-      <c r="F58" s="67"/>
-      <c r="G58" s="67"/>
-      <c r="H58" s="67"/>
-      <c r="I58" s="67"/>
-      <c r="J58" s="67"/>
-      <c r="K58" s="67"/>
-      <c r="L58" s="67"/>
-      <c r="M58" s="67"/>
-      <c r="N58" s="68"/>
+      <c r="D58" s="61"/>
+      <c r="E58" s="61"/>
+      <c r="F58" s="61"/>
+      <c r="G58" s="61"/>
+      <c r="H58" s="61"/>
+      <c r="I58" s="61"/>
+      <c r="J58" s="61"/>
+      <c r="K58" s="61"/>
+      <c r="L58" s="61"/>
+      <c r="M58" s="61"/>
+      <c r="N58" s="62"/>
       <c r="O58" s="11"/>
       <c r="P58" s="12" t="e">
         <f>AVERAGE(P52:P57)</f>
@@ -3934,25 +3934,25 @@
       <c r="B59" s="1"/>
     </row>
     <row r="60" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A60" s="81" t="s">
+      <c r="A60" s="72" t="s">
         <v>28</v>
       </c>
-      <c r="B60" s="81"/>
-      <c r="C60" s="81"/>
-      <c r="D60" s="81"/>
-      <c r="E60" s="81"/>
-      <c r="F60" s="81"/>
-      <c r="G60" s="81"/>
-      <c r="H60" s="81"/>
-      <c r="I60" s="81"/>
-      <c r="J60" s="81"/>
-      <c r="K60" s="81"/>
-      <c r="L60" s="81"/>
-      <c r="M60" s="81"/>
-      <c r="N60" s="81"/>
-      <c r="O60" s="81"/>
-      <c r="P60" s="81"/>
-      <c r="Q60" s="81"/>
+      <c r="B60" s="72"/>
+      <c r="C60" s="72"/>
+      <c r="D60" s="72"/>
+      <c r="E60" s="72"/>
+      <c r="F60" s="72"/>
+      <c r="G60" s="72"/>
+      <c r="H60" s="72"/>
+      <c r="I60" s="72"/>
+      <c r="J60" s="72"/>
+      <c r="K60" s="72"/>
+      <c r="L60" s="72"/>
+      <c r="M60" s="72"/>
+      <c r="N60" s="72"/>
+      <c r="O60" s="72"/>
+      <c r="P60" s="72"/>
+      <c r="Q60" s="72"/>
       <c r="R60"/>
     </row>
     <row r="61" spans="1:21" x14ac:dyDescent="0.3">
@@ -3960,10 +3960,10 @@
         <v>1</v>
       </c>
       <c r="B61" s="16"/>
-      <c r="C61" s="80" t="s">
+      <c r="C61" s="68" t="s">
         <v>68</v>
       </c>
-      <c r="D61" s="80"/>
+      <c r="D61" s="68"/>
       <c r="E61" s="17" t="s">
         <v>69</v>
       </c>
@@ -4010,10 +4010,10 @@
         <v>1</v>
       </c>
       <c r="B62" s="14"/>
-      <c r="C62" s="63" t="s">
+      <c r="C62" s="57" t="s">
         <v>82</v>
       </c>
-      <c r="D62" s="63"/>
+      <c r="D62" s="57"/>
       <c r="E62" s="25">
         <v>41</v>
       </c>
@@ -4060,10 +4060,10 @@
         <v>2</v>
       </c>
       <c r="B63" s="14"/>
-      <c r="C63" s="63" t="s">
+      <c r="C63" s="57" t="s">
         <v>83</v>
       </c>
-      <c r="D63" s="63"/>
+      <c r="D63" s="57"/>
       <c r="E63" s="25">
         <v>40</v>
       </c>
@@ -4110,10 +4110,10 @@
         <v>3</v>
       </c>
       <c r="B64" s="14"/>
-      <c r="C64" s="63" t="s">
+      <c r="C64" s="57" t="s">
         <v>88</v>
       </c>
-      <c r="D64" s="63"/>
+      <c r="D64" s="57"/>
       <c r="E64" s="25">
         <v>55</v>
       </c>
@@ -4160,10 +4160,10 @@
         <v>4</v>
       </c>
       <c r="B65" s="14"/>
-      <c r="C65" s="63" t="s">
+      <c r="C65" s="57" t="s">
         <v>89</v>
       </c>
-      <c r="D65" s="63"/>
+      <c r="D65" s="57"/>
       <c r="E65" s="25">
         <v>58</v>
       </c>
@@ -4210,10 +4210,10 @@
         <v>5</v>
       </c>
       <c r="B66" s="14"/>
-      <c r="C66" s="63" t="s">
+      <c r="C66" s="57" t="s">
         <v>29</v>
       </c>
-      <c r="D66" s="63"/>
+      <c r="D66" s="57"/>
       <c r="E66" s="25"/>
       <c r="F66" s="26"/>
       <c r="G66" s="27"/>
@@ -4234,10 +4234,10 @@
         <v>6</v>
       </c>
       <c r="B67" s="40"/>
-      <c r="C67" s="90" t="s">
+      <c r="C67" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="D67" s="91"/>
+      <c r="D67" s="55"/>
       <c r="E67" s="25"/>
       <c r="F67" s="26"/>
       <c r="G67" s="27"/>
@@ -4258,10 +4258,10 @@
         <v>7</v>
       </c>
       <c r="B68" s="14"/>
-      <c r="C68" s="63" t="s">
+      <c r="C68" s="57" t="s">
         <v>31</v>
       </c>
-      <c r="D68" s="63"/>
+      <c r="D68" s="57"/>
       <c r="E68" s="25"/>
       <c r="F68" s="26"/>
       <c r="G68" s="27"/>
@@ -4282,10 +4282,10 @@
         <v>8</v>
       </c>
       <c r="B69" s="40"/>
-      <c r="C69" s="90" t="s">
+      <c r="C69" s="54" t="s">
         <v>32</v>
       </c>
-      <c r="D69" s="91"/>
+      <c r="D69" s="55"/>
       <c r="E69" s="25"/>
       <c r="F69" s="26"/>
       <c r="G69" s="27"/>
@@ -4304,10 +4304,10 @@
     <row r="70" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A70" s="14"/>
       <c r="B70" s="14"/>
-      <c r="C70" s="74" t="s">
+      <c r="C70" s="58" t="s">
         <v>98</v>
       </c>
-      <c r="D70" s="74"/>
+      <c r="D70" s="58"/>
       <c r="E70" s="25">
         <f t="shared" ref="E70:O70" si="1">AVERAGE(E62:E69)</f>
         <v>48.5</v>
@@ -4363,25 +4363,25 @@
       <c r="R72"/>
     </row>
     <row r="73" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A73" s="79" t="s">
+      <c r="A73" s="75" t="s">
         <v>99</v>
       </c>
-      <c r="B73" s="79"/>
-      <c r="C73" s="79"/>
-      <c r="D73" s="79"/>
-      <c r="E73" s="79"/>
-      <c r="F73" s="79"/>
-      <c r="G73" s="79"/>
-      <c r="H73" s="79"/>
-      <c r="I73" s="79"/>
-      <c r="J73" s="79"/>
-      <c r="K73" s="79"/>
-      <c r="L73" s="79"/>
-      <c r="M73" s="79"/>
-      <c r="N73" s="79"/>
-      <c r="O73" s="79"/>
-      <c r="P73" s="79"/>
-      <c r="Q73" s="79"/>
+      <c r="B73" s="75"/>
+      <c r="C73" s="75"/>
+      <c r="D73" s="75"/>
+      <c r="E73" s="75"/>
+      <c r="F73" s="75"/>
+      <c r="G73" s="75"/>
+      <c r="H73" s="75"/>
+      <c r="I73" s="75"/>
+      <c r="J73" s="75"/>
+      <c r="K73" s="75"/>
+      <c r="L73" s="75"/>
+      <c r="M73" s="75"/>
+      <c r="N73" s="75"/>
+      <c r="O73" s="75"/>
+      <c r="P73" s="75"/>
+      <c r="Q73" s="75"/>
       <c r="R73"/>
     </row>
     <row r="74" spans="1:18" x14ac:dyDescent="0.3">
@@ -4389,10 +4389,10 @@
         <v>1</v>
       </c>
       <c r="B74" s="16"/>
-      <c r="C74" s="80" t="s">
+      <c r="C74" s="68" t="s">
         <v>68</v>
       </c>
-      <c r="D74" s="80"/>
+      <c r="D74" s="68"/>
       <c r="E74" s="17" t="s">
         <v>69</v>
       </c>
@@ -4439,10 +4439,10 @@
         <v>1</v>
       </c>
       <c r="B75" s="14"/>
-      <c r="C75" s="63" t="s">
+      <c r="C75" s="57" t="s">
         <v>101</v>
       </c>
-      <c r="D75" s="63"/>
+      <c r="D75" s="57"/>
       <c r="E75" s="25"/>
       <c r="F75" s="26"/>
       <c r="G75" s="27"/>
@@ -4463,10 +4463,10 @@
         <v>2</v>
       </c>
       <c r="B76" s="14"/>
-      <c r="C76" s="63" t="s">
+      <c r="C76" s="57" t="s">
         <v>102</v>
       </c>
-      <c r="D76" s="63"/>
+      <c r="D76" s="57"/>
       <c r="E76" s="25"/>
       <c r="F76" s="26"/>
       <c r="G76" s="27"/>
@@ -4487,10 +4487,10 @@
         <v>3</v>
       </c>
       <c r="B77" s="14"/>
-      <c r="C77" s="63" t="s">
+      <c r="C77" s="57" t="s">
         <v>103</v>
       </c>
-      <c r="D77" s="63"/>
+      <c r="D77" s="57"/>
       <c r="E77" s="25"/>
       <c r="F77" s="26"/>
       <c r="G77" s="27"/>
@@ -4510,10 +4510,10 @@
         <v>4</v>
       </c>
       <c r="B78" s="14"/>
-      <c r="C78" s="63" t="s">
+      <c r="C78" s="57" t="s">
         <v>104</v>
       </c>
-      <c r="D78" s="63"/>
+      <c r="D78" s="57"/>
       <c r="E78" s="25"/>
       <c r="F78" s="26"/>
       <c r="G78" s="27"/>
@@ -4533,8 +4533,8 @@
         <v>5</v>
       </c>
       <c r="B79" s="14"/>
-      <c r="C79" s="89"/>
-      <c r="D79" s="89"/>
+      <c r="C79" s="79"/>
+      <c r="D79" s="79"/>
       <c r="E79" s="25"/>
       <c r="F79" s="26"/>
       <c r="G79" s="27"/>
@@ -4554,8 +4554,8 @@
         <v>6</v>
       </c>
       <c r="B80" s="14"/>
-      <c r="C80" s="89"/>
-      <c r="D80" s="89"/>
+      <c r="C80" s="79"/>
+      <c r="D80" s="79"/>
       <c r="E80" s="25"/>
       <c r="F80" s="26"/>
       <c r="G80" s="27"/>
@@ -4573,10 +4573,10 @@
     <row r="81" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A81" s="14"/>
       <c r="B81" s="14"/>
-      <c r="C81" s="74" t="s">
+      <c r="C81" s="58" t="s">
         <v>98</v>
       </c>
-      <c r="D81" s="74"/>
+      <c r="D81" s="58"/>
       <c r="E81" s="25" t="e">
         <f t="shared" ref="E81:K81" si="2">AVERAGE(E75:E80)</f>
         <v>#DIV/0!</v>
@@ -4625,103 +4625,103 @@
       <c r="Q81" s="29"/>
     </row>
     <row r="84" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A84" s="75">
+      <c r="A84" s="59">
         <v>2022</v>
       </c>
-      <c r="B84" s="75"/>
-      <c r="C84" s="75"/>
-      <c r="D84" s="75"/>
-      <c r="E84" s="75"/>
-      <c r="F84" s="75"/>
-      <c r="G84" s="75"/>
-      <c r="H84" s="75"/>
-      <c r="I84" s="75"/>
-      <c r="J84" s="75"/>
-      <c r="K84" s="75"/>
-      <c r="L84" s="75"/>
-      <c r="M84" s="75"/>
-      <c r="N84" s="75"/>
-      <c r="O84" s="75"/>
-      <c r="P84" s="75"/>
-      <c r="Q84" s="75"/>
-      <c r="R84" s="75"/>
-      <c r="S84" s="75"/>
-      <c r="T84" s="75"/>
-      <c r="U84" s="75"/>
-      <c r="V84" s="75"/>
-      <c r="W84" s="75"/>
+      <c r="B84" s="59"/>
+      <c r="C84" s="59"/>
+      <c r="D84" s="59"/>
+      <c r="E84" s="59"/>
+      <c r="F84" s="59"/>
+      <c r="G84" s="59"/>
+      <c r="H84" s="59"/>
+      <c r="I84" s="59"/>
+      <c r="J84" s="59"/>
+      <c r="K84" s="59"/>
+      <c r="L84" s="59"/>
+      <c r="M84" s="59"/>
+      <c r="N84" s="59"/>
+      <c r="O84" s="59"/>
+      <c r="P84" s="59"/>
+      <c r="Q84" s="59"/>
+      <c r="R84" s="59"/>
+      <c r="S84" s="59"/>
+      <c r="T84" s="59"/>
+      <c r="U84" s="59"/>
+      <c r="V84" s="59"/>
+      <c r="W84" s="59"/>
     </row>
     <row r="85" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A85" s="75"/>
-      <c r="B85" s="75"/>
-      <c r="C85" s="75"/>
-      <c r="D85" s="75"/>
-      <c r="E85" s="75"/>
-      <c r="F85" s="75"/>
-      <c r="G85" s="75"/>
-      <c r="H85" s="75"/>
-      <c r="I85" s="75"/>
-      <c r="J85" s="75"/>
-      <c r="K85" s="75"/>
-      <c r="L85" s="75"/>
-      <c r="M85" s="75"/>
-      <c r="N85" s="75"/>
-      <c r="O85" s="75"/>
-      <c r="P85" s="75"/>
-      <c r="Q85" s="75"/>
-      <c r="R85" s="75"/>
-      <c r="S85" s="75"/>
-      <c r="T85" s="75"/>
-      <c r="U85" s="75"/>
-      <c r="V85" s="75"/>
-      <c r="W85" s="75"/>
+      <c r="A85" s="59"/>
+      <c r="B85" s="59"/>
+      <c r="C85" s="59"/>
+      <c r="D85" s="59"/>
+      <c r="E85" s="59"/>
+      <c r="F85" s="59"/>
+      <c r="G85" s="59"/>
+      <c r="H85" s="59"/>
+      <c r="I85" s="59"/>
+      <c r="J85" s="59"/>
+      <c r="K85" s="59"/>
+      <c r="L85" s="59"/>
+      <c r="M85" s="59"/>
+      <c r="N85" s="59"/>
+      <c r="O85" s="59"/>
+      <c r="P85" s="59"/>
+      <c r="Q85" s="59"/>
+      <c r="R85" s="59"/>
+      <c r="S85" s="59"/>
+      <c r="T85" s="59"/>
+      <c r="U85" s="59"/>
+      <c r="V85" s="59"/>
+      <c r="W85" s="59"/>
     </row>
     <row r="86" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A86" s="75"/>
-      <c r="B86" s="75"/>
-      <c r="C86" s="75"/>
-      <c r="D86" s="75"/>
-      <c r="E86" s="75"/>
-      <c r="F86" s="75"/>
-      <c r="G86" s="75"/>
-      <c r="H86" s="75"/>
-      <c r="I86" s="75"/>
-      <c r="J86" s="75"/>
-      <c r="K86" s="75"/>
-      <c r="L86" s="75"/>
-      <c r="M86" s="75"/>
-      <c r="N86" s="75"/>
-      <c r="O86" s="75"/>
-      <c r="P86" s="75"/>
-      <c r="Q86" s="75"/>
-      <c r="R86" s="75"/>
-      <c r="S86" s="75"/>
-      <c r="T86" s="75"/>
-      <c r="U86" s="75"/>
-      <c r="V86" s="75"/>
-      <c r="W86" s="75"/>
+      <c r="A86" s="59"/>
+      <c r="B86" s="59"/>
+      <c r="C86" s="59"/>
+      <c r="D86" s="59"/>
+      <c r="E86" s="59"/>
+      <c r="F86" s="59"/>
+      <c r="G86" s="59"/>
+      <c r="H86" s="59"/>
+      <c r="I86" s="59"/>
+      <c r="J86" s="59"/>
+      <c r="K86" s="59"/>
+      <c r="L86" s="59"/>
+      <c r="M86" s="59"/>
+      <c r="N86" s="59"/>
+      <c r="O86" s="59"/>
+      <c r="P86" s="59"/>
+      <c r="Q86" s="59"/>
+      <c r="R86" s="59"/>
+      <c r="S86" s="59"/>
+      <c r="T86" s="59"/>
+      <c r="U86" s="59"/>
+      <c r="V86" s="59"/>
+      <c r="W86" s="59"/>
     </row>
     <row r="87" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A87" s="76" t="s">
+      <c r="A87" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="B87" s="77"/>
-      <c r="C87" s="77"/>
-      <c r="D87" s="77"/>
-      <c r="E87" s="77"/>
-      <c r="F87" s="77"/>
-      <c r="G87" s="77"/>
-      <c r="H87" s="77"/>
-      <c r="I87" s="77"/>
-      <c r="J87" s="77"/>
-      <c r="K87" s="77"/>
-      <c r="L87" s="77"/>
-      <c r="M87" s="77"/>
-      <c r="N87" s="77"/>
-      <c r="O87" s="77"/>
-      <c r="P87" s="77"/>
-      <c r="Q87" s="77"/>
-      <c r="R87" s="78"/>
+      <c r="B87" s="70"/>
+      <c r="C87" s="70"/>
+      <c r="D87" s="70"/>
+      <c r="E87" s="70"/>
+      <c r="F87" s="70"/>
+      <c r="G87" s="70"/>
+      <c r="H87" s="70"/>
+      <c r="I87" s="70"/>
+      <c r="J87" s="70"/>
+      <c r="K87" s="70"/>
+      <c r="L87" s="70"/>
+      <c r="M87" s="70"/>
+      <c r="N87" s="70"/>
+      <c r="O87" s="70"/>
+      <c r="P87" s="70"/>
+      <c r="Q87" s="70"/>
+      <c r="R87" s="71"/>
       <c r="S87" s="38"/>
       <c r="T87" s="38"/>
       <c r="U87" s="38"/>
@@ -4732,17 +4732,17 @@
         <v>1</v>
       </c>
       <c r="B89" s="5"/>
-      <c r="C89" s="72" t="s">
+      <c r="C89" s="73" t="s">
         <v>56</v>
       </c>
-      <c r="D89" s="72"/>
-      <c r="E89" s="72"/>
-      <c r="F89" s="72"/>
-      <c r="G89" s="72"/>
-      <c r="H89" s="72"/>
-      <c r="I89" s="72"/>
-      <c r="J89" s="72"/>
-      <c r="K89" s="72"/>
+      <c r="D89" s="73"/>
+      <c r="E89" s="73"/>
+      <c r="F89" s="73"/>
+      <c r="G89" s="73"/>
+      <c r="H89" s="73"/>
+      <c r="I89" s="73"/>
+      <c r="J89" s="73"/>
+      <c r="K89" s="73"/>
       <c r="L89" s="5" t="s">
         <v>2</v>
       </c>
@@ -4780,17 +4780,17 @@
         <v>1</v>
       </c>
       <c r="B90" s="1"/>
-      <c r="C90" s="73" t="s">
+      <c r="C90" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="D90" s="73"/>
-      <c r="E90" s="73"/>
-      <c r="F90" s="73"/>
-      <c r="G90" s="73"/>
-      <c r="H90" s="73"/>
-      <c r="I90" s="73"/>
-      <c r="J90" s="73"/>
-      <c r="K90" s="73"/>
+      <c r="D90" s="74"/>
+      <c r="E90" s="74"/>
+      <c r="F90" s="74"/>
+      <c r="G90" s="74"/>
+      <c r="H90" s="74"/>
+      <c r="I90" s="74"/>
+      <c r="J90" s="74"/>
+      <c r="K90" s="74"/>
       <c r="L90" s="6">
         <v>17</v>
       </c>
@@ -4826,17 +4826,17 @@
         <v>2</v>
       </c>
       <c r="B91" s="1"/>
-      <c r="C91" s="64" t="s">
+      <c r="C91" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="D91" s="65"/>
-      <c r="E91" s="65"/>
-      <c r="F91" s="65"/>
-      <c r="G91" s="65"/>
-      <c r="H91" s="65"/>
-      <c r="I91" s="65"/>
-      <c r="J91" s="65"/>
-      <c r="K91" s="65"/>
+      <c r="D91" s="67"/>
+      <c r="E91" s="67"/>
+      <c r="F91" s="67"/>
+      <c r="G91" s="67"/>
+      <c r="H91" s="67"/>
+      <c r="I91" s="67"/>
+      <c r="J91" s="67"/>
+      <c r="K91" s="67"/>
       <c r="L91" s="6">
         <v>17</v>
       </c>
@@ -4872,17 +4872,17 @@
         <v>3</v>
       </c>
       <c r="B92" s="1"/>
-      <c r="C92" s="64" t="s">
+      <c r="C92" s="66" t="s">
         <v>34</v>
       </c>
-      <c r="D92" s="65"/>
-      <c r="E92" s="65"/>
-      <c r="F92" s="65"/>
-      <c r="G92" s="65"/>
-      <c r="H92" s="65"/>
-      <c r="I92" s="65"/>
-      <c r="J92" s="65"/>
-      <c r="K92" s="65"/>
+      <c r="D92" s="67"/>
+      <c r="E92" s="67"/>
+      <c r="F92" s="67"/>
+      <c r="G92" s="67"/>
+      <c r="H92" s="67"/>
+      <c r="I92" s="67"/>
+      <c r="J92" s="67"/>
+      <c r="K92" s="67"/>
       <c r="L92" s="6">
         <v>17</v>
       </c>
@@ -4918,17 +4918,17 @@
         <v>4</v>
       </c>
       <c r="B93" s="1"/>
-      <c r="C93" s="65" t="s">
+      <c r="C93" s="67" t="s">
         <v>35</v>
       </c>
-      <c r="D93" s="65"/>
-      <c r="E93" s="65"/>
-      <c r="F93" s="65"/>
-      <c r="G93" s="65"/>
-      <c r="H93" s="65"/>
-      <c r="I93" s="65"/>
-      <c r="J93" s="65"/>
-      <c r="K93" s="65"/>
+      <c r="D93" s="67"/>
+      <c r="E93" s="67"/>
+      <c r="F93" s="67"/>
+      <c r="G93" s="67"/>
+      <c r="H93" s="67"/>
+      <c r="I93" s="67"/>
+      <c r="J93" s="67"/>
+      <c r="K93" s="67"/>
       <c r="L93" s="6">
         <v>17</v>
       </c>
@@ -4964,17 +4964,17 @@
         <v>5</v>
       </c>
       <c r="B94" s="1"/>
-      <c r="C94" s="64" t="s">
+      <c r="C94" s="66" t="s">
         <v>36</v>
       </c>
-      <c r="D94" s="65"/>
-      <c r="E94" s="65"/>
-      <c r="F94" s="65"/>
-      <c r="G94" s="65"/>
-      <c r="H94" s="65"/>
-      <c r="I94" s="65"/>
-      <c r="J94" s="65"/>
-      <c r="K94" s="65"/>
+      <c r="D94" s="67"/>
+      <c r="E94" s="67"/>
+      <c r="F94" s="67"/>
+      <c r="G94" s="67"/>
+      <c r="H94" s="67"/>
+      <c r="I94" s="67"/>
+      <c r="J94" s="67"/>
+      <c r="K94" s="67"/>
       <c r="L94" s="6">
         <v>17</v>
       </c>
@@ -5010,17 +5010,17 @@
         <v>6</v>
       </c>
       <c r="B95" s="1"/>
-      <c r="C95" s="64" t="s">
+      <c r="C95" s="66" t="s">
         <v>37</v>
       </c>
-      <c r="D95" s="65"/>
-      <c r="E95" s="65"/>
-      <c r="F95" s="65"/>
-      <c r="G95" s="65"/>
-      <c r="H95" s="65"/>
-      <c r="I95" s="65"/>
-      <c r="J95" s="65"/>
-      <c r="K95" s="65"/>
+      <c r="D95" s="67"/>
+      <c r="E95" s="67"/>
+      <c r="F95" s="67"/>
+      <c r="G95" s="67"/>
+      <c r="H95" s="67"/>
+      <c r="I95" s="67"/>
+      <c r="J95" s="67"/>
+      <c r="K95" s="67"/>
       <c r="L95" s="6">
         <v>17</v>
       </c>
@@ -5056,17 +5056,17 @@
         <v>7</v>
       </c>
       <c r="B96" s="1"/>
-      <c r="C96" s="65" t="s">
+      <c r="C96" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="D96" s="65"/>
-      <c r="E96" s="65"/>
-      <c r="F96" s="65"/>
-      <c r="G96" s="65"/>
-      <c r="H96" s="65"/>
-      <c r="I96" s="65"/>
-      <c r="J96" s="65"/>
-      <c r="K96" s="65"/>
+      <c r="D96" s="67"/>
+      <c r="E96" s="67"/>
+      <c r="F96" s="67"/>
+      <c r="G96" s="67"/>
+      <c r="H96" s="67"/>
+      <c r="I96" s="67"/>
+      <c r="J96" s="67"/>
+      <c r="K96" s="67"/>
       <c r="L96" s="6">
         <v>17</v>
       </c>
@@ -5102,17 +5102,17 @@
         <v>8</v>
       </c>
       <c r="B97" s="1"/>
-      <c r="C97" s="64" t="s">
+      <c r="C97" s="66" t="s">
         <v>38</v>
       </c>
-      <c r="D97" s="65"/>
-      <c r="E97" s="65"/>
-      <c r="F97" s="65"/>
-      <c r="G97" s="65"/>
-      <c r="H97" s="65"/>
-      <c r="I97" s="65"/>
-      <c r="J97" s="65"/>
-      <c r="K97" s="65"/>
+      <c r="D97" s="67"/>
+      <c r="E97" s="67"/>
+      <c r="F97" s="67"/>
+      <c r="G97" s="67"/>
+      <c r="H97" s="67"/>
+      <c r="I97" s="67"/>
+      <c r="J97" s="67"/>
+      <c r="K97" s="67"/>
       <c r="L97" s="6">
         <v>17</v>
       </c>
@@ -5135,17 +5135,17 @@
         <v>9</v>
       </c>
       <c r="B98" s="1"/>
-      <c r="C98" s="64" t="s">
+      <c r="C98" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="D98" s="65"/>
-      <c r="E98" s="65"/>
-      <c r="F98" s="65"/>
-      <c r="G98" s="65"/>
-      <c r="H98" s="65"/>
-      <c r="I98" s="65"/>
-      <c r="J98" s="65"/>
-      <c r="K98" s="65"/>
+      <c r="D98" s="67"/>
+      <c r="E98" s="67"/>
+      <c r="F98" s="67"/>
+      <c r="G98" s="67"/>
+      <c r="H98" s="67"/>
+      <c r="I98" s="67"/>
+      <c r="J98" s="67"/>
+      <c r="K98" s="67"/>
       <c r="L98" s="6">
         <v>17</v>
       </c>
@@ -5168,17 +5168,17 @@
         <v>10</v>
       </c>
       <c r="B99" s="1"/>
-      <c r="C99" s="64" t="s">
+      <c r="C99" s="66" t="s">
         <v>40</v>
       </c>
-      <c r="D99" s="65"/>
-      <c r="E99" s="65"/>
-      <c r="F99" s="65"/>
-      <c r="G99" s="65"/>
-      <c r="H99" s="65"/>
-      <c r="I99" s="65"/>
-      <c r="J99" s="65"/>
-      <c r="K99" s="65"/>
+      <c r="D99" s="67"/>
+      <c r="E99" s="67"/>
+      <c r="F99" s="67"/>
+      <c r="G99" s="67"/>
+      <c r="H99" s="67"/>
+      <c r="I99" s="67"/>
+      <c r="J99" s="67"/>
+      <c r="K99" s="67"/>
       <c r="L99" s="6">
         <v>17</v>
       </c>
@@ -5214,17 +5214,17 @@
         <v>11</v>
       </c>
       <c r="B100" s="1"/>
-      <c r="C100" s="64" t="s">
+      <c r="C100" s="66" t="s">
         <v>41</v>
       </c>
-      <c r="D100" s="65"/>
-      <c r="E100" s="65"/>
-      <c r="F100" s="65"/>
-      <c r="G100" s="65"/>
-      <c r="H100" s="65"/>
-      <c r="I100" s="65"/>
-      <c r="J100" s="65"/>
-      <c r="K100" s="65"/>
+      <c r="D100" s="67"/>
+      <c r="E100" s="67"/>
+      <c r="F100" s="67"/>
+      <c r="G100" s="67"/>
+      <c r="H100" s="67"/>
+      <c r="I100" s="67"/>
+      <c r="J100" s="67"/>
+      <c r="K100" s="67"/>
       <c r="L100" s="6">
         <v>17</v>
       </c>
@@ -5247,17 +5247,17 @@
         <v>12</v>
       </c>
       <c r="B101" s="1"/>
-      <c r="C101" s="64" t="s">
+      <c r="C101" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="D101" s="65"/>
-      <c r="E101" s="65"/>
-      <c r="F101" s="65"/>
-      <c r="G101" s="65"/>
-      <c r="H101" s="65"/>
-      <c r="I101" s="65"/>
-      <c r="J101" s="65"/>
-      <c r="K101" s="65"/>
+      <c r="D101" s="67"/>
+      <c r="E101" s="67"/>
+      <c r="F101" s="67"/>
+      <c r="G101" s="67"/>
+      <c r="H101" s="67"/>
+      <c r="I101" s="67"/>
+      <c r="J101" s="67"/>
+      <c r="K101" s="67"/>
       <c r="L101" s="6">
         <v>17</v>
       </c>
@@ -5280,17 +5280,17 @@
         <v>13</v>
       </c>
       <c r="B102" s="1"/>
-      <c r="C102" s="65" t="s">
+      <c r="C102" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="D102" s="65"/>
-      <c r="E102" s="65"/>
-      <c r="F102" s="65"/>
-      <c r="G102" s="65"/>
-      <c r="H102" s="65"/>
-      <c r="I102" s="65"/>
-      <c r="J102" s="65"/>
-      <c r="K102" s="65"/>
+      <c r="D102" s="67"/>
+      <c r="E102" s="67"/>
+      <c r="F102" s="67"/>
+      <c r="G102" s="67"/>
+      <c r="H102" s="67"/>
+      <c r="I102" s="67"/>
+      <c r="J102" s="67"/>
+      <c r="K102" s="67"/>
       <c r="L102" s="6">
         <v>17</v>
       </c>
@@ -5326,17 +5326,17 @@
         <v>14</v>
       </c>
       <c r="B103" s="1"/>
-      <c r="C103" s="64" t="s">
+      <c r="C103" s="66" t="s">
         <v>43</v>
       </c>
-      <c r="D103" s="65"/>
-      <c r="E103" s="65"/>
-      <c r="F103" s="65"/>
-      <c r="G103" s="65"/>
-      <c r="H103" s="65"/>
-      <c r="I103" s="65"/>
-      <c r="J103" s="65"/>
-      <c r="K103" s="65"/>
+      <c r="D103" s="67"/>
+      <c r="E103" s="67"/>
+      <c r="F103" s="67"/>
+      <c r="G103" s="67"/>
+      <c r="H103" s="67"/>
+      <c r="I103" s="67"/>
+      <c r="J103" s="67"/>
+      <c r="K103" s="67"/>
       <c r="L103" s="6">
         <v>17</v>
       </c>
@@ -5372,17 +5372,17 @@
         <v>15</v>
       </c>
       <c r="B104" s="1"/>
-      <c r="C104" s="65" t="s">
+      <c r="C104" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="D104" s="65"/>
-      <c r="E104" s="65"/>
-      <c r="F104" s="65"/>
-      <c r="G104" s="65"/>
-      <c r="H104" s="65"/>
-      <c r="I104" s="65"/>
-      <c r="J104" s="65"/>
-      <c r="K104" s="65"/>
+      <c r="D104" s="67"/>
+      <c r="E104" s="67"/>
+      <c r="F104" s="67"/>
+      <c r="G104" s="67"/>
+      <c r="H104" s="67"/>
+      <c r="I104" s="67"/>
+      <c r="J104" s="67"/>
+      <c r="K104" s="67"/>
       <c r="L104" s="6">
         <v>17</v>
       </c>
@@ -5418,17 +5418,17 @@
         <v>16</v>
       </c>
       <c r="B105" s="1"/>
-      <c r="C105" s="65" t="s">
+      <c r="C105" s="67" t="s">
         <v>44</v>
       </c>
-      <c r="D105" s="65"/>
-      <c r="E105" s="65"/>
-      <c r="F105" s="65"/>
-      <c r="G105" s="65"/>
-      <c r="H105" s="65"/>
-      <c r="I105" s="65"/>
-      <c r="J105" s="65"/>
-      <c r="K105" s="65"/>
+      <c r="D105" s="67"/>
+      <c r="E105" s="67"/>
+      <c r="F105" s="67"/>
+      <c r="G105" s="67"/>
+      <c r="H105" s="67"/>
+      <c r="I105" s="67"/>
+      <c r="J105" s="67"/>
+      <c r="K105" s="67"/>
       <c r="L105" s="6">
         <v>17</v>
       </c>
@@ -5451,17 +5451,17 @@
         <v>17</v>
       </c>
       <c r="B106" s="1"/>
-      <c r="C106" s="64" t="s">
+      <c r="C106" s="66" t="s">
         <v>45</v>
       </c>
-      <c r="D106" s="65"/>
-      <c r="E106" s="65"/>
-      <c r="F106" s="65"/>
-      <c r="G106" s="65"/>
-      <c r="H106" s="65"/>
-      <c r="I106" s="65"/>
-      <c r="J106" s="65"/>
-      <c r="K106" s="65"/>
+      <c r="D106" s="67"/>
+      <c r="E106" s="67"/>
+      <c r="F106" s="67"/>
+      <c r="G106" s="67"/>
+      <c r="H106" s="67"/>
+      <c r="I106" s="67"/>
+      <c r="J106" s="67"/>
+      <c r="K106" s="67"/>
       <c r="L106" s="6">
         <v>17</v>
       </c>
@@ -5497,17 +5497,17 @@
         <v>18</v>
       </c>
       <c r="B107" s="1"/>
-      <c r="C107" s="64" t="s">
+      <c r="C107" s="66" t="s">
         <v>46</v>
       </c>
-      <c r="D107" s="65"/>
-      <c r="E107" s="65"/>
-      <c r="F107" s="65"/>
-      <c r="G107" s="65"/>
-      <c r="H107" s="65"/>
-      <c r="I107" s="65"/>
-      <c r="J107" s="65"/>
-      <c r="K107" s="65"/>
+      <c r="D107" s="67"/>
+      <c r="E107" s="67"/>
+      <c r="F107" s="67"/>
+      <c r="G107" s="67"/>
+      <c r="H107" s="67"/>
+      <c r="I107" s="67"/>
+      <c r="J107" s="67"/>
+      <c r="K107" s="67"/>
       <c r="L107" s="6">
         <v>17</v>
       </c>
@@ -5530,17 +5530,17 @@
         <v>19</v>
       </c>
       <c r="B108" s="1"/>
-      <c r="C108" s="65" t="s">
+      <c r="C108" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="D108" s="65"/>
-      <c r="E108" s="65"/>
-      <c r="F108" s="65"/>
-      <c r="G108" s="65"/>
-      <c r="H108" s="65"/>
-      <c r="I108" s="65"/>
-      <c r="J108" s="65"/>
-      <c r="K108" s="65"/>
+      <c r="D108" s="67"/>
+      <c r="E108" s="67"/>
+      <c r="F108" s="67"/>
+      <c r="G108" s="67"/>
+      <c r="H108" s="67"/>
+      <c r="I108" s="67"/>
+      <c r="J108" s="67"/>
+      <c r="K108" s="67"/>
       <c r="L108" s="6">
         <v>17</v>
       </c>
@@ -5576,17 +5576,17 @@
         <v>20</v>
       </c>
       <c r="B109" s="1"/>
-      <c r="C109" s="65" t="s">
+      <c r="C109" s="67" t="s">
         <v>47</v>
       </c>
-      <c r="D109" s="65"/>
-      <c r="E109" s="65"/>
-      <c r="F109" s="65"/>
-      <c r="G109" s="65"/>
-      <c r="H109" s="65"/>
-      <c r="I109" s="65"/>
-      <c r="J109" s="65"/>
-      <c r="K109" s="65"/>
+      <c r="D109" s="67"/>
+      <c r="E109" s="67"/>
+      <c r="F109" s="67"/>
+      <c r="G109" s="67"/>
+      <c r="H109" s="67"/>
+      <c r="I109" s="67"/>
+      <c r="J109" s="67"/>
+      <c r="K109" s="67"/>
       <c r="L109" s="6">
         <v>17</v>
       </c>
@@ -5622,17 +5622,17 @@
         <v>21</v>
       </c>
       <c r="B110" s="1"/>
-      <c r="C110" s="65" t="s">
+      <c r="C110" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="D110" s="65"/>
-      <c r="E110" s="65"/>
-      <c r="F110" s="65"/>
-      <c r="G110" s="65"/>
-      <c r="H110" s="65"/>
-      <c r="I110" s="65"/>
-      <c r="J110" s="65"/>
-      <c r="K110" s="65"/>
+      <c r="D110" s="67"/>
+      <c r="E110" s="67"/>
+      <c r="F110" s="67"/>
+      <c r="G110" s="67"/>
+      <c r="H110" s="67"/>
+      <c r="I110" s="67"/>
+      <c r="J110" s="67"/>
+      <c r="K110" s="67"/>
       <c r="L110" s="6">
         <v>17</v>
       </c>
@@ -5668,17 +5668,17 @@
         <v>22</v>
       </c>
       <c r="B111" s="1"/>
-      <c r="C111" s="64" t="s">
+      <c r="C111" s="66" t="s">
         <v>48</v>
       </c>
-      <c r="D111" s="65"/>
-      <c r="E111" s="65"/>
-      <c r="F111" s="65"/>
-      <c r="G111" s="65"/>
-      <c r="H111" s="65"/>
-      <c r="I111" s="65"/>
-      <c r="J111" s="65"/>
-      <c r="K111" s="65"/>
+      <c r="D111" s="67"/>
+      <c r="E111" s="67"/>
+      <c r="F111" s="67"/>
+      <c r="G111" s="67"/>
+      <c r="H111" s="67"/>
+      <c r="I111" s="67"/>
+      <c r="J111" s="67"/>
+      <c r="K111" s="67"/>
       <c r="L111" s="6">
         <v>17</v>
       </c>
@@ -5714,17 +5714,17 @@
         <v>23</v>
       </c>
       <c r="B112" s="1"/>
-      <c r="C112" s="65" t="s">
+      <c r="C112" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="D112" s="65"/>
-      <c r="E112" s="65"/>
-      <c r="F112" s="65"/>
-      <c r="G112" s="65"/>
-      <c r="H112" s="65"/>
-      <c r="I112" s="65"/>
-      <c r="J112" s="65"/>
-      <c r="K112" s="65"/>
+      <c r="D112" s="67"/>
+      <c r="E112" s="67"/>
+      <c r="F112" s="67"/>
+      <c r="G112" s="67"/>
+      <c r="H112" s="67"/>
+      <c r="I112" s="67"/>
+      <c r="J112" s="67"/>
+      <c r="K112" s="67"/>
       <c r="L112" s="6">
         <v>17</v>
       </c>
@@ -5747,17 +5747,17 @@
         <v>24</v>
       </c>
       <c r="B113" s="1"/>
-      <c r="C113" s="64" t="s">
+      <c r="C113" s="66" t="s">
         <v>49</v>
       </c>
-      <c r="D113" s="65"/>
-      <c r="E113" s="65"/>
-      <c r="F113" s="65"/>
-      <c r="G113" s="65"/>
-      <c r="H113" s="65"/>
-      <c r="I113" s="65"/>
-      <c r="J113" s="65"/>
-      <c r="K113" s="65"/>
+      <c r="D113" s="67"/>
+      <c r="E113" s="67"/>
+      <c r="F113" s="67"/>
+      <c r="G113" s="67"/>
+      <c r="H113" s="67"/>
+      <c r="I113" s="67"/>
+      <c r="J113" s="67"/>
+      <c r="K113" s="67"/>
       <c r="L113" s="6">
         <v>17</v>
       </c>
@@ -5780,20 +5780,20 @@
         <v>25</v>
       </c>
       <c r="B114" s="8"/>
-      <c r="C114" s="66" t="s">
+      <c r="C114" s="60" t="s">
         <v>58</v>
       </c>
-      <c r="D114" s="67"/>
-      <c r="E114" s="67"/>
-      <c r="F114" s="67"/>
-      <c r="G114" s="67"/>
-      <c r="H114" s="67"/>
-      <c r="I114" s="67"/>
-      <c r="J114" s="67"/>
-      <c r="K114" s="67"/>
-      <c r="L114" s="67"/>
-      <c r="M114" s="67"/>
-      <c r="N114" s="68"/>
+      <c r="D114" s="61"/>
+      <c r="E114" s="61"/>
+      <c r="F114" s="61"/>
+      <c r="G114" s="61"/>
+      <c r="H114" s="61"/>
+      <c r="I114" s="61"/>
+      <c r="J114" s="61"/>
+      <c r="K114" s="61"/>
+      <c r="L114" s="61"/>
+      <c r="M114" s="61"/>
+      <c r="N114" s="62"/>
       <c r="O114" s="11"/>
       <c r="P114" s="12">
         <f>AVERAGE(P90:P113)</f>
@@ -5814,26 +5814,26 @@
     </row>
     <row r="116" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="117" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A117" s="82" t="s">
+      <c r="A117" s="76" t="s">
         <v>13</v>
       </c>
-      <c r="B117" s="83"/>
-      <c r="C117" s="83"/>
-      <c r="D117" s="83"/>
-      <c r="E117" s="83"/>
-      <c r="F117" s="83"/>
-      <c r="G117" s="83"/>
-      <c r="H117" s="83"/>
-      <c r="I117" s="83"/>
-      <c r="J117" s="83"/>
-      <c r="K117" s="83"/>
-      <c r="L117" s="83"/>
-      <c r="M117" s="83"/>
-      <c r="N117" s="83"/>
-      <c r="O117" s="83"/>
-      <c r="P117" s="83"/>
-      <c r="Q117" s="83"/>
-      <c r="R117" s="84"/>
+      <c r="B117" s="77"/>
+      <c r="C117" s="77"/>
+      <c r="D117" s="77"/>
+      <c r="E117" s="77"/>
+      <c r="F117" s="77"/>
+      <c r="G117" s="77"/>
+      <c r="H117" s="77"/>
+      <c r="I117" s="77"/>
+      <c r="J117" s="77"/>
+      <c r="K117" s="77"/>
+      <c r="L117" s="77"/>
+      <c r="M117" s="77"/>
+      <c r="N117" s="77"/>
+      <c r="O117" s="77"/>
+      <c r="P117" s="77"/>
+      <c r="Q117" s="77"/>
+      <c r="R117" s="78"/>
       <c r="S117" s="15"/>
       <c r="T117" s="15"/>
       <c r="U117" s="15"/>
@@ -5843,17 +5843,17 @@
         <v>1</v>
       </c>
       <c r="B119" s="5"/>
-      <c r="C119" s="72" t="s">
+      <c r="C119" s="73" t="s">
         <v>56</v>
       </c>
-      <c r="D119" s="72"/>
-      <c r="E119" s="72"/>
-      <c r="F119" s="72"/>
-      <c r="G119" s="72"/>
-      <c r="H119" s="72"/>
-      <c r="I119" s="72"/>
-      <c r="J119" s="72"/>
-      <c r="K119" s="72"/>
+      <c r="D119" s="73"/>
+      <c r="E119" s="73"/>
+      <c r="F119" s="73"/>
+      <c r="G119" s="73"/>
+      <c r="H119" s="73"/>
+      <c r="I119" s="73"/>
+      <c r="J119" s="73"/>
+      <c r="K119" s="73"/>
       <c r="L119" s="5" t="s">
         <v>2</v>
       </c>
@@ -5890,17 +5890,17 @@
         <v>1</v>
       </c>
       <c r="B120" s="1"/>
-      <c r="C120" s="73" t="s">
+      <c r="C120" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="D120" s="73"/>
-      <c r="E120" s="73"/>
-      <c r="F120" s="73"/>
-      <c r="G120" s="73"/>
-      <c r="H120" s="73"/>
-      <c r="I120" s="73"/>
-      <c r="J120" s="73"/>
-      <c r="K120" s="73"/>
+      <c r="D120" s="74"/>
+      <c r="E120" s="74"/>
+      <c r="F120" s="74"/>
+      <c r="G120" s="74"/>
+      <c r="H120" s="74"/>
+      <c r="I120" s="74"/>
+      <c r="J120" s="74"/>
+      <c r="K120" s="74"/>
       <c r="L120" s="6">
         <v>33</v>
       </c>
@@ -5923,17 +5923,17 @@
         <v>2</v>
       </c>
       <c r="B121" s="1"/>
-      <c r="C121" s="64" t="s">
+      <c r="C121" s="66" t="s">
         <v>16</v>
       </c>
-      <c r="D121" s="65"/>
-      <c r="E121" s="65"/>
-      <c r="F121" s="65"/>
-      <c r="G121" s="65"/>
-      <c r="H121" s="65"/>
-      <c r="I121" s="65"/>
-      <c r="J121" s="65"/>
-      <c r="K121" s="65"/>
+      <c r="D121" s="67"/>
+      <c r="E121" s="67"/>
+      <c r="F121" s="67"/>
+      <c r="G121" s="67"/>
+      <c r="H121" s="67"/>
+      <c r="I121" s="67"/>
+      <c r="J121" s="67"/>
+      <c r="K121" s="67"/>
       <c r="L121" s="6">
         <v>33</v>
       </c>
@@ -5956,17 +5956,17 @@
         <v>3</v>
       </c>
       <c r="B122" s="1"/>
-      <c r="C122" s="64" t="s">
+      <c r="C122" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="D122" s="65"/>
-      <c r="E122" s="65"/>
-      <c r="F122" s="65"/>
-      <c r="G122" s="65"/>
-      <c r="H122" s="65"/>
-      <c r="I122" s="65"/>
-      <c r="J122" s="65"/>
-      <c r="K122" s="65"/>
+      <c r="D122" s="67"/>
+      <c r="E122" s="67"/>
+      <c r="F122" s="67"/>
+      <c r="G122" s="67"/>
+      <c r="H122" s="67"/>
+      <c r="I122" s="67"/>
+      <c r="J122" s="67"/>
+      <c r="K122" s="67"/>
       <c r="L122" s="6">
         <v>33</v>
       </c>
@@ -6002,17 +6002,17 @@
         <v>4</v>
       </c>
       <c r="B123" s="1"/>
-      <c r="C123" s="65" t="s">
+      <c r="C123" s="67" t="s">
         <v>18</v>
       </c>
-      <c r="D123" s="65"/>
-      <c r="E123" s="65"/>
-      <c r="F123" s="65"/>
-      <c r="G123" s="65"/>
-      <c r="H123" s="65"/>
-      <c r="I123" s="65"/>
-      <c r="J123" s="65"/>
-      <c r="K123" s="65"/>
+      <c r="D123" s="67"/>
+      <c r="E123" s="67"/>
+      <c r="F123" s="67"/>
+      <c r="G123" s="67"/>
+      <c r="H123" s="67"/>
+      <c r="I123" s="67"/>
+      <c r="J123" s="67"/>
+      <c r="K123" s="67"/>
       <c r="L123" s="6">
         <v>33</v>
       </c>
@@ -6035,17 +6035,17 @@
         <v>5</v>
       </c>
       <c r="B124" s="1"/>
-      <c r="C124" s="64" t="s">
+      <c r="C124" s="66" t="s">
         <v>61</v>
       </c>
-      <c r="D124" s="65"/>
-      <c r="E124" s="65"/>
-      <c r="F124" s="65"/>
-      <c r="G124" s="65"/>
-      <c r="H124" s="65"/>
-      <c r="I124" s="65"/>
-      <c r="J124" s="65"/>
-      <c r="K124" s="65"/>
+      <c r="D124" s="67"/>
+      <c r="E124" s="67"/>
+      <c r="F124" s="67"/>
+      <c r="G124" s="67"/>
+      <c r="H124" s="67"/>
+      <c r="I124" s="67"/>
+      <c r="J124" s="67"/>
+      <c r="K124" s="67"/>
       <c r="L124" s="6">
         <v>33</v>
       </c>
@@ -6068,17 +6068,17 @@
         <v>6</v>
       </c>
       <c r="B125" s="1"/>
-      <c r="C125" s="64" t="s">
+      <c r="C125" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="D125" s="65"/>
-      <c r="E125" s="65"/>
-      <c r="F125" s="65"/>
-      <c r="G125" s="65"/>
-      <c r="H125" s="65"/>
-      <c r="I125" s="65"/>
-      <c r="J125" s="65"/>
-      <c r="K125" s="65"/>
+      <c r="D125" s="67"/>
+      <c r="E125" s="67"/>
+      <c r="F125" s="67"/>
+      <c r="G125" s="67"/>
+      <c r="H125" s="67"/>
+      <c r="I125" s="67"/>
+      <c r="J125" s="67"/>
+      <c r="K125" s="67"/>
       <c r="L125" s="6">
         <v>33</v>
       </c>
@@ -6101,17 +6101,17 @@
         <v>7</v>
       </c>
       <c r="B126" s="1"/>
-      <c r="C126" s="65" t="s">
+      <c r="C126" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="D126" s="65"/>
-      <c r="E126" s="65"/>
-      <c r="F126" s="65"/>
-      <c r="G126" s="65"/>
-      <c r="H126" s="65"/>
-      <c r="I126" s="65"/>
-      <c r="J126" s="65"/>
-      <c r="K126" s="65"/>
+      <c r="D126" s="67"/>
+      <c r="E126" s="67"/>
+      <c r="F126" s="67"/>
+      <c r="G126" s="67"/>
+      <c r="H126" s="67"/>
+      <c r="I126" s="67"/>
+      <c r="J126" s="67"/>
+      <c r="K126" s="67"/>
       <c r="L126" s="6">
         <v>33</v>
       </c>
@@ -6134,17 +6134,17 @@
         <v>8</v>
       </c>
       <c r="B127" s="1"/>
-      <c r="C127" s="64" t="s">
+      <c r="C127" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="D127" s="65"/>
-      <c r="E127" s="65"/>
-      <c r="F127" s="65"/>
-      <c r="G127" s="65"/>
-      <c r="H127" s="65"/>
-      <c r="I127" s="65"/>
-      <c r="J127" s="65"/>
-      <c r="K127" s="65"/>
+      <c r="D127" s="67"/>
+      <c r="E127" s="67"/>
+      <c r="F127" s="67"/>
+      <c r="G127" s="67"/>
+      <c r="H127" s="67"/>
+      <c r="I127" s="67"/>
+      <c r="J127" s="67"/>
+      <c r="K127" s="67"/>
       <c r="L127" s="6">
         <v>33</v>
       </c>
@@ -6167,17 +6167,17 @@
         <v>9</v>
       </c>
       <c r="B128" s="1"/>
-      <c r="C128" s="64" t="s">
+      <c r="C128" s="66" t="s">
         <v>62</v>
       </c>
-      <c r="D128" s="65"/>
-      <c r="E128" s="65"/>
-      <c r="F128" s="65"/>
-      <c r="G128" s="65"/>
-      <c r="H128" s="65"/>
-      <c r="I128" s="65"/>
-      <c r="J128" s="65"/>
-      <c r="K128" s="65"/>
+      <c r="D128" s="67"/>
+      <c r="E128" s="67"/>
+      <c r="F128" s="67"/>
+      <c r="G128" s="67"/>
+      <c r="H128" s="67"/>
+      <c r="I128" s="67"/>
+      <c r="J128" s="67"/>
+      <c r="K128" s="67"/>
       <c r="L128" s="6">
         <v>33</v>
       </c>
@@ -6200,17 +6200,17 @@
         <v>10</v>
       </c>
       <c r="B129" s="1"/>
-      <c r="C129" s="64" t="s">
+      <c r="C129" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="D129" s="65"/>
-      <c r="E129" s="65"/>
-      <c r="F129" s="65"/>
-      <c r="G129" s="65"/>
-      <c r="H129" s="65"/>
-      <c r="I129" s="65"/>
-      <c r="J129" s="65"/>
-      <c r="K129" s="65"/>
+      <c r="D129" s="67"/>
+      <c r="E129" s="67"/>
+      <c r="F129" s="67"/>
+      <c r="G129" s="67"/>
+      <c r="H129" s="67"/>
+      <c r="I129" s="67"/>
+      <c r="J129" s="67"/>
+      <c r="K129" s="67"/>
       <c r="L129" s="6">
         <v>33</v>
       </c>
@@ -6233,17 +6233,17 @@
         <v>11</v>
       </c>
       <c r="B130" s="1"/>
-      <c r="C130" s="64" t="s">
+      <c r="C130" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="D130" s="65"/>
-      <c r="E130" s="65"/>
-      <c r="F130" s="65"/>
-      <c r="G130" s="65"/>
-      <c r="H130" s="65"/>
-      <c r="I130" s="65"/>
-      <c r="J130" s="65"/>
-      <c r="K130" s="65"/>
+      <c r="D130" s="67"/>
+      <c r="E130" s="67"/>
+      <c r="F130" s="67"/>
+      <c r="G130" s="67"/>
+      <c r="H130" s="67"/>
+      <c r="I130" s="67"/>
+      <c r="J130" s="67"/>
+      <c r="K130" s="67"/>
       <c r="L130" s="6">
         <v>33</v>
       </c>
@@ -6266,17 +6266,17 @@
         <v>12</v>
       </c>
       <c r="B131" s="1"/>
-      <c r="C131" s="64" t="s">
+      <c r="C131" s="66" t="s">
         <v>63</v>
       </c>
-      <c r="D131" s="65"/>
-      <c r="E131" s="65"/>
-      <c r="F131" s="65"/>
-      <c r="G131" s="65"/>
-      <c r="H131" s="65"/>
-      <c r="I131" s="65"/>
-      <c r="J131" s="65"/>
-      <c r="K131" s="65"/>
+      <c r="D131" s="67"/>
+      <c r="E131" s="67"/>
+      <c r="F131" s="67"/>
+      <c r="G131" s="67"/>
+      <c r="H131" s="67"/>
+      <c r="I131" s="67"/>
+      <c r="J131" s="67"/>
+      <c r="K131" s="67"/>
       <c r="L131" s="6">
         <v>33</v>
       </c>
@@ -6312,20 +6312,20 @@
         <v>13</v>
       </c>
       <c r="B132" s="1"/>
-      <c r="C132" s="66" t="s">
+      <c r="C132" s="60" t="s">
         <v>58</v>
       </c>
-      <c r="D132" s="67"/>
-      <c r="E132" s="67"/>
-      <c r="F132" s="67"/>
-      <c r="G132" s="67"/>
-      <c r="H132" s="67"/>
-      <c r="I132" s="67"/>
-      <c r="J132" s="67"/>
-      <c r="K132" s="67"/>
-      <c r="L132" s="67"/>
-      <c r="M132" s="67"/>
-      <c r="N132" s="68"/>
+      <c r="D132" s="61"/>
+      <c r="E132" s="61"/>
+      <c r="F132" s="61"/>
+      <c r="G132" s="61"/>
+      <c r="H132" s="61"/>
+      <c r="I132" s="61"/>
+      <c r="J132" s="61"/>
+      <c r="K132" s="61"/>
+      <c r="L132" s="61"/>
+      <c r="M132" s="61"/>
+      <c r="N132" s="62"/>
       <c r="O132" s="11"/>
       <c r="P132" s="12">
         <f>AVERAGE(P120:P131)</f>
@@ -6348,26 +6348,26 @@
       <c r="B133" s="1"/>
     </row>
     <row r="134" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A134" s="69" t="s">
+      <c r="A134" s="63" t="s">
         <v>24</v>
       </c>
-      <c r="B134" s="70"/>
-      <c r="C134" s="70"/>
-      <c r="D134" s="70"/>
-      <c r="E134" s="70"/>
-      <c r="F134" s="70"/>
-      <c r="G134" s="70"/>
-      <c r="H134" s="70"/>
-      <c r="I134" s="70"/>
-      <c r="J134" s="70"/>
-      <c r="K134" s="70"/>
-      <c r="L134" s="70"/>
-      <c r="M134" s="70"/>
-      <c r="N134" s="70"/>
-      <c r="O134" s="70"/>
-      <c r="P134" s="70"/>
-      <c r="Q134" s="70"/>
-      <c r="R134" s="71"/>
+      <c r="B134" s="64"/>
+      <c r="C134" s="64"/>
+      <c r="D134" s="64"/>
+      <c r="E134" s="64"/>
+      <c r="F134" s="64"/>
+      <c r="G134" s="64"/>
+      <c r="H134" s="64"/>
+      <c r="I134" s="64"/>
+      <c r="J134" s="64"/>
+      <c r="K134" s="64"/>
+      <c r="L134" s="64"/>
+      <c r="M134" s="64"/>
+      <c r="N134" s="64"/>
+      <c r="O134" s="64"/>
+      <c r="P134" s="64"/>
+      <c r="Q134" s="64"/>
+      <c r="R134" s="65"/>
       <c r="S134" s="3"/>
       <c r="T134" s="3"/>
       <c r="U134" s="3"/>
@@ -6377,17 +6377,17 @@
         <v>1</v>
       </c>
       <c r="B136" s="5"/>
-      <c r="C136" s="72" t="s">
+      <c r="C136" s="73" t="s">
         <v>56</v>
       </c>
-      <c r="D136" s="72"/>
-      <c r="E136" s="72"/>
-      <c r="F136" s="72"/>
-      <c r="G136" s="72"/>
-      <c r="H136" s="72"/>
-      <c r="I136" s="72"/>
-      <c r="J136" s="72"/>
-      <c r="K136" s="72"/>
+      <c r="D136" s="73"/>
+      <c r="E136" s="73"/>
+      <c r="F136" s="73"/>
+      <c r="G136" s="73"/>
+      <c r="H136" s="73"/>
+      <c r="I136" s="73"/>
+      <c r="J136" s="73"/>
+      <c r="K136" s="73"/>
       <c r="L136" s="5" t="s">
         <v>2</v>
       </c>
@@ -6424,17 +6424,17 @@
         <v>1</v>
       </c>
       <c r="B137" s="1"/>
-      <c r="C137" s="73" t="s">
+      <c r="C137" s="74" t="s">
         <v>65</v>
       </c>
-      <c r="D137" s="73"/>
-      <c r="E137" s="73"/>
-      <c r="F137" s="73"/>
-      <c r="G137" s="73"/>
-      <c r="H137" s="73"/>
-      <c r="I137" s="73"/>
-      <c r="J137" s="73"/>
-      <c r="K137" s="73"/>
+      <c r="D137" s="74"/>
+      <c r="E137" s="74"/>
+      <c r="F137" s="74"/>
+      <c r="G137" s="74"/>
+      <c r="H137" s="74"/>
+      <c r="I137" s="74"/>
+      <c r="J137" s="74"/>
+      <c r="K137" s="74"/>
       <c r="L137" s="6">
         <v>33</v>
       </c>
@@ -6457,17 +6457,17 @@
         <v>2</v>
       </c>
       <c r="B138" s="1"/>
-      <c r="C138" s="64" t="s">
+      <c r="C138" s="66" t="s">
         <v>66</v>
       </c>
-      <c r="D138" s="65"/>
-      <c r="E138" s="65"/>
-      <c r="F138" s="65"/>
-      <c r="G138" s="65"/>
-      <c r="H138" s="65"/>
-      <c r="I138" s="65"/>
-      <c r="J138" s="65"/>
-      <c r="K138" s="65"/>
+      <c r="D138" s="67"/>
+      <c r="E138" s="67"/>
+      <c r="F138" s="67"/>
+      <c r="G138" s="67"/>
+      <c r="H138" s="67"/>
+      <c r="I138" s="67"/>
+      <c r="J138" s="67"/>
+      <c r="K138" s="67"/>
       <c r="L138" s="6">
         <v>33</v>
       </c>
@@ -6490,17 +6490,17 @@
         <v>3</v>
       </c>
       <c r="B139" s="1"/>
-      <c r="C139" s="64" t="s">
+      <c r="C139" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="D139" s="65"/>
-      <c r="E139" s="65"/>
-      <c r="F139" s="65"/>
-      <c r="G139" s="65"/>
-      <c r="H139" s="65"/>
-      <c r="I139" s="65"/>
-      <c r="J139" s="65"/>
-      <c r="K139" s="65"/>
+      <c r="D139" s="67"/>
+      <c r="E139" s="67"/>
+      <c r="F139" s="67"/>
+      <c r="G139" s="67"/>
+      <c r="H139" s="67"/>
+      <c r="I139" s="67"/>
+      <c r="J139" s="67"/>
+      <c r="K139" s="67"/>
       <c r="L139" s="6">
         <v>33</v>
       </c>
@@ -6523,17 +6523,17 @@
         <v>4</v>
       </c>
       <c r="B140" s="1"/>
-      <c r="C140" s="65" t="s">
+      <c r="C140" s="67" t="s">
         <v>26</v>
       </c>
-      <c r="D140" s="65"/>
-      <c r="E140" s="65"/>
-      <c r="F140" s="65"/>
-      <c r="G140" s="65"/>
-      <c r="H140" s="65"/>
-      <c r="I140" s="65"/>
-      <c r="J140" s="65"/>
-      <c r="K140" s="65"/>
+      <c r="D140" s="67"/>
+      <c r="E140" s="67"/>
+      <c r="F140" s="67"/>
+      <c r="G140" s="67"/>
+      <c r="H140" s="67"/>
+      <c r="I140" s="67"/>
+      <c r="J140" s="67"/>
+      <c r="K140" s="67"/>
       <c r="L140" s="6">
         <v>33</v>
       </c>
@@ -6556,17 +6556,17 @@
         <v>5</v>
       </c>
       <c r="B141" s="1"/>
-      <c r="C141" s="64" t="s">
+      <c r="C141" s="66" t="s">
         <v>27</v>
       </c>
-      <c r="D141" s="65"/>
-      <c r="E141" s="65"/>
-      <c r="F141" s="65"/>
-      <c r="G141" s="65"/>
-      <c r="H141" s="65"/>
-      <c r="I141" s="65"/>
-      <c r="J141" s="65"/>
-      <c r="K141" s="65"/>
+      <c r="D141" s="67"/>
+      <c r="E141" s="67"/>
+      <c r="F141" s="67"/>
+      <c r="G141" s="67"/>
+      <c r="H141" s="67"/>
+      <c r="I141" s="67"/>
+      <c r="J141" s="67"/>
+      <c r="K141" s="67"/>
       <c r="L141" s="6">
         <v>33</v>
       </c>
@@ -6589,17 +6589,17 @@
         <v>6</v>
       </c>
       <c r="B142" s="1"/>
-      <c r="C142" s="64" t="s">
+      <c r="C142" s="66" t="s">
         <v>67</v>
       </c>
-      <c r="D142" s="65"/>
-      <c r="E142" s="65"/>
-      <c r="F142" s="65"/>
-      <c r="G142" s="65"/>
-      <c r="H142" s="65"/>
-      <c r="I142" s="65"/>
-      <c r="J142" s="65"/>
-      <c r="K142" s="65"/>
+      <c r="D142" s="67"/>
+      <c r="E142" s="67"/>
+      <c r="F142" s="67"/>
+      <c r="G142" s="67"/>
+      <c r="H142" s="67"/>
+      <c r="I142" s="67"/>
+      <c r="J142" s="67"/>
+      <c r="K142" s="67"/>
       <c r="L142" s="6">
         <v>33</v>
       </c>
@@ -6622,20 +6622,20 @@
         <v>7</v>
       </c>
       <c r="B143" s="1"/>
-      <c r="C143" s="66" t="s">
+      <c r="C143" s="60" t="s">
         <v>58</v>
       </c>
-      <c r="D143" s="67"/>
-      <c r="E143" s="67"/>
-      <c r="F143" s="67"/>
-      <c r="G143" s="67"/>
-      <c r="H143" s="67"/>
-      <c r="I143" s="67"/>
-      <c r="J143" s="67"/>
-      <c r="K143" s="67"/>
-      <c r="L143" s="67"/>
-      <c r="M143" s="67"/>
-      <c r="N143" s="68"/>
+      <c r="D143" s="61"/>
+      <c r="E143" s="61"/>
+      <c r="F143" s="61"/>
+      <c r="G143" s="61"/>
+      <c r="H143" s="61"/>
+      <c r="I143" s="61"/>
+      <c r="J143" s="61"/>
+      <c r="K143" s="61"/>
+      <c r="L143" s="61"/>
+      <c r="M143" s="61"/>
+      <c r="N143" s="62"/>
       <c r="O143" s="11"/>
       <c r="P143" s="12" t="e">
         <f>AVERAGE(P137:P142)</f>
@@ -6655,25 +6655,25 @@
       <c r="B144" s="1"/>
     </row>
     <row r="145" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A145" s="81" t="s">
+      <c r="A145" s="72" t="s">
         <v>28</v>
       </c>
-      <c r="B145" s="81"/>
-      <c r="C145" s="81"/>
-      <c r="D145" s="81"/>
-      <c r="E145" s="81"/>
-      <c r="F145" s="81"/>
-      <c r="G145" s="81"/>
-      <c r="H145" s="81"/>
-      <c r="I145" s="81"/>
-      <c r="J145" s="81"/>
-      <c r="K145" s="81"/>
-      <c r="L145" s="81"/>
-      <c r="M145" s="81"/>
-      <c r="N145" s="81"/>
-      <c r="O145" s="81"/>
-      <c r="P145" s="81"/>
-      <c r="Q145" s="81"/>
+      <c r="B145" s="72"/>
+      <c r="C145" s="72"/>
+      <c r="D145" s="72"/>
+      <c r="E145" s="72"/>
+      <c r="F145" s="72"/>
+      <c r="G145" s="72"/>
+      <c r="H145" s="72"/>
+      <c r="I145" s="72"/>
+      <c r="J145" s="72"/>
+      <c r="K145" s="72"/>
+      <c r="L145" s="72"/>
+      <c r="M145" s="72"/>
+      <c r="N145" s="72"/>
+      <c r="O145" s="72"/>
+      <c r="P145" s="72"/>
+      <c r="Q145" s="72"/>
       <c r="R145"/>
     </row>
     <row r="146" spans="1:18" x14ac:dyDescent="0.3">
@@ -6681,10 +6681,10 @@
         <v>1</v>
       </c>
       <c r="B146" s="16"/>
-      <c r="C146" s="80" t="s">
+      <c r="C146" s="68" t="s">
         <v>68</v>
       </c>
-      <c r="D146" s="80"/>
+      <c r="D146" s="68"/>
       <c r="E146" s="17" t="s">
         <v>69</v>
       </c>
@@ -6731,10 +6731,10 @@
         <v>1</v>
       </c>
       <c r="B147" s="14"/>
-      <c r="C147" s="63" t="s">
+      <c r="C147" s="57" t="s">
         <v>84</v>
       </c>
-      <c r="D147" s="63"/>
+      <c r="D147" s="57"/>
       <c r="E147" s="25">
         <v>51</v>
       </c>
@@ -6781,10 +6781,10 @@
         <v>2</v>
       </c>
       <c r="B148" s="14"/>
-      <c r="C148" s="63" t="s">
+      <c r="C148" s="57" t="s">
         <v>85</v>
       </c>
-      <c r="D148" s="63"/>
+      <c r="D148" s="57"/>
       <c r="E148" s="25">
         <v>47</v>
       </c>
@@ -6831,10 +6831,10 @@
         <v>3</v>
       </c>
       <c r="B149" s="14"/>
-      <c r="C149" s="63" t="s">
+      <c r="C149" s="57" t="s">
         <v>86</v>
       </c>
-      <c r="D149" s="63"/>
+      <c r="D149" s="57"/>
       <c r="E149" s="25">
         <v>51</v>
       </c>
@@ -6881,10 +6881,10 @@
         <v>4</v>
       </c>
       <c r="B150" s="14"/>
-      <c r="C150" s="63" t="s">
+      <c r="C150" s="57" t="s">
         <v>87</v>
       </c>
-      <c r="D150" s="63"/>
+      <c r="D150" s="57"/>
       <c r="E150" s="25">
         <v>52</v>
       </c>
@@ -6931,10 +6931,10 @@
         <v>5</v>
       </c>
       <c r="B151" s="14"/>
-      <c r="C151" s="63" t="s">
+      <c r="C151" s="57" t="s">
         <v>90</v>
       </c>
-      <c r="D151" s="63"/>
+      <c r="D151" s="57"/>
       <c r="E151" s="25">
         <v>60</v>
       </c>
@@ -6981,10 +6981,10 @@
         <v>6</v>
       </c>
       <c r="B152" s="14"/>
-      <c r="C152" s="63" t="s">
+      <c r="C152" s="57" t="s">
         <v>91</v>
       </c>
-      <c r="D152" s="63"/>
+      <c r="D152" s="57"/>
       <c r="E152" s="25">
         <v>56</v>
       </c>
@@ -7031,10 +7031,10 @@
         <v>7</v>
       </c>
       <c r="B153" s="14"/>
-      <c r="C153" s="63" t="s">
+      <c r="C153" s="57" t="s">
         <v>92</v>
       </c>
-      <c r="D153" s="63"/>
+      <c r="D153" s="57"/>
       <c r="E153" s="25">
         <v>56</v>
       </c>
@@ -7081,10 +7081,10 @@
         <v>8</v>
       </c>
       <c r="B154" s="14"/>
-      <c r="C154" s="63" t="s">
+      <c r="C154" s="57" t="s">
         <v>93</v>
       </c>
-      <c r="D154" s="63"/>
+      <c r="D154" s="57"/>
       <c r="E154" s="25">
         <v>56</v>
       </c>
@@ -7129,10 +7129,10 @@
     <row r="155" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A155" s="14"/>
       <c r="B155" s="14"/>
-      <c r="C155" s="74" t="s">
+      <c r="C155" s="58" t="s">
         <v>98</v>
       </c>
-      <c r="D155" s="74"/>
+      <c r="D155" s="58"/>
       <c r="E155" s="25">
         <f t="shared" ref="E155:O155" si="11">AVERAGE(E147:E154)</f>
         <v>53.625</v>
@@ -7194,25 +7194,25 @@
       <c r="R157"/>
     </row>
     <row r="158" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A158" s="79" t="s">
+      <c r="A158" s="75" t="s">
         <v>99</v>
       </c>
-      <c r="B158" s="79"/>
-      <c r="C158" s="79"/>
-      <c r="D158" s="79"/>
-      <c r="E158" s="79"/>
-      <c r="F158" s="79"/>
-      <c r="G158" s="79"/>
-      <c r="H158" s="79"/>
-      <c r="I158" s="79"/>
-      <c r="J158" s="79"/>
-      <c r="K158" s="79"/>
-      <c r="L158" s="79"/>
-      <c r="M158" s="79"/>
-      <c r="N158" s="79"/>
-      <c r="O158" s="79"/>
-      <c r="P158" s="79"/>
-      <c r="Q158" s="79"/>
+      <c r="B158" s="75"/>
+      <c r="C158" s="75"/>
+      <c r="D158" s="75"/>
+      <c r="E158" s="75"/>
+      <c r="F158" s="75"/>
+      <c r="G158" s="75"/>
+      <c r="H158" s="75"/>
+      <c r="I158" s="75"/>
+      <c r="J158" s="75"/>
+      <c r="K158" s="75"/>
+      <c r="L158" s="75"/>
+      <c r="M158" s="75"/>
+      <c r="N158" s="75"/>
+      <c r="O158" s="75"/>
+      <c r="P158" s="75"/>
+      <c r="Q158" s="75"/>
       <c r="R158"/>
     </row>
     <row r="159" spans="1:18" x14ac:dyDescent="0.3">
@@ -7220,10 +7220,10 @@
         <v>1</v>
       </c>
       <c r="B159" s="16"/>
-      <c r="C159" s="80" t="s">
+      <c r="C159" s="68" t="s">
         <v>68</v>
       </c>
-      <c r="D159" s="80"/>
+      <c r="D159" s="68"/>
       <c r="E159" s="17" t="s">
         <v>69</v>
       </c>
@@ -7270,10 +7270,10 @@
         <v>1</v>
       </c>
       <c r="B160" s="14"/>
-      <c r="C160" s="63" t="s">
+      <c r="C160" s="57" t="s">
         <v>94</v>
       </c>
-      <c r="D160" s="63"/>
+      <c r="D160" s="57"/>
       <c r="E160" s="25">
         <v>58</v>
       </c>
@@ -7320,10 +7320,10 @@
         <v>2</v>
       </c>
       <c r="B161" s="14"/>
-      <c r="C161" s="63" t="s">
+      <c r="C161" s="57" t="s">
         <v>95</v>
       </c>
-      <c r="D161" s="63"/>
+      <c r="D161" s="57"/>
       <c r="E161" s="25">
         <v>60</v>
       </c>
@@ -7370,10 +7370,10 @@
         <v>3</v>
       </c>
       <c r="B162" s="14"/>
-      <c r="C162" s="63" t="s">
+      <c r="C162" s="57" t="s">
         <v>96</v>
       </c>
-      <c r="D162" s="63"/>
+      <c r="D162" s="57"/>
       <c r="E162" s="25">
         <v>59</v>
       </c>
@@ -7419,10 +7419,10 @@
         <v>4</v>
       </c>
       <c r="B163" s="14"/>
-      <c r="C163" s="63" t="s">
+      <c r="C163" s="57" t="s">
         <v>97</v>
       </c>
-      <c r="D163" s="63"/>
+      <c r="D163" s="57"/>
       <c r="E163" s="25">
         <v>56</v>
       </c>
@@ -7464,10 +7464,10 @@
       </c>
     </row>
     <row r="164" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="C164" s="74" t="s">
+      <c r="C164" s="58" t="s">
         <v>98</v>
       </c>
-      <c r="D164" s="74"/>
+      <c r="D164" s="58"/>
       <c r="E164" s="25">
         <f t="shared" ref="E164:O164" si="12">AVERAGE(E160:E163)</f>
         <v>58.25</v>
@@ -7522,103 +7522,103 @@
       </c>
     </row>
     <row r="170" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A170" s="75" t="s">
+      <c r="A170" s="59" t="s">
         <v>106</v>
       </c>
-      <c r="B170" s="75"/>
-      <c r="C170" s="75"/>
-      <c r="D170" s="75"/>
-      <c r="E170" s="75"/>
-      <c r="F170" s="75"/>
-      <c r="G170" s="75"/>
-      <c r="H170" s="75"/>
-      <c r="I170" s="75"/>
-      <c r="J170" s="75"/>
-      <c r="K170" s="75"/>
-      <c r="L170" s="75"/>
-      <c r="M170" s="75"/>
-      <c r="N170" s="75"/>
-      <c r="O170" s="75"/>
-      <c r="P170" s="75"/>
-      <c r="Q170" s="75"/>
-      <c r="R170" s="75"/>
-      <c r="S170" s="75"/>
-      <c r="T170" s="75"/>
-      <c r="U170" s="75"/>
-      <c r="V170" s="75"/>
-      <c r="W170" s="75"/>
+      <c r="B170" s="59"/>
+      <c r="C170" s="59"/>
+      <c r="D170" s="59"/>
+      <c r="E170" s="59"/>
+      <c r="F170" s="59"/>
+      <c r="G170" s="59"/>
+      <c r="H170" s="59"/>
+      <c r="I170" s="59"/>
+      <c r="J170" s="59"/>
+      <c r="K170" s="59"/>
+      <c r="L170" s="59"/>
+      <c r="M170" s="59"/>
+      <c r="N170" s="59"/>
+      <c r="O170" s="59"/>
+      <c r="P170" s="59"/>
+      <c r="Q170" s="59"/>
+      <c r="R170" s="59"/>
+      <c r="S170" s="59"/>
+      <c r="T170" s="59"/>
+      <c r="U170" s="59"/>
+      <c r="V170" s="59"/>
+      <c r="W170" s="59"/>
     </row>
     <row r="171" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A171" s="75"/>
-      <c r="B171" s="75"/>
-      <c r="C171" s="75"/>
-      <c r="D171" s="75"/>
-      <c r="E171" s="75"/>
-      <c r="F171" s="75"/>
-      <c r="G171" s="75"/>
-      <c r="H171" s="75"/>
-      <c r="I171" s="75"/>
-      <c r="J171" s="75"/>
-      <c r="K171" s="75"/>
-      <c r="L171" s="75"/>
-      <c r="M171" s="75"/>
-      <c r="N171" s="75"/>
-      <c r="O171" s="75"/>
-      <c r="P171" s="75"/>
-      <c r="Q171" s="75"/>
-      <c r="R171" s="75"/>
-      <c r="S171" s="75"/>
-      <c r="T171" s="75"/>
-      <c r="U171" s="75"/>
-      <c r="V171" s="75"/>
-      <c r="W171" s="75"/>
+      <c r="A171" s="59"/>
+      <c r="B171" s="59"/>
+      <c r="C171" s="59"/>
+      <c r="D171" s="59"/>
+      <c r="E171" s="59"/>
+      <c r="F171" s="59"/>
+      <c r="G171" s="59"/>
+      <c r="H171" s="59"/>
+      <c r="I171" s="59"/>
+      <c r="J171" s="59"/>
+      <c r="K171" s="59"/>
+      <c r="L171" s="59"/>
+      <c r="M171" s="59"/>
+      <c r="N171" s="59"/>
+      <c r="O171" s="59"/>
+      <c r="P171" s="59"/>
+      <c r="Q171" s="59"/>
+      <c r="R171" s="59"/>
+      <c r="S171" s="59"/>
+      <c r="T171" s="59"/>
+      <c r="U171" s="59"/>
+      <c r="V171" s="59"/>
+      <c r="W171" s="59"/>
     </row>
     <row r="172" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A172" s="75"/>
-      <c r="B172" s="75"/>
-      <c r="C172" s="75"/>
-      <c r="D172" s="75"/>
-      <c r="E172" s="75"/>
-      <c r="F172" s="75"/>
-      <c r="G172" s="75"/>
-      <c r="H172" s="75"/>
-      <c r="I172" s="75"/>
-      <c r="J172" s="75"/>
-      <c r="K172" s="75"/>
-      <c r="L172" s="75"/>
-      <c r="M172" s="75"/>
-      <c r="N172" s="75"/>
-      <c r="O172" s="75"/>
-      <c r="P172" s="75"/>
-      <c r="Q172" s="75"/>
-      <c r="R172" s="75"/>
-      <c r="S172" s="75"/>
-      <c r="T172" s="75"/>
-      <c r="U172" s="75"/>
-      <c r="V172" s="75"/>
-      <c r="W172" s="75"/>
+      <c r="A172" s="59"/>
+      <c r="B172" s="59"/>
+      <c r="C172" s="59"/>
+      <c r="D172" s="59"/>
+      <c r="E172" s="59"/>
+      <c r="F172" s="59"/>
+      <c r="G172" s="59"/>
+      <c r="H172" s="59"/>
+      <c r="I172" s="59"/>
+      <c r="J172" s="59"/>
+      <c r="K172" s="59"/>
+      <c r="L172" s="59"/>
+      <c r="M172" s="59"/>
+      <c r="N172" s="59"/>
+      <c r="O172" s="59"/>
+      <c r="P172" s="59"/>
+      <c r="Q172" s="59"/>
+      <c r="R172" s="59"/>
+      <c r="S172" s="59"/>
+      <c r="T172" s="59"/>
+      <c r="U172" s="59"/>
+      <c r="V172" s="59"/>
+      <c r="W172" s="59"/>
     </row>
     <row r="173" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A173" s="76" t="s">
+      <c r="A173" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="B173" s="77"/>
-      <c r="C173" s="77"/>
-      <c r="D173" s="77"/>
-      <c r="E173" s="77"/>
-      <c r="F173" s="77"/>
-      <c r="G173" s="77"/>
-      <c r="H173" s="77"/>
-      <c r="I173" s="77"/>
-      <c r="J173" s="77"/>
-      <c r="K173" s="77"/>
-      <c r="L173" s="77"/>
-      <c r="M173" s="77"/>
-      <c r="N173" s="77"/>
-      <c r="O173" s="77"/>
-      <c r="P173" s="77"/>
-      <c r="Q173" s="77"/>
-      <c r="R173" s="78"/>
+      <c r="B173" s="70"/>
+      <c r="C173" s="70"/>
+      <c r="D173" s="70"/>
+      <c r="E173" s="70"/>
+      <c r="F173" s="70"/>
+      <c r="G173" s="70"/>
+      <c r="H173" s="70"/>
+      <c r="I173" s="70"/>
+      <c r="J173" s="70"/>
+      <c r="K173" s="70"/>
+      <c r="L173" s="70"/>
+      <c r="M173" s="70"/>
+      <c r="N173" s="70"/>
+      <c r="O173" s="70"/>
+      <c r="P173" s="70"/>
+      <c r="Q173" s="70"/>
+      <c r="R173" s="71"/>
       <c r="S173" s="38"/>
       <c r="T173" s="38"/>
       <c r="U173" s="38"/>
@@ -7634,17 +7634,17 @@
       <c r="B175" s="46" t="s">
         <v>105</v>
       </c>
-      <c r="C175" s="60" t="s">
+      <c r="C175" s="90" t="s">
         <v>108</v>
       </c>
-      <c r="D175" s="61"/>
-      <c r="E175" s="61"/>
-      <c r="F175" s="61"/>
-      <c r="G175" s="61"/>
-      <c r="H175" s="61"/>
-      <c r="I175" s="61"/>
-      <c r="J175" s="61"/>
-      <c r="K175" s="62"/>
+      <c r="D175" s="91"/>
+      <c r="E175" s="91"/>
+      <c r="F175" s="91"/>
+      <c r="G175" s="91"/>
+      <c r="H175" s="91"/>
+      <c r="I175" s="91"/>
+      <c r="J175" s="91"/>
+      <c r="K175" s="92"/>
       <c r="L175" s="5" t="s">
         <v>2</v>
       </c>
@@ -7684,17 +7684,17 @@
       <c r="B176" s="48">
         <v>44741</v>
       </c>
-      <c r="C176" s="54" t="s">
+      <c r="C176" s="83" t="s">
         <v>43</v>
       </c>
-      <c r="D176" s="55"/>
-      <c r="E176" s="55"/>
-      <c r="F176" s="55"/>
-      <c r="G176" s="55"/>
-      <c r="H176" s="55"/>
-      <c r="I176" s="55"/>
-      <c r="J176" s="55"/>
-      <c r="K176" s="56"/>
+      <c r="D176" s="84"/>
+      <c r="E176" s="84"/>
+      <c r="F176" s="84"/>
+      <c r="G176" s="84"/>
+      <c r="H176" s="84"/>
+      <c r="I176" s="84"/>
+      <c r="J176" s="84"/>
+      <c r="K176" s="85"/>
       <c r="L176" s="6">
         <v>17</v>
       </c>
@@ -7734,17 +7734,17 @@
       <c r="B177" s="48">
         <v>44740</v>
       </c>
-      <c r="C177" s="57" t="s">
+      <c r="C177" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="D177" s="58"/>
-      <c r="E177" s="58"/>
-      <c r="F177" s="58"/>
-      <c r="G177" s="58"/>
-      <c r="H177" s="58"/>
-      <c r="I177" s="58"/>
-      <c r="J177" s="58"/>
-      <c r="K177" s="59"/>
+      <c r="D177" s="88"/>
+      <c r="E177" s="88"/>
+      <c r="F177" s="88"/>
+      <c r="G177" s="88"/>
+      <c r="H177" s="88"/>
+      <c r="I177" s="88"/>
+      <c r="J177" s="88"/>
+      <c r="K177" s="89"/>
       <c r="L177" s="6">
         <v>17</v>
       </c>
@@ -7784,17 +7784,17 @@
       <c r="B178" s="48">
         <v>44765</v>
       </c>
-      <c r="C178" s="57" t="s">
+      <c r="C178" s="87" t="s">
         <v>11</v>
       </c>
-      <c r="D178" s="58"/>
-      <c r="E178" s="58"/>
-      <c r="F178" s="58"/>
-      <c r="G178" s="58"/>
-      <c r="H178" s="58"/>
-      <c r="I178" s="58"/>
-      <c r="J178" s="58"/>
-      <c r="K178" s="59"/>
+      <c r="D178" s="88"/>
+      <c r="E178" s="88"/>
+      <c r="F178" s="88"/>
+      <c r="G178" s="88"/>
+      <c r="H178" s="88"/>
+      <c r="I178" s="88"/>
+      <c r="J178" s="88"/>
+      <c r="K178" s="89"/>
       <c r="L178" s="6">
         <v>17</v>
       </c>
@@ -7834,17 +7834,17 @@
       <c r="B179" s="48">
         <v>44766</v>
       </c>
-      <c r="C179" s="54" t="s">
+      <c r="C179" s="83" t="s">
         <v>48</v>
       </c>
-      <c r="D179" s="55"/>
-      <c r="E179" s="55"/>
-      <c r="F179" s="55"/>
-      <c r="G179" s="55"/>
-      <c r="H179" s="55"/>
-      <c r="I179" s="55"/>
-      <c r="J179" s="55"/>
-      <c r="K179" s="56"/>
+      <c r="D179" s="84"/>
+      <c r="E179" s="84"/>
+      <c r="F179" s="84"/>
+      <c r="G179" s="84"/>
+      <c r="H179" s="84"/>
+      <c r="I179" s="84"/>
+      <c r="J179" s="84"/>
+      <c r="K179" s="85"/>
       <c r="L179" s="6">
         <v>17</v>
       </c>
@@ -7884,17 +7884,17 @@
       <c r="B180" s="48">
         <v>44797</v>
       </c>
-      <c r="C180" s="54" t="s">
+      <c r="C180" s="83" t="s">
         <v>45</v>
       </c>
-      <c r="D180" s="55"/>
-      <c r="E180" s="55"/>
-      <c r="F180" s="55"/>
-      <c r="G180" s="55"/>
-      <c r="H180" s="55"/>
-      <c r="I180" s="55"/>
-      <c r="J180" s="55"/>
-      <c r="K180" s="56"/>
+      <c r="D180" s="84"/>
+      <c r="E180" s="84"/>
+      <c r="F180" s="84"/>
+      <c r="G180" s="84"/>
+      <c r="H180" s="84"/>
+      <c r="I180" s="84"/>
+      <c r="J180" s="84"/>
+      <c r="K180" s="85"/>
       <c r="L180" s="6">
         <v>17</v>
       </c>
@@ -7934,17 +7934,17 @@
       <c r="B181" s="48">
         <v>44797</v>
       </c>
-      <c r="C181" s="54" t="s">
+      <c r="C181" s="83" t="s">
         <v>46</v>
       </c>
-      <c r="D181" s="55"/>
-      <c r="E181" s="55"/>
-      <c r="F181" s="55"/>
-      <c r="G181" s="55"/>
-      <c r="H181" s="55"/>
-      <c r="I181" s="55"/>
-      <c r="J181" s="55"/>
-      <c r="K181" s="56"/>
+      <c r="D181" s="84"/>
+      <c r="E181" s="84"/>
+      <c r="F181" s="84"/>
+      <c r="G181" s="84"/>
+      <c r="H181" s="84"/>
+      <c r="I181" s="84"/>
+      <c r="J181" s="84"/>
+      <c r="K181" s="85"/>
       <c r="L181" s="6">
         <v>17</v>
       </c>
@@ -7982,17 +7982,17 @@
         <v>15</v>
       </c>
       <c r="B182" s="48"/>
-      <c r="C182" s="54" t="s">
+      <c r="C182" s="83" t="s">
         <v>36</v>
       </c>
-      <c r="D182" s="55"/>
-      <c r="E182" s="55"/>
-      <c r="F182" s="55"/>
-      <c r="G182" s="55"/>
-      <c r="H182" s="55"/>
-      <c r="I182" s="55"/>
-      <c r="J182" s="55"/>
-      <c r="K182" s="56"/>
+      <c r="D182" s="84"/>
+      <c r="E182" s="84"/>
+      <c r="F182" s="84"/>
+      <c r="G182" s="84"/>
+      <c r="H182" s="84"/>
+      <c r="I182" s="84"/>
+      <c r="J182" s="84"/>
+      <c r="K182" s="85"/>
       <c r="L182" s="6">
         <v>17</v>
       </c>
@@ -8032,17 +8032,17 @@
       <c r="B183" s="48">
         <v>44813</v>
       </c>
-      <c r="C183" s="54" t="s">
+      <c r="C183" s="83" t="s">
         <v>37</v>
       </c>
-      <c r="D183" s="55"/>
-      <c r="E183" s="55"/>
-      <c r="F183" s="55"/>
-      <c r="G183" s="55"/>
-      <c r="H183" s="55"/>
-      <c r="I183" s="55"/>
-      <c r="J183" s="55"/>
-      <c r="K183" s="56"/>
+      <c r="D183" s="84"/>
+      <c r="E183" s="84"/>
+      <c r="F183" s="84"/>
+      <c r="G183" s="84"/>
+      <c r="H183" s="84"/>
+      <c r="I183" s="84"/>
+      <c r="J183" s="84"/>
+      <c r="K183" s="85"/>
       <c r="L183" s="6">
         <v>17</v>
       </c>
@@ -8082,17 +8082,17 @@
       <c r="B184" s="48">
         <v>44822</v>
       </c>
-      <c r="C184" s="54" t="s">
+      <c r="C184" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="D184" s="55"/>
-      <c r="E184" s="55"/>
-      <c r="F184" s="55"/>
-      <c r="G184" s="55"/>
-      <c r="H184" s="55"/>
-      <c r="I184" s="55"/>
-      <c r="J184" s="55"/>
-      <c r="K184" s="56"/>
+      <c r="D184" s="84"/>
+      <c r="E184" s="84"/>
+      <c r="F184" s="84"/>
+      <c r="G184" s="84"/>
+      <c r="H184" s="84"/>
+      <c r="I184" s="84"/>
+      <c r="J184" s="84"/>
+      <c r="K184" s="85"/>
       <c r="L184" s="6">
         <v>17</v>
       </c>
@@ -8132,17 +8132,17 @@
       <c r="B185" s="48">
         <v>44822</v>
       </c>
-      <c r="C185" s="54" t="s">
+      <c r="C185" s="83" t="s">
         <v>40</v>
       </c>
-      <c r="D185" s="55"/>
-      <c r="E185" s="55"/>
-      <c r="F185" s="55"/>
-      <c r="G185" s="55"/>
-      <c r="H185" s="55"/>
-      <c r="I185" s="55"/>
-      <c r="J185" s="55"/>
-      <c r="K185" s="56"/>
+      <c r="D185" s="84"/>
+      <c r="E185" s="84"/>
+      <c r="F185" s="84"/>
+      <c r="G185" s="84"/>
+      <c r="H185" s="84"/>
+      <c r="I185" s="84"/>
+      <c r="J185" s="84"/>
+      <c r="K185" s="85"/>
       <c r="L185" s="6">
         <v>17</v>
       </c>
@@ -8182,17 +8182,17 @@
       <c r="B186" s="48">
         <v>44844</v>
       </c>
-      <c r="C186" s="57" t="s">
+      <c r="C186" s="87" t="s">
         <v>7</v>
       </c>
-      <c r="D186" s="58"/>
-      <c r="E186" s="58"/>
-      <c r="F186" s="58"/>
-      <c r="G186" s="58"/>
-      <c r="H186" s="58"/>
-      <c r="I186" s="58"/>
-      <c r="J186" s="58"/>
-      <c r="K186" s="59"/>
+      <c r="D186" s="88"/>
+      <c r="E186" s="88"/>
+      <c r="F186" s="88"/>
+      <c r="G186" s="88"/>
+      <c r="H186" s="88"/>
+      <c r="I186" s="88"/>
+      <c r="J186" s="88"/>
+      <c r="K186" s="89"/>
       <c r="L186" s="6">
         <v>17</v>
       </c>
@@ -8202,15 +8202,27 @@
       <c r="N186" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="O186" s="6"/>
-      <c r="P186" s="6"/>
-      <c r="Q186" s="9"/>
-      <c r="R186" s="6"/>
-      <c r="S186" s="6"/>
-      <c r="T186" s="6"/>
-      <c r="U186" s="6" t="e">
+      <c r="O186" s="48">
+        <v>44844</v>
+      </c>
+      <c r="P186" s="6">
+        <v>19.670000000000002</v>
+      </c>
+      <c r="Q186" s="9">
+        <v>0.78680000000000005</v>
+      </c>
+      <c r="R186" s="6">
+        <v>10</v>
+      </c>
+      <c r="S186" s="6">
+        <v>488</v>
+      </c>
+      <c r="T186" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="U186" s="6">
         <f t="shared" si="14"/>
-        <v>#DIV/0!</v>
+        <v>98.155737704918039</v>
       </c>
     </row>
     <row r="187" spans="1:21" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -8220,17 +8232,17 @@
       <c r="B187" s="48">
         <v>44844</v>
       </c>
-      <c r="C187" s="54" t="s">
+      <c r="C187" s="83" t="s">
         <v>38</v>
       </c>
-      <c r="D187" s="55"/>
-      <c r="E187" s="55"/>
-      <c r="F187" s="55"/>
-      <c r="G187" s="55"/>
-      <c r="H187" s="55"/>
-      <c r="I187" s="55"/>
-      <c r="J187" s="55"/>
-      <c r="K187" s="56"/>
+      <c r="D187" s="84"/>
+      <c r="E187" s="84"/>
+      <c r="F187" s="84"/>
+      <c r="G187" s="84"/>
+      <c r="H187" s="84"/>
+      <c r="I187" s="84"/>
+      <c r="J187" s="84"/>
+      <c r="K187" s="85"/>
       <c r="L187" s="6">
         <v>17</v>
       </c>
@@ -8258,17 +8270,17 @@
       <c r="B188" s="48">
         <v>44849</v>
       </c>
-      <c r="C188" s="57" t="s">
+      <c r="C188" s="87" t="s">
         <v>5</v>
       </c>
-      <c r="D188" s="58"/>
-      <c r="E188" s="58"/>
-      <c r="F188" s="58"/>
-      <c r="G188" s="58"/>
-      <c r="H188" s="58"/>
-      <c r="I188" s="58"/>
-      <c r="J188" s="58"/>
-      <c r="K188" s="59"/>
+      <c r="D188" s="88"/>
+      <c r="E188" s="88"/>
+      <c r="F188" s="88"/>
+      <c r="G188" s="88"/>
+      <c r="H188" s="88"/>
+      <c r="I188" s="88"/>
+      <c r="J188" s="88"/>
+      <c r="K188" s="89"/>
       <c r="L188" s="6">
         <v>17</v>
       </c>
@@ -8296,17 +8308,17 @@
       <c r="B189" s="48">
         <v>44849</v>
       </c>
-      <c r="C189" s="54" t="s">
+      <c r="C189" s="83" t="s">
         <v>33</v>
       </c>
-      <c r="D189" s="55"/>
-      <c r="E189" s="55"/>
-      <c r="F189" s="55"/>
-      <c r="G189" s="55"/>
-      <c r="H189" s="55"/>
-      <c r="I189" s="55"/>
-      <c r="J189" s="55"/>
-      <c r="K189" s="56"/>
+      <c r="D189" s="84"/>
+      <c r="E189" s="84"/>
+      <c r="F189" s="84"/>
+      <c r="G189" s="84"/>
+      <c r="H189" s="84"/>
+      <c r="I189" s="84"/>
+      <c r="J189" s="84"/>
+      <c r="K189" s="85"/>
       <c r="L189" s="6">
         <v>17</v>
       </c>
@@ -8334,17 +8346,17 @@
       <c r="B190" s="48">
         <v>44851</v>
       </c>
-      <c r="C190" s="57" t="s">
+      <c r="C190" s="87" t="s">
         <v>9</v>
       </c>
-      <c r="D190" s="58"/>
-      <c r="E190" s="58"/>
-      <c r="F190" s="58"/>
-      <c r="G190" s="58"/>
-      <c r="H190" s="58"/>
-      <c r="I190" s="58"/>
-      <c r="J190" s="58"/>
-      <c r="K190" s="59"/>
+      <c r="D190" s="88"/>
+      <c r="E190" s="88"/>
+      <c r="F190" s="88"/>
+      <c r="G190" s="88"/>
+      <c r="H190" s="88"/>
+      <c r="I190" s="88"/>
+      <c r="J190" s="88"/>
+      <c r="K190" s="89"/>
       <c r="L190" s="6">
         <v>17</v>
       </c>
@@ -8372,17 +8384,17 @@
       <c r="B191" s="48">
         <v>44851</v>
       </c>
-      <c r="C191" s="57" t="s">
+      <c r="C191" s="87" t="s">
         <v>44</v>
       </c>
-      <c r="D191" s="58"/>
-      <c r="E191" s="58"/>
-      <c r="F191" s="58"/>
-      <c r="G191" s="58"/>
-      <c r="H191" s="58"/>
-      <c r="I191" s="58"/>
-      <c r="J191" s="58"/>
-      <c r="K191" s="59"/>
+      <c r="D191" s="88"/>
+      <c r="E191" s="88"/>
+      <c r="F191" s="88"/>
+      <c r="G191" s="88"/>
+      <c r="H191" s="88"/>
+      <c r="I191" s="88"/>
+      <c r="J191" s="88"/>
+      <c r="K191" s="89"/>
       <c r="L191" s="6">
         <v>17</v>
       </c>
@@ -8410,17 +8422,17 @@
       <c r="B192" s="48">
         <v>44854</v>
       </c>
-      <c r="C192" s="57" t="s">
+      <c r="C192" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="D192" s="58"/>
-      <c r="E192" s="58"/>
-      <c r="F192" s="58"/>
-      <c r="G192" s="58"/>
-      <c r="H192" s="58"/>
-      <c r="I192" s="58"/>
-      <c r="J192" s="58"/>
-      <c r="K192" s="59"/>
+      <c r="D192" s="88"/>
+      <c r="E192" s="88"/>
+      <c r="F192" s="88"/>
+      <c r="G192" s="88"/>
+      <c r="H192" s="88"/>
+      <c r="I192" s="88"/>
+      <c r="J192" s="88"/>
+      <c r="K192" s="89"/>
       <c r="L192" s="6">
         <v>17</v>
       </c>
@@ -8448,17 +8460,17 @@
       <c r="B193" s="48">
         <v>44854</v>
       </c>
-      <c r="C193" s="54" t="s">
+      <c r="C193" s="83" t="s">
         <v>49</v>
       </c>
-      <c r="D193" s="58"/>
-      <c r="E193" s="58"/>
-      <c r="F193" s="58"/>
-      <c r="G193" s="58"/>
-      <c r="H193" s="58"/>
-      <c r="I193" s="58"/>
-      <c r="J193" s="58"/>
-      <c r="K193" s="59"/>
+      <c r="D193" s="88"/>
+      <c r="E193" s="88"/>
+      <c r="F193" s="88"/>
+      <c r="G193" s="88"/>
+      <c r="H193" s="88"/>
+      <c r="I193" s="88"/>
+      <c r="J193" s="88"/>
+      <c r="K193" s="89"/>
       <c r="L193" s="6">
         <v>17</v>
       </c>
@@ -8486,17 +8498,17 @@
       <c r="B194" s="48">
         <v>44864</v>
       </c>
-      <c r="C194" s="54" t="s">
+      <c r="C194" s="83" t="s">
         <v>34</v>
       </c>
-      <c r="D194" s="55"/>
-      <c r="E194" s="55"/>
-      <c r="F194" s="55"/>
-      <c r="G194" s="55"/>
-      <c r="H194" s="55"/>
-      <c r="I194" s="55"/>
-      <c r="J194" s="55"/>
-      <c r="K194" s="56"/>
+      <c r="D194" s="84"/>
+      <c r="E194" s="84"/>
+      <c r="F194" s="84"/>
+      <c r="G194" s="84"/>
+      <c r="H194" s="84"/>
+      <c r="I194" s="84"/>
+      <c r="J194" s="84"/>
+      <c r="K194" s="85"/>
       <c r="L194" s="6">
         <v>17</v>
       </c>
@@ -8524,17 +8536,17 @@
       <c r="B195" s="48">
         <v>44864</v>
       </c>
-      <c r="C195" s="57" t="s">
+      <c r="C195" s="87" t="s">
         <v>35</v>
       </c>
-      <c r="D195" s="58"/>
-      <c r="E195" s="58"/>
-      <c r="F195" s="58"/>
-      <c r="G195" s="58"/>
-      <c r="H195" s="58"/>
-      <c r="I195" s="58"/>
-      <c r="J195" s="58"/>
-      <c r="K195" s="59"/>
+      <c r="D195" s="88"/>
+      <c r="E195" s="88"/>
+      <c r="F195" s="88"/>
+      <c r="G195" s="88"/>
+      <c r="H195" s="88"/>
+      <c r="I195" s="88"/>
+      <c r="J195" s="88"/>
+      <c r="K195" s="89"/>
       <c r="L195" s="6">
         <v>17</v>
       </c>
@@ -8562,17 +8574,17 @@
       <c r="B196" s="48">
         <v>44870</v>
       </c>
-      <c r="C196" s="57" t="s">
+      <c r="C196" s="87" t="s">
         <v>10</v>
       </c>
-      <c r="D196" s="58"/>
-      <c r="E196" s="58"/>
-      <c r="F196" s="58"/>
-      <c r="G196" s="58"/>
-      <c r="H196" s="58"/>
-      <c r="I196" s="58"/>
-      <c r="J196" s="58"/>
-      <c r="K196" s="59"/>
+      <c r="D196" s="88"/>
+      <c r="E196" s="88"/>
+      <c r="F196" s="88"/>
+      <c r="G196" s="88"/>
+      <c r="H196" s="88"/>
+      <c r="I196" s="88"/>
+      <c r="J196" s="88"/>
+      <c r="K196" s="89"/>
       <c r="L196" s="6">
         <v>17</v>
       </c>
@@ -8600,17 +8612,17 @@
       <c r="B197" s="48">
         <v>44870</v>
       </c>
-      <c r="C197" s="57" t="s">
+      <c r="C197" s="87" t="s">
         <v>47</v>
       </c>
-      <c r="D197" s="58"/>
-      <c r="E197" s="58"/>
-      <c r="F197" s="58"/>
-      <c r="G197" s="58"/>
-      <c r="H197" s="58"/>
-      <c r="I197" s="58"/>
-      <c r="J197" s="58"/>
-      <c r="K197" s="59"/>
+      <c r="D197" s="88"/>
+      <c r="E197" s="88"/>
+      <c r="F197" s="88"/>
+      <c r="G197" s="88"/>
+      <c r="H197" s="88"/>
+      <c r="I197" s="88"/>
+      <c r="J197" s="88"/>
+      <c r="K197" s="89"/>
       <c r="L197" s="6">
         <v>17</v>
       </c>
@@ -8636,17 +8648,17 @@
         <v>23</v>
       </c>
       <c r="B198" s="48"/>
-      <c r="C198" s="54" t="s">
+      <c r="C198" s="83" t="s">
         <v>41</v>
       </c>
-      <c r="D198" s="55"/>
-      <c r="E198" s="55"/>
-      <c r="F198" s="55"/>
-      <c r="G198" s="55"/>
-      <c r="H198" s="55"/>
-      <c r="I198" s="55"/>
-      <c r="J198" s="55"/>
-      <c r="K198" s="56"/>
+      <c r="D198" s="84"/>
+      <c r="E198" s="84"/>
+      <c r="F198" s="84"/>
+      <c r="G198" s="84"/>
+      <c r="H198" s="84"/>
+      <c r="I198" s="84"/>
+      <c r="J198" s="84"/>
+      <c r="K198" s="85"/>
       <c r="L198" s="6">
         <v>17</v>
       </c>
@@ -8672,17 +8684,17 @@
         <v>24</v>
       </c>
       <c r="B199" s="48"/>
-      <c r="C199" s="54" t="s">
+      <c r="C199" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="D199" s="55"/>
-      <c r="E199" s="55"/>
-      <c r="F199" s="55"/>
-      <c r="G199" s="55"/>
-      <c r="H199" s="55"/>
-      <c r="I199" s="55"/>
-      <c r="J199" s="55"/>
-      <c r="K199" s="56"/>
+      <c r="D199" s="84"/>
+      <c r="E199" s="84"/>
+      <c r="F199" s="84"/>
+      <c r="G199" s="84"/>
+      <c r="H199" s="84"/>
+      <c r="I199" s="84"/>
+      <c r="J199" s="84"/>
+      <c r="K199" s="85"/>
       <c r="L199" s="6">
         <v>17</v>
       </c>
@@ -8708,43 +8720,43 @@
         <v>25</v>
       </c>
       <c r="B200" s="47"/>
-      <c r="C200" s="66" t="s">
+      <c r="C200" s="60" t="s">
         <v>58</v>
       </c>
-      <c r="D200" s="67"/>
-      <c r="E200" s="67"/>
-      <c r="F200" s="67"/>
-      <c r="G200" s="67"/>
-      <c r="H200" s="67"/>
-      <c r="I200" s="67"/>
-      <c r="J200" s="67"/>
-      <c r="K200" s="67"/>
-      <c r="L200" s="67"/>
-      <c r="M200" s="67"/>
-      <c r="N200" s="68"/>
+      <c r="D200" s="61"/>
+      <c r="E200" s="61"/>
+      <c r="F200" s="61"/>
+      <c r="G200" s="61"/>
+      <c r="H200" s="61"/>
+      <c r="I200" s="61"/>
+      <c r="J200" s="61"/>
+      <c r="K200" s="61"/>
+      <c r="L200" s="61"/>
+      <c r="M200" s="61"/>
+      <c r="N200" s="62"/>
       <c r="O200" s="11"/>
       <c r="P200" s="12">
-        <f>AVERAGE(P176:P199)</f>
-        <v>15.177000000000001</v>
+        <f t="shared" ref="P200:U200" si="15">AVERAGE(P176:P199)</f>
+        <v>15.585454545454546</v>
       </c>
       <c r="Q200" s="13">
-        <f>AVERAGE(Q176:Q199)</f>
-        <v>0.60707999999999995</v>
+        <f t="shared" si="15"/>
+        <v>0.62341818181818176</v>
       </c>
       <c r="R200" s="12">
-        <f>AVERAGE(R176:R199)</f>
-        <v>17.100000000000001</v>
+        <f t="shared" si="15"/>
+        <v>16.454545454545453</v>
       </c>
       <c r="S200" s="12">
-        <f>AVERAGE(S176:S199)</f>
-        <v>147</v>
+        <f t="shared" si="15"/>
+        <v>178</v>
       </c>
       <c r="T200" s="12" t="e">
-        <f>AVERAGE(T176:T199)</f>
+        <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U200" s="12" t="e">
-        <f>AVERAGE(U176:U199)</f>
+        <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
       <c r="V200" s="2"/>
@@ -8758,26 +8770,26 @@
       <c r="R202"/>
     </row>
     <row r="203" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A203" s="82" t="s">
+      <c r="A203" s="76" t="s">
         <v>13</v>
       </c>
-      <c r="B203" s="83"/>
-      <c r="C203" s="83"/>
-      <c r="D203" s="83"/>
-      <c r="E203" s="83"/>
-      <c r="F203" s="83"/>
-      <c r="G203" s="83"/>
-      <c r="H203" s="83"/>
-      <c r="I203" s="83"/>
-      <c r="J203" s="83"/>
-      <c r="K203" s="83"/>
-      <c r="L203" s="83"/>
-      <c r="M203" s="83"/>
-      <c r="N203" s="83"/>
-      <c r="O203" s="83"/>
-      <c r="P203" s="83"/>
-      <c r="Q203" s="83"/>
-      <c r="R203" s="84"/>
+      <c r="B203" s="77"/>
+      <c r="C203" s="77"/>
+      <c r="D203" s="77"/>
+      <c r="E203" s="77"/>
+      <c r="F203" s="77"/>
+      <c r="G203" s="77"/>
+      <c r="H203" s="77"/>
+      <c r="I203" s="77"/>
+      <c r="J203" s="77"/>
+      <c r="K203" s="77"/>
+      <c r="L203" s="77"/>
+      <c r="M203" s="77"/>
+      <c r="N203" s="77"/>
+      <c r="O203" s="77"/>
+      <c r="P203" s="77"/>
+      <c r="Q203" s="77"/>
+      <c r="R203" s="78"/>
       <c r="S203" s="15"/>
       <c r="T203" s="15"/>
       <c r="U203" s="15"/>
@@ -8787,17 +8799,17 @@
         <v>1</v>
       </c>
       <c r="B205" s="5"/>
-      <c r="C205" s="72" t="s">
+      <c r="C205" s="73" t="s">
         <v>56</v>
       </c>
-      <c r="D205" s="72"/>
-      <c r="E205" s="72"/>
-      <c r="F205" s="72"/>
-      <c r="G205" s="72"/>
-      <c r="H205" s="72"/>
-      <c r="I205" s="72"/>
-      <c r="J205" s="72"/>
-      <c r="K205" s="72"/>
+      <c r="D205" s="73"/>
+      <c r="E205" s="73"/>
+      <c r="F205" s="73"/>
+      <c r="G205" s="73"/>
+      <c r="H205" s="73"/>
+      <c r="I205" s="73"/>
+      <c r="J205" s="73"/>
+      <c r="K205" s="73"/>
       <c r="L205" s="5" t="s">
         <v>2</v>
       </c>
@@ -8834,17 +8846,17 @@
         <v>1</v>
       </c>
       <c r="B206" s="1"/>
-      <c r="C206" s="73" t="s">
+      <c r="C206" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="D206" s="73"/>
-      <c r="E206" s="73"/>
-      <c r="F206" s="73"/>
-      <c r="G206" s="73"/>
-      <c r="H206" s="73"/>
-      <c r="I206" s="73"/>
-      <c r="J206" s="73"/>
-      <c r="K206" s="73"/>
+      <c r="D206" s="74"/>
+      <c r="E206" s="74"/>
+      <c r="F206" s="74"/>
+      <c r="G206" s="74"/>
+      <c r="H206" s="74"/>
+      <c r="I206" s="74"/>
+      <c r="J206" s="74"/>
+      <c r="K206" s="74"/>
       <c r="L206" s="6">
         <v>33</v>
       </c>
@@ -8861,7 +8873,7 @@
       <c r="S206" s="6"/>
       <c r="T206" s="6"/>
       <c r="U206" s="6" t="e">
-        <f t="shared" ref="U206:U218" si="15" xml:space="preserve"> (S206-R206+1)/(S206)*100</f>
+        <f t="shared" ref="U206:U218" si="16" xml:space="preserve"> (S206-R206+1)/(S206)*100</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -8870,17 +8882,17 @@
         <v>2</v>
       </c>
       <c r="B207" s="1"/>
-      <c r="C207" s="64" t="s">
+      <c r="C207" s="66" t="s">
         <v>16</v>
       </c>
-      <c r="D207" s="65"/>
-      <c r="E207" s="65"/>
-      <c r="F207" s="65"/>
-      <c r="G207" s="65"/>
-      <c r="H207" s="65"/>
-      <c r="I207" s="65"/>
-      <c r="J207" s="65"/>
-      <c r="K207" s="65"/>
+      <c r="D207" s="67"/>
+      <c r="E207" s="67"/>
+      <c r="F207" s="67"/>
+      <c r="G207" s="67"/>
+      <c r="H207" s="67"/>
+      <c r="I207" s="67"/>
+      <c r="J207" s="67"/>
+      <c r="K207" s="67"/>
       <c r="L207" s="6">
         <v>33</v>
       </c>
@@ -8897,7 +8909,7 @@
       <c r="S207" s="6"/>
       <c r="T207" s="6"/>
       <c r="U207" s="6" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -8906,17 +8918,17 @@
         <v>3</v>
       </c>
       <c r="B208" s="1"/>
-      <c r="C208" s="64" t="s">
+      <c r="C208" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="D208" s="65"/>
-      <c r="E208" s="65"/>
-      <c r="F208" s="65"/>
-      <c r="G208" s="65"/>
-      <c r="H208" s="65"/>
-      <c r="I208" s="65"/>
-      <c r="J208" s="65"/>
-      <c r="K208" s="65"/>
+      <c r="D208" s="67"/>
+      <c r="E208" s="67"/>
+      <c r="F208" s="67"/>
+      <c r="G208" s="67"/>
+      <c r="H208" s="67"/>
+      <c r="I208" s="67"/>
+      <c r="J208" s="67"/>
+      <c r="K208" s="67"/>
       <c r="L208" s="6">
         <v>33</v>
       </c>
@@ -8945,7 +8957,7 @@
         <v>59</v>
       </c>
       <c r="U208" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>74.418604651162795</v>
       </c>
     </row>
@@ -8954,17 +8966,17 @@
         <v>4</v>
       </c>
       <c r="B209" s="1"/>
-      <c r="C209" s="65" t="s">
+      <c r="C209" s="67" t="s">
         <v>18</v>
       </c>
-      <c r="D209" s="65"/>
-      <c r="E209" s="65"/>
-      <c r="F209" s="65"/>
-      <c r="G209" s="65"/>
-      <c r="H209" s="65"/>
-      <c r="I209" s="65"/>
-      <c r="J209" s="65"/>
-      <c r="K209" s="65"/>
+      <c r="D209" s="67"/>
+      <c r="E209" s="67"/>
+      <c r="F209" s="67"/>
+      <c r="G209" s="67"/>
+      <c r="H209" s="67"/>
+      <c r="I209" s="67"/>
+      <c r="J209" s="67"/>
+      <c r="K209" s="67"/>
       <c r="L209" s="6">
         <v>33</v>
       </c>
@@ -8993,7 +9005,7 @@
         <v>60</v>
       </c>
       <c r="U209" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>96.875</v>
       </c>
     </row>
@@ -9002,17 +9014,17 @@
         <v>5</v>
       </c>
       <c r="B210" s="1"/>
-      <c r="C210" s="64" t="s">
+      <c r="C210" s="66" t="s">
         <v>61</v>
       </c>
-      <c r="D210" s="65"/>
-      <c r="E210" s="65"/>
-      <c r="F210" s="65"/>
-      <c r="G210" s="65"/>
-      <c r="H210" s="65"/>
-      <c r="I210" s="65"/>
-      <c r="J210" s="65"/>
-      <c r="K210" s="65"/>
+      <c r="D210" s="67"/>
+      <c r="E210" s="67"/>
+      <c r="F210" s="67"/>
+      <c r="G210" s="67"/>
+      <c r="H210" s="67"/>
+      <c r="I210" s="67"/>
+      <c r="J210" s="67"/>
+      <c r="K210" s="67"/>
       <c r="L210" s="6">
         <v>33</v>
       </c>
@@ -9041,7 +9053,7 @@
         <v>59</v>
       </c>
       <c r="U210" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>88.888888888888886</v>
       </c>
     </row>
@@ -9050,17 +9062,17 @@
         <v>6</v>
       </c>
       <c r="B211" s="1"/>
-      <c r="C211" s="64" t="s">
+      <c r="C211" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="D211" s="65"/>
-      <c r="E211" s="65"/>
-      <c r="F211" s="65"/>
-      <c r="G211" s="65"/>
-      <c r="H211" s="65"/>
-      <c r="I211" s="65"/>
-      <c r="J211" s="65"/>
-      <c r="K211" s="65"/>
+      <c r="D211" s="67"/>
+      <c r="E211" s="67"/>
+      <c r="F211" s="67"/>
+      <c r="G211" s="67"/>
+      <c r="H211" s="67"/>
+      <c r="I211" s="67"/>
+      <c r="J211" s="67"/>
+      <c r="K211" s="67"/>
       <c r="L211" s="6">
         <v>33</v>
       </c>
@@ -9077,7 +9089,7 @@
       <c r="S211" s="6"/>
       <c r="T211" s="6"/>
       <c r="U211" s="6" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -9086,17 +9098,17 @@
         <v>7</v>
       </c>
       <c r="B212" s="1"/>
-      <c r="C212" s="65" t="s">
+      <c r="C212" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="D212" s="65"/>
-      <c r="E212" s="65"/>
-      <c r="F212" s="65"/>
-      <c r="G212" s="65"/>
-      <c r="H212" s="65"/>
-      <c r="I212" s="65"/>
-      <c r="J212" s="65"/>
-      <c r="K212" s="65"/>
+      <c r="D212" s="67"/>
+      <c r="E212" s="67"/>
+      <c r="F212" s="67"/>
+      <c r="G212" s="67"/>
+      <c r="H212" s="67"/>
+      <c r="I212" s="67"/>
+      <c r="J212" s="67"/>
+      <c r="K212" s="67"/>
       <c r="L212" s="6">
         <v>33</v>
       </c>
@@ -9113,7 +9125,7 @@
       <c r="S212" s="6"/>
       <c r="T212" s="6"/>
       <c r="U212" s="6" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -9122,17 +9134,17 @@
         <v>8</v>
       </c>
       <c r="B213" s="1"/>
-      <c r="C213" s="64" t="s">
+      <c r="C213" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="D213" s="65"/>
-      <c r="E213" s="65"/>
-      <c r="F213" s="65"/>
-      <c r="G213" s="65"/>
-      <c r="H213" s="65"/>
-      <c r="I213" s="65"/>
-      <c r="J213" s="65"/>
-      <c r="K213" s="65"/>
+      <c r="D213" s="67"/>
+      <c r="E213" s="67"/>
+      <c r="F213" s="67"/>
+      <c r="G213" s="67"/>
+      <c r="H213" s="67"/>
+      <c r="I213" s="67"/>
+      <c r="J213" s="67"/>
+      <c r="K213" s="67"/>
       <c r="L213" s="6">
         <v>33</v>
       </c>
@@ -9149,7 +9161,7 @@
       <c r="S213" s="6"/>
       <c r="T213" s="6"/>
       <c r="U213" s="6" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -9158,17 +9170,17 @@
         <v>9</v>
       </c>
       <c r="B214" s="1"/>
-      <c r="C214" s="64" t="s">
+      <c r="C214" s="66" t="s">
         <v>62</v>
       </c>
-      <c r="D214" s="65"/>
-      <c r="E214" s="65"/>
-      <c r="F214" s="65"/>
-      <c r="G214" s="65"/>
-      <c r="H214" s="65"/>
-      <c r="I214" s="65"/>
-      <c r="J214" s="65"/>
-      <c r="K214" s="65"/>
+      <c r="D214" s="67"/>
+      <c r="E214" s="67"/>
+      <c r="F214" s="67"/>
+      <c r="G214" s="67"/>
+      <c r="H214" s="67"/>
+      <c r="I214" s="67"/>
+      <c r="J214" s="67"/>
+      <c r="K214" s="67"/>
       <c r="L214" s="6">
         <v>33</v>
       </c>
@@ -9197,7 +9209,7 @@
         <v>60</v>
       </c>
       <c r="U214" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>88</v>
       </c>
     </row>
@@ -9206,17 +9218,17 @@
         <v>10</v>
       </c>
       <c r="B215" s="1"/>
-      <c r="C215" s="64" t="s">
+      <c r="C215" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="D215" s="65"/>
-      <c r="E215" s="65"/>
-      <c r="F215" s="65"/>
-      <c r="G215" s="65"/>
-      <c r="H215" s="65"/>
-      <c r="I215" s="65"/>
-      <c r="J215" s="65"/>
-      <c r="K215" s="65"/>
+      <c r="D215" s="67"/>
+      <c r="E215" s="67"/>
+      <c r="F215" s="67"/>
+      <c r="G215" s="67"/>
+      <c r="H215" s="67"/>
+      <c r="I215" s="67"/>
+      <c r="J215" s="67"/>
+      <c r="K215" s="67"/>
       <c r="L215" s="6">
         <v>33</v>
       </c>
@@ -9233,7 +9245,7 @@
       <c r="S215" s="6"/>
       <c r="T215" s="6"/>
       <c r="U215" s="6" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -9242,17 +9254,17 @@
         <v>11</v>
       </c>
       <c r="B216" s="1"/>
-      <c r="C216" s="64" t="s">
+      <c r="C216" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="D216" s="65"/>
-      <c r="E216" s="65"/>
-      <c r="F216" s="65"/>
-      <c r="G216" s="65"/>
-      <c r="H216" s="65"/>
-      <c r="I216" s="65"/>
-      <c r="J216" s="65"/>
-      <c r="K216" s="65"/>
+      <c r="D216" s="67"/>
+      <c r="E216" s="67"/>
+      <c r="F216" s="67"/>
+      <c r="G216" s="67"/>
+      <c r="H216" s="67"/>
+      <c r="I216" s="67"/>
+      <c r="J216" s="67"/>
+      <c r="K216" s="67"/>
       <c r="L216" s="6">
         <v>33</v>
       </c>
@@ -9269,7 +9281,7 @@
       <c r="S216" s="6"/>
       <c r="T216" s="6"/>
       <c r="U216" s="6" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -9278,17 +9290,17 @@
         <v>12</v>
       </c>
       <c r="B217" s="1"/>
-      <c r="C217" s="64" t="s">
+      <c r="C217" s="66" t="s">
         <v>63</v>
       </c>
-      <c r="D217" s="65"/>
-      <c r="E217" s="65"/>
-      <c r="F217" s="65"/>
-      <c r="G217" s="65"/>
-      <c r="H217" s="65"/>
-      <c r="I217" s="65"/>
-      <c r="J217" s="65"/>
-      <c r="K217" s="65"/>
+      <c r="D217" s="67"/>
+      <c r="E217" s="67"/>
+      <c r="F217" s="67"/>
+      <c r="G217" s="67"/>
+      <c r="H217" s="67"/>
+      <c r="I217" s="67"/>
+      <c r="J217" s="67"/>
+      <c r="K217" s="67"/>
       <c r="L217" s="6">
         <v>33</v>
       </c>
@@ -9317,7 +9329,7 @@
         <v>60</v>
       </c>
       <c r="U217" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>97.142857142857139</v>
       </c>
     </row>
@@ -9326,20 +9338,20 @@
         <v>13</v>
       </c>
       <c r="B218" s="1"/>
-      <c r="C218" s="66" t="s">
+      <c r="C218" s="60" t="s">
         <v>58</v>
       </c>
-      <c r="D218" s="67"/>
-      <c r="E218" s="67"/>
-      <c r="F218" s="67"/>
-      <c r="G218" s="67"/>
-      <c r="H218" s="67"/>
-      <c r="I218" s="67"/>
-      <c r="J218" s="67"/>
-      <c r="K218" s="67"/>
-      <c r="L218" s="67"/>
-      <c r="M218" s="67"/>
-      <c r="N218" s="68"/>
+      <c r="D218" s="61"/>
+      <c r="E218" s="61"/>
+      <c r="F218" s="61"/>
+      <c r="G218" s="61"/>
+      <c r="H218" s="61"/>
+      <c r="I218" s="61"/>
+      <c r="J218" s="61"/>
+      <c r="K218" s="61"/>
+      <c r="L218" s="61"/>
+      <c r="M218" s="61"/>
+      <c r="N218" s="62"/>
       <c r="O218" s="11"/>
       <c r="P218" s="12">
         <f>AVERAGE(P206:P217)</f>
@@ -9350,16 +9362,16 @@
         <v>63.963999999999999</v>
       </c>
       <c r="R218" s="12">
-        <f t="shared" ref="R218:S218" si="16">AVERAGE(R206:R217)</f>
+        <f t="shared" ref="R218:S218" si="17">AVERAGE(R206:R217)</f>
         <v>6</v>
       </c>
       <c r="S218" s="12">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>47.4</v>
       </c>
       <c r="T218" s="11"/>
       <c r="U218" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>89.451476793248943</v>
       </c>
     </row>
@@ -9369,26 +9381,26 @@
       <c r="Q219" s="52"/>
     </row>
     <row r="220" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A220" s="69" t="s">
+      <c r="A220" s="63" t="s">
         <v>24</v>
       </c>
-      <c r="B220" s="70"/>
-      <c r="C220" s="70"/>
-      <c r="D220" s="70"/>
-      <c r="E220" s="70"/>
-      <c r="F220" s="70"/>
-      <c r="G220" s="70"/>
-      <c r="H220" s="70"/>
-      <c r="I220" s="70"/>
-      <c r="J220" s="70"/>
-      <c r="K220" s="70"/>
-      <c r="L220" s="70"/>
-      <c r="M220" s="70"/>
-      <c r="N220" s="70"/>
-      <c r="O220" s="70"/>
-      <c r="P220" s="70"/>
-      <c r="Q220" s="70"/>
-      <c r="R220" s="71"/>
+      <c r="B220" s="64"/>
+      <c r="C220" s="64"/>
+      <c r="D220" s="64"/>
+      <c r="E220" s="64"/>
+      <c r="F220" s="64"/>
+      <c r="G220" s="64"/>
+      <c r="H220" s="64"/>
+      <c r="I220" s="64"/>
+      <c r="J220" s="64"/>
+      <c r="K220" s="64"/>
+      <c r="L220" s="64"/>
+      <c r="M220" s="64"/>
+      <c r="N220" s="64"/>
+      <c r="O220" s="64"/>
+      <c r="P220" s="64"/>
+      <c r="Q220" s="64"/>
+      <c r="R220" s="65"/>
       <c r="S220" s="3"/>
       <c r="T220" s="3"/>
       <c r="U220" s="3"/>
@@ -9398,17 +9410,17 @@
         <v>1</v>
       </c>
       <c r="B222" s="5"/>
-      <c r="C222" s="72" t="s">
+      <c r="C222" s="73" t="s">
         <v>108</v>
       </c>
-      <c r="D222" s="72"/>
-      <c r="E222" s="72"/>
-      <c r="F222" s="72"/>
-      <c r="G222" s="72"/>
-      <c r="H222" s="72"/>
-      <c r="I222" s="72"/>
-      <c r="J222" s="72"/>
-      <c r="K222" s="72"/>
+      <c r="D222" s="73"/>
+      <c r="E222" s="73"/>
+      <c r="F222" s="73"/>
+      <c r="G222" s="73"/>
+      <c r="H222" s="73"/>
+      <c r="I222" s="73"/>
+      <c r="J222" s="73"/>
+      <c r="K222" s="73"/>
       <c r="L222" s="5" t="s">
         <v>2</v>
       </c>
@@ -9445,17 +9457,17 @@
         <v>1</v>
       </c>
       <c r="B223" s="1"/>
-      <c r="C223" s="73" t="s">
+      <c r="C223" s="74" t="s">
         <v>65</v>
       </c>
-      <c r="D223" s="73"/>
-      <c r="E223" s="73"/>
-      <c r="F223" s="73"/>
-      <c r="G223" s="73"/>
-      <c r="H223" s="73"/>
-      <c r="I223" s="73"/>
-      <c r="J223" s="73"/>
-      <c r="K223" s="73"/>
+      <c r="D223" s="74"/>
+      <c r="E223" s="74"/>
+      <c r="F223" s="74"/>
+      <c r="G223" s="74"/>
+      <c r="H223" s="74"/>
+      <c r="I223" s="74"/>
+      <c r="J223" s="74"/>
+      <c r="K223" s="74"/>
       <c r="L223" s="6">
         <v>33</v>
       </c>
@@ -9478,17 +9490,17 @@
         <v>2</v>
       </c>
       <c r="B224" s="1"/>
-      <c r="C224" s="64" t="s">
+      <c r="C224" s="66" t="s">
         <v>66</v>
       </c>
-      <c r="D224" s="65"/>
-      <c r="E224" s="65"/>
-      <c r="F224" s="65"/>
-      <c r="G224" s="65"/>
-      <c r="H224" s="65"/>
-      <c r="I224" s="65"/>
-      <c r="J224" s="65"/>
-      <c r="K224" s="65"/>
+      <c r="D224" s="67"/>
+      <c r="E224" s="67"/>
+      <c r="F224" s="67"/>
+      <c r="G224" s="67"/>
+      <c r="H224" s="67"/>
+      <c r="I224" s="67"/>
+      <c r="J224" s="67"/>
+      <c r="K224" s="67"/>
       <c r="L224" s="6">
         <v>33</v>
       </c>
@@ -9511,17 +9523,17 @@
         <v>3</v>
       </c>
       <c r="B225" s="1"/>
-      <c r="C225" s="64" t="s">
+      <c r="C225" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="D225" s="65"/>
-      <c r="E225" s="65"/>
-      <c r="F225" s="65"/>
-      <c r="G225" s="65"/>
-      <c r="H225" s="65"/>
-      <c r="I225" s="65"/>
-      <c r="J225" s="65"/>
-      <c r="K225" s="65"/>
+      <c r="D225" s="67"/>
+      <c r="E225" s="67"/>
+      <c r="F225" s="67"/>
+      <c r="G225" s="67"/>
+      <c r="H225" s="67"/>
+      <c r="I225" s="67"/>
+      <c r="J225" s="67"/>
+      <c r="K225" s="67"/>
       <c r="L225" s="6">
         <v>33</v>
       </c>
@@ -9544,17 +9556,17 @@
         <v>4</v>
       </c>
       <c r="B226" s="1"/>
-      <c r="C226" s="65" t="s">
+      <c r="C226" s="67" t="s">
         <v>26</v>
       </c>
-      <c r="D226" s="65"/>
-      <c r="E226" s="65"/>
-      <c r="F226" s="65"/>
-      <c r="G226" s="65"/>
-      <c r="H226" s="65"/>
-      <c r="I226" s="65"/>
-      <c r="J226" s="65"/>
-      <c r="K226" s="65"/>
+      <c r="D226" s="67"/>
+      <c r="E226" s="67"/>
+      <c r="F226" s="67"/>
+      <c r="G226" s="67"/>
+      <c r="H226" s="67"/>
+      <c r="I226" s="67"/>
+      <c r="J226" s="67"/>
+      <c r="K226" s="67"/>
       <c r="L226" s="6">
         <v>33</v>
       </c>
@@ -9577,17 +9589,17 @@
         <v>5</v>
       </c>
       <c r="B227" s="1"/>
-      <c r="C227" s="64" t="s">
+      <c r="C227" s="66" t="s">
         <v>27</v>
       </c>
-      <c r="D227" s="65"/>
-      <c r="E227" s="65"/>
-      <c r="F227" s="65"/>
-      <c r="G227" s="65"/>
-      <c r="H227" s="65"/>
-      <c r="I227" s="65"/>
-      <c r="J227" s="65"/>
-      <c r="K227" s="65"/>
+      <c r="D227" s="67"/>
+      <c r="E227" s="67"/>
+      <c r="F227" s="67"/>
+      <c r="G227" s="67"/>
+      <c r="H227" s="67"/>
+      <c r="I227" s="67"/>
+      <c r="J227" s="67"/>
+      <c r="K227" s="67"/>
       <c r="L227" s="6">
         <v>33</v>
       </c>
@@ -9610,17 +9622,17 @@
         <v>6</v>
       </c>
       <c r="B228" s="1"/>
-      <c r="C228" s="64" t="s">
+      <c r="C228" s="66" t="s">
         <v>67</v>
       </c>
-      <c r="D228" s="65"/>
-      <c r="E228" s="65"/>
-      <c r="F228" s="65"/>
-      <c r="G228" s="65"/>
-      <c r="H228" s="65"/>
-      <c r="I228" s="65"/>
-      <c r="J228" s="65"/>
-      <c r="K228" s="65"/>
+      <c r="D228" s="67"/>
+      <c r="E228" s="67"/>
+      <c r="F228" s="67"/>
+      <c r="G228" s="67"/>
+      <c r="H228" s="67"/>
+      <c r="I228" s="67"/>
+      <c r="J228" s="67"/>
+      <c r="K228" s="67"/>
       <c r="L228" s="6">
         <v>33</v>
       </c>
@@ -9643,20 +9655,20 @@
         <v>7</v>
       </c>
       <c r="B229" s="1"/>
-      <c r="C229" s="66" t="s">
+      <c r="C229" s="60" t="s">
         <v>58</v>
       </c>
-      <c r="D229" s="67"/>
-      <c r="E229" s="67"/>
-      <c r="F229" s="67"/>
-      <c r="G229" s="67"/>
-      <c r="H229" s="67"/>
-      <c r="I229" s="67"/>
-      <c r="J229" s="67"/>
-      <c r="K229" s="67"/>
-      <c r="L229" s="67"/>
-      <c r="M229" s="67"/>
-      <c r="N229" s="68"/>
+      <c r="D229" s="61"/>
+      <c r="E229" s="61"/>
+      <c r="F229" s="61"/>
+      <c r="G229" s="61"/>
+      <c r="H229" s="61"/>
+      <c r="I229" s="61"/>
+      <c r="J229" s="61"/>
+      <c r="K229" s="61"/>
+      <c r="L229" s="61"/>
+      <c r="M229" s="61"/>
+      <c r="N229" s="62"/>
       <c r="O229" s="11"/>
       <c r="P229" s="12" t="e">
         <f>AVERAGE(P223:P228)</f>
@@ -9676,25 +9688,25 @@
       <c r="B230" s="1"/>
     </row>
     <row r="231" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A231" s="81" t="s">
+      <c r="A231" s="72" t="s">
         <v>28</v>
       </c>
-      <c r="B231" s="81"/>
-      <c r="C231" s="81"/>
-      <c r="D231" s="81"/>
-      <c r="E231" s="81"/>
-      <c r="F231" s="81"/>
-      <c r="G231" s="81"/>
-      <c r="H231" s="81"/>
-      <c r="I231" s="81"/>
-      <c r="J231" s="81"/>
-      <c r="K231" s="81"/>
-      <c r="L231" s="81"/>
-      <c r="M231" s="81"/>
-      <c r="N231" s="81"/>
-      <c r="O231" s="81"/>
-      <c r="P231" s="81"/>
-      <c r="Q231" s="81"/>
+      <c r="B231" s="72"/>
+      <c r="C231" s="72"/>
+      <c r="D231" s="72"/>
+      <c r="E231" s="72"/>
+      <c r="F231" s="72"/>
+      <c r="G231" s="72"/>
+      <c r="H231" s="72"/>
+      <c r="I231" s="72"/>
+      <c r="J231" s="72"/>
+      <c r="K231" s="72"/>
+      <c r="L231" s="72"/>
+      <c r="M231" s="72"/>
+      <c r="N231" s="72"/>
+      <c r="O231" s="72"/>
+      <c r="P231" s="72"/>
+      <c r="Q231" s="72"/>
       <c r="R231"/>
     </row>
     <row r="232" spans="1:21" ht="40.799999999999997" x14ac:dyDescent="0.3">
@@ -9704,10 +9716,10 @@
       <c r="B232" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="C232" s="80" t="s">
+      <c r="C232" s="68" t="s">
         <v>68</v>
       </c>
-      <c r="D232" s="80"/>
+      <c r="D232" s="68"/>
       <c r="E232" s="17" t="s">
         <v>69</v>
       </c>
@@ -9761,10 +9773,10 @@
       <c r="B233" s="53">
         <v>44808</v>
       </c>
-      <c r="C233" s="90" t="s">
+      <c r="C233" s="54" t="s">
         <v>125</v>
       </c>
-      <c r="D233" s="91"/>
+      <c r="D233" s="55"/>
       <c r="E233" s="25">
         <v>57</v>
       </c>
@@ -9805,7 +9817,7 @@
         <v>385</v>
       </c>
       <c r="R233" s="6">
-        <f t="shared" ref="R233:R241" si="17" xml:space="preserve"> (Q233-P233+1)/(Q233)*100</f>
+        <f t="shared" ref="R233:R241" si="18" xml:space="preserve"> (Q233-P233+1)/(Q233)*100</f>
         <v>98.701298701298697</v>
       </c>
       <c r="S233" s="6" t="s">
@@ -9819,10 +9831,10 @@
       <c r="B234" s="53">
         <v>44816</v>
       </c>
-      <c r="C234" s="63" t="s">
+      <c r="C234" s="57" t="s">
         <v>113</v>
       </c>
-      <c r="D234" s="63"/>
+      <c r="D234" s="57"/>
       <c r="E234" s="25">
         <v>58</v>
       </c>
@@ -9863,7 +9875,7 @@
         <v>42</v>
       </c>
       <c r="R234" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>90.476190476190482</v>
       </c>
       <c r="S234" s="6" t="s">
@@ -9877,10 +9889,10 @@
       <c r="B235" s="53">
         <v>44822</v>
       </c>
-      <c r="C235" s="63" t="s">
+      <c r="C235" s="57" t="s">
         <v>114</v>
       </c>
-      <c r="D235" s="63"/>
+      <c r="D235" s="57"/>
       <c r="E235" s="25">
         <v>64</v>
       </c>
@@ -9921,7 +9933,7 @@
         <v>11</v>
       </c>
       <c r="R235" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>90.909090909090907</v>
       </c>
       <c r="S235" s="6" t="s">
@@ -9933,10 +9945,10 @@
         <v>3</v>
       </c>
       <c r="B236" s="14"/>
-      <c r="C236" s="63" t="s">
+      <c r="C236" s="57" t="s">
         <v>115</v>
       </c>
-      <c r="D236" s="63"/>
+      <c r="D236" s="57"/>
       <c r="E236" s="25"/>
       <c r="F236" s="26"/>
       <c r="G236" s="27"/>
@@ -9951,7 +9963,7 @@
       <c r="P236" s="29"/>
       <c r="Q236" s="29"/>
       <c r="R236" s="6" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S236" s="6"/>
@@ -9961,10 +9973,10 @@
         <v>4</v>
       </c>
       <c r="B237" s="14"/>
-      <c r="C237" s="63" t="s">
+      <c r="C237" s="57" t="s">
         <v>116</v>
       </c>
-      <c r="D237" s="63"/>
+      <c r="D237" s="57"/>
       <c r="E237" s="25"/>
       <c r="F237" s="26"/>
       <c r="G237" s="27"/>
@@ -9979,7 +9991,7 @@
       <c r="P237" s="29"/>
       <c r="Q237" s="29"/>
       <c r="R237" s="6" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S237" s="6"/>
@@ -9989,10 +10001,10 @@
         <v>5</v>
       </c>
       <c r="B238" s="14"/>
-      <c r="C238" s="63" t="s">
+      <c r="C238" s="57" t="s">
         <v>117</v>
       </c>
-      <c r="D238" s="63"/>
+      <c r="D238" s="57"/>
       <c r="E238" s="25"/>
       <c r="F238" s="26"/>
       <c r="G238" s="27"/>
@@ -10007,7 +10019,7 @@
       <c r="P238" s="29"/>
       <c r="Q238" s="29"/>
       <c r="R238" s="6" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S238" s="6"/>
@@ -10017,10 +10029,10 @@
         <v>6</v>
       </c>
       <c r="B239" s="14"/>
-      <c r="C239" s="63" t="s">
+      <c r="C239" s="57" t="s">
         <v>118</v>
       </c>
-      <c r="D239" s="63"/>
+      <c r="D239" s="57"/>
       <c r="E239" s="25"/>
       <c r="F239" s="26"/>
       <c r="G239" s="27"/>
@@ -10035,7 +10047,7 @@
       <c r="P239" s="29"/>
       <c r="Q239" s="29"/>
       <c r="R239" s="6" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S239" s="6"/>
@@ -10045,10 +10057,10 @@
         <v>7</v>
       </c>
       <c r="B240" s="14"/>
-      <c r="C240" s="63" t="s">
+      <c r="C240" s="57" t="s">
         <v>119</v>
       </c>
-      <c r="D240" s="63"/>
+      <c r="D240" s="57"/>
       <c r="E240" s="25"/>
       <c r="F240" s="26"/>
       <c r="G240" s="27"/>
@@ -10063,7 +10075,7 @@
       <c r="P240" s="29"/>
       <c r="Q240" s="29"/>
       <c r="R240" s="6" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S240" s="6"/>
@@ -10073,10 +10085,10 @@
         <v>8</v>
       </c>
       <c r="B241" s="14"/>
-      <c r="C241" s="63" t="s">
+      <c r="C241" s="57" t="s">
         <v>120</v>
       </c>
-      <c r="D241" s="63"/>
+      <c r="D241" s="57"/>
       <c r="E241" s="25"/>
       <c r="F241" s="26"/>
       <c r="G241" s="27"/>
@@ -10091,7 +10103,7 @@
       <c r="P241" s="29"/>
       <c r="Q241" s="29"/>
       <c r="R241" s="6" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S241" s="6"/>
@@ -10099,10 +10111,10 @@
     <row r="242" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A242" s="14"/>
       <c r="B242" s="14"/>
-      <c r="C242" s="74" t="s">
+      <c r="C242" s="58" t="s">
         <v>98</v>
       </c>
-      <c r="D242" s="74"/>
+      <c r="D242" s="58"/>
       <c r="E242" s="25">
         <f>AVERAGE(E233:E241)</f>
         <v>59.666666666666664</v>
@@ -10112,47 +10124,47 @@
         <v>44.333333333333336</v>
       </c>
       <c r="G242" s="25">
-        <f t="shared" ref="G242:Q242" si="18">AVERAGE(G233:G241)</f>
+        <f t="shared" ref="G242:Q242" si="19">AVERAGE(G233:G241)</f>
         <v>15.333333333333334</v>
       </c>
       <c r="H242" s="25">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>5.333333333333333</v>
       </c>
       <c r="I242" s="25">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>67</v>
       </c>
       <c r="J242" s="25">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>-2.86</v>
       </c>
       <c r="K242" s="25">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>10.333333333333334</v>
       </c>
       <c r="L242" s="25">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>64.14</v>
       </c>
       <c r="M242" s="25">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>22.096666666666664</v>
       </c>
       <c r="N242" s="25">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>74.349999999999994</v>
       </c>
       <c r="O242" s="25">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>74.393333333333331</v>
       </c>
       <c r="P242" s="25">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>4.333333333333333</v>
       </c>
       <c r="Q242" s="25">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>146</v>
       </c>
       <c r="R242" s="25" t="e">
@@ -10178,25 +10190,25 @@
       <c r="S244" s="6"/>
     </row>
     <row r="245" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A245" s="79" t="s">
+      <c r="A245" s="75" t="s">
         <v>99</v>
       </c>
-      <c r="B245" s="79"/>
-      <c r="C245" s="79"/>
-      <c r="D245" s="79"/>
-      <c r="E245" s="79"/>
-      <c r="F245" s="79"/>
-      <c r="G245" s="79"/>
-      <c r="H245" s="79"/>
-      <c r="I245" s="79"/>
-      <c r="J245" s="79"/>
-      <c r="K245" s="79"/>
-      <c r="L245" s="79"/>
-      <c r="M245" s="79"/>
-      <c r="N245" s="79"/>
-      <c r="O245" s="79"/>
-      <c r="P245" s="79"/>
-      <c r="Q245" s="79"/>
+      <c r="B245" s="75"/>
+      <c r="C245" s="75"/>
+      <c r="D245" s="75"/>
+      <c r="E245" s="75"/>
+      <c r="F245" s="75"/>
+      <c r="G245" s="75"/>
+      <c r="H245" s="75"/>
+      <c r="I245" s="75"/>
+      <c r="J245" s="75"/>
+      <c r="K245" s="75"/>
+      <c r="L245" s="75"/>
+      <c r="M245" s="75"/>
+      <c r="N245" s="75"/>
+      <c r="O245" s="75"/>
+      <c r="P245" s="75"/>
+      <c r="Q245" s="75"/>
       <c r="R245"/>
       <c r="S245" s="11"/>
     </row>
@@ -10205,10 +10217,10 @@
         <v>1</v>
       </c>
       <c r="B246" s="16"/>
-      <c r="C246" s="80" t="s">
+      <c r="C246" s="68" t="s">
         <v>68</v>
       </c>
-      <c r="D246" s="80"/>
+      <c r="D246" s="68"/>
       <c r="E246" s="17" t="s">
         <v>69</v>
       </c>
@@ -10257,10 +10269,10 @@
         <v>1</v>
       </c>
       <c r="B247" s="14"/>
-      <c r="C247" s="63" t="s">
+      <c r="C247" s="57" t="s">
         <v>121</v>
       </c>
-      <c r="D247" s="63"/>
+      <c r="D247" s="57"/>
       <c r="E247" s="25"/>
       <c r="F247" s="26"/>
       <c r="G247" s="27"/>
@@ -10284,10 +10296,10 @@
         <v>2</v>
       </c>
       <c r="B248" s="14"/>
-      <c r="C248" s="63" t="s">
+      <c r="C248" s="57" t="s">
         <v>122</v>
       </c>
-      <c r="D248" s="63"/>
+      <c r="D248" s="57"/>
       <c r="E248" s="25"/>
       <c r="F248" s="26"/>
       <c r="G248" s="27"/>
@@ -10311,10 +10323,10 @@
         <v>3</v>
       </c>
       <c r="B249" s="14"/>
-      <c r="C249" s="63" t="s">
+      <c r="C249" s="57" t="s">
         <v>123</v>
       </c>
-      <c r="D249" s="63"/>
+      <c r="D249" s="57"/>
       <c r="E249" s="25"/>
       <c r="F249" s="26"/>
       <c r="G249" s="27"/>
@@ -10338,10 +10350,10 @@
         <v>4</v>
       </c>
       <c r="B250" s="14"/>
-      <c r="C250" s="63" t="s">
+      <c r="C250" s="57" t="s">
         <v>124</v>
       </c>
-      <c r="D250" s="63"/>
+      <c r="D250" s="57"/>
       <c r="E250" s="25"/>
       <c r="F250" s="26"/>
       <c r="G250" s="27"/>
@@ -10361,10 +10373,10 @@
       </c>
     </row>
     <row r="251" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="C251" s="74" t="s">
+      <c r="C251" s="58" t="s">
         <v>98</v>
       </c>
-      <c r="D251" s="74"/>
+      <c r="D251" s="58"/>
       <c r="E251" s="25"/>
       <c r="F251" s="26"/>
       <c r="G251" s="27"/>
@@ -10388,103 +10400,103 @@
       <c r="R256"/>
     </row>
     <row r="257" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A257" s="75" t="s">
+      <c r="A257" s="59" t="s">
         <v>107</v>
       </c>
-      <c r="B257" s="75"/>
-      <c r="C257" s="75"/>
-      <c r="D257" s="75"/>
-      <c r="E257" s="75"/>
-      <c r="F257" s="75"/>
-      <c r="G257" s="75"/>
-      <c r="H257" s="75"/>
-      <c r="I257" s="75"/>
-      <c r="J257" s="75"/>
-      <c r="K257" s="75"/>
-      <c r="L257" s="75"/>
-      <c r="M257" s="75"/>
-      <c r="N257" s="75"/>
-      <c r="O257" s="75"/>
-      <c r="P257" s="75"/>
-      <c r="Q257" s="75"/>
-      <c r="R257" s="75"/>
-      <c r="S257" s="75"/>
-      <c r="T257" s="75"/>
-      <c r="U257" s="75"/>
-      <c r="V257" s="75"/>
-      <c r="W257" s="75"/>
+      <c r="B257" s="59"/>
+      <c r="C257" s="59"/>
+      <c r="D257" s="59"/>
+      <c r="E257" s="59"/>
+      <c r="F257" s="59"/>
+      <c r="G257" s="59"/>
+      <c r="H257" s="59"/>
+      <c r="I257" s="59"/>
+      <c r="J257" s="59"/>
+      <c r="K257" s="59"/>
+      <c r="L257" s="59"/>
+      <c r="M257" s="59"/>
+      <c r="N257" s="59"/>
+      <c r="O257" s="59"/>
+      <c r="P257" s="59"/>
+      <c r="Q257" s="59"/>
+      <c r="R257" s="59"/>
+      <c r="S257" s="59"/>
+      <c r="T257" s="59"/>
+      <c r="U257" s="59"/>
+      <c r="V257" s="59"/>
+      <c r="W257" s="59"/>
     </row>
     <row r="258" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A258" s="75"/>
-      <c r="B258" s="75"/>
-      <c r="C258" s="75"/>
-      <c r="D258" s="75"/>
-      <c r="E258" s="75"/>
-      <c r="F258" s="75"/>
-      <c r="G258" s="75"/>
-      <c r="H258" s="75"/>
-      <c r="I258" s="75"/>
-      <c r="J258" s="75"/>
-      <c r="K258" s="75"/>
-      <c r="L258" s="75"/>
-      <c r="M258" s="75"/>
-      <c r="N258" s="75"/>
-      <c r="O258" s="75"/>
-      <c r="P258" s="75"/>
-      <c r="Q258" s="75"/>
-      <c r="R258" s="75"/>
-      <c r="S258" s="75"/>
-      <c r="T258" s="75"/>
-      <c r="U258" s="75"/>
-      <c r="V258" s="75"/>
-      <c r="W258" s="75"/>
+      <c r="A258" s="59"/>
+      <c r="B258" s="59"/>
+      <c r="C258" s="59"/>
+      <c r="D258" s="59"/>
+      <c r="E258" s="59"/>
+      <c r="F258" s="59"/>
+      <c r="G258" s="59"/>
+      <c r="H258" s="59"/>
+      <c r="I258" s="59"/>
+      <c r="J258" s="59"/>
+      <c r="K258" s="59"/>
+      <c r="L258" s="59"/>
+      <c r="M258" s="59"/>
+      <c r="N258" s="59"/>
+      <c r="O258" s="59"/>
+      <c r="P258" s="59"/>
+      <c r="Q258" s="59"/>
+      <c r="R258" s="59"/>
+      <c r="S258" s="59"/>
+      <c r="T258" s="59"/>
+      <c r="U258" s="59"/>
+      <c r="V258" s="59"/>
+      <c r="W258" s="59"/>
     </row>
     <row r="259" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A259" s="75"/>
-      <c r="B259" s="75"/>
-      <c r="C259" s="75"/>
-      <c r="D259" s="75"/>
-      <c r="E259" s="75"/>
-      <c r="F259" s="75"/>
-      <c r="G259" s="75"/>
-      <c r="H259" s="75"/>
-      <c r="I259" s="75"/>
-      <c r="J259" s="75"/>
-      <c r="K259" s="75"/>
-      <c r="L259" s="75"/>
-      <c r="M259" s="75"/>
-      <c r="N259" s="75"/>
-      <c r="O259" s="75"/>
-      <c r="P259" s="75"/>
-      <c r="Q259" s="75"/>
-      <c r="R259" s="75"/>
-      <c r="S259" s="75"/>
-      <c r="T259" s="75"/>
-      <c r="U259" s="75"/>
-      <c r="V259" s="75"/>
-      <c r="W259" s="75"/>
+      <c r="A259" s="59"/>
+      <c r="B259" s="59"/>
+      <c r="C259" s="59"/>
+      <c r="D259" s="59"/>
+      <c r="E259" s="59"/>
+      <c r="F259" s="59"/>
+      <c r="G259" s="59"/>
+      <c r="H259" s="59"/>
+      <c r="I259" s="59"/>
+      <c r="J259" s="59"/>
+      <c r="K259" s="59"/>
+      <c r="L259" s="59"/>
+      <c r="M259" s="59"/>
+      <c r="N259" s="59"/>
+      <c r="O259" s="59"/>
+      <c r="P259" s="59"/>
+      <c r="Q259" s="59"/>
+      <c r="R259" s="59"/>
+      <c r="S259" s="59"/>
+      <c r="T259" s="59"/>
+      <c r="U259" s="59"/>
+      <c r="V259" s="59"/>
+      <c r="W259" s="59"/>
     </row>
     <row r="260" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A260" s="76" t="s">
+      <c r="A260" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="B260" s="77"/>
-      <c r="C260" s="77"/>
-      <c r="D260" s="77"/>
-      <c r="E260" s="77"/>
-      <c r="F260" s="77"/>
-      <c r="G260" s="77"/>
-      <c r="H260" s="77"/>
-      <c r="I260" s="77"/>
-      <c r="J260" s="77"/>
-      <c r="K260" s="77"/>
-      <c r="L260" s="77"/>
-      <c r="M260" s="77"/>
-      <c r="N260" s="77"/>
-      <c r="O260" s="77"/>
-      <c r="P260" s="77"/>
-      <c r="Q260" s="77"/>
-      <c r="R260" s="78"/>
+      <c r="B260" s="70"/>
+      <c r="C260" s="70"/>
+      <c r="D260" s="70"/>
+      <c r="E260" s="70"/>
+      <c r="F260" s="70"/>
+      <c r="G260" s="70"/>
+      <c r="H260" s="70"/>
+      <c r="I260" s="70"/>
+      <c r="J260" s="70"/>
+      <c r="K260" s="70"/>
+      <c r="L260" s="70"/>
+      <c r="M260" s="70"/>
+      <c r="N260" s="70"/>
+      <c r="O260" s="70"/>
+      <c r="P260" s="70"/>
+      <c r="Q260" s="70"/>
+      <c r="R260" s="71"/>
       <c r="S260" s="38"/>
       <c r="T260" s="38"/>
       <c r="U260" s="38"/>
@@ -10500,17 +10512,17 @@
       <c r="B262" s="46" t="s">
         <v>105</v>
       </c>
-      <c r="C262" s="72" t="s">
+      <c r="C262" s="73" t="s">
         <v>108</v>
       </c>
-      <c r="D262" s="72"/>
-      <c r="E262" s="72"/>
-      <c r="F262" s="72"/>
-      <c r="G262" s="72"/>
-      <c r="H262" s="72"/>
-      <c r="I262" s="72"/>
-      <c r="J262" s="72"/>
-      <c r="K262" s="72"/>
+      <c r="D262" s="73"/>
+      <c r="E262" s="73"/>
+      <c r="F262" s="73"/>
+      <c r="G262" s="73"/>
+      <c r="H262" s="73"/>
+      <c r="I262" s="73"/>
+      <c r="J262" s="73"/>
+      <c r="K262" s="73"/>
       <c r="L262" s="5" t="s">
         <v>2</v>
       </c>
@@ -10550,17 +10562,17 @@
       <c r="B263" s="44">
         <v>44683</v>
       </c>
-      <c r="C263" s="54" t="s">
+      <c r="C263" s="83" t="s">
         <v>43</v>
       </c>
-      <c r="D263" s="55"/>
-      <c r="E263" s="55"/>
-      <c r="F263" s="55"/>
-      <c r="G263" s="55"/>
-      <c r="H263" s="55"/>
-      <c r="I263" s="55"/>
-      <c r="J263" s="55"/>
-      <c r="K263" s="56"/>
+      <c r="D263" s="84"/>
+      <c r="E263" s="84"/>
+      <c r="F263" s="84"/>
+      <c r="G263" s="84"/>
+      <c r="H263" s="84"/>
+      <c r="I263" s="84"/>
+      <c r="J263" s="84"/>
+      <c r="K263" s="85"/>
       <c r="L263" s="6">
         <v>17</v>
       </c>
@@ -10588,17 +10600,17 @@
       <c r="B264" s="41">
         <v>44684</v>
       </c>
-      <c r="C264" s="57" t="s">
+      <c r="C264" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="D264" s="58"/>
-      <c r="E264" s="58"/>
-      <c r="F264" s="58"/>
-      <c r="G264" s="58"/>
-      <c r="H264" s="58"/>
-      <c r="I264" s="58"/>
-      <c r="J264" s="58"/>
-      <c r="K264" s="59"/>
+      <c r="D264" s="88"/>
+      <c r="E264" s="88"/>
+      <c r="F264" s="88"/>
+      <c r="G264" s="88"/>
+      <c r="H264" s="88"/>
+      <c r="I264" s="88"/>
+      <c r="J264" s="88"/>
+      <c r="K264" s="89"/>
       <c r="L264" s="6">
         <v>17</v>
       </c>
@@ -10615,7 +10627,7 @@
       <c r="S264" s="6"/>
       <c r="T264" s="6"/>
       <c r="U264" s="6" t="e">
-        <f t="shared" ref="U264:U268" si="19" xml:space="preserve"> (S264-R264)/(S264)*100</f>
+        <f t="shared" ref="U264:U268" si="20" xml:space="preserve"> (S264-R264)/(S264)*100</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -10626,17 +10638,17 @@
       <c r="B265" s="41">
         <v>44686</v>
       </c>
-      <c r="C265" s="54" t="s">
+      <c r="C265" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="D265" s="55"/>
-      <c r="E265" s="55"/>
-      <c r="F265" s="55"/>
-      <c r="G265" s="55"/>
-      <c r="H265" s="55"/>
-      <c r="I265" s="55"/>
-      <c r="J265" s="55"/>
-      <c r="K265" s="56"/>
+      <c r="D265" s="84"/>
+      <c r="E265" s="84"/>
+      <c r="F265" s="84"/>
+      <c r="G265" s="84"/>
+      <c r="H265" s="84"/>
+      <c r="I265" s="84"/>
+      <c r="J265" s="84"/>
+      <c r="K265" s="85"/>
       <c r="L265" s="6">
         <v>17</v>
       </c>
@@ -10653,7 +10665,7 @@
       <c r="S265" s="6"/>
       <c r="T265" s="6"/>
       <c r="U265" s="6" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -10664,17 +10676,17 @@
       <c r="B266" s="41">
         <v>44688</v>
       </c>
-      <c r="C266" s="54" t="s">
+      <c r="C266" s="83" t="s">
         <v>40</v>
       </c>
-      <c r="D266" s="55"/>
-      <c r="E266" s="55"/>
-      <c r="F266" s="55"/>
-      <c r="G266" s="55"/>
-      <c r="H266" s="55"/>
-      <c r="I266" s="55"/>
-      <c r="J266" s="55"/>
-      <c r="K266" s="56"/>
+      <c r="D266" s="84"/>
+      <c r="E266" s="84"/>
+      <c r="F266" s="84"/>
+      <c r="G266" s="84"/>
+      <c r="H266" s="84"/>
+      <c r="I266" s="84"/>
+      <c r="J266" s="84"/>
+      <c r="K266" s="85"/>
       <c r="L266" s="6">
         <v>17</v>
       </c>
@@ -10691,7 +10703,7 @@
       <c r="S266" s="6"/>
       <c r="T266" s="6"/>
       <c r="U266" s="6" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -10702,17 +10714,17 @@
       <c r="B267" s="41">
         <v>44696</v>
       </c>
-      <c r="C267" s="57" t="s">
+      <c r="C267" s="87" t="s">
         <v>5</v>
       </c>
-      <c r="D267" s="58"/>
-      <c r="E267" s="58"/>
-      <c r="F267" s="58"/>
-      <c r="G267" s="58"/>
-      <c r="H267" s="58"/>
-      <c r="I267" s="58"/>
-      <c r="J267" s="58"/>
-      <c r="K267" s="59"/>
+      <c r="D267" s="88"/>
+      <c r="E267" s="88"/>
+      <c r="F267" s="88"/>
+      <c r="G267" s="88"/>
+      <c r="H267" s="88"/>
+      <c r="I267" s="88"/>
+      <c r="J267" s="88"/>
+      <c r="K267" s="89"/>
       <c r="L267" s="6">
         <v>17</v>
       </c>
@@ -10729,7 +10741,7 @@
       <c r="S267" s="6"/>
       <c r="T267" s="6"/>
       <c r="U267" s="6" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -10740,17 +10752,17 @@
       <c r="B268" s="41">
         <v>44700</v>
       </c>
-      <c r="C268" s="54" t="s">
+      <c r="C268" s="83" t="s">
         <v>33</v>
       </c>
-      <c r="D268" s="55"/>
-      <c r="E268" s="55"/>
-      <c r="F268" s="55"/>
-      <c r="G268" s="55"/>
-      <c r="H268" s="55"/>
-      <c r="I268" s="55"/>
-      <c r="J268" s="55"/>
-      <c r="K268" s="56"/>
+      <c r="D268" s="84"/>
+      <c r="E268" s="84"/>
+      <c r="F268" s="84"/>
+      <c r="G268" s="84"/>
+      <c r="H268" s="84"/>
+      <c r="I268" s="84"/>
+      <c r="J268" s="84"/>
+      <c r="K268" s="85"/>
       <c r="L268" s="6">
         <v>17</v>
       </c>
@@ -10767,7 +10779,7 @@
       <c r="S268" s="6"/>
       <c r="T268" s="6"/>
       <c r="U268" s="6" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -10778,17 +10790,17 @@
       <c r="B269" s="41">
         <v>44703</v>
       </c>
-      <c r="C269" s="57" t="s">
+      <c r="C269" s="87" t="s">
         <v>9</v>
       </c>
-      <c r="D269" s="58"/>
-      <c r="E269" s="58"/>
-      <c r="F269" s="58"/>
-      <c r="G269" s="58"/>
-      <c r="H269" s="58"/>
-      <c r="I269" s="58"/>
-      <c r="J269" s="58"/>
-      <c r="K269" s="59"/>
+      <c r="D269" s="88"/>
+      <c r="E269" s="88"/>
+      <c r="F269" s="88"/>
+      <c r="G269" s="88"/>
+      <c r="H269" s="88"/>
+      <c r="I269" s="88"/>
+      <c r="J269" s="88"/>
+      <c r="K269" s="89"/>
       <c r="L269" s="6">
         <v>17</v>
       </c>
@@ -10816,17 +10828,17 @@
       <c r="B270" s="41">
         <v>44707</v>
       </c>
-      <c r="C270" s="57" t="s">
+      <c r="C270" s="87" t="s">
         <v>44</v>
       </c>
-      <c r="D270" s="58"/>
-      <c r="E270" s="58"/>
-      <c r="F270" s="58"/>
-      <c r="G270" s="58"/>
-      <c r="H270" s="58"/>
-      <c r="I270" s="58"/>
-      <c r="J270" s="58"/>
-      <c r="K270" s="59"/>
+      <c r="D270" s="88"/>
+      <c r="E270" s="88"/>
+      <c r="F270" s="88"/>
+      <c r="G270" s="88"/>
+      <c r="H270" s="88"/>
+      <c r="I270" s="88"/>
+      <c r="J270" s="88"/>
+      <c r="K270" s="89"/>
       <c r="L270" s="6">
         <v>17</v>
       </c>
@@ -10851,17 +10863,17 @@
       <c r="B271" s="41">
         <v>44712</v>
       </c>
-      <c r="C271" s="54" t="s">
+      <c r="C271" s="83" t="s">
         <v>34</v>
       </c>
-      <c r="D271" s="55"/>
-      <c r="E271" s="55"/>
-      <c r="F271" s="55"/>
-      <c r="G271" s="55"/>
-      <c r="H271" s="55"/>
-      <c r="I271" s="55"/>
-      <c r="J271" s="55"/>
-      <c r="K271" s="56"/>
+      <c r="D271" s="84"/>
+      <c r="E271" s="84"/>
+      <c r="F271" s="84"/>
+      <c r="G271" s="84"/>
+      <c r="H271" s="84"/>
+      <c r="I271" s="84"/>
+      <c r="J271" s="84"/>
+      <c r="K271" s="85"/>
       <c r="L271" s="6">
         <v>17</v>
       </c>
@@ -10886,17 +10898,17 @@
       <c r="B272" s="41">
         <v>44717</v>
       </c>
-      <c r="C272" s="57" t="s">
+      <c r="C272" s="87" t="s">
         <v>35</v>
       </c>
-      <c r="D272" s="58"/>
-      <c r="E272" s="58"/>
-      <c r="F272" s="58"/>
-      <c r="G272" s="58"/>
-      <c r="H272" s="58"/>
-      <c r="I272" s="58"/>
-      <c r="J272" s="58"/>
-      <c r="K272" s="59"/>
+      <c r="D272" s="88"/>
+      <c r="E272" s="88"/>
+      <c r="F272" s="88"/>
+      <c r="G272" s="88"/>
+      <c r="H272" s="88"/>
+      <c r="I272" s="88"/>
+      <c r="J272" s="88"/>
+      <c r="K272" s="89"/>
       <c r="L272" s="6">
         <v>17</v>
       </c>
@@ -10913,7 +10925,7 @@
       <c r="S272" s="6"/>
       <c r="T272" s="6"/>
       <c r="U272" s="6" t="e">
-        <f t="shared" ref="U272" si="20" xml:space="preserve"> (S272-R272)/(S272)*100</f>
+        <f t="shared" ref="U272" si="21" xml:space="preserve"> (S272-R272)/(S272)*100</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -10924,17 +10936,17 @@
       <c r="B273" s="41">
         <v>44722</v>
       </c>
-      <c r="C273" s="54" t="s">
+      <c r="C273" s="83" t="s">
         <v>36</v>
       </c>
-      <c r="D273" s="55"/>
-      <c r="E273" s="55"/>
-      <c r="F273" s="55"/>
-      <c r="G273" s="55"/>
-      <c r="H273" s="55"/>
-      <c r="I273" s="55"/>
-      <c r="J273" s="55"/>
-      <c r="K273" s="56"/>
+      <c r="D273" s="84"/>
+      <c r="E273" s="84"/>
+      <c r="F273" s="84"/>
+      <c r="G273" s="84"/>
+      <c r="H273" s="84"/>
+      <c r="I273" s="84"/>
+      <c r="J273" s="84"/>
+      <c r="K273" s="85"/>
       <c r="L273" s="6">
         <v>17</v>
       </c>
@@ -10959,17 +10971,17 @@
       <c r="B274" s="41">
         <v>44727</v>
       </c>
-      <c r="C274" s="54" t="s">
+      <c r="C274" s="83" t="s">
         <v>37</v>
       </c>
-      <c r="D274" s="55"/>
-      <c r="E274" s="55"/>
-      <c r="F274" s="55"/>
-      <c r="G274" s="55"/>
-      <c r="H274" s="55"/>
-      <c r="I274" s="55"/>
-      <c r="J274" s="55"/>
-      <c r="K274" s="56"/>
+      <c r="D274" s="84"/>
+      <c r="E274" s="84"/>
+      <c r="F274" s="84"/>
+      <c r="G274" s="84"/>
+      <c r="H274" s="84"/>
+      <c r="I274" s="84"/>
+      <c r="J274" s="84"/>
+      <c r="K274" s="85"/>
       <c r="L274" s="6">
         <v>17</v>
       </c>
@@ -10994,17 +11006,17 @@
       <c r="B275" s="41" t="s">
         <v>109</v>
       </c>
-      <c r="C275" s="54" t="s">
+      <c r="C275" s="83" t="s">
         <v>45</v>
       </c>
-      <c r="D275" s="55"/>
-      <c r="E275" s="55"/>
-      <c r="F275" s="55"/>
-      <c r="G275" s="55"/>
-      <c r="H275" s="55"/>
-      <c r="I275" s="55"/>
-      <c r="J275" s="55"/>
-      <c r="K275" s="56"/>
+      <c r="D275" s="84"/>
+      <c r="E275" s="84"/>
+      <c r="F275" s="84"/>
+      <c r="G275" s="84"/>
+      <c r="H275" s="84"/>
+      <c r="I275" s="84"/>
+      <c r="J275" s="84"/>
+      <c r="K275" s="85"/>
       <c r="L275" s="6">
         <v>17</v>
       </c>
@@ -11032,17 +11044,17 @@
       <c r="B276" s="41" t="s">
         <v>110</v>
       </c>
-      <c r="C276" s="54" t="s">
+      <c r="C276" s="83" t="s">
         <v>46</v>
       </c>
-      <c r="D276" s="55"/>
-      <c r="E276" s="55"/>
-      <c r="F276" s="55"/>
-      <c r="G276" s="55"/>
-      <c r="H276" s="55"/>
-      <c r="I276" s="55"/>
-      <c r="J276" s="55"/>
-      <c r="K276" s="56"/>
+      <c r="D276" s="84"/>
+      <c r="E276" s="84"/>
+      <c r="F276" s="84"/>
+      <c r="G276" s="84"/>
+      <c r="H276" s="84"/>
+      <c r="I276" s="84"/>
+      <c r="J276" s="84"/>
+      <c r="K276" s="85"/>
       <c r="L276" s="6">
         <v>17</v>
       </c>
@@ -11059,7 +11071,7 @@
       <c r="S276" s="6"/>
       <c r="T276" s="6"/>
       <c r="U276" s="6" t="e">
-        <f t="shared" ref="U276:U279" si="21" xml:space="preserve"> (S276-R276)/(S276)*100</f>
+        <f t="shared" ref="U276:U279" si="22" xml:space="preserve"> (S276-R276)/(S276)*100</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -11070,17 +11082,17 @@
       <c r="B277" s="41">
         <v>44736</v>
       </c>
-      <c r="C277" s="57" t="s">
+      <c r="C277" s="87" t="s">
         <v>7</v>
       </c>
-      <c r="D277" s="58"/>
-      <c r="E277" s="58"/>
-      <c r="F277" s="58"/>
-      <c r="G277" s="58"/>
-      <c r="H277" s="58"/>
-      <c r="I277" s="58"/>
-      <c r="J277" s="58"/>
-      <c r="K277" s="59"/>
+      <c r="D277" s="88"/>
+      <c r="E277" s="88"/>
+      <c r="F277" s="88"/>
+      <c r="G277" s="88"/>
+      <c r="H277" s="88"/>
+      <c r="I277" s="88"/>
+      <c r="J277" s="88"/>
+      <c r="K277" s="89"/>
       <c r="L277" s="6">
         <v>17</v>
       </c>
@@ -11097,7 +11109,7 @@
       <c r="S277" s="6"/>
       <c r="T277" s="6"/>
       <c r="U277" s="6" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -11108,17 +11120,17 @@
       <c r="B278" s="41">
         <v>44740</v>
       </c>
-      <c r="C278" s="54" t="s">
+      <c r="C278" s="83" t="s">
         <v>38</v>
       </c>
-      <c r="D278" s="55"/>
-      <c r="E278" s="55"/>
-      <c r="F278" s="55"/>
-      <c r="G278" s="55"/>
-      <c r="H278" s="55"/>
-      <c r="I278" s="55"/>
-      <c r="J278" s="55"/>
-      <c r="K278" s="56"/>
+      <c r="D278" s="84"/>
+      <c r="E278" s="84"/>
+      <c r="F278" s="84"/>
+      <c r="G278" s="84"/>
+      <c r="H278" s="84"/>
+      <c r="I278" s="84"/>
+      <c r="J278" s="84"/>
+      <c r="K278" s="85"/>
       <c r="L278" s="6">
         <v>17</v>
       </c>
@@ -11135,7 +11147,7 @@
       <c r="S278" s="6"/>
       <c r="T278" s="6"/>
       <c r="U278" s="6" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -11146,17 +11158,17 @@
       <c r="B279" s="41">
         <v>44745</v>
       </c>
-      <c r="C279" s="57" t="s">
+      <c r="C279" s="87" t="s">
         <v>11</v>
       </c>
-      <c r="D279" s="58"/>
-      <c r="E279" s="58"/>
-      <c r="F279" s="58"/>
-      <c r="G279" s="58"/>
-      <c r="H279" s="58"/>
-      <c r="I279" s="58"/>
-      <c r="J279" s="58"/>
-      <c r="K279" s="59"/>
+      <c r="D279" s="88"/>
+      <c r="E279" s="88"/>
+      <c r="F279" s="88"/>
+      <c r="G279" s="88"/>
+      <c r="H279" s="88"/>
+      <c r="I279" s="88"/>
+      <c r="J279" s="88"/>
+      <c r="K279" s="89"/>
       <c r="L279" s="6">
         <v>17</v>
       </c>
@@ -11173,7 +11185,7 @@
       <c r="S279" s="6"/>
       <c r="T279" s="6"/>
       <c r="U279" s="6" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -11184,17 +11196,17 @@
       <c r="B280" s="41">
         <v>44750</v>
       </c>
-      <c r="C280" s="54" t="s">
+      <c r="C280" s="83" t="s">
         <v>48</v>
       </c>
-      <c r="D280" s="55"/>
-      <c r="E280" s="55"/>
-      <c r="F280" s="55"/>
-      <c r="G280" s="55"/>
-      <c r="H280" s="55"/>
-      <c r="I280" s="55"/>
-      <c r="J280" s="55"/>
-      <c r="K280" s="56"/>
+      <c r="D280" s="84"/>
+      <c r="E280" s="84"/>
+      <c r="F280" s="84"/>
+      <c r="G280" s="84"/>
+      <c r="H280" s="84"/>
+      <c r="I280" s="84"/>
+      <c r="J280" s="84"/>
+      <c r="K280" s="85"/>
       <c r="L280" s="6">
         <v>17</v>
       </c>
@@ -11219,17 +11231,17 @@
       <c r="B281" s="41">
         <v>44752</v>
       </c>
-      <c r="C281" s="58" t="s">
+      <c r="C281" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="D281" s="58"/>
-      <c r="E281" s="58"/>
-      <c r="F281" s="58"/>
-      <c r="G281" s="58"/>
-      <c r="H281" s="58"/>
-      <c r="I281" s="58"/>
-      <c r="J281" s="58"/>
-      <c r="K281" s="59"/>
+      <c r="D281" s="88"/>
+      <c r="E281" s="88"/>
+      <c r="F281" s="88"/>
+      <c r="G281" s="88"/>
+      <c r="H281" s="88"/>
+      <c r="I281" s="88"/>
+      <c r="J281" s="88"/>
+      <c r="K281" s="89"/>
       <c r="L281" s="6">
         <v>17</v>
       </c>
@@ -11246,7 +11258,7 @@
       <c r="S281" s="6"/>
       <c r="T281" s="6"/>
       <c r="U281" s="6" t="e">
-        <f t="shared" ref="U281" si="22" xml:space="preserve"> (S281-R281)/(S281)*100</f>
+        <f t="shared" ref="U281" si="23" xml:space="preserve"> (S281-R281)/(S281)*100</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -11257,17 +11269,17 @@
       <c r="B282" s="41">
         <v>44754</v>
       </c>
-      <c r="C282" s="55" t="s">
+      <c r="C282" s="84" t="s">
         <v>49</v>
       </c>
-      <c r="D282" s="55"/>
-      <c r="E282" s="55"/>
-      <c r="F282" s="55"/>
-      <c r="G282" s="55"/>
-      <c r="H282" s="55"/>
-      <c r="I282" s="55"/>
-      <c r="J282" s="55"/>
-      <c r="K282" s="56"/>
+      <c r="D282" s="84"/>
+      <c r="E282" s="84"/>
+      <c r="F282" s="84"/>
+      <c r="G282" s="84"/>
+      <c r="H282" s="84"/>
+      <c r="I282" s="84"/>
+      <c r="J282" s="84"/>
+      <c r="K282" s="85"/>
       <c r="L282" s="6">
         <v>17</v>
       </c>
@@ -11292,17 +11304,17 @@
       <c r="B283" s="41">
         <v>44757</v>
       </c>
-      <c r="C283" s="57" t="s">
+      <c r="C283" s="87" t="s">
         <v>10</v>
       </c>
-      <c r="D283" s="58"/>
-      <c r="E283" s="58"/>
-      <c r="F283" s="58"/>
-      <c r="G283" s="58"/>
-      <c r="H283" s="58"/>
-      <c r="I283" s="58"/>
-      <c r="J283" s="58"/>
-      <c r="K283" s="59"/>
+      <c r="D283" s="88"/>
+      <c r="E283" s="88"/>
+      <c r="F283" s="88"/>
+      <c r="G283" s="88"/>
+      <c r="H283" s="88"/>
+      <c r="I283" s="88"/>
+      <c r="J283" s="88"/>
+      <c r="K283" s="89"/>
       <c r="L283" s="6">
         <v>17</v>
       </c>
@@ -11319,7 +11331,7 @@
       <c r="S283" s="6"/>
       <c r="T283" s="6"/>
       <c r="U283" s="6" t="e">
-        <f t="shared" ref="U283:U284" si="23" xml:space="preserve"> (S283-R283)/(S283)*100</f>
+        <f t="shared" ref="U283:U284" si="24" xml:space="preserve"> (S283-R283)/(S283)*100</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -11330,17 +11342,17 @@
       <c r="B284" s="41">
         <v>44760</v>
       </c>
-      <c r="C284" s="57" t="s">
+      <c r="C284" s="87" t="s">
         <v>47</v>
       </c>
-      <c r="D284" s="58"/>
-      <c r="E284" s="58"/>
-      <c r="F284" s="58"/>
-      <c r="G284" s="58"/>
-      <c r="H284" s="58"/>
-      <c r="I284" s="58"/>
-      <c r="J284" s="58"/>
-      <c r="K284" s="59"/>
+      <c r="D284" s="88"/>
+      <c r="E284" s="88"/>
+      <c r="F284" s="88"/>
+      <c r="G284" s="88"/>
+      <c r="H284" s="88"/>
+      <c r="I284" s="88"/>
+      <c r="J284" s="88"/>
+      <c r="K284" s="89"/>
       <c r="L284" s="6">
         <v>17</v>
       </c>
@@ -11357,7 +11369,7 @@
       <c r="S284" s="6"/>
       <c r="T284" s="6"/>
       <c r="U284" s="6" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -11366,17 +11378,17 @@
         <v>23</v>
       </c>
       <c r="B285" s="41"/>
-      <c r="C285" s="54" t="s">
+      <c r="C285" s="83" t="s">
         <v>41</v>
       </c>
-      <c r="D285" s="55"/>
-      <c r="E285" s="55"/>
-      <c r="F285" s="55"/>
-      <c r="G285" s="55"/>
-      <c r="H285" s="55"/>
-      <c r="I285" s="55"/>
-      <c r="J285" s="55"/>
-      <c r="K285" s="56"/>
+      <c r="D285" s="84"/>
+      <c r="E285" s="84"/>
+      <c r="F285" s="84"/>
+      <c r="G285" s="84"/>
+      <c r="H285" s="84"/>
+      <c r="I285" s="84"/>
+      <c r="J285" s="84"/>
+      <c r="K285" s="85"/>
       <c r="L285" s="6">
         <v>17</v>
       </c>
@@ -11399,17 +11411,17 @@
         <v>24</v>
       </c>
       <c r="B286" s="41"/>
-      <c r="C286" s="54" t="s">
+      <c r="C286" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="D286" s="55"/>
-      <c r="E286" s="55"/>
-      <c r="F286" s="55"/>
-      <c r="G286" s="55"/>
-      <c r="H286" s="55"/>
-      <c r="I286" s="55"/>
-      <c r="J286" s="55"/>
-      <c r="K286" s="56"/>
+      <c r="D286" s="84"/>
+      <c r="E286" s="84"/>
+      <c r="F286" s="84"/>
+      <c r="G286" s="84"/>
+      <c r="H286" s="84"/>
+      <c r="I286" s="84"/>
+      <c r="J286" s="84"/>
+      <c r="K286" s="85"/>
       <c r="L286" s="6">
         <v>17</v>
       </c>
@@ -11432,20 +11444,20 @@
         <v>25</v>
       </c>
       <c r="B287" s="47"/>
-      <c r="C287" s="66" t="s">
+      <c r="C287" s="60" t="s">
         <v>58</v>
       </c>
-      <c r="D287" s="67"/>
-      <c r="E287" s="67"/>
-      <c r="F287" s="67"/>
-      <c r="G287" s="67"/>
-      <c r="H287" s="67"/>
-      <c r="I287" s="67"/>
-      <c r="J287" s="67"/>
-      <c r="K287" s="67"/>
-      <c r="L287" s="67"/>
-      <c r="M287" s="67"/>
-      <c r="N287" s="68"/>
+      <c r="D287" s="61"/>
+      <c r="E287" s="61"/>
+      <c r="F287" s="61"/>
+      <c r="G287" s="61"/>
+      <c r="H287" s="61"/>
+      <c r="I287" s="61"/>
+      <c r="J287" s="61"/>
+      <c r="K287" s="61"/>
+      <c r="L287" s="61"/>
+      <c r="M287" s="61"/>
+      <c r="N287" s="62"/>
       <c r="O287" s="11"/>
       <c r="P287" s="12" t="e">
         <f>AVERAGE(P263:P286)</f>
@@ -11468,26 +11480,26 @@
       <c r="B288" s="41"/>
     </row>
     <row r="289" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A289" s="82" t="s">
+      <c r="A289" s="76" t="s">
         <v>13</v>
       </c>
-      <c r="B289" s="83"/>
-      <c r="C289" s="83"/>
-      <c r="D289" s="83"/>
-      <c r="E289" s="83"/>
-      <c r="F289" s="83"/>
-      <c r="G289" s="83"/>
-      <c r="H289" s="83"/>
-      <c r="I289" s="83"/>
-      <c r="J289" s="83"/>
-      <c r="K289" s="83"/>
-      <c r="L289" s="83"/>
-      <c r="M289" s="83"/>
-      <c r="N289" s="83"/>
-      <c r="O289" s="83"/>
-      <c r="P289" s="83"/>
-      <c r="Q289" s="83"/>
-      <c r="R289" s="84"/>
+      <c r="B289" s="77"/>
+      <c r="C289" s="77"/>
+      <c r="D289" s="77"/>
+      <c r="E289" s="77"/>
+      <c r="F289" s="77"/>
+      <c r="G289" s="77"/>
+      <c r="H289" s="77"/>
+      <c r="I289" s="77"/>
+      <c r="J289" s="77"/>
+      <c r="K289" s="77"/>
+      <c r="L289" s="77"/>
+      <c r="M289" s="77"/>
+      <c r="N289" s="77"/>
+      <c r="O289" s="77"/>
+      <c r="P289" s="77"/>
+      <c r="Q289" s="77"/>
+      <c r="R289" s="78"/>
       <c r="S289" s="15"/>
       <c r="T289" s="15"/>
       <c r="U289" s="15"/>
@@ -11497,17 +11509,17 @@
         <v>1</v>
       </c>
       <c r="B291" s="5"/>
-      <c r="C291" s="72" t="s">
+      <c r="C291" s="73" t="s">
         <v>56</v>
       </c>
-      <c r="D291" s="72"/>
-      <c r="E291" s="72"/>
-      <c r="F291" s="72"/>
-      <c r="G291" s="72"/>
-      <c r="H291" s="72"/>
-      <c r="I291" s="72"/>
-      <c r="J291" s="72"/>
-      <c r="K291" s="72"/>
+      <c r="D291" s="73"/>
+      <c r="E291" s="73"/>
+      <c r="F291" s="73"/>
+      <c r="G291" s="73"/>
+      <c r="H291" s="73"/>
+      <c r="I291" s="73"/>
+      <c r="J291" s="73"/>
+      <c r="K291" s="73"/>
       <c r="L291" s="5" t="s">
         <v>2</v>
       </c>
@@ -11544,17 +11556,17 @@
         <v>1</v>
       </c>
       <c r="B292" s="1"/>
-      <c r="C292" s="73" t="s">
+      <c r="C292" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="D292" s="73"/>
-      <c r="E292" s="73"/>
-      <c r="F292" s="73"/>
-      <c r="G292" s="73"/>
-      <c r="H292" s="73"/>
-      <c r="I292" s="73"/>
-      <c r="J292" s="73"/>
-      <c r="K292" s="73"/>
+      <c r="D292" s="74"/>
+      <c r="E292" s="74"/>
+      <c r="F292" s="74"/>
+      <c r="G292" s="74"/>
+      <c r="H292" s="74"/>
+      <c r="I292" s="74"/>
+      <c r="J292" s="74"/>
+      <c r="K292" s="74"/>
       <c r="L292" s="6">
         <v>33</v>
       </c>
@@ -11577,17 +11589,17 @@
         <v>2</v>
       </c>
       <c r="B293" s="1"/>
-      <c r="C293" s="64" t="s">
+      <c r="C293" s="66" t="s">
         <v>16</v>
       </c>
-      <c r="D293" s="65"/>
-      <c r="E293" s="65"/>
-      <c r="F293" s="65"/>
-      <c r="G293" s="65"/>
-      <c r="H293" s="65"/>
-      <c r="I293" s="65"/>
-      <c r="J293" s="65"/>
-      <c r="K293" s="65"/>
+      <c r="D293" s="67"/>
+      <c r="E293" s="67"/>
+      <c r="F293" s="67"/>
+      <c r="G293" s="67"/>
+      <c r="H293" s="67"/>
+      <c r="I293" s="67"/>
+      <c r="J293" s="67"/>
+      <c r="K293" s="67"/>
       <c r="L293" s="6">
         <v>33</v>
       </c>
@@ -11610,17 +11622,17 @@
         <v>3</v>
       </c>
       <c r="B294" s="1"/>
-      <c r="C294" s="64" t="s">
+      <c r="C294" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="D294" s="65"/>
-      <c r="E294" s="65"/>
-      <c r="F294" s="65"/>
-      <c r="G294" s="65"/>
-      <c r="H294" s="65"/>
-      <c r="I294" s="65"/>
-      <c r="J294" s="65"/>
-      <c r="K294" s="65"/>
+      <c r="D294" s="67"/>
+      <c r="E294" s="67"/>
+      <c r="F294" s="67"/>
+      <c r="G294" s="67"/>
+      <c r="H294" s="67"/>
+      <c r="I294" s="67"/>
+      <c r="J294" s="67"/>
+      <c r="K294" s="67"/>
       <c r="L294" s="6">
         <v>33</v>
       </c>
@@ -11643,17 +11655,17 @@
         <v>4</v>
       </c>
       <c r="B295" s="1"/>
-      <c r="C295" s="65" t="s">
+      <c r="C295" s="67" t="s">
         <v>18</v>
       </c>
-      <c r="D295" s="65"/>
-      <c r="E295" s="65"/>
-      <c r="F295" s="65"/>
-      <c r="G295" s="65"/>
-      <c r="H295" s="65"/>
-      <c r="I295" s="65"/>
-      <c r="J295" s="65"/>
-      <c r="K295" s="65"/>
+      <c r="D295" s="67"/>
+      <c r="E295" s="67"/>
+      <c r="F295" s="67"/>
+      <c r="G295" s="67"/>
+      <c r="H295" s="67"/>
+      <c r="I295" s="67"/>
+      <c r="J295" s="67"/>
+      <c r="K295" s="67"/>
       <c r="L295" s="6">
         <v>33</v>
       </c>
@@ -11676,17 +11688,17 @@
         <v>5</v>
       </c>
       <c r="B296" s="1"/>
-      <c r="C296" s="64" t="s">
+      <c r="C296" s="66" t="s">
         <v>61</v>
       </c>
-      <c r="D296" s="65"/>
-      <c r="E296" s="65"/>
-      <c r="F296" s="65"/>
-      <c r="G296" s="65"/>
-      <c r="H296" s="65"/>
-      <c r="I296" s="65"/>
-      <c r="J296" s="65"/>
-      <c r="K296" s="65"/>
+      <c r="D296" s="67"/>
+      <c r="E296" s="67"/>
+      <c r="F296" s="67"/>
+      <c r="G296" s="67"/>
+      <c r="H296" s="67"/>
+      <c r="I296" s="67"/>
+      <c r="J296" s="67"/>
+      <c r="K296" s="67"/>
       <c r="L296" s="6">
         <v>33</v>
       </c>
@@ -11709,17 +11721,17 @@
         <v>6</v>
       </c>
       <c r="B297" s="1"/>
-      <c r="C297" s="64" t="s">
+      <c r="C297" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="D297" s="65"/>
-      <c r="E297" s="65"/>
-      <c r="F297" s="65"/>
-      <c r="G297" s="65"/>
-      <c r="H297" s="65"/>
-      <c r="I297" s="65"/>
-      <c r="J297" s="65"/>
-      <c r="K297" s="65"/>
+      <c r="D297" s="67"/>
+      <c r="E297" s="67"/>
+      <c r="F297" s="67"/>
+      <c r="G297" s="67"/>
+      <c r="H297" s="67"/>
+      <c r="I297" s="67"/>
+      <c r="J297" s="67"/>
+      <c r="K297" s="67"/>
       <c r="L297" s="6">
         <v>33</v>
       </c>
@@ -11742,17 +11754,17 @@
         <v>7</v>
       </c>
       <c r="B298" s="1"/>
-      <c r="C298" s="65" t="s">
+      <c r="C298" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="D298" s="65"/>
-      <c r="E298" s="65"/>
-      <c r="F298" s="65"/>
-      <c r="G298" s="65"/>
-      <c r="H298" s="65"/>
-      <c r="I298" s="65"/>
-      <c r="J298" s="65"/>
-      <c r="K298" s="65"/>
+      <c r="D298" s="67"/>
+      <c r="E298" s="67"/>
+      <c r="F298" s="67"/>
+      <c r="G298" s="67"/>
+      <c r="H298" s="67"/>
+      <c r="I298" s="67"/>
+      <c r="J298" s="67"/>
+      <c r="K298" s="67"/>
       <c r="L298" s="6">
         <v>33</v>
       </c>
@@ -11775,17 +11787,17 @@
         <v>8</v>
       </c>
       <c r="B299" s="1"/>
-      <c r="C299" s="64" t="s">
+      <c r="C299" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="D299" s="65"/>
-      <c r="E299" s="65"/>
-      <c r="F299" s="65"/>
-      <c r="G299" s="65"/>
-      <c r="H299" s="65"/>
-      <c r="I299" s="65"/>
-      <c r="J299" s="65"/>
-      <c r="K299" s="65"/>
+      <c r="D299" s="67"/>
+      <c r="E299" s="67"/>
+      <c r="F299" s="67"/>
+      <c r="G299" s="67"/>
+      <c r="H299" s="67"/>
+      <c r="I299" s="67"/>
+      <c r="J299" s="67"/>
+      <c r="K299" s="67"/>
       <c r="L299" s="6">
         <v>33</v>
       </c>
@@ -11808,17 +11820,17 @@
         <v>9</v>
       </c>
       <c r="B300" s="1"/>
-      <c r="C300" s="64" t="s">
+      <c r="C300" s="66" t="s">
         <v>62</v>
       </c>
-      <c r="D300" s="65"/>
-      <c r="E300" s="65"/>
-      <c r="F300" s="65"/>
-      <c r="G300" s="65"/>
-      <c r="H300" s="65"/>
-      <c r="I300" s="65"/>
-      <c r="J300" s="65"/>
-      <c r="K300" s="65"/>
+      <c r="D300" s="67"/>
+      <c r="E300" s="67"/>
+      <c r="F300" s="67"/>
+      <c r="G300" s="67"/>
+      <c r="H300" s="67"/>
+      <c r="I300" s="67"/>
+      <c r="J300" s="67"/>
+      <c r="K300" s="67"/>
       <c r="L300" s="6">
         <v>33</v>
       </c>
@@ -11841,17 +11853,17 @@
         <v>10</v>
       </c>
       <c r="B301" s="1"/>
-      <c r="C301" s="64" t="s">
+      <c r="C301" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="D301" s="65"/>
-      <c r="E301" s="65"/>
-      <c r="F301" s="65"/>
-      <c r="G301" s="65"/>
-      <c r="H301" s="65"/>
-      <c r="I301" s="65"/>
-      <c r="J301" s="65"/>
-      <c r="K301" s="65"/>
+      <c r="D301" s="67"/>
+      <c r="E301" s="67"/>
+      <c r="F301" s="67"/>
+      <c r="G301" s="67"/>
+      <c r="H301" s="67"/>
+      <c r="I301" s="67"/>
+      <c r="J301" s="67"/>
+      <c r="K301" s="67"/>
       <c r="L301" s="6">
         <v>33</v>
       </c>
@@ -11874,17 +11886,17 @@
         <v>11</v>
       </c>
       <c r="B302" s="1"/>
-      <c r="C302" s="64" t="s">
+      <c r="C302" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="D302" s="65"/>
-      <c r="E302" s="65"/>
-      <c r="F302" s="65"/>
-      <c r="G302" s="65"/>
-      <c r="H302" s="65"/>
-      <c r="I302" s="65"/>
-      <c r="J302" s="65"/>
-      <c r="K302" s="65"/>
+      <c r="D302" s="67"/>
+      <c r="E302" s="67"/>
+      <c r="F302" s="67"/>
+      <c r="G302" s="67"/>
+      <c r="H302" s="67"/>
+      <c r="I302" s="67"/>
+      <c r="J302" s="67"/>
+      <c r="K302" s="67"/>
       <c r="L302" s="6">
         <v>33</v>
       </c>
@@ -11907,17 +11919,17 @@
         <v>12</v>
       </c>
       <c r="B303" s="1"/>
-      <c r="C303" s="64" t="s">
+      <c r="C303" s="66" t="s">
         <v>63</v>
       </c>
-      <c r="D303" s="65"/>
-      <c r="E303" s="65"/>
-      <c r="F303" s="65"/>
-      <c r="G303" s="65"/>
-      <c r="H303" s="65"/>
-      <c r="I303" s="65"/>
-      <c r="J303" s="65"/>
-      <c r="K303" s="65"/>
+      <c r="D303" s="67"/>
+      <c r="E303" s="67"/>
+      <c r="F303" s="67"/>
+      <c r="G303" s="67"/>
+      <c r="H303" s="67"/>
+      <c r="I303" s="67"/>
+      <c r="J303" s="67"/>
+      <c r="K303" s="67"/>
       <c r="L303" s="6">
         <v>33</v>
       </c>
@@ -11940,20 +11952,20 @@
         <v>13</v>
       </c>
       <c r="B304" s="1"/>
-      <c r="C304" s="66" t="s">
+      <c r="C304" s="60" t="s">
         <v>58</v>
       </c>
-      <c r="D304" s="67"/>
-      <c r="E304" s="67"/>
-      <c r="F304" s="67"/>
-      <c r="G304" s="67"/>
-      <c r="H304" s="67"/>
-      <c r="I304" s="67"/>
-      <c r="J304" s="67"/>
-      <c r="K304" s="67"/>
-      <c r="L304" s="67"/>
-      <c r="M304" s="67"/>
-      <c r="N304" s="68"/>
+      <c r="D304" s="61"/>
+      <c r="E304" s="61"/>
+      <c r="F304" s="61"/>
+      <c r="G304" s="61"/>
+      <c r="H304" s="61"/>
+      <c r="I304" s="61"/>
+      <c r="J304" s="61"/>
+      <c r="K304" s="61"/>
+      <c r="L304" s="61"/>
+      <c r="M304" s="61"/>
+      <c r="N304" s="62"/>
       <c r="O304" s="11"/>
       <c r="P304" s="12"/>
       <c r="Q304" s="13"/>
@@ -11967,26 +11979,26 @@
       <c r="B305" s="1"/>
     </row>
     <row r="306" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A306" s="69" t="s">
+      <c r="A306" s="63" t="s">
         <v>24</v>
       </c>
-      <c r="B306" s="70"/>
-      <c r="C306" s="70"/>
-      <c r="D306" s="70"/>
-      <c r="E306" s="70"/>
-      <c r="F306" s="70"/>
-      <c r="G306" s="70"/>
-      <c r="H306" s="70"/>
-      <c r="I306" s="70"/>
-      <c r="J306" s="70"/>
-      <c r="K306" s="70"/>
-      <c r="L306" s="70"/>
-      <c r="M306" s="70"/>
-      <c r="N306" s="70"/>
-      <c r="O306" s="70"/>
-      <c r="P306" s="70"/>
-      <c r="Q306" s="70"/>
-      <c r="R306" s="71"/>
+      <c r="B306" s="64"/>
+      <c r="C306" s="64"/>
+      <c r="D306" s="64"/>
+      <c r="E306" s="64"/>
+      <c r="F306" s="64"/>
+      <c r="G306" s="64"/>
+      <c r="H306" s="64"/>
+      <c r="I306" s="64"/>
+      <c r="J306" s="64"/>
+      <c r="K306" s="64"/>
+      <c r="L306" s="64"/>
+      <c r="M306" s="64"/>
+      <c r="N306" s="64"/>
+      <c r="O306" s="64"/>
+      <c r="P306" s="64"/>
+      <c r="Q306" s="64"/>
+      <c r="R306" s="65"/>
       <c r="S306" s="3"/>
       <c r="T306" s="3"/>
       <c r="U306" s="3"/>
@@ -11996,17 +12008,17 @@
         <v>1</v>
       </c>
       <c r="B308" s="5"/>
-      <c r="C308" s="72" t="s">
+      <c r="C308" s="73" t="s">
         <v>56</v>
       </c>
-      <c r="D308" s="72"/>
-      <c r="E308" s="72"/>
-      <c r="F308" s="72"/>
-      <c r="G308" s="72"/>
-      <c r="H308" s="72"/>
-      <c r="I308" s="72"/>
-      <c r="J308" s="72"/>
-      <c r="K308" s="72"/>
+      <c r="D308" s="73"/>
+      <c r="E308" s="73"/>
+      <c r="F308" s="73"/>
+      <c r="G308" s="73"/>
+      <c r="H308" s="73"/>
+      <c r="I308" s="73"/>
+      <c r="J308" s="73"/>
+      <c r="K308" s="73"/>
       <c r="L308" s="5" t="s">
         <v>2</v>
       </c>
@@ -12043,17 +12055,17 @@
         <v>1</v>
       </c>
       <c r="B309" s="1"/>
-      <c r="C309" s="73" t="s">
+      <c r="C309" s="74" t="s">
         <v>65</v>
       </c>
-      <c r="D309" s="73"/>
-      <c r="E309" s="73"/>
-      <c r="F309" s="73"/>
-      <c r="G309" s="73"/>
-      <c r="H309" s="73"/>
-      <c r="I309" s="73"/>
-      <c r="J309" s="73"/>
-      <c r="K309" s="73"/>
+      <c r="D309" s="74"/>
+      <c r="E309" s="74"/>
+      <c r="F309" s="74"/>
+      <c r="G309" s="74"/>
+      <c r="H309" s="74"/>
+      <c r="I309" s="74"/>
+      <c r="J309" s="74"/>
+      <c r="K309" s="74"/>
       <c r="L309" s="6">
         <v>33</v>
       </c>
@@ -12076,17 +12088,17 @@
         <v>2</v>
       </c>
       <c r="B310" s="1"/>
-      <c r="C310" s="64" t="s">
+      <c r="C310" s="66" t="s">
         <v>66</v>
       </c>
-      <c r="D310" s="65"/>
-      <c r="E310" s="65"/>
-      <c r="F310" s="65"/>
-      <c r="G310" s="65"/>
-      <c r="H310" s="65"/>
-      <c r="I310" s="65"/>
-      <c r="J310" s="65"/>
-      <c r="K310" s="65"/>
+      <c r="D310" s="67"/>
+      <c r="E310" s="67"/>
+      <c r="F310" s="67"/>
+      <c r="G310" s="67"/>
+      <c r="H310" s="67"/>
+      <c r="I310" s="67"/>
+      <c r="J310" s="67"/>
+      <c r="K310" s="67"/>
       <c r="L310" s="6">
         <v>33</v>
       </c>
@@ -12109,17 +12121,17 @@
         <v>3</v>
       </c>
       <c r="B311" s="1"/>
-      <c r="C311" s="64" t="s">
+      <c r="C311" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="D311" s="65"/>
-      <c r="E311" s="65"/>
-      <c r="F311" s="65"/>
-      <c r="G311" s="65"/>
-      <c r="H311" s="65"/>
-      <c r="I311" s="65"/>
-      <c r="J311" s="65"/>
-      <c r="K311" s="65"/>
+      <c r="D311" s="67"/>
+      <c r="E311" s="67"/>
+      <c r="F311" s="67"/>
+      <c r="G311" s="67"/>
+      <c r="H311" s="67"/>
+      <c r="I311" s="67"/>
+      <c r="J311" s="67"/>
+      <c r="K311" s="67"/>
       <c r="L311" s="6">
         <v>33</v>
       </c>
@@ -12142,17 +12154,17 @@
         <v>4</v>
       </c>
       <c r="B312" s="1"/>
-      <c r="C312" s="65" t="s">
+      <c r="C312" s="67" t="s">
         <v>26</v>
       </c>
-      <c r="D312" s="65"/>
-      <c r="E312" s="65"/>
-      <c r="F312" s="65"/>
-      <c r="G312" s="65"/>
-      <c r="H312" s="65"/>
-      <c r="I312" s="65"/>
-      <c r="J312" s="65"/>
-      <c r="K312" s="65"/>
+      <c r="D312" s="67"/>
+      <c r="E312" s="67"/>
+      <c r="F312" s="67"/>
+      <c r="G312" s="67"/>
+      <c r="H312" s="67"/>
+      <c r="I312" s="67"/>
+      <c r="J312" s="67"/>
+      <c r="K312" s="67"/>
       <c r="L312" s="6">
         <v>33</v>
       </c>
@@ -12175,17 +12187,17 @@
         <v>5</v>
       </c>
       <c r="B313" s="1"/>
-      <c r="C313" s="64" t="s">
+      <c r="C313" s="66" t="s">
         <v>27</v>
       </c>
-      <c r="D313" s="65"/>
-      <c r="E313" s="65"/>
-      <c r="F313" s="65"/>
-      <c r="G313" s="65"/>
-      <c r="H313" s="65"/>
-      <c r="I313" s="65"/>
-      <c r="J313" s="65"/>
-      <c r="K313" s="65"/>
+      <c r="D313" s="67"/>
+      <c r="E313" s="67"/>
+      <c r="F313" s="67"/>
+      <c r="G313" s="67"/>
+      <c r="H313" s="67"/>
+      <c r="I313" s="67"/>
+      <c r="J313" s="67"/>
+      <c r="K313" s="67"/>
       <c r="L313" s="6">
         <v>33</v>
       </c>
@@ -12208,17 +12220,17 @@
         <v>6</v>
       </c>
       <c r="B314" s="1"/>
-      <c r="C314" s="64" t="s">
+      <c r="C314" s="66" t="s">
         <v>67</v>
       </c>
-      <c r="D314" s="65"/>
-      <c r="E314" s="65"/>
-      <c r="F314" s="65"/>
-      <c r="G314" s="65"/>
-      <c r="H314" s="65"/>
-      <c r="I314" s="65"/>
-      <c r="J314" s="65"/>
-      <c r="K314" s="65"/>
+      <c r="D314" s="67"/>
+      <c r="E314" s="67"/>
+      <c r="F314" s="67"/>
+      <c r="G314" s="67"/>
+      <c r="H314" s="67"/>
+      <c r="I314" s="67"/>
+      <c r="J314" s="67"/>
+      <c r="K314" s="67"/>
       <c r="L314" s="6">
         <v>33</v>
       </c>
@@ -12241,20 +12253,20 @@
         <v>7</v>
       </c>
       <c r="B315" s="1"/>
-      <c r="C315" s="66" t="s">
+      <c r="C315" s="60" t="s">
         <v>58</v>
       </c>
-      <c r="D315" s="67"/>
-      <c r="E315" s="67"/>
-      <c r="F315" s="67"/>
-      <c r="G315" s="67"/>
-      <c r="H315" s="67"/>
-      <c r="I315" s="67"/>
-      <c r="J315" s="67"/>
-      <c r="K315" s="67"/>
-      <c r="L315" s="67"/>
-      <c r="M315" s="67"/>
-      <c r="N315" s="68"/>
+      <c r="D315" s="61"/>
+      <c r="E315" s="61"/>
+      <c r="F315" s="61"/>
+      <c r="G315" s="61"/>
+      <c r="H315" s="61"/>
+      <c r="I315" s="61"/>
+      <c r="J315" s="61"/>
+      <c r="K315" s="61"/>
+      <c r="L315" s="61"/>
+      <c r="M315" s="61"/>
+      <c r="N315" s="62"/>
       <c r="O315" s="11"/>
       <c r="P315" s="12" t="e">
         <f>AVERAGE(P309:P314)</f>
@@ -12274,25 +12286,25 @@
       <c r="B316" s="1"/>
     </row>
     <row r="317" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A317" s="81" t="s">
+      <c r="A317" s="72" t="s">
         <v>28</v>
       </c>
-      <c r="B317" s="81"/>
-      <c r="C317" s="81"/>
-      <c r="D317" s="81"/>
-      <c r="E317" s="81"/>
-      <c r="F317" s="81"/>
-      <c r="G317" s="81"/>
-      <c r="H317" s="81"/>
-      <c r="I317" s="81"/>
-      <c r="J317" s="81"/>
-      <c r="K317" s="81"/>
-      <c r="L317" s="81"/>
-      <c r="M317" s="81"/>
-      <c r="N317" s="81"/>
-      <c r="O317" s="81"/>
-      <c r="P317" s="81"/>
-      <c r="Q317" s="81"/>
+      <c r="B317" s="72"/>
+      <c r="C317" s="72"/>
+      <c r="D317" s="72"/>
+      <c r="E317" s="72"/>
+      <c r="F317" s="72"/>
+      <c r="G317" s="72"/>
+      <c r="H317" s="72"/>
+      <c r="I317" s="72"/>
+      <c r="J317" s="72"/>
+      <c r="K317" s="72"/>
+      <c r="L317" s="72"/>
+      <c r="M317" s="72"/>
+      <c r="N317" s="72"/>
+      <c r="O317" s="72"/>
+      <c r="P317" s="72"/>
+      <c r="Q317" s="72"/>
       <c r="R317"/>
     </row>
     <row r="318" spans="1:21" x14ac:dyDescent="0.3">
@@ -12300,10 +12312,10 @@
         <v>1</v>
       </c>
       <c r="B318" s="16"/>
-      <c r="C318" s="80" t="s">
+      <c r="C318" s="68" t="s">
         <v>68</v>
       </c>
-      <c r="D318" s="80"/>
+      <c r="D318" s="68"/>
       <c r="E318" s="17" t="s">
         <v>69</v>
       </c>
@@ -12350,10 +12362,10 @@
         <v>1</v>
       </c>
       <c r="B319" s="14"/>
-      <c r="C319" s="63" t="s">
+      <c r="C319" s="57" t="s">
         <v>84</v>
       </c>
-      <c r="D319" s="63"/>
+      <c r="D319" s="57"/>
       <c r="E319" s="25"/>
       <c r="F319" s="26"/>
       <c r="G319" s="27"/>
@@ -12374,10 +12386,10 @@
         <v>2</v>
       </c>
       <c r="B320" s="14"/>
-      <c r="C320" s="63" t="s">
+      <c r="C320" s="57" t="s">
         <v>85</v>
       </c>
-      <c r="D320" s="63"/>
+      <c r="D320" s="57"/>
       <c r="E320" s="25"/>
       <c r="F320" s="26"/>
       <c r="G320" s="27"/>
@@ -12398,10 +12410,10 @@
         <v>3</v>
       </c>
       <c r="B321" s="14"/>
-      <c r="C321" s="63" t="s">
+      <c r="C321" s="57" t="s">
         <v>86</v>
       </c>
-      <c r="D321" s="63"/>
+      <c r="D321" s="57"/>
       <c r="E321" s="25"/>
       <c r="F321" s="26"/>
       <c r="G321" s="27"/>
@@ -12422,10 +12434,10 @@
         <v>4</v>
       </c>
       <c r="B322" s="14"/>
-      <c r="C322" s="63" t="s">
+      <c r="C322" s="57" t="s">
         <v>87</v>
       </c>
-      <c r="D322" s="63"/>
+      <c r="D322" s="57"/>
       <c r="E322" s="25"/>
       <c r="F322" s="26"/>
       <c r="G322" s="27"/>
@@ -12446,10 +12458,10 @@
         <v>5</v>
       </c>
       <c r="B323" s="14"/>
-      <c r="C323" s="63" t="s">
+      <c r="C323" s="57" t="s">
         <v>90</v>
       </c>
-      <c r="D323" s="63"/>
+      <c r="D323" s="57"/>
       <c r="E323" s="25"/>
       <c r="F323" s="26"/>
       <c r="G323" s="27"/>
@@ -12470,10 +12482,10 @@
         <v>6</v>
       </c>
       <c r="B324" s="14"/>
-      <c r="C324" s="63" t="s">
+      <c r="C324" s="57" t="s">
         <v>91</v>
       </c>
-      <c r="D324" s="63"/>
+      <c r="D324" s="57"/>
       <c r="E324" s="25"/>
       <c r="F324" s="26"/>
       <c r="G324" s="27"/>
@@ -12494,10 +12506,10 @@
         <v>7</v>
       </c>
       <c r="B325" s="14"/>
-      <c r="C325" s="63" t="s">
+      <c r="C325" s="57" t="s">
         <v>92</v>
       </c>
-      <c r="D325" s="63"/>
+      <c r="D325" s="57"/>
       <c r="E325" s="25"/>
       <c r="F325" s="26"/>
       <c r="G325" s="27"/>
@@ -12518,10 +12530,10 @@
         <v>8</v>
       </c>
       <c r="B326" s="14"/>
-      <c r="C326" s="63" t="s">
+      <c r="C326" s="57" t="s">
         <v>93</v>
       </c>
-      <c r="D326" s="63"/>
+      <c r="D326" s="57"/>
       <c r="E326" s="25"/>
       <c r="F326" s="26"/>
       <c r="G326" s="27"/>
@@ -12540,52 +12552,52 @@
     <row r="327" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A327" s="14"/>
       <c r="B327" s="14"/>
-      <c r="C327" s="74" t="s">
+      <c r="C327" s="58" t="s">
         <v>98</v>
       </c>
-      <c r="D327" s="74"/>
+      <c r="D327" s="58"/>
       <c r="E327" s="25" t="e">
-        <f t="shared" ref="E327:O327" si="24">AVERAGE(E319:E326)</f>
+        <f t="shared" ref="E327:O327" si="25">AVERAGE(E319:E326)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F327" s="26" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G327" s="27" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H327" s="35" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I327" s="29" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J327" s="30" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K327" s="37" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L327" s="31" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M327" s="32" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N327" s="32" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O327" s="33" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P327" s="29"/>
@@ -12599,25 +12611,25 @@
       <c r="R329"/>
     </row>
     <row r="330" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A330" s="79" t="s">
+      <c r="A330" s="75" t="s">
         <v>99</v>
       </c>
-      <c r="B330" s="79"/>
-      <c r="C330" s="79"/>
-      <c r="D330" s="79"/>
-      <c r="E330" s="79"/>
-      <c r="F330" s="79"/>
-      <c r="G330" s="79"/>
-      <c r="H330" s="79"/>
-      <c r="I330" s="79"/>
-      <c r="J330" s="79"/>
-      <c r="K330" s="79"/>
-      <c r="L330" s="79"/>
-      <c r="M330" s="79"/>
-      <c r="N330" s="79"/>
-      <c r="O330" s="79"/>
-      <c r="P330" s="79"/>
-      <c r="Q330" s="79"/>
+      <c r="B330" s="75"/>
+      <c r="C330" s="75"/>
+      <c r="D330" s="75"/>
+      <c r="E330" s="75"/>
+      <c r="F330" s="75"/>
+      <c r="G330" s="75"/>
+      <c r="H330" s="75"/>
+      <c r="I330" s="75"/>
+      <c r="J330" s="75"/>
+      <c r="K330" s="75"/>
+      <c r="L330" s="75"/>
+      <c r="M330" s="75"/>
+      <c r="N330" s="75"/>
+      <c r="O330" s="75"/>
+      <c r="P330" s="75"/>
+      <c r="Q330" s="75"/>
       <c r="R330"/>
     </row>
     <row r="331" spans="1:18" x14ac:dyDescent="0.3">
@@ -12625,10 +12637,10 @@
         <v>1</v>
       </c>
       <c r="B331" s="16"/>
-      <c r="C331" s="80" t="s">
+      <c r="C331" s="68" t="s">
         <v>68</v>
       </c>
-      <c r="D331" s="80"/>
+      <c r="D331" s="68"/>
       <c r="E331" s="17" t="s">
         <v>69</v>
       </c>
@@ -12675,10 +12687,10 @@
         <v>1</v>
       </c>
       <c r="B332" s="14"/>
-      <c r="C332" s="63" t="s">
+      <c r="C332" s="57" t="s">
         <v>94</v>
       </c>
-      <c r="D332" s="63"/>
+      <c r="D332" s="57"/>
       <c r="E332" s="25"/>
       <c r="F332" s="26"/>
       <c r="G332" s="27"/>
@@ -12699,10 +12711,10 @@
         <v>2</v>
       </c>
       <c r="B333" s="14"/>
-      <c r="C333" s="63" t="s">
+      <c r="C333" s="57" t="s">
         <v>95</v>
       </c>
-      <c r="D333" s="63"/>
+      <c r="D333" s="57"/>
       <c r="E333" s="25"/>
       <c r="F333" s="26"/>
       <c r="G333" s="27"/>
@@ -12723,10 +12735,10 @@
         <v>3</v>
       </c>
       <c r="B334" s="14"/>
-      <c r="C334" s="63" t="s">
+      <c r="C334" s="57" t="s">
         <v>96</v>
       </c>
-      <c r="D334" s="63"/>
+      <c r="D334" s="57"/>
       <c r="E334" s="25"/>
       <c r="F334" s="26"/>
       <c r="G334" s="27"/>
@@ -12746,10 +12758,10 @@
         <v>4</v>
       </c>
       <c r="B335" s="14"/>
-      <c r="C335" s="63" t="s">
+      <c r="C335" s="57" t="s">
         <v>97</v>
       </c>
-      <c r="D335" s="63"/>
+      <c r="D335" s="57"/>
       <c r="E335" s="25"/>
       <c r="F335" s="26"/>
       <c r="G335" s="27"/>
@@ -12765,10 +12777,10 @@
       <c r="Q335" s="29"/>
     </row>
     <row r="336" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="C336" s="74" t="s">
+      <c r="C336" s="58" t="s">
         <v>98</v>
       </c>
-      <c r="D336" s="74"/>
+      <c r="D336" s="58"/>
       <c r="E336" s="25"/>
       <c r="F336" s="26"/>
       <c r="G336" s="27"/>
@@ -12785,6 +12797,265 @@
     </row>
   </sheetData>
   <mergeCells count="283">
+    <mergeCell ref="C179:K179"/>
+    <mergeCell ref="C178:K178"/>
+    <mergeCell ref="C176:K176"/>
+    <mergeCell ref="C177:K177"/>
+    <mergeCell ref="C195:K195"/>
+    <mergeCell ref="C194:K194"/>
+    <mergeCell ref="C175:K175"/>
+    <mergeCell ref="C332:D332"/>
+    <mergeCell ref="C333:D333"/>
+    <mergeCell ref="C320:D320"/>
+    <mergeCell ref="C300:K300"/>
+    <mergeCell ref="C301:K301"/>
+    <mergeCell ref="C302:K302"/>
+    <mergeCell ref="C303:K303"/>
+    <mergeCell ref="C304:N304"/>
+    <mergeCell ref="A306:R306"/>
+    <mergeCell ref="C308:K308"/>
+    <mergeCell ref="C309:K309"/>
+    <mergeCell ref="C310:K310"/>
+    <mergeCell ref="C291:K291"/>
+    <mergeCell ref="C292:K292"/>
+    <mergeCell ref="C293:K293"/>
+    <mergeCell ref="C294:K294"/>
+    <mergeCell ref="C295:K295"/>
+    <mergeCell ref="C334:D334"/>
+    <mergeCell ref="C335:D335"/>
+    <mergeCell ref="C336:D336"/>
+    <mergeCell ref="A257:W259"/>
+    <mergeCell ref="A260:R260"/>
+    <mergeCell ref="C286:K286"/>
+    <mergeCell ref="C287:N287"/>
+    <mergeCell ref="C321:D321"/>
+    <mergeCell ref="C322:D322"/>
+    <mergeCell ref="C323:D323"/>
+    <mergeCell ref="C324:D324"/>
+    <mergeCell ref="C325:D325"/>
+    <mergeCell ref="C326:D326"/>
+    <mergeCell ref="C327:D327"/>
+    <mergeCell ref="A330:Q330"/>
+    <mergeCell ref="C331:D331"/>
+    <mergeCell ref="C311:K311"/>
+    <mergeCell ref="C312:K312"/>
+    <mergeCell ref="C313:K313"/>
+    <mergeCell ref="C314:K314"/>
+    <mergeCell ref="C315:N315"/>
+    <mergeCell ref="A317:Q317"/>
+    <mergeCell ref="C318:D318"/>
+    <mergeCell ref="C319:D319"/>
+    <mergeCell ref="C296:K296"/>
+    <mergeCell ref="C297:K297"/>
+    <mergeCell ref="C298:K298"/>
+    <mergeCell ref="C299:K299"/>
+    <mergeCell ref="C279:K279"/>
+    <mergeCell ref="C280:K280"/>
+    <mergeCell ref="C281:K281"/>
+    <mergeCell ref="C282:K282"/>
+    <mergeCell ref="C283:K283"/>
+    <mergeCell ref="C284:K284"/>
+    <mergeCell ref="C285:K285"/>
+    <mergeCell ref="A289:R289"/>
+    <mergeCell ref="C270:K270"/>
+    <mergeCell ref="C271:K271"/>
+    <mergeCell ref="C272:K272"/>
+    <mergeCell ref="C273:K273"/>
+    <mergeCell ref="C274:K274"/>
+    <mergeCell ref="C275:K275"/>
+    <mergeCell ref="C276:K276"/>
+    <mergeCell ref="C277:K277"/>
+    <mergeCell ref="C278:K278"/>
+    <mergeCell ref="C262:K262"/>
+    <mergeCell ref="C263:K263"/>
+    <mergeCell ref="C264:K264"/>
+    <mergeCell ref="C265:K265"/>
+    <mergeCell ref="C266:K266"/>
+    <mergeCell ref="C267:K267"/>
+    <mergeCell ref="C268:K268"/>
+    <mergeCell ref="C269:K269"/>
+    <mergeCell ref="A245:Q245"/>
+    <mergeCell ref="C246:D246"/>
+    <mergeCell ref="C247:D247"/>
+    <mergeCell ref="C248:D248"/>
+    <mergeCell ref="C249:D249"/>
+    <mergeCell ref="C250:D250"/>
+    <mergeCell ref="C251:D251"/>
+    <mergeCell ref="C234:D234"/>
+    <mergeCell ref="C235:D235"/>
+    <mergeCell ref="C236:D236"/>
+    <mergeCell ref="C237:D237"/>
+    <mergeCell ref="C238:D238"/>
+    <mergeCell ref="C239:D239"/>
+    <mergeCell ref="C240:D240"/>
+    <mergeCell ref="C241:D241"/>
+    <mergeCell ref="C242:D242"/>
+    <mergeCell ref="C223:K223"/>
+    <mergeCell ref="C224:K224"/>
+    <mergeCell ref="C225:K225"/>
+    <mergeCell ref="C226:K226"/>
+    <mergeCell ref="C227:K227"/>
+    <mergeCell ref="C228:K228"/>
+    <mergeCell ref="C229:N229"/>
+    <mergeCell ref="A231:Q231"/>
+    <mergeCell ref="C232:D232"/>
+    <mergeCell ref="C212:K212"/>
+    <mergeCell ref="C213:K213"/>
+    <mergeCell ref="C214:K214"/>
+    <mergeCell ref="C215:K215"/>
+    <mergeCell ref="C216:K216"/>
+    <mergeCell ref="C217:K217"/>
+    <mergeCell ref="C218:N218"/>
+    <mergeCell ref="A220:R220"/>
+    <mergeCell ref="C222:K222"/>
+    <mergeCell ref="C200:N200"/>
+    <mergeCell ref="A203:R203"/>
+    <mergeCell ref="C205:K205"/>
+    <mergeCell ref="C206:K206"/>
+    <mergeCell ref="C207:K207"/>
+    <mergeCell ref="C208:K208"/>
+    <mergeCell ref="C209:K209"/>
+    <mergeCell ref="C210:K210"/>
+    <mergeCell ref="C211:K211"/>
+    <mergeCell ref="C183:K183"/>
+    <mergeCell ref="C186:K186"/>
+    <mergeCell ref="C187:K187"/>
+    <mergeCell ref="C184:K184"/>
+    <mergeCell ref="C185:K185"/>
+    <mergeCell ref="C196:K196"/>
+    <mergeCell ref="C197:K197"/>
+    <mergeCell ref="C198:K198"/>
+    <mergeCell ref="C199:K199"/>
+    <mergeCell ref="C188:K188"/>
+    <mergeCell ref="C189:K189"/>
+    <mergeCell ref="C190:K190"/>
+    <mergeCell ref="C191:K191"/>
+    <mergeCell ref="C192:K192"/>
+    <mergeCell ref="C193:K193"/>
+    <mergeCell ref="C180:K180"/>
+    <mergeCell ref="C181:K181"/>
+    <mergeCell ref="C182:K182"/>
+    <mergeCell ref="A170:W172"/>
+    <mergeCell ref="A173:R173"/>
+    <mergeCell ref="C4:K4"/>
+    <mergeCell ref="C5:K5"/>
+    <mergeCell ref="C6:K6"/>
+    <mergeCell ref="C23:K23"/>
+    <mergeCell ref="C24:K24"/>
+    <mergeCell ref="C13:K13"/>
+    <mergeCell ref="C14:K14"/>
+    <mergeCell ref="C15:K15"/>
+    <mergeCell ref="C16:K16"/>
+    <mergeCell ref="C17:K17"/>
+    <mergeCell ref="C18:K18"/>
+    <mergeCell ref="C7:K7"/>
+    <mergeCell ref="C8:K8"/>
+    <mergeCell ref="C9:K9"/>
+    <mergeCell ref="C10:K10"/>
+    <mergeCell ref="C11:K11"/>
+    <mergeCell ref="C12:K12"/>
+    <mergeCell ref="C19:K19"/>
+    <mergeCell ref="C20:K20"/>
+    <mergeCell ref="C21:K21"/>
+    <mergeCell ref="C22:K22"/>
+    <mergeCell ref="A32:R32"/>
+    <mergeCell ref="A2:R2"/>
+    <mergeCell ref="C34:K34"/>
+    <mergeCell ref="C35:K35"/>
+    <mergeCell ref="C36:K36"/>
+    <mergeCell ref="C37:K37"/>
+    <mergeCell ref="C38:K38"/>
+    <mergeCell ref="C39:K39"/>
+    <mergeCell ref="C40:K40"/>
+    <mergeCell ref="C41:K41"/>
+    <mergeCell ref="C25:K25"/>
+    <mergeCell ref="C26:K26"/>
+    <mergeCell ref="C27:K27"/>
+    <mergeCell ref="C28:K28"/>
+    <mergeCell ref="C58:N58"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="C56:K56"/>
+    <mergeCell ref="C57:K57"/>
+    <mergeCell ref="C29:N29"/>
+    <mergeCell ref="C54:K54"/>
+    <mergeCell ref="C55:K55"/>
+    <mergeCell ref="C51:K51"/>
+    <mergeCell ref="C52:K52"/>
+    <mergeCell ref="C53:K53"/>
+    <mergeCell ref="C42:K42"/>
+    <mergeCell ref="C43:K43"/>
+    <mergeCell ref="C47:N47"/>
+    <mergeCell ref="A49:R49"/>
+    <mergeCell ref="C44:K44"/>
+    <mergeCell ref="C45:K45"/>
+    <mergeCell ref="C46:K46"/>
+    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="A60:Q60"/>
+    <mergeCell ref="A73:Q73"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="C89:K89"/>
+    <mergeCell ref="C90:K90"/>
+    <mergeCell ref="C97:K97"/>
+    <mergeCell ref="C98:K98"/>
+    <mergeCell ref="C99:K99"/>
+    <mergeCell ref="C100:K100"/>
+    <mergeCell ref="C101:K101"/>
+    <mergeCell ref="C102:K102"/>
+    <mergeCell ref="C91:K91"/>
+    <mergeCell ref="C92:K92"/>
+    <mergeCell ref="C93:K93"/>
+    <mergeCell ref="C94:K94"/>
+    <mergeCell ref="C95:K95"/>
+    <mergeCell ref="C96:K96"/>
+    <mergeCell ref="C119:K119"/>
+    <mergeCell ref="C120:K120"/>
+    <mergeCell ref="C121:K121"/>
+    <mergeCell ref="A117:R117"/>
+    <mergeCell ref="C103:K103"/>
+    <mergeCell ref="C104:K104"/>
+    <mergeCell ref="C105:K105"/>
+    <mergeCell ref="C106:K106"/>
+    <mergeCell ref="C107:K107"/>
+    <mergeCell ref="C108:K108"/>
+    <mergeCell ref="C109:K109"/>
+    <mergeCell ref="C114:N114"/>
+    <mergeCell ref="C151:D151"/>
+    <mergeCell ref="C155:D155"/>
+    <mergeCell ref="C152:D152"/>
+    <mergeCell ref="C153:D153"/>
+    <mergeCell ref="C154:D154"/>
+    <mergeCell ref="A158:Q158"/>
+    <mergeCell ref="C146:D146"/>
+    <mergeCell ref="C147:D147"/>
+    <mergeCell ref="C148:D148"/>
+    <mergeCell ref="C149:D149"/>
+    <mergeCell ref="C150:D150"/>
+    <mergeCell ref="A145:Q145"/>
+    <mergeCell ref="C138:K138"/>
+    <mergeCell ref="C143:N143"/>
+    <mergeCell ref="C128:K128"/>
+    <mergeCell ref="C129:K129"/>
+    <mergeCell ref="C130:K130"/>
+    <mergeCell ref="C131:K131"/>
+    <mergeCell ref="C122:K122"/>
+    <mergeCell ref="C123:K123"/>
+    <mergeCell ref="C124:K124"/>
+    <mergeCell ref="C125:K125"/>
+    <mergeCell ref="C126:K126"/>
+    <mergeCell ref="C127:K127"/>
+    <mergeCell ref="C136:K136"/>
+    <mergeCell ref="C137:K137"/>
     <mergeCell ref="C233:D233"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="C163:D163"/>
@@ -12809,265 +13080,6 @@
     <mergeCell ref="C111:K111"/>
     <mergeCell ref="C112:K112"/>
     <mergeCell ref="C113:K113"/>
-    <mergeCell ref="A145:Q145"/>
-    <mergeCell ref="C138:K138"/>
-    <mergeCell ref="C143:N143"/>
-    <mergeCell ref="C128:K128"/>
-    <mergeCell ref="C129:K129"/>
-    <mergeCell ref="C130:K130"/>
-    <mergeCell ref="C131:K131"/>
-    <mergeCell ref="C122:K122"/>
-    <mergeCell ref="C123:K123"/>
-    <mergeCell ref="C124:K124"/>
-    <mergeCell ref="C125:K125"/>
-    <mergeCell ref="C126:K126"/>
-    <mergeCell ref="C127:K127"/>
-    <mergeCell ref="C136:K136"/>
-    <mergeCell ref="C137:K137"/>
-    <mergeCell ref="C151:D151"/>
-    <mergeCell ref="C155:D155"/>
-    <mergeCell ref="C152:D152"/>
-    <mergeCell ref="C153:D153"/>
-    <mergeCell ref="C154:D154"/>
-    <mergeCell ref="A158:Q158"/>
-    <mergeCell ref="C146:D146"/>
-    <mergeCell ref="C147:D147"/>
-    <mergeCell ref="C148:D148"/>
-    <mergeCell ref="C149:D149"/>
-    <mergeCell ref="C150:D150"/>
-    <mergeCell ref="C119:K119"/>
-    <mergeCell ref="C120:K120"/>
-    <mergeCell ref="C121:K121"/>
-    <mergeCell ref="A117:R117"/>
-    <mergeCell ref="C103:K103"/>
-    <mergeCell ref="C104:K104"/>
-    <mergeCell ref="C105:K105"/>
-    <mergeCell ref="C106:K106"/>
-    <mergeCell ref="C107:K107"/>
-    <mergeCell ref="C108:K108"/>
-    <mergeCell ref="C109:K109"/>
-    <mergeCell ref="C114:N114"/>
-    <mergeCell ref="C89:K89"/>
-    <mergeCell ref="C90:K90"/>
-    <mergeCell ref="C97:K97"/>
-    <mergeCell ref="C98:K98"/>
-    <mergeCell ref="C99:K99"/>
-    <mergeCell ref="C100:K100"/>
-    <mergeCell ref="C101:K101"/>
-    <mergeCell ref="C102:K102"/>
-    <mergeCell ref="C91:K91"/>
-    <mergeCell ref="C92:K92"/>
-    <mergeCell ref="C93:K93"/>
-    <mergeCell ref="C94:K94"/>
-    <mergeCell ref="C95:K95"/>
-    <mergeCell ref="C96:K96"/>
-    <mergeCell ref="C79:D79"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="C81:D81"/>
-    <mergeCell ref="C75:D75"/>
-    <mergeCell ref="C76:D76"/>
-    <mergeCell ref="C77:D77"/>
-    <mergeCell ref="C78:D78"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="A60:Q60"/>
-    <mergeCell ref="A73:Q73"/>
-    <mergeCell ref="C74:D74"/>
-    <mergeCell ref="C67:D67"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="C68:D68"/>
-    <mergeCell ref="C69:D69"/>
-    <mergeCell ref="C39:K39"/>
-    <mergeCell ref="C40:K40"/>
-    <mergeCell ref="C41:K41"/>
-    <mergeCell ref="C25:K25"/>
-    <mergeCell ref="C26:K26"/>
-    <mergeCell ref="C27:K27"/>
-    <mergeCell ref="C28:K28"/>
-    <mergeCell ref="C58:N58"/>
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="C56:K56"/>
-    <mergeCell ref="C57:K57"/>
-    <mergeCell ref="C29:N29"/>
-    <mergeCell ref="C54:K54"/>
-    <mergeCell ref="C55:K55"/>
-    <mergeCell ref="C51:K51"/>
-    <mergeCell ref="C52:K52"/>
-    <mergeCell ref="C53:K53"/>
-    <mergeCell ref="C42:K42"/>
-    <mergeCell ref="C43:K43"/>
-    <mergeCell ref="C47:N47"/>
-    <mergeCell ref="A49:R49"/>
-    <mergeCell ref="C44:K44"/>
-    <mergeCell ref="C45:K45"/>
-    <mergeCell ref="C46:K46"/>
-    <mergeCell ref="C21:K21"/>
-    <mergeCell ref="C22:K22"/>
-    <mergeCell ref="A32:R32"/>
-    <mergeCell ref="A2:R2"/>
-    <mergeCell ref="C34:K34"/>
-    <mergeCell ref="C35:K35"/>
-    <mergeCell ref="C36:K36"/>
-    <mergeCell ref="C37:K37"/>
-    <mergeCell ref="C38:K38"/>
-    <mergeCell ref="C180:K180"/>
-    <mergeCell ref="C181:K181"/>
-    <mergeCell ref="C182:K182"/>
-    <mergeCell ref="A170:W172"/>
-    <mergeCell ref="A173:R173"/>
-    <mergeCell ref="C4:K4"/>
-    <mergeCell ref="C5:K5"/>
-    <mergeCell ref="C6:K6"/>
-    <mergeCell ref="C23:K23"/>
-    <mergeCell ref="C24:K24"/>
-    <mergeCell ref="C13:K13"/>
-    <mergeCell ref="C14:K14"/>
-    <mergeCell ref="C15:K15"/>
-    <mergeCell ref="C16:K16"/>
-    <mergeCell ref="C17:K17"/>
-    <mergeCell ref="C18:K18"/>
-    <mergeCell ref="C7:K7"/>
-    <mergeCell ref="C8:K8"/>
-    <mergeCell ref="C9:K9"/>
-    <mergeCell ref="C10:K10"/>
-    <mergeCell ref="C11:K11"/>
-    <mergeCell ref="C12:K12"/>
-    <mergeCell ref="C19:K19"/>
-    <mergeCell ref="C20:K20"/>
-    <mergeCell ref="C183:K183"/>
-    <mergeCell ref="C186:K186"/>
-    <mergeCell ref="C187:K187"/>
-    <mergeCell ref="C184:K184"/>
-    <mergeCell ref="C185:K185"/>
-    <mergeCell ref="C196:K196"/>
-    <mergeCell ref="C197:K197"/>
-    <mergeCell ref="C198:K198"/>
-    <mergeCell ref="C199:K199"/>
-    <mergeCell ref="C188:K188"/>
-    <mergeCell ref="C189:K189"/>
-    <mergeCell ref="C190:K190"/>
-    <mergeCell ref="C191:K191"/>
-    <mergeCell ref="C192:K192"/>
-    <mergeCell ref="C193:K193"/>
-    <mergeCell ref="C200:N200"/>
-    <mergeCell ref="A203:R203"/>
-    <mergeCell ref="C205:K205"/>
-    <mergeCell ref="C206:K206"/>
-    <mergeCell ref="C207:K207"/>
-    <mergeCell ref="C208:K208"/>
-    <mergeCell ref="C209:K209"/>
-    <mergeCell ref="C210:K210"/>
-    <mergeCell ref="C211:K211"/>
-    <mergeCell ref="C212:K212"/>
-    <mergeCell ref="C213:K213"/>
-    <mergeCell ref="C214:K214"/>
-    <mergeCell ref="C215:K215"/>
-    <mergeCell ref="C216:K216"/>
-    <mergeCell ref="C217:K217"/>
-    <mergeCell ref="C218:N218"/>
-    <mergeCell ref="A220:R220"/>
-    <mergeCell ref="C222:K222"/>
-    <mergeCell ref="C223:K223"/>
-    <mergeCell ref="C224:K224"/>
-    <mergeCell ref="C225:K225"/>
-    <mergeCell ref="C226:K226"/>
-    <mergeCell ref="C227:K227"/>
-    <mergeCell ref="C228:K228"/>
-    <mergeCell ref="C229:N229"/>
-    <mergeCell ref="A231:Q231"/>
-    <mergeCell ref="C232:D232"/>
-    <mergeCell ref="C234:D234"/>
-    <mergeCell ref="C235:D235"/>
-    <mergeCell ref="C236:D236"/>
-    <mergeCell ref="C237:D237"/>
-    <mergeCell ref="C238:D238"/>
-    <mergeCell ref="C239:D239"/>
-    <mergeCell ref="C240:D240"/>
-    <mergeCell ref="C241:D241"/>
-    <mergeCell ref="C242:D242"/>
-    <mergeCell ref="C262:K262"/>
-    <mergeCell ref="C263:K263"/>
-    <mergeCell ref="C264:K264"/>
-    <mergeCell ref="C265:K265"/>
-    <mergeCell ref="C266:K266"/>
-    <mergeCell ref="C267:K267"/>
-    <mergeCell ref="C268:K268"/>
-    <mergeCell ref="C269:K269"/>
-    <mergeCell ref="A245:Q245"/>
-    <mergeCell ref="C246:D246"/>
-    <mergeCell ref="C247:D247"/>
-    <mergeCell ref="C248:D248"/>
-    <mergeCell ref="C249:D249"/>
-    <mergeCell ref="C250:D250"/>
-    <mergeCell ref="C251:D251"/>
-    <mergeCell ref="C270:K270"/>
-    <mergeCell ref="C271:K271"/>
-    <mergeCell ref="C272:K272"/>
-    <mergeCell ref="C273:K273"/>
-    <mergeCell ref="C274:K274"/>
-    <mergeCell ref="C275:K275"/>
-    <mergeCell ref="C276:K276"/>
-    <mergeCell ref="C277:K277"/>
-    <mergeCell ref="C278:K278"/>
-    <mergeCell ref="C296:K296"/>
-    <mergeCell ref="C297:K297"/>
-    <mergeCell ref="C298:K298"/>
-    <mergeCell ref="C299:K299"/>
-    <mergeCell ref="C279:K279"/>
-    <mergeCell ref="C280:K280"/>
-    <mergeCell ref="C281:K281"/>
-    <mergeCell ref="C282:K282"/>
-    <mergeCell ref="C283:K283"/>
-    <mergeCell ref="C284:K284"/>
-    <mergeCell ref="C285:K285"/>
-    <mergeCell ref="A289:R289"/>
-    <mergeCell ref="C334:D334"/>
-    <mergeCell ref="C335:D335"/>
-    <mergeCell ref="C336:D336"/>
-    <mergeCell ref="A257:W259"/>
-    <mergeCell ref="A260:R260"/>
-    <mergeCell ref="C286:K286"/>
-    <mergeCell ref="C287:N287"/>
-    <mergeCell ref="C321:D321"/>
-    <mergeCell ref="C322:D322"/>
-    <mergeCell ref="C323:D323"/>
-    <mergeCell ref="C324:D324"/>
-    <mergeCell ref="C325:D325"/>
-    <mergeCell ref="C326:D326"/>
-    <mergeCell ref="C327:D327"/>
-    <mergeCell ref="A330:Q330"/>
-    <mergeCell ref="C331:D331"/>
-    <mergeCell ref="C311:K311"/>
-    <mergeCell ref="C312:K312"/>
-    <mergeCell ref="C313:K313"/>
-    <mergeCell ref="C314:K314"/>
-    <mergeCell ref="C315:N315"/>
-    <mergeCell ref="A317:Q317"/>
-    <mergeCell ref="C318:D318"/>
-    <mergeCell ref="C319:D319"/>
-    <mergeCell ref="C179:K179"/>
-    <mergeCell ref="C178:K178"/>
-    <mergeCell ref="C176:K176"/>
-    <mergeCell ref="C177:K177"/>
-    <mergeCell ref="C195:K195"/>
-    <mergeCell ref="C194:K194"/>
-    <mergeCell ref="C175:K175"/>
-    <mergeCell ref="C332:D332"/>
-    <mergeCell ref="C333:D333"/>
-    <mergeCell ref="C320:D320"/>
-    <mergeCell ref="C300:K300"/>
-    <mergeCell ref="C301:K301"/>
-    <mergeCell ref="C302:K302"/>
-    <mergeCell ref="C303:K303"/>
-    <mergeCell ref="C304:N304"/>
-    <mergeCell ref="A306:R306"/>
-    <mergeCell ref="C308:K308"/>
-    <mergeCell ref="C309:K309"/>
-    <mergeCell ref="C310:K310"/>
-    <mergeCell ref="C291:K291"/>
-    <mergeCell ref="C292:K292"/>
-    <mergeCell ref="C293:K293"/>
-    <mergeCell ref="C294:K294"/>
-    <mergeCell ref="C295:K295"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="C5:K28">
@@ -15786,103 +15798,103 @@
   </cols>
   <sheetData>
     <row r="4" spans="3:25" x14ac:dyDescent="0.3">
-      <c r="C4" s="75" t="s">
+      <c r="C4" s="59" t="s">
         <v>107</v>
       </c>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="75"/>
-      <c r="K4" s="75"/>
-      <c r="L4" s="75"/>
-      <c r="M4" s="75"/>
-      <c r="N4" s="75"/>
-      <c r="O4" s="75"/>
-      <c r="P4" s="75"/>
-      <c r="Q4" s="75"/>
-      <c r="R4" s="75"/>
-      <c r="S4" s="75"/>
-      <c r="T4" s="75"/>
-      <c r="U4" s="75"/>
-      <c r="V4" s="75"/>
-      <c r="W4" s="75"/>
-      <c r="X4" s="75"/>
-      <c r="Y4" s="75"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="59"/>
+      <c r="G4" s="59"/>
+      <c r="H4" s="59"/>
+      <c r="I4" s="59"/>
+      <c r="J4" s="59"/>
+      <c r="K4" s="59"/>
+      <c r="L4" s="59"/>
+      <c r="M4" s="59"/>
+      <c r="N4" s="59"/>
+      <c r="O4" s="59"/>
+      <c r="P4" s="59"/>
+      <c r="Q4" s="59"/>
+      <c r="R4" s="59"/>
+      <c r="S4" s="59"/>
+      <c r="T4" s="59"/>
+      <c r="U4" s="59"/>
+      <c r="V4" s="59"/>
+      <c r="W4" s="59"/>
+      <c r="X4" s="59"/>
+      <c r="Y4" s="59"/>
     </row>
     <row r="5" spans="3:25" x14ac:dyDescent="0.3">
-      <c r="C5" s="75"/>
-      <c r="D5" s="75"/>
-      <c r="E5" s="75"/>
-      <c r="F5" s="75"/>
-      <c r="G5" s="75"/>
-      <c r="H5" s="75"/>
-      <c r="I5" s="75"/>
-      <c r="J5" s="75"/>
-      <c r="K5" s="75"/>
-      <c r="L5" s="75"/>
-      <c r="M5" s="75"/>
-      <c r="N5" s="75"/>
-      <c r="O5" s="75"/>
-      <c r="P5" s="75"/>
-      <c r="Q5" s="75"/>
-      <c r="R5" s="75"/>
-      <c r="S5" s="75"/>
-      <c r="T5" s="75"/>
-      <c r="U5" s="75"/>
-      <c r="V5" s="75"/>
-      <c r="W5" s="75"/>
-      <c r="X5" s="75"/>
-      <c r="Y5" s="75"/>
+      <c r="C5" s="59"/>
+      <c r="D5" s="59"/>
+      <c r="E5" s="59"/>
+      <c r="F5" s="59"/>
+      <c r="G5" s="59"/>
+      <c r="H5" s="59"/>
+      <c r="I5" s="59"/>
+      <c r="J5" s="59"/>
+      <c r="K5" s="59"/>
+      <c r="L5" s="59"/>
+      <c r="M5" s="59"/>
+      <c r="N5" s="59"/>
+      <c r="O5" s="59"/>
+      <c r="P5" s="59"/>
+      <c r="Q5" s="59"/>
+      <c r="R5" s="59"/>
+      <c r="S5" s="59"/>
+      <c r="T5" s="59"/>
+      <c r="U5" s="59"/>
+      <c r="V5" s="59"/>
+      <c r="W5" s="59"/>
+      <c r="X5" s="59"/>
+      <c r="Y5" s="59"/>
     </row>
     <row r="6" spans="3:25" x14ac:dyDescent="0.3">
-      <c r="C6" s="75"/>
-      <c r="D6" s="75"/>
-      <c r="E6" s="75"/>
-      <c r="F6" s="75"/>
-      <c r="G6" s="75"/>
-      <c r="H6" s="75"/>
-      <c r="I6" s="75"/>
-      <c r="J6" s="75"/>
-      <c r="K6" s="75"/>
-      <c r="L6" s="75"/>
-      <c r="M6" s="75"/>
-      <c r="N6" s="75"/>
-      <c r="O6" s="75"/>
-      <c r="P6" s="75"/>
-      <c r="Q6" s="75"/>
-      <c r="R6" s="75"/>
-      <c r="S6" s="75"/>
-      <c r="T6" s="75"/>
-      <c r="U6" s="75"/>
-      <c r="V6" s="75"/>
-      <c r="W6" s="75"/>
-      <c r="X6" s="75"/>
-      <c r="Y6" s="75"/>
+      <c r="C6" s="59"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="59"/>
+      <c r="F6" s="59"/>
+      <c r="G6" s="59"/>
+      <c r="H6" s="59"/>
+      <c r="I6" s="59"/>
+      <c r="J6" s="59"/>
+      <c r="K6" s="59"/>
+      <c r="L6" s="59"/>
+      <c r="M6" s="59"/>
+      <c r="N6" s="59"/>
+      <c r="O6" s="59"/>
+      <c r="P6" s="59"/>
+      <c r="Q6" s="59"/>
+      <c r="R6" s="59"/>
+      <c r="S6" s="59"/>
+      <c r="T6" s="59"/>
+      <c r="U6" s="59"/>
+      <c r="V6" s="59"/>
+      <c r="W6" s="59"/>
+      <c r="X6" s="59"/>
+      <c r="Y6" s="59"/>
     </row>
     <row r="7" spans="3:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C7" s="76" t="s">
+      <c r="C7" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="D7" s="77"/>
-      <c r="E7" s="77"/>
-      <c r="F7" s="77"/>
-      <c r="G7" s="77"/>
-      <c r="H7" s="77"/>
-      <c r="I7" s="77"/>
-      <c r="J7" s="77"/>
-      <c r="K7" s="77"/>
-      <c r="L7" s="77"/>
-      <c r="M7" s="77"/>
-      <c r="N7" s="77"/>
-      <c r="O7" s="77"/>
-      <c r="P7" s="77"/>
-      <c r="Q7" s="77"/>
-      <c r="R7" s="77"/>
-      <c r="S7" s="77"/>
-      <c r="T7" s="78"/>
+      <c r="D7" s="70"/>
+      <c r="E7" s="70"/>
+      <c r="F7" s="70"/>
+      <c r="G7" s="70"/>
+      <c r="H7" s="70"/>
+      <c r="I7" s="70"/>
+      <c r="J7" s="70"/>
+      <c r="K7" s="70"/>
+      <c r="L7" s="70"/>
+      <c r="M7" s="70"/>
+      <c r="N7" s="70"/>
+      <c r="O7" s="70"/>
+      <c r="P7" s="70"/>
+      <c r="Q7" s="70"/>
+      <c r="R7" s="70"/>
+      <c r="S7" s="70"/>
+      <c r="T7" s="71"/>
       <c r="U7" s="38"/>
       <c r="V7" s="38"/>
       <c r="W7" s="38"/>
@@ -15898,17 +15910,17 @@
       <c r="D9" s="46" t="s">
         <v>105</v>
       </c>
-      <c r="E9" s="72" t="s">
+      <c r="E9" s="73" t="s">
         <v>108</v>
       </c>
-      <c r="F9" s="72"/>
-      <c r="G9" s="72"/>
-      <c r="H9" s="72"/>
-      <c r="I9" s="72"/>
-      <c r="J9" s="72"/>
-      <c r="K9" s="72"/>
-      <c r="L9" s="72"/>
-      <c r="M9" s="72"/>
+      <c r="F9" s="73"/>
+      <c r="G9" s="73"/>
+      <c r="H9" s="73"/>
+      <c r="I9" s="73"/>
+      <c r="J9" s="73"/>
+      <c r="K9" s="73"/>
+      <c r="L9" s="73"/>
+      <c r="M9" s="73"/>
       <c r="N9" s="5" t="s">
         <v>2</v>
       </c>
@@ -15948,17 +15960,17 @@
       <c r="D10" s="44">
         <v>44683</v>
       </c>
-      <c r="E10" s="54" t="s">
+      <c r="E10" s="83" t="s">
         <v>43</v>
       </c>
-      <c r="F10" s="55"/>
-      <c r="G10" s="55"/>
-      <c r="H10" s="55"/>
-      <c r="I10" s="55"/>
-      <c r="J10" s="55"/>
-      <c r="K10" s="55"/>
-      <c r="L10" s="55"/>
-      <c r="M10" s="56"/>
+      <c r="F10" s="84"/>
+      <c r="G10" s="84"/>
+      <c r="H10" s="84"/>
+      <c r="I10" s="84"/>
+      <c r="J10" s="84"/>
+      <c r="K10" s="84"/>
+      <c r="L10" s="84"/>
+      <c r="M10" s="85"/>
       <c r="N10" s="6">
         <v>17</v>
       </c>
@@ -15986,17 +15998,17 @@
       <c r="D11" s="41">
         <v>44684</v>
       </c>
-      <c r="E11" s="57" t="s">
+      <c r="E11" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="F11" s="58"/>
-      <c r="G11" s="58"/>
-      <c r="H11" s="58"/>
-      <c r="I11" s="58"/>
-      <c r="J11" s="58"/>
-      <c r="K11" s="58"/>
-      <c r="L11" s="58"/>
-      <c r="M11" s="59"/>
+      <c r="F11" s="88"/>
+      <c r="G11" s="88"/>
+      <c r="H11" s="88"/>
+      <c r="I11" s="88"/>
+      <c r="J11" s="88"/>
+      <c r="K11" s="88"/>
+      <c r="L11" s="88"/>
+      <c r="M11" s="89"/>
       <c r="N11" s="6">
         <v>17</v>
       </c>
@@ -16024,17 +16036,17 @@
       <c r="D12" s="41">
         <v>44686</v>
       </c>
-      <c r="E12" s="54" t="s">
+      <c r="E12" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="F12" s="55"/>
-      <c r="G12" s="55"/>
-      <c r="H12" s="55"/>
-      <c r="I12" s="55"/>
-      <c r="J12" s="55"/>
-      <c r="K12" s="55"/>
-      <c r="L12" s="55"/>
-      <c r="M12" s="56"/>
+      <c r="F12" s="84"/>
+      <c r="G12" s="84"/>
+      <c r="H12" s="84"/>
+      <c r="I12" s="84"/>
+      <c r="J12" s="84"/>
+      <c r="K12" s="84"/>
+      <c r="L12" s="84"/>
+      <c r="M12" s="85"/>
       <c r="N12" s="6">
         <v>17</v>
       </c>
@@ -16062,17 +16074,17 @@
       <c r="D13" s="41">
         <v>44688</v>
       </c>
-      <c r="E13" s="54" t="s">
+      <c r="E13" s="83" t="s">
         <v>40</v>
       </c>
-      <c r="F13" s="55"/>
-      <c r="G13" s="55"/>
-      <c r="H13" s="55"/>
-      <c r="I13" s="55"/>
-      <c r="J13" s="55"/>
-      <c r="K13" s="55"/>
-      <c r="L13" s="55"/>
-      <c r="M13" s="56"/>
+      <c r="F13" s="84"/>
+      <c r="G13" s="84"/>
+      <c r="H13" s="84"/>
+      <c r="I13" s="84"/>
+      <c r="J13" s="84"/>
+      <c r="K13" s="84"/>
+      <c r="L13" s="84"/>
+      <c r="M13" s="85"/>
       <c r="N13" s="6">
         <v>17</v>
       </c>
@@ -16100,17 +16112,17 @@
       <c r="D14" s="41">
         <v>44696</v>
       </c>
-      <c r="E14" s="57" t="s">
+      <c r="E14" s="87" t="s">
         <v>5</v>
       </c>
-      <c r="F14" s="58"/>
-      <c r="G14" s="58"/>
-      <c r="H14" s="58"/>
-      <c r="I14" s="58"/>
-      <c r="J14" s="58"/>
-      <c r="K14" s="58"/>
-      <c r="L14" s="58"/>
-      <c r="M14" s="59"/>
+      <c r="F14" s="88"/>
+      <c r="G14" s="88"/>
+      <c r="H14" s="88"/>
+      <c r="I14" s="88"/>
+      <c r="J14" s="88"/>
+      <c r="K14" s="88"/>
+      <c r="L14" s="88"/>
+      <c r="M14" s="89"/>
       <c r="N14" s="6">
         <v>17</v>
       </c>
@@ -16138,17 +16150,17 @@
       <c r="D15" s="41">
         <v>44700</v>
       </c>
-      <c r="E15" s="54" t="s">
+      <c r="E15" s="83" t="s">
         <v>33</v>
       </c>
-      <c r="F15" s="55"/>
-      <c r="G15" s="55"/>
-      <c r="H15" s="55"/>
-      <c r="I15" s="55"/>
-      <c r="J15" s="55"/>
-      <c r="K15" s="55"/>
-      <c r="L15" s="55"/>
-      <c r="M15" s="56"/>
+      <c r="F15" s="84"/>
+      <c r="G15" s="84"/>
+      <c r="H15" s="84"/>
+      <c r="I15" s="84"/>
+      <c r="J15" s="84"/>
+      <c r="K15" s="84"/>
+      <c r="L15" s="84"/>
+      <c r="M15" s="85"/>
       <c r="N15" s="6">
         <v>17</v>
       </c>
@@ -16176,17 +16188,17 @@
       <c r="D16" s="41">
         <v>44703</v>
       </c>
-      <c r="E16" s="57" t="s">
+      <c r="E16" s="87" t="s">
         <v>9</v>
       </c>
-      <c r="F16" s="58"/>
-      <c r="G16" s="58"/>
-      <c r="H16" s="58"/>
-      <c r="I16" s="58"/>
-      <c r="J16" s="58"/>
-      <c r="K16" s="58"/>
-      <c r="L16" s="58"/>
-      <c r="M16" s="59"/>
+      <c r="F16" s="88"/>
+      <c r="G16" s="88"/>
+      <c r="H16" s="88"/>
+      <c r="I16" s="88"/>
+      <c r="J16" s="88"/>
+      <c r="K16" s="88"/>
+      <c r="L16" s="88"/>
+      <c r="M16" s="89"/>
       <c r="N16" s="6">
         <v>17</v>
       </c>
@@ -16214,17 +16226,17 @@
       <c r="D17" s="41">
         <v>44707</v>
       </c>
-      <c r="E17" s="57" t="s">
+      <c r="E17" s="87" t="s">
         <v>44</v>
       </c>
-      <c r="F17" s="58"/>
-      <c r="G17" s="58"/>
-      <c r="H17" s="58"/>
-      <c r="I17" s="58"/>
-      <c r="J17" s="58"/>
-      <c r="K17" s="58"/>
-      <c r="L17" s="58"/>
-      <c r="M17" s="59"/>
+      <c r="F17" s="88"/>
+      <c r="G17" s="88"/>
+      <c r="H17" s="88"/>
+      <c r="I17" s="88"/>
+      <c r="J17" s="88"/>
+      <c r="K17" s="88"/>
+      <c r="L17" s="88"/>
+      <c r="M17" s="89"/>
       <c r="N17" s="6">
         <v>17</v>
       </c>
@@ -16249,17 +16261,17 @@
       <c r="D18" s="41">
         <v>44712</v>
       </c>
-      <c r="E18" s="54" t="s">
+      <c r="E18" s="83" t="s">
         <v>34</v>
       </c>
-      <c r="F18" s="55"/>
-      <c r="G18" s="55"/>
-      <c r="H18" s="55"/>
-      <c r="I18" s="55"/>
-      <c r="J18" s="55"/>
-      <c r="K18" s="55"/>
-      <c r="L18" s="55"/>
-      <c r="M18" s="56"/>
+      <c r="F18" s="84"/>
+      <c r="G18" s="84"/>
+      <c r="H18" s="84"/>
+      <c r="I18" s="84"/>
+      <c r="J18" s="84"/>
+      <c r="K18" s="84"/>
+      <c r="L18" s="84"/>
+      <c r="M18" s="85"/>
       <c r="N18" s="6">
         <v>17</v>
       </c>
@@ -16284,17 +16296,17 @@
       <c r="D19" s="41">
         <v>44717</v>
       </c>
-      <c r="E19" s="57" t="s">
+      <c r="E19" s="87" t="s">
         <v>35</v>
       </c>
-      <c r="F19" s="58"/>
-      <c r="G19" s="58"/>
-      <c r="H19" s="58"/>
-      <c r="I19" s="58"/>
-      <c r="J19" s="58"/>
-      <c r="K19" s="58"/>
-      <c r="L19" s="58"/>
-      <c r="M19" s="59"/>
+      <c r="F19" s="88"/>
+      <c r="G19" s="88"/>
+      <c r="H19" s="88"/>
+      <c r="I19" s="88"/>
+      <c r="J19" s="88"/>
+      <c r="K19" s="88"/>
+      <c r="L19" s="88"/>
+      <c r="M19" s="89"/>
       <c r="N19" s="6">
         <v>17</v>
       </c>
@@ -16322,17 +16334,17 @@
       <c r="D20" s="41">
         <v>44722</v>
       </c>
-      <c r="E20" s="54" t="s">
+      <c r="E20" s="83" t="s">
         <v>36</v>
       </c>
-      <c r="F20" s="55"/>
-      <c r="G20" s="55"/>
-      <c r="H20" s="55"/>
-      <c r="I20" s="55"/>
-      <c r="J20" s="55"/>
-      <c r="K20" s="55"/>
-      <c r="L20" s="55"/>
-      <c r="M20" s="56"/>
+      <c r="F20" s="84"/>
+      <c r="G20" s="84"/>
+      <c r="H20" s="84"/>
+      <c r="I20" s="84"/>
+      <c r="J20" s="84"/>
+      <c r="K20" s="84"/>
+      <c r="L20" s="84"/>
+      <c r="M20" s="85"/>
       <c r="N20" s="6">
         <v>17</v>
       </c>
@@ -16357,17 +16369,17 @@
       <c r="D21" s="41">
         <v>44727</v>
       </c>
-      <c r="E21" s="54" t="s">
+      <c r="E21" s="83" t="s">
         <v>37</v>
       </c>
-      <c r="F21" s="55"/>
-      <c r="G21" s="55"/>
-      <c r="H21" s="55"/>
-      <c r="I21" s="55"/>
-      <c r="J21" s="55"/>
-      <c r="K21" s="55"/>
-      <c r="L21" s="55"/>
-      <c r="M21" s="56"/>
+      <c r="F21" s="84"/>
+      <c r="G21" s="84"/>
+      <c r="H21" s="84"/>
+      <c r="I21" s="84"/>
+      <c r="J21" s="84"/>
+      <c r="K21" s="84"/>
+      <c r="L21" s="84"/>
+      <c r="M21" s="85"/>
       <c r="N21" s="6">
         <v>17</v>
       </c>
@@ -16392,17 +16404,17 @@
       <c r="D22" s="41" t="s">
         <v>109</v>
       </c>
-      <c r="E22" s="54" t="s">
+      <c r="E22" s="83" t="s">
         <v>45</v>
       </c>
-      <c r="F22" s="55"/>
-      <c r="G22" s="55"/>
-      <c r="H22" s="55"/>
-      <c r="I22" s="55"/>
-      <c r="J22" s="55"/>
-      <c r="K22" s="55"/>
-      <c r="L22" s="55"/>
-      <c r="M22" s="56"/>
+      <c r="F22" s="84"/>
+      <c r="G22" s="84"/>
+      <c r="H22" s="84"/>
+      <c r="I22" s="84"/>
+      <c r="J22" s="84"/>
+      <c r="K22" s="84"/>
+      <c r="L22" s="84"/>
+      <c r="M22" s="85"/>
       <c r="N22" s="6">
         <v>17</v>
       </c>
@@ -16430,17 +16442,17 @@
       <c r="D23" s="41" t="s">
         <v>110</v>
       </c>
-      <c r="E23" s="54" t="s">
+      <c r="E23" s="83" t="s">
         <v>46</v>
       </c>
-      <c r="F23" s="55"/>
-      <c r="G23" s="55"/>
-      <c r="H23" s="55"/>
-      <c r="I23" s="55"/>
-      <c r="J23" s="55"/>
-      <c r="K23" s="55"/>
-      <c r="L23" s="55"/>
-      <c r="M23" s="56"/>
+      <c r="F23" s="84"/>
+      <c r="G23" s="84"/>
+      <c r="H23" s="84"/>
+      <c r="I23" s="84"/>
+      <c r="J23" s="84"/>
+      <c r="K23" s="84"/>
+      <c r="L23" s="84"/>
+      <c r="M23" s="85"/>
       <c r="N23" s="6">
         <v>17</v>
       </c>
@@ -16468,17 +16480,17 @@
       <c r="D24" s="41">
         <v>44736</v>
       </c>
-      <c r="E24" s="57" t="s">
+      <c r="E24" s="87" t="s">
         <v>7</v>
       </c>
-      <c r="F24" s="58"/>
-      <c r="G24" s="58"/>
-      <c r="H24" s="58"/>
-      <c r="I24" s="58"/>
-      <c r="J24" s="58"/>
-      <c r="K24" s="58"/>
-      <c r="L24" s="58"/>
-      <c r="M24" s="59"/>
+      <c r="F24" s="88"/>
+      <c r="G24" s="88"/>
+      <c r="H24" s="88"/>
+      <c r="I24" s="88"/>
+      <c r="J24" s="88"/>
+      <c r="K24" s="88"/>
+      <c r="L24" s="88"/>
+      <c r="M24" s="89"/>
       <c r="N24" s="6">
         <v>17</v>
       </c>
@@ -16506,17 +16518,17 @@
       <c r="D25" s="41">
         <v>44740</v>
       </c>
-      <c r="E25" s="54" t="s">
+      <c r="E25" s="83" t="s">
         <v>38</v>
       </c>
-      <c r="F25" s="55"/>
-      <c r="G25" s="55"/>
-      <c r="H25" s="55"/>
-      <c r="I25" s="55"/>
-      <c r="J25" s="55"/>
-      <c r="K25" s="55"/>
-      <c r="L25" s="55"/>
-      <c r="M25" s="56"/>
+      <c r="F25" s="84"/>
+      <c r="G25" s="84"/>
+      <c r="H25" s="84"/>
+      <c r="I25" s="84"/>
+      <c r="J25" s="84"/>
+      <c r="K25" s="84"/>
+      <c r="L25" s="84"/>
+      <c r="M25" s="85"/>
       <c r="N25" s="6">
         <v>17</v>
       </c>
@@ -16544,17 +16556,17 @@
       <c r="D26" s="41">
         <v>44745</v>
       </c>
-      <c r="E26" s="57" t="s">
+      <c r="E26" s="87" t="s">
         <v>11</v>
       </c>
-      <c r="F26" s="58"/>
-      <c r="G26" s="58"/>
-      <c r="H26" s="58"/>
-      <c r="I26" s="58"/>
-      <c r="J26" s="58"/>
-      <c r="K26" s="58"/>
-      <c r="L26" s="58"/>
-      <c r="M26" s="59"/>
+      <c r="F26" s="88"/>
+      <c r="G26" s="88"/>
+      <c r="H26" s="88"/>
+      <c r="I26" s="88"/>
+      <c r="J26" s="88"/>
+      <c r="K26" s="88"/>
+      <c r="L26" s="88"/>
+      <c r="M26" s="89"/>
       <c r="N26" s="6">
         <v>17</v>
       </c>
@@ -16582,17 +16594,17 @@
       <c r="D27" s="41">
         <v>44750</v>
       </c>
-      <c r="E27" s="54" t="s">
+      <c r="E27" s="83" t="s">
         <v>48</v>
       </c>
-      <c r="F27" s="55"/>
-      <c r="G27" s="55"/>
-      <c r="H27" s="55"/>
-      <c r="I27" s="55"/>
-      <c r="J27" s="55"/>
-      <c r="K27" s="55"/>
-      <c r="L27" s="55"/>
-      <c r="M27" s="56"/>
+      <c r="F27" s="84"/>
+      <c r="G27" s="84"/>
+      <c r="H27" s="84"/>
+      <c r="I27" s="84"/>
+      <c r="J27" s="84"/>
+      <c r="K27" s="84"/>
+      <c r="L27" s="84"/>
+      <c r="M27" s="85"/>
       <c r="N27" s="6">
         <v>17</v>
       </c>
@@ -16617,17 +16629,17 @@
       <c r="D28" s="41">
         <v>44752</v>
       </c>
-      <c r="E28" s="58" t="s">
+      <c r="E28" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="F28" s="58"/>
-      <c r="G28" s="58"/>
-      <c r="H28" s="58"/>
-      <c r="I28" s="58"/>
-      <c r="J28" s="58"/>
-      <c r="K28" s="58"/>
-      <c r="L28" s="58"/>
-      <c r="M28" s="59"/>
+      <c r="F28" s="88"/>
+      <c r="G28" s="88"/>
+      <c r="H28" s="88"/>
+      <c r="I28" s="88"/>
+      <c r="J28" s="88"/>
+      <c r="K28" s="88"/>
+      <c r="L28" s="88"/>
+      <c r="M28" s="89"/>
       <c r="N28" s="6">
         <v>17</v>
       </c>
@@ -16655,17 +16667,17 @@
       <c r="D29" s="41">
         <v>44754</v>
       </c>
-      <c r="E29" s="55" t="s">
+      <c r="E29" s="84" t="s">
         <v>49</v>
       </c>
-      <c r="F29" s="55"/>
-      <c r="G29" s="55"/>
-      <c r="H29" s="55"/>
-      <c r="I29" s="55"/>
-      <c r="J29" s="55"/>
-      <c r="K29" s="55"/>
-      <c r="L29" s="55"/>
-      <c r="M29" s="56"/>
+      <c r="F29" s="84"/>
+      <c r="G29" s="84"/>
+      <c r="H29" s="84"/>
+      <c r="I29" s="84"/>
+      <c r="J29" s="84"/>
+      <c r="K29" s="84"/>
+      <c r="L29" s="84"/>
+      <c r="M29" s="85"/>
       <c r="N29" s="6">
         <v>17</v>
       </c>
@@ -16690,17 +16702,17 @@
       <c r="D30" s="41">
         <v>44757</v>
       </c>
-      <c r="E30" s="57" t="s">
+      <c r="E30" s="87" t="s">
         <v>10</v>
       </c>
-      <c r="F30" s="58"/>
-      <c r="G30" s="58"/>
-      <c r="H30" s="58"/>
-      <c r="I30" s="58"/>
-      <c r="J30" s="58"/>
-      <c r="K30" s="58"/>
-      <c r="L30" s="58"/>
-      <c r="M30" s="59"/>
+      <c r="F30" s="88"/>
+      <c r="G30" s="88"/>
+      <c r="H30" s="88"/>
+      <c r="I30" s="88"/>
+      <c r="J30" s="88"/>
+      <c r="K30" s="88"/>
+      <c r="L30" s="88"/>
+      <c r="M30" s="89"/>
       <c r="N30" s="6">
         <v>17</v>
       </c>
@@ -16728,17 +16740,17 @@
       <c r="D31" s="41">
         <v>44760</v>
       </c>
-      <c r="E31" s="57" t="s">
+      <c r="E31" s="87" t="s">
         <v>47</v>
       </c>
-      <c r="F31" s="58"/>
-      <c r="G31" s="58"/>
-      <c r="H31" s="58"/>
-      <c r="I31" s="58"/>
-      <c r="J31" s="58"/>
-      <c r="K31" s="58"/>
-      <c r="L31" s="58"/>
-      <c r="M31" s="59"/>
+      <c r="F31" s="88"/>
+      <c r="G31" s="88"/>
+      <c r="H31" s="88"/>
+      <c r="I31" s="88"/>
+      <c r="J31" s="88"/>
+      <c r="K31" s="88"/>
+      <c r="L31" s="88"/>
+      <c r="M31" s="89"/>
       <c r="N31" s="6">
         <v>17</v>
       </c>
@@ -16763,17 +16775,17 @@
       <c r="C32" s="1">
         <v>23</v>
       </c>
-      <c r="E32" s="54" t="s">
+      <c r="E32" s="83" t="s">
         <v>41</v>
       </c>
-      <c r="F32" s="55"/>
-      <c r="G32" s="55"/>
-      <c r="H32" s="55"/>
-      <c r="I32" s="55"/>
-      <c r="J32" s="55"/>
-      <c r="K32" s="55"/>
-      <c r="L32" s="55"/>
-      <c r="M32" s="56"/>
+      <c r="F32" s="84"/>
+      <c r="G32" s="84"/>
+      <c r="H32" s="84"/>
+      <c r="I32" s="84"/>
+      <c r="J32" s="84"/>
+      <c r="K32" s="84"/>
+      <c r="L32" s="84"/>
+      <c r="M32" s="85"/>
       <c r="N32" s="6">
         <v>17</v>
       </c>
@@ -16795,17 +16807,17 @@
       <c r="C33" s="1">
         <v>24</v>
       </c>
-      <c r="E33" s="54" t="s">
+      <c r="E33" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="F33" s="55"/>
-      <c r="G33" s="55"/>
-      <c r="H33" s="55"/>
-      <c r="I33" s="55"/>
-      <c r="J33" s="55"/>
-      <c r="K33" s="55"/>
-      <c r="L33" s="55"/>
-      <c r="M33" s="56"/>
+      <c r="F33" s="84"/>
+      <c r="G33" s="84"/>
+      <c r="H33" s="84"/>
+      <c r="I33" s="84"/>
+      <c r="J33" s="84"/>
+      <c r="K33" s="84"/>
+      <c r="L33" s="84"/>
+      <c r="M33" s="85"/>
       <c r="N33" s="6">
         <v>17</v>
       </c>
@@ -16828,20 +16840,20 @@
         <v>25</v>
       </c>
       <c r="D34" s="47"/>
-      <c r="E34" s="66" t="s">
+      <c r="E34" s="60" t="s">
         <v>58</v>
       </c>
-      <c r="F34" s="67"/>
-      <c r="G34" s="67"/>
-      <c r="H34" s="67"/>
-      <c r="I34" s="67"/>
-      <c r="J34" s="67"/>
-      <c r="K34" s="67"/>
-      <c r="L34" s="67"/>
-      <c r="M34" s="67"/>
-      <c r="N34" s="67"/>
-      <c r="O34" s="67"/>
-      <c r="P34" s="68"/>
+      <c r="F34" s="61"/>
+      <c r="G34" s="61"/>
+      <c r="H34" s="61"/>
+      <c r="I34" s="61"/>
+      <c r="J34" s="61"/>
+      <c r="K34" s="61"/>
+      <c r="L34" s="61"/>
+      <c r="M34" s="61"/>
+      <c r="N34" s="61"/>
+      <c r="O34" s="61"/>
+      <c r="P34" s="62"/>
       <c r="Q34" s="11"/>
       <c r="R34" s="12" t="e">
         <f>AVERAGE(R10:R33)</f>
@@ -16868,6 +16880,22 @@
     <sortCondition ref="D10:D33"/>
   </sortState>
   <mergeCells count="28">
+    <mergeCell ref="E26:M26"/>
+    <mergeCell ref="E32:M32"/>
+    <mergeCell ref="E33:M33"/>
+    <mergeCell ref="E34:P34"/>
+    <mergeCell ref="E27:M27"/>
+    <mergeCell ref="E28:M28"/>
+    <mergeCell ref="E29:M29"/>
+    <mergeCell ref="E30:M30"/>
+    <mergeCell ref="E31:M31"/>
+    <mergeCell ref="E19:M19"/>
+    <mergeCell ref="E20:M20"/>
+    <mergeCell ref="E21:M21"/>
+    <mergeCell ref="E24:M24"/>
+    <mergeCell ref="E25:M25"/>
+    <mergeCell ref="E22:M22"/>
+    <mergeCell ref="E23:M23"/>
     <mergeCell ref="E18:M18"/>
     <mergeCell ref="C4:Y6"/>
     <mergeCell ref="C7:T7"/>
@@ -16880,22 +16908,6 @@
     <mergeCell ref="E15:M15"/>
     <mergeCell ref="E16:M16"/>
     <mergeCell ref="E17:M17"/>
-    <mergeCell ref="E19:M19"/>
-    <mergeCell ref="E20:M20"/>
-    <mergeCell ref="E21:M21"/>
-    <mergeCell ref="E24:M24"/>
-    <mergeCell ref="E25:M25"/>
-    <mergeCell ref="E22:M22"/>
-    <mergeCell ref="E23:M23"/>
-    <mergeCell ref="E26:M26"/>
-    <mergeCell ref="E32:M32"/>
-    <mergeCell ref="E33:M33"/>
-    <mergeCell ref="E34:P34"/>
-    <mergeCell ref="E27:M27"/>
-    <mergeCell ref="E28:M28"/>
-    <mergeCell ref="E29:M29"/>
-    <mergeCell ref="E30:M30"/>
-    <mergeCell ref="E31:M31"/>
   </mergeCells>
   <conditionalFormatting sqref="V10:V33">
     <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">

--- a/My Test Tracker Original GATE 2023.xlsx
+++ b/My Test Tracker Original GATE 2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GATE 2022 &amp; 2023\My Progress trackers &amp; Journey - In Git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB8F339F-8391-498C-8F35-8942DC795039}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58909576-33AB-4DC4-B01C-DA3872E252F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{158952DD-A7DC-477E-91D8-188954568D39}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="804" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="805" uniqueCount="127">
   <si>
     <t>Topicwise Tests</t>
   </si>
@@ -908,20 +908,40 @@
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -942,13 +962,14 @@
     <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -960,16 +981,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -981,7 +999,9 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -991,34 +1011,14 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2051,7 +2051,7 @@
   <dimension ref="A1:W336"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D184" workbookViewId="0">
-      <selection activeCell="N187" sqref="N187"/>
+      <selection activeCell="Q188" sqref="Q188"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2077,52 +2077,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="34.200000000000003" thickBot="1" x14ac:dyDescent="0.7">
-      <c r="A1" s="56">
+      <c r="A1" s="92">
         <v>2021</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="56"/>
-      <c r="J1" s="56"/>
-      <c r="K1" s="56"/>
-      <c r="L1" s="56"/>
-      <c r="M1" s="56"/>
-      <c r="N1" s="56"/>
-      <c r="O1" s="56"/>
-      <c r="P1" s="56"/>
-      <c r="Q1" s="56"/>
-      <c r="R1" s="56"/>
-      <c r="S1" s="56"/>
-      <c r="T1" s="56"/>
-      <c r="U1" s="56"/>
-      <c r="V1" s="56"/>
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="92"/>
+      <c r="I1" s="92"/>
+      <c r="J1" s="92"/>
+      <c r="K1" s="92"/>
+      <c r="L1" s="92"/>
+      <c r="M1" s="92"/>
+      <c r="N1" s="92"/>
+      <c r="O1" s="92"/>
+      <c r="P1" s="92"/>
+      <c r="Q1" s="92"/>
+      <c r="R1" s="92"/>
+      <c r="S1" s="92"/>
+      <c r="T1" s="92"/>
+      <c r="U1" s="92"/>
+      <c r="V1" s="92"/>
     </row>
     <row r="2" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="86" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="81"/>
-      <c r="F2" s="81"/>
-      <c r="G2" s="81"/>
-      <c r="H2" s="81"/>
-      <c r="I2" s="81"/>
-      <c r="J2" s="81"/>
-      <c r="K2" s="81"/>
-      <c r="L2" s="81"/>
-      <c r="M2" s="81"/>
-      <c r="N2" s="81"/>
-      <c r="O2" s="81"/>
-      <c r="P2" s="81"/>
-      <c r="Q2" s="81"/>
-      <c r="R2" s="82"/>
+      <c r="B2" s="87"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="87"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="87"/>
+      <c r="J2" s="87"/>
+      <c r="K2" s="87"/>
+      <c r="L2" s="87"/>
+      <c r="M2" s="87"/>
+      <c r="N2" s="87"/>
+      <c r="O2" s="87"/>
+      <c r="P2" s="87"/>
+      <c r="Q2" s="87"/>
+      <c r="R2" s="88"/>
       <c r="S2" s="3"/>
       <c r="T2" s="3"/>
       <c r="U2" s="3"/>
@@ -2133,17 +2133,17 @@
         <v>1</v>
       </c>
       <c r="B4" s="5"/>
-      <c r="C4" s="86" t="s">
+      <c r="C4" s="85" t="s">
         <v>100</v>
       </c>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86"/>
-      <c r="K4" s="86"/>
+      <c r="D4" s="85"/>
+      <c r="E4" s="85"/>
+      <c r="F4" s="85"/>
+      <c r="G4" s="85"/>
+      <c r="H4" s="85"/>
+      <c r="I4" s="85"/>
+      <c r="J4" s="85"/>
+      <c r="K4" s="85"/>
       <c r="L4" s="5" t="s">
         <v>2</v>
       </c>
@@ -2183,17 +2183,17 @@
       <c r="B5" s="41">
         <v>44613</v>
       </c>
-      <c r="C5" s="74" t="s">
+      <c r="C5" s="73" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="74"/>
-      <c r="E5" s="74"/>
-      <c r="F5" s="74"/>
-      <c r="G5" s="74"/>
-      <c r="H5" s="74"/>
-      <c r="I5" s="74"/>
-      <c r="J5" s="74"/>
-      <c r="K5" s="74"/>
+      <c r="D5" s="73"/>
+      <c r="E5" s="73"/>
+      <c r="F5" s="73"/>
+      <c r="G5" s="73"/>
+      <c r="H5" s="73"/>
+      <c r="I5" s="73"/>
+      <c r="J5" s="73"/>
+      <c r="K5" s="73"/>
       <c r="L5" s="6">
         <v>17</v>
       </c>
@@ -2221,17 +2221,17 @@
       <c r="B6" s="41">
         <v>44617</v>
       </c>
-      <c r="C6" s="66" t="s">
+      <c r="C6" s="64" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="67"/>
-      <c r="E6" s="67"/>
-      <c r="F6" s="67"/>
-      <c r="G6" s="67"/>
-      <c r="H6" s="67"/>
-      <c r="I6" s="67"/>
-      <c r="J6" s="67"/>
-      <c r="K6" s="67"/>
+      <c r="D6" s="65"/>
+      <c r="E6" s="65"/>
+      <c r="F6" s="65"/>
+      <c r="G6" s="65"/>
+      <c r="H6" s="65"/>
+      <c r="I6" s="65"/>
+      <c r="J6" s="65"/>
+      <c r="K6" s="65"/>
       <c r="L6" s="6">
         <v>17</v>
       </c>
@@ -2259,17 +2259,17 @@
       <c r="B7" s="41">
         <v>44621</v>
       </c>
-      <c r="C7" s="66" t="s">
+      <c r="C7" s="64" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="67"/>
-      <c r="E7" s="67"/>
-      <c r="F7" s="67"/>
-      <c r="G7" s="67"/>
-      <c r="H7" s="67"/>
-      <c r="I7" s="67"/>
-      <c r="J7" s="67"/>
-      <c r="K7" s="67"/>
+      <c r="D7" s="65"/>
+      <c r="E7" s="65"/>
+      <c r="F7" s="65"/>
+      <c r="G7" s="65"/>
+      <c r="H7" s="65"/>
+      <c r="I7" s="65"/>
+      <c r="J7" s="65"/>
+      <c r="K7" s="65"/>
       <c r="L7" s="6">
         <v>17</v>
       </c>
@@ -2297,17 +2297,17 @@
       <c r="B8" s="41">
         <v>44625</v>
       </c>
-      <c r="C8" s="67" t="s">
+      <c r="C8" s="65" t="s">
         <v>35</v>
       </c>
-      <c r="D8" s="67"/>
-      <c r="E8" s="67"/>
-      <c r="F8" s="67"/>
-      <c r="G8" s="67"/>
-      <c r="H8" s="67"/>
-      <c r="I8" s="67"/>
-      <c r="J8" s="67"/>
-      <c r="K8" s="67"/>
+      <c r="D8" s="65"/>
+      <c r="E8" s="65"/>
+      <c r="F8" s="65"/>
+      <c r="G8" s="65"/>
+      <c r="H8" s="65"/>
+      <c r="I8" s="65"/>
+      <c r="J8" s="65"/>
+      <c r="K8" s="65"/>
       <c r="L8" s="6">
         <v>17</v>
       </c>
@@ -2335,17 +2335,17 @@
       <c r="B9" s="41">
         <v>44629</v>
       </c>
-      <c r="C9" s="66" t="s">
+      <c r="C9" s="64" t="s">
         <v>36</v>
       </c>
-      <c r="D9" s="67"/>
-      <c r="E9" s="67"/>
-      <c r="F9" s="67"/>
-      <c r="G9" s="67"/>
-      <c r="H9" s="67"/>
-      <c r="I9" s="67"/>
-      <c r="J9" s="67"/>
-      <c r="K9" s="67"/>
+      <c r="D9" s="65"/>
+      <c r="E9" s="65"/>
+      <c r="F9" s="65"/>
+      <c r="G9" s="65"/>
+      <c r="H9" s="65"/>
+      <c r="I9" s="65"/>
+      <c r="J9" s="65"/>
+      <c r="K9" s="65"/>
       <c r="L9" s="6">
         <v>17</v>
       </c>
@@ -2373,17 +2373,17 @@
       <c r="B10" s="41">
         <v>44633</v>
       </c>
-      <c r="C10" s="66" t="s">
+      <c r="C10" s="64" t="s">
         <v>37</v>
       </c>
-      <c r="D10" s="67"/>
-      <c r="E10" s="67"/>
-      <c r="F10" s="67"/>
-      <c r="G10" s="67"/>
-      <c r="H10" s="67"/>
-      <c r="I10" s="67"/>
-      <c r="J10" s="67"/>
-      <c r="K10" s="67"/>
+      <c r="D10" s="65"/>
+      <c r="E10" s="65"/>
+      <c r="F10" s="65"/>
+      <c r="G10" s="65"/>
+      <c r="H10" s="65"/>
+      <c r="I10" s="65"/>
+      <c r="J10" s="65"/>
+      <c r="K10" s="65"/>
       <c r="L10" s="6">
         <v>17</v>
       </c>
@@ -2411,17 +2411,17 @@
       <c r="B11" s="41">
         <v>44637</v>
       </c>
-      <c r="C11" s="67" t="s">
+      <c r="C11" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="67"/>
-      <c r="E11" s="67"/>
-      <c r="F11" s="67"/>
-      <c r="G11" s="67"/>
-      <c r="H11" s="67"/>
-      <c r="I11" s="67"/>
-      <c r="J11" s="67"/>
-      <c r="K11" s="67"/>
+      <c r="D11" s="65"/>
+      <c r="E11" s="65"/>
+      <c r="F11" s="65"/>
+      <c r="G11" s="65"/>
+      <c r="H11" s="65"/>
+      <c r="I11" s="65"/>
+      <c r="J11" s="65"/>
+      <c r="K11" s="65"/>
       <c r="L11" s="6">
         <v>17</v>
       </c>
@@ -2449,17 +2449,17 @@
       <c r="B12" s="41">
         <v>44641</v>
       </c>
-      <c r="C12" s="66" t="s">
+      <c r="C12" s="64" t="s">
         <v>38</v>
       </c>
-      <c r="D12" s="67"/>
-      <c r="E12" s="67"/>
-      <c r="F12" s="67"/>
-      <c r="G12" s="67"/>
-      <c r="H12" s="67"/>
-      <c r="I12" s="67"/>
-      <c r="J12" s="67"/>
-      <c r="K12" s="67"/>
+      <c r="D12" s="65"/>
+      <c r="E12" s="65"/>
+      <c r="F12" s="65"/>
+      <c r="G12" s="65"/>
+      <c r="H12" s="65"/>
+      <c r="I12" s="65"/>
+      <c r="J12" s="65"/>
+      <c r="K12" s="65"/>
       <c r="L12" s="6">
         <v>17</v>
       </c>
@@ -2485,17 +2485,17 @@
         <v>9</v>
       </c>
       <c r="B13" s="1"/>
-      <c r="C13" s="66" t="s">
+      <c r="C13" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="D13" s="67"/>
-      <c r="E13" s="67"/>
-      <c r="F13" s="67"/>
-      <c r="G13" s="67"/>
-      <c r="H13" s="67"/>
-      <c r="I13" s="67"/>
-      <c r="J13" s="67"/>
-      <c r="K13" s="67"/>
+      <c r="D13" s="65"/>
+      <c r="E13" s="65"/>
+      <c r="F13" s="65"/>
+      <c r="G13" s="65"/>
+      <c r="H13" s="65"/>
+      <c r="I13" s="65"/>
+      <c r="J13" s="65"/>
+      <c r="K13" s="65"/>
       <c r="L13" s="6">
         <v>17</v>
       </c>
@@ -2521,17 +2521,17 @@
         <v>10</v>
       </c>
       <c r="B14" s="1"/>
-      <c r="C14" s="66" t="s">
+      <c r="C14" s="64" t="s">
         <v>40</v>
       </c>
-      <c r="D14" s="67"/>
-      <c r="E14" s="67"/>
-      <c r="F14" s="67"/>
-      <c r="G14" s="67"/>
-      <c r="H14" s="67"/>
-      <c r="I14" s="67"/>
-      <c r="J14" s="67"/>
-      <c r="K14" s="67"/>
+      <c r="D14" s="65"/>
+      <c r="E14" s="65"/>
+      <c r="F14" s="65"/>
+      <c r="G14" s="65"/>
+      <c r="H14" s="65"/>
+      <c r="I14" s="65"/>
+      <c r="J14" s="65"/>
+      <c r="K14" s="65"/>
       <c r="L14" s="6">
         <v>17</v>
       </c>
@@ -2557,17 +2557,17 @@
         <v>11</v>
       </c>
       <c r="B15" s="1"/>
-      <c r="C15" s="66" t="s">
+      <c r="C15" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="D15" s="67"/>
-      <c r="E15" s="67"/>
-      <c r="F15" s="67"/>
-      <c r="G15" s="67"/>
-      <c r="H15" s="67"/>
-      <c r="I15" s="67"/>
-      <c r="J15" s="67"/>
-      <c r="K15" s="67"/>
+      <c r="D15" s="65"/>
+      <c r="E15" s="65"/>
+      <c r="F15" s="65"/>
+      <c r="G15" s="65"/>
+      <c r="H15" s="65"/>
+      <c r="I15" s="65"/>
+      <c r="J15" s="65"/>
+      <c r="K15" s="65"/>
       <c r="L15" s="6">
         <v>17</v>
       </c>
@@ -2593,17 +2593,17 @@
         <v>12</v>
       </c>
       <c r="B16" s="1"/>
-      <c r="C16" s="66" t="s">
+      <c r="C16" s="64" t="s">
         <v>42</v>
       </c>
-      <c r="D16" s="67"/>
-      <c r="E16" s="67"/>
-      <c r="F16" s="67"/>
-      <c r="G16" s="67"/>
-      <c r="H16" s="67"/>
-      <c r="I16" s="67"/>
-      <c r="J16" s="67"/>
-      <c r="K16" s="67"/>
+      <c r="D16" s="65"/>
+      <c r="E16" s="65"/>
+      <c r="F16" s="65"/>
+      <c r="G16" s="65"/>
+      <c r="H16" s="65"/>
+      <c r="I16" s="65"/>
+      <c r="J16" s="65"/>
+      <c r="K16" s="65"/>
       <c r="L16" s="6">
         <v>17</v>
       </c>
@@ -2631,17 +2631,17 @@
       <c r="B17" s="41">
         <v>44645</v>
       </c>
-      <c r="C17" s="67" t="s">
+      <c r="C17" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="D17" s="67"/>
-      <c r="E17" s="67"/>
-      <c r="F17" s="67"/>
-      <c r="G17" s="67"/>
-      <c r="H17" s="67"/>
-      <c r="I17" s="67"/>
-      <c r="J17" s="67"/>
-      <c r="K17" s="67"/>
+      <c r="D17" s="65"/>
+      <c r="E17" s="65"/>
+      <c r="F17" s="65"/>
+      <c r="G17" s="65"/>
+      <c r="H17" s="65"/>
+      <c r="I17" s="65"/>
+      <c r="J17" s="65"/>
+      <c r="K17" s="65"/>
       <c r="L17" s="6">
         <v>17</v>
       </c>
@@ -2669,17 +2669,17 @@
       <c r="B18" s="41">
         <v>44649</v>
       </c>
-      <c r="C18" s="66" t="s">
+      <c r="C18" s="64" t="s">
         <v>43</v>
       </c>
-      <c r="D18" s="67"/>
-      <c r="E18" s="67"/>
-      <c r="F18" s="67"/>
-      <c r="G18" s="67"/>
-      <c r="H18" s="67"/>
-      <c r="I18" s="67"/>
-      <c r="J18" s="67"/>
-      <c r="K18" s="67"/>
+      <c r="D18" s="65"/>
+      <c r="E18" s="65"/>
+      <c r="F18" s="65"/>
+      <c r="G18" s="65"/>
+      <c r="H18" s="65"/>
+      <c r="I18" s="65"/>
+      <c r="J18" s="65"/>
+      <c r="K18" s="65"/>
       <c r="L18" s="6">
         <v>17</v>
       </c>
@@ -2707,17 +2707,17 @@
       <c r="B19" s="41">
         <v>44653</v>
       </c>
-      <c r="C19" s="67" t="s">
+      <c r="C19" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="D19" s="67"/>
-      <c r="E19" s="67"/>
-      <c r="F19" s="67"/>
-      <c r="G19" s="67"/>
-      <c r="H19" s="67"/>
-      <c r="I19" s="67"/>
-      <c r="J19" s="67"/>
-      <c r="K19" s="67"/>
+      <c r="D19" s="65"/>
+      <c r="E19" s="65"/>
+      <c r="F19" s="65"/>
+      <c r="G19" s="65"/>
+      <c r="H19" s="65"/>
+      <c r="I19" s="65"/>
+      <c r="J19" s="65"/>
+      <c r="K19" s="65"/>
       <c r="L19" s="6">
         <v>17</v>
       </c>
@@ -2755,17 +2755,17 @@
       <c r="B20" s="41">
         <v>44657</v>
       </c>
-      <c r="C20" s="67" t="s">
+      <c r="C20" s="65" t="s">
         <v>44</v>
       </c>
-      <c r="D20" s="67"/>
-      <c r="E20" s="67"/>
-      <c r="F20" s="67"/>
-      <c r="G20" s="67"/>
-      <c r="H20" s="67"/>
-      <c r="I20" s="67"/>
-      <c r="J20" s="67"/>
-      <c r="K20" s="67"/>
+      <c r="D20" s="65"/>
+      <c r="E20" s="65"/>
+      <c r="F20" s="65"/>
+      <c r="G20" s="65"/>
+      <c r="H20" s="65"/>
+      <c r="I20" s="65"/>
+      <c r="J20" s="65"/>
+      <c r="K20" s="65"/>
       <c r="L20" s="6">
         <v>17</v>
       </c>
@@ -2793,17 +2793,17 @@
       <c r="B21" s="41">
         <v>44661</v>
       </c>
-      <c r="C21" s="66" t="s">
+      <c r="C21" s="64" t="s">
         <v>45</v>
       </c>
-      <c r="D21" s="67"/>
-      <c r="E21" s="67"/>
-      <c r="F21" s="67"/>
-      <c r="G21" s="67"/>
-      <c r="H21" s="67"/>
-      <c r="I21" s="67"/>
-      <c r="J21" s="67"/>
-      <c r="K21" s="67"/>
+      <c r="D21" s="65"/>
+      <c r="E21" s="65"/>
+      <c r="F21" s="65"/>
+      <c r="G21" s="65"/>
+      <c r="H21" s="65"/>
+      <c r="I21" s="65"/>
+      <c r="J21" s="65"/>
+      <c r="K21" s="65"/>
       <c r="L21" s="6">
         <v>17</v>
       </c>
@@ -2831,17 +2831,17 @@
       <c r="B22" s="41">
         <v>44665</v>
       </c>
-      <c r="C22" s="66" t="s">
+      <c r="C22" s="64" t="s">
         <v>46</v>
       </c>
-      <c r="D22" s="67"/>
-      <c r="E22" s="67"/>
-      <c r="F22" s="67"/>
-      <c r="G22" s="67"/>
-      <c r="H22" s="67"/>
-      <c r="I22" s="67"/>
-      <c r="J22" s="67"/>
-      <c r="K22" s="67"/>
+      <c r="D22" s="65"/>
+      <c r="E22" s="65"/>
+      <c r="F22" s="65"/>
+      <c r="G22" s="65"/>
+      <c r="H22" s="65"/>
+      <c r="I22" s="65"/>
+      <c r="J22" s="65"/>
+      <c r="K22" s="65"/>
       <c r="L22" s="6">
         <v>17</v>
       </c>
@@ -2869,17 +2869,17 @@
       <c r="B23" s="41">
         <v>44669</v>
       </c>
-      <c r="C23" s="67" t="s">
+      <c r="C23" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="D23" s="67"/>
-      <c r="E23" s="67"/>
-      <c r="F23" s="67"/>
-      <c r="G23" s="67"/>
-      <c r="H23" s="67"/>
-      <c r="I23" s="67"/>
-      <c r="J23" s="67"/>
-      <c r="K23" s="67"/>
+      <c r="D23" s="65"/>
+      <c r="E23" s="65"/>
+      <c r="F23" s="65"/>
+      <c r="G23" s="65"/>
+      <c r="H23" s="65"/>
+      <c r="I23" s="65"/>
+      <c r="J23" s="65"/>
+      <c r="K23" s="65"/>
       <c r="L23" s="6">
         <v>17</v>
       </c>
@@ -2907,17 +2907,17 @@
       <c r="B24" s="41">
         <v>44673</v>
       </c>
-      <c r="C24" s="67" t="s">
+      <c r="C24" s="65" t="s">
         <v>47</v>
       </c>
-      <c r="D24" s="67"/>
-      <c r="E24" s="67"/>
-      <c r="F24" s="67"/>
-      <c r="G24" s="67"/>
-      <c r="H24" s="67"/>
-      <c r="I24" s="67"/>
-      <c r="J24" s="67"/>
-      <c r="K24" s="67"/>
+      <c r="D24" s="65"/>
+      <c r="E24" s="65"/>
+      <c r="F24" s="65"/>
+      <c r="G24" s="65"/>
+      <c r="H24" s="65"/>
+      <c r="I24" s="65"/>
+      <c r="J24" s="65"/>
+      <c r="K24" s="65"/>
       <c r="L24" s="6">
         <v>17</v>
       </c>
@@ -2945,17 +2945,17 @@
       <c r="B25" s="42">
         <v>44646</v>
       </c>
-      <c r="C25" s="67" t="s">
+      <c r="C25" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="D25" s="67"/>
-      <c r="E25" s="67"/>
-      <c r="F25" s="67"/>
-      <c r="G25" s="67"/>
-      <c r="H25" s="67"/>
-      <c r="I25" s="67"/>
-      <c r="J25" s="67"/>
-      <c r="K25" s="67"/>
+      <c r="D25" s="65"/>
+      <c r="E25" s="65"/>
+      <c r="F25" s="65"/>
+      <c r="G25" s="65"/>
+      <c r="H25" s="65"/>
+      <c r="I25" s="65"/>
+      <c r="J25" s="65"/>
+      <c r="K25" s="65"/>
       <c r="L25" s="6">
         <v>17</v>
       </c>
@@ -2983,17 +2983,17 @@
       <c r="B26" s="43">
         <v>44646</v>
       </c>
-      <c r="C26" s="66" t="s">
+      <c r="C26" s="64" t="s">
         <v>48</v>
       </c>
-      <c r="D26" s="67"/>
-      <c r="E26" s="67"/>
-      <c r="F26" s="67"/>
-      <c r="G26" s="67"/>
-      <c r="H26" s="67"/>
-      <c r="I26" s="67"/>
-      <c r="J26" s="67"/>
-      <c r="K26" s="67"/>
+      <c r="D26" s="65"/>
+      <c r="E26" s="65"/>
+      <c r="F26" s="65"/>
+      <c r="G26" s="65"/>
+      <c r="H26" s="65"/>
+      <c r="I26" s="65"/>
+      <c r="J26" s="65"/>
+      <c r="K26" s="65"/>
       <c r="L26" s="6">
         <v>17</v>
       </c>
@@ -3021,17 +3021,17 @@
       <c r="B27" s="41">
         <v>44677</v>
       </c>
-      <c r="C27" s="67" t="s">
+      <c r="C27" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="D27" s="67"/>
-      <c r="E27" s="67"/>
-      <c r="F27" s="67"/>
-      <c r="G27" s="67"/>
-      <c r="H27" s="67"/>
-      <c r="I27" s="67"/>
-      <c r="J27" s="67"/>
-      <c r="K27" s="67"/>
+      <c r="D27" s="65"/>
+      <c r="E27" s="65"/>
+      <c r="F27" s="65"/>
+      <c r="G27" s="65"/>
+      <c r="H27" s="65"/>
+      <c r="I27" s="65"/>
+      <c r="J27" s="65"/>
+      <c r="K27" s="65"/>
       <c r="L27" s="6">
         <v>17</v>
       </c>
@@ -3059,17 +3059,17 @@
       <c r="B28" s="41">
         <v>44681</v>
       </c>
-      <c r="C28" s="66" t="s">
+      <c r="C28" s="64" t="s">
         <v>49</v>
       </c>
-      <c r="D28" s="67"/>
-      <c r="E28" s="67"/>
-      <c r="F28" s="67"/>
-      <c r="G28" s="67"/>
-      <c r="H28" s="67"/>
-      <c r="I28" s="67"/>
-      <c r="J28" s="67"/>
-      <c r="K28" s="67"/>
+      <c r="D28" s="65"/>
+      <c r="E28" s="65"/>
+      <c r="F28" s="65"/>
+      <c r="G28" s="65"/>
+      <c r="H28" s="65"/>
+      <c r="I28" s="65"/>
+      <c r="J28" s="65"/>
+      <c r="K28" s="65"/>
       <c r="L28" s="6">
         <v>17</v>
       </c>
@@ -3095,20 +3095,20 @@
         <v>25</v>
       </c>
       <c r="B29" s="8"/>
-      <c r="C29" s="60" t="s">
+      <c r="C29" s="66" t="s">
         <v>58</v>
       </c>
-      <c r="D29" s="61"/>
-      <c r="E29" s="61"/>
-      <c r="F29" s="61"/>
-      <c r="G29" s="61"/>
-      <c r="H29" s="61"/>
-      <c r="I29" s="61"/>
-      <c r="J29" s="61"/>
-      <c r="K29" s="61"/>
-      <c r="L29" s="61"/>
-      <c r="M29" s="61"/>
-      <c r="N29" s="62"/>
+      <c r="D29" s="67"/>
+      <c r="E29" s="67"/>
+      <c r="F29" s="67"/>
+      <c r="G29" s="67"/>
+      <c r="H29" s="67"/>
+      <c r="I29" s="67"/>
+      <c r="J29" s="67"/>
+      <c r="K29" s="67"/>
+      <c r="L29" s="67"/>
+      <c r="M29" s="67"/>
+      <c r="N29" s="68"/>
       <c r="O29" s="11"/>
       <c r="P29" s="12">
         <f>AVERAGE(P5:P28)</f>
@@ -3128,26 +3128,26 @@
     </row>
     <row r="31" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="32" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="76" t="s">
+      <c r="A32" s="82" t="s">
         <v>13</v>
       </c>
-      <c r="B32" s="77"/>
-      <c r="C32" s="77"/>
-      <c r="D32" s="77"/>
-      <c r="E32" s="77"/>
-      <c r="F32" s="77"/>
-      <c r="G32" s="77"/>
-      <c r="H32" s="77"/>
-      <c r="I32" s="77"/>
-      <c r="J32" s="77"/>
-      <c r="K32" s="77"/>
-      <c r="L32" s="77"/>
-      <c r="M32" s="77"/>
-      <c r="N32" s="77"/>
-      <c r="O32" s="77"/>
-      <c r="P32" s="77"/>
-      <c r="Q32" s="77"/>
-      <c r="R32" s="78"/>
+      <c r="B32" s="83"/>
+      <c r="C32" s="83"/>
+      <c r="D32" s="83"/>
+      <c r="E32" s="83"/>
+      <c r="F32" s="83"/>
+      <c r="G32" s="83"/>
+      <c r="H32" s="83"/>
+      <c r="I32" s="83"/>
+      <c r="J32" s="83"/>
+      <c r="K32" s="83"/>
+      <c r="L32" s="83"/>
+      <c r="M32" s="83"/>
+      <c r="N32" s="83"/>
+      <c r="O32" s="83"/>
+      <c r="P32" s="83"/>
+      <c r="Q32" s="83"/>
+      <c r="R32" s="84"/>
       <c r="S32" s="15"/>
       <c r="T32" s="15"/>
       <c r="U32" s="15"/>
@@ -3157,17 +3157,17 @@
         <v>1</v>
       </c>
       <c r="B34" s="5"/>
-      <c r="C34" s="73" t="s">
+      <c r="C34" s="72" t="s">
         <v>100</v>
       </c>
-      <c r="D34" s="73"/>
-      <c r="E34" s="73"/>
-      <c r="F34" s="73"/>
-      <c r="G34" s="73"/>
-      <c r="H34" s="73"/>
-      <c r="I34" s="73"/>
-      <c r="J34" s="73"/>
-      <c r="K34" s="73"/>
+      <c r="D34" s="72"/>
+      <c r="E34" s="72"/>
+      <c r="F34" s="72"/>
+      <c r="G34" s="72"/>
+      <c r="H34" s="72"/>
+      <c r="I34" s="72"/>
+      <c r="J34" s="72"/>
+      <c r="K34" s="72"/>
       <c r="L34" s="5" t="s">
         <v>2</v>
       </c>
@@ -3204,17 +3204,17 @@
         <v>1</v>
       </c>
       <c r="B35" s="1"/>
-      <c r="C35" s="74" t="s">
+      <c r="C35" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="D35" s="74"/>
-      <c r="E35" s="74"/>
-      <c r="F35" s="74"/>
-      <c r="G35" s="74"/>
-      <c r="H35" s="74"/>
-      <c r="I35" s="74"/>
-      <c r="J35" s="74"/>
-      <c r="K35" s="74"/>
+      <c r="D35" s="73"/>
+      <c r="E35" s="73"/>
+      <c r="F35" s="73"/>
+      <c r="G35" s="73"/>
+      <c r="H35" s="73"/>
+      <c r="I35" s="73"/>
+      <c r="J35" s="73"/>
+      <c r="K35" s="73"/>
       <c r="L35" s="6">
         <v>33</v>
       </c>
@@ -3237,17 +3237,17 @@
         <v>2</v>
       </c>
       <c r="B36" s="1"/>
-      <c r="C36" s="66" t="s">
+      <c r="C36" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="D36" s="67"/>
-      <c r="E36" s="67"/>
-      <c r="F36" s="67"/>
-      <c r="G36" s="67"/>
-      <c r="H36" s="67"/>
-      <c r="I36" s="67"/>
-      <c r="J36" s="67"/>
-      <c r="K36" s="67"/>
+      <c r="D36" s="65"/>
+      <c r="E36" s="65"/>
+      <c r="F36" s="65"/>
+      <c r="G36" s="65"/>
+      <c r="H36" s="65"/>
+      <c r="I36" s="65"/>
+      <c r="J36" s="65"/>
+      <c r="K36" s="65"/>
       <c r="L36" s="6">
         <v>33</v>
       </c>
@@ -3270,17 +3270,17 @@
         <v>3</v>
       </c>
       <c r="B37" s="1"/>
-      <c r="C37" s="66" t="s">
+      <c r="C37" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="D37" s="67"/>
-      <c r="E37" s="67"/>
-      <c r="F37" s="67"/>
-      <c r="G37" s="67"/>
-      <c r="H37" s="67"/>
-      <c r="I37" s="67"/>
-      <c r="J37" s="67"/>
-      <c r="K37" s="67"/>
+      <c r="D37" s="65"/>
+      <c r="E37" s="65"/>
+      <c r="F37" s="65"/>
+      <c r="G37" s="65"/>
+      <c r="H37" s="65"/>
+      <c r="I37" s="65"/>
+      <c r="J37" s="65"/>
+      <c r="K37" s="65"/>
       <c r="L37" s="6">
         <v>33</v>
       </c>
@@ -3303,17 +3303,17 @@
         <v>4</v>
       </c>
       <c r="B38" s="1"/>
-      <c r="C38" s="67" t="s">
+      <c r="C38" s="65" t="s">
         <v>18</v>
       </c>
-      <c r="D38" s="67"/>
-      <c r="E38" s="67"/>
-      <c r="F38" s="67"/>
-      <c r="G38" s="67"/>
-      <c r="H38" s="67"/>
-      <c r="I38" s="67"/>
-      <c r="J38" s="67"/>
-      <c r="K38" s="67"/>
+      <c r="D38" s="65"/>
+      <c r="E38" s="65"/>
+      <c r="F38" s="65"/>
+      <c r="G38" s="65"/>
+      <c r="H38" s="65"/>
+      <c r="I38" s="65"/>
+      <c r="J38" s="65"/>
+      <c r="K38" s="65"/>
       <c r="L38" s="6">
         <v>33</v>
       </c>
@@ -3336,17 +3336,17 @@
         <v>5</v>
       </c>
       <c r="B39" s="1"/>
-      <c r="C39" s="66" t="s">
+      <c r="C39" s="64" t="s">
         <v>61</v>
       </c>
-      <c r="D39" s="67"/>
-      <c r="E39" s="67"/>
-      <c r="F39" s="67"/>
-      <c r="G39" s="67"/>
-      <c r="H39" s="67"/>
-      <c r="I39" s="67"/>
-      <c r="J39" s="67"/>
-      <c r="K39" s="67"/>
+      <c r="D39" s="65"/>
+      <c r="E39" s="65"/>
+      <c r="F39" s="65"/>
+      <c r="G39" s="65"/>
+      <c r="H39" s="65"/>
+      <c r="I39" s="65"/>
+      <c r="J39" s="65"/>
+      <c r="K39" s="65"/>
       <c r="L39" s="6">
         <v>33</v>
       </c>
@@ -3369,17 +3369,17 @@
         <v>6</v>
       </c>
       <c r="B40" s="1"/>
-      <c r="C40" s="66" t="s">
+      <c r="C40" s="64" t="s">
         <v>61</v>
       </c>
-      <c r="D40" s="67"/>
-      <c r="E40" s="67"/>
-      <c r="F40" s="67"/>
-      <c r="G40" s="67"/>
-      <c r="H40" s="67"/>
-      <c r="I40" s="67"/>
-      <c r="J40" s="67"/>
-      <c r="K40" s="67"/>
+      <c r="D40" s="65"/>
+      <c r="E40" s="65"/>
+      <c r="F40" s="65"/>
+      <c r="G40" s="65"/>
+      <c r="H40" s="65"/>
+      <c r="I40" s="65"/>
+      <c r="J40" s="65"/>
+      <c r="K40" s="65"/>
       <c r="L40" s="6">
         <v>33</v>
       </c>
@@ -3402,17 +3402,17 @@
         <v>7</v>
       </c>
       <c r="B41" s="1"/>
-      <c r="C41" s="67" t="s">
+      <c r="C41" s="65" t="s">
         <v>20</v>
       </c>
-      <c r="D41" s="67"/>
-      <c r="E41" s="67"/>
-      <c r="F41" s="67"/>
-      <c r="G41" s="67"/>
-      <c r="H41" s="67"/>
-      <c r="I41" s="67"/>
-      <c r="J41" s="67"/>
-      <c r="K41" s="67"/>
+      <c r="D41" s="65"/>
+      <c r="E41" s="65"/>
+      <c r="F41" s="65"/>
+      <c r="G41" s="65"/>
+      <c r="H41" s="65"/>
+      <c r="I41" s="65"/>
+      <c r="J41" s="65"/>
+      <c r="K41" s="65"/>
       <c r="L41" s="6">
         <v>33</v>
       </c>
@@ -3435,17 +3435,17 @@
         <v>8</v>
       </c>
       <c r="B42" s="1"/>
-      <c r="C42" s="66" t="s">
+      <c r="C42" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="D42" s="67"/>
-      <c r="E42" s="67"/>
-      <c r="F42" s="67"/>
-      <c r="G42" s="67"/>
-      <c r="H42" s="67"/>
-      <c r="I42" s="67"/>
-      <c r="J42" s="67"/>
-      <c r="K42" s="67"/>
+      <c r="D42" s="65"/>
+      <c r="E42" s="65"/>
+      <c r="F42" s="65"/>
+      <c r="G42" s="65"/>
+      <c r="H42" s="65"/>
+      <c r="I42" s="65"/>
+      <c r="J42" s="65"/>
+      <c r="K42" s="65"/>
       <c r="L42" s="6">
         <v>33</v>
       </c>
@@ -3468,17 +3468,17 @@
         <v>9</v>
       </c>
       <c r="B43" s="1"/>
-      <c r="C43" s="66" t="s">
+      <c r="C43" s="64" t="s">
         <v>62</v>
       </c>
-      <c r="D43" s="67"/>
-      <c r="E43" s="67"/>
-      <c r="F43" s="67"/>
-      <c r="G43" s="67"/>
-      <c r="H43" s="67"/>
-      <c r="I43" s="67"/>
-      <c r="J43" s="67"/>
-      <c r="K43" s="67"/>
+      <c r="D43" s="65"/>
+      <c r="E43" s="65"/>
+      <c r="F43" s="65"/>
+      <c r="G43" s="65"/>
+      <c r="H43" s="65"/>
+      <c r="I43" s="65"/>
+      <c r="J43" s="65"/>
+      <c r="K43" s="65"/>
       <c r="L43" s="6">
         <v>33</v>
       </c>
@@ -3501,17 +3501,17 @@
         <v>10</v>
       </c>
       <c r="B44" s="1"/>
-      <c r="C44" s="66" t="s">
+      <c r="C44" s="64" t="s">
         <v>22</v>
       </c>
-      <c r="D44" s="67"/>
-      <c r="E44" s="67"/>
-      <c r="F44" s="67"/>
-      <c r="G44" s="67"/>
-      <c r="H44" s="67"/>
-      <c r="I44" s="67"/>
-      <c r="J44" s="67"/>
-      <c r="K44" s="67"/>
+      <c r="D44" s="65"/>
+      <c r="E44" s="65"/>
+      <c r="F44" s="65"/>
+      <c r="G44" s="65"/>
+      <c r="H44" s="65"/>
+      <c r="I44" s="65"/>
+      <c r="J44" s="65"/>
+      <c r="K44" s="65"/>
       <c r="L44" s="6">
         <v>33</v>
       </c>
@@ -3534,17 +3534,17 @@
         <v>11</v>
       </c>
       <c r="B45" s="1"/>
-      <c r="C45" s="66" t="s">
+      <c r="C45" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="D45" s="67"/>
-      <c r="E45" s="67"/>
-      <c r="F45" s="67"/>
-      <c r="G45" s="67"/>
-      <c r="H45" s="67"/>
-      <c r="I45" s="67"/>
-      <c r="J45" s="67"/>
-      <c r="K45" s="67"/>
+      <c r="D45" s="65"/>
+      <c r="E45" s="65"/>
+      <c r="F45" s="65"/>
+      <c r="G45" s="65"/>
+      <c r="H45" s="65"/>
+      <c r="I45" s="65"/>
+      <c r="J45" s="65"/>
+      <c r="K45" s="65"/>
       <c r="L45" s="6">
         <v>33</v>
       </c>
@@ -3569,17 +3569,17 @@
       <c r="B46" s="42">
         <v>44647</v>
       </c>
-      <c r="C46" s="66" t="s">
+      <c r="C46" s="64" t="s">
         <v>63</v>
       </c>
-      <c r="D46" s="67"/>
-      <c r="E46" s="67"/>
-      <c r="F46" s="67"/>
-      <c r="G46" s="67"/>
-      <c r="H46" s="67"/>
-      <c r="I46" s="67"/>
-      <c r="J46" s="67"/>
-      <c r="K46" s="67"/>
+      <c r="D46" s="65"/>
+      <c r="E46" s="65"/>
+      <c r="F46" s="65"/>
+      <c r="G46" s="65"/>
+      <c r="H46" s="65"/>
+      <c r="I46" s="65"/>
+      <c r="J46" s="65"/>
+      <c r="K46" s="65"/>
       <c r="L46" s="6">
         <v>33</v>
       </c>
@@ -3602,20 +3602,20 @@
         <v>13</v>
       </c>
       <c r="B47" s="1"/>
-      <c r="C47" s="60" t="s">
+      <c r="C47" s="66" t="s">
         <v>58</v>
       </c>
-      <c r="D47" s="61"/>
-      <c r="E47" s="61"/>
-      <c r="F47" s="61"/>
-      <c r="G47" s="61"/>
-      <c r="H47" s="61"/>
-      <c r="I47" s="61"/>
-      <c r="J47" s="61"/>
-      <c r="K47" s="61"/>
-      <c r="L47" s="61"/>
-      <c r="M47" s="61"/>
-      <c r="N47" s="62"/>
+      <c r="D47" s="67"/>
+      <c r="E47" s="67"/>
+      <c r="F47" s="67"/>
+      <c r="G47" s="67"/>
+      <c r="H47" s="67"/>
+      <c r="I47" s="67"/>
+      <c r="J47" s="67"/>
+      <c r="K47" s="67"/>
+      <c r="L47" s="67"/>
+      <c r="M47" s="67"/>
+      <c r="N47" s="68"/>
       <c r="O47" s="11"/>
       <c r="P47" s="12"/>
       <c r="Q47" s="13"/>
@@ -3629,26 +3629,26 @@
       <c r="B48" s="1"/>
     </row>
     <row r="49" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="63" t="s">
+      <c r="A49" s="69" t="s">
         <v>24</v>
       </c>
-      <c r="B49" s="64"/>
-      <c r="C49" s="64"/>
-      <c r="D49" s="64"/>
-      <c r="E49" s="64"/>
-      <c r="F49" s="64"/>
-      <c r="G49" s="64"/>
-      <c r="H49" s="64"/>
-      <c r="I49" s="64"/>
-      <c r="J49" s="64"/>
-      <c r="K49" s="64"/>
-      <c r="L49" s="64"/>
-      <c r="M49" s="64"/>
-      <c r="N49" s="64"/>
-      <c r="O49" s="64"/>
-      <c r="P49" s="64"/>
-      <c r="Q49" s="64"/>
-      <c r="R49" s="65"/>
+      <c r="B49" s="70"/>
+      <c r="C49" s="70"/>
+      <c r="D49" s="70"/>
+      <c r="E49" s="70"/>
+      <c r="F49" s="70"/>
+      <c r="G49" s="70"/>
+      <c r="H49" s="70"/>
+      <c r="I49" s="70"/>
+      <c r="J49" s="70"/>
+      <c r="K49" s="70"/>
+      <c r="L49" s="70"/>
+      <c r="M49" s="70"/>
+      <c r="N49" s="70"/>
+      <c r="O49" s="70"/>
+      <c r="P49" s="70"/>
+      <c r="Q49" s="70"/>
+      <c r="R49" s="71"/>
       <c r="S49" s="3"/>
       <c r="T49" s="3"/>
       <c r="U49" s="3"/>
@@ -3658,17 +3658,17 @@
         <v>1</v>
       </c>
       <c r="B51" s="5"/>
-      <c r="C51" s="73" t="s">
+      <c r="C51" s="72" t="s">
         <v>100</v>
       </c>
-      <c r="D51" s="73"/>
-      <c r="E51" s="73"/>
-      <c r="F51" s="73"/>
-      <c r="G51" s="73"/>
-      <c r="H51" s="73"/>
-      <c r="I51" s="73"/>
-      <c r="J51" s="73"/>
-      <c r="K51" s="73"/>
+      <c r="D51" s="72"/>
+      <c r="E51" s="72"/>
+      <c r="F51" s="72"/>
+      <c r="G51" s="72"/>
+      <c r="H51" s="72"/>
+      <c r="I51" s="72"/>
+      <c r="J51" s="72"/>
+      <c r="K51" s="72"/>
       <c r="L51" s="5" t="s">
         <v>2</v>
       </c>
@@ -3705,17 +3705,17 @@
         <v>1</v>
       </c>
       <c r="B52" s="1"/>
-      <c r="C52" s="74" t="s">
+      <c r="C52" s="73" t="s">
         <v>65</v>
       </c>
-      <c r="D52" s="74"/>
-      <c r="E52" s="74"/>
-      <c r="F52" s="74"/>
-      <c r="G52" s="74"/>
-      <c r="H52" s="74"/>
-      <c r="I52" s="74"/>
-      <c r="J52" s="74"/>
-      <c r="K52" s="74"/>
+      <c r="D52" s="73"/>
+      <c r="E52" s="73"/>
+      <c r="F52" s="73"/>
+      <c r="G52" s="73"/>
+      <c r="H52" s="73"/>
+      <c r="I52" s="73"/>
+      <c r="J52" s="73"/>
+      <c r="K52" s="73"/>
       <c r="L52" s="6">
         <v>33</v>
       </c>
@@ -3738,17 +3738,17 @@
         <v>2</v>
       </c>
       <c r="B53" s="1"/>
-      <c r="C53" s="66" t="s">
+      <c r="C53" s="64" t="s">
         <v>66</v>
       </c>
-      <c r="D53" s="67"/>
-      <c r="E53" s="67"/>
-      <c r="F53" s="67"/>
-      <c r="G53" s="67"/>
-      <c r="H53" s="67"/>
-      <c r="I53" s="67"/>
-      <c r="J53" s="67"/>
-      <c r="K53" s="67"/>
+      <c r="D53" s="65"/>
+      <c r="E53" s="65"/>
+      <c r="F53" s="65"/>
+      <c r="G53" s="65"/>
+      <c r="H53" s="65"/>
+      <c r="I53" s="65"/>
+      <c r="J53" s="65"/>
+      <c r="K53" s="65"/>
       <c r="L53" s="6">
         <v>33</v>
       </c>
@@ -3771,17 +3771,17 @@
         <v>3</v>
       </c>
       <c r="B54" s="1"/>
-      <c r="C54" s="66" t="s">
+      <c r="C54" s="64" t="s">
         <v>25</v>
       </c>
-      <c r="D54" s="67"/>
-      <c r="E54" s="67"/>
-      <c r="F54" s="67"/>
-      <c r="G54" s="67"/>
-      <c r="H54" s="67"/>
-      <c r="I54" s="67"/>
-      <c r="J54" s="67"/>
-      <c r="K54" s="67"/>
+      <c r="D54" s="65"/>
+      <c r="E54" s="65"/>
+      <c r="F54" s="65"/>
+      <c r="G54" s="65"/>
+      <c r="H54" s="65"/>
+      <c r="I54" s="65"/>
+      <c r="J54" s="65"/>
+      <c r="K54" s="65"/>
       <c r="L54" s="6">
         <v>33</v>
       </c>
@@ -3804,17 +3804,17 @@
         <v>4</v>
       </c>
       <c r="B55" s="1"/>
-      <c r="C55" s="67" t="s">
+      <c r="C55" s="65" t="s">
         <v>26</v>
       </c>
-      <c r="D55" s="67"/>
-      <c r="E55" s="67"/>
-      <c r="F55" s="67"/>
-      <c r="G55" s="67"/>
-      <c r="H55" s="67"/>
-      <c r="I55" s="67"/>
-      <c r="J55" s="67"/>
-      <c r="K55" s="67"/>
+      <c r="D55" s="65"/>
+      <c r="E55" s="65"/>
+      <c r="F55" s="65"/>
+      <c r="G55" s="65"/>
+      <c r="H55" s="65"/>
+      <c r="I55" s="65"/>
+      <c r="J55" s="65"/>
+      <c r="K55" s="65"/>
       <c r="L55" s="6">
         <v>33</v>
       </c>
@@ -3837,17 +3837,17 @@
         <v>5</v>
       </c>
       <c r="B56" s="1"/>
-      <c r="C56" s="66" t="s">
+      <c r="C56" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="D56" s="67"/>
-      <c r="E56" s="67"/>
-      <c r="F56" s="67"/>
-      <c r="G56" s="67"/>
-      <c r="H56" s="67"/>
-      <c r="I56" s="67"/>
-      <c r="J56" s="67"/>
-      <c r="K56" s="67"/>
+      <c r="D56" s="65"/>
+      <c r="E56" s="65"/>
+      <c r="F56" s="65"/>
+      <c r="G56" s="65"/>
+      <c r="H56" s="65"/>
+      <c r="I56" s="65"/>
+      <c r="J56" s="65"/>
+      <c r="K56" s="65"/>
       <c r="L56" s="6">
         <v>33</v>
       </c>
@@ -3870,17 +3870,17 @@
         <v>6</v>
       </c>
       <c r="B57" s="1"/>
-      <c r="C57" s="66" t="s">
+      <c r="C57" s="64" t="s">
         <v>67</v>
       </c>
-      <c r="D57" s="67"/>
-      <c r="E57" s="67"/>
-      <c r="F57" s="67"/>
-      <c r="G57" s="67"/>
-      <c r="H57" s="67"/>
-      <c r="I57" s="67"/>
-      <c r="J57" s="67"/>
-      <c r="K57" s="67"/>
+      <c r="D57" s="65"/>
+      <c r="E57" s="65"/>
+      <c r="F57" s="65"/>
+      <c r="G57" s="65"/>
+      <c r="H57" s="65"/>
+      <c r="I57" s="65"/>
+      <c r="J57" s="65"/>
+      <c r="K57" s="65"/>
       <c r="L57" s="6">
         <v>33</v>
       </c>
@@ -3901,20 +3901,20 @@
     <row r="58" spans="1:21" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
-      <c r="C58" s="60" t="s">
+      <c r="C58" s="66" t="s">
         <v>58</v>
       </c>
-      <c r="D58" s="61"/>
-      <c r="E58" s="61"/>
-      <c r="F58" s="61"/>
-      <c r="G58" s="61"/>
-      <c r="H58" s="61"/>
-      <c r="I58" s="61"/>
-      <c r="J58" s="61"/>
-      <c r="K58" s="61"/>
-      <c r="L58" s="61"/>
-      <c r="M58" s="61"/>
-      <c r="N58" s="62"/>
+      <c r="D58" s="67"/>
+      <c r="E58" s="67"/>
+      <c r="F58" s="67"/>
+      <c r="G58" s="67"/>
+      <c r="H58" s="67"/>
+      <c r="I58" s="67"/>
+      <c r="J58" s="67"/>
+      <c r="K58" s="67"/>
+      <c r="L58" s="67"/>
+      <c r="M58" s="67"/>
+      <c r="N58" s="68"/>
       <c r="O58" s="11"/>
       <c r="P58" s="12" t="e">
         <f>AVERAGE(P52:P57)</f>
@@ -3934,25 +3934,25 @@
       <c r="B59" s="1"/>
     </row>
     <row r="60" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A60" s="72" t="s">
+      <c r="A60" s="81" t="s">
         <v>28</v>
       </c>
-      <c r="B60" s="72"/>
-      <c r="C60" s="72"/>
-      <c r="D60" s="72"/>
-      <c r="E60" s="72"/>
-      <c r="F60" s="72"/>
-      <c r="G60" s="72"/>
-      <c r="H60" s="72"/>
-      <c r="I60" s="72"/>
-      <c r="J60" s="72"/>
-      <c r="K60" s="72"/>
-      <c r="L60" s="72"/>
-      <c r="M60" s="72"/>
-      <c r="N60" s="72"/>
-      <c r="O60" s="72"/>
-      <c r="P60" s="72"/>
-      <c r="Q60" s="72"/>
+      <c r="B60" s="81"/>
+      <c r="C60" s="81"/>
+      <c r="D60" s="81"/>
+      <c r="E60" s="81"/>
+      <c r="F60" s="81"/>
+      <c r="G60" s="81"/>
+      <c r="H60" s="81"/>
+      <c r="I60" s="81"/>
+      <c r="J60" s="81"/>
+      <c r="K60" s="81"/>
+      <c r="L60" s="81"/>
+      <c r="M60" s="81"/>
+      <c r="N60" s="81"/>
+      <c r="O60" s="81"/>
+      <c r="P60" s="81"/>
+      <c r="Q60" s="81"/>
       <c r="R60"/>
     </row>
     <row r="61" spans="1:21" x14ac:dyDescent="0.3">
@@ -3960,10 +3960,10 @@
         <v>1</v>
       </c>
       <c r="B61" s="16"/>
-      <c r="C61" s="68" t="s">
+      <c r="C61" s="80" t="s">
         <v>68</v>
       </c>
-      <c r="D61" s="68"/>
+      <c r="D61" s="80"/>
       <c r="E61" s="17" t="s">
         <v>69</v>
       </c>
@@ -4010,10 +4010,10 @@
         <v>1</v>
       </c>
       <c r="B62" s="14"/>
-      <c r="C62" s="57" t="s">
+      <c r="C62" s="63" t="s">
         <v>82</v>
       </c>
-      <c r="D62" s="57"/>
+      <c r="D62" s="63"/>
       <c r="E62" s="25">
         <v>41</v>
       </c>
@@ -4060,10 +4060,10 @@
         <v>2</v>
       </c>
       <c r="B63" s="14"/>
-      <c r="C63" s="57" t="s">
+      <c r="C63" s="63" t="s">
         <v>83</v>
       </c>
-      <c r="D63" s="57"/>
+      <c r="D63" s="63"/>
       <c r="E63" s="25">
         <v>40</v>
       </c>
@@ -4110,10 +4110,10 @@
         <v>3</v>
       </c>
       <c r="B64" s="14"/>
-      <c r="C64" s="57" t="s">
+      <c r="C64" s="63" t="s">
         <v>88</v>
       </c>
-      <c r="D64" s="57"/>
+      <c r="D64" s="63"/>
       <c r="E64" s="25">
         <v>55</v>
       </c>
@@ -4160,10 +4160,10 @@
         <v>4</v>
       </c>
       <c r="B65" s="14"/>
-      <c r="C65" s="57" t="s">
+      <c r="C65" s="63" t="s">
         <v>89</v>
       </c>
-      <c r="D65" s="57"/>
+      <c r="D65" s="63"/>
       <c r="E65" s="25">
         <v>58</v>
       </c>
@@ -4210,10 +4210,10 @@
         <v>5</v>
       </c>
       <c r="B66" s="14"/>
-      <c r="C66" s="57" t="s">
+      <c r="C66" s="63" t="s">
         <v>29</v>
       </c>
-      <c r="D66" s="57"/>
+      <c r="D66" s="63"/>
       <c r="E66" s="25"/>
       <c r="F66" s="26"/>
       <c r="G66" s="27"/>
@@ -4234,10 +4234,10 @@
         <v>6</v>
       </c>
       <c r="B67" s="40"/>
-      <c r="C67" s="54" t="s">
+      <c r="C67" s="90" t="s">
         <v>30</v>
       </c>
-      <c r="D67" s="55"/>
+      <c r="D67" s="91"/>
       <c r="E67" s="25"/>
       <c r="F67" s="26"/>
       <c r="G67" s="27"/>
@@ -4258,10 +4258,10 @@
         <v>7</v>
       </c>
       <c r="B68" s="14"/>
-      <c r="C68" s="57" t="s">
+      <c r="C68" s="63" t="s">
         <v>31</v>
       </c>
-      <c r="D68" s="57"/>
+      <c r="D68" s="63"/>
       <c r="E68" s="25"/>
       <c r="F68" s="26"/>
       <c r="G68" s="27"/>
@@ -4282,10 +4282,10 @@
         <v>8</v>
       </c>
       <c r="B69" s="40"/>
-      <c r="C69" s="54" t="s">
+      <c r="C69" s="90" t="s">
         <v>32</v>
       </c>
-      <c r="D69" s="55"/>
+      <c r="D69" s="91"/>
       <c r="E69" s="25"/>
       <c r="F69" s="26"/>
       <c r="G69" s="27"/>
@@ -4304,10 +4304,10 @@
     <row r="70" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A70" s="14"/>
       <c r="B70" s="14"/>
-      <c r="C70" s="58" t="s">
+      <c r="C70" s="74" t="s">
         <v>98</v>
       </c>
-      <c r="D70" s="58"/>
+      <c r="D70" s="74"/>
       <c r="E70" s="25">
         <f t="shared" ref="E70:O70" si="1">AVERAGE(E62:E69)</f>
         <v>48.5</v>
@@ -4363,25 +4363,25 @@
       <c r="R72"/>
     </row>
     <row r="73" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A73" s="75" t="s">
+      <c r="A73" s="79" t="s">
         <v>99</v>
       </c>
-      <c r="B73" s="75"/>
-      <c r="C73" s="75"/>
-      <c r="D73" s="75"/>
-      <c r="E73" s="75"/>
-      <c r="F73" s="75"/>
-      <c r="G73" s="75"/>
-      <c r="H73" s="75"/>
-      <c r="I73" s="75"/>
-      <c r="J73" s="75"/>
-      <c r="K73" s="75"/>
-      <c r="L73" s="75"/>
-      <c r="M73" s="75"/>
-      <c r="N73" s="75"/>
-      <c r="O73" s="75"/>
-      <c r="P73" s="75"/>
-      <c r="Q73" s="75"/>
+      <c r="B73" s="79"/>
+      <c r="C73" s="79"/>
+      <c r="D73" s="79"/>
+      <c r="E73" s="79"/>
+      <c r="F73" s="79"/>
+      <c r="G73" s="79"/>
+      <c r="H73" s="79"/>
+      <c r="I73" s="79"/>
+      <c r="J73" s="79"/>
+      <c r="K73" s="79"/>
+      <c r="L73" s="79"/>
+      <c r="M73" s="79"/>
+      <c r="N73" s="79"/>
+      <c r="O73" s="79"/>
+      <c r="P73" s="79"/>
+      <c r="Q73" s="79"/>
       <c r="R73"/>
     </row>
     <row r="74" spans="1:18" x14ac:dyDescent="0.3">
@@ -4389,10 +4389,10 @@
         <v>1</v>
       </c>
       <c r="B74" s="16"/>
-      <c r="C74" s="68" t="s">
+      <c r="C74" s="80" t="s">
         <v>68</v>
       </c>
-      <c r="D74" s="68"/>
+      <c r="D74" s="80"/>
       <c r="E74" s="17" t="s">
         <v>69</v>
       </c>
@@ -4439,10 +4439,10 @@
         <v>1</v>
       </c>
       <c r="B75" s="14"/>
-      <c r="C75" s="57" t="s">
+      <c r="C75" s="63" t="s">
         <v>101</v>
       </c>
-      <c r="D75" s="57"/>
+      <c r="D75" s="63"/>
       <c r="E75" s="25"/>
       <c r="F75" s="26"/>
       <c r="G75" s="27"/>
@@ -4463,10 +4463,10 @@
         <v>2</v>
       </c>
       <c r="B76" s="14"/>
-      <c r="C76" s="57" t="s">
+      <c r="C76" s="63" t="s">
         <v>102</v>
       </c>
-      <c r="D76" s="57"/>
+      <c r="D76" s="63"/>
       <c r="E76" s="25"/>
       <c r="F76" s="26"/>
       <c r="G76" s="27"/>
@@ -4487,10 +4487,10 @@
         <v>3</v>
       </c>
       <c r="B77" s="14"/>
-      <c r="C77" s="57" t="s">
+      <c r="C77" s="63" t="s">
         <v>103</v>
       </c>
-      <c r="D77" s="57"/>
+      <c r="D77" s="63"/>
       <c r="E77" s="25"/>
       <c r="F77" s="26"/>
       <c r="G77" s="27"/>
@@ -4510,10 +4510,10 @@
         <v>4</v>
       </c>
       <c r="B78" s="14"/>
-      <c r="C78" s="57" t="s">
+      <c r="C78" s="63" t="s">
         <v>104</v>
       </c>
-      <c r="D78" s="57"/>
+      <c r="D78" s="63"/>
       <c r="E78" s="25"/>
       <c r="F78" s="26"/>
       <c r="G78" s="27"/>
@@ -4533,8 +4533,8 @@
         <v>5</v>
       </c>
       <c r="B79" s="14"/>
-      <c r="C79" s="79"/>
-      <c r="D79" s="79"/>
+      <c r="C79" s="89"/>
+      <c r="D79" s="89"/>
       <c r="E79" s="25"/>
       <c r="F79" s="26"/>
       <c r="G79" s="27"/>
@@ -4554,8 +4554,8 @@
         <v>6</v>
       </c>
       <c r="B80" s="14"/>
-      <c r="C80" s="79"/>
-      <c r="D80" s="79"/>
+      <c r="C80" s="89"/>
+      <c r="D80" s="89"/>
       <c r="E80" s="25"/>
       <c r="F80" s="26"/>
       <c r="G80" s="27"/>
@@ -4573,10 +4573,10 @@
     <row r="81" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A81" s="14"/>
       <c r="B81" s="14"/>
-      <c r="C81" s="58" t="s">
+      <c r="C81" s="74" t="s">
         <v>98</v>
       </c>
-      <c r="D81" s="58"/>
+      <c r="D81" s="74"/>
       <c r="E81" s="25" t="e">
         <f t="shared" ref="E81:K81" si="2">AVERAGE(E75:E80)</f>
         <v>#DIV/0!</v>
@@ -4625,103 +4625,103 @@
       <c r="Q81" s="29"/>
     </row>
     <row r="84" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A84" s="59">
+      <c r="A84" s="75">
         <v>2022</v>
       </c>
-      <c r="B84" s="59"/>
-      <c r="C84" s="59"/>
-      <c r="D84" s="59"/>
-      <c r="E84" s="59"/>
-      <c r="F84" s="59"/>
-      <c r="G84" s="59"/>
-      <c r="H84" s="59"/>
-      <c r="I84" s="59"/>
-      <c r="J84" s="59"/>
-      <c r="K84" s="59"/>
-      <c r="L84" s="59"/>
-      <c r="M84" s="59"/>
-      <c r="N84" s="59"/>
-      <c r="O84" s="59"/>
-      <c r="P84" s="59"/>
-      <c r="Q84" s="59"/>
-      <c r="R84" s="59"/>
-      <c r="S84" s="59"/>
-      <c r="T84" s="59"/>
-      <c r="U84" s="59"/>
-      <c r="V84" s="59"/>
-      <c r="W84" s="59"/>
+      <c r="B84" s="75"/>
+      <c r="C84" s="75"/>
+      <c r="D84" s="75"/>
+      <c r="E84" s="75"/>
+      <c r="F84" s="75"/>
+      <c r="G84" s="75"/>
+      <c r="H84" s="75"/>
+      <c r="I84" s="75"/>
+      <c r="J84" s="75"/>
+      <c r="K84" s="75"/>
+      <c r="L84" s="75"/>
+      <c r="M84" s="75"/>
+      <c r="N84" s="75"/>
+      <c r="O84" s="75"/>
+      <c r="P84" s="75"/>
+      <c r="Q84" s="75"/>
+      <c r="R84" s="75"/>
+      <c r="S84" s="75"/>
+      <c r="T84" s="75"/>
+      <c r="U84" s="75"/>
+      <c r="V84" s="75"/>
+      <c r="W84" s="75"/>
     </row>
     <row r="85" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A85" s="59"/>
-      <c r="B85" s="59"/>
-      <c r="C85" s="59"/>
-      <c r="D85" s="59"/>
-      <c r="E85" s="59"/>
-      <c r="F85" s="59"/>
-      <c r="G85" s="59"/>
-      <c r="H85" s="59"/>
-      <c r="I85" s="59"/>
-      <c r="J85" s="59"/>
-      <c r="K85" s="59"/>
-      <c r="L85" s="59"/>
-      <c r="M85" s="59"/>
-      <c r="N85" s="59"/>
-      <c r="O85" s="59"/>
-      <c r="P85" s="59"/>
-      <c r="Q85" s="59"/>
-      <c r="R85" s="59"/>
-      <c r="S85" s="59"/>
-      <c r="T85" s="59"/>
-      <c r="U85" s="59"/>
-      <c r="V85" s="59"/>
-      <c r="W85" s="59"/>
+      <c r="A85" s="75"/>
+      <c r="B85" s="75"/>
+      <c r="C85" s="75"/>
+      <c r="D85" s="75"/>
+      <c r="E85" s="75"/>
+      <c r="F85" s="75"/>
+      <c r="G85" s="75"/>
+      <c r="H85" s="75"/>
+      <c r="I85" s="75"/>
+      <c r="J85" s="75"/>
+      <c r="K85" s="75"/>
+      <c r="L85" s="75"/>
+      <c r="M85" s="75"/>
+      <c r="N85" s="75"/>
+      <c r="O85" s="75"/>
+      <c r="P85" s="75"/>
+      <c r="Q85" s="75"/>
+      <c r="R85" s="75"/>
+      <c r="S85" s="75"/>
+      <c r="T85" s="75"/>
+      <c r="U85" s="75"/>
+      <c r="V85" s="75"/>
+      <c r="W85" s="75"/>
     </row>
     <row r="86" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A86" s="59"/>
-      <c r="B86" s="59"/>
-      <c r="C86" s="59"/>
-      <c r="D86" s="59"/>
-      <c r="E86" s="59"/>
-      <c r="F86" s="59"/>
-      <c r="G86" s="59"/>
-      <c r="H86" s="59"/>
-      <c r="I86" s="59"/>
-      <c r="J86" s="59"/>
-      <c r="K86" s="59"/>
-      <c r="L86" s="59"/>
-      <c r="M86" s="59"/>
-      <c r="N86" s="59"/>
-      <c r="O86" s="59"/>
-      <c r="P86" s="59"/>
-      <c r="Q86" s="59"/>
-      <c r="R86" s="59"/>
-      <c r="S86" s="59"/>
-      <c r="T86" s="59"/>
-      <c r="U86" s="59"/>
-      <c r="V86" s="59"/>
-      <c r="W86" s="59"/>
+      <c r="A86" s="75"/>
+      <c r="B86" s="75"/>
+      <c r="C86" s="75"/>
+      <c r="D86" s="75"/>
+      <c r="E86" s="75"/>
+      <c r="F86" s="75"/>
+      <c r="G86" s="75"/>
+      <c r="H86" s="75"/>
+      <c r="I86" s="75"/>
+      <c r="J86" s="75"/>
+      <c r="K86" s="75"/>
+      <c r="L86" s="75"/>
+      <c r="M86" s="75"/>
+      <c r="N86" s="75"/>
+      <c r="O86" s="75"/>
+      <c r="P86" s="75"/>
+      <c r="Q86" s="75"/>
+      <c r="R86" s="75"/>
+      <c r="S86" s="75"/>
+      <c r="T86" s="75"/>
+      <c r="U86" s="75"/>
+      <c r="V86" s="75"/>
+      <c r="W86" s="75"/>
     </row>
     <row r="87" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A87" s="69" t="s">
+      <c r="A87" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="B87" s="70"/>
-      <c r="C87" s="70"/>
-      <c r="D87" s="70"/>
-      <c r="E87" s="70"/>
-      <c r="F87" s="70"/>
-      <c r="G87" s="70"/>
-      <c r="H87" s="70"/>
-      <c r="I87" s="70"/>
-      <c r="J87" s="70"/>
-      <c r="K87" s="70"/>
-      <c r="L87" s="70"/>
-      <c r="M87" s="70"/>
-      <c r="N87" s="70"/>
-      <c r="O87" s="70"/>
-      <c r="P87" s="70"/>
-      <c r="Q87" s="70"/>
-      <c r="R87" s="71"/>
+      <c r="B87" s="77"/>
+      <c r="C87" s="77"/>
+      <c r="D87" s="77"/>
+      <c r="E87" s="77"/>
+      <c r="F87" s="77"/>
+      <c r="G87" s="77"/>
+      <c r="H87" s="77"/>
+      <c r="I87" s="77"/>
+      <c r="J87" s="77"/>
+      <c r="K87" s="77"/>
+      <c r="L87" s="77"/>
+      <c r="M87" s="77"/>
+      <c r="N87" s="77"/>
+      <c r="O87" s="77"/>
+      <c r="P87" s="77"/>
+      <c r="Q87" s="77"/>
+      <c r="R87" s="78"/>
       <c r="S87" s="38"/>
       <c r="T87" s="38"/>
       <c r="U87" s="38"/>
@@ -4732,17 +4732,17 @@
         <v>1</v>
       </c>
       <c r="B89" s="5"/>
-      <c r="C89" s="73" t="s">
+      <c r="C89" s="72" t="s">
         <v>56</v>
       </c>
-      <c r="D89" s="73"/>
-      <c r="E89" s="73"/>
-      <c r="F89" s="73"/>
-      <c r="G89" s="73"/>
-      <c r="H89" s="73"/>
-      <c r="I89" s="73"/>
-      <c r="J89" s="73"/>
-      <c r="K89" s="73"/>
+      <c r="D89" s="72"/>
+      <c r="E89" s="72"/>
+      <c r="F89" s="72"/>
+      <c r="G89" s="72"/>
+      <c r="H89" s="72"/>
+      <c r="I89" s="72"/>
+      <c r="J89" s="72"/>
+      <c r="K89" s="72"/>
       <c r="L89" s="5" t="s">
         <v>2</v>
       </c>
@@ -4780,17 +4780,17 @@
         <v>1</v>
       </c>
       <c r="B90" s="1"/>
-      <c r="C90" s="74" t="s">
+      <c r="C90" s="73" t="s">
         <v>5</v>
       </c>
-      <c r="D90" s="74"/>
-      <c r="E90" s="74"/>
-      <c r="F90" s="74"/>
-      <c r="G90" s="74"/>
-      <c r="H90" s="74"/>
-      <c r="I90" s="74"/>
-      <c r="J90" s="74"/>
-      <c r="K90" s="74"/>
+      <c r="D90" s="73"/>
+      <c r="E90" s="73"/>
+      <c r="F90" s="73"/>
+      <c r="G90" s="73"/>
+      <c r="H90" s="73"/>
+      <c r="I90" s="73"/>
+      <c r="J90" s="73"/>
+      <c r="K90" s="73"/>
       <c r="L90" s="6">
         <v>17</v>
       </c>
@@ -4826,17 +4826,17 @@
         <v>2</v>
       </c>
       <c r="B91" s="1"/>
-      <c r="C91" s="66" t="s">
+      <c r="C91" s="64" t="s">
         <v>33</v>
       </c>
-      <c r="D91" s="67"/>
-      <c r="E91" s="67"/>
-      <c r="F91" s="67"/>
-      <c r="G91" s="67"/>
-      <c r="H91" s="67"/>
-      <c r="I91" s="67"/>
-      <c r="J91" s="67"/>
-      <c r="K91" s="67"/>
+      <c r="D91" s="65"/>
+      <c r="E91" s="65"/>
+      <c r="F91" s="65"/>
+      <c r="G91" s="65"/>
+      <c r="H91" s="65"/>
+      <c r="I91" s="65"/>
+      <c r="J91" s="65"/>
+      <c r="K91" s="65"/>
       <c r="L91" s="6">
         <v>17</v>
       </c>
@@ -4872,17 +4872,17 @@
         <v>3</v>
       </c>
       <c r="B92" s="1"/>
-      <c r="C92" s="66" t="s">
+      <c r="C92" s="64" t="s">
         <v>34</v>
       </c>
-      <c r="D92" s="67"/>
-      <c r="E92" s="67"/>
-      <c r="F92" s="67"/>
-      <c r="G92" s="67"/>
-      <c r="H92" s="67"/>
-      <c r="I92" s="67"/>
-      <c r="J92" s="67"/>
-      <c r="K92" s="67"/>
+      <c r="D92" s="65"/>
+      <c r="E92" s="65"/>
+      <c r="F92" s="65"/>
+      <c r="G92" s="65"/>
+      <c r="H92" s="65"/>
+      <c r="I92" s="65"/>
+      <c r="J92" s="65"/>
+      <c r="K92" s="65"/>
       <c r="L92" s="6">
         <v>17</v>
       </c>
@@ -4918,17 +4918,17 @@
         <v>4</v>
       </c>
       <c r="B93" s="1"/>
-      <c r="C93" s="67" t="s">
+      <c r="C93" s="65" t="s">
         <v>35</v>
       </c>
-      <c r="D93" s="67"/>
-      <c r="E93" s="67"/>
-      <c r="F93" s="67"/>
-      <c r="G93" s="67"/>
-      <c r="H93" s="67"/>
-      <c r="I93" s="67"/>
-      <c r="J93" s="67"/>
-      <c r="K93" s="67"/>
+      <c r="D93" s="65"/>
+      <c r="E93" s="65"/>
+      <c r="F93" s="65"/>
+      <c r="G93" s="65"/>
+      <c r="H93" s="65"/>
+      <c r="I93" s="65"/>
+      <c r="J93" s="65"/>
+      <c r="K93" s="65"/>
       <c r="L93" s="6">
         <v>17</v>
       </c>
@@ -4964,17 +4964,17 @@
         <v>5</v>
       </c>
       <c r="B94" s="1"/>
-      <c r="C94" s="66" t="s">
+      <c r="C94" s="64" t="s">
         <v>36</v>
       </c>
-      <c r="D94" s="67"/>
-      <c r="E94" s="67"/>
-      <c r="F94" s="67"/>
-      <c r="G94" s="67"/>
-      <c r="H94" s="67"/>
-      <c r="I94" s="67"/>
-      <c r="J94" s="67"/>
-      <c r="K94" s="67"/>
+      <c r="D94" s="65"/>
+      <c r="E94" s="65"/>
+      <c r="F94" s="65"/>
+      <c r="G94" s="65"/>
+      <c r="H94" s="65"/>
+      <c r="I94" s="65"/>
+      <c r="J94" s="65"/>
+      <c r="K94" s="65"/>
       <c r="L94" s="6">
         <v>17</v>
       </c>
@@ -5010,17 +5010,17 @@
         <v>6</v>
       </c>
       <c r="B95" s="1"/>
-      <c r="C95" s="66" t="s">
+      <c r="C95" s="64" t="s">
         <v>37</v>
       </c>
-      <c r="D95" s="67"/>
-      <c r="E95" s="67"/>
-      <c r="F95" s="67"/>
-      <c r="G95" s="67"/>
-      <c r="H95" s="67"/>
-      <c r="I95" s="67"/>
-      <c r="J95" s="67"/>
-      <c r="K95" s="67"/>
+      <c r="D95" s="65"/>
+      <c r="E95" s="65"/>
+      <c r="F95" s="65"/>
+      <c r="G95" s="65"/>
+      <c r="H95" s="65"/>
+      <c r="I95" s="65"/>
+      <c r="J95" s="65"/>
+      <c r="K95" s="65"/>
       <c r="L95" s="6">
         <v>17</v>
       </c>
@@ -5056,17 +5056,17 @@
         <v>7</v>
       </c>
       <c r="B96" s="1"/>
-      <c r="C96" s="67" t="s">
+      <c r="C96" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="D96" s="67"/>
-      <c r="E96" s="67"/>
-      <c r="F96" s="67"/>
-      <c r="G96" s="67"/>
-      <c r="H96" s="67"/>
-      <c r="I96" s="67"/>
-      <c r="J96" s="67"/>
-      <c r="K96" s="67"/>
+      <c r="D96" s="65"/>
+      <c r="E96" s="65"/>
+      <c r="F96" s="65"/>
+      <c r="G96" s="65"/>
+      <c r="H96" s="65"/>
+      <c r="I96" s="65"/>
+      <c r="J96" s="65"/>
+      <c r="K96" s="65"/>
       <c r="L96" s="6">
         <v>17</v>
       </c>
@@ -5102,17 +5102,17 @@
         <v>8</v>
       </c>
       <c r="B97" s="1"/>
-      <c r="C97" s="66" t="s">
+      <c r="C97" s="64" t="s">
         <v>38</v>
       </c>
-      <c r="D97" s="67"/>
-      <c r="E97" s="67"/>
-      <c r="F97" s="67"/>
-      <c r="G97" s="67"/>
-      <c r="H97" s="67"/>
-      <c r="I97" s="67"/>
-      <c r="J97" s="67"/>
-      <c r="K97" s="67"/>
+      <c r="D97" s="65"/>
+      <c r="E97" s="65"/>
+      <c r="F97" s="65"/>
+      <c r="G97" s="65"/>
+      <c r="H97" s="65"/>
+      <c r="I97" s="65"/>
+      <c r="J97" s="65"/>
+      <c r="K97" s="65"/>
       <c r="L97" s="6">
         <v>17</v>
       </c>
@@ -5135,17 +5135,17 @@
         <v>9</v>
       </c>
       <c r="B98" s="1"/>
-      <c r="C98" s="66" t="s">
+      <c r="C98" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="D98" s="67"/>
-      <c r="E98" s="67"/>
-      <c r="F98" s="67"/>
-      <c r="G98" s="67"/>
-      <c r="H98" s="67"/>
-      <c r="I98" s="67"/>
-      <c r="J98" s="67"/>
-      <c r="K98" s="67"/>
+      <c r="D98" s="65"/>
+      <c r="E98" s="65"/>
+      <c r="F98" s="65"/>
+      <c r="G98" s="65"/>
+      <c r="H98" s="65"/>
+      <c r="I98" s="65"/>
+      <c r="J98" s="65"/>
+      <c r="K98" s="65"/>
       <c r="L98" s="6">
         <v>17</v>
       </c>
@@ -5168,17 +5168,17 @@
         <v>10</v>
       </c>
       <c r="B99" s="1"/>
-      <c r="C99" s="66" t="s">
+      <c r="C99" s="64" t="s">
         <v>40</v>
       </c>
-      <c r="D99" s="67"/>
-      <c r="E99" s="67"/>
-      <c r="F99" s="67"/>
-      <c r="G99" s="67"/>
-      <c r="H99" s="67"/>
-      <c r="I99" s="67"/>
-      <c r="J99" s="67"/>
-      <c r="K99" s="67"/>
+      <c r="D99" s="65"/>
+      <c r="E99" s="65"/>
+      <c r="F99" s="65"/>
+      <c r="G99" s="65"/>
+      <c r="H99" s="65"/>
+      <c r="I99" s="65"/>
+      <c r="J99" s="65"/>
+      <c r="K99" s="65"/>
       <c r="L99" s="6">
         <v>17</v>
       </c>
@@ -5214,17 +5214,17 @@
         <v>11</v>
       </c>
       <c r="B100" s="1"/>
-      <c r="C100" s="66" t="s">
+      <c r="C100" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="D100" s="67"/>
-      <c r="E100" s="67"/>
-      <c r="F100" s="67"/>
-      <c r="G100" s="67"/>
-      <c r="H100" s="67"/>
-      <c r="I100" s="67"/>
-      <c r="J100" s="67"/>
-      <c r="K100" s="67"/>
+      <c r="D100" s="65"/>
+      <c r="E100" s="65"/>
+      <c r="F100" s="65"/>
+      <c r="G100" s="65"/>
+      <c r="H100" s="65"/>
+      <c r="I100" s="65"/>
+      <c r="J100" s="65"/>
+      <c r="K100" s="65"/>
       <c r="L100" s="6">
         <v>17</v>
       </c>
@@ -5247,17 +5247,17 @@
         <v>12</v>
       </c>
       <c r="B101" s="1"/>
-      <c r="C101" s="66" t="s">
+      <c r="C101" s="64" t="s">
         <v>42</v>
       </c>
-      <c r="D101" s="67"/>
-      <c r="E101" s="67"/>
-      <c r="F101" s="67"/>
-      <c r="G101" s="67"/>
-      <c r="H101" s="67"/>
-      <c r="I101" s="67"/>
-      <c r="J101" s="67"/>
-      <c r="K101" s="67"/>
+      <c r="D101" s="65"/>
+      <c r="E101" s="65"/>
+      <c r="F101" s="65"/>
+      <c r="G101" s="65"/>
+      <c r="H101" s="65"/>
+      <c r="I101" s="65"/>
+      <c r="J101" s="65"/>
+      <c r="K101" s="65"/>
       <c r="L101" s="6">
         <v>17</v>
       </c>
@@ -5280,17 +5280,17 @@
         <v>13</v>
       </c>
       <c r="B102" s="1"/>
-      <c r="C102" s="67" t="s">
+      <c r="C102" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="D102" s="67"/>
-      <c r="E102" s="67"/>
-      <c r="F102" s="67"/>
-      <c r="G102" s="67"/>
-      <c r="H102" s="67"/>
-      <c r="I102" s="67"/>
-      <c r="J102" s="67"/>
-      <c r="K102" s="67"/>
+      <c r="D102" s="65"/>
+      <c r="E102" s="65"/>
+      <c r="F102" s="65"/>
+      <c r="G102" s="65"/>
+      <c r="H102" s="65"/>
+      <c r="I102" s="65"/>
+      <c r="J102" s="65"/>
+      <c r="K102" s="65"/>
       <c r="L102" s="6">
         <v>17</v>
       </c>
@@ -5326,17 +5326,17 @@
         <v>14</v>
       </c>
       <c r="B103" s="1"/>
-      <c r="C103" s="66" t="s">
+      <c r="C103" s="64" t="s">
         <v>43</v>
       </c>
-      <c r="D103" s="67"/>
-      <c r="E103" s="67"/>
-      <c r="F103" s="67"/>
-      <c r="G103" s="67"/>
-      <c r="H103" s="67"/>
-      <c r="I103" s="67"/>
-      <c r="J103" s="67"/>
-      <c r="K103" s="67"/>
+      <c r="D103" s="65"/>
+      <c r="E103" s="65"/>
+      <c r="F103" s="65"/>
+      <c r="G103" s="65"/>
+      <c r="H103" s="65"/>
+      <c r="I103" s="65"/>
+      <c r="J103" s="65"/>
+      <c r="K103" s="65"/>
       <c r="L103" s="6">
         <v>17</v>
       </c>
@@ -5372,17 +5372,17 @@
         <v>15</v>
       </c>
       <c r="B104" s="1"/>
-      <c r="C104" s="67" t="s">
+      <c r="C104" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="D104" s="67"/>
-      <c r="E104" s="67"/>
-      <c r="F104" s="67"/>
-      <c r="G104" s="67"/>
-      <c r="H104" s="67"/>
-      <c r="I104" s="67"/>
-      <c r="J104" s="67"/>
-      <c r="K104" s="67"/>
+      <c r="D104" s="65"/>
+      <c r="E104" s="65"/>
+      <c r="F104" s="65"/>
+      <c r="G104" s="65"/>
+      <c r="H104" s="65"/>
+      <c r="I104" s="65"/>
+      <c r="J104" s="65"/>
+      <c r="K104" s="65"/>
       <c r="L104" s="6">
         <v>17</v>
       </c>
@@ -5418,17 +5418,17 @@
         <v>16</v>
       </c>
       <c r="B105" s="1"/>
-      <c r="C105" s="67" t="s">
+      <c r="C105" s="65" t="s">
         <v>44</v>
       </c>
-      <c r="D105" s="67"/>
-      <c r="E105" s="67"/>
-      <c r="F105" s="67"/>
-      <c r="G105" s="67"/>
-      <c r="H105" s="67"/>
-      <c r="I105" s="67"/>
-      <c r="J105" s="67"/>
-      <c r="K105" s="67"/>
+      <c r="D105" s="65"/>
+      <c r="E105" s="65"/>
+      <c r="F105" s="65"/>
+      <c r="G105" s="65"/>
+      <c r="H105" s="65"/>
+      <c r="I105" s="65"/>
+      <c r="J105" s="65"/>
+      <c r="K105" s="65"/>
       <c r="L105" s="6">
         <v>17</v>
       </c>
@@ -5451,17 +5451,17 @@
         <v>17</v>
       </c>
       <c r="B106" s="1"/>
-      <c r="C106" s="66" t="s">
+      <c r="C106" s="64" t="s">
         <v>45</v>
       </c>
-      <c r="D106" s="67"/>
-      <c r="E106" s="67"/>
-      <c r="F106" s="67"/>
-      <c r="G106" s="67"/>
-      <c r="H106" s="67"/>
-      <c r="I106" s="67"/>
-      <c r="J106" s="67"/>
-      <c r="K106" s="67"/>
+      <c r="D106" s="65"/>
+      <c r="E106" s="65"/>
+      <c r="F106" s="65"/>
+      <c r="G106" s="65"/>
+      <c r="H106" s="65"/>
+      <c r="I106" s="65"/>
+      <c r="J106" s="65"/>
+      <c r="K106" s="65"/>
       <c r="L106" s="6">
         <v>17</v>
       </c>
@@ -5497,17 +5497,17 @@
         <v>18</v>
       </c>
       <c r="B107" s="1"/>
-      <c r="C107" s="66" t="s">
+      <c r="C107" s="64" t="s">
         <v>46</v>
       </c>
-      <c r="D107" s="67"/>
-      <c r="E107" s="67"/>
-      <c r="F107" s="67"/>
-      <c r="G107" s="67"/>
-      <c r="H107" s="67"/>
-      <c r="I107" s="67"/>
-      <c r="J107" s="67"/>
-      <c r="K107" s="67"/>
+      <c r="D107" s="65"/>
+      <c r="E107" s="65"/>
+      <c r="F107" s="65"/>
+      <c r="G107" s="65"/>
+      <c r="H107" s="65"/>
+      <c r="I107" s="65"/>
+      <c r="J107" s="65"/>
+      <c r="K107" s="65"/>
       <c r="L107" s="6">
         <v>17</v>
       </c>
@@ -5530,17 +5530,17 @@
         <v>19</v>
       </c>
       <c r="B108" s="1"/>
-      <c r="C108" s="67" t="s">
+      <c r="C108" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="D108" s="67"/>
-      <c r="E108" s="67"/>
-      <c r="F108" s="67"/>
-      <c r="G108" s="67"/>
-      <c r="H108" s="67"/>
-      <c r="I108" s="67"/>
-      <c r="J108" s="67"/>
-      <c r="K108" s="67"/>
+      <c r="D108" s="65"/>
+      <c r="E108" s="65"/>
+      <c r="F108" s="65"/>
+      <c r="G108" s="65"/>
+      <c r="H108" s="65"/>
+      <c r="I108" s="65"/>
+      <c r="J108" s="65"/>
+      <c r="K108" s="65"/>
       <c r="L108" s="6">
         <v>17</v>
       </c>
@@ -5576,17 +5576,17 @@
         <v>20</v>
       </c>
       <c r="B109" s="1"/>
-      <c r="C109" s="67" t="s">
+      <c r="C109" s="65" t="s">
         <v>47</v>
       </c>
-      <c r="D109" s="67"/>
-      <c r="E109" s="67"/>
-      <c r="F109" s="67"/>
-      <c r="G109" s="67"/>
-      <c r="H109" s="67"/>
-      <c r="I109" s="67"/>
-      <c r="J109" s="67"/>
-      <c r="K109" s="67"/>
+      <c r="D109" s="65"/>
+      <c r="E109" s="65"/>
+      <c r="F109" s="65"/>
+      <c r="G109" s="65"/>
+      <c r="H109" s="65"/>
+      <c r="I109" s="65"/>
+      <c r="J109" s="65"/>
+      <c r="K109" s="65"/>
       <c r="L109" s="6">
         <v>17</v>
       </c>
@@ -5622,17 +5622,17 @@
         <v>21</v>
       </c>
       <c r="B110" s="1"/>
-      <c r="C110" s="67" t="s">
+      <c r="C110" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="D110" s="67"/>
-      <c r="E110" s="67"/>
-      <c r="F110" s="67"/>
-      <c r="G110" s="67"/>
-      <c r="H110" s="67"/>
-      <c r="I110" s="67"/>
-      <c r="J110" s="67"/>
-      <c r="K110" s="67"/>
+      <c r="D110" s="65"/>
+      <c r="E110" s="65"/>
+      <c r="F110" s="65"/>
+      <c r="G110" s="65"/>
+      <c r="H110" s="65"/>
+      <c r="I110" s="65"/>
+      <c r="J110" s="65"/>
+      <c r="K110" s="65"/>
       <c r="L110" s="6">
         <v>17</v>
       </c>
@@ -5668,17 +5668,17 @@
         <v>22</v>
       </c>
       <c r="B111" s="1"/>
-      <c r="C111" s="66" t="s">
+      <c r="C111" s="64" t="s">
         <v>48</v>
       </c>
-      <c r="D111" s="67"/>
-      <c r="E111" s="67"/>
-      <c r="F111" s="67"/>
-      <c r="G111" s="67"/>
-      <c r="H111" s="67"/>
-      <c r="I111" s="67"/>
-      <c r="J111" s="67"/>
-      <c r="K111" s="67"/>
+      <c r="D111" s="65"/>
+      <c r="E111" s="65"/>
+      <c r="F111" s="65"/>
+      <c r="G111" s="65"/>
+      <c r="H111" s="65"/>
+      <c r="I111" s="65"/>
+      <c r="J111" s="65"/>
+      <c r="K111" s="65"/>
       <c r="L111" s="6">
         <v>17</v>
       </c>
@@ -5714,17 +5714,17 @@
         <v>23</v>
       </c>
       <c r="B112" s="1"/>
-      <c r="C112" s="67" t="s">
+      <c r="C112" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="D112" s="67"/>
-      <c r="E112" s="67"/>
-      <c r="F112" s="67"/>
-      <c r="G112" s="67"/>
-      <c r="H112" s="67"/>
-      <c r="I112" s="67"/>
-      <c r="J112" s="67"/>
-      <c r="K112" s="67"/>
+      <c r="D112" s="65"/>
+      <c r="E112" s="65"/>
+      <c r="F112" s="65"/>
+      <c r="G112" s="65"/>
+      <c r="H112" s="65"/>
+      <c r="I112" s="65"/>
+      <c r="J112" s="65"/>
+      <c r="K112" s="65"/>
       <c r="L112" s="6">
         <v>17</v>
       </c>
@@ -5747,17 +5747,17 @@
         <v>24</v>
       </c>
       <c r="B113" s="1"/>
-      <c r="C113" s="66" t="s">
+      <c r="C113" s="64" t="s">
         <v>49</v>
       </c>
-      <c r="D113" s="67"/>
-      <c r="E113" s="67"/>
-      <c r="F113" s="67"/>
-      <c r="G113" s="67"/>
-      <c r="H113" s="67"/>
-      <c r="I113" s="67"/>
-      <c r="J113" s="67"/>
-      <c r="K113" s="67"/>
+      <c r="D113" s="65"/>
+      <c r="E113" s="65"/>
+      <c r="F113" s="65"/>
+      <c r="G113" s="65"/>
+      <c r="H113" s="65"/>
+      <c r="I113" s="65"/>
+      <c r="J113" s="65"/>
+      <c r="K113" s="65"/>
       <c r="L113" s="6">
         <v>17</v>
       </c>
@@ -5780,20 +5780,20 @@
         <v>25</v>
       </c>
       <c r="B114" s="8"/>
-      <c r="C114" s="60" t="s">
+      <c r="C114" s="66" t="s">
         <v>58</v>
       </c>
-      <c r="D114" s="61"/>
-      <c r="E114" s="61"/>
-      <c r="F114" s="61"/>
-      <c r="G114" s="61"/>
-      <c r="H114" s="61"/>
-      <c r="I114" s="61"/>
-      <c r="J114" s="61"/>
-      <c r="K114" s="61"/>
-      <c r="L114" s="61"/>
-      <c r="M114" s="61"/>
-      <c r="N114" s="62"/>
+      <c r="D114" s="67"/>
+      <c r="E114" s="67"/>
+      <c r="F114" s="67"/>
+      <c r="G114" s="67"/>
+      <c r="H114" s="67"/>
+      <c r="I114" s="67"/>
+      <c r="J114" s="67"/>
+      <c r="K114" s="67"/>
+      <c r="L114" s="67"/>
+      <c r="M114" s="67"/>
+      <c r="N114" s="68"/>
       <c r="O114" s="11"/>
       <c r="P114" s="12">
         <f>AVERAGE(P90:P113)</f>
@@ -5814,26 +5814,26 @@
     </row>
     <row r="116" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="117" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A117" s="76" t="s">
+      <c r="A117" s="82" t="s">
         <v>13</v>
       </c>
-      <c r="B117" s="77"/>
-      <c r="C117" s="77"/>
-      <c r="D117" s="77"/>
-      <c r="E117" s="77"/>
-      <c r="F117" s="77"/>
-      <c r="G117" s="77"/>
-      <c r="H117" s="77"/>
-      <c r="I117" s="77"/>
-      <c r="J117" s="77"/>
-      <c r="K117" s="77"/>
-      <c r="L117" s="77"/>
-      <c r="M117" s="77"/>
-      <c r="N117" s="77"/>
-      <c r="O117" s="77"/>
-      <c r="P117" s="77"/>
-      <c r="Q117" s="77"/>
-      <c r="R117" s="78"/>
+      <c r="B117" s="83"/>
+      <c r="C117" s="83"/>
+      <c r="D117" s="83"/>
+      <c r="E117" s="83"/>
+      <c r="F117" s="83"/>
+      <c r="G117" s="83"/>
+      <c r="H117" s="83"/>
+      <c r="I117" s="83"/>
+      <c r="J117" s="83"/>
+      <c r="K117" s="83"/>
+      <c r="L117" s="83"/>
+      <c r="M117" s="83"/>
+      <c r="N117" s="83"/>
+      <c r="O117" s="83"/>
+      <c r="P117" s="83"/>
+      <c r="Q117" s="83"/>
+      <c r="R117" s="84"/>
       <c r="S117" s="15"/>
       <c r="T117" s="15"/>
       <c r="U117" s="15"/>
@@ -5843,17 +5843,17 @@
         <v>1</v>
       </c>
       <c r="B119" s="5"/>
-      <c r="C119" s="73" t="s">
+      <c r="C119" s="72" t="s">
         <v>56</v>
       </c>
-      <c r="D119" s="73"/>
-      <c r="E119" s="73"/>
-      <c r="F119" s="73"/>
-      <c r="G119" s="73"/>
-      <c r="H119" s="73"/>
-      <c r="I119" s="73"/>
-      <c r="J119" s="73"/>
-      <c r="K119" s="73"/>
+      <c r="D119" s="72"/>
+      <c r="E119" s="72"/>
+      <c r="F119" s="72"/>
+      <c r="G119" s="72"/>
+      <c r="H119" s="72"/>
+      <c r="I119" s="72"/>
+      <c r="J119" s="72"/>
+      <c r="K119" s="72"/>
       <c r="L119" s="5" t="s">
         <v>2</v>
       </c>
@@ -5890,17 +5890,17 @@
         <v>1</v>
       </c>
       <c r="B120" s="1"/>
-      <c r="C120" s="74" t="s">
+      <c r="C120" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="D120" s="74"/>
-      <c r="E120" s="74"/>
-      <c r="F120" s="74"/>
-      <c r="G120" s="74"/>
-      <c r="H120" s="74"/>
-      <c r="I120" s="74"/>
-      <c r="J120" s="74"/>
-      <c r="K120" s="74"/>
+      <c r="D120" s="73"/>
+      <c r="E120" s="73"/>
+      <c r="F120" s="73"/>
+      <c r="G120" s="73"/>
+      <c r="H120" s="73"/>
+      <c r="I120" s="73"/>
+      <c r="J120" s="73"/>
+      <c r="K120" s="73"/>
       <c r="L120" s="6">
         <v>33</v>
       </c>
@@ -5923,17 +5923,17 @@
         <v>2</v>
       </c>
       <c r="B121" s="1"/>
-      <c r="C121" s="66" t="s">
+      <c r="C121" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="D121" s="67"/>
-      <c r="E121" s="67"/>
-      <c r="F121" s="67"/>
-      <c r="G121" s="67"/>
-      <c r="H121" s="67"/>
-      <c r="I121" s="67"/>
-      <c r="J121" s="67"/>
-      <c r="K121" s="67"/>
+      <c r="D121" s="65"/>
+      <c r="E121" s="65"/>
+      <c r="F121" s="65"/>
+      <c r="G121" s="65"/>
+      <c r="H121" s="65"/>
+      <c r="I121" s="65"/>
+      <c r="J121" s="65"/>
+      <c r="K121" s="65"/>
       <c r="L121" s="6">
         <v>33</v>
       </c>
@@ -5956,17 +5956,17 @@
         <v>3</v>
       </c>
       <c r="B122" s="1"/>
-      <c r="C122" s="66" t="s">
+      <c r="C122" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="D122" s="67"/>
-      <c r="E122" s="67"/>
-      <c r="F122" s="67"/>
-      <c r="G122" s="67"/>
-      <c r="H122" s="67"/>
-      <c r="I122" s="67"/>
-      <c r="J122" s="67"/>
-      <c r="K122" s="67"/>
+      <c r="D122" s="65"/>
+      <c r="E122" s="65"/>
+      <c r="F122" s="65"/>
+      <c r="G122" s="65"/>
+      <c r="H122" s="65"/>
+      <c r="I122" s="65"/>
+      <c r="J122" s="65"/>
+      <c r="K122" s="65"/>
       <c r="L122" s="6">
         <v>33</v>
       </c>
@@ -6002,17 +6002,17 @@
         <v>4</v>
       </c>
       <c r="B123" s="1"/>
-      <c r="C123" s="67" t="s">
+      <c r="C123" s="65" t="s">
         <v>18</v>
       </c>
-      <c r="D123" s="67"/>
-      <c r="E123" s="67"/>
-      <c r="F123" s="67"/>
-      <c r="G123" s="67"/>
-      <c r="H123" s="67"/>
-      <c r="I123" s="67"/>
-      <c r="J123" s="67"/>
-      <c r="K123" s="67"/>
+      <c r="D123" s="65"/>
+      <c r="E123" s="65"/>
+      <c r="F123" s="65"/>
+      <c r="G123" s="65"/>
+      <c r="H123" s="65"/>
+      <c r="I123" s="65"/>
+      <c r="J123" s="65"/>
+      <c r="K123" s="65"/>
       <c r="L123" s="6">
         <v>33</v>
       </c>
@@ -6035,17 +6035,17 @@
         <v>5</v>
       </c>
       <c r="B124" s="1"/>
-      <c r="C124" s="66" t="s">
+      <c r="C124" s="64" t="s">
         <v>61</v>
       </c>
-      <c r="D124" s="67"/>
-      <c r="E124" s="67"/>
-      <c r="F124" s="67"/>
-      <c r="G124" s="67"/>
-      <c r="H124" s="67"/>
-      <c r="I124" s="67"/>
-      <c r="J124" s="67"/>
-      <c r="K124" s="67"/>
+      <c r="D124" s="65"/>
+      <c r="E124" s="65"/>
+      <c r="F124" s="65"/>
+      <c r="G124" s="65"/>
+      <c r="H124" s="65"/>
+      <c r="I124" s="65"/>
+      <c r="J124" s="65"/>
+      <c r="K124" s="65"/>
       <c r="L124" s="6">
         <v>33</v>
       </c>
@@ -6068,17 +6068,17 @@
         <v>6</v>
       </c>
       <c r="B125" s="1"/>
-      <c r="C125" s="66" t="s">
+      <c r="C125" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="D125" s="67"/>
-      <c r="E125" s="67"/>
-      <c r="F125" s="67"/>
-      <c r="G125" s="67"/>
-      <c r="H125" s="67"/>
-      <c r="I125" s="67"/>
-      <c r="J125" s="67"/>
-      <c r="K125" s="67"/>
+      <c r="D125" s="65"/>
+      <c r="E125" s="65"/>
+      <c r="F125" s="65"/>
+      <c r="G125" s="65"/>
+      <c r="H125" s="65"/>
+      <c r="I125" s="65"/>
+      <c r="J125" s="65"/>
+      <c r="K125" s="65"/>
       <c r="L125" s="6">
         <v>33</v>
       </c>
@@ -6101,17 +6101,17 @@
         <v>7</v>
       </c>
       <c r="B126" s="1"/>
-      <c r="C126" s="67" t="s">
+      <c r="C126" s="65" t="s">
         <v>20</v>
       </c>
-      <c r="D126" s="67"/>
-      <c r="E126" s="67"/>
-      <c r="F126" s="67"/>
-      <c r="G126" s="67"/>
-      <c r="H126" s="67"/>
-      <c r="I126" s="67"/>
-      <c r="J126" s="67"/>
-      <c r="K126" s="67"/>
+      <c r="D126" s="65"/>
+      <c r="E126" s="65"/>
+      <c r="F126" s="65"/>
+      <c r="G126" s="65"/>
+      <c r="H126" s="65"/>
+      <c r="I126" s="65"/>
+      <c r="J126" s="65"/>
+      <c r="K126" s="65"/>
       <c r="L126" s="6">
         <v>33</v>
       </c>
@@ -6134,17 +6134,17 @@
         <v>8</v>
       </c>
       <c r="B127" s="1"/>
-      <c r="C127" s="66" t="s">
+      <c r="C127" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="D127" s="67"/>
-      <c r="E127" s="67"/>
-      <c r="F127" s="67"/>
-      <c r="G127" s="67"/>
-      <c r="H127" s="67"/>
-      <c r="I127" s="67"/>
-      <c r="J127" s="67"/>
-      <c r="K127" s="67"/>
+      <c r="D127" s="65"/>
+      <c r="E127" s="65"/>
+      <c r="F127" s="65"/>
+      <c r="G127" s="65"/>
+      <c r="H127" s="65"/>
+      <c r="I127" s="65"/>
+      <c r="J127" s="65"/>
+      <c r="K127" s="65"/>
       <c r="L127" s="6">
         <v>33</v>
       </c>
@@ -6167,17 +6167,17 @@
         <v>9</v>
       </c>
       <c r="B128" s="1"/>
-      <c r="C128" s="66" t="s">
+      <c r="C128" s="64" t="s">
         <v>62</v>
       </c>
-      <c r="D128" s="67"/>
-      <c r="E128" s="67"/>
-      <c r="F128" s="67"/>
-      <c r="G128" s="67"/>
-      <c r="H128" s="67"/>
-      <c r="I128" s="67"/>
-      <c r="J128" s="67"/>
-      <c r="K128" s="67"/>
+      <c r="D128" s="65"/>
+      <c r="E128" s="65"/>
+      <c r="F128" s="65"/>
+      <c r="G128" s="65"/>
+      <c r="H128" s="65"/>
+      <c r="I128" s="65"/>
+      <c r="J128" s="65"/>
+      <c r="K128" s="65"/>
       <c r="L128" s="6">
         <v>33</v>
       </c>
@@ -6200,17 +6200,17 @@
         <v>10</v>
       </c>
       <c r="B129" s="1"/>
-      <c r="C129" s="66" t="s">
+      <c r="C129" s="64" t="s">
         <v>22</v>
       </c>
-      <c r="D129" s="67"/>
-      <c r="E129" s="67"/>
-      <c r="F129" s="67"/>
-      <c r="G129" s="67"/>
-      <c r="H129" s="67"/>
-      <c r="I129" s="67"/>
-      <c r="J129" s="67"/>
-      <c r="K129" s="67"/>
+      <c r="D129" s="65"/>
+      <c r="E129" s="65"/>
+      <c r="F129" s="65"/>
+      <c r="G129" s="65"/>
+      <c r="H129" s="65"/>
+      <c r="I129" s="65"/>
+      <c r="J129" s="65"/>
+      <c r="K129" s="65"/>
       <c r="L129" s="6">
         <v>33</v>
       </c>
@@ -6233,17 +6233,17 @@
         <v>11</v>
       </c>
       <c r="B130" s="1"/>
-      <c r="C130" s="66" t="s">
+      <c r="C130" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="D130" s="67"/>
-      <c r="E130" s="67"/>
-      <c r="F130" s="67"/>
-      <c r="G130" s="67"/>
-      <c r="H130" s="67"/>
-      <c r="I130" s="67"/>
-      <c r="J130" s="67"/>
-      <c r="K130" s="67"/>
+      <c r="D130" s="65"/>
+      <c r="E130" s="65"/>
+      <c r="F130" s="65"/>
+      <c r="G130" s="65"/>
+      <c r="H130" s="65"/>
+      <c r="I130" s="65"/>
+      <c r="J130" s="65"/>
+      <c r="K130" s="65"/>
       <c r="L130" s="6">
         <v>33</v>
       </c>
@@ -6266,17 +6266,17 @@
         <v>12</v>
       </c>
       <c r="B131" s="1"/>
-      <c r="C131" s="66" t="s">
+      <c r="C131" s="64" t="s">
         <v>63</v>
       </c>
-      <c r="D131" s="67"/>
-      <c r="E131" s="67"/>
-      <c r="F131" s="67"/>
-      <c r="G131" s="67"/>
-      <c r="H131" s="67"/>
-      <c r="I131" s="67"/>
-      <c r="J131" s="67"/>
-      <c r="K131" s="67"/>
+      <c r="D131" s="65"/>
+      <c r="E131" s="65"/>
+      <c r="F131" s="65"/>
+      <c r="G131" s="65"/>
+      <c r="H131" s="65"/>
+      <c r="I131" s="65"/>
+      <c r="J131" s="65"/>
+      <c r="K131" s="65"/>
       <c r="L131" s="6">
         <v>33</v>
       </c>
@@ -6312,20 +6312,20 @@
         <v>13</v>
       </c>
       <c r="B132" s="1"/>
-      <c r="C132" s="60" t="s">
+      <c r="C132" s="66" t="s">
         <v>58</v>
       </c>
-      <c r="D132" s="61"/>
-      <c r="E132" s="61"/>
-      <c r="F132" s="61"/>
-      <c r="G132" s="61"/>
-      <c r="H132" s="61"/>
-      <c r="I132" s="61"/>
-      <c r="J132" s="61"/>
-      <c r="K132" s="61"/>
-      <c r="L132" s="61"/>
-      <c r="M132" s="61"/>
-      <c r="N132" s="62"/>
+      <c r="D132" s="67"/>
+      <c r="E132" s="67"/>
+      <c r="F132" s="67"/>
+      <c r="G132" s="67"/>
+      <c r="H132" s="67"/>
+      <c r="I132" s="67"/>
+      <c r="J132" s="67"/>
+      <c r="K132" s="67"/>
+      <c r="L132" s="67"/>
+      <c r="M132" s="67"/>
+      <c r="N132" s="68"/>
       <c r="O132" s="11"/>
       <c r="P132" s="12">
         <f>AVERAGE(P120:P131)</f>
@@ -6348,26 +6348,26 @@
       <c r="B133" s="1"/>
     </row>
     <row r="134" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A134" s="63" t="s">
+      <c r="A134" s="69" t="s">
         <v>24</v>
       </c>
-      <c r="B134" s="64"/>
-      <c r="C134" s="64"/>
-      <c r="D134" s="64"/>
-      <c r="E134" s="64"/>
-      <c r="F134" s="64"/>
-      <c r="G134" s="64"/>
-      <c r="H134" s="64"/>
-      <c r="I134" s="64"/>
-      <c r="J134" s="64"/>
-      <c r="K134" s="64"/>
-      <c r="L134" s="64"/>
-      <c r="M134" s="64"/>
-      <c r="N134" s="64"/>
-      <c r="O134" s="64"/>
-      <c r="P134" s="64"/>
-      <c r="Q134" s="64"/>
-      <c r="R134" s="65"/>
+      <c r="B134" s="70"/>
+      <c r="C134" s="70"/>
+      <c r="D134" s="70"/>
+      <c r="E134" s="70"/>
+      <c r="F134" s="70"/>
+      <c r="G134" s="70"/>
+      <c r="H134" s="70"/>
+      <c r="I134" s="70"/>
+      <c r="J134" s="70"/>
+      <c r="K134" s="70"/>
+      <c r="L134" s="70"/>
+      <c r="M134" s="70"/>
+      <c r="N134" s="70"/>
+      <c r="O134" s="70"/>
+      <c r="P134" s="70"/>
+      <c r="Q134" s="70"/>
+      <c r="R134" s="71"/>
       <c r="S134" s="3"/>
       <c r="T134" s="3"/>
       <c r="U134" s="3"/>
@@ -6377,17 +6377,17 @@
         <v>1</v>
       </c>
       <c r="B136" s="5"/>
-      <c r="C136" s="73" t="s">
+      <c r="C136" s="72" t="s">
         <v>56</v>
       </c>
-      <c r="D136" s="73"/>
-      <c r="E136" s="73"/>
-      <c r="F136" s="73"/>
-      <c r="G136" s="73"/>
-      <c r="H136" s="73"/>
-      <c r="I136" s="73"/>
-      <c r="J136" s="73"/>
-      <c r="K136" s="73"/>
+      <c r="D136" s="72"/>
+      <c r="E136" s="72"/>
+      <c r="F136" s="72"/>
+      <c r="G136" s="72"/>
+      <c r="H136" s="72"/>
+      <c r="I136" s="72"/>
+      <c r="J136" s="72"/>
+      <c r="K136" s="72"/>
       <c r="L136" s="5" t="s">
         <v>2</v>
       </c>
@@ -6424,17 +6424,17 @@
         <v>1</v>
       </c>
       <c r="B137" s="1"/>
-      <c r="C137" s="74" t="s">
+      <c r="C137" s="73" t="s">
         <v>65</v>
       </c>
-      <c r="D137" s="74"/>
-      <c r="E137" s="74"/>
-      <c r="F137" s="74"/>
-      <c r="G137" s="74"/>
-      <c r="H137" s="74"/>
-      <c r="I137" s="74"/>
-      <c r="J137" s="74"/>
-      <c r="K137" s="74"/>
+      <c r="D137" s="73"/>
+      <c r="E137" s="73"/>
+      <c r="F137" s="73"/>
+      <c r="G137" s="73"/>
+      <c r="H137" s="73"/>
+      <c r="I137" s="73"/>
+      <c r="J137" s="73"/>
+      <c r="K137" s="73"/>
       <c r="L137" s="6">
         <v>33</v>
       </c>
@@ -6457,17 +6457,17 @@
         <v>2</v>
       </c>
       <c r="B138" s="1"/>
-      <c r="C138" s="66" t="s">
+      <c r="C138" s="64" t="s">
         <v>66</v>
       </c>
-      <c r="D138" s="67"/>
-      <c r="E138" s="67"/>
-      <c r="F138" s="67"/>
-      <c r="G138" s="67"/>
-      <c r="H138" s="67"/>
-      <c r="I138" s="67"/>
-      <c r="J138" s="67"/>
-      <c r="K138" s="67"/>
+      <c r="D138" s="65"/>
+      <c r="E138" s="65"/>
+      <c r="F138" s="65"/>
+      <c r="G138" s="65"/>
+      <c r="H138" s="65"/>
+      <c r="I138" s="65"/>
+      <c r="J138" s="65"/>
+      <c r="K138" s="65"/>
       <c r="L138" s="6">
         <v>33</v>
       </c>
@@ -6490,17 +6490,17 @@
         <v>3</v>
       </c>
       <c r="B139" s="1"/>
-      <c r="C139" s="66" t="s">
+      <c r="C139" s="64" t="s">
         <v>25</v>
       </c>
-      <c r="D139" s="67"/>
-      <c r="E139" s="67"/>
-      <c r="F139" s="67"/>
-      <c r="G139" s="67"/>
-      <c r="H139" s="67"/>
-      <c r="I139" s="67"/>
-      <c r="J139" s="67"/>
-      <c r="K139" s="67"/>
+      <c r="D139" s="65"/>
+      <c r="E139" s="65"/>
+      <c r="F139" s="65"/>
+      <c r="G139" s="65"/>
+      <c r="H139" s="65"/>
+      <c r="I139" s="65"/>
+      <c r="J139" s="65"/>
+      <c r="K139" s="65"/>
       <c r="L139" s="6">
         <v>33</v>
       </c>
@@ -6523,17 +6523,17 @@
         <v>4</v>
       </c>
       <c r="B140" s="1"/>
-      <c r="C140" s="67" t="s">
+      <c r="C140" s="65" t="s">
         <v>26</v>
       </c>
-      <c r="D140" s="67"/>
-      <c r="E140" s="67"/>
-      <c r="F140" s="67"/>
-      <c r="G140" s="67"/>
-      <c r="H140" s="67"/>
-      <c r="I140" s="67"/>
-      <c r="J140" s="67"/>
-      <c r="K140" s="67"/>
+      <c r="D140" s="65"/>
+      <c r="E140" s="65"/>
+      <c r="F140" s="65"/>
+      <c r="G140" s="65"/>
+      <c r="H140" s="65"/>
+      <c r="I140" s="65"/>
+      <c r="J140" s="65"/>
+      <c r="K140" s="65"/>
       <c r="L140" s="6">
         <v>33</v>
       </c>
@@ -6556,17 +6556,17 @@
         <v>5</v>
       </c>
       <c r="B141" s="1"/>
-      <c r="C141" s="66" t="s">
+      <c r="C141" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="D141" s="67"/>
-      <c r="E141" s="67"/>
-      <c r="F141" s="67"/>
-      <c r="G141" s="67"/>
-      <c r="H141" s="67"/>
-      <c r="I141" s="67"/>
-      <c r="J141" s="67"/>
-      <c r="K141" s="67"/>
+      <c r="D141" s="65"/>
+      <c r="E141" s="65"/>
+      <c r="F141" s="65"/>
+      <c r="G141" s="65"/>
+      <c r="H141" s="65"/>
+      <c r="I141" s="65"/>
+      <c r="J141" s="65"/>
+      <c r="K141" s="65"/>
       <c r="L141" s="6">
         <v>33</v>
       </c>
@@ -6589,17 +6589,17 @@
         <v>6</v>
       </c>
       <c r="B142" s="1"/>
-      <c r="C142" s="66" t="s">
+      <c r="C142" s="64" t="s">
         <v>67</v>
       </c>
-      <c r="D142" s="67"/>
-      <c r="E142" s="67"/>
-      <c r="F142" s="67"/>
-      <c r="G142" s="67"/>
-      <c r="H142" s="67"/>
-      <c r="I142" s="67"/>
-      <c r="J142" s="67"/>
-      <c r="K142" s="67"/>
+      <c r="D142" s="65"/>
+      <c r="E142" s="65"/>
+      <c r="F142" s="65"/>
+      <c r="G142" s="65"/>
+      <c r="H142" s="65"/>
+      <c r="I142" s="65"/>
+      <c r="J142" s="65"/>
+      <c r="K142" s="65"/>
       <c r="L142" s="6">
         <v>33</v>
       </c>
@@ -6622,20 +6622,20 @@
         <v>7</v>
       </c>
       <c r="B143" s="1"/>
-      <c r="C143" s="60" t="s">
+      <c r="C143" s="66" t="s">
         <v>58</v>
       </c>
-      <c r="D143" s="61"/>
-      <c r="E143" s="61"/>
-      <c r="F143" s="61"/>
-      <c r="G143" s="61"/>
-      <c r="H143" s="61"/>
-      <c r="I143" s="61"/>
-      <c r="J143" s="61"/>
-      <c r="K143" s="61"/>
-      <c r="L143" s="61"/>
-      <c r="M143" s="61"/>
-      <c r="N143" s="62"/>
+      <c r="D143" s="67"/>
+      <c r="E143" s="67"/>
+      <c r="F143" s="67"/>
+      <c r="G143" s="67"/>
+      <c r="H143" s="67"/>
+      <c r="I143" s="67"/>
+      <c r="J143" s="67"/>
+      <c r="K143" s="67"/>
+      <c r="L143" s="67"/>
+      <c r="M143" s="67"/>
+      <c r="N143" s="68"/>
       <c r="O143" s="11"/>
       <c r="P143" s="12" t="e">
         <f>AVERAGE(P137:P142)</f>
@@ -6655,25 +6655,25 @@
       <c r="B144" s="1"/>
     </row>
     <row r="145" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A145" s="72" t="s">
+      <c r="A145" s="81" t="s">
         <v>28</v>
       </c>
-      <c r="B145" s="72"/>
-      <c r="C145" s="72"/>
-      <c r="D145" s="72"/>
-      <c r="E145" s="72"/>
-      <c r="F145" s="72"/>
-      <c r="G145" s="72"/>
-      <c r="H145" s="72"/>
-      <c r="I145" s="72"/>
-      <c r="J145" s="72"/>
-      <c r="K145" s="72"/>
-      <c r="L145" s="72"/>
-      <c r="M145" s="72"/>
-      <c r="N145" s="72"/>
-      <c r="O145" s="72"/>
-      <c r="P145" s="72"/>
-      <c r="Q145" s="72"/>
+      <c r="B145" s="81"/>
+      <c r="C145" s="81"/>
+      <c r="D145" s="81"/>
+      <c r="E145" s="81"/>
+      <c r="F145" s="81"/>
+      <c r="G145" s="81"/>
+      <c r="H145" s="81"/>
+      <c r="I145" s="81"/>
+      <c r="J145" s="81"/>
+      <c r="K145" s="81"/>
+      <c r="L145" s="81"/>
+      <c r="M145" s="81"/>
+      <c r="N145" s="81"/>
+      <c r="O145" s="81"/>
+      <c r="P145" s="81"/>
+      <c r="Q145" s="81"/>
       <c r="R145"/>
     </row>
     <row r="146" spans="1:18" x14ac:dyDescent="0.3">
@@ -6681,10 +6681,10 @@
         <v>1</v>
       </c>
       <c r="B146" s="16"/>
-      <c r="C146" s="68" t="s">
+      <c r="C146" s="80" t="s">
         <v>68</v>
       </c>
-      <c r="D146" s="68"/>
+      <c r="D146" s="80"/>
       <c r="E146" s="17" t="s">
         <v>69</v>
       </c>
@@ -6731,10 +6731,10 @@
         <v>1</v>
       </c>
       <c r="B147" s="14"/>
-      <c r="C147" s="57" t="s">
+      <c r="C147" s="63" t="s">
         <v>84</v>
       </c>
-      <c r="D147" s="57"/>
+      <c r="D147" s="63"/>
       <c r="E147" s="25">
         <v>51</v>
       </c>
@@ -6781,10 +6781,10 @@
         <v>2</v>
       </c>
       <c r="B148" s="14"/>
-      <c r="C148" s="57" t="s">
+      <c r="C148" s="63" t="s">
         <v>85</v>
       </c>
-      <c r="D148" s="57"/>
+      <c r="D148" s="63"/>
       <c r="E148" s="25">
         <v>47</v>
       </c>
@@ -6831,10 +6831,10 @@
         <v>3</v>
       </c>
       <c r="B149" s="14"/>
-      <c r="C149" s="57" t="s">
+      <c r="C149" s="63" t="s">
         <v>86</v>
       </c>
-      <c r="D149" s="57"/>
+      <c r="D149" s="63"/>
       <c r="E149" s="25">
         <v>51</v>
       </c>
@@ -6881,10 +6881,10 @@
         <v>4</v>
       </c>
       <c r="B150" s="14"/>
-      <c r="C150" s="57" t="s">
+      <c r="C150" s="63" t="s">
         <v>87</v>
       </c>
-      <c r="D150" s="57"/>
+      <c r="D150" s="63"/>
       <c r="E150" s="25">
         <v>52</v>
       </c>
@@ -6931,10 +6931,10 @@
         <v>5</v>
       </c>
       <c r="B151" s="14"/>
-      <c r="C151" s="57" t="s">
+      <c r="C151" s="63" t="s">
         <v>90</v>
       </c>
-      <c r="D151" s="57"/>
+      <c r="D151" s="63"/>
       <c r="E151" s="25">
         <v>60</v>
       </c>
@@ -6981,10 +6981,10 @@
         <v>6</v>
       </c>
       <c r="B152" s="14"/>
-      <c r="C152" s="57" t="s">
+      <c r="C152" s="63" t="s">
         <v>91</v>
       </c>
-      <c r="D152" s="57"/>
+      <c r="D152" s="63"/>
       <c r="E152" s="25">
         <v>56</v>
       </c>
@@ -7031,10 +7031,10 @@
         <v>7</v>
       </c>
       <c r="B153" s="14"/>
-      <c r="C153" s="57" t="s">
+      <c r="C153" s="63" t="s">
         <v>92</v>
       </c>
-      <c r="D153" s="57"/>
+      <c r="D153" s="63"/>
       <c r="E153" s="25">
         <v>56</v>
       </c>
@@ -7081,10 +7081,10 @@
         <v>8</v>
       </c>
       <c r="B154" s="14"/>
-      <c r="C154" s="57" t="s">
+      <c r="C154" s="63" t="s">
         <v>93</v>
       </c>
-      <c r="D154" s="57"/>
+      <c r="D154" s="63"/>
       <c r="E154" s="25">
         <v>56</v>
       </c>
@@ -7129,10 +7129,10 @@
     <row r="155" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A155" s="14"/>
       <c r="B155" s="14"/>
-      <c r="C155" s="58" t="s">
+      <c r="C155" s="74" t="s">
         <v>98</v>
       </c>
-      <c r="D155" s="58"/>
+      <c r="D155" s="74"/>
       <c r="E155" s="25">
         <f t="shared" ref="E155:O155" si="11">AVERAGE(E147:E154)</f>
         <v>53.625</v>
@@ -7194,25 +7194,25 @@
       <c r="R157"/>
     </row>
     <row r="158" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A158" s="75" t="s">
+      <c r="A158" s="79" t="s">
         <v>99</v>
       </c>
-      <c r="B158" s="75"/>
-      <c r="C158" s="75"/>
-      <c r="D158" s="75"/>
-      <c r="E158" s="75"/>
-      <c r="F158" s="75"/>
-      <c r="G158" s="75"/>
-      <c r="H158" s="75"/>
-      <c r="I158" s="75"/>
-      <c r="J158" s="75"/>
-      <c r="K158" s="75"/>
-      <c r="L158" s="75"/>
-      <c r="M158" s="75"/>
-      <c r="N158" s="75"/>
-      <c r="O158" s="75"/>
-      <c r="P158" s="75"/>
-      <c r="Q158" s="75"/>
+      <c r="B158" s="79"/>
+      <c r="C158" s="79"/>
+      <c r="D158" s="79"/>
+      <c r="E158" s="79"/>
+      <c r="F158" s="79"/>
+      <c r="G158" s="79"/>
+      <c r="H158" s="79"/>
+      <c r="I158" s="79"/>
+      <c r="J158" s="79"/>
+      <c r="K158" s="79"/>
+      <c r="L158" s="79"/>
+      <c r="M158" s="79"/>
+      <c r="N158" s="79"/>
+      <c r="O158" s="79"/>
+      <c r="P158" s="79"/>
+      <c r="Q158" s="79"/>
       <c r="R158"/>
     </row>
     <row r="159" spans="1:18" x14ac:dyDescent="0.3">
@@ -7220,10 +7220,10 @@
         <v>1</v>
       </c>
       <c r="B159" s="16"/>
-      <c r="C159" s="68" t="s">
+      <c r="C159" s="80" t="s">
         <v>68</v>
       </c>
-      <c r="D159" s="68"/>
+      <c r="D159" s="80"/>
       <c r="E159" s="17" t="s">
         <v>69</v>
       </c>
@@ -7270,10 +7270,10 @@
         <v>1</v>
       </c>
       <c r="B160" s="14"/>
-      <c r="C160" s="57" t="s">
+      <c r="C160" s="63" t="s">
         <v>94</v>
       </c>
-      <c r="D160" s="57"/>
+      <c r="D160" s="63"/>
       <c r="E160" s="25">
         <v>58</v>
       </c>
@@ -7320,10 +7320,10 @@
         <v>2</v>
       </c>
       <c r="B161" s="14"/>
-      <c r="C161" s="57" t="s">
+      <c r="C161" s="63" t="s">
         <v>95</v>
       </c>
-      <c r="D161" s="57"/>
+      <c r="D161" s="63"/>
       <c r="E161" s="25">
         <v>60</v>
       </c>
@@ -7370,10 +7370,10 @@
         <v>3</v>
       </c>
       <c r="B162" s="14"/>
-      <c r="C162" s="57" t="s">
+      <c r="C162" s="63" t="s">
         <v>96</v>
       </c>
-      <c r="D162" s="57"/>
+      <c r="D162" s="63"/>
       <c r="E162" s="25">
         <v>59</v>
       </c>
@@ -7419,10 +7419,10 @@
         <v>4</v>
       </c>
       <c r="B163" s="14"/>
-      <c r="C163" s="57" t="s">
+      <c r="C163" s="63" t="s">
         <v>97</v>
       </c>
-      <c r="D163" s="57"/>
+      <c r="D163" s="63"/>
       <c r="E163" s="25">
         <v>56</v>
       </c>
@@ -7464,10 +7464,10 @@
       </c>
     </row>
     <row r="164" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="C164" s="58" t="s">
+      <c r="C164" s="74" t="s">
         <v>98</v>
       </c>
-      <c r="D164" s="58"/>
+      <c r="D164" s="74"/>
       <c r="E164" s="25">
         <f t="shared" ref="E164:O164" si="12">AVERAGE(E160:E163)</f>
         <v>58.25</v>
@@ -7522,103 +7522,103 @@
       </c>
     </row>
     <row r="170" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A170" s="59" t="s">
+      <c r="A170" s="75" t="s">
         <v>106</v>
       </c>
-      <c r="B170" s="59"/>
-      <c r="C170" s="59"/>
-      <c r="D170" s="59"/>
-      <c r="E170" s="59"/>
-      <c r="F170" s="59"/>
-      <c r="G170" s="59"/>
-      <c r="H170" s="59"/>
-      <c r="I170" s="59"/>
-      <c r="J170" s="59"/>
-      <c r="K170" s="59"/>
-      <c r="L170" s="59"/>
-      <c r="M170" s="59"/>
-      <c r="N170" s="59"/>
-      <c r="O170" s="59"/>
-      <c r="P170" s="59"/>
-      <c r="Q170" s="59"/>
-      <c r="R170" s="59"/>
-      <c r="S170" s="59"/>
-      <c r="T170" s="59"/>
-      <c r="U170" s="59"/>
-      <c r="V170" s="59"/>
-      <c r="W170" s="59"/>
+      <c r="B170" s="75"/>
+      <c r="C170" s="75"/>
+      <c r="D170" s="75"/>
+      <c r="E170" s="75"/>
+      <c r="F170" s="75"/>
+      <c r="G170" s="75"/>
+      <c r="H170" s="75"/>
+      <c r="I170" s="75"/>
+      <c r="J170" s="75"/>
+      <c r="K170" s="75"/>
+      <c r="L170" s="75"/>
+      <c r="M170" s="75"/>
+      <c r="N170" s="75"/>
+      <c r="O170" s="75"/>
+      <c r="P170" s="75"/>
+      <c r="Q170" s="75"/>
+      <c r="R170" s="75"/>
+      <c r="S170" s="75"/>
+      <c r="T170" s="75"/>
+      <c r="U170" s="75"/>
+      <c r="V170" s="75"/>
+      <c r="W170" s="75"/>
     </row>
     <row r="171" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A171" s="59"/>
-      <c r="B171" s="59"/>
-      <c r="C171" s="59"/>
-      <c r="D171" s="59"/>
-      <c r="E171" s="59"/>
-      <c r="F171" s="59"/>
-      <c r="G171" s="59"/>
-      <c r="H171" s="59"/>
-      <c r="I171" s="59"/>
-      <c r="J171" s="59"/>
-      <c r="K171" s="59"/>
-      <c r="L171" s="59"/>
-      <c r="M171" s="59"/>
-      <c r="N171" s="59"/>
-      <c r="O171" s="59"/>
-      <c r="P171" s="59"/>
-      <c r="Q171" s="59"/>
-      <c r="R171" s="59"/>
-      <c r="S171" s="59"/>
-      <c r="T171" s="59"/>
-      <c r="U171" s="59"/>
-      <c r="V171" s="59"/>
-      <c r="W171" s="59"/>
+      <c r="A171" s="75"/>
+      <c r="B171" s="75"/>
+      <c r="C171" s="75"/>
+      <c r="D171" s="75"/>
+      <c r="E171" s="75"/>
+      <c r="F171" s="75"/>
+      <c r="G171" s="75"/>
+      <c r="H171" s="75"/>
+      <c r="I171" s="75"/>
+      <c r="J171" s="75"/>
+      <c r="K171" s="75"/>
+      <c r="L171" s="75"/>
+      <c r="M171" s="75"/>
+      <c r="N171" s="75"/>
+      <c r="O171" s="75"/>
+      <c r="P171" s="75"/>
+      <c r="Q171" s="75"/>
+      <c r="R171" s="75"/>
+      <c r="S171" s="75"/>
+      <c r="T171" s="75"/>
+      <c r="U171" s="75"/>
+      <c r="V171" s="75"/>
+      <c r="W171" s="75"/>
     </row>
     <row r="172" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A172" s="59"/>
-      <c r="B172" s="59"/>
-      <c r="C172" s="59"/>
-      <c r="D172" s="59"/>
-      <c r="E172" s="59"/>
-      <c r="F172" s="59"/>
-      <c r="G172" s="59"/>
-      <c r="H172" s="59"/>
-      <c r="I172" s="59"/>
-      <c r="J172" s="59"/>
-      <c r="K172" s="59"/>
-      <c r="L172" s="59"/>
-      <c r="M172" s="59"/>
-      <c r="N172" s="59"/>
-      <c r="O172" s="59"/>
-      <c r="P172" s="59"/>
-      <c r="Q172" s="59"/>
-      <c r="R172" s="59"/>
-      <c r="S172" s="59"/>
-      <c r="T172" s="59"/>
-      <c r="U172" s="59"/>
-      <c r="V172" s="59"/>
-      <c r="W172" s="59"/>
+      <c r="A172" s="75"/>
+      <c r="B172" s="75"/>
+      <c r="C172" s="75"/>
+      <c r="D172" s="75"/>
+      <c r="E172" s="75"/>
+      <c r="F172" s="75"/>
+      <c r="G172" s="75"/>
+      <c r="H172" s="75"/>
+      <c r="I172" s="75"/>
+      <c r="J172" s="75"/>
+      <c r="K172" s="75"/>
+      <c r="L172" s="75"/>
+      <c r="M172" s="75"/>
+      <c r="N172" s="75"/>
+      <c r="O172" s="75"/>
+      <c r="P172" s="75"/>
+      <c r="Q172" s="75"/>
+      <c r="R172" s="75"/>
+      <c r="S172" s="75"/>
+      <c r="T172" s="75"/>
+      <c r="U172" s="75"/>
+      <c r="V172" s="75"/>
+      <c r="W172" s="75"/>
     </row>
     <row r="173" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A173" s="69" t="s">
+      <c r="A173" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="B173" s="70"/>
-      <c r="C173" s="70"/>
-      <c r="D173" s="70"/>
-      <c r="E173" s="70"/>
-      <c r="F173" s="70"/>
-      <c r="G173" s="70"/>
-      <c r="H173" s="70"/>
-      <c r="I173" s="70"/>
-      <c r="J173" s="70"/>
-      <c r="K173" s="70"/>
-      <c r="L173" s="70"/>
-      <c r="M173" s="70"/>
-      <c r="N173" s="70"/>
-      <c r="O173" s="70"/>
-      <c r="P173" s="70"/>
-      <c r="Q173" s="70"/>
-      <c r="R173" s="71"/>
+      <c r="B173" s="77"/>
+      <c r="C173" s="77"/>
+      <c r="D173" s="77"/>
+      <c r="E173" s="77"/>
+      <c r="F173" s="77"/>
+      <c r="G173" s="77"/>
+      <c r="H173" s="77"/>
+      <c r="I173" s="77"/>
+      <c r="J173" s="77"/>
+      <c r="K173" s="77"/>
+      <c r="L173" s="77"/>
+      <c r="M173" s="77"/>
+      <c r="N173" s="77"/>
+      <c r="O173" s="77"/>
+      <c r="P173" s="77"/>
+      <c r="Q173" s="77"/>
+      <c r="R173" s="78"/>
       <c r="S173" s="38"/>
       <c r="T173" s="38"/>
       <c r="U173" s="38"/>
@@ -7634,17 +7634,17 @@
       <c r="B175" s="46" t="s">
         <v>105</v>
       </c>
-      <c r="C175" s="90" t="s">
+      <c r="C175" s="60" t="s">
         <v>108</v>
       </c>
-      <c r="D175" s="91"/>
-      <c r="E175" s="91"/>
-      <c r="F175" s="91"/>
-      <c r="G175" s="91"/>
-      <c r="H175" s="91"/>
-      <c r="I175" s="91"/>
-      <c r="J175" s="91"/>
-      <c r="K175" s="92"/>
+      <c r="D175" s="61"/>
+      <c r="E175" s="61"/>
+      <c r="F175" s="61"/>
+      <c r="G175" s="61"/>
+      <c r="H175" s="61"/>
+      <c r="I175" s="61"/>
+      <c r="J175" s="61"/>
+      <c r="K175" s="62"/>
       <c r="L175" s="5" t="s">
         <v>2</v>
       </c>
@@ -7684,17 +7684,17 @@
       <c r="B176" s="48">
         <v>44741</v>
       </c>
-      <c r="C176" s="83" t="s">
+      <c r="C176" s="54" t="s">
         <v>43</v>
       </c>
-      <c r="D176" s="84"/>
-      <c r="E176" s="84"/>
-      <c r="F176" s="84"/>
-      <c r="G176" s="84"/>
-      <c r="H176" s="84"/>
-      <c r="I176" s="84"/>
-      <c r="J176" s="84"/>
-      <c r="K176" s="85"/>
+      <c r="D176" s="55"/>
+      <c r="E176" s="55"/>
+      <c r="F176" s="55"/>
+      <c r="G176" s="55"/>
+      <c r="H176" s="55"/>
+      <c r="I176" s="55"/>
+      <c r="J176" s="55"/>
+      <c r="K176" s="56"/>
       <c r="L176" s="6">
         <v>17</v>
       </c>
@@ -7734,17 +7734,17 @@
       <c r="B177" s="48">
         <v>44740</v>
       </c>
-      <c r="C177" s="87" t="s">
+      <c r="C177" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="D177" s="88"/>
-      <c r="E177" s="88"/>
-      <c r="F177" s="88"/>
-      <c r="G177" s="88"/>
-      <c r="H177" s="88"/>
-      <c r="I177" s="88"/>
-      <c r="J177" s="88"/>
-      <c r="K177" s="89"/>
+      <c r="D177" s="58"/>
+      <c r="E177" s="58"/>
+      <c r="F177" s="58"/>
+      <c r="G177" s="58"/>
+      <c r="H177" s="58"/>
+      <c r="I177" s="58"/>
+      <c r="J177" s="58"/>
+      <c r="K177" s="59"/>
       <c r="L177" s="6">
         <v>17</v>
       </c>
@@ -7784,17 +7784,17 @@
       <c r="B178" s="48">
         <v>44765</v>
       </c>
-      <c r="C178" s="87" t="s">
+      <c r="C178" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="D178" s="88"/>
-      <c r="E178" s="88"/>
-      <c r="F178" s="88"/>
-      <c r="G178" s="88"/>
-      <c r="H178" s="88"/>
-      <c r="I178" s="88"/>
-      <c r="J178" s="88"/>
-      <c r="K178" s="89"/>
+      <c r="D178" s="58"/>
+      <c r="E178" s="58"/>
+      <c r="F178" s="58"/>
+      <c r="G178" s="58"/>
+      <c r="H178" s="58"/>
+      <c r="I178" s="58"/>
+      <c r="J178" s="58"/>
+      <c r="K178" s="59"/>
       <c r="L178" s="6">
         <v>17</v>
       </c>
@@ -7834,17 +7834,17 @@
       <c r="B179" s="48">
         <v>44766</v>
       </c>
-      <c r="C179" s="83" t="s">
+      <c r="C179" s="54" t="s">
         <v>48</v>
       </c>
-      <c r="D179" s="84"/>
-      <c r="E179" s="84"/>
-      <c r="F179" s="84"/>
-      <c r="G179" s="84"/>
-      <c r="H179" s="84"/>
-      <c r="I179" s="84"/>
-      <c r="J179" s="84"/>
-      <c r="K179" s="85"/>
+      <c r="D179" s="55"/>
+      <c r="E179" s="55"/>
+      <c r="F179" s="55"/>
+      <c r="G179" s="55"/>
+      <c r="H179" s="55"/>
+      <c r="I179" s="55"/>
+      <c r="J179" s="55"/>
+      <c r="K179" s="56"/>
       <c r="L179" s="6">
         <v>17</v>
       </c>
@@ -7884,17 +7884,17 @@
       <c r="B180" s="48">
         <v>44797</v>
       </c>
-      <c r="C180" s="83" t="s">
+      <c r="C180" s="54" t="s">
         <v>45</v>
       </c>
-      <c r="D180" s="84"/>
-      <c r="E180" s="84"/>
-      <c r="F180" s="84"/>
-      <c r="G180" s="84"/>
-      <c r="H180" s="84"/>
-      <c r="I180" s="84"/>
-      <c r="J180" s="84"/>
-      <c r="K180" s="85"/>
+      <c r="D180" s="55"/>
+      <c r="E180" s="55"/>
+      <c r="F180" s="55"/>
+      <c r="G180" s="55"/>
+      <c r="H180" s="55"/>
+      <c r="I180" s="55"/>
+      <c r="J180" s="55"/>
+      <c r="K180" s="56"/>
       <c r="L180" s="6">
         <v>17</v>
       </c>
@@ -7934,17 +7934,17 @@
       <c r="B181" s="48">
         <v>44797</v>
       </c>
-      <c r="C181" s="83" t="s">
+      <c r="C181" s="54" t="s">
         <v>46</v>
       </c>
-      <c r="D181" s="84"/>
-      <c r="E181" s="84"/>
-      <c r="F181" s="84"/>
-      <c r="G181" s="84"/>
-      <c r="H181" s="84"/>
-      <c r="I181" s="84"/>
-      <c r="J181" s="84"/>
-      <c r="K181" s="85"/>
+      <c r="D181" s="55"/>
+      <c r="E181" s="55"/>
+      <c r="F181" s="55"/>
+      <c r="G181" s="55"/>
+      <c r="H181" s="55"/>
+      <c r="I181" s="55"/>
+      <c r="J181" s="55"/>
+      <c r="K181" s="56"/>
       <c r="L181" s="6">
         <v>17</v>
       </c>
@@ -7982,17 +7982,17 @@
         <v>15</v>
       </c>
       <c r="B182" s="48"/>
-      <c r="C182" s="83" t="s">
+      <c r="C182" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="D182" s="84"/>
-      <c r="E182" s="84"/>
-      <c r="F182" s="84"/>
-      <c r="G182" s="84"/>
-      <c r="H182" s="84"/>
-      <c r="I182" s="84"/>
-      <c r="J182" s="84"/>
-      <c r="K182" s="85"/>
+      <c r="D182" s="55"/>
+      <c r="E182" s="55"/>
+      <c r="F182" s="55"/>
+      <c r="G182" s="55"/>
+      <c r="H182" s="55"/>
+      <c r="I182" s="55"/>
+      <c r="J182" s="55"/>
+      <c r="K182" s="56"/>
       <c r="L182" s="6">
         <v>17</v>
       </c>
@@ -8032,17 +8032,17 @@
       <c r="B183" s="48">
         <v>44813</v>
       </c>
-      <c r="C183" s="83" t="s">
+      <c r="C183" s="54" t="s">
         <v>37</v>
       </c>
-      <c r="D183" s="84"/>
-      <c r="E183" s="84"/>
-      <c r="F183" s="84"/>
-      <c r="G183" s="84"/>
-      <c r="H183" s="84"/>
-      <c r="I183" s="84"/>
-      <c r="J183" s="84"/>
-      <c r="K183" s="85"/>
+      <c r="D183" s="55"/>
+      <c r="E183" s="55"/>
+      <c r="F183" s="55"/>
+      <c r="G183" s="55"/>
+      <c r="H183" s="55"/>
+      <c r="I183" s="55"/>
+      <c r="J183" s="55"/>
+      <c r="K183" s="56"/>
       <c r="L183" s="6">
         <v>17</v>
       </c>
@@ -8082,17 +8082,17 @@
       <c r="B184" s="48">
         <v>44822</v>
       </c>
-      <c r="C184" s="83" t="s">
+      <c r="C184" s="54" t="s">
         <v>39</v>
       </c>
-      <c r="D184" s="84"/>
-      <c r="E184" s="84"/>
-      <c r="F184" s="84"/>
-      <c r="G184" s="84"/>
-      <c r="H184" s="84"/>
-      <c r="I184" s="84"/>
-      <c r="J184" s="84"/>
-      <c r="K184" s="85"/>
+      <c r="D184" s="55"/>
+      <c r="E184" s="55"/>
+      <c r="F184" s="55"/>
+      <c r="G184" s="55"/>
+      <c r="H184" s="55"/>
+      <c r="I184" s="55"/>
+      <c r="J184" s="55"/>
+      <c r="K184" s="56"/>
       <c r="L184" s="6">
         <v>17</v>
       </c>
@@ -8132,17 +8132,17 @@
       <c r="B185" s="48">
         <v>44822</v>
       </c>
-      <c r="C185" s="83" t="s">
+      <c r="C185" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="D185" s="84"/>
-      <c r="E185" s="84"/>
-      <c r="F185" s="84"/>
-      <c r="G185" s="84"/>
-      <c r="H185" s="84"/>
-      <c r="I185" s="84"/>
-      <c r="J185" s="84"/>
-      <c r="K185" s="85"/>
+      <c r="D185" s="55"/>
+      <c r="E185" s="55"/>
+      <c r="F185" s="55"/>
+      <c r="G185" s="55"/>
+      <c r="H185" s="55"/>
+      <c r="I185" s="55"/>
+      <c r="J185" s="55"/>
+      <c r="K185" s="56"/>
       <c r="L185" s="6">
         <v>17</v>
       </c>
@@ -8182,17 +8182,17 @@
       <c r="B186" s="48">
         <v>44844</v>
       </c>
-      <c r="C186" s="87" t="s">
+      <c r="C186" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="D186" s="88"/>
-      <c r="E186" s="88"/>
-      <c r="F186" s="88"/>
-      <c r="G186" s="88"/>
-      <c r="H186" s="88"/>
-      <c r="I186" s="88"/>
-      <c r="J186" s="88"/>
-      <c r="K186" s="89"/>
+      <c r="D186" s="58"/>
+      <c r="E186" s="58"/>
+      <c r="F186" s="58"/>
+      <c r="G186" s="58"/>
+      <c r="H186" s="58"/>
+      <c r="I186" s="58"/>
+      <c r="J186" s="58"/>
+      <c r="K186" s="59"/>
       <c r="L186" s="6">
         <v>17</v>
       </c>
@@ -8232,17 +8232,17 @@
       <c r="B187" s="48">
         <v>44844</v>
       </c>
-      <c r="C187" s="83" t="s">
+      <c r="C187" s="54" t="s">
         <v>38</v>
       </c>
-      <c r="D187" s="84"/>
-      <c r="E187" s="84"/>
-      <c r="F187" s="84"/>
-      <c r="G187" s="84"/>
-      <c r="H187" s="84"/>
-      <c r="I187" s="84"/>
-      <c r="J187" s="84"/>
-      <c r="K187" s="85"/>
+      <c r="D187" s="55"/>
+      <c r="E187" s="55"/>
+      <c r="F187" s="55"/>
+      <c r="G187" s="55"/>
+      <c r="H187" s="55"/>
+      <c r="I187" s="55"/>
+      <c r="J187" s="55"/>
+      <c r="K187" s="56"/>
       <c r="L187" s="6">
         <v>17</v>
       </c>
@@ -8252,15 +8252,27 @@
       <c r="N187" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="O187" s="6"/>
-      <c r="P187" s="6"/>
-      <c r="Q187" s="9"/>
-      <c r="R187" s="6"/>
-      <c r="S187" s="6"/>
-      <c r="T187" s="6"/>
-      <c r="U187" s="6" t="e">
+      <c r="O187" s="48">
+        <v>44844</v>
+      </c>
+      <c r="P187" s="6">
+        <v>17</v>
+      </c>
+      <c r="Q187" s="9">
+        <v>0.68</v>
+      </c>
+      <c r="R187" s="6">
+        <v>5</v>
+      </c>
+      <c r="S187" s="6">
+        <v>318</v>
+      </c>
+      <c r="T187" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="U187" s="6">
         <f t="shared" si="14"/>
-        <v>#DIV/0!</v>
+        <v>98.742138364779876</v>
       </c>
     </row>
     <row r="188" spans="1:21" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -8270,17 +8282,17 @@
       <c r="B188" s="48">
         <v>44849</v>
       </c>
-      <c r="C188" s="87" t="s">
+      <c r="C188" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="D188" s="88"/>
-      <c r="E188" s="88"/>
-      <c r="F188" s="88"/>
-      <c r="G188" s="88"/>
-      <c r="H188" s="88"/>
-      <c r="I188" s="88"/>
-      <c r="J188" s="88"/>
-      <c r="K188" s="89"/>
+      <c r="D188" s="58"/>
+      <c r="E188" s="58"/>
+      <c r="F188" s="58"/>
+      <c r="G188" s="58"/>
+      <c r="H188" s="58"/>
+      <c r="I188" s="58"/>
+      <c r="J188" s="58"/>
+      <c r="K188" s="59"/>
       <c r="L188" s="6">
         <v>17</v>
       </c>
@@ -8308,17 +8320,17 @@
       <c r="B189" s="48">
         <v>44849</v>
       </c>
-      <c r="C189" s="83" t="s">
+      <c r="C189" s="54" t="s">
         <v>33</v>
       </c>
-      <c r="D189" s="84"/>
-      <c r="E189" s="84"/>
-      <c r="F189" s="84"/>
-      <c r="G189" s="84"/>
-      <c r="H189" s="84"/>
-      <c r="I189" s="84"/>
-      <c r="J189" s="84"/>
-      <c r="K189" s="85"/>
+      <c r="D189" s="55"/>
+      <c r="E189" s="55"/>
+      <c r="F189" s="55"/>
+      <c r="G189" s="55"/>
+      <c r="H189" s="55"/>
+      <c r="I189" s="55"/>
+      <c r="J189" s="55"/>
+      <c r="K189" s="56"/>
       <c r="L189" s="6">
         <v>17</v>
       </c>
@@ -8346,17 +8358,17 @@
       <c r="B190" s="48">
         <v>44851</v>
       </c>
-      <c r="C190" s="87" t="s">
+      <c r="C190" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="D190" s="88"/>
-      <c r="E190" s="88"/>
-      <c r="F190" s="88"/>
-      <c r="G190" s="88"/>
-      <c r="H190" s="88"/>
-      <c r="I190" s="88"/>
-      <c r="J190" s="88"/>
-      <c r="K190" s="89"/>
+      <c r="D190" s="58"/>
+      <c r="E190" s="58"/>
+      <c r="F190" s="58"/>
+      <c r="G190" s="58"/>
+      <c r="H190" s="58"/>
+      <c r="I190" s="58"/>
+      <c r="J190" s="58"/>
+      <c r="K190" s="59"/>
       <c r="L190" s="6">
         <v>17</v>
       </c>
@@ -8384,17 +8396,17 @@
       <c r="B191" s="48">
         <v>44851</v>
       </c>
-      <c r="C191" s="87" t="s">
+      <c r="C191" s="57" t="s">
         <v>44</v>
       </c>
-      <c r="D191" s="88"/>
-      <c r="E191" s="88"/>
-      <c r="F191" s="88"/>
-      <c r="G191" s="88"/>
-      <c r="H191" s="88"/>
-      <c r="I191" s="88"/>
-      <c r="J191" s="88"/>
-      <c r="K191" s="89"/>
+      <c r="D191" s="58"/>
+      <c r="E191" s="58"/>
+      <c r="F191" s="58"/>
+      <c r="G191" s="58"/>
+      <c r="H191" s="58"/>
+      <c r="I191" s="58"/>
+      <c r="J191" s="58"/>
+      <c r="K191" s="59"/>
       <c r="L191" s="6">
         <v>17</v>
       </c>
@@ -8422,17 +8434,17 @@
       <c r="B192" s="48">
         <v>44854</v>
       </c>
-      <c r="C192" s="87" t="s">
+      <c r="C192" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="D192" s="88"/>
-      <c r="E192" s="88"/>
-      <c r="F192" s="88"/>
-      <c r="G192" s="88"/>
-      <c r="H192" s="88"/>
-      <c r="I192" s="88"/>
-      <c r="J192" s="88"/>
-      <c r="K192" s="89"/>
+      <c r="D192" s="58"/>
+      <c r="E192" s="58"/>
+      <c r="F192" s="58"/>
+      <c r="G192" s="58"/>
+      <c r="H192" s="58"/>
+      <c r="I192" s="58"/>
+      <c r="J192" s="58"/>
+      <c r="K192" s="59"/>
       <c r="L192" s="6">
         <v>17</v>
       </c>
@@ -8460,17 +8472,17 @@
       <c r="B193" s="48">
         <v>44854</v>
       </c>
-      <c r="C193" s="83" t="s">
+      <c r="C193" s="54" t="s">
         <v>49</v>
       </c>
-      <c r="D193" s="88"/>
-      <c r="E193" s="88"/>
-      <c r="F193" s="88"/>
-      <c r="G193" s="88"/>
-      <c r="H193" s="88"/>
-      <c r="I193" s="88"/>
-      <c r="J193" s="88"/>
-      <c r="K193" s="89"/>
+      <c r="D193" s="58"/>
+      <c r="E193" s="58"/>
+      <c r="F193" s="58"/>
+      <c r="G193" s="58"/>
+      <c r="H193" s="58"/>
+      <c r="I193" s="58"/>
+      <c r="J193" s="58"/>
+      <c r="K193" s="59"/>
       <c r="L193" s="6">
         <v>17</v>
       </c>
@@ -8498,17 +8510,17 @@
       <c r="B194" s="48">
         <v>44864</v>
       </c>
-      <c r="C194" s="83" t="s">
+      <c r="C194" s="54" t="s">
         <v>34</v>
       </c>
-      <c r="D194" s="84"/>
-      <c r="E194" s="84"/>
-      <c r="F194" s="84"/>
-      <c r="G194" s="84"/>
-      <c r="H194" s="84"/>
-      <c r="I194" s="84"/>
-      <c r="J194" s="84"/>
-      <c r="K194" s="85"/>
+      <c r="D194" s="55"/>
+      <c r="E194" s="55"/>
+      <c r="F194" s="55"/>
+      <c r="G194" s="55"/>
+      <c r="H194" s="55"/>
+      <c r="I194" s="55"/>
+      <c r="J194" s="55"/>
+      <c r="K194" s="56"/>
       <c r="L194" s="6">
         <v>17</v>
       </c>
@@ -8536,17 +8548,17 @@
       <c r="B195" s="48">
         <v>44864</v>
       </c>
-      <c r="C195" s="87" t="s">
+      <c r="C195" s="57" t="s">
         <v>35</v>
       </c>
-      <c r="D195" s="88"/>
-      <c r="E195" s="88"/>
-      <c r="F195" s="88"/>
-      <c r="G195" s="88"/>
-      <c r="H195" s="88"/>
-      <c r="I195" s="88"/>
-      <c r="J195" s="88"/>
-      <c r="K195" s="89"/>
+      <c r="D195" s="58"/>
+      <c r="E195" s="58"/>
+      <c r="F195" s="58"/>
+      <c r="G195" s="58"/>
+      <c r="H195" s="58"/>
+      <c r="I195" s="58"/>
+      <c r="J195" s="58"/>
+      <c r="K195" s="59"/>
       <c r="L195" s="6">
         <v>17</v>
       </c>
@@ -8574,17 +8586,17 @@
       <c r="B196" s="48">
         <v>44870</v>
       </c>
-      <c r="C196" s="87" t="s">
+      <c r="C196" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="D196" s="88"/>
-      <c r="E196" s="88"/>
-      <c r="F196" s="88"/>
-      <c r="G196" s="88"/>
-      <c r="H196" s="88"/>
-      <c r="I196" s="88"/>
-      <c r="J196" s="88"/>
-      <c r="K196" s="89"/>
+      <c r="D196" s="58"/>
+      <c r="E196" s="58"/>
+      <c r="F196" s="58"/>
+      <c r="G196" s="58"/>
+      <c r="H196" s="58"/>
+      <c r="I196" s="58"/>
+      <c r="J196" s="58"/>
+      <c r="K196" s="59"/>
       <c r="L196" s="6">
         <v>17</v>
       </c>
@@ -8612,17 +8624,17 @@
       <c r="B197" s="48">
         <v>44870</v>
       </c>
-      <c r="C197" s="87" t="s">
+      <c r="C197" s="57" t="s">
         <v>47</v>
       </c>
-      <c r="D197" s="88"/>
-      <c r="E197" s="88"/>
-      <c r="F197" s="88"/>
-      <c r="G197" s="88"/>
-      <c r="H197" s="88"/>
-      <c r="I197" s="88"/>
-      <c r="J197" s="88"/>
-      <c r="K197" s="89"/>
+      <c r="D197" s="58"/>
+      <c r="E197" s="58"/>
+      <c r="F197" s="58"/>
+      <c r="G197" s="58"/>
+      <c r="H197" s="58"/>
+      <c r="I197" s="58"/>
+      <c r="J197" s="58"/>
+      <c r="K197" s="59"/>
       <c r="L197" s="6">
         <v>17</v>
       </c>
@@ -8648,17 +8660,17 @@
         <v>23</v>
       </c>
       <c r="B198" s="48"/>
-      <c r="C198" s="83" t="s">
+      <c r="C198" s="54" t="s">
         <v>41</v>
       </c>
-      <c r="D198" s="84"/>
-      <c r="E198" s="84"/>
-      <c r="F198" s="84"/>
-      <c r="G198" s="84"/>
-      <c r="H198" s="84"/>
-      <c r="I198" s="84"/>
-      <c r="J198" s="84"/>
-      <c r="K198" s="85"/>
+      <c r="D198" s="55"/>
+      <c r="E198" s="55"/>
+      <c r="F198" s="55"/>
+      <c r="G198" s="55"/>
+      <c r="H198" s="55"/>
+      <c r="I198" s="55"/>
+      <c r="J198" s="55"/>
+      <c r="K198" s="56"/>
       <c r="L198" s="6">
         <v>17</v>
       </c>
@@ -8684,17 +8696,17 @@
         <v>24</v>
       </c>
       <c r="B199" s="48"/>
-      <c r="C199" s="83" t="s">
+      <c r="C199" s="54" t="s">
         <v>42</v>
       </c>
-      <c r="D199" s="84"/>
-      <c r="E199" s="84"/>
-      <c r="F199" s="84"/>
-      <c r="G199" s="84"/>
-      <c r="H199" s="84"/>
-      <c r="I199" s="84"/>
-      <c r="J199" s="84"/>
-      <c r="K199" s="85"/>
+      <c r="D199" s="55"/>
+      <c r="E199" s="55"/>
+      <c r="F199" s="55"/>
+      <c r="G199" s="55"/>
+      <c r="H199" s="55"/>
+      <c r="I199" s="55"/>
+      <c r="J199" s="55"/>
+      <c r="K199" s="56"/>
       <c r="L199" s="6">
         <v>17</v>
       </c>
@@ -8720,36 +8732,36 @@
         <v>25</v>
       </c>
       <c r="B200" s="47"/>
-      <c r="C200" s="60" t="s">
+      <c r="C200" s="66" t="s">
         <v>58</v>
       </c>
-      <c r="D200" s="61"/>
-      <c r="E200" s="61"/>
-      <c r="F200" s="61"/>
-      <c r="G200" s="61"/>
-      <c r="H200" s="61"/>
-      <c r="I200" s="61"/>
-      <c r="J200" s="61"/>
-      <c r="K200" s="61"/>
-      <c r="L200" s="61"/>
-      <c r="M200" s="61"/>
-      <c r="N200" s="62"/>
+      <c r="D200" s="67"/>
+      <c r="E200" s="67"/>
+      <c r="F200" s="67"/>
+      <c r="G200" s="67"/>
+      <c r="H200" s="67"/>
+      <c r="I200" s="67"/>
+      <c r="J200" s="67"/>
+      <c r="K200" s="67"/>
+      <c r="L200" s="67"/>
+      <c r="M200" s="67"/>
+      <c r="N200" s="68"/>
       <c r="O200" s="11"/>
       <c r="P200" s="12">
         <f t="shared" ref="P200:U200" si="15">AVERAGE(P176:P199)</f>
-        <v>15.585454545454546</v>
+        <v>15.703333333333333</v>
       </c>
       <c r="Q200" s="13">
         <f t="shared" si="15"/>
-        <v>0.62341818181818176</v>
+        <v>0.62813333333333332</v>
       </c>
       <c r="R200" s="12">
         <f t="shared" si="15"/>
-        <v>16.454545454545453</v>
+        <v>15.5</v>
       </c>
       <c r="S200" s="12">
         <f t="shared" si="15"/>
-        <v>178</v>
+        <v>189.66666666666666</v>
       </c>
       <c r="T200" s="12" t="e">
         <f t="shared" si="15"/>
@@ -8770,26 +8782,26 @@
       <c r="R202"/>
     </row>
     <row r="203" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A203" s="76" t="s">
+      <c r="A203" s="82" t="s">
         <v>13</v>
       </c>
-      <c r="B203" s="77"/>
-      <c r="C203" s="77"/>
-      <c r="D203" s="77"/>
-      <c r="E203" s="77"/>
-      <c r="F203" s="77"/>
-      <c r="G203" s="77"/>
-      <c r="H203" s="77"/>
-      <c r="I203" s="77"/>
-      <c r="J203" s="77"/>
-      <c r="K203" s="77"/>
-      <c r="L203" s="77"/>
-      <c r="M203" s="77"/>
-      <c r="N203" s="77"/>
-      <c r="O203" s="77"/>
-      <c r="P203" s="77"/>
-      <c r="Q203" s="77"/>
-      <c r="R203" s="78"/>
+      <c r="B203" s="83"/>
+      <c r="C203" s="83"/>
+      <c r="D203" s="83"/>
+      <c r="E203" s="83"/>
+      <c r="F203" s="83"/>
+      <c r="G203" s="83"/>
+      <c r="H203" s="83"/>
+      <c r="I203" s="83"/>
+      <c r="J203" s="83"/>
+      <c r="K203" s="83"/>
+      <c r="L203" s="83"/>
+      <c r="M203" s="83"/>
+      <c r="N203" s="83"/>
+      <c r="O203" s="83"/>
+      <c r="P203" s="83"/>
+      <c r="Q203" s="83"/>
+      <c r="R203" s="84"/>
       <c r="S203" s="15"/>
       <c r="T203" s="15"/>
       <c r="U203" s="15"/>
@@ -8799,17 +8811,17 @@
         <v>1</v>
       </c>
       <c r="B205" s="5"/>
-      <c r="C205" s="73" t="s">
+      <c r="C205" s="72" t="s">
         <v>56</v>
       </c>
-      <c r="D205" s="73"/>
-      <c r="E205" s="73"/>
-      <c r="F205" s="73"/>
-      <c r="G205" s="73"/>
-      <c r="H205" s="73"/>
-      <c r="I205" s="73"/>
-      <c r="J205" s="73"/>
-      <c r="K205" s="73"/>
+      <c r="D205" s="72"/>
+      <c r="E205" s="72"/>
+      <c r="F205" s="72"/>
+      <c r="G205" s="72"/>
+      <c r="H205" s="72"/>
+      <c r="I205" s="72"/>
+      <c r="J205" s="72"/>
+      <c r="K205" s="72"/>
       <c r="L205" s="5" t="s">
         <v>2</v>
       </c>
@@ -8846,17 +8858,17 @@
         <v>1</v>
       </c>
       <c r="B206" s="1"/>
-      <c r="C206" s="74" t="s">
+      <c r="C206" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="D206" s="74"/>
-      <c r="E206" s="74"/>
-      <c r="F206" s="74"/>
-      <c r="G206" s="74"/>
-      <c r="H206" s="74"/>
-      <c r="I206" s="74"/>
-      <c r="J206" s="74"/>
-      <c r="K206" s="74"/>
+      <c r="D206" s="73"/>
+      <c r="E206" s="73"/>
+      <c r="F206" s="73"/>
+      <c r="G206" s="73"/>
+      <c r="H206" s="73"/>
+      <c r="I206" s="73"/>
+      <c r="J206" s="73"/>
+      <c r="K206" s="73"/>
       <c r="L206" s="6">
         <v>33</v>
       </c>
@@ -8882,17 +8894,17 @@
         <v>2</v>
       </c>
       <c r="B207" s="1"/>
-      <c r="C207" s="66" t="s">
+      <c r="C207" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="D207" s="67"/>
-      <c r="E207" s="67"/>
-      <c r="F207" s="67"/>
-      <c r="G207" s="67"/>
-      <c r="H207" s="67"/>
-      <c r="I207" s="67"/>
-      <c r="J207" s="67"/>
-      <c r="K207" s="67"/>
+      <c r="D207" s="65"/>
+      <c r="E207" s="65"/>
+      <c r="F207" s="65"/>
+      <c r="G207" s="65"/>
+      <c r="H207" s="65"/>
+      <c r="I207" s="65"/>
+      <c r="J207" s="65"/>
+      <c r="K207" s="65"/>
       <c r="L207" s="6">
         <v>33</v>
       </c>
@@ -8918,17 +8930,17 @@
         <v>3</v>
       </c>
       <c r="B208" s="1"/>
-      <c r="C208" s="66" t="s">
+      <c r="C208" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="D208" s="67"/>
-      <c r="E208" s="67"/>
-      <c r="F208" s="67"/>
-      <c r="G208" s="67"/>
-      <c r="H208" s="67"/>
-      <c r="I208" s="67"/>
-      <c r="J208" s="67"/>
-      <c r="K208" s="67"/>
+      <c r="D208" s="65"/>
+      <c r="E208" s="65"/>
+      <c r="F208" s="65"/>
+      <c r="G208" s="65"/>
+      <c r="H208" s="65"/>
+      <c r="I208" s="65"/>
+      <c r="J208" s="65"/>
+      <c r="K208" s="65"/>
       <c r="L208" s="6">
         <v>33</v>
       </c>
@@ -8966,17 +8978,17 @@
         <v>4</v>
       </c>
       <c r="B209" s="1"/>
-      <c r="C209" s="67" t="s">
+      <c r="C209" s="65" t="s">
         <v>18</v>
       </c>
-      <c r="D209" s="67"/>
-      <c r="E209" s="67"/>
-      <c r="F209" s="67"/>
-      <c r="G209" s="67"/>
-      <c r="H209" s="67"/>
-      <c r="I209" s="67"/>
-      <c r="J209" s="67"/>
-      <c r="K209" s="67"/>
+      <c r="D209" s="65"/>
+      <c r="E209" s="65"/>
+      <c r="F209" s="65"/>
+      <c r="G209" s="65"/>
+      <c r="H209" s="65"/>
+      <c r="I209" s="65"/>
+      <c r="J209" s="65"/>
+      <c r="K209" s="65"/>
       <c r="L209" s="6">
         <v>33</v>
       </c>
@@ -9014,17 +9026,17 @@
         <v>5</v>
       </c>
       <c r="B210" s="1"/>
-      <c r="C210" s="66" t="s">
+      <c r="C210" s="64" t="s">
         <v>61</v>
       </c>
-      <c r="D210" s="67"/>
-      <c r="E210" s="67"/>
-      <c r="F210" s="67"/>
-      <c r="G210" s="67"/>
-      <c r="H210" s="67"/>
-      <c r="I210" s="67"/>
-      <c r="J210" s="67"/>
-      <c r="K210" s="67"/>
+      <c r="D210" s="65"/>
+      <c r="E210" s="65"/>
+      <c r="F210" s="65"/>
+      <c r="G210" s="65"/>
+      <c r="H210" s="65"/>
+      <c r="I210" s="65"/>
+      <c r="J210" s="65"/>
+      <c r="K210" s="65"/>
       <c r="L210" s="6">
         <v>33</v>
       </c>
@@ -9062,17 +9074,17 @@
         <v>6</v>
       </c>
       <c r="B211" s="1"/>
-      <c r="C211" s="66" t="s">
+      <c r="C211" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="D211" s="67"/>
-      <c r="E211" s="67"/>
-      <c r="F211" s="67"/>
-      <c r="G211" s="67"/>
-      <c r="H211" s="67"/>
-      <c r="I211" s="67"/>
-      <c r="J211" s="67"/>
-      <c r="K211" s="67"/>
+      <c r="D211" s="65"/>
+      <c r="E211" s="65"/>
+      <c r="F211" s="65"/>
+      <c r="G211" s="65"/>
+      <c r="H211" s="65"/>
+      <c r="I211" s="65"/>
+      <c r="J211" s="65"/>
+      <c r="K211" s="65"/>
       <c r="L211" s="6">
         <v>33</v>
       </c>
@@ -9098,17 +9110,17 @@
         <v>7</v>
       </c>
       <c r="B212" s="1"/>
-      <c r="C212" s="67" t="s">
+      <c r="C212" s="65" t="s">
         <v>20</v>
       </c>
-      <c r="D212" s="67"/>
-      <c r="E212" s="67"/>
-      <c r="F212" s="67"/>
-      <c r="G212" s="67"/>
-      <c r="H212" s="67"/>
-      <c r="I212" s="67"/>
-      <c r="J212" s="67"/>
-      <c r="K212" s="67"/>
+      <c r="D212" s="65"/>
+      <c r="E212" s="65"/>
+      <c r="F212" s="65"/>
+      <c r="G212" s="65"/>
+      <c r="H212" s="65"/>
+      <c r="I212" s="65"/>
+      <c r="J212" s="65"/>
+      <c r="K212" s="65"/>
       <c r="L212" s="6">
         <v>33</v>
       </c>
@@ -9134,17 +9146,17 @@
         <v>8</v>
       </c>
       <c r="B213" s="1"/>
-      <c r="C213" s="66" t="s">
+      <c r="C213" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="D213" s="67"/>
-      <c r="E213" s="67"/>
-      <c r="F213" s="67"/>
-      <c r="G213" s="67"/>
-      <c r="H213" s="67"/>
-      <c r="I213" s="67"/>
-      <c r="J213" s="67"/>
-      <c r="K213" s="67"/>
+      <c r="D213" s="65"/>
+      <c r="E213" s="65"/>
+      <c r="F213" s="65"/>
+      <c r="G213" s="65"/>
+      <c r="H213" s="65"/>
+      <c r="I213" s="65"/>
+      <c r="J213" s="65"/>
+      <c r="K213" s="65"/>
       <c r="L213" s="6">
         <v>33</v>
       </c>
@@ -9170,17 +9182,17 @@
         <v>9</v>
       </c>
       <c r="B214" s="1"/>
-      <c r="C214" s="66" t="s">
+      <c r="C214" s="64" t="s">
         <v>62</v>
       </c>
-      <c r="D214" s="67"/>
-      <c r="E214" s="67"/>
-      <c r="F214" s="67"/>
-      <c r="G214" s="67"/>
-      <c r="H214" s="67"/>
-      <c r="I214" s="67"/>
-      <c r="J214" s="67"/>
-      <c r="K214" s="67"/>
+      <c r="D214" s="65"/>
+      <c r="E214" s="65"/>
+      <c r="F214" s="65"/>
+      <c r="G214" s="65"/>
+      <c r="H214" s="65"/>
+      <c r="I214" s="65"/>
+      <c r="J214" s="65"/>
+      <c r="K214" s="65"/>
       <c r="L214" s="6">
         <v>33</v>
       </c>
@@ -9218,17 +9230,17 @@
         <v>10</v>
       </c>
       <c r="B215" s="1"/>
-      <c r="C215" s="66" t="s">
+      <c r="C215" s="64" t="s">
         <v>22</v>
       </c>
-      <c r="D215" s="67"/>
-      <c r="E215" s="67"/>
-      <c r="F215" s="67"/>
-      <c r="G215" s="67"/>
-      <c r="H215" s="67"/>
-      <c r="I215" s="67"/>
-      <c r="J215" s="67"/>
-      <c r="K215" s="67"/>
+      <c r="D215" s="65"/>
+      <c r="E215" s="65"/>
+      <c r="F215" s="65"/>
+      <c r="G215" s="65"/>
+      <c r="H215" s="65"/>
+      <c r="I215" s="65"/>
+      <c r="J215" s="65"/>
+      <c r="K215" s="65"/>
       <c r="L215" s="6">
         <v>33</v>
       </c>
@@ -9254,17 +9266,17 @@
         <v>11</v>
       </c>
       <c r="B216" s="1"/>
-      <c r="C216" s="66" t="s">
+      <c r="C216" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="D216" s="67"/>
-      <c r="E216" s="67"/>
-      <c r="F216" s="67"/>
-      <c r="G216" s="67"/>
-      <c r="H216" s="67"/>
-      <c r="I216" s="67"/>
-      <c r="J216" s="67"/>
-      <c r="K216" s="67"/>
+      <c r="D216" s="65"/>
+      <c r="E216" s="65"/>
+      <c r="F216" s="65"/>
+      <c r="G216" s="65"/>
+      <c r="H216" s="65"/>
+      <c r="I216" s="65"/>
+      <c r="J216" s="65"/>
+      <c r="K216" s="65"/>
       <c r="L216" s="6">
         <v>33</v>
       </c>
@@ -9290,17 +9302,17 @@
         <v>12</v>
       </c>
       <c r="B217" s="1"/>
-      <c r="C217" s="66" t="s">
+      <c r="C217" s="64" t="s">
         <v>63</v>
       </c>
-      <c r="D217" s="67"/>
-      <c r="E217" s="67"/>
-      <c r="F217" s="67"/>
-      <c r="G217" s="67"/>
-      <c r="H217" s="67"/>
-      <c r="I217" s="67"/>
-      <c r="J217" s="67"/>
-      <c r="K217" s="67"/>
+      <c r="D217" s="65"/>
+      <c r="E217" s="65"/>
+      <c r="F217" s="65"/>
+      <c r="G217" s="65"/>
+      <c r="H217" s="65"/>
+      <c r="I217" s="65"/>
+      <c r="J217" s="65"/>
+      <c r="K217" s="65"/>
       <c r="L217" s="6">
         <v>33</v>
       </c>
@@ -9338,20 +9350,20 @@
         <v>13</v>
       </c>
       <c r="B218" s="1"/>
-      <c r="C218" s="60" t="s">
+      <c r="C218" s="66" t="s">
         <v>58</v>
       </c>
-      <c r="D218" s="61"/>
-      <c r="E218" s="61"/>
-      <c r="F218" s="61"/>
-      <c r="G218" s="61"/>
-      <c r="H218" s="61"/>
-      <c r="I218" s="61"/>
-      <c r="J218" s="61"/>
-      <c r="K218" s="61"/>
-      <c r="L218" s="61"/>
-      <c r="M218" s="61"/>
-      <c r="N218" s="62"/>
+      <c r="D218" s="67"/>
+      <c r="E218" s="67"/>
+      <c r="F218" s="67"/>
+      <c r="G218" s="67"/>
+      <c r="H218" s="67"/>
+      <c r="I218" s="67"/>
+      <c r="J218" s="67"/>
+      <c r="K218" s="67"/>
+      <c r="L218" s="67"/>
+      <c r="M218" s="67"/>
+      <c r="N218" s="68"/>
       <c r="O218" s="11"/>
       <c r="P218" s="12">
         <f>AVERAGE(P206:P217)</f>
@@ -9381,26 +9393,26 @@
       <c r="Q219" s="52"/>
     </row>
     <row r="220" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A220" s="63" t="s">
+      <c r="A220" s="69" t="s">
         <v>24</v>
       </c>
-      <c r="B220" s="64"/>
-      <c r="C220" s="64"/>
-      <c r="D220" s="64"/>
-      <c r="E220" s="64"/>
-      <c r="F220" s="64"/>
-      <c r="G220" s="64"/>
-      <c r="H220" s="64"/>
-      <c r="I220" s="64"/>
-      <c r="J220" s="64"/>
-      <c r="K220" s="64"/>
-      <c r="L220" s="64"/>
-      <c r="M220" s="64"/>
-      <c r="N220" s="64"/>
-      <c r="O220" s="64"/>
-      <c r="P220" s="64"/>
-      <c r="Q220" s="64"/>
-      <c r="R220" s="65"/>
+      <c r="B220" s="70"/>
+      <c r="C220" s="70"/>
+      <c r="D220" s="70"/>
+      <c r="E220" s="70"/>
+      <c r="F220" s="70"/>
+      <c r="G220" s="70"/>
+      <c r="H220" s="70"/>
+      <c r="I220" s="70"/>
+      <c r="J220" s="70"/>
+      <c r="K220" s="70"/>
+      <c r="L220" s="70"/>
+      <c r="M220" s="70"/>
+      <c r="N220" s="70"/>
+      <c r="O220" s="70"/>
+      <c r="P220" s="70"/>
+      <c r="Q220" s="70"/>
+      <c r="R220" s="71"/>
       <c r="S220" s="3"/>
       <c r="T220" s="3"/>
       <c r="U220" s="3"/>
@@ -9410,17 +9422,17 @@
         <v>1</v>
       </c>
       <c r="B222" s="5"/>
-      <c r="C222" s="73" t="s">
+      <c r="C222" s="72" t="s">
         <v>108</v>
       </c>
-      <c r="D222" s="73"/>
-      <c r="E222" s="73"/>
-      <c r="F222" s="73"/>
-      <c r="G222" s="73"/>
-      <c r="H222" s="73"/>
-      <c r="I222" s="73"/>
-      <c r="J222" s="73"/>
-      <c r="K222" s="73"/>
+      <c r="D222" s="72"/>
+      <c r="E222" s="72"/>
+      <c r="F222" s="72"/>
+      <c r="G222" s="72"/>
+      <c r="H222" s="72"/>
+      <c r="I222" s="72"/>
+      <c r="J222" s="72"/>
+      <c r="K222" s="72"/>
       <c r="L222" s="5" t="s">
         <v>2</v>
       </c>
@@ -9457,17 +9469,17 @@
         <v>1</v>
       </c>
       <c r="B223" s="1"/>
-      <c r="C223" s="74" t="s">
+      <c r="C223" s="73" t="s">
         <v>65</v>
       </c>
-      <c r="D223" s="74"/>
-      <c r="E223" s="74"/>
-      <c r="F223" s="74"/>
-      <c r="G223" s="74"/>
-      <c r="H223" s="74"/>
-      <c r="I223" s="74"/>
-      <c r="J223" s="74"/>
-      <c r="K223" s="74"/>
+      <c r="D223" s="73"/>
+      <c r="E223" s="73"/>
+      <c r="F223" s="73"/>
+      <c r="G223" s="73"/>
+      <c r="H223" s="73"/>
+      <c r="I223" s="73"/>
+      <c r="J223" s="73"/>
+      <c r="K223" s="73"/>
       <c r="L223" s="6">
         <v>33</v>
       </c>
@@ -9490,17 +9502,17 @@
         <v>2</v>
       </c>
       <c r="B224" s="1"/>
-      <c r="C224" s="66" t="s">
+      <c r="C224" s="64" t="s">
         <v>66</v>
       </c>
-      <c r="D224" s="67"/>
-      <c r="E224" s="67"/>
-      <c r="F224" s="67"/>
-      <c r="G224" s="67"/>
-      <c r="H224" s="67"/>
-      <c r="I224" s="67"/>
-      <c r="J224" s="67"/>
-      <c r="K224" s="67"/>
+      <c r="D224" s="65"/>
+      <c r="E224" s="65"/>
+      <c r="F224" s="65"/>
+      <c r="G224" s="65"/>
+      <c r="H224" s="65"/>
+      <c r="I224" s="65"/>
+      <c r="J224" s="65"/>
+      <c r="K224" s="65"/>
       <c r="L224" s="6">
         <v>33</v>
       </c>
@@ -9523,17 +9535,17 @@
         <v>3</v>
       </c>
       <c r="B225" s="1"/>
-      <c r="C225" s="66" t="s">
+      <c r="C225" s="64" t="s">
         <v>25</v>
       </c>
-      <c r="D225" s="67"/>
-      <c r="E225" s="67"/>
-      <c r="F225" s="67"/>
-      <c r="G225" s="67"/>
-      <c r="H225" s="67"/>
-      <c r="I225" s="67"/>
-      <c r="J225" s="67"/>
-      <c r="K225" s="67"/>
+      <c r="D225" s="65"/>
+      <c r="E225" s="65"/>
+      <c r="F225" s="65"/>
+      <c r="G225" s="65"/>
+      <c r="H225" s="65"/>
+      <c r="I225" s="65"/>
+      <c r="J225" s="65"/>
+      <c r="K225" s="65"/>
       <c r="L225" s="6">
         <v>33</v>
       </c>
@@ -9556,17 +9568,17 @@
         <v>4</v>
       </c>
       <c r="B226" s="1"/>
-      <c r="C226" s="67" t="s">
+      <c r="C226" s="65" t="s">
         <v>26</v>
       </c>
-      <c r="D226" s="67"/>
-      <c r="E226" s="67"/>
-      <c r="F226" s="67"/>
-      <c r="G226" s="67"/>
-      <c r="H226" s="67"/>
-      <c r="I226" s="67"/>
-      <c r="J226" s="67"/>
-      <c r="K226" s="67"/>
+      <c r="D226" s="65"/>
+      <c r="E226" s="65"/>
+      <c r="F226" s="65"/>
+      <c r="G226" s="65"/>
+      <c r="H226" s="65"/>
+      <c r="I226" s="65"/>
+      <c r="J226" s="65"/>
+      <c r="K226" s="65"/>
       <c r="L226" s="6">
         <v>33</v>
       </c>
@@ -9589,17 +9601,17 @@
         <v>5</v>
       </c>
       <c r="B227" s="1"/>
-      <c r="C227" s="66" t="s">
+      <c r="C227" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="D227" s="67"/>
-      <c r="E227" s="67"/>
-      <c r="F227" s="67"/>
-      <c r="G227" s="67"/>
-      <c r="H227" s="67"/>
-      <c r="I227" s="67"/>
-      <c r="J227" s="67"/>
-      <c r="K227" s="67"/>
+      <c r="D227" s="65"/>
+      <c r="E227" s="65"/>
+      <c r="F227" s="65"/>
+      <c r="G227" s="65"/>
+      <c r="H227" s="65"/>
+      <c r="I227" s="65"/>
+      <c r="J227" s="65"/>
+      <c r="K227" s="65"/>
       <c r="L227" s="6">
         <v>33</v>
       </c>
@@ -9622,17 +9634,17 @@
         <v>6</v>
       </c>
       <c r="B228" s="1"/>
-      <c r="C228" s="66" t="s">
+      <c r="C228" s="64" t="s">
         <v>67</v>
       </c>
-      <c r="D228" s="67"/>
-      <c r="E228" s="67"/>
-      <c r="F228" s="67"/>
-      <c r="G228" s="67"/>
-      <c r="H228" s="67"/>
-      <c r="I228" s="67"/>
-      <c r="J228" s="67"/>
-      <c r="K228" s="67"/>
+      <c r="D228" s="65"/>
+      <c r="E228" s="65"/>
+      <c r="F228" s="65"/>
+      <c r="G228" s="65"/>
+      <c r="H228" s="65"/>
+      <c r="I228" s="65"/>
+      <c r="J228" s="65"/>
+      <c r="K228" s="65"/>
       <c r="L228" s="6">
         <v>33</v>
       </c>
@@ -9655,20 +9667,20 @@
         <v>7</v>
       </c>
       <c r="B229" s="1"/>
-      <c r="C229" s="60" t="s">
+      <c r="C229" s="66" t="s">
         <v>58</v>
       </c>
-      <c r="D229" s="61"/>
-      <c r="E229" s="61"/>
-      <c r="F229" s="61"/>
-      <c r="G229" s="61"/>
-      <c r="H229" s="61"/>
-      <c r="I229" s="61"/>
-      <c r="J229" s="61"/>
-      <c r="K229" s="61"/>
-      <c r="L229" s="61"/>
-      <c r="M229" s="61"/>
-      <c r="N229" s="62"/>
+      <c r="D229" s="67"/>
+      <c r="E229" s="67"/>
+      <c r="F229" s="67"/>
+      <c r="G229" s="67"/>
+      <c r="H229" s="67"/>
+      <c r="I229" s="67"/>
+      <c r="J229" s="67"/>
+      <c r="K229" s="67"/>
+      <c r="L229" s="67"/>
+      <c r="M229" s="67"/>
+      <c r="N229" s="68"/>
       <c r="O229" s="11"/>
       <c r="P229" s="12" t="e">
         <f>AVERAGE(P223:P228)</f>
@@ -9688,25 +9700,25 @@
       <c r="B230" s="1"/>
     </row>
     <row r="231" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A231" s="72" t="s">
+      <c r="A231" s="81" t="s">
         <v>28</v>
       </c>
-      <c r="B231" s="72"/>
-      <c r="C231" s="72"/>
-      <c r="D231" s="72"/>
-      <c r="E231" s="72"/>
-      <c r="F231" s="72"/>
-      <c r="G231" s="72"/>
-      <c r="H231" s="72"/>
-      <c r="I231" s="72"/>
-      <c r="J231" s="72"/>
-      <c r="K231" s="72"/>
-      <c r="L231" s="72"/>
-      <c r="M231" s="72"/>
-      <c r="N231" s="72"/>
-      <c r="O231" s="72"/>
-      <c r="P231" s="72"/>
-      <c r="Q231" s="72"/>
+      <c r="B231" s="81"/>
+      <c r="C231" s="81"/>
+      <c r="D231" s="81"/>
+      <c r="E231" s="81"/>
+      <c r="F231" s="81"/>
+      <c r="G231" s="81"/>
+      <c r="H231" s="81"/>
+      <c r="I231" s="81"/>
+      <c r="J231" s="81"/>
+      <c r="K231" s="81"/>
+      <c r="L231" s="81"/>
+      <c r="M231" s="81"/>
+      <c r="N231" s="81"/>
+      <c r="O231" s="81"/>
+      <c r="P231" s="81"/>
+      <c r="Q231" s="81"/>
       <c r="R231"/>
     </row>
     <row r="232" spans="1:21" ht="40.799999999999997" x14ac:dyDescent="0.3">
@@ -9716,10 +9728,10 @@
       <c r="B232" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="C232" s="68" t="s">
+      <c r="C232" s="80" t="s">
         <v>68</v>
       </c>
-      <c r="D232" s="68"/>
+      <c r="D232" s="80"/>
       <c r="E232" s="17" t="s">
         <v>69</v>
       </c>
@@ -9773,10 +9785,10 @@
       <c r="B233" s="53">
         <v>44808</v>
       </c>
-      <c r="C233" s="54" t="s">
+      <c r="C233" s="90" t="s">
         <v>125</v>
       </c>
-      <c r="D233" s="55"/>
+      <c r="D233" s="91"/>
       <c r="E233" s="25">
         <v>57</v>
       </c>
@@ -9831,10 +9843,10 @@
       <c r="B234" s="53">
         <v>44816</v>
       </c>
-      <c r="C234" s="57" t="s">
+      <c r="C234" s="63" t="s">
         <v>113</v>
       </c>
-      <c r="D234" s="57"/>
+      <c r="D234" s="63"/>
       <c r="E234" s="25">
         <v>58</v>
       </c>
@@ -9889,10 +9901,10 @@
       <c r="B235" s="53">
         <v>44822</v>
       </c>
-      <c r="C235" s="57" t="s">
+      <c r="C235" s="63" t="s">
         <v>114</v>
       </c>
-      <c r="D235" s="57"/>
+      <c r="D235" s="63"/>
       <c r="E235" s="25">
         <v>64</v>
       </c>
@@ -9945,10 +9957,10 @@
         <v>3</v>
       </c>
       <c r="B236" s="14"/>
-      <c r="C236" s="57" t="s">
+      <c r="C236" s="63" t="s">
         <v>115</v>
       </c>
-      <c r="D236" s="57"/>
+      <c r="D236" s="63"/>
       <c r="E236" s="25"/>
       <c r="F236" s="26"/>
       <c r="G236" s="27"/>
@@ -9973,10 +9985,10 @@
         <v>4</v>
       </c>
       <c r="B237" s="14"/>
-      <c r="C237" s="57" t="s">
+      <c r="C237" s="63" t="s">
         <v>116</v>
       </c>
-      <c r="D237" s="57"/>
+      <c r="D237" s="63"/>
       <c r="E237" s="25"/>
       <c r="F237" s="26"/>
       <c r="G237" s="27"/>
@@ -10001,10 +10013,10 @@
         <v>5</v>
       </c>
       <c r="B238" s="14"/>
-      <c r="C238" s="57" t="s">
+      <c r="C238" s="63" t="s">
         <v>117</v>
       </c>
-      <c r="D238" s="57"/>
+      <c r="D238" s="63"/>
       <c r="E238" s="25"/>
       <c r="F238" s="26"/>
       <c r="G238" s="27"/>
@@ -10029,10 +10041,10 @@
         <v>6</v>
       </c>
       <c r="B239" s="14"/>
-      <c r="C239" s="57" t="s">
+      <c r="C239" s="63" t="s">
         <v>118</v>
       </c>
-      <c r="D239" s="57"/>
+      <c r="D239" s="63"/>
       <c r="E239" s="25"/>
       <c r="F239" s="26"/>
       <c r="G239" s="27"/>
@@ -10057,10 +10069,10 @@
         <v>7</v>
       </c>
       <c r="B240" s="14"/>
-      <c r="C240" s="57" t="s">
+      <c r="C240" s="63" t="s">
         <v>119</v>
       </c>
-      <c r="D240" s="57"/>
+      <c r="D240" s="63"/>
       <c r="E240" s="25"/>
       <c r="F240" s="26"/>
       <c r="G240" s="27"/>
@@ -10085,10 +10097,10 @@
         <v>8</v>
       </c>
       <c r="B241" s="14"/>
-      <c r="C241" s="57" t="s">
+      <c r="C241" s="63" t="s">
         <v>120</v>
       </c>
-      <c r="D241" s="57"/>
+      <c r="D241" s="63"/>
       <c r="E241" s="25"/>
       <c r="F241" s="26"/>
       <c r="G241" s="27"/>
@@ -10111,10 +10123,10 @@
     <row r="242" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A242" s="14"/>
       <c r="B242" s="14"/>
-      <c r="C242" s="58" t="s">
+      <c r="C242" s="74" t="s">
         <v>98</v>
       </c>
-      <c r="D242" s="58"/>
+      <c r="D242" s="74"/>
       <c r="E242" s="25">
         <f>AVERAGE(E233:E241)</f>
         <v>59.666666666666664</v>
@@ -10190,25 +10202,25 @@
       <c r="S244" s="6"/>
     </row>
     <row r="245" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A245" s="75" t="s">
+      <c r="A245" s="79" t="s">
         <v>99</v>
       </c>
-      <c r="B245" s="75"/>
-      <c r="C245" s="75"/>
-      <c r="D245" s="75"/>
-      <c r="E245" s="75"/>
-      <c r="F245" s="75"/>
-      <c r="G245" s="75"/>
-      <c r="H245" s="75"/>
-      <c r="I245" s="75"/>
-      <c r="J245" s="75"/>
-      <c r="K245" s="75"/>
-      <c r="L245" s="75"/>
-      <c r="M245" s="75"/>
-      <c r="N245" s="75"/>
-      <c r="O245" s="75"/>
-      <c r="P245" s="75"/>
-      <c r="Q245" s="75"/>
+      <c r="B245" s="79"/>
+      <c r="C245" s="79"/>
+      <c r="D245" s="79"/>
+      <c r="E245" s="79"/>
+      <c r="F245" s="79"/>
+      <c r="G245" s="79"/>
+      <c r="H245" s="79"/>
+      <c r="I245" s="79"/>
+      <c r="J245" s="79"/>
+      <c r="K245" s="79"/>
+      <c r="L245" s="79"/>
+      <c r="M245" s="79"/>
+      <c r="N245" s="79"/>
+      <c r="O245" s="79"/>
+      <c r="P245" s="79"/>
+      <c r="Q245" s="79"/>
       <c r="R245"/>
       <c r="S245" s="11"/>
     </row>
@@ -10217,10 +10229,10 @@
         <v>1</v>
       </c>
       <c r="B246" s="16"/>
-      <c r="C246" s="68" t="s">
+      <c r="C246" s="80" t="s">
         <v>68</v>
       </c>
-      <c r="D246" s="68"/>
+      <c r="D246" s="80"/>
       <c r="E246" s="17" t="s">
         <v>69</v>
       </c>
@@ -10269,10 +10281,10 @@
         <v>1</v>
       </c>
       <c r="B247" s="14"/>
-      <c r="C247" s="57" t="s">
+      <c r="C247" s="63" t="s">
         <v>121</v>
       </c>
-      <c r="D247" s="57"/>
+      <c r="D247" s="63"/>
       <c r="E247" s="25"/>
       <c r="F247" s="26"/>
       <c r="G247" s="27"/>
@@ -10296,10 +10308,10 @@
         <v>2</v>
       </c>
       <c r="B248" s="14"/>
-      <c r="C248" s="57" t="s">
+      <c r="C248" s="63" t="s">
         <v>122</v>
       </c>
-      <c r="D248" s="57"/>
+      <c r="D248" s="63"/>
       <c r="E248" s="25"/>
       <c r="F248" s="26"/>
       <c r="G248" s="27"/>
@@ -10323,10 +10335,10 @@
         <v>3</v>
       </c>
       <c r="B249" s="14"/>
-      <c r="C249" s="57" t="s">
+      <c r="C249" s="63" t="s">
         <v>123</v>
       </c>
-      <c r="D249" s="57"/>
+      <c r="D249" s="63"/>
       <c r="E249" s="25"/>
       <c r="F249" s="26"/>
       <c r="G249" s="27"/>
@@ -10350,10 +10362,10 @@
         <v>4</v>
       </c>
       <c r="B250" s="14"/>
-      <c r="C250" s="57" t="s">
+      <c r="C250" s="63" t="s">
         <v>124</v>
       </c>
-      <c r="D250" s="57"/>
+      <c r="D250" s="63"/>
       <c r="E250" s="25"/>
       <c r="F250" s="26"/>
       <c r="G250" s="27"/>
@@ -10373,10 +10385,10 @@
       </c>
     </row>
     <row r="251" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="C251" s="58" t="s">
+      <c r="C251" s="74" t="s">
         <v>98</v>
       </c>
-      <c r="D251" s="58"/>
+      <c r="D251" s="74"/>
       <c r="E251" s="25"/>
       <c r="F251" s="26"/>
       <c r="G251" s="27"/>
@@ -10400,103 +10412,103 @@
       <c r="R256"/>
     </row>
     <row r="257" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A257" s="59" t="s">
+      <c r="A257" s="75" t="s">
         <v>107</v>
       </c>
-      <c r="B257" s="59"/>
-      <c r="C257" s="59"/>
-      <c r="D257" s="59"/>
-      <c r="E257" s="59"/>
-      <c r="F257" s="59"/>
-      <c r="G257" s="59"/>
-      <c r="H257" s="59"/>
-      <c r="I257" s="59"/>
-      <c r="J257" s="59"/>
-      <c r="K257" s="59"/>
-      <c r="L257" s="59"/>
-      <c r="M257" s="59"/>
-      <c r="N257" s="59"/>
-      <c r="O257" s="59"/>
-      <c r="P257" s="59"/>
-      <c r="Q257" s="59"/>
-      <c r="R257" s="59"/>
-      <c r="S257" s="59"/>
-      <c r="T257" s="59"/>
-      <c r="U257" s="59"/>
-      <c r="V257" s="59"/>
-      <c r="W257" s="59"/>
+      <c r="B257" s="75"/>
+      <c r="C257" s="75"/>
+      <c r="D257" s="75"/>
+      <c r="E257" s="75"/>
+      <c r="F257" s="75"/>
+      <c r="G257" s="75"/>
+      <c r="H257" s="75"/>
+      <c r="I257" s="75"/>
+      <c r="J257" s="75"/>
+      <c r="K257" s="75"/>
+      <c r="L257" s="75"/>
+      <c r="M257" s="75"/>
+      <c r="N257" s="75"/>
+      <c r="O257" s="75"/>
+      <c r="P257" s="75"/>
+      <c r="Q257" s="75"/>
+      <c r="R257" s="75"/>
+      <c r="S257" s="75"/>
+      <c r="T257" s="75"/>
+      <c r="U257" s="75"/>
+      <c r="V257" s="75"/>
+      <c r="W257" s="75"/>
     </row>
     <row r="258" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A258" s="59"/>
-      <c r="B258" s="59"/>
-      <c r="C258" s="59"/>
-      <c r="D258" s="59"/>
-      <c r="E258" s="59"/>
-      <c r="F258" s="59"/>
-      <c r="G258" s="59"/>
-      <c r="H258" s="59"/>
-      <c r="I258" s="59"/>
-      <c r="J258" s="59"/>
-      <c r="K258" s="59"/>
-      <c r="L258" s="59"/>
-      <c r="M258" s="59"/>
-      <c r="N258" s="59"/>
-      <c r="O258" s="59"/>
-      <c r="P258" s="59"/>
-      <c r="Q258" s="59"/>
-      <c r="R258" s="59"/>
-      <c r="S258" s="59"/>
-      <c r="T258" s="59"/>
-      <c r="U258" s="59"/>
-      <c r="V258" s="59"/>
-      <c r="W258" s="59"/>
+      <c r="A258" s="75"/>
+      <c r="B258" s="75"/>
+      <c r="C258" s="75"/>
+      <c r="D258" s="75"/>
+      <c r="E258" s="75"/>
+      <c r="F258" s="75"/>
+      <c r="G258" s="75"/>
+      <c r="H258" s="75"/>
+      <c r="I258" s="75"/>
+      <c r="J258" s="75"/>
+      <c r="K258" s="75"/>
+      <c r="L258" s="75"/>
+      <c r="M258" s="75"/>
+      <c r="N258" s="75"/>
+      <c r="O258" s="75"/>
+      <c r="P258" s="75"/>
+      <c r="Q258" s="75"/>
+      <c r="R258" s="75"/>
+      <c r="S258" s="75"/>
+      <c r="T258" s="75"/>
+      <c r="U258" s="75"/>
+      <c r="V258" s="75"/>
+      <c r="W258" s="75"/>
     </row>
     <row r="259" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A259" s="59"/>
-      <c r="B259" s="59"/>
-      <c r="C259" s="59"/>
-      <c r="D259" s="59"/>
-      <c r="E259" s="59"/>
-      <c r="F259" s="59"/>
-      <c r="G259" s="59"/>
-      <c r="H259" s="59"/>
-      <c r="I259" s="59"/>
-      <c r="J259" s="59"/>
-      <c r="K259" s="59"/>
-      <c r="L259" s="59"/>
-      <c r="M259" s="59"/>
-      <c r="N259" s="59"/>
-      <c r="O259" s="59"/>
-      <c r="P259" s="59"/>
-      <c r="Q259" s="59"/>
-      <c r="R259" s="59"/>
-      <c r="S259" s="59"/>
-      <c r="T259" s="59"/>
-      <c r="U259" s="59"/>
-      <c r="V259" s="59"/>
-      <c r="W259" s="59"/>
+      <c r="A259" s="75"/>
+      <c r="B259" s="75"/>
+      <c r="C259" s="75"/>
+      <c r="D259" s="75"/>
+      <c r="E259" s="75"/>
+      <c r="F259" s="75"/>
+      <c r="G259" s="75"/>
+      <c r="H259" s="75"/>
+      <c r="I259" s="75"/>
+      <c r="J259" s="75"/>
+      <c r="K259" s="75"/>
+      <c r="L259" s="75"/>
+      <c r="M259" s="75"/>
+      <c r="N259" s="75"/>
+      <c r="O259" s="75"/>
+      <c r="P259" s="75"/>
+      <c r="Q259" s="75"/>
+      <c r="R259" s="75"/>
+      <c r="S259" s="75"/>
+      <c r="T259" s="75"/>
+      <c r="U259" s="75"/>
+      <c r="V259" s="75"/>
+      <c r="W259" s="75"/>
     </row>
     <row r="260" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A260" s="69" t="s">
+      <c r="A260" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="B260" s="70"/>
-      <c r="C260" s="70"/>
-      <c r="D260" s="70"/>
-      <c r="E260" s="70"/>
-      <c r="F260" s="70"/>
-      <c r="G260" s="70"/>
-      <c r="H260" s="70"/>
-      <c r="I260" s="70"/>
-      <c r="J260" s="70"/>
-      <c r="K260" s="70"/>
-      <c r="L260" s="70"/>
-      <c r="M260" s="70"/>
-      <c r="N260" s="70"/>
-      <c r="O260" s="70"/>
-      <c r="P260" s="70"/>
-      <c r="Q260" s="70"/>
-      <c r="R260" s="71"/>
+      <c r="B260" s="77"/>
+      <c r="C260" s="77"/>
+      <c r="D260" s="77"/>
+      <c r="E260" s="77"/>
+      <c r="F260" s="77"/>
+      <c r="G260" s="77"/>
+      <c r="H260" s="77"/>
+      <c r="I260" s="77"/>
+      <c r="J260" s="77"/>
+      <c r="K260" s="77"/>
+      <c r="L260" s="77"/>
+      <c r="M260" s="77"/>
+      <c r="N260" s="77"/>
+      <c r="O260" s="77"/>
+      <c r="P260" s="77"/>
+      <c r="Q260" s="77"/>
+      <c r="R260" s="78"/>
       <c r="S260" s="38"/>
       <c r="T260" s="38"/>
       <c r="U260" s="38"/>
@@ -10512,17 +10524,17 @@
       <c r="B262" s="46" t="s">
         <v>105</v>
       </c>
-      <c r="C262" s="73" t="s">
+      <c r="C262" s="72" t="s">
         <v>108</v>
       </c>
-      <c r="D262" s="73"/>
-      <c r="E262" s="73"/>
-      <c r="F262" s="73"/>
-      <c r="G262" s="73"/>
-      <c r="H262" s="73"/>
-      <c r="I262" s="73"/>
-      <c r="J262" s="73"/>
-      <c r="K262" s="73"/>
+      <c r="D262" s="72"/>
+      <c r="E262" s="72"/>
+      <c r="F262" s="72"/>
+      <c r="G262" s="72"/>
+      <c r="H262" s="72"/>
+      <c r="I262" s="72"/>
+      <c r="J262" s="72"/>
+      <c r="K262" s="72"/>
       <c r="L262" s="5" t="s">
         <v>2</v>
       </c>
@@ -10562,17 +10574,17 @@
       <c r="B263" s="44">
         <v>44683</v>
       </c>
-      <c r="C263" s="83" t="s">
+      <c r="C263" s="54" t="s">
         <v>43</v>
       </c>
-      <c r="D263" s="84"/>
-      <c r="E263" s="84"/>
-      <c r="F263" s="84"/>
-      <c r="G263" s="84"/>
-      <c r="H263" s="84"/>
-      <c r="I263" s="84"/>
-      <c r="J263" s="84"/>
-      <c r="K263" s="85"/>
+      <c r="D263" s="55"/>
+      <c r="E263" s="55"/>
+      <c r="F263" s="55"/>
+      <c r="G263" s="55"/>
+      <c r="H263" s="55"/>
+      <c r="I263" s="55"/>
+      <c r="J263" s="55"/>
+      <c r="K263" s="56"/>
       <c r="L263" s="6">
         <v>17</v>
       </c>
@@ -10600,17 +10612,17 @@
       <c r="B264" s="41">
         <v>44684</v>
       </c>
-      <c r="C264" s="87" t="s">
+      <c r="C264" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="D264" s="88"/>
-      <c r="E264" s="88"/>
-      <c r="F264" s="88"/>
-      <c r="G264" s="88"/>
-      <c r="H264" s="88"/>
-      <c r="I264" s="88"/>
-      <c r="J264" s="88"/>
-      <c r="K264" s="89"/>
+      <c r="D264" s="58"/>
+      <c r="E264" s="58"/>
+      <c r="F264" s="58"/>
+      <c r="G264" s="58"/>
+      <c r="H264" s="58"/>
+      <c r="I264" s="58"/>
+      <c r="J264" s="58"/>
+      <c r="K264" s="59"/>
       <c r="L264" s="6">
         <v>17</v>
       </c>
@@ -10638,17 +10650,17 @@
       <c r="B265" s="41">
         <v>44686</v>
       </c>
-      <c r="C265" s="83" t="s">
+      <c r="C265" s="54" t="s">
         <v>39</v>
       </c>
-      <c r="D265" s="84"/>
-      <c r="E265" s="84"/>
-      <c r="F265" s="84"/>
-      <c r="G265" s="84"/>
-      <c r="H265" s="84"/>
-      <c r="I265" s="84"/>
-      <c r="J265" s="84"/>
-      <c r="K265" s="85"/>
+      <c r="D265" s="55"/>
+      <c r="E265" s="55"/>
+      <c r="F265" s="55"/>
+      <c r="G265" s="55"/>
+      <c r="H265" s="55"/>
+      <c r="I265" s="55"/>
+      <c r="J265" s="55"/>
+      <c r="K265" s="56"/>
       <c r="L265" s="6">
         <v>17</v>
       </c>
@@ -10676,17 +10688,17 @@
       <c r="B266" s="41">
         <v>44688</v>
       </c>
-      <c r="C266" s="83" t="s">
+      <c r="C266" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="D266" s="84"/>
-      <c r="E266" s="84"/>
-      <c r="F266" s="84"/>
-      <c r="G266" s="84"/>
-      <c r="H266" s="84"/>
-      <c r="I266" s="84"/>
-      <c r="J266" s="84"/>
-      <c r="K266" s="85"/>
+      <c r="D266" s="55"/>
+      <c r="E266" s="55"/>
+      <c r="F266" s="55"/>
+      <c r="G266" s="55"/>
+      <c r="H266" s="55"/>
+      <c r="I266" s="55"/>
+      <c r="J266" s="55"/>
+      <c r="K266" s="56"/>
       <c r="L266" s="6">
         <v>17</v>
       </c>
@@ -10714,17 +10726,17 @@
       <c r="B267" s="41">
         <v>44696</v>
       </c>
-      <c r="C267" s="87" t="s">
+      <c r="C267" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="D267" s="88"/>
-      <c r="E267" s="88"/>
-      <c r="F267" s="88"/>
-      <c r="G267" s="88"/>
-      <c r="H267" s="88"/>
-      <c r="I267" s="88"/>
-      <c r="J267" s="88"/>
-      <c r="K267" s="89"/>
+      <c r="D267" s="58"/>
+      <c r="E267" s="58"/>
+      <c r="F267" s="58"/>
+      <c r="G267" s="58"/>
+      <c r="H267" s="58"/>
+      <c r="I267" s="58"/>
+      <c r="J267" s="58"/>
+      <c r="K267" s="59"/>
       <c r="L267" s="6">
         <v>17</v>
       </c>
@@ -10752,17 +10764,17 @@
       <c r="B268" s="41">
         <v>44700</v>
       </c>
-      <c r="C268" s="83" t="s">
+      <c r="C268" s="54" t="s">
         <v>33</v>
       </c>
-      <c r="D268" s="84"/>
-      <c r="E268" s="84"/>
-      <c r="F268" s="84"/>
-      <c r="G268" s="84"/>
-      <c r="H268" s="84"/>
-      <c r="I268" s="84"/>
-      <c r="J268" s="84"/>
-      <c r="K268" s="85"/>
+      <c r="D268" s="55"/>
+      <c r="E268" s="55"/>
+      <c r="F268" s="55"/>
+      <c r="G268" s="55"/>
+      <c r="H268" s="55"/>
+      <c r="I268" s="55"/>
+      <c r="J268" s="55"/>
+      <c r="K268" s="56"/>
       <c r="L268" s="6">
         <v>17</v>
       </c>
@@ -10790,17 +10802,17 @@
       <c r="B269" s="41">
         <v>44703</v>
       </c>
-      <c r="C269" s="87" t="s">
+      <c r="C269" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="D269" s="88"/>
-      <c r="E269" s="88"/>
-      <c r="F269" s="88"/>
-      <c r="G269" s="88"/>
-      <c r="H269" s="88"/>
-      <c r="I269" s="88"/>
-      <c r="J269" s="88"/>
-      <c r="K269" s="89"/>
+      <c r="D269" s="58"/>
+      <c r="E269" s="58"/>
+      <c r="F269" s="58"/>
+      <c r="G269" s="58"/>
+      <c r="H269" s="58"/>
+      <c r="I269" s="58"/>
+      <c r="J269" s="58"/>
+      <c r="K269" s="59"/>
       <c r="L269" s="6">
         <v>17</v>
       </c>
@@ -10828,17 +10840,17 @@
       <c r="B270" s="41">
         <v>44707</v>
       </c>
-      <c r="C270" s="87" t="s">
+      <c r="C270" s="57" t="s">
         <v>44</v>
       </c>
-      <c r="D270" s="88"/>
-      <c r="E270" s="88"/>
-      <c r="F270" s="88"/>
-      <c r="G270" s="88"/>
-      <c r="H270" s="88"/>
-      <c r="I270" s="88"/>
-      <c r="J270" s="88"/>
-      <c r="K270" s="89"/>
+      <c r="D270" s="58"/>
+      <c r="E270" s="58"/>
+      <c r="F270" s="58"/>
+      <c r="G270" s="58"/>
+      <c r="H270" s="58"/>
+      <c r="I270" s="58"/>
+      <c r="J270" s="58"/>
+      <c r="K270" s="59"/>
       <c r="L270" s="6">
         <v>17</v>
       </c>
@@ -10863,17 +10875,17 @@
       <c r="B271" s="41">
         <v>44712</v>
       </c>
-      <c r="C271" s="83" t="s">
+      <c r="C271" s="54" t="s">
         <v>34</v>
       </c>
-      <c r="D271" s="84"/>
-      <c r="E271" s="84"/>
-      <c r="F271" s="84"/>
-      <c r="G271" s="84"/>
-      <c r="H271" s="84"/>
-      <c r="I271" s="84"/>
-      <c r="J271" s="84"/>
-      <c r="K271" s="85"/>
+      <c r="D271" s="55"/>
+      <c r="E271" s="55"/>
+      <c r="F271" s="55"/>
+      <c r="G271" s="55"/>
+      <c r="H271" s="55"/>
+      <c r="I271" s="55"/>
+      <c r="J271" s="55"/>
+      <c r="K271" s="56"/>
       <c r="L271" s="6">
         <v>17</v>
       </c>
@@ -10898,17 +10910,17 @@
       <c r="B272" s="41">
         <v>44717</v>
       </c>
-      <c r="C272" s="87" t="s">
+      <c r="C272" s="57" t="s">
         <v>35</v>
       </c>
-      <c r="D272" s="88"/>
-      <c r="E272" s="88"/>
-      <c r="F272" s="88"/>
-      <c r="G272" s="88"/>
-      <c r="H272" s="88"/>
-      <c r="I272" s="88"/>
-      <c r="J272" s="88"/>
-      <c r="K272" s="89"/>
+      <c r="D272" s="58"/>
+      <c r="E272" s="58"/>
+      <c r="F272" s="58"/>
+      <c r="G272" s="58"/>
+      <c r="H272" s="58"/>
+      <c r="I272" s="58"/>
+      <c r="J272" s="58"/>
+      <c r="K272" s="59"/>
       <c r="L272" s="6">
         <v>17</v>
       </c>
@@ -10936,17 +10948,17 @@
       <c r="B273" s="41">
         <v>44722</v>
       </c>
-      <c r="C273" s="83" t="s">
+      <c r="C273" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="D273" s="84"/>
-      <c r="E273" s="84"/>
-      <c r="F273" s="84"/>
-      <c r="G273" s="84"/>
-      <c r="H273" s="84"/>
-      <c r="I273" s="84"/>
-      <c r="J273" s="84"/>
-      <c r="K273" s="85"/>
+      <c r="D273" s="55"/>
+      <c r="E273" s="55"/>
+      <c r="F273" s="55"/>
+      <c r="G273" s="55"/>
+      <c r="H273" s="55"/>
+      <c r="I273" s="55"/>
+      <c r="J273" s="55"/>
+      <c r="K273" s="56"/>
       <c r="L273" s="6">
         <v>17</v>
       </c>
@@ -10971,17 +10983,17 @@
       <c r="B274" s="41">
         <v>44727</v>
       </c>
-      <c r="C274" s="83" t="s">
+      <c r="C274" s="54" t="s">
         <v>37</v>
       </c>
-      <c r="D274" s="84"/>
-      <c r="E274" s="84"/>
-      <c r="F274" s="84"/>
-      <c r="G274" s="84"/>
-      <c r="H274" s="84"/>
-      <c r="I274" s="84"/>
-      <c r="J274" s="84"/>
-      <c r="K274" s="85"/>
+      <c r="D274" s="55"/>
+      <c r="E274" s="55"/>
+      <c r="F274" s="55"/>
+      <c r="G274" s="55"/>
+      <c r="H274" s="55"/>
+      <c r="I274" s="55"/>
+      <c r="J274" s="55"/>
+      <c r="K274" s="56"/>
       <c r="L274" s="6">
         <v>17</v>
       </c>
@@ -11006,17 +11018,17 @@
       <c r="B275" s="41" t="s">
         <v>109</v>
       </c>
-      <c r="C275" s="83" t="s">
+      <c r="C275" s="54" t="s">
         <v>45</v>
       </c>
-      <c r="D275" s="84"/>
-      <c r="E275" s="84"/>
-      <c r="F275" s="84"/>
-      <c r="G275" s="84"/>
-      <c r="H275" s="84"/>
-      <c r="I275" s="84"/>
-      <c r="J275" s="84"/>
-      <c r="K275" s="85"/>
+      <c r="D275" s="55"/>
+      <c r="E275" s="55"/>
+      <c r="F275" s="55"/>
+      <c r="G275" s="55"/>
+      <c r="H275" s="55"/>
+      <c r="I275" s="55"/>
+      <c r="J275" s="55"/>
+      <c r="K275" s="56"/>
       <c r="L275" s="6">
         <v>17</v>
       </c>
@@ -11044,17 +11056,17 @@
       <c r="B276" s="41" t="s">
         <v>110</v>
       </c>
-      <c r="C276" s="83" t="s">
+      <c r="C276" s="54" t="s">
         <v>46</v>
       </c>
-      <c r="D276" s="84"/>
-      <c r="E276" s="84"/>
-      <c r="F276" s="84"/>
-      <c r="G276" s="84"/>
-      <c r="H276" s="84"/>
-      <c r="I276" s="84"/>
-      <c r="J276" s="84"/>
-      <c r="K276" s="85"/>
+      <c r="D276" s="55"/>
+      <c r="E276" s="55"/>
+      <c r="F276" s="55"/>
+      <c r="G276" s="55"/>
+      <c r="H276" s="55"/>
+      <c r="I276" s="55"/>
+      <c r="J276" s="55"/>
+      <c r="K276" s="56"/>
       <c r="L276" s="6">
         <v>17</v>
       </c>
@@ -11082,17 +11094,17 @@
       <c r="B277" s="41">
         <v>44736</v>
       </c>
-      <c r="C277" s="87" t="s">
+      <c r="C277" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="D277" s="88"/>
-      <c r="E277" s="88"/>
-      <c r="F277" s="88"/>
-      <c r="G277" s="88"/>
-      <c r="H277" s="88"/>
-      <c r="I277" s="88"/>
-      <c r="J277" s="88"/>
-      <c r="K277" s="89"/>
+      <c r="D277" s="58"/>
+      <c r="E277" s="58"/>
+      <c r="F277" s="58"/>
+      <c r="G277" s="58"/>
+      <c r="H277" s="58"/>
+      <c r="I277" s="58"/>
+      <c r="J277" s="58"/>
+      <c r="K277" s="59"/>
       <c r="L277" s="6">
         <v>17</v>
       </c>
@@ -11120,17 +11132,17 @@
       <c r="B278" s="41">
         <v>44740</v>
       </c>
-      <c r="C278" s="83" t="s">
+      <c r="C278" s="54" t="s">
         <v>38</v>
       </c>
-      <c r="D278" s="84"/>
-      <c r="E278" s="84"/>
-      <c r="F278" s="84"/>
-      <c r="G278" s="84"/>
-      <c r="H278" s="84"/>
-      <c r="I278" s="84"/>
-      <c r="J278" s="84"/>
-      <c r="K278" s="85"/>
+      <c r="D278" s="55"/>
+      <c r="E278" s="55"/>
+      <c r="F278" s="55"/>
+      <c r="G278" s="55"/>
+      <c r="H278" s="55"/>
+      <c r="I278" s="55"/>
+      <c r="J278" s="55"/>
+      <c r="K278" s="56"/>
       <c r="L278" s="6">
         <v>17</v>
       </c>
@@ -11158,17 +11170,17 @@
       <c r="B279" s="41">
         <v>44745</v>
       </c>
-      <c r="C279" s="87" t="s">
+      <c r="C279" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="D279" s="88"/>
-      <c r="E279" s="88"/>
-      <c r="F279" s="88"/>
-      <c r="G279" s="88"/>
-      <c r="H279" s="88"/>
-      <c r="I279" s="88"/>
-      <c r="J279" s="88"/>
-      <c r="K279" s="89"/>
+      <c r="D279" s="58"/>
+      <c r="E279" s="58"/>
+      <c r="F279" s="58"/>
+      <c r="G279" s="58"/>
+      <c r="H279" s="58"/>
+      <c r="I279" s="58"/>
+      <c r="J279" s="58"/>
+      <c r="K279" s="59"/>
       <c r="L279" s="6">
         <v>17</v>
       </c>
@@ -11196,17 +11208,17 @@
       <c r="B280" s="41">
         <v>44750</v>
       </c>
-      <c r="C280" s="83" t="s">
+      <c r="C280" s="54" t="s">
         <v>48</v>
       </c>
-      <c r="D280" s="84"/>
-      <c r="E280" s="84"/>
-      <c r="F280" s="84"/>
-      <c r="G280" s="84"/>
-      <c r="H280" s="84"/>
-      <c r="I280" s="84"/>
-      <c r="J280" s="84"/>
-      <c r="K280" s="85"/>
+      <c r="D280" s="55"/>
+      <c r="E280" s="55"/>
+      <c r="F280" s="55"/>
+      <c r="G280" s="55"/>
+      <c r="H280" s="55"/>
+      <c r="I280" s="55"/>
+      <c r="J280" s="55"/>
+      <c r="K280" s="56"/>
       <c r="L280" s="6">
         <v>17</v>
       </c>
@@ -11231,17 +11243,17 @@
       <c r="B281" s="41">
         <v>44752</v>
       </c>
-      <c r="C281" s="88" t="s">
+      <c r="C281" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="D281" s="88"/>
-      <c r="E281" s="88"/>
-      <c r="F281" s="88"/>
-      <c r="G281" s="88"/>
-      <c r="H281" s="88"/>
-      <c r="I281" s="88"/>
-      <c r="J281" s="88"/>
-      <c r="K281" s="89"/>
+      <c r="D281" s="58"/>
+      <c r="E281" s="58"/>
+      <c r="F281" s="58"/>
+      <c r="G281" s="58"/>
+      <c r="H281" s="58"/>
+      <c r="I281" s="58"/>
+      <c r="J281" s="58"/>
+      <c r="K281" s="59"/>
       <c r="L281" s="6">
         <v>17</v>
       </c>
@@ -11269,17 +11281,17 @@
       <c r="B282" s="41">
         <v>44754</v>
       </c>
-      <c r="C282" s="84" t="s">
+      <c r="C282" s="55" t="s">
         <v>49</v>
       </c>
-      <c r="D282" s="84"/>
-      <c r="E282" s="84"/>
-      <c r="F282" s="84"/>
-      <c r="G282" s="84"/>
-      <c r="H282" s="84"/>
-      <c r="I282" s="84"/>
-      <c r="J282" s="84"/>
-      <c r="K282" s="85"/>
+      <c r="D282" s="55"/>
+      <c r="E282" s="55"/>
+      <c r="F282" s="55"/>
+      <c r="G282" s="55"/>
+      <c r="H282" s="55"/>
+      <c r="I282" s="55"/>
+      <c r="J282" s="55"/>
+      <c r="K282" s="56"/>
       <c r="L282" s="6">
         <v>17</v>
       </c>
@@ -11304,17 +11316,17 @@
       <c r="B283" s="41">
         <v>44757</v>
       </c>
-      <c r="C283" s="87" t="s">
+      <c r="C283" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="D283" s="88"/>
-      <c r="E283" s="88"/>
-      <c r="F283" s="88"/>
-      <c r="G283" s="88"/>
-      <c r="H283" s="88"/>
-      <c r="I283" s="88"/>
-      <c r="J283" s="88"/>
-      <c r="K283" s="89"/>
+      <c r="D283" s="58"/>
+      <c r="E283" s="58"/>
+      <c r="F283" s="58"/>
+      <c r="G283" s="58"/>
+      <c r="H283" s="58"/>
+      <c r="I283" s="58"/>
+      <c r="J283" s="58"/>
+      <c r="K283" s="59"/>
       <c r="L283" s="6">
         <v>17</v>
       </c>
@@ -11342,17 +11354,17 @@
       <c r="B284" s="41">
         <v>44760</v>
       </c>
-      <c r="C284" s="87" t="s">
+      <c r="C284" s="57" t="s">
         <v>47</v>
       </c>
-      <c r="D284" s="88"/>
-      <c r="E284" s="88"/>
-      <c r="F284" s="88"/>
-      <c r="G284" s="88"/>
-      <c r="H284" s="88"/>
-      <c r="I284" s="88"/>
-      <c r="J284" s="88"/>
-      <c r="K284" s="89"/>
+      <c r="D284" s="58"/>
+      <c r="E284" s="58"/>
+      <c r="F284" s="58"/>
+      <c r="G284" s="58"/>
+      <c r="H284" s="58"/>
+      <c r="I284" s="58"/>
+      <c r="J284" s="58"/>
+      <c r="K284" s="59"/>
       <c r="L284" s="6">
         <v>17</v>
       </c>
@@ -11378,17 +11390,17 @@
         <v>23</v>
       </c>
       <c r="B285" s="41"/>
-      <c r="C285" s="83" t="s">
+      <c r="C285" s="54" t="s">
         <v>41</v>
       </c>
-      <c r="D285" s="84"/>
-      <c r="E285" s="84"/>
-      <c r="F285" s="84"/>
-      <c r="G285" s="84"/>
-      <c r="H285" s="84"/>
-      <c r="I285" s="84"/>
-      <c r="J285" s="84"/>
-      <c r="K285" s="85"/>
+      <c r="D285" s="55"/>
+      <c r="E285" s="55"/>
+      <c r="F285" s="55"/>
+      <c r="G285" s="55"/>
+      <c r="H285" s="55"/>
+      <c r="I285" s="55"/>
+      <c r="J285" s="55"/>
+      <c r="K285" s="56"/>
       <c r="L285" s="6">
         <v>17</v>
       </c>
@@ -11411,17 +11423,17 @@
         <v>24</v>
       </c>
       <c r="B286" s="41"/>
-      <c r="C286" s="83" t="s">
+      <c r="C286" s="54" t="s">
         <v>42</v>
       </c>
-      <c r="D286" s="84"/>
-      <c r="E286" s="84"/>
-      <c r="F286" s="84"/>
-      <c r="G286" s="84"/>
-      <c r="H286" s="84"/>
-      <c r="I286" s="84"/>
-      <c r="J286" s="84"/>
-      <c r="K286" s="85"/>
+      <c r="D286" s="55"/>
+      <c r="E286" s="55"/>
+      <c r="F286" s="55"/>
+      <c r="G286" s="55"/>
+      <c r="H286" s="55"/>
+      <c r="I286" s="55"/>
+      <c r="J286" s="55"/>
+      <c r="K286" s="56"/>
       <c r="L286" s="6">
         <v>17</v>
       </c>
@@ -11444,20 +11456,20 @@
         <v>25</v>
       </c>
       <c r="B287" s="47"/>
-      <c r="C287" s="60" t="s">
+      <c r="C287" s="66" t="s">
         <v>58</v>
       </c>
-      <c r="D287" s="61"/>
-      <c r="E287" s="61"/>
-      <c r="F287" s="61"/>
-      <c r="G287" s="61"/>
-      <c r="H287" s="61"/>
-      <c r="I287" s="61"/>
-      <c r="J287" s="61"/>
-      <c r="K287" s="61"/>
-      <c r="L287" s="61"/>
-      <c r="M287" s="61"/>
-      <c r="N287" s="62"/>
+      <c r="D287" s="67"/>
+      <c r="E287" s="67"/>
+      <c r="F287" s="67"/>
+      <c r="G287" s="67"/>
+      <c r="H287" s="67"/>
+      <c r="I287" s="67"/>
+      <c r="J287" s="67"/>
+      <c r="K287" s="67"/>
+      <c r="L287" s="67"/>
+      <c r="M287" s="67"/>
+      <c r="N287" s="68"/>
       <c r="O287" s="11"/>
       <c r="P287" s="12" t="e">
         <f>AVERAGE(P263:P286)</f>
@@ -11480,26 +11492,26 @@
       <c r="B288" s="41"/>
     </row>
     <row r="289" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A289" s="76" t="s">
+      <c r="A289" s="82" t="s">
         <v>13</v>
       </c>
-      <c r="B289" s="77"/>
-      <c r="C289" s="77"/>
-      <c r="D289" s="77"/>
-      <c r="E289" s="77"/>
-      <c r="F289" s="77"/>
-      <c r="G289" s="77"/>
-      <c r="H289" s="77"/>
-      <c r="I289" s="77"/>
-      <c r="J289" s="77"/>
-      <c r="K289" s="77"/>
-      <c r="L289" s="77"/>
-      <c r="M289" s="77"/>
-      <c r="N289" s="77"/>
-      <c r="O289" s="77"/>
-      <c r="P289" s="77"/>
-      <c r="Q289" s="77"/>
-      <c r="R289" s="78"/>
+      <c r="B289" s="83"/>
+      <c r="C289" s="83"/>
+      <c r="D289" s="83"/>
+      <c r="E289" s="83"/>
+      <c r="F289" s="83"/>
+      <c r="G289" s="83"/>
+      <c r="H289" s="83"/>
+      <c r="I289" s="83"/>
+      <c r="J289" s="83"/>
+      <c r="K289" s="83"/>
+      <c r="L289" s="83"/>
+      <c r="M289" s="83"/>
+      <c r="N289" s="83"/>
+      <c r="O289" s="83"/>
+      <c r="P289" s="83"/>
+      <c r="Q289" s="83"/>
+      <c r="R289" s="84"/>
       <c r="S289" s="15"/>
       <c r="T289" s="15"/>
       <c r="U289" s="15"/>
@@ -11509,17 +11521,17 @@
         <v>1</v>
       </c>
       <c r="B291" s="5"/>
-      <c r="C291" s="73" t="s">
+      <c r="C291" s="72" t="s">
         <v>56</v>
       </c>
-      <c r="D291" s="73"/>
-      <c r="E291" s="73"/>
-      <c r="F291" s="73"/>
-      <c r="G291" s="73"/>
-      <c r="H291" s="73"/>
-      <c r="I291" s="73"/>
-      <c r="J291" s="73"/>
-      <c r="K291" s="73"/>
+      <c r="D291" s="72"/>
+      <c r="E291" s="72"/>
+      <c r="F291" s="72"/>
+      <c r="G291" s="72"/>
+      <c r="H291" s="72"/>
+      <c r="I291" s="72"/>
+      <c r="J291" s="72"/>
+      <c r="K291" s="72"/>
       <c r="L291" s="5" t="s">
         <v>2</v>
       </c>
@@ -11556,17 +11568,17 @@
         <v>1</v>
       </c>
       <c r="B292" s="1"/>
-      <c r="C292" s="74" t="s">
+      <c r="C292" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="D292" s="74"/>
-      <c r="E292" s="74"/>
-      <c r="F292" s="74"/>
-      <c r="G292" s="74"/>
-      <c r="H292" s="74"/>
-      <c r="I292" s="74"/>
-      <c r="J292" s="74"/>
-      <c r="K292" s="74"/>
+      <c r="D292" s="73"/>
+      <c r="E292" s="73"/>
+      <c r="F292" s="73"/>
+      <c r="G292" s="73"/>
+      <c r="H292" s="73"/>
+      <c r="I292" s="73"/>
+      <c r="J292" s="73"/>
+      <c r="K292" s="73"/>
       <c r="L292" s="6">
         <v>33</v>
       </c>
@@ -11589,17 +11601,17 @@
         <v>2</v>
       </c>
       <c r="B293" s="1"/>
-      <c r="C293" s="66" t="s">
+      <c r="C293" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="D293" s="67"/>
-      <c r="E293" s="67"/>
-      <c r="F293" s="67"/>
-      <c r="G293" s="67"/>
-      <c r="H293" s="67"/>
-      <c r="I293" s="67"/>
-      <c r="J293" s="67"/>
-      <c r="K293" s="67"/>
+      <c r="D293" s="65"/>
+      <c r="E293" s="65"/>
+      <c r="F293" s="65"/>
+      <c r="G293" s="65"/>
+      <c r="H293" s="65"/>
+      <c r="I293" s="65"/>
+      <c r="J293" s="65"/>
+      <c r="K293" s="65"/>
       <c r="L293" s="6">
         <v>33</v>
       </c>
@@ -11622,17 +11634,17 @@
         <v>3</v>
       </c>
       <c r="B294" s="1"/>
-      <c r="C294" s="66" t="s">
+      <c r="C294" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="D294" s="67"/>
-      <c r="E294" s="67"/>
-      <c r="F294" s="67"/>
-      <c r="G294" s="67"/>
-      <c r="H294" s="67"/>
-      <c r="I294" s="67"/>
-      <c r="J294" s="67"/>
-      <c r="K294" s="67"/>
+      <c r="D294" s="65"/>
+      <c r="E294" s="65"/>
+      <c r="F294" s="65"/>
+      <c r="G294" s="65"/>
+      <c r="H294" s="65"/>
+      <c r="I294" s="65"/>
+      <c r="J294" s="65"/>
+      <c r="K294" s="65"/>
       <c r="L294" s="6">
         <v>33</v>
       </c>
@@ -11655,17 +11667,17 @@
         <v>4</v>
       </c>
       <c r="B295" s="1"/>
-      <c r="C295" s="67" t="s">
+      <c r="C295" s="65" t="s">
         <v>18</v>
       </c>
-      <c r="D295" s="67"/>
-      <c r="E295" s="67"/>
-      <c r="F295" s="67"/>
-      <c r="G295" s="67"/>
-      <c r="H295" s="67"/>
-      <c r="I295" s="67"/>
-      <c r="J295" s="67"/>
-      <c r="K295" s="67"/>
+      <c r="D295" s="65"/>
+      <c r="E295" s="65"/>
+      <c r="F295" s="65"/>
+      <c r="G295" s="65"/>
+      <c r="H295" s="65"/>
+      <c r="I295" s="65"/>
+      <c r="J295" s="65"/>
+      <c r="K295" s="65"/>
       <c r="L295" s="6">
         <v>33</v>
       </c>
@@ -11688,17 +11700,17 @@
         <v>5</v>
       </c>
       <c r="B296" s="1"/>
-      <c r="C296" s="66" t="s">
+      <c r="C296" s="64" t="s">
         <v>61</v>
       </c>
-      <c r="D296" s="67"/>
-      <c r="E296" s="67"/>
-      <c r="F296" s="67"/>
-      <c r="G296" s="67"/>
-      <c r="H296" s="67"/>
-      <c r="I296" s="67"/>
-      <c r="J296" s="67"/>
-      <c r="K296" s="67"/>
+      <c r="D296" s="65"/>
+      <c r="E296" s="65"/>
+      <c r="F296" s="65"/>
+      <c r="G296" s="65"/>
+      <c r="H296" s="65"/>
+      <c r="I296" s="65"/>
+      <c r="J296" s="65"/>
+      <c r="K296" s="65"/>
       <c r="L296" s="6">
         <v>33</v>
       </c>
@@ -11721,17 +11733,17 @@
         <v>6</v>
       </c>
       <c r="B297" s="1"/>
-      <c r="C297" s="66" t="s">
+      <c r="C297" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="D297" s="67"/>
-      <c r="E297" s="67"/>
-      <c r="F297" s="67"/>
-      <c r="G297" s="67"/>
-      <c r="H297" s="67"/>
-      <c r="I297" s="67"/>
-      <c r="J297" s="67"/>
-      <c r="K297" s="67"/>
+      <c r="D297" s="65"/>
+      <c r="E297" s="65"/>
+      <c r="F297" s="65"/>
+      <c r="G297" s="65"/>
+      <c r="H297" s="65"/>
+      <c r="I297" s="65"/>
+      <c r="J297" s="65"/>
+      <c r="K297" s="65"/>
       <c r="L297" s="6">
         <v>33</v>
       </c>
@@ -11754,17 +11766,17 @@
         <v>7</v>
       </c>
       <c r="B298" s="1"/>
-      <c r="C298" s="67" t="s">
+      <c r="C298" s="65" t="s">
         <v>20</v>
       </c>
-      <c r="D298" s="67"/>
-      <c r="E298" s="67"/>
-      <c r="F298" s="67"/>
-      <c r="G298" s="67"/>
-      <c r="H298" s="67"/>
-      <c r="I298" s="67"/>
-      <c r="J298" s="67"/>
-      <c r="K298" s="67"/>
+      <c r="D298" s="65"/>
+      <c r="E298" s="65"/>
+      <c r="F298" s="65"/>
+      <c r="G298" s="65"/>
+      <c r="H298" s="65"/>
+      <c r="I298" s="65"/>
+      <c r="J298" s="65"/>
+      <c r="K298" s="65"/>
       <c r="L298" s="6">
         <v>33</v>
       </c>
@@ -11787,17 +11799,17 @@
         <v>8</v>
       </c>
       <c r="B299" s="1"/>
-      <c r="C299" s="66" t="s">
+      <c r="C299" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="D299" s="67"/>
-      <c r="E299" s="67"/>
-      <c r="F299" s="67"/>
-      <c r="G299" s="67"/>
-      <c r="H299" s="67"/>
-      <c r="I299" s="67"/>
-      <c r="J299" s="67"/>
-      <c r="K299" s="67"/>
+      <c r="D299" s="65"/>
+      <c r="E299" s="65"/>
+      <c r="F299" s="65"/>
+      <c r="G299" s="65"/>
+      <c r="H299" s="65"/>
+      <c r="I299" s="65"/>
+      <c r="J299" s="65"/>
+      <c r="K299" s="65"/>
       <c r="L299" s="6">
         <v>33</v>
       </c>
@@ -11820,17 +11832,17 @@
         <v>9</v>
       </c>
       <c r="B300" s="1"/>
-      <c r="C300" s="66" t="s">
+      <c r="C300" s="64" t="s">
         <v>62</v>
       </c>
-      <c r="D300" s="67"/>
-      <c r="E300" s="67"/>
-      <c r="F300" s="67"/>
-      <c r="G300" s="67"/>
-      <c r="H300" s="67"/>
-      <c r="I300" s="67"/>
-      <c r="J300" s="67"/>
-      <c r="K300" s="67"/>
+      <c r="D300" s="65"/>
+      <c r="E300" s="65"/>
+      <c r="F300" s="65"/>
+      <c r="G300" s="65"/>
+      <c r="H300" s="65"/>
+      <c r="I300" s="65"/>
+      <c r="J300" s="65"/>
+      <c r="K300" s="65"/>
       <c r="L300" s="6">
         <v>33</v>
       </c>
@@ -11853,17 +11865,17 @@
         <v>10</v>
       </c>
       <c r="B301" s="1"/>
-      <c r="C301" s="66" t="s">
+      <c r="C301" s="64" t="s">
         <v>22</v>
       </c>
-      <c r="D301" s="67"/>
-      <c r="E301" s="67"/>
-      <c r="F301" s="67"/>
-      <c r="G301" s="67"/>
-      <c r="H301" s="67"/>
-      <c r="I301" s="67"/>
-      <c r="J301" s="67"/>
-      <c r="K301" s="67"/>
+      <c r="D301" s="65"/>
+      <c r="E301" s="65"/>
+      <c r="F301" s="65"/>
+      <c r="G301" s="65"/>
+      <c r="H301" s="65"/>
+      <c r="I301" s="65"/>
+      <c r="J301" s="65"/>
+      <c r="K301" s="65"/>
       <c r="L301" s="6">
         <v>33</v>
       </c>
@@ -11886,17 +11898,17 @@
         <v>11</v>
       </c>
       <c r="B302" s="1"/>
-      <c r="C302" s="66" t="s">
+      <c r="C302" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="D302" s="67"/>
-      <c r="E302" s="67"/>
-      <c r="F302" s="67"/>
-      <c r="G302" s="67"/>
-      <c r="H302" s="67"/>
-      <c r="I302" s="67"/>
-      <c r="J302" s="67"/>
-      <c r="K302" s="67"/>
+      <c r="D302" s="65"/>
+      <c r="E302" s="65"/>
+      <c r="F302" s="65"/>
+      <c r="G302" s="65"/>
+      <c r="H302" s="65"/>
+      <c r="I302" s="65"/>
+      <c r="J302" s="65"/>
+      <c r="K302" s="65"/>
       <c r="L302" s="6">
         <v>33</v>
       </c>
@@ -11919,17 +11931,17 @@
         <v>12</v>
       </c>
       <c r="B303" s="1"/>
-      <c r="C303" s="66" t="s">
+      <c r="C303" s="64" t="s">
         <v>63</v>
       </c>
-      <c r="D303" s="67"/>
-      <c r="E303" s="67"/>
-      <c r="F303" s="67"/>
-      <c r="G303" s="67"/>
-      <c r="H303" s="67"/>
-      <c r="I303" s="67"/>
-      <c r="J303" s="67"/>
-      <c r="K303" s="67"/>
+      <c r="D303" s="65"/>
+      <c r="E303" s="65"/>
+      <c r="F303" s="65"/>
+      <c r="G303" s="65"/>
+      <c r="H303" s="65"/>
+      <c r="I303" s="65"/>
+      <c r="J303" s="65"/>
+      <c r="K303" s="65"/>
       <c r="L303" s="6">
         <v>33</v>
       </c>
@@ -11952,20 +11964,20 @@
         <v>13</v>
       </c>
       <c r="B304" s="1"/>
-      <c r="C304" s="60" t="s">
+      <c r="C304" s="66" t="s">
         <v>58</v>
       </c>
-      <c r="D304" s="61"/>
-      <c r="E304" s="61"/>
-      <c r="F304" s="61"/>
-      <c r="G304" s="61"/>
-      <c r="H304" s="61"/>
-      <c r="I304" s="61"/>
-      <c r="J304" s="61"/>
-      <c r="K304" s="61"/>
-      <c r="L304" s="61"/>
-      <c r="M304" s="61"/>
-      <c r="N304" s="62"/>
+      <c r="D304" s="67"/>
+      <c r="E304" s="67"/>
+      <c r="F304" s="67"/>
+      <c r="G304" s="67"/>
+      <c r="H304" s="67"/>
+      <c r="I304" s="67"/>
+      <c r="J304" s="67"/>
+      <c r="K304" s="67"/>
+      <c r="L304" s="67"/>
+      <c r="M304" s="67"/>
+      <c r="N304" s="68"/>
       <c r="O304" s="11"/>
       <c r="P304" s="12"/>
       <c r="Q304" s="13"/>
@@ -11979,26 +11991,26 @@
       <c r="B305" s="1"/>
     </row>
     <row r="306" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A306" s="63" t="s">
+      <c r="A306" s="69" t="s">
         <v>24</v>
       </c>
-      <c r="B306" s="64"/>
-      <c r="C306" s="64"/>
-      <c r="D306" s="64"/>
-      <c r="E306" s="64"/>
-      <c r="F306" s="64"/>
-      <c r="G306" s="64"/>
-      <c r="H306" s="64"/>
-      <c r="I306" s="64"/>
-      <c r="J306" s="64"/>
-      <c r="K306" s="64"/>
-      <c r="L306" s="64"/>
-      <c r="M306" s="64"/>
-      <c r="N306" s="64"/>
-      <c r="O306" s="64"/>
-      <c r="P306" s="64"/>
-      <c r="Q306" s="64"/>
-      <c r="R306" s="65"/>
+      <c r="B306" s="70"/>
+      <c r="C306" s="70"/>
+      <c r="D306" s="70"/>
+      <c r="E306" s="70"/>
+      <c r="F306" s="70"/>
+      <c r="G306" s="70"/>
+      <c r="H306" s="70"/>
+      <c r="I306" s="70"/>
+      <c r="J306" s="70"/>
+      <c r="K306" s="70"/>
+      <c r="L306" s="70"/>
+      <c r="M306" s="70"/>
+      <c r="N306" s="70"/>
+      <c r="O306" s="70"/>
+      <c r="P306" s="70"/>
+      <c r="Q306" s="70"/>
+      <c r="R306" s="71"/>
       <c r="S306" s="3"/>
       <c r="T306" s="3"/>
       <c r="U306" s="3"/>
@@ -12008,17 +12020,17 @@
         <v>1</v>
       </c>
       <c r="B308" s="5"/>
-      <c r="C308" s="73" t="s">
+      <c r="C308" s="72" t="s">
         <v>56</v>
       </c>
-      <c r="D308" s="73"/>
-      <c r="E308" s="73"/>
-      <c r="F308" s="73"/>
-      <c r="G308" s="73"/>
-      <c r="H308" s="73"/>
-      <c r="I308" s="73"/>
-      <c r="J308" s="73"/>
-      <c r="K308" s="73"/>
+      <c r="D308" s="72"/>
+      <c r="E308" s="72"/>
+      <c r="F308" s="72"/>
+      <c r="G308" s="72"/>
+      <c r="H308" s="72"/>
+      <c r="I308" s="72"/>
+      <c r="J308" s="72"/>
+      <c r="K308" s="72"/>
       <c r="L308" s="5" t="s">
         <v>2</v>
       </c>
@@ -12055,17 +12067,17 @@
         <v>1</v>
       </c>
       <c r="B309" s="1"/>
-      <c r="C309" s="74" t="s">
+      <c r="C309" s="73" t="s">
         <v>65</v>
       </c>
-      <c r="D309" s="74"/>
-      <c r="E309" s="74"/>
-      <c r="F309" s="74"/>
-      <c r="G309" s="74"/>
-      <c r="H309" s="74"/>
-      <c r="I309" s="74"/>
-      <c r="J309" s="74"/>
-      <c r="K309" s="74"/>
+      <c r="D309" s="73"/>
+      <c r="E309" s="73"/>
+      <c r="F309" s="73"/>
+      <c r="G309" s="73"/>
+      <c r="H309" s="73"/>
+      <c r="I309" s="73"/>
+      <c r="J309" s="73"/>
+      <c r="K309" s="73"/>
       <c r="L309" s="6">
         <v>33</v>
       </c>
@@ -12088,17 +12100,17 @@
         <v>2</v>
       </c>
       <c r="B310" s="1"/>
-      <c r="C310" s="66" t="s">
+      <c r="C310" s="64" t="s">
         <v>66</v>
       </c>
-      <c r="D310" s="67"/>
-      <c r="E310" s="67"/>
-      <c r="F310" s="67"/>
-      <c r="G310" s="67"/>
-      <c r="H310" s="67"/>
-      <c r="I310" s="67"/>
-      <c r="J310" s="67"/>
-      <c r="K310" s="67"/>
+      <c r="D310" s="65"/>
+      <c r="E310" s="65"/>
+      <c r="F310" s="65"/>
+      <c r="G310" s="65"/>
+      <c r="H310" s="65"/>
+      <c r="I310" s="65"/>
+      <c r="J310" s="65"/>
+      <c r="K310" s="65"/>
       <c r="L310" s="6">
         <v>33</v>
       </c>
@@ -12121,17 +12133,17 @@
         <v>3</v>
       </c>
       <c r="B311" s="1"/>
-      <c r="C311" s="66" t="s">
+      <c r="C311" s="64" t="s">
         <v>25</v>
       </c>
-      <c r="D311" s="67"/>
-      <c r="E311" s="67"/>
-      <c r="F311" s="67"/>
-      <c r="G311" s="67"/>
-      <c r="H311" s="67"/>
-      <c r="I311" s="67"/>
-      <c r="J311" s="67"/>
-      <c r="K311" s="67"/>
+      <c r="D311" s="65"/>
+      <c r="E311" s="65"/>
+      <c r="F311" s="65"/>
+      <c r="G311" s="65"/>
+      <c r="H311" s="65"/>
+      <c r="I311" s="65"/>
+      <c r="J311" s="65"/>
+      <c r="K311" s="65"/>
       <c r="L311" s="6">
         <v>33</v>
       </c>
@@ -12154,17 +12166,17 @@
         <v>4</v>
       </c>
       <c r="B312" s="1"/>
-      <c r="C312" s="67" t="s">
+      <c r="C312" s="65" t="s">
         <v>26</v>
       </c>
-      <c r="D312" s="67"/>
-      <c r="E312" s="67"/>
-      <c r="F312" s="67"/>
-      <c r="G312" s="67"/>
-      <c r="H312" s="67"/>
-      <c r="I312" s="67"/>
-      <c r="J312" s="67"/>
-      <c r="K312" s="67"/>
+      <c r="D312" s="65"/>
+      <c r="E312" s="65"/>
+      <c r="F312" s="65"/>
+      <c r="G312" s="65"/>
+      <c r="H312" s="65"/>
+      <c r="I312" s="65"/>
+      <c r="J312" s="65"/>
+      <c r="K312" s="65"/>
       <c r="L312" s="6">
         <v>33</v>
       </c>
@@ -12187,17 +12199,17 @@
         <v>5</v>
       </c>
       <c r="B313" s="1"/>
-      <c r="C313" s="66" t="s">
+      <c r="C313" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="D313" s="67"/>
-      <c r="E313" s="67"/>
-      <c r="F313" s="67"/>
-      <c r="G313" s="67"/>
-      <c r="H313" s="67"/>
-      <c r="I313" s="67"/>
-      <c r="J313" s="67"/>
-      <c r="K313" s="67"/>
+      <c r="D313" s="65"/>
+      <c r="E313" s="65"/>
+      <c r="F313" s="65"/>
+      <c r="G313" s="65"/>
+      <c r="H313" s="65"/>
+      <c r="I313" s="65"/>
+      <c r="J313" s="65"/>
+      <c r="K313" s="65"/>
       <c r="L313" s="6">
         <v>33</v>
       </c>
@@ -12220,17 +12232,17 @@
         <v>6</v>
       </c>
       <c r="B314" s="1"/>
-      <c r="C314" s="66" t="s">
+      <c r="C314" s="64" t="s">
         <v>67</v>
       </c>
-      <c r="D314" s="67"/>
-      <c r="E314" s="67"/>
-      <c r="F314" s="67"/>
-      <c r="G314" s="67"/>
-      <c r="H314" s="67"/>
-      <c r="I314" s="67"/>
-      <c r="J314" s="67"/>
-      <c r="K314" s="67"/>
+      <c r="D314" s="65"/>
+      <c r="E314" s="65"/>
+      <c r="F314" s="65"/>
+      <c r="G314" s="65"/>
+      <c r="H314" s="65"/>
+      <c r="I314" s="65"/>
+      <c r="J314" s="65"/>
+      <c r="K314" s="65"/>
       <c r="L314" s="6">
         <v>33</v>
       </c>
@@ -12253,20 +12265,20 @@
         <v>7</v>
       </c>
       <c r="B315" s="1"/>
-      <c r="C315" s="60" t="s">
+      <c r="C315" s="66" t="s">
         <v>58</v>
       </c>
-      <c r="D315" s="61"/>
-      <c r="E315" s="61"/>
-      <c r="F315" s="61"/>
-      <c r="G315" s="61"/>
-      <c r="H315" s="61"/>
-      <c r="I315" s="61"/>
-      <c r="J315" s="61"/>
-      <c r="K315" s="61"/>
-      <c r="L315" s="61"/>
-      <c r="M315" s="61"/>
-      <c r="N315" s="62"/>
+      <c r="D315" s="67"/>
+      <c r="E315" s="67"/>
+      <c r="F315" s="67"/>
+      <c r="G315" s="67"/>
+      <c r="H315" s="67"/>
+      <c r="I315" s="67"/>
+      <c r="J315" s="67"/>
+      <c r="K315" s="67"/>
+      <c r="L315" s="67"/>
+      <c r="M315" s="67"/>
+      <c r="N315" s="68"/>
       <c r="O315" s="11"/>
       <c r="P315" s="12" t="e">
         <f>AVERAGE(P309:P314)</f>
@@ -12286,25 +12298,25 @@
       <c r="B316" s="1"/>
     </row>
     <row r="317" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A317" s="72" t="s">
+      <c r="A317" s="81" t="s">
         <v>28</v>
       </c>
-      <c r="B317" s="72"/>
-      <c r="C317" s="72"/>
-      <c r="D317" s="72"/>
-      <c r="E317" s="72"/>
-      <c r="F317" s="72"/>
-      <c r="G317" s="72"/>
-      <c r="H317" s="72"/>
-      <c r="I317" s="72"/>
-      <c r="J317" s="72"/>
-      <c r="K317" s="72"/>
-      <c r="L317" s="72"/>
-      <c r="M317" s="72"/>
-      <c r="N317" s="72"/>
-      <c r="O317" s="72"/>
-      <c r="P317" s="72"/>
-      <c r="Q317" s="72"/>
+      <c r="B317" s="81"/>
+      <c r="C317" s="81"/>
+      <c r="D317" s="81"/>
+      <c r="E317" s="81"/>
+      <c r="F317" s="81"/>
+      <c r="G317" s="81"/>
+      <c r="H317" s="81"/>
+      <c r="I317" s="81"/>
+      <c r="J317" s="81"/>
+      <c r="K317" s="81"/>
+      <c r="L317" s="81"/>
+      <c r="M317" s="81"/>
+      <c r="N317" s="81"/>
+      <c r="O317" s="81"/>
+      <c r="P317" s="81"/>
+      <c r="Q317" s="81"/>
       <c r="R317"/>
     </row>
     <row r="318" spans="1:21" x14ac:dyDescent="0.3">
@@ -12312,10 +12324,10 @@
         <v>1</v>
       </c>
       <c r="B318" s="16"/>
-      <c r="C318" s="68" t="s">
+      <c r="C318" s="80" t="s">
         <v>68</v>
       </c>
-      <c r="D318" s="68"/>
+      <c r="D318" s="80"/>
       <c r="E318" s="17" t="s">
         <v>69</v>
       </c>
@@ -12362,10 +12374,10 @@
         <v>1</v>
       </c>
       <c r="B319" s="14"/>
-      <c r="C319" s="57" t="s">
+      <c r="C319" s="63" t="s">
         <v>84</v>
       </c>
-      <c r="D319" s="57"/>
+      <c r="D319" s="63"/>
       <c r="E319" s="25"/>
       <c r="F319" s="26"/>
       <c r="G319" s="27"/>
@@ -12386,10 +12398,10 @@
         <v>2</v>
       </c>
       <c r="B320" s="14"/>
-      <c r="C320" s="57" t="s">
+      <c r="C320" s="63" t="s">
         <v>85</v>
       </c>
-      <c r="D320" s="57"/>
+      <c r="D320" s="63"/>
       <c r="E320" s="25"/>
       <c r="F320" s="26"/>
       <c r="G320" s="27"/>
@@ -12410,10 +12422,10 @@
         <v>3</v>
       </c>
       <c r="B321" s="14"/>
-      <c r="C321" s="57" t="s">
+      <c r="C321" s="63" t="s">
         <v>86</v>
       </c>
-      <c r="D321" s="57"/>
+      <c r="D321" s="63"/>
       <c r="E321" s="25"/>
       <c r="F321" s="26"/>
       <c r="G321" s="27"/>
@@ -12434,10 +12446,10 @@
         <v>4</v>
       </c>
       <c r="B322" s="14"/>
-      <c r="C322" s="57" t="s">
+      <c r="C322" s="63" t="s">
         <v>87</v>
       </c>
-      <c r="D322" s="57"/>
+      <c r="D322" s="63"/>
       <c r="E322" s="25"/>
       <c r="F322" s="26"/>
       <c r="G322" s="27"/>
@@ -12458,10 +12470,10 @@
         <v>5</v>
       </c>
       <c r="B323" s="14"/>
-      <c r="C323" s="57" t="s">
+      <c r="C323" s="63" t="s">
         <v>90</v>
       </c>
-      <c r="D323" s="57"/>
+      <c r="D323" s="63"/>
       <c r="E323" s="25"/>
       <c r="F323" s="26"/>
       <c r="G323" s="27"/>
@@ -12482,10 +12494,10 @@
         <v>6</v>
       </c>
       <c r="B324" s="14"/>
-      <c r="C324" s="57" t="s">
+      <c r="C324" s="63" t="s">
         <v>91</v>
       </c>
-      <c r="D324" s="57"/>
+      <c r="D324" s="63"/>
       <c r="E324" s="25"/>
       <c r="F324" s="26"/>
       <c r="G324" s="27"/>
@@ -12506,10 +12518,10 @@
         <v>7</v>
       </c>
       <c r="B325" s="14"/>
-      <c r="C325" s="57" t="s">
+      <c r="C325" s="63" t="s">
         <v>92</v>
       </c>
-      <c r="D325" s="57"/>
+      <c r="D325" s="63"/>
       <c r="E325" s="25"/>
       <c r="F325" s="26"/>
       <c r="G325" s="27"/>
@@ -12530,10 +12542,10 @@
         <v>8</v>
       </c>
       <c r="B326" s="14"/>
-      <c r="C326" s="57" t="s">
+      <c r="C326" s="63" t="s">
         <v>93</v>
       </c>
-      <c r="D326" s="57"/>
+      <c r="D326" s="63"/>
       <c r="E326" s="25"/>
       <c r="F326" s="26"/>
       <c r="G326" s="27"/>
@@ -12552,10 +12564,10 @@
     <row r="327" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A327" s="14"/>
       <c r="B327" s="14"/>
-      <c r="C327" s="58" t="s">
+      <c r="C327" s="74" t="s">
         <v>98</v>
       </c>
-      <c r="D327" s="58"/>
+      <c r="D327" s="74"/>
       <c r="E327" s="25" t="e">
         <f t="shared" ref="E327:O327" si="25">AVERAGE(E319:E326)</f>
         <v>#DIV/0!</v>
@@ -12611,25 +12623,25 @@
       <c r="R329"/>
     </row>
     <row r="330" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A330" s="75" t="s">
+      <c r="A330" s="79" t="s">
         <v>99</v>
       </c>
-      <c r="B330" s="75"/>
-      <c r="C330" s="75"/>
-      <c r="D330" s="75"/>
-      <c r="E330" s="75"/>
-      <c r="F330" s="75"/>
-      <c r="G330" s="75"/>
-      <c r="H330" s="75"/>
-      <c r="I330" s="75"/>
-      <c r="J330" s="75"/>
-      <c r="K330" s="75"/>
-      <c r="L330" s="75"/>
-      <c r="M330" s="75"/>
-      <c r="N330" s="75"/>
-      <c r="O330" s="75"/>
-      <c r="P330" s="75"/>
-      <c r="Q330" s="75"/>
+      <c r="B330" s="79"/>
+      <c r="C330" s="79"/>
+      <c r="D330" s="79"/>
+      <c r="E330" s="79"/>
+      <c r="F330" s="79"/>
+      <c r="G330" s="79"/>
+      <c r="H330" s="79"/>
+      <c r="I330" s="79"/>
+      <c r="J330" s="79"/>
+      <c r="K330" s="79"/>
+      <c r="L330" s="79"/>
+      <c r="M330" s="79"/>
+      <c r="N330" s="79"/>
+      <c r="O330" s="79"/>
+      <c r="P330" s="79"/>
+      <c r="Q330" s="79"/>
       <c r="R330"/>
     </row>
     <row r="331" spans="1:18" x14ac:dyDescent="0.3">
@@ -12637,10 +12649,10 @@
         <v>1</v>
       </c>
       <c r="B331" s="16"/>
-      <c r="C331" s="68" t="s">
+      <c r="C331" s="80" t="s">
         <v>68</v>
       </c>
-      <c r="D331" s="68"/>
+      <c r="D331" s="80"/>
       <c r="E331" s="17" t="s">
         <v>69</v>
       </c>
@@ -12687,10 +12699,10 @@
         <v>1</v>
       </c>
       <c r="B332" s="14"/>
-      <c r="C332" s="57" t="s">
+      <c r="C332" s="63" t="s">
         <v>94</v>
       </c>
-      <c r="D332" s="57"/>
+      <c r="D332" s="63"/>
       <c r="E332" s="25"/>
       <c r="F332" s="26"/>
       <c r="G332" s="27"/>
@@ -12711,10 +12723,10 @@
         <v>2</v>
       </c>
       <c r="B333" s="14"/>
-      <c r="C333" s="57" t="s">
+      <c r="C333" s="63" t="s">
         <v>95</v>
       </c>
-      <c r="D333" s="57"/>
+      <c r="D333" s="63"/>
       <c r="E333" s="25"/>
       <c r="F333" s="26"/>
       <c r="G333" s="27"/>
@@ -12735,10 +12747,10 @@
         <v>3</v>
       </c>
       <c r="B334" s="14"/>
-      <c r="C334" s="57" t="s">
+      <c r="C334" s="63" t="s">
         <v>96</v>
       </c>
-      <c r="D334" s="57"/>
+      <c r="D334" s="63"/>
       <c r="E334" s="25"/>
       <c r="F334" s="26"/>
       <c r="G334" s="27"/>
@@ -12758,10 +12770,10 @@
         <v>4</v>
       </c>
       <c r="B335" s="14"/>
-      <c r="C335" s="57" t="s">
+      <c r="C335" s="63" t="s">
         <v>97</v>
       </c>
-      <c r="D335" s="57"/>
+      <c r="D335" s="63"/>
       <c r="E335" s="25"/>
       <c r="F335" s="26"/>
       <c r="G335" s="27"/>
@@ -12777,10 +12789,10 @@
       <c r="Q335" s="29"/>
     </row>
     <row r="336" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="C336" s="58" t="s">
+      <c r="C336" s="74" t="s">
         <v>98</v>
       </c>
-      <c r="D336" s="58"/>
+      <c r="D336" s="74"/>
       <c r="E336" s="25"/>
       <c r="F336" s="26"/>
       <c r="G336" s="27"/>
@@ -12797,6 +12809,265 @@
     </row>
   </sheetData>
   <mergeCells count="283">
+    <mergeCell ref="C233:D233"/>
+    <mergeCell ref="A1:V1"/>
+    <mergeCell ref="C163:D163"/>
+    <mergeCell ref="C164:D164"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="A84:W86"/>
+    <mergeCell ref="C132:N132"/>
+    <mergeCell ref="A134:R134"/>
+    <mergeCell ref="C139:K139"/>
+    <mergeCell ref="C140:K140"/>
+    <mergeCell ref="C141:K141"/>
+    <mergeCell ref="C142:K142"/>
+    <mergeCell ref="C159:D159"/>
+    <mergeCell ref="C160:D160"/>
+    <mergeCell ref="C161:D161"/>
+    <mergeCell ref="C162:D162"/>
+    <mergeCell ref="A87:R87"/>
+    <mergeCell ref="C110:K110"/>
+    <mergeCell ref="C111:K111"/>
+    <mergeCell ref="C112:K112"/>
+    <mergeCell ref="C113:K113"/>
+    <mergeCell ref="A145:Q145"/>
+    <mergeCell ref="C138:K138"/>
+    <mergeCell ref="C143:N143"/>
+    <mergeCell ref="C128:K128"/>
+    <mergeCell ref="C129:K129"/>
+    <mergeCell ref="C130:K130"/>
+    <mergeCell ref="C131:K131"/>
+    <mergeCell ref="C122:K122"/>
+    <mergeCell ref="C123:K123"/>
+    <mergeCell ref="C124:K124"/>
+    <mergeCell ref="C125:K125"/>
+    <mergeCell ref="C126:K126"/>
+    <mergeCell ref="C127:K127"/>
+    <mergeCell ref="C136:K136"/>
+    <mergeCell ref="C137:K137"/>
+    <mergeCell ref="C151:D151"/>
+    <mergeCell ref="C155:D155"/>
+    <mergeCell ref="C152:D152"/>
+    <mergeCell ref="C153:D153"/>
+    <mergeCell ref="C154:D154"/>
+    <mergeCell ref="A158:Q158"/>
+    <mergeCell ref="C146:D146"/>
+    <mergeCell ref="C147:D147"/>
+    <mergeCell ref="C148:D148"/>
+    <mergeCell ref="C149:D149"/>
+    <mergeCell ref="C150:D150"/>
+    <mergeCell ref="C119:K119"/>
+    <mergeCell ref="C120:K120"/>
+    <mergeCell ref="C121:K121"/>
+    <mergeCell ref="A117:R117"/>
+    <mergeCell ref="C103:K103"/>
+    <mergeCell ref="C104:K104"/>
+    <mergeCell ref="C105:K105"/>
+    <mergeCell ref="C106:K106"/>
+    <mergeCell ref="C107:K107"/>
+    <mergeCell ref="C108:K108"/>
+    <mergeCell ref="C109:K109"/>
+    <mergeCell ref="C114:N114"/>
+    <mergeCell ref="C89:K89"/>
+    <mergeCell ref="C90:K90"/>
+    <mergeCell ref="C97:K97"/>
+    <mergeCell ref="C98:K98"/>
+    <mergeCell ref="C99:K99"/>
+    <mergeCell ref="C100:K100"/>
+    <mergeCell ref="C101:K101"/>
+    <mergeCell ref="C102:K102"/>
+    <mergeCell ref="C91:K91"/>
+    <mergeCell ref="C92:K92"/>
+    <mergeCell ref="C93:K93"/>
+    <mergeCell ref="C94:K94"/>
+    <mergeCell ref="C95:K95"/>
+    <mergeCell ref="C96:K96"/>
+    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="A60:Q60"/>
+    <mergeCell ref="A73:Q73"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="C39:K39"/>
+    <mergeCell ref="C40:K40"/>
+    <mergeCell ref="C41:K41"/>
+    <mergeCell ref="C25:K25"/>
+    <mergeCell ref="C26:K26"/>
+    <mergeCell ref="C27:K27"/>
+    <mergeCell ref="C28:K28"/>
+    <mergeCell ref="C58:N58"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="C56:K56"/>
+    <mergeCell ref="C57:K57"/>
+    <mergeCell ref="C29:N29"/>
+    <mergeCell ref="C54:K54"/>
+    <mergeCell ref="C55:K55"/>
+    <mergeCell ref="C51:K51"/>
+    <mergeCell ref="C52:K52"/>
+    <mergeCell ref="C53:K53"/>
+    <mergeCell ref="C42:K42"/>
+    <mergeCell ref="C43:K43"/>
+    <mergeCell ref="C47:N47"/>
+    <mergeCell ref="A49:R49"/>
+    <mergeCell ref="C44:K44"/>
+    <mergeCell ref="C45:K45"/>
+    <mergeCell ref="C46:K46"/>
+    <mergeCell ref="C21:K21"/>
+    <mergeCell ref="C22:K22"/>
+    <mergeCell ref="A32:R32"/>
+    <mergeCell ref="A2:R2"/>
+    <mergeCell ref="C34:K34"/>
+    <mergeCell ref="C35:K35"/>
+    <mergeCell ref="C36:K36"/>
+    <mergeCell ref="C37:K37"/>
+    <mergeCell ref="C38:K38"/>
+    <mergeCell ref="C180:K180"/>
+    <mergeCell ref="C181:K181"/>
+    <mergeCell ref="C182:K182"/>
+    <mergeCell ref="A170:W172"/>
+    <mergeCell ref="A173:R173"/>
+    <mergeCell ref="C4:K4"/>
+    <mergeCell ref="C5:K5"/>
+    <mergeCell ref="C6:K6"/>
+    <mergeCell ref="C23:K23"/>
+    <mergeCell ref="C24:K24"/>
+    <mergeCell ref="C13:K13"/>
+    <mergeCell ref="C14:K14"/>
+    <mergeCell ref="C15:K15"/>
+    <mergeCell ref="C16:K16"/>
+    <mergeCell ref="C17:K17"/>
+    <mergeCell ref="C18:K18"/>
+    <mergeCell ref="C7:K7"/>
+    <mergeCell ref="C8:K8"/>
+    <mergeCell ref="C9:K9"/>
+    <mergeCell ref="C10:K10"/>
+    <mergeCell ref="C11:K11"/>
+    <mergeCell ref="C12:K12"/>
+    <mergeCell ref="C19:K19"/>
+    <mergeCell ref="C20:K20"/>
+    <mergeCell ref="C183:K183"/>
+    <mergeCell ref="C186:K186"/>
+    <mergeCell ref="C187:K187"/>
+    <mergeCell ref="C184:K184"/>
+    <mergeCell ref="C185:K185"/>
+    <mergeCell ref="C196:K196"/>
+    <mergeCell ref="C197:K197"/>
+    <mergeCell ref="C198:K198"/>
+    <mergeCell ref="C199:K199"/>
+    <mergeCell ref="C188:K188"/>
+    <mergeCell ref="C189:K189"/>
+    <mergeCell ref="C190:K190"/>
+    <mergeCell ref="C191:K191"/>
+    <mergeCell ref="C192:K192"/>
+    <mergeCell ref="C193:K193"/>
+    <mergeCell ref="C200:N200"/>
+    <mergeCell ref="A203:R203"/>
+    <mergeCell ref="C205:K205"/>
+    <mergeCell ref="C206:K206"/>
+    <mergeCell ref="C207:K207"/>
+    <mergeCell ref="C208:K208"/>
+    <mergeCell ref="C209:K209"/>
+    <mergeCell ref="C210:K210"/>
+    <mergeCell ref="C211:K211"/>
+    <mergeCell ref="C212:K212"/>
+    <mergeCell ref="C213:K213"/>
+    <mergeCell ref="C214:K214"/>
+    <mergeCell ref="C215:K215"/>
+    <mergeCell ref="C216:K216"/>
+    <mergeCell ref="C217:K217"/>
+    <mergeCell ref="C218:N218"/>
+    <mergeCell ref="A220:R220"/>
+    <mergeCell ref="C222:K222"/>
+    <mergeCell ref="C223:K223"/>
+    <mergeCell ref="C224:K224"/>
+    <mergeCell ref="C225:K225"/>
+    <mergeCell ref="C226:K226"/>
+    <mergeCell ref="C227:K227"/>
+    <mergeCell ref="C228:K228"/>
+    <mergeCell ref="C229:N229"/>
+    <mergeCell ref="A231:Q231"/>
+    <mergeCell ref="C232:D232"/>
+    <mergeCell ref="C234:D234"/>
+    <mergeCell ref="C235:D235"/>
+    <mergeCell ref="C236:D236"/>
+    <mergeCell ref="C237:D237"/>
+    <mergeCell ref="C238:D238"/>
+    <mergeCell ref="C239:D239"/>
+    <mergeCell ref="C240:D240"/>
+    <mergeCell ref="C241:D241"/>
+    <mergeCell ref="C242:D242"/>
+    <mergeCell ref="C262:K262"/>
+    <mergeCell ref="C263:K263"/>
+    <mergeCell ref="C264:K264"/>
+    <mergeCell ref="C265:K265"/>
+    <mergeCell ref="C266:K266"/>
+    <mergeCell ref="C267:K267"/>
+    <mergeCell ref="C268:K268"/>
+    <mergeCell ref="C269:K269"/>
+    <mergeCell ref="A245:Q245"/>
+    <mergeCell ref="C246:D246"/>
+    <mergeCell ref="C247:D247"/>
+    <mergeCell ref="C248:D248"/>
+    <mergeCell ref="C249:D249"/>
+    <mergeCell ref="C250:D250"/>
+    <mergeCell ref="C251:D251"/>
+    <mergeCell ref="C270:K270"/>
+    <mergeCell ref="C271:K271"/>
+    <mergeCell ref="C272:K272"/>
+    <mergeCell ref="C273:K273"/>
+    <mergeCell ref="C274:K274"/>
+    <mergeCell ref="C275:K275"/>
+    <mergeCell ref="C276:K276"/>
+    <mergeCell ref="C277:K277"/>
+    <mergeCell ref="C278:K278"/>
+    <mergeCell ref="C296:K296"/>
+    <mergeCell ref="C297:K297"/>
+    <mergeCell ref="C298:K298"/>
+    <mergeCell ref="C299:K299"/>
+    <mergeCell ref="C279:K279"/>
+    <mergeCell ref="C280:K280"/>
+    <mergeCell ref="C281:K281"/>
+    <mergeCell ref="C282:K282"/>
+    <mergeCell ref="C283:K283"/>
+    <mergeCell ref="C284:K284"/>
+    <mergeCell ref="C285:K285"/>
+    <mergeCell ref="A289:R289"/>
+    <mergeCell ref="C334:D334"/>
+    <mergeCell ref="C335:D335"/>
+    <mergeCell ref="C336:D336"/>
+    <mergeCell ref="A257:W259"/>
+    <mergeCell ref="A260:R260"/>
+    <mergeCell ref="C286:K286"/>
+    <mergeCell ref="C287:N287"/>
+    <mergeCell ref="C321:D321"/>
+    <mergeCell ref="C322:D322"/>
+    <mergeCell ref="C323:D323"/>
+    <mergeCell ref="C324:D324"/>
+    <mergeCell ref="C325:D325"/>
+    <mergeCell ref="C326:D326"/>
+    <mergeCell ref="C327:D327"/>
+    <mergeCell ref="A330:Q330"/>
+    <mergeCell ref="C331:D331"/>
+    <mergeCell ref="C311:K311"/>
+    <mergeCell ref="C312:K312"/>
+    <mergeCell ref="C313:K313"/>
+    <mergeCell ref="C314:K314"/>
+    <mergeCell ref="C315:N315"/>
+    <mergeCell ref="A317:Q317"/>
+    <mergeCell ref="C318:D318"/>
+    <mergeCell ref="C319:D319"/>
     <mergeCell ref="C179:K179"/>
     <mergeCell ref="C178:K178"/>
     <mergeCell ref="C176:K176"/>
@@ -12821,265 +13092,6 @@
     <mergeCell ref="C293:K293"/>
     <mergeCell ref="C294:K294"/>
     <mergeCell ref="C295:K295"/>
-    <mergeCell ref="C334:D334"/>
-    <mergeCell ref="C335:D335"/>
-    <mergeCell ref="C336:D336"/>
-    <mergeCell ref="A257:W259"/>
-    <mergeCell ref="A260:R260"/>
-    <mergeCell ref="C286:K286"/>
-    <mergeCell ref="C287:N287"/>
-    <mergeCell ref="C321:D321"/>
-    <mergeCell ref="C322:D322"/>
-    <mergeCell ref="C323:D323"/>
-    <mergeCell ref="C324:D324"/>
-    <mergeCell ref="C325:D325"/>
-    <mergeCell ref="C326:D326"/>
-    <mergeCell ref="C327:D327"/>
-    <mergeCell ref="A330:Q330"/>
-    <mergeCell ref="C331:D331"/>
-    <mergeCell ref="C311:K311"/>
-    <mergeCell ref="C312:K312"/>
-    <mergeCell ref="C313:K313"/>
-    <mergeCell ref="C314:K314"/>
-    <mergeCell ref="C315:N315"/>
-    <mergeCell ref="A317:Q317"/>
-    <mergeCell ref="C318:D318"/>
-    <mergeCell ref="C319:D319"/>
-    <mergeCell ref="C296:K296"/>
-    <mergeCell ref="C297:K297"/>
-    <mergeCell ref="C298:K298"/>
-    <mergeCell ref="C299:K299"/>
-    <mergeCell ref="C279:K279"/>
-    <mergeCell ref="C280:K280"/>
-    <mergeCell ref="C281:K281"/>
-    <mergeCell ref="C282:K282"/>
-    <mergeCell ref="C283:K283"/>
-    <mergeCell ref="C284:K284"/>
-    <mergeCell ref="C285:K285"/>
-    <mergeCell ref="A289:R289"/>
-    <mergeCell ref="C270:K270"/>
-    <mergeCell ref="C271:K271"/>
-    <mergeCell ref="C272:K272"/>
-    <mergeCell ref="C273:K273"/>
-    <mergeCell ref="C274:K274"/>
-    <mergeCell ref="C275:K275"/>
-    <mergeCell ref="C276:K276"/>
-    <mergeCell ref="C277:K277"/>
-    <mergeCell ref="C278:K278"/>
-    <mergeCell ref="C262:K262"/>
-    <mergeCell ref="C263:K263"/>
-    <mergeCell ref="C264:K264"/>
-    <mergeCell ref="C265:K265"/>
-    <mergeCell ref="C266:K266"/>
-    <mergeCell ref="C267:K267"/>
-    <mergeCell ref="C268:K268"/>
-    <mergeCell ref="C269:K269"/>
-    <mergeCell ref="A245:Q245"/>
-    <mergeCell ref="C246:D246"/>
-    <mergeCell ref="C247:D247"/>
-    <mergeCell ref="C248:D248"/>
-    <mergeCell ref="C249:D249"/>
-    <mergeCell ref="C250:D250"/>
-    <mergeCell ref="C251:D251"/>
-    <mergeCell ref="C234:D234"/>
-    <mergeCell ref="C235:D235"/>
-    <mergeCell ref="C236:D236"/>
-    <mergeCell ref="C237:D237"/>
-    <mergeCell ref="C238:D238"/>
-    <mergeCell ref="C239:D239"/>
-    <mergeCell ref="C240:D240"/>
-    <mergeCell ref="C241:D241"/>
-    <mergeCell ref="C242:D242"/>
-    <mergeCell ref="C223:K223"/>
-    <mergeCell ref="C224:K224"/>
-    <mergeCell ref="C225:K225"/>
-    <mergeCell ref="C226:K226"/>
-    <mergeCell ref="C227:K227"/>
-    <mergeCell ref="C228:K228"/>
-    <mergeCell ref="C229:N229"/>
-    <mergeCell ref="A231:Q231"/>
-    <mergeCell ref="C232:D232"/>
-    <mergeCell ref="C212:K212"/>
-    <mergeCell ref="C213:K213"/>
-    <mergeCell ref="C214:K214"/>
-    <mergeCell ref="C215:K215"/>
-    <mergeCell ref="C216:K216"/>
-    <mergeCell ref="C217:K217"/>
-    <mergeCell ref="C218:N218"/>
-    <mergeCell ref="A220:R220"/>
-    <mergeCell ref="C222:K222"/>
-    <mergeCell ref="C200:N200"/>
-    <mergeCell ref="A203:R203"/>
-    <mergeCell ref="C205:K205"/>
-    <mergeCell ref="C206:K206"/>
-    <mergeCell ref="C207:K207"/>
-    <mergeCell ref="C208:K208"/>
-    <mergeCell ref="C209:K209"/>
-    <mergeCell ref="C210:K210"/>
-    <mergeCell ref="C211:K211"/>
-    <mergeCell ref="C183:K183"/>
-    <mergeCell ref="C186:K186"/>
-    <mergeCell ref="C187:K187"/>
-    <mergeCell ref="C184:K184"/>
-    <mergeCell ref="C185:K185"/>
-    <mergeCell ref="C196:K196"/>
-    <mergeCell ref="C197:K197"/>
-    <mergeCell ref="C198:K198"/>
-    <mergeCell ref="C199:K199"/>
-    <mergeCell ref="C188:K188"/>
-    <mergeCell ref="C189:K189"/>
-    <mergeCell ref="C190:K190"/>
-    <mergeCell ref="C191:K191"/>
-    <mergeCell ref="C192:K192"/>
-    <mergeCell ref="C193:K193"/>
-    <mergeCell ref="C180:K180"/>
-    <mergeCell ref="C181:K181"/>
-    <mergeCell ref="C182:K182"/>
-    <mergeCell ref="A170:W172"/>
-    <mergeCell ref="A173:R173"/>
-    <mergeCell ref="C4:K4"/>
-    <mergeCell ref="C5:K5"/>
-    <mergeCell ref="C6:K6"/>
-    <mergeCell ref="C23:K23"/>
-    <mergeCell ref="C24:K24"/>
-    <mergeCell ref="C13:K13"/>
-    <mergeCell ref="C14:K14"/>
-    <mergeCell ref="C15:K15"/>
-    <mergeCell ref="C16:K16"/>
-    <mergeCell ref="C17:K17"/>
-    <mergeCell ref="C18:K18"/>
-    <mergeCell ref="C7:K7"/>
-    <mergeCell ref="C8:K8"/>
-    <mergeCell ref="C9:K9"/>
-    <mergeCell ref="C10:K10"/>
-    <mergeCell ref="C11:K11"/>
-    <mergeCell ref="C12:K12"/>
-    <mergeCell ref="C19:K19"/>
-    <mergeCell ref="C20:K20"/>
-    <mergeCell ref="C21:K21"/>
-    <mergeCell ref="C22:K22"/>
-    <mergeCell ref="A32:R32"/>
-    <mergeCell ref="A2:R2"/>
-    <mergeCell ref="C34:K34"/>
-    <mergeCell ref="C35:K35"/>
-    <mergeCell ref="C36:K36"/>
-    <mergeCell ref="C37:K37"/>
-    <mergeCell ref="C38:K38"/>
-    <mergeCell ref="C39:K39"/>
-    <mergeCell ref="C40:K40"/>
-    <mergeCell ref="C41:K41"/>
-    <mergeCell ref="C25:K25"/>
-    <mergeCell ref="C26:K26"/>
-    <mergeCell ref="C27:K27"/>
-    <mergeCell ref="C28:K28"/>
-    <mergeCell ref="C58:N58"/>
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="C56:K56"/>
-    <mergeCell ref="C57:K57"/>
-    <mergeCell ref="C29:N29"/>
-    <mergeCell ref="C54:K54"/>
-    <mergeCell ref="C55:K55"/>
-    <mergeCell ref="C51:K51"/>
-    <mergeCell ref="C52:K52"/>
-    <mergeCell ref="C53:K53"/>
-    <mergeCell ref="C42:K42"/>
-    <mergeCell ref="C43:K43"/>
-    <mergeCell ref="C47:N47"/>
-    <mergeCell ref="A49:R49"/>
-    <mergeCell ref="C44:K44"/>
-    <mergeCell ref="C45:K45"/>
-    <mergeCell ref="C46:K46"/>
-    <mergeCell ref="C79:D79"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="C81:D81"/>
-    <mergeCell ref="C75:D75"/>
-    <mergeCell ref="C76:D76"/>
-    <mergeCell ref="C77:D77"/>
-    <mergeCell ref="C78:D78"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="A60:Q60"/>
-    <mergeCell ref="A73:Q73"/>
-    <mergeCell ref="C74:D74"/>
-    <mergeCell ref="C67:D67"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="C68:D68"/>
-    <mergeCell ref="C69:D69"/>
-    <mergeCell ref="C89:K89"/>
-    <mergeCell ref="C90:K90"/>
-    <mergeCell ref="C97:K97"/>
-    <mergeCell ref="C98:K98"/>
-    <mergeCell ref="C99:K99"/>
-    <mergeCell ref="C100:K100"/>
-    <mergeCell ref="C101:K101"/>
-    <mergeCell ref="C102:K102"/>
-    <mergeCell ref="C91:K91"/>
-    <mergeCell ref="C92:K92"/>
-    <mergeCell ref="C93:K93"/>
-    <mergeCell ref="C94:K94"/>
-    <mergeCell ref="C95:K95"/>
-    <mergeCell ref="C96:K96"/>
-    <mergeCell ref="C119:K119"/>
-    <mergeCell ref="C120:K120"/>
-    <mergeCell ref="C121:K121"/>
-    <mergeCell ref="A117:R117"/>
-    <mergeCell ref="C103:K103"/>
-    <mergeCell ref="C104:K104"/>
-    <mergeCell ref="C105:K105"/>
-    <mergeCell ref="C106:K106"/>
-    <mergeCell ref="C107:K107"/>
-    <mergeCell ref="C108:K108"/>
-    <mergeCell ref="C109:K109"/>
-    <mergeCell ref="C114:N114"/>
-    <mergeCell ref="C151:D151"/>
-    <mergeCell ref="C155:D155"/>
-    <mergeCell ref="C152:D152"/>
-    <mergeCell ref="C153:D153"/>
-    <mergeCell ref="C154:D154"/>
-    <mergeCell ref="A158:Q158"/>
-    <mergeCell ref="C146:D146"/>
-    <mergeCell ref="C147:D147"/>
-    <mergeCell ref="C148:D148"/>
-    <mergeCell ref="C149:D149"/>
-    <mergeCell ref="C150:D150"/>
-    <mergeCell ref="A145:Q145"/>
-    <mergeCell ref="C138:K138"/>
-    <mergeCell ref="C143:N143"/>
-    <mergeCell ref="C128:K128"/>
-    <mergeCell ref="C129:K129"/>
-    <mergeCell ref="C130:K130"/>
-    <mergeCell ref="C131:K131"/>
-    <mergeCell ref="C122:K122"/>
-    <mergeCell ref="C123:K123"/>
-    <mergeCell ref="C124:K124"/>
-    <mergeCell ref="C125:K125"/>
-    <mergeCell ref="C126:K126"/>
-    <mergeCell ref="C127:K127"/>
-    <mergeCell ref="C136:K136"/>
-    <mergeCell ref="C137:K137"/>
-    <mergeCell ref="C233:D233"/>
-    <mergeCell ref="A1:V1"/>
-    <mergeCell ref="C163:D163"/>
-    <mergeCell ref="C164:D164"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="A84:W86"/>
-    <mergeCell ref="C132:N132"/>
-    <mergeCell ref="A134:R134"/>
-    <mergeCell ref="C139:K139"/>
-    <mergeCell ref="C140:K140"/>
-    <mergeCell ref="C141:K141"/>
-    <mergeCell ref="C142:K142"/>
-    <mergeCell ref="C159:D159"/>
-    <mergeCell ref="C160:D160"/>
-    <mergeCell ref="C161:D161"/>
-    <mergeCell ref="C162:D162"/>
-    <mergeCell ref="A87:R87"/>
-    <mergeCell ref="C110:K110"/>
-    <mergeCell ref="C111:K111"/>
-    <mergeCell ref="C112:K112"/>
-    <mergeCell ref="C113:K113"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="C5:K28">
@@ -15798,103 +15810,103 @@
   </cols>
   <sheetData>
     <row r="4" spans="3:25" x14ac:dyDescent="0.3">
-      <c r="C4" s="59" t="s">
+      <c r="C4" s="75" t="s">
         <v>107</v>
       </c>
-      <c r="D4" s="59"/>
-      <c r="E4" s="59"/>
-      <c r="F4" s="59"/>
-      <c r="G4" s="59"/>
-      <c r="H4" s="59"/>
-      <c r="I4" s="59"/>
-      <c r="J4" s="59"/>
-      <c r="K4" s="59"/>
-      <c r="L4" s="59"/>
-      <c r="M4" s="59"/>
-      <c r="N4" s="59"/>
-      <c r="O4" s="59"/>
-      <c r="P4" s="59"/>
-      <c r="Q4" s="59"/>
-      <c r="R4" s="59"/>
-      <c r="S4" s="59"/>
-      <c r="T4" s="59"/>
-      <c r="U4" s="59"/>
-      <c r="V4" s="59"/>
-      <c r="W4" s="59"/>
-      <c r="X4" s="59"/>
-      <c r="Y4" s="59"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="75"/>
+      <c r="K4" s="75"/>
+      <c r="L4" s="75"/>
+      <c r="M4" s="75"/>
+      <c r="N4" s="75"/>
+      <c r="O4" s="75"/>
+      <c r="P4" s="75"/>
+      <c r="Q4" s="75"/>
+      <c r="R4" s="75"/>
+      <c r="S4" s="75"/>
+      <c r="T4" s="75"/>
+      <c r="U4" s="75"/>
+      <c r="V4" s="75"/>
+      <c r="W4" s="75"/>
+      <c r="X4" s="75"/>
+      <c r="Y4" s="75"/>
     </row>
     <row r="5" spans="3:25" x14ac:dyDescent="0.3">
-      <c r="C5" s="59"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="59"/>
-      <c r="F5" s="59"/>
-      <c r="G5" s="59"/>
-      <c r="H5" s="59"/>
-      <c r="I5" s="59"/>
-      <c r="J5" s="59"/>
-      <c r="K5" s="59"/>
-      <c r="L5" s="59"/>
-      <c r="M5" s="59"/>
-      <c r="N5" s="59"/>
-      <c r="O5" s="59"/>
-      <c r="P5" s="59"/>
-      <c r="Q5" s="59"/>
-      <c r="R5" s="59"/>
-      <c r="S5" s="59"/>
-      <c r="T5" s="59"/>
-      <c r="U5" s="59"/>
-      <c r="V5" s="59"/>
-      <c r="W5" s="59"/>
-      <c r="X5" s="59"/>
-      <c r="Y5" s="59"/>
+      <c r="C5" s="75"/>
+      <c r="D5" s="75"/>
+      <c r="E5" s="75"/>
+      <c r="F5" s="75"/>
+      <c r="G5" s="75"/>
+      <c r="H5" s="75"/>
+      <c r="I5" s="75"/>
+      <c r="J5" s="75"/>
+      <c r="K5" s="75"/>
+      <c r="L5" s="75"/>
+      <c r="M5" s="75"/>
+      <c r="N5" s="75"/>
+      <c r="O5" s="75"/>
+      <c r="P5" s="75"/>
+      <c r="Q5" s="75"/>
+      <c r="R5" s="75"/>
+      <c r="S5" s="75"/>
+      <c r="T5" s="75"/>
+      <c r="U5" s="75"/>
+      <c r="V5" s="75"/>
+      <c r="W5" s="75"/>
+      <c r="X5" s="75"/>
+      <c r="Y5" s="75"/>
     </row>
     <row r="6" spans="3:25" x14ac:dyDescent="0.3">
-      <c r="C6" s="59"/>
-      <c r="D6" s="59"/>
-      <c r="E6" s="59"/>
-      <c r="F6" s="59"/>
-      <c r="G6" s="59"/>
-      <c r="H6" s="59"/>
-      <c r="I6" s="59"/>
-      <c r="J6" s="59"/>
-      <c r="K6" s="59"/>
-      <c r="L6" s="59"/>
-      <c r="M6" s="59"/>
-      <c r="N6" s="59"/>
-      <c r="O6" s="59"/>
-      <c r="P6" s="59"/>
-      <c r="Q6" s="59"/>
-      <c r="R6" s="59"/>
-      <c r="S6" s="59"/>
-      <c r="T6" s="59"/>
-      <c r="U6" s="59"/>
-      <c r="V6" s="59"/>
-      <c r="W6" s="59"/>
-      <c r="X6" s="59"/>
-      <c r="Y6" s="59"/>
+      <c r="C6" s="75"/>
+      <c r="D6" s="75"/>
+      <c r="E6" s="75"/>
+      <c r="F6" s="75"/>
+      <c r="G6" s="75"/>
+      <c r="H6" s="75"/>
+      <c r="I6" s="75"/>
+      <c r="J6" s="75"/>
+      <c r="K6" s="75"/>
+      <c r="L6" s="75"/>
+      <c r="M6" s="75"/>
+      <c r="N6" s="75"/>
+      <c r="O6" s="75"/>
+      <c r="P6" s="75"/>
+      <c r="Q6" s="75"/>
+      <c r="R6" s="75"/>
+      <c r="S6" s="75"/>
+      <c r="T6" s="75"/>
+      <c r="U6" s="75"/>
+      <c r="V6" s="75"/>
+      <c r="W6" s="75"/>
+      <c r="X6" s="75"/>
+      <c r="Y6" s="75"/>
     </row>
     <row r="7" spans="3:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C7" s="69" t="s">
+      <c r="C7" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="D7" s="70"/>
-      <c r="E7" s="70"/>
-      <c r="F7" s="70"/>
-      <c r="G7" s="70"/>
-      <c r="H7" s="70"/>
-      <c r="I7" s="70"/>
-      <c r="J7" s="70"/>
-      <c r="K7" s="70"/>
-      <c r="L7" s="70"/>
-      <c r="M7" s="70"/>
-      <c r="N7" s="70"/>
-      <c r="O7" s="70"/>
-      <c r="P7" s="70"/>
-      <c r="Q7" s="70"/>
-      <c r="R7" s="70"/>
-      <c r="S7" s="70"/>
-      <c r="T7" s="71"/>
+      <c r="D7" s="77"/>
+      <c r="E7" s="77"/>
+      <c r="F7" s="77"/>
+      <c r="G7" s="77"/>
+      <c r="H7" s="77"/>
+      <c r="I7" s="77"/>
+      <c r="J7" s="77"/>
+      <c r="K7" s="77"/>
+      <c r="L7" s="77"/>
+      <c r="M7" s="77"/>
+      <c r="N7" s="77"/>
+      <c r="O7" s="77"/>
+      <c r="P7" s="77"/>
+      <c r="Q7" s="77"/>
+      <c r="R7" s="77"/>
+      <c r="S7" s="77"/>
+      <c r="T7" s="78"/>
       <c r="U7" s="38"/>
       <c r="V7" s="38"/>
       <c r="W7" s="38"/>
@@ -15910,17 +15922,17 @@
       <c r="D9" s="46" t="s">
         <v>105</v>
       </c>
-      <c r="E9" s="73" t="s">
+      <c r="E9" s="72" t="s">
         <v>108</v>
       </c>
-      <c r="F9" s="73"/>
-      <c r="G9" s="73"/>
-      <c r="H9" s="73"/>
-      <c r="I9" s="73"/>
-      <c r="J9" s="73"/>
-      <c r="K9" s="73"/>
-      <c r="L9" s="73"/>
-      <c r="M9" s="73"/>
+      <c r="F9" s="72"/>
+      <c r="G9" s="72"/>
+      <c r="H9" s="72"/>
+      <c r="I9" s="72"/>
+      <c r="J9" s="72"/>
+      <c r="K9" s="72"/>
+      <c r="L9" s="72"/>
+      <c r="M9" s="72"/>
       <c r="N9" s="5" t="s">
         <v>2</v>
       </c>
@@ -15960,17 +15972,17 @@
       <c r="D10" s="44">
         <v>44683</v>
       </c>
-      <c r="E10" s="83" t="s">
+      <c r="E10" s="54" t="s">
         <v>43</v>
       </c>
-      <c r="F10" s="84"/>
-      <c r="G10" s="84"/>
-      <c r="H10" s="84"/>
-      <c r="I10" s="84"/>
-      <c r="J10" s="84"/>
-      <c r="K10" s="84"/>
-      <c r="L10" s="84"/>
-      <c r="M10" s="85"/>
+      <c r="F10" s="55"/>
+      <c r="G10" s="55"/>
+      <c r="H10" s="55"/>
+      <c r="I10" s="55"/>
+      <c r="J10" s="55"/>
+      <c r="K10" s="55"/>
+      <c r="L10" s="55"/>
+      <c r="M10" s="56"/>
       <c r="N10" s="6">
         <v>17</v>
       </c>
@@ -15998,17 +16010,17 @@
       <c r="D11" s="41">
         <v>44684</v>
       </c>
-      <c r="E11" s="87" t="s">
+      <c r="E11" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="F11" s="88"/>
-      <c r="G11" s="88"/>
-      <c r="H11" s="88"/>
-      <c r="I11" s="88"/>
-      <c r="J11" s="88"/>
-      <c r="K11" s="88"/>
-      <c r="L11" s="88"/>
-      <c r="M11" s="89"/>
+      <c r="F11" s="58"/>
+      <c r="G11" s="58"/>
+      <c r="H11" s="58"/>
+      <c r="I11" s="58"/>
+      <c r="J11" s="58"/>
+      <c r="K11" s="58"/>
+      <c r="L11" s="58"/>
+      <c r="M11" s="59"/>
       <c r="N11" s="6">
         <v>17</v>
       </c>
@@ -16036,17 +16048,17 @@
       <c r="D12" s="41">
         <v>44686</v>
       </c>
-      <c r="E12" s="83" t="s">
+      <c r="E12" s="54" t="s">
         <v>39</v>
       </c>
-      <c r="F12" s="84"/>
-      <c r="G12" s="84"/>
-      <c r="H12" s="84"/>
-      <c r="I12" s="84"/>
-      <c r="J12" s="84"/>
-      <c r="K12" s="84"/>
-      <c r="L12" s="84"/>
-      <c r="M12" s="85"/>
+      <c r="F12" s="55"/>
+      <c r="G12" s="55"/>
+      <c r="H12" s="55"/>
+      <c r="I12" s="55"/>
+      <c r="J12" s="55"/>
+      <c r="K12" s="55"/>
+      <c r="L12" s="55"/>
+      <c r="M12" s="56"/>
       <c r="N12" s="6">
         <v>17</v>
       </c>
@@ -16074,17 +16086,17 @@
       <c r="D13" s="41">
         <v>44688</v>
       </c>
-      <c r="E13" s="83" t="s">
+      <c r="E13" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="F13" s="84"/>
-      <c r="G13" s="84"/>
-      <c r="H13" s="84"/>
-      <c r="I13" s="84"/>
-      <c r="J13" s="84"/>
-      <c r="K13" s="84"/>
-      <c r="L13" s="84"/>
-      <c r="M13" s="85"/>
+      <c r="F13" s="55"/>
+      <c r="G13" s="55"/>
+      <c r="H13" s="55"/>
+      <c r="I13" s="55"/>
+      <c r="J13" s="55"/>
+      <c r="K13" s="55"/>
+      <c r="L13" s="55"/>
+      <c r="M13" s="56"/>
       <c r="N13" s="6">
         <v>17</v>
       </c>
@@ -16112,17 +16124,17 @@
       <c r="D14" s="41">
         <v>44696</v>
       </c>
-      <c r="E14" s="87" t="s">
+      <c r="E14" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="F14" s="88"/>
-      <c r="G14" s="88"/>
-      <c r="H14" s="88"/>
-      <c r="I14" s="88"/>
-      <c r="J14" s="88"/>
-      <c r="K14" s="88"/>
-      <c r="L14" s="88"/>
-      <c r="M14" s="89"/>
+      <c r="F14" s="58"/>
+      <c r="G14" s="58"/>
+      <c r="H14" s="58"/>
+      <c r="I14" s="58"/>
+      <c r="J14" s="58"/>
+      <c r="K14" s="58"/>
+      <c r="L14" s="58"/>
+      <c r="M14" s="59"/>
       <c r="N14" s="6">
         <v>17</v>
       </c>
@@ -16150,17 +16162,17 @@
       <c r="D15" s="41">
         <v>44700</v>
       </c>
-      <c r="E15" s="83" t="s">
+      <c r="E15" s="54" t="s">
         <v>33</v>
       </c>
-      <c r="F15" s="84"/>
-      <c r="G15" s="84"/>
-      <c r="H15" s="84"/>
-      <c r="I15" s="84"/>
-      <c r="J15" s="84"/>
-      <c r="K15" s="84"/>
-      <c r="L15" s="84"/>
-      <c r="M15" s="85"/>
+      <c r="F15" s="55"/>
+      <c r="G15" s="55"/>
+      <c r="H15" s="55"/>
+      <c r="I15" s="55"/>
+      <c r="J15" s="55"/>
+      <c r="K15" s="55"/>
+      <c r="L15" s="55"/>
+      <c r="M15" s="56"/>
       <c r="N15" s="6">
         <v>17</v>
       </c>
@@ -16188,17 +16200,17 @@
       <c r="D16" s="41">
         <v>44703</v>
       </c>
-      <c r="E16" s="87" t="s">
+      <c r="E16" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="F16" s="88"/>
-      <c r="G16" s="88"/>
-      <c r="H16" s="88"/>
-      <c r="I16" s="88"/>
-      <c r="J16" s="88"/>
-      <c r="K16" s="88"/>
-      <c r="L16" s="88"/>
-      <c r="M16" s="89"/>
+      <c r="F16" s="58"/>
+      <c r="G16" s="58"/>
+      <c r="H16" s="58"/>
+      <c r="I16" s="58"/>
+      <c r="J16" s="58"/>
+      <c r="K16" s="58"/>
+      <c r="L16" s="58"/>
+      <c r="M16" s="59"/>
       <c r="N16" s="6">
         <v>17</v>
       </c>
@@ -16226,17 +16238,17 @@
       <c r="D17" s="41">
         <v>44707</v>
       </c>
-      <c r="E17" s="87" t="s">
+      <c r="E17" s="57" t="s">
         <v>44</v>
       </c>
-      <c r="F17" s="88"/>
-      <c r="G17" s="88"/>
-      <c r="H17" s="88"/>
-      <c r="I17" s="88"/>
-      <c r="J17" s="88"/>
-      <c r="K17" s="88"/>
-      <c r="L17" s="88"/>
-      <c r="M17" s="89"/>
+      <c r="F17" s="58"/>
+      <c r="G17" s="58"/>
+      <c r="H17" s="58"/>
+      <c r="I17" s="58"/>
+      <c r="J17" s="58"/>
+      <c r="K17" s="58"/>
+      <c r="L17" s="58"/>
+      <c r="M17" s="59"/>
       <c r="N17" s="6">
         <v>17</v>
       </c>
@@ -16261,17 +16273,17 @@
       <c r="D18" s="41">
         <v>44712</v>
       </c>
-      <c r="E18" s="83" t="s">
+      <c r="E18" s="54" t="s">
         <v>34</v>
       </c>
-      <c r="F18" s="84"/>
-      <c r="G18" s="84"/>
-      <c r="H18" s="84"/>
-      <c r="I18" s="84"/>
-      <c r="J18" s="84"/>
-      <c r="K18" s="84"/>
-      <c r="L18" s="84"/>
-      <c r="M18" s="85"/>
+      <c r="F18" s="55"/>
+      <c r="G18" s="55"/>
+      <c r="H18" s="55"/>
+      <c r="I18" s="55"/>
+      <c r="J18" s="55"/>
+      <c r="K18" s="55"/>
+      <c r="L18" s="55"/>
+      <c r="M18" s="56"/>
       <c r="N18" s="6">
         <v>17</v>
       </c>
@@ -16296,17 +16308,17 @@
       <c r="D19" s="41">
         <v>44717</v>
       </c>
-      <c r="E19" s="87" t="s">
+      <c r="E19" s="57" t="s">
         <v>35</v>
       </c>
-      <c r="F19" s="88"/>
-      <c r="G19" s="88"/>
-      <c r="H19" s="88"/>
-      <c r="I19" s="88"/>
-      <c r="J19" s="88"/>
-      <c r="K19" s="88"/>
-      <c r="L19" s="88"/>
-      <c r="M19" s="89"/>
+      <c r="F19" s="58"/>
+      <c r="G19" s="58"/>
+      <c r="H19" s="58"/>
+      <c r="I19" s="58"/>
+      <c r="J19" s="58"/>
+      <c r="K19" s="58"/>
+      <c r="L19" s="58"/>
+      <c r="M19" s="59"/>
       <c r="N19" s="6">
         <v>17</v>
       </c>
@@ -16334,17 +16346,17 @@
       <c r="D20" s="41">
         <v>44722</v>
       </c>
-      <c r="E20" s="83" t="s">
+      <c r="E20" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="F20" s="84"/>
-      <c r="G20" s="84"/>
-      <c r="H20" s="84"/>
-      <c r="I20" s="84"/>
-      <c r="J20" s="84"/>
-      <c r="K20" s="84"/>
-      <c r="L20" s="84"/>
-      <c r="M20" s="85"/>
+      <c r="F20" s="55"/>
+      <c r="G20" s="55"/>
+      <c r="H20" s="55"/>
+      <c r="I20" s="55"/>
+      <c r="J20" s="55"/>
+      <c r="K20" s="55"/>
+      <c r="L20" s="55"/>
+      <c r="M20" s="56"/>
       <c r="N20" s="6">
         <v>17</v>
       </c>
@@ -16369,17 +16381,17 @@
       <c r="D21" s="41">
         <v>44727</v>
       </c>
-      <c r="E21" s="83" t="s">
+      <c r="E21" s="54" t="s">
         <v>37</v>
       </c>
-      <c r="F21" s="84"/>
-      <c r="G21" s="84"/>
-      <c r="H21" s="84"/>
-      <c r="I21" s="84"/>
-      <c r="J21" s="84"/>
-      <c r="K21" s="84"/>
-      <c r="L21" s="84"/>
-      <c r="M21" s="85"/>
+      <c r="F21" s="55"/>
+      <c r="G21" s="55"/>
+      <c r="H21" s="55"/>
+      <c r="I21" s="55"/>
+      <c r="J21" s="55"/>
+      <c r="K21" s="55"/>
+      <c r="L21" s="55"/>
+      <c r="M21" s="56"/>
       <c r="N21" s="6">
         <v>17</v>
       </c>
@@ -16404,17 +16416,17 @@
       <c r="D22" s="41" t="s">
         <v>109</v>
       </c>
-      <c r="E22" s="83" t="s">
+      <c r="E22" s="54" t="s">
         <v>45</v>
       </c>
-      <c r="F22" s="84"/>
-      <c r="G22" s="84"/>
-      <c r="H22" s="84"/>
-      <c r="I22" s="84"/>
-      <c r="J22" s="84"/>
-      <c r="K22" s="84"/>
-      <c r="L22" s="84"/>
-      <c r="M22" s="85"/>
+      <c r="F22" s="55"/>
+      <c r="G22" s="55"/>
+      <c r="H22" s="55"/>
+      <c r="I22" s="55"/>
+      <c r="J22" s="55"/>
+      <c r="K22" s="55"/>
+      <c r="L22" s="55"/>
+      <c r="M22" s="56"/>
       <c r="N22" s="6">
         <v>17</v>
       </c>
@@ -16442,17 +16454,17 @@
       <c r="D23" s="41" t="s">
         <v>110</v>
       </c>
-      <c r="E23" s="83" t="s">
+      <c r="E23" s="54" t="s">
         <v>46</v>
       </c>
-      <c r="F23" s="84"/>
-      <c r="G23" s="84"/>
-      <c r="H23" s="84"/>
-      <c r="I23" s="84"/>
-      <c r="J23" s="84"/>
-      <c r="K23" s="84"/>
-      <c r="L23" s="84"/>
-      <c r="M23" s="85"/>
+      <c r="F23" s="55"/>
+      <c r="G23" s="55"/>
+      <c r="H23" s="55"/>
+      <c r="I23" s="55"/>
+      <c r="J23" s="55"/>
+      <c r="K23" s="55"/>
+      <c r="L23" s="55"/>
+      <c r="M23" s="56"/>
       <c r="N23" s="6">
         <v>17</v>
       </c>
@@ -16480,17 +16492,17 @@
       <c r="D24" s="41">
         <v>44736</v>
       </c>
-      <c r="E24" s="87" t="s">
+      <c r="E24" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="F24" s="88"/>
-      <c r="G24" s="88"/>
-      <c r="H24" s="88"/>
-      <c r="I24" s="88"/>
-      <c r="J24" s="88"/>
-      <c r="K24" s="88"/>
-      <c r="L24" s="88"/>
-      <c r="M24" s="89"/>
+      <c r="F24" s="58"/>
+      <c r="G24" s="58"/>
+      <c r="H24" s="58"/>
+      <c r="I24" s="58"/>
+      <c r="J24" s="58"/>
+      <c r="K24" s="58"/>
+      <c r="L24" s="58"/>
+      <c r="M24" s="59"/>
       <c r="N24" s="6">
         <v>17</v>
       </c>
@@ -16518,17 +16530,17 @@
       <c r="D25" s="41">
         <v>44740</v>
       </c>
-      <c r="E25" s="83" t="s">
+      <c r="E25" s="54" t="s">
         <v>38</v>
       </c>
-      <c r="F25" s="84"/>
-      <c r="G25" s="84"/>
-      <c r="H25" s="84"/>
-      <c r="I25" s="84"/>
-      <c r="J25" s="84"/>
-      <c r="K25" s="84"/>
-      <c r="L25" s="84"/>
-      <c r="M25" s="85"/>
+      <c r="F25" s="55"/>
+      <c r="G25" s="55"/>
+      <c r="H25" s="55"/>
+      <c r="I25" s="55"/>
+      <c r="J25" s="55"/>
+      <c r="K25" s="55"/>
+      <c r="L25" s="55"/>
+      <c r="M25" s="56"/>
       <c r="N25" s="6">
         <v>17</v>
       </c>
@@ -16556,17 +16568,17 @@
       <c r="D26" s="41">
         <v>44745</v>
       </c>
-      <c r="E26" s="87" t="s">
+      <c r="E26" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="F26" s="88"/>
-      <c r="G26" s="88"/>
-      <c r="H26" s="88"/>
-      <c r="I26" s="88"/>
-      <c r="J26" s="88"/>
-      <c r="K26" s="88"/>
-      <c r="L26" s="88"/>
-      <c r="M26" s="89"/>
+      <c r="F26" s="58"/>
+      <c r="G26" s="58"/>
+      <c r="H26" s="58"/>
+      <c r="I26" s="58"/>
+      <c r="J26" s="58"/>
+      <c r="K26" s="58"/>
+      <c r="L26" s="58"/>
+      <c r="M26" s="59"/>
       <c r="N26" s="6">
         <v>17</v>
       </c>
@@ -16594,17 +16606,17 @@
       <c r="D27" s="41">
         <v>44750</v>
       </c>
-      <c r="E27" s="83" t="s">
+      <c r="E27" s="54" t="s">
         <v>48</v>
       </c>
-      <c r="F27" s="84"/>
-      <c r="G27" s="84"/>
-      <c r="H27" s="84"/>
-      <c r="I27" s="84"/>
-      <c r="J27" s="84"/>
-      <c r="K27" s="84"/>
-      <c r="L27" s="84"/>
-      <c r="M27" s="85"/>
+      <c r="F27" s="55"/>
+      <c r="G27" s="55"/>
+      <c r="H27" s="55"/>
+      <c r="I27" s="55"/>
+      <c r="J27" s="55"/>
+      <c r="K27" s="55"/>
+      <c r="L27" s="55"/>
+      <c r="M27" s="56"/>
       <c r="N27" s="6">
         <v>17</v>
       </c>
@@ -16629,17 +16641,17 @@
       <c r="D28" s="41">
         <v>44752</v>
       </c>
-      <c r="E28" s="88" t="s">
+      <c r="E28" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="F28" s="88"/>
-      <c r="G28" s="88"/>
-      <c r="H28" s="88"/>
-      <c r="I28" s="88"/>
-      <c r="J28" s="88"/>
-      <c r="K28" s="88"/>
-      <c r="L28" s="88"/>
-      <c r="M28" s="89"/>
+      <c r="F28" s="58"/>
+      <c r="G28" s="58"/>
+      <c r="H28" s="58"/>
+      <c r="I28" s="58"/>
+      <c r="J28" s="58"/>
+      <c r="K28" s="58"/>
+      <c r="L28" s="58"/>
+      <c r="M28" s="59"/>
       <c r="N28" s="6">
         <v>17</v>
       </c>
@@ -16667,17 +16679,17 @@
       <c r="D29" s="41">
         <v>44754</v>
       </c>
-      <c r="E29" s="84" t="s">
+      <c r="E29" s="55" t="s">
         <v>49</v>
       </c>
-      <c r="F29" s="84"/>
-      <c r="G29" s="84"/>
-      <c r="H29" s="84"/>
-      <c r="I29" s="84"/>
-      <c r="J29" s="84"/>
-      <c r="K29" s="84"/>
-      <c r="L29" s="84"/>
-      <c r="M29" s="85"/>
+      <c r="F29" s="55"/>
+      <c r="G29" s="55"/>
+      <c r="H29" s="55"/>
+      <c r="I29" s="55"/>
+      <c r="J29" s="55"/>
+      <c r="K29" s="55"/>
+      <c r="L29" s="55"/>
+      <c r="M29" s="56"/>
       <c r="N29" s="6">
         <v>17</v>
       </c>
@@ -16702,17 +16714,17 @@
       <c r="D30" s="41">
         <v>44757</v>
       </c>
-      <c r="E30" s="87" t="s">
+      <c r="E30" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="F30" s="88"/>
-      <c r="G30" s="88"/>
-      <c r="H30" s="88"/>
-      <c r="I30" s="88"/>
-      <c r="J30" s="88"/>
-      <c r="K30" s="88"/>
-      <c r="L30" s="88"/>
-      <c r="M30" s="89"/>
+      <c r="F30" s="58"/>
+      <c r="G30" s="58"/>
+      <c r="H30" s="58"/>
+      <c r="I30" s="58"/>
+      <c r="J30" s="58"/>
+      <c r="K30" s="58"/>
+      <c r="L30" s="58"/>
+      <c r="M30" s="59"/>
       <c r="N30" s="6">
         <v>17</v>
       </c>
@@ -16740,17 +16752,17 @@
       <c r="D31" s="41">
         <v>44760</v>
       </c>
-      <c r="E31" s="87" t="s">
+      <c r="E31" s="57" t="s">
         <v>47</v>
       </c>
-      <c r="F31" s="88"/>
-      <c r="G31" s="88"/>
-      <c r="H31" s="88"/>
-      <c r="I31" s="88"/>
-      <c r="J31" s="88"/>
-      <c r="K31" s="88"/>
-      <c r="L31" s="88"/>
-      <c r="M31" s="89"/>
+      <c r="F31" s="58"/>
+      <c r="G31" s="58"/>
+      <c r="H31" s="58"/>
+      <c r="I31" s="58"/>
+      <c r="J31" s="58"/>
+      <c r="K31" s="58"/>
+      <c r="L31" s="58"/>
+      <c r="M31" s="59"/>
       <c r="N31" s="6">
         <v>17</v>
       </c>
@@ -16775,17 +16787,17 @@
       <c r="C32" s="1">
         <v>23</v>
       </c>
-      <c r="E32" s="83" t="s">
+      <c r="E32" s="54" t="s">
         <v>41</v>
       </c>
-      <c r="F32" s="84"/>
-      <c r="G32" s="84"/>
-      <c r="H32" s="84"/>
-      <c r="I32" s="84"/>
-      <c r="J32" s="84"/>
-      <c r="K32" s="84"/>
-      <c r="L32" s="84"/>
-      <c r="M32" s="85"/>
+      <c r="F32" s="55"/>
+      <c r="G32" s="55"/>
+      <c r="H32" s="55"/>
+      <c r="I32" s="55"/>
+      <c r="J32" s="55"/>
+      <c r="K32" s="55"/>
+      <c r="L32" s="55"/>
+      <c r="M32" s="56"/>
       <c r="N32" s="6">
         <v>17</v>
       </c>
@@ -16807,17 +16819,17 @@
       <c r="C33" s="1">
         <v>24</v>
       </c>
-      <c r="E33" s="83" t="s">
+      <c r="E33" s="54" t="s">
         <v>42</v>
       </c>
-      <c r="F33" s="84"/>
-      <c r="G33" s="84"/>
-      <c r="H33" s="84"/>
-      <c r="I33" s="84"/>
-      <c r="J33" s="84"/>
-      <c r="K33" s="84"/>
-      <c r="L33" s="84"/>
-      <c r="M33" s="85"/>
+      <c r="F33" s="55"/>
+      <c r="G33" s="55"/>
+      <c r="H33" s="55"/>
+      <c r="I33" s="55"/>
+      <c r="J33" s="55"/>
+      <c r="K33" s="55"/>
+      <c r="L33" s="55"/>
+      <c r="M33" s="56"/>
       <c r="N33" s="6">
         <v>17</v>
       </c>
@@ -16840,20 +16852,20 @@
         <v>25</v>
       </c>
       <c r="D34" s="47"/>
-      <c r="E34" s="60" t="s">
+      <c r="E34" s="66" t="s">
         <v>58</v>
       </c>
-      <c r="F34" s="61"/>
-      <c r="G34" s="61"/>
-      <c r="H34" s="61"/>
-      <c r="I34" s="61"/>
-      <c r="J34" s="61"/>
-      <c r="K34" s="61"/>
-      <c r="L34" s="61"/>
-      <c r="M34" s="61"/>
-      <c r="N34" s="61"/>
-      <c r="O34" s="61"/>
-      <c r="P34" s="62"/>
+      <c r="F34" s="67"/>
+      <c r="G34" s="67"/>
+      <c r="H34" s="67"/>
+      <c r="I34" s="67"/>
+      <c r="J34" s="67"/>
+      <c r="K34" s="67"/>
+      <c r="L34" s="67"/>
+      <c r="M34" s="67"/>
+      <c r="N34" s="67"/>
+      <c r="O34" s="67"/>
+      <c r="P34" s="68"/>
       <c r="Q34" s="11"/>
       <c r="R34" s="12" t="e">
         <f>AVERAGE(R10:R33)</f>
@@ -16880,22 +16892,6 @@
     <sortCondition ref="D10:D33"/>
   </sortState>
   <mergeCells count="28">
-    <mergeCell ref="E26:M26"/>
-    <mergeCell ref="E32:M32"/>
-    <mergeCell ref="E33:M33"/>
-    <mergeCell ref="E34:P34"/>
-    <mergeCell ref="E27:M27"/>
-    <mergeCell ref="E28:M28"/>
-    <mergeCell ref="E29:M29"/>
-    <mergeCell ref="E30:M30"/>
-    <mergeCell ref="E31:M31"/>
-    <mergeCell ref="E19:M19"/>
-    <mergeCell ref="E20:M20"/>
-    <mergeCell ref="E21:M21"/>
-    <mergeCell ref="E24:M24"/>
-    <mergeCell ref="E25:M25"/>
-    <mergeCell ref="E22:M22"/>
-    <mergeCell ref="E23:M23"/>
     <mergeCell ref="E18:M18"/>
     <mergeCell ref="C4:Y6"/>
     <mergeCell ref="C7:T7"/>
@@ -16908,6 +16904,22 @@
     <mergeCell ref="E15:M15"/>
     <mergeCell ref="E16:M16"/>
     <mergeCell ref="E17:M17"/>
+    <mergeCell ref="E19:M19"/>
+    <mergeCell ref="E20:M20"/>
+    <mergeCell ref="E21:M21"/>
+    <mergeCell ref="E24:M24"/>
+    <mergeCell ref="E25:M25"/>
+    <mergeCell ref="E22:M22"/>
+    <mergeCell ref="E23:M23"/>
+    <mergeCell ref="E26:M26"/>
+    <mergeCell ref="E32:M32"/>
+    <mergeCell ref="E33:M33"/>
+    <mergeCell ref="E34:P34"/>
+    <mergeCell ref="E27:M27"/>
+    <mergeCell ref="E28:M28"/>
+    <mergeCell ref="E29:M29"/>
+    <mergeCell ref="E30:M30"/>
+    <mergeCell ref="E31:M31"/>
   </mergeCells>
   <conditionalFormatting sqref="V10:V33">
     <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">

--- a/My Test Tracker Original GATE 2023.xlsx
+++ b/My Test Tracker Original GATE 2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GATE 2022 &amp; 2023\My Progress trackers &amp; Journey - In Git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58909576-33AB-4DC4-B01C-DA3872E252F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADAC13B5-211B-4ED7-B283-0F71B640745A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{158952DD-A7DC-477E-91D8-188954568D39}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="805" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="806" uniqueCount="127">
   <si>
     <t>Topicwise Tests</t>
   </si>
@@ -908,40 +908,20 @@
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -962,14 +942,13 @@
     <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -981,13 +960,16 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -999,9 +981,7 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1011,14 +991,34 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2050,8 +2050,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E053581-A6B0-45B0-A9DB-B07F5A1622B0}">
   <dimension ref="A1:W336"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D184" workbookViewId="0">
-      <selection activeCell="Q188" sqref="Q188"/>
+    <sheetView tabSelected="1" topLeftCell="D203" workbookViewId="0">
+      <selection activeCell="U212" sqref="U212"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2077,52 +2077,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="34.200000000000003" thickBot="1" x14ac:dyDescent="0.7">
-      <c r="A1" s="92">
+      <c r="A1" s="56">
         <v>2021</v>
       </c>
-      <c r="B1" s="92"/>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
-      <c r="F1" s="92"/>
-      <c r="G1" s="92"/>
-      <c r="H1" s="92"/>
-      <c r="I1" s="92"/>
-      <c r="J1" s="92"/>
-      <c r="K1" s="92"/>
-      <c r="L1" s="92"/>
-      <c r="M1" s="92"/>
-      <c r="N1" s="92"/>
-      <c r="O1" s="92"/>
-      <c r="P1" s="92"/>
-      <c r="Q1" s="92"/>
-      <c r="R1" s="92"/>
-      <c r="S1" s="92"/>
-      <c r="T1" s="92"/>
-      <c r="U1" s="92"/>
-      <c r="V1" s="92"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="56"/>
+      <c r="K1" s="56"/>
+      <c r="L1" s="56"/>
+      <c r="M1" s="56"/>
+      <c r="N1" s="56"/>
+      <c r="O1" s="56"/>
+      <c r="P1" s="56"/>
+      <c r="Q1" s="56"/>
+      <c r="R1" s="56"/>
+      <c r="S1" s="56"/>
+      <c r="T1" s="56"/>
+      <c r="U1" s="56"/>
+      <c r="V1" s="56"/>
     </row>
     <row r="2" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="86" t="s">
+      <c r="A2" s="80" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="87"/>
-      <c r="C2" s="87"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="87"/>
-      <c r="G2" s="87"/>
-      <c r="H2" s="87"/>
-      <c r="I2" s="87"/>
-      <c r="J2" s="87"/>
-      <c r="K2" s="87"/>
-      <c r="L2" s="87"/>
-      <c r="M2" s="87"/>
-      <c r="N2" s="87"/>
-      <c r="O2" s="87"/>
-      <c r="P2" s="87"/>
-      <c r="Q2" s="87"/>
-      <c r="R2" s="88"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="81"/>
+      <c r="G2" s="81"/>
+      <c r="H2" s="81"/>
+      <c r="I2" s="81"/>
+      <c r="J2" s="81"/>
+      <c r="K2" s="81"/>
+      <c r="L2" s="81"/>
+      <c r="M2" s="81"/>
+      <c r="N2" s="81"/>
+      <c r="O2" s="81"/>
+      <c r="P2" s="81"/>
+      <c r="Q2" s="81"/>
+      <c r="R2" s="82"/>
       <c r="S2" s="3"/>
       <c r="T2" s="3"/>
       <c r="U2" s="3"/>
@@ -2133,17 +2133,17 @@
         <v>1</v>
       </c>
       <c r="B4" s="5"/>
-      <c r="C4" s="85" t="s">
+      <c r="C4" s="86" t="s">
         <v>100</v>
       </c>
-      <c r="D4" s="85"/>
-      <c r="E4" s="85"/>
-      <c r="F4" s="85"/>
-      <c r="G4" s="85"/>
-      <c r="H4" s="85"/>
-      <c r="I4" s="85"/>
-      <c r="J4" s="85"/>
-      <c r="K4" s="85"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86"/>
+      <c r="K4" s="86"/>
       <c r="L4" s="5" t="s">
         <v>2</v>
       </c>
@@ -2183,17 +2183,17 @@
       <c r="B5" s="41">
         <v>44613</v>
       </c>
-      <c r="C5" s="73" t="s">
+      <c r="C5" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="73"/>
-      <c r="E5" s="73"/>
-      <c r="F5" s="73"/>
-      <c r="G5" s="73"/>
-      <c r="H5" s="73"/>
-      <c r="I5" s="73"/>
-      <c r="J5" s="73"/>
-      <c r="K5" s="73"/>
+      <c r="D5" s="74"/>
+      <c r="E5" s="74"/>
+      <c r="F5" s="74"/>
+      <c r="G5" s="74"/>
+      <c r="H5" s="74"/>
+      <c r="I5" s="74"/>
+      <c r="J5" s="74"/>
+      <c r="K5" s="74"/>
       <c r="L5" s="6">
         <v>17</v>
       </c>
@@ -2221,17 +2221,17 @@
       <c r="B6" s="41">
         <v>44617</v>
       </c>
-      <c r="C6" s="64" t="s">
+      <c r="C6" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="65"/>
-      <c r="E6" s="65"/>
-      <c r="F6" s="65"/>
-      <c r="G6" s="65"/>
-      <c r="H6" s="65"/>
-      <c r="I6" s="65"/>
-      <c r="J6" s="65"/>
-      <c r="K6" s="65"/>
+      <c r="D6" s="67"/>
+      <c r="E6" s="67"/>
+      <c r="F6" s="67"/>
+      <c r="G6" s="67"/>
+      <c r="H6" s="67"/>
+      <c r="I6" s="67"/>
+      <c r="J6" s="67"/>
+      <c r="K6" s="67"/>
       <c r="L6" s="6">
         <v>17</v>
       </c>
@@ -2259,17 +2259,17 @@
       <c r="B7" s="41">
         <v>44621</v>
       </c>
-      <c r="C7" s="64" t="s">
+      <c r="C7" s="66" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="65"/>
-      <c r="E7" s="65"/>
-      <c r="F7" s="65"/>
-      <c r="G7" s="65"/>
-      <c r="H7" s="65"/>
-      <c r="I7" s="65"/>
-      <c r="J7" s="65"/>
-      <c r="K7" s="65"/>
+      <c r="D7" s="67"/>
+      <c r="E7" s="67"/>
+      <c r="F7" s="67"/>
+      <c r="G7" s="67"/>
+      <c r="H7" s="67"/>
+      <c r="I7" s="67"/>
+      <c r="J7" s="67"/>
+      <c r="K7" s="67"/>
       <c r="L7" s="6">
         <v>17</v>
       </c>
@@ -2297,17 +2297,17 @@
       <c r="B8" s="41">
         <v>44625</v>
       </c>
-      <c r="C8" s="65" t="s">
+      <c r="C8" s="67" t="s">
         <v>35</v>
       </c>
-      <c r="D8" s="65"/>
-      <c r="E8" s="65"/>
-      <c r="F8" s="65"/>
-      <c r="G8" s="65"/>
-      <c r="H8" s="65"/>
-      <c r="I8" s="65"/>
-      <c r="J8" s="65"/>
-      <c r="K8" s="65"/>
+      <c r="D8" s="67"/>
+      <c r="E8" s="67"/>
+      <c r="F8" s="67"/>
+      <c r="G8" s="67"/>
+      <c r="H8" s="67"/>
+      <c r="I8" s="67"/>
+      <c r="J8" s="67"/>
+      <c r="K8" s="67"/>
       <c r="L8" s="6">
         <v>17</v>
       </c>
@@ -2335,17 +2335,17 @@
       <c r="B9" s="41">
         <v>44629</v>
       </c>
-      <c r="C9" s="64" t="s">
+      <c r="C9" s="66" t="s">
         <v>36</v>
       </c>
-      <c r="D9" s="65"/>
-      <c r="E9" s="65"/>
-      <c r="F9" s="65"/>
-      <c r="G9" s="65"/>
-      <c r="H9" s="65"/>
-      <c r="I9" s="65"/>
-      <c r="J9" s="65"/>
-      <c r="K9" s="65"/>
+      <c r="D9" s="67"/>
+      <c r="E9" s="67"/>
+      <c r="F9" s="67"/>
+      <c r="G9" s="67"/>
+      <c r="H9" s="67"/>
+      <c r="I9" s="67"/>
+      <c r="J9" s="67"/>
+      <c r="K9" s="67"/>
       <c r="L9" s="6">
         <v>17</v>
       </c>
@@ -2373,17 +2373,17 @@
       <c r="B10" s="41">
         <v>44633</v>
       </c>
-      <c r="C10" s="64" t="s">
+      <c r="C10" s="66" t="s">
         <v>37</v>
       </c>
-      <c r="D10" s="65"/>
-      <c r="E10" s="65"/>
-      <c r="F10" s="65"/>
-      <c r="G10" s="65"/>
-      <c r="H10" s="65"/>
-      <c r="I10" s="65"/>
-      <c r="J10" s="65"/>
-      <c r="K10" s="65"/>
+      <c r="D10" s="67"/>
+      <c r="E10" s="67"/>
+      <c r="F10" s="67"/>
+      <c r="G10" s="67"/>
+      <c r="H10" s="67"/>
+      <c r="I10" s="67"/>
+      <c r="J10" s="67"/>
+      <c r="K10" s="67"/>
       <c r="L10" s="6">
         <v>17</v>
       </c>
@@ -2411,17 +2411,17 @@
       <c r="B11" s="41">
         <v>44637</v>
       </c>
-      <c r="C11" s="65" t="s">
+      <c r="C11" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="65"/>
-      <c r="E11" s="65"/>
-      <c r="F11" s="65"/>
-      <c r="G11" s="65"/>
-      <c r="H11" s="65"/>
-      <c r="I11" s="65"/>
-      <c r="J11" s="65"/>
-      <c r="K11" s="65"/>
+      <c r="D11" s="67"/>
+      <c r="E11" s="67"/>
+      <c r="F11" s="67"/>
+      <c r="G11" s="67"/>
+      <c r="H11" s="67"/>
+      <c r="I11" s="67"/>
+      <c r="J11" s="67"/>
+      <c r="K11" s="67"/>
       <c r="L11" s="6">
         <v>17</v>
       </c>
@@ -2449,17 +2449,17 @@
       <c r="B12" s="41">
         <v>44641</v>
       </c>
-      <c r="C12" s="64" t="s">
+      <c r="C12" s="66" t="s">
         <v>38</v>
       </c>
-      <c r="D12" s="65"/>
-      <c r="E12" s="65"/>
-      <c r="F12" s="65"/>
-      <c r="G12" s="65"/>
-      <c r="H12" s="65"/>
-      <c r="I12" s="65"/>
-      <c r="J12" s="65"/>
-      <c r="K12" s="65"/>
+      <c r="D12" s="67"/>
+      <c r="E12" s="67"/>
+      <c r="F12" s="67"/>
+      <c r="G12" s="67"/>
+      <c r="H12" s="67"/>
+      <c r="I12" s="67"/>
+      <c r="J12" s="67"/>
+      <c r="K12" s="67"/>
       <c r="L12" s="6">
         <v>17</v>
       </c>
@@ -2485,17 +2485,17 @@
         <v>9</v>
       </c>
       <c r="B13" s="1"/>
-      <c r="C13" s="64" t="s">
+      <c r="C13" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="D13" s="65"/>
-      <c r="E13" s="65"/>
-      <c r="F13" s="65"/>
-      <c r="G13" s="65"/>
-      <c r="H13" s="65"/>
-      <c r="I13" s="65"/>
-      <c r="J13" s="65"/>
-      <c r="K13" s="65"/>
+      <c r="D13" s="67"/>
+      <c r="E13" s="67"/>
+      <c r="F13" s="67"/>
+      <c r="G13" s="67"/>
+      <c r="H13" s="67"/>
+      <c r="I13" s="67"/>
+      <c r="J13" s="67"/>
+      <c r="K13" s="67"/>
       <c r="L13" s="6">
         <v>17</v>
       </c>
@@ -2521,17 +2521,17 @@
         <v>10</v>
       </c>
       <c r="B14" s="1"/>
-      <c r="C14" s="64" t="s">
+      <c r="C14" s="66" t="s">
         <v>40</v>
       </c>
-      <c r="D14" s="65"/>
-      <c r="E14" s="65"/>
-      <c r="F14" s="65"/>
-      <c r="G14" s="65"/>
-      <c r="H14" s="65"/>
-      <c r="I14" s="65"/>
-      <c r="J14" s="65"/>
-      <c r="K14" s="65"/>
+      <c r="D14" s="67"/>
+      <c r="E14" s="67"/>
+      <c r="F14" s="67"/>
+      <c r="G14" s="67"/>
+      <c r="H14" s="67"/>
+      <c r="I14" s="67"/>
+      <c r="J14" s="67"/>
+      <c r="K14" s="67"/>
       <c r="L14" s="6">
         <v>17</v>
       </c>
@@ -2557,17 +2557,17 @@
         <v>11</v>
       </c>
       <c r="B15" s="1"/>
-      <c r="C15" s="64" t="s">
+      <c r="C15" s="66" t="s">
         <v>41</v>
       </c>
-      <c r="D15" s="65"/>
-      <c r="E15" s="65"/>
-      <c r="F15" s="65"/>
-      <c r="G15" s="65"/>
-      <c r="H15" s="65"/>
-      <c r="I15" s="65"/>
-      <c r="J15" s="65"/>
-      <c r="K15" s="65"/>
+      <c r="D15" s="67"/>
+      <c r="E15" s="67"/>
+      <c r="F15" s="67"/>
+      <c r="G15" s="67"/>
+      <c r="H15" s="67"/>
+      <c r="I15" s="67"/>
+      <c r="J15" s="67"/>
+      <c r="K15" s="67"/>
       <c r="L15" s="6">
         <v>17</v>
       </c>
@@ -2593,17 +2593,17 @@
         <v>12</v>
       </c>
       <c r="B16" s="1"/>
-      <c r="C16" s="64" t="s">
+      <c r="C16" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="D16" s="65"/>
-      <c r="E16" s="65"/>
-      <c r="F16" s="65"/>
-      <c r="G16" s="65"/>
-      <c r="H16" s="65"/>
-      <c r="I16" s="65"/>
-      <c r="J16" s="65"/>
-      <c r="K16" s="65"/>
+      <c r="D16" s="67"/>
+      <c r="E16" s="67"/>
+      <c r="F16" s="67"/>
+      <c r="G16" s="67"/>
+      <c r="H16" s="67"/>
+      <c r="I16" s="67"/>
+      <c r="J16" s="67"/>
+      <c r="K16" s="67"/>
       <c r="L16" s="6">
         <v>17</v>
       </c>
@@ -2631,17 +2631,17 @@
       <c r="B17" s="41">
         <v>44645</v>
       </c>
-      <c r="C17" s="65" t="s">
+      <c r="C17" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="D17" s="65"/>
-      <c r="E17" s="65"/>
-      <c r="F17" s="65"/>
-      <c r="G17" s="65"/>
-      <c r="H17" s="65"/>
-      <c r="I17" s="65"/>
-      <c r="J17" s="65"/>
-      <c r="K17" s="65"/>
+      <c r="D17" s="67"/>
+      <c r="E17" s="67"/>
+      <c r="F17" s="67"/>
+      <c r="G17" s="67"/>
+      <c r="H17" s="67"/>
+      <c r="I17" s="67"/>
+      <c r="J17" s="67"/>
+      <c r="K17" s="67"/>
       <c r="L17" s="6">
         <v>17</v>
       </c>
@@ -2669,17 +2669,17 @@
       <c r="B18" s="41">
         <v>44649</v>
       </c>
-      <c r="C18" s="64" t="s">
+      <c r="C18" s="66" t="s">
         <v>43</v>
       </c>
-      <c r="D18" s="65"/>
-      <c r="E18" s="65"/>
-      <c r="F18" s="65"/>
-      <c r="G18" s="65"/>
-      <c r="H18" s="65"/>
-      <c r="I18" s="65"/>
-      <c r="J18" s="65"/>
-      <c r="K18" s="65"/>
+      <c r="D18" s="67"/>
+      <c r="E18" s="67"/>
+      <c r="F18" s="67"/>
+      <c r="G18" s="67"/>
+      <c r="H18" s="67"/>
+      <c r="I18" s="67"/>
+      <c r="J18" s="67"/>
+      <c r="K18" s="67"/>
       <c r="L18" s="6">
         <v>17</v>
       </c>
@@ -2707,17 +2707,17 @@
       <c r="B19" s="41">
         <v>44653</v>
       </c>
-      <c r="C19" s="65" t="s">
+      <c r="C19" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="D19" s="65"/>
-      <c r="E19" s="65"/>
-      <c r="F19" s="65"/>
-      <c r="G19" s="65"/>
-      <c r="H19" s="65"/>
-      <c r="I19" s="65"/>
-      <c r="J19" s="65"/>
-      <c r="K19" s="65"/>
+      <c r="D19" s="67"/>
+      <c r="E19" s="67"/>
+      <c r="F19" s="67"/>
+      <c r="G19" s="67"/>
+      <c r="H19" s="67"/>
+      <c r="I19" s="67"/>
+      <c r="J19" s="67"/>
+      <c r="K19" s="67"/>
       <c r="L19" s="6">
         <v>17</v>
       </c>
@@ -2755,17 +2755,17 @@
       <c r="B20" s="41">
         <v>44657</v>
       </c>
-      <c r="C20" s="65" t="s">
+      <c r="C20" s="67" t="s">
         <v>44</v>
       </c>
-      <c r="D20" s="65"/>
-      <c r="E20" s="65"/>
-      <c r="F20" s="65"/>
-      <c r="G20" s="65"/>
-      <c r="H20" s="65"/>
-      <c r="I20" s="65"/>
-      <c r="J20" s="65"/>
-      <c r="K20" s="65"/>
+      <c r="D20" s="67"/>
+      <c r="E20" s="67"/>
+      <c r="F20" s="67"/>
+      <c r="G20" s="67"/>
+      <c r="H20" s="67"/>
+      <c r="I20" s="67"/>
+      <c r="J20" s="67"/>
+      <c r="K20" s="67"/>
       <c r="L20" s="6">
         <v>17</v>
       </c>
@@ -2793,17 +2793,17 @@
       <c r="B21" s="41">
         <v>44661</v>
       </c>
-      <c r="C21" s="64" t="s">
+      <c r="C21" s="66" t="s">
         <v>45</v>
       </c>
-      <c r="D21" s="65"/>
-      <c r="E21" s="65"/>
-      <c r="F21" s="65"/>
-      <c r="G21" s="65"/>
-      <c r="H21" s="65"/>
-      <c r="I21" s="65"/>
-      <c r="J21" s="65"/>
-      <c r="K21" s="65"/>
+      <c r="D21" s="67"/>
+      <c r="E21" s="67"/>
+      <c r="F21" s="67"/>
+      <c r="G21" s="67"/>
+      <c r="H21" s="67"/>
+      <c r="I21" s="67"/>
+      <c r="J21" s="67"/>
+      <c r="K21" s="67"/>
       <c r="L21" s="6">
         <v>17</v>
       </c>
@@ -2831,17 +2831,17 @@
       <c r="B22" s="41">
         <v>44665</v>
       </c>
-      <c r="C22" s="64" t="s">
+      <c r="C22" s="66" t="s">
         <v>46</v>
       </c>
-      <c r="D22" s="65"/>
-      <c r="E22" s="65"/>
-      <c r="F22" s="65"/>
-      <c r="G22" s="65"/>
-      <c r="H22" s="65"/>
-      <c r="I22" s="65"/>
-      <c r="J22" s="65"/>
-      <c r="K22" s="65"/>
+      <c r="D22" s="67"/>
+      <c r="E22" s="67"/>
+      <c r="F22" s="67"/>
+      <c r="G22" s="67"/>
+      <c r="H22" s="67"/>
+      <c r="I22" s="67"/>
+      <c r="J22" s="67"/>
+      <c r="K22" s="67"/>
       <c r="L22" s="6">
         <v>17</v>
       </c>
@@ -2869,17 +2869,17 @@
       <c r="B23" s="41">
         <v>44669</v>
       </c>
-      <c r="C23" s="65" t="s">
+      <c r="C23" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="D23" s="65"/>
-      <c r="E23" s="65"/>
-      <c r="F23" s="65"/>
-      <c r="G23" s="65"/>
-      <c r="H23" s="65"/>
-      <c r="I23" s="65"/>
-      <c r="J23" s="65"/>
-      <c r="K23" s="65"/>
+      <c r="D23" s="67"/>
+      <c r="E23" s="67"/>
+      <c r="F23" s="67"/>
+      <c r="G23" s="67"/>
+      <c r="H23" s="67"/>
+      <c r="I23" s="67"/>
+      <c r="J23" s="67"/>
+      <c r="K23" s="67"/>
       <c r="L23" s="6">
         <v>17</v>
       </c>
@@ -2907,17 +2907,17 @@
       <c r="B24" s="41">
         <v>44673</v>
       </c>
-      <c r="C24" s="65" t="s">
+      <c r="C24" s="67" t="s">
         <v>47</v>
       </c>
-      <c r="D24" s="65"/>
-      <c r="E24" s="65"/>
-      <c r="F24" s="65"/>
-      <c r="G24" s="65"/>
-      <c r="H24" s="65"/>
-      <c r="I24" s="65"/>
-      <c r="J24" s="65"/>
-      <c r="K24" s="65"/>
+      <c r="D24" s="67"/>
+      <c r="E24" s="67"/>
+      <c r="F24" s="67"/>
+      <c r="G24" s="67"/>
+      <c r="H24" s="67"/>
+      <c r="I24" s="67"/>
+      <c r="J24" s="67"/>
+      <c r="K24" s="67"/>
       <c r="L24" s="6">
         <v>17</v>
       </c>
@@ -2945,17 +2945,17 @@
       <c r="B25" s="42">
         <v>44646</v>
       </c>
-      <c r="C25" s="65" t="s">
+      <c r="C25" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="D25" s="65"/>
-      <c r="E25" s="65"/>
-      <c r="F25" s="65"/>
-      <c r="G25" s="65"/>
-      <c r="H25" s="65"/>
-      <c r="I25" s="65"/>
-      <c r="J25" s="65"/>
-      <c r="K25" s="65"/>
+      <c r="D25" s="67"/>
+      <c r="E25" s="67"/>
+      <c r="F25" s="67"/>
+      <c r="G25" s="67"/>
+      <c r="H25" s="67"/>
+      <c r="I25" s="67"/>
+      <c r="J25" s="67"/>
+      <c r="K25" s="67"/>
       <c r="L25" s="6">
         <v>17</v>
       </c>
@@ -2983,17 +2983,17 @@
       <c r="B26" s="43">
         <v>44646</v>
       </c>
-      <c r="C26" s="64" t="s">
+      <c r="C26" s="66" t="s">
         <v>48</v>
       </c>
-      <c r="D26" s="65"/>
-      <c r="E26" s="65"/>
-      <c r="F26" s="65"/>
-      <c r="G26" s="65"/>
-      <c r="H26" s="65"/>
-      <c r="I26" s="65"/>
-      <c r="J26" s="65"/>
-      <c r="K26" s="65"/>
+      <c r="D26" s="67"/>
+      <c r="E26" s="67"/>
+      <c r="F26" s="67"/>
+      <c r="G26" s="67"/>
+      <c r="H26" s="67"/>
+      <c r="I26" s="67"/>
+      <c r="J26" s="67"/>
+      <c r="K26" s="67"/>
       <c r="L26" s="6">
         <v>17</v>
       </c>
@@ -3021,17 +3021,17 @@
       <c r="B27" s="41">
         <v>44677</v>
       </c>
-      <c r="C27" s="65" t="s">
+      <c r="C27" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="D27" s="65"/>
-      <c r="E27" s="65"/>
-      <c r="F27" s="65"/>
-      <c r="G27" s="65"/>
-      <c r="H27" s="65"/>
-      <c r="I27" s="65"/>
-      <c r="J27" s="65"/>
-      <c r="K27" s="65"/>
+      <c r="D27" s="67"/>
+      <c r="E27" s="67"/>
+      <c r="F27" s="67"/>
+      <c r="G27" s="67"/>
+      <c r="H27" s="67"/>
+      <c r="I27" s="67"/>
+      <c r="J27" s="67"/>
+      <c r="K27" s="67"/>
       <c r="L27" s="6">
         <v>17</v>
       </c>
@@ -3059,17 +3059,17 @@
       <c r="B28" s="41">
         <v>44681</v>
       </c>
-      <c r="C28" s="64" t="s">
+      <c r="C28" s="66" t="s">
         <v>49</v>
       </c>
-      <c r="D28" s="65"/>
-      <c r="E28" s="65"/>
-      <c r="F28" s="65"/>
-      <c r="G28" s="65"/>
-      <c r="H28" s="65"/>
-      <c r="I28" s="65"/>
-      <c r="J28" s="65"/>
-      <c r="K28" s="65"/>
+      <c r="D28" s="67"/>
+      <c r="E28" s="67"/>
+      <c r="F28" s="67"/>
+      <c r="G28" s="67"/>
+      <c r="H28" s="67"/>
+      <c r="I28" s="67"/>
+      <c r="J28" s="67"/>
+      <c r="K28" s="67"/>
       <c r="L28" s="6">
         <v>17</v>
       </c>
@@ -3095,20 +3095,20 @@
         <v>25</v>
       </c>
       <c r="B29" s="8"/>
-      <c r="C29" s="66" t="s">
+      <c r="C29" s="60" t="s">
         <v>58</v>
       </c>
-      <c r="D29" s="67"/>
-      <c r="E29" s="67"/>
-      <c r="F29" s="67"/>
-      <c r="G29" s="67"/>
-      <c r="H29" s="67"/>
-      <c r="I29" s="67"/>
-      <c r="J29" s="67"/>
-      <c r="K29" s="67"/>
-      <c r="L29" s="67"/>
-      <c r="M29" s="67"/>
-      <c r="N29" s="68"/>
+      <c r="D29" s="61"/>
+      <c r="E29" s="61"/>
+      <c r="F29" s="61"/>
+      <c r="G29" s="61"/>
+      <c r="H29" s="61"/>
+      <c r="I29" s="61"/>
+      <c r="J29" s="61"/>
+      <c r="K29" s="61"/>
+      <c r="L29" s="61"/>
+      <c r="M29" s="61"/>
+      <c r="N29" s="62"/>
       <c r="O29" s="11"/>
       <c r="P29" s="12">
         <f>AVERAGE(P5:P28)</f>
@@ -3128,26 +3128,26 @@
     </row>
     <row r="31" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="32" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="82" t="s">
+      <c r="A32" s="76" t="s">
         <v>13</v>
       </c>
-      <c r="B32" s="83"/>
-      <c r="C32" s="83"/>
-      <c r="D32" s="83"/>
-      <c r="E32" s="83"/>
-      <c r="F32" s="83"/>
-      <c r="G32" s="83"/>
-      <c r="H32" s="83"/>
-      <c r="I32" s="83"/>
-      <c r="J32" s="83"/>
-      <c r="K32" s="83"/>
-      <c r="L32" s="83"/>
-      <c r="M32" s="83"/>
-      <c r="N32" s="83"/>
-      <c r="O32" s="83"/>
-      <c r="P32" s="83"/>
-      <c r="Q32" s="83"/>
-      <c r="R32" s="84"/>
+      <c r="B32" s="77"/>
+      <c r="C32" s="77"/>
+      <c r="D32" s="77"/>
+      <c r="E32" s="77"/>
+      <c r="F32" s="77"/>
+      <c r="G32" s="77"/>
+      <c r="H32" s="77"/>
+      <c r="I32" s="77"/>
+      <c r="J32" s="77"/>
+      <c r="K32" s="77"/>
+      <c r="L32" s="77"/>
+      <c r="M32" s="77"/>
+      <c r="N32" s="77"/>
+      <c r="O32" s="77"/>
+      <c r="P32" s="77"/>
+      <c r="Q32" s="77"/>
+      <c r="R32" s="78"/>
       <c r="S32" s="15"/>
       <c r="T32" s="15"/>
       <c r="U32" s="15"/>
@@ -3157,17 +3157,17 @@
         <v>1</v>
       </c>
       <c r="B34" s="5"/>
-      <c r="C34" s="72" t="s">
+      <c r="C34" s="73" t="s">
         <v>100</v>
       </c>
-      <c r="D34" s="72"/>
-      <c r="E34" s="72"/>
-      <c r="F34" s="72"/>
-      <c r="G34" s="72"/>
-      <c r="H34" s="72"/>
-      <c r="I34" s="72"/>
-      <c r="J34" s="72"/>
-      <c r="K34" s="72"/>
+      <c r="D34" s="73"/>
+      <c r="E34" s="73"/>
+      <c r="F34" s="73"/>
+      <c r="G34" s="73"/>
+      <c r="H34" s="73"/>
+      <c r="I34" s="73"/>
+      <c r="J34" s="73"/>
+      <c r="K34" s="73"/>
       <c r="L34" s="5" t="s">
         <v>2</v>
       </c>
@@ -3204,17 +3204,17 @@
         <v>1</v>
       </c>
       <c r="B35" s="1"/>
-      <c r="C35" s="73" t="s">
+      <c r="C35" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="D35" s="73"/>
-      <c r="E35" s="73"/>
-      <c r="F35" s="73"/>
-      <c r="G35" s="73"/>
-      <c r="H35" s="73"/>
-      <c r="I35" s="73"/>
-      <c r="J35" s="73"/>
-      <c r="K35" s="73"/>
+      <c r="D35" s="74"/>
+      <c r="E35" s="74"/>
+      <c r="F35" s="74"/>
+      <c r="G35" s="74"/>
+      <c r="H35" s="74"/>
+      <c r="I35" s="74"/>
+      <c r="J35" s="74"/>
+      <c r="K35" s="74"/>
       <c r="L35" s="6">
         <v>33</v>
       </c>
@@ -3237,17 +3237,17 @@
         <v>2</v>
       </c>
       <c r="B36" s="1"/>
-      <c r="C36" s="64" t="s">
+      <c r="C36" s="66" t="s">
         <v>16</v>
       </c>
-      <c r="D36" s="65"/>
-      <c r="E36" s="65"/>
-      <c r="F36" s="65"/>
-      <c r="G36" s="65"/>
-      <c r="H36" s="65"/>
-      <c r="I36" s="65"/>
-      <c r="J36" s="65"/>
-      <c r="K36" s="65"/>
+      <c r="D36" s="67"/>
+      <c r="E36" s="67"/>
+      <c r="F36" s="67"/>
+      <c r="G36" s="67"/>
+      <c r="H36" s="67"/>
+      <c r="I36" s="67"/>
+      <c r="J36" s="67"/>
+      <c r="K36" s="67"/>
       <c r="L36" s="6">
         <v>33</v>
       </c>
@@ -3270,17 +3270,17 @@
         <v>3</v>
       </c>
       <c r="B37" s="1"/>
-      <c r="C37" s="64" t="s">
+      <c r="C37" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="D37" s="65"/>
-      <c r="E37" s="65"/>
-      <c r="F37" s="65"/>
-      <c r="G37" s="65"/>
-      <c r="H37" s="65"/>
-      <c r="I37" s="65"/>
-      <c r="J37" s="65"/>
-      <c r="K37" s="65"/>
+      <c r="D37" s="67"/>
+      <c r="E37" s="67"/>
+      <c r="F37" s="67"/>
+      <c r="G37" s="67"/>
+      <c r="H37" s="67"/>
+      <c r="I37" s="67"/>
+      <c r="J37" s="67"/>
+      <c r="K37" s="67"/>
       <c r="L37" s="6">
         <v>33</v>
       </c>
@@ -3303,17 +3303,17 @@
         <v>4</v>
       </c>
       <c r="B38" s="1"/>
-      <c r="C38" s="65" t="s">
+      <c r="C38" s="67" t="s">
         <v>18</v>
       </c>
-      <c r="D38" s="65"/>
-      <c r="E38" s="65"/>
-      <c r="F38" s="65"/>
-      <c r="G38" s="65"/>
-      <c r="H38" s="65"/>
-      <c r="I38" s="65"/>
-      <c r="J38" s="65"/>
-      <c r="K38" s="65"/>
+      <c r="D38" s="67"/>
+      <c r="E38" s="67"/>
+      <c r="F38" s="67"/>
+      <c r="G38" s="67"/>
+      <c r="H38" s="67"/>
+      <c r="I38" s="67"/>
+      <c r="J38" s="67"/>
+      <c r="K38" s="67"/>
       <c r="L38" s="6">
         <v>33</v>
       </c>
@@ -3336,17 +3336,17 @@
         <v>5</v>
       </c>
       <c r="B39" s="1"/>
-      <c r="C39" s="64" t="s">
+      <c r="C39" s="66" t="s">
         <v>61</v>
       </c>
-      <c r="D39" s="65"/>
-      <c r="E39" s="65"/>
-      <c r="F39" s="65"/>
-      <c r="G39" s="65"/>
-      <c r="H39" s="65"/>
-      <c r="I39" s="65"/>
-      <c r="J39" s="65"/>
-      <c r="K39" s="65"/>
+      <c r="D39" s="67"/>
+      <c r="E39" s="67"/>
+      <c r="F39" s="67"/>
+      <c r="G39" s="67"/>
+      <c r="H39" s="67"/>
+      <c r="I39" s="67"/>
+      <c r="J39" s="67"/>
+      <c r="K39" s="67"/>
       <c r="L39" s="6">
         <v>33</v>
       </c>
@@ -3369,17 +3369,17 @@
         <v>6</v>
       </c>
       <c r="B40" s="1"/>
-      <c r="C40" s="64" t="s">
+      <c r="C40" s="66" t="s">
         <v>61</v>
       </c>
-      <c r="D40" s="65"/>
-      <c r="E40" s="65"/>
-      <c r="F40" s="65"/>
-      <c r="G40" s="65"/>
-      <c r="H40" s="65"/>
-      <c r="I40" s="65"/>
-      <c r="J40" s="65"/>
-      <c r="K40" s="65"/>
+      <c r="D40" s="67"/>
+      <c r="E40" s="67"/>
+      <c r="F40" s="67"/>
+      <c r="G40" s="67"/>
+      <c r="H40" s="67"/>
+      <c r="I40" s="67"/>
+      <c r="J40" s="67"/>
+      <c r="K40" s="67"/>
       <c r="L40" s="6">
         <v>33</v>
       </c>
@@ -3402,17 +3402,17 @@
         <v>7</v>
       </c>
       <c r="B41" s="1"/>
-      <c r="C41" s="65" t="s">
+      <c r="C41" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="D41" s="65"/>
-      <c r="E41" s="65"/>
-      <c r="F41" s="65"/>
-      <c r="G41" s="65"/>
-      <c r="H41" s="65"/>
-      <c r="I41" s="65"/>
-      <c r="J41" s="65"/>
-      <c r="K41" s="65"/>
+      <c r="D41" s="67"/>
+      <c r="E41" s="67"/>
+      <c r="F41" s="67"/>
+      <c r="G41" s="67"/>
+      <c r="H41" s="67"/>
+      <c r="I41" s="67"/>
+      <c r="J41" s="67"/>
+      <c r="K41" s="67"/>
       <c r="L41" s="6">
         <v>33</v>
       </c>
@@ -3435,17 +3435,17 @@
         <v>8</v>
       </c>
       <c r="B42" s="1"/>
-      <c r="C42" s="64" t="s">
+      <c r="C42" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="D42" s="65"/>
-      <c r="E42" s="65"/>
-      <c r="F42" s="65"/>
-      <c r="G42" s="65"/>
-      <c r="H42" s="65"/>
-      <c r="I42" s="65"/>
-      <c r="J42" s="65"/>
-      <c r="K42" s="65"/>
+      <c r="D42" s="67"/>
+      <c r="E42" s="67"/>
+      <c r="F42" s="67"/>
+      <c r="G42" s="67"/>
+      <c r="H42" s="67"/>
+      <c r="I42" s="67"/>
+      <c r="J42" s="67"/>
+      <c r="K42" s="67"/>
       <c r="L42" s="6">
         <v>33</v>
       </c>
@@ -3468,17 +3468,17 @@
         <v>9</v>
       </c>
       <c r="B43" s="1"/>
-      <c r="C43" s="64" t="s">
+      <c r="C43" s="66" t="s">
         <v>62</v>
       </c>
-      <c r="D43" s="65"/>
-      <c r="E43" s="65"/>
-      <c r="F43" s="65"/>
-      <c r="G43" s="65"/>
-      <c r="H43" s="65"/>
-      <c r="I43" s="65"/>
-      <c r="J43" s="65"/>
-      <c r="K43" s="65"/>
+      <c r="D43" s="67"/>
+      <c r="E43" s="67"/>
+      <c r="F43" s="67"/>
+      <c r="G43" s="67"/>
+      <c r="H43" s="67"/>
+      <c r="I43" s="67"/>
+      <c r="J43" s="67"/>
+      <c r="K43" s="67"/>
       <c r="L43" s="6">
         <v>33</v>
       </c>
@@ -3501,17 +3501,17 @@
         <v>10</v>
       </c>
       <c r="B44" s="1"/>
-      <c r="C44" s="64" t="s">
+      <c r="C44" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="D44" s="65"/>
-      <c r="E44" s="65"/>
-      <c r="F44" s="65"/>
-      <c r="G44" s="65"/>
-      <c r="H44" s="65"/>
-      <c r="I44" s="65"/>
-      <c r="J44" s="65"/>
-      <c r="K44" s="65"/>
+      <c r="D44" s="67"/>
+      <c r="E44" s="67"/>
+      <c r="F44" s="67"/>
+      <c r="G44" s="67"/>
+      <c r="H44" s="67"/>
+      <c r="I44" s="67"/>
+      <c r="J44" s="67"/>
+      <c r="K44" s="67"/>
       <c r="L44" s="6">
         <v>33</v>
       </c>
@@ -3534,17 +3534,17 @@
         <v>11</v>
       </c>
       <c r="B45" s="1"/>
-      <c r="C45" s="64" t="s">
+      <c r="C45" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="D45" s="65"/>
-      <c r="E45" s="65"/>
-      <c r="F45" s="65"/>
-      <c r="G45" s="65"/>
-      <c r="H45" s="65"/>
-      <c r="I45" s="65"/>
-      <c r="J45" s="65"/>
-      <c r="K45" s="65"/>
+      <c r="D45" s="67"/>
+      <c r="E45" s="67"/>
+      <c r="F45" s="67"/>
+      <c r="G45" s="67"/>
+      <c r="H45" s="67"/>
+      <c r="I45" s="67"/>
+      <c r="J45" s="67"/>
+      <c r="K45" s="67"/>
       <c r="L45" s="6">
         <v>33</v>
       </c>
@@ -3569,17 +3569,17 @@
       <c r="B46" s="42">
         <v>44647</v>
       </c>
-      <c r="C46" s="64" t="s">
+      <c r="C46" s="66" t="s">
         <v>63</v>
       </c>
-      <c r="D46" s="65"/>
-      <c r="E46" s="65"/>
-      <c r="F46" s="65"/>
-      <c r="G46" s="65"/>
-      <c r="H46" s="65"/>
-      <c r="I46" s="65"/>
-      <c r="J46" s="65"/>
-      <c r="K46" s="65"/>
+      <c r="D46" s="67"/>
+      <c r="E46" s="67"/>
+      <c r="F46" s="67"/>
+      <c r="G46" s="67"/>
+      <c r="H46" s="67"/>
+      <c r="I46" s="67"/>
+      <c r="J46" s="67"/>
+      <c r="K46" s="67"/>
       <c r="L46" s="6">
         <v>33</v>
       </c>
@@ -3602,20 +3602,20 @@
         <v>13</v>
       </c>
       <c r="B47" s="1"/>
-      <c r="C47" s="66" t="s">
+      <c r="C47" s="60" t="s">
         <v>58</v>
       </c>
-      <c r="D47" s="67"/>
-      <c r="E47" s="67"/>
-      <c r="F47" s="67"/>
-      <c r="G47" s="67"/>
-      <c r="H47" s="67"/>
-      <c r="I47" s="67"/>
-      <c r="J47" s="67"/>
-      <c r="K47" s="67"/>
-      <c r="L47" s="67"/>
-      <c r="M47" s="67"/>
-      <c r="N47" s="68"/>
+      <c r="D47" s="61"/>
+      <c r="E47" s="61"/>
+      <c r="F47" s="61"/>
+      <c r="G47" s="61"/>
+      <c r="H47" s="61"/>
+      <c r="I47" s="61"/>
+      <c r="J47" s="61"/>
+      <c r="K47" s="61"/>
+      <c r="L47" s="61"/>
+      <c r="M47" s="61"/>
+      <c r="N47" s="62"/>
       <c r="O47" s="11"/>
       <c r="P47" s="12"/>
       <c r="Q47" s="13"/>
@@ -3629,26 +3629,26 @@
       <c r="B48" s="1"/>
     </row>
     <row r="49" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="69" t="s">
+      <c r="A49" s="63" t="s">
         <v>24</v>
       </c>
-      <c r="B49" s="70"/>
-      <c r="C49" s="70"/>
-      <c r="D49" s="70"/>
-      <c r="E49" s="70"/>
-      <c r="F49" s="70"/>
-      <c r="G49" s="70"/>
-      <c r="H49" s="70"/>
-      <c r="I49" s="70"/>
-      <c r="J49" s="70"/>
-      <c r="K49" s="70"/>
-      <c r="L49" s="70"/>
-      <c r="M49" s="70"/>
-      <c r="N49" s="70"/>
-      <c r="O49" s="70"/>
-      <c r="P49" s="70"/>
-      <c r="Q49" s="70"/>
-      <c r="R49" s="71"/>
+      <c r="B49" s="64"/>
+      <c r="C49" s="64"/>
+      <c r="D49" s="64"/>
+      <c r="E49" s="64"/>
+      <c r="F49" s="64"/>
+      <c r="G49" s="64"/>
+      <c r="H49" s="64"/>
+      <c r="I49" s="64"/>
+      <c r="J49" s="64"/>
+      <c r="K49" s="64"/>
+      <c r="L49" s="64"/>
+      <c r="M49" s="64"/>
+      <c r="N49" s="64"/>
+      <c r="O49" s="64"/>
+      <c r="P49" s="64"/>
+      <c r="Q49" s="64"/>
+      <c r="R49" s="65"/>
       <c r="S49" s="3"/>
       <c r="T49" s="3"/>
       <c r="U49" s="3"/>
@@ -3658,17 +3658,17 @@
         <v>1</v>
       </c>
       <c r="B51" s="5"/>
-      <c r="C51" s="72" t="s">
+      <c r="C51" s="73" t="s">
         <v>100</v>
       </c>
-      <c r="D51" s="72"/>
-      <c r="E51" s="72"/>
-      <c r="F51" s="72"/>
-      <c r="G51" s="72"/>
-      <c r="H51" s="72"/>
-      <c r="I51" s="72"/>
-      <c r="J51" s="72"/>
-      <c r="K51" s="72"/>
+      <c r="D51" s="73"/>
+      <c r="E51" s="73"/>
+      <c r="F51" s="73"/>
+      <c r="G51" s="73"/>
+      <c r="H51" s="73"/>
+      <c r="I51" s="73"/>
+      <c r="J51" s="73"/>
+      <c r="K51" s="73"/>
       <c r="L51" s="5" t="s">
         <v>2</v>
       </c>
@@ -3705,17 +3705,17 @@
         <v>1</v>
       </c>
       <c r="B52" s="1"/>
-      <c r="C52" s="73" t="s">
+      <c r="C52" s="74" t="s">
         <v>65</v>
       </c>
-      <c r="D52" s="73"/>
-      <c r="E52" s="73"/>
-      <c r="F52" s="73"/>
-      <c r="G52" s="73"/>
-      <c r="H52" s="73"/>
-      <c r="I52" s="73"/>
-      <c r="J52" s="73"/>
-      <c r="K52" s="73"/>
+      <c r="D52" s="74"/>
+      <c r="E52" s="74"/>
+      <c r="F52" s="74"/>
+      <c r="G52" s="74"/>
+      <c r="H52" s="74"/>
+      <c r="I52" s="74"/>
+      <c r="J52" s="74"/>
+      <c r="K52" s="74"/>
       <c r="L52" s="6">
         <v>33</v>
       </c>
@@ -3738,17 +3738,17 @@
         <v>2</v>
       </c>
       <c r="B53" s="1"/>
-      <c r="C53" s="64" t="s">
+      <c r="C53" s="66" t="s">
         <v>66</v>
       </c>
-      <c r="D53" s="65"/>
-      <c r="E53" s="65"/>
-      <c r="F53" s="65"/>
-      <c r="G53" s="65"/>
-      <c r="H53" s="65"/>
-      <c r="I53" s="65"/>
-      <c r="J53" s="65"/>
-      <c r="K53" s="65"/>
+      <c r="D53" s="67"/>
+      <c r="E53" s="67"/>
+      <c r="F53" s="67"/>
+      <c r="G53" s="67"/>
+      <c r="H53" s="67"/>
+      <c r="I53" s="67"/>
+      <c r="J53" s="67"/>
+      <c r="K53" s="67"/>
       <c r="L53" s="6">
         <v>33</v>
       </c>
@@ -3771,17 +3771,17 @@
         <v>3</v>
       </c>
       <c r="B54" s="1"/>
-      <c r="C54" s="64" t="s">
+      <c r="C54" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="D54" s="65"/>
-      <c r="E54" s="65"/>
-      <c r="F54" s="65"/>
-      <c r="G54" s="65"/>
-      <c r="H54" s="65"/>
-      <c r="I54" s="65"/>
-      <c r="J54" s="65"/>
-      <c r="K54" s="65"/>
+      <c r="D54" s="67"/>
+      <c r="E54" s="67"/>
+      <c r="F54" s="67"/>
+      <c r="G54" s="67"/>
+      <c r="H54" s="67"/>
+      <c r="I54" s="67"/>
+      <c r="J54" s="67"/>
+      <c r="K54" s="67"/>
       <c r="L54" s="6">
         <v>33</v>
       </c>
@@ -3804,17 +3804,17 @@
         <v>4</v>
       </c>
       <c r="B55" s="1"/>
-      <c r="C55" s="65" t="s">
+      <c r="C55" s="67" t="s">
         <v>26</v>
       </c>
-      <c r="D55" s="65"/>
-      <c r="E55" s="65"/>
-      <c r="F55" s="65"/>
-      <c r="G55" s="65"/>
-      <c r="H55" s="65"/>
-      <c r="I55" s="65"/>
-      <c r="J55" s="65"/>
-      <c r="K55" s="65"/>
+      <c r="D55" s="67"/>
+      <c r="E55" s="67"/>
+      <c r="F55" s="67"/>
+      <c r="G55" s="67"/>
+      <c r="H55" s="67"/>
+      <c r="I55" s="67"/>
+      <c r="J55" s="67"/>
+      <c r="K55" s="67"/>
       <c r="L55" s="6">
         <v>33</v>
       </c>
@@ -3837,17 +3837,17 @@
         <v>5</v>
       </c>
       <c r="B56" s="1"/>
-      <c r="C56" s="64" t="s">
+      <c r="C56" s="66" t="s">
         <v>27</v>
       </c>
-      <c r="D56" s="65"/>
-      <c r="E56" s="65"/>
-      <c r="F56" s="65"/>
-      <c r="G56" s="65"/>
-      <c r="H56" s="65"/>
-      <c r="I56" s="65"/>
-      <c r="J56" s="65"/>
-      <c r="K56" s="65"/>
+      <c r="D56" s="67"/>
+      <c r="E56" s="67"/>
+      <c r="F56" s="67"/>
+      <c r="G56" s="67"/>
+      <c r="H56" s="67"/>
+      <c r="I56" s="67"/>
+      <c r="J56" s="67"/>
+      <c r="K56" s="67"/>
       <c r="L56" s="6">
         <v>33</v>
       </c>
@@ -3870,17 +3870,17 @@
         <v>6</v>
       </c>
       <c r="B57" s="1"/>
-      <c r="C57" s="64" t="s">
+      <c r="C57" s="66" t="s">
         <v>67</v>
       </c>
-      <c r="D57" s="65"/>
-      <c r="E57" s="65"/>
-      <c r="F57" s="65"/>
-      <c r="G57" s="65"/>
-      <c r="H57" s="65"/>
-      <c r="I57" s="65"/>
-      <c r="J57" s="65"/>
-      <c r="K57" s="65"/>
+      <c r="D57" s="67"/>
+      <c r="E57" s="67"/>
+      <c r="F57" s="67"/>
+      <c r="G57" s="67"/>
+      <c r="H57" s="67"/>
+      <c r="I57" s="67"/>
+      <c r="J57" s="67"/>
+      <c r="K57" s="67"/>
       <c r="L57" s="6">
         <v>33</v>
       </c>
@@ -3901,20 +3901,20 @@
     <row r="58" spans="1:21" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
-      <c r="C58" s="66" t="s">
+      <c r="C58" s="60" t="s">
         <v>58</v>
       </c>
-      <c r="D58" s="67"/>
-      <c r="E58" s="67"/>
-      <c r="F58" s="67"/>
-      <c r="G58" s="67"/>
-      <c r="H58" s="67"/>
-      <c r="I58" s="67"/>
-      <c r="J58" s="67"/>
-      <c r="K58" s="67"/>
-      <c r="L58" s="67"/>
-      <c r="M58" s="67"/>
-      <c r="N58" s="68"/>
+      <c r="D58" s="61"/>
+      <c r="E58" s="61"/>
+      <c r="F58" s="61"/>
+      <c r="G58" s="61"/>
+      <c r="H58" s="61"/>
+      <c r="I58" s="61"/>
+      <c r="J58" s="61"/>
+      <c r="K58" s="61"/>
+      <c r="L58" s="61"/>
+      <c r="M58" s="61"/>
+      <c r="N58" s="62"/>
       <c r="O58" s="11"/>
       <c r="P58" s="12" t="e">
         <f>AVERAGE(P52:P57)</f>
@@ -3934,25 +3934,25 @@
       <c r="B59" s="1"/>
     </row>
     <row r="60" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A60" s="81" t="s">
+      <c r="A60" s="72" t="s">
         <v>28</v>
       </c>
-      <c r="B60" s="81"/>
-      <c r="C60" s="81"/>
-      <c r="D60" s="81"/>
-      <c r="E60" s="81"/>
-      <c r="F60" s="81"/>
-      <c r="G60" s="81"/>
-      <c r="H60" s="81"/>
-      <c r="I60" s="81"/>
-      <c r="J60" s="81"/>
-      <c r="K60" s="81"/>
-      <c r="L60" s="81"/>
-      <c r="M60" s="81"/>
-      <c r="N60" s="81"/>
-      <c r="O60" s="81"/>
-      <c r="P60" s="81"/>
-      <c r="Q60" s="81"/>
+      <c r="B60" s="72"/>
+      <c r="C60" s="72"/>
+      <c r="D60" s="72"/>
+      <c r="E60" s="72"/>
+      <c r="F60" s="72"/>
+      <c r="G60" s="72"/>
+      <c r="H60" s="72"/>
+      <c r="I60" s="72"/>
+      <c r="J60" s="72"/>
+      <c r="K60" s="72"/>
+      <c r="L60" s="72"/>
+      <c r="M60" s="72"/>
+      <c r="N60" s="72"/>
+      <c r="O60" s="72"/>
+      <c r="P60" s="72"/>
+      <c r="Q60" s="72"/>
       <c r="R60"/>
     </row>
     <row r="61" spans="1:21" x14ac:dyDescent="0.3">
@@ -3960,10 +3960,10 @@
         <v>1</v>
       </c>
       <c r="B61" s="16"/>
-      <c r="C61" s="80" t="s">
+      <c r="C61" s="68" t="s">
         <v>68</v>
       </c>
-      <c r="D61" s="80"/>
+      <c r="D61" s="68"/>
       <c r="E61" s="17" t="s">
         <v>69</v>
       </c>
@@ -4010,10 +4010,10 @@
         <v>1</v>
       </c>
       <c r="B62" s="14"/>
-      <c r="C62" s="63" t="s">
+      <c r="C62" s="57" t="s">
         <v>82</v>
       </c>
-      <c r="D62" s="63"/>
+      <c r="D62" s="57"/>
       <c r="E62" s="25">
         <v>41</v>
       </c>
@@ -4060,10 +4060,10 @@
         <v>2</v>
       </c>
       <c r="B63" s="14"/>
-      <c r="C63" s="63" t="s">
+      <c r="C63" s="57" t="s">
         <v>83</v>
       </c>
-      <c r="D63" s="63"/>
+      <c r="D63" s="57"/>
       <c r="E63" s="25">
         <v>40</v>
       </c>
@@ -4110,10 +4110,10 @@
         <v>3</v>
       </c>
       <c r="B64" s="14"/>
-      <c r="C64" s="63" t="s">
+      <c r="C64" s="57" t="s">
         <v>88</v>
       </c>
-      <c r="D64" s="63"/>
+      <c r="D64" s="57"/>
       <c r="E64" s="25">
         <v>55</v>
       </c>
@@ -4160,10 +4160,10 @@
         <v>4</v>
       </c>
       <c r="B65" s="14"/>
-      <c r="C65" s="63" t="s">
+      <c r="C65" s="57" t="s">
         <v>89</v>
       </c>
-      <c r="D65" s="63"/>
+      <c r="D65" s="57"/>
       <c r="E65" s="25">
         <v>58</v>
       </c>
@@ -4210,10 +4210,10 @@
         <v>5</v>
       </c>
       <c r="B66" s="14"/>
-      <c r="C66" s="63" t="s">
+      <c r="C66" s="57" t="s">
         <v>29</v>
       </c>
-      <c r="D66" s="63"/>
+      <c r="D66" s="57"/>
       <c r="E66" s="25"/>
       <c r="F66" s="26"/>
       <c r="G66" s="27"/>
@@ -4234,10 +4234,10 @@
         <v>6</v>
       </c>
       <c r="B67" s="40"/>
-      <c r="C67" s="90" t="s">
+      <c r="C67" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="D67" s="91"/>
+      <c r="D67" s="55"/>
       <c r="E67" s="25"/>
       <c r="F67" s="26"/>
       <c r="G67" s="27"/>
@@ -4258,10 +4258,10 @@
         <v>7</v>
       </c>
       <c r="B68" s="14"/>
-      <c r="C68" s="63" t="s">
+      <c r="C68" s="57" t="s">
         <v>31</v>
       </c>
-      <c r="D68" s="63"/>
+      <c r="D68" s="57"/>
       <c r="E68" s="25"/>
       <c r="F68" s="26"/>
       <c r="G68" s="27"/>
@@ -4282,10 +4282,10 @@
         <v>8</v>
       </c>
       <c r="B69" s="40"/>
-      <c r="C69" s="90" t="s">
+      <c r="C69" s="54" t="s">
         <v>32</v>
       </c>
-      <c r="D69" s="91"/>
+      <c r="D69" s="55"/>
       <c r="E69" s="25"/>
       <c r="F69" s="26"/>
       <c r="G69" s="27"/>
@@ -4304,10 +4304,10 @@
     <row r="70" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A70" s="14"/>
       <c r="B70" s="14"/>
-      <c r="C70" s="74" t="s">
+      <c r="C70" s="58" t="s">
         <v>98</v>
       </c>
-      <c r="D70" s="74"/>
+      <c r="D70" s="58"/>
       <c r="E70" s="25">
         <f t="shared" ref="E70:O70" si="1">AVERAGE(E62:E69)</f>
         <v>48.5</v>
@@ -4363,25 +4363,25 @@
       <c r="R72"/>
     </row>
     <row r="73" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A73" s="79" t="s">
+      <c r="A73" s="75" t="s">
         <v>99</v>
       </c>
-      <c r="B73" s="79"/>
-      <c r="C73" s="79"/>
-      <c r="D73" s="79"/>
-      <c r="E73" s="79"/>
-      <c r="F73" s="79"/>
-      <c r="G73" s="79"/>
-      <c r="H73" s="79"/>
-      <c r="I73" s="79"/>
-      <c r="J73" s="79"/>
-      <c r="K73" s="79"/>
-      <c r="L73" s="79"/>
-      <c r="M73" s="79"/>
-      <c r="N73" s="79"/>
-      <c r="O73" s="79"/>
-      <c r="P73" s="79"/>
-      <c r="Q73" s="79"/>
+      <c r="B73" s="75"/>
+      <c r="C73" s="75"/>
+      <c r="D73" s="75"/>
+      <c r="E73" s="75"/>
+      <c r="F73" s="75"/>
+      <c r="G73" s="75"/>
+      <c r="H73" s="75"/>
+      <c r="I73" s="75"/>
+      <c r="J73" s="75"/>
+      <c r="K73" s="75"/>
+      <c r="L73" s="75"/>
+      <c r="M73" s="75"/>
+      <c r="N73" s="75"/>
+      <c r="O73" s="75"/>
+      <c r="P73" s="75"/>
+      <c r="Q73" s="75"/>
       <c r="R73"/>
     </row>
     <row r="74" spans="1:18" x14ac:dyDescent="0.3">
@@ -4389,10 +4389,10 @@
         <v>1</v>
       </c>
       <c r="B74" s="16"/>
-      <c r="C74" s="80" t="s">
+      <c r="C74" s="68" t="s">
         <v>68</v>
       </c>
-      <c r="D74" s="80"/>
+      <c r="D74" s="68"/>
       <c r="E74" s="17" t="s">
         <v>69</v>
       </c>
@@ -4439,10 +4439,10 @@
         <v>1</v>
       </c>
       <c r="B75" s="14"/>
-      <c r="C75" s="63" t="s">
+      <c r="C75" s="57" t="s">
         <v>101</v>
       </c>
-      <c r="D75" s="63"/>
+      <c r="D75" s="57"/>
       <c r="E75" s="25"/>
       <c r="F75" s="26"/>
       <c r="G75" s="27"/>
@@ -4463,10 +4463,10 @@
         <v>2</v>
       </c>
       <c r="B76" s="14"/>
-      <c r="C76" s="63" t="s">
+      <c r="C76" s="57" t="s">
         <v>102</v>
       </c>
-      <c r="D76" s="63"/>
+      <c r="D76" s="57"/>
       <c r="E76" s="25"/>
       <c r="F76" s="26"/>
       <c r="G76" s="27"/>
@@ -4487,10 +4487,10 @@
         <v>3</v>
       </c>
       <c r="B77" s="14"/>
-      <c r="C77" s="63" t="s">
+      <c r="C77" s="57" t="s">
         <v>103</v>
       </c>
-      <c r="D77" s="63"/>
+      <c r="D77" s="57"/>
       <c r="E77" s="25"/>
       <c r="F77" s="26"/>
       <c r="G77" s="27"/>
@@ -4510,10 +4510,10 @@
         <v>4</v>
       </c>
       <c r="B78" s="14"/>
-      <c r="C78" s="63" t="s">
+      <c r="C78" s="57" t="s">
         <v>104</v>
       </c>
-      <c r="D78" s="63"/>
+      <c r="D78" s="57"/>
       <c r="E78" s="25"/>
       <c r="F78" s="26"/>
       <c r="G78" s="27"/>
@@ -4533,8 +4533,8 @@
         <v>5</v>
       </c>
       <c r="B79" s="14"/>
-      <c r="C79" s="89"/>
-      <c r="D79" s="89"/>
+      <c r="C79" s="79"/>
+      <c r="D79" s="79"/>
       <c r="E79" s="25"/>
       <c r="F79" s="26"/>
       <c r="G79" s="27"/>
@@ -4554,8 +4554,8 @@
         <v>6</v>
       </c>
       <c r="B80" s="14"/>
-      <c r="C80" s="89"/>
-      <c r="D80" s="89"/>
+      <c r="C80" s="79"/>
+      <c r="D80" s="79"/>
       <c r="E80" s="25"/>
       <c r="F80" s="26"/>
       <c r="G80" s="27"/>
@@ -4573,10 +4573,10 @@
     <row r="81" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A81" s="14"/>
       <c r="B81" s="14"/>
-      <c r="C81" s="74" t="s">
+      <c r="C81" s="58" t="s">
         <v>98</v>
       </c>
-      <c r="D81" s="74"/>
+      <c r="D81" s="58"/>
       <c r="E81" s="25" t="e">
         <f t="shared" ref="E81:K81" si="2">AVERAGE(E75:E80)</f>
         <v>#DIV/0!</v>
@@ -4625,103 +4625,103 @@
       <c r="Q81" s="29"/>
     </row>
     <row r="84" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A84" s="75">
+      <c r="A84" s="59">
         <v>2022</v>
       </c>
-      <c r="B84" s="75"/>
-      <c r="C84" s="75"/>
-      <c r="D84" s="75"/>
-      <c r="E84" s="75"/>
-      <c r="F84" s="75"/>
-      <c r="G84" s="75"/>
-      <c r="H84" s="75"/>
-      <c r="I84" s="75"/>
-      <c r="J84" s="75"/>
-      <c r="K84" s="75"/>
-      <c r="L84" s="75"/>
-      <c r="M84" s="75"/>
-      <c r="N84" s="75"/>
-      <c r="O84" s="75"/>
-      <c r="P84" s="75"/>
-      <c r="Q84" s="75"/>
-      <c r="R84" s="75"/>
-      <c r="S84" s="75"/>
-      <c r="T84" s="75"/>
-      <c r="U84" s="75"/>
-      <c r="V84" s="75"/>
-      <c r="W84" s="75"/>
+      <c r="B84" s="59"/>
+      <c r="C84" s="59"/>
+      <c r="D84" s="59"/>
+      <c r="E84" s="59"/>
+      <c r="F84" s="59"/>
+      <c r="G84" s="59"/>
+      <c r="H84" s="59"/>
+      <c r="I84" s="59"/>
+      <c r="J84" s="59"/>
+      <c r="K84" s="59"/>
+      <c r="L84" s="59"/>
+      <c r="M84" s="59"/>
+      <c r="N84" s="59"/>
+      <c r="O84" s="59"/>
+      <c r="P84" s="59"/>
+      <c r="Q84" s="59"/>
+      <c r="R84" s="59"/>
+      <c r="S84" s="59"/>
+      <c r="T84" s="59"/>
+      <c r="U84" s="59"/>
+      <c r="V84" s="59"/>
+      <c r="W84" s="59"/>
     </row>
     <row r="85" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A85" s="75"/>
-      <c r="B85" s="75"/>
-      <c r="C85" s="75"/>
-      <c r="D85" s="75"/>
-      <c r="E85" s="75"/>
-      <c r="F85" s="75"/>
-      <c r="G85" s="75"/>
-      <c r="H85" s="75"/>
-      <c r="I85" s="75"/>
-      <c r="J85" s="75"/>
-      <c r="K85" s="75"/>
-      <c r="L85" s="75"/>
-      <c r="M85" s="75"/>
-      <c r="N85" s="75"/>
-      <c r="O85" s="75"/>
-      <c r="P85" s="75"/>
-      <c r="Q85" s="75"/>
-      <c r="R85" s="75"/>
-      <c r="S85" s="75"/>
-      <c r="T85" s="75"/>
-      <c r="U85" s="75"/>
-      <c r="V85" s="75"/>
-      <c r="W85" s="75"/>
+      <c r="A85" s="59"/>
+      <c r="B85" s="59"/>
+      <c r="C85" s="59"/>
+      <c r="D85" s="59"/>
+      <c r="E85" s="59"/>
+      <c r="F85" s="59"/>
+      <c r="G85" s="59"/>
+      <c r="H85" s="59"/>
+      <c r="I85" s="59"/>
+      <c r="J85" s="59"/>
+      <c r="K85" s="59"/>
+      <c r="L85" s="59"/>
+      <c r="M85" s="59"/>
+      <c r="N85" s="59"/>
+      <c r="O85" s="59"/>
+      <c r="P85" s="59"/>
+      <c r="Q85" s="59"/>
+      <c r="R85" s="59"/>
+      <c r="S85" s="59"/>
+      <c r="T85" s="59"/>
+      <c r="U85" s="59"/>
+      <c r="V85" s="59"/>
+      <c r="W85" s="59"/>
     </row>
     <row r="86" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A86" s="75"/>
-      <c r="B86" s="75"/>
-      <c r="C86" s="75"/>
-      <c r="D86" s="75"/>
-      <c r="E86" s="75"/>
-      <c r="F86" s="75"/>
-      <c r="G86" s="75"/>
-      <c r="H86" s="75"/>
-      <c r="I86" s="75"/>
-      <c r="J86" s="75"/>
-      <c r="K86" s="75"/>
-      <c r="L86" s="75"/>
-      <c r="M86" s="75"/>
-      <c r="N86" s="75"/>
-      <c r="O86" s="75"/>
-      <c r="P86" s="75"/>
-      <c r="Q86" s="75"/>
-      <c r="R86" s="75"/>
-      <c r="S86" s="75"/>
-      <c r="T86" s="75"/>
-      <c r="U86" s="75"/>
-      <c r="V86" s="75"/>
-      <c r="W86" s="75"/>
+      <c r="A86" s="59"/>
+      <c r="B86" s="59"/>
+      <c r="C86" s="59"/>
+      <c r="D86" s="59"/>
+      <c r="E86" s="59"/>
+      <c r="F86" s="59"/>
+      <c r="G86" s="59"/>
+      <c r="H86" s="59"/>
+      <c r="I86" s="59"/>
+      <c r="J86" s="59"/>
+      <c r="K86" s="59"/>
+      <c r="L86" s="59"/>
+      <c r="M86" s="59"/>
+      <c r="N86" s="59"/>
+      <c r="O86" s="59"/>
+      <c r="P86" s="59"/>
+      <c r="Q86" s="59"/>
+      <c r="R86" s="59"/>
+      <c r="S86" s="59"/>
+      <c r="T86" s="59"/>
+      <c r="U86" s="59"/>
+      <c r="V86" s="59"/>
+      <c r="W86" s="59"/>
     </row>
     <row r="87" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A87" s="76" t="s">
+      <c r="A87" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="B87" s="77"/>
-      <c r="C87" s="77"/>
-      <c r="D87" s="77"/>
-      <c r="E87" s="77"/>
-      <c r="F87" s="77"/>
-      <c r="G87" s="77"/>
-      <c r="H87" s="77"/>
-      <c r="I87" s="77"/>
-      <c r="J87" s="77"/>
-      <c r="K87" s="77"/>
-      <c r="L87" s="77"/>
-      <c r="M87" s="77"/>
-      <c r="N87" s="77"/>
-      <c r="O87" s="77"/>
-      <c r="P87" s="77"/>
-      <c r="Q87" s="77"/>
-      <c r="R87" s="78"/>
+      <c r="B87" s="70"/>
+      <c r="C87" s="70"/>
+      <c r="D87" s="70"/>
+      <c r="E87" s="70"/>
+      <c r="F87" s="70"/>
+      <c r="G87" s="70"/>
+      <c r="H87" s="70"/>
+      <c r="I87" s="70"/>
+      <c r="J87" s="70"/>
+      <c r="K87" s="70"/>
+      <c r="L87" s="70"/>
+      <c r="M87" s="70"/>
+      <c r="N87" s="70"/>
+      <c r="O87" s="70"/>
+      <c r="P87" s="70"/>
+      <c r="Q87" s="70"/>
+      <c r="R87" s="71"/>
       <c r="S87" s="38"/>
       <c r="T87" s="38"/>
       <c r="U87" s="38"/>
@@ -4732,17 +4732,17 @@
         <v>1</v>
       </c>
       <c r="B89" s="5"/>
-      <c r="C89" s="72" t="s">
+      <c r="C89" s="73" t="s">
         <v>56</v>
       </c>
-      <c r="D89" s="72"/>
-      <c r="E89" s="72"/>
-      <c r="F89" s="72"/>
-      <c r="G89" s="72"/>
-      <c r="H89" s="72"/>
-      <c r="I89" s="72"/>
-      <c r="J89" s="72"/>
-      <c r="K89" s="72"/>
+      <c r="D89" s="73"/>
+      <c r="E89" s="73"/>
+      <c r="F89" s="73"/>
+      <c r="G89" s="73"/>
+      <c r="H89" s="73"/>
+      <c r="I89" s="73"/>
+      <c r="J89" s="73"/>
+      <c r="K89" s="73"/>
       <c r="L89" s="5" t="s">
         <v>2</v>
       </c>
@@ -4780,17 +4780,17 @@
         <v>1</v>
       </c>
       <c r="B90" s="1"/>
-      <c r="C90" s="73" t="s">
+      <c r="C90" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="D90" s="73"/>
-      <c r="E90" s="73"/>
-      <c r="F90" s="73"/>
-      <c r="G90" s="73"/>
-      <c r="H90" s="73"/>
-      <c r="I90" s="73"/>
-      <c r="J90" s="73"/>
-      <c r="K90" s="73"/>
+      <c r="D90" s="74"/>
+      <c r="E90" s="74"/>
+      <c r="F90" s="74"/>
+      <c r="G90" s="74"/>
+      <c r="H90" s="74"/>
+      <c r="I90" s="74"/>
+      <c r="J90" s="74"/>
+      <c r="K90" s="74"/>
       <c r="L90" s="6">
         <v>17</v>
       </c>
@@ -4826,17 +4826,17 @@
         <v>2</v>
       </c>
       <c r="B91" s="1"/>
-      <c r="C91" s="64" t="s">
+      <c r="C91" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="D91" s="65"/>
-      <c r="E91" s="65"/>
-      <c r="F91" s="65"/>
-      <c r="G91" s="65"/>
-      <c r="H91" s="65"/>
-      <c r="I91" s="65"/>
-      <c r="J91" s="65"/>
-      <c r="K91" s="65"/>
+      <c r="D91" s="67"/>
+      <c r="E91" s="67"/>
+      <c r="F91" s="67"/>
+      <c r="G91" s="67"/>
+      <c r="H91" s="67"/>
+      <c r="I91" s="67"/>
+      <c r="J91" s="67"/>
+      <c r="K91" s="67"/>
       <c r="L91" s="6">
         <v>17</v>
       </c>
@@ -4872,17 +4872,17 @@
         <v>3</v>
       </c>
       <c r="B92" s="1"/>
-      <c r="C92" s="64" t="s">
+      <c r="C92" s="66" t="s">
         <v>34</v>
       </c>
-      <c r="D92" s="65"/>
-      <c r="E92" s="65"/>
-      <c r="F92" s="65"/>
-      <c r="G92" s="65"/>
-      <c r="H92" s="65"/>
-      <c r="I92" s="65"/>
-      <c r="J92" s="65"/>
-      <c r="K92" s="65"/>
+      <c r="D92" s="67"/>
+      <c r="E92" s="67"/>
+      <c r="F92" s="67"/>
+      <c r="G92" s="67"/>
+      <c r="H92" s="67"/>
+      <c r="I92" s="67"/>
+      <c r="J92" s="67"/>
+      <c r="K92" s="67"/>
       <c r="L92" s="6">
         <v>17</v>
       </c>
@@ -4918,17 +4918,17 @@
         <v>4</v>
       </c>
       <c r="B93" s="1"/>
-      <c r="C93" s="65" t="s">
+      <c r="C93" s="67" t="s">
         <v>35</v>
       </c>
-      <c r="D93" s="65"/>
-      <c r="E93" s="65"/>
-      <c r="F93" s="65"/>
-      <c r="G93" s="65"/>
-      <c r="H93" s="65"/>
-      <c r="I93" s="65"/>
-      <c r="J93" s="65"/>
-      <c r="K93" s="65"/>
+      <c r="D93" s="67"/>
+      <c r="E93" s="67"/>
+      <c r="F93" s="67"/>
+      <c r="G93" s="67"/>
+      <c r="H93" s="67"/>
+      <c r="I93" s="67"/>
+      <c r="J93" s="67"/>
+      <c r="K93" s="67"/>
       <c r="L93" s="6">
         <v>17</v>
       </c>
@@ -4964,17 +4964,17 @@
         <v>5</v>
       </c>
       <c r="B94" s="1"/>
-      <c r="C94" s="64" t="s">
+      <c r="C94" s="66" t="s">
         <v>36</v>
       </c>
-      <c r="D94" s="65"/>
-      <c r="E94" s="65"/>
-      <c r="F94" s="65"/>
-      <c r="G94" s="65"/>
-      <c r="H94" s="65"/>
-      <c r="I94" s="65"/>
-      <c r="J94" s="65"/>
-      <c r="K94" s="65"/>
+      <c r="D94" s="67"/>
+      <c r="E94" s="67"/>
+      <c r="F94" s="67"/>
+      <c r="G94" s="67"/>
+      <c r="H94" s="67"/>
+      <c r="I94" s="67"/>
+      <c r="J94" s="67"/>
+      <c r="K94" s="67"/>
       <c r="L94" s="6">
         <v>17</v>
       </c>
@@ -5010,17 +5010,17 @@
         <v>6</v>
       </c>
       <c r="B95" s="1"/>
-      <c r="C95" s="64" t="s">
+      <c r="C95" s="66" t="s">
         <v>37</v>
       </c>
-      <c r="D95" s="65"/>
-      <c r="E95" s="65"/>
-      <c r="F95" s="65"/>
-      <c r="G95" s="65"/>
-      <c r="H95" s="65"/>
-      <c r="I95" s="65"/>
-      <c r="J95" s="65"/>
-      <c r="K95" s="65"/>
+      <c r="D95" s="67"/>
+      <c r="E95" s="67"/>
+      <c r="F95" s="67"/>
+      <c r="G95" s="67"/>
+      <c r="H95" s="67"/>
+      <c r="I95" s="67"/>
+      <c r="J95" s="67"/>
+      <c r="K95" s="67"/>
       <c r="L95" s="6">
         <v>17</v>
       </c>
@@ -5056,17 +5056,17 @@
         <v>7</v>
       </c>
       <c r="B96" s="1"/>
-      <c r="C96" s="65" t="s">
+      <c r="C96" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="D96" s="65"/>
-      <c r="E96" s="65"/>
-      <c r="F96" s="65"/>
-      <c r="G96" s="65"/>
-      <c r="H96" s="65"/>
-      <c r="I96" s="65"/>
-      <c r="J96" s="65"/>
-      <c r="K96" s="65"/>
+      <c r="D96" s="67"/>
+      <c r="E96" s="67"/>
+      <c r="F96" s="67"/>
+      <c r="G96" s="67"/>
+      <c r="H96" s="67"/>
+      <c r="I96" s="67"/>
+      <c r="J96" s="67"/>
+      <c r="K96" s="67"/>
       <c r="L96" s="6">
         <v>17</v>
       </c>
@@ -5102,17 +5102,17 @@
         <v>8</v>
       </c>
       <c r="B97" s="1"/>
-      <c r="C97" s="64" t="s">
+      <c r="C97" s="66" t="s">
         <v>38</v>
       </c>
-      <c r="D97" s="65"/>
-      <c r="E97" s="65"/>
-      <c r="F97" s="65"/>
-      <c r="G97" s="65"/>
-      <c r="H97" s="65"/>
-      <c r="I97" s="65"/>
-      <c r="J97" s="65"/>
-      <c r="K97" s="65"/>
+      <c r="D97" s="67"/>
+      <c r="E97" s="67"/>
+      <c r="F97" s="67"/>
+      <c r="G97" s="67"/>
+      <c r="H97" s="67"/>
+      <c r="I97" s="67"/>
+      <c r="J97" s="67"/>
+      <c r="K97" s="67"/>
       <c r="L97" s="6">
         <v>17</v>
       </c>
@@ -5135,17 +5135,17 @@
         <v>9</v>
       </c>
       <c r="B98" s="1"/>
-      <c r="C98" s="64" t="s">
+      <c r="C98" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="D98" s="65"/>
-      <c r="E98" s="65"/>
-      <c r="F98" s="65"/>
-      <c r="G98" s="65"/>
-      <c r="H98" s="65"/>
-      <c r="I98" s="65"/>
-      <c r="J98" s="65"/>
-      <c r="K98" s="65"/>
+      <c r="D98" s="67"/>
+      <c r="E98" s="67"/>
+      <c r="F98" s="67"/>
+      <c r="G98" s="67"/>
+      <c r="H98" s="67"/>
+      <c r="I98" s="67"/>
+      <c r="J98" s="67"/>
+      <c r="K98" s="67"/>
       <c r="L98" s="6">
         <v>17</v>
       </c>
@@ -5168,17 +5168,17 @@
         <v>10</v>
       </c>
       <c r="B99" s="1"/>
-      <c r="C99" s="64" t="s">
+      <c r="C99" s="66" t="s">
         <v>40</v>
       </c>
-      <c r="D99" s="65"/>
-      <c r="E99" s="65"/>
-      <c r="F99" s="65"/>
-      <c r="G99" s="65"/>
-      <c r="H99" s="65"/>
-      <c r="I99" s="65"/>
-      <c r="J99" s="65"/>
-      <c r="K99" s="65"/>
+      <c r="D99" s="67"/>
+      <c r="E99" s="67"/>
+      <c r="F99" s="67"/>
+      <c r="G99" s="67"/>
+      <c r="H99" s="67"/>
+      <c r="I99" s="67"/>
+      <c r="J99" s="67"/>
+      <c r="K99" s="67"/>
       <c r="L99" s="6">
         <v>17</v>
       </c>
@@ -5214,17 +5214,17 @@
         <v>11</v>
       </c>
       <c r="B100" s="1"/>
-      <c r="C100" s="64" t="s">
+      <c r="C100" s="66" t="s">
         <v>41</v>
       </c>
-      <c r="D100" s="65"/>
-      <c r="E100" s="65"/>
-      <c r="F100" s="65"/>
-      <c r="G100" s="65"/>
-      <c r="H100" s="65"/>
-      <c r="I100" s="65"/>
-      <c r="J100" s="65"/>
-      <c r="K100" s="65"/>
+      <c r="D100" s="67"/>
+      <c r="E100" s="67"/>
+      <c r="F100" s="67"/>
+      <c r="G100" s="67"/>
+      <c r="H100" s="67"/>
+      <c r="I100" s="67"/>
+      <c r="J100" s="67"/>
+      <c r="K100" s="67"/>
       <c r="L100" s="6">
         <v>17</v>
       </c>
@@ -5247,17 +5247,17 @@
         <v>12</v>
       </c>
       <c r="B101" s="1"/>
-      <c r="C101" s="64" t="s">
+      <c r="C101" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="D101" s="65"/>
-      <c r="E101" s="65"/>
-      <c r="F101" s="65"/>
-      <c r="G101" s="65"/>
-      <c r="H101" s="65"/>
-      <c r="I101" s="65"/>
-      <c r="J101" s="65"/>
-      <c r="K101" s="65"/>
+      <c r="D101" s="67"/>
+      <c r="E101" s="67"/>
+      <c r="F101" s="67"/>
+      <c r="G101" s="67"/>
+      <c r="H101" s="67"/>
+      <c r="I101" s="67"/>
+      <c r="J101" s="67"/>
+      <c r="K101" s="67"/>
       <c r="L101" s="6">
         <v>17</v>
       </c>
@@ -5280,17 +5280,17 @@
         <v>13</v>
       </c>
       <c r="B102" s="1"/>
-      <c r="C102" s="65" t="s">
+      <c r="C102" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="D102" s="65"/>
-      <c r="E102" s="65"/>
-      <c r="F102" s="65"/>
-      <c r="G102" s="65"/>
-      <c r="H102" s="65"/>
-      <c r="I102" s="65"/>
-      <c r="J102" s="65"/>
-      <c r="K102" s="65"/>
+      <c r="D102" s="67"/>
+      <c r="E102" s="67"/>
+      <c r="F102" s="67"/>
+      <c r="G102" s="67"/>
+      <c r="H102" s="67"/>
+      <c r="I102" s="67"/>
+      <c r="J102" s="67"/>
+      <c r="K102" s="67"/>
       <c r="L102" s="6">
         <v>17</v>
       </c>
@@ -5326,17 +5326,17 @@
         <v>14</v>
       </c>
       <c r="B103" s="1"/>
-      <c r="C103" s="64" t="s">
+      <c r="C103" s="66" t="s">
         <v>43</v>
       </c>
-      <c r="D103" s="65"/>
-      <c r="E103" s="65"/>
-      <c r="F103" s="65"/>
-      <c r="G103" s="65"/>
-      <c r="H103" s="65"/>
-      <c r="I103" s="65"/>
-      <c r="J103" s="65"/>
-      <c r="K103" s="65"/>
+      <c r="D103" s="67"/>
+      <c r="E103" s="67"/>
+      <c r="F103" s="67"/>
+      <c r="G103" s="67"/>
+      <c r="H103" s="67"/>
+      <c r="I103" s="67"/>
+      <c r="J103" s="67"/>
+      <c r="K103" s="67"/>
       <c r="L103" s="6">
         <v>17</v>
       </c>
@@ -5372,17 +5372,17 @@
         <v>15</v>
       </c>
       <c r="B104" s="1"/>
-      <c r="C104" s="65" t="s">
+      <c r="C104" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="D104" s="65"/>
-      <c r="E104" s="65"/>
-      <c r="F104" s="65"/>
-      <c r="G104" s="65"/>
-      <c r="H104" s="65"/>
-      <c r="I104" s="65"/>
-      <c r="J104" s="65"/>
-      <c r="K104" s="65"/>
+      <c r="D104" s="67"/>
+      <c r="E104" s="67"/>
+      <c r="F104" s="67"/>
+      <c r="G104" s="67"/>
+      <c r="H104" s="67"/>
+      <c r="I104" s="67"/>
+      <c r="J104" s="67"/>
+      <c r="K104" s="67"/>
       <c r="L104" s="6">
         <v>17</v>
       </c>
@@ -5418,17 +5418,17 @@
         <v>16</v>
       </c>
       <c r="B105" s="1"/>
-      <c r="C105" s="65" t="s">
+      <c r="C105" s="67" t="s">
         <v>44</v>
       </c>
-      <c r="D105" s="65"/>
-      <c r="E105" s="65"/>
-      <c r="F105" s="65"/>
-      <c r="G105" s="65"/>
-      <c r="H105" s="65"/>
-      <c r="I105" s="65"/>
-      <c r="J105" s="65"/>
-      <c r="K105" s="65"/>
+      <c r="D105" s="67"/>
+      <c r="E105" s="67"/>
+      <c r="F105" s="67"/>
+      <c r="G105" s="67"/>
+      <c r="H105" s="67"/>
+      <c r="I105" s="67"/>
+      <c r="J105" s="67"/>
+      <c r="K105" s="67"/>
       <c r="L105" s="6">
         <v>17</v>
       </c>
@@ -5451,17 +5451,17 @@
         <v>17</v>
       </c>
       <c r="B106" s="1"/>
-      <c r="C106" s="64" t="s">
+      <c r="C106" s="66" t="s">
         <v>45</v>
       </c>
-      <c r="D106" s="65"/>
-      <c r="E106" s="65"/>
-      <c r="F106" s="65"/>
-      <c r="G106" s="65"/>
-      <c r="H106" s="65"/>
-      <c r="I106" s="65"/>
-      <c r="J106" s="65"/>
-      <c r="K106" s="65"/>
+      <c r="D106" s="67"/>
+      <c r="E106" s="67"/>
+      <c r="F106" s="67"/>
+      <c r="G106" s="67"/>
+      <c r="H106" s="67"/>
+      <c r="I106" s="67"/>
+      <c r="J106" s="67"/>
+      <c r="K106" s="67"/>
       <c r="L106" s="6">
         <v>17</v>
       </c>
@@ -5497,17 +5497,17 @@
         <v>18</v>
       </c>
       <c r="B107" s="1"/>
-      <c r="C107" s="64" t="s">
+      <c r="C107" s="66" t="s">
         <v>46</v>
       </c>
-      <c r="D107" s="65"/>
-      <c r="E107" s="65"/>
-      <c r="F107" s="65"/>
-      <c r="G107" s="65"/>
-      <c r="H107" s="65"/>
-      <c r="I107" s="65"/>
-      <c r="J107" s="65"/>
-      <c r="K107" s="65"/>
+      <c r="D107" s="67"/>
+      <c r="E107" s="67"/>
+      <c r="F107" s="67"/>
+      <c r="G107" s="67"/>
+      <c r="H107" s="67"/>
+      <c r="I107" s="67"/>
+      <c r="J107" s="67"/>
+      <c r="K107" s="67"/>
       <c r="L107" s="6">
         <v>17</v>
       </c>
@@ -5530,17 +5530,17 @@
         <v>19</v>
       </c>
       <c r="B108" s="1"/>
-      <c r="C108" s="65" t="s">
+      <c r="C108" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="D108" s="65"/>
-      <c r="E108" s="65"/>
-      <c r="F108" s="65"/>
-      <c r="G108" s="65"/>
-      <c r="H108" s="65"/>
-      <c r="I108" s="65"/>
-      <c r="J108" s="65"/>
-      <c r="K108" s="65"/>
+      <c r="D108" s="67"/>
+      <c r="E108" s="67"/>
+      <c r="F108" s="67"/>
+      <c r="G108" s="67"/>
+      <c r="H108" s="67"/>
+      <c r="I108" s="67"/>
+      <c r="J108" s="67"/>
+      <c r="K108" s="67"/>
       <c r="L108" s="6">
         <v>17</v>
       </c>
@@ -5576,17 +5576,17 @@
         <v>20</v>
       </c>
       <c r="B109" s="1"/>
-      <c r="C109" s="65" t="s">
+      <c r="C109" s="67" t="s">
         <v>47</v>
       </c>
-      <c r="D109" s="65"/>
-      <c r="E109" s="65"/>
-      <c r="F109" s="65"/>
-      <c r="G109" s="65"/>
-      <c r="H109" s="65"/>
-      <c r="I109" s="65"/>
-      <c r="J109" s="65"/>
-      <c r="K109" s="65"/>
+      <c r="D109" s="67"/>
+      <c r="E109" s="67"/>
+      <c r="F109" s="67"/>
+      <c r="G109" s="67"/>
+      <c r="H109" s="67"/>
+      <c r="I109" s="67"/>
+      <c r="J109" s="67"/>
+      <c r="K109" s="67"/>
       <c r="L109" s="6">
         <v>17</v>
       </c>
@@ -5622,17 +5622,17 @@
         <v>21</v>
       </c>
       <c r="B110" s="1"/>
-      <c r="C110" s="65" t="s">
+      <c r="C110" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="D110" s="65"/>
-      <c r="E110" s="65"/>
-      <c r="F110" s="65"/>
-      <c r="G110" s="65"/>
-      <c r="H110" s="65"/>
-      <c r="I110" s="65"/>
-      <c r="J110" s="65"/>
-      <c r="K110" s="65"/>
+      <c r="D110" s="67"/>
+      <c r="E110" s="67"/>
+      <c r="F110" s="67"/>
+      <c r="G110" s="67"/>
+      <c r="H110" s="67"/>
+      <c r="I110" s="67"/>
+      <c r="J110" s="67"/>
+      <c r="K110" s="67"/>
       <c r="L110" s="6">
         <v>17</v>
       </c>
@@ -5668,17 +5668,17 @@
         <v>22</v>
       </c>
       <c r="B111" s="1"/>
-      <c r="C111" s="64" t="s">
+      <c r="C111" s="66" t="s">
         <v>48</v>
       </c>
-      <c r="D111" s="65"/>
-      <c r="E111" s="65"/>
-      <c r="F111" s="65"/>
-      <c r="G111" s="65"/>
-      <c r="H111" s="65"/>
-      <c r="I111" s="65"/>
-      <c r="J111" s="65"/>
-      <c r="K111" s="65"/>
+      <c r="D111" s="67"/>
+      <c r="E111" s="67"/>
+      <c r="F111" s="67"/>
+      <c r="G111" s="67"/>
+      <c r="H111" s="67"/>
+      <c r="I111" s="67"/>
+      <c r="J111" s="67"/>
+      <c r="K111" s="67"/>
       <c r="L111" s="6">
         <v>17</v>
       </c>
@@ -5714,17 +5714,17 @@
         <v>23</v>
       </c>
       <c r="B112" s="1"/>
-      <c r="C112" s="65" t="s">
+      <c r="C112" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="D112" s="65"/>
-      <c r="E112" s="65"/>
-      <c r="F112" s="65"/>
-      <c r="G112" s="65"/>
-      <c r="H112" s="65"/>
-      <c r="I112" s="65"/>
-      <c r="J112" s="65"/>
-      <c r="K112" s="65"/>
+      <c r="D112" s="67"/>
+      <c r="E112" s="67"/>
+      <c r="F112" s="67"/>
+      <c r="G112" s="67"/>
+      <c r="H112" s="67"/>
+      <c r="I112" s="67"/>
+      <c r="J112" s="67"/>
+      <c r="K112" s="67"/>
       <c r="L112" s="6">
         <v>17</v>
       </c>
@@ -5747,17 +5747,17 @@
         <v>24</v>
       </c>
       <c r="B113" s="1"/>
-      <c r="C113" s="64" t="s">
+      <c r="C113" s="66" t="s">
         <v>49</v>
       </c>
-      <c r="D113" s="65"/>
-      <c r="E113" s="65"/>
-      <c r="F113" s="65"/>
-      <c r="G113" s="65"/>
-      <c r="H113" s="65"/>
-      <c r="I113" s="65"/>
-      <c r="J113" s="65"/>
-      <c r="K113" s="65"/>
+      <c r="D113" s="67"/>
+      <c r="E113" s="67"/>
+      <c r="F113" s="67"/>
+      <c r="G113" s="67"/>
+      <c r="H113" s="67"/>
+      <c r="I113" s="67"/>
+      <c r="J113" s="67"/>
+      <c r="K113" s="67"/>
       <c r="L113" s="6">
         <v>17</v>
       </c>
@@ -5780,20 +5780,20 @@
         <v>25</v>
       </c>
       <c r="B114" s="8"/>
-      <c r="C114" s="66" t="s">
+      <c r="C114" s="60" t="s">
         <v>58</v>
       </c>
-      <c r="D114" s="67"/>
-      <c r="E114" s="67"/>
-      <c r="F114" s="67"/>
-      <c r="G114" s="67"/>
-      <c r="H114" s="67"/>
-      <c r="I114" s="67"/>
-      <c r="J114" s="67"/>
-      <c r="K114" s="67"/>
-      <c r="L114" s="67"/>
-      <c r="M114" s="67"/>
-      <c r="N114" s="68"/>
+      <c r="D114" s="61"/>
+      <c r="E114" s="61"/>
+      <c r="F114" s="61"/>
+      <c r="G114" s="61"/>
+      <c r="H114" s="61"/>
+      <c r="I114" s="61"/>
+      <c r="J114" s="61"/>
+      <c r="K114" s="61"/>
+      <c r="L114" s="61"/>
+      <c r="M114" s="61"/>
+      <c r="N114" s="62"/>
       <c r="O114" s="11"/>
       <c r="P114" s="12">
         <f>AVERAGE(P90:P113)</f>
@@ -5814,26 +5814,26 @@
     </row>
     <row r="116" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="117" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A117" s="82" t="s">
+      <c r="A117" s="76" t="s">
         <v>13</v>
       </c>
-      <c r="B117" s="83"/>
-      <c r="C117" s="83"/>
-      <c r="D117" s="83"/>
-      <c r="E117" s="83"/>
-      <c r="F117" s="83"/>
-      <c r="G117" s="83"/>
-      <c r="H117" s="83"/>
-      <c r="I117" s="83"/>
-      <c r="J117" s="83"/>
-      <c r="K117" s="83"/>
-      <c r="L117" s="83"/>
-      <c r="M117" s="83"/>
-      <c r="N117" s="83"/>
-      <c r="O117" s="83"/>
-      <c r="P117" s="83"/>
-      <c r="Q117" s="83"/>
-      <c r="R117" s="84"/>
+      <c r="B117" s="77"/>
+      <c r="C117" s="77"/>
+      <c r="D117" s="77"/>
+      <c r="E117" s="77"/>
+      <c r="F117" s="77"/>
+      <c r="G117" s="77"/>
+      <c r="H117" s="77"/>
+      <c r="I117" s="77"/>
+      <c r="J117" s="77"/>
+      <c r="K117" s="77"/>
+      <c r="L117" s="77"/>
+      <c r="M117" s="77"/>
+      <c r="N117" s="77"/>
+      <c r="O117" s="77"/>
+      <c r="P117" s="77"/>
+      <c r="Q117" s="77"/>
+      <c r="R117" s="78"/>
       <c r="S117" s="15"/>
       <c r="T117" s="15"/>
       <c r="U117" s="15"/>
@@ -5843,17 +5843,17 @@
         <v>1</v>
       </c>
       <c r="B119" s="5"/>
-      <c r="C119" s="72" t="s">
+      <c r="C119" s="73" t="s">
         <v>56</v>
       </c>
-      <c r="D119" s="72"/>
-      <c r="E119" s="72"/>
-      <c r="F119" s="72"/>
-      <c r="G119" s="72"/>
-      <c r="H119" s="72"/>
-      <c r="I119" s="72"/>
-      <c r="J119" s="72"/>
-      <c r="K119" s="72"/>
+      <c r="D119" s="73"/>
+      <c r="E119" s="73"/>
+      <c r="F119" s="73"/>
+      <c r="G119" s="73"/>
+      <c r="H119" s="73"/>
+      <c r="I119" s="73"/>
+      <c r="J119" s="73"/>
+      <c r="K119" s="73"/>
       <c r="L119" s="5" t="s">
         <v>2</v>
       </c>
@@ -5890,17 +5890,17 @@
         <v>1</v>
       </c>
       <c r="B120" s="1"/>
-      <c r="C120" s="73" t="s">
+      <c r="C120" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="D120" s="73"/>
-      <c r="E120" s="73"/>
-      <c r="F120" s="73"/>
-      <c r="G120" s="73"/>
-      <c r="H120" s="73"/>
-      <c r="I120" s="73"/>
-      <c r="J120" s="73"/>
-      <c r="K120" s="73"/>
+      <c r="D120" s="74"/>
+      <c r="E120" s="74"/>
+      <c r="F120" s="74"/>
+      <c r="G120" s="74"/>
+      <c r="H120" s="74"/>
+      <c r="I120" s="74"/>
+      <c r="J120" s="74"/>
+      <c r="K120" s="74"/>
       <c r="L120" s="6">
         <v>33</v>
       </c>
@@ -5923,17 +5923,17 @@
         <v>2</v>
       </c>
       <c r="B121" s="1"/>
-      <c r="C121" s="64" t="s">
+      <c r="C121" s="66" t="s">
         <v>16</v>
       </c>
-      <c r="D121" s="65"/>
-      <c r="E121" s="65"/>
-      <c r="F121" s="65"/>
-      <c r="G121" s="65"/>
-      <c r="H121" s="65"/>
-      <c r="I121" s="65"/>
-      <c r="J121" s="65"/>
-      <c r="K121" s="65"/>
+      <c r="D121" s="67"/>
+      <c r="E121" s="67"/>
+      <c r="F121" s="67"/>
+      <c r="G121" s="67"/>
+      <c r="H121" s="67"/>
+      <c r="I121" s="67"/>
+      <c r="J121" s="67"/>
+      <c r="K121" s="67"/>
       <c r="L121" s="6">
         <v>33</v>
       </c>
@@ -5956,17 +5956,17 @@
         <v>3</v>
       </c>
       <c r="B122" s="1"/>
-      <c r="C122" s="64" t="s">
+      <c r="C122" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="D122" s="65"/>
-      <c r="E122" s="65"/>
-      <c r="F122" s="65"/>
-      <c r="G122" s="65"/>
-      <c r="H122" s="65"/>
-      <c r="I122" s="65"/>
-      <c r="J122" s="65"/>
-      <c r="K122" s="65"/>
+      <c r="D122" s="67"/>
+      <c r="E122" s="67"/>
+      <c r="F122" s="67"/>
+      <c r="G122" s="67"/>
+      <c r="H122" s="67"/>
+      <c r="I122" s="67"/>
+      <c r="J122" s="67"/>
+      <c r="K122" s="67"/>
       <c r="L122" s="6">
         <v>33</v>
       </c>
@@ -6002,17 +6002,17 @@
         <v>4</v>
       </c>
       <c r="B123" s="1"/>
-      <c r="C123" s="65" t="s">
+      <c r="C123" s="67" t="s">
         <v>18</v>
       </c>
-      <c r="D123" s="65"/>
-      <c r="E123" s="65"/>
-      <c r="F123" s="65"/>
-      <c r="G123" s="65"/>
-      <c r="H123" s="65"/>
-      <c r="I123" s="65"/>
-      <c r="J123" s="65"/>
-      <c r="K123" s="65"/>
+      <c r="D123" s="67"/>
+      <c r="E123" s="67"/>
+      <c r="F123" s="67"/>
+      <c r="G123" s="67"/>
+      <c r="H123" s="67"/>
+      <c r="I123" s="67"/>
+      <c r="J123" s="67"/>
+      <c r="K123" s="67"/>
       <c r="L123" s="6">
         <v>33</v>
       </c>
@@ -6035,17 +6035,17 @@
         <v>5</v>
       </c>
       <c r="B124" s="1"/>
-      <c r="C124" s="64" t="s">
+      <c r="C124" s="66" t="s">
         <v>61</v>
       </c>
-      <c r="D124" s="65"/>
-      <c r="E124" s="65"/>
-      <c r="F124" s="65"/>
-      <c r="G124" s="65"/>
-      <c r="H124" s="65"/>
-      <c r="I124" s="65"/>
-      <c r="J124" s="65"/>
-      <c r="K124" s="65"/>
+      <c r="D124" s="67"/>
+      <c r="E124" s="67"/>
+      <c r="F124" s="67"/>
+      <c r="G124" s="67"/>
+      <c r="H124" s="67"/>
+      <c r="I124" s="67"/>
+      <c r="J124" s="67"/>
+      <c r="K124" s="67"/>
       <c r="L124" s="6">
         <v>33</v>
       </c>
@@ -6068,17 +6068,17 @@
         <v>6</v>
       </c>
       <c r="B125" s="1"/>
-      <c r="C125" s="64" t="s">
+      <c r="C125" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="D125" s="65"/>
-      <c r="E125" s="65"/>
-      <c r="F125" s="65"/>
-      <c r="G125" s="65"/>
-      <c r="H125" s="65"/>
-      <c r="I125" s="65"/>
-      <c r="J125" s="65"/>
-      <c r="K125" s="65"/>
+      <c r="D125" s="67"/>
+      <c r="E125" s="67"/>
+      <c r="F125" s="67"/>
+      <c r="G125" s="67"/>
+      <c r="H125" s="67"/>
+      <c r="I125" s="67"/>
+      <c r="J125" s="67"/>
+      <c r="K125" s="67"/>
       <c r="L125" s="6">
         <v>33</v>
       </c>
@@ -6101,17 +6101,17 @@
         <v>7</v>
       </c>
       <c r="B126" s="1"/>
-      <c r="C126" s="65" t="s">
+      <c r="C126" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="D126" s="65"/>
-      <c r="E126" s="65"/>
-      <c r="F126" s="65"/>
-      <c r="G126" s="65"/>
-      <c r="H126" s="65"/>
-      <c r="I126" s="65"/>
-      <c r="J126" s="65"/>
-      <c r="K126" s="65"/>
+      <c r="D126" s="67"/>
+      <c r="E126" s="67"/>
+      <c r="F126" s="67"/>
+      <c r="G126" s="67"/>
+      <c r="H126" s="67"/>
+      <c r="I126" s="67"/>
+      <c r="J126" s="67"/>
+      <c r="K126" s="67"/>
       <c r="L126" s="6">
         <v>33</v>
       </c>
@@ -6134,17 +6134,17 @@
         <v>8</v>
       </c>
       <c r="B127" s="1"/>
-      <c r="C127" s="64" t="s">
+      <c r="C127" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="D127" s="65"/>
-      <c r="E127" s="65"/>
-      <c r="F127" s="65"/>
-      <c r="G127" s="65"/>
-      <c r="H127" s="65"/>
-      <c r="I127" s="65"/>
-      <c r="J127" s="65"/>
-      <c r="K127" s="65"/>
+      <c r="D127" s="67"/>
+      <c r="E127" s="67"/>
+      <c r="F127" s="67"/>
+      <c r="G127" s="67"/>
+      <c r="H127" s="67"/>
+      <c r="I127" s="67"/>
+      <c r="J127" s="67"/>
+      <c r="K127" s="67"/>
       <c r="L127" s="6">
         <v>33</v>
       </c>
@@ -6167,17 +6167,17 @@
         <v>9</v>
       </c>
       <c r="B128" s="1"/>
-      <c r="C128" s="64" t="s">
+      <c r="C128" s="66" t="s">
         <v>62</v>
       </c>
-      <c r="D128" s="65"/>
-      <c r="E128" s="65"/>
-      <c r="F128" s="65"/>
-      <c r="G128" s="65"/>
-      <c r="H128" s="65"/>
-      <c r="I128" s="65"/>
-      <c r="J128" s="65"/>
-      <c r="K128" s="65"/>
+      <c r="D128" s="67"/>
+      <c r="E128" s="67"/>
+      <c r="F128" s="67"/>
+      <c r="G128" s="67"/>
+      <c r="H128" s="67"/>
+      <c r="I128" s="67"/>
+      <c r="J128" s="67"/>
+      <c r="K128" s="67"/>
       <c r="L128" s="6">
         <v>33</v>
       </c>
@@ -6200,17 +6200,17 @@
         <v>10</v>
       </c>
       <c r="B129" s="1"/>
-      <c r="C129" s="64" t="s">
+      <c r="C129" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="D129" s="65"/>
-      <c r="E129" s="65"/>
-      <c r="F129" s="65"/>
-      <c r="G129" s="65"/>
-      <c r="H129" s="65"/>
-      <c r="I129" s="65"/>
-      <c r="J129" s="65"/>
-      <c r="K129" s="65"/>
+      <c r="D129" s="67"/>
+      <c r="E129" s="67"/>
+      <c r="F129" s="67"/>
+      <c r="G129" s="67"/>
+      <c r="H129" s="67"/>
+      <c r="I129" s="67"/>
+      <c r="J129" s="67"/>
+      <c r="K129" s="67"/>
       <c r="L129" s="6">
         <v>33</v>
       </c>
@@ -6233,17 +6233,17 @@
         <v>11</v>
       </c>
       <c r="B130" s="1"/>
-      <c r="C130" s="64" t="s">
+      <c r="C130" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="D130" s="65"/>
-      <c r="E130" s="65"/>
-      <c r="F130" s="65"/>
-      <c r="G130" s="65"/>
-      <c r="H130" s="65"/>
-      <c r="I130" s="65"/>
-      <c r="J130" s="65"/>
-      <c r="K130" s="65"/>
+      <c r="D130" s="67"/>
+      <c r="E130" s="67"/>
+      <c r="F130" s="67"/>
+      <c r="G130" s="67"/>
+      <c r="H130" s="67"/>
+      <c r="I130" s="67"/>
+      <c r="J130" s="67"/>
+      <c r="K130" s="67"/>
       <c r="L130" s="6">
         <v>33</v>
       </c>
@@ -6266,17 +6266,17 @@
         <v>12</v>
       </c>
       <c r="B131" s="1"/>
-      <c r="C131" s="64" t="s">
+      <c r="C131" s="66" t="s">
         <v>63</v>
       </c>
-      <c r="D131" s="65"/>
-      <c r="E131" s="65"/>
-      <c r="F131" s="65"/>
-      <c r="G131" s="65"/>
-      <c r="H131" s="65"/>
-      <c r="I131" s="65"/>
-      <c r="J131" s="65"/>
-      <c r="K131" s="65"/>
+      <c r="D131" s="67"/>
+      <c r="E131" s="67"/>
+      <c r="F131" s="67"/>
+      <c r="G131" s="67"/>
+      <c r="H131" s="67"/>
+      <c r="I131" s="67"/>
+      <c r="J131" s="67"/>
+      <c r="K131" s="67"/>
       <c r="L131" s="6">
         <v>33</v>
       </c>
@@ -6312,20 +6312,20 @@
         <v>13</v>
       </c>
       <c r="B132" s="1"/>
-      <c r="C132" s="66" t="s">
+      <c r="C132" s="60" t="s">
         <v>58</v>
       </c>
-      <c r="D132" s="67"/>
-      <c r="E132" s="67"/>
-      <c r="F132" s="67"/>
-      <c r="G132" s="67"/>
-      <c r="H132" s="67"/>
-      <c r="I132" s="67"/>
-      <c r="J132" s="67"/>
-      <c r="K132" s="67"/>
-      <c r="L132" s="67"/>
-      <c r="M132" s="67"/>
-      <c r="N132" s="68"/>
+      <c r="D132" s="61"/>
+      <c r="E132" s="61"/>
+      <c r="F132" s="61"/>
+      <c r="G132" s="61"/>
+      <c r="H132" s="61"/>
+      <c r="I132" s="61"/>
+      <c r="J132" s="61"/>
+      <c r="K132" s="61"/>
+      <c r="L132" s="61"/>
+      <c r="M132" s="61"/>
+      <c r="N132" s="62"/>
       <c r="O132" s="11"/>
       <c r="P132" s="12">
         <f>AVERAGE(P120:P131)</f>
@@ -6348,26 +6348,26 @@
       <c r="B133" s="1"/>
     </row>
     <row r="134" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A134" s="69" t="s">
+      <c r="A134" s="63" t="s">
         <v>24</v>
       </c>
-      <c r="B134" s="70"/>
-      <c r="C134" s="70"/>
-      <c r="D134" s="70"/>
-      <c r="E134" s="70"/>
-      <c r="F134" s="70"/>
-      <c r="G134" s="70"/>
-      <c r="H134" s="70"/>
-      <c r="I134" s="70"/>
-      <c r="J134" s="70"/>
-      <c r="K134" s="70"/>
-      <c r="L134" s="70"/>
-      <c r="M134" s="70"/>
-      <c r="N134" s="70"/>
-      <c r="O134" s="70"/>
-      <c r="P134" s="70"/>
-      <c r="Q134" s="70"/>
-      <c r="R134" s="71"/>
+      <c r="B134" s="64"/>
+      <c r="C134" s="64"/>
+      <c r="D134" s="64"/>
+      <c r="E134" s="64"/>
+      <c r="F134" s="64"/>
+      <c r="G134" s="64"/>
+      <c r="H134" s="64"/>
+      <c r="I134" s="64"/>
+      <c r="J134" s="64"/>
+      <c r="K134" s="64"/>
+      <c r="L134" s="64"/>
+      <c r="M134" s="64"/>
+      <c r="N134" s="64"/>
+      <c r="O134" s="64"/>
+      <c r="P134" s="64"/>
+      <c r="Q134" s="64"/>
+      <c r="R134" s="65"/>
       <c r="S134" s="3"/>
       <c r="T134" s="3"/>
       <c r="U134" s="3"/>
@@ -6377,17 +6377,17 @@
         <v>1</v>
       </c>
       <c r="B136" s="5"/>
-      <c r="C136" s="72" t="s">
+      <c r="C136" s="73" t="s">
         <v>56</v>
       </c>
-      <c r="D136" s="72"/>
-      <c r="E136" s="72"/>
-      <c r="F136" s="72"/>
-      <c r="G136" s="72"/>
-      <c r="H136" s="72"/>
-      <c r="I136" s="72"/>
-      <c r="J136" s="72"/>
-      <c r="K136" s="72"/>
+      <c r="D136" s="73"/>
+      <c r="E136" s="73"/>
+      <c r="F136" s="73"/>
+      <c r="G136" s="73"/>
+      <c r="H136" s="73"/>
+      <c r="I136" s="73"/>
+      <c r="J136" s="73"/>
+      <c r="K136" s="73"/>
       <c r="L136" s="5" t="s">
         <v>2</v>
       </c>
@@ -6424,17 +6424,17 @@
         <v>1</v>
       </c>
       <c r="B137" s="1"/>
-      <c r="C137" s="73" t="s">
+      <c r="C137" s="74" t="s">
         <v>65</v>
       </c>
-      <c r="D137" s="73"/>
-      <c r="E137" s="73"/>
-      <c r="F137" s="73"/>
-      <c r="G137" s="73"/>
-      <c r="H137" s="73"/>
-      <c r="I137" s="73"/>
-      <c r="J137" s="73"/>
-      <c r="K137" s="73"/>
+      <c r="D137" s="74"/>
+      <c r="E137" s="74"/>
+      <c r="F137" s="74"/>
+      <c r="G137" s="74"/>
+      <c r="H137" s="74"/>
+      <c r="I137" s="74"/>
+      <c r="J137" s="74"/>
+      <c r="K137" s="74"/>
       <c r="L137" s="6">
         <v>33</v>
       </c>
@@ -6457,17 +6457,17 @@
         <v>2</v>
       </c>
       <c r="B138" s="1"/>
-      <c r="C138" s="64" t="s">
+      <c r="C138" s="66" t="s">
         <v>66</v>
       </c>
-      <c r="D138" s="65"/>
-      <c r="E138" s="65"/>
-      <c r="F138" s="65"/>
-      <c r="G138" s="65"/>
-      <c r="H138" s="65"/>
-      <c r="I138" s="65"/>
-      <c r="J138" s="65"/>
-      <c r="K138" s="65"/>
+      <c r="D138" s="67"/>
+      <c r="E138" s="67"/>
+      <c r="F138" s="67"/>
+      <c r="G138" s="67"/>
+      <c r="H138" s="67"/>
+      <c r="I138" s="67"/>
+      <c r="J138" s="67"/>
+      <c r="K138" s="67"/>
       <c r="L138" s="6">
         <v>33</v>
       </c>
@@ -6490,17 +6490,17 @@
         <v>3</v>
       </c>
       <c r="B139" s="1"/>
-      <c r="C139" s="64" t="s">
+      <c r="C139" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="D139" s="65"/>
-      <c r="E139" s="65"/>
-      <c r="F139" s="65"/>
-      <c r="G139" s="65"/>
-      <c r="H139" s="65"/>
-      <c r="I139" s="65"/>
-      <c r="J139" s="65"/>
-      <c r="K139" s="65"/>
+      <c r="D139" s="67"/>
+      <c r="E139" s="67"/>
+      <c r="F139" s="67"/>
+      <c r="G139" s="67"/>
+      <c r="H139" s="67"/>
+      <c r="I139" s="67"/>
+      <c r="J139" s="67"/>
+      <c r="K139" s="67"/>
       <c r="L139" s="6">
         <v>33</v>
       </c>
@@ -6523,17 +6523,17 @@
         <v>4</v>
       </c>
       <c r="B140" s="1"/>
-      <c r="C140" s="65" t="s">
+      <c r="C140" s="67" t="s">
         <v>26</v>
       </c>
-      <c r="D140" s="65"/>
-      <c r="E140" s="65"/>
-      <c r="F140" s="65"/>
-      <c r="G140" s="65"/>
-      <c r="H140" s="65"/>
-      <c r="I140" s="65"/>
-      <c r="J140" s="65"/>
-      <c r="K140" s="65"/>
+      <c r="D140" s="67"/>
+      <c r="E140" s="67"/>
+      <c r="F140" s="67"/>
+      <c r="G140" s="67"/>
+      <c r="H140" s="67"/>
+      <c r="I140" s="67"/>
+      <c r="J140" s="67"/>
+      <c r="K140" s="67"/>
       <c r="L140" s="6">
         <v>33</v>
       </c>
@@ -6556,17 +6556,17 @@
         <v>5</v>
       </c>
       <c r="B141" s="1"/>
-      <c r="C141" s="64" t="s">
+      <c r="C141" s="66" t="s">
         <v>27</v>
       </c>
-      <c r="D141" s="65"/>
-      <c r="E141" s="65"/>
-      <c r="F141" s="65"/>
-      <c r="G141" s="65"/>
-      <c r="H141" s="65"/>
-      <c r="I141" s="65"/>
-      <c r="J141" s="65"/>
-      <c r="K141" s="65"/>
+      <c r="D141" s="67"/>
+      <c r="E141" s="67"/>
+      <c r="F141" s="67"/>
+      <c r="G141" s="67"/>
+      <c r="H141" s="67"/>
+      <c r="I141" s="67"/>
+      <c r="J141" s="67"/>
+      <c r="K141" s="67"/>
       <c r="L141" s="6">
         <v>33</v>
       </c>
@@ -6589,17 +6589,17 @@
         <v>6</v>
       </c>
       <c r="B142" s="1"/>
-      <c r="C142" s="64" t="s">
+      <c r="C142" s="66" t="s">
         <v>67</v>
       </c>
-      <c r="D142" s="65"/>
-      <c r="E142" s="65"/>
-      <c r="F142" s="65"/>
-      <c r="G142" s="65"/>
-      <c r="H142" s="65"/>
-      <c r="I142" s="65"/>
-      <c r="J142" s="65"/>
-      <c r="K142" s="65"/>
+      <c r="D142" s="67"/>
+      <c r="E142" s="67"/>
+      <c r="F142" s="67"/>
+      <c r="G142" s="67"/>
+      <c r="H142" s="67"/>
+      <c r="I142" s="67"/>
+      <c r="J142" s="67"/>
+      <c r="K142" s="67"/>
       <c r="L142" s="6">
         <v>33</v>
       </c>
@@ -6622,20 +6622,20 @@
         <v>7</v>
       </c>
       <c r="B143" s="1"/>
-      <c r="C143" s="66" t="s">
+      <c r="C143" s="60" t="s">
         <v>58</v>
       </c>
-      <c r="D143" s="67"/>
-      <c r="E143" s="67"/>
-      <c r="F143" s="67"/>
-      <c r="G143" s="67"/>
-      <c r="H143" s="67"/>
-      <c r="I143" s="67"/>
-      <c r="J143" s="67"/>
-      <c r="K143" s="67"/>
-      <c r="L143" s="67"/>
-      <c r="M143" s="67"/>
-      <c r="N143" s="68"/>
+      <c r="D143" s="61"/>
+      <c r="E143" s="61"/>
+      <c r="F143" s="61"/>
+      <c r="G143" s="61"/>
+      <c r="H143" s="61"/>
+      <c r="I143" s="61"/>
+      <c r="J143" s="61"/>
+      <c r="K143" s="61"/>
+      <c r="L143" s="61"/>
+      <c r="M143" s="61"/>
+      <c r="N143" s="62"/>
       <c r="O143" s="11"/>
       <c r="P143" s="12" t="e">
         <f>AVERAGE(P137:P142)</f>
@@ -6655,25 +6655,25 @@
       <c r="B144" s="1"/>
     </row>
     <row r="145" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A145" s="81" t="s">
+      <c r="A145" s="72" t="s">
         <v>28</v>
       </c>
-      <c r="B145" s="81"/>
-      <c r="C145" s="81"/>
-      <c r="D145" s="81"/>
-      <c r="E145" s="81"/>
-      <c r="F145" s="81"/>
-      <c r="G145" s="81"/>
-      <c r="H145" s="81"/>
-      <c r="I145" s="81"/>
-      <c r="J145" s="81"/>
-      <c r="K145" s="81"/>
-      <c r="L145" s="81"/>
-      <c r="M145" s="81"/>
-      <c r="N145" s="81"/>
-      <c r="O145" s="81"/>
-      <c r="P145" s="81"/>
-      <c r="Q145" s="81"/>
+      <c r="B145" s="72"/>
+      <c r="C145" s="72"/>
+      <c r="D145" s="72"/>
+      <c r="E145" s="72"/>
+      <c r="F145" s="72"/>
+      <c r="G145" s="72"/>
+      <c r="H145" s="72"/>
+      <c r="I145" s="72"/>
+      <c r="J145" s="72"/>
+      <c r="K145" s="72"/>
+      <c r="L145" s="72"/>
+      <c r="M145" s="72"/>
+      <c r="N145" s="72"/>
+      <c r="O145" s="72"/>
+      <c r="P145" s="72"/>
+      <c r="Q145" s="72"/>
       <c r="R145"/>
     </row>
     <row r="146" spans="1:18" x14ac:dyDescent="0.3">
@@ -6681,10 +6681,10 @@
         <v>1</v>
       </c>
       <c r="B146" s="16"/>
-      <c r="C146" s="80" t="s">
+      <c r="C146" s="68" t="s">
         <v>68</v>
       </c>
-      <c r="D146" s="80"/>
+      <c r="D146" s="68"/>
       <c r="E146" s="17" t="s">
         <v>69</v>
       </c>
@@ -6731,10 +6731,10 @@
         <v>1</v>
       </c>
       <c r="B147" s="14"/>
-      <c r="C147" s="63" t="s">
+      <c r="C147" s="57" t="s">
         <v>84</v>
       </c>
-      <c r="D147" s="63"/>
+      <c r="D147" s="57"/>
       <c r="E147" s="25">
         <v>51</v>
       </c>
@@ -6781,10 +6781,10 @@
         <v>2</v>
       </c>
       <c r="B148" s="14"/>
-      <c r="C148" s="63" t="s">
+      <c r="C148" s="57" t="s">
         <v>85</v>
       </c>
-      <c r="D148" s="63"/>
+      <c r="D148" s="57"/>
       <c r="E148" s="25">
         <v>47</v>
       </c>
@@ -6831,10 +6831,10 @@
         <v>3</v>
       </c>
       <c r="B149" s="14"/>
-      <c r="C149" s="63" t="s">
+      <c r="C149" s="57" t="s">
         <v>86</v>
       </c>
-      <c r="D149" s="63"/>
+      <c r="D149" s="57"/>
       <c r="E149" s="25">
         <v>51</v>
       </c>
@@ -6881,10 +6881,10 @@
         <v>4</v>
       </c>
       <c r="B150" s="14"/>
-      <c r="C150" s="63" t="s">
+      <c r="C150" s="57" t="s">
         <v>87</v>
       </c>
-      <c r="D150" s="63"/>
+      <c r="D150" s="57"/>
       <c r="E150" s="25">
         <v>52</v>
       </c>
@@ -6931,10 +6931,10 @@
         <v>5</v>
       </c>
       <c r="B151" s="14"/>
-      <c r="C151" s="63" t="s">
+      <c r="C151" s="57" t="s">
         <v>90</v>
       </c>
-      <c r="D151" s="63"/>
+      <c r="D151" s="57"/>
       <c r="E151" s="25">
         <v>60</v>
       </c>
@@ -6981,10 +6981,10 @@
         <v>6</v>
       </c>
       <c r="B152" s="14"/>
-      <c r="C152" s="63" t="s">
+      <c r="C152" s="57" t="s">
         <v>91</v>
       </c>
-      <c r="D152" s="63"/>
+      <c r="D152" s="57"/>
       <c r="E152" s="25">
         <v>56</v>
       </c>
@@ -7031,10 +7031,10 @@
         <v>7</v>
       </c>
       <c r="B153" s="14"/>
-      <c r="C153" s="63" t="s">
+      <c r="C153" s="57" t="s">
         <v>92</v>
       </c>
-      <c r="D153" s="63"/>
+      <c r="D153" s="57"/>
       <c r="E153" s="25">
         <v>56</v>
       </c>
@@ -7081,10 +7081,10 @@
         <v>8</v>
       </c>
       <c r="B154" s="14"/>
-      <c r="C154" s="63" t="s">
+      <c r="C154" s="57" t="s">
         <v>93</v>
       </c>
-      <c r="D154" s="63"/>
+      <c r="D154" s="57"/>
       <c r="E154" s="25">
         <v>56</v>
       </c>
@@ -7129,10 +7129,10 @@
     <row r="155" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A155" s="14"/>
       <c r="B155" s="14"/>
-      <c r="C155" s="74" t="s">
+      <c r="C155" s="58" t="s">
         <v>98</v>
       </c>
-      <c r="D155" s="74"/>
+      <c r="D155" s="58"/>
       <c r="E155" s="25">
         <f t="shared" ref="E155:O155" si="11">AVERAGE(E147:E154)</f>
         <v>53.625</v>
@@ -7194,25 +7194,25 @@
       <c r="R157"/>
     </row>
     <row r="158" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A158" s="79" t="s">
+      <c r="A158" s="75" t="s">
         <v>99</v>
       </c>
-      <c r="B158" s="79"/>
-      <c r="C158" s="79"/>
-      <c r="D158" s="79"/>
-      <c r="E158" s="79"/>
-      <c r="F158" s="79"/>
-      <c r="G158" s="79"/>
-      <c r="H158" s="79"/>
-      <c r="I158" s="79"/>
-      <c r="J158" s="79"/>
-      <c r="K158" s="79"/>
-      <c r="L158" s="79"/>
-      <c r="M158" s="79"/>
-      <c r="N158" s="79"/>
-      <c r="O158" s="79"/>
-      <c r="P158" s="79"/>
-      <c r="Q158" s="79"/>
+      <c r="B158" s="75"/>
+      <c r="C158" s="75"/>
+      <c r="D158" s="75"/>
+      <c r="E158" s="75"/>
+      <c r="F158" s="75"/>
+      <c r="G158" s="75"/>
+      <c r="H158" s="75"/>
+      <c r="I158" s="75"/>
+      <c r="J158" s="75"/>
+      <c r="K158" s="75"/>
+      <c r="L158" s="75"/>
+      <c r="M158" s="75"/>
+      <c r="N158" s="75"/>
+      <c r="O158" s="75"/>
+      <c r="P158" s="75"/>
+      <c r="Q158" s="75"/>
       <c r="R158"/>
     </row>
     <row r="159" spans="1:18" x14ac:dyDescent="0.3">
@@ -7220,10 +7220,10 @@
         <v>1</v>
       </c>
       <c r="B159" s="16"/>
-      <c r="C159" s="80" t="s">
+      <c r="C159" s="68" t="s">
         <v>68</v>
       </c>
-      <c r="D159" s="80"/>
+      <c r="D159" s="68"/>
       <c r="E159" s="17" t="s">
         <v>69</v>
       </c>
@@ -7270,10 +7270,10 @@
         <v>1</v>
       </c>
       <c r="B160" s="14"/>
-      <c r="C160" s="63" t="s">
+      <c r="C160" s="57" t="s">
         <v>94</v>
       </c>
-      <c r="D160" s="63"/>
+      <c r="D160" s="57"/>
       <c r="E160" s="25">
         <v>58</v>
       </c>
@@ -7320,10 +7320,10 @@
         <v>2</v>
       </c>
       <c r="B161" s="14"/>
-      <c r="C161" s="63" t="s">
+      <c r="C161" s="57" t="s">
         <v>95</v>
       </c>
-      <c r="D161" s="63"/>
+      <c r="D161" s="57"/>
       <c r="E161" s="25">
         <v>60</v>
       </c>
@@ -7370,10 +7370,10 @@
         <v>3</v>
       </c>
       <c r="B162" s="14"/>
-      <c r="C162" s="63" t="s">
+      <c r="C162" s="57" t="s">
         <v>96</v>
       </c>
-      <c r="D162" s="63"/>
+      <c r="D162" s="57"/>
       <c r="E162" s="25">
         <v>59</v>
       </c>
@@ -7419,10 +7419,10 @@
         <v>4</v>
       </c>
       <c r="B163" s="14"/>
-      <c r="C163" s="63" t="s">
+      <c r="C163" s="57" t="s">
         <v>97</v>
       </c>
-      <c r="D163" s="63"/>
+      <c r="D163" s="57"/>
       <c r="E163" s="25">
         <v>56</v>
       </c>
@@ -7464,10 +7464,10 @@
       </c>
     </row>
     <row r="164" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="C164" s="74" t="s">
+      <c r="C164" s="58" t="s">
         <v>98</v>
       </c>
-      <c r="D164" s="74"/>
+      <c r="D164" s="58"/>
       <c r="E164" s="25">
         <f t="shared" ref="E164:O164" si="12">AVERAGE(E160:E163)</f>
         <v>58.25</v>
@@ -7522,103 +7522,103 @@
       </c>
     </row>
     <row r="170" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A170" s="75" t="s">
+      <c r="A170" s="59" t="s">
         <v>106</v>
       </c>
-      <c r="B170" s="75"/>
-      <c r="C170" s="75"/>
-      <c r="D170" s="75"/>
-      <c r="E170" s="75"/>
-      <c r="F170" s="75"/>
-      <c r="G170" s="75"/>
-      <c r="H170" s="75"/>
-      <c r="I170" s="75"/>
-      <c r="J170" s="75"/>
-      <c r="K170" s="75"/>
-      <c r="L170" s="75"/>
-      <c r="M170" s="75"/>
-      <c r="N170" s="75"/>
-      <c r="O170" s="75"/>
-      <c r="P170" s="75"/>
-      <c r="Q170" s="75"/>
-      <c r="R170" s="75"/>
-      <c r="S170" s="75"/>
-      <c r="T170" s="75"/>
-      <c r="U170" s="75"/>
-      <c r="V170" s="75"/>
-      <c r="W170" s="75"/>
+      <c r="B170" s="59"/>
+      <c r="C170" s="59"/>
+      <c r="D170" s="59"/>
+      <c r="E170" s="59"/>
+      <c r="F170" s="59"/>
+      <c r="G170" s="59"/>
+      <c r="H170" s="59"/>
+      <c r="I170" s="59"/>
+      <c r="J170" s="59"/>
+      <c r="K170" s="59"/>
+      <c r="L170" s="59"/>
+      <c r="M170" s="59"/>
+      <c r="N170" s="59"/>
+      <c r="O170" s="59"/>
+      <c r="P170" s="59"/>
+      <c r="Q170" s="59"/>
+      <c r="R170" s="59"/>
+      <c r="S170" s="59"/>
+      <c r="T170" s="59"/>
+      <c r="U170" s="59"/>
+      <c r="V170" s="59"/>
+      <c r="W170" s="59"/>
     </row>
     <row r="171" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A171" s="75"/>
-      <c r="B171" s="75"/>
-      <c r="C171" s="75"/>
-      <c r="D171" s="75"/>
-      <c r="E171" s="75"/>
-      <c r="F171" s="75"/>
-      <c r="G171" s="75"/>
-      <c r="H171" s="75"/>
-      <c r="I171" s="75"/>
-      <c r="J171" s="75"/>
-      <c r="K171" s="75"/>
-      <c r="L171" s="75"/>
-      <c r="M171" s="75"/>
-      <c r="N171" s="75"/>
-      <c r="O171" s="75"/>
-      <c r="P171" s="75"/>
-      <c r="Q171" s="75"/>
-      <c r="R171" s="75"/>
-      <c r="S171" s="75"/>
-      <c r="T171" s="75"/>
-      <c r="U171" s="75"/>
-      <c r="V171" s="75"/>
-      <c r="W171" s="75"/>
+      <c r="A171" s="59"/>
+      <c r="B171" s="59"/>
+      <c r="C171" s="59"/>
+      <c r="D171" s="59"/>
+      <c r="E171" s="59"/>
+      <c r="F171" s="59"/>
+      <c r="G171" s="59"/>
+      <c r="H171" s="59"/>
+      <c r="I171" s="59"/>
+      <c r="J171" s="59"/>
+      <c r="K171" s="59"/>
+      <c r="L171" s="59"/>
+      <c r="M171" s="59"/>
+      <c r="N171" s="59"/>
+      <c r="O171" s="59"/>
+      <c r="P171" s="59"/>
+      <c r="Q171" s="59"/>
+      <c r="R171" s="59"/>
+      <c r="S171" s="59"/>
+      <c r="T171" s="59"/>
+      <c r="U171" s="59"/>
+      <c r="V171" s="59"/>
+      <c r="W171" s="59"/>
     </row>
     <row r="172" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A172" s="75"/>
-      <c r="B172" s="75"/>
-      <c r="C172" s="75"/>
-      <c r="D172" s="75"/>
-      <c r="E172" s="75"/>
-      <c r="F172" s="75"/>
-      <c r="G172" s="75"/>
-      <c r="H172" s="75"/>
-      <c r="I172" s="75"/>
-      <c r="J172" s="75"/>
-      <c r="K172" s="75"/>
-      <c r="L172" s="75"/>
-      <c r="M172" s="75"/>
-      <c r="N172" s="75"/>
-      <c r="O172" s="75"/>
-      <c r="P172" s="75"/>
-      <c r="Q172" s="75"/>
-      <c r="R172" s="75"/>
-      <c r="S172" s="75"/>
-      <c r="T172" s="75"/>
-      <c r="U172" s="75"/>
-      <c r="V172" s="75"/>
-      <c r="W172" s="75"/>
+      <c r="A172" s="59"/>
+      <c r="B172" s="59"/>
+      <c r="C172" s="59"/>
+      <c r="D172" s="59"/>
+      <c r="E172" s="59"/>
+      <c r="F172" s="59"/>
+      <c r="G172" s="59"/>
+      <c r="H172" s="59"/>
+      <c r="I172" s="59"/>
+      <c r="J172" s="59"/>
+      <c r="K172" s="59"/>
+      <c r="L172" s="59"/>
+      <c r="M172" s="59"/>
+      <c r="N172" s="59"/>
+      <c r="O172" s="59"/>
+      <c r="P172" s="59"/>
+      <c r="Q172" s="59"/>
+      <c r="R172" s="59"/>
+      <c r="S172" s="59"/>
+      <c r="T172" s="59"/>
+      <c r="U172" s="59"/>
+      <c r="V172" s="59"/>
+      <c r="W172" s="59"/>
     </row>
     <row r="173" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A173" s="76" t="s">
+      <c r="A173" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="B173" s="77"/>
-      <c r="C173" s="77"/>
-      <c r="D173" s="77"/>
-      <c r="E173" s="77"/>
-      <c r="F173" s="77"/>
-      <c r="G173" s="77"/>
-      <c r="H173" s="77"/>
-      <c r="I173" s="77"/>
-      <c r="J173" s="77"/>
-      <c r="K173" s="77"/>
-      <c r="L173" s="77"/>
-      <c r="M173" s="77"/>
-      <c r="N173" s="77"/>
-      <c r="O173" s="77"/>
-      <c r="P173" s="77"/>
-      <c r="Q173" s="77"/>
-      <c r="R173" s="78"/>
+      <c r="B173" s="70"/>
+      <c r="C173" s="70"/>
+      <c r="D173" s="70"/>
+      <c r="E173" s="70"/>
+      <c r="F173" s="70"/>
+      <c r="G173" s="70"/>
+      <c r="H173" s="70"/>
+      <c r="I173" s="70"/>
+      <c r="J173" s="70"/>
+      <c r="K173" s="70"/>
+      <c r="L173" s="70"/>
+      <c r="M173" s="70"/>
+      <c r="N173" s="70"/>
+      <c r="O173" s="70"/>
+      <c r="P173" s="70"/>
+      <c r="Q173" s="70"/>
+      <c r="R173" s="71"/>
       <c r="S173" s="38"/>
       <c r="T173" s="38"/>
       <c r="U173" s="38"/>
@@ -7634,17 +7634,17 @@
       <c r="B175" s="46" t="s">
         <v>105</v>
       </c>
-      <c r="C175" s="60" t="s">
+      <c r="C175" s="90" t="s">
         <v>108</v>
       </c>
-      <c r="D175" s="61"/>
-      <c r="E175" s="61"/>
-      <c r="F175" s="61"/>
-      <c r="G175" s="61"/>
-      <c r="H175" s="61"/>
-      <c r="I175" s="61"/>
-      <c r="J175" s="61"/>
-      <c r="K175" s="62"/>
+      <c r="D175" s="91"/>
+      <c r="E175" s="91"/>
+      <c r="F175" s="91"/>
+      <c r="G175" s="91"/>
+      <c r="H175" s="91"/>
+      <c r="I175" s="91"/>
+      <c r="J175" s="91"/>
+      <c r="K175" s="92"/>
       <c r="L175" s="5" t="s">
         <v>2</v>
       </c>
@@ -7684,17 +7684,17 @@
       <c r="B176" s="48">
         <v>44741</v>
       </c>
-      <c r="C176" s="54" t="s">
+      <c r="C176" s="83" t="s">
         <v>43</v>
       </c>
-      <c r="D176" s="55"/>
-      <c r="E176" s="55"/>
-      <c r="F176" s="55"/>
-      <c r="G176" s="55"/>
-      <c r="H176" s="55"/>
-      <c r="I176" s="55"/>
-      <c r="J176" s="55"/>
-      <c r="K176" s="56"/>
+      <c r="D176" s="84"/>
+      <c r="E176" s="84"/>
+      <c r="F176" s="84"/>
+      <c r="G176" s="84"/>
+      <c r="H176" s="84"/>
+      <c r="I176" s="84"/>
+      <c r="J176" s="84"/>
+      <c r="K176" s="85"/>
       <c r="L176" s="6">
         <v>17</v>
       </c>
@@ -7734,17 +7734,17 @@
       <c r="B177" s="48">
         <v>44740</v>
       </c>
-      <c r="C177" s="57" t="s">
+      <c r="C177" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="D177" s="58"/>
-      <c r="E177" s="58"/>
-      <c r="F177" s="58"/>
-      <c r="G177" s="58"/>
-      <c r="H177" s="58"/>
-      <c r="I177" s="58"/>
-      <c r="J177" s="58"/>
-      <c r="K177" s="59"/>
+      <c r="D177" s="88"/>
+      <c r="E177" s="88"/>
+      <c r="F177" s="88"/>
+      <c r="G177" s="88"/>
+      <c r="H177" s="88"/>
+      <c r="I177" s="88"/>
+      <c r="J177" s="88"/>
+      <c r="K177" s="89"/>
       <c r="L177" s="6">
         <v>17</v>
       </c>
@@ -7784,17 +7784,17 @@
       <c r="B178" s="48">
         <v>44765</v>
       </c>
-      <c r="C178" s="57" t="s">
+      <c r="C178" s="87" t="s">
         <v>11</v>
       </c>
-      <c r="D178" s="58"/>
-      <c r="E178" s="58"/>
-      <c r="F178" s="58"/>
-      <c r="G178" s="58"/>
-      <c r="H178" s="58"/>
-      <c r="I178" s="58"/>
-      <c r="J178" s="58"/>
-      <c r="K178" s="59"/>
+      <c r="D178" s="88"/>
+      <c r="E178" s="88"/>
+      <c r="F178" s="88"/>
+      <c r="G178" s="88"/>
+      <c r="H178" s="88"/>
+      <c r="I178" s="88"/>
+      <c r="J178" s="88"/>
+      <c r="K178" s="89"/>
       <c r="L178" s="6">
         <v>17</v>
       </c>
@@ -7834,17 +7834,17 @@
       <c r="B179" s="48">
         <v>44766</v>
       </c>
-      <c r="C179" s="54" t="s">
+      <c r="C179" s="83" t="s">
         <v>48</v>
       </c>
-      <c r="D179" s="55"/>
-      <c r="E179" s="55"/>
-      <c r="F179" s="55"/>
-      <c r="G179" s="55"/>
-      <c r="H179" s="55"/>
-      <c r="I179" s="55"/>
-      <c r="J179" s="55"/>
-      <c r="K179" s="56"/>
+      <c r="D179" s="84"/>
+      <c r="E179" s="84"/>
+      <c r="F179" s="84"/>
+      <c r="G179" s="84"/>
+      <c r="H179" s="84"/>
+      <c r="I179" s="84"/>
+      <c r="J179" s="84"/>
+      <c r="K179" s="85"/>
       <c r="L179" s="6">
         <v>17</v>
       </c>
@@ -7884,17 +7884,17 @@
       <c r="B180" s="48">
         <v>44797</v>
       </c>
-      <c r="C180" s="54" t="s">
+      <c r="C180" s="83" t="s">
         <v>45</v>
       </c>
-      <c r="D180" s="55"/>
-      <c r="E180" s="55"/>
-      <c r="F180" s="55"/>
-      <c r="G180" s="55"/>
-      <c r="H180" s="55"/>
-      <c r="I180" s="55"/>
-      <c r="J180" s="55"/>
-      <c r="K180" s="56"/>
+      <c r="D180" s="84"/>
+      <c r="E180" s="84"/>
+      <c r="F180" s="84"/>
+      <c r="G180" s="84"/>
+      <c r="H180" s="84"/>
+      <c r="I180" s="84"/>
+      <c r="J180" s="84"/>
+      <c r="K180" s="85"/>
       <c r="L180" s="6">
         <v>17</v>
       </c>
@@ -7934,17 +7934,17 @@
       <c r="B181" s="48">
         <v>44797</v>
       </c>
-      <c r="C181" s="54" t="s">
+      <c r="C181" s="83" t="s">
         <v>46</v>
       </c>
-      <c r="D181" s="55"/>
-      <c r="E181" s="55"/>
-      <c r="F181" s="55"/>
-      <c r="G181" s="55"/>
-      <c r="H181" s="55"/>
-      <c r="I181" s="55"/>
-      <c r="J181" s="55"/>
-      <c r="K181" s="56"/>
+      <c r="D181" s="84"/>
+      <c r="E181" s="84"/>
+      <c r="F181" s="84"/>
+      <c r="G181" s="84"/>
+      <c r="H181" s="84"/>
+      <c r="I181" s="84"/>
+      <c r="J181" s="84"/>
+      <c r="K181" s="85"/>
       <c r="L181" s="6">
         <v>17</v>
       </c>
@@ -7982,17 +7982,17 @@
         <v>15</v>
       </c>
       <c r="B182" s="48"/>
-      <c r="C182" s="54" t="s">
+      <c r="C182" s="83" t="s">
         <v>36</v>
       </c>
-      <c r="D182" s="55"/>
-      <c r="E182" s="55"/>
-      <c r="F182" s="55"/>
-      <c r="G182" s="55"/>
-      <c r="H182" s="55"/>
-      <c r="I182" s="55"/>
-      <c r="J182" s="55"/>
-      <c r="K182" s="56"/>
+      <c r="D182" s="84"/>
+      <c r="E182" s="84"/>
+      <c r="F182" s="84"/>
+      <c r="G182" s="84"/>
+      <c r="H182" s="84"/>
+      <c r="I182" s="84"/>
+      <c r="J182" s="84"/>
+      <c r="K182" s="85"/>
       <c r="L182" s="6">
         <v>17</v>
       </c>
@@ -8032,17 +8032,17 @@
       <c r="B183" s="48">
         <v>44813</v>
       </c>
-      <c r="C183" s="54" t="s">
+      <c r="C183" s="83" t="s">
         <v>37</v>
       </c>
-      <c r="D183" s="55"/>
-      <c r="E183" s="55"/>
-      <c r="F183" s="55"/>
-      <c r="G183" s="55"/>
-      <c r="H183" s="55"/>
-      <c r="I183" s="55"/>
-      <c r="J183" s="55"/>
-      <c r="K183" s="56"/>
+      <c r="D183" s="84"/>
+      <c r="E183" s="84"/>
+      <c r="F183" s="84"/>
+      <c r="G183" s="84"/>
+      <c r="H183" s="84"/>
+      <c r="I183" s="84"/>
+      <c r="J183" s="84"/>
+      <c r="K183" s="85"/>
       <c r="L183" s="6">
         <v>17</v>
       </c>
@@ -8082,17 +8082,17 @@
       <c r="B184" s="48">
         <v>44822</v>
       </c>
-      <c r="C184" s="54" t="s">
+      <c r="C184" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="D184" s="55"/>
-      <c r="E184" s="55"/>
-      <c r="F184" s="55"/>
-      <c r="G184" s="55"/>
-      <c r="H184" s="55"/>
-      <c r="I184" s="55"/>
-      <c r="J184" s="55"/>
-      <c r="K184" s="56"/>
+      <c r="D184" s="84"/>
+      <c r="E184" s="84"/>
+      <c r="F184" s="84"/>
+      <c r="G184" s="84"/>
+      <c r="H184" s="84"/>
+      <c r="I184" s="84"/>
+      <c r="J184" s="84"/>
+      <c r="K184" s="85"/>
       <c r="L184" s="6">
         <v>17</v>
       </c>
@@ -8132,17 +8132,17 @@
       <c r="B185" s="48">
         <v>44822</v>
       </c>
-      <c r="C185" s="54" t="s">
+      <c r="C185" s="83" t="s">
         <v>40</v>
       </c>
-      <c r="D185" s="55"/>
-      <c r="E185" s="55"/>
-      <c r="F185" s="55"/>
-      <c r="G185" s="55"/>
-      <c r="H185" s="55"/>
-      <c r="I185" s="55"/>
-      <c r="J185" s="55"/>
-      <c r="K185" s="56"/>
+      <c r="D185" s="84"/>
+      <c r="E185" s="84"/>
+      <c r="F185" s="84"/>
+      <c r="G185" s="84"/>
+      <c r="H185" s="84"/>
+      <c r="I185" s="84"/>
+      <c r="J185" s="84"/>
+      <c r="K185" s="85"/>
       <c r="L185" s="6">
         <v>17</v>
       </c>
@@ -8182,17 +8182,17 @@
       <c r="B186" s="48">
         <v>44844</v>
       </c>
-      <c r="C186" s="57" t="s">
+      <c r="C186" s="87" t="s">
         <v>7</v>
       </c>
-      <c r="D186" s="58"/>
-      <c r="E186" s="58"/>
-      <c r="F186" s="58"/>
-      <c r="G186" s="58"/>
-      <c r="H186" s="58"/>
-      <c r="I186" s="58"/>
-      <c r="J186" s="58"/>
-      <c r="K186" s="59"/>
+      <c r="D186" s="88"/>
+      <c r="E186" s="88"/>
+      <c r="F186" s="88"/>
+      <c r="G186" s="88"/>
+      <c r="H186" s="88"/>
+      <c r="I186" s="88"/>
+      <c r="J186" s="88"/>
+      <c r="K186" s="89"/>
       <c r="L186" s="6">
         <v>17</v>
       </c>
@@ -8232,17 +8232,17 @@
       <c r="B187" s="48">
         <v>44844</v>
       </c>
-      <c r="C187" s="54" t="s">
+      <c r="C187" s="83" t="s">
         <v>38</v>
       </c>
-      <c r="D187" s="55"/>
-      <c r="E187" s="55"/>
-      <c r="F187" s="55"/>
-      <c r="G187" s="55"/>
-      <c r="H187" s="55"/>
-      <c r="I187" s="55"/>
-      <c r="J187" s="55"/>
-      <c r="K187" s="56"/>
+      <c r="D187" s="84"/>
+      <c r="E187" s="84"/>
+      <c r="F187" s="84"/>
+      <c r="G187" s="84"/>
+      <c r="H187" s="84"/>
+      <c r="I187" s="84"/>
+      <c r="J187" s="84"/>
+      <c r="K187" s="85"/>
       <c r="L187" s="6">
         <v>17</v>
       </c>
@@ -8282,17 +8282,17 @@
       <c r="B188" s="48">
         <v>44849</v>
       </c>
-      <c r="C188" s="57" t="s">
+      <c r="C188" s="87" t="s">
         <v>5</v>
       </c>
-      <c r="D188" s="58"/>
-      <c r="E188" s="58"/>
-      <c r="F188" s="58"/>
-      <c r="G188" s="58"/>
-      <c r="H188" s="58"/>
-      <c r="I188" s="58"/>
-      <c r="J188" s="58"/>
-      <c r="K188" s="59"/>
+      <c r="D188" s="88"/>
+      <c r="E188" s="88"/>
+      <c r="F188" s="88"/>
+      <c r="G188" s="88"/>
+      <c r="H188" s="88"/>
+      <c r="I188" s="88"/>
+      <c r="J188" s="88"/>
+      <c r="K188" s="89"/>
       <c r="L188" s="6">
         <v>17</v>
       </c>
@@ -8320,17 +8320,17 @@
       <c r="B189" s="48">
         <v>44849</v>
       </c>
-      <c r="C189" s="54" t="s">
+      <c r="C189" s="83" t="s">
         <v>33</v>
       </c>
-      <c r="D189" s="55"/>
-      <c r="E189" s="55"/>
-      <c r="F189" s="55"/>
-      <c r="G189" s="55"/>
-      <c r="H189" s="55"/>
-      <c r="I189" s="55"/>
-      <c r="J189" s="55"/>
-      <c r="K189" s="56"/>
+      <c r="D189" s="84"/>
+      <c r="E189" s="84"/>
+      <c r="F189" s="84"/>
+      <c r="G189" s="84"/>
+      <c r="H189" s="84"/>
+      <c r="I189" s="84"/>
+      <c r="J189" s="84"/>
+      <c r="K189" s="85"/>
       <c r="L189" s="6">
         <v>17</v>
       </c>
@@ -8358,17 +8358,17 @@
       <c r="B190" s="48">
         <v>44851</v>
       </c>
-      <c r="C190" s="57" t="s">
+      <c r="C190" s="87" t="s">
         <v>9</v>
       </c>
-      <c r="D190" s="58"/>
-      <c r="E190" s="58"/>
-      <c r="F190" s="58"/>
-      <c r="G190" s="58"/>
-      <c r="H190" s="58"/>
-      <c r="I190" s="58"/>
-      <c r="J190" s="58"/>
-      <c r="K190" s="59"/>
+      <c r="D190" s="88"/>
+      <c r="E190" s="88"/>
+      <c r="F190" s="88"/>
+      <c r="G190" s="88"/>
+      <c r="H190" s="88"/>
+      <c r="I190" s="88"/>
+      <c r="J190" s="88"/>
+      <c r="K190" s="89"/>
       <c r="L190" s="6">
         <v>17</v>
       </c>
@@ -8396,17 +8396,17 @@
       <c r="B191" s="48">
         <v>44851</v>
       </c>
-      <c r="C191" s="57" t="s">
+      <c r="C191" s="87" t="s">
         <v>44</v>
       </c>
-      <c r="D191" s="58"/>
-      <c r="E191" s="58"/>
-      <c r="F191" s="58"/>
-      <c r="G191" s="58"/>
-      <c r="H191" s="58"/>
-      <c r="I191" s="58"/>
-      <c r="J191" s="58"/>
-      <c r="K191" s="59"/>
+      <c r="D191" s="88"/>
+      <c r="E191" s="88"/>
+      <c r="F191" s="88"/>
+      <c r="G191" s="88"/>
+      <c r="H191" s="88"/>
+      <c r="I191" s="88"/>
+      <c r="J191" s="88"/>
+      <c r="K191" s="89"/>
       <c r="L191" s="6">
         <v>17</v>
       </c>
@@ -8434,17 +8434,17 @@
       <c r="B192" s="48">
         <v>44854</v>
       </c>
-      <c r="C192" s="57" t="s">
+      <c r="C192" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="D192" s="58"/>
-      <c r="E192" s="58"/>
-      <c r="F192" s="58"/>
-      <c r="G192" s="58"/>
-      <c r="H192" s="58"/>
-      <c r="I192" s="58"/>
-      <c r="J192" s="58"/>
-      <c r="K192" s="59"/>
+      <c r="D192" s="88"/>
+      <c r="E192" s="88"/>
+      <c r="F192" s="88"/>
+      <c r="G192" s="88"/>
+      <c r="H192" s="88"/>
+      <c r="I192" s="88"/>
+      <c r="J192" s="88"/>
+      <c r="K192" s="89"/>
       <c r="L192" s="6">
         <v>17</v>
       </c>
@@ -8472,17 +8472,17 @@
       <c r="B193" s="48">
         <v>44854</v>
       </c>
-      <c r="C193" s="54" t="s">
+      <c r="C193" s="83" t="s">
         <v>49</v>
       </c>
-      <c r="D193" s="58"/>
-      <c r="E193" s="58"/>
-      <c r="F193" s="58"/>
-      <c r="G193" s="58"/>
-      <c r="H193" s="58"/>
-      <c r="I193" s="58"/>
-      <c r="J193" s="58"/>
-      <c r="K193" s="59"/>
+      <c r="D193" s="88"/>
+      <c r="E193" s="88"/>
+      <c r="F193" s="88"/>
+      <c r="G193" s="88"/>
+      <c r="H193" s="88"/>
+      <c r="I193" s="88"/>
+      <c r="J193" s="88"/>
+      <c r="K193" s="89"/>
       <c r="L193" s="6">
         <v>17</v>
       </c>
@@ -8510,17 +8510,17 @@
       <c r="B194" s="48">
         <v>44864</v>
       </c>
-      <c r="C194" s="54" t="s">
+      <c r="C194" s="83" t="s">
         <v>34</v>
       </c>
-      <c r="D194" s="55"/>
-      <c r="E194" s="55"/>
-      <c r="F194" s="55"/>
-      <c r="G194" s="55"/>
-      <c r="H194" s="55"/>
-      <c r="I194" s="55"/>
-      <c r="J194" s="55"/>
-      <c r="K194" s="56"/>
+      <c r="D194" s="84"/>
+      <c r="E194" s="84"/>
+      <c r="F194" s="84"/>
+      <c r="G194" s="84"/>
+      <c r="H194" s="84"/>
+      <c r="I194" s="84"/>
+      <c r="J194" s="84"/>
+      <c r="K194" s="85"/>
       <c r="L194" s="6">
         <v>17</v>
       </c>
@@ -8548,17 +8548,17 @@
       <c r="B195" s="48">
         <v>44864</v>
       </c>
-      <c r="C195" s="57" t="s">
+      <c r="C195" s="87" t="s">
         <v>35</v>
       </c>
-      <c r="D195" s="58"/>
-      <c r="E195" s="58"/>
-      <c r="F195" s="58"/>
-      <c r="G195" s="58"/>
-      <c r="H195" s="58"/>
-      <c r="I195" s="58"/>
-      <c r="J195" s="58"/>
-      <c r="K195" s="59"/>
+      <c r="D195" s="88"/>
+      <c r="E195" s="88"/>
+      <c r="F195" s="88"/>
+      <c r="G195" s="88"/>
+      <c r="H195" s="88"/>
+      <c r="I195" s="88"/>
+      <c r="J195" s="88"/>
+      <c r="K195" s="89"/>
       <c r="L195" s="6">
         <v>17</v>
       </c>
@@ -8586,17 +8586,17 @@
       <c r="B196" s="48">
         <v>44870</v>
       </c>
-      <c r="C196" s="57" t="s">
+      <c r="C196" s="87" t="s">
         <v>10</v>
       </c>
-      <c r="D196" s="58"/>
-      <c r="E196" s="58"/>
-      <c r="F196" s="58"/>
-      <c r="G196" s="58"/>
-      <c r="H196" s="58"/>
-      <c r="I196" s="58"/>
-      <c r="J196" s="58"/>
-      <c r="K196" s="59"/>
+      <c r="D196" s="88"/>
+      <c r="E196" s="88"/>
+      <c r="F196" s="88"/>
+      <c r="G196" s="88"/>
+      <c r="H196" s="88"/>
+      <c r="I196" s="88"/>
+      <c r="J196" s="88"/>
+      <c r="K196" s="89"/>
       <c r="L196" s="6">
         <v>17</v>
       </c>
@@ -8624,17 +8624,17 @@
       <c r="B197" s="48">
         <v>44870</v>
       </c>
-      <c r="C197" s="57" t="s">
+      <c r="C197" s="87" t="s">
         <v>47</v>
       </c>
-      <c r="D197" s="58"/>
-      <c r="E197" s="58"/>
-      <c r="F197" s="58"/>
-      <c r="G197" s="58"/>
-      <c r="H197" s="58"/>
-      <c r="I197" s="58"/>
-      <c r="J197" s="58"/>
-      <c r="K197" s="59"/>
+      <c r="D197" s="88"/>
+      <c r="E197" s="88"/>
+      <c r="F197" s="88"/>
+      <c r="G197" s="88"/>
+      <c r="H197" s="88"/>
+      <c r="I197" s="88"/>
+      <c r="J197" s="88"/>
+      <c r="K197" s="89"/>
       <c r="L197" s="6">
         <v>17</v>
       </c>
@@ -8660,17 +8660,17 @@
         <v>23</v>
       </c>
       <c r="B198" s="48"/>
-      <c r="C198" s="54" t="s">
+      <c r="C198" s="83" t="s">
         <v>41</v>
       </c>
-      <c r="D198" s="55"/>
-      <c r="E198" s="55"/>
-      <c r="F198" s="55"/>
-      <c r="G198" s="55"/>
-      <c r="H198" s="55"/>
-      <c r="I198" s="55"/>
-      <c r="J198" s="55"/>
-      <c r="K198" s="56"/>
+      <c r="D198" s="84"/>
+      <c r="E198" s="84"/>
+      <c r="F198" s="84"/>
+      <c r="G198" s="84"/>
+      <c r="H198" s="84"/>
+      <c r="I198" s="84"/>
+      <c r="J198" s="84"/>
+      <c r="K198" s="85"/>
       <c r="L198" s="6">
         <v>17</v>
       </c>
@@ -8696,17 +8696,17 @@
         <v>24</v>
       </c>
       <c r="B199" s="48"/>
-      <c r="C199" s="54" t="s">
+      <c r="C199" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="D199" s="55"/>
-      <c r="E199" s="55"/>
-      <c r="F199" s="55"/>
-      <c r="G199" s="55"/>
-      <c r="H199" s="55"/>
-      <c r="I199" s="55"/>
-      <c r="J199" s="55"/>
-      <c r="K199" s="56"/>
+      <c r="D199" s="84"/>
+      <c r="E199" s="84"/>
+      <c r="F199" s="84"/>
+      <c r="G199" s="84"/>
+      <c r="H199" s="84"/>
+      <c r="I199" s="84"/>
+      <c r="J199" s="84"/>
+      <c r="K199" s="85"/>
       <c r="L199" s="6">
         <v>17</v>
       </c>
@@ -8732,20 +8732,20 @@
         <v>25</v>
       </c>
       <c r="B200" s="47"/>
-      <c r="C200" s="66" t="s">
+      <c r="C200" s="60" t="s">
         <v>58</v>
       </c>
-      <c r="D200" s="67"/>
-      <c r="E200" s="67"/>
-      <c r="F200" s="67"/>
-      <c r="G200" s="67"/>
-      <c r="H200" s="67"/>
-      <c r="I200" s="67"/>
-      <c r="J200" s="67"/>
-      <c r="K200" s="67"/>
-      <c r="L200" s="67"/>
-      <c r="M200" s="67"/>
-      <c r="N200" s="68"/>
+      <c r="D200" s="61"/>
+      <c r="E200" s="61"/>
+      <c r="F200" s="61"/>
+      <c r="G200" s="61"/>
+      <c r="H200" s="61"/>
+      <c r="I200" s="61"/>
+      <c r="J200" s="61"/>
+      <c r="K200" s="61"/>
+      <c r="L200" s="61"/>
+      <c r="M200" s="61"/>
+      <c r="N200" s="62"/>
       <c r="O200" s="11"/>
       <c r="P200" s="12">
         <f t="shared" ref="P200:U200" si="15">AVERAGE(P176:P199)</f>
@@ -8782,26 +8782,26 @@
       <c r="R202"/>
     </row>
     <row r="203" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A203" s="82" t="s">
+      <c r="A203" s="76" t="s">
         <v>13</v>
       </c>
-      <c r="B203" s="83"/>
-      <c r="C203" s="83"/>
-      <c r="D203" s="83"/>
-      <c r="E203" s="83"/>
-      <c r="F203" s="83"/>
-      <c r="G203" s="83"/>
-      <c r="H203" s="83"/>
-      <c r="I203" s="83"/>
-      <c r="J203" s="83"/>
-      <c r="K203" s="83"/>
-      <c r="L203" s="83"/>
-      <c r="M203" s="83"/>
-      <c r="N203" s="83"/>
-      <c r="O203" s="83"/>
-      <c r="P203" s="83"/>
-      <c r="Q203" s="83"/>
-      <c r="R203" s="84"/>
+      <c r="B203" s="77"/>
+      <c r="C203" s="77"/>
+      <c r="D203" s="77"/>
+      <c r="E203" s="77"/>
+      <c r="F203" s="77"/>
+      <c r="G203" s="77"/>
+      <c r="H203" s="77"/>
+      <c r="I203" s="77"/>
+      <c r="J203" s="77"/>
+      <c r="K203" s="77"/>
+      <c r="L203" s="77"/>
+      <c r="M203" s="77"/>
+      <c r="N203" s="77"/>
+      <c r="O203" s="77"/>
+      <c r="P203" s="77"/>
+      <c r="Q203" s="77"/>
+      <c r="R203" s="78"/>
       <c r="S203" s="15"/>
       <c r="T203" s="15"/>
       <c r="U203" s="15"/>
@@ -8811,17 +8811,17 @@
         <v>1</v>
       </c>
       <c r="B205" s="5"/>
-      <c r="C205" s="72" t="s">
+      <c r="C205" s="73" t="s">
         <v>56</v>
       </c>
-      <c r="D205" s="72"/>
-      <c r="E205" s="72"/>
-      <c r="F205" s="72"/>
-      <c r="G205" s="72"/>
-      <c r="H205" s="72"/>
-      <c r="I205" s="72"/>
-      <c r="J205" s="72"/>
-      <c r="K205" s="72"/>
+      <c r="D205" s="73"/>
+      <c r="E205" s="73"/>
+      <c r="F205" s="73"/>
+      <c r="G205" s="73"/>
+      <c r="H205" s="73"/>
+      <c r="I205" s="73"/>
+      <c r="J205" s="73"/>
+      <c r="K205" s="73"/>
       <c r="L205" s="5" t="s">
         <v>2</v>
       </c>
@@ -8858,17 +8858,17 @@
         <v>1</v>
       </c>
       <c r="B206" s="1"/>
-      <c r="C206" s="73" t="s">
+      <c r="C206" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="D206" s="73"/>
-      <c r="E206" s="73"/>
-      <c r="F206" s="73"/>
-      <c r="G206" s="73"/>
-      <c r="H206" s="73"/>
-      <c r="I206" s="73"/>
-      <c r="J206" s="73"/>
-      <c r="K206" s="73"/>
+      <c r="D206" s="74"/>
+      <c r="E206" s="74"/>
+      <c r="F206" s="74"/>
+      <c r="G206" s="74"/>
+      <c r="H206" s="74"/>
+      <c r="I206" s="74"/>
+      <c r="J206" s="74"/>
+      <c r="K206" s="74"/>
       <c r="L206" s="6">
         <v>33</v>
       </c>
@@ -8894,17 +8894,17 @@
         <v>2</v>
       </c>
       <c r="B207" s="1"/>
-      <c r="C207" s="64" t="s">
+      <c r="C207" s="66" t="s">
         <v>16</v>
       </c>
-      <c r="D207" s="65"/>
-      <c r="E207" s="65"/>
-      <c r="F207" s="65"/>
-      <c r="G207" s="65"/>
-      <c r="H207" s="65"/>
-      <c r="I207" s="65"/>
-      <c r="J207" s="65"/>
-      <c r="K207" s="65"/>
+      <c r="D207" s="67"/>
+      <c r="E207" s="67"/>
+      <c r="F207" s="67"/>
+      <c r="G207" s="67"/>
+      <c r="H207" s="67"/>
+      <c r="I207" s="67"/>
+      <c r="J207" s="67"/>
+      <c r="K207" s="67"/>
       <c r="L207" s="6">
         <v>33</v>
       </c>
@@ -8930,17 +8930,17 @@
         <v>3</v>
       </c>
       <c r="B208" s="1"/>
-      <c r="C208" s="64" t="s">
+      <c r="C208" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="D208" s="65"/>
-      <c r="E208" s="65"/>
-      <c r="F208" s="65"/>
-      <c r="G208" s="65"/>
-      <c r="H208" s="65"/>
-      <c r="I208" s="65"/>
-      <c r="J208" s="65"/>
-      <c r="K208" s="65"/>
+      <c r="D208" s="67"/>
+      <c r="E208" s="67"/>
+      <c r="F208" s="67"/>
+      <c r="G208" s="67"/>
+      <c r="H208" s="67"/>
+      <c r="I208" s="67"/>
+      <c r="J208" s="67"/>
+      <c r="K208" s="67"/>
       <c r="L208" s="6">
         <v>33</v>
       </c>
@@ -8978,17 +8978,17 @@
         <v>4</v>
       </c>
       <c r="B209" s="1"/>
-      <c r="C209" s="65" t="s">
+      <c r="C209" s="67" t="s">
         <v>18</v>
       </c>
-      <c r="D209" s="65"/>
-      <c r="E209" s="65"/>
-      <c r="F209" s="65"/>
-      <c r="G209" s="65"/>
-      <c r="H209" s="65"/>
-      <c r="I209" s="65"/>
-      <c r="J209" s="65"/>
-      <c r="K209" s="65"/>
+      <c r="D209" s="67"/>
+      <c r="E209" s="67"/>
+      <c r="F209" s="67"/>
+      <c r="G209" s="67"/>
+      <c r="H209" s="67"/>
+      <c r="I209" s="67"/>
+      <c r="J209" s="67"/>
+      <c r="K209" s="67"/>
       <c r="L209" s="6">
         <v>33</v>
       </c>
@@ -9026,17 +9026,17 @@
         <v>5</v>
       </c>
       <c r="B210" s="1"/>
-      <c r="C210" s="64" t="s">
+      <c r="C210" s="66" t="s">
         <v>61</v>
       </c>
-      <c r="D210" s="65"/>
-      <c r="E210" s="65"/>
-      <c r="F210" s="65"/>
-      <c r="G210" s="65"/>
-      <c r="H210" s="65"/>
-      <c r="I210" s="65"/>
-      <c r="J210" s="65"/>
-      <c r="K210" s="65"/>
+      <c r="D210" s="67"/>
+      <c r="E210" s="67"/>
+      <c r="F210" s="67"/>
+      <c r="G210" s="67"/>
+      <c r="H210" s="67"/>
+      <c r="I210" s="67"/>
+      <c r="J210" s="67"/>
+      <c r="K210" s="67"/>
       <c r="L210" s="6">
         <v>33</v>
       </c>
@@ -9074,17 +9074,17 @@
         <v>6</v>
       </c>
       <c r="B211" s="1"/>
-      <c r="C211" s="64" t="s">
+      <c r="C211" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="D211" s="65"/>
-      <c r="E211" s="65"/>
-      <c r="F211" s="65"/>
-      <c r="G211" s="65"/>
-      <c r="H211" s="65"/>
-      <c r="I211" s="65"/>
-      <c r="J211" s="65"/>
-      <c r="K211" s="65"/>
+      <c r="D211" s="67"/>
+      <c r="E211" s="67"/>
+      <c r="F211" s="67"/>
+      <c r="G211" s="67"/>
+      <c r="H211" s="67"/>
+      <c r="I211" s="67"/>
+      <c r="J211" s="67"/>
+      <c r="K211" s="67"/>
       <c r="L211" s="6">
         <v>33</v>
       </c>
@@ -9110,17 +9110,17 @@
         <v>7</v>
       </c>
       <c r="B212" s="1"/>
-      <c r="C212" s="65" t="s">
+      <c r="C212" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="D212" s="65"/>
-      <c r="E212" s="65"/>
-      <c r="F212" s="65"/>
-      <c r="G212" s="65"/>
-      <c r="H212" s="65"/>
-      <c r="I212" s="65"/>
-      <c r="J212" s="65"/>
-      <c r="K212" s="65"/>
+      <c r="D212" s="67"/>
+      <c r="E212" s="67"/>
+      <c r="F212" s="67"/>
+      <c r="G212" s="67"/>
+      <c r="H212" s="67"/>
+      <c r="I212" s="67"/>
+      <c r="J212" s="67"/>
+      <c r="K212" s="67"/>
       <c r="L212" s="6">
         <v>33</v>
       </c>
@@ -9130,15 +9130,27 @@
       <c r="N212" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="O212" s="6"/>
-      <c r="P212" s="6"/>
-      <c r="Q212" s="6"/>
-      <c r="R212" s="6"/>
-      <c r="S212" s="6"/>
-      <c r="T212" s="6"/>
-      <c r="U212" s="6" t="e">
+      <c r="O212" s="48">
+        <v>44845</v>
+      </c>
+      <c r="P212" s="6">
+        <v>28.69</v>
+      </c>
+      <c r="Q212" s="6">
+        <v>57.38</v>
+      </c>
+      <c r="R212" s="6">
+        <v>34</v>
+      </c>
+      <c r="S212" s="6">
+        <v>128</v>
+      </c>
+      <c r="T212" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="U212" s="6">
         <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
+        <v>74.21875</v>
       </c>
     </row>
     <row r="213" spans="1:21" x14ac:dyDescent="0.3">
@@ -9146,17 +9158,17 @@
         <v>8</v>
       </c>
       <c r="B213" s="1"/>
-      <c r="C213" s="64" t="s">
+      <c r="C213" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="D213" s="65"/>
-      <c r="E213" s="65"/>
-      <c r="F213" s="65"/>
-      <c r="G213" s="65"/>
-      <c r="H213" s="65"/>
-      <c r="I213" s="65"/>
-      <c r="J213" s="65"/>
-      <c r="K213" s="65"/>
+      <c r="D213" s="67"/>
+      <c r="E213" s="67"/>
+      <c r="F213" s="67"/>
+      <c r="G213" s="67"/>
+      <c r="H213" s="67"/>
+      <c r="I213" s="67"/>
+      <c r="J213" s="67"/>
+      <c r="K213" s="67"/>
       <c r="L213" s="6">
         <v>33</v>
       </c>
@@ -9182,17 +9194,17 @@
         <v>9</v>
       </c>
       <c r="B214" s="1"/>
-      <c r="C214" s="64" t="s">
+      <c r="C214" s="66" t="s">
         <v>62</v>
       </c>
-      <c r="D214" s="65"/>
-      <c r="E214" s="65"/>
-      <c r="F214" s="65"/>
-      <c r="G214" s="65"/>
-      <c r="H214" s="65"/>
-      <c r="I214" s="65"/>
-      <c r="J214" s="65"/>
-      <c r="K214" s="65"/>
+      <c r="D214" s="67"/>
+      <c r="E214" s="67"/>
+      <c r="F214" s="67"/>
+      <c r="G214" s="67"/>
+      <c r="H214" s="67"/>
+      <c r="I214" s="67"/>
+      <c r="J214" s="67"/>
+      <c r="K214" s="67"/>
       <c r="L214" s="6">
         <v>33</v>
       </c>
@@ -9230,17 +9242,17 @@
         <v>10</v>
       </c>
       <c r="B215" s="1"/>
-      <c r="C215" s="64" t="s">
+      <c r="C215" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="D215" s="65"/>
-      <c r="E215" s="65"/>
-      <c r="F215" s="65"/>
-      <c r="G215" s="65"/>
-      <c r="H215" s="65"/>
-      <c r="I215" s="65"/>
-      <c r="J215" s="65"/>
-      <c r="K215" s="65"/>
+      <c r="D215" s="67"/>
+      <c r="E215" s="67"/>
+      <c r="F215" s="67"/>
+      <c r="G215" s="67"/>
+      <c r="H215" s="67"/>
+      <c r="I215" s="67"/>
+      <c r="J215" s="67"/>
+      <c r="K215" s="67"/>
       <c r="L215" s="6">
         <v>33</v>
       </c>
@@ -9266,17 +9278,17 @@
         <v>11</v>
       </c>
       <c r="B216" s="1"/>
-      <c r="C216" s="64" t="s">
+      <c r="C216" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="D216" s="65"/>
-      <c r="E216" s="65"/>
-      <c r="F216" s="65"/>
-      <c r="G216" s="65"/>
-      <c r="H216" s="65"/>
-      <c r="I216" s="65"/>
-      <c r="J216" s="65"/>
-      <c r="K216" s="65"/>
+      <c r="D216" s="67"/>
+      <c r="E216" s="67"/>
+      <c r="F216" s="67"/>
+      <c r="G216" s="67"/>
+      <c r="H216" s="67"/>
+      <c r="I216" s="67"/>
+      <c r="J216" s="67"/>
+      <c r="K216" s="67"/>
       <c r="L216" s="6">
         <v>33</v>
       </c>
@@ -9302,17 +9314,17 @@
         <v>12</v>
       </c>
       <c r="B217" s="1"/>
-      <c r="C217" s="64" t="s">
+      <c r="C217" s="66" t="s">
         <v>63</v>
       </c>
-      <c r="D217" s="65"/>
-      <c r="E217" s="65"/>
-      <c r="F217" s="65"/>
-      <c r="G217" s="65"/>
-      <c r="H217" s="65"/>
-      <c r="I217" s="65"/>
-      <c r="J217" s="65"/>
-      <c r="K217" s="65"/>
+      <c r="D217" s="67"/>
+      <c r="E217" s="67"/>
+      <c r="F217" s="67"/>
+      <c r="G217" s="67"/>
+      <c r="H217" s="67"/>
+      <c r="I217" s="67"/>
+      <c r="J217" s="67"/>
+      <c r="K217" s="67"/>
       <c r="L217" s="6">
         <v>33</v>
       </c>
@@ -9350,41 +9362,41 @@
         <v>13</v>
       </c>
       <c r="B218" s="1"/>
-      <c r="C218" s="66" t="s">
+      <c r="C218" s="60" t="s">
         <v>58</v>
       </c>
-      <c r="D218" s="67"/>
-      <c r="E218" s="67"/>
-      <c r="F218" s="67"/>
-      <c r="G218" s="67"/>
-      <c r="H218" s="67"/>
-      <c r="I218" s="67"/>
-      <c r="J218" s="67"/>
-      <c r="K218" s="67"/>
-      <c r="L218" s="67"/>
-      <c r="M218" s="67"/>
-      <c r="N218" s="68"/>
+      <c r="D218" s="61"/>
+      <c r="E218" s="61"/>
+      <c r="F218" s="61"/>
+      <c r="G218" s="61"/>
+      <c r="H218" s="61"/>
+      <c r="I218" s="61"/>
+      <c r="J218" s="61"/>
+      <c r="K218" s="61"/>
+      <c r="L218" s="61"/>
+      <c r="M218" s="61"/>
+      <c r="N218" s="62"/>
       <c r="O218" s="11"/>
       <c r="P218" s="12">
         <f>AVERAGE(P206:P217)</f>
-        <v>31.951999999999998</v>
+        <v>31.408333333333331</v>
       </c>
       <c r="Q218" s="12">
         <f>AVERAGE(Q206:Q217)</f>
-        <v>63.963999999999999</v>
+        <v>62.866666666666674</v>
       </c>
       <c r="R218" s="12">
         <f t="shared" ref="R218:S218" si="17">AVERAGE(R206:R217)</f>
-        <v>6</v>
+        <v>10.666666666666666</v>
       </c>
       <c r="S218" s="12">
         <f t="shared" si="17"/>
-        <v>47.4</v>
+        <v>60.833333333333336</v>
       </c>
       <c r="T218" s="11"/>
       <c r="U218" s="6">
         <f t="shared" si="16"/>
-        <v>89.451476793248943</v>
+        <v>84.109589041095902</v>
       </c>
     </row>
     <row r="219" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -9393,26 +9405,26 @@
       <c r="Q219" s="52"/>
     </row>
     <row r="220" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A220" s="69" t="s">
+      <c r="A220" s="63" t="s">
         <v>24</v>
       </c>
-      <c r="B220" s="70"/>
-      <c r="C220" s="70"/>
-      <c r="D220" s="70"/>
-      <c r="E220" s="70"/>
-      <c r="F220" s="70"/>
-      <c r="G220" s="70"/>
-      <c r="H220" s="70"/>
-      <c r="I220" s="70"/>
-      <c r="J220" s="70"/>
-      <c r="K220" s="70"/>
-      <c r="L220" s="70"/>
-      <c r="M220" s="70"/>
-      <c r="N220" s="70"/>
-      <c r="O220" s="70"/>
-      <c r="P220" s="70"/>
-      <c r="Q220" s="70"/>
-      <c r="R220" s="71"/>
+      <c r="B220" s="64"/>
+      <c r="C220" s="64"/>
+      <c r="D220" s="64"/>
+      <c r="E220" s="64"/>
+      <c r="F220" s="64"/>
+      <c r="G220" s="64"/>
+      <c r="H220" s="64"/>
+      <c r="I220" s="64"/>
+      <c r="J220" s="64"/>
+      <c r="K220" s="64"/>
+      <c r="L220" s="64"/>
+      <c r="M220" s="64"/>
+      <c r="N220" s="64"/>
+      <c r="O220" s="64"/>
+      <c r="P220" s="64"/>
+      <c r="Q220" s="64"/>
+      <c r="R220" s="65"/>
       <c r="S220" s="3"/>
       <c r="T220" s="3"/>
       <c r="U220" s="3"/>
@@ -9422,17 +9434,17 @@
         <v>1</v>
       </c>
       <c r="B222" s="5"/>
-      <c r="C222" s="72" t="s">
+      <c r="C222" s="73" t="s">
         <v>108</v>
       </c>
-      <c r="D222" s="72"/>
-      <c r="E222" s="72"/>
-      <c r="F222" s="72"/>
-      <c r="G222" s="72"/>
-      <c r="H222" s="72"/>
-      <c r="I222" s="72"/>
-      <c r="J222" s="72"/>
-      <c r="K222" s="72"/>
+      <c r="D222" s="73"/>
+      <c r="E222" s="73"/>
+      <c r="F222" s="73"/>
+      <c r="G222" s="73"/>
+      <c r="H222" s="73"/>
+      <c r="I222" s="73"/>
+      <c r="J222" s="73"/>
+      <c r="K222" s="73"/>
       <c r="L222" s="5" t="s">
         <v>2</v>
       </c>
@@ -9469,17 +9481,17 @@
         <v>1</v>
       </c>
       <c r="B223" s="1"/>
-      <c r="C223" s="73" t="s">
+      <c r="C223" s="74" t="s">
         <v>65</v>
       </c>
-      <c r="D223" s="73"/>
-      <c r="E223" s="73"/>
-      <c r="F223" s="73"/>
-      <c r="G223" s="73"/>
-      <c r="H223" s="73"/>
-      <c r="I223" s="73"/>
-      <c r="J223" s="73"/>
-      <c r="K223" s="73"/>
+      <c r="D223" s="74"/>
+      <c r="E223" s="74"/>
+      <c r="F223" s="74"/>
+      <c r="G223" s="74"/>
+      <c r="H223" s="74"/>
+      <c r="I223" s="74"/>
+      <c r="J223" s="74"/>
+      <c r="K223" s="74"/>
       <c r="L223" s="6">
         <v>33</v>
       </c>
@@ -9502,17 +9514,17 @@
         <v>2</v>
       </c>
       <c r="B224" s="1"/>
-      <c r="C224" s="64" t="s">
+      <c r="C224" s="66" t="s">
         <v>66</v>
       </c>
-      <c r="D224" s="65"/>
-      <c r="E224" s="65"/>
-      <c r="F224" s="65"/>
-      <c r="G224" s="65"/>
-      <c r="H224" s="65"/>
-      <c r="I224" s="65"/>
-      <c r="J224" s="65"/>
-      <c r="K224" s="65"/>
+      <c r="D224" s="67"/>
+      <c r="E224" s="67"/>
+      <c r="F224" s="67"/>
+      <c r="G224" s="67"/>
+      <c r="H224" s="67"/>
+      <c r="I224" s="67"/>
+      <c r="J224" s="67"/>
+      <c r="K224" s="67"/>
       <c r="L224" s="6">
         <v>33</v>
       </c>
@@ -9535,17 +9547,17 @@
         <v>3</v>
       </c>
       <c r="B225" s="1"/>
-      <c r="C225" s="64" t="s">
+      <c r="C225" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="D225" s="65"/>
-      <c r="E225" s="65"/>
-      <c r="F225" s="65"/>
-      <c r="G225" s="65"/>
-      <c r="H225" s="65"/>
-      <c r="I225" s="65"/>
-      <c r="J225" s="65"/>
-      <c r="K225" s="65"/>
+      <c r="D225" s="67"/>
+      <c r="E225" s="67"/>
+      <c r="F225" s="67"/>
+      <c r="G225" s="67"/>
+      <c r="H225" s="67"/>
+      <c r="I225" s="67"/>
+      <c r="J225" s="67"/>
+      <c r="K225" s="67"/>
       <c r="L225" s="6">
         <v>33</v>
       </c>
@@ -9568,17 +9580,17 @@
         <v>4</v>
       </c>
       <c r="B226" s="1"/>
-      <c r="C226" s="65" t="s">
+      <c r="C226" s="67" t="s">
         <v>26</v>
       </c>
-      <c r="D226" s="65"/>
-      <c r="E226" s="65"/>
-      <c r="F226" s="65"/>
-      <c r="G226" s="65"/>
-      <c r="H226" s="65"/>
-      <c r="I226" s="65"/>
-      <c r="J226" s="65"/>
-      <c r="K226" s="65"/>
+      <c r="D226" s="67"/>
+      <c r="E226" s="67"/>
+      <c r="F226" s="67"/>
+      <c r="G226" s="67"/>
+      <c r="H226" s="67"/>
+      <c r="I226" s="67"/>
+      <c r="J226" s="67"/>
+      <c r="K226" s="67"/>
       <c r="L226" s="6">
         <v>33</v>
       </c>
@@ -9601,17 +9613,17 @@
         <v>5</v>
       </c>
       <c r="B227" s="1"/>
-      <c r="C227" s="64" t="s">
+      <c r="C227" s="66" t="s">
         <v>27</v>
       </c>
-      <c r="D227" s="65"/>
-      <c r="E227" s="65"/>
-      <c r="F227" s="65"/>
-      <c r="G227" s="65"/>
-      <c r="H227" s="65"/>
-      <c r="I227" s="65"/>
-      <c r="J227" s="65"/>
-      <c r="K227" s="65"/>
+      <c r="D227" s="67"/>
+      <c r="E227" s="67"/>
+      <c r="F227" s="67"/>
+      <c r="G227" s="67"/>
+      <c r="H227" s="67"/>
+      <c r="I227" s="67"/>
+      <c r="J227" s="67"/>
+      <c r="K227" s="67"/>
       <c r="L227" s="6">
         <v>33</v>
       </c>
@@ -9634,17 +9646,17 @@
         <v>6</v>
       </c>
       <c r="B228" s="1"/>
-      <c r="C228" s="64" t="s">
+      <c r="C228" s="66" t="s">
         <v>67</v>
       </c>
-      <c r="D228" s="65"/>
-      <c r="E228" s="65"/>
-      <c r="F228" s="65"/>
-      <c r="G228" s="65"/>
-      <c r="H228" s="65"/>
-      <c r="I228" s="65"/>
-      <c r="J228" s="65"/>
-      <c r="K228" s="65"/>
+      <c r="D228" s="67"/>
+      <c r="E228" s="67"/>
+      <c r="F228" s="67"/>
+      <c r="G228" s="67"/>
+      <c r="H228" s="67"/>
+      <c r="I228" s="67"/>
+      <c r="J228" s="67"/>
+      <c r="K228" s="67"/>
       <c r="L228" s="6">
         <v>33</v>
       </c>
@@ -9667,20 +9679,20 @@
         <v>7</v>
       </c>
       <c r="B229" s="1"/>
-      <c r="C229" s="66" t="s">
+      <c r="C229" s="60" t="s">
         <v>58</v>
       </c>
-      <c r="D229" s="67"/>
-      <c r="E229" s="67"/>
-      <c r="F229" s="67"/>
-      <c r="G229" s="67"/>
-      <c r="H229" s="67"/>
-      <c r="I229" s="67"/>
-      <c r="J229" s="67"/>
-      <c r="K229" s="67"/>
-      <c r="L229" s="67"/>
-      <c r="M229" s="67"/>
-      <c r="N229" s="68"/>
+      <c r="D229" s="61"/>
+      <c r="E229" s="61"/>
+      <c r="F229" s="61"/>
+      <c r="G229" s="61"/>
+      <c r="H229" s="61"/>
+      <c r="I229" s="61"/>
+      <c r="J229" s="61"/>
+      <c r="K229" s="61"/>
+      <c r="L229" s="61"/>
+      <c r="M229" s="61"/>
+      <c r="N229" s="62"/>
       <c r="O229" s="11"/>
       <c r="P229" s="12" t="e">
         <f>AVERAGE(P223:P228)</f>
@@ -9700,25 +9712,25 @@
       <c r="B230" s="1"/>
     </row>
     <row r="231" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A231" s="81" t="s">
+      <c r="A231" s="72" t="s">
         <v>28</v>
       </c>
-      <c r="B231" s="81"/>
-      <c r="C231" s="81"/>
-      <c r="D231" s="81"/>
-      <c r="E231" s="81"/>
-      <c r="F231" s="81"/>
-      <c r="G231" s="81"/>
-      <c r="H231" s="81"/>
-      <c r="I231" s="81"/>
-      <c r="J231" s="81"/>
-      <c r="K231" s="81"/>
-      <c r="L231" s="81"/>
-      <c r="M231" s="81"/>
-      <c r="N231" s="81"/>
-      <c r="O231" s="81"/>
-      <c r="P231" s="81"/>
-      <c r="Q231" s="81"/>
+      <c r="B231" s="72"/>
+      <c r="C231" s="72"/>
+      <c r="D231" s="72"/>
+      <c r="E231" s="72"/>
+      <c r="F231" s="72"/>
+      <c r="G231" s="72"/>
+      <c r="H231" s="72"/>
+      <c r="I231" s="72"/>
+      <c r="J231" s="72"/>
+      <c r="K231" s="72"/>
+      <c r="L231" s="72"/>
+      <c r="M231" s="72"/>
+      <c r="N231" s="72"/>
+      <c r="O231" s="72"/>
+      <c r="P231" s="72"/>
+      <c r="Q231" s="72"/>
       <c r="R231"/>
     </row>
     <row r="232" spans="1:21" ht="40.799999999999997" x14ac:dyDescent="0.3">
@@ -9728,10 +9740,10 @@
       <c r="B232" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="C232" s="80" t="s">
+      <c r="C232" s="68" t="s">
         <v>68</v>
       </c>
-      <c r="D232" s="80"/>
+      <c r="D232" s="68"/>
       <c r="E232" s="17" t="s">
         <v>69</v>
       </c>
@@ -9785,10 +9797,10 @@
       <c r="B233" s="53">
         <v>44808</v>
       </c>
-      <c r="C233" s="90" t="s">
+      <c r="C233" s="54" t="s">
         <v>125</v>
       </c>
-      <c r="D233" s="91"/>
+      <c r="D233" s="55"/>
       <c r="E233" s="25">
         <v>57</v>
       </c>
@@ -9843,10 +9855,10 @@
       <c r="B234" s="53">
         <v>44816</v>
       </c>
-      <c r="C234" s="63" t="s">
+      <c r="C234" s="57" t="s">
         <v>113</v>
       </c>
-      <c r="D234" s="63"/>
+      <c r="D234" s="57"/>
       <c r="E234" s="25">
         <v>58</v>
       </c>
@@ -9901,10 +9913,10 @@
       <c r="B235" s="53">
         <v>44822</v>
       </c>
-      <c r="C235" s="63" t="s">
+      <c r="C235" s="57" t="s">
         <v>114</v>
       </c>
-      <c r="D235" s="63"/>
+      <c r="D235" s="57"/>
       <c r="E235" s="25">
         <v>64</v>
       </c>
@@ -9957,10 +9969,10 @@
         <v>3</v>
       </c>
       <c r="B236" s="14"/>
-      <c r="C236" s="63" t="s">
+      <c r="C236" s="57" t="s">
         <v>115</v>
       </c>
-      <c r="D236" s="63"/>
+      <c r="D236" s="57"/>
       <c r="E236" s="25"/>
       <c r="F236" s="26"/>
       <c r="G236" s="27"/>
@@ -9985,10 +9997,10 @@
         <v>4</v>
       </c>
       <c r="B237" s="14"/>
-      <c r="C237" s="63" t="s">
+      <c r="C237" s="57" t="s">
         <v>116</v>
       </c>
-      <c r="D237" s="63"/>
+      <c r="D237" s="57"/>
       <c r="E237" s="25"/>
       <c r="F237" s="26"/>
       <c r="G237" s="27"/>
@@ -10013,10 +10025,10 @@
         <v>5</v>
       </c>
       <c r="B238" s="14"/>
-      <c r="C238" s="63" t="s">
+      <c r="C238" s="57" t="s">
         <v>117</v>
       </c>
-      <c r="D238" s="63"/>
+      <c r="D238" s="57"/>
       <c r="E238" s="25"/>
       <c r="F238" s="26"/>
       <c r="G238" s="27"/>
@@ -10041,10 +10053,10 @@
         <v>6</v>
       </c>
       <c r="B239" s="14"/>
-      <c r="C239" s="63" t="s">
+      <c r="C239" s="57" t="s">
         <v>118</v>
       </c>
-      <c r="D239" s="63"/>
+      <c r="D239" s="57"/>
       <c r="E239" s="25"/>
       <c r="F239" s="26"/>
       <c r="G239" s="27"/>
@@ -10069,10 +10081,10 @@
         <v>7</v>
       </c>
       <c r="B240" s="14"/>
-      <c r="C240" s="63" t="s">
+      <c r="C240" s="57" t="s">
         <v>119</v>
       </c>
-      <c r="D240" s="63"/>
+      <c r="D240" s="57"/>
       <c r="E240" s="25"/>
       <c r="F240" s="26"/>
       <c r="G240" s="27"/>
@@ -10097,10 +10109,10 @@
         <v>8</v>
       </c>
       <c r="B241" s="14"/>
-      <c r="C241" s="63" t="s">
+      <c r="C241" s="57" t="s">
         <v>120</v>
       </c>
-      <c r="D241" s="63"/>
+      <c r="D241" s="57"/>
       <c r="E241" s="25"/>
       <c r="F241" s="26"/>
       <c r="G241" s="27"/>
@@ -10123,10 +10135,10 @@
     <row r="242" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A242" s="14"/>
       <c r="B242" s="14"/>
-      <c r="C242" s="74" t="s">
+      <c r="C242" s="58" t="s">
         <v>98</v>
       </c>
-      <c r="D242" s="74"/>
+      <c r="D242" s="58"/>
       <c r="E242" s="25">
         <f>AVERAGE(E233:E241)</f>
         <v>59.666666666666664</v>
@@ -10202,25 +10214,25 @@
       <c r="S244" s="6"/>
     </row>
     <row r="245" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A245" s="79" t="s">
+      <c r="A245" s="75" t="s">
         <v>99</v>
       </c>
-      <c r="B245" s="79"/>
-      <c r="C245" s="79"/>
-      <c r="D245" s="79"/>
-      <c r="E245" s="79"/>
-      <c r="F245" s="79"/>
-      <c r="G245" s="79"/>
-      <c r="H245" s="79"/>
-      <c r="I245" s="79"/>
-      <c r="J245" s="79"/>
-      <c r="K245" s="79"/>
-      <c r="L245" s="79"/>
-      <c r="M245" s="79"/>
-      <c r="N245" s="79"/>
-      <c r="O245" s="79"/>
-      <c r="P245" s="79"/>
-      <c r="Q245" s="79"/>
+      <c r="B245" s="75"/>
+      <c r="C245" s="75"/>
+      <c r="D245" s="75"/>
+      <c r="E245" s="75"/>
+      <c r="F245" s="75"/>
+      <c r="G245" s="75"/>
+      <c r="H245" s="75"/>
+      <c r="I245" s="75"/>
+      <c r="J245" s="75"/>
+      <c r="K245" s="75"/>
+      <c r="L245" s="75"/>
+      <c r="M245" s="75"/>
+      <c r="N245" s="75"/>
+      <c r="O245" s="75"/>
+      <c r="P245" s="75"/>
+      <c r="Q245" s="75"/>
       <c r="R245"/>
       <c r="S245" s="11"/>
     </row>
@@ -10229,10 +10241,10 @@
         <v>1</v>
       </c>
       <c r="B246" s="16"/>
-      <c r="C246" s="80" t="s">
+      <c r="C246" s="68" t="s">
         <v>68</v>
       </c>
-      <c r="D246" s="80"/>
+      <c r="D246" s="68"/>
       <c r="E246" s="17" t="s">
         <v>69</v>
       </c>
@@ -10281,10 +10293,10 @@
         <v>1</v>
       </c>
       <c r="B247" s="14"/>
-      <c r="C247" s="63" t="s">
+      <c r="C247" s="57" t="s">
         <v>121</v>
       </c>
-      <c r="D247" s="63"/>
+      <c r="D247" s="57"/>
       <c r="E247" s="25"/>
       <c r="F247" s="26"/>
       <c r="G247" s="27"/>
@@ -10308,10 +10320,10 @@
         <v>2</v>
       </c>
       <c r="B248" s="14"/>
-      <c r="C248" s="63" t="s">
+      <c r="C248" s="57" t="s">
         <v>122</v>
       </c>
-      <c r="D248" s="63"/>
+      <c r="D248" s="57"/>
       <c r="E248" s="25"/>
       <c r="F248" s="26"/>
       <c r="G248" s="27"/>
@@ -10335,10 +10347,10 @@
         <v>3</v>
       </c>
       <c r="B249" s="14"/>
-      <c r="C249" s="63" t="s">
+      <c r="C249" s="57" t="s">
         <v>123</v>
       </c>
-      <c r="D249" s="63"/>
+      <c r="D249" s="57"/>
       <c r="E249" s="25"/>
       <c r="F249" s="26"/>
       <c r="G249" s="27"/>
@@ -10362,10 +10374,10 @@
         <v>4</v>
       </c>
       <c r="B250" s="14"/>
-      <c r="C250" s="63" t="s">
+      <c r="C250" s="57" t="s">
         <v>124</v>
       </c>
-      <c r="D250" s="63"/>
+      <c r="D250" s="57"/>
       <c r="E250" s="25"/>
       <c r="F250" s="26"/>
       <c r="G250" s="27"/>
@@ -10385,10 +10397,10 @@
       </c>
     </row>
     <row r="251" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="C251" s="74" t="s">
+      <c r="C251" s="58" t="s">
         <v>98</v>
       </c>
-      <c r="D251" s="74"/>
+      <c r="D251" s="58"/>
       <c r="E251" s="25"/>
       <c r="F251" s="26"/>
       <c r="G251" s="27"/>
@@ -10412,103 +10424,103 @@
       <c r="R256"/>
     </row>
     <row r="257" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A257" s="75" t="s">
+      <c r="A257" s="59" t="s">
         <v>107</v>
       </c>
-      <c r="B257" s="75"/>
-      <c r="C257" s="75"/>
-      <c r="D257" s="75"/>
-      <c r="E257" s="75"/>
-      <c r="F257" s="75"/>
-      <c r="G257" s="75"/>
-      <c r="H257" s="75"/>
-      <c r="I257" s="75"/>
-      <c r="J257" s="75"/>
-      <c r="K257" s="75"/>
-      <c r="L257" s="75"/>
-      <c r="M257" s="75"/>
-      <c r="N257" s="75"/>
-      <c r="O257" s="75"/>
-      <c r="P257" s="75"/>
-      <c r="Q257" s="75"/>
-      <c r="R257" s="75"/>
-      <c r="S257" s="75"/>
-      <c r="T257" s="75"/>
-      <c r="U257" s="75"/>
-      <c r="V257" s="75"/>
-      <c r="W257" s="75"/>
+      <c r="B257" s="59"/>
+      <c r="C257" s="59"/>
+      <c r="D257" s="59"/>
+      <c r="E257" s="59"/>
+      <c r="F257" s="59"/>
+      <c r="G257" s="59"/>
+      <c r="H257" s="59"/>
+      <c r="I257" s="59"/>
+      <c r="J257" s="59"/>
+      <c r="K257" s="59"/>
+      <c r="L257" s="59"/>
+      <c r="M257" s="59"/>
+      <c r="N257" s="59"/>
+      <c r="O257" s="59"/>
+      <c r="P257" s="59"/>
+      <c r="Q257" s="59"/>
+      <c r="R257" s="59"/>
+      <c r="S257" s="59"/>
+      <c r="T257" s="59"/>
+      <c r="U257" s="59"/>
+      <c r="V257" s="59"/>
+      <c r="W257" s="59"/>
     </row>
     <row r="258" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A258" s="75"/>
-      <c r="B258" s="75"/>
-      <c r="C258" s="75"/>
-      <c r="D258" s="75"/>
-      <c r="E258" s="75"/>
-      <c r="F258" s="75"/>
-      <c r="G258" s="75"/>
-      <c r="H258" s="75"/>
-      <c r="I258" s="75"/>
-      <c r="J258" s="75"/>
-      <c r="K258" s="75"/>
-      <c r="L258" s="75"/>
-      <c r="M258" s="75"/>
-      <c r="N258" s="75"/>
-      <c r="O258" s="75"/>
-      <c r="P258" s="75"/>
-      <c r="Q258" s="75"/>
-      <c r="R258" s="75"/>
-      <c r="S258" s="75"/>
-      <c r="T258" s="75"/>
-      <c r="U258" s="75"/>
-      <c r="V258" s="75"/>
-      <c r="W258" s="75"/>
+      <c r="A258" s="59"/>
+      <c r="B258" s="59"/>
+      <c r="C258" s="59"/>
+      <c r="D258" s="59"/>
+      <c r="E258" s="59"/>
+      <c r="F258" s="59"/>
+      <c r="G258" s="59"/>
+      <c r="H258" s="59"/>
+      <c r="I258" s="59"/>
+      <c r="J258" s="59"/>
+      <c r="K258" s="59"/>
+      <c r="L258" s="59"/>
+      <c r="M258" s="59"/>
+      <c r="N258" s="59"/>
+      <c r="O258" s="59"/>
+      <c r="P258" s="59"/>
+      <c r="Q258" s="59"/>
+      <c r="R258" s="59"/>
+      <c r="S258" s="59"/>
+      <c r="T258" s="59"/>
+      <c r="U258" s="59"/>
+      <c r="V258" s="59"/>
+      <c r="W258" s="59"/>
     </row>
     <row r="259" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A259" s="75"/>
-      <c r="B259" s="75"/>
-      <c r="C259" s="75"/>
-      <c r="D259" s="75"/>
-      <c r="E259" s="75"/>
-      <c r="F259" s="75"/>
-      <c r="G259" s="75"/>
-      <c r="H259" s="75"/>
-      <c r="I259" s="75"/>
-      <c r="J259" s="75"/>
-      <c r="K259" s="75"/>
-      <c r="L259" s="75"/>
-      <c r="M259" s="75"/>
-      <c r="N259" s="75"/>
-      <c r="O259" s="75"/>
-      <c r="P259" s="75"/>
-      <c r="Q259" s="75"/>
-      <c r="R259" s="75"/>
-      <c r="S259" s="75"/>
-      <c r="T259" s="75"/>
-      <c r="U259" s="75"/>
-      <c r="V259" s="75"/>
-      <c r="W259" s="75"/>
+      <c r="A259" s="59"/>
+      <c r="B259" s="59"/>
+      <c r="C259" s="59"/>
+      <c r="D259" s="59"/>
+      <c r="E259" s="59"/>
+      <c r="F259" s="59"/>
+      <c r="G259" s="59"/>
+      <c r="H259" s="59"/>
+      <c r="I259" s="59"/>
+      <c r="J259" s="59"/>
+      <c r="K259" s="59"/>
+      <c r="L259" s="59"/>
+      <c r="M259" s="59"/>
+      <c r="N259" s="59"/>
+      <c r="O259" s="59"/>
+      <c r="P259" s="59"/>
+      <c r="Q259" s="59"/>
+      <c r="R259" s="59"/>
+      <c r="S259" s="59"/>
+      <c r="T259" s="59"/>
+      <c r="U259" s="59"/>
+      <c r="V259" s="59"/>
+      <c r="W259" s="59"/>
     </row>
     <row r="260" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A260" s="76" t="s">
+      <c r="A260" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="B260" s="77"/>
-      <c r="C260" s="77"/>
-      <c r="D260" s="77"/>
-      <c r="E260" s="77"/>
-      <c r="F260" s="77"/>
-      <c r="G260" s="77"/>
-      <c r="H260" s="77"/>
-      <c r="I260" s="77"/>
-      <c r="J260" s="77"/>
-      <c r="K260" s="77"/>
-      <c r="L260" s="77"/>
-      <c r="M260" s="77"/>
-      <c r="N260" s="77"/>
-      <c r="O260" s="77"/>
-      <c r="P260" s="77"/>
-      <c r="Q260" s="77"/>
-      <c r="R260" s="78"/>
+      <c r="B260" s="70"/>
+      <c r="C260" s="70"/>
+      <c r="D260" s="70"/>
+      <c r="E260" s="70"/>
+      <c r="F260" s="70"/>
+      <c r="G260" s="70"/>
+      <c r="H260" s="70"/>
+      <c r="I260" s="70"/>
+      <c r="J260" s="70"/>
+      <c r="K260" s="70"/>
+      <c r="L260" s="70"/>
+      <c r="M260" s="70"/>
+      <c r="N260" s="70"/>
+      <c r="O260" s="70"/>
+      <c r="P260" s="70"/>
+      <c r="Q260" s="70"/>
+      <c r="R260" s="71"/>
       <c r="S260" s="38"/>
       <c r="T260" s="38"/>
       <c r="U260" s="38"/>
@@ -10524,17 +10536,17 @@
       <c r="B262" s="46" t="s">
         <v>105</v>
       </c>
-      <c r="C262" s="72" t="s">
+      <c r="C262" s="73" t="s">
         <v>108</v>
       </c>
-      <c r="D262" s="72"/>
-      <c r="E262" s="72"/>
-      <c r="F262" s="72"/>
-      <c r="G262" s="72"/>
-      <c r="H262" s="72"/>
-      <c r="I262" s="72"/>
-      <c r="J262" s="72"/>
-      <c r="K262" s="72"/>
+      <c r="D262" s="73"/>
+      <c r="E262" s="73"/>
+      <c r="F262" s="73"/>
+      <c r="G262" s="73"/>
+      <c r="H262" s="73"/>
+      <c r="I262" s="73"/>
+      <c r="J262" s="73"/>
+      <c r="K262" s="73"/>
       <c r="L262" s="5" t="s">
         <v>2</v>
       </c>
@@ -10574,17 +10586,17 @@
       <c r="B263" s="44">
         <v>44683</v>
       </c>
-      <c r="C263" s="54" t="s">
+      <c r="C263" s="83" t="s">
         <v>43</v>
       </c>
-      <c r="D263" s="55"/>
-      <c r="E263" s="55"/>
-      <c r="F263" s="55"/>
-      <c r="G263" s="55"/>
-      <c r="H263" s="55"/>
-      <c r="I263" s="55"/>
-      <c r="J263" s="55"/>
-      <c r="K263" s="56"/>
+      <c r="D263" s="84"/>
+      <c r="E263" s="84"/>
+      <c r="F263" s="84"/>
+      <c r="G263" s="84"/>
+      <c r="H263" s="84"/>
+      <c r="I263" s="84"/>
+      <c r="J263" s="84"/>
+      <c r="K263" s="85"/>
       <c r="L263" s="6">
         <v>17</v>
       </c>
@@ -10612,17 +10624,17 @@
       <c r="B264" s="41">
         <v>44684</v>
       </c>
-      <c r="C264" s="57" t="s">
+      <c r="C264" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="D264" s="58"/>
-      <c r="E264" s="58"/>
-      <c r="F264" s="58"/>
-      <c r="G264" s="58"/>
-      <c r="H264" s="58"/>
-      <c r="I264" s="58"/>
-      <c r="J264" s="58"/>
-      <c r="K264" s="59"/>
+      <c r="D264" s="88"/>
+      <c r="E264" s="88"/>
+      <c r="F264" s="88"/>
+      <c r="G264" s="88"/>
+      <c r="H264" s="88"/>
+      <c r="I264" s="88"/>
+      <c r="J264" s="88"/>
+      <c r="K264" s="89"/>
       <c r="L264" s="6">
         <v>17</v>
       </c>
@@ -10650,17 +10662,17 @@
       <c r="B265" s="41">
         <v>44686</v>
       </c>
-      <c r="C265" s="54" t="s">
+      <c r="C265" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="D265" s="55"/>
-      <c r="E265" s="55"/>
-      <c r="F265" s="55"/>
-      <c r="G265" s="55"/>
-      <c r="H265" s="55"/>
-      <c r="I265" s="55"/>
-      <c r="J265" s="55"/>
-      <c r="K265" s="56"/>
+      <c r="D265" s="84"/>
+      <c r="E265" s="84"/>
+      <c r="F265" s="84"/>
+      <c r="G265" s="84"/>
+      <c r="H265" s="84"/>
+      <c r="I265" s="84"/>
+      <c r="J265" s="84"/>
+      <c r="K265" s="85"/>
       <c r="L265" s="6">
         <v>17</v>
       </c>
@@ -10688,17 +10700,17 @@
       <c r="B266" s="41">
         <v>44688</v>
       </c>
-      <c r="C266" s="54" t="s">
+      <c r="C266" s="83" t="s">
         <v>40</v>
       </c>
-      <c r="D266" s="55"/>
-      <c r="E266" s="55"/>
-      <c r="F266" s="55"/>
-      <c r="G266" s="55"/>
-      <c r="H266" s="55"/>
-      <c r="I266" s="55"/>
-      <c r="J266" s="55"/>
-      <c r="K266" s="56"/>
+      <c r="D266" s="84"/>
+      <c r="E266" s="84"/>
+      <c r="F266" s="84"/>
+      <c r="G266" s="84"/>
+      <c r="H266" s="84"/>
+      <c r="I266" s="84"/>
+      <c r="J266" s="84"/>
+      <c r="K266" s="85"/>
       <c r="L266" s="6">
         <v>17</v>
       </c>
@@ -10726,17 +10738,17 @@
       <c r="B267" s="41">
         <v>44696</v>
       </c>
-      <c r="C267" s="57" t="s">
+      <c r="C267" s="87" t="s">
         <v>5</v>
       </c>
-      <c r="D267" s="58"/>
-      <c r="E267" s="58"/>
-      <c r="F267" s="58"/>
-      <c r="G267" s="58"/>
-      <c r="H267" s="58"/>
-      <c r="I267" s="58"/>
-      <c r="J267" s="58"/>
-      <c r="K267" s="59"/>
+      <c r="D267" s="88"/>
+      <c r="E267" s="88"/>
+      <c r="F267" s="88"/>
+      <c r="G267" s="88"/>
+      <c r="H267" s="88"/>
+      <c r="I267" s="88"/>
+      <c r="J267" s="88"/>
+      <c r="K267" s="89"/>
       <c r="L267" s="6">
         <v>17</v>
       </c>
@@ -10764,17 +10776,17 @@
       <c r="B268" s="41">
         <v>44700</v>
       </c>
-      <c r="C268" s="54" t="s">
+      <c r="C268" s="83" t="s">
         <v>33</v>
       </c>
-      <c r="D268" s="55"/>
-      <c r="E268" s="55"/>
-      <c r="F268" s="55"/>
-      <c r="G268" s="55"/>
-      <c r="H268" s="55"/>
-      <c r="I268" s="55"/>
-      <c r="J268" s="55"/>
-      <c r="K268" s="56"/>
+      <c r="D268" s="84"/>
+      <c r="E268" s="84"/>
+      <c r="F268" s="84"/>
+      <c r="G268" s="84"/>
+      <c r="H268" s="84"/>
+      <c r="I268" s="84"/>
+      <c r="J268" s="84"/>
+      <c r="K268" s="85"/>
       <c r="L268" s="6">
         <v>17</v>
       </c>
@@ -10802,17 +10814,17 @@
       <c r="B269" s="41">
         <v>44703</v>
       </c>
-      <c r="C269" s="57" t="s">
+      <c r="C269" s="87" t="s">
         <v>9</v>
       </c>
-      <c r="D269" s="58"/>
-      <c r="E269" s="58"/>
-      <c r="F269" s="58"/>
-      <c r="G269" s="58"/>
-      <c r="H269" s="58"/>
-      <c r="I269" s="58"/>
-      <c r="J269" s="58"/>
-      <c r="K269" s="59"/>
+      <c r="D269" s="88"/>
+      <c r="E269" s="88"/>
+      <c r="F269" s="88"/>
+      <c r="G269" s="88"/>
+      <c r="H269" s="88"/>
+      <c r="I269" s="88"/>
+      <c r="J269" s="88"/>
+      <c r="K269" s="89"/>
       <c r="L269" s="6">
         <v>17</v>
       </c>
@@ -10840,17 +10852,17 @@
       <c r="B270" s="41">
         <v>44707</v>
       </c>
-      <c r="C270" s="57" t="s">
+      <c r="C270" s="87" t="s">
         <v>44</v>
       </c>
-      <c r="D270" s="58"/>
-      <c r="E270" s="58"/>
-      <c r="F270" s="58"/>
-      <c r="G270" s="58"/>
-      <c r="H270" s="58"/>
-      <c r="I270" s="58"/>
-      <c r="J270" s="58"/>
-      <c r="K270" s="59"/>
+      <c r="D270" s="88"/>
+      <c r="E270" s="88"/>
+      <c r="F270" s="88"/>
+      <c r="G270" s="88"/>
+      <c r="H270" s="88"/>
+      <c r="I270" s="88"/>
+      <c r="J270" s="88"/>
+      <c r="K270" s="89"/>
       <c r="L270" s="6">
         <v>17</v>
       </c>
@@ -10875,17 +10887,17 @@
       <c r="B271" s="41">
         <v>44712</v>
       </c>
-      <c r="C271" s="54" t="s">
+      <c r="C271" s="83" t="s">
         <v>34</v>
       </c>
-      <c r="D271" s="55"/>
-      <c r="E271" s="55"/>
-      <c r="F271" s="55"/>
-      <c r="G271" s="55"/>
-      <c r="H271" s="55"/>
-      <c r="I271" s="55"/>
-      <c r="J271" s="55"/>
-      <c r="K271" s="56"/>
+      <c r="D271" s="84"/>
+      <c r="E271" s="84"/>
+      <c r="F271" s="84"/>
+      <c r="G271" s="84"/>
+      <c r="H271" s="84"/>
+      <c r="I271" s="84"/>
+      <c r="J271" s="84"/>
+      <c r="K271" s="85"/>
       <c r="L271" s="6">
         <v>17</v>
       </c>
@@ -10910,17 +10922,17 @@
       <c r="B272" s="41">
         <v>44717</v>
       </c>
-      <c r="C272" s="57" t="s">
+      <c r="C272" s="87" t="s">
         <v>35</v>
       </c>
-      <c r="D272" s="58"/>
-      <c r="E272" s="58"/>
-      <c r="F272" s="58"/>
-      <c r="G272" s="58"/>
-      <c r="H272" s="58"/>
-      <c r="I272" s="58"/>
-      <c r="J272" s="58"/>
-      <c r="K272" s="59"/>
+      <c r="D272" s="88"/>
+      <c r="E272" s="88"/>
+      <c r="F272" s="88"/>
+      <c r="G272" s="88"/>
+      <c r="H272" s="88"/>
+      <c r="I272" s="88"/>
+      <c r="J272" s="88"/>
+      <c r="K272" s="89"/>
       <c r="L272" s="6">
         <v>17</v>
       </c>
@@ -10948,17 +10960,17 @@
       <c r="B273" s="41">
         <v>44722</v>
       </c>
-      <c r="C273" s="54" t="s">
+      <c r="C273" s="83" t="s">
         <v>36</v>
       </c>
-      <c r="D273" s="55"/>
-      <c r="E273" s="55"/>
-      <c r="F273" s="55"/>
-      <c r="G273" s="55"/>
-      <c r="H273" s="55"/>
-      <c r="I273" s="55"/>
-      <c r="J273" s="55"/>
-      <c r="K273" s="56"/>
+      <c r="D273" s="84"/>
+      <c r="E273" s="84"/>
+      <c r="F273" s="84"/>
+      <c r="G273" s="84"/>
+      <c r="H273" s="84"/>
+      <c r="I273" s="84"/>
+      <c r="J273" s="84"/>
+      <c r="K273" s="85"/>
       <c r="L273" s="6">
         <v>17</v>
       </c>
@@ -10983,17 +10995,17 @@
       <c r="B274" s="41">
         <v>44727</v>
       </c>
-      <c r="C274" s="54" t="s">
+      <c r="C274" s="83" t="s">
         <v>37</v>
       </c>
-      <c r="D274" s="55"/>
-      <c r="E274" s="55"/>
-      <c r="F274" s="55"/>
-      <c r="G274" s="55"/>
-      <c r="H274" s="55"/>
-      <c r="I274" s="55"/>
-      <c r="J274" s="55"/>
-      <c r="K274" s="56"/>
+      <c r="D274" s="84"/>
+      <c r="E274" s="84"/>
+      <c r="F274" s="84"/>
+      <c r="G274" s="84"/>
+      <c r="H274" s="84"/>
+      <c r="I274" s="84"/>
+      <c r="J274" s="84"/>
+      <c r="K274" s="85"/>
       <c r="L274" s="6">
         <v>17</v>
       </c>
@@ -11018,17 +11030,17 @@
       <c r="B275" s="41" t="s">
         <v>109</v>
       </c>
-      <c r="C275" s="54" t="s">
+      <c r="C275" s="83" t="s">
         <v>45</v>
       </c>
-      <c r="D275" s="55"/>
-      <c r="E275" s="55"/>
-      <c r="F275" s="55"/>
-      <c r="G275" s="55"/>
-      <c r="H275" s="55"/>
-      <c r="I275" s="55"/>
-      <c r="J275" s="55"/>
-      <c r="K275" s="56"/>
+      <c r="D275" s="84"/>
+      <c r="E275" s="84"/>
+      <c r="F275" s="84"/>
+      <c r="G275" s="84"/>
+      <c r="H275" s="84"/>
+      <c r="I275" s="84"/>
+      <c r="J275" s="84"/>
+      <c r="K275" s="85"/>
       <c r="L275" s="6">
         <v>17</v>
       </c>
@@ -11056,17 +11068,17 @@
       <c r="B276" s="41" t="s">
         <v>110</v>
       </c>
-      <c r="C276" s="54" t="s">
+      <c r="C276" s="83" t="s">
         <v>46</v>
       </c>
-      <c r="D276" s="55"/>
-      <c r="E276" s="55"/>
-      <c r="F276" s="55"/>
-      <c r="G276" s="55"/>
-      <c r="H276" s="55"/>
-      <c r="I276" s="55"/>
-      <c r="J276" s="55"/>
-      <c r="K276" s="56"/>
+      <c r="D276" s="84"/>
+      <c r="E276" s="84"/>
+      <c r="F276" s="84"/>
+      <c r="G276" s="84"/>
+      <c r="H276" s="84"/>
+      <c r="I276" s="84"/>
+      <c r="J276" s="84"/>
+      <c r="K276" s="85"/>
       <c r="L276" s="6">
         <v>17</v>
       </c>
@@ -11094,17 +11106,17 @@
       <c r="B277" s="41">
         <v>44736</v>
       </c>
-      <c r="C277" s="57" t="s">
+      <c r="C277" s="87" t="s">
         <v>7</v>
       </c>
-      <c r="D277" s="58"/>
-      <c r="E277" s="58"/>
-      <c r="F277" s="58"/>
-      <c r="G277" s="58"/>
-      <c r="H277" s="58"/>
-      <c r="I277" s="58"/>
-      <c r="J277" s="58"/>
-      <c r="K277" s="59"/>
+      <c r="D277" s="88"/>
+      <c r="E277" s="88"/>
+      <c r="F277" s="88"/>
+      <c r="G277" s="88"/>
+      <c r="H277" s="88"/>
+      <c r="I277" s="88"/>
+      <c r="J277" s="88"/>
+      <c r="K277" s="89"/>
       <c r="L277" s="6">
         <v>17</v>
       </c>
@@ -11132,17 +11144,17 @@
       <c r="B278" s="41">
         <v>44740</v>
       </c>
-      <c r="C278" s="54" t="s">
+      <c r="C278" s="83" t="s">
         <v>38</v>
       </c>
-      <c r="D278" s="55"/>
-      <c r="E278" s="55"/>
-      <c r="F278" s="55"/>
-      <c r="G278" s="55"/>
-      <c r="H278" s="55"/>
-      <c r="I278" s="55"/>
-      <c r="J278" s="55"/>
-      <c r="K278" s="56"/>
+      <c r="D278" s="84"/>
+      <c r="E278" s="84"/>
+      <c r="F278" s="84"/>
+      <c r="G278" s="84"/>
+      <c r="H278" s="84"/>
+      <c r="I278" s="84"/>
+      <c r="J278" s="84"/>
+      <c r="K278" s="85"/>
       <c r="L278" s="6">
         <v>17</v>
       </c>
@@ -11170,17 +11182,17 @@
       <c r="B279" s="41">
         <v>44745</v>
       </c>
-      <c r="C279" s="57" t="s">
+      <c r="C279" s="87" t="s">
         <v>11</v>
       </c>
-      <c r="D279" s="58"/>
-      <c r="E279" s="58"/>
-      <c r="F279" s="58"/>
-      <c r="G279" s="58"/>
-      <c r="H279" s="58"/>
-      <c r="I279" s="58"/>
-      <c r="J279" s="58"/>
-      <c r="K279" s="59"/>
+      <c r="D279" s="88"/>
+      <c r="E279" s="88"/>
+      <c r="F279" s="88"/>
+      <c r="G279" s="88"/>
+      <c r="H279" s="88"/>
+      <c r="I279" s="88"/>
+      <c r="J279" s="88"/>
+      <c r="K279" s="89"/>
       <c r="L279" s="6">
         <v>17</v>
       </c>
@@ -11208,17 +11220,17 @@
       <c r="B280" s="41">
         <v>44750</v>
       </c>
-      <c r="C280" s="54" t="s">
+      <c r="C280" s="83" t="s">
         <v>48</v>
       </c>
-      <c r="D280" s="55"/>
-      <c r="E280" s="55"/>
-      <c r="F280" s="55"/>
-      <c r="G280" s="55"/>
-      <c r="H280" s="55"/>
-      <c r="I280" s="55"/>
-      <c r="J280" s="55"/>
-      <c r="K280" s="56"/>
+      <c r="D280" s="84"/>
+      <c r="E280" s="84"/>
+      <c r="F280" s="84"/>
+      <c r="G280" s="84"/>
+      <c r="H280" s="84"/>
+      <c r="I280" s="84"/>
+      <c r="J280" s="84"/>
+      <c r="K280" s="85"/>
       <c r="L280" s="6">
         <v>17</v>
       </c>
@@ -11243,17 +11255,17 @@
       <c r="B281" s="41">
         <v>44752</v>
       </c>
-      <c r="C281" s="58" t="s">
+      <c r="C281" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="D281" s="58"/>
-      <c r="E281" s="58"/>
-      <c r="F281" s="58"/>
-      <c r="G281" s="58"/>
-      <c r="H281" s="58"/>
-      <c r="I281" s="58"/>
-      <c r="J281" s="58"/>
-      <c r="K281" s="59"/>
+      <c r="D281" s="88"/>
+      <c r="E281" s="88"/>
+      <c r="F281" s="88"/>
+      <c r="G281" s="88"/>
+      <c r="H281" s="88"/>
+      <c r="I281" s="88"/>
+      <c r="J281" s="88"/>
+      <c r="K281" s="89"/>
       <c r="L281" s="6">
         <v>17</v>
       </c>
@@ -11281,17 +11293,17 @@
       <c r="B282" s="41">
         <v>44754</v>
       </c>
-      <c r="C282" s="55" t="s">
+      <c r="C282" s="84" t="s">
         <v>49</v>
       </c>
-      <c r="D282" s="55"/>
-      <c r="E282" s="55"/>
-      <c r="F282" s="55"/>
-      <c r="G282" s="55"/>
-      <c r="H282" s="55"/>
-      <c r="I282" s="55"/>
-      <c r="J282" s="55"/>
-      <c r="K282" s="56"/>
+      <c r="D282" s="84"/>
+      <c r="E282" s="84"/>
+      <c r="F282" s="84"/>
+      <c r="G282" s="84"/>
+      <c r="H282" s="84"/>
+      <c r="I282" s="84"/>
+      <c r="J282" s="84"/>
+      <c r="K282" s="85"/>
       <c r="L282" s="6">
         <v>17</v>
       </c>
@@ -11316,17 +11328,17 @@
       <c r="B283" s="41">
         <v>44757</v>
       </c>
-      <c r="C283" s="57" t="s">
+      <c r="C283" s="87" t="s">
         <v>10</v>
       </c>
-      <c r="D283" s="58"/>
-      <c r="E283" s="58"/>
-      <c r="F283" s="58"/>
-      <c r="G283" s="58"/>
-      <c r="H283" s="58"/>
-      <c r="I283" s="58"/>
-      <c r="J283" s="58"/>
-      <c r="K283" s="59"/>
+      <c r="D283" s="88"/>
+      <c r="E283" s="88"/>
+      <c r="F283" s="88"/>
+      <c r="G283" s="88"/>
+      <c r="H283" s="88"/>
+      <c r="I283" s="88"/>
+      <c r="J283" s="88"/>
+      <c r="K283" s="89"/>
       <c r="L283" s="6">
         <v>17</v>
       </c>
@@ -11354,17 +11366,17 @@
       <c r="B284" s="41">
         <v>44760</v>
       </c>
-      <c r="C284" s="57" t="s">
+      <c r="C284" s="87" t="s">
         <v>47</v>
       </c>
-      <c r="D284" s="58"/>
-      <c r="E284" s="58"/>
-      <c r="F284" s="58"/>
-      <c r="G284" s="58"/>
-      <c r="H284" s="58"/>
-      <c r="I284" s="58"/>
-      <c r="J284" s="58"/>
-      <c r="K284" s="59"/>
+      <c r="D284" s="88"/>
+      <c r="E284" s="88"/>
+      <c r="F284" s="88"/>
+      <c r="G284" s="88"/>
+      <c r="H284" s="88"/>
+      <c r="I284" s="88"/>
+      <c r="J284" s="88"/>
+      <c r="K284" s="89"/>
       <c r="L284" s="6">
         <v>17</v>
       </c>
@@ -11390,17 +11402,17 @@
         <v>23</v>
       </c>
       <c r="B285" s="41"/>
-      <c r="C285" s="54" t="s">
+      <c r="C285" s="83" t="s">
         <v>41</v>
       </c>
-      <c r="D285" s="55"/>
-      <c r="E285" s="55"/>
-      <c r="F285" s="55"/>
-      <c r="G285" s="55"/>
-      <c r="H285" s="55"/>
-      <c r="I285" s="55"/>
-      <c r="J285" s="55"/>
-      <c r="K285" s="56"/>
+      <c r="D285" s="84"/>
+      <c r="E285" s="84"/>
+      <c r="F285" s="84"/>
+      <c r="G285" s="84"/>
+      <c r="H285" s="84"/>
+      <c r="I285" s="84"/>
+      <c r="J285" s="84"/>
+      <c r="K285" s="85"/>
       <c r="L285" s="6">
         <v>17</v>
       </c>
@@ -11423,17 +11435,17 @@
         <v>24</v>
       </c>
       <c r="B286" s="41"/>
-      <c r="C286" s="54" t="s">
+      <c r="C286" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="D286" s="55"/>
-      <c r="E286" s="55"/>
-      <c r="F286" s="55"/>
-      <c r="G286" s="55"/>
-      <c r="H286" s="55"/>
-      <c r="I286" s="55"/>
-      <c r="J286" s="55"/>
-      <c r="K286" s="56"/>
+      <c r="D286" s="84"/>
+      <c r="E286" s="84"/>
+      <c r="F286" s="84"/>
+      <c r="G286" s="84"/>
+      <c r="H286" s="84"/>
+      <c r="I286" s="84"/>
+      <c r="J286" s="84"/>
+      <c r="K286" s="85"/>
       <c r="L286" s="6">
         <v>17</v>
       </c>
@@ -11456,20 +11468,20 @@
         <v>25</v>
       </c>
       <c r="B287" s="47"/>
-      <c r="C287" s="66" t="s">
+      <c r="C287" s="60" t="s">
         <v>58</v>
       </c>
-      <c r="D287" s="67"/>
-      <c r="E287" s="67"/>
-      <c r="F287" s="67"/>
-      <c r="G287" s="67"/>
-      <c r="H287" s="67"/>
-      <c r="I287" s="67"/>
-      <c r="J287" s="67"/>
-      <c r="K287" s="67"/>
-      <c r="L287" s="67"/>
-      <c r="M287" s="67"/>
-      <c r="N287" s="68"/>
+      <c r="D287" s="61"/>
+      <c r="E287" s="61"/>
+      <c r="F287" s="61"/>
+      <c r="G287" s="61"/>
+      <c r="H287" s="61"/>
+      <c r="I287" s="61"/>
+      <c r="J287" s="61"/>
+      <c r="K287" s="61"/>
+      <c r="L287" s="61"/>
+      <c r="M287" s="61"/>
+      <c r="N287" s="62"/>
       <c r="O287" s="11"/>
       <c r="P287" s="12" t="e">
         <f>AVERAGE(P263:P286)</f>
@@ -11492,26 +11504,26 @@
       <c r="B288" s="41"/>
     </row>
     <row r="289" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A289" s="82" t="s">
+      <c r="A289" s="76" t="s">
         <v>13</v>
       </c>
-      <c r="B289" s="83"/>
-      <c r="C289" s="83"/>
-      <c r="D289" s="83"/>
-      <c r="E289" s="83"/>
-      <c r="F289" s="83"/>
-      <c r="G289" s="83"/>
-      <c r="H289" s="83"/>
-      <c r="I289" s="83"/>
-      <c r="J289" s="83"/>
-      <c r="K289" s="83"/>
-      <c r="L289" s="83"/>
-      <c r="M289" s="83"/>
-      <c r="N289" s="83"/>
-      <c r="O289" s="83"/>
-      <c r="P289" s="83"/>
-      <c r="Q289" s="83"/>
-      <c r="R289" s="84"/>
+      <c r="B289" s="77"/>
+      <c r="C289" s="77"/>
+      <c r="D289" s="77"/>
+      <c r="E289" s="77"/>
+      <c r="F289" s="77"/>
+      <c r="G289" s="77"/>
+      <c r="H289" s="77"/>
+      <c r="I289" s="77"/>
+      <c r="J289" s="77"/>
+      <c r="K289" s="77"/>
+      <c r="L289" s="77"/>
+      <c r="M289" s="77"/>
+      <c r="N289" s="77"/>
+      <c r="O289" s="77"/>
+      <c r="P289" s="77"/>
+      <c r="Q289" s="77"/>
+      <c r="R289" s="78"/>
       <c r="S289" s="15"/>
       <c r="T289" s="15"/>
       <c r="U289" s="15"/>
@@ -11521,17 +11533,17 @@
         <v>1</v>
       </c>
       <c r="B291" s="5"/>
-      <c r="C291" s="72" t="s">
+      <c r="C291" s="73" t="s">
         <v>56</v>
       </c>
-      <c r="D291" s="72"/>
-      <c r="E291" s="72"/>
-      <c r="F291" s="72"/>
-      <c r="G291" s="72"/>
-      <c r="H291" s="72"/>
-      <c r="I291" s="72"/>
-      <c r="J291" s="72"/>
-      <c r="K291" s="72"/>
+      <c r="D291" s="73"/>
+      <c r="E291" s="73"/>
+      <c r="F291" s="73"/>
+      <c r="G291" s="73"/>
+      <c r="H291" s="73"/>
+      <c r="I291" s="73"/>
+      <c r="J291" s="73"/>
+      <c r="K291" s="73"/>
       <c r="L291" s="5" t="s">
         <v>2</v>
       </c>
@@ -11568,17 +11580,17 @@
         <v>1</v>
       </c>
       <c r="B292" s="1"/>
-      <c r="C292" s="73" t="s">
+      <c r="C292" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="D292" s="73"/>
-      <c r="E292" s="73"/>
-      <c r="F292" s="73"/>
-      <c r="G292" s="73"/>
-      <c r="H292" s="73"/>
-      <c r="I292" s="73"/>
-      <c r="J292" s="73"/>
-      <c r="K292" s="73"/>
+      <c r="D292" s="74"/>
+      <c r="E292" s="74"/>
+      <c r="F292" s="74"/>
+      <c r="G292" s="74"/>
+      <c r="H292" s="74"/>
+      <c r="I292" s="74"/>
+      <c r="J292" s="74"/>
+      <c r="K292" s="74"/>
       <c r="L292" s="6">
         <v>33</v>
       </c>
@@ -11601,17 +11613,17 @@
         <v>2</v>
       </c>
       <c r="B293" s="1"/>
-      <c r="C293" s="64" t="s">
+      <c r="C293" s="66" t="s">
         <v>16</v>
       </c>
-      <c r="D293" s="65"/>
-      <c r="E293" s="65"/>
-      <c r="F293" s="65"/>
-      <c r="G293" s="65"/>
-      <c r="H293" s="65"/>
-      <c r="I293" s="65"/>
-      <c r="J293" s="65"/>
-      <c r="K293" s="65"/>
+      <c r="D293" s="67"/>
+      <c r="E293" s="67"/>
+      <c r="F293" s="67"/>
+      <c r="G293" s="67"/>
+      <c r="H293" s="67"/>
+      <c r="I293" s="67"/>
+      <c r="J293" s="67"/>
+      <c r="K293" s="67"/>
       <c r="L293" s="6">
         <v>33</v>
       </c>
@@ -11634,17 +11646,17 @@
         <v>3</v>
       </c>
       <c r="B294" s="1"/>
-      <c r="C294" s="64" t="s">
+      <c r="C294" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="D294" s="65"/>
-      <c r="E294" s="65"/>
-      <c r="F294" s="65"/>
-      <c r="G294" s="65"/>
-      <c r="H294" s="65"/>
-      <c r="I294" s="65"/>
-      <c r="J294" s="65"/>
-      <c r="K294" s="65"/>
+      <c r="D294" s="67"/>
+      <c r="E294" s="67"/>
+      <c r="F294" s="67"/>
+      <c r="G294" s="67"/>
+      <c r="H294" s="67"/>
+      <c r="I294" s="67"/>
+      <c r="J294" s="67"/>
+      <c r="K294" s="67"/>
       <c r="L294" s="6">
         <v>33</v>
       </c>
@@ -11667,17 +11679,17 @@
         <v>4</v>
       </c>
       <c r="B295" s="1"/>
-      <c r="C295" s="65" t="s">
+      <c r="C295" s="67" t="s">
         <v>18</v>
       </c>
-      <c r="D295" s="65"/>
-      <c r="E295" s="65"/>
-      <c r="F295" s="65"/>
-      <c r="G295" s="65"/>
-      <c r="H295" s="65"/>
-      <c r="I295" s="65"/>
-      <c r="J295" s="65"/>
-      <c r="K295" s="65"/>
+      <c r="D295" s="67"/>
+      <c r="E295" s="67"/>
+      <c r="F295" s="67"/>
+      <c r="G295" s="67"/>
+      <c r="H295" s="67"/>
+      <c r="I295" s="67"/>
+      <c r="J295" s="67"/>
+      <c r="K295" s="67"/>
       <c r="L295" s="6">
         <v>33</v>
       </c>
@@ -11700,17 +11712,17 @@
         <v>5</v>
       </c>
       <c r="B296" s="1"/>
-      <c r="C296" s="64" t="s">
+      <c r="C296" s="66" t="s">
         <v>61</v>
       </c>
-      <c r="D296" s="65"/>
-      <c r="E296" s="65"/>
-      <c r="F296" s="65"/>
-      <c r="G296" s="65"/>
-      <c r="H296" s="65"/>
-      <c r="I296" s="65"/>
-      <c r="J296" s="65"/>
-      <c r="K296" s="65"/>
+      <c r="D296" s="67"/>
+      <c r="E296" s="67"/>
+      <c r="F296" s="67"/>
+      <c r="G296" s="67"/>
+      <c r="H296" s="67"/>
+      <c r="I296" s="67"/>
+      <c r="J296" s="67"/>
+      <c r="K296" s="67"/>
       <c r="L296" s="6">
         <v>33</v>
       </c>
@@ -11733,17 +11745,17 @@
         <v>6</v>
       </c>
       <c r="B297" s="1"/>
-      <c r="C297" s="64" t="s">
+      <c r="C297" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="D297" s="65"/>
-      <c r="E297" s="65"/>
-      <c r="F297" s="65"/>
-      <c r="G297" s="65"/>
-      <c r="H297" s="65"/>
-      <c r="I297" s="65"/>
-      <c r="J297" s="65"/>
-      <c r="K297" s="65"/>
+      <c r="D297" s="67"/>
+      <c r="E297" s="67"/>
+      <c r="F297" s="67"/>
+      <c r="G297" s="67"/>
+      <c r="H297" s="67"/>
+      <c r="I297" s="67"/>
+      <c r="J297" s="67"/>
+      <c r="K297" s="67"/>
       <c r="L297" s="6">
         <v>33</v>
       </c>
@@ -11766,17 +11778,17 @@
         <v>7</v>
       </c>
       <c r="B298" s="1"/>
-      <c r="C298" s="65" t="s">
+      <c r="C298" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="D298" s="65"/>
-      <c r="E298" s="65"/>
-      <c r="F298" s="65"/>
-      <c r="G298" s="65"/>
-      <c r="H298" s="65"/>
-      <c r="I298" s="65"/>
-      <c r="J298" s="65"/>
-      <c r="K298" s="65"/>
+      <c r="D298" s="67"/>
+      <c r="E298" s="67"/>
+      <c r="F298" s="67"/>
+      <c r="G298" s="67"/>
+      <c r="H298" s="67"/>
+      <c r="I298" s="67"/>
+      <c r="J298" s="67"/>
+      <c r="K298" s="67"/>
       <c r="L298" s="6">
         <v>33</v>
       </c>
@@ -11799,17 +11811,17 @@
         <v>8</v>
       </c>
       <c r="B299" s="1"/>
-      <c r="C299" s="64" t="s">
+      <c r="C299" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="D299" s="65"/>
-      <c r="E299" s="65"/>
-      <c r="F299" s="65"/>
-      <c r="G299" s="65"/>
-      <c r="H299" s="65"/>
-      <c r="I299" s="65"/>
-      <c r="J299" s="65"/>
-      <c r="K299" s="65"/>
+      <c r="D299" s="67"/>
+      <c r="E299" s="67"/>
+      <c r="F299" s="67"/>
+      <c r="G299" s="67"/>
+      <c r="H299" s="67"/>
+      <c r="I299" s="67"/>
+      <c r="J299" s="67"/>
+      <c r="K299" s="67"/>
       <c r="L299" s="6">
         <v>33</v>
       </c>
@@ -11832,17 +11844,17 @@
         <v>9</v>
       </c>
       <c r="B300" s="1"/>
-      <c r="C300" s="64" t="s">
+      <c r="C300" s="66" t="s">
         <v>62</v>
       </c>
-      <c r="D300" s="65"/>
-      <c r="E300" s="65"/>
-      <c r="F300" s="65"/>
-      <c r="G300" s="65"/>
-      <c r="H300" s="65"/>
-      <c r="I300" s="65"/>
-      <c r="J300" s="65"/>
-      <c r="K300" s="65"/>
+      <c r="D300" s="67"/>
+      <c r="E300" s="67"/>
+      <c r="F300" s="67"/>
+      <c r="G300" s="67"/>
+      <c r="H300" s="67"/>
+      <c r="I300" s="67"/>
+      <c r="J300" s="67"/>
+      <c r="K300" s="67"/>
       <c r="L300" s="6">
         <v>33</v>
       </c>
@@ -11865,17 +11877,17 @@
         <v>10</v>
       </c>
       <c r="B301" s="1"/>
-      <c r="C301" s="64" t="s">
+      <c r="C301" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="D301" s="65"/>
-      <c r="E301" s="65"/>
-      <c r="F301" s="65"/>
-      <c r="G301" s="65"/>
-      <c r="H301" s="65"/>
-      <c r="I301" s="65"/>
-      <c r="J301" s="65"/>
-      <c r="K301" s="65"/>
+      <c r="D301" s="67"/>
+      <c r="E301" s="67"/>
+      <c r="F301" s="67"/>
+      <c r="G301" s="67"/>
+      <c r="H301" s="67"/>
+      <c r="I301" s="67"/>
+      <c r="J301" s="67"/>
+      <c r="K301" s="67"/>
       <c r="L301" s="6">
         <v>33</v>
       </c>
@@ -11898,17 +11910,17 @@
         <v>11</v>
       </c>
       <c r="B302" s="1"/>
-      <c r="C302" s="64" t="s">
+      <c r="C302" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="D302" s="65"/>
-      <c r="E302" s="65"/>
-      <c r="F302" s="65"/>
-      <c r="G302" s="65"/>
-      <c r="H302" s="65"/>
-      <c r="I302" s="65"/>
-      <c r="J302" s="65"/>
-      <c r="K302" s="65"/>
+      <c r="D302" s="67"/>
+      <c r="E302" s="67"/>
+      <c r="F302" s="67"/>
+      <c r="G302" s="67"/>
+      <c r="H302" s="67"/>
+      <c r="I302" s="67"/>
+      <c r="J302" s="67"/>
+      <c r="K302" s="67"/>
       <c r="L302" s="6">
         <v>33</v>
       </c>
@@ -11931,17 +11943,17 @@
         <v>12</v>
       </c>
       <c r="B303" s="1"/>
-      <c r="C303" s="64" t="s">
+      <c r="C303" s="66" t="s">
         <v>63</v>
       </c>
-      <c r="D303" s="65"/>
-      <c r="E303" s="65"/>
-      <c r="F303" s="65"/>
-      <c r="G303" s="65"/>
-      <c r="H303" s="65"/>
-      <c r="I303" s="65"/>
-      <c r="J303" s="65"/>
-      <c r="K303" s="65"/>
+      <c r="D303" s="67"/>
+      <c r="E303" s="67"/>
+      <c r="F303" s="67"/>
+      <c r="G303" s="67"/>
+      <c r="H303" s="67"/>
+      <c r="I303" s="67"/>
+      <c r="J303" s="67"/>
+      <c r="K303" s="67"/>
       <c r="L303" s="6">
         <v>33</v>
       </c>
@@ -11964,20 +11976,20 @@
         <v>13</v>
       </c>
       <c r="B304" s="1"/>
-      <c r="C304" s="66" t="s">
+      <c r="C304" s="60" t="s">
         <v>58</v>
       </c>
-      <c r="D304" s="67"/>
-      <c r="E304" s="67"/>
-      <c r="F304" s="67"/>
-      <c r="G304" s="67"/>
-      <c r="H304" s="67"/>
-      <c r="I304" s="67"/>
-      <c r="J304" s="67"/>
-      <c r="K304" s="67"/>
-      <c r="L304" s="67"/>
-      <c r="M304" s="67"/>
-      <c r="N304" s="68"/>
+      <c r="D304" s="61"/>
+      <c r="E304" s="61"/>
+      <c r="F304" s="61"/>
+      <c r="G304" s="61"/>
+      <c r="H304" s="61"/>
+      <c r="I304" s="61"/>
+      <c r="J304" s="61"/>
+      <c r="K304" s="61"/>
+      <c r="L304" s="61"/>
+      <c r="M304" s="61"/>
+      <c r="N304" s="62"/>
       <c r="O304" s="11"/>
       <c r="P304" s="12"/>
       <c r="Q304" s="13"/>
@@ -11991,26 +12003,26 @@
       <c r="B305" s="1"/>
     </row>
     <row r="306" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A306" s="69" t="s">
+      <c r="A306" s="63" t="s">
         <v>24</v>
       </c>
-      <c r="B306" s="70"/>
-      <c r="C306" s="70"/>
-      <c r="D306" s="70"/>
-      <c r="E306" s="70"/>
-      <c r="F306" s="70"/>
-      <c r="G306" s="70"/>
-      <c r="H306" s="70"/>
-      <c r="I306" s="70"/>
-      <c r="J306" s="70"/>
-      <c r="K306" s="70"/>
-      <c r="L306" s="70"/>
-      <c r="M306" s="70"/>
-      <c r="N306" s="70"/>
-      <c r="O306" s="70"/>
-      <c r="P306" s="70"/>
-      <c r="Q306" s="70"/>
-      <c r="R306" s="71"/>
+      <c r="B306" s="64"/>
+      <c r="C306" s="64"/>
+      <c r="D306" s="64"/>
+      <c r="E306" s="64"/>
+      <c r="F306" s="64"/>
+      <c r="G306" s="64"/>
+      <c r="H306" s="64"/>
+      <c r="I306" s="64"/>
+      <c r="J306" s="64"/>
+      <c r="K306" s="64"/>
+      <c r="L306" s="64"/>
+      <c r="M306" s="64"/>
+      <c r="N306" s="64"/>
+      <c r="O306" s="64"/>
+      <c r="P306" s="64"/>
+      <c r="Q306" s="64"/>
+      <c r="R306" s="65"/>
       <c r="S306" s="3"/>
       <c r="T306" s="3"/>
       <c r="U306" s="3"/>
@@ -12020,17 +12032,17 @@
         <v>1</v>
       </c>
       <c r="B308" s="5"/>
-      <c r="C308" s="72" t="s">
+      <c r="C308" s="73" t="s">
         <v>56</v>
       </c>
-      <c r="D308" s="72"/>
-      <c r="E308" s="72"/>
-      <c r="F308" s="72"/>
-      <c r="G308" s="72"/>
-      <c r="H308" s="72"/>
-      <c r="I308" s="72"/>
-      <c r="J308" s="72"/>
-      <c r="K308" s="72"/>
+      <c r="D308" s="73"/>
+      <c r="E308" s="73"/>
+      <c r="F308" s="73"/>
+      <c r="G308" s="73"/>
+      <c r="H308" s="73"/>
+      <c r="I308" s="73"/>
+      <c r="J308" s="73"/>
+      <c r="K308" s="73"/>
       <c r="L308" s="5" t="s">
         <v>2</v>
       </c>
@@ -12067,17 +12079,17 @@
         <v>1</v>
       </c>
       <c r="B309" s="1"/>
-      <c r="C309" s="73" t="s">
+      <c r="C309" s="74" t="s">
         <v>65</v>
       </c>
-      <c r="D309" s="73"/>
-      <c r="E309" s="73"/>
-      <c r="F309" s="73"/>
-      <c r="G309" s="73"/>
-      <c r="H309" s="73"/>
-      <c r="I309" s="73"/>
-      <c r="J309" s="73"/>
-      <c r="K309" s="73"/>
+      <c r="D309" s="74"/>
+      <c r="E309" s="74"/>
+      <c r="F309" s="74"/>
+      <c r="G309" s="74"/>
+      <c r="H309" s="74"/>
+      <c r="I309" s="74"/>
+      <c r="J309" s="74"/>
+      <c r="K309" s="74"/>
       <c r="L309" s="6">
         <v>33</v>
       </c>
@@ -12100,17 +12112,17 @@
         <v>2</v>
       </c>
       <c r="B310" s="1"/>
-      <c r="C310" s="64" t="s">
+      <c r="C310" s="66" t="s">
         <v>66</v>
       </c>
-      <c r="D310" s="65"/>
-      <c r="E310" s="65"/>
-      <c r="F310" s="65"/>
-      <c r="G310" s="65"/>
-      <c r="H310" s="65"/>
-      <c r="I310" s="65"/>
-      <c r="J310" s="65"/>
-      <c r="K310" s="65"/>
+      <c r="D310" s="67"/>
+      <c r="E310" s="67"/>
+      <c r="F310" s="67"/>
+      <c r="G310" s="67"/>
+      <c r="H310" s="67"/>
+      <c r="I310" s="67"/>
+      <c r="J310" s="67"/>
+      <c r="K310" s="67"/>
       <c r="L310" s="6">
         <v>33</v>
       </c>
@@ -12133,17 +12145,17 @@
         <v>3</v>
       </c>
       <c r="B311" s="1"/>
-      <c r="C311" s="64" t="s">
+      <c r="C311" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="D311" s="65"/>
-      <c r="E311" s="65"/>
-      <c r="F311" s="65"/>
-      <c r="G311" s="65"/>
-      <c r="H311" s="65"/>
-      <c r="I311" s="65"/>
-      <c r="J311" s="65"/>
-      <c r="K311" s="65"/>
+      <c r="D311" s="67"/>
+      <c r="E311" s="67"/>
+      <c r="F311" s="67"/>
+      <c r="G311" s="67"/>
+      <c r="H311" s="67"/>
+      <c r="I311" s="67"/>
+      <c r="J311" s="67"/>
+      <c r="K311" s="67"/>
       <c r="L311" s="6">
         <v>33</v>
       </c>
@@ -12166,17 +12178,17 @@
         <v>4</v>
       </c>
       <c r="B312" s="1"/>
-      <c r="C312" s="65" t="s">
+      <c r="C312" s="67" t="s">
         <v>26</v>
       </c>
-      <c r="D312" s="65"/>
-      <c r="E312" s="65"/>
-      <c r="F312" s="65"/>
-      <c r="G312" s="65"/>
-      <c r="H312" s="65"/>
-      <c r="I312" s="65"/>
-      <c r="J312" s="65"/>
-      <c r="K312" s="65"/>
+      <c r="D312" s="67"/>
+      <c r="E312" s="67"/>
+      <c r="F312" s="67"/>
+      <c r="G312" s="67"/>
+      <c r="H312" s="67"/>
+      <c r="I312" s="67"/>
+      <c r="J312" s="67"/>
+      <c r="K312" s="67"/>
       <c r="L312" s="6">
         <v>33</v>
       </c>
@@ -12199,17 +12211,17 @@
         <v>5</v>
       </c>
       <c r="B313" s="1"/>
-      <c r="C313" s="64" t="s">
+      <c r="C313" s="66" t="s">
         <v>27</v>
       </c>
-      <c r="D313" s="65"/>
-      <c r="E313" s="65"/>
-      <c r="F313" s="65"/>
-      <c r="G313" s="65"/>
-      <c r="H313" s="65"/>
-      <c r="I313" s="65"/>
-      <c r="J313" s="65"/>
-      <c r="K313" s="65"/>
+      <c r="D313" s="67"/>
+      <c r="E313" s="67"/>
+      <c r="F313" s="67"/>
+      <c r="G313" s="67"/>
+      <c r="H313" s="67"/>
+      <c r="I313" s="67"/>
+      <c r="J313" s="67"/>
+      <c r="K313" s="67"/>
       <c r="L313" s="6">
         <v>33</v>
       </c>
@@ -12232,17 +12244,17 @@
         <v>6</v>
       </c>
       <c r="B314" s="1"/>
-      <c r="C314" s="64" t="s">
+      <c r="C314" s="66" t="s">
         <v>67</v>
       </c>
-      <c r="D314" s="65"/>
-      <c r="E314" s="65"/>
-      <c r="F314" s="65"/>
-      <c r="G314" s="65"/>
-      <c r="H314" s="65"/>
-      <c r="I314" s="65"/>
-      <c r="J314" s="65"/>
-      <c r="K314" s="65"/>
+      <c r="D314" s="67"/>
+      <c r="E314" s="67"/>
+      <c r="F314" s="67"/>
+      <c r="G314" s="67"/>
+      <c r="H314" s="67"/>
+      <c r="I314" s="67"/>
+      <c r="J314" s="67"/>
+      <c r="K314" s="67"/>
       <c r="L314" s="6">
         <v>33</v>
       </c>
@@ -12265,20 +12277,20 @@
         <v>7</v>
       </c>
       <c r="B315" s="1"/>
-      <c r="C315" s="66" t="s">
+      <c r="C315" s="60" t="s">
         <v>58</v>
       </c>
-      <c r="D315" s="67"/>
-      <c r="E315" s="67"/>
-      <c r="F315" s="67"/>
-      <c r="G315" s="67"/>
-      <c r="H315" s="67"/>
-      <c r="I315" s="67"/>
-      <c r="J315" s="67"/>
-      <c r="K315" s="67"/>
-      <c r="L315" s="67"/>
-      <c r="M315" s="67"/>
-      <c r="N315" s="68"/>
+      <c r="D315" s="61"/>
+      <c r="E315" s="61"/>
+      <c r="F315" s="61"/>
+      <c r="G315" s="61"/>
+      <c r="H315" s="61"/>
+      <c r="I315" s="61"/>
+      <c r="J315" s="61"/>
+      <c r="K315" s="61"/>
+      <c r="L315" s="61"/>
+      <c r="M315" s="61"/>
+      <c r="N315" s="62"/>
       <c r="O315" s="11"/>
       <c r="P315" s="12" t="e">
         <f>AVERAGE(P309:P314)</f>
@@ -12298,25 +12310,25 @@
       <c r="B316" s="1"/>
     </row>
     <row r="317" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A317" s="81" t="s">
+      <c r="A317" s="72" t="s">
         <v>28</v>
       </c>
-      <c r="B317" s="81"/>
-      <c r="C317" s="81"/>
-      <c r="D317" s="81"/>
-      <c r="E317" s="81"/>
-      <c r="F317" s="81"/>
-      <c r="G317" s="81"/>
-      <c r="H317" s="81"/>
-      <c r="I317" s="81"/>
-      <c r="J317" s="81"/>
-      <c r="K317" s="81"/>
-      <c r="L317" s="81"/>
-      <c r="M317" s="81"/>
-      <c r="N317" s="81"/>
-      <c r="O317" s="81"/>
-      <c r="P317" s="81"/>
-      <c r="Q317" s="81"/>
+      <c r="B317" s="72"/>
+      <c r="C317" s="72"/>
+      <c r="D317" s="72"/>
+      <c r="E317" s="72"/>
+      <c r="F317" s="72"/>
+      <c r="G317" s="72"/>
+      <c r="H317" s="72"/>
+      <c r="I317" s="72"/>
+      <c r="J317" s="72"/>
+      <c r="K317" s="72"/>
+      <c r="L317" s="72"/>
+      <c r="M317" s="72"/>
+      <c r="N317" s="72"/>
+      <c r="O317" s="72"/>
+      <c r="P317" s="72"/>
+      <c r="Q317" s="72"/>
       <c r="R317"/>
     </row>
     <row r="318" spans="1:21" x14ac:dyDescent="0.3">
@@ -12324,10 +12336,10 @@
         <v>1</v>
       </c>
       <c r="B318" s="16"/>
-      <c r="C318" s="80" t="s">
+      <c r="C318" s="68" t="s">
         <v>68</v>
       </c>
-      <c r="D318" s="80"/>
+      <c r="D318" s="68"/>
       <c r="E318" s="17" t="s">
         <v>69</v>
       </c>
@@ -12374,10 +12386,10 @@
         <v>1</v>
       </c>
       <c r="B319" s="14"/>
-      <c r="C319" s="63" t="s">
+      <c r="C319" s="57" t="s">
         <v>84</v>
       </c>
-      <c r="D319" s="63"/>
+      <c r="D319" s="57"/>
       <c r="E319" s="25"/>
       <c r="F319" s="26"/>
       <c r="G319" s="27"/>
@@ -12398,10 +12410,10 @@
         <v>2</v>
       </c>
       <c r="B320" s="14"/>
-      <c r="C320" s="63" t="s">
+      <c r="C320" s="57" t="s">
         <v>85</v>
       </c>
-      <c r="D320" s="63"/>
+      <c r="D320" s="57"/>
       <c r="E320" s="25"/>
       <c r="F320" s="26"/>
       <c r="G320" s="27"/>
@@ -12422,10 +12434,10 @@
         <v>3</v>
       </c>
       <c r="B321" s="14"/>
-      <c r="C321" s="63" t="s">
+      <c r="C321" s="57" t="s">
         <v>86</v>
       </c>
-      <c r="D321" s="63"/>
+      <c r="D321" s="57"/>
       <c r="E321" s="25"/>
       <c r="F321" s="26"/>
       <c r="G321" s="27"/>
@@ -12446,10 +12458,10 @@
         <v>4</v>
       </c>
       <c r="B322" s="14"/>
-      <c r="C322" s="63" t="s">
+      <c r="C322" s="57" t="s">
         <v>87</v>
       </c>
-      <c r="D322" s="63"/>
+      <c r="D322" s="57"/>
       <c r="E322" s="25"/>
       <c r="F322" s="26"/>
       <c r="G322" s="27"/>
@@ -12470,10 +12482,10 @@
         <v>5</v>
       </c>
       <c r="B323" s="14"/>
-      <c r="C323" s="63" t="s">
+      <c r="C323" s="57" t="s">
         <v>90</v>
       </c>
-      <c r="D323" s="63"/>
+      <c r="D323" s="57"/>
       <c r="E323" s="25"/>
       <c r="F323" s="26"/>
       <c r="G323" s="27"/>
@@ -12494,10 +12506,10 @@
         <v>6</v>
       </c>
       <c r="B324" s="14"/>
-      <c r="C324" s="63" t="s">
+      <c r="C324" s="57" t="s">
         <v>91</v>
       </c>
-      <c r="D324" s="63"/>
+      <c r="D324" s="57"/>
       <c r="E324" s="25"/>
       <c r="F324" s="26"/>
       <c r="G324" s="27"/>
@@ -12518,10 +12530,10 @@
         <v>7</v>
       </c>
       <c r="B325" s="14"/>
-      <c r="C325" s="63" t="s">
+      <c r="C325" s="57" t="s">
         <v>92</v>
       </c>
-      <c r="D325" s="63"/>
+      <c r="D325" s="57"/>
       <c r="E325" s="25"/>
       <c r="F325" s="26"/>
       <c r="G325" s="27"/>
@@ -12542,10 +12554,10 @@
         <v>8</v>
       </c>
       <c r="B326" s="14"/>
-      <c r="C326" s="63" t="s">
+      <c r="C326" s="57" t="s">
         <v>93</v>
       </c>
-      <c r="D326" s="63"/>
+      <c r="D326" s="57"/>
       <c r="E326" s="25"/>
       <c r="F326" s="26"/>
       <c r="G326" s="27"/>
@@ -12564,10 +12576,10 @@
     <row r="327" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A327" s="14"/>
       <c r="B327" s="14"/>
-      <c r="C327" s="74" t="s">
+      <c r="C327" s="58" t="s">
         <v>98</v>
       </c>
-      <c r="D327" s="74"/>
+      <c r="D327" s="58"/>
       <c r="E327" s="25" t="e">
         <f t="shared" ref="E327:O327" si="25">AVERAGE(E319:E326)</f>
         <v>#DIV/0!</v>
@@ -12623,25 +12635,25 @@
       <c r="R329"/>
     </row>
     <row r="330" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A330" s="79" t="s">
+      <c r="A330" s="75" t="s">
         <v>99</v>
       </c>
-      <c r="B330" s="79"/>
-      <c r="C330" s="79"/>
-      <c r="D330" s="79"/>
-      <c r="E330" s="79"/>
-      <c r="F330" s="79"/>
-      <c r="G330" s="79"/>
-      <c r="H330" s="79"/>
-      <c r="I330" s="79"/>
-      <c r="J330" s="79"/>
-      <c r="K330" s="79"/>
-      <c r="L330" s="79"/>
-      <c r="M330" s="79"/>
-      <c r="N330" s="79"/>
-      <c r="O330" s="79"/>
-      <c r="P330" s="79"/>
-      <c r="Q330" s="79"/>
+      <c r="B330" s="75"/>
+      <c r="C330" s="75"/>
+      <c r="D330" s="75"/>
+      <c r="E330" s="75"/>
+      <c r="F330" s="75"/>
+      <c r="G330" s="75"/>
+      <c r="H330" s="75"/>
+      <c r="I330" s="75"/>
+      <c r="J330" s="75"/>
+      <c r="K330" s="75"/>
+      <c r="L330" s="75"/>
+      <c r="M330" s="75"/>
+      <c r="N330" s="75"/>
+      <c r="O330" s="75"/>
+      <c r="P330" s="75"/>
+      <c r="Q330" s="75"/>
       <c r="R330"/>
     </row>
     <row r="331" spans="1:18" x14ac:dyDescent="0.3">
@@ -12649,10 +12661,10 @@
         <v>1</v>
       </c>
       <c r="B331" s="16"/>
-      <c r="C331" s="80" t="s">
+      <c r="C331" s="68" t="s">
         <v>68</v>
       </c>
-      <c r="D331" s="80"/>
+      <c r="D331" s="68"/>
       <c r="E331" s="17" t="s">
         <v>69</v>
       </c>
@@ -12699,10 +12711,10 @@
         <v>1</v>
       </c>
       <c r="B332" s="14"/>
-      <c r="C332" s="63" t="s">
+      <c r="C332" s="57" t="s">
         <v>94</v>
       </c>
-      <c r="D332" s="63"/>
+      <c r="D332" s="57"/>
       <c r="E332" s="25"/>
       <c r="F332" s="26"/>
       <c r="G332" s="27"/>
@@ -12723,10 +12735,10 @@
         <v>2</v>
       </c>
       <c r="B333" s="14"/>
-      <c r="C333" s="63" t="s">
+      <c r="C333" s="57" t="s">
         <v>95</v>
       </c>
-      <c r="D333" s="63"/>
+      <c r="D333" s="57"/>
       <c r="E333" s="25"/>
       <c r="F333" s="26"/>
       <c r="G333" s="27"/>
@@ -12747,10 +12759,10 @@
         <v>3</v>
       </c>
       <c r="B334" s="14"/>
-      <c r="C334" s="63" t="s">
+      <c r="C334" s="57" t="s">
         <v>96</v>
       </c>
-      <c r="D334" s="63"/>
+      <c r="D334" s="57"/>
       <c r="E334" s="25"/>
       <c r="F334" s="26"/>
       <c r="G334" s="27"/>
@@ -12770,10 +12782,10 @@
         <v>4</v>
       </c>
       <c r="B335" s="14"/>
-      <c r="C335" s="63" t="s">
+      <c r="C335" s="57" t="s">
         <v>97</v>
       </c>
-      <c r="D335" s="63"/>
+      <c r="D335" s="57"/>
       <c r="E335" s="25"/>
       <c r="F335" s="26"/>
       <c r="G335" s="27"/>
@@ -12789,10 +12801,10 @@
       <c r="Q335" s="29"/>
     </row>
     <row r="336" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="C336" s="74" t="s">
+      <c r="C336" s="58" t="s">
         <v>98</v>
       </c>
-      <c r="D336" s="74"/>
+      <c r="D336" s="58"/>
       <c r="E336" s="25"/>
       <c r="F336" s="26"/>
       <c r="G336" s="27"/>
@@ -12809,6 +12821,265 @@
     </row>
   </sheetData>
   <mergeCells count="283">
+    <mergeCell ref="C179:K179"/>
+    <mergeCell ref="C178:K178"/>
+    <mergeCell ref="C176:K176"/>
+    <mergeCell ref="C177:K177"/>
+    <mergeCell ref="C195:K195"/>
+    <mergeCell ref="C194:K194"/>
+    <mergeCell ref="C175:K175"/>
+    <mergeCell ref="C332:D332"/>
+    <mergeCell ref="C333:D333"/>
+    <mergeCell ref="C320:D320"/>
+    <mergeCell ref="C300:K300"/>
+    <mergeCell ref="C301:K301"/>
+    <mergeCell ref="C302:K302"/>
+    <mergeCell ref="C303:K303"/>
+    <mergeCell ref="C304:N304"/>
+    <mergeCell ref="A306:R306"/>
+    <mergeCell ref="C308:K308"/>
+    <mergeCell ref="C309:K309"/>
+    <mergeCell ref="C310:K310"/>
+    <mergeCell ref="C291:K291"/>
+    <mergeCell ref="C292:K292"/>
+    <mergeCell ref="C293:K293"/>
+    <mergeCell ref="C294:K294"/>
+    <mergeCell ref="C295:K295"/>
+    <mergeCell ref="C334:D334"/>
+    <mergeCell ref="C335:D335"/>
+    <mergeCell ref="C336:D336"/>
+    <mergeCell ref="A257:W259"/>
+    <mergeCell ref="A260:R260"/>
+    <mergeCell ref="C286:K286"/>
+    <mergeCell ref="C287:N287"/>
+    <mergeCell ref="C321:D321"/>
+    <mergeCell ref="C322:D322"/>
+    <mergeCell ref="C323:D323"/>
+    <mergeCell ref="C324:D324"/>
+    <mergeCell ref="C325:D325"/>
+    <mergeCell ref="C326:D326"/>
+    <mergeCell ref="C327:D327"/>
+    <mergeCell ref="A330:Q330"/>
+    <mergeCell ref="C331:D331"/>
+    <mergeCell ref="C311:K311"/>
+    <mergeCell ref="C312:K312"/>
+    <mergeCell ref="C313:K313"/>
+    <mergeCell ref="C314:K314"/>
+    <mergeCell ref="C315:N315"/>
+    <mergeCell ref="A317:Q317"/>
+    <mergeCell ref="C318:D318"/>
+    <mergeCell ref="C319:D319"/>
+    <mergeCell ref="C296:K296"/>
+    <mergeCell ref="C297:K297"/>
+    <mergeCell ref="C298:K298"/>
+    <mergeCell ref="C299:K299"/>
+    <mergeCell ref="C279:K279"/>
+    <mergeCell ref="C280:K280"/>
+    <mergeCell ref="C281:K281"/>
+    <mergeCell ref="C282:K282"/>
+    <mergeCell ref="C283:K283"/>
+    <mergeCell ref="C284:K284"/>
+    <mergeCell ref="C285:K285"/>
+    <mergeCell ref="A289:R289"/>
+    <mergeCell ref="C270:K270"/>
+    <mergeCell ref="C271:K271"/>
+    <mergeCell ref="C272:K272"/>
+    <mergeCell ref="C273:K273"/>
+    <mergeCell ref="C274:K274"/>
+    <mergeCell ref="C275:K275"/>
+    <mergeCell ref="C276:K276"/>
+    <mergeCell ref="C277:K277"/>
+    <mergeCell ref="C278:K278"/>
+    <mergeCell ref="C262:K262"/>
+    <mergeCell ref="C263:K263"/>
+    <mergeCell ref="C264:K264"/>
+    <mergeCell ref="C265:K265"/>
+    <mergeCell ref="C266:K266"/>
+    <mergeCell ref="C267:K267"/>
+    <mergeCell ref="C268:K268"/>
+    <mergeCell ref="C269:K269"/>
+    <mergeCell ref="A245:Q245"/>
+    <mergeCell ref="C246:D246"/>
+    <mergeCell ref="C247:D247"/>
+    <mergeCell ref="C248:D248"/>
+    <mergeCell ref="C249:D249"/>
+    <mergeCell ref="C250:D250"/>
+    <mergeCell ref="C251:D251"/>
+    <mergeCell ref="C234:D234"/>
+    <mergeCell ref="C235:D235"/>
+    <mergeCell ref="C236:D236"/>
+    <mergeCell ref="C237:D237"/>
+    <mergeCell ref="C238:D238"/>
+    <mergeCell ref="C239:D239"/>
+    <mergeCell ref="C240:D240"/>
+    <mergeCell ref="C241:D241"/>
+    <mergeCell ref="C242:D242"/>
+    <mergeCell ref="C223:K223"/>
+    <mergeCell ref="C224:K224"/>
+    <mergeCell ref="C225:K225"/>
+    <mergeCell ref="C226:K226"/>
+    <mergeCell ref="C227:K227"/>
+    <mergeCell ref="C228:K228"/>
+    <mergeCell ref="C229:N229"/>
+    <mergeCell ref="A231:Q231"/>
+    <mergeCell ref="C232:D232"/>
+    <mergeCell ref="C212:K212"/>
+    <mergeCell ref="C213:K213"/>
+    <mergeCell ref="C214:K214"/>
+    <mergeCell ref="C215:K215"/>
+    <mergeCell ref="C216:K216"/>
+    <mergeCell ref="C217:K217"/>
+    <mergeCell ref="C218:N218"/>
+    <mergeCell ref="A220:R220"/>
+    <mergeCell ref="C222:K222"/>
+    <mergeCell ref="C200:N200"/>
+    <mergeCell ref="A203:R203"/>
+    <mergeCell ref="C205:K205"/>
+    <mergeCell ref="C206:K206"/>
+    <mergeCell ref="C207:K207"/>
+    <mergeCell ref="C208:K208"/>
+    <mergeCell ref="C209:K209"/>
+    <mergeCell ref="C210:K210"/>
+    <mergeCell ref="C211:K211"/>
+    <mergeCell ref="C183:K183"/>
+    <mergeCell ref="C186:K186"/>
+    <mergeCell ref="C187:K187"/>
+    <mergeCell ref="C184:K184"/>
+    <mergeCell ref="C185:K185"/>
+    <mergeCell ref="C196:K196"/>
+    <mergeCell ref="C197:K197"/>
+    <mergeCell ref="C198:K198"/>
+    <mergeCell ref="C199:K199"/>
+    <mergeCell ref="C188:K188"/>
+    <mergeCell ref="C189:K189"/>
+    <mergeCell ref="C190:K190"/>
+    <mergeCell ref="C191:K191"/>
+    <mergeCell ref="C192:K192"/>
+    <mergeCell ref="C193:K193"/>
+    <mergeCell ref="C180:K180"/>
+    <mergeCell ref="C181:K181"/>
+    <mergeCell ref="C182:K182"/>
+    <mergeCell ref="A170:W172"/>
+    <mergeCell ref="A173:R173"/>
+    <mergeCell ref="C4:K4"/>
+    <mergeCell ref="C5:K5"/>
+    <mergeCell ref="C6:K6"/>
+    <mergeCell ref="C23:K23"/>
+    <mergeCell ref="C24:K24"/>
+    <mergeCell ref="C13:K13"/>
+    <mergeCell ref="C14:K14"/>
+    <mergeCell ref="C15:K15"/>
+    <mergeCell ref="C16:K16"/>
+    <mergeCell ref="C17:K17"/>
+    <mergeCell ref="C18:K18"/>
+    <mergeCell ref="C7:K7"/>
+    <mergeCell ref="C8:K8"/>
+    <mergeCell ref="C9:K9"/>
+    <mergeCell ref="C10:K10"/>
+    <mergeCell ref="C11:K11"/>
+    <mergeCell ref="C12:K12"/>
+    <mergeCell ref="C19:K19"/>
+    <mergeCell ref="C20:K20"/>
+    <mergeCell ref="C21:K21"/>
+    <mergeCell ref="C22:K22"/>
+    <mergeCell ref="A32:R32"/>
+    <mergeCell ref="A2:R2"/>
+    <mergeCell ref="C34:K34"/>
+    <mergeCell ref="C35:K35"/>
+    <mergeCell ref="C36:K36"/>
+    <mergeCell ref="C37:K37"/>
+    <mergeCell ref="C38:K38"/>
+    <mergeCell ref="C39:K39"/>
+    <mergeCell ref="C40:K40"/>
+    <mergeCell ref="C41:K41"/>
+    <mergeCell ref="C25:K25"/>
+    <mergeCell ref="C26:K26"/>
+    <mergeCell ref="C27:K27"/>
+    <mergeCell ref="C28:K28"/>
+    <mergeCell ref="C58:N58"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="C56:K56"/>
+    <mergeCell ref="C57:K57"/>
+    <mergeCell ref="C29:N29"/>
+    <mergeCell ref="C54:K54"/>
+    <mergeCell ref="C55:K55"/>
+    <mergeCell ref="C51:K51"/>
+    <mergeCell ref="C52:K52"/>
+    <mergeCell ref="C53:K53"/>
+    <mergeCell ref="C42:K42"/>
+    <mergeCell ref="C43:K43"/>
+    <mergeCell ref="C47:N47"/>
+    <mergeCell ref="A49:R49"/>
+    <mergeCell ref="C44:K44"/>
+    <mergeCell ref="C45:K45"/>
+    <mergeCell ref="C46:K46"/>
+    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="A60:Q60"/>
+    <mergeCell ref="A73:Q73"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="C89:K89"/>
+    <mergeCell ref="C90:K90"/>
+    <mergeCell ref="C97:K97"/>
+    <mergeCell ref="C98:K98"/>
+    <mergeCell ref="C99:K99"/>
+    <mergeCell ref="C100:K100"/>
+    <mergeCell ref="C101:K101"/>
+    <mergeCell ref="C102:K102"/>
+    <mergeCell ref="C91:K91"/>
+    <mergeCell ref="C92:K92"/>
+    <mergeCell ref="C93:K93"/>
+    <mergeCell ref="C94:K94"/>
+    <mergeCell ref="C95:K95"/>
+    <mergeCell ref="C96:K96"/>
+    <mergeCell ref="C119:K119"/>
+    <mergeCell ref="C120:K120"/>
+    <mergeCell ref="C121:K121"/>
+    <mergeCell ref="A117:R117"/>
+    <mergeCell ref="C103:K103"/>
+    <mergeCell ref="C104:K104"/>
+    <mergeCell ref="C105:K105"/>
+    <mergeCell ref="C106:K106"/>
+    <mergeCell ref="C107:K107"/>
+    <mergeCell ref="C108:K108"/>
+    <mergeCell ref="C109:K109"/>
+    <mergeCell ref="C114:N114"/>
+    <mergeCell ref="C151:D151"/>
+    <mergeCell ref="C155:D155"/>
+    <mergeCell ref="C152:D152"/>
+    <mergeCell ref="C153:D153"/>
+    <mergeCell ref="C154:D154"/>
+    <mergeCell ref="A158:Q158"/>
+    <mergeCell ref="C146:D146"/>
+    <mergeCell ref="C147:D147"/>
+    <mergeCell ref="C148:D148"/>
+    <mergeCell ref="C149:D149"/>
+    <mergeCell ref="C150:D150"/>
+    <mergeCell ref="A145:Q145"/>
+    <mergeCell ref="C138:K138"/>
+    <mergeCell ref="C143:N143"/>
+    <mergeCell ref="C128:K128"/>
+    <mergeCell ref="C129:K129"/>
+    <mergeCell ref="C130:K130"/>
+    <mergeCell ref="C131:K131"/>
+    <mergeCell ref="C122:K122"/>
+    <mergeCell ref="C123:K123"/>
+    <mergeCell ref="C124:K124"/>
+    <mergeCell ref="C125:K125"/>
+    <mergeCell ref="C126:K126"/>
+    <mergeCell ref="C127:K127"/>
+    <mergeCell ref="C136:K136"/>
+    <mergeCell ref="C137:K137"/>
     <mergeCell ref="C233:D233"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="C163:D163"/>
@@ -12833,265 +13104,6 @@
     <mergeCell ref="C111:K111"/>
     <mergeCell ref="C112:K112"/>
     <mergeCell ref="C113:K113"/>
-    <mergeCell ref="A145:Q145"/>
-    <mergeCell ref="C138:K138"/>
-    <mergeCell ref="C143:N143"/>
-    <mergeCell ref="C128:K128"/>
-    <mergeCell ref="C129:K129"/>
-    <mergeCell ref="C130:K130"/>
-    <mergeCell ref="C131:K131"/>
-    <mergeCell ref="C122:K122"/>
-    <mergeCell ref="C123:K123"/>
-    <mergeCell ref="C124:K124"/>
-    <mergeCell ref="C125:K125"/>
-    <mergeCell ref="C126:K126"/>
-    <mergeCell ref="C127:K127"/>
-    <mergeCell ref="C136:K136"/>
-    <mergeCell ref="C137:K137"/>
-    <mergeCell ref="C151:D151"/>
-    <mergeCell ref="C155:D155"/>
-    <mergeCell ref="C152:D152"/>
-    <mergeCell ref="C153:D153"/>
-    <mergeCell ref="C154:D154"/>
-    <mergeCell ref="A158:Q158"/>
-    <mergeCell ref="C146:D146"/>
-    <mergeCell ref="C147:D147"/>
-    <mergeCell ref="C148:D148"/>
-    <mergeCell ref="C149:D149"/>
-    <mergeCell ref="C150:D150"/>
-    <mergeCell ref="C119:K119"/>
-    <mergeCell ref="C120:K120"/>
-    <mergeCell ref="C121:K121"/>
-    <mergeCell ref="A117:R117"/>
-    <mergeCell ref="C103:K103"/>
-    <mergeCell ref="C104:K104"/>
-    <mergeCell ref="C105:K105"/>
-    <mergeCell ref="C106:K106"/>
-    <mergeCell ref="C107:K107"/>
-    <mergeCell ref="C108:K108"/>
-    <mergeCell ref="C109:K109"/>
-    <mergeCell ref="C114:N114"/>
-    <mergeCell ref="C89:K89"/>
-    <mergeCell ref="C90:K90"/>
-    <mergeCell ref="C97:K97"/>
-    <mergeCell ref="C98:K98"/>
-    <mergeCell ref="C99:K99"/>
-    <mergeCell ref="C100:K100"/>
-    <mergeCell ref="C101:K101"/>
-    <mergeCell ref="C102:K102"/>
-    <mergeCell ref="C91:K91"/>
-    <mergeCell ref="C92:K92"/>
-    <mergeCell ref="C93:K93"/>
-    <mergeCell ref="C94:K94"/>
-    <mergeCell ref="C95:K95"/>
-    <mergeCell ref="C96:K96"/>
-    <mergeCell ref="C79:D79"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="C81:D81"/>
-    <mergeCell ref="C75:D75"/>
-    <mergeCell ref="C76:D76"/>
-    <mergeCell ref="C77:D77"/>
-    <mergeCell ref="C78:D78"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="A60:Q60"/>
-    <mergeCell ref="A73:Q73"/>
-    <mergeCell ref="C74:D74"/>
-    <mergeCell ref="C67:D67"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="C68:D68"/>
-    <mergeCell ref="C69:D69"/>
-    <mergeCell ref="C39:K39"/>
-    <mergeCell ref="C40:K40"/>
-    <mergeCell ref="C41:K41"/>
-    <mergeCell ref="C25:K25"/>
-    <mergeCell ref="C26:K26"/>
-    <mergeCell ref="C27:K27"/>
-    <mergeCell ref="C28:K28"/>
-    <mergeCell ref="C58:N58"/>
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="C56:K56"/>
-    <mergeCell ref="C57:K57"/>
-    <mergeCell ref="C29:N29"/>
-    <mergeCell ref="C54:K54"/>
-    <mergeCell ref="C55:K55"/>
-    <mergeCell ref="C51:K51"/>
-    <mergeCell ref="C52:K52"/>
-    <mergeCell ref="C53:K53"/>
-    <mergeCell ref="C42:K42"/>
-    <mergeCell ref="C43:K43"/>
-    <mergeCell ref="C47:N47"/>
-    <mergeCell ref="A49:R49"/>
-    <mergeCell ref="C44:K44"/>
-    <mergeCell ref="C45:K45"/>
-    <mergeCell ref="C46:K46"/>
-    <mergeCell ref="C21:K21"/>
-    <mergeCell ref="C22:K22"/>
-    <mergeCell ref="A32:R32"/>
-    <mergeCell ref="A2:R2"/>
-    <mergeCell ref="C34:K34"/>
-    <mergeCell ref="C35:K35"/>
-    <mergeCell ref="C36:K36"/>
-    <mergeCell ref="C37:K37"/>
-    <mergeCell ref="C38:K38"/>
-    <mergeCell ref="C180:K180"/>
-    <mergeCell ref="C181:K181"/>
-    <mergeCell ref="C182:K182"/>
-    <mergeCell ref="A170:W172"/>
-    <mergeCell ref="A173:R173"/>
-    <mergeCell ref="C4:K4"/>
-    <mergeCell ref="C5:K5"/>
-    <mergeCell ref="C6:K6"/>
-    <mergeCell ref="C23:K23"/>
-    <mergeCell ref="C24:K24"/>
-    <mergeCell ref="C13:K13"/>
-    <mergeCell ref="C14:K14"/>
-    <mergeCell ref="C15:K15"/>
-    <mergeCell ref="C16:K16"/>
-    <mergeCell ref="C17:K17"/>
-    <mergeCell ref="C18:K18"/>
-    <mergeCell ref="C7:K7"/>
-    <mergeCell ref="C8:K8"/>
-    <mergeCell ref="C9:K9"/>
-    <mergeCell ref="C10:K10"/>
-    <mergeCell ref="C11:K11"/>
-    <mergeCell ref="C12:K12"/>
-    <mergeCell ref="C19:K19"/>
-    <mergeCell ref="C20:K20"/>
-    <mergeCell ref="C183:K183"/>
-    <mergeCell ref="C186:K186"/>
-    <mergeCell ref="C187:K187"/>
-    <mergeCell ref="C184:K184"/>
-    <mergeCell ref="C185:K185"/>
-    <mergeCell ref="C196:K196"/>
-    <mergeCell ref="C197:K197"/>
-    <mergeCell ref="C198:K198"/>
-    <mergeCell ref="C199:K199"/>
-    <mergeCell ref="C188:K188"/>
-    <mergeCell ref="C189:K189"/>
-    <mergeCell ref="C190:K190"/>
-    <mergeCell ref="C191:K191"/>
-    <mergeCell ref="C192:K192"/>
-    <mergeCell ref="C193:K193"/>
-    <mergeCell ref="C200:N200"/>
-    <mergeCell ref="A203:R203"/>
-    <mergeCell ref="C205:K205"/>
-    <mergeCell ref="C206:K206"/>
-    <mergeCell ref="C207:K207"/>
-    <mergeCell ref="C208:K208"/>
-    <mergeCell ref="C209:K209"/>
-    <mergeCell ref="C210:K210"/>
-    <mergeCell ref="C211:K211"/>
-    <mergeCell ref="C212:K212"/>
-    <mergeCell ref="C213:K213"/>
-    <mergeCell ref="C214:K214"/>
-    <mergeCell ref="C215:K215"/>
-    <mergeCell ref="C216:K216"/>
-    <mergeCell ref="C217:K217"/>
-    <mergeCell ref="C218:N218"/>
-    <mergeCell ref="A220:R220"/>
-    <mergeCell ref="C222:K222"/>
-    <mergeCell ref="C223:K223"/>
-    <mergeCell ref="C224:K224"/>
-    <mergeCell ref="C225:K225"/>
-    <mergeCell ref="C226:K226"/>
-    <mergeCell ref="C227:K227"/>
-    <mergeCell ref="C228:K228"/>
-    <mergeCell ref="C229:N229"/>
-    <mergeCell ref="A231:Q231"/>
-    <mergeCell ref="C232:D232"/>
-    <mergeCell ref="C234:D234"/>
-    <mergeCell ref="C235:D235"/>
-    <mergeCell ref="C236:D236"/>
-    <mergeCell ref="C237:D237"/>
-    <mergeCell ref="C238:D238"/>
-    <mergeCell ref="C239:D239"/>
-    <mergeCell ref="C240:D240"/>
-    <mergeCell ref="C241:D241"/>
-    <mergeCell ref="C242:D242"/>
-    <mergeCell ref="C262:K262"/>
-    <mergeCell ref="C263:K263"/>
-    <mergeCell ref="C264:K264"/>
-    <mergeCell ref="C265:K265"/>
-    <mergeCell ref="C266:K266"/>
-    <mergeCell ref="C267:K267"/>
-    <mergeCell ref="C268:K268"/>
-    <mergeCell ref="C269:K269"/>
-    <mergeCell ref="A245:Q245"/>
-    <mergeCell ref="C246:D246"/>
-    <mergeCell ref="C247:D247"/>
-    <mergeCell ref="C248:D248"/>
-    <mergeCell ref="C249:D249"/>
-    <mergeCell ref="C250:D250"/>
-    <mergeCell ref="C251:D251"/>
-    <mergeCell ref="C270:K270"/>
-    <mergeCell ref="C271:K271"/>
-    <mergeCell ref="C272:K272"/>
-    <mergeCell ref="C273:K273"/>
-    <mergeCell ref="C274:K274"/>
-    <mergeCell ref="C275:K275"/>
-    <mergeCell ref="C276:K276"/>
-    <mergeCell ref="C277:K277"/>
-    <mergeCell ref="C278:K278"/>
-    <mergeCell ref="C296:K296"/>
-    <mergeCell ref="C297:K297"/>
-    <mergeCell ref="C298:K298"/>
-    <mergeCell ref="C299:K299"/>
-    <mergeCell ref="C279:K279"/>
-    <mergeCell ref="C280:K280"/>
-    <mergeCell ref="C281:K281"/>
-    <mergeCell ref="C282:K282"/>
-    <mergeCell ref="C283:K283"/>
-    <mergeCell ref="C284:K284"/>
-    <mergeCell ref="C285:K285"/>
-    <mergeCell ref="A289:R289"/>
-    <mergeCell ref="C334:D334"/>
-    <mergeCell ref="C335:D335"/>
-    <mergeCell ref="C336:D336"/>
-    <mergeCell ref="A257:W259"/>
-    <mergeCell ref="A260:R260"/>
-    <mergeCell ref="C286:K286"/>
-    <mergeCell ref="C287:N287"/>
-    <mergeCell ref="C321:D321"/>
-    <mergeCell ref="C322:D322"/>
-    <mergeCell ref="C323:D323"/>
-    <mergeCell ref="C324:D324"/>
-    <mergeCell ref="C325:D325"/>
-    <mergeCell ref="C326:D326"/>
-    <mergeCell ref="C327:D327"/>
-    <mergeCell ref="A330:Q330"/>
-    <mergeCell ref="C331:D331"/>
-    <mergeCell ref="C311:K311"/>
-    <mergeCell ref="C312:K312"/>
-    <mergeCell ref="C313:K313"/>
-    <mergeCell ref="C314:K314"/>
-    <mergeCell ref="C315:N315"/>
-    <mergeCell ref="A317:Q317"/>
-    <mergeCell ref="C318:D318"/>
-    <mergeCell ref="C319:D319"/>
-    <mergeCell ref="C179:K179"/>
-    <mergeCell ref="C178:K178"/>
-    <mergeCell ref="C176:K176"/>
-    <mergeCell ref="C177:K177"/>
-    <mergeCell ref="C195:K195"/>
-    <mergeCell ref="C194:K194"/>
-    <mergeCell ref="C175:K175"/>
-    <mergeCell ref="C332:D332"/>
-    <mergeCell ref="C333:D333"/>
-    <mergeCell ref="C320:D320"/>
-    <mergeCell ref="C300:K300"/>
-    <mergeCell ref="C301:K301"/>
-    <mergeCell ref="C302:K302"/>
-    <mergeCell ref="C303:K303"/>
-    <mergeCell ref="C304:N304"/>
-    <mergeCell ref="A306:R306"/>
-    <mergeCell ref="C308:K308"/>
-    <mergeCell ref="C309:K309"/>
-    <mergeCell ref="C310:K310"/>
-    <mergeCell ref="C291:K291"/>
-    <mergeCell ref="C292:K292"/>
-    <mergeCell ref="C293:K293"/>
-    <mergeCell ref="C294:K294"/>
-    <mergeCell ref="C295:K295"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="C5:K28">
@@ -15810,103 +15822,103 @@
   </cols>
   <sheetData>
     <row r="4" spans="3:25" x14ac:dyDescent="0.3">
-      <c r="C4" s="75" t="s">
+      <c r="C4" s="59" t="s">
         <v>107</v>
       </c>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="75"/>
-      <c r="K4" s="75"/>
-      <c r="L4" s="75"/>
-      <c r="M4" s="75"/>
-      <c r="N4" s="75"/>
-      <c r="O4" s="75"/>
-      <c r="P4" s="75"/>
-      <c r="Q4" s="75"/>
-      <c r="R4" s="75"/>
-      <c r="S4" s="75"/>
-      <c r="T4" s="75"/>
-      <c r="U4" s="75"/>
-      <c r="V4" s="75"/>
-      <c r="W4" s="75"/>
-      <c r="X4" s="75"/>
-      <c r="Y4" s="75"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="59"/>
+      <c r="G4" s="59"/>
+      <c r="H4" s="59"/>
+      <c r="I4" s="59"/>
+      <c r="J4" s="59"/>
+      <c r="K4" s="59"/>
+      <c r="L4" s="59"/>
+      <c r="M4" s="59"/>
+      <c r="N4" s="59"/>
+      <c r="O4" s="59"/>
+      <c r="P4" s="59"/>
+      <c r="Q4" s="59"/>
+      <c r="R4" s="59"/>
+      <c r="S4" s="59"/>
+      <c r="T4" s="59"/>
+      <c r="U4" s="59"/>
+      <c r="V4" s="59"/>
+      <c r="W4" s="59"/>
+      <c r="X4" s="59"/>
+      <c r="Y4" s="59"/>
     </row>
     <row r="5" spans="3:25" x14ac:dyDescent="0.3">
-      <c r="C5" s="75"/>
-      <c r="D5" s="75"/>
-      <c r="E5" s="75"/>
-      <c r="F5" s="75"/>
-      <c r="G5" s="75"/>
-      <c r="H5" s="75"/>
-      <c r="I5" s="75"/>
-      <c r="J5" s="75"/>
-      <c r="K5" s="75"/>
-      <c r="L5" s="75"/>
-      <c r="M5" s="75"/>
-      <c r="N5" s="75"/>
-      <c r="O5" s="75"/>
-      <c r="P5" s="75"/>
-      <c r="Q5" s="75"/>
-      <c r="R5" s="75"/>
-      <c r="S5" s="75"/>
-      <c r="T5" s="75"/>
-      <c r="U5" s="75"/>
-      <c r="V5" s="75"/>
-      <c r="W5" s="75"/>
-      <c r="X5" s="75"/>
-      <c r="Y5" s="75"/>
+      <c r="C5" s="59"/>
+      <c r="D5" s="59"/>
+      <c r="E5" s="59"/>
+      <c r="F5" s="59"/>
+      <c r="G5" s="59"/>
+      <c r="H5" s="59"/>
+      <c r="I5" s="59"/>
+      <c r="J5" s="59"/>
+      <c r="K5" s="59"/>
+      <c r="L5" s="59"/>
+      <c r="M5" s="59"/>
+      <c r="N5" s="59"/>
+      <c r="O5" s="59"/>
+      <c r="P5" s="59"/>
+      <c r="Q5" s="59"/>
+      <c r="R5" s="59"/>
+      <c r="S5" s="59"/>
+      <c r="T5" s="59"/>
+      <c r="U5" s="59"/>
+      <c r="V5" s="59"/>
+      <c r="W5" s="59"/>
+      <c r="X5" s="59"/>
+      <c r="Y5" s="59"/>
     </row>
     <row r="6" spans="3:25" x14ac:dyDescent="0.3">
-      <c r="C6" s="75"/>
-      <c r="D6" s="75"/>
-      <c r="E6" s="75"/>
-      <c r="F6" s="75"/>
-      <c r="G6" s="75"/>
-      <c r="H6" s="75"/>
-      <c r="I6" s="75"/>
-      <c r="J6" s="75"/>
-      <c r="K6" s="75"/>
-      <c r="L6" s="75"/>
-      <c r="M6" s="75"/>
-      <c r="N6" s="75"/>
-      <c r="O6" s="75"/>
-      <c r="P6" s="75"/>
-      <c r="Q6" s="75"/>
-      <c r="R6" s="75"/>
-      <c r="S6" s="75"/>
-      <c r="T6" s="75"/>
-      <c r="U6" s="75"/>
-      <c r="V6" s="75"/>
-      <c r="W6" s="75"/>
-      <c r="X6" s="75"/>
-      <c r="Y6" s="75"/>
+      <c r="C6" s="59"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="59"/>
+      <c r="F6" s="59"/>
+      <c r="G6" s="59"/>
+      <c r="H6" s="59"/>
+      <c r="I6" s="59"/>
+      <c r="J6" s="59"/>
+      <c r="K6" s="59"/>
+      <c r="L6" s="59"/>
+      <c r="M6" s="59"/>
+      <c r="N6" s="59"/>
+      <c r="O6" s="59"/>
+      <c r="P6" s="59"/>
+      <c r="Q6" s="59"/>
+      <c r="R6" s="59"/>
+      <c r="S6" s="59"/>
+      <c r="T6" s="59"/>
+      <c r="U6" s="59"/>
+      <c r="V6" s="59"/>
+      <c r="W6" s="59"/>
+      <c r="X6" s="59"/>
+      <c r="Y6" s="59"/>
     </row>
     <row r="7" spans="3:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C7" s="76" t="s">
+      <c r="C7" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="D7" s="77"/>
-      <c r="E7" s="77"/>
-      <c r="F7" s="77"/>
-      <c r="G7" s="77"/>
-      <c r="H7" s="77"/>
-      <c r="I7" s="77"/>
-      <c r="J7" s="77"/>
-      <c r="K7" s="77"/>
-      <c r="L7" s="77"/>
-      <c r="M7" s="77"/>
-      <c r="N7" s="77"/>
-      <c r="O7" s="77"/>
-      <c r="P7" s="77"/>
-      <c r="Q7" s="77"/>
-      <c r="R7" s="77"/>
-      <c r="S7" s="77"/>
-      <c r="T7" s="78"/>
+      <c r="D7" s="70"/>
+      <c r="E7" s="70"/>
+      <c r="F7" s="70"/>
+      <c r="G7" s="70"/>
+      <c r="H7" s="70"/>
+      <c r="I7" s="70"/>
+      <c r="J7" s="70"/>
+      <c r="K7" s="70"/>
+      <c r="L7" s="70"/>
+      <c r="M7" s="70"/>
+      <c r="N7" s="70"/>
+      <c r="O7" s="70"/>
+      <c r="P7" s="70"/>
+      <c r="Q7" s="70"/>
+      <c r="R7" s="70"/>
+      <c r="S7" s="70"/>
+      <c r="T7" s="71"/>
       <c r="U7" s="38"/>
       <c r="V7" s="38"/>
       <c r="W7" s="38"/>
@@ -15922,17 +15934,17 @@
       <c r="D9" s="46" t="s">
         <v>105</v>
       </c>
-      <c r="E9" s="72" t="s">
+      <c r="E9" s="73" t="s">
         <v>108</v>
       </c>
-      <c r="F9" s="72"/>
-      <c r="G9" s="72"/>
-      <c r="H9" s="72"/>
-      <c r="I9" s="72"/>
-      <c r="J9" s="72"/>
-      <c r="K9" s="72"/>
-      <c r="L9" s="72"/>
-      <c r="M9" s="72"/>
+      <c r="F9" s="73"/>
+      <c r="G9" s="73"/>
+      <c r="H9" s="73"/>
+      <c r="I9" s="73"/>
+      <c r="J9" s="73"/>
+      <c r="K9" s="73"/>
+      <c r="L9" s="73"/>
+      <c r="M9" s="73"/>
       <c r="N9" s="5" t="s">
         <v>2</v>
       </c>
@@ -15972,17 +15984,17 @@
       <c r="D10" s="44">
         <v>44683</v>
       </c>
-      <c r="E10" s="54" t="s">
+      <c r="E10" s="83" t="s">
         <v>43</v>
       </c>
-      <c r="F10" s="55"/>
-      <c r="G10" s="55"/>
-      <c r="H10" s="55"/>
-      <c r="I10" s="55"/>
-      <c r="J10" s="55"/>
-      <c r="K10" s="55"/>
-      <c r="L10" s="55"/>
-      <c r="M10" s="56"/>
+      <c r="F10" s="84"/>
+      <c r="G10" s="84"/>
+      <c r="H10" s="84"/>
+      <c r="I10" s="84"/>
+      <c r="J10" s="84"/>
+      <c r="K10" s="84"/>
+      <c r="L10" s="84"/>
+      <c r="M10" s="85"/>
       <c r="N10" s="6">
         <v>17</v>
       </c>
@@ -16010,17 +16022,17 @@
       <c r="D11" s="41">
         <v>44684</v>
       </c>
-      <c r="E11" s="57" t="s">
+      <c r="E11" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="F11" s="58"/>
-      <c r="G11" s="58"/>
-      <c r="H11" s="58"/>
-      <c r="I11" s="58"/>
-      <c r="J11" s="58"/>
-      <c r="K11" s="58"/>
-      <c r="L11" s="58"/>
-      <c r="M11" s="59"/>
+      <c r="F11" s="88"/>
+      <c r="G11" s="88"/>
+      <c r="H11" s="88"/>
+      <c r="I11" s="88"/>
+      <c r="J11" s="88"/>
+      <c r="K11" s="88"/>
+      <c r="L11" s="88"/>
+      <c r="M11" s="89"/>
       <c r="N11" s="6">
         <v>17</v>
       </c>
@@ -16048,17 +16060,17 @@
       <c r="D12" s="41">
         <v>44686</v>
       </c>
-      <c r="E12" s="54" t="s">
+      <c r="E12" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="F12" s="55"/>
-      <c r="G12" s="55"/>
-      <c r="H12" s="55"/>
-      <c r="I12" s="55"/>
-      <c r="J12" s="55"/>
-      <c r="K12" s="55"/>
-      <c r="L12" s="55"/>
-      <c r="M12" s="56"/>
+      <c r="F12" s="84"/>
+      <c r="G12" s="84"/>
+      <c r="H12" s="84"/>
+      <c r="I12" s="84"/>
+      <c r="J12" s="84"/>
+      <c r="K12" s="84"/>
+      <c r="L12" s="84"/>
+      <c r="M12" s="85"/>
       <c r="N12" s="6">
         <v>17</v>
       </c>
@@ -16086,17 +16098,17 @@
       <c r="D13" s="41">
         <v>44688</v>
       </c>
-      <c r="E13" s="54" t="s">
+      <c r="E13" s="83" t="s">
         <v>40</v>
       </c>
-      <c r="F13" s="55"/>
-      <c r="G13" s="55"/>
-      <c r="H13" s="55"/>
-      <c r="I13" s="55"/>
-      <c r="J13" s="55"/>
-      <c r="K13" s="55"/>
-      <c r="L13" s="55"/>
-      <c r="M13" s="56"/>
+      <c r="F13" s="84"/>
+      <c r="G13" s="84"/>
+      <c r="H13" s="84"/>
+      <c r="I13" s="84"/>
+      <c r="J13" s="84"/>
+      <c r="K13" s="84"/>
+      <c r="L13" s="84"/>
+      <c r="M13" s="85"/>
       <c r="N13" s="6">
         <v>17</v>
       </c>
@@ -16124,17 +16136,17 @@
       <c r="D14" s="41">
         <v>44696</v>
       </c>
-      <c r="E14" s="57" t="s">
+      <c r="E14" s="87" t="s">
         <v>5</v>
       </c>
-      <c r="F14" s="58"/>
-      <c r="G14" s="58"/>
-      <c r="H14" s="58"/>
-      <c r="I14" s="58"/>
-      <c r="J14" s="58"/>
-      <c r="K14" s="58"/>
-      <c r="L14" s="58"/>
-      <c r="M14" s="59"/>
+      <c r="F14" s="88"/>
+      <c r="G14" s="88"/>
+      <c r="H14" s="88"/>
+      <c r="I14" s="88"/>
+      <c r="J14" s="88"/>
+      <c r="K14" s="88"/>
+      <c r="L14" s="88"/>
+      <c r="M14" s="89"/>
       <c r="N14" s="6">
         <v>17</v>
       </c>
@@ -16162,17 +16174,17 @@
       <c r="D15" s="41">
         <v>44700</v>
       </c>
-      <c r="E15" s="54" t="s">
+      <c r="E15" s="83" t="s">
         <v>33</v>
       </c>
-      <c r="F15" s="55"/>
-      <c r="G15" s="55"/>
-      <c r="H15" s="55"/>
-      <c r="I15" s="55"/>
-      <c r="J15" s="55"/>
-      <c r="K15" s="55"/>
-      <c r="L15" s="55"/>
-      <c r="M15" s="56"/>
+      <c r="F15" s="84"/>
+      <c r="G15" s="84"/>
+      <c r="H15" s="84"/>
+      <c r="I15" s="84"/>
+      <c r="J15" s="84"/>
+      <c r="K15" s="84"/>
+      <c r="L15" s="84"/>
+      <c r="M15" s="85"/>
       <c r="N15" s="6">
         <v>17</v>
       </c>
@@ -16200,17 +16212,17 @@
       <c r="D16" s="41">
         <v>44703</v>
       </c>
-      <c r="E16" s="57" t="s">
+      <c r="E16" s="87" t="s">
         <v>9</v>
       </c>
-      <c r="F16" s="58"/>
-      <c r="G16" s="58"/>
-      <c r="H16" s="58"/>
-      <c r="I16" s="58"/>
-      <c r="J16" s="58"/>
-      <c r="K16" s="58"/>
-      <c r="L16" s="58"/>
-      <c r="M16" s="59"/>
+      <c r="F16" s="88"/>
+      <c r="G16" s="88"/>
+      <c r="H16" s="88"/>
+      <c r="I16" s="88"/>
+      <c r="J16" s="88"/>
+      <c r="K16" s="88"/>
+      <c r="L16" s="88"/>
+      <c r="M16" s="89"/>
       <c r="N16" s="6">
         <v>17</v>
       </c>
@@ -16238,17 +16250,17 @@
       <c r="D17" s="41">
         <v>44707</v>
       </c>
-      <c r="E17" s="57" t="s">
+      <c r="E17" s="87" t="s">
         <v>44</v>
       </c>
-      <c r="F17" s="58"/>
-      <c r="G17" s="58"/>
-      <c r="H17" s="58"/>
-      <c r="I17" s="58"/>
-      <c r="J17" s="58"/>
-      <c r="K17" s="58"/>
-      <c r="L17" s="58"/>
-      <c r="M17" s="59"/>
+      <c r="F17" s="88"/>
+      <c r="G17" s="88"/>
+      <c r="H17" s="88"/>
+      <c r="I17" s="88"/>
+      <c r="J17" s="88"/>
+      <c r="K17" s="88"/>
+      <c r="L17" s="88"/>
+      <c r="M17" s="89"/>
       <c r="N17" s="6">
         <v>17</v>
       </c>
@@ -16273,17 +16285,17 @@
       <c r="D18" s="41">
         <v>44712</v>
       </c>
-      <c r="E18" s="54" t="s">
+      <c r="E18" s="83" t="s">
         <v>34</v>
       </c>
-      <c r="F18" s="55"/>
-      <c r="G18" s="55"/>
-      <c r="H18" s="55"/>
-      <c r="I18" s="55"/>
-      <c r="J18" s="55"/>
-      <c r="K18" s="55"/>
-      <c r="L18" s="55"/>
-      <c r="M18" s="56"/>
+      <c r="F18" s="84"/>
+      <c r="G18" s="84"/>
+      <c r="H18" s="84"/>
+      <c r="I18" s="84"/>
+      <c r="J18" s="84"/>
+      <c r="K18" s="84"/>
+      <c r="L18" s="84"/>
+      <c r="M18" s="85"/>
       <c r="N18" s="6">
         <v>17</v>
       </c>
@@ -16308,17 +16320,17 @@
       <c r="D19" s="41">
         <v>44717</v>
       </c>
-      <c r="E19" s="57" t="s">
+      <c r="E19" s="87" t="s">
         <v>35</v>
       </c>
-      <c r="F19" s="58"/>
-      <c r="G19" s="58"/>
-      <c r="H19" s="58"/>
-      <c r="I19" s="58"/>
-      <c r="J19" s="58"/>
-      <c r="K19" s="58"/>
-      <c r="L19" s="58"/>
-      <c r="M19" s="59"/>
+      <c r="F19" s="88"/>
+      <c r="G19" s="88"/>
+      <c r="H19" s="88"/>
+      <c r="I19" s="88"/>
+      <c r="J19" s="88"/>
+      <c r="K19" s="88"/>
+      <c r="L19" s="88"/>
+      <c r="M19" s="89"/>
       <c r="N19" s="6">
         <v>17</v>
       </c>
@@ -16346,17 +16358,17 @@
       <c r="D20" s="41">
         <v>44722</v>
       </c>
-      <c r="E20" s="54" t="s">
+      <c r="E20" s="83" t="s">
         <v>36</v>
       </c>
-      <c r="F20" s="55"/>
-      <c r="G20" s="55"/>
-      <c r="H20" s="55"/>
-      <c r="I20" s="55"/>
-      <c r="J20" s="55"/>
-      <c r="K20" s="55"/>
-      <c r="L20" s="55"/>
-      <c r="M20" s="56"/>
+      <c r="F20" s="84"/>
+      <c r="G20" s="84"/>
+      <c r="H20" s="84"/>
+      <c r="I20" s="84"/>
+      <c r="J20" s="84"/>
+      <c r="K20" s="84"/>
+      <c r="L20" s="84"/>
+      <c r="M20" s="85"/>
       <c r="N20" s="6">
         <v>17</v>
       </c>
@@ -16381,17 +16393,17 @@
       <c r="D21" s="41">
         <v>44727</v>
       </c>
-      <c r="E21" s="54" t="s">
+      <c r="E21" s="83" t="s">
         <v>37</v>
       </c>
-      <c r="F21" s="55"/>
-      <c r="G21" s="55"/>
-      <c r="H21" s="55"/>
-      <c r="I21" s="55"/>
-      <c r="J21" s="55"/>
-      <c r="K21" s="55"/>
-      <c r="L21" s="55"/>
-      <c r="M21" s="56"/>
+      <c r="F21" s="84"/>
+      <c r="G21" s="84"/>
+      <c r="H21" s="84"/>
+      <c r="I21" s="84"/>
+      <c r="J21" s="84"/>
+      <c r="K21" s="84"/>
+      <c r="L21" s="84"/>
+      <c r="M21" s="85"/>
       <c r="N21" s="6">
         <v>17</v>
       </c>
@@ -16416,17 +16428,17 @@
       <c r="D22" s="41" t="s">
         <v>109</v>
       </c>
-      <c r="E22" s="54" t="s">
+      <c r="E22" s="83" t="s">
         <v>45</v>
       </c>
-      <c r="F22" s="55"/>
-      <c r="G22" s="55"/>
-      <c r="H22" s="55"/>
-      <c r="I22" s="55"/>
-      <c r="J22" s="55"/>
-      <c r="K22" s="55"/>
-      <c r="L22" s="55"/>
-      <c r="M22" s="56"/>
+      <c r="F22" s="84"/>
+      <c r="G22" s="84"/>
+      <c r="H22" s="84"/>
+      <c r="I22" s="84"/>
+      <c r="J22" s="84"/>
+      <c r="K22" s="84"/>
+      <c r="L22" s="84"/>
+      <c r="M22" s="85"/>
       <c r="N22" s="6">
         <v>17</v>
       </c>
@@ -16454,17 +16466,17 @@
       <c r="D23" s="41" t="s">
         <v>110</v>
       </c>
-      <c r="E23" s="54" t="s">
+      <c r="E23" s="83" t="s">
         <v>46</v>
       </c>
-      <c r="F23" s="55"/>
-      <c r="G23" s="55"/>
-      <c r="H23" s="55"/>
-      <c r="I23" s="55"/>
-      <c r="J23" s="55"/>
-      <c r="K23" s="55"/>
-      <c r="L23" s="55"/>
-      <c r="M23" s="56"/>
+      <c r="F23" s="84"/>
+      <c r="G23" s="84"/>
+      <c r="H23" s="84"/>
+      <c r="I23" s="84"/>
+      <c r="J23" s="84"/>
+      <c r="K23" s="84"/>
+      <c r="L23" s="84"/>
+      <c r="M23" s="85"/>
       <c r="N23" s="6">
         <v>17</v>
       </c>
@@ -16492,17 +16504,17 @@
       <c r="D24" s="41">
         <v>44736</v>
       </c>
-      <c r="E24" s="57" t="s">
+      <c r="E24" s="87" t="s">
         <v>7</v>
       </c>
-      <c r="F24" s="58"/>
-      <c r="G24" s="58"/>
-      <c r="H24" s="58"/>
-      <c r="I24" s="58"/>
-      <c r="J24" s="58"/>
-      <c r="K24" s="58"/>
-      <c r="L24" s="58"/>
-      <c r="M24" s="59"/>
+      <c r="F24" s="88"/>
+      <c r="G24" s="88"/>
+      <c r="H24" s="88"/>
+      <c r="I24" s="88"/>
+      <c r="J24" s="88"/>
+      <c r="K24" s="88"/>
+      <c r="L24" s="88"/>
+      <c r="M24" s="89"/>
       <c r="N24" s="6">
         <v>17</v>
       </c>
@@ -16530,17 +16542,17 @@
       <c r="D25" s="41">
         <v>44740</v>
       </c>
-      <c r="E25" s="54" t="s">
+      <c r="E25" s="83" t="s">
         <v>38</v>
       </c>
-      <c r="F25" s="55"/>
-      <c r="G25" s="55"/>
-      <c r="H25" s="55"/>
-      <c r="I25" s="55"/>
-      <c r="J25" s="55"/>
-      <c r="K25" s="55"/>
-      <c r="L25" s="55"/>
-      <c r="M25" s="56"/>
+      <c r="F25" s="84"/>
+      <c r="G25" s="84"/>
+      <c r="H25" s="84"/>
+      <c r="I25" s="84"/>
+      <c r="J25" s="84"/>
+      <c r="K25" s="84"/>
+      <c r="L25" s="84"/>
+      <c r="M25" s="85"/>
       <c r="N25" s="6">
         <v>17</v>
       </c>
@@ -16568,17 +16580,17 @@
       <c r="D26" s="41">
         <v>44745</v>
       </c>
-      <c r="E26" s="57" t="s">
+      <c r="E26" s="87" t="s">
         <v>11</v>
       </c>
-      <c r="F26" s="58"/>
-      <c r="G26" s="58"/>
-      <c r="H26" s="58"/>
-      <c r="I26" s="58"/>
-      <c r="J26" s="58"/>
-      <c r="K26" s="58"/>
-      <c r="L26" s="58"/>
-      <c r="M26" s="59"/>
+      <c r="F26" s="88"/>
+      <c r="G26" s="88"/>
+      <c r="H26" s="88"/>
+      <c r="I26" s="88"/>
+      <c r="J26" s="88"/>
+      <c r="K26" s="88"/>
+      <c r="L26" s="88"/>
+      <c r="M26" s="89"/>
       <c r="N26" s="6">
         <v>17</v>
       </c>
@@ -16606,17 +16618,17 @@
       <c r="D27" s="41">
         <v>44750</v>
       </c>
-      <c r="E27" s="54" t="s">
+      <c r="E27" s="83" t="s">
         <v>48</v>
       </c>
-      <c r="F27" s="55"/>
-      <c r="G27" s="55"/>
-      <c r="H27" s="55"/>
-      <c r="I27" s="55"/>
-      <c r="J27" s="55"/>
-      <c r="K27" s="55"/>
-      <c r="L27" s="55"/>
-      <c r="M27" s="56"/>
+      <c r="F27" s="84"/>
+      <c r="G27" s="84"/>
+      <c r="H27" s="84"/>
+      <c r="I27" s="84"/>
+      <c r="J27" s="84"/>
+      <c r="K27" s="84"/>
+      <c r="L27" s="84"/>
+      <c r="M27" s="85"/>
       <c r="N27" s="6">
         <v>17</v>
       </c>
@@ -16641,17 +16653,17 @@
       <c r="D28" s="41">
         <v>44752</v>
       </c>
-      <c r="E28" s="58" t="s">
+      <c r="E28" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="F28" s="58"/>
-      <c r="G28" s="58"/>
-      <c r="H28" s="58"/>
-      <c r="I28" s="58"/>
-      <c r="J28" s="58"/>
-      <c r="K28" s="58"/>
-      <c r="L28" s="58"/>
-      <c r="M28" s="59"/>
+      <c r="F28" s="88"/>
+      <c r="G28" s="88"/>
+      <c r="H28" s="88"/>
+      <c r="I28" s="88"/>
+      <c r="J28" s="88"/>
+      <c r="K28" s="88"/>
+      <c r="L28" s="88"/>
+      <c r="M28" s="89"/>
       <c r="N28" s="6">
         <v>17</v>
       </c>
@@ -16679,17 +16691,17 @@
       <c r="D29" s="41">
         <v>44754</v>
       </c>
-      <c r="E29" s="55" t="s">
+      <c r="E29" s="84" t="s">
         <v>49</v>
       </c>
-      <c r="F29" s="55"/>
-      <c r="G29" s="55"/>
-      <c r="H29" s="55"/>
-      <c r="I29" s="55"/>
-      <c r="J29" s="55"/>
-      <c r="K29" s="55"/>
-      <c r="L29" s="55"/>
-      <c r="M29" s="56"/>
+      <c r="F29" s="84"/>
+      <c r="G29" s="84"/>
+      <c r="H29" s="84"/>
+      <c r="I29" s="84"/>
+      <c r="J29" s="84"/>
+      <c r="K29" s="84"/>
+      <c r="L29" s="84"/>
+      <c r="M29" s="85"/>
       <c r="N29" s="6">
         <v>17</v>
       </c>
@@ -16714,17 +16726,17 @@
       <c r="D30" s="41">
         <v>44757</v>
       </c>
-      <c r="E30" s="57" t="s">
+      <c r="E30" s="87" t="s">
         <v>10</v>
       </c>
-      <c r="F30" s="58"/>
-      <c r="G30" s="58"/>
-      <c r="H30" s="58"/>
-      <c r="I30" s="58"/>
-      <c r="J30" s="58"/>
-      <c r="K30" s="58"/>
-      <c r="L30" s="58"/>
-      <c r="M30" s="59"/>
+      <c r="F30" s="88"/>
+      <c r="G30" s="88"/>
+      <c r="H30" s="88"/>
+      <c r="I30" s="88"/>
+      <c r="J30" s="88"/>
+      <c r="K30" s="88"/>
+      <c r="L30" s="88"/>
+      <c r="M30" s="89"/>
       <c r="N30" s="6">
         <v>17</v>
       </c>
@@ -16752,17 +16764,17 @@
       <c r="D31" s="41">
         <v>44760</v>
       </c>
-      <c r="E31" s="57" t="s">
+      <c r="E31" s="87" t="s">
         <v>47</v>
       </c>
-      <c r="F31" s="58"/>
-      <c r="G31" s="58"/>
-      <c r="H31" s="58"/>
-      <c r="I31" s="58"/>
-      <c r="J31" s="58"/>
-      <c r="K31" s="58"/>
-      <c r="L31" s="58"/>
-      <c r="M31" s="59"/>
+      <c r="F31" s="88"/>
+      <c r="G31" s="88"/>
+      <c r="H31" s="88"/>
+      <c r="I31" s="88"/>
+      <c r="J31" s="88"/>
+      <c r="K31" s="88"/>
+      <c r="L31" s="88"/>
+      <c r="M31" s="89"/>
       <c r="N31" s="6">
         <v>17</v>
       </c>
@@ -16787,17 +16799,17 @@
       <c r="C32" s="1">
         <v>23</v>
       </c>
-      <c r="E32" s="54" t="s">
+      <c r="E32" s="83" t="s">
         <v>41</v>
       </c>
-      <c r="F32" s="55"/>
-      <c r="G32" s="55"/>
-      <c r="H32" s="55"/>
-      <c r="I32" s="55"/>
-      <c r="J32" s="55"/>
-      <c r="K32" s="55"/>
-      <c r="L32" s="55"/>
-      <c r="M32" s="56"/>
+      <c r="F32" s="84"/>
+      <c r="G32" s="84"/>
+      <c r="H32" s="84"/>
+      <c r="I32" s="84"/>
+      <c r="J32" s="84"/>
+      <c r="K32" s="84"/>
+      <c r="L32" s="84"/>
+      <c r="M32" s="85"/>
       <c r="N32" s="6">
         <v>17</v>
       </c>
@@ -16819,17 +16831,17 @@
       <c r="C33" s="1">
         <v>24</v>
       </c>
-      <c r="E33" s="54" t="s">
+      <c r="E33" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="F33" s="55"/>
-      <c r="G33" s="55"/>
-      <c r="H33" s="55"/>
-      <c r="I33" s="55"/>
-      <c r="J33" s="55"/>
-      <c r="K33" s="55"/>
-      <c r="L33" s="55"/>
-      <c r="M33" s="56"/>
+      <c r="F33" s="84"/>
+      <c r="G33" s="84"/>
+      <c r="H33" s="84"/>
+      <c r="I33" s="84"/>
+      <c r="J33" s="84"/>
+      <c r="K33" s="84"/>
+      <c r="L33" s="84"/>
+      <c r="M33" s="85"/>
       <c r="N33" s="6">
         <v>17</v>
       </c>
@@ -16852,20 +16864,20 @@
         <v>25</v>
       </c>
       <c r="D34" s="47"/>
-      <c r="E34" s="66" t="s">
+      <c r="E34" s="60" t="s">
         <v>58</v>
       </c>
-      <c r="F34" s="67"/>
-      <c r="G34" s="67"/>
-      <c r="H34" s="67"/>
-      <c r="I34" s="67"/>
-      <c r="J34" s="67"/>
-      <c r="K34" s="67"/>
-      <c r="L34" s="67"/>
-      <c r="M34" s="67"/>
-      <c r="N34" s="67"/>
-      <c r="O34" s="67"/>
-      <c r="P34" s="68"/>
+      <c r="F34" s="61"/>
+      <c r="G34" s="61"/>
+      <c r="H34" s="61"/>
+      <c r="I34" s="61"/>
+      <c r="J34" s="61"/>
+      <c r="K34" s="61"/>
+      <c r="L34" s="61"/>
+      <c r="M34" s="61"/>
+      <c r="N34" s="61"/>
+      <c r="O34" s="61"/>
+      <c r="P34" s="62"/>
       <c r="Q34" s="11"/>
       <c r="R34" s="12" t="e">
         <f>AVERAGE(R10:R33)</f>
@@ -16892,6 +16904,22 @@
     <sortCondition ref="D10:D33"/>
   </sortState>
   <mergeCells count="28">
+    <mergeCell ref="E26:M26"/>
+    <mergeCell ref="E32:M32"/>
+    <mergeCell ref="E33:M33"/>
+    <mergeCell ref="E34:P34"/>
+    <mergeCell ref="E27:M27"/>
+    <mergeCell ref="E28:M28"/>
+    <mergeCell ref="E29:M29"/>
+    <mergeCell ref="E30:M30"/>
+    <mergeCell ref="E31:M31"/>
+    <mergeCell ref="E19:M19"/>
+    <mergeCell ref="E20:M20"/>
+    <mergeCell ref="E21:M21"/>
+    <mergeCell ref="E24:M24"/>
+    <mergeCell ref="E25:M25"/>
+    <mergeCell ref="E22:M22"/>
+    <mergeCell ref="E23:M23"/>
     <mergeCell ref="E18:M18"/>
     <mergeCell ref="C4:Y6"/>
     <mergeCell ref="C7:T7"/>
@@ -16904,22 +16932,6 @@
     <mergeCell ref="E15:M15"/>
     <mergeCell ref="E16:M16"/>
     <mergeCell ref="E17:M17"/>
-    <mergeCell ref="E19:M19"/>
-    <mergeCell ref="E20:M20"/>
-    <mergeCell ref="E21:M21"/>
-    <mergeCell ref="E24:M24"/>
-    <mergeCell ref="E25:M25"/>
-    <mergeCell ref="E22:M22"/>
-    <mergeCell ref="E23:M23"/>
-    <mergeCell ref="E26:M26"/>
-    <mergeCell ref="E32:M32"/>
-    <mergeCell ref="E33:M33"/>
-    <mergeCell ref="E34:P34"/>
-    <mergeCell ref="E27:M27"/>
-    <mergeCell ref="E28:M28"/>
-    <mergeCell ref="E29:M29"/>
-    <mergeCell ref="E30:M30"/>
-    <mergeCell ref="E31:M31"/>
   </mergeCells>
   <conditionalFormatting sqref="V10:V33">
     <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">

--- a/My Test Tracker Original GATE 2023.xlsx
+++ b/My Test Tracker Original GATE 2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GATE 2022 &amp; 2023\My Progress trackers &amp; Journey - In Git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADAC13B5-211B-4ED7-B283-0F71B640745A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EFE18A1-2EB1-4A5A-B307-55044CA078BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{158952DD-A7DC-477E-91D8-188954568D39}"/>
   </bookViews>
@@ -908,20 +908,40 @@
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -942,13 +962,14 @@
     <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -960,16 +981,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -981,7 +999,9 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -991,34 +1011,14 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2051,7 +2051,7 @@
   <dimension ref="A1:W336"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D203" workbookViewId="0">
-      <selection activeCell="U212" sqref="U212"/>
+      <selection activeCell="C211" sqref="C211:K211"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2077,52 +2077,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="34.200000000000003" thickBot="1" x14ac:dyDescent="0.7">
-      <c r="A1" s="56">
+      <c r="A1" s="92">
         <v>2021</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="56"/>
-      <c r="J1" s="56"/>
-      <c r="K1" s="56"/>
-      <c r="L1" s="56"/>
-      <c r="M1" s="56"/>
-      <c r="N1" s="56"/>
-      <c r="O1" s="56"/>
-      <c r="P1" s="56"/>
-      <c r="Q1" s="56"/>
-      <c r="R1" s="56"/>
-      <c r="S1" s="56"/>
-      <c r="T1" s="56"/>
-      <c r="U1" s="56"/>
-      <c r="V1" s="56"/>
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="92"/>
+      <c r="I1" s="92"/>
+      <c r="J1" s="92"/>
+      <c r="K1" s="92"/>
+      <c r="L1" s="92"/>
+      <c r="M1" s="92"/>
+      <c r="N1" s="92"/>
+      <c r="O1" s="92"/>
+      <c r="P1" s="92"/>
+      <c r="Q1" s="92"/>
+      <c r="R1" s="92"/>
+      <c r="S1" s="92"/>
+      <c r="T1" s="92"/>
+      <c r="U1" s="92"/>
+      <c r="V1" s="92"/>
     </row>
     <row r="2" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="86" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="81"/>
-      <c r="F2" s="81"/>
-      <c r="G2" s="81"/>
-      <c r="H2" s="81"/>
-      <c r="I2" s="81"/>
-      <c r="J2" s="81"/>
-      <c r="K2" s="81"/>
-      <c r="L2" s="81"/>
-      <c r="M2" s="81"/>
-      <c r="N2" s="81"/>
-      <c r="O2" s="81"/>
-      <c r="P2" s="81"/>
-      <c r="Q2" s="81"/>
-      <c r="R2" s="82"/>
+      <c r="B2" s="87"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="87"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="87"/>
+      <c r="J2" s="87"/>
+      <c r="K2" s="87"/>
+      <c r="L2" s="87"/>
+      <c r="M2" s="87"/>
+      <c r="N2" s="87"/>
+      <c r="O2" s="87"/>
+      <c r="P2" s="87"/>
+      <c r="Q2" s="87"/>
+      <c r="R2" s="88"/>
       <c r="S2" s="3"/>
       <c r="T2" s="3"/>
       <c r="U2" s="3"/>
@@ -2133,17 +2133,17 @@
         <v>1</v>
       </c>
       <c r="B4" s="5"/>
-      <c r="C4" s="86" t="s">
+      <c r="C4" s="85" t="s">
         <v>100</v>
       </c>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86"/>
-      <c r="K4" s="86"/>
+      <c r="D4" s="85"/>
+      <c r="E4" s="85"/>
+      <c r="F4" s="85"/>
+      <c r="G4" s="85"/>
+      <c r="H4" s="85"/>
+      <c r="I4" s="85"/>
+      <c r="J4" s="85"/>
+      <c r="K4" s="85"/>
       <c r="L4" s="5" t="s">
         <v>2</v>
       </c>
@@ -2183,17 +2183,17 @@
       <c r="B5" s="41">
         <v>44613</v>
       </c>
-      <c r="C5" s="74" t="s">
+      <c r="C5" s="73" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="74"/>
-      <c r="E5" s="74"/>
-      <c r="F5" s="74"/>
-      <c r="G5" s="74"/>
-      <c r="H5" s="74"/>
-      <c r="I5" s="74"/>
-      <c r="J5" s="74"/>
-      <c r="K5" s="74"/>
+      <c r="D5" s="73"/>
+      <c r="E5" s="73"/>
+      <c r="F5" s="73"/>
+      <c r="G5" s="73"/>
+      <c r="H5" s="73"/>
+      <c r="I5" s="73"/>
+      <c r="J5" s="73"/>
+      <c r="K5" s="73"/>
       <c r="L5" s="6">
         <v>17</v>
       </c>
@@ -2221,17 +2221,17 @@
       <c r="B6" s="41">
         <v>44617</v>
       </c>
-      <c r="C6" s="66" t="s">
+      <c r="C6" s="64" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="67"/>
-      <c r="E6" s="67"/>
-      <c r="F6" s="67"/>
-      <c r="G6" s="67"/>
-      <c r="H6" s="67"/>
-      <c r="I6" s="67"/>
-      <c r="J6" s="67"/>
-      <c r="K6" s="67"/>
+      <c r="D6" s="65"/>
+      <c r="E6" s="65"/>
+      <c r="F6" s="65"/>
+      <c r="G6" s="65"/>
+      <c r="H6" s="65"/>
+      <c r="I6" s="65"/>
+      <c r="J6" s="65"/>
+      <c r="K6" s="65"/>
       <c r="L6" s="6">
         <v>17</v>
       </c>
@@ -2259,17 +2259,17 @@
       <c r="B7" s="41">
         <v>44621</v>
       </c>
-      <c r="C7" s="66" t="s">
+      <c r="C7" s="64" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="67"/>
-      <c r="E7" s="67"/>
-      <c r="F7" s="67"/>
-      <c r="G7" s="67"/>
-      <c r="H7" s="67"/>
-      <c r="I7" s="67"/>
-      <c r="J7" s="67"/>
-      <c r="K7" s="67"/>
+      <c r="D7" s="65"/>
+      <c r="E7" s="65"/>
+      <c r="F7" s="65"/>
+      <c r="G7" s="65"/>
+      <c r="H7" s="65"/>
+      <c r="I7" s="65"/>
+      <c r="J7" s="65"/>
+      <c r="K7" s="65"/>
       <c r="L7" s="6">
         <v>17</v>
       </c>
@@ -2297,17 +2297,17 @@
       <c r="B8" s="41">
         <v>44625</v>
       </c>
-      <c r="C8" s="67" t="s">
+      <c r="C8" s="65" t="s">
         <v>35</v>
       </c>
-      <c r="D8" s="67"/>
-      <c r="E8" s="67"/>
-      <c r="F8" s="67"/>
-      <c r="G8" s="67"/>
-      <c r="H8" s="67"/>
-      <c r="I8" s="67"/>
-      <c r="J8" s="67"/>
-      <c r="K8" s="67"/>
+      <c r="D8" s="65"/>
+      <c r="E8" s="65"/>
+      <c r="F8" s="65"/>
+      <c r="G8" s="65"/>
+      <c r="H8" s="65"/>
+      <c r="I8" s="65"/>
+      <c r="J8" s="65"/>
+      <c r="K8" s="65"/>
       <c r="L8" s="6">
         <v>17</v>
       </c>
@@ -2335,17 +2335,17 @@
       <c r="B9" s="41">
         <v>44629</v>
       </c>
-      <c r="C9" s="66" t="s">
+      <c r="C9" s="64" t="s">
         <v>36</v>
       </c>
-      <c r="D9" s="67"/>
-      <c r="E9" s="67"/>
-      <c r="F9" s="67"/>
-      <c r="G9" s="67"/>
-      <c r="H9" s="67"/>
-      <c r="I9" s="67"/>
-      <c r="J9" s="67"/>
-      <c r="K9" s="67"/>
+      <c r="D9" s="65"/>
+      <c r="E9" s="65"/>
+      <c r="F9" s="65"/>
+      <c r="G9" s="65"/>
+      <c r="H9" s="65"/>
+      <c r="I9" s="65"/>
+      <c r="J9" s="65"/>
+      <c r="K9" s="65"/>
       <c r="L9" s="6">
         <v>17</v>
       </c>
@@ -2373,17 +2373,17 @@
       <c r="B10" s="41">
         <v>44633</v>
       </c>
-      <c r="C10" s="66" t="s">
+      <c r="C10" s="64" t="s">
         <v>37</v>
       </c>
-      <c r="D10" s="67"/>
-      <c r="E10" s="67"/>
-      <c r="F10" s="67"/>
-      <c r="G10" s="67"/>
-      <c r="H10" s="67"/>
-      <c r="I10" s="67"/>
-      <c r="J10" s="67"/>
-      <c r="K10" s="67"/>
+      <c r="D10" s="65"/>
+      <c r="E10" s="65"/>
+      <c r="F10" s="65"/>
+      <c r="G10" s="65"/>
+      <c r="H10" s="65"/>
+      <c r="I10" s="65"/>
+      <c r="J10" s="65"/>
+      <c r="K10" s="65"/>
       <c r="L10" s="6">
         <v>17</v>
       </c>
@@ -2411,17 +2411,17 @@
       <c r="B11" s="41">
         <v>44637</v>
       </c>
-      <c r="C11" s="67" t="s">
+      <c r="C11" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="67"/>
-      <c r="E11" s="67"/>
-      <c r="F11" s="67"/>
-      <c r="G11" s="67"/>
-      <c r="H11" s="67"/>
-      <c r="I11" s="67"/>
-      <c r="J11" s="67"/>
-      <c r="K11" s="67"/>
+      <c r="D11" s="65"/>
+      <c r="E11" s="65"/>
+      <c r="F11" s="65"/>
+      <c r="G11" s="65"/>
+      <c r="H11" s="65"/>
+      <c r="I11" s="65"/>
+      <c r="J11" s="65"/>
+      <c r="K11" s="65"/>
       <c r="L11" s="6">
         <v>17</v>
       </c>
@@ -2449,17 +2449,17 @@
       <c r="B12" s="41">
         <v>44641</v>
       </c>
-      <c r="C12" s="66" t="s">
+      <c r="C12" s="64" t="s">
         <v>38</v>
       </c>
-      <c r="D12" s="67"/>
-      <c r="E12" s="67"/>
-      <c r="F12" s="67"/>
-      <c r="G12" s="67"/>
-      <c r="H12" s="67"/>
-      <c r="I12" s="67"/>
-      <c r="J12" s="67"/>
-      <c r="K12" s="67"/>
+      <c r="D12" s="65"/>
+      <c r="E12" s="65"/>
+      <c r="F12" s="65"/>
+      <c r="G12" s="65"/>
+      <c r="H12" s="65"/>
+      <c r="I12" s="65"/>
+      <c r="J12" s="65"/>
+      <c r="K12" s="65"/>
       <c r="L12" s="6">
         <v>17</v>
       </c>
@@ -2485,17 +2485,17 @@
         <v>9</v>
       </c>
       <c r="B13" s="1"/>
-      <c r="C13" s="66" t="s">
+      <c r="C13" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="D13" s="67"/>
-      <c r="E13" s="67"/>
-      <c r="F13" s="67"/>
-      <c r="G13" s="67"/>
-      <c r="H13" s="67"/>
-      <c r="I13" s="67"/>
-      <c r="J13" s="67"/>
-      <c r="K13" s="67"/>
+      <c r="D13" s="65"/>
+      <c r="E13" s="65"/>
+      <c r="F13" s="65"/>
+      <c r="G13" s="65"/>
+      <c r="H13" s="65"/>
+      <c r="I13" s="65"/>
+      <c r="J13" s="65"/>
+      <c r="K13" s="65"/>
       <c r="L13" s="6">
         <v>17</v>
       </c>
@@ -2521,17 +2521,17 @@
         <v>10</v>
       </c>
       <c r="B14" s="1"/>
-      <c r="C14" s="66" t="s">
+      <c r="C14" s="64" t="s">
         <v>40</v>
       </c>
-      <c r="D14" s="67"/>
-      <c r="E14" s="67"/>
-      <c r="F14" s="67"/>
-      <c r="G14" s="67"/>
-      <c r="H14" s="67"/>
-      <c r="I14" s="67"/>
-      <c r="J14" s="67"/>
-      <c r="K14" s="67"/>
+      <c r="D14" s="65"/>
+      <c r="E14" s="65"/>
+      <c r="F14" s="65"/>
+      <c r="G14" s="65"/>
+      <c r="H14" s="65"/>
+      <c r="I14" s="65"/>
+      <c r="J14" s="65"/>
+      <c r="K14" s="65"/>
       <c r="L14" s="6">
         <v>17</v>
       </c>
@@ -2557,17 +2557,17 @@
         <v>11</v>
       </c>
       <c r="B15" s="1"/>
-      <c r="C15" s="66" t="s">
+      <c r="C15" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="D15" s="67"/>
-      <c r="E15" s="67"/>
-      <c r="F15" s="67"/>
-      <c r="G15" s="67"/>
-      <c r="H15" s="67"/>
-      <c r="I15" s="67"/>
-      <c r="J15" s="67"/>
-      <c r="K15" s="67"/>
+      <c r="D15" s="65"/>
+      <c r="E15" s="65"/>
+      <c r="F15" s="65"/>
+      <c r="G15" s="65"/>
+      <c r="H15" s="65"/>
+      <c r="I15" s="65"/>
+      <c r="J15" s="65"/>
+      <c r="K15" s="65"/>
       <c r="L15" s="6">
         <v>17</v>
       </c>
@@ -2593,17 +2593,17 @@
         <v>12</v>
       </c>
       <c r="B16" s="1"/>
-      <c r="C16" s="66" t="s">
+      <c r="C16" s="64" t="s">
         <v>42</v>
       </c>
-      <c r="D16" s="67"/>
-      <c r="E16" s="67"/>
-      <c r="F16" s="67"/>
-      <c r="G16" s="67"/>
-      <c r="H16" s="67"/>
-      <c r="I16" s="67"/>
-      <c r="J16" s="67"/>
-      <c r="K16" s="67"/>
+      <c r="D16" s="65"/>
+      <c r="E16" s="65"/>
+      <c r="F16" s="65"/>
+      <c r="G16" s="65"/>
+      <c r="H16" s="65"/>
+      <c r="I16" s="65"/>
+      <c r="J16" s="65"/>
+      <c r="K16" s="65"/>
       <c r="L16" s="6">
         <v>17</v>
       </c>
@@ -2631,17 +2631,17 @@
       <c r="B17" s="41">
         <v>44645</v>
       </c>
-      <c r="C17" s="67" t="s">
+      <c r="C17" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="D17" s="67"/>
-      <c r="E17" s="67"/>
-      <c r="F17" s="67"/>
-      <c r="G17" s="67"/>
-      <c r="H17" s="67"/>
-      <c r="I17" s="67"/>
-      <c r="J17" s="67"/>
-      <c r="K17" s="67"/>
+      <c r="D17" s="65"/>
+      <c r="E17" s="65"/>
+      <c r="F17" s="65"/>
+      <c r="G17" s="65"/>
+      <c r="H17" s="65"/>
+      <c r="I17" s="65"/>
+      <c r="J17" s="65"/>
+      <c r="K17" s="65"/>
       <c r="L17" s="6">
         <v>17</v>
       </c>
@@ -2669,17 +2669,17 @@
       <c r="B18" s="41">
         <v>44649</v>
       </c>
-      <c r="C18" s="66" t="s">
+      <c r="C18" s="64" t="s">
         <v>43</v>
       </c>
-      <c r="D18" s="67"/>
-      <c r="E18" s="67"/>
-      <c r="F18" s="67"/>
-      <c r="G18" s="67"/>
-      <c r="H18" s="67"/>
-      <c r="I18" s="67"/>
-      <c r="J18" s="67"/>
-      <c r="K18" s="67"/>
+      <c r="D18" s="65"/>
+      <c r="E18" s="65"/>
+      <c r="F18" s="65"/>
+      <c r="G18" s="65"/>
+      <c r="H18" s="65"/>
+      <c r="I18" s="65"/>
+      <c r="J18" s="65"/>
+      <c r="K18" s="65"/>
       <c r="L18" s="6">
         <v>17</v>
       </c>
@@ -2707,17 +2707,17 @@
       <c r="B19" s="41">
         <v>44653</v>
       </c>
-      <c r="C19" s="67" t="s">
+      <c r="C19" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="D19" s="67"/>
-      <c r="E19" s="67"/>
-      <c r="F19" s="67"/>
-      <c r="G19" s="67"/>
-      <c r="H19" s="67"/>
-      <c r="I19" s="67"/>
-      <c r="J19" s="67"/>
-      <c r="K19" s="67"/>
+      <c r="D19" s="65"/>
+      <c r="E19" s="65"/>
+      <c r="F19" s="65"/>
+      <c r="G19" s="65"/>
+      <c r="H19" s="65"/>
+      <c r="I19" s="65"/>
+      <c r="J19" s="65"/>
+      <c r="K19" s="65"/>
       <c r="L19" s="6">
         <v>17</v>
       </c>
@@ -2755,17 +2755,17 @@
       <c r="B20" s="41">
         <v>44657</v>
       </c>
-      <c r="C20" s="67" t="s">
+      <c r="C20" s="65" t="s">
         <v>44</v>
       </c>
-      <c r="D20" s="67"/>
-      <c r="E20" s="67"/>
-      <c r="F20" s="67"/>
-      <c r="G20" s="67"/>
-      <c r="H20" s="67"/>
-      <c r="I20" s="67"/>
-      <c r="J20" s="67"/>
-      <c r="K20" s="67"/>
+      <c r="D20" s="65"/>
+      <c r="E20" s="65"/>
+      <c r="F20" s="65"/>
+      <c r="G20" s="65"/>
+      <c r="H20" s="65"/>
+      <c r="I20" s="65"/>
+      <c r="J20" s="65"/>
+      <c r="K20" s="65"/>
       <c r="L20" s="6">
         <v>17</v>
       </c>
@@ -2793,17 +2793,17 @@
       <c r="B21" s="41">
         <v>44661</v>
       </c>
-      <c r="C21" s="66" t="s">
+      <c r="C21" s="64" t="s">
         <v>45</v>
       </c>
-      <c r="D21" s="67"/>
-      <c r="E21" s="67"/>
-      <c r="F21" s="67"/>
-      <c r="G21" s="67"/>
-      <c r="H21" s="67"/>
-      <c r="I21" s="67"/>
-      <c r="J21" s="67"/>
-      <c r="K21" s="67"/>
+      <c r="D21" s="65"/>
+      <c r="E21" s="65"/>
+      <c r="F21" s="65"/>
+      <c r="G21" s="65"/>
+      <c r="H21" s="65"/>
+      <c r="I21" s="65"/>
+      <c r="J21" s="65"/>
+      <c r="K21" s="65"/>
       <c r="L21" s="6">
         <v>17</v>
       </c>
@@ -2831,17 +2831,17 @@
       <c r="B22" s="41">
         <v>44665</v>
       </c>
-      <c r="C22" s="66" t="s">
+      <c r="C22" s="64" t="s">
         <v>46</v>
       </c>
-      <c r="D22" s="67"/>
-      <c r="E22" s="67"/>
-      <c r="F22" s="67"/>
-      <c r="G22" s="67"/>
-      <c r="H22" s="67"/>
-      <c r="I22" s="67"/>
-      <c r="J22" s="67"/>
-      <c r="K22" s="67"/>
+      <c r="D22" s="65"/>
+      <c r="E22" s="65"/>
+      <c r="F22" s="65"/>
+      <c r="G22" s="65"/>
+      <c r="H22" s="65"/>
+      <c r="I22" s="65"/>
+      <c r="J22" s="65"/>
+      <c r="K22" s="65"/>
       <c r="L22" s="6">
         <v>17</v>
       </c>
@@ -2869,17 +2869,17 @@
       <c r="B23" s="41">
         <v>44669</v>
       </c>
-      <c r="C23" s="67" t="s">
+      <c r="C23" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="D23" s="67"/>
-      <c r="E23" s="67"/>
-      <c r="F23" s="67"/>
-      <c r="G23" s="67"/>
-      <c r="H23" s="67"/>
-      <c r="I23" s="67"/>
-      <c r="J23" s="67"/>
-      <c r="K23" s="67"/>
+      <c r="D23" s="65"/>
+      <c r="E23" s="65"/>
+      <c r="F23" s="65"/>
+      <c r="G23" s="65"/>
+      <c r="H23" s="65"/>
+      <c r="I23" s="65"/>
+      <c r="J23" s="65"/>
+      <c r="K23" s="65"/>
       <c r="L23" s="6">
         <v>17</v>
       </c>
@@ -2907,17 +2907,17 @@
       <c r="B24" s="41">
         <v>44673</v>
       </c>
-      <c r="C24" s="67" t="s">
+      <c r="C24" s="65" t="s">
         <v>47</v>
       </c>
-      <c r="D24" s="67"/>
-      <c r="E24" s="67"/>
-      <c r="F24" s="67"/>
-      <c r="G24" s="67"/>
-      <c r="H24" s="67"/>
-      <c r="I24" s="67"/>
-      <c r="J24" s="67"/>
-      <c r="K24" s="67"/>
+      <c r="D24" s="65"/>
+      <c r="E24" s="65"/>
+      <c r="F24" s="65"/>
+      <c r="G24" s="65"/>
+      <c r="H24" s="65"/>
+      <c r="I24" s="65"/>
+      <c r="J24" s="65"/>
+      <c r="K24" s="65"/>
       <c r="L24" s="6">
         <v>17</v>
       </c>
@@ -2945,17 +2945,17 @@
       <c r="B25" s="42">
         <v>44646</v>
       </c>
-      <c r="C25" s="67" t="s">
+      <c r="C25" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="D25" s="67"/>
-      <c r="E25" s="67"/>
-      <c r="F25" s="67"/>
-      <c r="G25" s="67"/>
-      <c r="H25" s="67"/>
-      <c r="I25" s="67"/>
-      <c r="J25" s="67"/>
-      <c r="K25" s="67"/>
+      <c r="D25" s="65"/>
+      <c r="E25" s="65"/>
+      <c r="F25" s="65"/>
+      <c r="G25" s="65"/>
+      <c r="H25" s="65"/>
+      <c r="I25" s="65"/>
+      <c r="J25" s="65"/>
+      <c r="K25" s="65"/>
       <c r="L25" s="6">
         <v>17</v>
       </c>
@@ -2983,17 +2983,17 @@
       <c r="B26" s="43">
         <v>44646</v>
       </c>
-      <c r="C26" s="66" t="s">
+      <c r="C26" s="64" t="s">
         <v>48</v>
       </c>
-      <c r="D26" s="67"/>
-      <c r="E26" s="67"/>
-      <c r="F26" s="67"/>
-      <c r="G26" s="67"/>
-      <c r="H26" s="67"/>
-      <c r="I26" s="67"/>
-      <c r="J26" s="67"/>
-      <c r="K26" s="67"/>
+      <c r="D26" s="65"/>
+      <c r="E26" s="65"/>
+      <c r="F26" s="65"/>
+      <c r="G26" s="65"/>
+      <c r="H26" s="65"/>
+      <c r="I26" s="65"/>
+      <c r="J26" s="65"/>
+      <c r="K26" s="65"/>
       <c r="L26" s="6">
         <v>17</v>
       </c>
@@ -3021,17 +3021,17 @@
       <c r="B27" s="41">
         <v>44677</v>
       </c>
-      <c r="C27" s="67" t="s">
+      <c r="C27" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="D27" s="67"/>
-      <c r="E27" s="67"/>
-      <c r="F27" s="67"/>
-      <c r="G27" s="67"/>
-      <c r="H27" s="67"/>
-      <c r="I27" s="67"/>
-      <c r="J27" s="67"/>
-      <c r="K27" s="67"/>
+      <c r="D27" s="65"/>
+      <c r="E27" s="65"/>
+      <c r="F27" s="65"/>
+      <c r="G27" s="65"/>
+      <c r="H27" s="65"/>
+      <c r="I27" s="65"/>
+      <c r="J27" s="65"/>
+      <c r="K27" s="65"/>
       <c r="L27" s="6">
         <v>17</v>
       </c>
@@ -3059,17 +3059,17 @@
       <c r="B28" s="41">
         <v>44681</v>
       </c>
-      <c r="C28" s="66" t="s">
+      <c r="C28" s="64" t="s">
         <v>49</v>
       </c>
-      <c r="D28" s="67"/>
-      <c r="E28" s="67"/>
-      <c r="F28" s="67"/>
-      <c r="G28" s="67"/>
-      <c r="H28" s="67"/>
-      <c r="I28" s="67"/>
-      <c r="J28" s="67"/>
-      <c r="K28" s="67"/>
+      <c r="D28" s="65"/>
+      <c r="E28" s="65"/>
+      <c r="F28" s="65"/>
+      <c r="G28" s="65"/>
+      <c r="H28" s="65"/>
+      <c r="I28" s="65"/>
+      <c r="J28" s="65"/>
+      <c r="K28" s="65"/>
       <c r="L28" s="6">
         <v>17</v>
       </c>
@@ -3095,20 +3095,20 @@
         <v>25</v>
       </c>
       <c r="B29" s="8"/>
-      <c r="C29" s="60" t="s">
+      <c r="C29" s="66" t="s">
         <v>58</v>
       </c>
-      <c r="D29" s="61"/>
-      <c r="E29" s="61"/>
-      <c r="F29" s="61"/>
-      <c r="G29" s="61"/>
-      <c r="H29" s="61"/>
-      <c r="I29" s="61"/>
-      <c r="J29" s="61"/>
-      <c r="K29" s="61"/>
-      <c r="L29" s="61"/>
-      <c r="M29" s="61"/>
-      <c r="N29" s="62"/>
+      <c r="D29" s="67"/>
+      <c r="E29" s="67"/>
+      <c r="F29" s="67"/>
+      <c r="G29" s="67"/>
+      <c r="H29" s="67"/>
+      <c r="I29" s="67"/>
+      <c r="J29" s="67"/>
+      <c r="K29" s="67"/>
+      <c r="L29" s="67"/>
+      <c r="M29" s="67"/>
+      <c r="N29" s="68"/>
       <c r="O29" s="11"/>
       <c r="P29" s="12">
         <f>AVERAGE(P5:P28)</f>
@@ -3128,26 +3128,26 @@
     </row>
     <row r="31" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="32" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="76" t="s">
+      <c r="A32" s="82" t="s">
         <v>13</v>
       </c>
-      <c r="B32" s="77"/>
-      <c r="C32" s="77"/>
-      <c r="D32" s="77"/>
-      <c r="E32" s="77"/>
-      <c r="F32" s="77"/>
-      <c r="G32" s="77"/>
-      <c r="H32" s="77"/>
-      <c r="I32" s="77"/>
-      <c r="J32" s="77"/>
-      <c r="K32" s="77"/>
-      <c r="L32" s="77"/>
-      <c r="M32" s="77"/>
-      <c r="N32" s="77"/>
-      <c r="O32" s="77"/>
-      <c r="P32" s="77"/>
-      <c r="Q32" s="77"/>
-      <c r="R32" s="78"/>
+      <c r="B32" s="83"/>
+      <c r="C32" s="83"/>
+      <c r="D32" s="83"/>
+      <c r="E32" s="83"/>
+      <c r="F32" s="83"/>
+      <c r="G32" s="83"/>
+      <c r="H32" s="83"/>
+      <c r="I32" s="83"/>
+      <c r="J32" s="83"/>
+      <c r="K32" s="83"/>
+      <c r="L32" s="83"/>
+      <c r="M32" s="83"/>
+      <c r="N32" s="83"/>
+      <c r="O32" s="83"/>
+      <c r="P32" s="83"/>
+      <c r="Q32" s="83"/>
+      <c r="R32" s="84"/>
       <c r="S32" s="15"/>
       <c r="T32" s="15"/>
       <c r="U32" s="15"/>
@@ -3157,17 +3157,17 @@
         <v>1</v>
       </c>
       <c r="B34" s="5"/>
-      <c r="C34" s="73" t="s">
+      <c r="C34" s="72" t="s">
         <v>100</v>
       </c>
-      <c r="D34" s="73"/>
-      <c r="E34" s="73"/>
-      <c r="F34" s="73"/>
-      <c r="G34" s="73"/>
-      <c r="H34" s="73"/>
-      <c r="I34" s="73"/>
-      <c r="J34" s="73"/>
-      <c r="K34" s="73"/>
+      <c r="D34" s="72"/>
+      <c r="E34" s="72"/>
+      <c r="F34" s="72"/>
+      <c r="G34" s="72"/>
+      <c r="H34" s="72"/>
+      <c r="I34" s="72"/>
+      <c r="J34" s="72"/>
+      <c r="K34" s="72"/>
       <c r="L34" s="5" t="s">
         <v>2</v>
       </c>
@@ -3204,17 +3204,17 @@
         <v>1</v>
       </c>
       <c r="B35" s="1"/>
-      <c r="C35" s="74" t="s">
+      <c r="C35" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="D35" s="74"/>
-      <c r="E35" s="74"/>
-      <c r="F35" s="74"/>
-      <c r="G35" s="74"/>
-      <c r="H35" s="74"/>
-      <c r="I35" s="74"/>
-      <c r="J35" s="74"/>
-      <c r="K35" s="74"/>
+      <c r="D35" s="73"/>
+      <c r="E35" s="73"/>
+      <c r="F35" s="73"/>
+      <c r="G35" s="73"/>
+      <c r="H35" s="73"/>
+      <c r="I35" s="73"/>
+      <c r="J35" s="73"/>
+      <c r="K35" s="73"/>
       <c r="L35" s="6">
         <v>33</v>
       </c>
@@ -3237,17 +3237,17 @@
         <v>2</v>
       </c>
       <c r="B36" s="1"/>
-      <c r="C36" s="66" t="s">
+      <c r="C36" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="D36" s="67"/>
-      <c r="E36" s="67"/>
-      <c r="F36" s="67"/>
-      <c r="G36" s="67"/>
-      <c r="H36" s="67"/>
-      <c r="I36" s="67"/>
-      <c r="J36" s="67"/>
-      <c r="K36" s="67"/>
+      <c r="D36" s="65"/>
+      <c r="E36" s="65"/>
+      <c r="F36" s="65"/>
+      <c r="G36" s="65"/>
+      <c r="H36" s="65"/>
+      <c r="I36" s="65"/>
+      <c r="J36" s="65"/>
+      <c r="K36" s="65"/>
       <c r="L36" s="6">
         <v>33</v>
       </c>
@@ -3270,17 +3270,17 @@
         <v>3</v>
       </c>
       <c r="B37" s="1"/>
-      <c r="C37" s="66" t="s">
+      <c r="C37" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="D37" s="67"/>
-      <c r="E37" s="67"/>
-      <c r="F37" s="67"/>
-      <c r="G37" s="67"/>
-      <c r="H37" s="67"/>
-      <c r="I37" s="67"/>
-      <c r="J37" s="67"/>
-      <c r="K37" s="67"/>
+      <c r="D37" s="65"/>
+      <c r="E37" s="65"/>
+      <c r="F37" s="65"/>
+      <c r="G37" s="65"/>
+      <c r="H37" s="65"/>
+      <c r="I37" s="65"/>
+      <c r="J37" s="65"/>
+      <c r="K37" s="65"/>
       <c r="L37" s="6">
         <v>33</v>
       </c>
@@ -3303,17 +3303,17 @@
         <v>4</v>
       </c>
       <c r="B38" s="1"/>
-      <c r="C38" s="67" t="s">
+      <c r="C38" s="65" t="s">
         <v>18</v>
       </c>
-      <c r="D38" s="67"/>
-      <c r="E38" s="67"/>
-      <c r="F38" s="67"/>
-      <c r="G38" s="67"/>
-      <c r="H38" s="67"/>
-      <c r="I38" s="67"/>
-      <c r="J38" s="67"/>
-      <c r="K38" s="67"/>
+      <c r="D38" s="65"/>
+      <c r="E38" s="65"/>
+      <c r="F38" s="65"/>
+      <c r="G38" s="65"/>
+      <c r="H38" s="65"/>
+      <c r="I38" s="65"/>
+      <c r="J38" s="65"/>
+      <c r="K38" s="65"/>
       <c r="L38" s="6">
         <v>33</v>
       </c>
@@ -3336,17 +3336,17 @@
         <v>5</v>
       </c>
       <c r="B39" s="1"/>
-      <c r="C39" s="66" t="s">
+      <c r="C39" s="64" t="s">
         <v>61</v>
       </c>
-      <c r="D39" s="67"/>
-      <c r="E39" s="67"/>
-      <c r="F39" s="67"/>
-      <c r="G39" s="67"/>
-      <c r="H39" s="67"/>
-      <c r="I39" s="67"/>
-      <c r="J39" s="67"/>
-      <c r="K39" s="67"/>
+      <c r="D39" s="65"/>
+      <c r="E39" s="65"/>
+      <c r="F39" s="65"/>
+      <c r="G39" s="65"/>
+      <c r="H39" s="65"/>
+      <c r="I39" s="65"/>
+      <c r="J39" s="65"/>
+      <c r="K39" s="65"/>
       <c r="L39" s="6">
         <v>33</v>
       </c>
@@ -3369,17 +3369,17 @@
         <v>6</v>
       </c>
       <c r="B40" s="1"/>
-      <c r="C40" s="66" t="s">
+      <c r="C40" s="64" t="s">
         <v>61</v>
       </c>
-      <c r="D40" s="67"/>
-      <c r="E40" s="67"/>
-      <c r="F40" s="67"/>
-      <c r="G40" s="67"/>
-      <c r="H40" s="67"/>
-      <c r="I40" s="67"/>
-      <c r="J40" s="67"/>
-      <c r="K40" s="67"/>
+      <c r="D40" s="65"/>
+      <c r="E40" s="65"/>
+      <c r="F40" s="65"/>
+      <c r="G40" s="65"/>
+      <c r="H40" s="65"/>
+      <c r="I40" s="65"/>
+      <c r="J40" s="65"/>
+      <c r="K40" s="65"/>
       <c r="L40" s="6">
         <v>33</v>
       </c>
@@ -3402,17 +3402,17 @@
         <v>7</v>
       </c>
       <c r="B41" s="1"/>
-      <c r="C41" s="67" t="s">
+      <c r="C41" s="65" t="s">
         <v>20</v>
       </c>
-      <c r="D41" s="67"/>
-      <c r="E41" s="67"/>
-      <c r="F41" s="67"/>
-      <c r="G41" s="67"/>
-      <c r="H41" s="67"/>
-      <c r="I41" s="67"/>
-      <c r="J41" s="67"/>
-      <c r="K41" s="67"/>
+      <c r="D41" s="65"/>
+      <c r="E41" s="65"/>
+      <c r="F41" s="65"/>
+      <c r="G41" s="65"/>
+      <c r="H41" s="65"/>
+      <c r="I41" s="65"/>
+      <c r="J41" s="65"/>
+      <c r="K41" s="65"/>
       <c r="L41" s="6">
         <v>33</v>
       </c>
@@ -3435,17 +3435,17 @@
         <v>8</v>
       </c>
       <c r="B42" s="1"/>
-      <c r="C42" s="66" t="s">
+      <c r="C42" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="D42" s="67"/>
-      <c r="E42" s="67"/>
-      <c r="F42" s="67"/>
-      <c r="G42" s="67"/>
-      <c r="H42" s="67"/>
-      <c r="I42" s="67"/>
-      <c r="J42" s="67"/>
-      <c r="K42" s="67"/>
+      <c r="D42" s="65"/>
+      <c r="E42" s="65"/>
+      <c r="F42" s="65"/>
+      <c r="G42" s="65"/>
+      <c r="H42" s="65"/>
+      <c r="I42" s="65"/>
+      <c r="J42" s="65"/>
+      <c r="K42" s="65"/>
       <c r="L42" s="6">
         <v>33</v>
       </c>
@@ -3468,17 +3468,17 @@
         <v>9</v>
       </c>
       <c r="B43" s="1"/>
-      <c r="C43" s="66" t="s">
+      <c r="C43" s="64" t="s">
         <v>62</v>
       </c>
-      <c r="D43" s="67"/>
-      <c r="E43" s="67"/>
-      <c r="F43" s="67"/>
-      <c r="G43" s="67"/>
-      <c r="H43" s="67"/>
-      <c r="I43" s="67"/>
-      <c r="J43" s="67"/>
-      <c r="K43" s="67"/>
+      <c r="D43" s="65"/>
+      <c r="E43" s="65"/>
+      <c r="F43" s="65"/>
+      <c r="G43" s="65"/>
+      <c r="H43" s="65"/>
+      <c r="I43" s="65"/>
+      <c r="J43" s="65"/>
+      <c r="K43" s="65"/>
       <c r="L43" s="6">
         <v>33</v>
       </c>
@@ -3501,17 +3501,17 @@
         <v>10</v>
       </c>
       <c r="B44" s="1"/>
-      <c r="C44" s="66" t="s">
+      <c r="C44" s="64" t="s">
         <v>22</v>
       </c>
-      <c r="D44" s="67"/>
-      <c r="E44" s="67"/>
-      <c r="F44" s="67"/>
-      <c r="G44" s="67"/>
-      <c r="H44" s="67"/>
-      <c r="I44" s="67"/>
-      <c r="J44" s="67"/>
-      <c r="K44" s="67"/>
+      <c r="D44" s="65"/>
+      <c r="E44" s="65"/>
+      <c r="F44" s="65"/>
+      <c r="G44" s="65"/>
+      <c r="H44" s="65"/>
+      <c r="I44" s="65"/>
+      <c r="J44" s="65"/>
+      <c r="K44" s="65"/>
       <c r="L44" s="6">
         <v>33</v>
       </c>
@@ -3534,17 +3534,17 @@
         <v>11</v>
       </c>
       <c r="B45" s="1"/>
-      <c r="C45" s="66" t="s">
+      <c r="C45" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="D45" s="67"/>
-      <c r="E45" s="67"/>
-      <c r="F45" s="67"/>
-      <c r="G45" s="67"/>
-      <c r="H45" s="67"/>
-      <c r="I45" s="67"/>
-      <c r="J45" s="67"/>
-      <c r="K45" s="67"/>
+      <c r="D45" s="65"/>
+      <c r="E45" s="65"/>
+      <c r="F45" s="65"/>
+      <c r="G45" s="65"/>
+      <c r="H45" s="65"/>
+      <c r="I45" s="65"/>
+      <c r="J45" s="65"/>
+      <c r="K45" s="65"/>
       <c r="L45" s="6">
         <v>33</v>
       </c>
@@ -3569,17 +3569,17 @@
       <c r="B46" s="42">
         <v>44647</v>
       </c>
-      <c r="C46" s="66" t="s">
+      <c r="C46" s="64" t="s">
         <v>63</v>
       </c>
-      <c r="D46" s="67"/>
-      <c r="E46" s="67"/>
-      <c r="F46" s="67"/>
-      <c r="G46" s="67"/>
-      <c r="H46" s="67"/>
-      <c r="I46" s="67"/>
-      <c r="J46" s="67"/>
-      <c r="K46" s="67"/>
+      <c r="D46" s="65"/>
+      <c r="E46" s="65"/>
+      <c r="F46" s="65"/>
+      <c r="G46" s="65"/>
+      <c r="H46" s="65"/>
+      <c r="I46" s="65"/>
+      <c r="J46" s="65"/>
+      <c r="K46" s="65"/>
       <c r="L46" s="6">
         <v>33</v>
       </c>
@@ -3602,20 +3602,20 @@
         <v>13</v>
       </c>
       <c r="B47" s="1"/>
-      <c r="C47" s="60" t="s">
+      <c r="C47" s="66" t="s">
         <v>58</v>
       </c>
-      <c r="D47" s="61"/>
-      <c r="E47" s="61"/>
-      <c r="F47" s="61"/>
-      <c r="G47" s="61"/>
-      <c r="H47" s="61"/>
-      <c r="I47" s="61"/>
-      <c r="J47" s="61"/>
-      <c r="K47" s="61"/>
-      <c r="L47" s="61"/>
-      <c r="M47" s="61"/>
-      <c r="N47" s="62"/>
+      <c r="D47" s="67"/>
+      <c r="E47" s="67"/>
+      <c r="F47" s="67"/>
+      <c r="G47" s="67"/>
+      <c r="H47" s="67"/>
+      <c r="I47" s="67"/>
+      <c r="J47" s="67"/>
+      <c r="K47" s="67"/>
+      <c r="L47" s="67"/>
+      <c r="M47" s="67"/>
+      <c r="N47" s="68"/>
       <c r="O47" s="11"/>
       <c r="P47" s="12"/>
       <c r="Q47" s="13"/>
@@ -3629,26 +3629,26 @@
       <c r="B48" s="1"/>
     </row>
     <row r="49" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="63" t="s">
+      <c r="A49" s="69" t="s">
         <v>24</v>
       </c>
-      <c r="B49" s="64"/>
-      <c r="C49" s="64"/>
-      <c r="D49" s="64"/>
-      <c r="E49" s="64"/>
-      <c r="F49" s="64"/>
-      <c r="G49" s="64"/>
-      <c r="H49" s="64"/>
-      <c r="I49" s="64"/>
-      <c r="J49" s="64"/>
-      <c r="K49" s="64"/>
-      <c r="L49" s="64"/>
-      <c r="M49" s="64"/>
-      <c r="N49" s="64"/>
-      <c r="O49" s="64"/>
-      <c r="P49" s="64"/>
-      <c r="Q49" s="64"/>
-      <c r="R49" s="65"/>
+      <c r="B49" s="70"/>
+      <c r="C49" s="70"/>
+      <c r="D49" s="70"/>
+      <c r="E49" s="70"/>
+      <c r="F49" s="70"/>
+      <c r="G49" s="70"/>
+      <c r="H49" s="70"/>
+      <c r="I49" s="70"/>
+      <c r="J49" s="70"/>
+      <c r="K49" s="70"/>
+      <c r="L49" s="70"/>
+      <c r="M49" s="70"/>
+      <c r="N49" s="70"/>
+      <c r="O49" s="70"/>
+      <c r="P49" s="70"/>
+      <c r="Q49" s="70"/>
+      <c r="R49" s="71"/>
       <c r="S49" s="3"/>
       <c r="T49" s="3"/>
       <c r="U49" s="3"/>
@@ -3658,17 +3658,17 @@
         <v>1</v>
       </c>
       <c r="B51" s="5"/>
-      <c r="C51" s="73" t="s">
+      <c r="C51" s="72" t="s">
         <v>100</v>
       </c>
-      <c r="D51" s="73"/>
-      <c r="E51" s="73"/>
-      <c r="F51" s="73"/>
-      <c r="G51" s="73"/>
-      <c r="H51" s="73"/>
-      <c r="I51" s="73"/>
-      <c r="J51" s="73"/>
-      <c r="K51" s="73"/>
+      <c r="D51" s="72"/>
+      <c r="E51" s="72"/>
+      <c r="F51" s="72"/>
+      <c r="G51" s="72"/>
+      <c r="H51" s="72"/>
+      <c r="I51" s="72"/>
+      <c r="J51" s="72"/>
+      <c r="K51" s="72"/>
       <c r="L51" s="5" t="s">
         <v>2</v>
       </c>
@@ -3705,17 +3705,17 @@
         <v>1</v>
       </c>
       <c r="B52" s="1"/>
-      <c r="C52" s="74" t="s">
+      <c r="C52" s="73" t="s">
         <v>65</v>
       </c>
-      <c r="D52" s="74"/>
-      <c r="E52" s="74"/>
-      <c r="F52" s="74"/>
-      <c r="G52" s="74"/>
-      <c r="H52" s="74"/>
-      <c r="I52" s="74"/>
-      <c r="J52" s="74"/>
-      <c r="K52" s="74"/>
+      <c r="D52" s="73"/>
+      <c r="E52" s="73"/>
+      <c r="F52" s="73"/>
+      <c r="G52" s="73"/>
+      <c r="H52" s="73"/>
+      <c r="I52" s="73"/>
+      <c r="J52" s="73"/>
+      <c r="K52" s="73"/>
       <c r="L52" s="6">
         <v>33</v>
       </c>
@@ -3738,17 +3738,17 @@
         <v>2</v>
       </c>
       <c r="B53" s="1"/>
-      <c r="C53" s="66" t="s">
+      <c r="C53" s="64" t="s">
         <v>66</v>
       </c>
-      <c r="D53" s="67"/>
-      <c r="E53" s="67"/>
-      <c r="F53" s="67"/>
-      <c r="G53" s="67"/>
-      <c r="H53" s="67"/>
-      <c r="I53" s="67"/>
-      <c r="J53" s="67"/>
-      <c r="K53" s="67"/>
+      <c r="D53" s="65"/>
+      <c r="E53" s="65"/>
+      <c r="F53" s="65"/>
+      <c r="G53" s="65"/>
+      <c r="H53" s="65"/>
+      <c r="I53" s="65"/>
+      <c r="J53" s="65"/>
+      <c r="K53" s="65"/>
       <c r="L53" s="6">
         <v>33</v>
       </c>
@@ -3771,17 +3771,17 @@
         <v>3</v>
       </c>
       <c r="B54" s="1"/>
-      <c r="C54" s="66" t="s">
+      <c r="C54" s="64" t="s">
         <v>25</v>
       </c>
-      <c r="D54" s="67"/>
-      <c r="E54" s="67"/>
-      <c r="F54" s="67"/>
-      <c r="G54" s="67"/>
-      <c r="H54" s="67"/>
-      <c r="I54" s="67"/>
-      <c r="J54" s="67"/>
-      <c r="K54" s="67"/>
+      <c r="D54" s="65"/>
+      <c r="E54" s="65"/>
+      <c r="F54" s="65"/>
+      <c r="G54" s="65"/>
+      <c r="H54" s="65"/>
+      <c r="I54" s="65"/>
+      <c r="J54" s="65"/>
+      <c r="K54" s="65"/>
       <c r="L54" s="6">
         <v>33</v>
       </c>
@@ -3804,17 +3804,17 @@
         <v>4</v>
       </c>
       <c r="B55" s="1"/>
-      <c r="C55" s="67" t="s">
+      <c r="C55" s="65" t="s">
         <v>26</v>
       </c>
-      <c r="D55" s="67"/>
-      <c r="E55" s="67"/>
-      <c r="F55" s="67"/>
-      <c r="G55" s="67"/>
-      <c r="H55" s="67"/>
-      <c r="I55" s="67"/>
-      <c r="J55" s="67"/>
-      <c r="K55" s="67"/>
+      <c r="D55" s="65"/>
+      <c r="E55" s="65"/>
+      <c r="F55" s="65"/>
+      <c r="G55" s="65"/>
+      <c r="H55" s="65"/>
+      <c r="I55" s="65"/>
+      <c r="J55" s="65"/>
+      <c r="K55" s="65"/>
       <c r="L55" s="6">
         <v>33</v>
       </c>
@@ -3837,17 +3837,17 @@
         <v>5</v>
       </c>
       <c r="B56" s="1"/>
-      <c r="C56" s="66" t="s">
+      <c r="C56" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="D56" s="67"/>
-      <c r="E56" s="67"/>
-      <c r="F56" s="67"/>
-      <c r="G56" s="67"/>
-      <c r="H56" s="67"/>
-      <c r="I56" s="67"/>
-      <c r="J56" s="67"/>
-      <c r="K56" s="67"/>
+      <c r="D56" s="65"/>
+      <c r="E56" s="65"/>
+      <c r="F56" s="65"/>
+      <c r="G56" s="65"/>
+      <c r="H56" s="65"/>
+      <c r="I56" s="65"/>
+      <c r="J56" s="65"/>
+      <c r="K56" s="65"/>
       <c r="L56" s="6">
         <v>33</v>
       </c>
@@ -3870,17 +3870,17 @@
         <v>6</v>
       </c>
       <c r="B57" s="1"/>
-      <c r="C57" s="66" t="s">
+      <c r="C57" s="64" t="s">
         <v>67</v>
       </c>
-      <c r="D57" s="67"/>
-      <c r="E57" s="67"/>
-      <c r="F57" s="67"/>
-      <c r="G57" s="67"/>
-      <c r="H57" s="67"/>
-      <c r="I57" s="67"/>
-      <c r="J57" s="67"/>
-      <c r="K57" s="67"/>
+      <c r="D57" s="65"/>
+      <c r="E57" s="65"/>
+      <c r="F57" s="65"/>
+      <c r="G57" s="65"/>
+      <c r="H57" s="65"/>
+      <c r="I57" s="65"/>
+      <c r="J57" s="65"/>
+      <c r="K57" s="65"/>
       <c r="L57" s="6">
         <v>33</v>
       </c>
@@ -3901,20 +3901,20 @@
     <row r="58" spans="1:21" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
-      <c r="C58" s="60" t="s">
+      <c r="C58" s="66" t="s">
         <v>58</v>
       </c>
-      <c r="D58" s="61"/>
-      <c r="E58" s="61"/>
-      <c r="F58" s="61"/>
-      <c r="G58" s="61"/>
-      <c r="H58" s="61"/>
-      <c r="I58" s="61"/>
-      <c r="J58" s="61"/>
-      <c r="K58" s="61"/>
-      <c r="L58" s="61"/>
-      <c r="M58" s="61"/>
-      <c r="N58" s="62"/>
+      <c r="D58" s="67"/>
+      <c r="E58" s="67"/>
+      <c r="F58" s="67"/>
+      <c r="G58" s="67"/>
+      <c r="H58" s="67"/>
+      <c r="I58" s="67"/>
+      <c r="J58" s="67"/>
+      <c r="K58" s="67"/>
+      <c r="L58" s="67"/>
+      <c r="M58" s="67"/>
+      <c r="N58" s="68"/>
       <c r="O58" s="11"/>
       <c r="P58" s="12" t="e">
         <f>AVERAGE(P52:P57)</f>
@@ -3934,25 +3934,25 @@
       <c r="B59" s="1"/>
     </row>
     <row r="60" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A60" s="72" t="s">
+      <c r="A60" s="81" t="s">
         <v>28</v>
       </c>
-      <c r="B60" s="72"/>
-      <c r="C60" s="72"/>
-      <c r="D60" s="72"/>
-      <c r="E60" s="72"/>
-      <c r="F60" s="72"/>
-      <c r="G60" s="72"/>
-      <c r="H60" s="72"/>
-      <c r="I60" s="72"/>
-      <c r="J60" s="72"/>
-      <c r="K60" s="72"/>
-      <c r="L60" s="72"/>
-      <c r="M60" s="72"/>
-      <c r="N60" s="72"/>
-      <c r="O60" s="72"/>
-      <c r="P60" s="72"/>
-      <c r="Q60" s="72"/>
+      <c r="B60" s="81"/>
+      <c r="C60" s="81"/>
+      <c r="D60" s="81"/>
+      <c r="E60" s="81"/>
+      <c r="F60" s="81"/>
+      <c r="G60" s="81"/>
+      <c r="H60" s="81"/>
+      <c r="I60" s="81"/>
+      <c r="J60" s="81"/>
+      <c r="K60" s="81"/>
+      <c r="L60" s="81"/>
+      <c r="M60" s="81"/>
+      <c r="N60" s="81"/>
+      <c r="O60" s="81"/>
+      <c r="P60" s="81"/>
+      <c r="Q60" s="81"/>
       <c r="R60"/>
     </row>
     <row r="61" spans="1:21" x14ac:dyDescent="0.3">
@@ -3960,10 +3960,10 @@
         <v>1</v>
       </c>
       <c r="B61" s="16"/>
-      <c r="C61" s="68" t="s">
+      <c r="C61" s="80" t="s">
         <v>68</v>
       </c>
-      <c r="D61" s="68"/>
+      <c r="D61" s="80"/>
       <c r="E61" s="17" t="s">
         <v>69</v>
       </c>
@@ -4010,10 +4010,10 @@
         <v>1</v>
       </c>
       <c r="B62" s="14"/>
-      <c r="C62" s="57" t="s">
+      <c r="C62" s="63" t="s">
         <v>82</v>
       </c>
-      <c r="D62" s="57"/>
+      <c r="D62" s="63"/>
       <c r="E62" s="25">
         <v>41</v>
       </c>
@@ -4060,10 +4060,10 @@
         <v>2</v>
       </c>
       <c r="B63" s="14"/>
-      <c r="C63" s="57" t="s">
+      <c r="C63" s="63" t="s">
         <v>83</v>
       </c>
-      <c r="D63" s="57"/>
+      <c r="D63" s="63"/>
       <c r="E63" s="25">
         <v>40</v>
       </c>
@@ -4110,10 +4110,10 @@
         <v>3</v>
       </c>
       <c r="B64" s="14"/>
-      <c r="C64" s="57" t="s">
+      <c r="C64" s="63" t="s">
         <v>88</v>
       </c>
-      <c r="D64" s="57"/>
+      <c r="D64" s="63"/>
       <c r="E64" s="25">
         <v>55</v>
       </c>
@@ -4160,10 +4160,10 @@
         <v>4</v>
       </c>
       <c r="B65" s="14"/>
-      <c r="C65" s="57" t="s">
+      <c r="C65" s="63" t="s">
         <v>89</v>
       </c>
-      <c r="D65" s="57"/>
+      <c r="D65" s="63"/>
       <c r="E65" s="25">
         <v>58</v>
       </c>
@@ -4210,10 +4210,10 @@
         <v>5</v>
       </c>
       <c r="B66" s="14"/>
-      <c r="C66" s="57" t="s">
+      <c r="C66" s="63" t="s">
         <v>29</v>
       </c>
-      <c r="D66" s="57"/>
+      <c r="D66" s="63"/>
       <c r="E66" s="25"/>
       <c r="F66" s="26"/>
       <c r="G66" s="27"/>
@@ -4234,10 +4234,10 @@
         <v>6</v>
       </c>
       <c r="B67" s="40"/>
-      <c r="C67" s="54" t="s">
+      <c r="C67" s="90" t="s">
         <v>30</v>
       </c>
-      <c r="D67" s="55"/>
+      <c r="D67" s="91"/>
       <c r="E67" s="25"/>
       <c r="F67" s="26"/>
       <c r="G67" s="27"/>
@@ -4258,10 +4258,10 @@
         <v>7</v>
       </c>
       <c r="B68" s="14"/>
-      <c r="C68" s="57" t="s">
+      <c r="C68" s="63" t="s">
         <v>31</v>
       </c>
-      <c r="D68" s="57"/>
+      <c r="D68" s="63"/>
       <c r="E68" s="25"/>
       <c r="F68" s="26"/>
       <c r="G68" s="27"/>
@@ -4282,10 +4282,10 @@
         <v>8</v>
       </c>
       <c r="B69" s="40"/>
-      <c r="C69" s="54" t="s">
+      <c r="C69" s="90" t="s">
         <v>32</v>
       </c>
-      <c r="D69" s="55"/>
+      <c r="D69" s="91"/>
       <c r="E69" s="25"/>
       <c r="F69" s="26"/>
       <c r="G69" s="27"/>
@@ -4304,10 +4304,10 @@
     <row r="70" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A70" s="14"/>
       <c r="B70" s="14"/>
-      <c r="C70" s="58" t="s">
+      <c r="C70" s="74" t="s">
         <v>98</v>
       </c>
-      <c r="D70" s="58"/>
+      <c r="D70" s="74"/>
       <c r="E70" s="25">
         <f t="shared" ref="E70:O70" si="1">AVERAGE(E62:E69)</f>
         <v>48.5</v>
@@ -4363,25 +4363,25 @@
       <c r="R72"/>
     </row>
     <row r="73" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A73" s="75" t="s">
+      <c r="A73" s="79" t="s">
         <v>99</v>
       </c>
-      <c r="B73" s="75"/>
-      <c r="C73" s="75"/>
-      <c r="D73" s="75"/>
-      <c r="E73" s="75"/>
-      <c r="F73" s="75"/>
-      <c r="G73" s="75"/>
-      <c r="H73" s="75"/>
-      <c r="I73" s="75"/>
-      <c r="J73" s="75"/>
-      <c r="K73" s="75"/>
-      <c r="L73" s="75"/>
-      <c r="M73" s="75"/>
-      <c r="N73" s="75"/>
-      <c r="O73" s="75"/>
-      <c r="P73" s="75"/>
-      <c r="Q73" s="75"/>
+      <c r="B73" s="79"/>
+      <c r="C73" s="79"/>
+      <c r="D73" s="79"/>
+      <c r="E73" s="79"/>
+      <c r="F73" s="79"/>
+      <c r="G73" s="79"/>
+      <c r="H73" s="79"/>
+      <c r="I73" s="79"/>
+      <c r="J73" s="79"/>
+      <c r="K73" s="79"/>
+      <c r="L73" s="79"/>
+      <c r="M73" s="79"/>
+      <c r="N73" s="79"/>
+      <c r="O73" s="79"/>
+      <c r="P73" s="79"/>
+      <c r="Q73" s="79"/>
       <c r="R73"/>
     </row>
     <row r="74" spans="1:18" x14ac:dyDescent="0.3">
@@ -4389,10 +4389,10 @@
         <v>1</v>
       </c>
       <c r="B74" s="16"/>
-      <c r="C74" s="68" t="s">
+      <c r="C74" s="80" t="s">
         <v>68</v>
       </c>
-      <c r="D74" s="68"/>
+      <c r="D74" s="80"/>
       <c r="E74" s="17" t="s">
         <v>69</v>
       </c>
@@ -4439,10 +4439,10 @@
         <v>1</v>
       </c>
       <c r="B75" s="14"/>
-      <c r="C75" s="57" t="s">
+      <c r="C75" s="63" t="s">
         <v>101</v>
       </c>
-      <c r="D75" s="57"/>
+      <c r="D75" s="63"/>
       <c r="E75" s="25"/>
       <c r="F75" s="26"/>
       <c r="G75" s="27"/>
@@ -4463,10 +4463,10 @@
         <v>2</v>
       </c>
       <c r="B76" s="14"/>
-      <c r="C76" s="57" t="s">
+      <c r="C76" s="63" t="s">
         <v>102</v>
       </c>
-      <c r="D76" s="57"/>
+      <c r="D76" s="63"/>
       <c r="E76" s="25"/>
       <c r="F76" s="26"/>
       <c r="G76" s="27"/>
@@ -4487,10 +4487,10 @@
         <v>3</v>
       </c>
       <c r="B77" s="14"/>
-      <c r="C77" s="57" t="s">
+      <c r="C77" s="63" t="s">
         <v>103</v>
       </c>
-      <c r="D77" s="57"/>
+      <c r="D77" s="63"/>
       <c r="E77" s="25"/>
       <c r="F77" s="26"/>
       <c r="G77" s="27"/>
@@ -4510,10 +4510,10 @@
         <v>4</v>
       </c>
       <c r="B78" s="14"/>
-      <c r="C78" s="57" t="s">
+      <c r="C78" s="63" t="s">
         <v>104</v>
       </c>
-      <c r="D78" s="57"/>
+      <c r="D78" s="63"/>
       <c r="E78" s="25"/>
       <c r="F78" s="26"/>
       <c r="G78" s="27"/>
@@ -4533,8 +4533,8 @@
         <v>5</v>
       </c>
       <c r="B79" s="14"/>
-      <c r="C79" s="79"/>
-      <c r="D79" s="79"/>
+      <c r="C79" s="89"/>
+      <c r="D79" s="89"/>
       <c r="E79" s="25"/>
       <c r="F79" s="26"/>
       <c r="G79" s="27"/>
@@ -4554,8 +4554,8 @@
         <v>6</v>
       </c>
       <c r="B80" s="14"/>
-      <c r="C80" s="79"/>
-      <c r="D80" s="79"/>
+      <c r="C80" s="89"/>
+      <c r="D80" s="89"/>
       <c r="E80" s="25"/>
       <c r="F80" s="26"/>
       <c r="G80" s="27"/>
@@ -4573,10 +4573,10 @@
     <row r="81" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A81" s="14"/>
       <c r="B81" s="14"/>
-      <c r="C81" s="58" t="s">
+      <c r="C81" s="74" t="s">
         <v>98</v>
       </c>
-      <c r="D81" s="58"/>
+      <c r="D81" s="74"/>
       <c r="E81" s="25" t="e">
         <f t="shared" ref="E81:K81" si="2">AVERAGE(E75:E80)</f>
         <v>#DIV/0!</v>
@@ -4625,103 +4625,103 @@
       <c r="Q81" s="29"/>
     </row>
     <row r="84" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A84" s="59">
+      <c r="A84" s="75">
         <v>2022</v>
       </c>
-      <c r="B84" s="59"/>
-      <c r="C84" s="59"/>
-      <c r="D84" s="59"/>
-      <c r="E84" s="59"/>
-      <c r="F84" s="59"/>
-      <c r="G84" s="59"/>
-      <c r="H84" s="59"/>
-      <c r="I84" s="59"/>
-      <c r="J84" s="59"/>
-      <c r="K84" s="59"/>
-      <c r="L84" s="59"/>
-      <c r="M84" s="59"/>
-      <c r="N84" s="59"/>
-      <c r="O84" s="59"/>
-      <c r="P84" s="59"/>
-      <c r="Q84" s="59"/>
-      <c r="R84" s="59"/>
-      <c r="S84" s="59"/>
-      <c r="T84" s="59"/>
-      <c r="U84" s="59"/>
-      <c r="V84" s="59"/>
-      <c r="W84" s="59"/>
+      <c r="B84" s="75"/>
+      <c r="C84" s="75"/>
+      <c r="D84" s="75"/>
+      <c r="E84" s="75"/>
+      <c r="F84" s="75"/>
+      <c r="G84" s="75"/>
+      <c r="H84" s="75"/>
+      <c r="I84" s="75"/>
+      <c r="J84" s="75"/>
+      <c r="K84" s="75"/>
+      <c r="L84" s="75"/>
+      <c r="M84" s="75"/>
+      <c r="N84" s="75"/>
+      <c r="O84" s="75"/>
+      <c r="P84" s="75"/>
+      <c r="Q84" s="75"/>
+      <c r="R84" s="75"/>
+      <c r="S84" s="75"/>
+      <c r="T84" s="75"/>
+      <c r="U84" s="75"/>
+      <c r="V84" s="75"/>
+      <c r="W84" s="75"/>
     </row>
     <row r="85" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A85" s="59"/>
-      <c r="B85" s="59"/>
-      <c r="C85" s="59"/>
-      <c r="D85" s="59"/>
-      <c r="E85" s="59"/>
-      <c r="F85" s="59"/>
-      <c r="G85" s="59"/>
-      <c r="H85" s="59"/>
-      <c r="I85" s="59"/>
-      <c r="J85" s="59"/>
-      <c r="K85" s="59"/>
-      <c r="L85" s="59"/>
-      <c r="M85" s="59"/>
-      <c r="N85" s="59"/>
-      <c r="O85" s="59"/>
-      <c r="P85" s="59"/>
-      <c r="Q85" s="59"/>
-      <c r="R85" s="59"/>
-      <c r="S85" s="59"/>
-      <c r="T85" s="59"/>
-      <c r="U85" s="59"/>
-      <c r="V85" s="59"/>
-      <c r="W85" s="59"/>
+      <c r="A85" s="75"/>
+      <c r="B85" s="75"/>
+      <c r="C85" s="75"/>
+      <c r="D85" s="75"/>
+      <c r="E85" s="75"/>
+      <c r="F85" s="75"/>
+      <c r="G85" s="75"/>
+      <c r="H85" s="75"/>
+      <c r="I85" s="75"/>
+      <c r="J85" s="75"/>
+      <c r="K85" s="75"/>
+      <c r="L85" s="75"/>
+      <c r="M85" s="75"/>
+      <c r="N85" s="75"/>
+      <c r="O85" s="75"/>
+      <c r="P85" s="75"/>
+      <c r="Q85" s="75"/>
+      <c r="R85" s="75"/>
+      <c r="S85" s="75"/>
+      <c r="T85" s="75"/>
+      <c r="U85" s="75"/>
+      <c r="V85" s="75"/>
+      <c r="W85" s="75"/>
     </row>
     <row r="86" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A86" s="59"/>
-      <c r="B86" s="59"/>
-      <c r="C86" s="59"/>
-      <c r="D86" s="59"/>
-      <c r="E86" s="59"/>
-      <c r="F86" s="59"/>
-      <c r="G86" s="59"/>
-      <c r="H86" s="59"/>
-      <c r="I86" s="59"/>
-      <c r="J86" s="59"/>
-      <c r="K86" s="59"/>
-      <c r="L86" s="59"/>
-      <c r="M86" s="59"/>
-      <c r="N86" s="59"/>
-      <c r="O86" s="59"/>
-      <c r="P86" s="59"/>
-      <c r="Q86" s="59"/>
-      <c r="R86" s="59"/>
-      <c r="S86" s="59"/>
-      <c r="T86" s="59"/>
-      <c r="U86" s="59"/>
-      <c r="V86" s="59"/>
-      <c r="W86" s="59"/>
+      <c r="A86" s="75"/>
+      <c r="B86" s="75"/>
+      <c r="C86" s="75"/>
+      <c r="D86" s="75"/>
+      <c r="E86" s="75"/>
+      <c r="F86" s="75"/>
+      <c r="G86" s="75"/>
+      <c r="H86" s="75"/>
+      <c r="I86" s="75"/>
+      <c r="J86" s="75"/>
+      <c r="K86" s="75"/>
+      <c r="L86" s="75"/>
+      <c r="M86" s="75"/>
+      <c r="N86" s="75"/>
+      <c r="O86" s="75"/>
+      <c r="P86" s="75"/>
+      <c r="Q86" s="75"/>
+      <c r="R86" s="75"/>
+      <c r="S86" s="75"/>
+      <c r="T86" s="75"/>
+      <c r="U86" s="75"/>
+      <c r="V86" s="75"/>
+      <c r="W86" s="75"/>
     </row>
     <row r="87" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A87" s="69" t="s">
+      <c r="A87" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="B87" s="70"/>
-      <c r="C87" s="70"/>
-      <c r="D87" s="70"/>
-      <c r="E87" s="70"/>
-      <c r="F87" s="70"/>
-      <c r="G87" s="70"/>
-      <c r="H87" s="70"/>
-      <c r="I87" s="70"/>
-      <c r="J87" s="70"/>
-      <c r="K87" s="70"/>
-      <c r="L87" s="70"/>
-      <c r="M87" s="70"/>
-      <c r="N87" s="70"/>
-      <c r="O87" s="70"/>
-      <c r="P87" s="70"/>
-      <c r="Q87" s="70"/>
-      <c r="R87" s="71"/>
+      <c r="B87" s="77"/>
+      <c r="C87" s="77"/>
+      <c r="D87" s="77"/>
+      <c r="E87" s="77"/>
+      <c r="F87" s="77"/>
+      <c r="G87" s="77"/>
+      <c r="H87" s="77"/>
+      <c r="I87" s="77"/>
+      <c r="J87" s="77"/>
+      <c r="K87" s="77"/>
+      <c r="L87" s="77"/>
+      <c r="M87" s="77"/>
+      <c r="N87" s="77"/>
+      <c r="O87" s="77"/>
+      <c r="P87" s="77"/>
+      <c r="Q87" s="77"/>
+      <c r="R87" s="78"/>
       <c r="S87" s="38"/>
       <c r="T87" s="38"/>
       <c r="U87" s="38"/>
@@ -4732,17 +4732,17 @@
         <v>1</v>
       </c>
       <c r="B89" s="5"/>
-      <c r="C89" s="73" t="s">
+      <c r="C89" s="72" t="s">
         <v>56</v>
       </c>
-      <c r="D89" s="73"/>
-      <c r="E89" s="73"/>
-      <c r="F89" s="73"/>
-      <c r="G89" s="73"/>
-      <c r="H89" s="73"/>
-      <c r="I89" s="73"/>
-      <c r="J89" s="73"/>
-      <c r="K89" s="73"/>
+      <c r="D89" s="72"/>
+      <c r="E89" s="72"/>
+      <c r="F89" s="72"/>
+      <c r="G89" s="72"/>
+      <c r="H89" s="72"/>
+      <c r="I89" s="72"/>
+      <c r="J89" s="72"/>
+      <c r="K89" s="72"/>
       <c r="L89" s="5" t="s">
         <v>2</v>
       </c>
@@ -4780,17 +4780,17 @@
         <v>1</v>
       </c>
       <c r="B90" s="1"/>
-      <c r="C90" s="74" t="s">
+      <c r="C90" s="73" t="s">
         <v>5</v>
       </c>
-      <c r="D90" s="74"/>
-      <c r="E90" s="74"/>
-      <c r="F90" s="74"/>
-      <c r="G90" s="74"/>
-      <c r="H90" s="74"/>
-      <c r="I90" s="74"/>
-      <c r="J90" s="74"/>
-      <c r="K90" s="74"/>
+      <c r="D90" s="73"/>
+      <c r="E90" s="73"/>
+      <c r="F90" s="73"/>
+      <c r="G90" s="73"/>
+      <c r="H90" s="73"/>
+      <c r="I90" s="73"/>
+      <c r="J90" s="73"/>
+      <c r="K90" s="73"/>
       <c r="L90" s="6">
         <v>17</v>
       </c>
@@ -4826,17 +4826,17 @@
         <v>2</v>
       </c>
       <c r="B91" s="1"/>
-      <c r="C91" s="66" t="s">
+      <c r="C91" s="64" t="s">
         <v>33</v>
       </c>
-      <c r="D91" s="67"/>
-      <c r="E91" s="67"/>
-      <c r="F91" s="67"/>
-      <c r="G91" s="67"/>
-      <c r="H91" s="67"/>
-      <c r="I91" s="67"/>
-      <c r="J91" s="67"/>
-      <c r="K91" s="67"/>
+      <c r="D91" s="65"/>
+      <c r="E91" s="65"/>
+      <c r="F91" s="65"/>
+      <c r="G91" s="65"/>
+      <c r="H91" s="65"/>
+      <c r="I91" s="65"/>
+      <c r="J91" s="65"/>
+      <c r="K91" s="65"/>
       <c r="L91" s="6">
         <v>17</v>
       </c>
@@ -4872,17 +4872,17 @@
         <v>3</v>
       </c>
       <c r="B92" s="1"/>
-      <c r="C92" s="66" t="s">
+      <c r="C92" s="64" t="s">
         <v>34</v>
       </c>
-      <c r="D92" s="67"/>
-      <c r="E92" s="67"/>
-      <c r="F92" s="67"/>
-      <c r="G92" s="67"/>
-      <c r="H92" s="67"/>
-      <c r="I92" s="67"/>
-      <c r="J92" s="67"/>
-      <c r="K92" s="67"/>
+      <c r="D92" s="65"/>
+      <c r="E92" s="65"/>
+      <c r="F92" s="65"/>
+      <c r="G92" s="65"/>
+      <c r="H92" s="65"/>
+      <c r="I92" s="65"/>
+      <c r="J92" s="65"/>
+      <c r="K92" s="65"/>
       <c r="L92" s="6">
         <v>17</v>
       </c>
@@ -4918,17 +4918,17 @@
         <v>4</v>
       </c>
       <c r="B93" s="1"/>
-      <c r="C93" s="67" t="s">
+      <c r="C93" s="65" t="s">
         <v>35</v>
       </c>
-      <c r="D93" s="67"/>
-      <c r="E93" s="67"/>
-      <c r="F93" s="67"/>
-      <c r="G93" s="67"/>
-      <c r="H93" s="67"/>
-      <c r="I93" s="67"/>
-      <c r="J93" s="67"/>
-      <c r="K93" s="67"/>
+      <c r="D93" s="65"/>
+      <c r="E93" s="65"/>
+      <c r="F93" s="65"/>
+      <c r="G93" s="65"/>
+      <c r="H93" s="65"/>
+      <c r="I93" s="65"/>
+      <c r="J93" s="65"/>
+      <c r="K93" s="65"/>
       <c r="L93" s="6">
         <v>17</v>
       </c>
@@ -4964,17 +4964,17 @@
         <v>5</v>
       </c>
       <c r="B94" s="1"/>
-      <c r="C94" s="66" t="s">
+      <c r="C94" s="64" t="s">
         <v>36</v>
       </c>
-      <c r="D94" s="67"/>
-      <c r="E94" s="67"/>
-      <c r="F94" s="67"/>
-      <c r="G94" s="67"/>
-      <c r="H94" s="67"/>
-      <c r="I94" s="67"/>
-      <c r="J94" s="67"/>
-      <c r="K94" s="67"/>
+      <c r="D94" s="65"/>
+      <c r="E94" s="65"/>
+      <c r="F94" s="65"/>
+      <c r="G94" s="65"/>
+      <c r="H94" s="65"/>
+      <c r="I94" s="65"/>
+      <c r="J94" s="65"/>
+      <c r="K94" s="65"/>
       <c r="L94" s="6">
         <v>17</v>
       </c>
@@ -5010,17 +5010,17 @@
         <v>6</v>
       </c>
       <c r="B95" s="1"/>
-      <c r="C95" s="66" t="s">
+      <c r="C95" s="64" t="s">
         <v>37</v>
       </c>
-      <c r="D95" s="67"/>
-      <c r="E95" s="67"/>
-      <c r="F95" s="67"/>
-      <c r="G95" s="67"/>
-      <c r="H95" s="67"/>
-      <c r="I95" s="67"/>
-      <c r="J95" s="67"/>
-      <c r="K95" s="67"/>
+      <c r="D95" s="65"/>
+      <c r="E95" s="65"/>
+      <c r="F95" s="65"/>
+      <c r="G95" s="65"/>
+      <c r="H95" s="65"/>
+      <c r="I95" s="65"/>
+      <c r="J95" s="65"/>
+      <c r="K95" s="65"/>
       <c r="L95" s="6">
         <v>17</v>
       </c>
@@ -5056,17 +5056,17 @@
         <v>7</v>
       </c>
       <c r="B96" s="1"/>
-      <c r="C96" s="67" t="s">
+      <c r="C96" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="D96" s="67"/>
-      <c r="E96" s="67"/>
-      <c r="F96" s="67"/>
-      <c r="G96" s="67"/>
-      <c r="H96" s="67"/>
-      <c r="I96" s="67"/>
-      <c r="J96" s="67"/>
-      <c r="K96" s="67"/>
+      <c r="D96" s="65"/>
+      <c r="E96" s="65"/>
+      <c r="F96" s="65"/>
+      <c r="G96" s="65"/>
+      <c r="H96" s="65"/>
+      <c r="I96" s="65"/>
+      <c r="J96" s="65"/>
+      <c r="K96" s="65"/>
       <c r="L96" s="6">
         <v>17</v>
       </c>
@@ -5102,17 +5102,17 @@
         <v>8</v>
       </c>
       <c r="B97" s="1"/>
-      <c r="C97" s="66" t="s">
+      <c r="C97" s="64" t="s">
         <v>38</v>
       </c>
-      <c r="D97" s="67"/>
-      <c r="E97" s="67"/>
-      <c r="F97" s="67"/>
-      <c r="G97" s="67"/>
-      <c r="H97" s="67"/>
-      <c r="I97" s="67"/>
-      <c r="J97" s="67"/>
-      <c r="K97" s="67"/>
+      <c r="D97" s="65"/>
+      <c r="E97" s="65"/>
+      <c r="F97" s="65"/>
+      <c r="G97" s="65"/>
+      <c r="H97" s="65"/>
+      <c r="I97" s="65"/>
+      <c r="J97" s="65"/>
+      <c r="K97" s="65"/>
       <c r="L97" s="6">
         <v>17</v>
       </c>
@@ -5135,17 +5135,17 @@
         <v>9</v>
       </c>
       <c r="B98" s="1"/>
-      <c r="C98" s="66" t="s">
+      <c r="C98" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="D98" s="67"/>
-      <c r="E98" s="67"/>
-      <c r="F98" s="67"/>
-      <c r="G98" s="67"/>
-      <c r="H98" s="67"/>
-      <c r="I98" s="67"/>
-      <c r="J98" s="67"/>
-      <c r="K98" s="67"/>
+      <c r="D98" s="65"/>
+      <c r="E98" s="65"/>
+      <c r="F98" s="65"/>
+      <c r="G98" s="65"/>
+      <c r="H98" s="65"/>
+      <c r="I98" s="65"/>
+      <c r="J98" s="65"/>
+      <c r="K98" s="65"/>
       <c r="L98" s="6">
         <v>17</v>
       </c>
@@ -5168,17 +5168,17 @@
         <v>10</v>
       </c>
       <c r="B99" s="1"/>
-      <c r="C99" s="66" t="s">
+      <c r="C99" s="64" t="s">
         <v>40</v>
       </c>
-      <c r="D99" s="67"/>
-      <c r="E99" s="67"/>
-      <c r="F99" s="67"/>
-      <c r="G99" s="67"/>
-      <c r="H99" s="67"/>
-      <c r="I99" s="67"/>
-      <c r="J99" s="67"/>
-      <c r="K99" s="67"/>
+      <c r="D99" s="65"/>
+      <c r="E99" s="65"/>
+      <c r="F99" s="65"/>
+      <c r="G99" s="65"/>
+      <c r="H99" s="65"/>
+      <c r="I99" s="65"/>
+      <c r="J99" s="65"/>
+      <c r="K99" s="65"/>
       <c r="L99" s="6">
         <v>17</v>
       </c>
@@ -5214,17 +5214,17 @@
         <v>11</v>
       </c>
       <c r="B100" s="1"/>
-      <c r="C100" s="66" t="s">
+      <c r="C100" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="D100" s="67"/>
-      <c r="E100" s="67"/>
-      <c r="F100" s="67"/>
-      <c r="G100" s="67"/>
-      <c r="H100" s="67"/>
-      <c r="I100" s="67"/>
-      <c r="J100" s="67"/>
-      <c r="K100" s="67"/>
+      <c r="D100" s="65"/>
+      <c r="E100" s="65"/>
+      <c r="F100" s="65"/>
+      <c r="G100" s="65"/>
+      <c r="H100" s="65"/>
+      <c r="I100" s="65"/>
+      <c r="J100" s="65"/>
+      <c r="K100" s="65"/>
       <c r="L100" s="6">
         <v>17</v>
       </c>
@@ -5247,17 +5247,17 @@
         <v>12</v>
       </c>
       <c r="B101" s="1"/>
-      <c r="C101" s="66" t="s">
+      <c r="C101" s="64" t="s">
         <v>42</v>
       </c>
-      <c r="D101" s="67"/>
-      <c r="E101" s="67"/>
-      <c r="F101" s="67"/>
-      <c r="G101" s="67"/>
-      <c r="H101" s="67"/>
-      <c r="I101" s="67"/>
-      <c r="J101" s="67"/>
-      <c r="K101" s="67"/>
+      <c r="D101" s="65"/>
+      <c r="E101" s="65"/>
+      <c r="F101" s="65"/>
+      <c r="G101" s="65"/>
+      <c r="H101" s="65"/>
+      <c r="I101" s="65"/>
+      <c r="J101" s="65"/>
+      <c r="K101" s="65"/>
       <c r="L101" s="6">
         <v>17</v>
       </c>
@@ -5280,17 +5280,17 @@
         <v>13</v>
       </c>
       <c r="B102" s="1"/>
-      <c r="C102" s="67" t="s">
+      <c r="C102" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="D102" s="67"/>
-      <c r="E102" s="67"/>
-      <c r="F102" s="67"/>
-      <c r="G102" s="67"/>
-      <c r="H102" s="67"/>
-      <c r="I102" s="67"/>
-      <c r="J102" s="67"/>
-      <c r="K102" s="67"/>
+      <c r="D102" s="65"/>
+      <c r="E102" s="65"/>
+      <c r="F102" s="65"/>
+      <c r="G102" s="65"/>
+      <c r="H102" s="65"/>
+      <c r="I102" s="65"/>
+      <c r="J102" s="65"/>
+      <c r="K102" s="65"/>
       <c r="L102" s="6">
         <v>17</v>
       </c>
@@ -5326,17 +5326,17 @@
         <v>14</v>
       </c>
       <c r="B103" s="1"/>
-      <c r="C103" s="66" t="s">
+      <c r="C103" s="64" t="s">
         <v>43</v>
       </c>
-      <c r="D103" s="67"/>
-      <c r="E103" s="67"/>
-      <c r="F103" s="67"/>
-      <c r="G103" s="67"/>
-      <c r="H103" s="67"/>
-      <c r="I103" s="67"/>
-      <c r="J103" s="67"/>
-      <c r="K103" s="67"/>
+      <c r="D103" s="65"/>
+      <c r="E103" s="65"/>
+      <c r="F103" s="65"/>
+      <c r="G103" s="65"/>
+      <c r="H103" s="65"/>
+      <c r="I103" s="65"/>
+      <c r="J103" s="65"/>
+      <c r="K103" s="65"/>
       <c r="L103" s="6">
         <v>17</v>
       </c>
@@ -5372,17 +5372,17 @@
         <v>15</v>
       </c>
       <c r="B104" s="1"/>
-      <c r="C104" s="67" t="s">
+      <c r="C104" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="D104" s="67"/>
-      <c r="E104" s="67"/>
-      <c r="F104" s="67"/>
-      <c r="G104" s="67"/>
-      <c r="H104" s="67"/>
-      <c r="I104" s="67"/>
-      <c r="J104" s="67"/>
-      <c r="K104" s="67"/>
+      <c r="D104" s="65"/>
+      <c r="E104" s="65"/>
+      <c r="F104" s="65"/>
+      <c r="G104" s="65"/>
+      <c r="H104" s="65"/>
+      <c r="I104" s="65"/>
+      <c r="J104" s="65"/>
+      <c r="K104" s="65"/>
       <c r="L104" s="6">
         <v>17</v>
       </c>
@@ -5418,17 +5418,17 @@
         <v>16</v>
       </c>
       <c r="B105" s="1"/>
-      <c r="C105" s="67" t="s">
+      <c r="C105" s="65" t="s">
         <v>44</v>
       </c>
-      <c r="D105" s="67"/>
-      <c r="E105" s="67"/>
-      <c r="F105" s="67"/>
-      <c r="G105" s="67"/>
-      <c r="H105" s="67"/>
-      <c r="I105" s="67"/>
-      <c r="J105" s="67"/>
-      <c r="K105" s="67"/>
+      <c r="D105" s="65"/>
+      <c r="E105" s="65"/>
+      <c r="F105" s="65"/>
+      <c r="G105" s="65"/>
+      <c r="H105" s="65"/>
+      <c r="I105" s="65"/>
+      <c r="J105" s="65"/>
+      <c r="K105" s="65"/>
       <c r="L105" s="6">
         <v>17</v>
       </c>
@@ -5451,17 +5451,17 @@
         <v>17</v>
       </c>
       <c r="B106" s="1"/>
-      <c r="C106" s="66" t="s">
+      <c r="C106" s="64" t="s">
         <v>45</v>
       </c>
-      <c r="D106" s="67"/>
-      <c r="E106" s="67"/>
-      <c r="F106" s="67"/>
-      <c r="G106" s="67"/>
-      <c r="H106" s="67"/>
-      <c r="I106" s="67"/>
-      <c r="J106" s="67"/>
-      <c r="K106" s="67"/>
+      <c r="D106" s="65"/>
+      <c r="E106" s="65"/>
+      <c r="F106" s="65"/>
+      <c r="G106" s="65"/>
+      <c r="H106" s="65"/>
+      <c r="I106" s="65"/>
+      <c r="J106" s="65"/>
+      <c r="K106" s="65"/>
       <c r="L106" s="6">
         <v>17</v>
       </c>
@@ -5497,17 +5497,17 @@
         <v>18</v>
       </c>
       <c r="B107" s="1"/>
-      <c r="C107" s="66" t="s">
+      <c r="C107" s="64" t="s">
         <v>46</v>
       </c>
-      <c r="D107" s="67"/>
-      <c r="E107" s="67"/>
-      <c r="F107" s="67"/>
-      <c r="G107" s="67"/>
-      <c r="H107" s="67"/>
-      <c r="I107" s="67"/>
-      <c r="J107" s="67"/>
-      <c r="K107" s="67"/>
+      <c r="D107" s="65"/>
+      <c r="E107" s="65"/>
+      <c r="F107" s="65"/>
+      <c r="G107" s="65"/>
+      <c r="H107" s="65"/>
+      <c r="I107" s="65"/>
+      <c r="J107" s="65"/>
+      <c r="K107" s="65"/>
       <c r="L107" s="6">
         <v>17</v>
       </c>
@@ -5530,17 +5530,17 @@
         <v>19</v>
       </c>
       <c r="B108" s="1"/>
-      <c r="C108" s="67" t="s">
+      <c r="C108" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="D108" s="67"/>
-      <c r="E108" s="67"/>
-      <c r="F108" s="67"/>
-      <c r="G108" s="67"/>
-      <c r="H108" s="67"/>
-      <c r="I108" s="67"/>
-      <c r="J108" s="67"/>
-      <c r="K108" s="67"/>
+      <c r="D108" s="65"/>
+      <c r="E108" s="65"/>
+      <c r="F108" s="65"/>
+      <c r="G108" s="65"/>
+      <c r="H108" s="65"/>
+      <c r="I108" s="65"/>
+      <c r="J108" s="65"/>
+      <c r="K108" s="65"/>
       <c r="L108" s="6">
         <v>17</v>
       </c>
@@ -5576,17 +5576,17 @@
         <v>20</v>
       </c>
       <c r="B109" s="1"/>
-      <c r="C109" s="67" t="s">
+      <c r="C109" s="65" t="s">
         <v>47</v>
       </c>
-      <c r="D109" s="67"/>
-      <c r="E109" s="67"/>
-      <c r="F109" s="67"/>
-      <c r="G109" s="67"/>
-      <c r="H109" s="67"/>
-      <c r="I109" s="67"/>
-      <c r="J109" s="67"/>
-      <c r="K109" s="67"/>
+      <c r="D109" s="65"/>
+      <c r="E109" s="65"/>
+      <c r="F109" s="65"/>
+      <c r="G109" s="65"/>
+      <c r="H109" s="65"/>
+      <c r="I109" s="65"/>
+      <c r="J109" s="65"/>
+      <c r="K109" s="65"/>
       <c r="L109" s="6">
         <v>17</v>
       </c>
@@ -5622,17 +5622,17 @@
         <v>21</v>
       </c>
       <c r="B110" s="1"/>
-      <c r="C110" s="67" t="s">
+      <c r="C110" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="D110" s="67"/>
-      <c r="E110" s="67"/>
-      <c r="F110" s="67"/>
-      <c r="G110" s="67"/>
-      <c r="H110" s="67"/>
-      <c r="I110" s="67"/>
-      <c r="J110" s="67"/>
-      <c r="K110" s="67"/>
+      <c r="D110" s="65"/>
+      <c r="E110" s="65"/>
+      <c r="F110" s="65"/>
+      <c r="G110" s="65"/>
+      <c r="H110" s="65"/>
+      <c r="I110" s="65"/>
+      <c r="J110" s="65"/>
+      <c r="K110" s="65"/>
       <c r="L110" s="6">
         <v>17</v>
       </c>
@@ -5668,17 +5668,17 @@
         <v>22</v>
       </c>
       <c r="B111" s="1"/>
-      <c r="C111" s="66" t="s">
+      <c r="C111" s="64" t="s">
         <v>48</v>
       </c>
-      <c r="D111" s="67"/>
-      <c r="E111" s="67"/>
-      <c r="F111" s="67"/>
-      <c r="G111" s="67"/>
-      <c r="H111" s="67"/>
-      <c r="I111" s="67"/>
-      <c r="J111" s="67"/>
-      <c r="K111" s="67"/>
+      <c r="D111" s="65"/>
+      <c r="E111" s="65"/>
+      <c r="F111" s="65"/>
+      <c r="G111" s="65"/>
+      <c r="H111" s="65"/>
+      <c r="I111" s="65"/>
+      <c r="J111" s="65"/>
+      <c r="K111" s="65"/>
       <c r="L111" s="6">
         <v>17</v>
       </c>
@@ -5714,17 +5714,17 @@
         <v>23</v>
       </c>
       <c r="B112" s="1"/>
-      <c r="C112" s="67" t="s">
+      <c r="C112" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="D112" s="67"/>
-      <c r="E112" s="67"/>
-      <c r="F112" s="67"/>
-      <c r="G112" s="67"/>
-      <c r="H112" s="67"/>
-      <c r="I112" s="67"/>
-      <c r="J112" s="67"/>
-      <c r="K112" s="67"/>
+      <c r="D112" s="65"/>
+      <c r="E112" s="65"/>
+      <c r="F112" s="65"/>
+      <c r="G112" s="65"/>
+      <c r="H112" s="65"/>
+      <c r="I112" s="65"/>
+      <c r="J112" s="65"/>
+      <c r="K112" s="65"/>
       <c r="L112" s="6">
         <v>17</v>
       </c>
@@ -5747,17 +5747,17 @@
         <v>24</v>
       </c>
       <c r="B113" s="1"/>
-      <c r="C113" s="66" t="s">
+      <c r="C113" s="64" t="s">
         <v>49</v>
       </c>
-      <c r="D113" s="67"/>
-      <c r="E113" s="67"/>
-      <c r="F113" s="67"/>
-      <c r="G113" s="67"/>
-      <c r="H113" s="67"/>
-      <c r="I113" s="67"/>
-      <c r="J113" s="67"/>
-      <c r="K113" s="67"/>
+      <c r="D113" s="65"/>
+      <c r="E113" s="65"/>
+      <c r="F113" s="65"/>
+      <c r="G113" s="65"/>
+      <c r="H113" s="65"/>
+      <c r="I113" s="65"/>
+      <c r="J113" s="65"/>
+      <c r="K113" s="65"/>
       <c r="L113" s="6">
         <v>17</v>
       </c>
@@ -5780,20 +5780,20 @@
         <v>25</v>
       </c>
       <c r="B114" s="8"/>
-      <c r="C114" s="60" t="s">
+      <c r="C114" s="66" t="s">
         <v>58</v>
       </c>
-      <c r="D114" s="61"/>
-      <c r="E114" s="61"/>
-      <c r="F114" s="61"/>
-      <c r="G114" s="61"/>
-      <c r="H114" s="61"/>
-      <c r="I114" s="61"/>
-      <c r="J114" s="61"/>
-      <c r="K114" s="61"/>
-      <c r="L114" s="61"/>
-      <c r="M114" s="61"/>
-      <c r="N114" s="62"/>
+      <c r="D114" s="67"/>
+      <c r="E114" s="67"/>
+      <c r="F114" s="67"/>
+      <c r="G114" s="67"/>
+      <c r="H114" s="67"/>
+      <c r="I114" s="67"/>
+      <c r="J114" s="67"/>
+      <c r="K114" s="67"/>
+      <c r="L114" s="67"/>
+      <c r="M114" s="67"/>
+      <c r="N114" s="68"/>
       <c r="O114" s="11"/>
       <c r="P114" s="12">
         <f>AVERAGE(P90:P113)</f>
@@ -5814,26 +5814,26 @@
     </row>
     <row r="116" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="117" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A117" s="76" t="s">
+      <c r="A117" s="82" t="s">
         <v>13</v>
       </c>
-      <c r="B117" s="77"/>
-      <c r="C117" s="77"/>
-      <c r="D117" s="77"/>
-      <c r="E117" s="77"/>
-      <c r="F117" s="77"/>
-      <c r="G117" s="77"/>
-      <c r="H117" s="77"/>
-      <c r="I117" s="77"/>
-      <c r="J117" s="77"/>
-      <c r="K117" s="77"/>
-      <c r="L117" s="77"/>
-      <c r="M117" s="77"/>
-      <c r="N117" s="77"/>
-      <c r="O117" s="77"/>
-      <c r="P117" s="77"/>
-      <c r="Q117" s="77"/>
-      <c r="R117" s="78"/>
+      <c r="B117" s="83"/>
+      <c r="C117" s="83"/>
+      <c r="D117" s="83"/>
+      <c r="E117" s="83"/>
+      <c r="F117" s="83"/>
+      <c r="G117" s="83"/>
+      <c r="H117" s="83"/>
+      <c r="I117" s="83"/>
+      <c r="J117" s="83"/>
+      <c r="K117" s="83"/>
+      <c r="L117" s="83"/>
+      <c r="M117" s="83"/>
+      <c r="N117" s="83"/>
+      <c r="O117" s="83"/>
+      <c r="P117" s="83"/>
+      <c r="Q117" s="83"/>
+      <c r="R117" s="84"/>
       <c r="S117" s="15"/>
       <c r="T117" s="15"/>
       <c r="U117" s="15"/>
@@ -5843,17 +5843,17 @@
         <v>1</v>
       </c>
       <c r="B119" s="5"/>
-      <c r="C119" s="73" t="s">
+      <c r="C119" s="72" t="s">
         <v>56</v>
       </c>
-      <c r="D119" s="73"/>
-      <c r="E119" s="73"/>
-      <c r="F119" s="73"/>
-      <c r="G119" s="73"/>
-      <c r="H119" s="73"/>
-      <c r="I119" s="73"/>
-      <c r="J119" s="73"/>
-      <c r="K119" s="73"/>
+      <c r="D119" s="72"/>
+      <c r="E119" s="72"/>
+      <c r="F119" s="72"/>
+      <c r="G119" s="72"/>
+      <c r="H119" s="72"/>
+      <c r="I119" s="72"/>
+      <c r="J119" s="72"/>
+      <c r="K119" s="72"/>
       <c r="L119" s="5" t="s">
         <v>2</v>
       </c>
@@ -5890,17 +5890,17 @@
         <v>1</v>
       </c>
       <c r="B120" s="1"/>
-      <c r="C120" s="74" t="s">
+      <c r="C120" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="D120" s="74"/>
-      <c r="E120" s="74"/>
-      <c r="F120" s="74"/>
-      <c r="G120" s="74"/>
-      <c r="H120" s="74"/>
-      <c r="I120" s="74"/>
-      <c r="J120" s="74"/>
-      <c r="K120" s="74"/>
+      <c r="D120" s="73"/>
+      <c r="E120" s="73"/>
+      <c r="F120" s="73"/>
+      <c r="G120" s="73"/>
+      <c r="H120" s="73"/>
+      <c r="I120" s="73"/>
+      <c r="J120" s="73"/>
+      <c r="K120" s="73"/>
       <c r="L120" s="6">
         <v>33</v>
       </c>
@@ -5923,17 +5923,17 @@
         <v>2</v>
       </c>
       <c r="B121" s="1"/>
-      <c r="C121" s="66" t="s">
+      <c r="C121" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="D121" s="67"/>
-      <c r="E121" s="67"/>
-      <c r="F121" s="67"/>
-      <c r="G121" s="67"/>
-      <c r="H121" s="67"/>
-      <c r="I121" s="67"/>
-      <c r="J121" s="67"/>
-      <c r="K121" s="67"/>
+      <c r="D121" s="65"/>
+      <c r="E121" s="65"/>
+      <c r="F121" s="65"/>
+      <c r="G121" s="65"/>
+      <c r="H121" s="65"/>
+      <c r="I121" s="65"/>
+      <c r="J121" s="65"/>
+      <c r="K121" s="65"/>
       <c r="L121" s="6">
         <v>33</v>
       </c>
@@ -5956,17 +5956,17 @@
         <v>3</v>
       </c>
       <c r="B122" s="1"/>
-      <c r="C122" s="66" t="s">
+      <c r="C122" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="D122" s="67"/>
-      <c r="E122" s="67"/>
-      <c r="F122" s="67"/>
-      <c r="G122" s="67"/>
-      <c r="H122" s="67"/>
-      <c r="I122" s="67"/>
-      <c r="J122" s="67"/>
-      <c r="K122" s="67"/>
+      <c r="D122" s="65"/>
+      <c r="E122" s="65"/>
+      <c r="F122" s="65"/>
+      <c r="G122" s="65"/>
+      <c r="H122" s="65"/>
+      <c r="I122" s="65"/>
+      <c r="J122" s="65"/>
+      <c r="K122" s="65"/>
       <c r="L122" s="6">
         <v>33</v>
       </c>
@@ -6002,17 +6002,17 @@
         <v>4</v>
       </c>
       <c r="B123" s="1"/>
-      <c r="C123" s="67" t="s">
+      <c r="C123" s="65" t="s">
         <v>18</v>
       </c>
-      <c r="D123" s="67"/>
-      <c r="E123" s="67"/>
-      <c r="F123" s="67"/>
-      <c r="G123" s="67"/>
-      <c r="H123" s="67"/>
-      <c r="I123" s="67"/>
-      <c r="J123" s="67"/>
-      <c r="K123" s="67"/>
+      <c r="D123" s="65"/>
+      <c r="E123" s="65"/>
+      <c r="F123" s="65"/>
+      <c r="G123" s="65"/>
+      <c r="H123" s="65"/>
+      <c r="I123" s="65"/>
+      <c r="J123" s="65"/>
+      <c r="K123" s="65"/>
       <c r="L123" s="6">
         <v>33</v>
       </c>
@@ -6035,17 +6035,17 @@
         <v>5</v>
       </c>
       <c r="B124" s="1"/>
-      <c r="C124" s="66" t="s">
+      <c r="C124" s="64" t="s">
         <v>61</v>
       </c>
-      <c r="D124" s="67"/>
-      <c r="E124" s="67"/>
-      <c r="F124" s="67"/>
-      <c r="G124" s="67"/>
-      <c r="H124" s="67"/>
-      <c r="I124" s="67"/>
-      <c r="J124" s="67"/>
-      <c r="K124" s="67"/>
+      <c r="D124" s="65"/>
+      <c r="E124" s="65"/>
+      <c r="F124" s="65"/>
+      <c r="G124" s="65"/>
+      <c r="H124" s="65"/>
+      <c r="I124" s="65"/>
+      <c r="J124" s="65"/>
+      <c r="K124" s="65"/>
       <c r="L124" s="6">
         <v>33</v>
       </c>
@@ -6068,17 +6068,17 @@
         <v>6</v>
       </c>
       <c r="B125" s="1"/>
-      <c r="C125" s="66" t="s">
+      <c r="C125" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="D125" s="67"/>
-      <c r="E125" s="67"/>
-      <c r="F125" s="67"/>
-      <c r="G125" s="67"/>
-      <c r="H125" s="67"/>
-      <c r="I125" s="67"/>
-      <c r="J125" s="67"/>
-      <c r="K125" s="67"/>
+      <c r="D125" s="65"/>
+      <c r="E125" s="65"/>
+      <c r="F125" s="65"/>
+      <c r="G125" s="65"/>
+      <c r="H125" s="65"/>
+      <c r="I125" s="65"/>
+      <c r="J125" s="65"/>
+      <c r="K125" s="65"/>
       <c r="L125" s="6">
         <v>33</v>
       </c>
@@ -6101,17 +6101,17 @@
         <v>7</v>
       </c>
       <c r="B126" s="1"/>
-      <c r="C126" s="67" t="s">
+      <c r="C126" s="65" t="s">
         <v>20</v>
       </c>
-      <c r="D126" s="67"/>
-      <c r="E126" s="67"/>
-      <c r="F126" s="67"/>
-      <c r="G126" s="67"/>
-      <c r="H126" s="67"/>
-      <c r="I126" s="67"/>
-      <c r="J126" s="67"/>
-      <c r="K126" s="67"/>
+      <c r="D126" s="65"/>
+      <c r="E126" s="65"/>
+      <c r="F126" s="65"/>
+      <c r="G126" s="65"/>
+      <c r="H126" s="65"/>
+      <c r="I126" s="65"/>
+      <c r="J126" s="65"/>
+      <c r="K126" s="65"/>
       <c r="L126" s="6">
         <v>33</v>
       </c>
@@ -6134,17 +6134,17 @@
         <v>8</v>
       </c>
       <c r="B127" s="1"/>
-      <c r="C127" s="66" t="s">
+      <c r="C127" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="D127" s="67"/>
-      <c r="E127" s="67"/>
-      <c r="F127" s="67"/>
-      <c r="G127" s="67"/>
-      <c r="H127" s="67"/>
-      <c r="I127" s="67"/>
-      <c r="J127" s="67"/>
-      <c r="K127" s="67"/>
+      <c r="D127" s="65"/>
+      <c r="E127" s="65"/>
+      <c r="F127" s="65"/>
+      <c r="G127" s="65"/>
+      <c r="H127" s="65"/>
+      <c r="I127" s="65"/>
+      <c r="J127" s="65"/>
+      <c r="K127" s="65"/>
       <c r="L127" s="6">
         <v>33</v>
       </c>
@@ -6167,17 +6167,17 @@
         <v>9</v>
       </c>
       <c r="B128" s="1"/>
-      <c r="C128" s="66" t="s">
+      <c r="C128" s="64" t="s">
         <v>62</v>
       </c>
-      <c r="D128" s="67"/>
-      <c r="E128" s="67"/>
-      <c r="F128" s="67"/>
-      <c r="G128" s="67"/>
-      <c r="H128" s="67"/>
-      <c r="I128" s="67"/>
-      <c r="J128" s="67"/>
-      <c r="K128" s="67"/>
+      <c r="D128" s="65"/>
+      <c r="E128" s="65"/>
+      <c r="F128" s="65"/>
+      <c r="G128" s="65"/>
+      <c r="H128" s="65"/>
+      <c r="I128" s="65"/>
+      <c r="J128" s="65"/>
+      <c r="K128" s="65"/>
       <c r="L128" s="6">
         <v>33</v>
       </c>
@@ -6200,17 +6200,17 @@
         <v>10</v>
       </c>
       <c r="B129" s="1"/>
-      <c r="C129" s="66" t="s">
+      <c r="C129" s="64" t="s">
         <v>22</v>
       </c>
-      <c r="D129" s="67"/>
-      <c r="E129" s="67"/>
-      <c r="F129" s="67"/>
-      <c r="G129" s="67"/>
-      <c r="H129" s="67"/>
-      <c r="I129" s="67"/>
-      <c r="J129" s="67"/>
-      <c r="K129" s="67"/>
+      <c r="D129" s="65"/>
+      <c r="E129" s="65"/>
+      <c r="F129" s="65"/>
+      <c r="G129" s="65"/>
+      <c r="H129" s="65"/>
+      <c r="I129" s="65"/>
+      <c r="J129" s="65"/>
+      <c r="K129" s="65"/>
       <c r="L129" s="6">
         <v>33</v>
       </c>
@@ -6233,17 +6233,17 @@
         <v>11</v>
       </c>
       <c r="B130" s="1"/>
-      <c r="C130" s="66" t="s">
+      <c r="C130" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="D130" s="67"/>
-      <c r="E130" s="67"/>
-      <c r="F130" s="67"/>
-      <c r="G130" s="67"/>
-      <c r="H130" s="67"/>
-      <c r="I130" s="67"/>
-      <c r="J130" s="67"/>
-      <c r="K130" s="67"/>
+      <c r="D130" s="65"/>
+      <c r="E130" s="65"/>
+      <c r="F130" s="65"/>
+      <c r="G130" s="65"/>
+      <c r="H130" s="65"/>
+      <c r="I130" s="65"/>
+      <c r="J130" s="65"/>
+      <c r="K130" s="65"/>
       <c r="L130" s="6">
         <v>33</v>
       </c>
@@ -6266,17 +6266,17 @@
         <v>12</v>
       </c>
       <c r="B131" s="1"/>
-      <c r="C131" s="66" t="s">
+      <c r="C131" s="64" t="s">
         <v>63</v>
       </c>
-      <c r="D131" s="67"/>
-      <c r="E131" s="67"/>
-      <c r="F131" s="67"/>
-      <c r="G131" s="67"/>
-      <c r="H131" s="67"/>
-      <c r="I131" s="67"/>
-      <c r="J131" s="67"/>
-      <c r="K131" s="67"/>
+      <c r="D131" s="65"/>
+      <c r="E131" s="65"/>
+      <c r="F131" s="65"/>
+      <c r="G131" s="65"/>
+      <c r="H131" s="65"/>
+      <c r="I131" s="65"/>
+      <c r="J131" s="65"/>
+      <c r="K131" s="65"/>
       <c r="L131" s="6">
         <v>33</v>
       </c>
@@ -6312,20 +6312,20 @@
         <v>13</v>
       </c>
       <c r="B132" s="1"/>
-      <c r="C132" s="60" t="s">
+      <c r="C132" s="66" t="s">
         <v>58</v>
       </c>
-      <c r="D132" s="61"/>
-      <c r="E132" s="61"/>
-      <c r="F132" s="61"/>
-      <c r="G132" s="61"/>
-      <c r="H132" s="61"/>
-      <c r="I132" s="61"/>
-      <c r="J132" s="61"/>
-      <c r="K132" s="61"/>
-      <c r="L132" s="61"/>
-      <c r="M132" s="61"/>
-      <c r="N132" s="62"/>
+      <c r="D132" s="67"/>
+      <c r="E132" s="67"/>
+      <c r="F132" s="67"/>
+      <c r="G132" s="67"/>
+      <c r="H132" s="67"/>
+      <c r="I132" s="67"/>
+      <c r="J132" s="67"/>
+      <c r="K132" s="67"/>
+      <c r="L132" s="67"/>
+      <c r="M132" s="67"/>
+      <c r="N132" s="68"/>
       <c r="O132" s="11"/>
       <c r="P132" s="12">
         <f>AVERAGE(P120:P131)</f>
@@ -6348,26 +6348,26 @@
       <c r="B133" s="1"/>
     </row>
     <row r="134" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A134" s="63" t="s">
+      <c r="A134" s="69" t="s">
         <v>24</v>
       </c>
-      <c r="B134" s="64"/>
-      <c r="C134" s="64"/>
-      <c r="D134" s="64"/>
-      <c r="E134" s="64"/>
-      <c r="F134" s="64"/>
-      <c r="G134" s="64"/>
-      <c r="H134" s="64"/>
-      <c r="I134" s="64"/>
-      <c r="J134" s="64"/>
-      <c r="K134" s="64"/>
-      <c r="L134" s="64"/>
-      <c r="M134" s="64"/>
-      <c r="N134" s="64"/>
-      <c r="O134" s="64"/>
-      <c r="P134" s="64"/>
-      <c r="Q134" s="64"/>
-      <c r="R134" s="65"/>
+      <c r="B134" s="70"/>
+      <c r="C134" s="70"/>
+      <c r="D134" s="70"/>
+      <c r="E134" s="70"/>
+      <c r="F134" s="70"/>
+      <c r="G134" s="70"/>
+      <c r="H134" s="70"/>
+      <c r="I134" s="70"/>
+      <c r="J134" s="70"/>
+      <c r="K134" s="70"/>
+      <c r="L134" s="70"/>
+      <c r="M134" s="70"/>
+      <c r="N134" s="70"/>
+      <c r="O134" s="70"/>
+      <c r="P134" s="70"/>
+      <c r="Q134" s="70"/>
+      <c r="R134" s="71"/>
       <c r="S134" s="3"/>
       <c r="T134" s="3"/>
       <c r="U134" s="3"/>
@@ -6377,17 +6377,17 @@
         <v>1</v>
       </c>
       <c r="B136" s="5"/>
-      <c r="C136" s="73" t="s">
+      <c r="C136" s="72" t="s">
         <v>56</v>
       </c>
-      <c r="D136" s="73"/>
-      <c r="E136" s="73"/>
-      <c r="F136" s="73"/>
-      <c r="G136" s="73"/>
-      <c r="H136" s="73"/>
-      <c r="I136" s="73"/>
-      <c r="J136" s="73"/>
-      <c r="K136" s="73"/>
+      <c r="D136" s="72"/>
+      <c r="E136" s="72"/>
+      <c r="F136" s="72"/>
+      <c r="G136" s="72"/>
+      <c r="H136" s="72"/>
+      <c r="I136" s="72"/>
+      <c r="J136" s="72"/>
+      <c r="K136" s="72"/>
       <c r="L136" s="5" t="s">
         <v>2</v>
       </c>
@@ -6424,17 +6424,17 @@
         <v>1</v>
       </c>
       <c r="B137" s="1"/>
-      <c r="C137" s="74" t="s">
+      <c r="C137" s="73" t="s">
         <v>65</v>
       </c>
-      <c r="D137" s="74"/>
-      <c r="E137" s="74"/>
-      <c r="F137" s="74"/>
-      <c r="G137" s="74"/>
-      <c r="H137" s="74"/>
-      <c r="I137" s="74"/>
-      <c r="J137" s="74"/>
-      <c r="K137" s="74"/>
+      <c r="D137" s="73"/>
+      <c r="E137" s="73"/>
+      <c r="F137" s="73"/>
+      <c r="G137" s="73"/>
+      <c r="H137" s="73"/>
+      <c r="I137" s="73"/>
+      <c r="J137" s="73"/>
+      <c r="K137" s="73"/>
       <c r="L137" s="6">
         <v>33</v>
       </c>
@@ -6457,17 +6457,17 @@
         <v>2</v>
       </c>
       <c r="B138" s="1"/>
-      <c r="C138" s="66" t="s">
+      <c r="C138" s="64" t="s">
         <v>66</v>
       </c>
-      <c r="D138" s="67"/>
-      <c r="E138" s="67"/>
-      <c r="F138" s="67"/>
-      <c r="G138" s="67"/>
-      <c r="H138" s="67"/>
-      <c r="I138" s="67"/>
-      <c r="J138" s="67"/>
-      <c r="K138" s="67"/>
+      <c r="D138" s="65"/>
+      <c r="E138" s="65"/>
+      <c r="F138" s="65"/>
+      <c r="G138" s="65"/>
+      <c r="H138" s="65"/>
+      <c r="I138" s="65"/>
+      <c r="J138" s="65"/>
+      <c r="K138" s="65"/>
       <c r="L138" s="6">
         <v>33</v>
       </c>
@@ -6490,17 +6490,17 @@
         <v>3</v>
       </c>
       <c r="B139" s="1"/>
-      <c r="C139" s="66" t="s">
+      <c r="C139" s="64" t="s">
         <v>25</v>
       </c>
-      <c r="D139" s="67"/>
-      <c r="E139" s="67"/>
-      <c r="F139" s="67"/>
-      <c r="G139" s="67"/>
-      <c r="H139" s="67"/>
-      <c r="I139" s="67"/>
-      <c r="J139" s="67"/>
-      <c r="K139" s="67"/>
+      <c r="D139" s="65"/>
+      <c r="E139" s="65"/>
+      <c r="F139" s="65"/>
+      <c r="G139" s="65"/>
+      <c r="H139" s="65"/>
+      <c r="I139" s="65"/>
+      <c r="J139" s="65"/>
+      <c r="K139" s="65"/>
       <c r="L139" s="6">
         <v>33</v>
       </c>
@@ -6523,17 +6523,17 @@
         <v>4</v>
       </c>
       <c r="B140" s="1"/>
-      <c r="C140" s="67" t="s">
+      <c r="C140" s="65" t="s">
         <v>26</v>
       </c>
-      <c r="D140" s="67"/>
-      <c r="E140" s="67"/>
-      <c r="F140" s="67"/>
-      <c r="G140" s="67"/>
-      <c r="H140" s="67"/>
-      <c r="I140" s="67"/>
-      <c r="J140" s="67"/>
-      <c r="K140" s="67"/>
+      <c r="D140" s="65"/>
+      <c r="E140" s="65"/>
+      <c r="F140" s="65"/>
+      <c r="G140" s="65"/>
+      <c r="H140" s="65"/>
+      <c r="I140" s="65"/>
+      <c r="J140" s="65"/>
+      <c r="K140" s="65"/>
       <c r="L140" s="6">
         <v>33</v>
       </c>
@@ -6556,17 +6556,17 @@
         <v>5</v>
       </c>
       <c r="B141" s="1"/>
-      <c r="C141" s="66" t="s">
+      <c r="C141" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="D141" s="67"/>
-      <c r="E141" s="67"/>
-      <c r="F141" s="67"/>
-      <c r="G141" s="67"/>
-      <c r="H141" s="67"/>
-      <c r="I141" s="67"/>
-      <c r="J141" s="67"/>
-      <c r="K141" s="67"/>
+      <c r="D141" s="65"/>
+      <c r="E141" s="65"/>
+      <c r="F141" s="65"/>
+      <c r="G141" s="65"/>
+      <c r="H141" s="65"/>
+      <c r="I141" s="65"/>
+      <c r="J141" s="65"/>
+      <c r="K141" s="65"/>
       <c r="L141" s="6">
         <v>33</v>
       </c>
@@ -6589,17 +6589,17 @@
         <v>6</v>
       </c>
       <c r="B142" s="1"/>
-      <c r="C142" s="66" t="s">
+      <c r="C142" s="64" t="s">
         <v>67</v>
       </c>
-      <c r="D142" s="67"/>
-      <c r="E142" s="67"/>
-      <c r="F142" s="67"/>
-      <c r="G142" s="67"/>
-      <c r="H142" s="67"/>
-      <c r="I142" s="67"/>
-      <c r="J142" s="67"/>
-      <c r="K142" s="67"/>
+      <c r="D142" s="65"/>
+      <c r="E142" s="65"/>
+      <c r="F142" s="65"/>
+      <c r="G142" s="65"/>
+      <c r="H142" s="65"/>
+      <c r="I142" s="65"/>
+      <c r="J142" s="65"/>
+      <c r="K142" s="65"/>
       <c r="L142" s="6">
         <v>33</v>
       </c>
@@ -6622,20 +6622,20 @@
         <v>7</v>
       </c>
       <c r="B143" s="1"/>
-      <c r="C143" s="60" t="s">
+      <c r="C143" s="66" t="s">
         <v>58</v>
       </c>
-      <c r="D143" s="61"/>
-      <c r="E143" s="61"/>
-      <c r="F143" s="61"/>
-      <c r="G143" s="61"/>
-      <c r="H143" s="61"/>
-      <c r="I143" s="61"/>
-      <c r="J143" s="61"/>
-      <c r="K143" s="61"/>
-      <c r="L143" s="61"/>
-      <c r="M143" s="61"/>
-      <c r="N143" s="62"/>
+      <c r="D143" s="67"/>
+      <c r="E143" s="67"/>
+      <c r="F143" s="67"/>
+      <c r="G143" s="67"/>
+      <c r="H143" s="67"/>
+      <c r="I143" s="67"/>
+      <c r="J143" s="67"/>
+      <c r="K143" s="67"/>
+      <c r="L143" s="67"/>
+      <c r="M143" s="67"/>
+      <c r="N143" s="68"/>
       <c r="O143" s="11"/>
       <c r="P143" s="12" t="e">
         <f>AVERAGE(P137:P142)</f>
@@ -6655,25 +6655,25 @@
       <c r="B144" s="1"/>
     </row>
     <row r="145" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A145" s="72" t="s">
+      <c r="A145" s="81" t="s">
         <v>28</v>
       </c>
-      <c r="B145" s="72"/>
-      <c r="C145" s="72"/>
-      <c r="D145" s="72"/>
-      <c r="E145" s="72"/>
-      <c r="F145" s="72"/>
-      <c r="G145" s="72"/>
-      <c r="H145" s="72"/>
-      <c r="I145" s="72"/>
-      <c r="J145" s="72"/>
-      <c r="K145" s="72"/>
-      <c r="L145" s="72"/>
-      <c r="M145" s="72"/>
-      <c r="N145" s="72"/>
-      <c r="O145" s="72"/>
-      <c r="P145" s="72"/>
-      <c r="Q145" s="72"/>
+      <c r="B145" s="81"/>
+      <c r="C145" s="81"/>
+      <c r="D145" s="81"/>
+      <c r="E145" s="81"/>
+      <c r="F145" s="81"/>
+      <c r="G145" s="81"/>
+      <c r="H145" s="81"/>
+      <c r="I145" s="81"/>
+      <c r="J145" s="81"/>
+      <c r="K145" s="81"/>
+      <c r="L145" s="81"/>
+      <c r="M145" s="81"/>
+      <c r="N145" s="81"/>
+      <c r="O145" s="81"/>
+      <c r="P145" s="81"/>
+      <c r="Q145" s="81"/>
       <c r="R145"/>
     </row>
     <row r="146" spans="1:18" x14ac:dyDescent="0.3">
@@ -6681,10 +6681,10 @@
         <v>1</v>
       </c>
       <c r="B146" s="16"/>
-      <c r="C146" s="68" t="s">
+      <c r="C146" s="80" t="s">
         <v>68</v>
       </c>
-      <c r="D146" s="68"/>
+      <c r="D146" s="80"/>
       <c r="E146" s="17" t="s">
         <v>69</v>
       </c>
@@ -6731,10 +6731,10 @@
         <v>1</v>
       </c>
       <c r="B147" s="14"/>
-      <c r="C147" s="57" t="s">
+      <c r="C147" s="63" t="s">
         <v>84</v>
       </c>
-      <c r="D147" s="57"/>
+      <c r="D147" s="63"/>
       <c r="E147" s="25">
         <v>51</v>
       </c>
@@ -6781,10 +6781,10 @@
         <v>2</v>
       </c>
       <c r="B148" s="14"/>
-      <c r="C148" s="57" t="s">
+      <c r="C148" s="63" t="s">
         <v>85</v>
       </c>
-      <c r="D148" s="57"/>
+      <c r="D148" s="63"/>
       <c r="E148" s="25">
         <v>47</v>
       </c>
@@ -6831,10 +6831,10 @@
         <v>3</v>
       </c>
       <c r="B149" s="14"/>
-      <c r="C149" s="57" t="s">
+      <c r="C149" s="63" t="s">
         <v>86</v>
       </c>
-      <c r="D149" s="57"/>
+      <c r="D149" s="63"/>
       <c r="E149" s="25">
         <v>51</v>
       </c>
@@ -6881,10 +6881,10 @@
         <v>4</v>
       </c>
       <c r="B150" s="14"/>
-      <c r="C150" s="57" t="s">
+      <c r="C150" s="63" t="s">
         <v>87</v>
       </c>
-      <c r="D150" s="57"/>
+      <c r="D150" s="63"/>
       <c r="E150" s="25">
         <v>52</v>
       </c>
@@ -6931,10 +6931,10 @@
         <v>5</v>
       </c>
       <c r="B151" s="14"/>
-      <c r="C151" s="57" t="s">
+      <c r="C151" s="63" t="s">
         <v>90</v>
       </c>
-      <c r="D151" s="57"/>
+      <c r="D151" s="63"/>
       <c r="E151" s="25">
         <v>60</v>
       </c>
@@ -6981,10 +6981,10 @@
         <v>6</v>
       </c>
       <c r="B152" s="14"/>
-      <c r="C152" s="57" t="s">
+      <c r="C152" s="63" t="s">
         <v>91</v>
       </c>
-      <c r="D152" s="57"/>
+      <c r="D152" s="63"/>
       <c r="E152" s="25">
         <v>56</v>
       </c>
@@ -7031,10 +7031,10 @@
         <v>7</v>
       </c>
       <c r="B153" s="14"/>
-      <c r="C153" s="57" t="s">
+      <c r="C153" s="63" t="s">
         <v>92</v>
       </c>
-      <c r="D153" s="57"/>
+      <c r="D153" s="63"/>
       <c r="E153" s="25">
         <v>56</v>
       </c>
@@ -7081,10 +7081,10 @@
         <v>8</v>
       </c>
       <c r="B154" s="14"/>
-      <c r="C154" s="57" t="s">
+      <c r="C154" s="63" t="s">
         <v>93</v>
       </c>
-      <c r="D154" s="57"/>
+      <c r="D154" s="63"/>
       <c r="E154" s="25">
         <v>56</v>
       </c>
@@ -7129,10 +7129,10 @@
     <row r="155" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A155" s="14"/>
       <c r="B155" s="14"/>
-      <c r="C155" s="58" t="s">
+      <c r="C155" s="74" t="s">
         <v>98</v>
       </c>
-      <c r="D155" s="58"/>
+      <c r="D155" s="74"/>
       <c r="E155" s="25">
         <f t="shared" ref="E155:O155" si="11">AVERAGE(E147:E154)</f>
         <v>53.625</v>
@@ -7194,25 +7194,25 @@
       <c r="R157"/>
     </row>
     <row r="158" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A158" s="75" t="s">
+      <c r="A158" s="79" t="s">
         <v>99</v>
       </c>
-      <c r="B158" s="75"/>
-      <c r="C158" s="75"/>
-      <c r="D158" s="75"/>
-      <c r="E158" s="75"/>
-      <c r="F158" s="75"/>
-      <c r="G158" s="75"/>
-      <c r="H158" s="75"/>
-      <c r="I158" s="75"/>
-      <c r="J158" s="75"/>
-      <c r="K158" s="75"/>
-      <c r="L158" s="75"/>
-      <c r="M158" s="75"/>
-      <c r="N158" s="75"/>
-      <c r="O158" s="75"/>
-      <c r="P158" s="75"/>
-      <c r="Q158" s="75"/>
+      <c r="B158" s="79"/>
+      <c r="C158" s="79"/>
+      <c r="D158" s="79"/>
+      <c r="E158" s="79"/>
+      <c r="F158" s="79"/>
+      <c r="G158" s="79"/>
+      <c r="H158" s="79"/>
+      <c r="I158" s="79"/>
+      <c r="J158" s="79"/>
+      <c r="K158" s="79"/>
+      <c r="L158" s="79"/>
+      <c r="M158" s="79"/>
+      <c r="N158" s="79"/>
+      <c r="O158" s="79"/>
+      <c r="P158" s="79"/>
+      <c r="Q158" s="79"/>
       <c r="R158"/>
     </row>
     <row r="159" spans="1:18" x14ac:dyDescent="0.3">
@@ -7220,10 +7220,10 @@
         <v>1</v>
       </c>
       <c r="B159" s="16"/>
-      <c r="C159" s="68" t="s">
+      <c r="C159" s="80" t="s">
         <v>68</v>
       </c>
-      <c r="D159" s="68"/>
+      <c r="D159" s="80"/>
       <c r="E159" s="17" t="s">
         <v>69</v>
       </c>
@@ -7270,10 +7270,10 @@
         <v>1</v>
       </c>
       <c r="B160" s="14"/>
-      <c r="C160" s="57" t="s">
+      <c r="C160" s="63" t="s">
         <v>94</v>
       </c>
-      <c r="D160" s="57"/>
+      <c r="D160" s="63"/>
       <c r="E160" s="25">
         <v>58</v>
       </c>
@@ -7320,10 +7320,10 @@
         <v>2</v>
       </c>
       <c r="B161" s="14"/>
-      <c r="C161" s="57" t="s">
+      <c r="C161" s="63" t="s">
         <v>95</v>
       </c>
-      <c r="D161" s="57"/>
+      <c r="D161" s="63"/>
       <c r="E161" s="25">
         <v>60</v>
       </c>
@@ -7370,10 +7370,10 @@
         <v>3</v>
       </c>
       <c r="B162" s="14"/>
-      <c r="C162" s="57" t="s">
+      <c r="C162" s="63" t="s">
         <v>96</v>
       </c>
-      <c r="D162" s="57"/>
+      <c r="D162" s="63"/>
       <c r="E162" s="25">
         <v>59</v>
       </c>
@@ -7419,10 +7419,10 @@
         <v>4</v>
       </c>
       <c r="B163" s="14"/>
-      <c r="C163" s="57" t="s">
+      <c r="C163" s="63" t="s">
         <v>97</v>
       </c>
-      <c r="D163" s="57"/>
+      <c r="D163" s="63"/>
       <c r="E163" s="25">
         <v>56</v>
       </c>
@@ -7464,10 +7464,10 @@
       </c>
     </row>
     <row r="164" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="C164" s="58" t="s">
+      <c r="C164" s="74" t="s">
         <v>98</v>
       </c>
-      <c r="D164" s="58"/>
+      <c r="D164" s="74"/>
       <c r="E164" s="25">
         <f t="shared" ref="E164:O164" si="12">AVERAGE(E160:E163)</f>
         <v>58.25</v>
@@ -7522,103 +7522,103 @@
       </c>
     </row>
     <row r="170" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A170" s="59" t="s">
+      <c r="A170" s="75" t="s">
         <v>106</v>
       </c>
-      <c r="B170" s="59"/>
-      <c r="C170" s="59"/>
-      <c r="D170" s="59"/>
-      <c r="E170" s="59"/>
-      <c r="F170" s="59"/>
-      <c r="G170" s="59"/>
-      <c r="H170" s="59"/>
-      <c r="I170" s="59"/>
-      <c r="J170" s="59"/>
-      <c r="K170" s="59"/>
-      <c r="L170" s="59"/>
-      <c r="M170" s="59"/>
-      <c r="N170" s="59"/>
-      <c r="O170" s="59"/>
-      <c r="P170" s="59"/>
-      <c r="Q170" s="59"/>
-      <c r="R170" s="59"/>
-      <c r="S170" s="59"/>
-      <c r="T170" s="59"/>
-      <c r="U170" s="59"/>
-      <c r="V170" s="59"/>
-      <c r="W170" s="59"/>
+      <c r="B170" s="75"/>
+      <c r="C170" s="75"/>
+      <c r="D170" s="75"/>
+      <c r="E170" s="75"/>
+      <c r="F170" s="75"/>
+      <c r="G170" s="75"/>
+      <c r="H170" s="75"/>
+      <c r="I170" s="75"/>
+      <c r="J170" s="75"/>
+      <c r="K170" s="75"/>
+      <c r="L170" s="75"/>
+      <c r="M170" s="75"/>
+      <c r="N170" s="75"/>
+      <c r="O170" s="75"/>
+      <c r="P170" s="75"/>
+      <c r="Q170" s="75"/>
+      <c r="R170" s="75"/>
+      <c r="S170" s="75"/>
+      <c r="T170" s="75"/>
+      <c r="U170" s="75"/>
+      <c r="V170" s="75"/>
+      <c r="W170" s="75"/>
     </row>
     <row r="171" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A171" s="59"/>
-      <c r="B171" s="59"/>
-      <c r="C171" s="59"/>
-      <c r="D171" s="59"/>
-      <c r="E171" s="59"/>
-      <c r="F171" s="59"/>
-      <c r="G171" s="59"/>
-      <c r="H171" s="59"/>
-      <c r="I171" s="59"/>
-      <c r="J171" s="59"/>
-      <c r="K171" s="59"/>
-      <c r="L171" s="59"/>
-      <c r="M171" s="59"/>
-      <c r="N171" s="59"/>
-      <c r="O171" s="59"/>
-      <c r="P171" s="59"/>
-      <c r="Q171" s="59"/>
-      <c r="R171" s="59"/>
-      <c r="S171" s="59"/>
-      <c r="T171" s="59"/>
-      <c r="U171" s="59"/>
-      <c r="V171" s="59"/>
-      <c r="W171" s="59"/>
+      <c r="A171" s="75"/>
+      <c r="B171" s="75"/>
+      <c r="C171" s="75"/>
+      <c r="D171" s="75"/>
+      <c r="E171" s="75"/>
+      <c r="F171" s="75"/>
+      <c r="G171" s="75"/>
+      <c r="H171" s="75"/>
+      <c r="I171" s="75"/>
+      <c r="J171" s="75"/>
+      <c r="K171" s="75"/>
+      <c r="L171" s="75"/>
+      <c r="M171" s="75"/>
+      <c r="N171" s="75"/>
+      <c r="O171" s="75"/>
+      <c r="P171" s="75"/>
+      <c r="Q171" s="75"/>
+      <c r="R171" s="75"/>
+      <c r="S171" s="75"/>
+      <c r="T171" s="75"/>
+      <c r="U171" s="75"/>
+      <c r="V171" s="75"/>
+      <c r="W171" s="75"/>
     </row>
     <row r="172" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A172" s="59"/>
-      <c r="B172" s="59"/>
-      <c r="C172" s="59"/>
-      <c r="D172" s="59"/>
-      <c r="E172" s="59"/>
-      <c r="F172" s="59"/>
-      <c r="G172" s="59"/>
-      <c r="H172" s="59"/>
-      <c r="I172" s="59"/>
-      <c r="J172" s="59"/>
-      <c r="K172" s="59"/>
-      <c r="L172" s="59"/>
-      <c r="M172" s="59"/>
-      <c r="N172" s="59"/>
-      <c r="O172" s="59"/>
-      <c r="P172" s="59"/>
-      <c r="Q172" s="59"/>
-      <c r="R172" s="59"/>
-      <c r="S172" s="59"/>
-      <c r="T172" s="59"/>
-      <c r="U172" s="59"/>
-      <c r="V172" s="59"/>
-      <c r="W172" s="59"/>
+      <c r="A172" s="75"/>
+      <c r="B172" s="75"/>
+      <c r="C172" s="75"/>
+      <c r="D172" s="75"/>
+      <c r="E172" s="75"/>
+      <c r="F172" s="75"/>
+      <c r="G172" s="75"/>
+      <c r="H172" s="75"/>
+      <c r="I172" s="75"/>
+      <c r="J172" s="75"/>
+      <c r="K172" s="75"/>
+      <c r="L172" s="75"/>
+      <c r="M172" s="75"/>
+      <c r="N172" s="75"/>
+      <c r="O172" s="75"/>
+      <c r="P172" s="75"/>
+      <c r="Q172" s="75"/>
+      <c r="R172" s="75"/>
+      <c r="S172" s="75"/>
+      <c r="T172" s="75"/>
+      <c r="U172" s="75"/>
+      <c r="V172" s="75"/>
+      <c r="W172" s="75"/>
     </row>
     <row r="173" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A173" s="69" t="s">
+      <c r="A173" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="B173" s="70"/>
-      <c r="C173" s="70"/>
-      <c r="D173" s="70"/>
-      <c r="E173" s="70"/>
-      <c r="F173" s="70"/>
-      <c r="G173" s="70"/>
-      <c r="H173" s="70"/>
-      <c r="I173" s="70"/>
-      <c r="J173" s="70"/>
-      <c r="K173" s="70"/>
-      <c r="L173" s="70"/>
-      <c r="M173" s="70"/>
-      <c r="N173" s="70"/>
-      <c r="O173" s="70"/>
-      <c r="P173" s="70"/>
-      <c r="Q173" s="70"/>
-      <c r="R173" s="71"/>
+      <c r="B173" s="77"/>
+      <c r="C173" s="77"/>
+      <c r="D173" s="77"/>
+      <c r="E173" s="77"/>
+      <c r="F173" s="77"/>
+      <c r="G173" s="77"/>
+      <c r="H173" s="77"/>
+      <c r="I173" s="77"/>
+      <c r="J173" s="77"/>
+      <c r="K173" s="77"/>
+      <c r="L173" s="77"/>
+      <c r="M173" s="77"/>
+      <c r="N173" s="77"/>
+      <c r="O173" s="77"/>
+      <c r="P173" s="77"/>
+      <c r="Q173" s="77"/>
+      <c r="R173" s="78"/>
       <c r="S173" s="38"/>
       <c r="T173" s="38"/>
       <c r="U173" s="38"/>
@@ -7634,17 +7634,17 @@
       <c r="B175" s="46" t="s">
         <v>105</v>
       </c>
-      <c r="C175" s="90" t="s">
+      <c r="C175" s="60" t="s">
         <v>108</v>
       </c>
-      <c r="D175" s="91"/>
-      <c r="E175" s="91"/>
-      <c r="F175" s="91"/>
-      <c r="G175" s="91"/>
-      <c r="H175" s="91"/>
-      <c r="I175" s="91"/>
-      <c r="J175" s="91"/>
-      <c r="K175" s="92"/>
+      <c r="D175" s="61"/>
+      <c r="E175" s="61"/>
+      <c r="F175" s="61"/>
+      <c r="G175" s="61"/>
+      <c r="H175" s="61"/>
+      <c r="I175" s="61"/>
+      <c r="J175" s="61"/>
+      <c r="K175" s="62"/>
       <c r="L175" s="5" t="s">
         <v>2</v>
       </c>
@@ -7684,17 +7684,17 @@
       <c r="B176" s="48">
         <v>44741</v>
       </c>
-      <c r="C176" s="83" t="s">
+      <c r="C176" s="54" t="s">
         <v>43</v>
       </c>
-      <c r="D176" s="84"/>
-      <c r="E176" s="84"/>
-      <c r="F176" s="84"/>
-      <c r="G176" s="84"/>
-      <c r="H176" s="84"/>
-      <c r="I176" s="84"/>
-      <c r="J176" s="84"/>
-      <c r="K176" s="85"/>
+      <c r="D176" s="55"/>
+      <c r="E176" s="55"/>
+      <c r="F176" s="55"/>
+      <c r="G176" s="55"/>
+      <c r="H176" s="55"/>
+      <c r="I176" s="55"/>
+      <c r="J176" s="55"/>
+      <c r="K176" s="56"/>
       <c r="L176" s="6">
         <v>17</v>
       </c>
@@ -7734,17 +7734,17 @@
       <c r="B177" s="48">
         <v>44740</v>
       </c>
-      <c r="C177" s="87" t="s">
+      <c r="C177" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="D177" s="88"/>
-      <c r="E177" s="88"/>
-      <c r="F177" s="88"/>
-      <c r="G177" s="88"/>
-      <c r="H177" s="88"/>
-      <c r="I177" s="88"/>
-      <c r="J177" s="88"/>
-      <c r="K177" s="89"/>
+      <c r="D177" s="58"/>
+      <c r="E177" s="58"/>
+      <c r="F177" s="58"/>
+      <c r="G177" s="58"/>
+      <c r="H177" s="58"/>
+      <c r="I177" s="58"/>
+      <c r="J177" s="58"/>
+      <c r="K177" s="59"/>
       <c r="L177" s="6">
         <v>17</v>
       </c>
@@ -7784,17 +7784,17 @@
       <c r="B178" s="48">
         <v>44765</v>
       </c>
-      <c r="C178" s="87" t="s">
+      <c r="C178" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="D178" s="88"/>
-      <c r="E178" s="88"/>
-      <c r="F178" s="88"/>
-      <c r="G178" s="88"/>
-      <c r="H178" s="88"/>
-      <c r="I178" s="88"/>
-      <c r="J178" s="88"/>
-      <c r="K178" s="89"/>
+      <c r="D178" s="58"/>
+      <c r="E178" s="58"/>
+      <c r="F178" s="58"/>
+      <c r="G178" s="58"/>
+      <c r="H178" s="58"/>
+      <c r="I178" s="58"/>
+      <c r="J178" s="58"/>
+      <c r="K178" s="59"/>
       <c r="L178" s="6">
         <v>17</v>
       </c>
@@ -7834,17 +7834,17 @@
       <c r="B179" s="48">
         <v>44766</v>
       </c>
-      <c r="C179" s="83" t="s">
+      <c r="C179" s="54" t="s">
         <v>48</v>
       </c>
-      <c r="D179" s="84"/>
-      <c r="E179" s="84"/>
-      <c r="F179" s="84"/>
-      <c r="G179" s="84"/>
-      <c r="H179" s="84"/>
-      <c r="I179" s="84"/>
-      <c r="J179" s="84"/>
-      <c r="K179" s="85"/>
+      <c r="D179" s="55"/>
+      <c r="E179" s="55"/>
+      <c r="F179" s="55"/>
+      <c r="G179" s="55"/>
+      <c r="H179" s="55"/>
+      <c r="I179" s="55"/>
+      <c r="J179" s="55"/>
+      <c r="K179" s="56"/>
       <c r="L179" s="6">
         <v>17</v>
       </c>
@@ -7884,17 +7884,17 @@
       <c r="B180" s="48">
         <v>44797</v>
       </c>
-      <c r="C180" s="83" t="s">
+      <c r="C180" s="54" t="s">
         <v>45</v>
       </c>
-      <c r="D180" s="84"/>
-      <c r="E180" s="84"/>
-      <c r="F180" s="84"/>
-      <c r="G180" s="84"/>
-      <c r="H180" s="84"/>
-      <c r="I180" s="84"/>
-      <c r="J180" s="84"/>
-      <c r="K180" s="85"/>
+      <c r="D180" s="55"/>
+      <c r="E180" s="55"/>
+      <c r="F180" s="55"/>
+      <c r="G180" s="55"/>
+      <c r="H180" s="55"/>
+      <c r="I180" s="55"/>
+      <c r="J180" s="55"/>
+      <c r="K180" s="56"/>
       <c r="L180" s="6">
         <v>17</v>
       </c>
@@ -7914,17 +7914,17 @@
         <v>0.44080000000000003</v>
       </c>
       <c r="R180" s="6">
-        <v>66</v>
+        <v>95</v>
       </c>
       <c r="S180" s="6">
-        <v>211</v>
+        <v>370</v>
       </c>
       <c r="T180" s="6" t="s">
         <v>60</v>
       </c>
       <c r="U180" s="6">
         <f t="shared" si="13"/>
-        <v>69.194312796208536</v>
+        <v>74.594594594594597</v>
       </c>
     </row>
     <row r="181" spans="1:21" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -7934,17 +7934,17 @@
       <c r="B181" s="48">
         <v>44797</v>
       </c>
-      <c r="C181" s="83" t="s">
+      <c r="C181" s="54" t="s">
         <v>46</v>
       </c>
-      <c r="D181" s="84"/>
-      <c r="E181" s="84"/>
-      <c r="F181" s="84"/>
-      <c r="G181" s="84"/>
-      <c r="H181" s="84"/>
-      <c r="I181" s="84"/>
-      <c r="J181" s="84"/>
-      <c r="K181" s="85"/>
+      <c r="D181" s="55"/>
+      <c r="E181" s="55"/>
+      <c r="F181" s="55"/>
+      <c r="G181" s="55"/>
+      <c r="H181" s="55"/>
+      <c r="I181" s="55"/>
+      <c r="J181" s="55"/>
+      <c r="K181" s="56"/>
       <c r="L181" s="6">
         <v>17</v>
       </c>
@@ -7964,17 +7964,17 @@
         <v>0.65359999999999996</v>
       </c>
       <c r="R181" s="51">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="S181" s="6">
-        <v>132</v>
+        <v>251</v>
       </c>
       <c r="T181" s="6" t="s">
         <v>59</v>
       </c>
       <c r="U181" s="6">
         <f t="shared" si="13"/>
-        <v>84.090909090909093</v>
+        <v>84.063745019920319</v>
       </c>
     </row>
     <row r="182" spans="1:21" x14ac:dyDescent="0.3">
@@ -7982,17 +7982,17 @@
         <v>15</v>
       </c>
       <c r="B182" s="48"/>
-      <c r="C182" s="83" t="s">
+      <c r="C182" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="D182" s="84"/>
-      <c r="E182" s="84"/>
-      <c r="F182" s="84"/>
-      <c r="G182" s="84"/>
-      <c r="H182" s="84"/>
-      <c r="I182" s="84"/>
-      <c r="J182" s="84"/>
-      <c r="K182" s="85"/>
+      <c r="D182" s="55"/>
+      <c r="E182" s="55"/>
+      <c r="F182" s="55"/>
+      <c r="G182" s="55"/>
+      <c r="H182" s="55"/>
+      <c r="I182" s="55"/>
+      <c r="J182" s="55"/>
+      <c r="K182" s="56"/>
       <c r="L182" s="6">
         <v>17</v>
       </c>
@@ -8032,17 +8032,17 @@
       <c r="B183" s="48">
         <v>44813</v>
       </c>
-      <c r="C183" s="83" t="s">
+      <c r="C183" s="54" t="s">
         <v>37</v>
       </c>
-      <c r="D183" s="84"/>
-      <c r="E183" s="84"/>
-      <c r="F183" s="84"/>
-      <c r="G183" s="84"/>
-      <c r="H183" s="84"/>
-      <c r="I183" s="84"/>
-      <c r="J183" s="84"/>
-      <c r="K183" s="85"/>
+      <c r="D183" s="55"/>
+      <c r="E183" s="55"/>
+      <c r="F183" s="55"/>
+      <c r="G183" s="55"/>
+      <c r="H183" s="55"/>
+      <c r="I183" s="55"/>
+      <c r="J183" s="55"/>
+      <c r="K183" s="56"/>
       <c r="L183" s="6">
         <v>17</v>
       </c>
@@ -8082,17 +8082,17 @@
       <c r="B184" s="48">
         <v>44822</v>
       </c>
-      <c r="C184" s="83" t="s">
+      <c r="C184" s="54" t="s">
         <v>39</v>
       </c>
-      <c r="D184" s="84"/>
-      <c r="E184" s="84"/>
-      <c r="F184" s="84"/>
-      <c r="G184" s="84"/>
-      <c r="H184" s="84"/>
-      <c r="I184" s="84"/>
-      <c r="J184" s="84"/>
-      <c r="K184" s="85"/>
+      <c r="D184" s="55"/>
+      <c r="E184" s="55"/>
+      <c r="F184" s="55"/>
+      <c r="G184" s="55"/>
+      <c r="H184" s="55"/>
+      <c r="I184" s="55"/>
+      <c r="J184" s="55"/>
+      <c r="K184" s="56"/>
       <c r="L184" s="6">
         <v>17</v>
       </c>
@@ -8132,17 +8132,17 @@
       <c r="B185" s="48">
         <v>44822</v>
       </c>
-      <c r="C185" s="83" t="s">
+      <c r="C185" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="D185" s="84"/>
-      <c r="E185" s="84"/>
-      <c r="F185" s="84"/>
-      <c r="G185" s="84"/>
-      <c r="H185" s="84"/>
-      <c r="I185" s="84"/>
-      <c r="J185" s="84"/>
-      <c r="K185" s="85"/>
+      <c r="D185" s="55"/>
+      <c r="E185" s="55"/>
+      <c r="F185" s="55"/>
+      <c r="G185" s="55"/>
+      <c r="H185" s="55"/>
+      <c r="I185" s="55"/>
+      <c r="J185" s="55"/>
+      <c r="K185" s="56"/>
       <c r="L185" s="6">
         <v>17</v>
       </c>
@@ -8182,17 +8182,17 @@
       <c r="B186" s="48">
         <v>44844</v>
       </c>
-      <c r="C186" s="87" t="s">
+      <c r="C186" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="D186" s="88"/>
-      <c r="E186" s="88"/>
-      <c r="F186" s="88"/>
-      <c r="G186" s="88"/>
-      <c r="H186" s="88"/>
-      <c r="I186" s="88"/>
-      <c r="J186" s="88"/>
-      <c r="K186" s="89"/>
+      <c r="D186" s="58"/>
+      <c r="E186" s="58"/>
+      <c r="F186" s="58"/>
+      <c r="G186" s="58"/>
+      <c r="H186" s="58"/>
+      <c r="I186" s="58"/>
+      <c r="J186" s="58"/>
+      <c r="K186" s="59"/>
       <c r="L186" s="6">
         <v>17</v>
       </c>
@@ -8232,17 +8232,17 @@
       <c r="B187" s="48">
         <v>44844</v>
       </c>
-      <c r="C187" s="83" t="s">
+      <c r="C187" s="54" t="s">
         <v>38</v>
       </c>
-      <c r="D187" s="84"/>
-      <c r="E187" s="84"/>
-      <c r="F187" s="84"/>
-      <c r="G187" s="84"/>
-      <c r="H187" s="84"/>
-      <c r="I187" s="84"/>
-      <c r="J187" s="84"/>
-      <c r="K187" s="85"/>
+      <c r="D187" s="55"/>
+      <c r="E187" s="55"/>
+      <c r="F187" s="55"/>
+      <c r="G187" s="55"/>
+      <c r="H187" s="55"/>
+      <c r="I187" s="55"/>
+      <c r="J187" s="55"/>
+      <c r="K187" s="56"/>
       <c r="L187" s="6">
         <v>17</v>
       </c>
@@ -8282,17 +8282,17 @@
       <c r="B188" s="48">
         <v>44849</v>
       </c>
-      <c r="C188" s="87" t="s">
+      <c r="C188" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="D188" s="88"/>
-      <c r="E188" s="88"/>
-      <c r="F188" s="88"/>
-      <c r="G188" s="88"/>
-      <c r="H188" s="88"/>
-      <c r="I188" s="88"/>
-      <c r="J188" s="88"/>
-      <c r="K188" s="89"/>
+      <c r="D188" s="58"/>
+      <c r="E188" s="58"/>
+      <c r="F188" s="58"/>
+      <c r="G188" s="58"/>
+      <c r="H188" s="58"/>
+      <c r="I188" s="58"/>
+      <c r="J188" s="58"/>
+      <c r="K188" s="59"/>
       <c r="L188" s="6">
         <v>17</v>
       </c>
@@ -8320,17 +8320,17 @@
       <c r="B189" s="48">
         <v>44849</v>
       </c>
-      <c r="C189" s="83" t="s">
+      <c r="C189" s="54" t="s">
         <v>33</v>
       </c>
-      <c r="D189" s="84"/>
-      <c r="E189" s="84"/>
-      <c r="F189" s="84"/>
-      <c r="G189" s="84"/>
-      <c r="H189" s="84"/>
-      <c r="I189" s="84"/>
-      <c r="J189" s="84"/>
-      <c r="K189" s="85"/>
+      <c r="D189" s="55"/>
+      <c r="E189" s="55"/>
+      <c r="F189" s="55"/>
+      <c r="G189" s="55"/>
+      <c r="H189" s="55"/>
+      <c r="I189" s="55"/>
+      <c r="J189" s="55"/>
+      <c r="K189" s="56"/>
       <c r="L189" s="6">
         <v>17</v>
       </c>
@@ -8358,17 +8358,17 @@
       <c r="B190" s="48">
         <v>44851</v>
       </c>
-      <c r="C190" s="87" t="s">
+      <c r="C190" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="D190" s="88"/>
-      <c r="E190" s="88"/>
-      <c r="F190" s="88"/>
-      <c r="G190" s="88"/>
-      <c r="H190" s="88"/>
-      <c r="I190" s="88"/>
-      <c r="J190" s="88"/>
-      <c r="K190" s="89"/>
+      <c r="D190" s="58"/>
+      <c r="E190" s="58"/>
+      <c r="F190" s="58"/>
+      <c r="G190" s="58"/>
+      <c r="H190" s="58"/>
+      <c r="I190" s="58"/>
+      <c r="J190" s="58"/>
+      <c r="K190" s="59"/>
       <c r="L190" s="6">
         <v>17</v>
       </c>
@@ -8396,17 +8396,17 @@
       <c r="B191" s="48">
         <v>44851</v>
       </c>
-      <c r="C191" s="87" t="s">
+      <c r="C191" s="57" t="s">
         <v>44</v>
       </c>
-      <c r="D191" s="88"/>
-      <c r="E191" s="88"/>
-      <c r="F191" s="88"/>
-      <c r="G191" s="88"/>
-      <c r="H191" s="88"/>
-      <c r="I191" s="88"/>
-      <c r="J191" s="88"/>
-      <c r="K191" s="89"/>
+      <c r="D191" s="58"/>
+      <c r="E191" s="58"/>
+      <c r="F191" s="58"/>
+      <c r="G191" s="58"/>
+      <c r="H191" s="58"/>
+      <c r="I191" s="58"/>
+      <c r="J191" s="58"/>
+      <c r="K191" s="59"/>
       <c r="L191" s="6">
         <v>17</v>
       </c>
@@ -8434,17 +8434,17 @@
       <c r="B192" s="48">
         <v>44854</v>
       </c>
-      <c r="C192" s="87" t="s">
+      <c r="C192" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="D192" s="88"/>
-      <c r="E192" s="88"/>
-      <c r="F192" s="88"/>
-      <c r="G192" s="88"/>
-      <c r="H192" s="88"/>
-      <c r="I192" s="88"/>
-      <c r="J192" s="88"/>
-      <c r="K192" s="89"/>
+      <c r="D192" s="58"/>
+      <c r="E192" s="58"/>
+      <c r="F192" s="58"/>
+      <c r="G192" s="58"/>
+      <c r="H192" s="58"/>
+      <c r="I192" s="58"/>
+      <c r="J192" s="58"/>
+      <c r="K192" s="59"/>
       <c r="L192" s="6">
         <v>17</v>
       </c>
@@ -8472,17 +8472,17 @@
       <c r="B193" s="48">
         <v>44854</v>
       </c>
-      <c r="C193" s="83" t="s">
+      <c r="C193" s="54" t="s">
         <v>49</v>
       </c>
-      <c r="D193" s="88"/>
-      <c r="E193" s="88"/>
-      <c r="F193" s="88"/>
-      <c r="G193" s="88"/>
-      <c r="H193" s="88"/>
-      <c r="I193" s="88"/>
-      <c r="J193" s="88"/>
-      <c r="K193" s="89"/>
+      <c r="D193" s="58"/>
+      <c r="E193" s="58"/>
+      <c r="F193" s="58"/>
+      <c r="G193" s="58"/>
+      <c r="H193" s="58"/>
+      <c r="I193" s="58"/>
+      <c r="J193" s="58"/>
+      <c r="K193" s="59"/>
       <c r="L193" s="6">
         <v>17</v>
       </c>
@@ -8510,17 +8510,17 @@
       <c r="B194" s="48">
         <v>44864</v>
       </c>
-      <c r="C194" s="83" t="s">
+      <c r="C194" s="54" t="s">
         <v>34</v>
       </c>
-      <c r="D194" s="84"/>
-      <c r="E194" s="84"/>
-      <c r="F194" s="84"/>
-      <c r="G194" s="84"/>
-      <c r="H194" s="84"/>
-      <c r="I194" s="84"/>
-      <c r="J194" s="84"/>
-      <c r="K194" s="85"/>
+      <c r="D194" s="55"/>
+      <c r="E194" s="55"/>
+      <c r="F194" s="55"/>
+      <c r="G194" s="55"/>
+      <c r="H194" s="55"/>
+      <c r="I194" s="55"/>
+      <c r="J194" s="55"/>
+      <c r="K194" s="56"/>
       <c r="L194" s="6">
         <v>17</v>
       </c>
@@ -8548,17 +8548,17 @@
       <c r="B195" s="48">
         <v>44864</v>
       </c>
-      <c r="C195" s="87" t="s">
+      <c r="C195" s="57" t="s">
         <v>35</v>
       </c>
-      <c r="D195" s="88"/>
-      <c r="E195" s="88"/>
-      <c r="F195" s="88"/>
-      <c r="G195" s="88"/>
-      <c r="H195" s="88"/>
-      <c r="I195" s="88"/>
-      <c r="J195" s="88"/>
-      <c r="K195" s="89"/>
+      <c r="D195" s="58"/>
+      <c r="E195" s="58"/>
+      <c r="F195" s="58"/>
+      <c r="G195" s="58"/>
+      <c r="H195" s="58"/>
+      <c r="I195" s="58"/>
+      <c r="J195" s="58"/>
+      <c r="K195" s="59"/>
       <c r="L195" s="6">
         <v>17</v>
       </c>
@@ -8586,17 +8586,17 @@
       <c r="B196" s="48">
         <v>44870</v>
       </c>
-      <c r="C196" s="87" t="s">
+      <c r="C196" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="D196" s="88"/>
-      <c r="E196" s="88"/>
-      <c r="F196" s="88"/>
-      <c r="G196" s="88"/>
-      <c r="H196" s="88"/>
-      <c r="I196" s="88"/>
-      <c r="J196" s="88"/>
-      <c r="K196" s="89"/>
+      <c r="D196" s="58"/>
+      <c r="E196" s="58"/>
+      <c r="F196" s="58"/>
+      <c r="G196" s="58"/>
+      <c r="H196" s="58"/>
+      <c r="I196" s="58"/>
+      <c r="J196" s="58"/>
+      <c r="K196" s="59"/>
       <c r="L196" s="6">
         <v>17</v>
       </c>
@@ -8624,17 +8624,17 @@
       <c r="B197" s="48">
         <v>44870</v>
       </c>
-      <c r="C197" s="87" t="s">
+      <c r="C197" s="57" t="s">
         <v>47</v>
       </c>
-      <c r="D197" s="88"/>
-      <c r="E197" s="88"/>
-      <c r="F197" s="88"/>
-      <c r="G197" s="88"/>
-      <c r="H197" s="88"/>
-      <c r="I197" s="88"/>
-      <c r="J197" s="88"/>
-      <c r="K197" s="89"/>
+      <c r="D197" s="58"/>
+      <c r="E197" s="58"/>
+      <c r="F197" s="58"/>
+      <c r="G197" s="58"/>
+      <c r="H197" s="58"/>
+      <c r="I197" s="58"/>
+      <c r="J197" s="58"/>
+      <c r="K197" s="59"/>
       <c r="L197" s="6">
         <v>17</v>
       </c>
@@ -8660,17 +8660,17 @@
         <v>23</v>
       </c>
       <c r="B198" s="48"/>
-      <c r="C198" s="83" t="s">
+      <c r="C198" s="54" t="s">
         <v>41</v>
       </c>
-      <c r="D198" s="84"/>
-      <c r="E198" s="84"/>
-      <c r="F198" s="84"/>
-      <c r="G198" s="84"/>
-      <c r="H198" s="84"/>
-      <c r="I198" s="84"/>
-      <c r="J198" s="84"/>
-      <c r="K198" s="85"/>
+      <c r="D198" s="55"/>
+      <c r="E198" s="55"/>
+      <c r="F198" s="55"/>
+      <c r="G198" s="55"/>
+      <c r="H198" s="55"/>
+      <c r="I198" s="55"/>
+      <c r="J198" s="55"/>
+      <c r="K198" s="56"/>
       <c r="L198" s="6">
         <v>17</v>
       </c>
@@ -8696,17 +8696,17 @@
         <v>24</v>
       </c>
       <c r="B199" s="48"/>
-      <c r="C199" s="83" t="s">
+      <c r="C199" s="54" t="s">
         <v>42</v>
       </c>
-      <c r="D199" s="84"/>
-      <c r="E199" s="84"/>
-      <c r="F199" s="84"/>
-      <c r="G199" s="84"/>
-      <c r="H199" s="84"/>
-      <c r="I199" s="84"/>
-      <c r="J199" s="84"/>
-      <c r="K199" s="85"/>
+      <c r="D199" s="55"/>
+      <c r="E199" s="55"/>
+      <c r="F199" s="55"/>
+      <c r="G199" s="55"/>
+      <c r="H199" s="55"/>
+      <c r="I199" s="55"/>
+      <c r="J199" s="55"/>
+      <c r="K199" s="56"/>
       <c r="L199" s="6">
         <v>17</v>
       </c>
@@ -8732,20 +8732,20 @@
         <v>25</v>
       </c>
       <c r="B200" s="47"/>
-      <c r="C200" s="60" t="s">
+      <c r="C200" s="66" t="s">
         <v>58</v>
       </c>
-      <c r="D200" s="61"/>
-      <c r="E200" s="61"/>
-      <c r="F200" s="61"/>
-      <c r="G200" s="61"/>
-      <c r="H200" s="61"/>
-      <c r="I200" s="61"/>
-      <c r="J200" s="61"/>
-      <c r="K200" s="61"/>
-      <c r="L200" s="61"/>
-      <c r="M200" s="61"/>
-      <c r="N200" s="62"/>
+      <c r="D200" s="67"/>
+      <c r="E200" s="67"/>
+      <c r="F200" s="67"/>
+      <c r="G200" s="67"/>
+      <c r="H200" s="67"/>
+      <c r="I200" s="67"/>
+      <c r="J200" s="67"/>
+      <c r="K200" s="67"/>
+      <c r="L200" s="67"/>
+      <c r="M200" s="67"/>
+      <c r="N200" s="68"/>
       <c r="O200" s="11"/>
       <c r="P200" s="12">
         <f t="shared" ref="P200:U200" si="15">AVERAGE(P176:P199)</f>
@@ -8757,11 +8757,11 @@
       </c>
       <c r="R200" s="12">
         <f t="shared" si="15"/>
-        <v>15.5</v>
+        <v>19.5</v>
       </c>
       <c r="S200" s="12">
         <f t="shared" si="15"/>
-        <v>189.66666666666666</v>
+        <v>212.83333333333334</v>
       </c>
       <c r="T200" s="12" t="e">
         <f t="shared" si="15"/>
@@ -8782,26 +8782,26 @@
       <c r="R202"/>
     </row>
     <row r="203" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A203" s="76" t="s">
+      <c r="A203" s="82" t="s">
         <v>13</v>
       </c>
-      <c r="B203" s="77"/>
-      <c r="C203" s="77"/>
-      <c r="D203" s="77"/>
-      <c r="E203" s="77"/>
-      <c r="F203" s="77"/>
-      <c r="G203" s="77"/>
-      <c r="H203" s="77"/>
-      <c r="I203" s="77"/>
-      <c r="J203" s="77"/>
-      <c r="K203" s="77"/>
-      <c r="L203" s="77"/>
-      <c r="M203" s="77"/>
-      <c r="N203" s="77"/>
-      <c r="O203" s="77"/>
-      <c r="P203" s="77"/>
-      <c r="Q203" s="77"/>
-      <c r="R203" s="78"/>
+      <c r="B203" s="83"/>
+      <c r="C203" s="83"/>
+      <c r="D203" s="83"/>
+      <c r="E203" s="83"/>
+      <c r="F203" s="83"/>
+      <c r="G203" s="83"/>
+      <c r="H203" s="83"/>
+      <c r="I203" s="83"/>
+      <c r="J203" s="83"/>
+      <c r="K203" s="83"/>
+      <c r="L203" s="83"/>
+      <c r="M203" s="83"/>
+      <c r="N203" s="83"/>
+      <c r="O203" s="83"/>
+      <c r="P203" s="83"/>
+      <c r="Q203" s="83"/>
+      <c r="R203" s="84"/>
       <c r="S203" s="15"/>
       <c r="T203" s="15"/>
       <c r="U203" s="15"/>
@@ -8811,17 +8811,17 @@
         <v>1</v>
       </c>
       <c r="B205" s="5"/>
-      <c r="C205" s="73" t="s">
+      <c r="C205" s="72" t="s">
         <v>56</v>
       </c>
-      <c r="D205" s="73"/>
-      <c r="E205" s="73"/>
-      <c r="F205" s="73"/>
-      <c r="G205" s="73"/>
-      <c r="H205" s="73"/>
-      <c r="I205" s="73"/>
-      <c r="J205" s="73"/>
-      <c r="K205" s="73"/>
+      <c r="D205" s="72"/>
+      <c r="E205" s="72"/>
+      <c r="F205" s="72"/>
+      <c r="G205" s="72"/>
+      <c r="H205" s="72"/>
+      <c r="I205" s="72"/>
+      <c r="J205" s="72"/>
+      <c r="K205" s="72"/>
       <c r="L205" s="5" t="s">
         <v>2</v>
       </c>
@@ -8858,17 +8858,17 @@
         <v>1</v>
       </c>
       <c r="B206" s="1"/>
-      <c r="C206" s="74" t="s">
+      <c r="C206" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="D206" s="74"/>
-      <c r="E206" s="74"/>
-      <c r="F206" s="74"/>
-      <c r="G206" s="74"/>
-      <c r="H206" s="74"/>
-      <c r="I206" s="74"/>
-      <c r="J206" s="74"/>
-      <c r="K206" s="74"/>
+      <c r="D206" s="73"/>
+      <c r="E206" s="73"/>
+      <c r="F206" s="73"/>
+      <c r="G206" s="73"/>
+      <c r="H206" s="73"/>
+      <c r="I206" s="73"/>
+      <c r="J206" s="73"/>
+      <c r="K206" s="73"/>
       <c r="L206" s="6">
         <v>33</v>
       </c>
@@ -8894,17 +8894,17 @@
         <v>2</v>
       </c>
       <c r="B207" s="1"/>
-      <c r="C207" s="66" t="s">
+      <c r="C207" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="D207" s="67"/>
-      <c r="E207" s="67"/>
-      <c r="F207" s="67"/>
-      <c r="G207" s="67"/>
-      <c r="H207" s="67"/>
-      <c r="I207" s="67"/>
-      <c r="J207" s="67"/>
-      <c r="K207" s="67"/>
+      <c r="D207" s="65"/>
+      <c r="E207" s="65"/>
+      <c r="F207" s="65"/>
+      <c r="G207" s="65"/>
+      <c r="H207" s="65"/>
+      <c r="I207" s="65"/>
+      <c r="J207" s="65"/>
+      <c r="K207" s="65"/>
       <c r="L207" s="6">
         <v>33</v>
       </c>
@@ -8930,17 +8930,17 @@
         <v>3</v>
       </c>
       <c r="B208" s="1"/>
-      <c r="C208" s="66" t="s">
+      <c r="C208" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="D208" s="67"/>
-      <c r="E208" s="67"/>
-      <c r="F208" s="67"/>
-      <c r="G208" s="67"/>
-      <c r="H208" s="67"/>
-      <c r="I208" s="67"/>
-      <c r="J208" s="67"/>
-      <c r="K208" s="67"/>
+      <c r="D208" s="65"/>
+      <c r="E208" s="65"/>
+      <c r="F208" s="65"/>
+      <c r="G208" s="65"/>
+      <c r="H208" s="65"/>
+      <c r="I208" s="65"/>
+      <c r="J208" s="65"/>
+      <c r="K208" s="65"/>
       <c r="L208" s="6">
         <v>33</v>
       </c>
@@ -8978,17 +8978,17 @@
         <v>4</v>
       </c>
       <c r="B209" s="1"/>
-      <c r="C209" s="67" t="s">
+      <c r="C209" s="65" t="s">
         <v>18</v>
       </c>
-      <c r="D209" s="67"/>
-      <c r="E209" s="67"/>
-      <c r="F209" s="67"/>
-      <c r="G209" s="67"/>
-      <c r="H209" s="67"/>
-      <c r="I209" s="67"/>
-      <c r="J209" s="67"/>
-      <c r="K209" s="67"/>
+      <c r="D209" s="65"/>
+      <c r="E209" s="65"/>
+      <c r="F209" s="65"/>
+      <c r="G209" s="65"/>
+      <c r="H209" s="65"/>
+      <c r="I209" s="65"/>
+      <c r="J209" s="65"/>
+      <c r="K209" s="65"/>
       <c r="L209" s="6">
         <v>33</v>
       </c>
@@ -9026,17 +9026,17 @@
         <v>5</v>
       </c>
       <c r="B210" s="1"/>
-      <c r="C210" s="66" t="s">
+      <c r="C210" s="64" t="s">
         <v>61</v>
       </c>
-      <c r="D210" s="67"/>
-      <c r="E210" s="67"/>
-      <c r="F210" s="67"/>
-      <c r="G210" s="67"/>
-      <c r="H210" s="67"/>
-      <c r="I210" s="67"/>
-      <c r="J210" s="67"/>
-      <c r="K210" s="67"/>
+      <c r="D210" s="65"/>
+      <c r="E210" s="65"/>
+      <c r="F210" s="65"/>
+      <c r="G210" s="65"/>
+      <c r="H210" s="65"/>
+      <c r="I210" s="65"/>
+      <c r="J210" s="65"/>
+      <c r="K210" s="65"/>
       <c r="L210" s="6">
         <v>33</v>
       </c>
@@ -9074,17 +9074,17 @@
         <v>6</v>
       </c>
       <c r="B211" s="1"/>
-      <c r="C211" s="66" t="s">
+      <c r="C211" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="D211" s="67"/>
-      <c r="E211" s="67"/>
-      <c r="F211" s="67"/>
-      <c r="G211" s="67"/>
-      <c r="H211" s="67"/>
-      <c r="I211" s="67"/>
-      <c r="J211" s="67"/>
-      <c r="K211" s="67"/>
+      <c r="D211" s="65"/>
+      <c r="E211" s="65"/>
+      <c r="F211" s="65"/>
+      <c r="G211" s="65"/>
+      <c r="H211" s="65"/>
+      <c r="I211" s="65"/>
+      <c r="J211" s="65"/>
+      <c r="K211" s="65"/>
       <c r="L211" s="6">
         <v>33</v>
       </c>
@@ -9110,17 +9110,17 @@
         <v>7</v>
       </c>
       <c r="B212" s="1"/>
-      <c r="C212" s="67" t="s">
+      <c r="C212" s="65" t="s">
         <v>20</v>
       </c>
-      <c r="D212" s="67"/>
-      <c r="E212" s="67"/>
-      <c r="F212" s="67"/>
-      <c r="G212" s="67"/>
-      <c r="H212" s="67"/>
-      <c r="I212" s="67"/>
-      <c r="J212" s="67"/>
-      <c r="K212" s="67"/>
+      <c r="D212" s="65"/>
+      <c r="E212" s="65"/>
+      <c r="F212" s="65"/>
+      <c r="G212" s="65"/>
+      <c r="H212" s="65"/>
+      <c r="I212" s="65"/>
+      <c r="J212" s="65"/>
+      <c r="K212" s="65"/>
       <c r="L212" s="6">
         <v>33</v>
       </c>
@@ -9158,17 +9158,17 @@
         <v>8</v>
       </c>
       <c r="B213" s="1"/>
-      <c r="C213" s="66" t="s">
+      <c r="C213" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="D213" s="67"/>
-      <c r="E213" s="67"/>
-      <c r="F213" s="67"/>
-      <c r="G213" s="67"/>
-      <c r="H213" s="67"/>
-      <c r="I213" s="67"/>
-      <c r="J213" s="67"/>
-      <c r="K213" s="67"/>
+      <c r="D213" s="65"/>
+      <c r="E213" s="65"/>
+      <c r="F213" s="65"/>
+      <c r="G213" s="65"/>
+      <c r="H213" s="65"/>
+      <c r="I213" s="65"/>
+      <c r="J213" s="65"/>
+      <c r="K213" s="65"/>
       <c r="L213" s="6">
         <v>33</v>
       </c>
@@ -9194,17 +9194,17 @@
         <v>9</v>
       </c>
       <c r="B214" s="1"/>
-      <c r="C214" s="66" t="s">
+      <c r="C214" s="64" t="s">
         <v>62</v>
       </c>
-      <c r="D214" s="67"/>
-      <c r="E214" s="67"/>
-      <c r="F214" s="67"/>
-      <c r="G214" s="67"/>
-      <c r="H214" s="67"/>
-      <c r="I214" s="67"/>
-      <c r="J214" s="67"/>
-      <c r="K214" s="67"/>
+      <c r="D214" s="65"/>
+      <c r="E214" s="65"/>
+      <c r="F214" s="65"/>
+      <c r="G214" s="65"/>
+      <c r="H214" s="65"/>
+      <c r="I214" s="65"/>
+      <c r="J214" s="65"/>
+      <c r="K214" s="65"/>
       <c r="L214" s="6">
         <v>33</v>
       </c>
@@ -9224,17 +9224,17 @@
         <v>58.72</v>
       </c>
       <c r="R214" s="6">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="S214" s="6">
-        <v>50</v>
+        <v>105</v>
       </c>
       <c r="T214" s="6" t="s">
         <v>60</v>
       </c>
       <c r="U214" s="6">
         <f t="shared" si="16"/>
-        <v>88</v>
+        <v>91.428571428571431</v>
       </c>
     </row>
     <row r="215" spans="1:21" x14ac:dyDescent="0.3">
@@ -9242,17 +9242,17 @@
         <v>10</v>
       </c>
       <c r="B215" s="1"/>
-      <c r="C215" s="66" t="s">
+      <c r="C215" s="64" t="s">
         <v>22</v>
       </c>
-      <c r="D215" s="67"/>
-      <c r="E215" s="67"/>
-      <c r="F215" s="67"/>
-      <c r="G215" s="67"/>
-      <c r="H215" s="67"/>
-      <c r="I215" s="67"/>
-      <c r="J215" s="67"/>
-      <c r="K215" s="67"/>
+      <c r="D215" s="65"/>
+      <c r="E215" s="65"/>
+      <c r="F215" s="65"/>
+      <c r="G215" s="65"/>
+      <c r="H215" s="65"/>
+      <c r="I215" s="65"/>
+      <c r="J215" s="65"/>
+      <c r="K215" s="65"/>
       <c r="L215" s="6">
         <v>33</v>
       </c>
@@ -9278,17 +9278,17 @@
         <v>11</v>
       </c>
       <c r="B216" s="1"/>
-      <c r="C216" s="66" t="s">
+      <c r="C216" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="D216" s="67"/>
-      <c r="E216" s="67"/>
-      <c r="F216" s="67"/>
-      <c r="G216" s="67"/>
-      <c r="H216" s="67"/>
-      <c r="I216" s="67"/>
-      <c r="J216" s="67"/>
-      <c r="K216" s="67"/>
+      <c r="D216" s="65"/>
+      <c r="E216" s="65"/>
+      <c r="F216" s="65"/>
+      <c r="G216" s="65"/>
+      <c r="H216" s="65"/>
+      <c r="I216" s="65"/>
+      <c r="J216" s="65"/>
+      <c r="K216" s="65"/>
       <c r="L216" s="6">
         <v>33</v>
       </c>
@@ -9314,17 +9314,17 @@
         <v>12</v>
       </c>
       <c r="B217" s="1"/>
-      <c r="C217" s="66" t="s">
+      <c r="C217" s="64" t="s">
         <v>63</v>
       </c>
-      <c r="D217" s="67"/>
-      <c r="E217" s="67"/>
-      <c r="F217" s="67"/>
-      <c r="G217" s="67"/>
-      <c r="H217" s="67"/>
-      <c r="I217" s="67"/>
-      <c r="J217" s="67"/>
-      <c r="K217" s="67"/>
+      <c r="D217" s="65"/>
+      <c r="E217" s="65"/>
+      <c r="F217" s="65"/>
+      <c r="G217" s="65"/>
+      <c r="H217" s="65"/>
+      <c r="I217" s="65"/>
+      <c r="J217" s="65"/>
+      <c r="K217" s="65"/>
       <c r="L217" s="6">
         <v>33</v>
       </c>
@@ -9362,20 +9362,20 @@
         <v>13</v>
       </c>
       <c r="B218" s="1"/>
-      <c r="C218" s="60" t="s">
+      <c r="C218" s="66" t="s">
         <v>58</v>
       </c>
-      <c r="D218" s="61"/>
-      <c r="E218" s="61"/>
-      <c r="F218" s="61"/>
-      <c r="G218" s="61"/>
-      <c r="H218" s="61"/>
-      <c r="I218" s="61"/>
-      <c r="J218" s="61"/>
-      <c r="K218" s="61"/>
-      <c r="L218" s="61"/>
-      <c r="M218" s="61"/>
-      <c r="N218" s="62"/>
+      <c r="D218" s="67"/>
+      <c r="E218" s="67"/>
+      <c r="F218" s="67"/>
+      <c r="G218" s="67"/>
+      <c r="H218" s="67"/>
+      <c r="I218" s="67"/>
+      <c r="J218" s="67"/>
+      <c r="K218" s="67"/>
+      <c r="L218" s="67"/>
+      <c r="M218" s="67"/>
+      <c r="N218" s="68"/>
       <c r="O218" s="11"/>
       <c r="P218" s="12">
         <f>AVERAGE(P206:P217)</f>
@@ -9387,16 +9387,16 @@
       </c>
       <c r="R218" s="12">
         <f t="shared" ref="R218:S218" si="17">AVERAGE(R206:R217)</f>
-        <v>10.666666666666666</v>
+        <v>11.166666666666666</v>
       </c>
       <c r="S218" s="12">
         <f t="shared" si="17"/>
-        <v>60.833333333333336</v>
+        <v>70</v>
       </c>
       <c r="T218" s="11"/>
       <c r="U218" s="6">
         <f t="shared" si="16"/>
-        <v>84.109589041095902</v>
+        <v>85.476190476190482</v>
       </c>
     </row>
     <row r="219" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -9405,26 +9405,26 @@
       <c r="Q219" s="52"/>
     </row>
     <row r="220" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A220" s="63" t="s">
+      <c r="A220" s="69" t="s">
         <v>24</v>
       </c>
-      <c r="B220" s="64"/>
-      <c r="C220" s="64"/>
-      <c r="D220" s="64"/>
-      <c r="E220" s="64"/>
-      <c r="F220" s="64"/>
-      <c r="G220" s="64"/>
-      <c r="H220" s="64"/>
-      <c r="I220" s="64"/>
-      <c r="J220" s="64"/>
-      <c r="K220" s="64"/>
-      <c r="L220" s="64"/>
-      <c r="M220" s="64"/>
-      <c r="N220" s="64"/>
-      <c r="O220" s="64"/>
-      <c r="P220" s="64"/>
-      <c r="Q220" s="64"/>
-      <c r="R220" s="65"/>
+      <c r="B220" s="70"/>
+      <c r="C220" s="70"/>
+      <c r="D220" s="70"/>
+      <c r="E220" s="70"/>
+      <c r="F220" s="70"/>
+      <c r="G220" s="70"/>
+      <c r="H220" s="70"/>
+      <c r="I220" s="70"/>
+      <c r="J220" s="70"/>
+      <c r="K220" s="70"/>
+      <c r="L220" s="70"/>
+      <c r="M220" s="70"/>
+      <c r="N220" s="70"/>
+      <c r="O220" s="70"/>
+      <c r="P220" s="70"/>
+      <c r="Q220" s="70"/>
+      <c r="R220" s="71"/>
       <c r="S220" s="3"/>
       <c r="T220" s="3"/>
       <c r="U220" s="3"/>
@@ -9434,17 +9434,17 @@
         <v>1</v>
       </c>
       <c r="B222" s="5"/>
-      <c r="C222" s="73" t="s">
+      <c r="C222" s="72" t="s">
         <v>108</v>
       </c>
-      <c r="D222" s="73"/>
-      <c r="E222" s="73"/>
-      <c r="F222" s="73"/>
-      <c r="G222" s="73"/>
-      <c r="H222" s="73"/>
-      <c r="I222" s="73"/>
-      <c r="J222" s="73"/>
-      <c r="K222" s="73"/>
+      <c r="D222" s="72"/>
+      <c r="E222" s="72"/>
+      <c r="F222" s="72"/>
+      <c r="G222" s="72"/>
+      <c r="H222" s="72"/>
+      <c r="I222" s="72"/>
+      <c r="J222" s="72"/>
+      <c r="K222" s="72"/>
       <c r="L222" s="5" t="s">
         <v>2</v>
       </c>
@@ -9481,17 +9481,17 @@
         <v>1</v>
       </c>
       <c r="B223" s="1"/>
-      <c r="C223" s="74" t="s">
+      <c r="C223" s="73" t="s">
         <v>65</v>
       </c>
-      <c r="D223" s="74"/>
-      <c r="E223" s="74"/>
-      <c r="F223" s="74"/>
-      <c r="G223" s="74"/>
-      <c r="H223" s="74"/>
-      <c r="I223" s="74"/>
-      <c r="J223" s="74"/>
-      <c r="K223" s="74"/>
+      <c r="D223" s="73"/>
+      <c r="E223" s="73"/>
+      <c r="F223" s="73"/>
+      <c r="G223" s="73"/>
+      <c r="H223" s="73"/>
+      <c r="I223" s="73"/>
+      <c r="J223" s="73"/>
+      <c r="K223" s="73"/>
       <c r="L223" s="6">
         <v>33</v>
       </c>
@@ -9514,17 +9514,17 @@
         <v>2</v>
       </c>
       <c r="B224" s="1"/>
-      <c r="C224" s="66" t="s">
+      <c r="C224" s="64" t="s">
         <v>66</v>
       </c>
-      <c r="D224" s="67"/>
-      <c r="E224" s="67"/>
-      <c r="F224" s="67"/>
-      <c r="G224" s="67"/>
-      <c r="H224" s="67"/>
-      <c r="I224" s="67"/>
-      <c r="J224" s="67"/>
-      <c r="K224" s="67"/>
+      <c r="D224" s="65"/>
+      <c r="E224" s="65"/>
+      <c r="F224" s="65"/>
+      <c r="G224" s="65"/>
+      <c r="H224" s="65"/>
+      <c r="I224" s="65"/>
+      <c r="J224" s="65"/>
+      <c r="K224" s="65"/>
       <c r="L224" s="6">
         <v>33</v>
       </c>
@@ -9547,17 +9547,17 @@
         <v>3</v>
       </c>
       <c r="B225" s="1"/>
-      <c r="C225" s="66" t="s">
+      <c r="C225" s="64" t="s">
         <v>25</v>
       </c>
-      <c r="D225" s="67"/>
-      <c r="E225" s="67"/>
-      <c r="F225" s="67"/>
-      <c r="G225" s="67"/>
-      <c r="H225" s="67"/>
-      <c r="I225" s="67"/>
-      <c r="J225" s="67"/>
-      <c r="K225" s="67"/>
+      <c r="D225" s="65"/>
+      <c r="E225" s="65"/>
+      <c r="F225" s="65"/>
+      <c r="G225" s="65"/>
+      <c r="H225" s="65"/>
+      <c r="I225" s="65"/>
+      <c r="J225" s="65"/>
+      <c r="K225" s="65"/>
       <c r="L225" s="6">
         <v>33</v>
       </c>
@@ -9580,17 +9580,17 @@
         <v>4</v>
       </c>
       <c r="B226" s="1"/>
-      <c r="C226" s="67" t="s">
+      <c r="C226" s="65" t="s">
         <v>26</v>
       </c>
-      <c r="D226" s="67"/>
-      <c r="E226" s="67"/>
-      <c r="F226" s="67"/>
-      <c r="G226" s="67"/>
-      <c r="H226" s="67"/>
-      <c r="I226" s="67"/>
-      <c r="J226" s="67"/>
-      <c r="K226" s="67"/>
+      <c r="D226" s="65"/>
+      <c r="E226" s="65"/>
+      <c r="F226" s="65"/>
+      <c r="G226" s="65"/>
+      <c r="H226" s="65"/>
+      <c r="I226" s="65"/>
+      <c r="J226" s="65"/>
+      <c r="K226" s="65"/>
       <c r="L226" s="6">
         <v>33</v>
       </c>
@@ -9613,17 +9613,17 @@
         <v>5</v>
       </c>
       <c r="B227" s="1"/>
-      <c r="C227" s="66" t="s">
+      <c r="C227" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="D227" s="67"/>
-      <c r="E227" s="67"/>
-      <c r="F227" s="67"/>
-      <c r="G227" s="67"/>
-      <c r="H227" s="67"/>
-      <c r="I227" s="67"/>
-      <c r="J227" s="67"/>
-      <c r="K227" s="67"/>
+      <c r="D227" s="65"/>
+      <c r="E227" s="65"/>
+      <c r="F227" s="65"/>
+      <c r="G227" s="65"/>
+      <c r="H227" s="65"/>
+      <c r="I227" s="65"/>
+      <c r="J227" s="65"/>
+      <c r="K227" s="65"/>
       <c r="L227" s="6">
         <v>33</v>
       </c>
@@ -9646,17 +9646,17 @@
         <v>6</v>
       </c>
       <c r="B228" s="1"/>
-      <c r="C228" s="66" t="s">
+      <c r="C228" s="64" t="s">
         <v>67</v>
       </c>
-      <c r="D228" s="67"/>
-      <c r="E228" s="67"/>
-      <c r="F228" s="67"/>
-      <c r="G228" s="67"/>
-      <c r="H228" s="67"/>
-      <c r="I228" s="67"/>
-      <c r="J228" s="67"/>
-      <c r="K228" s="67"/>
+      <c r="D228" s="65"/>
+      <c r="E228" s="65"/>
+      <c r="F228" s="65"/>
+      <c r="G228" s="65"/>
+      <c r="H228" s="65"/>
+      <c r="I228" s="65"/>
+      <c r="J228" s="65"/>
+      <c r="K228" s="65"/>
       <c r="L228" s="6">
         <v>33</v>
       </c>
@@ -9679,20 +9679,20 @@
         <v>7</v>
       </c>
       <c r="B229" s="1"/>
-      <c r="C229" s="60" t="s">
+      <c r="C229" s="66" t="s">
         <v>58</v>
       </c>
-      <c r="D229" s="61"/>
-      <c r="E229" s="61"/>
-      <c r="F229" s="61"/>
-      <c r="G229" s="61"/>
-      <c r="H229" s="61"/>
-      <c r="I229" s="61"/>
-      <c r="J229" s="61"/>
-      <c r="K229" s="61"/>
-      <c r="L229" s="61"/>
-      <c r="M229" s="61"/>
-      <c r="N229" s="62"/>
+      <c r="D229" s="67"/>
+      <c r="E229" s="67"/>
+      <c r="F229" s="67"/>
+      <c r="G229" s="67"/>
+      <c r="H229" s="67"/>
+      <c r="I229" s="67"/>
+      <c r="J229" s="67"/>
+      <c r="K229" s="67"/>
+      <c r="L229" s="67"/>
+      <c r="M229" s="67"/>
+      <c r="N229" s="68"/>
       <c r="O229" s="11"/>
       <c r="P229" s="12" t="e">
         <f>AVERAGE(P223:P228)</f>
@@ -9712,25 +9712,25 @@
       <c r="B230" s="1"/>
     </row>
     <row r="231" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A231" s="72" t="s">
+      <c r="A231" s="81" t="s">
         <v>28</v>
       </c>
-      <c r="B231" s="72"/>
-      <c r="C231" s="72"/>
-      <c r="D231" s="72"/>
-      <c r="E231" s="72"/>
-      <c r="F231" s="72"/>
-      <c r="G231" s="72"/>
-      <c r="H231" s="72"/>
-      <c r="I231" s="72"/>
-      <c r="J231" s="72"/>
-      <c r="K231" s="72"/>
-      <c r="L231" s="72"/>
-      <c r="M231" s="72"/>
-      <c r="N231" s="72"/>
-      <c r="O231" s="72"/>
-      <c r="P231" s="72"/>
-      <c r="Q231" s="72"/>
+      <c r="B231" s="81"/>
+      <c r="C231" s="81"/>
+      <c r="D231" s="81"/>
+      <c r="E231" s="81"/>
+      <c r="F231" s="81"/>
+      <c r="G231" s="81"/>
+      <c r="H231" s="81"/>
+      <c r="I231" s="81"/>
+      <c r="J231" s="81"/>
+      <c r="K231" s="81"/>
+      <c r="L231" s="81"/>
+      <c r="M231" s="81"/>
+      <c r="N231" s="81"/>
+      <c r="O231" s="81"/>
+      <c r="P231" s="81"/>
+      <c r="Q231" s="81"/>
       <c r="R231"/>
     </row>
     <row r="232" spans="1:21" ht="40.799999999999997" x14ac:dyDescent="0.3">
@@ -9740,10 +9740,10 @@
       <c r="B232" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="C232" s="68" t="s">
+      <c r="C232" s="80" t="s">
         <v>68</v>
       </c>
-      <c r="D232" s="68"/>
+      <c r="D232" s="80"/>
       <c r="E232" s="17" t="s">
         <v>69</v>
       </c>
@@ -9797,10 +9797,10 @@
       <c r="B233" s="53">
         <v>44808</v>
       </c>
-      <c r="C233" s="54" t="s">
+      <c r="C233" s="90" t="s">
         <v>125</v>
       </c>
-      <c r="D233" s="55"/>
+      <c r="D233" s="91"/>
       <c r="E233" s="25">
         <v>57</v>
       </c>
@@ -9855,10 +9855,10 @@
       <c r="B234" s="53">
         <v>44816</v>
       </c>
-      <c r="C234" s="57" t="s">
+      <c r="C234" s="63" t="s">
         <v>113</v>
       </c>
-      <c r="D234" s="57"/>
+      <c r="D234" s="63"/>
       <c r="E234" s="25">
         <v>58</v>
       </c>
@@ -9913,10 +9913,10 @@
       <c r="B235" s="53">
         <v>44822</v>
       </c>
-      <c r="C235" s="57" t="s">
+      <c r="C235" s="63" t="s">
         <v>114</v>
       </c>
-      <c r="D235" s="57"/>
+      <c r="D235" s="63"/>
       <c r="E235" s="25">
         <v>64</v>
       </c>
@@ -9969,10 +9969,10 @@
         <v>3</v>
       </c>
       <c r="B236" s="14"/>
-      <c r="C236" s="57" t="s">
+      <c r="C236" s="63" t="s">
         <v>115</v>
       </c>
-      <c r="D236" s="57"/>
+      <c r="D236" s="63"/>
       <c r="E236" s="25"/>
       <c r="F236" s="26"/>
       <c r="G236" s="27"/>
@@ -9997,10 +9997,10 @@
         <v>4</v>
       </c>
       <c r="B237" s="14"/>
-      <c r="C237" s="57" t="s">
+      <c r="C237" s="63" t="s">
         <v>116</v>
       </c>
-      <c r="D237" s="57"/>
+      <c r="D237" s="63"/>
       <c r="E237" s="25"/>
       <c r="F237" s="26"/>
       <c r="G237" s="27"/>
@@ -10025,10 +10025,10 @@
         <v>5</v>
       </c>
       <c r="B238" s="14"/>
-      <c r="C238" s="57" t="s">
+      <c r="C238" s="63" t="s">
         <v>117</v>
       </c>
-      <c r="D238" s="57"/>
+      <c r="D238" s="63"/>
       <c r="E238" s="25"/>
       <c r="F238" s="26"/>
       <c r="G238" s="27"/>
@@ -10053,10 +10053,10 @@
         <v>6</v>
       </c>
       <c r="B239" s="14"/>
-      <c r="C239" s="57" t="s">
+      <c r="C239" s="63" t="s">
         <v>118</v>
       </c>
-      <c r="D239" s="57"/>
+      <c r="D239" s="63"/>
       <c r="E239" s="25"/>
       <c r="F239" s="26"/>
       <c r="G239" s="27"/>
@@ -10081,10 +10081,10 @@
         <v>7</v>
       </c>
       <c r="B240" s="14"/>
-      <c r="C240" s="57" t="s">
+      <c r="C240" s="63" t="s">
         <v>119</v>
       </c>
-      <c r="D240" s="57"/>
+      <c r="D240" s="63"/>
       <c r="E240" s="25"/>
       <c r="F240" s="26"/>
       <c r="G240" s="27"/>
@@ -10109,10 +10109,10 @@
         <v>8</v>
       </c>
       <c r="B241" s="14"/>
-      <c r="C241" s="57" t="s">
+      <c r="C241" s="63" t="s">
         <v>120</v>
       </c>
-      <c r="D241" s="57"/>
+      <c r="D241" s="63"/>
       <c r="E241" s="25"/>
       <c r="F241" s="26"/>
       <c r="G241" s="27"/>
@@ -10135,10 +10135,10 @@
     <row r="242" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A242" s="14"/>
       <c r="B242" s="14"/>
-      <c r="C242" s="58" t="s">
+      <c r="C242" s="74" t="s">
         <v>98</v>
       </c>
-      <c r="D242" s="58"/>
+      <c r="D242" s="74"/>
       <c r="E242" s="25">
         <f>AVERAGE(E233:E241)</f>
         <v>59.666666666666664</v>
@@ -10214,25 +10214,25 @@
       <c r="S244" s="6"/>
     </row>
     <row r="245" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A245" s="75" t="s">
+      <c r="A245" s="79" t="s">
         <v>99</v>
       </c>
-      <c r="B245" s="75"/>
-      <c r="C245" s="75"/>
-      <c r="D245" s="75"/>
-      <c r="E245" s="75"/>
-      <c r="F245" s="75"/>
-      <c r="G245" s="75"/>
-      <c r="H245" s="75"/>
-      <c r="I245" s="75"/>
-      <c r="J245" s="75"/>
-      <c r="K245" s="75"/>
-      <c r="L245" s="75"/>
-      <c r="M245" s="75"/>
-      <c r="N245" s="75"/>
-      <c r="O245" s="75"/>
-      <c r="P245" s="75"/>
-      <c r="Q245" s="75"/>
+      <c r="B245" s="79"/>
+      <c r="C245" s="79"/>
+      <c r="D245" s="79"/>
+      <c r="E245" s="79"/>
+      <c r="F245" s="79"/>
+      <c r="G245" s="79"/>
+      <c r="H245" s="79"/>
+      <c r="I245" s="79"/>
+      <c r="J245" s="79"/>
+      <c r="K245" s="79"/>
+      <c r="L245" s="79"/>
+      <c r="M245" s="79"/>
+      <c r="N245" s="79"/>
+      <c r="O245" s="79"/>
+      <c r="P245" s="79"/>
+      <c r="Q245" s="79"/>
       <c r="R245"/>
       <c r="S245" s="11"/>
     </row>
@@ -10241,10 +10241,10 @@
         <v>1</v>
       </c>
       <c r="B246" s="16"/>
-      <c r="C246" s="68" t="s">
+      <c r="C246" s="80" t="s">
         <v>68</v>
       </c>
-      <c r="D246" s="68"/>
+      <c r="D246" s="80"/>
       <c r="E246" s="17" t="s">
         <v>69</v>
       </c>
@@ -10293,10 +10293,10 @@
         <v>1</v>
       </c>
       <c r="B247" s="14"/>
-      <c r="C247" s="57" t="s">
+      <c r="C247" s="63" t="s">
         <v>121</v>
       </c>
-      <c r="D247" s="57"/>
+      <c r="D247" s="63"/>
       <c r="E247" s="25"/>
       <c r="F247" s="26"/>
       <c r="G247" s="27"/>
@@ -10320,10 +10320,10 @@
         <v>2</v>
       </c>
       <c r="B248" s="14"/>
-      <c r="C248" s="57" t="s">
+      <c r="C248" s="63" t="s">
         <v>122</v>
       </c>
-      <c r="D248" s="57"/>
+      <c r="D248" s="63"/>
       <c r="E248" s="25"/>
       <c r="F248" s="26"/>
       <c r="G248" s="27"/>
@@ -10347,10 +10347,10 @@
         <v>3</v>
       </c>
       <c r="B249" s="14"/>
-      <c r="C249" s="57" t="s">
+      <c r="C249" s="63" t="s">
         <v>123</v>
       </c>
-      <c r="D249" s="57"/>
+      <c r="D249" s="63"/>
       <c r="E249" s="25"/>
       <c r="F249" s="26"/>
       <c r="G249" s="27"/>
@@ -10374,10 +10374,10 @@
         <v>4</v>
       </c>
       <c r="B250" s="14"/>
-      <c r="C250" s="57" t="s">
+      <c r="C250" s="63" t="s">
         <v>124</v>
       </c>
-      <c r="D250" s="57"/>
+      <c r="D250" s="63"/>
       <c r="E250" s="25"/>
       <c r="F250" s="26"/>
       <c r="G250" s="27"/>
@@ -10397,10 +10397,10 @@
       </c>
     </row>
     <row r="251" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="C251" s="58" t="s">
+      <c r="C251" s="74" t="s">
         <v>98</v>
       </c>
-      <c r="D251" s="58"/>
+      <c r="D251" s="74"/>
       <c r="E251" s="25"/>
       <c r="F251" s="26"/>
       <c r="G251" s="27"/>
@@ -10424,103 +10424,103 @@
       <c r="R256"/>
     </row>
     <row r="257" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A257" s="59" t="s">
+      <c r="A257" s="75" t="s">
         <v>107</v>
       </c>
-      <c r="B257" s="59"/>
-      <c r="C257" s="59"/>
-      <c r="D257" s="59"/>
-      <c r="E257" s="59"/>
-      <c r="F257" s="59"/>
-      <c r="G257" s="59"/>
-      <c r="H257" s="59"/>
-      <c r="I257" s="59"/>
-      <c r="J257" s="59"/>
-      <c r="K257" s="59"/>
-      <c r="L257" s="59"/>
-      <c r="M257" s="59"/>
-      <c r="N257" s="59"/>
-      <c r="O257" s="59"/>
-      <c r="P257" s="59"/>
-      <c r="Q257" s="59"/>
-      <c r="R257" s="59"/>
-      <c r="S257" s="59"/>
-      <c r="T257" s="59"/>
-      <c r="U257" s="59"/>
-      <c r="V257" s="59"/>
-      <c r="W257" s="59"/>
+      <c r="B257" s="75"/>
+      <c r="C257" s="75"/>
+      <c r="D257" s="75"/>
+      <c r="E257" s="75"/>
+      <c r="F257" s="75"/>
+      <c r="G257" s="75"/>
+      <c r="H257" s="75"/>
+      <c r="I257" s="75"/>
+      <c r="J257" s="75"/>
+      <c r="K257" s="75"/>
+      <c r="L257" s="75"/>
+      <c r="M257" s="75"/>
+      <c r="N257" s="75"/>
+      <c r="O257" s="75"/>
+      <c r="P257" s="75"/>
+      <c r="Q257" s="75"/>
+      <c r="R257" s="75"/>
+      <c r="S257" s="75"/>
+      <c r="T257" s="75"/>
+      <c r="U257" s="75"/>
+      <c r="V257" s="75"/>
+      <c r="W257" s="75"/>
     </row>
     <row r="258" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A258" s="59"/>
-      <c r="B258" s="59"/>
-      <c r="C258" s="59"/>
-      <c r="D258" s="59"/>
-      <c r="E258" s="59"/>
-      <c r="F258" s="59"/>
-      <c r="G258" s="59"/>
-      <c r="H258" s="59"/>
-      <c r="I258" s="59"/>
-      <c r="J258" s="59"/>
-      <c r="K258" s="59"/>
-      <c r="L258" s="59"/>
-      <c r="M258" s="59"/>
-      <c r="N258" s="59"/>
-      <c r="O258" s="59"/>
-      <c r="P258" s="59"/>
-      <c r="Q258" s="59"/>
-      <c r="R258" s="59"/>
-      <c r="S258" s="59"/>
-      <c r="T258" s="59"/>
-      <c r="U258" s="59"/>
-      <c r="V258" s="59"/>
-      <c r="W258" s="59"/>
+      <c r="A258" s="75"/>
+      <c r="B258" s="75"/>
+      <c r="C258" s="75"/>
+      <c r="D258" s="75"/>
+      <c r="E258" s="75"/>
+      <c r="F258" s="75"/>
+      <c r="G258" s="75"/>
+      <c r="H258" s="75"/>
+      <c r="I258" s="75"/>
+      <c r="J258" s="75"/>
+      <c r="K258" s="75"/>
+      <c r="L258" s="75"/>
+      <c r="M258" s="75"/>
+      <c r="N258" s="75"/>
+      <c r="O258" s="75"/>
+      <c r="P258" s="75"/>
+      <c r="Q258" s="75"/>
+      <c r="R258" s="75"/>
+      <c r="S258" s="75"/>
+      <c r="T258" s="75"/>
+      <c r="U258" s="75"/>
+      <c r="V258" s="75"/>
+      <c r="W258" s="75"/>
     </row>
     <row r="259" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A259" s="59"/>
-      <c r="B259" s="59"/>
-      <c r="C259" s="59"/>
-      <c r="D259" s="59"/>
-      <c r="E259" s="59"/>
-      <c r="F259" s="59"/>
-      <c r="G259" s="59"/>
-      <c r="H259" s="59"/>
-      <c r="I259" s="59"/>
-      <c r="J259" s="59"/>
-      <c r="K259" s="59"/>
-      <c r="L259" s="59"/>
-      <c r="M259" s="59"/>
-      <c r="N259" s="59"/>
-      <c r="O259" s="59"/>
-      <c r="P259" s="59"/>
-      <c r="Q259" s="59"/>
-      <c r="R259" s="59"/>
-      <c r="S259" s="59"/>
-      <c r="T259" s="59"/>
-      <c r="U259" s="59"/>
-      <c r="V259" s="59"/>
-      <c r="W259" s="59"/>
+      <c r="A259" s="75"/>
+      <c r="B259" s="75"/>
+      <c r="C259" s="75"/>
+      <c r="D259" s="75"/>
+      <c r="E259" s="75"/>
+      <c r="F259" s="75"/>
+      <c r="G259" s="75"/>
+      <c r="H259" s="75"/>
+      <c r="I259" s="75"/>
+      <c r="J259" s="75"/>
+      <c r="K259" s="75"/>
+      <c r="L259" s="75"/>
+      <c r="M259" s="75"/>
+      <c r="N259" s="75"/>
+      <c r="O259" s="75"/>
+      <c r="P259" s="75"/>
+      <c r="Q259" s="75"/>
+      <c r="R259" s="75"/>
+      <c r="S259" s="75"/>
+      <c r="T259" s="75"/>
+      <c r="U259" s="75"/>
+      <c r="V259" s="75"/>
+      <c r="W259" s="75"/>
     </row>
     <row r="260" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A260" s="69" t="s">
+      <c r="A260" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="B260" s="70"/>
-      <c r="C260" s="70"/>
-      <c r="D260" s="70"/>
-      <c r="E260" s="70"/>
-      <c r="F260" s="70"/>
-      <c r="G260" s="70"/>
-      <c r="H260" s="70"/>
-      <c r="I260" s="70"/>
-      <c r="J260" s="70"/>
-      <c r="K260" s="70"/>
-      <c r="L260" s="70"/>
-      <c r="M260" s="70"/>
-      <c r="N260" s="70"/>
-      <c r="O260" s="70"/>
-      <c r="P260" s="70"/>
-      <c r="Q260" s="70"/>
-      <c r="R260" s="71"/>
+      <c r="B260" s="77"/>
+      <c r="C260" s="77"/>
+      <c r="D260" s="77"/>
+      <c r="E260" s="77"/>
+      <c r="F260" s="77"/>
+      <c r="G260" s="77"/>
+      <c r="H260" s="77"/>
+      <c r="I260" s="77"/>
+      <c r="J260" s="77"/>
+      <c r="K260" s="77"/>
+      <c r="L260" s="77"/>
+      <c r="M260" s="77"/>
+      <c r="N260" s="77"/>
+      <c r="O260" s="77"/>
+      <c r="P260" s="77"/>
+      <c r="Q260" s="77"/>
+      <c r="R260" s="78"/>
       <c r="S260" s="38"/>
       <c r="T260" s="38"/>
       <c r="U260" s="38"/>
@@ -10536,17 +10536,17 @@
       <c r="B262" s="46" t="s">
         <v>105</v>
       </c>
-      <c r="C262" s="73" t="s">
+      <c r="C262" s="72" t="s">
         <v>108</v>
       </c>
-      <c r="D262" s="73"/>
-      <c r="E262" s="73"/>
-      <c r="F262" s="73"/>
-      <c r="G262" s="73"/>
-      <c r="H262" s="73"/>
-      <c r="I262" s="73"/>
-      <c r="J262" s="73"/>
-      <c r="K262" s="73"/>
+      <c r="D262" s="72"/>
+      <c r="E262" s="72"/>
+      <c r="F262" s="72"/>
+      <c r="G262" s="72"/>
+      <c r="H262" s="72"/>
+      <c r="I262" s="72"/>
+      <c r="J262" s="72"/>
+      <c r="K262" s="72"/>
       <c r="L262" s="5" t="s">
         <v>2</v>
       </c>
@@ -10586,17 +10586,17 @@
       <c r="B263" s="44">
         <v>44683</v>
       </c>
-      <c r="C263" s="83" t="s">
+      <c r="C263" s="54" t="s">
         <v>43</v>
       </c>
-      <c r="D263" s="84"/>
-      <c r="E263" s="84"/>
-      <c r="F263" s="84"/>
-      <c r="G263" s="84"/>
-      <c r="H263" s="84"/>
-      <c r="I263" s="84"/>
-      <c r="J263" s="84"/>
-      <c r="K263" s="85"/>
+      <c r="D263" s="55"/>
+      <c r="E263" s="55"/>
+      <c r="F263" s="55"/>
+      <c r="G263" s="55"/>
+      <c r="H263" s="55"/>
+      <c r="I263" s="55"/>
+      <c r="J263" s="55"/>
+      <c r="K263" s="56"/>
       <c r="L263" s="6">
         <v>17</v>
       </c>
@@ -10624,17 +10624,17 @@
       <c r="B264" s="41">
         <v>44684</v>
       </c>
-      <c r="C264" s="87" t="s">
+      <c r="C264" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="D264" s="88"/>
-      <c r="E264" s="88"/>
-      <c r="F264" s="88"/>
-      <c r="G264" s="88"/>
-      <c r="H264" s="88"/>
-      <c r="I264" s="88"/>
-      <c r="J264" s="88"/>
-      <c r="K264" s="89"/>
+      <c r="D264" s="58"/>
+      <c r="E264" s="58"/>
+      <c r="F264" s="58"/>
+      <c r="G264" s="58"/>
+      <c r="H264" s="58"/>
+      <c r="I264" s="58"/>
+      <c r="J264" s="58"/>
+      <c r="K264" s="59"/>
       <c r="L264" s="6">
         <v>17</v>
       </c>
@@ -10662,17 +10662,17 @@
       <c r="B265" s="41">
         <v>44686</v>
       </c>
-      <c r="C265" s="83" t="s">
+      <c r="C265" s="54" t="s">
         <v>39</v>
       </c>
-      <c r="D265" s="84"/>
-      <c r="E265" s="84"/>
-      <c r="F265" s="84"/>
-      <c r="G265" s="84"/>
-      <c r="H265" s="84"/>
-      <c r="I265" s="84"/>
-      <c r="J265" s="84"/>
-      <c r="K265" s="85"/>
+      <c r="D265" s="55"/>
+      <c r="E265" s="55"/>
+      <c r="F265" s="55"/>
+      <c r="G265" s="55"/>
+      <c r="H265" s="55"/>
+      <c r="I265" s="55"/>
+      <c r="J265" s="55"/>
+      <c r="K265" s="56"/>
       <c r="L265" s="6">
         <v>17</v>
       </c>
@@ -10700,17 +10700,17 @@
       <c r="B266" s="41">
         <v>44688</v>
       </c>
-      <c r="C266" s="83" t="s">
+      <c r="C266" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="D266" s="84"/>
-      <c r="E266" s="84"/>
-      <c r="F266" s="84"/>
-      <c r="G266" s="84"/>
-      <c r="H266" s="84"/>
-      <c r="I266" s="84"/>
-      <c r="J266" s="84"/>
-      <c r="K266" s="85"/>
+      <c r="D266" s="55"/>
+      <c r="E266" s="55"/>
+      <c r="F266" s="55"/>
+      <c r="G266" s="55"/>
+      <c r="H266" s="55"/>
+      <c r="I266" s="55"/>
+      <c r="J266" s="55"/>
+      <c r="K266" s="56"/>
       <c r="L266" s="6">
         <v>17</v>
       </c>
@@ -10738,17 +10738,17 @@
       <c r="B267" s="41">
         <v>44696</v>
       </c>
-      <c r="C267" s="87" t="s">
+      <c r="C267" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="D267" s="88"/>
-      <c r="E267" s="88"/>
-      <c r="F267" s="88"/>
-      <c r="G267" s="88"/>
-      <c r="H267" s="88"/>
-      <c r="I267" s="88"/>
-      <c r="J267" s="88"/>
-      <c r="K267" s="89"/>
+      <c r="D267" s="58"/>
+      <c r="E267" s="58"/>
+      <c r="F267" s="58"/>
+      <c r="G267" s="58"/>
+      <c r="H267" s="58"/>
+      <c r="I267" s="58"/>
+      <c r="J267" s="58"/>
+      <c r="K267" s="59"/>
       <c r="L267" s="6">
         <v>17</v>
       </c>
@@ -10776,17 +10776,17 @@
       <c r="B268" s="41">
         <v>44700</v>
       </c>
-      <c r="C268" s="83" t="s">
+      <c r="C268" s="54" t="s">
         <v>33</v>
       </c>
-      <c r="D268" s="84"/>
-      <c r="E268" s="84"/>
-      <c r="F268" s="84"/>
-      <c r="G268" s="84"/>
-      <c r="H268" s="84"/>
-      <c r="I268" s="84"/>
-      <c r="J268" s="84"/>
-      <c r="K268" s="85"/>
+      <c r="D268" s="55"/>
+      <c r="E268" s="55"/>
+      <c r="F268" s="55"/>
+      <c r="G268" s="55"/>
+      <c r="H268" s="55"/>
+      <c r="I268" s="55"/>
+      <c r="J268" s="55"/>
+      <c r="K268" s="56"/>
       <c r="L268" s="6">
         <v>17</v>
       </c>
@@ -10814,17 +10814,17 @@
       <c r="B269" s="41">
         <v>44703</v>
       </c>
-      <c r="C269" s="87" t="s">
+      <c r="C269" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="D269" s="88"/>
-      <c r="E269" s="88"/>
-      <c r="F269" s="88"/>
-      <c r="G269" s="88"/>
-      <c r="H269" s="88"/>
-      <c r="I269" s="88"/>
-      <c r="J269" s="88"/>
-      <c r="K269" s="89"/>
+      <c r="D269" s="58"/>
+      <c r="E269" s="58"/>
+      <c r="F269" s="58"/>
+      <c r="G269" s="58"/>
+      <c r="H269" s="58"/>
+      <c r="I269" s="58"/>
+      <c r="J269" s="58"/>
+      <c r="K269" s="59"/>
       <c r="L269" s="6">
         <v>17</v>
       </c>
@@ -10852,17 +10852,17 @@
       <c r="B270" s="41">
         <v>44707</v>
       </c>
-      <c r="C270" s="87" t="s">
+      <c r="C270" s="57" t="s">
         <v>44</v>
       </c>
-      <c r="D270" s="88"/>
-      <c r="E270" s="88"/>
-      <c r="F270" s="88"/>
-      <c r="G270" s="88"/>
-      <c r="H270" s="88"/>
-      <c r="I270" s="88"/>
-      <c r="J270" s="88"/>
-      <c r="K270" s="89"/>
+      <c r="D270" s="58"/>
+      <c r="E270" s="58"/>
+      <c r="F270" s="58"/>
+      <c r="G270" s="58"/>
+      <c r="H270" s="58"/>
+      <c r="I270" s="58"/>
+      <c r="J270" s="58"/>
+      <c r="K270" s="59"/>
       <c r="L270" s="6">
         <v>17</v>
       </c>
@@ -10887,17 +10887,17 @@
       <c r="B271" s="41">
         <v>44712</v>
       </c>
-      <c r="C271" s="83" t="s">
+      <c r="C271" s="54" t="s">
         <v>34</v>
       </c>
-      <c r="D271" s="84"/>
-      <c r="E271" s="84"/>
-      <c r="F271" s="84"/>
-      <c r="G271" s="84"/>
-      <c r="H271" s="84"/>
-      <c r="I271" s="84"/>
-      <c r="J271" s="84"/>
-      <c r="K271" s="85"/>
+      <c r="D271" s="55"/>
+      <c r="E271" s="55"/>
+      <c r="F271" s="55"/>
+      <c r="G271" s="55"/>
+      <c r="H271" s="55"/>
+      <c r="I271" s="55"/>
+      <c r="J271" s="55"/>
+      <c r="K271" s="56"/>
       <c r="L271" s="6">
         <v>17</v>
       </c>
@@ -10922,17 +10922,17 @@
       <c r="B272" s="41">
         <v>44717</v>
       </c>
-      <c r="C272" s="87" t="s">
+      <c r="C272" s="57" t="s">
         <v>35</v>
       </c>
-      <c r="D272" s="88"/>
-      <c r="E272" s="88"/>
-      <c r="F272" s="88"/>
-      <c r="G272" s="88"/>
-      <c r="H272" s="88"/>
-      <c r="I272" s="88"/>
-      <c r="J272" s="88"/>
-      <c r="K272" s="89"/>
+      <c r="D272" s="58"/>
+      <c r="E272" s="58"/>
+      <c r="F272" s="58"/>
+      <c r="G272" s="58"/>
+      <c r="H272" s="58"/>
+      <c r="I272" s="58"/>
+      <c r="J272" s="58"/>
+      <c r="K272" s="59"/>
       <c r="L272" s="6">
         <v>17</v>
       </c>
@@ -10960,17 +10960,17 @@
       <c r="B273" s="41">
         <v>44722</v>
       </c>
-      <c r="C273" s="83" t="s">
+      <c r="C273" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="D273" s="84"/>
-      <c r="E273" s="84"/>
-      <c r="F273" s="84"/>
-      <c r="G273" s="84"/>
-      <c r="H273" s="84"/>
-      <c r="I273" s="84"/>
-      <c r="J273" s="84"/>
-      <c r="K273" s="85"/>
+      <c r="D273" s="55"/>
+      <c r="E273" s="55"/>
+      <c r="F273" s="55"/>
+      <c r="G273" s="55"/>
+      <c r="H273" s="55"/>
+      <c r="I273" s="55"/>
+      <c r="J273" s="55"/>
+      <c r="K273" s="56"/>
       <c r="L273" s="6">
         <v>17</v>
       </c>
@@ -10995,17 +10995,17 @@
       <c r="B274" s="41">
         <v>44727</v>
       </c>
-      <c r="C274" s="83" t="s">
+      <c r="C274" s="54" t="s">
         <v>37</v>
       </c>
-      <c r="D274" s="84"/>
-      <c r="E274" s="84"/>
-      <c r="F274" s="84"/>
-      <c r="G274" s="84"/>
-      <c r="H274" s="84"/>
-      <c r="I274" s="84"/>
-      <c r="J274" s="84"/>
-      <c r="K274" s="85"/>
+      <c r="D274" s="55"/>
+      <c r="E274" s="55"/>
+      <c r="F274" s="55"/>
+      <c r="G274" s="55"/>
+      <c r="H274" s="55"/>
+      <c r="I274" s="55"/>
+      <c r="J274" s="55"/>
+      <c r="K274" s="56"/>
       <c r="L274" s="6">
         <v>17</v>
       </c>
@@ -11030,17 +11030,17 @@
       <c r="B275" s="41" t="s">
         <v>109</v>
       </c>
-      <c r="C275" s="83" t="s">
+      <c r="C275" s="54" t="s">
         <v>45</v>
       </c>
-      <c r="D275" s="84"/>
-      <c r="E275" s="84"/>
-      <c r="F275" s="84"/>
-      <c r="G275" s="84"/>
-      <c r="H275" s="84"/>
-      <c r="I275" s="84"/>
-      <c r="J275" s="84"/>
-      <c r="K275" s="85"/>
+      <c r="D275" s="55"/>
+      <c r="E275" s="55"/>
+      <c r="F275" s="55"/>
+      <c r="G275" s="55"/>
+      <c r="H275" s="55"/>
+      <c r="I275" s="55"/>
+      <c r="J275" s="55"/>
+      <c r="K275" s="56"/>
       <c r="L275" s="6">
         <v>17</v>
       </c>
@@ -11068,17 +11068,17 @@
       <c r="B276" s="41" t="s">
         <v>110</v>
       </c>
-      <c r="C276" s="83" t="s">
+      <c r="C276" s="54" t="s">
         <v>46</v>
       </c>
-      <c r="D276" s="84"/>
-      <c r="E276" s="84"/>
-      <c r="F276" s="84"/>
-      <c r="G276" s="84"/>
-      <c r="H276" s="84"/>
-      <c r="I276" s="84"/>
-      <c r="J276" s="84"/>
-      <c r="K276" s="85"/>
+      <c r="D276" s="55"/>
+      <c r="E276" s="55"/>
+      <c r="F276" s="55"/>
+      <c r="G276" s="55"/>
+      <c r="H276" s="55"/>
+      <c r="I276" s="55"/>
+      <c r="J276" s="55"/>
+      <c r="K276" s="56"/>
       <c r="L276" s="6">
         <v>17</v>
       </c>
@@ -11106,17 +11106,17 @@
       <c r="B277" s="41">
         <v>44736</v>
       </c>
-      <c r="C277" s="87" t="s">
+      <c r="C277" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="D277" s="88"/>
-      <c r="E277" s="88"/>
-      <c r="F277" s="88"/>
-      <c r="G277" s="88"/>
-      <c r="H277" s="88"/>
-      <c r="I277" s="88"/>
-      <c r="J277" s="88"/>
-      <c r="K277" s="89"/>
+      <c r="D277" s="58"/>
+      <c r="E277" s="58"/>
+      <c r="F277" s="58"/>
+      <c r="G277" s="58"/>
+      <c r="H277" s="58"/>
+      <c r="I277" s="58"/>
+      <c r="J277" s="58"/>
+      <c r="K277" s="59"/>
       <c r="L277" s="6">
         <v>17</v>
       </c>
@@ -11144,17 +11144,17 @@
       <c r="B278" s="41">
         <v>44740</v>
       </c>
-      <c r="C278" s="83" t="s">
+      <c r="C278" s="54" t="s">
         <v>38</v>
       </c>
-      <c r="D278" s="84"/>
-      <c r="E278" s="84"/>
-      <c r="F278" s="84"/>
-      <c r="G278" s="84"/>
-      <c r="H278" s="84"/>
-      <c r="I278" s="84"/>
-      <c r="J278" s="84"/>
-      <c r="K278" s="85"/>
+      <c r="D278" s="55"/>
+      <c r="E278" s="55"/>
+      <c r="F278" s="55"/>
+      <c r="G278" s="55"/>
+      <c r="H278" s="55"/>
+      <c r="I278" s="55"/>
+      <c r="J278" s="55"/>
+      <c r="K278" s="56"/>
       <c r="L278" s="6">
         <v>17</v>
       </c>
@@ -11182,17 +11182,17 @@
       <c r="B279" s="41">
         <v>44745</v>
       </c>
-      <c r="C279" s="87" t="s">
+      <c r="C279" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="D279" s="88"/>
-      <c r="E279" s="88"/>
-      <c r="F279" s="88"/>
-      <c r="G279" s="88"/>
-      <c r="H279" s="88"/>
-      <c r="I279" s="88"/>
-      <c r="J279" s="88"/>
-      <c r="K279" s="89"/>
+      <c r="D279" s="58"/>
+      <c r="E279" s="58"/>
+      <c r="F279" s="58"/>
+      <c r="G279" s="58"/>
+      <c r="H279" s="58"/>
+      <c r="I279" s="58"/>
+      <c r="J279" s="58"/>
+      <c r="K279" s="59"/>
       <c r="L279" s="6">
         <v>17</v>
       </c>
@@ -11220,17 +11220,17 @@
       <c r="B280" s="41">
         <v>44750</v>
       </c>
-      <c r="C280" s="83" t="s">
+      <c r="C280" s="54" t="s">
         <v>48</v>
       </c>
-      <c r="D280" s="84"/>
-      <c r="E280" s="84"/>
-      <c r="F280" s="84"/>
-      <c r="G280" s="84"/>
-      <c r="H280" s="84"/>
-      <c r="I280" s="84"/>
-      <c r="J280" s="84"/>
-      <c r="K280" s="85"/>
+      <c r="D280" s="55"/>
+      <c r="E280" s="55"/>
+      <c r="F280" s="55"/>
+      <c r="G280" s="55"/>
+      <c r="H280" s="55"/>
+      <c r="I280" s="55"/>
+      <c r="J280" s="55"/>
+      <c r="K280" s="56"/>
       <c r="L280" s="6">
         <v>17</v>
       </c>
@@ -11255,17 +11255,17 @@
       <c r="B281" s="41">
         <v>44752</v>
       </c>
-      <c r="C281" s="88" t="s">
+      <c r="C281" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="D281" s="88"/>
-      <c r="E281" s="88"/>
-      <c r="F281" s="88"/>
-      <c r="G281" s="88"/>
-      <c r="H281" s="88"/>
-      <c r="I281" s="88"/>
-      <c r="J281" s="88"/>
-      <c r="K281" s="89"/>
+      <c r="D281" s="58"/>
+      <c r="E281" s="58"/>
+      <c r="F281" s="58"/>
+      <c r="G281" s="58"/>
+      <c r="H281" s="58"/>
+      <c r="I281" s="58"/>
+      <c r="J281" s="58"/>
+      <c r="K281" s="59"/>
       <c r="L281" s="6">
         <v>17</v>
       </c>
@@ -11293,17 +11293,17 @@
       <c r="B282" s="41">
         <v>44754</v>
       </c>
-      <c r="C282" s="84" t="s">
+      <c r="C282" s="55" t="s">
         <v>49</v>
       </c>
-      <c r="D282" s="84"/>
-      <c r="E282" s="84"/>
-      <c r="F282" s="84"/>
-      <c r="G282" s="84"/>
-      <c r="H282" s="84"/>
-      <c r="I282" s="84"/>
-      <c r="J282" s="84"/>
-      <c r="K282" s="85"/>
+      <c r="D282" s="55"/>
+      <c r="E282" s="55"/>
+      <c r="F282" s="55"/>
+      <c r="G282" s="55"/>
+      <c r="H282" s="55"/>
+      <c r="I282" s="55"/>
+      <c r="J282" s="55"/>
+      <c r="K282" s="56"/>
       <c r="L282" s="6">
         <v>17</v>
       </c>
@@ -11328,17 +11328,17 @@
       <c r="B283" s="41">
         <v>44757</v>
       </c>
-      <c r="C283" s="87" t="s">
+      <c r="C283" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="D283" s="88"/>
-      <c r="E283" s="88"/>
-      <c r="F283" s="88"/>
-      <c r="G283" s="88"/>
-      <c r="H283" s="88"/>
-      <c r="I283" s="88"/>
-      <c r="J283" s="88"/>
-      <c r="K283" s="89"/>
+      <c r="D283" s="58"/>
+      <c r="E283" s="58"/>
+      <c r="F283" s="58"/>
+      <c r="G283" s="58"/>
+      <c r="H283" s="58"/>
+      <c r="I283" s="58"/>
+      <c r="J283" s="58"/>
+      <c r="K283" s="59"/>
       <c r="L283" s="6">
         <v>17</v>
       </c>
@@ -11366,17 +11366,17 @@
       <c r="B284" s="41">
         <v>44760</v>
       </c>
-      <c r="C284" s="87" t="s">
+      <c r="C284" s="57" t="s">
         <v>47</v>
       </c>
-      <c r="D284" s="88"/>
-      <c r="E284" s="88"/>
-      <c r="F284" s="88"/>
-      <c r="G284" s="88"/>
-      <c r="H284" s="88"/>
-      <c r="I284" s="88"/>
-      <c r="J284" s="88"/>
-      <c r="K284" s="89"/>
+      <c r="D284" s="58"/>
+      <c r="E284" s="58"/>
+      <c r="F284" s="58"/>
+      <c r="G284" s="58"/>
+      <c r="H284" s="58"/>
+      <c r="I284" s="58"/>
+      <c r="J284" s="58"/>
+      <c r="K284" s="59"/>
       <c r="L284" s="6">
         <v>17</v>
       </c>
@@ -11402,17 +11402,17 @@
         <v>23</v>
       </c>
       <c r="B285" s="41"/>
-      <c r="C285" s="83" t="s">
+      <c r="C285" s="54" t="s">
         <v>41</v>
       </c>
-      <c r="D285" s="84"/>
-      <c r="E285" s="84"/>
-      <c r="F285" s="84"/>
-      <c r="G285" s="84"/>
-      <c r="H285" s="84"/>
-      <c r="I285" s="84"/>
-      <c r="J285" s="84"/>
-      <c r="K285" s="85"/>
+      <c r="D285" s="55"/>
+      <c r="E285" s="55"/>
+      <c r="F285" s="55"/>
+      <c r="G285" s="55"/>
+      <c r="H285" s="55"/>
+      <c r="I285" s="55"/>
+      <c r="J285" s="55"/>
+      <c r="K285" s="56"/>
       <c r="L285" s="6">
         <v>17</v>
       </c>
@@ -11435,17 +11435,17 @@
         <v>24</v>
       </c>
       <c r="B286" s="41"/>
-      <c r="C286" s="83" t="s">
+      <c r="C286" s="54" t="s">
         <v>42</v>
       </c>
-      <c r="D286" s="84"/>
-      <c r="E286" s="84"/>
-      <c r="F286" s="84"/>
-      <c r="G286" s="84"/>
-      <c r="H286" s="84"/>
-      <c r="I286" s="84"/>
-      <c r="J286" s="84"/>
-      <c r="K286" s="85"/>
+      <c r="D286" s="55"/>
+      <c r="E286" s="55"/>
+      <c r="F286" s="55"/>
+      <c r="G286" s="55"/>
+      <c r="H286" s="55"/>
+      <c r="I286" s="55"/>
+      <c r="J286" s="55"/>
+      <c r="K286" s="56"/>
       <c r="L286" s="6">
         <v>17</v>
       </c>
@@ -11468,20 +11468,20 @@
         <v>25</v>
       </c>
       <c r="B287" s="47"/>
-      <c r="C287" s="60" t="s">
+      <c r="C287" s="66" t="s">
         <v>58</v>
       </c>
-      <c r="D287" s="61"/>
-      <c r="E287" s="61"/>
-      <c r="F287" s="61"/>
-      <c r="G287" s="61"/>
-      <c r="H287" s="61"/>
-      <c r="I287" s="61"/>
-      <c r="J287" s="61"/>
-      <c r="K287" s="61"/>
-      <c r="L287" s="61"/>
-      <c r="M287" s="61"/>
-      <c r="N287" s="62"/>
+      <c r="D287" s="67"/>
+      <c r="E287" s="67"/>
+      <c r="F287" s="67"/>
+      <c r="G287" s="67"/>
+      <c r="H287" s="67"/>
+      <c r="I287" s="67"/>
+      <c r="J287" s="67"/>
+      <c r="K287" s="67"/>
+      <c r="L287" s="67"/>
+      <c r="M287" s="67"/>
+      <c r="N287" s="68"/>
       <c r="O287" s="11"/>
       <c r="P287" s="12" t="e">
         <f>AVERAGE(P263:P286)</f>
@@ -11504,26 +11504,26 @@
       <c r="B288" s="41"/>
     </row>
     <row r="289" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A289" s="76" t="s">
+      <c r="A289" s="82" t="s">
         <v>13</v>
       </c>
-      <c r="B289" s="77"/>
-      <c r="C289" s="77"/>
-      <c r="D289" s="77"/>
-      <c r="E289" s="77"/>
-      <c r="F289" s="77"/>
-      <c r="G289" s="77"/>
-      <c r="H289" s="77"/>
-      <c r="I289" s="77"/>
-      <c r="J289" s="77"/>
-      <c r="K289" s="77"/>
-      <c r="L289" s="77"/>
-      <c r="M289" s="77"/>
-      <c r="N289" s="77"/>
-      <c r="O289" s="77"/>
-      <c r="P289" s="77"/>
-      <c r="Q289" s="77"/>
-      <c r="R289" s="78"/>
+      <c r="B289" s="83"/>
+      <c r="C289" s="83"/>
+      <c r="D289" s="83"/>
+      <c r="E289" s="83"/>
+      <c r="F289" s="83"/>
+      <c r="G289" s="83"/>
+      <c r="H289" s="83"/>
+      <c r="I289" s="83"/>
+      <c r="J289" s="83"/>
+      <c r="K289" s="83"/>
+      <c r="L289" s="83"/>
+      <c r="M289" s="83"/>
+      <c r="N289" s="83"/>
+      <c r="O289" s="83"/>
+      <c r="P289" s="83"/>
+      <c r="Q289" s="83"/>
+      <c r="R289" s="84"/>
       <c r="S289" s="15"/>
       <c r="T289" s="15"/>
       <c r="U289" s="15"/>
@@ -11533,17 +11533,17 @@
         <v>1</v>
       </c>
       <c r="B291" s="5"/>
-      <c r="C291" s="73" t="s">
+      <c r="C291" s="72" t="s">
         <v>56</v>
       </c>
-      <c r="D291" s="73"/>
-      <c r="E291" s="73"/>
-      <c r="F291" s="73"/>
-      <c r="G291" s="73"/>
-      <c r="H291" s="73"/>
-      <c r="I291" s="73"/>
-      <c r="J291" s="73"/>
-      <c r="K291" s="73"/>
+      <c r="D291" s="72"/>
+      <c r="E291" s="72"/>
+      <c r="F291" s="72"/>
+      <c r="G291" s="72"/>
+      <c r="H291" s="72"/>
+      <c r="I291" s="72"/>
+      <c r="J291" s="72"/>
+      <c r="K291" s="72"/>
       <c r="L291" s="5" t="s">
         <v>2</v>
       </c>
@@ -11580,17 +11580,17 @@
         <v>1</v>
       </c>
       <c r="B292" s="1"/>
-      <c r="C292" s="74" t="s">
+      <c r="C292" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="D292" s="74"/>
-      <c r="E292" s="74"/>
-      <c r="F292" s="74"/>
-      <c r="G292" s="74"/>
-      <c r="H292" s="74"/>
-      <c r="I292" s="74"/>
-      <c r="J292" s="74"/>
-      <c r="K292" s="74"/>
+      <c r="D292" s="73"/>
+      <c r="E292" s="73"/>
+      <c r="F292" s="73"/>
+      <c r="G292" s="73"/>
+      <c r="H292" s="73"/>
+      <c r="I292" s="73"/>
+      <c r="J292" s="73"/>
+      <c r="K292" s="73"/>
       <c r="L292" s="6">
         <v>33</v>
       </c>
@@ -11613,17 +11613,17 @@
         <v>2</v>
       </c>
       <c r="B293" s="1"/>
-      <c r="C293" s="66" t="s">
+      <c r="C293" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="D293" s="67"/>
-      <c r="E293" s="67"/>
-      <c r="F293" s="67"/>
-      <c r="G293" s="67"/>
-      <c r="H293" s="67"/>
-      <c r="I293" s="67"/>
-      <c r="J293" s="67"/>
-      <c r="K293" s="67"/>
+      <c r="D293" s="65"/>
+      <c r="E293" s="65"/>
+      <c r="F293" s="65"/>
+      <c r="G293" s="65"/>
+      <c r="H293" s="65"/>
+      <c r="I293" s="65"/>
+      <c r="J293" s="65"/>
+      <c r="K293" s="65"/>
       <c r="L293" s="6">
         <v>33</v>
       </c>
@@ -11646,17 +11646,17 @@
         <v>3</v>
       </c>
       <c r="B294" s="1"/>
-      <c r="C294" s="66" t="s">
+      <c r="C294" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="D294" s="67"/>
-      <c r="E294" s="67"/>
-      <c r="F294" s="67"/>
-      <c r="G294" s="67"/>
-      <c r="H294" s="67"/>
-      <c r="I294" s="67"/>
-      <c r="J294" s="67"/>
-      <c r="K294" s="67"/>
+      <c r="D294" s="65"/>
+      <c r="E294" s="65"/>
+      <c r="F294" s="65"/>
+      <c r="G294" s="65"/>
+      <c r="H294" s="65"/>
+      <c r="I294" s="65"/>
+      <c r="J294" s="65"/>
+      <c r="K294" s="65"/>
       <c r="L294" s="6">
         <v>33</v>
       </c>
@@ -11679,17 +11679,17 @@
         <v>4</v>
       </c>
       <c r="B295" s="1"/>
-      <c r="C295" s="67" t="s">
+      <c r="C295" s="65" t="s">
         <v>18</v>
       </c>
-      <c r="D295" s="67"/>
-      <c r="E295" s="67"/>
-      <c r="F295" s="67"/>
-      <c r="G295" s="67"/>
-      <c r="H295" s="67"/>
-      <c r="I295" s="67"/>
-      <c r="J295" s="67"/>
-      <c r="K295" s="67"/>
+      <c r="D295" s="65"/>
+      <c r="E295" s="65"/>
+      <c r="F295" s="65"/>
+      <c r="G295" s="65"/>
+      <c r="H295" s="65"/>
+      <c r="I295" s="65"/>
+      <c r="J295" s="65"/>
+      <c r="K295" s="65"/>
       <c r="L295" s="6">
         <v>33</v>
       </c>
@@ -11712,17 +11712,17 @@
         <v>5</v>
       </c>
       <c r="B296" s="1"/>
-      <c r="C296" s="66" t="s">
+      <c r="C296" s="64" t="s">
         <v>61</v>
       </c>
-      <c r="D296" s="67"/>
-      <c r="E296" s="67"/>
-      <c r="F296" s="67"/>
-      <c r="G296" s="67"/>
-      <c r="H296" s="67"/>
-      <c r="I296" s="67"/>
-      <c r="J296" s="67"/>
-      <c r="K296" s="67"/>
+      <c r="D296" s="65"/>
+      <c r="E296" s="65"/>
+      <c r="F296" s="65"/>
+      <c r="G296" s="65"/>
+      <c r="H296" s="65"/>
+      <c r="I296" s="65"/>
+      <c r="J296" s="65"/>
+      <c r="K296" s="65"/>
       <c r="L296" s="6">
         <v>33</v>
       </c>
@@ -11745,17 +11745,17 @@
         <v>6</v>
       </c>
       <c r="B297" s="1"/>
-      <c r="C297" s="66" t="s">
+      <c r="C297" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="D297" s="67"/>
-      <c r="E297" s="67"/>
-      <c r="F297" s="67"/>
-      <c r="G297" s="67"/>
-      <c r="H297" s="67"/>
-      <c r="I297" s="67"/>
-      <c r="J297" s="67"/>
-      <c r="K297" s="67"/>
+      <c r="D297" s="65"/>
+      <c r="E297" s="65"/>
+      <c r="F297" s="65"/>
+      <c r="G297" s="65"/>
+      <c r="H297" s="65"/>
+      <c r="I297" s="65"/>
+      <c r="J297" s="65"/>
+      <c r="K297" s="65"/>
       <c r="L297" s="6">
         <v>33</v>
       </c>
@@ -11778,17 +11778,17 @@
         <v>7</v>
       </c>
       <c r="B298" s="1"/>
-      <c r="C298" s="67" t="s">
+      <c r="C298" s="65" t="s">
         <v>20</v>
       </c>
-      <c r="D298" s="67"/>
-      <c r="E298" s="67"/>
-      <c r="F298" s="67"/>
-      <c r="G298" s="67"/>
-      <c r="H298" s="67"/>
-      <c r="I298" s="67"/>
-      <c r="J298" s="67"/>
-      <c r="K298" s="67"/>
+      <c r="D298" s="65"/>
+      <c r="E298" s="65"/>
+      <c r="F298" s="65"/>
+      <c r="G298" s="65"/>
+      <c r="H298" s="65"/>
+      <c r="I298" s="65"/>
+      <c r="J298" s="65"/>
+      <c r="K298" s="65"/>
       <c r="L298" s="6">
         <v>33</v>
       </c>
@@ -11811,17 +11811,17 @@
         <v>8</v>
       </c>
       <c r="B299" s="1"/>
-      <c r="C299" s="66" t="s">
+      <c r="C299" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="D299" s="67"/>
-      <c r="E299" s="67"/>
-      <c r="F299" s="67"/>
-      <c r="G299" s="67"/>
-      <c r="H299" s="67"/>
-      <c r="I299" s="67"/>
-      <c r="J299" s="67"/>
-      <c r="K299" s="67"/>
+      <c r="D299" s="65"/>
+      <c r="E299" s="65"/>
+      <c r="F299" s="65"/>
+      <c r="G299" s="65"/>
+      <c r="H299" s="65"/>
+      <c r="I299" s="65"/>
+      <c r="J299" s="65"/>
+      <c r="K299" s="65"/>
       <c r="L299" s="6">
         <v>33</v>
       </c>
@@ -11844,17 +11844,17 @@
         <v>9</v>
       </c>
       <c r="B300" s="1"/>
-      <c r="C300" s="66" t="s">
+      <c r="C300" s="64" t="s">
         <v>62</v>
       </c>
-      <c r="D300" s="67"/>
-      <c r="E300" s="67"/>
-      <c r="F300" s="67"/>
-      <c r="G300" s="67"/>
-      <c r="H300" s="67"/>
-      <c r="I300" s="67"/>
-      <c r="J300" s="67"/>
-      <c r="K300" s="67"/>
+      <c r="D300" s="65"/>
+      <c r="E300" s="65"/>
+      <c r="F300" s="65"/>
+      <c r="G300" s="65"/>
+      <c r="H300" s="65"/>
+      <c r="I300" s="65"/>
+      <c r="J300" s="65"/>
+      <c r="K300" s="65"/>
       <c r="L300" s="6">
         <v>33</v>
       </c>
@@ -11877,17 +11877,17 @@
         <v>10</v>
       </c>
       <c r="B301" s="1"/>
-      <c r="C301" s="66" t="s">
+      <c r="C301" s="64" t="s">
         <v>22</v>
       </c>
-      <c r="D301" s="67"/>
-      <c r="E301" s="67"/>
-      <c r="F301" s="67"/>
-      <c r="G301" s="67"/>
-      <c r="H301" s="67"/>
-      <c r="I301" s="67"/>
-      <c r="J301" s="67"/>
-      <c r="K301" s="67"/>
+      <c r="D301" s="65"/>
+      <c r="E301" s="65"/>
+      <c r="F301" s="65"/>
+      <c r="G301" s="65"/>
+      <c r="H301" s="65"/>
+      <c r="I301" s="65"/>
+      <c r="J301" s="65"/>
+      <c r="K301" s="65"/>
       <c r="L301" s="6">
         <v>33</v>
       </c>
@@ -11910,17 +11910,17 @@
         <v>11</v>
       </c>
       <c r="B302" s="1"/>
-      <c r="C302" s="66" t="s">
+      <c r="C302" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="D302" s="67"/>
-      <c r="E302" s="67"/>
-      <c r="F302" s="67"/>
-      <c r="G302" s="67"/>
-      <c r="H302" s="67"/>
-      <c r="I302" s="67"/>
-      <c r="J302" s="67"/>
-      <c r="K302" s="67"/>
+      <c r="D302" s="65"/>
+      <c r="E302" s="65"/>
+      <c r="F302" s="65"/>
+      <c r="G302" s="65"/>
+      <c r="H302" s="65"/>
+      <c r="I302" s="65"/>
+      <c r="J302" s="65"/>
+      <c r="K302" s="65"/>
       <c r="L302" s="6">
         <v>33</v>
       </c>
@@ -11943,17 +11943,17 @@
         <v>12</v>
       </c>
       <c r="B303" s="1"/>
-      <c r="C303" s="66" t="s">
+      <c r="C303" s="64" t="s">
         <v>63</v>
       </c>
-      <c r="D303" s="67"/>
-      <c r="E303" s="67"/>
-      <c r="F303" s="67"/>
-      <c r="G303" s="67"/>
-      <c r="H303" s="67"/>
-      <c r="I303" s="67"/>
-      <c r="J303" s="67"/>
-      <c r="K303" s="67"/>
+      <c r="D303" s="65"/>
+      <c r="E303" s="65"/>
+      <c r="F303" s="65"/>
+      <c r="G303" s="65"/>
+      <c r="H303" s="65"/>
+      <c r="I303" s="65"/>
+      <c r="J303" s="65"/>
+      <c r="K303" s="65"/>
       <c r="L303" s="6">
         <v>33</v>
       </c>
@@ -11976,20 +11976,20 @@
         <v>13</v>
       </c>
       <c r="B304" s="1"/>
-      <c r="C304" s="60" t="s">
+      <c r="C304" s="66" t="s">
         <v>58</v>
       </c>
-      <c r="D304" s="61"/>
-      <c r="E304" s="61"/>
-      <c r="F304" s="61"/>
-      <c r="G304" s="61"/>
-      <c r="H304" s="61"/>
-      <c r="I304" s="61"/>
-      <c r="J304" s="61"/>
-      <c r="K304" s="61"/>
-      <c r="L304" s="61"/>
-      <c r="M304" s="61"/>
-      <c r="N304" s="62"/>
+      <c r="D304" s="67"/>
+      <c r="E304" s="67"/>
+      <c r="F304" s="67"/>
+      <c r="G304" s="67"/>
+      <c r="H304" s="67"/>
+      <c r="I304" s="67"/>
+      <c r="J304" s="67"/>
+      <c r="K304" s="67"/>
+      <c r="L304" s="67"/>
+      <c r="M304" s="67"/>
+      <c r="N304" s="68"/>
       <c r="O304" s="11"/>
       <c r="P304" s="12"/>
       <c r="Q304" s="13"/>
@@ -12003,26 +12003,26 @@
       <c r="B305" s="1"/>
     </row>
     <row r="306" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A306" s="63" t="s">
+      <c r="A306" s="69" t="s">
         <v>24</v>
       </c>
-      <c r="B306" s="64"/>
-      <c r="C306" s="64"/>
-      <c r="D306" s="64"/>
-      <c r="E306" s="64"/>
-      <c r="F306" s="64"/>
-      <c r="G306" s="64"/>
-      <c r="H306" s="64"/>
-      <c r="I306" s="64"/>
-      <c r="J306" s="64"/>
-      <c r="K306" s="64"/>
-      <c r="L306" s="64"/>
-      <c r="M306" s="64"/>
-      <c r="N306" s="64"/>
-      <c r="O306" s="64"/>
-      <c r="P306" s="64"/>
-      <c r="Q306" s="64"/>
-      <c r="R306" s="65"/>
+      <c r="B306" s="70"/>
+      <c r="C306" s="70"/>
+      <c r="D306" s="70"/>
+      <c r="E306" s="70"/>
+      <c r="F306" s="70"/>
+      <c r="G306" s="70"/>
+      <c r="H306" s="70"/>
+      <c r="I306" s="70"/>
+      <c r="J306" s="70"/>
+      <c r="K306" s="70"/>
+      <c r="L306" s="70"/>
+      <c r="M306" s="70"/>
+      <c r="N306" s="70"/>
+      <c r="O306" s="70"/>
+      <c r="P306" s="70"/>
+      <c r="Q306" s="70"/>
+      <c r="R306" s="71"/>
       <c r="S306" s="3"/>
       <c r="T306" s="3"/>
       <c r="U306" s="3"/>
@@ -12032,17 +12032,17 @@
         <v>1</v>
       </c>
       <c r="B308" s="5"/>
-      <c r="C308" s="73" t="s">
+      <c r="C308" s="72" t="s">
         <v>56</v>
       </c>
-      <c r="D308" s="73"/>
-      <c r="E308" s="73"/>
-      <c r="F308" s="73"/>
-      <c r="G308" s="73"/>
-      <c r="H308" s="73"/>
-      <c r="I308" s="73"/>
-      <c r="J308" s="73"/>
-      <c r="K308" s="73"/>
+      <c r="D308" s="72"/>
+      <c r="E308" s="72"/>
+      <c r="F308" s="72"/>
+      <c r="G308" s="72"/>
+      <c r="H308" s="72"/>
+      <c r="I308" s="72"/>
+      <c r="J308" s="72"/>
+      <c r="K308" s="72"/>
       <c r="L308" s="5" t="s">
         <v>2</v>
       </c>
@@ -12079,17 +12079,17 @@
         <v>1</v>
       </c>
       <c r="B309" s="1"/>
-      <c r="C309" s="74" t="s">
+      <c r="C309" s="73" t="s">
         <v>65</v>
       </c>
-      <c r="D309" s="74"/>
-      <c r="E309" s="74"/>
-      <c r="F309" s="74"/>
-      <c r="G309" s="74"/>
-      <c r="H309" s="74"/>
-      <c r="I309" s="74"/>
-      <c r="J309" s="74"/>
-      <c r="K309" s="74"/>
+      <c r="D309" s="73"/>
+      <c r="E309" s="73"/>
+      <c r="F309" s="73"/>
+      <c r="G309" s="73"/>
+      <c r="H309" s="73"/>
+      <c r="I309" s="73"/>
+      <c r="J309" s="73"/>
+      <c r="K309" s="73"/>
       <c r="L309" s="6">
         <v>33</v>
       </c>
@@ -12112,17 +12112,17 @@
         <v>2</v>
       </c>
       <c r="B310" s="1"/>
-      <c r="C310" s="66" t="s">
+      <c r="C310" s="64" t="s">
         <v>66</v>
       </c>
-      <c r="D310" s="67"/>
-      <c r="E310" s="67"/>
-      <c r="F310" s="67"/>
-      <c r="G310" s="67"/>
-      <c r="H310" s="67"/>
-      <c r="I310" s="67"/>
-      <c r="J310" s="67"/>
-      <c r="K310" s="67"/>
+      <c r="D310" s="65"/>
+      <c r="E310" s="65"/>
+      <c r="F310" s="65"/>
+      <c r="G310" s="65"/>
+      <c r="H310" s="65"/>
+      <c r="I310" s="65"/>
+      <c r="J310" s="65"/>
+      <c r="K310" s="65"/>
       <c r="L310" s="6">
         <v>33</v>
       </c>
@@ -12145,17 +12145,17 @@
         <v>3</v>
       </c>
       <c r="B311" s="1"/>
-      <c r="C311" s="66" t="s">
+      <c r="C311" s="64" t="s">
         <v>25</v>
       </c>
-      <c r="D311" s="67"/>
-      <c r="E311" s="67"/>
-      <c r="F311" s="67"/>
-      <c r="G311" s="67"/>
-      <c r="H311" s="67"/>
-      <c r="I311" s="67"/>
-      <c r="J311" s="67"/>
-      <c r="K311" s="67"/>
+      <c r="D311" s="65"/>
+      <c r="E311" s="65"/>
+      <c r="F311" s="65"/>
+      <c r="G311" s="65"/>
+      <c r="H311" s="65"/>
+      <c r="I311" s="65"/>
+      <c r="J311" s="65"/>
+      <c r="K311" s="65"/>
       <c r="L311" s="6">
         <v>33</v>
       </c>
@@ -12178,17 +12178,17 @@
         <v>4</v>
       </c>
       <c r="B312" s="1"/>
-      <c r="C312" s="67" t="s">
+      <c r="C312" s="65" t="s">
         <v>26</v>
       </c>
-      <c r="D312" s="67"/>
-      <c r="E312" s="67"/>
-      <c r="F312" s="67"/>
-      <c r="G312" s="67"/>
-      <c r="H312" s="67"/>
-      <c r="I312" s="67"/>
-      <c r="J312" s="67"/>
-      <c r="K312" s="67"/>
+      <c r="D312" s="65"/>
+      <c r="E312" s="65"/>
+      <c r="F312" s="65"/>
+      <c r="G312" s="65"/>
+      <c r="H312" s="65"/>
+      <c r="I312" s="65"/>
+      <c r="J312" s="65"/>
+      <c r="K312" s="65"/>
       <c r="L312" s="6">
         <v>33</v>
       </c>
@@ -12211,17 +12211,17 @@
         <v>5</v>
       </c>
       <c r="B313" s="1"/>
-      <c r="C313" s="66" t="s">
+      <c r="C313" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="D313" s="67"/>
-      <c r="E313" s="67"/>
-      <c r="F313" s="67"/>
-      <c r="G313" s="67"/>
-      <c r="H313" s="67"/>
-      <c r="I313" s="67"/>
-      <c r="J313" s="67"/>
-      <c r="K313" s="67"/>
+      <c r="D313" s="65"/>
+      <c r="E313" s="65"/>
+      <c r="F313" s="65"/>
+      <c r="G313" s="65"/>
+      <c r="H313" s="65"/>
+      <c r="I313" s="65"/>
+      <c r="J313" s="65"/>
+      <c r="K313" s="65"/>
       <c r="L313" s="6">
         <v>33</v>
       </c>
@@ -12244,17 +12244,17 @@
         <v>6</v>
       </c>
       <c r="B314" s="1"/>
-      <c r="C314" s="66" t="s">
+      <c r="C314" s="64" t="s">
         <v>67</v>
       </c>
-      <c r="D314" s="67"/>
-      <c r="E314" s="67"/>
-      <c r="F314" s="67"/>
-      <c r="G314" s="67"/>
-      <c r="H314" s="67"/>
-      <c r="I314" s="67"/>
-      <c r="J314" s="67"/>
-      <c r="K314" s="67"/>
+      <c r="D314" s="65"/>
+      <c r="E314" s="65"/>
+      <c r="F314" s="65"/>
+      <c r="G314" s="65"/>
+      <c r="H314" s="65"/>
+      <c r="I314" s="65"/>
+      <c r="J314" s="65"/>
+      <c r="K314" s="65"/>
       <c r="L314" s="6">
         <v>33</v>
       </c>
@@ -12277,20 +12277,20 @@
         <v>7</v>
       </c>
       <c r="B315" s="1"/>
-      <c r="C315" s="60" t="s">
+      <c r="C315" s="66" t="s">
         <v>58</v>
       </c>
-      <c r="D315" s="61"/>
-      <c r="E315" s="61"/>
-      <c r="F315" s="61"/>
-      <c r="G315" s="61"/>
-      <c r="H315" s="61"/>
-      <c r="I315" s="61"/>
-      <c r="J315" s="61"/>
-      <c r="K315" s="61"/>
-      <c r="L315" s="61"/>
-      <c r="M315" s="61"/>
-      <c r="N315" s="62"/>
+      <c r="D315" s="67"/>
+      <c r="E315" s="67"/>
+      <c r="F315" s="67"/>
+      <c r="G315" s="67"/>
+      <c r="H315" s="67"/>
+      <c r="I315" s="67"/>
+      <c r="J315" s="67"/>
+      <c r="K315" s="67"/>
+      <c r="L315" s="67"/>
+      <c r="M315" s="67"/>
+      <c r="N315" s="68"/>
       <c r="O315" s="11"/>
       <c r="P315" s="12" t="e">
         <f>AVERAGE(P309:P314)</f>
@@ -12310,25 +12310,25 @@
       <c r="B316" s="1"/>
     </row>
     <row r="317" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A317" s="72" t="s">
+      <c r="A317" s="81" t="s">
         <v>28</v>
       </c>
-      <c r="B317" s="72"/>
-      <c r="C317" s="72"/>
-      <c r="D317" s="72"/>
-      <c r="E317" s="72"/>
-      <c r="F317" s="72"/>
-      <c r="G317" s="72"/>
-      <c r="H317" s="72"/>
-      <c r="I317" s="72"/>
-      <c r="J317" s="72"/>
-      <c r="K317" s="72"/>
-      <c r="L317" s="72"/>
-      <c r="M317" s="72"/>
-      <c r="N317" s="72"/>
-      <c r="O317" s="72"/>
-      <c r="P317" s="72"/>
-      <c r="Q317" s="72"/>
+      <c r="B317" s="81"/>
+      <c r="C317" s="81"/>
+      <c r="D317" s="81"/>
+      <c r="E317" s="81"/>
+      <c r="F317" s="81"/>
+      <c r="G317" s="81"/>
+      <c r="H317" s="81"/>
+      <c r="I317" s="81"/>
+      <c r="J317" s="81"/>
+      <c r="K317" s="81"/>
+      <c r="L317" s="81"/>
+      <c r="M317" s="81"/>
+      <c r="N317" s="81"/>
+      <c r="O317" s="81"/>
+      <c r="P317" s="81"/>
+      <c r="Q317" s="81"/>
       <c r="R317"/>
     </row>
     <row r="318" spans="1:21" x14ac:dyDescent="0.3">
@@ -12336,10 +12336,10 @@
         <v>1</v>
       </c>
       <c r="B318" s="16"/>
-      <c r="C318" s="68" t="s">
+      <c r="C318" s="80" t="s">
         <v>68</v>
       </c>
-      <c r="D318" s="68"/>
+      <c r="D318" s="80"/>
       <c r="E318" s="17" t="s">
         <v>69</v>
       </c>
@@ -12386,10 +12386,10 @@
         <v>1</v>
       </c>
       <c r="B319" s="14"/>
-      <c r="C319" s="57" t="s">
+      <c r="C319" s="63" t="s">
         <v>84</v>
       </c>
-      <c r="D319" s="57"/>
+      <c r="D319" s="63"/>
       <c r="E319" s="25"/>
       <c r="F319" s="26"/>
       <c r="G319" s="27"/>
@@ -12410,10 +12410,10 @@
         <v>2</v>
       </c>
       <c r="B320" s="14"/>
-      <c r="C320" s="57" t="s">
+      <c r="C320" s="63" t="s">
         <v>85</v>
       </c>
-      <c r="D320" s="57"/>
+      <c r="D320" s="63"/>
       <c r="E320" s="25"/>
       <c r="F320" s="26"/>
       <c r="G320" s="27"/>
@@ -12434,10 +12434,10 @@
         <v>3</v>
       </c>
       <c r="B321" s="14"/>
-      <c r="C321" s="57" t="s">
+      <c r="C321" s="63" t="s">
         <v>86</v>
       </c>
-      <c r="D321" s="57"/>
+      <c r="D321" s="63"/>
       <c r="E321" s="25"/>
       <c r="F321" s="26"/>
       <c r="G321" s="27"/>
@@ -12458,10 +12458,10 @@
         <v>4</v>
       </c>
       <c r="B322" s="14"/>
-      <c r="C322" s="57" t="s">
+      <c r="C322" s="63" t="s">
         <v>87</v>
       </c>
-      <c r="D322" s="57"/>
+      <c r="D322" s="63"/>
       <c r="E322" s="25"/>
       <c r="F322" s="26"/>
       <c r="G322" s="27"/>
@@ -12482,10 +12482,10 @@
         <v>5</v>
       </c>
       <c r="B323" s="14"/>
-      <c r="C323" s="57" t="s">
+      <c r="C323" s="63" t="s">
         <v>90</v>
       </c>
-      <c r="D323" s="57"/>
+      <c r="D323" s="63"/>
       <c r="E323" s="25"/>
       <c r="F323" s="26"/>
       <c r="G323" s="27"/>
@@ -12506,10 +12506,10 @@
         <v>6</v>
       </c>
       <c r="B324" s="14"/>
-      <c r="C324" s="57" t="s">
+      <c r="C324" s="63" t="s">
         <v>91</v>
       </c>
-      <c r="D324" s="57"/>
+      <c r="D324" s="63"/>
       <c r="E324" s="25"/>
       <c r="F324" s="26"/>
       <c r="G324" s="27"/>
@@ -12530,10 +12530,10 @@
         <v>7</v>
       </c>
       <c r="B325" s="14"/>
-      <c r="C325" s="57" t="s">
+      <c r="C325" s="63" t="s">
         <v>92</v>
       </c>
-      <c r="D325" s="57"/>
+      <c r="D325" s="63"/>
       <c r="E325" s="25"/>
       <c r="F325" s="26"/>
       <c r="G325" s="27"/>
@@ -12554,10 +12554,10 @@
         <v>8</v>
       </c>
       <c r="B326" s="14"/>
-      <c r="C326" s="57" t="s">
+      <c r="C326" s="63" t="s">
         <v>93</v>
       </c>
-      <c r="D326" s="57"/>
+      <c r="D326" s="63"/>
       <c r="E326" s="25"/>
       <c r="F326" s="26"/>
       <c r="G326" s="27"/>
@@ -12576,10 +12576,10 @@
     <row r="327" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A327" s="14"/>
       <c r="B327" s="14"/>
-      <c r="C327" s="58" t="s">
+      <c r="C327" s="74" t="s">
         <v>98</v>
       </c>
-      <c r="D327" s="58"/>
+      <c r="D327" s="74"/>
       <c r="E327" s="25" t="e">
         <f t="shared" ref="E327:O327" si="25">AVERAGE(E319:E326)</f>
         <v>#DIV/0!</v>
@@ -12635,25 +12635,25 @@
       <c r="R329"/>
     </row>
     <row r="330" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A330" s="75" t="s">
+      <c r="A330" s="79" t="s">
         <v>99</v>
       </c>
-      <c r="B330" s="75"/>
-      <c r="C330" s="75"/>
-      <c r="D330" s="75"/>
-      <c r="E330" s="75"/>
-      <c r="F330" s="75"/>
-      <c r="G330" s="75"/>
-      <c r="H330" s="75"/>
-      <c r="I330" s="75"/>
-      <c r="J330" s="75"/>
-      <c r="K330" s="75"/>
-      <c r="L330" s="75"/>
-      <c r="M330" s="75"/>
-      <c r="N330" s="75"/>
-      <c r="O330" s="75"/>
-      <c r="P330" s="75"/>
-      <c r="Q330" s="75"/>
+      <c r="B330" s="79"/>
+      <c r="C330" s="79"/>
+      <c r="D330" s="79"/>
+      <c r="E330" s="79"/>
+      <c r="F330" s="79"/>
+      <c r="G330" s="79"/>
+      <c r="H330" s="79"/>
+      <c r="I330" s="79"/>
+      <c r="J330" s="79"/>
+      <c r="K330" s="79"/>
+      <c r="L330" s="79"/>
+      <c r="M330" s="79"/>
+      <c r="N330" s="79"/>
+      <c r="O330" s="79"/>
+      <c r="P330" s="79"/>
+      <c r="Q330" s="79"/>
       <c r="R330"/>
     </row>
     <row r="331" spans="1:18" x14ac:dyDescent="0.3">
@@ -12661,10 +12661,10 @@
         <v>1</v>
       </c>
       <c r="B331" s="16"/>
-      <c r="C331" s="68" t="s">
+      <c r="C331" s="80" t="s">
         <v>68</v>
       </c>
-      <c r="D331" s="68"/>
+      <c r="D331" s="80"/>
       <c r="E331" s="17" t="s">
         <v>69</v>
       </c>
@@ -12711,10 +12711,10 @@
         <v>1</v>
       </c>
       <c r="B332" s="14"/>
-      <c r="C332" s="57" t="s">
+      <c r="C332" s="63" t="s">
         <v>94</v>
       </c>
-      <c r="D332" s="57"/>
+      <c r="D332" s="63"/>
       <c r="E332" s="25"/>
       <c r="F332" s="26"/>
       <c r="G332" s="27"/>
@@ -12735,10 +12735,10 @@
         <v>2</v>
       </c>
       <c r="B333" s="14"/>
-      <c r="C333" s="57" t="s">
+      <c r="C333" s="63" t="s">
         <v>95</v>
       </c>
-      <c r="D333" s="57"/>
+      <c r="D333" s="63"/>
       <c r="E333" s="25"/>
       <c r="F333" s="26"/>
       <c r="G333" s="27"/>
@@ -12759,10 +12759,10 @@
         <v>3</v>
       </c>
       <c r="B334" s="14"/>
-      <c r="C334" s="57" t="s">
+      <c r="C334" s="63" t="s">
         <v>96</v>
       </c>
-      <c r="D334" s="57"/>
+      <c r="D334" s="63"/>
       <c r="E334" s="25"/>
       <c r="F334" s="26"/>
       <c r="G334" s="27"/>
@@ -12782,10 +12782,10 @@
         <v>4</v>
       </c>
       <c r="B335" s="14"/>
-      <c r="C335" s="57" t="s">
+      <c r="C335" s="63" t="s">
         <v>97</v>
       </c>
-      <c r="D335" s="57"/>
+      <c r="D335" s="63"/>
       <c r="E335" s="25"/>
       <c r="F335" s="26"/>
       <c r="G335" s="27"/>
@@ -12801,10 +12801,10 @@
       <c r="Q335" s="29"/>
     </row>
     <row r="336" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="C336" s="58" t="s">
+      <c r="C336" s="74" t="s">
         <v>98</v>
       </c>
-      <c r="D336" s="58"/>
+      <c r="D336" s="74"/>
       <c r="E336" s="25"/>
       <c r="F336" s="26"/>
       <c r="G336" s="27"/>
@@ -12821,6 +12821,265 @@
     </row>
   </sheetData>
   <mergeCells count="283">
+    <mergeCell ref="C233:D233"/>
+    <mergeCell ref="A1:V1"/>
+    <mergeCell ref="C163:D163"/>
+    <mergeCell ref="C164:D164"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="A84:W86"/>
+    <mergeCell ref="C132:N132"/>
+    <mergeCell ref="A134:R134"/>
+    <mergeCell ref="C139:K139"/>
+    <mergeCell ref="C140:K140"/>
+    <mergeCell ref="C141:K141"/>
+    <mergeCell ref="C142:K142"/>
+    <mergeCell ref="C159:D159"/>
+    <mergeCell ref="C160:D160"/>
+    <mergeCell ref="C161:D161"/>
+    <mergeCell ref="C162:D162"/>
+    <mergeCell ref="A87:R87"/>
+    <mergeCell ref="C110:K110"/>
+    <mergeCell ref="C111:K111"/>
+    <mergeCell ref="C112:K112"/>
+    <mergeCell ref="C113:K113"/>
+    <mergeCell ref="A145:Q145"/>
+    <mergeCell ref="C138:K138"/>
+    <mergeCell ref="C143:N143"/>
+    <mergeCell ref="C128:K128"/>
+    <mergeCell ref="C129:K129"/>
+    <mergeCell ref="C130:K130"/>
+    <mergeCell ref="C131:K131"/>
+    <mergeCell ref="C122:K122"/>
+    <mergeCell ref="C123:K123"/>
+    <mergeCell ref="C124:K124"/>
+    <mergeCell ref="C125:K125"/>
+    <mergeCell ref="C126:K126"/>
+    <mergeCell ref="C127:K127"/>
+    <mergeCell ref="C136:K136"/>
+    <mergeCell ref="C137:K137"/>
+    <mergeCell ref="C151:D151"/>
+    <mergeCell ref="C155:D155"/>
+    <mergeCell ref="C152:D152"/>
+    <mergeCell ref="C153:D153"/>
+    <mergeCell ref="C154:D154"/>
+    <mergeCell ref="A158:Q158"/>
+    <mergeCell ref="C146:D146"/>
+    <mergeCell ref="C147:D147"/>
+    <mergeCell ref="C148:D148"/>
+    <mergeCell ref="C149:D149"/>
+    <mergeCell ref="C150:D150"/>
+    <mergeCell ref="C119:K119"/>
+    <mergeCell ref="C120:K120"/>
+    <mergeCell ref="C121:K121"/>
+    <mergeCell ref="A117:R117"/>
+    <mergeCell ref="C103:K103"/>
+    <mergeCell ref="C104:K104"/>
+    <mergeCell ref="C105:K105"/>
+    <mergeCell ref="C106:K106"/>
+    <mergeCell ref="C107:K107"/>
+    <mergeCell ref="C108:K108"/>
+    <mergeCell ref="C109:K109"/>
+    <mergeCell ref="C114:N114"/>
+    <mergeCell ref="C89:K89"/>
+    <mergeCell ref="C90:K90"/>
+    <mergeCell ref="C97:K97"/>
+    <mergeCell ref="C98:K98"/>
+    <mergeCell ref="C99:K99"/>
+    <mergeCell ref="C100:K100"/>
+    <mergeCell ref="C101:K101"/>
+    <mergeCell ref="C102:K102"/>
+    <mergeCell ref="C91:K91"/>
+    <mergeCell ref="C92:K92"/>
+    <mergeCell ref="C93:K93"/>
+    <mergeCell ref="C94:K94"/>
+    <mergeCell ref="C95:K95"/>
+    <mergeCell ref="C96:K96"/>
+    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="A60:Q60"/>
+    <mergeCell ref="A73:Q73"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="C39:K39"/>
+    <mergeCell ref="C40:K40"/>
+    <mergeCell ref="C41:K41"/>
+    <mergeCell ref="C25:K25"/>
+    <mergeCell ref="C26:K26"/>
+    <mergeCell ref="C27:K27"/>
+    <mergeCell ref="C28:K28"/>
+    <mergeCell ref="C58:N58"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="C56:K56"/>
+    <mergeCell ref="C57:K57"/>
+    <mergeCell ref="C29:N29"/>
+    <mergeCell ref="C54:K54"/>
+    <mergeCell ref="C55:K55"/>
+    <mergeCell ref="C51:K51"/>
+    <mergeCell ref="C52:K52"/>
+    <mergeCell ref="C53:K53"/>
+    <mergeCell ref="C42:K42"/>
+    <mergeCell ref="C43:K43"/>
+    <mergeCell ref="C47:N47"/>
+    <mergeCell ref="A49:R49"/>
+    <mergeCell ref="C44:K44"/>
+    <mergeCell ref="C45:K45"/>
+    <mergeCell ref="C46:K46"/>
+    <mergeCell ref="C21:K21"/>
+    <mergeCell ref="C22:K22"/>
+    <mergeCell ref="A32:R32"/>
+    <mergeCell ref="A2:R2"/>
+    <mergeCell ref="C34:K34"/>
+    <mergeCell ref="C35:K35"/>
+    <mergeCell ref="C36:K36"/>
+    <mergeCell ref="C37:K37"/>
+    <mergeCell ref="C38:K38"/>
+    <mergeCell ref="C180:K180"/>
+    <mergeCell ref="C181:K181"/>
+    <mergeCell ref="C182:K182"/>
+    <mergeCell ref="A170:W172"/>
+    <mergeCell ref="A173:R173"/>
+    <mergeCell ref="C4:K4"/>
+    <mergeCell ref="C5:K5"/>
+    <mergeCell ref="C6:K6"/>
+    <mergeCell ref="C23:K23"/>
+    <mergeCell ref="C24:K24"/>
+    <mergeCell ref="C13:K13"/>
+    <mergeCell ref="C14:K14"/>
+    <mergeCell ref="C15:K15"/>
+    <mergeCell ref="C16:K16"/>
+    <mergeCell ref="C17:K17"/>
+    <mergeCell ref="C18:K18"/>
+    <mergeCell ref="C7:K7"/>
+    <mergeCell ref="C8:K8"/>
+    <mergeCell ref="C9:K9"/>
+    <mergeCell ref="C10:K10"/>
+    <mergeCell ref="C11:K11"/>
+    <mergeCell ref="C12:K12"/>
+    <mergeCell ref="C19:K19"/>
+    <mergeCell ref="C20:K20"/>
+    <mergeCell ref="C183:K183"/>
+    <mergeCell ref="C186:K186"/>
+    <mergeCell ref="C187:K187"/>
+    <mergeCell ref="C184:K184"/>
+    <mergeCell ref="C185:K185"/>
+    <mergeCell ref="C196:K196"/>
+    <mergeCell ref="C197:K197"/>
+    <mergeCell ref="C198:K198"/>
+    <mergeCell ref="C199:K199"/>
+    <mergeCell ref="C188:K188"/>
+    <mergeCell ref="C189:K189"/>
+    <mergeCell ref="C190:K190"/>
+    <mergeCell ref="C191:K191"/>
+    <mergeCell ref="C192:K192"/>
+    <mergeCell ref="C193:K193"/>
+    <mergeCell ref="C200:N200"/>
+    <mergeCell ref="A203:R203"/>
+    <mergeCell ref="C205:K205"/>
+    <mergeCell ref="C206:K206"/>
+    <mergeCell ref="C207:K207"/>
+    <mergeCell ref="C208:K208"/>
+    <mergeCell ref="C209:K209"/>
+    <mergeCell ref="C210:K210"/>
+    <mergeCell ref="C211:K211"/>
+    <mergeCell ref="C212:K212"/>
+    <mergeCell ref="C213:K213"/>
+    <mergeCell ref="C214:K214"/>
+    <mergeCell ref="C215:K215"/>
+    <mergeCell ref="C216:K216"/>
+    <mergeCell ref="C217:K217"/>
+    <mergeCell ref="C218:N218"/>
+    <mergeCell ref="A220:R220"/>
+    <mergeCell ref="C222:K222"/>
+    <mergeCell ref="C223:K223"/>
+    <mergeCell ref="C224:K224"/>
+    <mergeCell ref="C225:K225"/>
+    <mergeCell ref="C226:K226"/>
+    <mergeCell ref="C227:K227"/>
+    <mergeCell ref="C228:K228"/>
+    <mergeCell ref="C229:N229"/>
+    <mergeCell ref="A231:Q231"/>
+    <mergeCell ref="C232:D232"/>
+    <mergeCell ref="C234:D234"/>
+    <mergeCell ref="C235:D235"/>
+    <mergeCell ref="C236:D236"/>
+    <mergeCell ref="C237:D237"/>
+    <mergeCell ref="C238:D238"/>
+    <mergeCell ref="C239:D239"/>
+    <mergeCell ref="C240:D240"/>
+    <mergeCell ref="C241:D241"/>
+    <mergeCell ref="C242:D242"/>
+    <mergeCell ref="C262:K262"/>
+    <mergeCell ref="C263:K263"/>
+    <mergeCell ref="C264:K264"/>
+    <mergeCell ref="C265:K265"/>
+    <mergeCell ref="C266:K266"/>
+    <mergeCell ref="C267:K267"/>
+    <mergeCell ref="C268:K268"/>
+    <mergeCell ref="C269:K269"/>
+    <mergeCell ref="A245:Q245"/>
+    <mergeCell ref="C246:D246"/>
+    <mergeCell ref="C247:D247"/>
+    <mergeCell ref="C248:D248"/>
+    <mergeCell ref="C249:D249"/>
+    <mergeCell ref="C250:D250"/>
+    <mergeCell ref="C251:D251"/>
+    <mergeCell ref="C270:K270"/>
+    <mergeCell ref="C271:K271"/>
+    <mergeCell ref="C272:K272"/>
+    <mergeCell ref="C273:K273"/>
+    <mergeCell ref="C274:K274"/>
+    <mergeCell ref="C275:K275"/>
+    <mergeCell ref="C276:K276"/>
+    <mergeCell ref="C277:K277"/>
+    <mergeCell ref="C278:K278"/>
+    <mergeCell ref="C296:K296"/>
+    <mergeCell ref="C297:K297"/>
+    <mergeCell ref="C298:K298"/>
+    <mergeCell ref="C299:K299"/>
+    <mergeCell ref="C279:K279"/>
+    <mergeCell ref="C280:K280"/>
+    <mergeCell ref="C281:K281"/>
+    <mergeCell ref="C282:K282"/>
+    <mergeCell ref="C283:K283"/>
+    <mergeCell ref="C284:K284"/>
+    <mergeCell ref="C285:K285"/>
+    <mergeCell ref="A289:R289"/>
+    <mergeCell ref="C334:D334"/>
+    <mergeCell ref="C335:D335"/>
+    <mergeCell ref="C336:D336"/>
+    <mergeCell ref="A257:W259"/>
+    <mergeCell ref="A260:R260"/>
+    <mergeCell ref="C286:K286"/>
+    <mergeCell ref="C287:N287"/>
+    <mergeCell ref="C321:D321"/>
+    <mergeCell ref="C322:D322"/>
+    <mergeCell ref="C323:D323"/>
+    <mergeCell ref="C324:D324"/>
+    <mergeCell ref="C325:D325"/>
+    <mergeCell ref="C326:D326"/>
+    <mergeCell ref="C327:D327"/>
+    <mergeCell ref="A330:Q330"/>
+    <mergeCell ref="C331:D331"/>
+    <mergeCell ref="C311:K311"/>
+    <mergeCell ref="C312:K312"/>
+    <mergeCell ref="C313:K313"/>
+    <mergeCell ref="C314:K314"/>
+    <mergeCell ref="C315:N315"/>
+    <mergeCell ref="A317:Q317"/>
+    <mergeCell ref="C318:D318"/>
+    <mergeCell ref="C319:D319"/>
     <mergeCell ref="C179:K179"/>
     <mergeCell ref="C178:K178"/>
     <mergeCell ref="C176:K176"/>
@@ -12845,265 +13104,6 @@
     <mergeCell ref="C293:K293"/>
     <mergeCell ref="C294:K294"/>
     <mergeCell ref="C295:K295"/>
-    <mergeCell ref="C334:D334"/>
-    <mergeCell ref="C335:D335"/>
-    <mergeCell ref="C336:D336"/>
-    <mergeCell ref="A257:W259"/>
-    <mergeCell ref="A260:R260"/>
-    <mergeCell ref="C286:K286"/>
-    <mergeCell ref="C287:N287"/>
-    <mergeCell ref="C321:D321"/>
-    <mergeCell ref="C322:D322"/>
-    <mergeCell ref="C323:D323"/>
-    <mergeCell ref="C324:D324"/>
-    <mergeCell ref="C325:D325"/>
-    <mergeCell ref="C326:D326"/>
-    <mergeCell ref="C327:D327"/>
-    <mergeCell ref="A330:Q330"/>
-    <mergeCell ref="C331:D331"/>
-    <mergeCell ref="C311:K311"/>
-    <mergeCell ref="C312:K312"/>
-    <mergeCell ref="C313:K313"/>
-    <mergeCell ref="C314:K314"/>
-    <mergeCell ref="C315:N315"/>
-    <mergeCell ref="A317:Q317"/>
-    <mergeCell ref="C318:D318"/>
-    <mergeCell ref="C319:D319"/>
-    <mergeCell ref="C296:K296"/>
-    <mergeCell ref="C297:K297"/>
-    <mergeCell ref="C298:K298"/>
-    <mergeCell ref="C299:K299"/>
-    <mergeCell ref="C279:K279"/>
-    <mergeCell ref="C280:K280"/>
-    <mergeCell ref="C281:K281"/>
-    <mergeCell ref="C282:K282"/>
-    <mergeCell ref="C283:K283"/>
-    <mergeCell ref="C284:K284"/>
-    <mergeCell ref="C285:K285"/>
-    <mergeCell ref="A289:R289"/>
-    <mergeCell ref="C270:K270"/>
-    <mergeCell ref="C271:K271"/>
-    <mergeCell ref="C272:K272"/>
-    <mergeCell ref="C273:K273"/>
-    <mergeCell ref="C274:K274"/>
-    <mergeCell ref="C275:K275"/>
-    <mergeCell ref="C276:K276"/>
-    <mergeCell ref="C277:K277"/>
-    <mergeCell ref="C278:K278"/>
-    <mergeCell ref="C262:K262"/>
-    <mergeCell ref="C263:K263"/>
-    <mergeCell ref="C264:K264"/>
-    <mergeCell ref="C265:K265"/>
-    <mergeCell ref="C266:K266"/>
-    <mergeCell ref="C267:K267"/>
-    <mergeCell ref="C268:K268"/>
-    <mergeCell ref="C269:K269"/>
-    <mergeCell ref="A245:Q245"/>
-    <mergeCell ref="C246:D246"/>
-    <mergeCell ref="C247:D247"/>
-    <mergeCell ref="C248:D248"/>
-    <mergeCell ref="C249:D249"/>
-    <mergeCell ref="C250:D250"/>
-    <mergeCell ref="C251:D251"/>
-    <mergeCell ref="C234:D234"/>
-    <mergeCell ref="C235:D235"/>
-    <mergeCell ref="C236:D236"/>
-    <mergeCell ref="C237:D237"/>
-    <mergeCell ref="C238:D238"/>
-    <mergeCell ref="C239:D239"/>
-    <mergeCell ref="C240:D240"/>
-    <mergeCell ref="C241:D241"/>
-    <mergeCell ref="C242:D242"/>
-    <mergeCell ref="C223:K223"/>
-    <mergeCell ref="C224:K224"/>
-    <mergeCell ref="C225:K225"/>
-    <mergeCell ref="C226:K226"/>
-    <mergeCell ref="C227:K227"/>
-    <mergeCell ref="C228:K228"/>
-    <mergeCell ref="C229:N229"/>
-    <mergeCell ref="A231:Q231"/>
-    <mergeCell ref="C232:D232"/>
-    <mergeCell ref="C212:K212"/>
-    <mergeCell ref="C213:K213"/>
-    <mergeCell ref="C214:K214"/>
-    <mergeCell ref="C215:K215"/>
-    <mergeCell ref="C216:K216"/>
-    <mergeCell ref="C217:K217"/>
-    <mergeCell ref="C218:N218"/>
-    <mergeCell ref="A220:R220"/>
-    <mergeCell ref="C222:K222"/>
-    <mergeCell ref="C200:N200"/>
-    <mergeCell ref="A203:R203"/>
-    <mergeCell ref="C205:K205"/>
-    <mergeCell ref="C206:K206"/>
-    <mergeCell ref="C207:K207"/>
-    <mergeCell ref="C208:K208"/>
-    <mergeCell ref="C209:K209"/>
-    <mergeCell ref="C210:K210"/>
-    <mergeCell ref="C211:K211"/>
-    <mergeCell ref="C183:K183"/>
-    <mergeCell ref="C186:K186"/>
-    <mergeCell ref="C187:K187"/>
-    <mergeCell ref="C184:K184"/>
-    <mergeCell ref="C185:K185"/>
-    <mergeCell ref="C196:K196"/>
-    <mergeCell ref="C197:K197"/>
-    <mergeCell ref="C198:K198"/>
-    <mergeCell ref="C199:K199"/>
-    <mergeCell ref="C188:K188"/>
-    <mergeCell ref="C189:K189"/>
-    <mergeCell ref="C190:K190"/>
-    <mergeCell ref="C191:K191"/>
-    <mergeCell ref="C192:K192"/>
-    <mergeCell ref="C193:K193"/>
-    <mergeCell ref="C180:K180"/>
-    <mergeCell ref="C181:K181"/>
-    <mergeCell ref="C182:K182"/>
-    <mergeCell ref="A170:W172"/>
-    <mergeCell ref="A173:R173"/>
-    <mergeCell ref="C4:K4"/>
-    <mergeCell ref="C5:K5"/>
-    <mergeCell ref="C6:K6"/>
-    <mergeCell ref="C23:K23"/>
-    <mergeCell ref="C24:K24"/>
-    <mergeCell ref="C13:K13"/>
-    <mergeCell ref="C14:K14"/>
-    <mergeCell ref="C15:K15"/>
-    <mergeCell ref="C16:K16"/>
-    <mergeCell ref="C17:K17"/>
-    <mergeCell ref="C18:K18"/>
-    <mergeCell ref="C7:K7"/>
-    <mergeCell ref="C8:K8"/>
-    <mergeCell ref="C9:K9"/>
-    <mergeCell ref="C10:K10"/>
-    <mergeCell ref="C11:K11"/>
-    <mergeCell ref="C12:K12"/>
-    <mergeCell ref="C19:K19"/>
-    <mergeCell ref="C20:K20"/>
-    <mergeCell ref="C21:K21"/>
-    <mergeCell ref="C22:K22"/>
-    <mergeCell ref="A32:R32"/>
-    <mergeCell ref="A2:R2"/>
-    <mergeCell ref="C34:K34"/>
-    <mergeCell ref="C35:K35"/>
-    <mergeCell ref="C36:K36"/>
-    <mergeCell ref="C37:K37"/>
-    <mergeCell ref="C38:K38"/>
-    <mergeCell ref="C39:K39"/>
-    <mergeCell ref="C40:K40"/>
-    <mergeCell ref="C41:K41"/>
-    <mergeCell ref="C25:K25"/>
-    <mergeCell ref="C26:K26"/>
-    <mergeCell ref="C27:K27"/>
-    <mergeCell ref="C28:K28"/>
-    <mergeCell ref="C58:N58"/>
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="C56:K56"/>
-    <mergeCell ref="C57:K57"/>
-    <mergeCell ref="C29:N29"/>
-    <mergeCell ref="C54:K54"/>
-    <mergeCell ref="C55:K55"/>
-    <mergeCell ref="C51:K51"/>
-    <mergeCell ref="C52:K52"/>
-    <mergeCell ref="C53:K53"/>
-    <mergeCell ref="C42:K42"/>
-    <mergeCell ref="C43:K43"/>
-    <mergeCell ref="C47:N47"/>
-    <mergeCell ref="A49:R49"/>
-    <mergeCell ref="C44:K44"/>
-    <mergeCell ref="C45:K45"/>
-    <mergeCell ref="C46:K46"/>
-    <mergeCell ref="C79:D79"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="C81:D81"/>
-    <mergeCell ref="C75:D75"/>
-    <mergeCell ref="C76:D76"/>
-    <mergeCell ref="C77:D77"/>
-    <mergeCell ref="C78:D78"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="A60:Q60"/>
-    <mergeCell ref="A73:Q73"/>
-    <mergeCell ref="C74:D74"/>
-    <mergeCell ref="C67:D67"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="C68:D68"/>
-    <mergeCell ref="C69:D69"/>
-    <mergeCell ref="C89:K89"/>
-    <mergeCell ref="C90:K90"/>
-    <mergeCell ref="C97:K97"/>
-    <mergeCell ref="C98:K98"/>
-    <mergeCell ref="C99:K99"/>
-    <mergeCell ref="C100:K100"/>
-    <mergeCell ref="C101:K101"/>
-    <mergeCell ref="C102:K102"/>
-    <mergeCell ref="C91:K91"/>
-    <mergeCell ref="C92:K92"/>
-    <mergeCell ref="C93:K93"/>
-    <mergeCell ref="C94:K94"/>
-    <mergeCell ref="C95:K95"/>
-    <mergeCell ref="C96:K96"/>
-    <mergeCell ref="C119:K119"/>
-    <mergeCell ref="C120:K120"/>
-    <mergeCell ref="C121:K121"/>
-    <mergeCell ref="A117:R117"/>
-    <mergeCell ref="C103:K103"/>
-    <mergeCell ref="C104:K104"/>
-    <mergeCell ref="C105:K105"/>
-    <mergeCell ref="C106:K106"/>
-    <mergeCell ref="C107:K107"/>
-    <mergeCell ref="C108:K108"/>
-    <mergeCell ref="C109:K109"/>
-    <mergeCell ref="C114:N114"/>
-    <mergeCell ref="C151:D151"/>
-    <mergeCell ref="C155:D155"/>
-    <mergeCell ref="C152:D152"/>
-    <mergeCell ref="C153:D153"/>
-    <mergeCell ref="C154:D154"/>
-    <mergeCell ref="A158:Q158"/>
-    <mergeCell ref="C146:D146"/>
-    <mergeCell ref="C147:D147"/>
-    <mergeCell ref="C148:D148"/>
-    <mergeCell ref="C149:D149"/>
-    <mergeCell ref="C150:D150"/>
-    <mergeCell ref="A145:Q145"/>
-    <mergeCell ref="C138:K138"/>
-    <mergeCell ref="C143:N143"/>
-    <mergeCell ref="C128:K128"/>
-    <mergeCell ref="C129:K129"/>
-    <mergeCell ref="C130:K130"/>
-    <mergeCell ref="C131:K131"/>
-    <mergeCell ref="C122:K122"/>
-    <mergeCell ref="C123:K123"/>
-    <mergeCell ref="C124:K124"/>
-    <mergeCell ref="C125:K125"/>
-    <mergeCell ref="C126:K126"/>
-    <mergeCell ref="C127:K127"/>
-    <mergeCell ref="C136:K136"/>
-    <mergeCell ref="C137:K137"/>
-    <mergeCell ref="C233:D233"/>
-    <mergeCell ref="A1:V1"/>
-    <mergeCell ref="C163:D163"/>
-    <mergeCell ref="C164:D164"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="A84:W86"/>
-    <mergeCell ref="C132:N132"/>
-    <mergeCell ref="A134:R134"/>
-    <mergeCell ref="C139:K139"/>
-    <mergeCell ref="C140:K140"/>
-    <mergeCell ref="C141:K141"/>
-    <mergeCell ref="C142:K142"/>
-    <mergeCell ref="C159:D159"/>
-    <mergeCell ref="C160:D160"/>
-    <mergeCell ref="C161:D161"/>
-    <mergeCell ref="C162:D162"/>
-    <mergeCell ref="A87:R87"/>
-    <mergeCell ref="C110:K110"/>
-    <mergeCell ref="C111:K111"/>
-    <mergeCell ref="C112:K112"/>
-    <mergeCell ref="C113:K113"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="C5:K28">
@@ -15822,103 +15822,103 @@
   </cols>
   <sheetData>
     <row r="4" spans="3:25" x14ac:dyDescent="0.3">
-      <c r="C4" s="59" t="s">
+      <c r="C4" s="75" t="s">
         <v>107</v>
       </c>
-      <c r="D4" s="59"/>
-      <c r="E4" s="59"/>
-      <c r="F4" s="59"/>
-      <c r="G4" s="59"/>
-      <c r="H4" s="59"/>
-      <c r="I4" s="59"/>
-      <c r="J4" s="59"/>
-      <c r="K4" s="59"/>
-      <c r="L4" s="59"/>
-      <c r="M4" s="59"/>
-      <c r="N4" s="59"/>
-      <c r="O4" s="59"/>
-      <c r="P4" s="59"/>
-      <c r="Q4" s="59"/>
-      <c r="R4" s="59"/>
-      <c r="S4" s="59"/>
-      <c r="T4" s="59"/>
-      <c r="U4" s="59"/>
-      <c r="V4" s="59"/>
-      <c r="W4" s="59"/>
-      <c r="X4" s="59"/>
-      <c r="Y4" s="59"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="75"/>
+      <c r="K4" s="75"/>
+      <c r="L4" s="75"/>
+      <c r="M4" s="75"/>
+      <c r="N4" s="75"/>
+      <c r="O4" s="75"/>
+      <c r="P4" s="75"/>
+      <c r="Q4" s="75"/>
+      <c r="R4" s="75"/>
+      <c r="S4" s="75"/>
+      <c r="T4" s="75"/>
+      <c r="U4" s="75"/>
+      <c r="V4" s="75"/>
+      <c r="W4" s="75"/>
+      <c r="X4" s="75"/>
+      <c r="Y4" s="75"/>
     </row>
     <row r="5" spans="3:25" x14ac:dyDescent="0.3">
-      <c r="C5" s="59"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="59"/>
-      <c r="F5" s="59"/>
-      <c r="G5" s="59"/>
-      <c r="H5" s="59"/>
-      <c r="I5" s="59"/>
-      <c r="J5" s="59"/>
-      <c r="K5" s="59"/>
-      <c r="L5" s="59"/>
-      <c r="M5" s="59"/>
-      <c r="N5" s="59"/>
-      <c r="O5" s="59"/>
-      <c r="P5" s="59"/>
-      <c r="Q5" s="59"/>
-      <c r="R5" s="59"/>
-      <c r="S5" s="59"/>
-      <c r="T5" s="59"/>
-      <c r="U5" s="59"/>
-      <c r="V5" s="59"/>
-      <c r="W5" s="59"/>
-      <c r="X5" s="59"/>
-      <c r="Y5" s="59"/>
+      <c r="C5" s="75"/>
+      <c r="D5" s="75"/>
+      <c r="E5" s="75"/>
+      <c r="F5" s="75"/>
+      <c r="G5" s="75"/>
+      <c r="H5" s="75"/>
+      <c r="I5" s="75"/>
+      <c r="J5" s="75"/>
+      <c r="K5" s="75"/>
+      <c r="L5" s="75"/>
+      <c r="M5" s="75"/>
+      <c r="N5" s="75"/>
+      <c r="O5" s="75"/>
+      <c r="P5" s="75"/>
+      <c r="Q5" s="75"/>
+      <c r="R5" s="75"/>
+      <c r="S5" s="75"/>
+      <c r="T5" s="75"/>
+      <c r="U5" s="75"/>
+      <c r="V5" s="75"/>
+      <c r="W5" s="75"/>
+      <c r="X5" s="75"/>
+      <c r="Y5" s="75"/>
     </row>
     <row r="6" spans="3:25" x14ac:dyDescent="0.3">
-      <c r="C6" s="59"/>
-      <c r="D6" s="59"/>
-      <c r="E6" s="59"/>
-      <c r="F6" s="59"/>
-      <c r="G6" s="59"/>
-      <c r="H6" s="59"/>
-      <c r="I6" s="59"/>
-      <c r="J6" s="59"/>
-      <c r="K6" s="59"/>
-      <c r="L6" s="59"/>
-      <c r="M6" s="59"/>
-      <c r="N6" s="59"/>
-      <c r="O6" s="59"/>
-      <c r="P6" s="59"/>
-      <c r="Q6" s="59"/>
-      <c r="R6" s="59"/>
-      <c r="S6" s="59"/>
-      <c r="T6" s="59"/>
-      <c r="U6" s="59"/>
-      <c r="V6" s="59"/>
-      <c r="W6" s="59"/>
-      <c r="X6" s="59"/>
-      <c r="Y6" s="59"/>
+      <c r="C6" s="75"/>
+      <c r="D6" s="75"/>
+      <c r="E6" s="75"/>
+      <c r="F6" s="75"/>
+      <c r="G6" s="75"/>
+      <c r="H6" s="75"/>
+      <c r="I6" s="75"/>
+      <c r="J6" s="75"/>
+      <c r="K6" s="75"/>
+      <c r="L6" s="75"/>
+      <c r="M6" s="75"/>
+      <c r="N6" s="75"/>
+      <c r="O6" s="75"/>
+      <c r="P6" s="75"/>
+      <c r="Q6" s="75"/>
+      <c r="R6" s="75"/>
+      <c r="S6" s="75"/>
+      <c r="T6" s="75"/>
+      <c r="U6" s="75"/>
+      <c r="V6" s="75"/>
+      <c r="W6" s="75"/>
+      <c r="X6" s="75"/>
+      <c r="Y6" s="75"/>
     </row>
     <row r="7" spans="3:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C7" s="69" t="s">
+      <c r="C7" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="D7" s="70"/>
-      <c r="E7" s="70"/>
-      <c r="F7" s="70"/>
-      <c r="G7" s="70"/>
-      <c r="H7" s="70"/>
-      <c r="I7" s="70"/>
-      <c r="J7" s="70"/>
-      <c r="K7" s="70"/>
-      <c r="L7" s="70"/>
-      <c r="M7" s="70"/>
-      <c r="N7" s="70"/>
-      <c r="O7" s="70"/>
-      <c r="P7" s="70"/>
-      <c r="Q7" s="70"/>
-      <c r="R7" s="70"/>
-      <c r="S7" s="70"/>
-      <c r="T7" s="71"/>
+      <c r="D7" s="77"/>
+      <c r="E7" s="77"/>
+      <c r="F7" s="77"/>
+      <c r="G7" s="77"/>
+      <c r="H7" s="77"/>
+      <c r="I7" s="77"/>
+      <c r="J7" s="77"/>
+      <c r="K7" s="77"/>
+      <c r="L7" s="77"/>
+      <c r="M7" s="77"/>
+      <c r="N7" s="77"/>
+      <c r="O7" s="77"/>
+      <c r="P7" s="77"/>
+      <c r="Q7" s="77"/>
+      <c r="R7" s="77"/>
+      <c r="S7" s="77"/>
+      <c r="T7" s="78"/>
       <c r="U7" s="38"/>
       <c r="V7" s="38"/>
       <c r="W7" s="38"/>
@@ -15934,17 +15934,17 @@
       <c r="D9" s="46" t="s">
         <v>105</v>
       </c>
-      <c r="E9" s="73" t="s">
+      <c r="E9" s="72" t="s">
         <v>108</v>
       </c>
-      <c r="F9" s="73"/>
-      <c r="G9" s="73"/>
-      <c r="H9" s="73"/>
-      <c r="I9" s="73"/>
-      <c r="J9" s="73"/>
-      <c r="K9" s="73"/>
-      <c r="L9" s="73"/>
-      <c r="M9" s="73"/>
+      <c r="F9" s="72"/>
+      <c r="G9" s="72"/>
+      <c r="H9" s="72"/>
+      <c r="I9" s="72"/>
+      <c r="J9" s="72"/>
+      <c r="K9" s="72"/>
+      <c r="L9" s="72"/>
+      <c r="M9" s="72"/>
       <c r="N9" s="5" t="s">
         <v>2</v>
       </c>
@@ -15984,17 +15984,17 @@
       <c r="D10" s="44">
         <v>44683</v>
       </c>
-      <c r="E10" s="83" t="s">
+      <c r="E10" s="54" t="s">
         <v>43</v>
       </c>
-      <c r="F10" s="84"/>
-      <c r="G10" s="84"/>
-      <c r="H10" s="84"/>
-      <c r="I10" s="84"/>
-      <c r="J10" s="84"/>
-      <c r="K10" s="84"/>
-      <c r="L10" s="84"/>
-      <c r="M10" s="85"/>
+      <c r="F10" s="55"/>
+      <c r="G10" s="55"/>
+      <c r="H10" s="55"/>
+      <c r="I10" s="55"/>
+      <c r="J10" s="55"/>
+      <c r="K10" s="55"/>
+      <c r="L10" s="55"/>
+      <c r="M10" s="56"/>
       <c r="N10" s="6">
         <v>17</v>
       </c>
@@ -16022,17 +16022,17 @@
       <c r="D11" s="41">
         <v>44684</v>
       </c>
-      <c r="E11" s="87" t="s">
+      <c r="E11" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="F11" s="88"/>
-      <c r="G11" s="88"/>
-      <c r="H11" s="88"/>
-      <c r="I11" s="88"/>
-      <c r="J11" s="88"/>
-      <c r="K11" s="88"/>
-      <c r="L11" s="88"/>
-      <c r="M11" s="89"/>
+      <c r="F11" s="58"/>
+      <c r="G11" s="58"/>
+      <c r="H11" s="58"/>
+      <c r="I11" s="58"/>
+      <c r="J11" s="58"/>
+      <c r="K11" s="58"/>
+      <c r="L11" s="58"/>
+      <c r="M11" s="59"/>
       <c r="N11" s="6">
         <v>17</v>
       </c>
@@ -16060,17 +16060,17 @@
       <c r="D12" s="41">
         <v>44686</v>
       </c>
-      <c r="E12" s="83" t="s">
+      <c r="E12" s="54" t="s">
         <v>39</v>
       </c>
-      <c r="F12" s="84"/>
-      <c r="G12" s="84"/>
-      <c r="H12" s="84"/>
-      <c r="I12" s="84"/>
-      <c r="J12" s="84"/>
-      <c r="K12" s="84"/>
-      <c r="L12" s="84"/>
-      <c r="M12" s="85"/>
+      <c r="F12" s="55"/>
+      <c r="G12" s="55"/>
+      <c r="H12" s="55"/>
+      <c r="I12" s="55"/>
+      <c r="J12" s="55"/>
+      <c r="K12" s="55"/>
+      <c r="L12" s="55"/>
+      <c r="M12" s="56"/>
       <c r="N12" s="6">
         <v>17</v>
       </c>
@@ -16098,17 +16098,17 @@
       <c r="D13" s="41">
         <v>44688</v>
       </c>
-      <c r="E13" s="83" t="s">
+      <c r="E13" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="F13" s="84"/>
-      <c r="G13" s="84"/>
-      <c r="H13" s="84"/>
-      <c r="I13" s="84"/>
-      <c r="J13" s="84"/>
-      <c r="K13" s="84"/>
-      <c r="L13" s="84"/>
-      <c r="M13" s="85"/>
+      <c r="F13" s="55"/>
+      <c r="G13" s="55"/>
+      <c r="H13" s="55"/>
+      <c r="I13" s="55"/>
+      <c r="J13" s="55"/>
+      <c r="K13" s="55"/>
+      <c r="L13" s="55"/>
+      <c r="M13" s="56"/>
       <c r="N13" s="6">
         <v>17</v>
       </c>
@@ -16136,17 +16136,17 @@
       <c r="D14" s="41">
         <v>44696</v>
       </c>
-      <c r="E14" s="87" t="s">
+      <c r="E14" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="F14" s="88"/>
-      <c r="G14" s="88"/>
-      <c r="H14" s="88"/>
-      <c r="I14" s="88"/>
-      <c r="J14" s="88"/>
-      <c r="K14" s="88"/>
-      <c r="L14" s="88"/>
-      <c r="M14" s="89"/>
+      <c r="F14" s="58"/>
+      <c r="G14" s="58"/>
+      <c r="H14" s="58"/>
+      <c r="I14" s="58"/>
+      <c r="J14" s="58"/>
+      <c r="K14" s="58"/>
+      <c r="L14" s="58"/>
+      <c r="M14" s="59"/>
       <c r="N14" s="6">
         <v>17</v>
       </c>
@@ -16174,17 +16174,17 @@
       <c r="D15" s="41">
         <v>44700</v>
       </c>
-      <c r="E15" s="83" t="s">
+      <c r="E15" s="54" t="s">
         <v>33</v>
       </c>
-      <c r="F15" s="84"/>
-      <c r="G15" s="84"/>
-      <c r="H15" s="84"/>
-      <c r="I15" s="84"/>
-      <c r="J15" s="84"/>
-      <c r="K15" s="84"/>
-      <c r="L15" s="84"/>
-      <c r="M15" s="85"/>
+      <c r="F15" s="55"/>
+      <c r="G15" s="55"/>
+      <c r="H15" s="55"/>
+      <c r="I15" s="55"/>
+      <c r="J15" s="55"/>
+      <c r="K15" s="55"/>
+      <c r="L15" s="55"/>
+      <c r="M15" s="56"/>
       <c r="N15" s="6">
         <v>17</v>
       </c>
@@ -16212,17 +16212,17 @@
       <c r="D16" s="41">
         <v>44703</v>
       </c>
-      <c r="E16" s="87" t="s">
+      <c r="E16" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="F16" s="88"/>
-      <c r="G16" s="88"/>
-      <c r="H16" s="88"/>
-      <c r="I16" s="88"/>
-      <c r="J16" s="88"/>
-      <c r="K16" s="88"/>
-      <c r="L16" s="88"/>
-      <c r="M16" s="89"/>
+      <c r="F16" s="58"/>
+      <c r="G16" s="58"/>
+      <c r="H16" s="58"/>
+      <c r="I16" s="58"/>
+      <c r="J16" s="58"/>
+      <c r="K16" s="58"/>
+      <c r="L16" s="58"/>
+      <c r="M16" s="59"/>
       <c r="N16" s="6">
         <v>17</v>
       </c>
@@ -16250,17 +16250,17 @@
       <c r="D17" s="41">
         <v>44707</v>
       </c>
-      <c r="E17" s="87" t="s">
+      <c r="E17" s="57" t="s">
         <v>44</v>
       </c>
-      <c r="F17" s="88"/>
-      <c r="G17" s="88"/>
-      <c r="H17" s="88"/>
-      <c r="I17" s="88"/>
-      <c r="J17" s="88"/>
-      <c r="K17" s="88"/>
-      <c r="L17" s="88"/>
-      <c r="M17" s="89"/>
+      <c r="F17" s="58"/>
+      <c r="G17" s="58"/>
+      <c r="H17" s="58"/>
+      <c r="I17" s="58"/>
+      <c r="J17" s="58"/>
+      <c r="K17" s="58"/>
+      <c r="L17" s="58"/>
+      <c r="M17" s="59"/>
       <c r="N17" s="6">
         <v>17</v>
       </c>
@@ -16285,17 +16285,17 @@
       <c r="D18" s="41">
         <v>44712</v>
       </c>
-      <c r="E18" s="83" t="s">
+      <c r="E18" s="54" t="s">
         <v>34</v>
       </c>
-      <c r="F18" s="84"/>
-      <c r="G18" s="84"/>
-      <c r="H18" s="84"/>
-      <c r="I18" s="84"/>
-      <c r="J18" s="84"/>
-      <c r="K18" s="84"/>
-      <c r="L18" s="84"/>
-      <c r="M18" s="85"/>
+      <c r="F18" s="55"/>
+      <c r="G18" s="55"/>
+      <c r="H18" s="55"/>
+      <c r="I18" s="55"/>
+      <c r="J18" s="55"/>
+      <c r="K18" s="55"/>
+      <c r="L18" s="55"/>
+      <c r="M18" s="56"/>
       <c r="N18" s="6">
         <v>17</v>
       </c>
@@ -16320,17 +16320,17 @@
       <c r="D19" s="41">
         <v>44717</v>
       </c>
-      <c r="E19" s="87" t="s">
+      <c r="E19" s="57" t="s">
         <v>35</v>
       </c>
-      <c r="F19" s="88"/>
-      <c r="G19" s="88"/>
-      <c r="H19" s="88"/>
-      <c r="I19" s="88"/>
-      <c r="J19" s="88"/>
-      <c r="K19" s="88"/>
-      <c r="L19" s="88"/>
-      <c r="M19" s="89"/>
+      <c r="F19" s="58"/>
+      <c r="G19" s="58"/>
+      <c r="H19" s="58"/>
+      <c r="I19" s="58"/>
+      <c r="J19" s="58"/>
+      <c r="K19" s="58"/>
+      <c r="L19" s="58"/>
+      <c r="M19" s="59"/>
       <c r="N19" s="6">
         <v>17</v>
       </c>
@@ -16358,17 +16358,17 @@
       <c r="D20" s="41">
         <v>44722</v>
       </c>
-      <c r="E20" s="83" t="s">
+      <c r="E20" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="F20" s="84"/>
-      <c r="G20" s="84"/>
-      <c r="H20" s="84"/>
-      <c r="I20" s="84"/>
-      <c r="J20" s="84"/>
-      <c r="K20" s="84"/>
-      <c r="L20" s="84"/>
-      <c r="M20" s="85"/>
+      <c r="F20" s="55"/>
+      <c r="G20" s="55"/>
+      <c r="H20" s="55"/>
+      <c r="I20" s="55"/>
+      <c r="J20" s="55"/>
+      <c r="K20" s="55"/>
+      <c r="L20" s="55"/>
+      <c r="M20" s="56"/>
       <c r="N20" s="6">
         <v>17</v>
       </c>
@@ -16393,17 +16393,17 @@
       <c r="D21" s="41">
         <v>44727</v>
       </c>
-      <c r="E21" s="83" t="s">
+      <c r="E21" s="54" t="s">
         <v>37</v>
       </c>
-      <c r="F21" s="84"/>
-      <c r="G21" s="84"/>
-      <c r="H21" s="84"/>
-      <c r="I21" s="84"/>
-      <c r="J21" s="84"/>
-      <c r="K21" s="84"/>
-      <c r="L21" s="84"/>
-      <c r="M21" s="85"/>
+      <c r="F21" s="55"/>
+      <c r="G21" s="55"/>
+      <c r="H21" s="55"/>
+      <c r="I21" s="55"/>
+      <c r="J21" s="55"/>
+      <c r="K21" s="55"/>
+      <c r="L21" s="55"/>
+      <c r="M21" s="56"/>
       <c r="N21" s="6">
         <v>17</v>
       </c>
@@ -16428,17 +16428,17 @@
       <c r="D22" s="41" t="s">
         <v>109</v>
       </c>
-      <c r="E22" s="83" t="s">
+      <c r="E22" s="54" t="s">
         <v>45</v>
       </c>
-      <c r="F22" s="84"/>
-      <c r="G22" s="84"/>
-      <c r="H22" s="84"/>
-      <c r="I22" s="84"/>
-      <c r="J22" s="84"/>
-      <c r="K22" s="84"/>
-      <c r="L22" s="84"/>
-      <c r="M22" s="85"/>
+      <c r="F22" s="55"/>
+      <c r="G22" s="55"/>
+      <c r="H22" s="55"/>
+      <c r="I22" s="55"/>
+      <c r="J22" s="55"/>
+      <c r="K22" s="55"/>
+      <c r="L22" s="55"/>
+      <c r="M22" s="56"/>
       <c r="N22" s="6">
         <v>17</v>
       </c>
@@ -16466,17 +16466,17 @@
       <c r="D23" s="41" t="s">
         <v>110</v>
       </c>
-      <c r="E23" s="83" t="s">
+      <c r="E23" s="54" t="s">
         <v>46</v>
       </c>
-      <c r="F23" s="84"/>
-      <c r="G23" s="84"/>
-      <c r="H23" s="84"/>
-      <c r="I23" s="84"/>
-      <c r="J23" s="84"/>
-      <c r="K23" s="84"/>
-      <c r="L23" s="84"/>
-      <c r="M23" s="85"/>
+      <c r="F23" s="55"/>
+      <c r="G23" s="55"/>
+      <c r="H23" s="55"/>
+      <c r="I23" s="55"/>
+      <c r="J23" s="55"/>
+      <c r="K23" s="55"/>
+      <c r="L23" s="55"/>
+      <c r="M23" s="56"/>
       <c r="N23" s="6">
         <v>17</v>
       </c>
@@ -16504,17 +16504,17 @@
       <c r="D24" s="41">
         <v>44736</v>
       </c>
-      <c r="E24" s="87" t="s">
+      <c r="E24" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="F24" s="88"/>
-      <c r="G24" s="88"/>
-      <c r="H24" s="88"/>
-      <c r="I24" s="88"/>
-      <c r="J24" s="88"/>
-      <c r="K24" s="88"/>
-      <c r="L24" s="88"/>
-      <c r="M24" s="89"/>
+      <c r="F24" s="58"/>
+      <c r="G24" s="58"/>
+      <c r="H24" s="58"/>
+      <c r="I24" s="58"/>
+      <c r="J24" s="58"/>
+      <c r="K24" s="58"/>
+      <c r="L24" s="58"/>
+      <c r="M24" s="59"/>
       <c r="N24" s="6">
         <v>17</v>
       </c>
@@ -16542,17 +16542,17 @@
       <c r="D25" s="41">
         <v>44740</v>
       </c>
-      <c r="E25" s="83" t="s">
+      <c r="E25" s="54" t="s">
         <v>38</v>
       </c>
-      <c r="F25" s="84"/>
-      <c r="G25" s="84"/>
-      <c r="H25" s="84"/>
-      <c r="I25" s="84"/>
-      <c r="J25" s="84"/>
-      <c r="K25" s="84"/>
-      <c r="L25" s="84"/>
-      <c r="M25" s="85"/>
+      <c r="F25" s="55"/>
+      <c r="G25" s="55"/>
+      <c r="H25" s="55"/>
+      <c r="I25" s="55"/>
+      <c r="J25" s="55"/>
+      <c r="K25" s="55"/>
+      <c r="L25" s="55"/>
+      <c r="M25" s="56"/>
       <c r="N25" s="6">
         <v>17</v>
       </c>
@@ -16580,17 +16580,17 @@
       <c r="D26" s="41">
         <v>44745</v>
       </c>
-      <c r="E26" s="87" t="s">
+      <c r="E26" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="F26" s="88"/>
-      <c r="G26" s="88"/>
-      <c r="H26" s="88"/>
-      <c r="I26" s="88"/>
-      <c r="J26" s="88"/>
-      <c r="K26" s="88"/>
-      <c r="L26" s="88"/>
-      <c r="M26" s="89"/>
+      <c r="F26" s="58"/>
+      <c r="G26" s="58"/>
+      <c r="H26" s="58"/>
+      <c r="I26" s="58"/>
+      <c r="J26" s="58"/>
+      <c r="K26" s="58"/>
+      <c r="L26" s="58"/>
+      <c r="M26" s="59"/>
       <c r="N26" s="6">
         <v>17</v>
       </c>
@@ -16618,17 +16618,17 @@
       <c r="D27" s="41">
         <v>44750</v>
       </c>
-      <c r="E27" s="83" t="s">
+      <c r="E27" s="54" t="s">
         <v>48</v>
       </c>
-      <c r="F27" s="84"/>
-      <c r="G27" s="84"/>
-      <c r="H27" s="84"/>
-      <c r="I27" s="84"/>
-      <c r="J27" s="84"/>
-      <c r="K27" s="84"/>
-      <c r="L27" s="84"/>
-      <c r="M27" s="85"/>
+      <c r="F27" s="55"/>
+      <c r="G27" s="55"/>
+      <c r="H27" s="55"/>
+      <c r="I27" s="55"/>
+      <c r="J27" s="55"/>
+      <c r="K27" s="55"/>
+      <c r="L27" s="55"/>
+      <c r="M27" s="56"/>
       <c r="N27" s="6">
         <v>17</v>
       </c>
@@ -16653,17 +16653,17 @@
       <c r="D28" s="41">
         <v>44752</v>
       </c>
-      <c r="E28" s="88" t="s">
+      <c r="E28" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="F28" s="88"/>
-      <c r="G28" s="88"/>
-      <c r="H28" s="88"/>
-      <c r="I28" s="88"/>
-      <c r="J28" s="88"/>
-      <c r="K28" s="88"/>
-      <c r="L28" s="88"/>
-      <c r="M28" s="89"/>
+      <c r="F28" s="58"/>
+      <c r="G28" s="58"/>
+      <c r="H28" s="58"/>
+      <c r="I28" s="58"/>
+      <c r="J28" s="58"/>
+      <c r="K28" s="58"/>
+      <c r="L28" s="58"/>
+      <c r="M28" s="59"/>
       <c r="N28" s="6">
         <v>17</v>
       </c>
@@ -16691,17 +16691,17 @@
       <c r="D29" s="41">
         <v>44754</v>
       </c>
-      <c r="E29" s="84" t="s">
+      <c r="E29" s="55" t="s">
         <v>49</v>
       </c>
-      <c r="F29" s="84"/>
-      <c r="G29" s="84"/>
-      <c r="H29" s="84"/>
-      <c r="I29" s="84"/>
-      <c r="J29" s="84"/>
-      <c r="K29" s="84"/>
-      <c r="L29" s="84"/>
-      <c r="M29" s="85"/>
+      <c r="F29" s="55"/>
+      <c r="G29" s="55"/>
+      <c r="H29" s="55"/>
+      <c r="I29" s="55"/>
+      <c r="J29" s="55"/>
+      <c r="K29" s="55"/>
+      <c r="L29" s="55"/>
+      <c r="M29" s="56"/>
       <c r="N29" s="6">
         <v>17</v>
       </c>
@@ -16726,17 +16726,17 @@
       <c r="D30" s="41">
         <v>44757</v>
       </c>
-      <c r="E30" s="87" t="s">
+      <c r="E30" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="F30" s="88"/>
-      <c r="G30" s="88"/>
-      <c r="H30" s="88"/>
-      <c r="I30" s="88"/>
-      <c r="J30" s="88"/>
-      <c r="K30" s="88"/>
-      <c r="L30" s="88"/>
-      <c r="M30" s="89"/>
+      <c r="F30" s="58"/>
+      <c r="G30" s="58"/>
+      <c r="H30" s="58"/>
+      <c r="I30" s="58"/>
+      <c r="J30" s="58"/>
+      <c r="K30" s="58"/>
+      <c r="L30" s="58"/>
+      <c r="M30" s="59"/>
       <c r="N30" s="6">
         <v>17</v>
       </c>
@@ -16764,17 +16764,17 @@
       <c r="D31" s="41">
         <v>44760</v>
       </c>
-      <c r="E31" s="87" t="s">
+      <c r="E31" s="57" t="s">
         <v>47</v>
       </c>
-      <c r="F31" s="88"/>
-      <c r="G31" s="88"/>
-      <c r="H31" s="88"/>
-      <c r="I31" s="88"/>
-      <c r="J31" s="88"/>
-      <c r="K31" s="88"/>
-      <c r="L31" s="88"/>
-      <c r="M31" s="89"/>
+      <c r="F31" s="58"/>
+      <c r="G31" s="58"/>
+      <c r="H31" s="58"/>
+      <c r="I31" s="58"/>
+      <c r="J31" s="58"/>
+      <c r="K31" s="58"/>
+      <c r="L31" s="58"/>
+      <c r="M31" s="59"/>
       <c r="N31" s="6">
         <v>17</v>
       </c>
@@ -16799,17 +16799,17 @@
       <c r="C32" s="1">
         <v>23</v>
       </c>
-      <c r="E32" s="83" t="s">
+      <c r="E32" s="54" t="s">
         <v>41</v>
       </c>
-      <c r="F32" s="84"/>
-      <c r="G32" s="84"/>
-      <c r="H32" s="84"/>
-      <c r="I32" s="84"/>
-      <c r="J32" s="84"/>
-      <c r="K32" s="84"/>
-      <c r="L32" s="84"/>
-      <c r="M32" s="85"/>
+      <c r="F32" s="55"/>
+      <c r="G32" s="55"/>
+      <c r="H32" s="55"/>
+      <c r="I32" s="55"/>
+      <c r="J32" s="55"/>
+      <c r="K32" s="55"/>
+      <c r="L32" s="55"/>
+      <c r="M32" s="56"/>
       <c r="N32" s="6">
         <v>17</v>
       </c>
@@ -16831,17 +16831,17 @@
       <c r="C33" s="1">
         <v>24</v>
       </c>
-      <c r="E33" s="83" t="s">
+      <c r="E33" s="54" t="s">
         <v>42</v>
       </c>
-      <c r="F33" s="84"/>
-      <c r="G33" s="84"/>
-      <c r="H33" s="84"/>
-      <c r="I33" s="84"/>
-      <c r="J33" s="84"/>
-      <c r="K33" s="84"/>
-      <c r="L33" s="84"/>
-      <c r="M33" s="85"/>
+      <c r="F33" s="55"/>
+      <c r="G33" s="55"/>
+      <c r="H33" s="55"/>
+      <c r="I33" s="55"/>
+      <c r="J33" s="55"/>
+      <c r="K33" s="55"/>
+      <c r="L33" s="55"/>
+      <c r="M33" s="56"/>
       <c r="N33" s="6">
         <v>17</v>
       </c>
@@ -16864,20 +16864,20 @@
         <v>25</v>
       </c>
       <c r="D34" s="47"/>
-      <c r="E34" s="60" t="s">
+      <c r="E34" s="66" t="s">
         <v>58</v>
       </c>
-      <c r="F34" s="61"/>
-      <c r="G34" s="61"/>
-      <c r="H34" s="61"/>
-      <c r="I34" s="61"/>
-      <c r="J34" s="61"/>
-      <c r="K34" s="61"/>
-      <c r="L34" s="61"/>
-      <c r="M34" s="61"/>
-      <c r="N34" s="61"/>
-      <c r="O34" s="61"/>
-      <c r="P34" s="62"/>
+      <c r="F34" s="67"/>
+      <c r="G34" s="67"/>
+      <c r="H34" s="67"/>
+      <c r="I34" s="67"/>
+      <c r="J34" s="67"/>
+      <c r="K34" s="67"/>
+      <c r="L34" s="67"/>
+      <c r="M34" s="67"/>
+      <c r="N34" s="67"/>
+      <c r="O34" s="67"/>
+      <c r="P34" s="68"/>
       <c r="Q34" s="11"/>
       <c r="R34" s="12" t="e">
         <f>AVERAGE(R10:R33)</f>
@@ -16904,22 +16904,6 @@
     <sortCondition ref="D10:D33"/>
   </sortState>
   <mergeCells count="28">
-    <mergeCell ref="E26:M26"/>
-    <mergeCell ref="E32:M32"/>
-    <mergeCell ref="E33:M33"/>
-    <mergeCell ref="E34:P34"/>
-    <mergeCell ref="E27:M27"/>
-    <mergeCell ref="E28:M28"/>
-    <mergeCell ref="E29:M29"/>
-    <mergeCell ref="E30:M30"/>
-    <mergeCell ref="E31:M31"/>
-    <mergeCell ref="E19:M19"/>
-    <mergeCell ref="E20:M20"/>
-    <mergeCell ref="E21:M21"/>
-    <mergeCell ref="E24:M24"/>
-    <mergeCell ref="E25:M25"/>
-    <mergeCell ref="E22:M22"/>
-    <mergeCell ref="E23:M23"/>
     <mergeCell ref="E18:M18"/>
     <mergeCell ref="C4:Y6"/>
     <mergeCell ref="C7:T7"/>
@@ -16932,6 +16916,22 @@
     <mergeCell ref="E15:M15"/>
     <mergeCell ref="E16:M16"/>
     <mergeCell ref="E17:M17"/>
+    <mergeCell ref="E19:M19"/>
+    <mergeCell ref="E20:M20"/>
+    <mergeCell ref="E21:M21"/>
+    <mergeCell ref="E24:M24"/>
+    <mergeCell ref="E25:M25"/>
+    <mergeCell ref="E22:M22"/>
+    <mergeCell ref="E23:M23"/>
+    <mergeCell ref="E26:M26"/>
+    <mergeCell ref="E32:M32"/>
+    <mergeCell ref="E33:M33"/>
+    <mergeCell ref="E34:P34"/>
+    <mergeCell ref="E27:M27"/>
+    <mergeCell ref="E28:M28"/>
+    <mergeCell ref="E29:M29"/>
+    <mergeCell ref="E30:M30"/>
+    <mergeCell ref="E31:M31"/>
   </mergeCells>
   <conditionalFormatting sqref="V10:V33">
     <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">

--- a/My Test Tracker Original GATE 2023.xlsx
+++ b/My Test Tracker Original GATE 2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GATE 2022 &amp; 2023\My Progress trackers &amp; Journey - In Git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EFE18A1-2EB1-4A5A-B307-55044CA078BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6029579-79D4-4F3E-BB12-EB39892F676B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{158952DD-A7DC-477E-91D8-188954568D39}"/>
   </bookViews>
@@ -908,40 +908,20 @@
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -962,14 +942,13 @@
     <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -981,13 +960,16 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -999,9 +981,7 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1011,14 +991,34 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2051,7 +2051,7 @@
   <dimension ref="A1:W336"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D203" workbookViewId="0">
-      <selection activeCell="C211" sqref="C211:K211"/>
+      <selection activeCell="S216" sqref="S216"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2077,52 +2077,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="34.200000000000003" thickBot="1" x14ac:dyDescent="0.7">
-      <c r="A1" s="92">
+      <c r="A1" s="56">
         <v>2021</v>
       </c>
-      <c r="B1" s="92"/>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
-      <c r="F1" s="92"/>
-      <c r="G1" s="92"/>
-      <c r="H1" s="92"/>
-      <c r="I1" s="92"/>
-      <c r="J1" s="92"/>
-      <c r="K1" s="92"/>
-      <c r="L1" s="92"/>
-      <c r="M1" s="92"/>
-      <c r="N1" s="92"/>
-      <c r="O1" s="92"/>
-      <c r="P1" s="92"/>
-      <c r="Q1" s="92"/>
-      <c r="R1" s="92"/>
-      <c r="S1" s="92"/>
-      <c r="T1" s="92"/>
-      <c r="U1" s="92"/>
-      <c r="V1" s="92"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="56"/>
+      <c r="K1" s="56"/>
+      <c r="L1" s="56"/>
+      <c r="M1" s="56"/>
+      <c r="N1" s="56"/>
+      <c r="O1" s="56"/>
+      <c r="P1" s="56"/>
+      <c r="Q1" s="56"/>
+      <c r="R1" s="56"/>
+      <c r="S1" s="56"/>
+      <c r="T1" s="56"/>
+      <c r="U1" s="56"/>
+      <c r="V1" s="56"/>
     </row>
     <row r="2" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="86" t="s">
+      <c r="A2" s="80" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="87"/>
-      <c r="C2" s="87"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="87"/>
-      <c r="G2" s="87"/>
-      <c r="H2" s="87"/>
-      <c r="I2" s="87"/>
-      <c r="J2" s="87"/>
-      <c r="K2" s="87"/>
-      <c r="L2" s="87"/>
-      <c r="M2" s="87"/>
-      <c r="N2" s="87"/>
-      <c r="O2" s="87"/>
-      <c r="P2" s="87"/>
-      <c r="Q2" s="87"/>
-      <c r="R2" s="88"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="81"/>
+      <c r="G2" s="81"/>
+      <c r="H2" s="81"/>
+      <c r="I2" s="81"/>
+      <c r="J2" s="81"/>
+      <c r="K2" s="81"/>
+      <c r="L2" s="81"/>
+      <c r="M2" s="81"/>
+      <c r="N2" s="81"/>
+      <c r="O2" s="81"/>
+      <c r="P2" s="81"/>
+      <c r="Q2" s="81"/>
+      <c r="R2" s="82"/>
       <c r="S2" s="3"/>
       <c r="T2" s="3"/>
       <c r="U2" s="3"/>
@@ -2133,17 +2133,17 @@
         <v>1</v>
       </c>
       <c r="B4" s="5"/>
-      <c r="C4" s="85" t="s">
+      <c r="C4" s="86" t="s">
         <v>100</v>
       </c>
-      <c r="D4" s="85"/>
-      <c r="E4" s="85"/>
-      <c r="F4" s="85"/>
-      <c r="G4" s="85"/>
-      <c r="H4" s="85"/>
-      <c r="I4" s="85"/>
-      <c r="J4" s="85"/>
-      <c r="K4" s="85"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86"/>
+      <c r="K4" s="86"/>
       <c r="L4" s="5" t="s">
         <v>2</v>
       </c>
@@ -2183,17 +2183,17 @@
       <c r="B5" s="41">
         <v>44613</v>
       </c>
-      <c r="C5" s="73" t="s">
+      <c r="C5" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="73"/>
-      <c r="E5" s="73"/>
-      <c r="F5" s="73"/>
-      <c r="G5" s="73"/>
-      <c r="H5" s="73"/>
-      <c r="I5" s="73"/>
-      <c r="J5" s="73"/>
-      <c r="K5" s="73"/>
+      <c r="D5" s="74"/>
+      <c r="E5" s="74"/>
+      <c r="F5" s="74"/>
+      <c r="G5" s="74"/>
+      <c r="H5" s="74"/>
+      <c r="I5" s="74"/>
+      <c r="J5" s="74"/>
+      <c r="K5" s="74"/>
       <c r="L5" s="6">
         <v>17</v>
       </c>
@@ -2221,17 +2221,17 @@
       <c r="B6" s="41">
         <v>44617</v>
       </c>
-      <c r="C6" s="64" t="s">
+      <c r="C6" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="65"/>
-      <c r="E6" s="65"/>
-      <c r="F6" s="65"/>
-      <c r="G6" s="65"/>
-      <c r="H6" s="65"/>
-      <c r="I6" s="65"/>
-      <c r="J6" s="65"/>
-      <c r="K6" s="65"/>
+      <c r="D6" s="67"/>
+      <c r="E6" s="67"/>
+      <c r="F6" s="67"/>
+      <c r="G6" s="67"/>
+      <c r="H6" s="67"/>
+      <c r="I6" s="67"/>
+      <c r="J6" s="67"/>
+      <c r="K6" s="67"/>
       <c r="L6" s="6">
         <v>17</v>
       </c>
@@ -2259,17 +2259,17 @@
       <c r="B7" s="41">
         <v>44621</v>
       </c>
-      <c r="C7" s="64" t="s">
+      <c r="C7" s="66" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="65"/>
-      <c r="E7" s="65"/>
-      <c r="F7" s="65"/>
-      <c r="G7" s="65"/>
-      <c r="H7" s="65"/>
-      <c r="I7" s="65"/>
-      <c r="J7" s="65"/>
-      <c r="K7" s="65"/>
+      <c r="D7" s="67"/>
+      <c r="E7" s="67"/>
+      <c r="F7" s="67"/>
+      <c r="G7" s="67"/>
+      <c r="H7" s="67"/>
+      <c r="I7" s="67"/>
+      <c r="J7" s="67"/>
+      <c r="K7" s="67"/>
       <c r="L7" s="6">
         <v>17</v>
       </c>
@@ -2297,17 +2297,17 @@
       <c r="B8" s="41">
         <v>44625</v>
       </c>
-      <c r="C8" s="65" t="s">
+      <c r="C8" s="67" t="s">
         <v>35</v>
       </c>
-      <c r="D8" s="65"/>
-      <c r="E8" s="65"/>
-      <c r="F8" s="65"/>
-      <c r="G8" s="65"/>
-      <c r="H8" s="65"/>
-      <c r="I8" s="65"/>
-      <c r="J8" s="65"/>
-      <c r="K8" s="65"/>
+      <c r="D8" s="67"/>
+      <c r="E8" s="67"/>
+      <c r="F8" s="67"/>
+      <c r="G8" s="67"/>
+      <c r="H8" s="67"/>
+      <c r="I8" s="67"/>
+      <c r="J8" s="67"/>
+      <c r="K8" s="67"/>
       <c r="L8" s="6">
         <v>17</v>
       </c>
@@ -2335,17 +2335,17 @@
       <c r="B9" s="41">
         <v>44629</v>
       </c>
-      <c r="C9" s="64" t="s">
+      <c r="C9" s="66" t="s">
         <v>36</v>
       </c>
-      <c r="D9" s="65"/>
-      <c r="E9" s="65"/>
-      <c r="F9" s="65"/>
-      <c r="G9" s="65"/>
-      <c r="H9" s="65"/>
-      <c r="I9" s="65"/>
-      <c r="J9" s="65"/>
-      <c r="K9" s="65"/>
+      <c r="D9" s="67"/>
+      <c r="E9" s="67"/>
+      <c r="F9" s="67"/>
+      <c r="G9" s="67"/>
+      <c r="H9" s="67"/>
+      <c r="I9" s="67"/>
+      <c r="J9" s="67"/>
+      <c r="K9" s="67"/>
       <c r="L9" s="6">
         <v>17</v>
       </c>
@@ -2373,17 +2373,17 @@
       <c r="B10" s="41">
         <v>44633</v>
       </c>
-      <c r="C10" s="64" t="s">
+      <c r="C10" s="66" t="s">
         <v>37</v>
       </c>
-      <c r="D10" s="65"/>
-      <c r="E10" s="65"/>
-      <c r="F10" s="65"/>
-      <c r="G10" s="65"/>
-      <c r="H10" s="65"/>
-      <c r="I10" s="65"/>
-      <c r="J10" s="65"/>
-      <c r="K10" s="65"/>
+      <c r="D10" s="67"/>
+      <c r="E10" s="67"/>
+      <c r="F10" s="67"/>
+      <c r="G10" s="67"/>
+      <c r="H10" s="67"/>
+      <c r="I10" s="67"/>
+      <c r="J10" s="67"/>
+      <c r="K10" s="67"/>
       <c r="L10" s="6">
         <v>17</v>
       </c>
@@ -2411,17 +2411,17 @@
       <c r="B11" s="41">
         <v>44637</v>
       </c>
-      <c r="C11" s="65" t="s">
+      <c r="C11" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="65"/>
-      <c r="E11" s="65"/>
-      <c r="F11" s="65"/>
-      <c r="G11" s="65"/>
-      <c r="H11" s="65"/>
-      <c r="I11" s="65"/>
-      <c r="J11" s="65"/>
-      <c r="K11" s="65"/>
+      <c r="D11" s="67"/>
+      <c r="E11" s="67"/>
+      <c r="F11" s="67"/>
+      <c r="G11" s="67"/>
+      <c r="H11" s="67"/>
+      <c r="I11" s="67"/>
+      <c r="J11" s="67"/>
+      <c r="K11" s="67"/>
       <c r="L11" s="6">
         <v>17</v>
       </c>
@@ -2449,17 +2449,17 @@
       <c r="B12" s="41">
         <v>44641</v>
       </c>
-      <c r="C12" s="64" t="s">
+      <c r="C12" s="66" t="s">
         <v>38</v>
       </c>
-      <c r="D12" s="65"/>
-      <c r="E12" s="65"/>
-      <c r="F12" s="65"/>
-      <c r="G12" s="65"/>
-      <c r="H12" s="65"/>
-      <c r="I12" s="65"/>
-      <c r="J12" s="65"/>
-      <c r="K12" s="65"/>
+      <c r="D12" s="67"/>
+      <c r="E12" s="67"/>
+      <c r="F12" s="67"/>
+      <c r="G12" s="67"/>
+      <c r="H12" s="67"/>
+      <c r="I12" s="67"/>
+      <c r="J12" s="67"/>
+      <c r="K12" s="67"/>
       <c r="L12" s="6">
         <v>17</v>
       </c>
@@ -2485,17 +2485,17 @@
         <v>9</v>
       </c>
       <c r="B13" s="1"/>
-      <c r="C13" s="64" t="s">
+      <c r="C13" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="D13" s="65"/>
-      <c r="E13" s="65"/>
-      <c r="F13" s="65"/>
-      <c r="G13" s="65"/>
-      <c r="H13" s="65"/>
-      <c r="I13" s="65"/>
-      <c r="J13" s="65"/>
-      <c r="K13" s="65"/>
+      <c r="D13" s="67"/>
+      <c r="E13" s="67"/>
+      <c r="F13" s="67"/>
+      <c r="G13" s="67"/>
+      <c r="H13" s="67"/>
+      <c r="I13" s="67"/>
+      <c r="J13" s="67"/>
+      <c r="K13" s="67"/>
       <c r="L13" s="6">
         <v>17</v>
       </c>
@@ -2521,17 +2521,17 @@
         <v>10</v>
       </c>
       <c r="B14" s="1"/>
-      <c r="C14" s="64" t="s">
+      <c r="C14" s="66" t="s">
         <v>40</v>
       </c>
-      <c r="D14" s="65"/>
-      <c r="E14" s="65"/>
-      <c r="F14" s="65"/>
-      <c r="G14" s="65"/>
-      <c r="H14" s="65"/>
-      <c r="I14" s="65"/>
-      <c r="J14" s="65"/>
-      <c r="K14" s="65"/>
+      <c r="D14" s="67"/>
+      <c r="E14" s="67"/>
+      <c r="F14" s="67"/>
+      <c r="G14" s="67"/>
+      <c r="H14" s="67"/>
+      <c r="I14" s="67"/>
+      <c r="J14" s="67"/>
+      <c r="K14" s="67"/>
       <c r="L14" s="6">
         <v>17</v>
       </c>
@@ -2557,17 +2557,17 @@
         <v>11</v>
       </c>
       <c r="B15" s="1"/>
-      <c r="C15" s="64" t="s">
+      <c r="C15" s="66" t="s">
         <v>41</v>
       </c>
-      <c r="D15" s="65"/>
-      <c r="E15" s="65"/>
-      <c r="F15" s="65"/>
-      <c r="G15" s="65"/>
-      <c r="H15" s="65"/>
-      <c r="I15" s="65"/>
-      <c r="J15" s="65"/>
-      <c r="K15" s="65"/>
+      <c r="D15" s="67"/>
+      <c r="E15" s="67"/>
+      <c r="F15" s="67"/>
+      <c r="G15" s="67"/>
+      <c r="H15" s="67"/>
+      <c r="I15" s="67"/>
+      <c r="J15" s="67"/>
+      <c r="K15" s="67"/>
       <c r="L15" s="6">
         <v>17</v>
       </c>
@@ -2593,17 +2593,17 @@
         <v>12</v>
       </c>
       <c r="B16" s="1"/>
-      <c r="C16" s="64" t="s">
+      <c r="C16" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="D16" s="65"/>
-      <c r="E16" s="65"/>
-      <c r="F16" s="65"/>
-      <c r="G16" s="65"/>
-      <c r="H16" s="65"/>
-      <c r="I16" s="65"/>
-      <c r="J16" s="65"/>
-      <c r="K16" s="65"/>
+      <c r="D16" s="67"/>
+      <c r="E16" s="67"/>
+      <c r="F16" s="67"/>
+      <c r="G16" s="67"/>
+      <c r="H16" s="67"/>
+      <c r="I16" s="67"/>
+      <c r="J16" s="67"/>
+      <c r="K16" s="67"/>
       <c r="L16" s="6">
         <v>17</v>
       </c>
@@ -2631,17 +2631,17 @@
       <c r="B17" s="41">
         <v>44645</v>
       </c>
-      <c r="C17" s="65" t="s">
+      <c r="C17" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="D17" s="65"/>
-      <c r="E17" s="65"/>
-      <c r="F17" s="65"/>
-      <c r="G17" s="65"/>
-      <c r="H17" s="65"/>
-      <c r="I17" s="65"/>
-      <c r="J17" s="65"/>
-      <c r="K17" s="65"/>
+      <c r="D17" s="67"/>
+      <c r="E17" s="67"/>
+      <c r="F17" s="67"/>
+      <c r="G17" s="67"/>
+      <c r="H17" s="67"/>
+      <c r="I17" s="67"/>
+      <c r="J17" s="67"/>
+      <c r="K17" s="67"/>
       <c r="L17" s="6">
         <v>17</v>
       </c>
@@ -2669,17 +2669,17 @@
       <c r="B18" s="41">
         <v>44649</v>
       </c>
-      <c r="C18" s="64" t="s">
+      <c r="C18" s="66" t="s">
         <v>43</v>
       </c>
-      <c r="D18" s="65"/>
-      <c r="E18" s="65"/>
-      <c r="F18" s="65"/>
-      <c r="G18" s="65"/>
-      <c r="H18" s="65"/>
-      <c r="I18" s="65"/>
-      <c r="J18" s="65"/>
-      <c r="K18" s="65"/>
+      <c r="D18" s="67"/>
+      <c r="E18" s="67"/>
+      <c r="F18" s="67"/>
+      <c r="G18" s="67"/>
+      <c r="H18" s="67"/>
+      <c r="I18" s="67"/>
+      <c r="J18" s="67"/>
+      <c r="K18" s="67"/>
       <c r="L18" s="6">
         <v>17</v>
       </c>
@@ -2707,17 +2707,17 @@
       <c r="B19" s="41">
         <v>44653</v>
       </c>
-      <c r="C19" s="65" t="s">
+      <c r="C19" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="D19" s="65"/>
-      <c r="E19" s="65"/>
-      <c r="F19" s="65"/>
-      <c r="G19" s="65"/>
-      <c r="H19" s="65"/>
-      <c r="I19" s="65"/>
-      <c r="J19" s="65"/>
-      <c r="K19" s="65"/>
+      <c r="D19" s="67"/>
+      <c r="E19" s="67"/>
+      <c r="F19" s="67"/>
+      <c r="G19" s="67"/>
+      <c r="H19" s="67"/>
+      <c r="I19" s="67"/>
+      <c r="J19" s="67"/>
+      <c r="K19" s="67"/>
       <c r="L19" s="6">
         <v>17</v>
       </c>
@@ -2755,17 +2755,17 @@
       <c r="B20" s="41">
         <v>44657</v>
       </c>
-      <c r="C20" s="65" t="s">
+      <c r="C20" s="67" t="s">
         <v>44</v>
       </c>
-      <c r="D20" s="65"/>
-      <c r="E20" s="65"/>
-      <c r="F20" s="65"/>
-      <c r="G20" s="65"/>
-      <c r="H20" s="65"/>
-      <c r="I20" s="65"/>
-      <c r="J20" s="65"/>
-      <c r="K20" s="65"/>
+      <c r="D20" s="67"/>
+      <c r="E20" s="67"/>
+      <c r="F20" s="67"/>
+      <c r="G20" s="67"/>
+      <c r="H20" s="67"/>
+      <c r="I20" s="67"/>
+      <c r="J20" s="67"/>
+      <c r="K20" s="67"/>
       <c r="L20" s="6">
         <v>17</v>
       </c>
@@ -2793,17 +2793,17 @@
       <c r="B21" s="41">
         <v>44661</v>
       </c>
-      <c r="C21" s="64" t="s">
+      <c r="C21" s="66" t="s">
         <v>45</v>
       </c>
-      <c r="D21" s="65"/>
-      <c r="E21" s="65"/>
-      <c r="F21" s="65"/>
-      <c r="G21" s="65"/>
-      <c r="H21" s="65"/>
-      <c r="I21" s="65"/>
-      <c r="J21" s="65"/>
-      <c r="K21" s="65"/>
+      <c r="D21" s="67"/>
+      <c r="E21" s="67"/>
+      <c r="F21" s="67"/>
+      <c r="G21" s="67"/>
+      <c r="H21" s="67"/>
+      <c r="I21" s="67"/>
+      <c r="J21" s="67"/>
+      <c r="K21" s="67"/>
       <c r="L21" s="6">
         <v>17</v>
       </c>
@@ -2831,17 +2831,17 @@
       <c r="B22" s="41">
         <v>44665</v>
       </c>
-      <c r="C22" s="64" t="s">
+      <c r="C22" s="66" t="s">
         <v>46</v>
       </c>
-      <c r="D22" s="65"/>
-      <c r="E22" s="65"/>
-      <c r="F22" s="65"/>
-      <c r="G22" s="65"/>
-      <c r="H22" s="65"/>
-      <c r="I22" s="65"/>
-      <c r="J22" s="65"/>
-      <c r="K22" s="65"/>
+      <c r="D22" s="67"/>
+      <c r="E22" s="67"/>
+      <c r="F22" s="67"/>
+      <c r="G22" s="67"/>
+      <c r="H22" s="67"/>
+      <c r="I22" s="67"/>
+      <c r="J22" s="67"/>
+      <c r="K22" s="67"/>
       <c r="L22" s="6">
         <v>17</v>
       </c>
@@ -2869,17 +2869,17 @@
       <c r="B23" s="41">
         <v>44669</v>
       </c>
-      <c r="C23" s="65" t="s">
+      <c r="C23" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="D23" s="65"/>
-      <c r="E23" s="65"/>
-      <c r="F23" s="65"/>
-      <c r="G23" s="65"/>
-      <c r="H23" s="65"/>
-      <c r="I23" s="65"/>
-      <c r="J23" s="65"/>
-      <c r="K23" s="65"/>
+      <c r="D23" s="67"/>
+      <c r="E23" s="67"/>
+      <c r="F23" s="67"/>
+      <c r="G23" s="67"/>
+      <c r="H23" s="67"/>
+      <c r="I23" s="67"/>
+      <c r="J23" s="67"/>
+      <c r="K23" s="67"/>
       <c r="L23" s="6">
         <v>17</v>
       </c>
@@ -2907,17 +2907,17 @@
       <c r="B24" s="41">
         <v>44673</v>
       </c>
-      <c r="C24" s="65" t="s">
+      <c r="C24" s="67" t="s">
         <v>47</v>
       </c>
-      <c r="D24" s="65"/>
-      <c r="E24" s="65"/>
-      <c r="F24" s="65"/>
-      <c r="G24" s="65"/>
-      <c r="H24" s="65"/>
-      <c r="I24" s="65"/>
-      <c r="J24" s="65"/>
-      <c r="K24" s="65"/>
+      <c r="D24" s="67"/>
+      <c r="E24" s="67"/>
+      <c r="F24" s="67"/>
+      <c r="G24" s="67"/>
+      <c r="H24" s="67"/>
+      <c r="I24" s="67"/>
+      <c r="J24" s="67"/>
+      <c r="K24" s="67"/>
       <c r="L24" s="6">
         <v>17</v>
       </c>
@@ -2945,17 +2945,17 @@
       <c r="B25" s="42">
         <v>44646</v>
       </c>
-      <c r="C25" s="65" t="s">
+      <c r="C25" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="D25" s="65"/>
-      <c r="E25" s="65"/>
-      <c r="F25" s="65"/>
-      <c r="G25" s="65"/>
-      <c r="H25" s="65"/>
-      <c r="I25" s="65"/>
-      <c r="J25" s="65"/>
-      <c r="K25" s="65"/>
+      <c r="D25" s="67"/>
+      <c r="E25" s="67"/>
+      <c r="F25" s="67"/>
+      <c r="G25" s="67"/>
+      <c r="H25" s="67"/>
+      <c r="I25" s="67"/>
+      <c r="J25" s="67"/>
+      <c r="K25" s="67"/>
       <c r="L25" s="6">
         <v>17</v>
       </c>
@@ -2983,17 +2983,17 @@
       <c r="B26" s="43">
         <v>44646</v>
       </c>
-      <c r="C26" s="64" t="s">
+      <c r="C26" s="66" t="s">
         <v>48</v>
       </c>
-      <c r="D26" s="65"/>
-      <c r="E26" s="65"/>
-      <c r="F26" s="65"/>
-      <c r="G26" s="65"/>
-      <c r="H26" s="65"/>
-      <c r="I26" s="65"/>
-      <c r="J26" s="65"/>
-      <c r="K26" s="65"/>
+      <c r="D26" s="67"/>
+      <c r="E26" s="67"/>
+      <c r="F26" s="67"/>
+      <c r="G26" s="67"/>
+      <c r="H26" s="67"/>
+      <c r="I26" s="67"/>
+      <c r="J26" s="67"/>
+      <c r="K26" s="67"/>
       <c r="L26" s="6">
         <v>17</v>
       </c>
@@ -3021,17 +3021,17 @@
       <c r="B27" s="41">
         <v>44677</v>
       </c>
-      <c r="C27" s="65" t="s">
+      <c r="C27" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="D27" s="65"/>
-      <c r="E27" s="65"/>
-      <c r="F27" s="65"/>
-      <c r="G27" s="65"/>
-      <c r="H27" s="65"/>
-      <c r="I27" s="65"/>
-      <c r="J27" s="65"/>
-      <c r="K27" s="65"/>
+      <c r="D27" s="67"/>
+      <c r="E27" s="67"/>
+      <c r="F27" s="67"/>
+      <c r="G27" s="67"/>
+      <c r="H27" s="67"/>
+      <c r="I27" s="67"/>
+      <c r="J27" s="67"/>
+      <c r="K27" s="67"/>
       <c r="L27" s="6">
         <v>17</v>
       </c>
@@ -3059,17 +3059,17 @@
       <c r="B28" s="41">
         <v>44681</v>
       </c>
-      <c r="C28" s="64" t="s">
+      <c r="C28" s="66" t="s">
         <v>49</v>
       </c>
-      <c r="D28" s="65"/>
-      <c r="E28" s="65"/>
-      <c r="F28" s="65"/>
-      <c r="G28" s="65"/>
-      <c r="H28" s="65"/>
-      <c r="I28" s="65"/>
-      <c r="J28" s="65"/>
-      <c r="K28" s="65"/>
+      <c r="D28" s="67"/>
+      <c r="E28" s="67"/>
+      <c r="F28" s="67"/>
+      <c r="G28" s="67"/>
+      <c r="H28" s="67"/>
+      <c r="I28" s="67"/>
+      <c r="J28" s="67"/>
+      <c r="K28" s="67"/>
       <c r="L28" s="6">
         <v>17</v>
       </c>
@@ -3095,20 +3095,20 @@
         <v>25</v>
       </c>
       <c r="B29" s="8"/>
-      <c r="C29" s="66" t="s">
+      <c r="C29" s="60" t="s">
         <v>58</v>
       </c>
-      <c r="D29" s="67"/>
-      <c r="E29" s="67"/>
-      <c r="F29" s="67"/>
-      <c r="G29" s="67"/>
-      <c r="H29" s="67"/>
-      <c r="I29" s="67"/>
-      <c r="J29" s="67"/>
-      <c r="K29" s="67"/>
-      <c r="L29" s="67"/>
-      <c r="M29" s="67"/>
-      <c r="N29" s="68"/>
+      <c r="D29" s="61"/>
+      <c r="E29" s="61"/>
+      <c r="F29" s="61"/>
+      <c r="G29" s="61"/>
+      <c r="H29" s="61"/>
+      <c r="I29" s="61"/>
+      <c r="J29" s="61"/>
+      <c r="K29" s="61"/>
+      <c r="L29" s="61"/>
+      <c r="M29" s="61"/>
+      <c r="N29" s="62"/>
       <c r="O29" s="11"/>
       <c r="P29" s="12">
         <f>AVERAGE(P5:P28)</f>
@@ -3128,26 +3128,26 @@
     </row>
     <row r="31" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="32" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="82" t="s">
+      <c r="A32" s="76" t="s">
         <v>13</v>
       </c>
-      <c r="B32" s="83"/>
-      <c r="C32" s="83"/>
-      <c r="D32" s="83"/>
-      <c r="E32" s="83"/>
-      <c r="F32" s="83"/>
-      <c r="G32" s="83"/>
-      <c r="H32" s="83"/>
-      <c r="I32" s="83"/>
-      <c r="J32" s="83"/>
-      <c r="K32" s="83"/>
-      <c r="L32" s="83"/>
-      <c r="M32" s="83"/>
-      <c r="N32" s="83"/>
-      <c r="O32" s="83"/>
-      <c r="P32" s="83"/>
-      <c r="Q32" s="83"/>
-      <c r="R32" s="84"/>
+      <c r="B32" s="77"/>
+      <c r="C32" s="77"/>
+      <c r="D32" s="77"/>
+      <c r="E32" s="77"/>
+      <c r="F32" s="77"/>
+      <c r="G32" s="77"/>
+      <c r="H32" s="77"/>
+      <c r="I32" s="77"/>
+      <c r="J32" s="77"/>
+      <c r="K32" s="77"/>
+      <c r="L32" s="77"/>
+      <c r="M32" s="77"/>
+      <c r="N32" s="77"/>
+      <c r="O32" s="77"/>
+      <c r="P32" s="77"/>
+      <c r="Q32" s="77"/>
+      <c r="R32" s="78"/>
       <c r="S32" s="15"/>
       <c r="T32" s="15"/>
       <c r="U32" s="15"/>
@@ -3157,17 +3157,17 @@
         <v>1</v>
       </c>
       <c r="B34" s="5"/>
-      <c r="C34" s="72" t="s">
+      <c r="C34" s="73" t="s">
         <v>100</v>
       </c>
-      <c r="D34" s="72"/>
-      <c r="E34" s="72"/>
-      <c r="F34" s="72"/>
-      <c r="G34" s="72"/>
-      <c r="H34" s="72"/>
-      <c r="I34" s="72"/>
-      <c r="J34" s="72"/>
-      <c r="K34" s="72"/>
+      <c r="D34" s="73"/>
+      <c r="E34" s="73"/>
+      <c r="F34" s="73"/>
+      <c r="G34" s="73"/>
+      <c r="H34" s="73"/>
+      <c r="I34" s="73"/>
+      <c r="J34" s="73"/>
+      <c r="K34" s="73"/>
       <c r="L34" s="5" t="s">
         <v>2</v>
       </c>
@@ -3204,17 +3204,17 @@
         <v>1</v>
       </c>
       <c r="B35" s="1"/>
-      <c r="C35" s="73" t="s">
+      <c r="C35" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="D35" s="73"/>
-      <c r="E35" s="73"/>
-      <c r="F35" s="73"/>
-      <c r="G35" s="73"/>
-      <c r="H35" s="73"/>
-      <c r="I35" s="73"/>
-      <c r="J35" s="73"/>
-      <c r="K35" s="73"/>
+      <c r="D35" s="74"/>
+      <c r="E35" s="74"/>
+      <c r="F35" s="74"/>
+      <c r="G35" s="74"/>
+      <c r="H35" s="74"/>
+      <c r="I35" s="74"/>
+      <c r="J35" s="74"/>
+      <c r="K35" s="74"/>
       <c r="L35" s="6">
         <v>33</v>
       </c>
@@ -3237,17 +3237,17 @@
         <v>2</v>
       </c>
       <c r="B36" s="1"/>
-      <c r="C36" s="64" t="s">
+      <c r="C36" s="66" t="s">
         <v>16</v>
       </c>
-      <c r="D36" s="65"/>
-      <c r="E36" s="65"/>
-      <c r="F36" s="65"/>
-      <c r="G36" s="65"/>
-      <c r="H36" s="65"/>
-      <c r="I36" s="65"/>
-      <c r="J36" s="65"/>
-      <c r="K36" s="65"/>
+      <c r="D36" s="67"/>
+      <c r="E36" s="67"/>
+      <c r="F36" s="67"/>
+      <c r="G36" s="67"/>
+      <c r="H36" s="67"/>
+      <c r="I36" s="67"/>
+      <c r="J36" s="67"/>
+      <c r="K36" s="67"/>
       <c r="L36" s="6">
         <v>33</v>
       </c>
@@ -3270,17 +3270,17 @@
         <v>3</v>
       </c>
       <c r="B37" s="1"/>
-      <c r="C37" s="64" t="s">
+      <c r="C37" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="D37" s="65"/>
-      <c r="E37" s="65"/>
-      <c r="F37" s="65"/>
-      <c r="G37" s="65"/>
-      <c r="H37" s="65"/>
-      <c r="I37" s="65"/>
-      <c r="J37" s="65"/>
-      <c r="K37" s="65"/>
+      <c r="D37" s="67"/>
+      <c r="E37" s="67"/>
+      <c r="F37" s="67"/>
+      <c r="G37" s="67"/>
+      <c r="H37" s="67"/>
+      <c r="I37" s="67"/>
+      <c r="J37" s="67"/>
+      <c r="K37" s="67"/>
       <c r="L37" s="6">
         <v>33</v>
       </c>
@@ -3303,17 +3303,17 @@
         <v>4</v>
       </c>
       <c r="B38" s="1"/>
-      <c r="C38" s="65" t="s">
+      <c r="C38" s="67" t="s">
         <v>18</v>
       </c>
-      <c r="D38" s="65"/>
-      <c r="E38" s="65"/>
-      <c r="F38" s="65"/>
-      <c r="G38" s="65"/>
-      <c r="H38" s="65"/>
-      <c r="I38" s="65"/>
-      <c r="J38" s="65"/>
-      <c r="K38" s="65"/>
+      <c r="D38" s="67"/>
+      <c r="E38" s="67"/>
+      <c r="F38" s="67"/>
+      <c r="G38" s="67"/>
+      <c r="H38" s="67"/>
+      <c r="I38" s="67"/>
+      <c r="J38" s="67"/>
+      <c r="K38" s="67"/>
       <c r="L38" s="6">
         <v>33</v>
       </c>
@@ -3336,17 +3336,17 @@
         <v>5</v>
       </c>
       <c r="B39" s="1"/>
-      <c r="C39" s="64" t="s">
+      <c r="C39" s="66" t="s">
         <v>61</v>
       </c>
-      <c r="D39" s="65"/>
-      <c r="E39" s="65"/>
-      <c r="F39" s="65"/>
-      <c r="G39" s="65"/>
-      <c r="H39" s="65"/>
-      <c r="I39" s="65"/>
-      <c r="J39" s="65"/>
-      <c r="K39" s="65"/>
+      <c r="D39" s="67"/>
+      <c r="E39" s="67"/>
+      <c r="F39" s="67"/>
+      <c r="G39" s="67"/>
+      <c r="H39" s="67"/>
+      <c r="I39" s="67"/>
+      <c r="J39" s="67"/>
+      <c r="K39" s="67"/>
       <c r="L39" s="6">
         <v>33</v>
       </c>
@@ -3369,17 +3369,17 @@
         <v>6</v>
       </c>
       <c r="B40" s="1"/>
-      <c r="C40" s="64" t="s">
+      <c r="C40" s="66" t="s">
         <v>61</v>
       </c>
-      <c r="D40" s="65"/>
-      <c r="E40" s="65"/>
-      <c r="F40" s="65"/>
-      <c r="G40" s="65"/>
-      <c r="H40" s="65"/>
-      <c r="I40" s="65"/>
-      <c r="J40" s="65"/>
-      <c r="K40" s="65"/>
+      <c r="D40" s="67"/>
+      <c r="E40" s="67"/>
+      <c r="F40" s="67"/>
+      <c r="G40" s="67"/>
+      <c r="H40" s="67"/>
+      <c r="I40" s="67"/>
+      <c r="J40" s="67"/>
+      <c r="K40" s="67"/>
       <c r="L40" s="6">
         <v>33</v>
       </c>
@@ -3402,17 +3402,17 @@
         <v>7</v>
       </c>
       <c r="B41" s="1"/>
-      <c r="C41" s="65" t="s">
+      <c r="C41" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="D41" s="65"/>
-      <c r="E41" s="65"/>
-      <c r="F41" s="65"/>
-      <c r="G41" s="65"/>
-      <c r="H41" s="65"/>
-      <c r="I41" s="65"/>
-      <c r="J41" s="65"/>
-      <c r="K41" s="65"/>
+      <c r="D41" s="67"/>
+      <c r="E41" s="67"/>
+      <c r="F41" s="67"/>
+      <c r="G41" s="67"/>
+      <c r="H41" s="67"/>
+      <c r="I41" s="67"/>
+      <c r="J41" s="67"/>
+      <c r="K41" s="67"/>
       <c r="L41" s="6">
         <v>33</v>
       </c>
@@ -3435,17 +3435,17 @@
         <v>8</v>
       </c>
       <c r="B42" s="1"/>
-      <c r="C42" s="64" t="s">
+      <c r="C42" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="D42" s="65"/>
-      <c r="E42" s="65"/>
-      <c r="F42" s="65"/>
-      <c r="G42" s="65"/>
-      <c r="H42" s="65"/>
-      <c r="I42" s="65"/>
-      <c r="J42" s="65"/>
-      <c r="K42" s="65"/>
+      <c r="D42" s="67"/>
+      <c r="E42" s="67"/>
+      <c r="F42" s="67"/>
+      <c r="G42" s="67"/>
+      <c r="H42" s="67"/>
+      <c r="I42" s="67"/>
+      <c r="J42" s="67"/>
+      <c r="K42" s="67"/>
       <c r="L42" s="6">
         <v>33</v>
       </c>
@@ -3468,17 +3468,17 @@
         <v>9</v>
       </c>
       <c r="B43" s="1"/>
-      <c r="C43" s="64" t="s">
+      <c r="C43" s="66" t="s">
         <v>62</v>
       </c>
-      <c r="D43" s="65"/>
-      <c r="E43" s="65"/>
-      <c r="F43" s="65"/>
-      <c r="G43" s="65"/>
-      <c r="H43" s="65"/>
-      <c r="I43" s="65"/>
-      <c r="J43" s="65"/>
-      <c r="K43" s="65"/>
+      <c r="D43" s="67"/>
+      <c r="E43" s="67"/>
+      <c r="F43" s="67"/>
+      <c r="G43" s="67"/>
+      <c r="H43" s="67"/>
+      <c r="I43" s="67"/>
+      <c r="J43" s="67"/>
+      <c r="K43" s="67"/>
       <c r="L43" s="6">
         <v>33</v>
       </c>
@@ -3501,17 +3501,17 @@
         <v>10</v>
       </c>
       <c r="B44" s="1"/>
-      <c r="C44" s="64" t="s">
+      <c r="C44" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="D44" s="65"/>
-      <c r="E44" s="65"/>
-      <c r="F44" s="65"/>
-      <c r="G44" s="65"/>
-      <c r="H44" s="65"/>
-      <c r="I44" s="65"/>
-      <c r="J44" s="65"/>
-      <c r="K44" s="65"/>
+      <c r="D44" s="67"/>
+      <c r="E44" s="67"/>
+      <c r="F44" s="67"/>
+      <c r="G44" s="67"/>
+      <c r="H44" s="67"/>
+      <c r="I44" s="67"/>
+      <c r="J44" s="67"/>
+      <c r="K44" s="67"/>
       <c r="L44" s="6">
         <v>33</v>
       </c>
@@ -3534,17 +3534,17 @@
         <v>11</v>
       </c>
       <c r="B45" s="1"/>
-      <c r="C45" s="64" t="s">
+      <c r="C45" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="D45" s="65"/>
-      <c r="E45" s="65"/>
-      <c r="F45" s="65"/>
-      <c r="G45" s="65"/>
-      <c r="H45" s="65"/>
-      <c r="I45" s="65"/>
-      <c r="J45" s="65"/>
-      <c r="K45" s="65"/>
+      <c r="D45" s="67"/>
+      <c r="E45" s="67"/>
+      <c r="F45" s="67"/>
+      <c r="G45" s="67"/>
+      <c r="H45" s="67"/>
+      <c r="I45" s="67"/>
+      <c r="J45" s="67"/>
+      <c r="K45" s="67"/>
       <c r="L45" s="6">
         <v>33</v>
       </c>
@@ -3569,17 +3569,17 @@
       <c r="B46" s="42">
         <v>44647</v>
       </c>
-      <c r="C46" s="64" t="s">
+      <c r="C46" s="66" t="s">
         <v>63</v>
       </c>
-      <c r="D46" s="65"/>
-      <c r="E46" s="65"/>
-      <c r="F46" s="65"/>
-      <c r="G46" s="65"/>
-      <c r="H46" s="65"/>
-      <c r="I46" s="65"/>
-      <c r="J46" s="65"/>
-      <c r="K46" s="65"/>
+      <c r="D46" s="67"/>
+      <c r="E46" s="67"/>
+      <c r="F46" s="67"/>
+      <c r="G46" s="67"/>
+      <c r="H46" s="67"/>
+      <c r="I46" s="67"/>
+      <c r="J46" s="67"/>
+      <c r="K46" s="67"/>
       <c r="L46" s="6">
         <v>33</v>
       </c>
@@ -3602,20 +3602,20 @@
         <v>13</v>
       </c>
       <c r="B47" s="1"/>
-      <c r="C47" s="66" t="s">
+      <c r="C47" s="60" t="s">
         <v>58</v>
       </c>
-      <c r="D47" s="67"/>
-      <c r="E47" s="67"/>
-      <c r="F47" s="67"/>
-      <c r="G47" s="67"/>
-      <c r="H47" s="67"/>
-      <c r="I47" s="67"/>
-      <c r="J47" s="67"/>
-      <c r="K47" s="67"/>
-      <c r="L47" s="67"/>
-      <c r="M47" s="67"/>
-      <c r="N47" s="68"/>
+      <c r="D47" s="61"/>
+      <c r="E47" s="61"/>
+      <c r="F47" s="61"/>
+      <c r="G47" s="61"/>
+      <c r="H47" s="61"/>
+      <c r="I47" s="61"/>
+      <c r="J47" s="61"/>
+      <c r="K47" s="61"/>
+      <c r="L47" s="61"/>
+      <c r="M47" s="61"/>
+      <c r="N47" s="62"/>
       <c r="O47" s="11"/>
       <c r="P47" s="12"/>
       <c r="Q47" s="13"/>
@@ -3629,26 +3629,26 @@
       <c r="B48" s="1"/>
     </row>
     <row r="49" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="69" t="s">
+      <c r="A49" s="63" t="s">
         <v>24</v>
       </c>
-      <c r="B49" s="70"/>
-      <c r="C49" s="70"/>
-      <c r="D49" s="70"/>
-      <c r="E49" s="70"/>
-      <c r="F49" s="70"/>
-      <c r="G49" s="70"/>
-      <c r="H49" s="70"/>
-      <c r="I49" s="70"/>
-      <c r="J49" s="70"/>
-      <c r="K49" s="70"/>
-      <c r="L49" s="70"/>
-      <c r="M49" s="70"/>
-      <c r="N49" s="70"/>
-      <c r="O49" s="70"/>
-      <c r="P49" s="70"/>
-      <c r="Q49" s="70"/>
-      <c r="R49" s="71"/>
+      <c r="B49" s="64"/>
+      <c r="C49" s="64"/>
+      <c r="D49" s="64"/>
+      <c r="E49" s="64"/>
+      <c r="F49" s="64"/>
+      <c r="G49" s="64"/>
+      <c r="H49" s="64"/>
+      <c r="I49" s="64"/>
+      <c r="J49" s="64"/>
+      <c r="K49" s="64"/>
+      <c r="L49" s="64"/>
+      <c r="M49" s="64"/>
+      <c r="N49" s="64"/>
+      <c r="O49" s="64"/>
+      <c r="P49" s="64"/>
+      <c r="Q49" s="64"/>
+      <c r="R49" s="65"/>
       <c r="S49" s="3"/>
       <c r="T49" s="3"/>
       <c r="U49" s="3"/>
@@ -3658,17 +3658,17 @@
         <v>1</v>
       </c>
       <c r="B51" s="5"/>
-      <c r="C51" s="72" t="s">
+      <c r="C51" s="73" t="s">
         <v>100</v>
       </c>
-      <c r="D51" s="72"/>
-      <c r="E51" s="72"/>
-      <c r="F51" s="72"/>
-      <c r="G51" s="72"/>
-      <c r="H51" s="72"/>
-      <c r="I51" s="72"/>
-      <c r="J51" s="72"/>
-      <c r="K51" s="72"/>
+      <c r="D51" s="73"/>
+      <c r="E51" s="73"/>
+      <c r="F51" s="73"/>
+      <c r="G51" s="73"/>
+      <c r="H51" s="73"/>
+      <c r="I51" s="73"/>
+      <c r="J51" s="73"/>
+      <c r="K51" s="73"/>
       <c r="L51" s="5" t="s">
         <v>2</v>
       </c>
@@ -3705,17 +3705,17 @@
         <v>1</v>
       </c>
       <c r="B52" s="1"/>
-      <c r="C52" s="73" t="s">
+      <c r="C52" s="74" t="s">
         <v>65</v>
       </c>
-      <c r="D52" s="73"/>
-      <c r="E52" s="73"/>
-      <c r="F52" s="73"/>
-      <c r="G52" s="73"/>
-      <c r="H52" s="73"/>
-      <c r="I52" s="73"/>
-      <c r="J52" s="73"/>
-      <c r="K52" s="73"/>
+      <c r="D52" s="74"/>
+      <c r="E52" s="74"/>
+      <c r="F52" s="74"/>
+      <c r="G52" s="74"/>
+      <c r="H52" s="74"/>
+      <c r="I52" s="74"/>
+      <c r="J52" s="74"/>
+      <c r="K52" s="74"/>
       <c r="L52" s="6">
         <v>33</v>
       </c>
@@ -3738,17 +3738,17 @@
         <v>2</v>
       </c>
       <c r="B53" s="1"/>
-      <c r="C53" s="64" t="s">
+      <c r="C53" s="66" t="s">
         <v>66</v>
       </c>
-      <c r="D53" s="65"/>
-      <c r="E53" s="65"/>
-      <c r="F53" s="65"/>
-      <c r="G53" s="65"/>
-      <c r="H53" s="65"/>
-      <c r="I53" s="65"/>
-      <c r="J53" s="65"/>
-      <c r="K53" s="65"/>
+      <c r="D53" s="67"/>
+      <c r="E53" s="67"/>
+      <c r="F53" s="67"/>
+      <c r="G53" s="67"/>
+      <c r="H53" s="67"/>
+      <c r="I53" s="67"/>
+      <c r="J53" s="67"/>
+      <c r="K53" s="67"/>
       <c r="L53" s="6">
         <v>33</v>
       </c>
@@ -3771,17 +3771,17 @@
         <v>3</v>
       </c>
       <c r="B54" s="1"/>
-      <c r="C54" s="64" t="s">
+      <c r="C54" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="D54" s="65"/>
-      <c r="E54" s="65"/>
-      <c r="F54" s="65"/>
-      <c r="G54" s="65"/>
-      <c r="H54" s="65"/>
-      <c r="I54" s="65"/>
-      <c r="J54" s="65"/>
-      <c r="K54" s="65"/>
+      <c r="D54" s="67"/>
+      <c r="E54" s="67"/>
+      <c r="F54" s="67"/>
+      <c r="G54" s="67"/>
+      <c r="H54" s="67"/>
+      <c r="I54" s="67"/>
+      <c r="J54" s="67"/>
+      <c r="K54" s="67"/>
       <c r="L54" s="6">
         <v>33</v>
       </c>
@@ -3804,17 +3804,17 @@
         <v>4</v>
       </c>
       <c r="B55" s="1"/>
-      <c r="C55" s="65" t="s">
+      <c r="C55" s="67" t="s">
         <v>26</v>
       </c>
-      <c r="D55" s="65"/>
-      <c r="E55" s="65"/>
-      <c r="F55" s="65"/>
-      <c r="G55" s="65"/>
-      <c r="H55" s="65"/>
-      <c r="I55" s="65"/>
-      <c r="J55" s="65"/>
-      <c r="K55" s="65"/>
+      <c r="D55" s="67"/>
+      <c r="E55" s="67"/>
+      <c r="F55" s="67"/>
+      <c r="G55" s="67"/>
+      <c r="H55" s="67"/>
+      <c r="I55" s="67"/>
+      <c r="J55" s="67"/>
+      <c r="K55" s="67"/>
       <c r="L55" s="6">
         <v>33</v>
       </c>
@@ -3837,17 +3837,17 @@
         <v>5</v>
       </c>
       <c r="B56" s="1"/>
-      <c r="C56" s="64" t="s">
+      <c r="C56" s="66" t="s">
         <v>27</v>
       </c>
-      <c r="D56" s="65"/>
-      <c r="E56" s="65"/>
-      <c r="F56" s="65"/>
-      <c r="G56" s="65"/>
-      <c r="H56" s="65"/>
-      <c r="I56" s="65"/>
-      <c r="J56" s="65"/>
-      <c r="K56" s="65"/>
+      <c r="D56" s="67"/>
+      <c r="E56" s="67"/>
+      <c r="F56" s="67"/>
+      <c r="G56" s="67"/>
+      <c r="H56" s="67"/>
+      <c r="I56" s="67"/>
+      <c r="J56" s="67"/>
+      <c r="K56" s="67"/>
       <c r="L56" s="6">
         <v>33</v>
       </c>
@@ -3870,17 +3870,17 @@
         <v>6</v>
       </c>
       <c r="B57" s="1"/>
-      <c r="C57" s="64" t="s">
+      <c r="C57" s="66" t="s">
         <v>67</v>
       </c>
-      <c r="D57" s="65"/>
-      <c r="E57" s="65"/>
-      <c r="F57" s="65"/>
-      <c r="G57" s="65"/>
-      <c r="H57" s="65"/>
-      <c r="I57" s="65"/>
-      <c r="J57" s="65"/>
-      <c r="K57" s="65"/>
+      <c r="D57" s="67"/>
+      <c r="E57" s="67"/>
+      <c r="F57" s="67"/>
+      <c r="G57" s="67"/>
+      <c r="H57" s="67"/>
+      <c r="I57" s="67"/>
+      <c r="J57" s="67"/>
+      <c r="K57" s="67"/>
       <c r="L57" s="6">
         <v>33</v>
       </c>
@@ -3901,20 +3901,20 @@
     <row r="58" spans="1:21" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
-      <c r="C58" s="66" t="s">
+      <c r="C58" s="60" t="s">
         <v>58</v>
       </c>
-      <c r="D58" s="67"/>
-      <c r="E58" s="67"/>
-      <c r="F58" s="67"/>
-      <c r="G58" s="67"/>
-      <c r="H58" s="67"/>
-      <c r="I58" s="67"/>
-      <c r="J58" s="67"/>
-      <c r="K58" s="67"/>
-      <c r="L58" s="67"/>
-      <c r="M58" s="67"/>
-      <c r="N58" s="68"/>
+      <c r="D58" s="61"/>
+      <c r="E58" s="61"/>
+      <c r="F58" s="61"/>
+      <c r="G58" s="61"/>
+      <c r="H58" s="61"/>
+      <c r="I58" s="61"/>
+      <c r="J58" s="61"/>
+      <c r="K58" s="61"/>
+      <c r="L58" s="61"/>
+      <c r="M58" s="61"/>
+      <c r="N58" s="62"/>
       <c r="O58" s="11"/>
       <c r="P58" s="12" t="e">
         <f>AVERAGE(P52:P57)</f>
@@ -3934,25 +3934,25 @@
       <c r="B59" s="1"/>
     </row>
     <row r="60" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A60" s="81" t="s">
+      <c r="A60" s="72" t="s">
         <v>28</v>
       </c>
-      <c r="B60" s="81"/>
-      <c r="C60" s="81"/>
-      <c r="D60" s="81"/>
-      <c r="E60" s="81"/>
-      <c r="F60" s="81"/>
-      <c r="G60" s="81"/>
-      <c r="H60" s="81"/>
-      <c r="I60" s="81"/>
-      <c r="J60" s="81"/>
-      <c r="K60" s="81"/>
-      <c r="L60" s="81"/>
-      <c r="M60" s="81"/>
-      <c r="N60" s="81"/>
-      <c r="O60" s="81"/>
-      <c r="P60" s="81"/>
-      <c r="Q60" s="81"/>
+      <c r="B60" s="72"/>
+      <c r="C60" s="72"/>
+      <c r="D60" s="72"/>
+      <c r="E60" s="72"/>
+      <c r="F60" s="72"/>
+      <c r="G60" s="72"/>
+      <c r="H60" s="72"/>
+      <c r="I60" s="72"/>
+      <c r="J60" s="72"/>
+      <c r="K60" s="72"/>
+      <c r="L60" s="72"/>
+      <c r="M60" s="72"/>
+      <c r="N60" s="72"/>
+      <c r="O60" s="72"/>
+      <c r="P60" s="72"/>
+      <c r="Q60" s="72"/>
       <c r="R60"/>
     </row>
     <row r="61" spans="1:21" x14ac:dyDescent="0.3">
@@ -3960,10 +3960,10 @@
         <v>1</v>
       </c>
       <c r="B61" s="16"/>
-      <c r="C61" s="80" t="s">
+      <c r="C61" s="68" t="s">
         <v>68</v>
       </c>
-      <c r="D61" s="80"/>
+      <c r="D61" s="68"/>
       <c r="E61" s="17" t="s">
         <v>69</v>
       </c>
@@ -4010,10 +4010,10 @@
         <v>1</v>
       </c>
       <c r="B62" s="14"/>
-      <c r="C62" s="63" t="s">
+      <c r="C62" s="57" t="s">
         <v>82</v>
       </c>
-      <c r="D62" s="63"/>
+      <c r="D62" s="57"/>
       <c r="E62" s="25">
         <v>41</v>
       </c>
@@ -4060,10 +4060,10 @@
         <v>2</v>
       </c>
       <c r="B63" s="14"/>
-      <c r="C63" s="63" t="s">
+      <c r="C63" s="57" t="s">
         <v>83</v>
       </c>
-      <c r="D63" s="63"/>
+      <c r="D63" s="57"/>
       <c r="E63" s="25">
         <v>40</v>
       </c>
@@ -4110,10 +4110,10 @@
         <v>3</v>
       </c>
       <c r="B64" s="14"/>
-      <c r="C64" s="63" t="s">
+      <c r="C64" s="57" t="s">
         <v>88</v>
       </c>
-      <c r="D64" s="63"/>
+      <c r="D64" s="57"/>
       <c r="E64" s="25">
         <v>55</v>
       </c>
@@ -4160,10 +4160,10 @@
         <v>4</v>
       </c>
       <c r="B65" s="14"/>
-      <c r="C65" s="63" t="s">
+      <c r="C65" s="57" t="s">
         <v>89</v>
       </c>
-      <c r="D65" s="63"/>
+      <c r="D65" s="57"/>
       <c r="E65" s="25">
         <v>58</v>
       </c>
@@ -4210,10 +4210,10 @@
         <v>5</v>
       </c>
       <c r="B66" s="14"/>
-      <c r="C66" s="63" t="s">
+      <c r="C66" s="57" t="s">
         <v>29</v>
       </c>
-      <c r="D66" s="63"/>
+      <c r="D66" s="57"/>
       <c r="E66" s="25"/>
       <c r="F66" s="26"/>
       <c r="G66" s="27"/>
@@ -4234,10 +4234,10 @@
         <v>6</v>
       </c>
       <c r="B67" s="40"/>
-      <c r="C67" s="90" t="s">
+      <c r="C67" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="D67" s="91"/>
+      <c r="D67" s="55"/>
       <c r="E67" s="25"/>
       <c r="F67" s="26"/>
       <c r="G67" s="27"/>
@@ -4258,10 +4258,10 @@
         <v>7</v>
       </c>
       <c r="B68" s="14"/>
-      <c r="C68" s="63" t="s">
+      <c r="C68" s="57" t="s">
         <v>31</v>
       </c>
-      <c r="D68" s="63"/>
+      <c r="D68" s="57"/>
       <c r="E68" s="25"/>
       <c r="F68" s="26"/>
       <c r="G68" s="27"/>
@@ -4282,10 +4282,10 @@
         <v>8</v>
       </c>
       <c r="B69" s="40"/>
-      <c r="C69" s="90" t="s">
+      <c r="C69" s="54" t="s">
         <v>32</v>
       </c>
-      <c r="D69" s="91"/>
+      <c r="D69" s="55"/>
       <c r="E69" s="25"/>
       <c r="F69" s="26"/>
       <c r="G69" s="27"/>
@@ -4304,10 +4304,10 @@
     <row r="70" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A70" s="14"/>
       <c r="B70" s="14"/>
-      <c r="C70" s="74" t="s">
+      <c r="C70" s="58" t="s">
         <v>98</v>
       </c>
-      <c r="D70" s="74"/>
+      <c r="D70" s="58"/>
       <c r="E70" s="25">
         <f t="shared" ref="E70:O70" si="1">AVERAGE(E62:E69)</f>
         <v>48.5</v>
@@ -4363,25 +4363,25 @@
       <c r="R72"/>
     </row>
     <row r="73" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A73" s="79" t="s">
+      <c r="A73" s="75" t="s">
         <v>99</v>
       </c>
-      <c r="B73" s="79"/>
-      <c r="C73" s="79"/>
-      <c r="D73" s="79"/>
-      <c r="E73" s="79"/>
-      <c r="F73" s="79"/>
-      <c r="G73" s="79"/>
-      <c r="H73" s="79"/>
-      <c r="I73" s="79"/>
-      <c r="J73" s="79"/>
-      <c r="K73" s="79"/>
-      <c r="L73" s="79"/>
-      <c r="M73" s="79"/>
-      <c r="N73" s="79"/>
-      <c r="O73" s="79"/>
-      <c r="P73" s="79"/>
-      <c r="Q73" s="79"/>
+      <c r="B73" s="75"/>
+      <c r="C73" s="75"/>
+      <c r="D73" s="75"/>
+      <c r="E73" s="75"/>
+      <c r="F73" s="75"/>
+      <c r="G73" s="75"/>
+      <c r="H73" s="75"/>
+      <c r="I73" s="75"/>
+      <c r="J73" s="75"/>
+      <c r="K73" s="75"/>
+      <c r="L73" s="75"/>
+      <c r="M73" s="75"/>
+      <c r="N73" s="75"/>
+      <c r="O73" s="75"/>
+      <c r="P73" s="75"/>
+      <c r="Q73" s="75"/>
       <c r="R73"/>
     </row>
     <row r="74" spans="1:18" x14ac:dyDescent="0.3">
@@ -4389,10 +4389,10 @@
         <v>1</v>
       </c>
       <c r="B74" s="16"/>
-      <c r="C74" s="80" t="s">
+      <c r="C74" s="68" t="s">
         <v>68</v>
       </c>
-      <c r="D74" s="80"/>
+      <c r="D74" s="68"/>
       <c r="E74" s="17" t="s">
         <v>69</v>
       </c>
@@ -4439,10 +4439,10 @@
         <v>1</v>
       </c>
       <c r="B75" s="14"/>
-      <c r="C75" s="63" t="s">
+      <c r="C75" s="57" t="s">
         <v>101</v>
       </c>
-      <c r="D75" s="63"/>
+      <c r="D75" s="57"/>
       <c r="E75" s="25"/>
       <c r="F75" s="26"/>
       <c r="G75" s="27"/>
@@ -4463,10 +4463,10 @@
         <v>2</v>
       </c>
       <c r="B76" s="14"/>
-      <c r="C76" s="63" t="s">
+      <c r="C76" s="57" t="s">
         <v>102</v>
       </c>
-      <c r="D76" s="63"/>
+      <c r="D76" s="57"/>
       <c r="E76" s="25"/>
       <c r="F76" s="26"/>
       <c r="G76" s="27"/>
@@ -4487,10 +4487,10 @@
         <v>3</v>
       </c>
       <c r="B77" s="14"/>
-      <c r="C77" s="63" t="s">
+      <c r="C77" s="57" t="s">
         <v>103</v>
       </c>
-      <c r="D77" s="63"/>
+      <c r="D77" s="57"/>
       <c r="E77" s="25"/>
       <c r="F77" s="26"/>
       <c r="G77" s="27"/>
@@ -4510,10 +4510,10 @@
         <v>4</v>
       </c>
       <c r="B78" s="14"/>
-      <c r="C78" s="63" t="s">
+      <c r="C78" s="57" t="s">
         <v>104</v>
       </c>
-      <c r="D78" s="63"/>
+      <c r="D78" s="57"/>
       <c r="E78" s="25"/>
       <c r="F78" s="26"/>
       <c r="G78" s="27"/>
@@ -4533,8 +4533,8 @@
         <v>5</v>
       </c>
       <c r="B79" s="14"/>
-      <c r="C79" s="89"/>
-      <c r="D79" s="89"/>
+      <c r="C79" s="79"/>
+      <c r="D79" s="79"/>
       <c r="E79" s="25"/>
       <c r="F79" s="26"/>
       <c r="G79" s="27"/>
@@ -4554,8 +4554,8 @@
         <v>6</v>
       </c>
       <c r="B80" s="14"/>
-      <c r="C80" s="89"/>
-      <c r="D80" s="89"/>
+      <c r="C80" s="79"/>
+      <c r="D80" s="79"/>
       <c r="E80" s="25"/>
       <c r="F80" s="26"/>
       <c r="G80" s="27"/>
@@ -4573,10 +4573,10 @@
     <row r="81" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A81" s="14"/>
       <c r="B81" s="14"/>
-      <c r="C81" s="74" t="s">
+      <c r="C81" s="58" t="s">
         <v>98</v>
       </c>
-      <c r="D81" s="74"/>
+      <c r="D81" s="58"/>
       <c r="E81" s="25" t="e">
         <f t="shared" ref="E81:K81" si="2">AVERAGE(E75:E80)</f>
         <v>#DIV/0!</v>
@@ -4625,103 +4625,103 @@
       <c r="Q81" s="29"/>
     </row>
     <row r="84" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A84" s="75">
+      <c r="A84" s="59">
         <v>2022</v>
       </c>
-      <c r="B84" s="75"/>
-      <c r="C84" s="75"/>
-      <c r="D84" s="75"/>
-      <c r="E84" s="75"/>
-      <c r="F84" s="75"/>
-      <c r="G84" s="75"/>
-      <c r="H84" s="75"/>
-      <c r="I84" s="75"/>
-      <c r="J84" s="75"/>
-      <c r="K84" s="75"/>
-      <c r="L84" s="75"/>
-      <c r="M84" s="75"/>
-      <c r="N84" s="75"/>
-      <c r="O84" s="75"/>
-      <c r="P84" s="75"/>
-      <c r="Q84" s="75"/>
-      <c r="R84" s="75"/>
-      <c r="S84" s="75"/>
-      <c r="T84" s="75"/>
-      <c r="U84" s="75"/>
-      <c r="V84" s="75"/>
-      <c r="W84" s="75"/>
+      <c r="B84" s="59"/>
+      <c r="C84" s="59"/>
+      <c r="D84" s="59"/>
+      <c r="E84" s="59"/>
+      <c r="F84" s="59"/>
+      <c r="G84" s="59"/>
+      <c r="H84" s="59"/>
+      <c r="I84" s="59"/>
+      <c r="J84" s="59"/>
+      <c r="K84" s="59"/>
+      <c r="L84" s="59"/>
+      <c r="M84" s="59"/>
+      <c r="N84" s="59"/>
+      <c r="O84" s="59"/>
+      <c r="P84" s="59"/>
+      <c r="Q84" s="59"/>
+      <c r="R84" s="59"/>
+      <c r="S84" s="59"/>
+      <c r="T84" s="59"/>
+      <c r="U84" s="59"/>
+      <c r="V84" s="59"/>
+      <c r="W84" s="59"/>
     </row>
     <row r="85" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A85" s="75"/>
-      <c r="B85" s="75"/>
-      <c r="C85" s="75"/>
-      <c r="D85" s="75"/>
-      <c r="E85" s="75"/>
-      <c r="F85" s="75"/>
-      <c r="G85" s="75"/>
-      <c r="H85" s="75"/>
-      <c r="I85" s="75"/>
-      <c r="J85" s="75"/>
-      <c r="K85" s="75"/>
-      <c r="L85" s="75"/>
-      <c r="M85" s="75"/>
-      <c r="N85" s="75"/>
-      <c r="O85" s="75"/>
-      <c r="P85" s="75"/>
-      <c r="Q85" s="75"/>
-      <c r="R85" s="75"/>
-      <c r="S85" s="75"/>
-      <c r="T85" s="75"/>
-      <c r="U85" s="75"/>
-      <c r="V85" s="75"/>
-      <c r="W85" s="75"/>
+      <c r="A85" s="59"/>
+      <c r="B85" s="59"/>
+      <c r="C85" s="59"/>
+      <c r="D85" s="59"/>
+      <c r="E85" s="59"/>
+      <c r="F85" s="59"/>
+      <c r="G85" s="59"/>
+      <c r="H85" s="59"/>
+      <c r="I85" s="59"/>
+      <c r="J85" s="59"/>
+      <c r="K85" s="59"/>
+      <c r="L85" s="59"/>
+      <c r="M85" s="59"/>
+      <c r="N85" s="59"/>
+      <c r="O85" s="59"/>
+      <c r="P85" s="59"/>
+      <c r="Q85" s="59"/>
+      <c r="R85" s="59"/>
+      <c r="S85" s="59"/>
+      <c r="T85" s="59"/>
+      <c r="U85" s="59"/>
+      <c r="V85" s="59"/>
+      <c r="W85" s="59"/>
     </row>
     <row r="86" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A86" s="75"/>
-      <c r="B86" s="75"/>
-      <c r="C86" s="75"/>
-      <c r="D86" s="75"/>
-      <c r="E86" s="75"/>
-      <c r="F86" s="75"/>
-      <c r="G86" s="75"/>
-      <c r="H86" s="75"/>
-      <c r="I86" s="75"/>
-      <c r="J86" s="75"/>
-      <c r="K86" s="75"/>
-      <c r="L86" s="75"/>
-      <c r="M86" s="75"/>
-      <c r="N86" s="75"/>
-      <c r="O86" s="75"/>
-      <c r="P86" s="75"/>
-      <c r="Q86" s="75"/>
-      <c r="R86" s="75"/>
-      <c r="S86" s="75"/>
-      <c r="T86" s="75"/>
-      <c r="U86" s="75"/>
-      <c r="V86" s="75"/>
-      <c r="W86" s="75"/>
+      <c r="A86" s="59"/>
+      <c r="B86" s="59"/>
+      <c r="C86" s="59"/>
+      <c r="D86" s="59"/>
+      <c r="E86" s="59"/>
+      <c r="F86" s="59"/>
+      <c r="G86" s="59"/>
+      <c r="H86" s="59"/>
+      <c r="I86" s="59"/>
+      <c r="J86" s="59"/>
+      <c r="K86" s="59"/>
+      <c r="L86" s="59"/>
+      <c r="M86" s="59"/>
+      <c r="N86" s="59"/>
+      <c r="O86" s="59"/>
+      <c r="P86" s="59"/>
+      <c r="Q86" s="59"/>
+      <c r="R86" s="59"/>
+      <c r="S86" s="59"/>
+      <c r="T86" s="59"/>
+      <c r="U86" s="59"/>
+      <c r="V86" s="59"/>
+      <c r="W86" s="59"/>
     </row>
     <row r="87" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A87" s="76" t="s">
+      <c r="A87" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="B87" s="77"/>
-      <c r="C87" s="77"/>
-      <c r="D87" s="77"/>
-      <c r="E87" s="77"/>
-      <c r="F87" s="77"/>
-      <c r="G87" s="77"/>
-      <c r="H87" s="77"/>
-      <c r="I87" s="77"/>
-      <c r="J87" s="77"/>
-      <c r="K87" s="77"/>
-      <c r="L87" s="77"/>
-      <c r="M87" s="77"/>
-      <c r="N87" s="77"/>
-      <c r="O87" s="77"/>
-      <c r="P87" s="77"/>
-      <c r="Q87" s="77"/>
-      <c r="R87" s="78"/>
+      <c r="B87" s="70"/>
+      <c r="C87" s="70"/>
+      <c r="D87" s="70"/>
+      <c r="E87" s="70"/>
+      <c r="F87" s="70"/>
+      <c r="G87" s="70"/>
+      <c r="H87" s="70"/>
+      <c r="I87" s="70"/>
+      <c r="J87" s="70"/>
+      <c r="K87" s="70"/>
+      <c r="L87" s="70"/>
+      <c r="M87" s="70"/>
+      <c r="N87" s="70"/>
+      <c r="O87" s="70"/>
+      <c r="P87" s="70"/>
+      <c r="Q87" s="70"/>
+      <c r="R87" s="71"/>
       <c r="S87" s="38"/>
       <c r="T87" s="38"/>
       <c r="U87" s="38"/>
@@ -4732,17 +4732,17 @@
         <v>1</v>
       </c>
       <c r="B89" s="5"/>
-      <c r="C89" s="72" t="s">
+      <c r="C89" s="73" t="s">
         <v>56</v>
       </c>
-      <c r="D89" s="72"/>
-      <c r="E89" s="72"/>
-      <c r="F89" s="72"/>
-      <c r="G89" s="72"/>
-      <c r="H89" s="72"/>
-      <c r="I89" s="72"/>
-      <c r="J89" s="72"/>
-      <c r="K89" s="72"/>
+      <c r="D89" s="73"/>
+      <c r="E89" s="73"/>
+      <c r="F89" s="73"/>
+      <c r="G89" s="73"/>
+      <c r="H89" s="73"/>
+      <c r="I89" s="73"/>
+      <c r="J89" s="73"/>
+      <c r="K89" s="73"/>
       <c r="L89" s="5" t="s">
         <v>2</v>
       </c>
@@ -4780,17 +4780,17 @@
         <v>1</v>
       </c>
       <c r="B90" s="1"/>
-      <c r="C90" s="73" t="s">
+      <c r="C90" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="D90" s="73"/>
-      <c r="E90" s="73"/>
-      <c r="F90" s="73"/>
-      <c r="G90" s="73"/>
-      <c r="H90" s="73"/>
-      <c r="I90" s="73"/>
-      <c r="J90" s="73"/>
-      <c r="K90" s="73"/>
+      <c r="D90" s="74"/>
+      <c r="E90" s="74"/>
+      <c r="F90" s="74"/>
+      <c r="G90" s="74"/>
+      <c r="H90" s="74"/>
+      <c r="I90" s="74"/>
+      <c r="J90" s="74"/>
+      <c r="K90" s="74"/>
       <c r="L90" s="6">
         <v>17</v>
       </c>
@@ -4826,17 +4826,17 @@
         <v>2</v>
       </c>
       <c r="B91" s="1"/>
-      <c r="C91" s="64" t="s">
+      <c r="C91" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="D91" s="65"/>
-      <c r="E91" s="65"/>
-      <c r="F91" s="65"/>
-      <c r="G91" s="65"/>
-      <c r="H91" s="65"/>
-      <c r="I91" s="65"/>
-      <c r="J91" s="65"/>
-      <c r="K91" s="65"/>
+      <c r="D91" s="67"/>
+      <c r="E91" s="67"/>
+      <c r="F91" s="67"/>
+      <c r="G91" s="67"/>
+      <c r="H91" s="67"/>
+      <c r="I91" s="67"/>
+      <c r="J91" s="67"/>
+      <c r="K91" s="67"/>
       <c r="L91" s="6">
         <v>17</v>
       </c>
@@ -4872,17 +4872,17 @@
         <v>3</v>
       </c>
       <c r="B92" s="1"/>
-      <c r="C92" s="64" t="s">
+      <c r="C92" s="66" t="s">
         <v>34</v>
       </c>
-      <c r="D92" s="65"/>
-      <c r="E92" s="65"/>
-      <c r="F92" s="65"/>
-      <c r="G92" s="65"/>
-      <c r="H92" s="65"/>
-      <c r="I92" s="65"/>
-      <c r="J92" s="65"/>
-      <c r="K92" s="65"/>
+      <c r="D92" s="67"/>
+      <c r="E92" s="67"/>
+      <c r="F92" s="67"/>
+      <c r="G92" s="67"/>
+      <c r="H92" s="67"/>
+      <c r="I92" s="67"/>
+      <c r="J92" s="67"/>
+      <c r="K92" s="67"/>
       <c r="L92" s="6">
         <v>17</v>
       </c>
@@ -4918,17 +4918,17 @@
         <v>4</v>
       </c>
       <c r="B93" s="1"/>
-      <c r="C93" s="65" t="s">
+      <c r="C93" s="67" t="s">
         <v>35</v>
       </c>
-      <c r="D93" s="65"/>
-      <c r="E93" s="65"/>
-      <c r="F93" s="65"/>
-      <c r="G93" s="65"/>
-      <c r="H93" s="65"/>
-      <c r="I93" s="65"/>
-      <c r="J93" s="65"/>
-      <c r="K93" s="65"/>
+      <c r="D93" s="67"/>
+      <c r="E93" s="67"/>
+      <c r="F93" s="67"/>
+      <c r="G93" s="67"/>
+      <c r="H93" s="67"/>
+      <c r="I93" s="67"/>
+      <c r="J93" s="67"/>
+      <c r="K93" s="67"/>
       <c r="L93" s="6">
         <v>17</v>
       </c>
@@ -4964,17 +4964,17 @@
         <v>5</v>
       </c>
       <c r="B94" s="1"/>
-      <c r="C94" s="64" t="s">
+      <c r="C94" s="66" t="s">
         <v>36</v>
       </c>
-      <c r="D94" s="65"/>
-      <c r="E94" s="65"/>
-      <c r="F94" s="65"/>
-      <c r="G94" s="65"/>
-      <c r="H94" s="65"/>
-      <c r="I94" s="65"/>
-      <c r="J94" s="65"/>
-      <c r="K94" s="65"/>
+      <c r="D94" s="67"/>
+      <c r="E94" s="67"/>
+      <c r="F94" s="67"/>
+      <c r="G94" s="67"/>
+      <c r="H94" s="67"/>
+      <c r="I94" s="67"/>
+      <c r="J94" s="67"/>
+      <c r="K94" s="67"/>
       <c r="L94" s="6">
         <v>17</v>
       </c>
@@ -5010,17 +5010,17 @@
         <v>6</v>
       </c>
       <c r="B95" s="1"/>
-      <c r="C95" s="64" t="s">
+      <c r="C95" s="66" t="s">
         <v>37</v>
       </c>
-      <c r="D95" s="65"/>
-      <c r="E95" s="65"/>
-      <c r="F95" s="65"/>
-      <c r="G95" s="65"/>
-      <c r="H95" s="65"/>
-      <c r="I95" s="65"/>
-      <c r="J95" s="65"/>
-      <c r="K95" s="65"/>
+      <c r="D95" s="67"/>
+      <c r="E95" s="67"/>
+      <c r="F95" s="67"/>
+      <c r="G95" s="67"/>
+      <c r="H95" s="67"/>
+      <c r="I95" s="67"/>
+      <c r="J95" s="67"/>
+      <c r="K95" s="67"/>
       <c r="L95" s="6">
         <v>17</v>
       </c>
@@ -5056,17 +5056,17 @@
         <v>7</v>
       </c>
       <c r="B96" s="1"/>
-      <c r="C96" s="65" t="s">
+      <c r="C96" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="D96" s="65"/>
-      <c r="E96" s="65"/>
-      <c r="F96" s="65"/>
-      <c r="G96" s="65"/>
-      <c r="H96" s="65"/>
-      <c r="I96" s="65"/>
-      <c r="J96" s="65"/>
-      <c r="K96" s="65"/>
+      <c r="D96" s="67"/>
+      <c r="E96" s="67"/>
+      <c r="F96" s="67"/>
+      <c r="G96" s="67"/>
+      <c r="H96" s="67"/>
+      <c r="I96" s="67"/>
+      <c r="J96" s="67"/>
+      <c r="K96" s="67"/>
       <c r="L96" s="6">
         <v>17</v>
       </c>
@@ -5102,17 +5102,17 @@
         <v>8</v>
       </c>
       <c r="B97" s="1"/>
-      <c r="C97" s="64" t="s">
+      <c r="C97" s="66" t="s">
         <v>38</v>
       </c>
-      <c r="D97" s="65"/>
-      <c r="E97" s="65"/>
-      <c r="F97" s="65"/>
-      <c r="G97" s="65"/>
-      <c r="H97" s="65"/>
-      <c r="I97" s="65"/>
-      <c r="J97" s="65"/>
-      <c r="K97" s="65"/>
+      <c r="D97" s="67"/>
+      <c r="E97" s="67"/>
+      <c r="F97" s="67"/>
+      <c r="G97" s="67"/>
+      <c r="H97" s="67"/>
+      <c r="I97" s="67"/>
+      <c r="J97" s="67"/>
+      <c r="K97" s="67"/>
       <c r="L97" s="6">
         <v>17</v>
       </c>
@@ -5135,17 +5135,17 @@
         <v>9</v>
       </c>
       <c r="B98" s="1"/>
-      <c r="C98" s="64" t="s">
+      <c r="C98" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="D98" s="65"/>
-      <c r="E98" s="65"/>
-      <c r="F98" s="65"/>
-      <c r="G98" s="65"/>
-      <c r="H98" s="65"/>
-      <c r="I98" s="65"/>
-      <c r="J98" s="65"/>
-      <c r="K98" s="65"/>
+      <c r="D98" s="67"/>
+      <c r="E98" s="67"/>
+      <c r="F98" s="67"/>
+      <c r="G98" s="67"/>
+      <c r="H98" s="67"/>
+      <c r="I98" s="67"/>
+      <c r="J98" s="67"/>
+      <c r="K98" s="67"/>
       <c r="L98" s="6">
         <v>17</v>
       </c>
@@ -5168,17 +5168,17 @@
         <v>10</v>
       </c>
       <c r="B99" s="1"/>
-      <c r="C99" s="64" t="s">
+      <c r="C99" s="66" t="s">
         <v>40</v>
       </c>
-      <c r="D99" s="65"/>
-      <c r="E99" s="65"/>
-      <c r="F99" s="65"/>
-      <c r="G99" s="65"/>
-      <c r="H99" s="65"/>
-      <c r="I99" s="65"/>
-      <c r="J99" s="65"/>
-      <c r="K99" s="65"/>
+      <c r="D99" s="67"/>
+      <c r="E99" s="67"/>
+      <c r="F99" s="67"/>
+      <c r="G99" s="67"/>
+      <c r="H99" s="67"/>
+      <c r="I99" s="67"/>
+      <c r="J99" s="67"/>
+      <c r="K99" s="67"/>
       <c r="L99" s="6">
         <v>17</v>
       </c>
@@ -5214,17 +5214,17 @@
         <v>11</v>
       </c>
       <c r="B100" s="1"/>
-      <c r="C100" s="64" t="s">
+      <c r="C100" s="66" t="s">
         <v>41</v>
       </c>
-      <c r="D100" s="65"/>
-      <c r="E100" s="65"/>
-      <c r="F100" s="65"/>
-      <c r="G100" s="65"/>
-      <c r="H100" s="65"/>
-      <c r="I100" s="65"/>
-      <c r="J100" s="65"/>
-      <c r="K100" s="65"/>
+      <c r="D100" s="67"/>
+      <c r="E100" s="67"/>
+      <c r="F100" s="67"/>
+      <c r="G100" s="67"/>
+      <c r="H100" s="67"/>
+      <c r="I100" s="67"/>
+      <c r="J100" s="67"/>
+      <c r="K100" s="67"/>
       <c r="L100" s="6">
         <v>17</v>
       </c>
@@ -5247,17 +5247,17 @@
         <v>12</v>
       </c>
       <c r="B101" s="1"/>
-      <c r="C101" s="64" t="s">
+      <c r="C101" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="D101" s="65"/>
-      <c r="E101" s="65"/>
-      <c r="F101" s="65"/>
-      <c r="G101" s="65"/>
-      <c r="H101" s="65"/>
-      <c r="I101" s="65"/>
-      <c r="J101" s="65"/>
-      <c r="K101" s="65"/>
+      <c r="D101" s="67"/>
+      <c r="E101" s="67"/>
+      <c r="F101" s="67"/>
+      <c r="G101" s="67"/>
+      <c r="H101" s="67"/>
+      <c r="I101" s="67"/>
+      <c r="J101" s="67"/>
+      <c r="K101" s="67"/>
       <c r="L101" s="6">
         <v>17</v>
       </c>
@@ -5280,17 +5280,17 @@
         <v>13</v>
       </c>
       <c r="B102" s="1"/>
-      <c r="C102" s="65" t="s">
+      <c r="C102" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="D102" s="65"/>
-      <c r="E102" s="65"/>
-      <c r="F102" s="65"/>
-      <c r="G102" s="65"/>
-      <c r="H102" s="65"/>
-      <c r="I102" s="65"/>
-      <c r="J102" s="65"/>
-      <c r="K102" s="65"/>
+      <c r="D102" s="67"/>
+      <c r="E102" s="67"/>
+      <c r="F102" s="67"/>
+      <c r="G102" s="67"/>
+      <c r="H102" s="67"/>
+      <c r="I102" s="67"/>
+      <c r="J102" s="67"/>
+      <c r="K102" s="67"/>
       <c r="L102" s="6">
         <v>17</v>
       </c>
@@ -5326,17 +5326,17 @@
         <v>14</v>
       </c>
       <c r="B103" s="1"/>
-      <c r="C103" s="64" t="s">
+      <c r="C103" s="66" t="s">
         <v>43</v>
       </c>
-      <c r="D103" s="65"/>
-      <c r="E103" s="65"/>
-      <c r="F103" s="65"/>
-      <c r="G103" s="65"/>
-      <c r="H103" s="65"/>
-      <c r="I103" s="65"/>
-      <c r="J103" s="65"/>
-      <c r="K103" s="65"/>
+      <c r="D103" s="67"/>
+      <c r="E103" s="67"/>
+      <c r="F103" s="67"/>
+      <c r="G103" s="67"/>
+      <c r="H103" s="67"/>
+      <c r="I103" s="67"/>
+      <c r="J103" s="67"/>
+      <c r="K103" s="67"/>
       <c r="L103" s="6">
         <v>17</v>
       </c>
@@ -5372,17 +5372,17 @@
         <v>15</v>
       </c>
       <c r="B104" s="1"/>
-      <c r="C104" s="65" t="s">
+      <c r="C104" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="D104" s="65"/>
-      <c r="E104" s="65"/>
-      <c r="F104" s="65"/>
-      <c r="G104" s="65"/>
-      <c r="H104" s="65"/>
-      <c r="I104" s="65"/>
-      <c r="J104" s="65"/>
-      <c r="K104" s="65"/>
+      <c r="D104" s="67"/>
+      <c r="E104" s="67"/>
+      <c r="F104" s="67"/>
+      <c r="G104" s="67"/>
+      <c r="H104" s="67"/>
+      <c r="I104" s="67"/>
+      <c r="J104" s="67"/>
+      <c r="K104" s="67"/>
       <c r="L104" s="6">
         <v>17</v>
       </c>
@@ -5418,17 +5418,17 @@
         <v>16</v>
       </c>
       <c r="B105" s="1"/>
-      <c r="C105" s="65" t="s">
+      <c r="C105" s="67" t="s">
         <v>44</v>
       </c>
-      <c r="D105" s="65"/>
-      <c r="E105" s="65"/>
-      <c r="F105" s="65"/>
-      <c r="G105" s="65"/>
-      <c r="H105" s="65"/>
-      <c r="I105" s="65"/>
-      <c r="J105" s="65"/>
-      <c r="K105" s="65"/>
+      <c r="D105" s="67"/>
+      <c r="E105" s="67"/>
+      <c r="F105" s="67"/>
+      <c r="G105" s="67"/>
+      <c r="H105" s="67"/>
+      <c r="I105" s="67"/>
+      <c r="J105" s="67"/>
+      <c r="K105" s="67"/>
       <c r="L105" s="6">
         <v>17</v>
       </c>
@@ -5451,17 +5451,17 @@
         <v>17</v>
       </c>
       <c r="B106" s="1"/>
-      <c r="C106" s="64" t="s">
+      <c r="C106" s="66" t="s">
         <v>45</v>
       </c>
-      <c r="D106" s="65"/>
-      <c r="E106" s="65"/>
-      <c r="F106" s="65"/>
-      <c r="G106" s="65"/>
-      <c r="H106" s="65"/>
-      <c r="I106" s="65"/>
-      <c r="J106" s="65"/>
-      <c r="K106" s="65"/>
+      <c r="D106" s="67"/>
+      <c r="E106" s="67"/>
+      <c r="F106" s="67"/>
+      <c r="G106" s="67"/>
+      <c r="H106" s="67"/>
+      <c r="I106" s="67"/>
+      <c r="J106" s="67"/>
+      <c r="K106" s="67"/>
       <c r="L106" s="6">
         <v>17</v>
       </c>
@@ -5497,17 +5497,17 @@
         <v>18</v>
       </c>
       <c r="B107" s="1"/>
-      <c r="C107" s="64" t="s">
+      <c r="C107" s="66" t="s">
         <v>46</v>
       </c>
-      <c r="D107" s="65"/>
-      <c r="E107" s="65"/>
-      <c r="F107" s="65"/>
-      <c r="G107" s="65"/>
-      <c r="H107" s="65"/>
-      <c r="I107" s="65"/>
-      <c r="J107" s="65"/>
-      <c r="K107" s="65"/>
+      <c r="D107" s="67"/>
+      <c r="E107" s="67"/>
+      <c r="F107" s="67"/>
+      <c r="G107" s="67"/>
+      <c r="H107" s="67"/>
+      <c r="I107" s="67"/>
+      <c r="J107" s="67"/>
+      <c r="K107" s="67"/>
       <c r="L107" s="6">
         <v>17</v>
       </c>
@@ -5530,17 +5530,17 @@
         <v>19</v>
       </c>
       <c r="B108" s="1"/>
-      <c r="C108" s="65" t="s">
+      <c r="C108" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="D108" s="65"/>
-      <c r="E108" s="65"/>
-      <c r="F108" s="65"/>
-      <c r="G108" s="65"/>
-      <c r="H108" s="65"/>
-      <c r="I108" s="65"/>
-      <c r="J108" s="65"/>
-      <c r="K108" s="65"/>
+      <c r="D108" s="67"/>
+      <c r="E108" s="67"/>
+      <c r="F108" s="67"/>
+      <c r="G108" s="67"/>
+      <c r="H108" s="67"/>
+      <c r="I108" s="67"/>
+      <c r="J108" s="67"/>
+      <c r="K108" s="67"/>
       <c r="L108" s="6">
         <v>17</v>
       </c>
@@ -5576,17 +5576,17 @@
         <v>20</v>
       </c>
       <c r="B109" s="1"/>
-      <c r="C109" s="65" t="s">
+      <c r="C109" s="67" t="s">
         <v>47</v>
       </c>
-      <c r="D109" s="65"/>
-      <c r="E109" s="65"/>
-      <c r="F109" s="65"/>
-      <c r="G109" s="65"/>
-      <c r="H109" s="65"/>
-      <c r="I109" s="65"/>
-      <c r="J109" s="65"/>
-      <c r="K109" s="65"/>
+      <c r="D109" s="67"/>
+      <c r="E109" s="67"/>
+      <c r="F109" s="67"/>
+      <c r="G109" s="67"/>
+      <c r="H109" s="67"/>
+      <c r="I109" s="67"/>
+      <c r="J109" s="67"/>
+      <c r="K109" s="67"/>
       <c r="L109" s="6">
         <v>17</v>
       </c>
@@ -5622,17 +5622,17 @@
         <v>21</v>
       </c>
       <c r="B110" s="1"/>
-      <c r="C110" s="65" t="s">
+      <c r="C110" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="D110" s="65"/>
-      <c r="E110" s="65"/>
-      <c r="F110" s="65"/>
-      <c r="G110" s="65"/>
-      <c r="H110" s="65"/>
-      <c r="I110" s="65"/>
-      <c r="J110" s="65"/>
-      <c r="K110" s="65"/>
+      <c r="D110" s="67"/>
+      <c r="E110" s="67"/>
+      <c r="F110" s="67"/>
+      <c r="G110" s="67"/>
+      <c r="H110" s="67"/>
+      <c r="I110" s="67"/>
+      <c r="J110" s="67"/>
+      <c r="K110" s="67"/>
       <c r="L110" s="6">
         <v>17</v>
       </c>
@@ -5668,17 +5668,17 @@
         <v>22</v>
       </c>
       <c r="B111" s="1"/>
-      <c r="C111" s="64" t="s">
+      <c r="C111" s="66" t="s">
         <v>48</v>
       </c>
-      <c r="D111" s="65"/>
-      <c r="E111" s="65"/>
-      <c r="F111" s="65"/>
-      <c r="G111" s="65"/>
-      <c r="H111" s="65"/>
-      <c r="I111" s="65"/>
-      <c r="J111" s="65"/>
-      <c r="K111" s="65"/>
+      <c r="D111" s="67"/>
+      <c r="E111" s="67"/>
+      <c r="F111" s="67"/>
+      <c r="G111" s="67"/>
+      <c r="H111" s="67"/>
+      <c r="I111" s="67"/>
+      <c r="J111" s="67"/>
+      <c r="K111" s="67"/>
       <c r="L111" s="6">
         <v>17</v>
       </c>
@@ -5714,17 +5714,17 @@
         <v>23</v>
       </c>
       <c r="B112" s="1"/>
-      <c r="C112" s="65" t="s">
+      <c r="C112" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="D112" s="65"/>
-      <c r="E112" s="65"/>
-      <c r="F112" s="65"/>
-      <c r="G112" s="65"/>
-      <c r="H112" s="65"/>
-      <c r="I112" s="65"/>
-      <c r="J112" s="65"/>
-      <c r="K112" s="65"/>
+      <c r="D112" s="67"/>
+      <c r="E112" s="67"/>
+      <c r="F112" s="67"/>
+      <c r="G112" s="67"/>
+      <c r="H112" s="67"/>
+      <c r="I112" s="67"/>
+      <c r="J112" s="67"/>
+      <c r="K112" s="67"/>
       <c r="L112" s="6">
         <v>17</v>
       </c>
@@ -5747,17 +5747,17 @@
         <v>24</v>
       </c>
       <c r="B113" s="1"/>
-      <c r="C113" s="64" t="s">
+      <c r="C113" s="66" t="s">
         <v>49</v>
       </c>
-      <c r="D113" s="65"/>
-      <c r="E113" s="65"/>
-      <c r="F113" s="65"/>
-      <c r="G113" s="65"/>
-      <c r="H113" s="65"/>
-      <c r="I113" s="65"/>
-      <c r="J113" s="65"/>
-      <c r="K113" s="65"/>
+      <c r="D113" s="67"/>
+      <c r="E113" s="67"/>
+      <c r="F113" s="67"/>
+      <c r="G113" s="67"/>
+      <c r="H113" s="67"/>
+      <c r="I113" s="67"/>
+      <c r="J113" s="67"/>
+      <c r="K113" s="67"/>
       <c r="L113" s="6">
         <v>17</v>
       </c>
@@ -5780,20 +5780,20 @@
         <v>25</v>
       </c>
       <c r="B114" s="8"/>
-      <c r="C114" s="66" t="s">
+      <c r="C114" s="60" t="s">
         <v>58</v>
       </c>
-      <c r="D114" s="67"/>
-      <c r="E114" s="67"/>
-      <c r="F114" s="67"/>
-      <c r="G114" s="67"/>
-      <c r="H114" s="67"/>
-      <c r="I114" s="67"/>
-      <c r="J114" s="67"/>
-      <c r="K114" s="67"/>
-      <c r="L114" s="67"/>
-      <c r="M114" s="67"/>
-      <c r="N114" s="68"/>
+      <c r="D114" s="61"/>
+      <c r="E114" s="61"/>
+      <c r="F114" s="61"/>
+      <c r="G114" s="61"/>
+      <c r="H114" s="61"/>
+      <c r="I114" s="61"/>
+      <c r="J114" s="61"/>
+      <c r="K114" s="61"/>
+      <c r="L114" s="61"/>
+      <c r="M114" s="61"/>
+      <c r="N114" s="62"/>
       <c r="O114" s="11"/>
       <c r="P114" s="12">
         <f>AVERAGE(P90:P113)</f>
@@ -5814,26 +5814,26 @@
     </row>
     <row r="116" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="117" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A117" s="82" t="s">
+      <c r="A117" s="76" t="s">
         <v>13</v>
       </c>
-      <c r="B117" s="83"/>
-      <c r="C117" s="83"/>
-      <c r="D117" s="83"/>
-      <c r="E117" s="83"/>
-      <c r="F117" s="83"/>
-      <c r="G117" s="83"/>
-      <c r="H117" s="83"/>
-      <c r="I117" s="83"/>
-      <c r="J117" s="83"/>
-      <c r="K117" s="83"/>
-      <c r="L117" s="83"/>
-      <c r="M117" s="83"/>
-      <c r="N117" s="83"/>
-      <c r="O117" s="83"/>
-      <c r="P117" s="83"/>
-      <c r="Q117" s="83"/>
-      <c r="R117" s="84"/>
+      <c r="B117" s="77"/>
+      <c r="C117" s="77"/>
+      <c r="D117" s="77"/>
+      <c r="E117" s="77"/>
+      <c r="F117" s="77"/>
+      <c r="G117" s="77"/>
+      <c r="H117" s="77"/>
+      <c r="I117" s="77"/>
+      <c r="J117" s="77"/>
+      <c r="K117" s="77"/>
+      <c r="L117" s="77"/>
+      <c r="M117" s="77"/>
+      <c r="N117" s="77"/>
+      <c r="O117" s="77"/>
+      <c r="P117" s="77"/>
+      <c r="Q117" s="77"/>
+      <c r="R117" s="78"/>
       <c r="S117" s="15"/>
       <c r="T117" s="15"/>
       <c r="U117" s="15"/>
@@ -5843,17 +5843,17 @@
         <v>1</v>
       </c>
       <c r="B119" s="5"/>
-      <c r="C119" s="72" t="s">
+      <c r="C119" s="73" t="s">
         <v>56</v>
       </c>
-      <c r="D119" s="72"/>
-      <c r="E119" s="72"/>
-      <c r="F119" s="72"/>
-      <c r="G119" s="72"/>
-      <c r="H119" s="72"/>
-      <c r="I119" s="72"/>
-      <c r="J119" s="72"/>
-      <c r="K119" s="72"/>
+      <c r="D119" s="73"/>
+      <c r="E119" s="73"/>
+      <c r="F119" s="73"/>
+      <c r="G119" s="73"/>
+      <c r="H119" s="73"/>
+      <c r="I119" s="73"/>
+      <c r="J119" s="73"/>
+      <c r="K119" s="73"/>
       <c r="L119" s="5" t="s">
         <v>2</v>
       </c>
@@ -5890,17 +5890,17 @@
         <v>1</v>
       </c>
       <c r="B120" s="1"/>
-      <c r="C120" s="73" t="s">
+      <c r="C120" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="D120" s="73"/>
-      <c r="E120" s="73"/>
-      <c r="F120" s="73"/>
-      <c r="G120" s="73"/>
-      <c r="H120" s="73"/>
-      <c r="I120" s="73"/>
-      <c r="J120" s="73"/>
-      <c r="K120" s="73"/>
+      <c r="D120" s="74"/>
+      <c r="E120" s="74"/>
+      <c r="F120" s="74"/>
+      <c r="G120" s="74"/>
+      <c r="H120" s="74"/>
+      <c r="I120" s="74"/>
+      <c r="J120" s="74"/>
+      <c r="K120" s="74"/>
       <c r="L120" s="6">
         <v>33</v>
       </c>
@@ -5923,17 +5923,17 @@
         <v>2</v>
       </c>
       <c r="B121" s="1"/>
-      <c r="C121" s="64" t="s">
+      <c r="C121" s="66" t="s">
         <v>16</v>
       </c>
-      <c r="D121" s="65"/>
-      <c r="E121" s="65"/>
-      <c r="F121" s="65"/>
-      <c r="G121" s="65"/>
-      <c r="H121" s="65"/>
-      <c r="I121" s="65"/>
-      <c r="J121" s="65"/>
-      <c r="K121" s="65"/>
+      <c r="D121" s="67"/>
+      <c r="E121" s="67"/>
+      <c r="F121" s="67"/>
+      <c r="G121" s="67"/>
+      <c r="H121" s="67"/>
+      <c r="I121" s="67"/>
+      <c r="J121" s="67"/>
+      <c r="K121" s="67"/>
       <c r="L121" s="6">
         <v>33</v>
       </c>
@@ -5956,17 +5956,17 @@
         <v>3</v>
       </c>
       <c r="B122" s="1"/>
-      <c r="C122" s="64" t="s">
+      <c r="C122" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="D122" s="65"/>
-      <c r="E122" s="65"/>
-      <c r="F122" s="65"/>
-      <c r="G122" s="65"/>
-      <c r="H122" s="65"/>
-      <c r="I122" s="65"/>
-      <c r="J122" s="65"/>
-      <c r="K122" s="65"/>
+      <c r="D122" s="67"/>
+      <c r="E122" s="67"/>
+      <c r="F122" s="67"/>
+      <c r="G122" s="67"/>
+      <c r="H122" s="67"/>
+      <c r="I122" s="67"/>
+      <c r="J122" s="67"/>
+      <c r="K122" s="67"/>
       <c r="L122" s="6">
         <v>33</v>
       </c>
@@ -6002,17 +6002,17 @@
         <v>4</v>
       </c>
       <c r="B123" s="1"/>
-      <c r="C123" s="65" t="s">
+      <c r="C123" s="67" t="s">
         <v>18</v>
       </c>
-      <c r="D123" s="65"/>
-      <c r="E123" s="65"/>
-      <c r="F123" s="65"/>
-      <c r="G123" s="65"/>
-      <c r="H123" s="65"/>
-      <c r="I123" s="65"/>
-      <c r="J123" s="65"/>
-      <c r="K123" s="65"/>
+      <c r="D123" s="67"/>
+      <c r="E123" s="67"/>
+      <c r="F123" s="67"/>
+      <c r="G123" s="67"/>
+      <c r="H123" s="67"/>
+      <c r="I123" s="67"/>
+      <c r="J123" s="67"/>
+      <c r="K123" s="67"/>
       <c r="L123" s="6">
         <v>33</v>
       </c>
@@ -6035,17 +6035,17 @@
         <v>5</v>
       </c>
       <c r="B124" s="1"/>
-      <c r="C124" s="64" t="s">
+      <c r="C124" s="66" t="s">
         <v>61</v>
       </c>
-      <c r="D124" s="65"/>
-      <c r="E124" s="65"/>
-      <c r="F124" s="65"/>
-      <c r="G124" s="65"/>
-      <c r="H124" s="65"/>
-      <c r="I124" s="65"/>
-      <c r="J124" s="65"/>
-      <c r="K124" s="65"/>
+      <c r="D124" s="67"/>
+      <c r="E124" s="67"/>
+      <c r="F124" s="67"/>
+      <c r="G124" s="67"/>
+      <c r="H124" s="67"/>
+      <c r="I124" s="67"/>
+      <c r="J124" s="67"/>
+      <c r="K124" s="67"/>
       <c r="L124" s="6">
         <v>33</v>
       </c>
@@ -6068,17 +6068,17 @@
         <v>6</v>
       </c>
       <c r="B125" s="1"/>
-      <c r="C125" s="64" t="s">
+      <c r="C125" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="D125" s="65"/>
-      <c r="E125" s="65"/>
-      <c r="F125" s="65"/>
-      <c r="G125" s="65"/>
-      <c r="H125" s="65"/>
-      <c r="I125" s="65"/>
-      <c r="J125" s="65"/>
-      <c r="K125" s="65"/>
+      <c r="D125" s="67"/>
+      <c r="E125" s="67"/>
+      <c r="F125" s="67"/>
+      <c r="G125" s="67"/>
+      <c r="H125" s="67"/>
+      <c r="I125" s="67"/>
+      <c r="J125" s="67"/>
+      <c r="K125" s="67"/>
       <c r="L125" s="6">
         <v>33</v>
       </c>
@@ -6101,17 +6101,17 @@
         <v>7</v>
       </c>
       <c r="B126" s="1"/>
-      <c r="C126" s="65" t="s">
+      <c r="C126" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="D126" s="65"/>
-      <c r="E126" s="65"/>
-      <c r="F126" s="65"/>
-      <c r="G126" s="65"/>
-      <c r="H126" s="65"/>
-      <c r="I126" s="65"/>
-      <c r="J126" s="65"/>
-      <c r="K126" s="65"/>
+      <c r="D126" s="67"/>
+      <c r="E126" s="67"/>
+      <c r="F126" s="67"/>
+      <c r="G126" s="67"/>
+      <c r="H126" s="67"/>
+      <c r="I126" s="67"/>
+      <c r="J126" s="67"/>
+      <c r="K126" s="67"/>
       <c r="L126" s="6">
         <v>33</v>
       </c>
@@ -6134,17 +6134,17 @@
         <v>8</v>
       </c>
       <c r="B127" s="1"/>
-      <c r="C127" s="64" t="s">
+      <c r="C127" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="D127" s="65"/>
-      <c r="E127" s="65"/>
-      <c r="F127" s="65"/>
-      <c r="G127" s="65"/>
-      <c r="H127" s="65"/>
-      <c r="I127" s="65"/>
-      <c r="J127" s="65"/>
-      <c r="K127" s="65"/>
+      <c r="D127" s="67"/>
+      <c r="E127" s="67"/>
+      <c r="F127" s="67"/>
+      <c r="G127" s="67"/>
+      <c r="H127" s="67"/>
+      <c r="I127" s="67"/>
+      <c r="J127" s="67"/>
+      <c r="K127" s="67"/>
       <c r="L127" s="6">
         <v>33</v>
       </c>
@@ -6167,17 +6167,17 @@
         <v>9</v>
       </c>
       <c r="B128" s="1"/>
-      <c r="C128" s="64" t="s">
+      <c r="C128" s="66" t="s">
         <v>62</v>
       </c>
-      <c r="D128" s="65"/>
-      <c r="E128" s="65"/>
-      <c r="F128" s="65"/>
-      <c r="G128" s="65"/>
-      <c r="H128" s="65"/>
-      <c r="I128" s="65"/>
-      <c r="J128" s="65"/>
-      <c r="K128" s="65"/>
+      <c r="D128" s="67"/>
+      <c r="E128" s="67"/>
+      <c r="F128" s="67"/>
+      <c r="G128" s="67"/>
+      <c r="H128" s="67"/>
+      <c r="I128" s="67"/>
+      <c r="J128" s="67"/>
+      <c r="K128" s="67"/>
       <c r="L128" s="6">
         <v>33</v>
       </c>
@@ -6200,17 +6200,17 @@
         <v>10</v>
       </c>
       <c r="B129" s="1"/>
-      <c r="C129" s="64" t="s">
+      <c r="C129" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="D129" s="65"/>
-      <c r="E129" s="65"/>
-      <c r="F129" s="65"/>
-      <c r="G129" s="65"/>
-      <c r="H129" s="65"/>
-      <c r="I129" s="65"/>
-      <c r="J129" s="65"/>
-      <c r="K129" s="65"/>
+      <c r="D129" s="67"/>
+      <c r="E129" s="67"/>
+      <c r="F129" s="67"/>
+      <c r="G129" s="67"/>
+      <c r="H129" s="67"/>
+      <c r="I129" s="67"/>
+      <c r="J129" s="67"/>
+      <c r="K129" s="67"/>
       <c r="L129" s="6">
         <v>33</v>
       </c>
@@ -6233,17 +6233,17 @@
         <v>11</v>
       </c>
       <c r="B130" s="1"/>
-      <c r="C130" s="64" t="s">
+      <c r="C130" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="D130" s="65"/>
-      <c r="E130" s="65"/>
-      <c r="F130" s="65"/>
-      <c r="G130" s="65"/>
-      <c r="H130" s="65"/>
-      <c r="I130" s="65"/>
-      <c r="J130" s="65"/>
-      <c r="K130" s="65"/>
+      <c r="D130" s="67"/>
+      <c r="E130" s="67"/>
+      <c r="F130" s="67"/>
+      <c r="G130" s="67"/>
+      <c r="H130" s="67"/>
+      <c r="I130" s="67"/>
+      <c r="J130" s="67"/>
+      <c r="K130" s="67"/>
       <c r="L130" s="6">
         <v>33</v>
       </c>
@@ -6266,17 +6266,17 @@
         <v>12</v>
       </c>
       <c r="B131" s="1"/>
-      <c r="C131" s="64" t="s">
+      <c r="C131" s="66" t="s">
         <v>63</v>
       </c>
-      <c r="D131" s="65"/>
-      <c r="E131" s="65"/>
-      <c r="F131" s="65"/>
-      <c r="G131" s="65"/>
-      <c r="H131" s="65"/>
-      <c r="I131" s="65"/>
-      <c r="J131" s="65"/>
-      <c r="K131" s="65"/>
+      <c r="D131" s="67"/>
+      <c r="E131" s="67"/>
+      <c r="F131" s="67"/>
+      <c r="G131" s="67"/>
+      <c r="H131" s="67"/>
+      <c r="I131" s="67"/>
+      <c r="J131" s="67"/>
+      <c r="K131" s="67"/>
       <c r="L131" s="6">
         <v>33</v>
       </c>
@@ -6312,20 +6312,20 @@
         <v>13</v>
       </c>
       <c r="B132" s="1"/>
-      <c r="C132" s="66" t="s">
+      <c r="C132" s="60" t="s">
         <v>58</v>
       </c>
-      <c r="D132" s="67"/>
-      <c r="E132" s="67"/>
-      <c r="F132" s="67"/>
-      <c r="G132" s="67"/>
-      <c r="H132" s="67"/>
-      <c r="I132" s="67"/>
-      <c r="J132" s="67"/>
-      <c r="K132" s="67"/>
-      <c r="L132" s="67"/>
-      <c r="M132" s="67"/>
-      <c r="N132" s="68"/>
+      <c r="D132" s="61"/>
+      <c r="E132" s="61"/>
+      <c r="F132" s="61"/>
+      <c r="G132" s="61"/>
+      <c r="H132" s="61"/>
+      <c r="I132" s="61"/>
+      <c r="J132" s="61"/>
+      <c r="K132" s="61"/>
+      <c r="L132" s="61"/>
+      <c r="M132" s="61"/>
+      <c r="N132" s="62"/>
       <c r="O132" s="11"/>
       <c r="P132" s="12">
         <f>AVERAGE(P120:P131)</f>
@@ -6348,26 +6348,26 @@
       <c r="B133" s="1"/>
     </row>
     <row r="134" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A134" s="69" t="s">
+      <c r="A134" s="63" t="s">
         <v>24</v>
       </c>
-      <c r="B134" s="70"/>
-      <c r="C134" s="70"/>
-      <c r="D134" s="70"/>
-      <c r="E134" s="70"/>
-      <c r="F134" s="70"/>
-      <c r="G134" s="70"/>
-      <c r="H134" s="70"/>
-      <c r="I134" s="70"/>
-      <c r="J134" s="70"/>
-      <c r="K134" s="70"/>
-      <c r="L134" s="70"/>
-      <c r="M134" s="70"/>
-      <c r="N134" s="70"/>
-      <c r="O134" s="70"/>
-      <c r="P134" s="70"/>
-      <c r="Q134" s="70"/>
-      <c r="R134" s="71"/>
+      <c r="B134" s="64"/>
+      <c r="C134" s="64"/>
+      <c r="D134" s="64"/>
+      <c r="E134" s="64"/>
+      <c r="F134" s="64"/>
+      <c r="G134" s="64"/>
+      <c r="H134" s="64"/>
+      <c r="I134" s="64"/>
+      <c r="J134" s="64"/>
+      <c r="K134" s="64"/>
+      <c r="L134" s="64"/>
+      <c r="M134" s="64"/>
+      <c r="N134" s="64"/>
+      <c r="O134" s="64"/>
+      <c r="P134" s="64"/>
+      <c r="Q134" s="64"/>
+      <c r="R134" s="65"/>
       <c r="S134" s="3"/>
       <c r="T134" s="3"/>
       <c r="U134" s="3"/>
@@ -6377,17 +6377,17 @@
         <v>1</v>
       </c>
       <c r="B136" s="5"/>
-      <c r="C136" s="72" t="s">
+      <c r="C136" s="73" t="s">
         <v>56</v>
       </c>
-      <c r="D136" s="72"/>
-      <c r="E136" s="72"/>
-      <c r="F136" s="72"/>
-      <c r="G136" s="72"/>
-      <c r="H136" s="72"/>
-      <c r="I136" s="72"/>
-      <c r="J136" s="72"/>
-      <c r="K136" s="72"/>
+      <c r="D136" s="73"/>
+      <c r="E136" s="73"/>
+      <c r="F136" s="73"/>
+      <c r="G136" s="73"/>
+      <c r="H136" s="73"/>
+      <c r="I136" s="73"/>
+      <c r="J136" s="73"/>
+      <c r="K136" s="73"/>
       <c r="L136" s="5" t="s">
         <v>2</v>
       </c>
@@ -6424,17 +6424,17 @@
         <v>1</v>
       </c>
       <c r="B137" s="1"/>
-      <c r="C137" s="73" t="s">
+      <c r="C137" s="74" t="s">
         <v>65</v>
       </c>
-      <c r="D137" s="73"/>
-      <c r="E137" s="73"/>
-      <c r="F137" s="73"/>
-      <c r="G137" s="73"/>
-      <c r="H137" s="73"/>
-      <c r="I137" s="73"/>
-      <c r="J137" s="73"/>
-      <c r="K137" s="73"/>
+      <c r="D137" s="74"/>
+      <c r="E137" s="74"/>
+      <c r="F137" s="74"/>
+      <c r="G137" s="74"/>
+      <c r="H137" s="74"/>
+      <c r="I137" s="74"/>
+      <c r="J137" s="74"/>
+      <c r="K137" s="74"/>
       <c r="L137" s="6">
         <v>33</v>
       </c>
@@ -6457,17 +6457,17 @@
         <v>2</v>
       </c>
       <c r="B138" s="1"/>
-      <c r="C138" s="64" t="s">
+      <c r="C138" s="66" t="s">
         <v>66</v>
       </c>
-      <c r="D138" s="65"/>
-      <c r="E138" s="65"/>
-      <c r="F138" s="65"/>
-      <c r="G138" s="65"/>
-      <c r="H138" s="65"/>
-      <c r="I138" s="65"/>
-      <c r="J138" s="65"/>
-      <c r="K138" s="65"/>
+      <c r="D138" s="67"/>
+      <c r="E138" s="67"/>
+      <c r="F138" s="67"/>
+      <c r="G138" s="67"/>
+      <c r="H138" s="67"/>
+      <c r="I138" s="67"/>
+      <c r="J138" s="67"/>
+      <c r="K138" s="67"/>
       <c r="L138" s="6">
         <v>33</v>
       </c>
@@ -6490,17 +6490,17 @@
         <v>3</v>
       </c>
       <c r="B139" s="1"/>
-      <c r="C139" s="64" t="s">
+      <c r="C139" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="D139" s="65"/>
-      <c r="E139" s="65"/>
-      <c r="F139" s="65"/>
-      <c r="G139" s="65"/>
-      <c r="H139" s="65"/>
-      <c r="I139" s="65"/>
-      <c r="J139" s="65"/>
-      <c r="K139" s="65"/>
+      <c r="D139" s="67"/>
+      <c r="E139" s="67"/>
+      <c r="F139" s="67"/>
+      <c r="G139" s="67"/>
+      <c r="H139" s="67"/>
+      <c r="I139" s="67"/>
+      <c r="J139" s="67"/>
+      <c r="K139" s="67"/>
       <c r="L139" s="6">
         <v>33</v>
       </c>
@@ -6523,17 +6523,17 @@
         <v>4</v>
       </c>
       <c r="B140" s="1"/>
-      <c r="C140" s="65" t="s">
+      <c r="C140" s="67" t="s">
         <v>26</v>
       </c>
-      <c r="D140" s="65"/>
-      <c r="E140" s="65"/>
-      <c r="F140" s="65"/>
-      <c r="G140" s="65"/>
-      <c r="H140" s="65"/>
-      <c r="I140" s="65"/>
-      <c r="J140" s="65"/>
-      <c r="K140" s="65"/>
+      <c r="D140" s="67"/>
+      <c r="E140" s="67"/>
+      <c r="F140" s="67"/>
+      <c r="G140" s="67"/>
+      <c r="H140" s="67"/>
+      <c r="I140" s="67"/>
+      <c r="J140" s="67"/>
+      <c r="K140" s="67"/>
       <c r="L140" s="6">
         <v>33</v>
       </c>
@@ -6556,17 +6556,17 @@
         <v>5</v>
       </c>
       <c r="B141" s="1"/>
-      <c r="C141" s="64" t="s">
+      <c r="C141" s="66" t="s">
         <v>27</v>
       </c>
-      <c r="D141" s="65"/>
-      <c r="E141" s="65"/>
-      <c r="F141" s="65"/>
-      <c r="G141" s="65"/>
-      <c r="H141" s="65"/>
-      <c r="I141" s="65"/>
-      <c r="J141" s="65"/>
-      <c r="K141" s="65"/>
+      <c r="D141" s="67"/>
+      <c r="E141" s="67"/>
+      <c r="F141" s="67"/>
+      <c r="G141" s="67"/>
+      <c r="H141" s="67"/>
+      <c r="I141" s="67"/>
+      <c r="J141" s="67"/>
+      <c r="K141" s="67"/>
       <c r="L141" s="6">
         <v>33</v>
       </c>
@@ -6589,17 +6589,17 @@
         <v>6</v>
       </c>
       <c r="B142" s="1"/>
-      <c r="C142" s="64" t="s">
+      <c r="C142" s="66" t="s">
         <v>67</v>
       </c>
-      <c r="D142" s="65"/>
-      <c r="E142" s="65"/>
-      <c r="F142" s="65"/>
-      <c r="G142" s="65"/>
-      <c r="H142" s="65"/>
-      <c r="I142" s="65"/>
-      <c r="J142" s="65"/>
-      <c r="K142" s="65"/>
+      <c r="D142" s="67"/>
+      <c r="E142" s="67"/>
+      <c r="F142" s="67"/>
+      <c r="G142" s="67"/>
+      <c r="H142" s="67"/>
+      <c r="I142" s="67"/>
+      <c r="J142" s="67"/>
+      <c r="K142" s="67"/>
       <c r="L142" s="6">
         <v>33</v>
       </c>
@@ -6622,20 +6622,20 @@
         <v>7</v>
       </c>
       <c r="B143" s="1"/>
-      <c r="C143" s="66" t="s">
+      <c r="C143" s="60" t="s">
         <v>58</v>
       </c>
-      <c r="D143" s="67"/>
-      <c r="E143" s="67"/>
-      <c r="F143" s="67"/>
-      <c r="G143" s="67"/>
-      <c r="H143" s="67"/>
-      <c r="I143" s="67"/>
-      <c r="J143" s="67"/>
-      <c r="K143" s="67"/>
-      <c r="L143" s="67"/>
-      <c r="M143" s="67"/>
-      <c r="N143" s="68"/>
+      <c r="D143" s="61"/>
+      <c r="E143" s="61"/>
+      <c r="F143" s="61"/>
+      <c r="G143" s="61"/>
+      <c r="H143" s="61"/>
+      <c r="I143" s="61"/>
+      <c r="J143" s="61"/>
+      <c r="K143" s="61"/>
+      <c r="L143" s="61"/>
+      <c r="M143" s="61"/>
+      <c r="N143" s="62"/>
       <c r="O143" s="11"/>
       <c r="P143" s="12" t="e">
         <f>AVERAGE(P137:P142)</f>
@@ -6655,25 +6655,25 @@
       <c r="B144" s="1"/>
     </row>
     <row r="145" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A145" s="81" t="s">
+      <c r="A145" s="72" t="s">
         <v>28</v>
       </c>
-      <c r="B145" s="81"/>
-      <c r="C145" s="81"/>
-      <c r="D145" s="81"/>
-      <c r="E145" s="81"/>
-      <c r="F145" s="81"/>
-      <c r="G145" s="81"/>
-      <c r="H145" s="81"/>
-      <c r="I145" s="81"/>
-      <c r="J145" s="81"/>
-      <c r="K145" s="81"/>
-      <c r="L145" s="81"/>
-      <c r="M145" s="81"/>
-      <c r="N145" s="81"/>
-      <c r="O145" s="81"/>
-      <c r="P145" s="81"/>
-      <c r="Q145" s="81"/>
+      <c r="B145" s="72"/>
+      <c r="C145" s="72"/>
+      <c r="D145" s="72"/>
+      <c r="E145" s="72"/>
+      <c r="F145" s="72"/>
+      <c r="G145" s="72"/>
+      <c r="H145" s="72"/>
+      <c r="I145" s="72"/>
+      <c r="J145" s="72"/>
+      <c r="K145" s="72"/>
+      <c r="L145" s="72"/>
+      <c r="M145" s="72"/>
+      <c r="N145" s="72"/>
+      <c r="O145" s="72"/>
+      <c r="P145" s="72"/>
+      <c r="Q145" s="72"/>
       <c r="R145"/>
     </row>
     <row r="146" spans="1:18" x14ac:dyDescent="0.3">
@@ -6681,10 +6681,10 @@
         <v>1</v>
       </c>
       <c r="B146" s="16"/>
-      <c r="C146" s="80" t="s">
+      <c r="C146" s="68" t="s">
         <v>68</v>
       </c>
-      <c r="D146" s="80"/>
+      <c r="D146" s="68"/>
       <c r="E146" s="17" t="s">
         <v>69</v>
       </c>
@@ -6731,10 +6731,10 @@
         <v>1</v>
       </c>
       <c r="B147" s="14"/>
-      <c r="C147" s="63" t="s">
+      <c r="C147" s="57" t="s">
         <v>84</v>
       </c>
-      <c r="D147" s="63"/>
+      <c r="D147" s="57"/>
       <c r="E147" s="25">
         <v>51</v>
       </c>
@@ -6781,10 +6781,10 @@
         <v>2</v>
       </c>
       <c r="B148" s="14"/>
-      <c r="C148" s="63" t="s">
+      <c r="C148" s="57" t="s">
         <v>85</v>
       </c>
-      <c r="D148" s="63"/>
+      <c r="D148" s="57"/>
       <c r="E148" s="25">
         <v>47</v>
       </c>
@@ -6831,10 +6831,10 @@
         <v>3</v>
       </c>
       <c r="B149" s="14"/>
-      <c r="C149" s="63" t="s">
+      <c r="C149" s="57" t="s">
         <v>86</v>
       </c>
-      <c r="D149" s="63"/>
+      <c r="D149" s="57"/>
       <c r="E149" s="25">
         <v>51</v>
       </c>
@@ -6881,10 +6881,10 @@
         <v>4</v>
       </c>
       <c r="B150" s="14"/>
-      <c r="C150" s="63" t="s">
+      <c r="C150" s="57" t="s">
         <v>87</v>
       </c>
-      <c r="D150" s="63"/>
+      <c r="D150" s="57"/>
       <c r="E150" s="25">
         <v>52</v>
       </c>
@@ -6931,10 +6931,10 @@
         <v>5</v>
       </c>
       <c r="B151" s="14"/>
-      <c r="C151" s="63" t="s">
+      <c r="C151" s="57" t="s">
         <v>90</v>
       </c>
-      <c r="D151" s="63"/>
+      <c r="D151" s="57"/>
       <c r="E151" s="25">
         <v>60</v>
       </c>
@@ -6981,10 +6981,10 @@
         <v>6</v>
       </c>
       <c r="B152" s="14"/>
-      <c r="C152" s="63" t="s">
+      <c r="C152" s="57" t="s">
         <v>91</v>
       </c>
-      <c r="D152" s="63"/>
+      <c r="D152" s="57"/>
       <c r="E152" s="25">
         <v>56</v>
       </c>
@@ -7031,10 +7031,10 @@
         <v>7</v>
       </c>
       <c r="B153" s="14"/>
-      <c r="C153" s="63" t="s">
+      <c r="C153" s="57" t="s">
         <v>92</v>
       </c>
-      <c r="D153" s="63"/>
+      <c r="D153" s="57"/>
       <c r="E153" s="25">
         <v>56</v>
       </c>
@@ -7081,10 +7081,10 @@
         <v>8</v>
       </c>
       <c r="B154" s="14"/>
-      <c r="C154" s="63" t="s">
+      <c r="C154" s="57" t="s">
         <v>93</v>
       </c>
-      <c r="D154" s="63"/>
+      <c r="D154" s="57"/>
       <c r="E154" s="25">
         <v>56</v>
       </c>
@@ -7129,10 +7129,10 @@
     <row r="155" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A155" s="14"/>
       <c r="B155" s="14"/>
-      <c r="C155" s="74" t="s">
+      <c r="C155" s="58" t="s">
         <v>98</v>
       </c>
-      <c r="D155" s="74"/>
+      <c r="D155" s="58"/>
       <c r="E155" s="25">
         <f t="shared" ref="E155:O155" si="11">AVERAGE(E147:E154)</f>
         <v>53.625</v>
@@ -7194,25 +7194,25 @@
       <c r="R157"/>
     </row>
     <row r="158" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A158" s="79" t="s">
+      <c r="A158" s="75" t="s">
         <v>99</v>
       </c>
-      <c r="B158" s="79"/>
-      <c r="C158" s="79"/>
-      <c r="D158" s="79"/>
-      <c r="E158" s="79"/>
-      <c r="F158" s="79"/>
-      <c r="G158" s="79"/>
-      <c r="H158" s="79"/>
-      <c r="I158" s="79"/>
-      <c r="J158" s="79"/>
-      <c r="K158" s="79"/>
-      <c r="L158" s="79"/>
-      <c r="M158" s="79"/>
-      <c r="N158" s="79"/>
-      <c r="O158" s="79"/>
-      <c r="P158" s="79"/>
-      <c r="Q158" s="79"/>
+      <c r="B158" s="75"/>
+      <c r="C158" s="75"/>
+      <c r="D158" s="75"/>
+      <c r="E158" s="75"/>
+      <c r="F158" s="75"/>
+      <c r="G158" s="75"/>
+      <c r="H158" s="75"/>
+      <c r="I158" s="75"/>
+      <c r="J158" s="75"/>
+      <c r="K158" s="75"/>
+      <c r="L158" s="75"/>
+      <c r="M158" s="75"/>
+      <c r="N158" s="75"/>
+      <c r="O158" s="75"/>
+      <c r="P158" s="75"/>
+      <c r="Q158" s="75"/>
       <c r="R158"/>
     </row>
     <row r="159" spans="1:18" x14ac:dyDescent="0.3">
@@ -7220,10 +7220,10 @@
         <v>1</v>
       </c>
       <c r="B159" s="16"/>
-      <c r="C159" s="80" t="s">
+      <c r="C159" s="68" t="s">
         <v>68</v>
       </c>
-      <c r="D159" s="80"/>
+      <c r="D159" s="68"/>
       <c r="E159" s="17" t="s">
         <v>69</v>
       </c>
@@ -7270,10 +7270,10 @@
         <v>1</v>
       </c>
       <c r="B160" s="14"/>
-      <c r="C160" s="63" t="s">
+      <c r="C160" s="57" t="s">
         <v>94</v>
       </c>
-      <c r="D160" s="63"/>
+      <c r="D160" s="57"/>
       <c r="E160" s="25">
         <v>58</v>
       </c>
@@ -7320,10 +7320,10 @@
         <v>2</v>
       </c>
       <c r="B161" s="14"/>
-      <c r="C161" s="63" t="s">
+      <c r="C161" s="57" t="s">
         <v>95</v>
       </c>
-      <c r="D161" s="63"/>
+      <c r="D161" s="57"/>
       <c r="E161" s="25">
         <v>60</v>
       </c>
@@ -7370,10 +7370,10 @@
         <v>3</v>
       </c>
       <c r="B162" s="14"/>
-      <c r="C162" s="63" t="s">
+      <c r="C162" s="57" t="s">
         <v>96</v>
       </c>
-      <c r="D162" s="63"/>
+      <c r="D162" s="57"/>
       <c r="E162" s="25">
         <v>59</v>
       </c>
@@ -7419,10 +7419,10 @@
         <v>4</v>
       </c>
       <c r="B163" s="14"/>
-      <c r="C163" s="63" t="s">
+      <c r="C163" s="57" t="s">
         <v>97</v>
       </c>
-      <c r="D163" s="63"/>
+      <c r="D163" s="57"/>
       <c r="E163" s="25">
         <v>56</v>
       </c>
@@ -7464,10 +7464,10 @@
       </c>
     </row>
     <row r="164" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="C164" s="74" t="s">
+      <c r="C164" s="58" t="s">
         <v>98</v>
       </c>
-      <c r="D164" s="74"/>
+      <c r="D164" s="58"/>
       <c r="E164" s="25">
         <f t="shared" ref="E164:O164" si="12">AVERAGE(E160:E163)</f>
         <v>58.25</v>
@@ -7522,103 +7522,103 @@
       </c>
     </row>
     <row r="170" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A170" s="75" t="s">
+      <c r="A170" s="59" t="s">
         <v>106</v>
       </c>
-      <c r="B170" s="75"/>
-      <c r="C170" s="75"/>
-      <c r="D170" s="75"/>
-      <c r="E170" s="75"/>
-      <c r="F170" s="75"/>
-      <c r="G170" s="75"/>
-      <c r="H170" s="75"/>
-      <c r="I170" s="75"/>
-      <c r="J170" s="75"/>
-      <c r="K170" s="75"/>
-      <c r="L170" s="75"/>
-      <c r="M170" s="75"/>
-      <c r="N170" s="75"/>
-      <c r="O170" s="75"/>
-      <c r="P170" s="75"/>
-      <c r="Q170" s="75"/>
-      <c r="R170" s="75"/>
-      <c r="S170" s="75"/>
-      <c r="T170" s="75"/>
-      <c r="U170" s="75"/>
-      <c r="V170" s="75"/>
-      <c r="W170" s="75"/>
+      <c r="B170" s="59"/>
+      <c r="C170" s="59"/>
+      <c r="D170" s="59"/>
+      <c r="E170" s="59"/>
+      <c r="F170" s="59"/>
+      <c r="G170" s="59"/>
+      <c r="H170" s="59"/>
+      <c r="I170" s="59"/>
+      <c r="J170" s="59"/>
+      <c r="K170" s="59"/>
+      <c r="L170" s="59"/>
+      <c r="M170" s="59"/>
+      <c r="N170" s="59"/>
+      <c r="O170" s="59"/>
+      <c r="P170" s="59"/>
+      <c r="Q170" s="59"/>
+      <c r="R170" s="59"/>
+      <c r="S170" s="59"/>
+      <c r="T170" s="59"/>
+      <c r="U170" s="59"/>
+      <c r="V170" s="59"/>
+      <c r="W170" s="59"/>
     </row>
     <row r="171" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A171" s="75"/>
-      <c r="B171" s="75"/>
-      <c r="C171" s="75"/>
-      <c r="D171" s="75"/>
-      <c r="E171" s="75"/>
-      <c r="F171" s="75"/>
-      <c r="G171" s="75"/>
-      <c r="H171" s="75"/>
-      <c r="I171" s="75"/>
-      <c r="J171" s="75"/>
-      <c r="K171" s="75"/>
-      <c r="L171" s="75"/>
-      <c r="M171" s="75"/>
-      <c r="N171" s="75"/>
-      <c r="O171" s="75"/>
-      <c r="P171" s="75"/>
-      <c r="Q171" s="75"/>
-      <c r="R171" s="75"/>
-      <c r="S171" s="75"/>
-      <c r="T171" s="75"/>
-      <c r="U171" s="75"/>
-      <c r="V171" s="75"/>
-      <c r="W171" s="75"/>
+      <c r="A171" s="59"/>
+      <c r="B171" s="59"/>
+      <c r="C171" s="59"/>
+      <c r="D171" s="59"/>
+      <c r="E171" s="59"/>
+      <c r="F171" s="59"/>
+      <c r="G171" s="59"/>
+      <c r="H171" s="59"/>
+      <c r="I171" s="59"/>
+      <c r="J171" s="59"/>
+      <c r="K171" s="59"/>
+      <c r="L171" s="59"/>
+      <c r="M171" s="59"/>
+      <c r="N171" s="59"/>
+      <c r="O171" s="59"/>
+      <c r="P171" s="59"/>
+      <c r="Q171" s="59"/>
+      <c r="R171" s="59"/>
+      <c r="S171" s="59"/>
+      <c r="T171" s="59"/>
+      <c r="U171" s="59"/>
+      <c r="V171" s="59"/>
+      <c r="W171" s="59"/>
     </row>
     <row r="172" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A172" s="75"/>
-      <c r="B172" s="75"/>
-      <c r="C172" s="75"/>
-      <c r="D172" s="75"/>
-      <c r="E172" s="75"/>
-      <c r="F172" s="75"/>
-      <c r="G172" s="75"/>
-      <c r="H172" s="75"/>
-      <c r="I172" s="75"/>
-      <c r="J172" s="75"/>
-      <c r="K172" s="75"/>
-      <c r="L172" s="75"/>
-      <c r="M172" s="75"/>
-      <c r="N172" s="75"/>
-      <c r="O172" s="75"/>
-      <c r="P172" s="75"/>
-      <c r="Q172" s="75"/>
-      <c r="R172" s="75"/>
-      <c r="S172" s="75"/>
-      <c r="T172" s="75"/>
-      <c r="U172" s="75"/>
-      <c r="V172" s="75"/>
-      <c r="W172" s="75"/>
+      <c r="A172" s="59"/>
+      <c r="B172" s="59"/>
+      <c r="C172" s="59"/>
+      <c r="D172" s="59"/>
+      <c r="E172" s="59"/>
+      <c r="F172" s="59"/>
+      <c r="G172" s="59"/>
+      <c r="H172" s="59"/>
+      <c r="I172" s="59"/>
+      <c r="J172" s="59"/>
+      <c r="K172" s="59"/>
+      <c r="L172" s="59"/>
+      <c r="M172" s="59"/>
+      <c r="N172" s="59"/>
+      <c r="O172" s="59"/>
+      <c r="P172" s="59"/>
+      <c r="Q172" s="59"/>
+      <c r="R172" s="59"/>
+      <c r="S172" s="59"/>
+      <c r="T172" s="59"/>
+      <c r="U172" s="59"/>
+      <c r="V172" s="59"/>
+      <c r="W172" s="59"/>
     </row>
     <row r="173" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A173" s="76" t="s">
+      <c r="A173" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="B173" s="77"/>
-      <c r="C173" s="77"/>
-      <c r="D173" s="77"/>
-      <c r="E173" s="77"/>
-      <c r="F173" s="77"/>
-      <c r="G173" s="77"/>
-      <c r="H173" s="77"/>
-      <c r="I173" s="77"/>
-      <c r="J173" s="77"/>
-      <c r="K173" s="77"/>
-      <c r="L173" s="77"/>
-      <c r="M173" s="77"/>
-      <c r="N173" s="77"/>
-      <c r="O173" s="77"/>
-      <c r="P173" s="77"/>
-      <c r="Q173" s="77"/>
-      <c r="R173" s="78"/>
+      <c r="B173" s="70"/>
+      <c r="C173" s="70"/>
+      <c r="D173" s="70"/>
+      <c r="E173" s="70"/>
+      <c r="F173" s="70"/>
+      <c r="G173" s="70"/>
+      <c r="H173" s="70"/>
+      <c r="I173" s="70"/>
+      <c r="J173" s="70"/>
+      <c r="K173" s="70"/>
+      <c r="L173" s="70"/>
+      <c r="M173" s="70"/>
+      <c r="N173" s="70"/>
+      <c r="O173" s="70"/>
+      <c r="P173" s="70"/>
+      <c r="Q173" s="70"/>
+      <c r="R173" s="71"/>
       <c r="S173" s="38"/>
       <c r="T173" s="38"/>
       <c r="U173" s="38"/>
@@ -7634,17 +7634,17 @@
       <c r="B175" s="46" t="s">
         <v>105</v>
       </c>
-      <c r="C175" s="60" t="s">
+      <c r="C175" s="90" t="s">
         <v>108</v>
       </c>
-      <c r="D175" s="61"/>
-      <c r="E175" s="61"/>
-      <c r="F175" s="61"/>
-      <c r="G175" s="61"/>
-      <c r="H175" s="61"/>
-      <c r="I175" s="61"/>
-      <c r="J175" s="61"/>
-      <c r="K175" s="62"/>
+      <c r="D175" s="91"/>
+      <c r="E175" s="91"/>
+      <c r="F175" s="91"/>
+      <c r="G175" s="91"/>
+      <c r="H175" s="91"/>
+      <c r="I175" s="91"/>
+      <c r="J175" s="91"/>
+      <c r="K175" s="92"/>
       <c r="L175" s="5" t="s">
         <v>2</v>
       </c>
@@ -7684,17 +7684,17 @@
       <c r="B176" s="48">
         <v>44741</v>
       </c>
-      <c r="C176" s="54" t="s">
+      <c r="C176" s="83" t="s">
         <v>43</v>
       </c>
-      <c r="D176" s="55"/>
-      <c r="E176" s="55"/>
-      <c r="F176" s="55"/>
-      <c r="G176" s="55"/>
-      <c r="H176" s="55"/>
-      <c r="I176" s="55"/>
-      <c r="J176" s="55"/>
-      <c r="K176" s="56"/>
+      <c r="D176" s="84"/>
+      <c r="E176" s="84"/>
+      <c r="F176" s="84"/>
+      <c r="G176" s="84"/>
+      <c r="H176" s="84"/>
+      <c r="I176" s="84"/>
+      <c r="J176" s="84"/>
+      <c r="K176" s="85"/>
       <c r="L176" s="6">
         <v>17</v>
       </c>
@@ -7734,17 +7734,17 @@
       <c r="B177" s="48">
         <v>44740</v>
       </c>
-      <c r="C177" s="57" t="s">
+      <c r="C177" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="D177" s="58"/>
-      <c r="E177" s="58"/>
-      <c r="F177" s="58"/>
-      <c r="G177" s="58"/>
-      <c r="H177" s="58"/>
-      <c r="I177" s="58"/>
-      <c r="J177" s="58"/>
-      <c r="K177" s="59"/>
+      <c r="D177" s="88"/>
+      <c r="E177" s="88"/>
+      <c r="F177" s="88"/>
+      <c r="G177" s="88"/>
+      <c r="H177" s="88"/>
+      <c r="I177" s="88"/>
+      <c r="J177" s="88"/>
+      <c r="K177" s="89"/>
       <c r="L177" s="6">
         <v>17</v>
       </c>
@@ -7784,17 +7784,17 @@
       <c r="B178" s="48">
         <v>44765</v>
       </c>
-      <c r="C178" s="57" t="s">
+      <c r="C178" s="87" t="s">
         <v>11</v>
       </c>
-      <c r="D178" s="58"/>
-      <c r="E178" s="58"/>
-      <c r="F178" s="58"/>
-      <c r="G178" s="58"/>
-      <c r="H178" s="58"/>
-      <c r="I178" s="58"/>
-      <c r="J178" s="58"/>
-      <c r="K178" s="59"/>
+      <c r="D178" s="88"/>
+      <c r="E178" s="88"/>
+      <c r="F178" s="88"/>
+      <c r="G178" s="88"/>
+      <c r="H178" s="88"/>
+      <c r="I178" s="88"/>
+      <c r="J178" s="88"/>
+      <c r="K178" s="89"/>
       <c r="L178" s="6">
         <v>17</v>
       </c>
@@ -7834,17 +7834,17 @@
       <c r="B179" s="48">
         <v>44766</v>
       </c>
-      <c r="C179" s="54" t="s">
+      <c r="C179" s="83" t="s">
         <v>48</v>
       </c>
-      <c r="D179" s="55"/>
-      <c r="E179" s="55"/>
-      <c r="F179" s="55"/>
-      <c r="G179" s="55"/>
-      <c r="H179" s="55"/>
-      <c r="I179" s="55"/>
-      <c r="J179" s="55"/>
-      <c r="K179" s="56"/>
+      <c r="D179" s="84"/>
+      <c r="E179" s="84"/>
+      <c r="F179" s="84"/>
+      <c r="G179" s="84"/>
+      <c r="H179" s="84"/>
+      <c r="I179" s="84"/>
+      <c r="J179" s="84"/>
+      <c r="K179" s="85"/>
       <c r="L179" s="6">
         <v>17</v>
       </c>
@@ -7884,17 +7884,17 @@
       <c r="B180" s="48">
         <v>44797</v>
       </c>
-      <c r="C180" s="54" t="s">
+      <c r="C180" s="83" t="s">
         <v>45</v>
       </c>
-      <c r="D180" s="55"/>
-      <c r="E180" s="55"/>
-      <c r="F180" s="55"/>
-      <c r="G180" s="55"/>
-      <c r="H180" s="55"/>
-      <c r="I180" s="55"/>
-      <c r="J180" s="55"/>
-      <c r="K180" s="56"/>
+      <c r="D180" s="84"/>
+      <c r="E180" s="84"/>
+      <c r="F180" s="84"/>
+      <c r="G180" s="84"/>
+      <c r="H180" s="84"/>
+      <c r="I180" s="84"/>
+      <c r="J180" s="84"/>
+      <c r="K180" s="85"/>
       <c r="L180" s="6">
         <v>17</v>
       </c>
@@ -7934,17 +7934,17 @@
       <c r="B181" s="48">
         <v>44797</v>
       </c>
-      <c r="C181" s="54" t="s">
+      <c r="C181" s="83" t="s">
         <v>46</v>
       </c>
-      <c r="D181" s="55"/>
-      <c r="E181" s="55"/>
-      <c r="F181" s="55"/>
-      <c r="G181" s="55"/>
-      <c r="H181" s="55"/>
-      <c r="I181" s="55"/>
-      <c r="J181" s="55"/>
-      <c r="K181" s="56"/>
+      <c r="D181" s="84"/>
+      <c r="E181" s="84"/>
+      <c r="F181" s="84"/>
+      <c r="G181" s="84"/>
+      <c r="H181" s="84"/>
+      <c r="I181" s="84"/>
+      <c r="J181" s="84"/>
+      <c r="K181" s="85"/>
       <c r="L181" s="6">
         <v>17</v>
       </c>
@@ -7982,17 +7982,17 @@
         <v>15</v>
       </c>
       <c r="B182" s="48"/>
-      <c r="C182" s="54" t="s">
+      <c r="C182" s="83" t="s">
         <v>36</v>
       </c>
-      <c r="D182" s="55"/>
-      <c r="E182" s="55"/>
-      <c r="F182" s="55"/>
-      <c r="G182" s="55"/>
-      <c r="H182" s="55"/>
-      <c r="I182" s="55"/>
-      <c r="J182" s="55"/>
-      <c r="K182" s="56"/>
+      <c r="D182" s="84"/>
+      <c r="E182" s="84"/>
+      <c r="F182" s="84"/>
+      <c r="G182" s="84"/>
+      <c r="H182" s="84"/>
+      <c r="I182" s="84"/>
+      <c r="J182" s="84"/>
+      <c r="K182" s="85"/>
       <c r="L182" s="6">
         <v>17</v>
       </c>
@@ -8032,17 +8032,17 @@
       <c r="B183" s="48">
         <v>44813</v>
       </c>
-      <c r="C183" s="54" t="s">
+      <c r="C183" s="83" t="s">
         <v>37</v>
       </c>
-      <c r="D183" s="55"/>
-      <c r="E183" s="55"/>
-      <c r="F183" s="55"/>
-      <c r="G183" s="55"/>
-      <c r="H183" s="55"/>
-      <c r="I183" s="55"/>
-      <c r="J183" s="55"/>
-      <c r="K183" s="56"/>
+      <c r="D183" s="84"/>
+      <c r="E183" s="84"/>
+      <c r="F183" s="84"/>
+      <c r="G183" s="84"/>
+      <c r="H183" s="84"/>
+      <c r="I183" s="84"/>
+      <c r="J183" s="84"/>
+      <c r="K183" s="85"/>
       <c r="L183" s="6">
         <v>17</v>
       </c>
@@ -8082,17 +8082,17 @@
       <c r="B184" s="48">
         <v>44822</v>
       </c>
-      <c r="C184" s="54" t="s">
+      <c r="C184" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="D184" s="55"/>
-      <c r="E184" s="55"/>
-      <c r="F184" s="55"/>
-      <c r="G184" s="55"/>
-      <c r="H184" s="55"/>
-      <c r="I184" s="55"/>
-      <c r="J184" s="55"/>
-      <c r="K184" s="56"/>
+      <c r="D184" s="84"/>
+      <c r="E184" s="84"/>
+      <c r="F184" s="84"/>
+      <c r="G184" s="84"/>
+      <c r="H184" s="84"/>
+      <c r="I184" s="84"/>
+      <c r="J184" s="84"/>
+      <c r="K184" s="85"/>
       <c r="L184" s="6">
         <v>17</v>
       </c>
@@ -8132,17 +8132,17 @@
       <c r="B185" s="48">
         <v>44822</v>
       </c>
-      <c r="C185" s="54" t="s">
+      <c r="C185" s="83" t="s">
         <v>40</v>
       </c>
-      <c r="D185" s="55"/>
-      <c r="E185" s="55"/>
-      <c r="F185" s="55"/>
-      <c r="G185" s="55"/>
-      <c r="H185" s="55"/>
-      <c r="I185" s="55"/>
-      <c r="J185" s="55"/>
-      <c r="K185" s="56"/>
+      <c r="D185" s="84"/>
+      <c r="E185" s="84"/>
+      <c r="F185" s="84"/>
+      <c r="G185" s="84"/>
+      <c r="H185" s="84"/>
+      <c r="I185" s="84"/>
+      <c r="J185" s="84"/>
+      <c r="K185" s="85"/>
       <c r="L185" s="6">
         <v>17</v>
       </c>
@@ -8182,17 +8182,17 @@
       <c r="B186" s="48">
         <v>44844</v>
       </c>
-      <c r="C186" s="57" t="s">
+      <c r="C186" s="87" t="s">
         <v>7</v>
       </c>
-      <c r="D186" s="58"/>
-      <c r="E186" s="58"/>
-      <c r="F186" s="58"/>
-      <c r="G186" s="58"/>
-      <c r="H186" s="58"/>
-      <c r="I186" s="58"/>
-      <c r="J186" s="58"/>
-      <c r="K186" s="59"/>
+      <c r="D186" s="88"/>
+      <c r="E186" s="88"/>
+      <c r="F186" s="88"/>
+      <c r="G186" s="88"/>
+      <c r="H186" s="88"/>
+      <c r="I186" s="88"/>
+      <c r="J186" s="88"/>
+      <c r="K186" s="89"/>
       <c r="L186" s="6">
         <v>17</v>
       </c>
@@ -8232,17 +8232,17 @@
       <c r="B187" s="48">
         <v>44844</v>
       </c>
-      <c r="C187" s="54" t="s">
+      <c r="C187" s="83" t="s">
         <v>38</v>
       </c>
-      <c r="D187" s="55"/>
-      <c r="E187" s="55"/>
-      <c r="F187" s="55"/>
-      <c r="G187" s="55"/>
-      <c r="H187" s="55"/>
-      <c r="I187" s="55"/>
-      <c r="J187" s="55"/>
-      <c r="K187" s="56"/>
+      <c r="D187" s="84"/>
+      <c r="E187" s="84"/>
+      <c r="F187" s="84"/>
+      <c r="G187" s="84"/>
+      <c r="H187" s="84"/>
+      <c r="I187" s="84"/>
+      <c r="J187" s="84"/>
+      <c r="K187" s="85"/>
       <c r="L187" s="6">
         <v>17</v>
       </c>
@@ -8282,17 +8282,17 @@
       <c r="B188" s="48">
         <v>44849</v>
       </c>
-      <c r="C188" s="57" t="s">
+      <c r="C188" s="87" t="s">
         <v>5</v>
       </c>
-      <c r="D188" s="58"/>
-      <c r="E188" s="58"/>
-      <c r="F188" s="58"/>
-      <c r="G188" s="58"/>
-      <c r="H188" s="58"/>
-      <c r="I188" s="58"/>
-      <c r="J188" s="58"/>
-      <c r="K188" s="59"/>
+      <c r="D188" s="88"/>
+      <c r="E188" s="88"/>
+      <c r="F188" s="88"/>
+      <c r="G188" s="88"/>
+      <c r="H188" s="88"/>
+      <c r="I188" s="88"/>
+      <c r="J188" s="88"/>
+      <c r="K188" s="89"/>
       <c r="L188" s="6">
         <v>17</v>
       </c>
@@ -8320,17 +8320,17 @@
       <c r="B189" s="48">
         <v>44849</v>
       </c>
-      <c r="C189" s="54" t="s">
+      <c r="C189" s="83" t="s">
         <v>33</v>
       </c>
-      <c r="D189" s="55"/>
-      <c r="E189" s="55"/>
-      <c r="F189" s="55"/>
-      <c r="G189" s="55"/>
-      <c r="H189" s="55"/>
-      <c r="I189" s="55"/>
-      <c r="J189" s="55"/>
-      <c r="K189" s="56"/>
+      <c r="D189" s="84"/>
+      <c r="E189" s="84"/>
+      <c r="F189" s="84"/>
+      <c r="G189" s="84"/>
+      <c r="H189" s="84"/>
+      <c r="I189" s="84"/>
+      <c r="J189" s="84"/>
+      <c r="K189" s="85"/>
       <c r="L189" s="6">
         <v>17</v>
       </c>
@@ -8358,17 +8358,17 @@
       <c r="B190" s="48">
         <v>44851</v>
       </c>
-      <c r="C190" s="57" t="s">
+      <c r="C190" s="87" t="s">
         <v>9</v>
       </c>
-      <c r="D190" s="58"/>
-      <c r="E190" s="58"/>
-      <c r="F190" s="58"/>
-      <c r="G190" s="58"/>
-      <c r="H190" s="58"/>
-      <c r="I190" s="58"/>
-      <c r="J190" s="58"/>
-      <c r="K190" s="59"/>
+      <c r="D190" s="88"/>
+      <c r="E190" s="88"/>
+      <c r="F190" s="88"/>
+      <c r="G190" s="88"/>
+      <c r="H190" s="88"/>
+      <c r="I190" s="88"/>
+      <c r="J190" s="88"/>
+      <c r="K190" s="89"/>
       <c r="L190" s="6">
         <v>17</v>
       </c>
@@ -8396,17 +8396,17 @@
       <c r="B191" s="48">
         <v>44851</v>
       </c>
-      <c r="C191" s="57" t="s">
+      <c r="C191" s="87" t="s">
         <v>44</v>
       </c>
-      <c r="D191" s="58"/>
-      <c r="E191" s="58"/>
-      <c r="F191" s="58"/>
-      <c r="G191" s="58"/>
-      <c r="H191" s="58"/>
-      <c r="I191" s="58"/>
-      <c r="J191" s="58"/>
-      <c r="K191" s="59"/>
+      <c r="D191" s="88"/>
+      <c r="E191" s="88"/>
+      <c r="F191" s="88"/>
+      <c r="G191" s="88"/>
+      <c r="H191" s="88"/>
+      <c r="I191" s="88"/>
+      <c r="J191" s="88"/>
+      <c r="K191" s="89"/>
       <c r="L191" s="6">
         <v>17</v>
       </c>
@@ -8434,17 +8434,17 @@
       <c r="B192" s="48">
         <v>44854</v>
       </c>
-      <c r="C192" s="57" t="s">
+      <c r="C192" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="D192" s="58"/>
-      <c r="E192" s="58"/>
-      <c r="F192" s="58"/>
-      <c r="G192" s="58"/>
-      <c r="H192" s="58"/>
-      <c r="I192" s="58"/>
-      <c r="J192" s="58"/>
-      <c r="K192" s="59"/>
+      <c r="D192" s="88"/>
+      <c r="E192" s="88"/>
+      <c r="F192" s="88"/>
+      <c r="G192" s="88"/>
+      <c r="H192" s="88"/>
+      <c r="I192" s="88"/>
+      <c r="J192" s="88"/>
+      <c r="K192" s="89"/>
       <c r="L192" s="6">
         <v>17</v>
       </c>
@@ -8472,17 +8472,17 @@
       <c r="B193" s="48">
         <v>44854</v>
       </c>
-      <c r="C193" s="54" t="s">
+      <c r="C193" s="83" t="s">
         <v>49</v>
       </c>
-      <c r="D193" s="58"/>
-      <c r="E193" s="58"/>
-      <c r="F193" s="58"/>
-      <c r="G193" s="58"/>
-      <c r="H193" s="58"/>
-      <c r="I193" s="58"/>
-      <c r="J193" s="58"/>
-      <c r="K193" s="59"/>
+      <c r="D193" s="88"/>
+      <c r="E193" s="88"/>
+      <c r="F193" s="88"/>
+      <c r="G193" s="88"/>
+      <c r="H193" s="88"/>
+      <c r="I193" s="88"/>
+      <c r="J193" s="88"/>
+      <c r="K193" s="89"/>
       <c r="L193" s="6">
         <v>17</v>
       </c>
@@ -8510,17 +8510,17 @@
       <c r="B194" s="48">
         <v>44864</v>
       </c>
-      <c r="C194" s="54" t="s">
+      <c r="C194" s="83" t="s">
         <v>34</v>
       </c>
-      <c r="D194" s="55"/>
-      <c r="E194" s="55"/>
-      <c r="F194" s="55"/>
-      <c r="G194" s="55"/>
-      <c r="H194" s="55"/>
-      <c r="I194" s="55"/>
-      <c r="J194" s="55"/>
-      <c r="K194" s="56"/>
+      <c r="D194" s="84"/>
+      <c r="E194" s="84"/>
+      <c r="F194" s="84"/>
+      <c r="G194" s="84"/>
+      <c r="H194" s="84"/>
+      <c r="I194" s="84"/>
+      <c r="J194" s="84"/>
+      <c r="K194" s="85"/>
       <c r="L194" s="6">
         <v>17</v>
       </c>
@@ -8548,17 +8548,17 @@
       <c r="B195" s="48">
         <v>44864</v>
       </c>
-      <c r="C195" s="57" t="s">
+      <c r="C195" s="87" t="s">
         <v>35</v>
       </c>
-      <c r="D195" s="58"/>
-      <c r="E195" s="58"/>
-      <c r="F195" s="58"/>
-      <c r="G195" s="58"/>
-      <c r="H195" s="58"/>
-      <c r="I195" s="58"/>
-      <c r="J195" s="58"/>
-      <c r="K195" s="59"/>
+      <c r="D195" s="88"/>
+      <c r="E195" s="88"/>
+      <c r="F195" s="88"/>
+      <c r="G195" s="88"/>
+      <c r="H195" s="88"/>
+      <c r="I195" s="88"/>
+      <c r="J195" s="88"/>
+      <c r="K195" s="89"/>
       <c r="L195" s="6">
         <v>17</v>
       </c>
@@ -8586,17 +8586,17 @@
       <c r="B196" s="48">
         <v>44870</v>
       </c>
-      <c r="C196" s="57" t="s">
+      <c r="C196" s="87" t="s">
         <v>10</v>
       </c>
-      <c r="D196" s="58"/>
-      <c r="E196" s="58"/>
-      <c r="F196" s="58"/>
-      <c r="G196" s="58"/>
-      <c r="H196" s="58"/>
-      <c r="I196" s="58"/>
-      <c r="J196" s="58"/>
-      <c r="K196" s="59"/>
+      <c r="D196" s="88"/>
+      <c r="E196" s="88"/>
+      <c r="F196" s="88"/>
+      <c r="G196" s="88"/>
+      <c r="H196" s="88"/>
+      <c r="I196" s="88"/>
+      <c r="J196" s="88"/>
+      <c r="K196" s="89"/>
       <c r="L196" s="6">
         <v>17</v>
       </c>
@@ -8624,17 +8624,17 @@
       <c r="B197" s="48">
         <v>44870</v>
       </c>
-      <c r="C197" s="57" t="s">
+      <c r="C197" s="87" t="s">
         <v>47</v>
       </c>
-      <c r="D197" s="58"/>
-      <c r="E197" s="58"/>
-      <c r="F197" s="58"/>
-      <c r="G197" s="58"/>
-      <c r="H197" s="58"/>
-      <c r="I197" s="58"/>
-      <c r="J197" s="58"/>
-      <c r="K197" s="59"/>
+      <c r="D197" s="88"/>
+      <c r="E197" s="88"/>
+      <c r="F197" s="88"/>
+      <c r="G197" s="88"/>
+      <c r="H197" s="88"/>
+      <c r="I197" s="88"/>
+      <c r="J197" s="88"/>
+      <c r="K197" s="89"/>
       <c r="L197" s="6">
         <v>17</v>
       </c>
@@ -8660,17 +8660,17 @@
         <v>23</v>
       </c>
       <c r="B198" s="48"/>
-      <c r="C198" s="54" t="s">
+      <c r="C198" s="83" t="s">
         <v>41</v>
       </c>
-      <c r="D198" s="55"/>
-      <c r="E198" s="55"/>
-      <c r="F198" s="55"/>
-      <c r="G198" s="55"/>
-      <c r="H198" s="55"/>
-      <c r="I198" s="55"/>
-      <c r="J198" s="55"/>
-      <c r="K198" s="56"/>
+      <c r="D198" s="84"/>
+      <c r="E198" s="84"/>
+      <c r="F198" s="84"/>
+      <c r="G198" s="84"/>
+      <c r="H198" s="84"/>
+      <c r="I198" s="84"/>
+      <c r="J198" s="84"/>
+      <c r="K198" s="85"/>
       <c r="L198" s="6">
         <v>17</v>
       </c>
@@ -8696,17 +8696,17 @@
         <v>24</v>
       </c>
       <c r="B199" s="48"/>
-      <c r="C199" s="54" t="s">
+      <c r="C199" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="D199" s="55"/>
-      <c r="E199" s="55"/>
-      <c r="F199" s="55"/>
-      <c r="G199" s="55"/>
-      <c r="H199" s="55"/>
-      <c r="I199" s="55"/>
-      <c r="J199" s="55"/>
-      <c r="K199" s="56"/>
+      <c r="D199" s="84"/>
+      <c r="E199" s="84"/>
+      <c r="F199" s="84"/>
+      <c r="G199" s="84"/>
+      <c r="H199" s="84"/>
+      <c r="I199" s="84"/>
+      <c r="J199" s="84"/>
+      <c r="K199" s="85"/>
       <c r="L199" s="6">
         <v>17</v>
       </c>
@@ -8732,20 +8732,20 @@
         <v>25</v>
       </c>
       <c r="B200" s="47"/>
-      <c r="C200" s="66" t="s">
+      <c r="C200" s="60" t="s">
         <v>58</v>
       </c>
-      <c r="D200" s="67"/>
-      <c r="E200" s="67"/>
-      <c r="F200" s="67"/>
-      <c r="G200" s="67"/>
-      <c r="H200" s="67"/>
-      <c r="I200" s="67"/>
-      <c r="J200" s="67"/>
-      <c r="K200" s="67"/>
-      <c r="L200" s="67"/>
-      <c r="M200" s="67"/>
-      <c r="N200" s="68"/>
+      <c r="D200" s="61"/>
+      <c r="E200" s="61"/>
+      <c r="F200" s="61"/>
+      <c r="G200" s="61"/>
+      <c r="H200" s="61"/>
+      <c r="I200" s="61"/>
+      <c r="J200" s="61"/>
+      <c r="K200" s="61"/>
+      <c r="L200" s="61"/>
+      <c r="M200" s="61"/>
+      <c r="N200" s="62"/>
       <c r="O200" s="11"/>
       <c r="P200" s="12">
         <f t="shared" ref="P200:U200" si="15">AVERAGE(P176:P199)</f>
@@ -8782,26 +8782,26 @@
       <c r="R202"/>
     </row>
     <row r="203" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A203" s="82" t="s">
+      <c r="A203" s="76" t="s">
         <v>13</v>
       </c>
-      <c r="B203" s="83"/>
-      <c r="C203" s="83"/>
-      <c r="D203" s="83"/>
-      <c r="E203" s="83"/>
-      <c r="F203" s="83"/>
-      <c r="G203" s="83"/>
-      <c r="H203" s="83"/>
-      <c r="I203" s="83"/>
-      <c r="J203" s="83"/>
-      <c r="K203" s="83"/>
-      <c r="L203" s="83"/>
-      <c r="M203" s="83"/>
-      <c r="N203" s="83"/>
-      <c r="O203" s="83"/>
-      <c r="P203" s="83"/>
-      <c r="Q203" s="83"/>
-      <c r="R203" s="84"/>
+      <c r="B203" s="77"/>
+      <c r="C203" s="77"/>
+      <c r="D203" s="77"/>
+      <c r="E203" s="77"/>
+      <c r="F203" s="77"/>
+      <c r="G203" s="77"/>
+      <c r="H203" s="77"/>
+      <c r="I203" s="77"/>
+      <c r="J203" s="77"/>
+      <c r="K203" s="77"/>
+      <c r="L203" s="77"/>
+      <c r="M203" s="77"/>
+      <c r="N203" s="77"/>
+      <c r="O203" s="77"/>
+      <c r="P203" s="77"/>
+      <c r="Q203" s="77"/>
+      <c r="R203" s="78"/>
       <c r="S203" s="15"/>
       <c r="T203" s="15"/>
       <c r="U203" s="15"/>
@@ -8811,17 +8811,17 @@
         <v>1</v>
       </c>
       <c r="B205" s="5"/>
-      <c r="C205" s="72" t="s">
+      <c r="C205" s="73" t="s">
         <v>56</v>
       </c>
-      <c r="D205" s="72"/>
-      <c r="E205" s="72"/>
-      <c r="F205" s="72"/>
-      <c r="G205" s="72"/>
-      <c r="H205" s="72"/>
-      <c r="I205" s="72"/>
-      <c r="J205" s="72"/>
-      <c r="K205" s="72"/>
+      <c r="D205" s="73"/>
+      <c r="E205" s="73"/>
+      <c r="F205" s="73"/>
+      <c r="G205" s="73"/>
+      <c r="H205" s="73"/>
+      <c r="I205" s="73"/>
+      <c r="J205" s="73"/>
+      <c r="K205" s="73"/>
       <c r="L205" s="5" t="s">
         <v>2</v>
       </c>
@@ -8858,17 +8858,17 @@
         <v>1</v>
       </c>
       <c r="B206" s="1"/>
-      <c r="C206" s="73" t="s">
+      <c r="C206" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="D206" s="73"/>
-      <c r="E206" s="73"/>
-      <c r="F206" s="73"/>
-      <c r="G206" s="73"/>
-      <c r="H206" s="73"/>
-      <c r="I206" s="73"/>
-      <c r="J206" s="73"/>
-      <c r="K206" s="73"/>
+      <c r="D206" s="74"/>
+      <c r="E206" s="74"/>
+      <c r="F206" s="74"/>
+      <c r="G206" s="74"/>
+      <c r="H206" s="74"/>
+      <c r="I206" s="74"/>
+      <c r="J206" s="74"/>
+      <c r="K206" s="74"/>
       <c r="L206" s="6">
         <v>33</v>
       </c>
@@ -8894,17 +8894,17 @@
         <v>2</v>
       </c>
       <c r="B207" s="1"/>
-      <c r="C207" s="64" t="s">
+      <c r="C207" s="66" t="s">
         <v>16</v>
       </c>
-      <c r="D207" s="65"/>
-      <c r="E207" s="65"/>
-      <c r="F207" s="65"/>
-      <c r="G207" s="65"/>
-      <c r="H207" s="65"/>
-      <c r="I207" s="65"/>
-      <c r="J207" s="65"/>
-      <c r="K207" s="65"/>
+      <c r="D207" s="67"/>
+      <c r="E207" s="67"/>
+      <c r="F207" s="67"/>
+      <c r="G207" s="67"/>
+      <c r="H207" s="67"/>
+      <c r="I207" s="67"/>
+      <c r="J207" s="67"/>
+      <c r="K207" s="67"/>
       <c r="L207" s="6">
         <v>33</v>
       </c>
@@ -8930,17 +8930,17 @@
         <v>3</v>
       </c>
       <c r="B208" s="1"/>
-      <c r="C208" s="64" t="s">
+      <c r="C208" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="D208" s="65"/>
-      <c r="E208" s="65"/>
-      <c r="F208" s="65"/>
-      <c r="G208" s="65"/>
-      <c r="H208" s="65"/>
-      <c r="I208" s="65"/>
-      <c r="J208" s="65"/>
-      <c r="K208" s="65"/>
+      <c r="D208" s="67"/>
+      <c r="E208" s="67"/>
+      <c r="F208" s="67"/>
+      <c r="G208" s="67"/>
+      <c r="H208" s="67"/>
+      <c r="I208" s="67"/>
+      <c r="J208" s="67"/>
+      <c r="K208" s="67"/>
       <c r="L208" s="6">
         <v>33</v>
       </c>
@@ -8978,17 +8978,17 @@
         <v>4</v>
       </c>
       <c r="B209" s="1"/>
-      <c r="C209" s="65" t="s">
+      <c r="C209" s="67" t="s">
         <v>18</v>
       </c>
-      <c r="D209" s="65"/>
-      <c r="E209" s="65"/>
-      <c r="F209" s="65"/>
-      <c r="G209" s="65"/>
-      <c r="H209" s="65"/>
-      <c r="I209" s="65"/>
-      <c r="J209" s="65"/>
-      <c r="K209" s="65"/>
+      <c r="D209" s="67"/>
+      <c r="E209" s="67"/>
+      <c r="F209" s="67"/>
+      <c r="G209" s="67"/>
+      <c r="H209" s="67"/>
+      <c r="I209" s="67"/>
+      <c r="J209" s="67"/>
+      <c r="K209" s="67"/>
       <c r="L209" s="6">
         <v>33</v>
       </c>
@@ -9026,17 +9026,17 @@
         <v>5</v>
       </c>
       <c r="B210" s="1"/>
-      <c r="C210" s="64" t="s">
+      <c r="C210" s="66" t="s">
         <v>61</v>
       </c>
-      <c r="D210" s="65"/>
-      <c r="E210" s="65"/>
-      <c r="F210" s="65"/>
-      <c r="G210" s="65"/>
-      <c r="H210" s="65"/>
-      <c r="I210" s="65"/>
-      <c r="J210" s="65"/>
-      <c r="K210" s="65"/>
+      <c r="D210" s="67"/>
+      <c r="E210" s="67"/>
+      <c r="F210" s="67"/>
+      <c r="G210" s="67"/>
+      <c r="H210" s="67"/>
+      <c r="I210" s="67"/>
+      <c r="J210" s="67"/>
+      <c r="K210" s="67"/>
       <c r="L210" s="6">
         <v>33</v>
       </c>
@@ -9074,17 +9074,17 @@
         <v>6</v>
       </c>
       <c r="B211" s="1"/>
-      <c r="C211" s="64" t="s">
+      <c r="C211" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="D211" s="65"/>
-      <c r="E211" s="65"/>
-      <c r="F211" s="65"/>
-      <c r="G211" s="65"/>
-      <c r="H211" s="65"/>
-      <c r="I211" s="65"/>
-      <c r="J211" s="65"/>
-      <c r="K211" s="65"/>
+      <c r="D211" s="67"/>
+      <c r="E211" s="67"/>
+      <c r="F211" s="67"/>
+      <c r="G211" s="67"/>
+      <c r="H211" s="67"/>
+      <c r="I211" s="67"/>
+      <c r="J211" s="67"/>
+      <c r="K211" s="67"/>
       <c r="L211" s="6">
         <v>33</v>
       </c>
@@ -9110,17 +9110,17 @@
         <v>7</v>
       </c>
       <c r="B212" s="1"/>
-      <c r="C212" s="65" t="s">
+      <c r="C212" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="D212" s="65"/>
-      <c r="E212" s="65"/>
-      <c r="F212" s="65"/>
-      <c r="G212" s="65"/>
-      <c r="H212" s="65"/>
-      <c r="I212" s="65"/>
-      <c r="J212" s="65"/>
-      <c r="K212" s="65"/>
+      <c r="D212" s="67"/>
+      <c r="E212" s="67"/>
+      <c r="F212" s="67"/>
+      <c r="G212" s="67"/>
+      <c r="H212" s="67"/>
+      <c r="I212" s="67"/>
+      <c r="J212" s="67"/>
+      <c r="K212" s="67"/>
       <c r="L212" s="6">
         <v>33</v>
       </c>
@@ -9158,17 +9158,17 @@
         <v>8</v>
       </c>
       <c r="B213" s="1"/>
-      <c r="C213" s="64" t="s">
+      <c r="C213" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="D213" s="65"/>
-      <c r="E213" s="65"/>
-      <c r="F213" s="65"/>
-      <c r="G213" s="65"/>
-      <c r="H213" s="65"/>
-      <c r="I213" s="65"/>
-      <c r="J213" s="65"/>
-      <c r="K213" s="65"/>
+      <c r="D213" s="67"/>
+      <c r="E213" s="67"/>
+      <c r="F213" s="67"/>
+      <c r="G213" s="67"/>
+      <c r="H213" s="67"/>
+      <c r="I213" s="67"/>
+      <c r="J213" s="67"/>
+      <c r="K213" s="67"/>
       <c r="L213" s="6">
         <v>33</v>
       </c>
@@ -9194,17 +9194,17 @@
         <v>9</v>
       </c>
       <c r="B214" s="1"/>
-      <c r="C214" s="64" t="s">
+      <c r="C214" s="66" t="s">
         <v>62</v>
       </c>
-      <c r="D214" s="65"/>
-      <c r="E214" s="65"/>
-      <c r="F214" s="65"/>
-      <c r="G214" s="65"/>
-      <c r="H214" s="65"/>
-      <c r="I214" s="65"/>
-      <c r="J214" s="65"/>
-      <c r="K214" s="65"/>
+      <c r="D214" s="67"/>
+      <c r="E214" s="67"/>
+      <c r="F214" s="67"/>
+      <c r="G214" s="67"/>
+      <c r="H214" s="67"/>
+      <c r="I214" s="67"/>
+      <c r="J214" s="67"/>
+      <c r="K214" s="67"/>
       <c r="L214" s="6">
         <v>33</v>
       </c>
@@ -9224,17 +9224,17 @@
         <v>58.72</v>
       </c>
       <c r="R214" s="6">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="S214" s="6">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="T214" s="6" t="s">
         <v>60</v>
       </c>
       <c r="U214" s="6">
         <f t="shared" si="16"/>
-        <v>91.428571428571431</v>
+        <v>90.654205607476641</v>
       </c>
     </row>
     <row r="215" spans="1:21" x14ac:dyDescent="0.3">
@@ -9242,17 +9242,17 @@
         <v>10</v>
       </c>
       <c r="B215" s="1"/>
-      <c r="C215" s="64" t="s">
+      <c r="C215" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="D215" s="65"/>
-      <c r="E215" s="65"/>
-      <c r="F215" s="65"/>
-      <c r="G215" s="65"/>
-      <c r="H215" s="65"/>
-      <c r="I215" s="65"/>
-      <c r="J215" s="65"/>
-      <c r="K215" s="65"/>
+      <c r="D215" s="67"/>
+      <c r="E215" s="67"/>
+      <c r="F215" s="67"/>
+      <c r="G215" s="67"/>
+      <c r="H215" s="67"/>
+      <c r="I215" s="67"/>
+      <c r="J215" s="67"/>
+      <c r="K215" s="67"/>
       <c r="L215" s="6">
         <v>33</v>
       </c>
@@ -9278,17 +9278,17 @@
         <v>11</v>
       </c>
       <c r="B216" s="1"/>
-      <c r="C216" s="64" t="s">
+      <c r="C216" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="D216" s="65"/>
-      <c r="E216" s="65"/>
-      <c r="F216" s="65"/>
-      <c r="G216" s="65"/>
-      <c r="H216" s="65"/>
-      <c r="I216" s="65"/>
-      <c r="J216" s="65"/>
-      <c r="K216" s="65"/>
+      <c r="D216" s="67"/>
+      <c r="E216" s="67"/>
+      <c r="F216" s="67"/>
+      <c r="G216" s="67"/>
+      <c r="H216" s="67"/>
+      <c r="I216" s="67"/>
+      <c r="J216" s="67"/>
+      <c r="K216" s="67"/>
       <c r="L216" s="6">
         <v>33</v>
       </c>
@@ -9314,17 +9314,17 @@
         <v>12</v>
       </c>
       <c r="B217" s="1"/>
-      <c r="C217" s="64" t="s">
+      <c r="C217" s="66" t="s">
         <v>63</v>
       </c>
-      <c r="D217" s="65"/>
-      <c r="E217" s="65"/>
-      <c r="F217" s="65"/>
-      <c r="G217" s="65"/>
-      <c r="H217" s="65"/>
-      <c r="I217" s="65"/>
-      <c r="J217" s="65"/>
-      <c r="K217" s="65"/>
+      <c r="D217" s="67"/>
+      <c r="E217" s="67"/>
+      <c r="F217" s="67"/>
+      <c r="G217" s="67"/>
+      <c r="H217" s="67"/>
+      <c r="I217" s="67"/>
+      <c r="J217" s="67"/>
+      <c r="K217" s="67"/>
       <c r="L217" s="6">
         <v>33</v>
       </c>
@@ -9362,20 +9362,20 @@
         <v>13</v>
       </c>
       <c r="B218" s="1"/>
-      <c r="C218" s="66" t="s">
+      <c r="C218" s="60" t="s">
         <v>58</v>
       </c>
-      <c r="D218" s="67"/>
-      <c r="E218" s="67"/>
-      <c r="F218" s="67"/>
-      <c r="G218" s="67"/>
-      <c r="H218" s="67"/>
-      <c r="I218" s="67"/>
-      <c r="J218" s="67"/>
-      <c r="K218" s="67"/>
-      <c r="L218" s="67"/>
-      <c r="M218" s="67"/>
-      <c r="N218" s="68"/>
+      <c r="D218" s="61"/>
+      <c r="E218" s="61"/>
+      <c r="F218" s="61"/>
+      <c r="G218" s="61"/>
+      <c r="H218" s="61"/>
+      <c r="I218" s="61"/>
+      <c r="J218" s="61"/>
+      <c r="K218" s="61"/>
+      <c r="L218" s="61"/>
+      <c r="M218" s="61"/>
+      <c r="N218" s="62"/>
       <c r="O218" s="11"/>
       <c r="P218" s="12">
         <f>AVERAGE(P206:P217)</f>
@@ -9387,16 +9387,16 @@
       </c>
       <c r="R218" s="12">
         <f t="shared" ref="R218:S218" si="17">AVERAGE(R206:R217)</f>
-        <v>11.166666666666666</v>
+        <v>11.333333333333334</v>
       </c>
       <c r="S218" s="12">
         <f t="shared" si="17"/>
-        <v>70</v>
+        <v>70.333333333333329</v>
       </c>
       <c r="T218" s="11"/>
       <c r="U218" s="6">
         <f t="shared" si="16"/>
-        <v>85.476190476190482</v>
+        <v>85.308056872037909</v>
       </c>
     </row>
     <row r="219" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -9405,26 +9405,26 @@
       <c r="Q219" s="52"/>
     </row>
     <row r="220" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A220" s="69" t="s">
+      <c r="A220" s="63" t="s">
         <v>24</v>
       </c>
-      <c r="B220" s="70"/>
-      <c r="C220" s="70"/>
-      <c r="D220" s="70"/>
-      <c r="E220" s="70"/>
-      <c r="F220" s="70"/>
-      <c r="G220" s="70"/>
-      <c r="H220" s="70"/>
-      <c r="I220" s="70"/>
-      <c r="J220" s="70"/>
-      <c r="K220" s="70"/>
-      <c r="L220" s="70"/>
-      <c r="M220" s="70"/>
-      <c r="N220" s="70"/>
-      <c r="O220" s="70"/>
-      <c r="P220" s="70"/>
-      <c r="Q220" s="70"/>
-      <c r="R220" s="71"/>
+      <c r="B220" s="64"/>
+      <c r="C220" s="64"/>
+      <c r="D220" s="64"/>
+      <c r="E220" s="64"/>
+      <c r="F220" s="64"/>
+      <c r="G220" s="64"/>
+      <c r="H220" s="64"/>
+      <c r="I220" s="64"/>
+      <c r="J220" s="64"/>
+      <c r="K220" s="64"/>
+      <c r="L220" s="64"/>
+      <c r="M220" s="64"/>
+      <c r="N220" s="64"/>
+      <c r="O220" s="64"/>
+      <c r="P220" s="64"/>
+      <c r="Q220" s="64"/>
+      <c r="R220" s="65"/>
       <c r="S220" s="3"/>
       <c r="T220" s="3"/>
       <c r="U220" s="3"/>
@@ -9434,17 +9434,17 @@
         <v>1</v>
       </c>
       <c r="B222" s="5"/>
-      <c r="C222" s="72" t="s">
+      <c r="C222" s="73" t="s">
         <v>108</v>
       </c>
-      <c r="D222" s="72"/>
-      <c r="E222" s="72"/>
-      <c r="F222" s="72"/>
-      <c r="G222" s="72"/>
-      <c r="H222" s="72"/>
-      <c r="I222" s="72"/>
-      <c r="J222" s="72"/>
-      <c r="K222" s="72"/>
+      <c r="D222" s="73"/>
+      <c r="E222" s="73"/>
+      <c r="F222" s="73"/>
+      <c r="G222" s="73"/>
+      <c r="H222" s="73"/>
+      <c r="I222" s="73"/>
+      <c r="J222" s="73"/>
+      <c r="K222" s="73"/>
       <c r="L222" s="5" t="s">
         <v>2</v>
       </c>
@@ -9481,17 +9481,17 @@
         <v>1</v>
       </c>
       <c r="B223" s="1"/>
-      <c r="C223" s="73" t="s">
+      <c r="C223" s="74" t="s">
         <v>65</v>
       </c>
-      <c r="D223" s="73"/>
-      <c r="E223" s="73"/>
-      <c r="F223" s="73"/>
-      <c r="G223" s="73"/>
-      <c r="H223" s="73"/>
-      <c r="I223" s="73"/>
-      <c r="J223" s="73"/>
-      <c r="K223" s="73"/>
+      <c r="D223" s="74"/>
+      <c r="E223" s="74"/>
+      <c r="F223" s="74"/>
+      <c r="G223" s="74"/>
+      <c r="H223" s="74"/>
+      <c r="I223" s="74"/>
+      <c r="J223" s="74"/>
+      <c r="K223" s="74"/>
       <c r="L223" s="6">
         <v>33</v>
       </c>
@@ -9514,17 +9514,17 @@
         <v>2</v>
       </c>
       <c r="B224" s="1"/>
-      <c r="C224" s="64" t="s">
+      <c r="C224" s="66" t="s">
         <v>66</v>
       </c>
-      <c r="D224" s="65"/>
-      <c r="E224" s="65"/>
-      <c r="F224" s="65"/>
-      <c r="G224" s="65"/>
-      <c r="H224" s="65"/>
-      <c r="I224" s="65"/>
-      <c r="J224" s="65"/>
-      <c r="K224" s="65"/>
+      <c r="D224" s="67"/>
+      <c r="E224" s="67"/>
+      <c r="F224" s="67"/>
+      <c r="G224" s="67"/>
+      <c r="H224" s="67"/>
+      <c r="I224" s="67"/>
+      <c r="J224" s="67"/>
+      <c r="K224" s="67"/>
       <c r="L224" s="6">
         <v>33</v>
       </c>
@@ -9547,17 +9547,17 @@
         <v>3</v>
       </c>
       <c r="B225" s="1"/>
-      <c r="C225" s="64" t="s">
+      <c r="C225" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="D225" s="65"/>
-      <c r="E225" s="65"/>
-      <c r="F225" s="65"/>
-      <c r="G225" s="65"/>
-      <c r="H225" s="65"/>
-      <c r="I225" s="65"/>
-      <c r="J225" s="65"/>
-      <c r="K225" s="65"/>
+      <c r="D225" s="67"/>
+      <c r="E225" s="67"/>
+      <c r="F225" s="67"/>
+      <c r="G225" s="67"/>
+      <c r="H225" s="67"/>
+      <c r="I225" s="67"/>
+      <c r="J225" s="67"/>
+      <c r="K225" s="67"/>
       <c r="L225" s="6">
         <v>33</v>
       </c>
@@ -9580,17 +9580,17 @@
         <v>4</v>
       </c>
       <c r="B226" s="1"/>
-      <c r="C226" s="65" t="s">
+      <c r="C226" s="67" t="s">
         <v>26</v>
       </c>
-      <c r="D226" s="65"/>
-      <c r="E226" s="65"/>
-      <c r="F226" s="65"/>
-      <c r="G226" s="65"/>
-      <c r="H226" s="65"/>
-      <c r="I226" s="65"/>
-      <c r="J226" s="65"/>
-      <c r="K226" s="65"/>
+      <c r="D226" s="67"/>
+      <c r="E226" s="67"/>
+      <c r="F226" s="67"/>
+      <c r="G226" s="67"/>
+      <c r="H226" s="67"/>
+      <c r="I226" s="67"/>
+      <c r="J226" s="67"/>
+      <c r="K226" s="67"/>
       <c r="L226" s="6">
         <v>33</v>
       </c>
@@ -9613,17 +9613,17 @@
         <v>5</v>
       </c>
       <c r="B227" s="1"/>
-      <c r="C227" s="64" t="s">
+      <c r="C227" s="66" t="s">
         <v>27</v>
       </c>
-      <c r="D227" s="65"/>
-      <c r="E227" s="65"/>
-      <c r="F227" s="65"/>
-      <c r="G227" s="65"/>
-      <c r="H227" s="65"/>
-      <c r="I227" s="65"/>
-      <c r="J227" s="65"/>
-      <c r="K227" s="65"/>
+      <c r="D227" s="67"/>
+      <c r="E227" s="67"/>
+      <c r="F227" s="67"/>
+      <c r="G227" s="67"/>
+      <c r="H227" s="67"/>
+      <c r="I227" s="67"/>
+      <c r="J227" s="67"/>
+      <c r="K227" s="67"/>
       <c r="L227" s="6">
         <v>33</v>
       </c>
@@ -9646,17 +9646,17 @@
         <v>6</v>
       </c>
       <c r="B228" s="1"/>
-      <c r="C228" s="64" t="s">
+      <c r="C228" s="66" t="s">
         <v>67</v>
       </c>
-      <c r="D228" s="65"/>
-      <c r="E228" s="65"/>
-      <c r="F228" s="65"/>
-      <c r="G228" s="65"/>
-      <c r="H228" s="65"/>
-      <c r="I228" s="65"/>
-      <c r="J228" s="65"/>
-      <c r="K228" s="65"/>
+      <c r="D228" s="67"/>
+      <c r="E228" s="67"/>
+      <c r="F228" s="67"/>
+      <c r="G228" s="67"/>
+      <c r="H228" s="67"/>
+      <c r="I228" s="67"/>
+      <c r="J228" s="67"/>
+      <c r="K228" s="67"/>
       <c r="L228" s="6">
         <v>33</v>
       </c>
@@ -9679,20 +9679,20 @@
         <v>7</v>
       </c>
       <c r="B229" s="1"/>
-      <c r="C229" s="66" t="s">
+      <c r="C229" s="60" t="s">
         <v>58</v>
       </c>
-      <c r="D229" s="67"/>
-      <c r="E229" s="67"/>
-      <c r="F229" s="67"/>
-      <c r="G229" s="67"/>
-      <c r="H229" s="67"/>
-      <c r="I229" s="67"/>
-      <c r="J229" s="67"/>
-      <c r="K229" s="67"/>
-      <c r="L229" s="67"/>
-      <c r="M229" s="67"/>
-      <c r="N229" s="68"/>
+      <c r="D229" s="61"/>
+      <c r="E229" s="61"/>
+      <c r="F229" s="61"/>
+      <c r="G229" s="61"/>
+      <c r="H229" s="61"/>
+      <c r="I229" s="61"/>
+      <c r="J229" s="61"/>
+      <c r="K229" s="61"/>
+      <c r="L229" s="61"/>
+      <c r="M229" s="61"/>
+      <c r="N229" s="62"/>
       <c r="O229" s="11"/>
       <c r="P229" s="12" t="e">
         <f>AVERAGE(P223:P228)</f>
@@ -9712,25 +9712,25 @@
       <c r="B230" s="1"/>
     </row>
     <row r="231" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A231" s="81" t="s">
+      <c r="A231" s="72" t="s">
         <v>28</v>
       </c>
-      <c r="B231" s="81"/>
-      <c r="C231" s="81"/>
-      <c r="D231" s="81"/>
-      <c r="E231" s="81"/>
-      <c r="F231" s="81"/>
-      <c r="G231" s="81"/>
-      <c r="H231" s="81"/>
-      <c r="I231" s="81"/>
-      <c r="J231" s="81"/>
-      <c r="K231" s="81"/>
-      <c r="L231" s="81"/>
-      <c r="M231" s="81"/>
-      <c r="N231" s="81"/>
-      <c r="O231" s="81"/>
-      <c r="P231" s="81"/>
-      <c r="Q231" s="81"/>
+      <c r="B231" s="72"/>
+      <c r="C231" s="72"/>
+      <c r="D231" s="72"/>
+      <c r="E231" s="72"/>
+      <c r="F231" s="72"/>
+      <c r="G231" s="72"/>
+      <c r="H231" s="72"/>
+      <c r="I231" s="72"/>
+      <c r="J231" s="72"/>
+      <c r="K231" s="72"/>
+      <c r="L231" s="72"/>
+      <c r="M231" s="72"/>
+      <c r="N231" s="72"/>
+      <c r="O231" s="72"/>
+      <c r="P231" s="72"/>
+      <c r="Q231" s="72"/>
       <c r="R231"/>
     </row>
     <row r="232" spans="1:21" ht="40.799999999999997" x14ac:dyDescent="0.3">
@@ -9740,10 +9740,10 @@
       <c r="B232" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="C232" s="80" t="s">
+      <c r="C232" s="68" t="s">
         <v>68</v>
       </c>
-      <c r="D232" s="80"/>
+      <c r="D232" s="68"/>
       <c r="E232" s="17" t="s">
         <v>69</v>
       </c>
@@ -9797,10 +9797,10 @@
       <c r="B233" s="53">
         <v>44808</v>
       </c>
-      <c r="C233" s="90" t="s">
+      <c r="C233" s="54" t="s">
         <v>125</v>
       </c>
-      <c r="D233" s="91"/>
+      <c r="D233" s="55"/>
       <c r="E233" s="25">
         <v>57</v>
       </c>
@@ -9855,10 +9855,10 @@
       <c r="B234" s="53">
         <v>44816</v>
       </c>
-      <c r="C234" s="63" t="s">
+      <c r="C234" s="57" t="s">
         <v>113</v>
       </c>
-      <c r="D234" s="63"/>
+      <c r="D234" s="57"/>
       <c r="E234" s="25">
         <v>58</v>
       </c>
@@ -9913,10 +9913,10 @@
       <c r="B235" s="53">
         <v>44822</v>
       </c>
-      <c r="C235" s="63" t="s">
+      <c r="C235" s="57" t="s">
         <v>114</v>
       </c>
-      <c r="D235" s="63"/>
+      <c r="D235" s="57"/>
       <c r="E235" s="25">
         <v>64</v>
       </c>
@@ -9969,10 +9969,10 @@
         <v>3</v>
       </c>
       <c r="B236" s="14"/>
-      <c r="C236" s="63" t="s">
+      <c r="C236" s="57" t="s">
         <v>115</v>
       </c>
-      <c r="D236" s="63"/>
+      <c r="D236" s="57"/>
       <c r="E236" s="25"/>
       <c r="F236" s="26"/>
       <c r="G236" s="27"/>
@@ -9997,10 +9997,10 @@
         <v>4</v>
       </c>
       <c r="B237" s="14"/>
-      <c r="C237" s="63" t="s">
+      <c r="C237" s="57" t="s">
         <v>116</v>
       </c>
-      <c r="D237" s="63"/>
+      <c r="D237" s="57"/>
       <c r="E237" s="25"/>
       <c r="F237" s="26"/>
       <c r="G237" s="27"/>
@@ -10025,10 +10025,10 @@
         <v>5</v>
       </c>
       <c r="B238" s="14"/>
-      <c r="C238" s="63" t="s">
+      <c r="C238" s="57" t="s">
         <v>117</v>
       </c>
-      <c r="D238" s="63"/>
+      <c r="D238" s="57"/>
       <c r="E238" s="25"/>
       <c r="F238" s="26"/>
       <c r="G238" s="27"/>
@@ -10053,10 +10053,10 @@
         <v>6</v>
       </c>
       <c r="B239" s="14"/>
-      <c r="C239" s="63" t="s">
+      <c r="C239" s="57" t="s">
         <v>118</v>
       </c>
-      <c r="D239" s="63"/>
+      <c r="D239" s="57"/>
       <c r="E239" s="25"/>
       <c r="F239" s="26"/>
       <c r="G239" s="27"/>
@@ -10081,10 +10081,10 @@
         <v>7</v>
       </c>
       <c r="B240" s="14"/>
-      <c r="C240" s="63" t="s">
+      <c r="C240" s="57" t="s">
         <v>119</v>
       </c>
-      <c r="D240" s="63"/>
+      <c r="D240" s="57"/>
       <c r="E240" s="25"/>
       <c r="F240" s="26"/>
       <c r="G240" s="27"/>
@@ -10109,10 +10109,10 @@
         <v>8</v>
       </c>
       <c r="B241" s="14"/>
-      <c r="C241" s="63" t="s">
+      <c r="C241" s="57" t="s">
         <v>120</v>
       </c>
-      <c r="D241" s="63"/>
+      <c r="D241" s="57"/>
       <c r="E241" s="25"/>
       <c r="F241" s="26"/>
       <c r="G241" s="27"/>
@@ -10135,10 +10135,10 @@
     <row r="242" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A242" s="14"/>
       <c r="B242" s="14"/>
-      <c r="C242" s="74" t="s">
+      <c r="C242" s="58" t="s">
         <v>98</v>
       </c>
-      <c r="D242" s="74"/>
+      <c r="D242" s="58"/>
       <c r="E242" s="25">
         <f>AVERAGE(E233:E241)</f>
         <v>59.666666666666664</v>
@@ -10214,25 +10214,25 @@
       <c r="S244" s="6"/>
     </row>
     <row r="245" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A245" s="79" t="s">
+      <c r="A245" s="75" t="s">
         <v>99</v>
       </c>
-      <c r="B245" s="79"/>
-      <c r="C245" s="79"/>
-      <c r="D245" s="79"/>
-      <c r="E245" s="79"/>
-      <c r="F245" s="79"/>
-      <c r="G245" s="79"/>
-      <c r="H245" s="79"/>
-      <c r="I245" s="79"/>
-      <c r="J245" s="79"/>
-      <c r="K245" s="79"/>
-      <c r="L245" s="79"/>
-      <c r="M245" s="79"/>
-      <c r="N245" s="79"/>
-      <c r="O245" s="79"/>
-      <c r="P245" s="79"/>
-      <c r="Q245" s="79"/>
+      <c r="B245" s="75"/>
+      <c r="C245" s="75"/>
+      <c r="D245" s="75"/>
+      <c r="E245" s="75"/>
+      <c r="F245" s="75"/>
+      <c r="G245" s="75"/>
+      <c r="H245" s="75"/>
+      <c r="I245" s="75"/>
+      <c r="J245" s="75"/>
+      <c r="K245" s="75"/>
+      <c r="L245" s="75"/>
+      <c r="M245" s="75"/>
+      <c r="N245" s="75"/>
+      <c r="O245" s="75"/>
+      <c r="P245" s="75"/>
+      <c r="Q245" s="75"/>
       <c r="R245"/>
       <c r="S245" s="11"/>
     </row>
@@ -10241,10 +10241,10 @@
         <v>1</v>
       </c>
       <c r="B246" s="16"/>
-      <c r="C246" s="80" t="s">
+      <c r="C246" s="68" t="s">
         <v>68</v>
       </c>
-      <c r="D246" s="80"/>
+      <c r="D246" s="68"/>
       <c r="E246" s="17" t="s">
         <v>69</v>
       </c>
@@ -10293,10 +10293,10 @@
         <v>1</v>
       </c>
       <c r="B247" s="14"/>
-      <c r="C247" s="63" t="s">
+      <c r="C247" s="57" t="s">
         <v>121</v>
       </c>
-      <c r="D247" s="63"/>
+      <c r="D247" s="57"/>
       <c r="E247" s="25"/>
       <c r="F247" s="26"/>
       <c r="G247" s="27"/>
@@ -10320,10 +10320,10 @@
         <v>2</v>
       </c>
       <c r="B248" s="14"/>
-      <c r="C248" s="63" t="s">
+      <c r="C248" s="57" t="s">
         <v>122</v>
       </c>
-      <c r="D248" s="63"/>
+      <c r="D248" s="57"/>
       <c r="E248" s="25"/>
       <c r="F248" s="26"/>
       <c r="G248" s="27"/>
@@ -10347,10 +10347,10 @@
         <v>3</v>
       </c>
       <c r="B249" s="14"/>
-      <c r="C249" s="63" t="s">
+      <c r="C249" s="57" t="s">
         <v>123</v>
       </c>
-      <c r="D249" s="63"/>
+      <c r="D249" s="57"/>
       <c r="E249" s="25"/>
       <c r="F249" s="26"/>
       <c r="G249" s="27"/>
@@ -10374,10 +10374,10 @@
         <v>4</v>
       </c>
       <c r="B250" s="14"/>
-      <c r="C250" s="63" t="s">
+      <c r="C250" s="57" t="s">
         <v>124</v>
       </c>
-      <c r="D250" s="63"/>
+      <c r="D250" s="57"/>
       <c r="E250" s="25"/>
       <c r="F250" s="26"/>
       <c r="G250" s="27"/>
@@ -10397,10 +10397,10 @@
       </c>
     </row>
     <row r="251" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="C251" s="74" t="s">
+      <c r="C251" s="58" t="s">
         <v>98</v>
       </c>
-      <c r="D251" s="74"/>
+      <c r="D251" s="58"/>
       <c r="E251" s="25"/>
       <c r="F251" s="26"/>
       <c r="G251" s="27"/>
@@ -10424,103 +10424,103 @@
       <c r="R256"/>
     </row>
     <row r="257" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A257" s="75" t="s">
+      <c r="A257" s="59" t="s">
         <v>107</v>
       </c>
-      <c r="B257" s="75"/>
-      <c r="C257" s="75"/>
-      <c r="D257" s="75"/>
-      <c r="E257" s="75"/>
-      <c r="F257" s="75"/>
-      <c r="G257" s="75"/>
-      <c r="H257" s="75"/>
-      <c r="I257" s="75"/>
-      <c r="J257" s="75"/>
-      <c r="K257" s="75"/>
-      <c r="L257" s="75"/>
-      <c r="M257" s="75"/>
-      <c r="N257" s="75"/>
-      <c r="O257" s="75"/>
-      <c r="P257" s="75"/>
-      <c r="Q257" s="75"/>
-      <c r="R257" s="75"/>
-      <c r="S257" s="75"/>
-      <c r="T257" s="75"/>
-      <c r="U257" s="75"/>
-      <c r="V257" s="75"/>
-      <c r="W257" s="75"/>
+      <c r="B257" s="59"/>
+      <c r="C257" s="59"/>
+      <c r="D257" s="59"/>
+      <c r="E257" s="59"/>
+      <c r="F257" s="59"/>
+      <c r="G257" s="59"/>
+      <c r="H257" s="59"/>
+      <c r="I257" s="59"/>
+      <c r="J257" s="59"/>
+      <c r="K257" s="59"/>
+      <c r="L257" s="59"/>
+      <c r="M257" s="59"/>
+      <c r="N257" s="59"/>
+      <c r="O257" s="59"/>
+      <c r="P257" s="59"/>
+      <c r="Q257" s="59"/>
+      <c r="R257" s="59"/>
+      <c r="S257" s="59"/>
+      <c r="T257" s="59"/>
+      <c r="U257" s="59"/>
+      <c r="V257" s="59"/>
+      <c r="W257" s="59"/>
     </row>
     <row r="258" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A258" s="75"/>
-      <c r="B258" s="75"/>
-      <c r="C258" s="75"/>
-      <c r="D258" s="75"/>
-      <c r="E258" s="75"/>
-      <c r="F258" s="75"/>
-      <c r="G258" s="75"/>
-      <c r="H258" s="75"/>
-      <c r="I258" s="75"/>
-      <c r="J258" s="75"/>
-      <c r="K258" s="75"/>
-      <c r="L258" s="75"/>
-      <c r="M258" s="75"/>
-      <c r="N258" s="75"/>
-      <c r="O258" s="75"/>
-      <c r="P258" s="75"/>
-      <c r="Q258" s="75"/>
-      <c r="R258" s="75"/>
-      <c r="S258" s="75"/>
-      <c r="T258" s="75"/>
-      <c r="U258" s="75"/>
-      <c r="V258" s="75"/>
-      <c r="W258" s="75"/>
+      <c r="A258" s="59"/>
+      <c r="B258" s="59"/>
+      <c r="C258" s="59"/>
+      <c r="D258" s="59"/>
+      <c r="E258" s="59"/>
+      <c r="F258" s="59"/>
+      <c r="G258" s="59"/>
+      <c r="H258" s="59"/>
+      <c r="I258" s="59"/>
+      <c r="J258" s="59"/>
+      <c r="K258" s="59"/>
+      <c r="L258" s="59"/>
+      <c r="M258" s="59"/>
+      <c r="N258" s="59"/>
+      <c r="O258" s="59"/>
+      <c r="P258" s="59"/>
+      <c r="Q258" s="59"/>
+      <c r="R258" s="59"/>
+      <c r="S258" s="59"/>
+      <c r="T258" s="59"/>
+      <c r="U258" s="59"/>
+      <c r="V258" s="59"/>
+      <c r="W258" s="59"/>
     </row>
     <row r="259" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A259" s="75"/>
-      <c r="B259" s="75"/>
-      <c r="C259" s="75"/>
-      <c r="D259" s="75"/>
-      <c r="E259" s="75"/>
-      <c r="F259" s="75"/>
-      <c r="G259" s="75"/>
-      <c r="H259" s="75"/>
-      <c r="I259" s="75"/>
-      <c r="J259" s="75"/>
-      <c r="K259" s="75"/>
-      <c r="L259" s="75"/>
-      <c r="M259" s="75"/>
-      <c r="N259" s="75"/>
-      <c r="O259" s="75"/>
-      <c r="P259" s="75"/>
-      <c r="Q259" s="75"/>
-      <c r="R259" s="75"/>
-      <c r="S259" s="75"/>
-      <c r="T259" s="75"/>
-      <c r="U259" s="75"/>
-      <c r="V259" s="75"/>
-      <c r="W259" s="75"/>
+      <c r="A259" s="59"/>
+      <c r="B259" s="59"/>
+      <c r="C259" s="59"/>
+      <c r="D259" s="59"/>
+      <c r="E259" s="59"/>
+      <c r="F259" s="59"/>
+      <c r="G259" s="59"/>
+      <c r="H259" s="59"/>
+      <c r="I259" s="59"/>
+      <c r="J259" s="59"/>
+      <c r="K259" s="59"/>
+      <c r="L259" s="59"/>
+      <c r="M259" s="59"/>
+      <c r="N259" s="59"/>
+      <c r="O259" s="59"/>
+      <c r="P259" s="59"/>
+      <c r="Q259" s="59"/>
+      <c r="R259" s="59"/>
+      <c r="S259" s="59"/>
+      <c r="T259" s="59"/>
+      <c r="U259" s="59"/>
+      <c r="V259" s="59"/>
+      <c r="W259" s="59"/>
     </row>
     <row r="260" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A260" s="76" t="s">
+      <c r="A260" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="B260" s="77"/>
-      <c r="C260" s="77"/>
-      <c r="D260" s="77"/>
-      <c r="E260" s="77"/>
-      <c r="F260" s="77"/>
-      <c r="G260" s="77"/>
-      <c r="H260" s="77"/>
-      <c r="I260" s="77"/>
-      <c r="J260" s="77"/>
-      <c r="K260" s="77"/>
-      <c r="L260" s="77"/>
-      <c r="M260" s="77"/>
-      <c r="N260" s="77"/>
-      <c r="O260" s="77"/>
-      <c r="P260" s="77"/>
-      <c r="Q260" s="77"/>
-      <c r="R260" s="78"/>
+      <c r="B260" s="70"/>
+      <c r="C260" s="70"/>
+      <c r="D260" s="70"/>
+      <c r="E260" s="70"/>
+      <c r="F260" s="70"/>
+      <c r="G260" s="70"/>
+      <c r="H260" s="70"/>
+      <c r="I260" s="70"/>
+      <c r="J260" s="70"/>
+      <c r="K260" s="70"/>
+      <c r="L260" s="70"/>
+      <c r="M260" s="70"/>
+      <c r="N260" s="70"/>
+      <c r="O260" s="70"/>
+      <c r="P260" s="70"/>
+      <c r="Q260" s="70"/>
+      <c r="R260" s="71"/>
       <c r="S260" s="38"/>
       <c r="T260" s="38"/>
       <c r="U260" s="38"/>
@@ -10536,17 +10536,17 @@
       <c r="B262" s="46" t="s">
         <v>105</v>
       </c>
-      <c r="C262" s="72" t="s">
+      <c r="C262" s="73" t="s">
         <v>108</v>
       </c>
-      <c r="D262" s="72"/>
-      <c r="E262" s="72"/>
-      <c r="F262" s="72"/>
-      <c r="G262" s="72"/>
-      <c r="H262" s="72"/>
-      <c r="I262" s="72"/>
-      <c r="J262" s="72"/>
-      <c r="K262" s="72"/>
+      <c r="D262" s="73"/>
+      <c r="E262" s="73"/>
+      <c r="F262" s="73"/>
+      <c r="G262" s="73"/>
+      <c r="H262" s="73"/>
+      <c r="I262" s="73"/>
+      <c r="J262" s="73"/>
+      <c r="K262" s="73"/>
       <c r="L262" s="5" t="s">
         <v>2</v>
       </c>
@@ -10586,17 +10586,17 @@
       <c r="B263" s="44">
         <v>44683</v>
       </c>
-      <c r="C263" s="54" t="s">
+      <c r="C263" s="83" t="s">
         <v>43</v>
       </c>
-      <c r="D263" s="55"/>
-      <c r="E263" s="55"/>
-      <c r="F263" s="55"/>
-      <c r="G263" s="55"/>
-      <c r="H263" s="55"/>
-      <c r="I263" s="55"/>
-      <c r="J263" s="55"/>
-      <c r="K263" s="56"/>
+      <c r="D263" s="84"/>
+      <c r="E263" s="84"/>
+      <c r="F263" s="84"/>
+      <c r="G263" s="84"/>
+      <c r="H263" s="84"/>
+      <c r="I263" s="84"/>
+      <c r="J263" s="84"/>
+      <c r="K263" s="85"/>
       <c r="L263" s="6">
         <v>17</v>
       </c>
@@ -10624,17 +10624,17 @@
       <c r="B264" s="41">
         <v>44684</v>
       </c>
-      <c r="C264" s="57" t="s">
+      <c r="C264" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="D264" s="58"/>
-      <c r="E264" s="58"/>
-      <c r="F264" s="58"/>
-      <c r="G264" s="58"/>
-      <c r="H264" s="58"/>
-      <c r="I264" s="58"/>
-      <c r="J264" s="58"/>
-      <c r="K264" s="59"/>
+      <c r="D264" s="88"/>
+      <c r="E264" s="88"/>
+      <c r="F264" s="88"/>
+      <c r="G264" s="88"/>
+      <c r="H264" s="88"/>
+      <c r="I264" s="88"/>
+      <c r="J264" s="88"/>
+      <c r="K264" s="89"/>
       <c r="L264" s="6">
         <v>17</v>
       </c>
@@ -10662,17 +10662,17 @@
       <c r="B265" s="41">
         <v>44686</v>
       </c>
-      <c r="C265" s="54" t="s">
+      <c r="C265" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="D265" s="55"/>
-      <c r="E265" s="55"/>
-      <c r="F265" s="55"/>
-      <c r="G265" s="55"/>
-      <c r="H265" s="55"/>
-      <c r="I265" s="55"/>
-      <c r="J265" s="55"/>
-      <c r="K265" s="56"/>
+      <c r="D265" s="84"/>
+      <c r="E265" s="84"/>
+      <c r="F265" s="84"/>
+      <c r="G265" s="84"/>
+      <c r="H265" s="84"/>
+      <c r="I265" s="84"/>
+      <c r="J265" s="84"/>
+      <c r="K265" s="85"/>
       <c r="L265" s="6">
         <v>17</v>
       </c>
@@ -10700,17 +10700,17 @@
       <c r="B266" s="41">
         <v>44688</v>
       </c>
-      <c r="C266" s="54" t="s">
+      <c r="C266" s="83" t="s">
         <v>40</v>
       </c>
-      <c r="D266" s="55"/>
-      <c r="E266" s="55"/>
-      <c r="F266" s="55"/>
-      <c r="G266" s="55"/>
-      <c r="H266" s="55"/>
-      <c r="I266" s="55"/>
-      <c r="J266" s="55"/>
-      <c r="K266" s="56"/>
+      <c r="D266" s="84"/>
+      <c r="E266" s="84"/>
+      <c r="F266" s="84"/>
+      <c r="G266" s="84"/>
+      <c r="H266" s="84"/>
+      <c r="I266" s="84"/>
+      <c r="J266" s="84"/>
+      <c r="K266" s="85"/>
       <c r="L266" s="6">
         <v>17</v>
       </c>
@@ -10738,17 +10738,17 @@
       <c r="B267" s="41">
         <v>44696</v>
       </c>
-      <c r="C267" s="57" t="s">
+      <c r="C267" s="87" t="s">
         <v>5</v>
       </c>
-      <c r="D267" s="58"/>
-      <c r="E267" s="58"/>
-      <c r="F267" s="58"/>
-      <c r="G267" s="58"/>
-      <c r="H267" s="58"/>
-      <c r="I267" s="58"/>
-      <c r="J267" s="58"/>
-      <c r="K267" s="59"/>
+      <c r="D267" s="88"/>
+      <c r="E267" s="88"/>
+      <c r="F267" s="88"/>
+      <c r="G267" s="88"/>
+      <c r="H267" s="88"/>
+      <c r="I267" s="88"/>
+      <c r="J267" s="88"/>
+      <c r="K267" s="89"/>
       <c r="L267" s="6">
         <v>17</v>
       </c>
@@ -10776,17 +10776,17 @@
       <c r="B268" s="41">
         <v>44700</v>
       </c>
-      <c r="C268" s="54" t="s">
+      <c r="C268" s="83" t="s">
         <v>33</v>
       </c>
-      <c r="D268" s="55"/>
-      <c r="E268" s="55"/>
-      <c r="F268" s="55"/>
-      <c r="G268" s="55"/>
-      <c r="H268" s="55"/>
-      <c r="I268" s="55"/>
-      <c r="J268" s="55"/>
-      <c r="K268" s="56"/>
+      <c r="D268" s="84"/>
+      <c r="E268" s="84"/>
+      <c r="F268" s="84"/>
+      <c r="G268" s="84"/>
+      <c r="H268" s="84"/>
+      <c r="I268" s="84"/>
+      <c r="J268" s="84"/>
+      <c r="K268" s="85"/>
       <c r="L268" s="6">
         <v>17</v>
       </c>
@@ -10814,17 +10814,17 @@
       <c r="B269" s="41">
         <v>44703</v>
       </c>
-      <c r="C269" s="57" t="s">
+      <c r="C269" s="87" t="s">
         <v>9</v>
       </c>
-      <c r="D269" s="58"/>
-      <c r="E269" s="58"/>
-      <c r="F269" s="58"/>
-      <c r="G269" s="58"/>
-      <c r="H269" s="58"/>
-      <c r="I269" s="58"/>
-      <c r="J269" s="58"/>
-      <c r="K269" s="59"/>
+      <c r="D269" s="88"/>
+      <c r="E269" s="88"/>
+      <c r="F269" s="88"/>
+      <c r="G269" s="88"/>
+      <c r="H269" s="88"/>
+      <c r="I269" s="88"/>
+      <c r="J269" s="88"/>
+      <c r="K269" s="89"/>
       <c r="L269" s="6">
         <v>17</v>
       </c>
@@ -10852,17 +10852,17 @@
       <c r="B270" s="41">
         <v>44707</v>
       </c>
-      <c r="C270" s="57" t="s">
+      <c r="C270" s="87" t="s">
         <v>44</v>
       </c>
-      <c r="D270" s="58"/>
-      <c r="E270" s="58"/>
-      <c r="F270" s="58"/>
-      <c r="G270" s="58"/>
-      <c r="H270" s="58"/>
-      <c r="I270" s="58"/>
-      <c r="J270" s="58"/>
-      <c r="K270" s="59"/>
+      <c r="D270" s="88"/>
+      <c r="E270" s="88"/>
+      <c r="F270" s="88"/>
+      <c r="G270" s="88"/>
+      <c r="H270" s="88"/>
+      <c r="I270" s="88"/>
+      <c r="J270" s="88"/>
+      <c r="K270" s="89"/>
       <c r="L270" s="6">
         <v>17</v>
       </c>
@@ -10887,17 +10887,17 @@
       <c r="B271" s="41">
         <v>44712</v>
       </c>
-      <c r="C271" s="54" t="s">
+      <c r="C271" s="83" t="s">
         <v>34</v>
       </c>
-      <c r="D271" s="55"/>
-      <c r="E271" s="55"/>
-      <c r="F271" s="55"/>
-      <c r="G271" s="55"/>
-      <c r="H271" s="55"/>
-      <c r="I271" s="55"/>
-      <c r="J271" s="55"/>
-      <c r="K271" s="56"/>
+      <c r="D271" s="84"/>
+      <c r="E271" s="84"/>
+      <c r="F271" s="84"/>
+      <c r="G271" s="84"/>
+      <c r="H271" s="84"/>
+      <c r="I271" s="84"/>
+      <c r="J271" s="84"/>
+      <c r="K271" s="85"/>
       <c r="L271" s="6">
         <v>17</v>
       </c>
@@ -10922,17 +10922,17 @@
       <c r="B272" s="41">
         <v>44717</v>
       </c>
-      <c r="C272" s="57" t="s">
+      <c r="C272" s="87" t="s">
         <v>35</v>
       </c>
-      <c r="D272" s="58"/>
-      <c r="E272" s="58"/>
-      <c r="F272" s="58"/>
-      <c r="G272" s="58"/>
-      <c r="H272" s="58"/>
-      <c r="I272" s="58"/>
-      <c r="J272" s="58"/>
-      <c r="K272" s="59"/>
+      <c r="D272" s="88"/>
+      <c r="E272" s="88"/>
+      <c r="F272" s="88"/>
+      <c r="G272" s="88"/>
+      <c r="H272" s="88"/>
+      <c r="I272" s="88"/>
+      <c r="J272" s="88"/>
+      <c r="K272" s="89"/>
       <c r="L272" s="6">
         <v>17</v>
       </c>
@@ -10960,17 +10960,17 @@
       <c r="B273" s="41">
         <v>44722</v>
       </c>
-      <c r="C273" s="54" t="s">
+      <c r="C273" s="83" t="s">
         <v>36</v>
       </c>
-      <c r="D273" s="55"/>
-      <c r="E273" s="55"/>
-      <c r="F273" s="55"/>
-      <c r="G273" s="55"/>
-      <c r="H273" s="55"/>
-      <c r="I273" s="55"/>
-      <c r="J273" s="55"/>
-      <c r="K273" s="56"/>
+      <c r="D273" s="84"/>
+      <c r="E273" s="84"/>
+      <c r="F273" s="84"/>
+      <c r="G273" s="84"/>
+      <c r="H273" s="84"/>
+      <c r="I273" s="84"/>
+      <c r="J273" s="84"/>
+      <c r="K273" s="85"/>
       <c r="L273" s="6">
         <v>17</v>
       </c>
@@ -10995,17 +10995,17 @@
       <c r="B274" s="41">
         <v>44727</v>
       </c>
-      <c r="C274" s="54" t="s">
+      <c r="C274" s="83" t="s">
         <v>37</v>
       </c>
-      <c r="D274" s="55"/>
-      <c r="E274" s="55"/>
-      <c r="F274" s="55"/>
-      <c r="G274" s="55"/>
-      <c r="H274" s="55"/>
-      <c r="I274" s="55"/>
-      <c r="J274" s="55"/>
-      <c r="K274" s="56"/>
+      <c r="D274" s="84"/>
+      <c r="E274" s="84"/>
+      <c r="F274" s="84"/>
+      <c r="G274" s="84"/>
+      <c r="H274" s="84"/>
+      <c r="I274" s="84"/>
+      <c r="J274" s="84"/>
+      <c r="K274" s="85"/>
       <c r="L274" s="6">
         <v>17</v>
       </c>
@@ -11030,17 +11030,17 @@
       <c r="B275" s="41" t="s">
         <v>109</v>
       </c>
-      <c r="C275" s="54" t="s">
+      <c r="C275" s="83" t="s">
         <v>45</v>
       </c>
-      <c r="D275" s="55"/>
-      <c r="E275" s="55"/>
-      <c r="F275" s="55"/>
-      <c r="G275" s="55"/>
-      <c r="H275" s="55"/>
-      <c r="I275" s="55"/>
-      <c r="J275" s="55"/>
-      <c r="K275" s="56"/>
+      <c r="D275" s="84"/>
+      <c r="E275" s="84"/>
+      <c r="F275" s="84"/>
+      <c r="G275" s="84"/>
+      <c r="H275" s="84"/>
+      <c r="I275" s="84"/>
+      <c r="J275" s="84"/>
+      <c r="K275" s="85"/>
       <c r="L275" s="6">
         <v>17</v>
       </c>
@@ -11068,17 +11068,17 @@
       <c r="B276" s="41" t="s">
         <v>110</v>
       </c>
-      <c r="C276" s="54" t="s">
+      <c r="C276" s="83" t="s">
         <v>46</v>
       </c>
-      <c r="D276" s="55"/>
-      <c r="E276" s="55"/>
-      <c r="F276" s="55"/>
-      <c r="G276" s="55"/>
-      <c r="H276" s="55"/>
-      <c r="I276" s="55"/>
-      <c r="J276" s="55"/>
-      <c r="K276" s="56"/>
+      <c r="D276" s="84"/>
+      <c r="E276" s="84"/>
+      <c r="F276" s="84"/>
+      <c r="G276" s="84"/>
+      <c r="H276" s="84"/>
+      <c r="I276" s="84"/>
+      <c r="J276" s="84"/>
+      <c r="K276" s="85"/>
       <c r="L276" s="6">
         <v>17</v>
       </c>
@@ -11106,17 +11106,17 @@
       <c r="B277" s="41">
         <v>44736</v>
       </c>
-      <c r="C277" s="57" t="s">
+      <c r="C277" s="87" t="s">
         <v>7</v>
       </c>
-      <c r="D277" s="58"/>
-      <c r="E277" s="58"/>
-      <c r="F277" s="58"/>
-      <c r="G277" s="58"/>
-      <c r="H277" s="58"/>
-      <c r="I277" s="58"/>
-      <c r="J277" s="58"/>
-      <c r="K277" s="59"/>
+      <c r="D277" s="88"/>
+      <c r="E277" s="88"/>
+      <c r="F277" s="88"/>
+      <c r="G277" s="88"/>
+      <c r="H277" s="88"/>
+      <c r="I277" s="88"/>
+      <c r="J277" s="88"/>
+      <c r="K277" s="89"/>
       <c r="L277" s="6">
         <v>17</v>
       </c>
@@ -11144,17 +11144,17 @@
       <c r="B278" s="41">
         <v>44740</v>
       </c>
-      <c r="C278" s="54" t="s">
+      <c r="C278" s="83" t="s">
         <v>38</v>
       </c>
-      <c r="D278" s="55"/>
-      <c r="E278" s="55"/>
-      <c r="F278" s="55"/>
-      <c r="G278" s="55"/>
-      <c r="H278" s="55"/>
-      <c r="I278" s="55"/>
-      <c r="J278" s="55"/>
-      <c r="K278" s="56"/>
+      <c r="D278" s="84"/>
+      <c r="E278" s="84"/>
+      <c r="F278" s="84"/>
+      <c r="G278" s="84"/>
+      <c r="H278" s="84"/>
+      <c r="I278" s="84"/>
+      <c r="J278" s="84"/>
+      <c r="K278" s="85"/>
       <c r="L278" s="6">
         <v>17</v>
       </c>
@@ -11182,17 +11182,17 @@
       <c r="B279" s="41">
         <v>44745</v>
       </c>
-      <c r="C279" s="57" t="s">
+      <c r="C279" s="87" t="s">
         <v>11</v>
       </c>
-      <c r="D279" s="58"/>
-      <c r="E279" s="58"/>
-      <c r="F279" s="58"/>
-      <c r="G279" s="58"/>
-      <c r="H279" s="58"/>
-      <c r="I279" s="58"/>
-      <c r="J279" s="58"/>
-      <c r="K279" s="59"/>
+      <c r="D279" s="88"/>
+      <c r="E279" s="88"/>
+      <c r="F279" s="88"/>
+      <c r="G279" s="88"/>
+      <c r="H279" s="88"/>
+      <c r="I279" s="88"/>
+      <c r="J279" s="88"/>
+      <c r="K279" s="89"/>
       <c r="L279" s="6">
         <v>17</v>
       </c>
@@ -11220,17 +11220,17 @@
       <c r="B280" s="41">
         <v>44750</v>
       </c>
-      <c r="C280" s="54" t="s">
+      <c r="C280" s="83" t="s">
         <v>48</v>
       </c>
-      <c r="D280" s="55"/>
-      <c r="E280" s="55"/>
-      <c r="F280" s="55"/>
-      <c r="G280" s="55"/>
-      <c r="H280" s="55"/>
-      <c r="I280" s="55"/>
-      <c r="J280" s="55"/>
-      <c r="K280" s="56"/>
+      <c r="D280" s="84"/>
+      <c r="E280" s="84"/>
+      <c r="F280" s="84"/>
+      <c r="G280" s="84"/>
+      <c r="H280" s="84"/>
+      <c r="I280" s="84"/>
+      <c r="J280" s="84"/>
+      <c r="K280" s="85"/>
       <c r="L280" s="6">
         <v>17</v>
       </c>
@@ -11255,17 +11255,17 @@
       <c r="B281" s="41">
         <v>44752</v>
       </c>
-      <c r="C281" s="58" t="s">
+      <c r="C281" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="D281" s="58"/>
-      <c r="E281" s="58"/>
-      <c r="F281" s="58"/>
-      <c r="G281" s="58"/>
-      <c r="H281" s="58"/>
-      <c r="I281" s="58"/>
-      <c r="J281" s="58"/>
-      <c r="K281" s="59"/>
+      <c r="D281" s="88"/>
+      <c r="E281" s="88"/>
+      <c r="F281" s="88"/>
+      <c r="G281" s="88"/>
+      <c r="H281" s="88"/>
+      <c r="I281" s="88"/>
+      <c r="J281" s="88"/>
+      <c r="K281" s="89"/>
       <c r="L281" s="6">
         <v>17</v>
       </c>
@@ -11293,17 +11293,17 @@
       <c r="B282" s="41">
         <v>44754</v>
       </c>
-      <c r="C282" s="55" t="s">
+      <c r="C282" s="84" t="s">
         <v>49</v>
       </c>
-      <c r="D282" s="55"/>
-      <c r="E282" s="55"/>
-      <c r="F282" s="55"/>
-      <c r="G282" s="55"/>
-      <c r="H282" s="55"/>
-      <c r="I282" s="55"/>
-      <c r="J282" s="55"/>
-      <c r="K282" s="56"/>
+      <c r="D282" s="84"/>
+      <c r="E282" s="84"/>
+      <c r="F282" s="84"/>
+      <c r="G282" s="84"/>
+      <c r="H282" s="84"/>
+      <c r="I282" s="84"/>
+      <c r="J282" s="84"/>
+      <c r="K282" s="85"/>
       <c r="L282" s="6">
         <v>17</v>
       </c>
@@ -11328,17 +11328,17 @@
       <c r="B283" s="41">
         <v>44757</v>
       </c>
-      <c r="C283" s="57" t="s">
+      <c r="C283" s="87" t="s">
         <v>10</v>
       </c>
-      <c r="D283" s="58"/>
-      <c r="E283" s="58"/>
-      <c r="F283" s="58"/>
-      <c r="G283" s="58"/>
-      <c r="H283" s="58"/>
-      <c r="I283" s="58"/>
-      <c r="J283" s="58"/>
-      <c r="K283" s="59"/>
+      <c r="D283" s="88"/>
+      <c r="E283" s="88"/>
+      <c r="F283" s="88"/>
+      <c r="G283" s="88"/>
+      <c r="H283" s="88"/>
+      <c r="I283" s="88"/>
+      <c r="J283" s="88"/>
+      <c r="K283" s="89"/>
       <c r="L283" s="6">
         <v>17</v>
       </c>
@@ -11366,17 +11366,17 @@
       <c r="B284" s="41">
         <v>44760</v>
       </c>
-      <c r="C284" s="57" t="s">
+      <c r="C284" s="87" t="s">
         <v>47</v>
       </c>
-      <c r="D284" s="58"/>
-      <c r="E284" s="58"/>
-      <c r="F284" s="58"/>
-      <c r="G284" s="58"/>
-      <c r="H284" s="58"/>
-      <c r="I284" s="58"/>
-      <c r="J284" s="58"/>
-      <c r="K284" s="59"/>
+      <c r="D284" s="88"/>
+      <c r="E284" s="88"/>
+      <c r="F284" s="88"/>
+      <c r="G284" s="88"/>
+      <c r="H284" s="88"/>
+      <c r="I284" s="88"/>
+      <c r="J284" s="88"/>
+      <c r="K284" s="89"/>
       <c r="L284" s="6">
         <v>17</v>
       </c>
@@ -11402,17 +11402,17 @@
         <v>23</v>
       </c>
       <c r="B285" s="41"/>
-      <c r="C285" s="54" t="s">
+      <c r="C285" s="83" t="s">
         <v>41</v>
       </c>
-      <c r="D285" s="55"/>
-      <c r="E285" s="55"/>
-      <c r="F285" s="55"/>
-      <c r="G285" s="55"/>
-      <c r="H285" s="55"/>
-      <c r="I285" s="55"/>
-      <c r="J285" s="55"/>
-      <c r="K285" s="56"/>
+      <c r="D285" s="84"/>
+      <c r="E285" s="84"/>
+      <c r="F285" s="84"/>
+      <c r="G285" s="84"/>
+      <c r="H285" s="84"/>
+      <c r="I285" s="84"/>
+      <c r="J285" s="84"/>
+      <c r="K285" s="85"/>
       <c r="L285" s="6">
         <v>17</v>
       </c>
@@ -11435,17 +11435,17 @@
         <v>24</v>
       </c>
       <c r="B286" s="41"/>
-      <c r="C286" s="54" t="s">
+      <c r="C286" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="D286" s="55"/>
-      <c r="E286" s="55"/>
-      <c r="F286" s="55"/>
-      <c r="G286" s="55"/>
-      <c r="H286" s="55"/>
-      <c r="I286" s="55"/>
-      <c r="J286" s="55"/>
-      <c r="K286" s="56"/>
+      <c r="D286" s="84"/>
+      <c r="E286" s="84"/>
+      <c r="F286" s="84"/>
+      <c r="G286" s="84"/>
+      <c r="H286" s="84"/>
+      <c r="I286" s="84"/>
+      <c r="J286" s="84"/>
+      <c r="K286" s="85"/>
       <c r="L286" s="6">
         <v>17</v>
       </c>
@@ -11468,20 +11468,20 @@
         <v>25</v>
       </c>
       <c r="B287" s="47"/>
-      <c r="C287" s="66" t="s">
+      <c r="C287" s="60" t="s">
         <v>58</v>
       </c>
-      <c r="D287" s="67"/>
-      <c r="E287" s="67"/>
-      <c r="F287" s="67"/>
-      <c r="G287" s="67"/>
-      <c r="H287" s="67"/>
-      <c r="I287" s="67"/>
-      <c r="J287" s="67"/>
-      <c r="K287" s="67"/>
-      <c r="L287" s="67"/>
-      <c r="M287" s="67"/>
-      <c r="N287" s="68"/>
+      <c r="D287" s="61"/>
+      <c r="E287" s="61"/>
+      <c r="F287" s="61"/>
+      <c r="G287" s="61"/>
+      <c r="H287" s="61"/>
+      <c r="I287" s="61"/>
+      <c r="J287" s="61"/>
+      <c r="K287" s="61"/>
+      <c r="L287" s="61"/>
+      <c r="M287" s="61"/>
+      <c r="N287" s="62"/>
       <c r="O287" s="11"/>
       <c r="P287" s="12" t="e">
         <f>AVERAGE(P263:P286)</f>
@@ -11504,26 +11504,26 @@
       <c r="B288" s="41"/>
     </row>
     <row r="289" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A289" s="82" t="s">
+      <c r="A289" s="76" t="s">
         <v>13</v>
       </c>
-      <c r="B289" s="83"/>
-      <c r="C289" s="83"/>
-      <c r="D289" s="83"/>
-      <c r="E289" s="83"/>
-      <c r="F289" s="83"/>
-      <c r="G289" s="83"/>
-      <c r="H289" s="83"/>
-      <c r="I289" s="83"/>
-      <c r="J289" s="83"/>
-      <c r="K289" s="83"/>
-      <c r="L289" s="83"/>
-      <c r="M289" s="83"/>
-      <c r="N289" s="83"/>
-      <c r="O289" s="83"/>
-      <c r="P289" s="83"/>
-      <c r="Q289" s="83"/>
-      <c r="R289" s="84"/>
+      <c r="B289" s="77"/>
+      <c r="C289" s="77"/>
+      <c r="D289" s="77"/>
+      <c r="E289" s="77"/>
+      <c r="F289" s="77"/>
+      <c r="G289" s="77"/>
+      <c r="H289" s="77"/>
+      <c r="I289" s="77"/>
+      <c r="J289" s="77"/>
+      <c r="K289" s="77"/>
+      <c r="L289" s="77"/>
+      <c r="M289" s="77"/>
+      <c r="N289" s="77"/>
+      <c r="O289" s="77"/>
+      <c r="P289" s="77"/>
+      <c r="Q289" s="77"/>
+      <c r="R289" s="78"/>
       <c r="S289" s="15"/>
       <c r="T289" s="15"/>
       <c r="U289" s="15"/>
@@ -11533,17 +11533,17 @@
         <v>1</v>
       </c>
       <c r="B291" s="5"/>
-      <c r="C291" s="72" t="s">
+      <c r="C291" s="73" t="s">
         <v>56</v>
       </c>
-      <c r="D291" s="72"/>
-      <c r="E291" s="72"/>
-      <c r="F291" s="72"/>
-      <c r="G291" s="72"/>
-      <c r="H291" s="72"/>
-      <c r="I291" s="72"/>
-      <c r="J291" s="72"/>
-      <c r="K291" s="72"/>
+      <c r="D291" s="73"/>
+      <c r="E291" s="73"/>
+      <c r="F291" s="73"/>
+      <c r="G291" s="73"/>
+      <c r="H291" s="73"/>
+      <c r="I291" s="73"/>
+      <c r="J291" s="73"/>
+      <c r="K291" s="73"/>
       <c r="L291" s="5" t="s">
         <v>2</v>
       </c>
@@ -11580,17 +11580,17 @@
         <v>1</v>
       </c>
       <c r="B292" s="1"/>
-      <c r="C292" s="73" t="s">
+      <c r="C292" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="D292" s="73"/>
-      <c r="E292" s="73"/>
-      <c r="F292" s="73"/>
-      <c r="G292" s="73"/>
-      <c r="H292" s="73"/>
-      <c r="I292" s="73"/>
-      <c r="J292" s="73"/>
-      <c r="K292" s="73"/>
+      <c r="D292" s="74"/>
+      <c r="E292" s="74"/>
+      <c r="F292" s="74"/>
+      <c r="G292" s="74"/>
+      <c r="H292" s="74"/>
+      <c r="I292" s="74"/>
+      <c r="J292" s="74"/>
+      <c r="K292" s="74"/>
       <c r="L292" s="6">
         <v>33</v>
       </c>
@@ -11613,17 +11613,17 @@
         <v>2</v>
       </c>
       <c r="B293" s="1"/>
-      <c r="C293" s="64" t="s">
+      <c r="C293" s="66" t="s">
         <v>16</v>
       </c>
-      <c r="D293" s="65"/>
-      <c r="E293" s="65"/>
-      <c r="F293" s="65"/>
-      <c r="G293" s="65"/>
-      <c r="H293" s="65"/>
-      <c r="I293" s="65"/>
-      <c r="J293" s="65"/>
-      <c r="K293" s="65"/>
+      <c r="D293" s="67"/>
+      <c r="E293" s="67"/>
+      <c r="F293" s="67"/>
+      <c r="G293" s="67"/>
+      <c r="H293" s="67"/>
+      <c r="I293" s="67"/>
+      <c r="J293" s="67"/>
+      <c r="K293" s="67"/>
       <c r="L293" s="6">
         <v>33</v>
       </c>
@@ -11646,17 +11646,17 @@
         <v>3</v>
       </c>
       <c r="B294" s="1"/>
-      <c r="C294" s="64" t="s">
+      <c r="C294" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="D294" s="65"/>
-      <c r="E294" s="65"/>
-      <c r="F294" s="65"/>
-      <c r="G294" s="65"/>
-      <c r="H294" s="65"/>
-      <c r="I294" s="65"/>
-      <c r="J294" s="65"/>
-      <c r="K294" s="65"/>
+      <c r="D294" s="67"/>
+      <c r="E294" s="67"/>
+      <c r="F294" s="67"/>
+      <c r="G294" s="67"/>
+      <c r="H294" s="67"/>
+      <c r="I294" s="67"/>
+      <c r="J294" s="67"/>
+      <c r="K294" s="67"/>
       <c r="L294" s="6">
         <v>33</v>
       </c>
@@ -11679,17 +11679,17 @@
         <v>4</v>
       </c>
       <c r="B295" s="1"/>
-      <c r="C295" s="65" t="s">
+      <c r="C295" s="67" t="s">
         <v>18</v>
       </c>
-      <c r="D295" s="65"/>
-      <c r="E295" s="65"/>
-      <c r="F295" s="65"/>
-      <c r="G295" s="65"/>
-      <c r="H295" s="65"/>
-      <c r="I295" s="65"/>
-      <c r="J295" s="65"/>
-      <c r="K295" s="65"/>
+      <c r="D295" s="67"/>
+      <c r="E295" s="67"/>
+      <c r="F295" s="67"/>
+      <c r="G295" s="67"/>
+      <c r="H295" s="67"/>
+      <c r="I295" s="67"/>
+      <c r="J295" s="67"/>
+      <c r="K295" s="67"/>
       <c r="L295" s="6">
         <v>33</v>
       </c>
@@ -11712,17 +11712,17 @@
         <v>5</v>
       </c>
       <c r="B296" s="1"/>
-      <c r="C296" s="64" t="s">
+      <c r="C296" s="66" t="s">
         <v>61</v>
       </c>
-      <c r="D296" s="65"/>
-      <c r="E296" s="65"/>
-      <c r="F296" s="65"/>
-      <c r="G296" s="65"/>
-      <c r="H296" s="65"/>
-      <c r="I296" s="65"/>
-      <c r="J296" s="65"/>
-      <c r="K296" s="65"/>
+      <c r="D296" s="67"/>
+      <c r="E296" s="67"/>
+      <c r="F296" s="67"/>
+      <c r="G296" s="67"/>
+      <c r="H296" s="67"/>
+      <c r="I296" s="67"/>
+      <c r="J296" s="67"/>
+      <c r="K296" s="67"/>
       <c r="L296" s="6">
         <v>33</v>
       </c>
@@ -11745,17 +11745,17 @@
         <v>6</v>
       </c>
       <c r="B297" s="1"/>
-      <c r="C297" s="64" t="s">
+      <c r="C297" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="D297" s="65"/>
-      <c r="E297" s="65"/>
-      <c r="F297" s="65"/>
-      <c r="G297" s="65"/>
-      <c r="H297" s="65"/>
-      <c r="I297" s="65"/>
-      <c r="J297" s="65"/>
-      <c r="K297" s="65"/>
+      <c r="D297" s="67"/>
+      <c r="E297" s="67"/>
+      <c r="F297" s="67"/>
+      <c r="G297" s="67"/>
+      <c r="H297" s="67"/>
+      <c r="I297" s="67"/>
+      <c r="J297" s="67"/>
+      <c r="K297" s="67"/>
       <c r="L297" s="6">
         <v>33</v>
       </c>
@@ -11778,17 +11778,17 @@
         <v>7</v>
       </c>
       <c r="B298" s="1"/>
-      <c r="C298" s="65" t="s">
+      <c r="C298" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="D298" s="65"/>
-      <c r="E298" s="65"/>
-      <c r="F298" s="65"/>
-      <c r="G298" s="65"/>
-      <c r="H298" s="65"/>
-      <c r="I298" s="65"/>
-      <c r="J298" s="65"/>
-      <c r="K298" s="65"/>
+      <c r="D298" s="67"/>
+      <c r="E298" s="67"/>
+      <c r="F298" s="67"/>
+      <c r="G298" s="67"/>
+      <c r="H298" s="67"/>
+      <c r="I298" s="67"/>
+      <c r="J298" s="67"/>
+      <c r="K298" s="67"/>
       <c r="L298" s="6">
         <v>33</v>
       </c>
@@ -11811,17 +11811,17 @@
         <v>8</v>
       </c>
       <c r="B299" s="1"/>
-      <c r="C299" s="64" t="s">
+      <c r="C299" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="D299" s="65"/>
-      <c r="E299" s="65"/>
-      <c r="F299" s="65"/>
-      <c r="G299" s="65"/>
-      <c r="H299" s="65"/>
-      <c r="I299" s="65"/>
-      <c r="J299" s="65"/>
-      <c r="K299" s="65"/>
+      <c r="D299" s="67"/>
+      <c r="E299" s="67"/>
+      <c r="F299" s="67"/>
+      <c r="G299" s="67"/>
+      <c r="H299" s="67"/>
+      <c r="I299" s="67"/>
+      <c r="J299" s="67"/>
+      <c r="K299" s="67"/>
       <c r="L299" s="6">
         <v>33</v>
       </c>
@@ -11844,17 +11844,17 @@
         <v>9</v>
       </c>
       <c r="B300" s="1"/>
-      <c r="C300" s="64" t="s">
+      <c r="C300" s="66" t="s">
         <v>62</v>
       </c>
-      <c r="D300" s="65"/>
-      <c r="E300" s="65"/>
-      <c r="F300" s="65"/>
-      <c r="G300" s="65"/>
-      <c r="H300" s="65"/>
-      <c r="I300" s="65"/>
-      <c r="J300" s="65"/>
-      <c r="K300" s="65"/>
+      <c r="D300" s="67"/>
+      <c r="E300" s="67"/>
+      <c r="F300" s="67"/>
+      <c r="G300" s="67"/>
+      <c r="H300" s="67"/>
+      <c r="I300" s="67"/>
+      <c r="J300" s="67"/>
+      <c r="K300" s="67"/>
       <c r="L300" s="6">
         <v>33</v>
       </c>
@@ -11877,17 +11877,17 @@
         <v>10</v>
       </c>
       <c r="B301" s="1"/>
-      <c r="C301" s="64" t="s">
+      <c r="C301" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="D301" s="65"/>
-      <c r="E301" s="65"/>
-      <c r="F301" s="65"/>
-      <c r="G301" s="65"/>
-      <c r="H301" s="65"/>
-      <c r="I301" s="65"/>
-      <c r="J301" s="65"/>
-      <c r="K301" s="65"/>
+      <c r="D301" s="67"/>
+      <c r="E301" s="67"/>
+      <c r="F301" s="67"/>
+      <c r="G301" s="67"/>
+      <c r="H301" s="67"/>
+      <c r="I301" s="67"/>
+      <c r="J301" s="67"/>
+      <c r="K301" s="67"/>
       <c r="L301" s="6">
         <v>33</v>
       </c>
@@ -11910,17 +11910,17 @@
         <v>11</v>
       </c>
       <c r="B302" s="1"/>
-      <c r="C302" s="64" t="s">
+      <c r="C302" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="D302" s="65"/>
-      <c r="E302" s="65"/>
-      <c r="F302" s="65"/>
-      <c r="G302" s="65"/>
-      <c r="H302" s="65"/>
-      <c r="I302" s="65"/>
-      <c r="J302" s="65"/>
-      <c r="K302" s="65"/>
+      <c r="D302" s="67"/>
+      <c r="E302" s="67"/>
+      <c r="F302" s="67"/>
+      <c r="G302" s="67"/>
+      <c r="H302" s="67"/>
+      <c r="I302" s="67"/>
+      <c r="J302" s="67"/>
+      <c r="K302" s="67"/>
       <c r="L302" s="6">
         <v>33</v>
       </c>
@@ -11943,17 +11943,17 @@
         <v>12</v>
       </c>
       <c r="B303" s="1"/>
-      <c r="C303" s="64" t="s">
+      <c r="C303" s="66" t="s">
         <v>63</v>
       </c>
-      <c r="D303" s="65"/>
-      <c r="E303" s="65"/>
-      <c r="F303" s="65"/>
-      <c r="G303" s="65"/>
-      <c r="H303" s="65"/>
-      <c r="I303" s="65"/>
-      <c r="J303" s="65"/>
-      <c r="K303" s="65"/>
+      <c r="D303" s="67"/>
+      <c r="E303" s="67"/>
+      <c r="F303" s="67"/>
+      <c r="G303" s="67"/>
+      <c r="H303" s="67"/>
+      <c r="I303" s="67"/>
+      <c r="J303" s="67"/>
+      <c r="K303" s="67"/>
       <c r="L303" s="6">
         <v>33</v>
       </c>
@@ -11976,20 +11976,20 @@
         <v>13</v>
       </c>
       <c r="B304" s="1"/>
-      <c r="C304" s="66" t="s">
+      <c r="C304" s="60" t="s">
         <v>58</v>
       </c>
-      <c r="D304" s="67"/>
-      <c r="E304" s="67"/>
-      <c r="F304" s="67"/>
-      <c r="G304" s="67"/>
-      <c r="H304" s="67"/>
-      <c r="I304" s="67"/>
-      <c r="J304" s="67"/>
-      <c r="K304" s="67"/>
-      <c r="L304" s="67"/>
-      <c r="M304" s="67"/>
-      <c r="N304" s="68"/>
+      <c r="D304" s="61"/>
+      <c r="E304" s="61"/>
+      <c r="F304" s="61"/>
+      <c r="G304" s="61"/>
+      <c r="H304" s="61"/>
+      <c r="I304" s="61"/>
+      <c r="J304" s="61"/>
+      <c r="K304" s="61"/>
+      <c r="L304" s="61"/>
+      <c r="M304" s="61"/>
+      <c r="N304" s="62"/>
       <c r="O304" s="11"/>
       <c r="P304" s="12"/>
       <c r="Q304" s="13"/>
@@ -12003,26 +12003,26 @@
       <c r="B305" s="1"/>
     </row>
     <row r="306" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A306" s="69" t="s">
+      <c r="A306" s="63" t="s">
         <v>24</v>
       </c>
-      <c r="B306" s="70"/>
-      <c r="C306" s="70"/>
-      <c r="D306" s="70"/>
-      <c r="E306" s="70"/>
-      <c r="F306" s="70"/>
-      <c r="G306" s="70"/>
-      <c r="H306" s="70"/>
-      <c r="I306" s="70"/>
-      <c r="J306" s="70"/>
-      <c r="K306" s="70"/>
-      <c r="L306" s="70"/>
-      <c r="M306" s="70"/>
-      <c r="N306" s="70"/>
-      <c r="O306" s="70"/>
-      <c r="P306" s="70"/>
-      <c r="Q306" s="70"/>
-      <c r="R306" s="71"/>
+      <c r="B306" s="64"/>
+      <c r="C306" s="64"/>
+      <c r="D306" s="64"/>
+      <c r="E306" s="64"/>
+      <c r="F306" s="64"/>
+      <c r="G306" s="64"/>
+      <c r="H306" s="64"/>
+      <c r="I306" s="64"/>
+      <c r="J306" s="64"/>
+      <c r="K306" s="64"/>
+      <c r="L306" s="64"/>
+      <c r="M306" s="64"/>
+      <c r="N306" s="64"/>
+      <c r="O306" s="64"/>
+      <c r="P306" s="64"/>
+      <c r="Q306" s="64"/>
+      <c r="R306" s="65"/>
       <c r="S306" s="3"/>
       <c r="T306" s="3"/>
       <c r="U306" s="3"/>
@@ -12032,17 +12032,17 @@
         <v>1</v>
       </c>
       <c r="B308" s="5"/>
-      <c r="C308" s="72" t="s">
+      <c r="C308" s="73" t="s">
         <v>56</v>
       </c>
-      <c r="D308" s="72"/>
-      <c r="E308" s="72"/>
-      <c r="F308" s="72"/>
-      <c r="G308" s="72"/>
-      <c r="H308" s="72"/>
-      <c r="I308" s="72"/>
-      <c r="J308" s="72"/>
-      <c r="K308" s="72"/>
+      <c r="D308" s="73"/>
+      <c r="E308" s="73"/>
+      <c r="F308" s="73"/>
+      <c r="G308" s="73"/>
+      <c r="H308" s="73"/>
+      <c r="I308" s="73"/>
+      <c r="J308" s="73"/>
+      <c r="K308" s="73"/>
       <c r="L308" s="5" t="s">
         <v>2</v>
       </c>
@@ -12079,17 +12079,17 @@
         <v>1</v>
       </c>
       <c r="B309" s="1"/>
-      <c r="C309" s="73" t="s">
+      <c r="C309" s="74" t="s">
         <v>65</v>
       </c>
-      <c r="D309" s="73"/>
-      <c r="E309" s="73"/>
-      <c r="F309" s="73"/>
-      <c r="G309" s="73"/>
-      <c r="H309" s="73"/>
-      <c r="I309" s="73"/>
-      <c r="J309" s="73"/>
-      <c r="K309" s="73"/>
+      <c r="D309" s="74"/>
+      <c r="E309" s="74"/>
+      <c r="F309" s="74"/>
+      <c r="G309" s="74"/>
+      <c r="H309" s="74"/>
+      <c r="I309" s="74"/>
+      <c r="J309" s="74"/>
+      <c r="K309" s="74"/>
       <c r="L309" s="6">
         <v>33</v>
       </c>
@@ -12112,17 +12112,17 @@
         <v>2</v>
       </c>
       <c r="B310" s="1"/>
-      <c r="C310" s="64" t="s">
+      <c r="C310" s="66" t="s">
         <v>66</v>
       </c>
-      <c r="D310" s="65"/>
-      <c r="E310" s="65"/>
-      <c r="F310" s="65"/>
-      <c r="G310" s="65"/>
-      <c r="H310" s="65"/>
-      <c r="I310" s="65"/>
-      <c r="J310" s="65"/>
-      <c r="K310" s="65"/>
+      <c r="D310" s="67"/>
+      <c r="E310" s="67"/>
+      <c r="F310" s="67"/>
+      <c r="G310" s="67"/>
+      <c r="H310" s="67"/>
+      <c r="I310" s="67"/>
+      <c r="J310" s="67"/>
+      <c r="K310" s="67"/>
       <c r="L310" s="6">
         <v>33</v>
       </c>
@@ -12145,17 +12145,17 @@
         <v>3</v>
       </c>
       <c r="B311" s="1"/>
-      <c r="C311" s="64" t="s">
+      <c r="C311" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="D311" s="65"/>
-      <c r="E311" s="65"/>
-      <c r="F311" s="65"/>
-      <c r="G311" s="65"/>
-      <c r="H311" s="65"/>
-      <c r="I311" s="65"/>
-      <c r="J311" s="65"/>
-      <c r="K311" s="65"/>
+      <c r="D311" s="67"/>
+      <c r="E311" s="67"/>
+      <c r="F311" s="67"/>
+      <c r="G311" s="67"/>
+      <c r="H311" s="67"/>
+      <c r="I311" s="67"/>
+      <c r="J311" s="67"/>
+      <c r="K311" s="67"/>
       <c r="L311" s="6">
         <v>33</v>
       </c>
@@ -12178,17 +12178,17 @@
         <v>4</v>
       </c>
       <c r="B312" s="1"/>
-      <c r="C312" s="65" t="s">
+      <c r="C312" s="67" t="s">
         <v>26</v>
       </c>
-      <c r="D312" s="65"/>
-      <c r="E312" s="65"/>
-      <c r="F312" s="65"/>
-      <c r="G312" s="65"/>
-      <c r="H312" s="65"/>
-      <c r="I312" s="65"/>
-      <c r="J312" s="65"/>
-      <c r="K312" s="65"/>
+      <c r="D312" s="67"/>
+      <c r="E312" s="67"/>
+      <c r="F312" s="67"/>
+      <c r="G312" s="67"/>
+      <c r="H312" s="67"/>
+      <c r="I312" s="67"/>
+      <c r="J312" s="67"/>
+      <c r="K312" s="67"/>
       <c r="L312" s="6">
         <v>33</v>
       </c>
@@ -12211,17 +12211,17 @@
         <v>5</v>
       </c>
       <c r="B313" s="1"/>
-      <c r="C313" s="64" t="s">
+      <c r="C313" s="66" t="s">
         <v>27</v>
       </c>
-      <c r="D313" s="65"/>
-      <c r="E313" s="65"/>
-      <c r="F313" s="65"/>
-      <c r="G313" s="65"/>
-      <c r="H313" s="65"/>
-      <c r="I313" s="65"/>
-      <c r="J313" s="65"/>
-      <c r="K313" s="65"/>
+      <c r="D313" s="67"/>
+      <c r="E313" s="67"/>
+      <c r="F313" s="67"/>
+      <c r="G313" s="67"/>
+      <c r="H313" s="67"/>
+      <c r="I313" s="67"/>
+      <c r="J313" s="67"/>
+      <c r="K313" s="67"/>
       <c r="L313" s="6">
         <v>33</v>
       </c>
@@ -12244,17 +12244,17 @@
         <v>6</v>
       </c>
       <c r="B314" s="1"/>
-      <c r="C314" s="64" t="s">
+      <c r="C314" s="66" t="s">
         <v>67</v>
       </c>
-      <c r="D314" s="65"/>
-      <c r="E314" s="65"/>
-      <c r="F314" s="65"/>
-      <c r="G314" s="65"/>
-      <c r="H314" s="65"/>
-      <c r="I314" s="65"/>
-      <c r="J314" s="65"/>
-      <c r="K314" s="65"/>
+      <c r="D314" s="67"/>
+      <c r="E314" s="67"/>
+      <c r="F314" s="67"/>
+      <c r="G314" s="67"/>
+      <c r="H314" s="67"/>
+      <c r="I314" s="67"/>
+      <c r="J314" s="67"/>
+      <c r="K314" s="67"/>
       <c r="L314" s="6">
         <v>33</v>
       </c>
@@ -12277,20 +12277,20 @@
         <v>7</v>
       </c>
       <c r="B315" s="1"/>
-      <c r="C315" s="66" t="s">
+      <c r="C315" s="60" t="s">
         <v>58</v>
       </c>
-      <c r="D315" s="67"/>
-      <c r="E315" s="67"/>
-      <c r="F315" s="67"/>
-      <c r="G315" s="67"/>
-      <c r="H315" s="67"/>
-      <c r="I315" s="67"/>
-      <c r="J315" s="67"/>
-      <c r="K315" s="67"/>
-      <c r="L315" s="67"/>
-      <c r="M315" s="67"/>
-      <c r="N315" s="68"/>
+      <c r="D315" s="61"/>
+      <c r="E315" s="61"/>
+      <c r="F315" s="61"/>
+      <c r="G315" s="61"/>
+      <c r="H315" s="61"/>
+      <c r="I315" s="61"/>
+      <c r="J315" s="61"/>
+      <c r="K315" s="61"/>
+      <c r="L315" s="61"/>
+      <c r="M315" s="61"/>
+      <c r="N315" s="62"/>
       <c r="O315" s="11"/>
       <c r="P315" s="12" t="e">
         <f>AVERAGE(P309:P314)</f>
@@ -12310,25 +12310,25 @@
       <c r="B316" s="1"/>
     </row>
     <row r="317" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A317" s="81" t="s">
+      <c r="A317" s="72" t="s">
         <v>28</v>
       </c>
-      <c r="B317" s="81"/>
-      <c r="C317" s="81"/>
-      <c r="D317" s="81"/>
-      <c r="E317" s="81"/>
-      <c r="F317" s="81"/>
-      <c r="G317" s="81"/>
-      <c r="H317" s="81"/>
-      <c r="I317" s="81"/>
-      <c r="J317" s="81"/>
-      <c r="K317" s="81"/>
-      <c r="L317" s="81"/>
-      <c r="M317" s="81"/>
-      <c r="N317" s="81"/>
-      <c r="O317" s="81"/>
-      <c r="P317" s="81"/>
-      <c r="Q317" s="81"/>
+      <c r="B317" s="72"/>
+      <c r="C317" s="72"/>
+      <c r="D317" s="72"/>
+      <c r="E317" s="72"/>
+      <c r="F317" s="72"/>
+      <c r="G317" s="72"/>
+      <c r="H317" s="72"/>
+      <c r="I317" s="72"/>
+      <c r="J317" s="72"/>
+      <c r="K317" s="72"/>
+      <c r="L317" s="72"/>
+      <c r="M317" s="72"/>
+      <c r="N317" s="72"/>
+      <c r="O317" s="72"/>
+      <c r="P317" s="72"/>
+      <c r="Q317" s="72"/>
       <c r="R317"/>
     </row>
     <row r="318" spans="1:21" x14ac:dyDescent="0.3">
@@ -12336,10 +12336,10 @@
         <v>1</v>
       </c>
       <c r="B318" s="16"/>
-      <c r="C318" s="80" t="s">
+      <c r="C318" s="68" t="s">
         <v>68</v>
       </c>
-      <c r="D318" s="80"/>
+      <c r="D318" s="68"/>
       <c r="E318" s="17" t="s">
         <v>69</v>
       </c>
@@ -12386,10 +12386,10 @@
         <v>1</v>
       </c>
       <c r="B319" s="14"/>
-      <c r="C319" s="63" t="s">
+      <c r="C319" s="57" t="s">
         <v>84</v>
       </c>
-      <c r="D319" s="63"/>
+      <c r="D319" s="57"/>
       <c r="E319" s="25"/>
       <c r="F319" s="26"/>
       <c r="G319" s="27"/>
@@ -12410,10 +12410,10 @@
         <v>2</v>
       </c>
       <c r="B320" s="14"/>
-      <c r="C320" s="63" t="s">
+      <c r="C320" s="57" t="s">
         <v>85</v>
       </c>
-      <c r="D320" s="63"/>
+      <c r="D320" s="57"/>
       <c r="E320" s="25"/>
       <c r="F320" s="26"/>
       <c r="G320" s="27"/>
@@ -12434,10 +12434,10 @@
         <v>3</v>
       </c>
       <c r="B321" s="14"/>
-      <c r="C321" s="63" t="s">
+      <c r="C321" s="57" t="s">
         <v>86</v>
       </c>
-      <c r="D321" s="63"/>
+      <c r="D321" s="57"/>
       <c r="E321" s="25"/>
       <c r="F321" s="26"/>
       <c r="G321" s="27"/>
@@ -12458,10 +12458,10 @@
         <v>4</v>
       </c>
       <c r="B322" s="14"/>
-      <c r="C322" s="63" t="s">
+      <c r="C322" s="57" t="s">
         <v>87</v>
       </c>
-      <c r="D322" s="63"/>
+      <c r="D322" s="57"/>
       <c r="E322" s="25"/>
       <c r="F322" s="26"/>
       <c r="G322" s="27"/>
@@ -12482,10 +12482,10 @@
         <v>5</v>
       </c>
       <c r="B323" s="14"/>
-      <c r="C323" s="63" t="s">
+      <c r="C323" s="57" t="s">
         <v>90</v>
       </c>
-      <c r="D323" s="63"/>
+      <c r="D323" s="57"/>
       <c r="E323" s="25"/>
       <c r="F323" s="26"/>
       <c r="G323" s="27"/>
@@ -12506,10 +12506,10 @@
         <v>6</v>
       </c>
       <c r="B324" s="14"/>
-      <c r="C324" s="63" t="s">
+      <c r="C324" s="57" t="s">
         <v>91</v>
       </c>
-      <c r="D324" s="63"/>
+      <c r="D324" s="57"/>
       <c r="E324" s="25"/>
       <c r="F324" s="26"/>
       <c r="G324" s="27"/>
@@ -12530,10 +12530,10 @@
         <v>7</v>
       </c>
       <c r="B325" s="14"/>
-      <c r="C325" s="63" t="s">
+      <c r="C325" s="57" t="s">
         <v>92</v>
       </c>
-      <c r="D325" s="63"/>
+      <c r="D325" s="57"/>
       <c r="E325" s="25"/>
       <c r="F325" s="26"/>
       <c r="G325" s="27"/>
@@ -12554,10 +12554,10 @@
         <v>8</v>
       </c>
       <c r="B326" s="14"/>
-      <c r="C326" s="63" t="s">
+      <c r="C326" s="57" t="s">
         <v>93</v>
       </c>
-      <c r="D326" s="63"/>
+      <c r="D326" s="57"/>
       <c r="E326" s="25"/>
       <c r="F326" s="26"/>
       <c r="G326" s="27"/>
@@ -12576,10 +12576,10 @@
     <row r="327" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A327" s="14"/>
       <c r="B327" s="14"/>
-      <c r="C327" s="74" t="s">
+      <c r="C327" s="58" t="s">
         <v>98</v>
       </c>
-      <c r="D327" s="74"/>
+      <c r="D327" s="58"/>
       <c r="E327" s="25" t="e">
         <f t="shared" ref="E327:O327" si="25">AVERAGE(E319:E326)</f>
         <v>#DIV/0!</v>
@@ -12635,25 +12635,25 @@
       <c r="R329"/>
     </row>
     <row r="330" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A330" s="79" t="s">
+      <c r="A330" s="75" t="s">
         <v>99</v>
       </c>
-      <c r="B330" s="79"/>
-      <c r="C330" s="79"/>
-      <c r="D330" s="79"/>
-      <c r="E330" s="79"/>
-      <c r="F330" s="79"/>
-      <c r="G330" s="79"/>
-      <c r="H330" s="79"/>
-      <c r="I330" s="79"/>
-      <c r="J330" s="79"/>
-      <c r="K330" s="79"/>
-      <c r="L330" s="79"/>
-      <c r="M330" s="79"/>
-      <c r="N330" s="79"/>
-      <c r="O330" s="79"/>
-      <c r="P330" s="79"/>
-      <c r="Q330" s="79"/>
+      <c r="B330" s="75"/>
+      <c r="C330" s="75"/>
+      <c r="D330" s="75"/>
+      <c r="E330" s="75"/>
+      <c r="F330" s="75"/>
+      <c r="G330" s="75"/>
+      <c r="H330" s="75"/>
+      <c r="I330" s="75"/>
+      <c r="J330" s="75"/>
+      <c r="K330" s="75"/>
+      <c r="L330" s="75"/>
+      <c r="M330" s="75"/>
+      <c r="N330" s="75"/>
+      <c r="O330" s="75"/>
+      <c r="P330" s="75"/>
+      <c r="Q330" s="75"/>
       <c r="R330"/>
     </row>
     <row r="331" spans="1:18" x14ac:dyDescent="0.3">
@@ -12661,10 +12661,10 @@
         <v>1</v>
       </c>
       <c r="B331" s="16"/>
-      <c r="C331" s="80" t="s">
+      <c r="C331" s="68" t="s">
         <v>68</v>
       </c>
-      <c r="D331" s="80"/>
+      <c r="D331" s="68"/>
       <c r="E331" s="17" t="s">
         <v>69</v>
       </c>
@@ -12711,10 +12711,10 @@
         <v>1</v>
       </c>
       <c r="B332" s="14"/>
-      <c r="C332" s="63" t="s">
+      <c r="C332" s="57" t="s">
         <v>94</v>
       </c>
-      <c r="D332" s="63"/>
+      <c r="D332" s="57"/>
       <c r="E332" s="25"/>
       <c r="F332" s="26"/>
       <c r="G332" s="27"/>
@@ -12735,10 +12735,10 @@
         <v>2</v>
       </c>
       <c r="B333" s="14"/>
-      <c r="C333" s="63" t="s">
+      <c r="C333" s="57" t="s">
         <v>95</v>
       </c>
-      <c r="D333" s="63"/>
+      <c r="D333" s="57"/>
       <c r="E333" s="25"/>
       <c r="F333" s="26"/>
       <c r="G333" s="27"/>
@@ -12759,10 +12759,10 @@
         <v>3</v>
       </c>
       <c r="B334" s="14"/>
-      <c r="C334" s="63" t="s">
+      <c r="C334" s="57" t="s">
         <v>96</v>
       </c>
-      <c r="D334" s="63"/>
+      <c r="D334" s="57"/>
       <c r="E334" s="25"/>
       <c r="F334" s="26"/>
       <c r="G334" s="27"/>
@@ -12782,10 +12782,10 @@
         <v>4</v>
       </c>
       <c r="B335" s="14"/>
-      <c r="C335" s="63" t="s">
+      <c r="C335" s="57" t="s">
         <v>97</v>
       </c>
-      <c r="D335" s="63"/>
+      <c r="D335" s="57"/>
       <c r="E335" s="25"/>
       <c r="F335" s="26"/>
       <c r="G335" s="27"/>
@@ -12801,10 +12801,10 @@
       <c r="Q335" s="29"/>
     </row>
     <row r="336" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="C336" s="74" t="s">
+      <c r="C336" s="58" t="s">
         <v>98</v>
       </c>
-      <c r="D336" s="74"/>
+      <c r="D336" s="58"/>
       <c r="E336" s="25"/>
       <c r="F336" s="26"/>
       <c r="G336" s="27"/>
@@ -12821,6 +12821,265 @@
     </row>
   </sheetData>
   <mergeCells count="283">
+    <mergeCell ref="C179:K179"/>
+    <mergeCell ref="C178:K178"/>
+    <mergeCell ref="C176:K176"/>
+    <mergeCell ref="C177:K177"/>
+    <mergeCell ref="C195:K195"/>
+    <mergeCell ref="C194:K194"/>
+    <mergeCell ref="C175:K175"/>
+    <mergeCell ref="C332:D332"/>
+    <mergeCell ref="C333:D333"/>
+    <mergeCell ref="C320:D320"/>
+    <mergeCell ref="C300:K300"/>
+    <mergeCell ref="C301:K301"/>
+    <mergeCell ref="C302:K302"/>
+    <mergeCell ref="C303:K303"/>
+    <mergeCell ref="C304:N304"/>
+    <mergeCell ref="A306:R306"/>
+    <mergeCell ref="C308:K308"/>
+    <mergeCell ref="C309:K309"/>
+    <mergeCell ref="C310:K310"/>
+    <mergeCell ref="C291:K291"/>
+    <mergeCell ref="C292:K292"/>
+    <mergeCell ref="C293:K293"/>
+    <mergeCell ref="C294:K294"/>
+    <mergeCell ref="C295:K295"/>
+    <mergeCell ref="C334:D334"/>
+    <mergeCell ref="C335:D335"/>
+    <mergeCell ref="C336:D336"/>
+    <mergeCell ref="A257:W259"/>
+    <mergeCell ref="A260:R260"/>
+    <mergeCell ref="C286:K286"/>
+    <mergeCell ref="C287:N287"/>
+    <mergeCell ref="C321:D321"/>
+    <mergeCell ref="C322:D322"/>
+    <mergeCell ref="C323:D323"/>
+    <mergeCell ref="C324:D324"/>
+    <mergeCell ref="C325:D325"/>
+    <mergeCell ref="C326:D326"/>
+    <mergeCell ref="C327:D327"/>
+    <mergeCell ref="A330:Q330"/>
+    <mergeCell ref="C331:D331"/>
+    <mergeCell ref="C311:K311"/>
+    <mergeCell ref="C312:K312"/>
+    <mergeCell ref="C313:K313"/>
+    <mergeCell ref="C314:K314"/>
+    <mergeCell ref="C315:N315"/>
+    <mergeCell ref="A317:Q317"/>
+    <mergeCell ref="C318:D318"/>
+    <mergeCell ref="C319:D319"/>
+    <mergeCell ref="C296:K296"/>
+    <mergeCell ref="C297:K297"/>
+    <mergeCell ref="C298:K298"/>
+    <mergeCell ref="C299:K299"/>
+    <mergeCell ref="C279:K279"/>
+    <mergeCell ref="C280:K280"/>
+    <mergeCell ref="C281:K281"/>
+    <mergeCell ref="C282:K282"/>
+    <mergeCell ref="C283:K283"/>
+    <mergeCell ref="C284:K284"/>
+    <mergeCell ref="C285:K285"/>
+    <mergeCell ref="A289:R289"/>
+    <mergeCell ref="C270:K270"/>
+    <mergeCell ref="C271:K271"/>
+    <mergeCell ref="C272:K272"/>
+    <mergeCell ref="C273:K273"/>
+    <mergeCell ref="C274:K274"/>
+    <mergeCell ref="C275:K275"/>
+    <mergeCell ref="C276:K276"/>
+    <mergeCell ref="C277:K277"/>
+    <mergeCell ref="C278:K278"/>
+    <mergeCell ref="C262:K262"/>
+    <mergeCell ref="C263:K263"/>
+    <mergeCell ref="C264:K264"/>
+    <mergeCell ref="C265:K265"/>
+    <mergeCell ref="C266:K266"/>
+    <mergeCell ref="C267:K267"/>
+    <mergeCell ref="C268:K268"/>
+    <mergeCell ref="C269:K269"/>
+    <mergeCell ref="A245:Q245"/>
+    <mergeCell ref="C246:D246"/>
+    <mergeCell ref="C247:D247"/>
+    <mergeCell ref="C248:D248"/>
+    <mergeCell ref="C249:D249"/>
+    <mergeCell ref="C250:D250"/>
+    <mergeCell ref="C251:D251"/>
+    <mergeCell ref="C234:D234"/>
+    <mergeCell ref="C235:D235"/>
+    <mergeCell ref="C236:D236"/>
+    <mergeCell ref="C237:D237"/>
+    <mergeCell ref="C238:D238"/>
+    <mergeCell ref="C239:D239"/>
+    <mergeCell ref="C240:D240"/>
+    <mergeCell ref="C241:D241"/>
+    <mergeCell ref="C242:D242"/>
+    <mergeCell ref="C223:K223"/>
+    <mergeCell ref="C224:K224"/>
+    <mergeCell ref="C225:K225"/>
+    <mergeCell ref="C226:K226"/>
+    <mergeCell ref="C227:K227"/>
+    <mergeCell ref="C228:K228"/>
+    <mergeCell ref="C229:N229"/>
+    <mergeCell ref="A231:Q231"/>
+    <mergeCell ref="C232:D232"/>
+    <mergeCell ref="C212:K212"/>
+    <mergeCell ref="C213:K213"/>
+    <mergeCell ref="C214:K214"/>
+    <mergeCell ref="C215:K215"/>
+    <mergeCell ref="C216:K216"/>
+    <mergeCell ref="C217:K217"/>
+    <mergeCell ref="C218:N218"/>
+    <mergeCell ref="A220:R220"/>
+    <mergeCell ref="C222:K222"/>
+    <mergeCell ref="C200:N200"/>
+    <mergeCell ref="A203:R203"/>
+    <mergeCell ref="C205:K205"/>
+    <mergeCell ref="C206:K206"/>
+    <mergeCell ref="C207:K207"/>
+    <mergeCell ref="C208:K208"/>
+    <mergeCell ref="C209:K209"/>
+    <mergeCell ref="C210:K210"/>
+    <mergeCell ref="C211:K211"/>
+    <mergeCell ref="C183:K183"/>
+    <mergeCell ref="C186:K186"/>
+    <mergeCell ref="C187:K187"/>
+    <mergeCell ref="C184:K184"/>
+    <mergeCell ref="C185:K185"/>
+    <mergeCell ref="C196:K196"/>
+    <mergeCell ref="C197:K197"/>
+    <mergeCell ref="C198:K198"/>
+    <mergeCell ref="C199:K199"/>
+    <mergeCell ref="C188:K188"/>
+    <mergeCell ref="C189:K189"/>
+    <mergeCell ref="C190:K190"/>
+    <mergeCell ref="C191:K191"/>
+    <mergeCell ref="C192:K192"/>
+    <mergeCell ref="C193:K193"/>
+    <mergeCell ref="C180:K180"/>
+    <mergeCell ref="C181:K181"/>
+    <mergeCell ref="C182:K182"/>
+    <mergeCell ref="A170:W172"/>
+    <mergeCell ref="A173:R173"/>
+    <mergeCell ref="C4:K4"/>
+    <mergeCell ref="C5:K5"/>
+    <mergeCell ref="C6:K6"/>
+    <mergeCell ref="C23:K23"/>
+    <mergeCell ref="C24:K24"/>
+    <mergeCell ref="C13:K13"/>
+    <mergeCell ref="C14:K14"/>
+    <mergeCell ref="C15:K15"/>
+    <mergeCell ref="C16:K16"/>
+    <mergeCell ref="C17:K17"/>
+    <mergeCell ref="C18:K18"/>
+    <mergeCell ref="C7:K7"/>
+    <mergeCell ref="C8:K8"/>
+    <mergeCell ref="C9:K9"/>
+    <mergeCell ref="C10:K10"/>
+    <mergeCell ref="C11:K11"/>
+    <mergeCell ref="C12:K12"/>
+    <mergeCell ref="C19:K19"/>
+    <mergeCell ref="C20:K20"/>
+    <mergeCell ref="C21:K21"/>
+    <mergeCell ref="C22:K22"/>
+    <mergeCell ref="A32:R32"/>
+    <mergeCell ref="A2:R2"/>
+    <mergeCell ref="C34:K34"/>
+    <mergeCell ref="C35:K35"/>
+    <mergeCell ref="C36:K36"/>
+    <mergeCell ref="C37:K37"/>
+    <mergeCell ref="C38:K38"/>
+    <mergeCell ref="C39:K39"/>
+    <mergeCell ref="C40:K40"/>
+    <mergeCell ref="C41:K41"/>
+    <mergeCell ref="C25:K25"/>
+    <mergeCell ref="C26:K26"/>
+    <mergeCell ref="C27:K27"/>
+    <mergeCell ref="C28:K28"/>
+    <mergeCell ref="C58:N58"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="C56:K56"/>
+    <mergeCell ref="C57:K57"/>
+    <mergeCell ref="C29:N29"/>
+    <mergeCell ref="C54:K54"/>
+    <mergeCell ref="C55:K55"/>
+    <mergeCell ref="C51:K51"/>
+    <mergeCell ref="C52:K52"/>
+    <mergeCell ref="C53:K53"/>
+    <mergeCell ref="C42:K42"/>
+    <mergeCell ref="C43:K43"/>
+    <mergeCell ref="C47:N47"/>
+    <mergeCell ref="A49:R49"/>
+    <mergeCell ref="C44:K44"/>
+    <mergeCell ref="C45:K45"/>
+    <mergeCell ref="C46:K46"/>
+    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="A60:Q60"/>
+    <mergeCell ref="A73:Q73"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="C89:K89"/>
+    <mergeCell ref="C90:K90"/>
+    <mergeCell ref="C97:K97"/>
+    <mergeCell ref="C98:K98"/>
+    <mergeCell ref="C99:K99"/>
+    <mergeCell ref="C100:K100"/>
+    <mergeCell ref="C101:K101"/>
+    <mergeCell ref="C102:K102"/>
+    <mergeCell ref="C91:K91"/>
+    <mergeCell ref="C92:K92"/>
+    <mergeCell ref="C93:K93"/>
+    <mergeCell ref="C94:K94"/>
+    <mergeCell ref="C95:K95"/>
+    <mergeCell ref="C96:K96"/>
+    <mergeCell ref="C119:K119"/>
+    <mergeCell ref="C120:K120"/>
+    <mergeCell ref="C121:K121"/>
+    <mergeCell ref="A117:R117"/>
+    <mergeCell ref="C103:K103"/>
+    <mergeCell ref="C104:K104"/>
+    <mergeCell ref="C105:K105"/>
+    <mergeCell ref="C106:K106"/>
+    <mergeCell ref="C107:K107"/>
+    <mergeCell ref="C108:K108"/>
+    <mergeCell ref="C109:K109"/>
+    <mergeCell ref="C114:N114"/>
+    <mergeCell ref="C151:D151"/>
+    <mergeCell ref="C155:D155"/>
+    <mergeCell ref="C152:D152"/>
+    <mergeCell ref="C153:D153"/>
+    <mergeCell ref="C154:D154"/>
+    <mergeCell ref="A158:Q158"/>
+    <mergeCell ref="C146:D146"/>
+    <mergeCell ref="C147:D147"/>
+    <mergeCell ref="C148:D148"/>
+    <mergeCell ref="C149:D149"/>
+    <mergeCell ref="C150:D150"/>
+    <mergeCell ref="A145:Q145"/>
+    <mergeCell ref="C138:K138"/>
+    <mergeCell ref="C143:N143"/>
+    <mergeCell ref="C128:K128"/>
+    <mergeCell ref="C129:K129"/>
+    <mergeCell ref="C130:K130"/>
+    <mergeCell ref="C131:K131"/>
+    <mergeCell ref="C122:K122"/>
+    <mergeCell ref="C123:K123"/>
+    <mergeCell ref="C124:K124"/>
+    <mergeCell ref="C125:K125"/>
+    <mergeCell ref="C126:K126"/>
+    <mergeCell ref="C127:K127"/>
+    <mergeCell ref="C136:K136"/>
+    <mergeCell ref="C137:K137"/>
     <mergeCell ref="C233:D233"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="C163:D163"/>
@@ -12845,265 +13104,6 @@
     <mergeCell ref="C111:K111"/>
     <mergeCell ref="C112:K112"/>
     <mergeCell ref="C113:K113"/>
-    <mergeCell ref="A145:Q145"/>
-    <mergeCell ref="C138:K138"/>
-    <mergeCell ref="C143:N143"/>
-    <mergeCell ref="C128:K128"/>
-    <mergeCell ref="C129:K129"/>
-    <mergeCell ref="C130:K130"/>
-    <mergeCell ref="C131:K131"/>
-    <mergeCell ref="C122:K122"/>
-    <mergeCell ref="C123:K123"/>
-    <mergeCell ref="C124:K124"/>
-    <mergeCell ref="C125:K125"/>
-    <mergeCell ref="C126:K126"/>
-    <mergeCell ref="C127:K127"/>
-    <mergeCell ref="C136:K136"/>
-    <mergeCell ref="C137:K137"/>
-    <mergeCell ref="C151:D151"/>
-    <mergeCell ref="C155:D155"/>
-    <mergeCell ref="C152:D152"/>
-    <mergeCell ref="C153:D153"/>
-    <mergeCell ref="C154:D154"/>
-    <mergeCell ref="A158:Q158"/>
-    <mergeCell ref="C146:D146"/>
-    <mergeCell ref="C147:D147"/>
-    <mergeCell ref="C148:D148"/>
-    <mergeCell ref="C149:D149"/>
-    <mergeCell ref="C150:D150"/>
-    <mergeCell ref="C119:K119"/>
-    <mergeCell ref="C120:K120"/>
-    <mergeCell ref="C121:K121"/>
-    <mergeCell ref="A117:R117"/>
-    <mergeCell ref="C103:K103"/>
-    <mergeCell ref="C104:K104"/>
-    <mergeCell ref="C105:K105"/>
-    <mergeCell ref="C106:K106"/>
-    <mergeCell ref="C107:K107"/>
-    <mergeCell ref="C108:K108"/>
-    <mergeCell ref="C109:K109"/>
-    <mergeCell ref="C114:N114"/>
-    <mergeCell ref="C89:K89"/>
-    <mergeCell ref="C90:K90"/>
-    <mergeCell ref="C97:K97"/>
-    <mergeCell ref="C98:K98"/>
-    <mergeCell ref="C99:K99"/>
-    <mergeCell ref="C100:K100"/>
-    <mergeCell ref="C101:K101"/>
-    <mergeCell ref="C102:K102"/>
-    <mergeCell ref="C91:K91"/>
-    <mergeCell ref="C92:K92"/>
-    <mergeCell ref="C93:K93"/>
-    <mergeCell ref="C94:K94"/>
-    <mergeCell ref="C95:K95"/>
-    <mergeCell ref="C96:K96"/>
-    <mergeCell ref="C79:D79"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="C81:D81"/>
-    <mergeCell ref="C75:D75"/>
-    <mergeCell ref="C76:D76"/>
-    <mergeCell ref="C77:D77"/>
-    <mergeCell ref="C78:D78"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="A60:Q60"/>
-    <mergeCell ref="A73:Q73"/>
-    <mergeCell ref="C74:D74"/>
-    <mergeCell ref="C67:D67"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="C68:D68"/>
-    <mergeCell ref="C69:D69"/>
-    <mergeCell ref="C39:K39"/>
-    <mergeCell ref="C40:K40"/>
-    <mergeCell ref="C41:K41"/>
-    <mergeCell ref="C25:K25"/>
-    <mergeCell ref="C26:K26"/>
-    <mergeCell ref="C27:K27"/>
-    <mergeCell ref="C28:K28"/>
-    <mergeCell ref="C58:N58"/>
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="C56:K56"/>
-    <mergeCell ref="C57:K57"/>
-    <mergeCell ref="C29:N29"/>
-    <mergeCell ref="C54:K54"/>
-    <mergeCell ref="C55:K55"/>
-    <mergeCell ref="C51:K51"/>
-    <mergeCell ref="C52:K52"/>
-    <mergeCell ref="C53:K53"/>
-    <mergeCell ref="C42:K42"/>
-    <mergeCell ref="C43:K43"/>
-    <mergeCell ref="C47:N47"/>
-    <mergeCell ref="A49:R49"/>
-    <mergeCell ref="C44:K44"/>
-    <mergeCell ref="C45:K45"/>
-    <mergeCell ref="C46:K46"/>
-    <mergeCell ref="C21:K21"/>
-    <mergeCell ref="C22:K22"/>
-    <mergeCell ref="A32:R32"/>
-    <mergeCell ref="A2:R2"/>
-    <mergeCell ref="C34:K34"/>
-    <mergeCell ref="C35:K35"/>
-    <mergeCell ref="C36:K36"/>
-    <mergeCell ref="C37:K37"/>
-    <mergeCell ref="C38:K38"/>
-    <mergeCell ref="C180:K180"/>
-    <mergeCell ref="C181:K181"/>
-    <mergeCell ref="C182:K182"/>
-    <mergeCell ref="A170:W172"/>
-    <mergeCell ref="A173:R173"/>
-    <mergeCell ref="C4:K4"/>
-    <mergeCell ref="C5:K5"/>
-    <mergeCell ref="C6:K6"/>
-    <mergeCell ref="C23:K23"/>
-    <mergeCell ref="C24:K24"/>
-    <mergeCell ref="C13:K13"/>
-    <mergeCell ref="C14:K14"/>
-    <mergeCell ref="C15:K15"/>
-    <mergeCell ref="C16:K16"/>
-    <mergeCell ref="C17:K17"/>
-    <mergeCell ref="C18:K18"/>
-    <mergeCell ref="C7:K7"/>
-    <mergeCell ref="C8:K8"/>
-    <mergeCell ref="C9:K9"/>
-    <mergeCell ref="C10:K10"/>
-    <mergeCell ref="C11:K11"/>
-    <mergeCell ref="C12:K12"/>
-    <mergeCell ref="C19:K19"/>
-    <mergeCell ref="C20:K20"/>
-    <mergeCell ref="C183:K183"/>
-    <mergeCell ref="C186:K186"/>
-    <mergeCell ref="C187:K187"/>
-    <mergeCell ref="C184:K184"/>
-    <mergeCell ref="C185:K185"/>
-    <mergeCell ref="C196:K196"/>
-    <mergeCell ref="C197:K197"/>
-    <mergeCell ref="C198:K198"/>
-    <mergeCell ref="C199:K199"/>
-    <mergeCell ref="C188:K188"/>
-    <mergeCell ref="C189:K189"/>
-    <mergeCell ref="C190:K190"/>
-    <mergeCell ref="C191:K191"/>
-    <mergeCell ref="C192:K192"/>
-    <mergeCell ref="C193:K193"/>
-    <mergeCell ref="C200:N200"/>
-    <mergeCell ref="A203:R203"/>
-    <mergeCell ref="C205:K205"/>
-    <mergeCell ref="C206:K206"/>
-    <mergeCell ref="C207:K207"/>
-    <mergeCell ref="C208:K208"/>
-    <mergeCell ref="C209:K209"/>
-    <mergeCell ref="C210:K210"/>
-    <mergeCell ref="C211:K211"/>
-    <mergeCell ref="C212:K212"/>
-    <mergeCell ref="C213:K213"/>
-    <mergeCell ref="C214:K214"/>
-    <mergeCell ref="C215:K215"/>
-    <mergeCell ref="C216:K216"/>
-    <mergeCell ref="C217:K217"/>
-    <mergeCell ref="C218:N218"/>
-    <mergeCell ref="A220:R220"/>
-    <mergeCell ref="C222:K222"/>
-    <mergeCell ref="C223:K223"/>
-    <mergeCell ref="C224:K224"/>
-    <mergeCell ref="C225:K225"/>
-    <mergeCell ref="C226:K226"/>
-    <mergeCell ref="C227:K227"/>
-    <mergeCell ref="C228:K228"/>
-    <mergeCell ref="C229:N229"/>
-    <mergeCell ref="A231:Q231"/>
-    <mergeCell ref="C232:D232"/>
-    <mergeCell ref="C234:D234"/>
-    <mergeCell ref="C235:D235"/>
-    <mergeCell ref="C236:D236"/>
-    <mergeCell ref="C237:D237"/>
-    <mergeCell ref="C238:D238"/>
-    <mergeCell ref="C239:D239"/>
-    <mergeCell ref="C240:D240"/>
-    <mergeCell ref="C241:D241"/>
-    <mergeCell ref="C242:D242"/>
-    <mergeCell ref="C262:K262"/>
-    <mergeCell ref="C263:K263"/>
-    <mergeCell ref="C264:K264"/>
-    <mergeCell ref="C265:K265"/>
-    <mergeCell ref="C266:K266"/>
-    <mergeCell ref="C267:K267"/>
-    <mergeCell ref="C268:K268"/>
-    <mergeCell ref="C269:K269"/>
-    <mergeCell ref="A245:Q245"/>
-    <mergeCell ref="C246:D246"/>
-    <mergeCell ref="C247:D247"/>
-    <mergeCell ref="C248:D248"/>
-    <mergeCell ref="C249:D249"/>
-    <mergeCell ref="C250:D250"/>
-    <mergeCell ref="C251:D251"/>
-    <mergeCell ref="C270:K270"/>
-    <mergeCell ref="C271:K271"/>
-    <mergeCell ref="C272:K272"/>
-    <mergeCell ref="C273:K273"/>
-    <mergeCell ref="C274:K274"/>
-    <mergeCell ref="C275:K275"/>
-    <mergeCell ref="C276:K276"/>
-    <mergeCell ref="C277:K277"/>
-    <mergeCell ref="C278:K278"/>
-    <mergeCell ref="C296:K296"/>
-    <mergeCell ref="C297:K297"/>
-    <mergeCell ref="C298:K298"/>
-    <mergeCell ref="C299:K299"/>
-    <mergeCell ref="C279:K279"/>
-    <mergeCell ref="C280:K280"/>
-    <mergeCell ref="C281:K281"/>
-    <mergeCell ref="C282:K282"/>
-    <mergeCell ref="C283:K283"/>
-    <mergeCell ref="C284:K284"/>
-    <mergeCell ref="C285:K285"/>
-    <mergeCell ref="A289:R289"/>
-    <mergeCell ref="C334:D334"/>
-    <mergeCell ref="C335:D335"/>
-    <mergeCell ref="C336:D336"/>
-    <mergeCell ref="A257:W259"/>
-    <mergeCell ref="A260:R260"/>
-    <mergeCell ref="C286:K286"/>
-    <mergeCell ref="C287:N287"/>
-    <mergeCell ref="C321:D321"/>
-    <mergeCell ref="C322:D322"/>
-    <mergeCell ref="C323:D323"/>
-    <mergeCell ref="C324:D324"/>
-    <mergeCell ref="C325:D325"/>
-    <mergeCell ref="C326:D326"/>
-    <mergeCell ref="C327:D327"/>
-    <mergeCell ref="A330:Q330"/>
-    <mergeCell ref="C331:D331"/>
-    <mergeCell ref="C311:K311"/>
-    <mergeCell ref="C312:K312"/>
-    <mergeCell ref="C313:K313"/>
-    <mergeCell ref="C314:K314"/>
-    <mergeCell ref="C315:N315"/>
-    <mergeCell ref="A317:Q317"/>
-    <mergeCell ref="C318:D318"/>
-    <mergeCell ref="C319:D319"/>
-    <mergeCell ref="C179:K179"/>
-    <mergeCell ref="C178:K178"/>
-    <mergeCell ref="C176:K176"/>
-    <mergeCell ref="C177:K177"/>
-    <mergeCell ref="C195:K195"/>
-    <mergeCell ref="C194:K194"/>
-    <mergeCell ref="C175:K175"/>
-    <mergeCell ref="C332:D332"/>
-    <mergeCell ref="C333:D333"/>
-    <mergeCell ref="C320:D320"/>
-    <mergeCell ref="C300:K300"/>
-    <mergeCell ref="C301:K301"/>
-    <mergeCell ref="C302:K302"/>
-    <mergeCell ref="C303:K303"/>
-    <mergeCell ref="C304:N304"/>
-    <mergeCell ref="A306:R306"/>
-    <mergeCell ref="C308:K308"/>
-    <mergeCell ref="C309:K309"/>
-    <mergeCell ref="C310:K310"/>
-    <mergeCell ref="C291:K291"/>
-    <mergeCell ref="C292:K292"/>
-    <mergeCell ref="C293:K293"/>
-    <mergeCell ref="C294:K294"/>
-    <mergeCell ref="C295:K295"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="C5:K28">
@@ -15822,103 +15822,103 @@
   </cols>
   <sheetData>
     <row r="4" spans="3:25" x14ac:dyDescent="0.3">
-      <c r="C4" s="75" t="s">
+      <c r="C4" s="59" t="s">
         <v>107</v>
       </c>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="75"/>
-      <c r="K4" s="75"/>
-      <c r="L4" s="75"/>
-      <c r="M4" s="75"/>
-      <c r="N4" s="75"/>
-      <c r="O4" s="75"/>
-      <c r="P4" s="75"/>
-      <c r="Q4" s="75"/>
-      <c r="R4" s="75"/>
-      <c r="S4" s="75"/>
-      <c r="T4" s="75"/>
-      <c r="U4" s="75"/>
-      <c r="V4" s="75"/>
-      <c r="W4" s="75"/>
-      <c r="X4" s="75"/>
-      <c r="Y4" s="75"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="59"/>
+      <c r="G4" s="59"/>
+      <c r="H4" s="59"/>
+      <c r="I4" s="59"/>
+      <c r="J4" s="59"/>
+      <c r="K4" s="59"/>
+      <c r="L4" s="59"/>
+      <c r="M4" s="59"/>
+      <c r="N4" s="59"/>
+      <c r="O4" s="59"/>
+      <c r="P4" s="59"/>
+      <c r="Q4" s="59"/>
+      <c r="R4" s="59"/>
+      <c r="S4" s="59"/>
+      <c r="T4" s="59"/>
+      <c r="U4" s="59"/>
+      <c r="V4" s="59"/>
+      <c r="W4" s="59"/>
+      <c r="X4" s="59"/>
+      <c r="Y4" s="59"/>
     </row>
     <row r="5" spans="3:25" x14ac:dyDescent="0.3">
-      <c r="C5" s="75"/>
-      <c r="D5" s="75"/>
-      <c r="E5" s="75"/>
-      <c r="F5" s="75"/>
-      <c r="G5" s="75"/>
-      <c r="H5" s="75"/>
-      <c r="I5" s="75"/>
-      <c r="J5" s="75"/>
-      <c r="K5" s="75"/>
-      <c r="L5" s="75"/>
-      <c r="M5" s="75"/>
-      <c r="N5" s="75"/>
-      <c r="O5" s="75"/>
-      <c r="P5" s="75"/>
-      <c r="Q5" s="75"/>
-      <c r="R5" s="75"/>
-      <c r="S5" s="75"/>
-      <c r="T5" s="75"/>
-      <c r="U5" s="75"/>
-      <c r="V5" s="75"/>
-      <c r="W5" s="75"/>
-      <c r="X5" s="75"/>
-      <c r="Y5" s="75"/>
+      <c r="C5" s="59"/>
+      <c r="D5" s="59"/>
+      <c r="E5" s="59"/>
+      <c r="F5" s="59"/>
+      <c r="G5" s="59"/>
+      <c r="H5" s="59"/>
+      <c r="I5" s="59"/>
+      <c r="J5" s="59"/>
+      <c r="K5" s="59"/>
+      <c r="L5" s="59"/>
+      <c r="M5" s="59"/>
+      <c r="N5" s="59"/>
+      <c r="O5" s="59"/>
+      <c r="P5" s="59"/>
+      <c r="Q5" s="59"/>
+      <c r="R5" s="59"/>
+      <c r="S5" s="59"/>
+      <c r="T5" s="59"/>
+      <c r="U5" s="59"/>
+      <c r="V5" s="59"/>
+      <c r="W5" s="59"/>
+      <c r="X5" s="59"/>
+      <c r="Y5" s="59"/>
     </row>
     <row r="6" spans="3:25" x14ac:dyDescent="0.3">
-      <c r="C6" s="75"/>
-      <c r="D6" s="75"/>
-      <c r="E6" s="75"/>
-      <c r="F6" s="75"/>
-      <c r="G6" s="75"/>
-      <c r="H6" s="75"/>
-      <c r="I6" s="75"/>
-      <c r="J6" s="75"/>
-      <c r="K6" s="75"/>
-      <c r="L6" s="75"/>
-      <c r="M6" s="75"/>
-      <c r="N6" s="75"/>
-      <c r="O6" s="75"/>
-      <c r="P6" s="75"/>
-      <c r="Q6" s="75"/>
-      <c r="R6" s="75"/>
-      <c r="S6" s="75"/>
-      <c r="T6" s="75"/>
-      <c r="U6" s="75"/>
-      <c r="V6" s="75"/>
-      <c r="W6" s="75"/>
-      <c r="X6" s="75"/>
-      <c r="Y6" s="75"/>
+      <c r="C6" s="59"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="59"/>
+      <c r="F6" s="59"/>
+      <c r="G6" s="59"/>
+      <c r="H6" s="59"/>
+      <c r="I6" s="59"/>
+      <c r="J6" s="59"/>
+      <c r="K6" s="59"/>
+      <c r="L6" s="59"/>
+      <c r="M6" s="59"/>
+      <c r="N6" s="59"/>
+      <c r="O6" s="59"/>
+      <c r="P6" s="59"/>
+      <c r="Q6" s="59"/>
+      <c r="R6" s="59"/>
+      <c r="S6" s="59"/>
+      <c r="T6" s="59"/>
+      <c r="U6" s="59"/>
+      <c r="V6" s="59"/>
+      <c r="W6" s="59"/>
+      <c r="X6" s="59"/>
+      <c r="Y6" s="59"/>
     </row>
     <row r="7" spans="3:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C7" s="76" t="s">
+      <c r="C7" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="D7" s="77"/>
-      <c r="E7" s="77"/>
-      <c r="F7" s="77"/>
-      <c r="G7" s="77"/>
-      <c r="H7" s="77"/>
-      <c r="I7" s="77"/>
-      <c r="J7" s="77"/>
-      <c r="K7" s="77"/>
-      <c r="L7" s="77"/>
-      <c r="M7" s="77"/>
-      <c r="N7" s="77"/>
-      <c r="O7" s="77"/>
-      <c r="P7" s="77"/>
-      <c r="Q7" s="77"/>
-      <c r="R7" s="77"/>
-      <c r="S7" s="77"/>
-      <c r="T7" s="78"/>
+      <c r="D7" s="70"/>
+      <c r="E7" s="70"/>
+      <c r="F7" s="70"/>
+      <c r="G7" s="70"/>
+      <c r="H7" s="70"/>
+      <c r="I7" s="70"/>
+      <c r="J7" s="70"/>
+      <c r="K7" s="70"/>
+      <c r="L7" s="70"/>
+      <c r="M7" s="70"/>
+      <c r="N7" s="70"/>
+      <c r="O7" s="70"/>
+      <c r="P7" s="70"/>
+      <c r="Q7" s="70"/>
+      <c r="R7" s="70"/>
+      <c r="S7" s="70"/>
+      <c r="T7" s="71"/>
       <c r="U7" s="38"/>
       <c r="V7" s="38"/>
       <c r="W7" s="38"/>
@@ -15934,17 +15934,17 @@
       <c r="D9" s="46" t="s">
         <v>105</v>
       </c>
-      <c r="E9" s="72" t="s">
+      <c r="E9" s="73" t="s">
         <v>108</v>
       </c>
-      <c r="F9" s="72"/>
-      <c r="G9" s="72"/>
-      <c r="H9" s="72"/>
-      <c r="I9" s="72"/>
-      <c r="J9" s="72"/>
-      <c r="K9" s="72"/>
-      <c r="L9" s="72"/>
-      <c r="M9" s="72"/>
+      <c r="F9" s="73"/>
+      <c r="G9" s="73"/>
+      <c r="H9" s="73"/>
+      <c r="I9" s="73"/>
+      <c r="J9" s="73"/>
+      <c r="K9" s="73"/>
+      <c r="L9" s="73"/>
+      <c r="M9" s="73"/>
       <c r="N9" s="5" t="s">
         <v>2</v>
       </c>
@@ -15984,17 +15984,17 @@
       <c r="D10" s="44">
         <v>44683</v>
       </c>
-      <c r="E10" s="54" t="s">
+      <c r="E10" s="83" t="s">
         <v>43</v>
       </c>
-      <c r="F10" s="55"/>
-      <c r="G10" s="55"/>
-      <c r="H10" s="55"/>
-      <c r="I10" s="55"/>
-      <c r="J10" s="55"/>
-      <c r="K10" s="55"/>
-      <c r="L10" s="55"/>
-      <c r="M10" s="56"/>
+      <c r="F10" s="84"/>
+      <c r="G10" s="84"/>
+      <c r="H10" s="84"/>
+      <c r="I10" s="84"/>
+      <c r="J10" s="84"/>
+      <c r="K10" s="84"/>
+      <c r="L10" s="84"/>
+      <c r="M10" s="85"/>
       <c r="N10" s="6">
         <v>17</v>
       </c>
@@ -16022,17 +16022,17 @@
       <c r="D11" s="41">
         <v>44684</v>
       </c>
-      <c r="E11" s="57" t="s">
+      <c r="E11" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="F11" s="58"/>
-      <c r="G11" s="58"/>
-      <c r="H11" s="58"/>
-      <c r="I11" s="58"/>
-      <c r="J11" s="58"/>
-      <c r="K11" s="58"/>
-      <c r="L11" s="58"/>
-      <c r="M11" s="59"/>
+      <c r="F11" s="88"/>
+      <c r="G11" s="88"/>
+      <c r="H11" s="88"/>
+      <c r="I11" s="88"/>
+      <c r="J11" s="88"/>
+      <c r="K11" s="88"/>
+      <c r="L11" s="88"/>
+      <c r="M11" s="89"/>
       <c r="N11" s="6">
         <v>17</v>
       </c>
@@ -16060,17 +16060,17 @@
       <c r="D12" s="41">
         <v>44686</v>
       </c>
-      <c r="E12" s="54" t="s">
+      <c r="E12" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="F12" s="55"/>
-      <c r="G12" s="55"/>
-      <c r="H12" s="55"/>
-      <c r="I12" s="55"/>
-      <c r="J12" s="55"/>
-      <c r="K12" s="55"/>
-      <c r="L12" s="55"/>
-      <c r="M12" s="56"/>
+      <c r="F12" s="84"/>
+      <c r="G12" s="84"/>
+      <c r="H12" s="84"/>
+      <c r="I12" s="84"/>
+      <c r="J12" s="84"/>
+      <c r="K12" s="84"/>
+      <c r="L12" s="84"/>
+      <c r="M12" s="85"/>
       <c r="N12" s="6">
         <v>17</v>
       </c>
@@ -16098,17 +16098,17 @@
       <c r="D13" s="41">
         <v>44688</v>
       </c>
-      <c r="E13" s="54" t="s">
+      <c r="E13" s="83" t="s">
         <v>40</v>
       </c>
-      <c r="F13" s="55"/>
-      <c r="G13" s="55"/>
-      <c r="H13" s="55"/>
-      <c r="I13" s="55"/>
-      <c r="J13" s="55"/>
-      <c r="K13" s="55"/>
-      <c r="L13" s="55"/>
-      <c r="M13" s="56"/>
+      <c r="F13" s="84"/>
+      <c r="G13" s="84"/>
+      <c r="H13" s="84"/>
+      <c r="I13" s="84"/>
+      <c r="J13" s="84"/>
+      <c r="K13" s="84"/>
+      <c r="L13" s="84"/>
+      <c r="M13" s="85"/>
       <c r="N13" s="6">
         <v>17</v>
       </c>
@@ -16136,17 +16136,17 @@
       <c r="D14" s="41">
         <v>44696</v>
       </c>
-      <c r="E14" s="57" t="s">
+      <c r="E14" s="87" t="s">
         <v>5</v>
       </c>
-      <c r="F14" s="58"/>
-      <c r="G14" s="58"/>
-      <c r="H14" s="58"/>
-      <c r="I14" s="58"/>
-      <c r="J14" s="58"/>
-      <c r="K14" s="58"/>
-      <c r="L14" s="58"/>
-      <c r="M14" s="59"/>
+      <c r="F14" s="88"/>
+      <c r="G14" s="88"/>
+      <c r="H14" s="88"/>
+      <c r="I14" s="88"/>
+      <c r="J14" s="88"/>
+      <c r="K14" s="88"/>
+      <c r="L14" s="88"/>
+      <c r="M14" s="89"/>
       <c r="N14" s="6">
         <v>17</v>
       </c>
@@ -16174,17 +16174,17 @@
       <c r="D15" s="41">
         <v>44700</v>
       </c>
-      <c r="E15" s="54" t="s">
+      <c r="E15" s="83" t="s">
         <v>33</v>
       </c>
-      <c r="F15" s="55"/>
-      <c r="G15" s="55"/>
-      <c r="H15" s="55"/>
-      <c r="I15" s="55"/>
-      <c r="J15" s="55"/>
-      <c r="K15" s="55"/>
-      <c r="L15" s="55"/>
-      <c r="M15" s="56"/>
+      <c r="F15" s="84"/>
+      <c r="G15" s="84"/>
+      <c r="H15" s="84"/>
+      <c r="I15" s="84"/>
+      <c r="J15" s="84"/>
+      <c r="K15" s="84"/>
+      <c r="L15" s="84"/>
+      <c r="M15" s="85"/>
       <c r="N15" s="6">
         <v>17</v>
       </c>
@@ -16212,17 +16212,17 @@
       <c r="D16" s="41">
         <v>44703</v>
       </c>
-      <c r="E16" s="57" t="s">
+      <c r="E16" s="87" t="s">
         <v>9</v>
       </c>
-      <c r="F16" s="58"/>
-      <c r="G16" s="58"/>
-      <c r="H16" s="58"/>
-      <c r="I16" s="58"/>
-      <c r="J16" s="58"/>
-      <c r="K16" s="58"/>
-      <c r="L16" s="58"/>
-      <c r="M16" s="59"/>
+      <c r="F16" s="88"/>
+      <c r="G16" s="88"/>
+      <c r="H16" s="88"/>
+      <c r="I16" s="88"/>
+      <c r="J16" s="88"/>
+      <c r="K16" s="88"/>
+      <c r="L16" s="88"/>
+      <c r="M16" s="89"/>
       <c r="N16" s="6">
         <v>17</v>
       </c>
@@ -16250,17 +16250,17 @@
       <c r="D17" s="41">
         <v>44707</v>
       </c>
-      <c r="E17" s="57" t="s">
+      <c r="E17" s="87" t="s">
         <v>44</v>
       </c>
-      <c r="F17" s="58"/>
-      <c r="G17" s="58"/>
-      <c r="H17" s="58"/>
-      <c r="I17" s="58"/>
-      <c r="J17" s="58"/>
-      <c r="K17" s="58"/>
-      <c r="L17" s="58"/>
-      <c r="M17" s="59"/>
+      <c r="F17" s="88"/>
+      <c r="G17" s="88"/>
+      <c r="H17" s="88"/>
+      <c r="I17" s="88"/>
+      <c r="J17" s="88"/>
+      <c r="K17" s="88"/>
+      <c r="L17" s="88"/>
+      <c r="M17" s="89"/>
       <c r="N17" s="6">
         <v>17</v>
       </c>
@@ -16285,17 +16285,17 @@
       <c r="D18" s="41">
         <v>44712</v>
       </c>
-      <c r="E18" s="54" t="s">
+      <c r="E18" s="83" t="s">
         <v>34</v>
       </c>
-      <c r="F18" s="55"/>
-      <c r="G18" s="55"/>
-      <c r="H18" s="55"/>
-      <c r="I18" s="55"/>
-      <c r="J18" s="55"/>
-      <c r="K18" s="55"/>
-      <c r="L18" s="55"/>
-      <c r="M18" s="56"/>
+      <c r="F18" s="84"/>
+      <c r="G18" s="84"/>
+      <c r="H18" s="84"/>
+      <c r="I18" s="84"/>
+      <c r="J18" s="84"/>
+      <c r="K18" s="84"/>
+      <c r="L18" s="84"/>
+      <c r="M18" s="85"/>
       <c r="N18" s="6">
         <v>17</v>
       </c>
@@ -16320,17 +16320,17 @@
       <c r="D19" s="41">
         <v>44717</v>
       </c>
-      <c r="E19" s="57" t="s">
+      <c r="E19" s="87" t="s">
         <v>35</v>
       </c>
-      <c r="F19" s="58"/>
-      <c r="G19" s="58"/>
-      <c r="H19" s="58"/>
-      <c r="I19" s="58"/>
-      <c r="J19" s="58"/>
-      <c r="K19" s="58"/>
-      <c r="L19" s="58"/>
-      <c r="M19" s="59"/>
+      <c r="F19" s="88"/>
+      <c r="G19" s="88"/>
+      <c r="H19" s="88"/>
+      <c r="I19" s="88"/>
+      <c r="J19" s="88"/>
+      <c r="K19" s="88"/>
+      <c r="L19" s="88"/>
+      <c r="M19" s="89"/>
       <c r="N19" s="6">
         <v>17</v>
       </c>
@@ -16358,17 +16358,17 @@
       <c r="D20" s="41">
         <v>44722</v>
       </c>
-      <c r="E20" s="54" t="s">
+      <c r="E20" s="83" t="s">
         <v>36</v>
       </c>
-      <c r="F20" s="55"/>
-      <c r="G20" s="55"/>
-      <c r="H20" s="55"/>
-      <c r="I20" s="55"/>
-      <c r="J20" s="55"/>
-      <c r="K20" s="55"/>
-      <c r="L20" s="55"/>
-      <c r="M20" s="56"/>
+      <c r="F20" s="84"/>
+      <c r="G20" s="84"/>
+      <c r="H20" s="84"/>
+      <c r="I20" s="84"/>
+      <c r="J20" s="84"/>
+      <c r="K20" s="84"/>
+      <c r="L20" s="84"/>
+      <c r="M20" s="85"/>
       <c r="N20" s="6">
         <v>17</v>
       </c>
@@ -16393,17 +16393,17 @@
       <c r="D21" s="41">
         <v>44727</v>
       </c>
-      <c r="E21" s="54" t="s">
+      <c r="E21" s="83" t="s">
         <v>37</v>
       </c>
-      <c r="F21" s="55"/>
-      <c r="G21" s="55"/>
-      <c r="H21" s="55"/>
-      <c r="I21" s="55"/>
-      <c r="J21" s="55"/>
-      <c r="K21" s="55"/>
-      <c r="L21" s="55"/>
-      <c r="M21" s="56"/>
+      <c r="F21" s="84"/>
+      <c r="G21" s="84"/>
+      <c r="H21" s="84"/>
+      <c r="I21" s="84"/>
+      <c r="J21" s="84"/>
+      <c r="K21" s="84"/>
+      <c r="L21" s="84"/>
+      <c r="M21" s="85"/>
       <c r="N21" s="6">
         <v>17</v>
       </c>
@@ -16428,17 +16428,17 @@
       <c r="D22" s="41" t="s">
         <v>109</v>
       </c>
-      <c r="E22" s="54" t="s">
+      <c r="E22" s="83" t="s">
         <v>45</v>
       </c>
-      <c r="F22" s="55"/>
-      <c r="G22" s="55"/>
-      <c r="H22" s="55"/>
-      <c r="I22" s="55"/>
-      <c r="J22" s="55"/>
-      <c r="K22" s="55"/>
-      <c r="L22" s="55"/>
-      <c r="M22" s="56"/>
+      <c r="F22" s="84"/>
+      <c r="G22" s="84"/>
+      <c r="H22" s="84"/>
+      <c r="I22" s="84"/>
+      <c r="J22" s="84"/>
+      <c r="K22" s="84"/>
+      <c r="L22" s="84"/>
+      <c r="M22" s="85"/>
       <c r="N22" s="6">
         <v>17</v>
       </c>
@@ -16466,17 +16466,17 @@
       <c r="D23" s="41" t="s">
         <v>110</v>
       </c>
-      <c r="E23" s="54" t="s">
+      <c r="E23" s="83" t="s">
         <v>46</v>
       </c>
-      <c r="F23" s="55"/>
-      <c r="G23" s="55"/>
-      <c r="H23" s="55"/>
-      <c r="I23" s="55"/>
-      <c r="J23" s="55"/>
-      <c r="K23" s="55"/>
-      <c r="L23" s="55"/>
-      <c r="M23" s="56"/>
+      <c r="F23" s="84"/>
+      <c r="G23" s="84"/>
+      <c r="H23" s="84"/>
+      <c r="I23" s="84"/>
+      <c r="J23" s="84"/>
+      <c r="K23" s="84"/>
+      <c r="L23" s="84"/>
+      <c r="M23" s="85"/>
       <c r="N23" s="6">
         <v>17</v>
       </c>
@@ -16504,17 +16504,17 @@
       <c r="D24" s="41">
         <v>44736</v>
       </c>
-      <c r="E24" s="57" t="s">
+      <c r="E24" s="87" t="s">
         <v>7</v>
       </c>
-      <c r="F24" s="58"/>
-      <c r="G24" s="58"/>
-      <c r="H24" s="58"/>
-      <c r="I24" s="58"/>
-      <c r="J24" s="58"/>
-      <c r="K24" s="58"/>
-      <c r="L24" s="58"/>
-      <c r="M24" s="59"/>
+      <c r="F24" s="88"/>
+      <c r="G24" s="88"/>
+      <c r="H24" s="88"/>
+      <c r="I24" s="88"/>
+      <c r="J24" s="88"/>
+      <c r="K24" s="88"/>
+      <c r="L24" s="88"/>
+      <c r="M24" s="89"/>
       <c r="N24" s="6">
         <v>17</v>
       </c>
@@ -16542,17 +16542,17 @@
       <c r="D25" s="41">
         <v>44740</v>
       </c>
-      <c r="E25" s="54" t="s">
+      <c r="E25" s="83" t="s">
         <v>38</v>
       </c>
-      <c r="F25" s="55"/>
-      <c r="G25" s="55"/>
-      <c r="H25" s="55"/>
-      <c r="I25" s="55"/>
-      <c r="J25" s="55"/>
-      <c r="K25" s="55"/>
-      <c r="L25" s="55"/>
-      <c r="M25" s="56"/>
+      <c r="F25" s="84"/>
+      <c r="G25" s="84"/>
+      <c r="H25" s="84"/>
+      <c r="I25" s="84"/>
+      <c r="J25" s="84"/>
+      <c r="K25" s="84"/>
+      <c r="L25" s="84"/>
+      <c r="M25" s="85"/>
       <c r="N25" s="6">
         <v>17</v>
       </c>
@@ -16580,17 +16580,17 @@
       <c r="D26" s="41">
         <v>44745</v>
       </c>
-      <c r="E26" s="57" t="s">
+      <c r="E26" s="87" t="s">
         <v>11</v>
       </c>
-      <c r="F26" s="58"/>
-      <c r="G26" s="58"/>
-      <c r="H26" s="58"/>
-      <c r="I26" s="58"/>
-      <c r="J26" s="58"/>
-      <c r="K26" s="58"/>
-      <c r="L26" s="58"/>
-      <c r="M26" s="59"/>
+      <c r="F26" s="88"/>
+      <c r="G26" s="88"/>
+      <c r="H26" s="88"/>
+      <c r="I26" s="88"/>
+      <c r="J26" s="88"/>
+      <c r="K26" s="88"/>
+      <c r="L26" s="88"/>
+      <c r="M26" s="89"/>
       <c r="N26" s="6">
         <v>17</v>
       </c>
@@ -16618,17 +16618,17 @@
       <c r="D27" s="41">
         <v>44750</v>
       </c>
-      <c r="E27" s="54" t="s">
+      <c r="E27" s="83" t="s">
         <v>48</v>
       </c>
-      <c r="F27" s="55"/>
-      <c r="G27" s="55"/>
-      <c r="H27" s="55"/>
-      <c r="I27" s="55"/>
-      <c r="J27" s="55"/>
-      <c r="K27" s="55"/>
-      <c r="L27" s="55"/>
-      <c r="M27" s="56"/>
+      <c r="F27" s="84"/>
+      <c r="G27" s="84"/>
+      <c r="H27" s="84"/>
+      <c r="I27" s="84"/>
+      <c r="J27" s="84"/>
+      <c r="K27" s="84"/>
+      <c r="L27" s="84"/>
+      <c r="M27" s="85"/>
       <c r="N27" s="6">
         <v>17</v>
       </c>
@@ -16653,17 +16653,17 @@
       <c r="D28" s="41">
         <v>44752</v>
       </c>
-      <c r="E28" s="58" t="s">
+      <c r="E28" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="F28" s="58"/>
-      <c r="G28" s="58"/>
-      <c r="H28" s="58"/>
-      <c r="I28" s="58"/>
-      <c r="J28" s="58"/>
-      <c r="K28" s="58"/>
-      <c r="L28" s="58"/>
-      <c r="M28" s="59"/>
+      <c r="F28" s="88"/>
+      <c r="G28" s="88"/>
+      <c r="H28" s="88"/>
+      <c r="I28" s="88"/>
+      <c r="J28" s="88"/>
+      <c r="K28" s="88"/>
+      <c r="L28" s="88"/>
+      <c r="M28" s="89"/>
       <c r="N28" s="6">
         <v>17</v>
       </c>
@@ -16691,17 +16691,17 @@
       <c r="D29" s="41">
         <v>44754</v>
       </c>
-      <c r="E29" s="55" t="s">
+      <c r="E29" s="84" t="s">
         <v>49</v>
       </c>
-      <c r="F29" s="55"/>
-      <c r="G29" s="55"/>
-      <c r="H29" s="55"/>
-      <c r="I29" s="55"/>
-      <c r="J29" s="55"/>
-      <c r="K29" s="55"/>
-      <c r="L29" s="55"/>
-      <c r="M29" s="56"/>
+      <c r="F29" s="84"/>
+      <c r="G29" s="84"/>
+      <c r="H29" s="84"/>
+      <c r="I29" s="84"/>
+      <c r="J29" s="84"/>
+      <c r="K29" s="84"/>
+      <c r="L29" s="84"/>
+      <c r="M29" s="85"/>
       <c r="N29" s="6">
         <v>17</v>
       </c>
@@ -16726,17 +16726,17 @@
       <c r="D30" s="41">
         <v>44757</v>
       </c>
-      <c r="E30" s="57" t="s">
+      <c r="E30" s="87" t="s">
         <v>10</v>
       </c>
-      <c r="F30" s="58"/>
-      <c r="G30" s="58"/>
-      <c r="H30" s="58"/>
-      <c r="I30" s="58"/>
-      <c r="J30" s="58"/>
-      <c r="K30" s="58"/>
-      <c r="L30" s="58"/>
-      <c r="M30" s="59"/>
+      <c r="F30" s="88"/>
+      <c r="G30" s="88"/>
+      <c r="H30" s="88"/>
+      <c r="I30" s="88"/>
+      <c r="J30" s="88"/>
+      <c r="K30" s="88"/>
+      <c r="L30" s="88"/>
+      <c r="M30" s="89"/>
       <c r="N30" s="6">
         <v>17</v>
       </c>
@@ -16764,17 +16764,17 @@
       <c r="D31" s="41">
         <v>44760</v>
       </c>
-      <c r="E31" s="57" t="s">
+      <c r="E31" s="87" t="s">
         <v>47</v>
       </c>
-      <c r="F31" s="58"/>
-      <c r="G31" s="58"/>
-      <c r="H31" s="58"/>
-      <c r="I31" s="58"/>
-      <c r="J31" s="58"/>
-      <c r="K31" s="58"/>
-      <c r="L31" s="58"/>
-      <c r="M31" s="59"/>
+      <c r="F31" s="88"/>
+      <c r="G31" s="88"/>
+      <c r="H31" s="88"/>
+      <c r="I31" s="88"/>
+      <c r="J31" s="88"/>
+      <c r="K31" s="88"/>
+      <c r="L31" s="88"/>
+      <c r="M31" s="89"/>
       <c r="N31" s="6">
         <v>17</v>
       </c>
@@ -16799,17 +16799,17 @@
       <c r="C32" s="1">
         <v>23</v>
       </c>
-      <c r="E32" s="54" t="s">
+      <c r="E32" s="83" t="s">
         <v>41</v>
       </c>
-      <c r="F32" s="55"/>
-      <c r="G32" s="55"/>
-      <c r="H32" s="55"/>
-      <c r="I32" s="55"/>
-      <c r="J32" s="55"/>
-      <c r="K32" s="55"/>
-      <c r="L32" s="55"/>
-      <c r="M32" s="56"/>
+      <c r="F32" s="84"/>
+      <c r="G32" s="84"/>
+      <c r="H32" s="84"/>
+      <c r="I32" s="84"/>
+      <c r="J32" s="84"/>
+      <c r="K32" s="84"/>
+      <c r="L32" s="84"/>
+      <c r="M32" s="85"/>
       <c r="N32" s="6">
         <v>17</v>
       </c>
@@ -16831,17 +16831,17 @@
       <c r="C33" s="1">
         <v>24</v>
       </c>
-      <c r="E33" s="54" t="s">
+      <c r="E33" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="F33" s="55"/>
-      <c r="G33" s="55"/>
-      <c r="H33" s="55"/>
-      <c r="I33" s="55"/>
-      <c r="J33" s="55"/>
-      <c r="K33" s="55"/>
-      <c r="L33" s="55"/>
-      <c r="M33" s="56"/>
+      <c r="F33" s="84"/>
+      <c r="G33" s="84"/>
+      <c r="H33" s="84"/>
+      <c r="I33" s="84"/>
+      <c r="J33" s="84"/>
+      <c r="K33" s="84"/>
+      <c r="L33" s="84"/>
+      <c r="M33" s="85"/>
       <c r="N33" s="6">
         <v>17</v>
       </c>
@@ -16864,20 +16864,20 @@
         <v>25</v>
       </c>
       <c r="D34" s="47"/>
-      <c r="E34" s="66" t="s">
+      <c r="E34" s="60" t="s">
         <v>58</v>
       </c>
-      <c r="F34" s="67"/>
-      <c r="G34" s="67"/>
-      <c r="H34" s="67"/>
-      <c r="I34" s="67"/>
-      <c r="J34" s="67"/>
-      <c r="K34" s="67"/>
-      <c r="L34" s="67"/>
-      <c r="M34" s="67"/>
-      <c r="N34" s="67"/>
-      <c r="O34" s="67"/>
-      <c r="P34" s="68"/>
+      <c r="F34" s="61"/>
+      <c r="G34" s="61"/>
+      <c r="H34" s="61"/>
+      <c r="I34" s="61"/>
+      <c r="J34" s="61"/>
+      <c r="K34" s="61"/>
+      <c r="L34" s="61"/>
+      <c r="M34" s="61"/>
+      <c r="N34" s="61"/>
+      <c r="O34" s="61"/>
+      <c r="P34" s="62"/>
       <c r="Q34" s="11"/>
       <c r="R34" s="12" t="e">
         <f>AVERAGE(R10:R33)</f>
@@ -16904,6 +16904,22 @@
     <sortCondition ref="D10:D33"/>
   </sortState>
   <mergeCells count="28">
+    <mergeCell ref="E26:M26"/>
+    <mergeCell ref="E32:M32"/>
+    <mergeCell ref="E33:M33"/>
+    <mergeCell ref="E34:P34"/>
+    <mergeCell ref="E27:M27"/>
+    <mergeCell ref="E28:M28"/>
+    <mergeCell ref="E29:M29"/>
+    <mergeCell ref="E30:M30"/>
+    <mergeCell ref="E31:M31"/>
+    <mergeCell ref="E19:M19"/>
+    <mergeCell ref="E20:M20"/>
+    <mergeCell ref="E21:M21"/>
+    <mergeCell ref="E24:M24"/>
+    <mergeCell ref="E25:M25"/>
+    <mergeCell ref="E22:M22"/>
+    <mergeCell ref="E23:M23"/>
     <mergeCell ref="E18:M18"/>
     <mergeCell ref="C4:Y6"/>
     <mergeCell ref="C7:T7"/>
@@ -16916,22 +16932,6 @@
     <mergeCell ref="E15:M15"/>
     <mergeCell ref="E16:M16"/>
     <mergeCell ref="E17:M17"/>
-    <mergeCell ref="E19:M19"/>
-    <mergeCell ref="E20:M20"/>
-    <mergeCell ref="E21:M21"/>
-    <mergeCell ref="E24:M24"/>
-    <mergeCell ref="E25:M25"/>
-    <mergeCell ref="E22:M22"/>
-    <mergeCell ref="E23:M23"/>
-    <mergeCell ref="E26:M26"/>
-    <mergeCell ref="E32:M32"/>
-    <mergeCell ref="E33:M33"/>
-    <mergeCell ref="E34:P34"/>
-    <mergeCell ref="E27:M27"/>
-    <mergeCell ref="E28:M28"/>
-    <mergeCell ref="E29:M29"/>
-    <mergeCell ref="E30:M30"/>
-    <mergeCell ref="E31:M31"/>
   </mergeCells>
   <conditionalFormatting sqref="V10:V33">
     <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">

--- a/My Test Tracker Original GATE 2023.xlsx
+++ b/My Test Tracker Original GATE 2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GATE 2022 &amp; 2023\My Progress trackers &amp; Journey - In Git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6029579-79D4-4F3E-BB12-EB39892F676B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2622F70F-7DA7-469A-B48A-95C8EEF4ED1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{158952DD-A7DC-477E-91D8-188954568D39}"/>
   </bookViews>
@@ -908,20 +908,40 @@
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -942,13 +962,14 @@
     <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -960,16 +981,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -981,7 +999,9 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -991,34 +1011,14 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2050,8 +2050,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E053581-A6B0-45B0-A9DB-B07F5A1622B0}">
   <dimension ref="A1:W336"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D203" workbookViewId="0">
-      <selection activeCell="S216" sqref="S216"/>
+    <sheetView tabSelected="1" topLeftCell="A176" workbookViewId="0">
+      <selection activeCell="C185" sqref="C185:K185"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2077,52 +2077,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="34.200000000000003" thickBot="1" x14ac:dyDescent="0.7">
-      <c r="A1" s="56">
+      <c r="A1" s="92">
         <v>2021</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="56"/>
-      <c r="J1" s="56"/>
-      <c r="K1" s="56"/>
-      <c r="L1" s="56"/>
-      <c r="M1" s="56"/>
-      <c r="N1" s="56"/>
-      <c r="O1" s="56"/>
-      <c r="P1" s="56"/>
-      <c r="Q1" s="56"/>
-      <c r="R1" s="56"/>
-      <c r="S1" s="56"/>
-      <c r="T1" s="56"/>
-      <c r="U1" s="56"/>
-      <c r="V1" s="56"/>
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="92"/>
+      <c r="I1" s="92"/>
+      <c r="J1" s="92"/>
+      <c r="K1" s="92"/>
+      <c r="L1" s="92"/>
+      <c r="M1" s="92"/>
+      <c r="N1" s="92"/>
+      <c r="O1" s="92"/>
+      <c r="P1" s="92"/>
+      <c r="Q1" s="92"/>
+      <c r="R1" s="92"/>
+      <c r="S1" s="92"/>
+      <c r="T1" s="92"/>
+      <c r="U1" s="92"/>
+      <c r="V1" s="92"/>
     </row>
     <row r="2" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="86" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="81"/>
-      <c r="F2" s="81"/>
-      <c r="G2" s="81"/>
-      <c r="H2" s="81"/>
-      <c r="I2" s="81"/>
-      <c r="J2" s="81"/>
-      <c r="K2" s="81"/>
-      <c r="L2" s="81"/>
-      <c r="M2" s="81"/>
-      <c r="N2" s="81"/>
-      <c r="O2" s="81"/>
-      <c r="P2" s="81"/>
-      <c r="Q2" s="81"/>
-      <c r="R2" s="82"/>
+      <c r="B2" s="87"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="87"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="87"/>
+      <c r="J2" s="87"/>
+      <c r="K2" s="87"/>
+      <c r="L2" s="87"/>
+      <c r="M2" s="87"/>
+      <c r="N2" s="87"/>
+      <c r="O2" s="87"/>
+      <c r="P2" s="87"/>
+      <c r="Q2" s="87"/>
+      <c r="R2" s="88"/>
       <c r="S2" s="3"/>
       <c r="T2" s="3"/>
       <c r="U2" s="3"/>
@@ -2133,17 +2133,17 @@
         <v>1</v>
       </c>
       <c r="B4" s="5"/>
-      <c r="C4" s="86" t="s">
+      <c r="C4" s="85" t="s">
         <v>100</v>
       </c>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86"/>
-      <c r="K4" s="86"/>
+      <c r="D4" s="85"/>
+      <c r="E4" s="85"/>
+      <c r="F4" s="85"/>
+      <c r="G4" s="85"/>
+      <c r="H4" s="85"/>
+      <c r="I4" s="85"/>
+      <c r="J4" s="85"/>
+      <c r="K4" s="85"/>
       <c r="L4" s="5" t="s">
         <v>2</v>
       </c>
@@ -2183,17 +2183,17 @@
       <c r="B5" s="41">
         <v>44613</v>
       </c>
-      <c r="C5" s="74" t="s">
+      <c r="C5" s="73" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="74"/>
-      <c r="E5" s="74"/>
-      <c r="F5" s="74"/>
-      <c r="G5" s="74"/>
-      <c r="H5" s="74"/>
-      <c r="I5" s="74"/>
-      <c r="J5" s="74"/>
-      <c r="K5" s="74"/>
+      <c r="D5" s="73"/>
+      <c r="E5" s="73"/>
+      <c r="F5" s="73"/>
+      <c r="G5" s="73"/>
+      <c r="H5" s="73"/>
+      <c r="I5" s="73"/>
+      <c r="J5" s="73"/>
+      <c r="K5" s="73"/>
       <c r="L5" s="6">
         <v>17</v>
       </c>
@@ -2221,17 +2221,17 @@
       <c r="B6" s="41">
         <v>44617</v>
       </c>
-      <c r="C6" s="66" t="s">
+      <c r="C6" s="64" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="67"/>
-      <c r="E6" s="67"/>
-      <c r="F6" s="67"/>
-      <c r="G6" s="67"/>
-      <c r="H6" s="67"/>
-      <c r="I6" s="67"/>
-      <c r="J6" s="67"/>
-      <c r="K6" s="67"/>
+      <c r="D6" s="65"/>
+      <c r="E6" s="65"/>
+      <c r="F6" s="65"/>
+      <c r="G6" s="65"/>
+      <c r="H6" s="65"/>
+      <c r="I6" s="65"/>
+      <c r="J6" s="65"/>
+      <c r="K6" s="65"/>
       <c r="L6" s="6">
         <v>17</v>
       </c>
@@ -2259,17 +2259,17 @@
       <c r="B7" s="41">
         <v>44621</v>
       </c>
-      <c r="C7" s="66" t="s">
+      <c r="C7" s="64" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="67"/>
-      <c r="E7" s="67"/>
-      <c r="F7" s="67"/>
-      <c r="G7" s="67"/>
-      <c r="H7" s="67"/>
-      <c r="I7" s="67"/>
-      <c r="J7" s="67"/>
-      <c r="K7" s="67"/>
+      <c r="D7" s="65"/>
+      <c r="E7" s="65"/>
+      <c r="F7" s="65"/>
+      <c r="G7" s="65"/>
+      <c r="H7" s="65"/>
+      <c r="I7" s="65"/>
+      <c r="J7" s="65"/>
+      <c r="K7" s="65"/>
       <c r="L7" s="6">
         <v>17</v>
       </c>
@@ -2297,17 +2297,17 @@
       <c r="B8" s="41">
         <v>44625</v>
       </c>
-      <c r="C8" s="67" t="s">
+      <c r="C8" s="65" t="s">
         <v>35</v>
       </c>
-      <c r="D8" s="67"/>
-      <c r="E8" s="67"/>
-      <c r="F8" s="67"/>
-      <c r="G8" s="67"/>
-      <c r="H8" s="67"/>
-      <c r="I8" s="67"/>
-      <c r="J8" s="67"/>
-      <c r="K8" s="67"/>
+      <c r="D8" s="65"/>
+      <c r="E8" s="65"/>
+      <c r="F8" s="65"/>
+      <c r="G8" s="65"/>
+      <c r="H8" s="65"/>
+      <c r="I8" s="65"/>
+      <c r="J8" s="65"/>
+      <c r="K8" s="65"/>
       <c r="L8" s="6">
         <v>17</v>
       </c>
@@ -2335,17 +2335,17 @@
       <c r="B9" s="41">
         <v>44629</v>
       </c>
-      <c r="C9" s="66" t="s">
+      <c r="C9" s="64" t="s">
         <v>36</v>
       </c>
-      <c r="D9" s="67"/>
-      <c r="E9" s="67"/>
-      <c r="F9" s="67"/>
-      <c r="G9" s="67"/>
-      <c r="H9" s="67"/>
-      <c r="I9" s="67"/>
-      <c r="J9" s="67"/>
-      <c r="K9" s="67"/>
+      <c r="D9" s="65"/>
+      <c r="E9" s="65"/>
+      <c r="F9" s="65"/>
+      <c r="G9" s="65"/>
+      <c r="H9" s="65"/>
+      <c r="I9" s="65"/>
+      <c r="J9" s="65"/>
+      <c r="K9" s="65"/>
       <c r="L9" s="6">
         <v>17</v>
       </c>
@@ -2373,17 +2373,17 @@
       <c r="B10" s="41">
         <v>44633</v>
       </c>
-      <c r="C10" s="66" t="s">
+      <c r="C10" s="64" t="s">
         <v>37</v>
       </c>
-      <c r="D10" s="67"/>
-      <c r="E10" s="67"/>
-      <c r="F10" s="67"/>
-      <c r="G10" s="67"/>
-      <c r="H10" s="67"/>
-      <c r="I10" s="67"/>
-      <c r="J10" s="67"/>
-      <c r="K10" s="67"/>
+      <c r="D10" s="65"/>
+      <c r="E10" s="65"/>
+      <c r="F10" s="65"/>
+      <c r="G10" s="65"/>
+      <c r="H10" s="65"/>
+      <c r="I10" s="65"/>
+      <c r="J10" s="65"/>
+      <c r="K10" s="65"/>
       <c r="L10" s="6">
         <v>17</v>
       </c>
@@ -2411,17 +2411,17 @@
       <c r="B11" s="41">
         <v>44637</v>
       </c>
-      <c r="C11" s="67" t="s">
+      <c r="C11" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="67"/>
-      <c r="E11" s="67"/>
-      <c r="F11" s="67"/>
-      <c r="G11" s="67"/>
-      <c r="H11" s="67"/>
-      <c r="I11" s="67"/>
-      <c r="J11" s="67"/>
-      <c r="K11" s="67"/>
+      <c r="D11" s="65"/>
+      <c r="E11" s="65"/>
+      <c r="F11" s="65"/>
+      <c r="G11" s="65"/>
+      <c r="H11" s="65"/>
+      <c r="I11" s="65"/>
+      <c r="J11" s="65"/>
+      <c r="K11" s="65"/>
       <c r="L11" s="6">
         <v>17</v>
       </c>
@@ -2449,17 +2449,17 @@
       <c r="B12" s="41">
         <v>44641</v>
       </c>
-      <c r="C12" s="66" t="s">
+      <c r="C12" s="64" t="s">
         <v>38</v>
       </c>
-      <c r="D12" s="67"/>
-      <c r="E12" s="67"/>
-      <c r="F12" s="67"/>
-      <c r="G12" s="67"/>
-      <c r="H12" s="67"/>
-      <c r="I12" s="67"/>
-      <c r="J12" s="67"/>
-      <c r="K12" s="67"/>
+      <c r="D12" s="65"/>
+      <c r="E12" s="65"/>
+      <c r="F12" s="65"/>
+      <c r="G12" s="65"/>
+      <c r="H12" s="65"/>
+      <c r="I12" s="65"/>
+      <c r="J12" s="65"/>
+      <c r="K12" s="65"/>
       <c r="L12" s="6">
         <v>17</v>
       </c>
@@ -2485,17 +2485,17 @@
         <v>9</v>
       </c>
       <c r="B13" s="1"/>
-      <c r="C13" s="66" t="s">
+      <c r="C13" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="D13" s="67"/>
-      <c r="E13" s="67"/>
-      <c r="F13" s="67"/>
-      <c r="G13" s="67"/>
-      <c r="H13" s="67"/>
-      <c r="I13" s="67"/>
-      <c r="J13" s="67"/>
-      <c r="K13" s="67"/>
+      <c r="D13" s="65"/>
+      <c r="E13" s="65"/>
+      <c r="F13" s="65"/>
+      <c r="G13" s="65"/>
+      <c r="H13" s="65"/>
+      <c r="I13" s="65"/>
+      <c r="J13" s="65"/>
+      <c r="K13" s="65"/>
       <c r="L13" s="6">
         <v>17</v>
       </c>
@@ -2521,17 +2521,17 @@
         <v>10</v>
       </c>
       <c r="B14" s="1"/>
-      <c r="C14" s="66" t="s">
+      <c r="C14" s="64" t="s">
         <v>40</v>
       </c>
-      <c r="D14" s="67"/>
-      <c r="E14" s="67"/>
-      <c r="F14" s="67"/>
-      <c r="G14" s="67"/>
-      <c r="H14" s="67"/>
-      <c r="I14" s="67"/>
-      <c r="J14" s="67"/>
-      <c r="K14" s="67"/>
+      <c r="D14" s="65"/>
+      <c r="E14" s="65"/>
+      <c r="F14" s="65"/>
+      <c r="G14" s="65"/>
+      <c r="H14" s="65"/>
+      <c r="I14" s="65"/>
+      <c r="J14" s="65"/>
+      <c r="K14" s="65"/>
       <c r="L14" s="6">
         <v>17</v>
       </c>
@@ -2557,17 +2557,17 @@
         <v>11</v>
       </c>
       <c r="B15" s="1"/>
-      <c r="C15" s="66" t="s">
+      <c r="C15" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="D15" s="67"/>
-      <c r="E15" s="67"/>
-      <c r="F15" s="67"/>
-      <c r="G15" s="67"/>
-      <c r="H15" s="67"/>
-      <c r="I15" s="67"/>
-      <c r="J15" s="67"/>
-      <c r="K15" s="67"/>
+      <c r="D15" s="65"/>
+      <c r="E15" s="65"/>
+      <c r="F15" s="65"/>
+      <c r="G15" s="65"/>
+      <c r="H15" s="65"/>
+      <c r="I15" s="65"/>
+      <c r="J15" s="65"/>
+      <c r="K15" s="65"/>
       <c r="L15" s="6">
         <v>17</v>
       </c>
@@ -2593,17 +2593,17 @@
         <v>12</v>
       </c>
       <c r="B16" s="1"/>
-      <c r="C16" s="66" t="s">
+      <c r="C16" s="64" t="s">
         <v>42</v>
       </c>
-      <c r="D16" s="67"/>
-      <c r="E16" s="67"/>
-      <c r="F16" s="67"/>
-      <c r="G16" s="67"/>
-      <c r="H16" s="67"/>
-      <c r="I16" s="67"/>
-      <c r="J16" s="67"/>
-      <c r="K16" s="67"/>
+      <c r="D16" s="65"/>
+      <c r="E16" s="65"/>
+      <c r="F16" s="65"/>
+      <c r="G16" 